--- a/QD_data.xlsx
+++ b/QD_data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.05], [6936, 2, 4, 1.57], [305, 2, 4, 0.53], [8672, 2, 5, 0.58], [615, 2, 4, 0.71], [1504, 2, 6, 0.37], [2775, 2, 5, 0.2], [145, 2, 5, 0.4], [2776, 2, 5, 0.8], [8853, 2, 4, 1.54], [2327, 2, 4, 0.63], [12721, 2, 5, 0.73], [130, 1, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.56], [2328, 2, 4, 0.78], [11681, 2, 5, 0.94], [11737, 2, 4, 0.53], [616, 2, 4, 1.09], [5491, 2, 4, 0.56], [141, 2, 4, 0.79], [362, 2, 5, 0.2], [144, 2, 4, 0.44], [2497, 2, 5, 0.45], [205, 2, 4, 0.46], [8650, 2, 4, 0.39], [5493, 2, 4, 0.2], [417, 2, 5, 0.57], [8676, 2, 4, 0.47], [8673, 2, 4, 0.24], [3670, 2, 4, 1.02], [2774, 2, 5, 0.33], [8648, 2, 4, 1.91], [589, 2, 5, 0.2], [3, 2, 5, 0.53], [206, 2, 4, 0.2], [6097, 80, 4, 1.14], [2423, 29, 4, 1.16], [22247, 2, 4, 1.01], [11836, 2, 4, 0.49], [6497, 1, 4, 0.5], [8674, 2, 5, 0.49], [624, 2, 4, 1.26], [2055, 3, 4, 1.18], [12343, 1, 4, 0.87], [2423, 80, 4, 1.1], [523, 2, 4, 0.68], [12344, 1, 4, 0.87], [593, 2, 5, 0.45], [6097, 29, 4, 1.14], [6098, 80, 5, 0.58], [12720, 2, 4, 0.82], [12345, 1, 4, 0.87], [11739, 2, 4, 0.53], [8915, 2, 4, 0.41], [75, 2, 4, 1.17], [88, 10, 8, 0.95], [326, 2, 4, 1.54], [6494, 1, 4, 0.46], [60, 3, 6, 0.19], [13260, 29, 4, 0.36], [142, 2, 4, 0.79], [3429, 15, 4, 0.46], [1492, 1, 4, 0.62], [411, 2, 4, 0.44], [21712, 3, 13, 0.67], [412, 1, 4, 1.0], [1050, 2, 4, 0.38], [2422, 80, 4, 1.31], [10149, 3, 13, 1.12], [2422, 29, 5, 1.19], [6098, 29, 4, 1.08], [378, 2, 4, 1.16], [12346, 1, 4, 0.87], [7704, 2, 4, 1.15], [151, 1, 4, 0.57], [11738, 2, 4, 0.53], [22316, 3, 4, 0.46], [1243, 2, 4, 0.72], [229, 1, 4, 2.0], [1049, 2, 4, 0.38], [13264, 29, 4, 0.51], [20252, 2, 4, 0.58], [345, 3, 4, 1.26], [13258, 29, 4, 0.67], [1490, 1, 4, 0.47], [964, 15, 4, 0.36], [12269, 2, 4, 0.51], [2438, 1, 4, 1.05], [2821, 3, 10, 0.23], [5208, 3, 5, 0.74], [10407, 10, 6, 1.18], [2331, 1, 4, 0.55], [1163, 3, 5, 0.58], [416, 1, 4, 1.66], [201, 3, 4, 1.26], [307, 2, 4, 1.04], [186, 3, 7, 0.5], [7004, 1, 4, 0.56], [149, 2, 4, 0.37], [418, 2, 4, 0.54], [957, 2, 4, 0.57], [13259, 29, 4, 1.13], [1309, 1, 4, 0.44], [7705, 2, 4, 1.15], [12229, 2, 4, 0.52], [7706, 2, 4, 1.15], [10406, 10, 7, 1.21], [11687, 2, 4, 0.56], [410, 1, 4, 0.71], [7036, 1, 4, 0.43], [3478, 2, 4, 0.57], [20255, 2, 4, 0.4], [9784, 1, 4, 0.91], [21713, 3, 7, 0.46], [8938, 2, 4, 0.57], [10408, 10, 6, 1.04], [5490, 2, 4, 0.49], [12870, 1, 4, 2.33], [11402, 1, 4, 0.46], [10410, 10, 6, 1.18], [19687, 1, 4, 1.21], [2438, 2, 5, 1.38], [11490, 1, 4, 0.43], [107, 7, 5, 1.24], [2703, 3, 4, 2.13], [11161, 1, 5, 1.8], [956, 2, 4, 0.53], [1886, 2, 4, 0.35], [21781, 2, 4, 0.47], [11690, 2, 4, 0.36], [10411, 10, 6, 1.12], [2778, 2, 104, 2.81], [6935, 2, 187, 6.0], [6936, 2, 141, 5.81], [305, 2, 74, 3.08], [8672, 2, 144, 3.33], [615, 2, 54, 3.4], [1504, 2, 102, 2.95], [2775, 2, 78, 3.13], [145, 2, 76, 2.84], [2776, 2, 78, 4.5], [8853, 2, 141, 5.13], [2327, 2, 76, 3.26], [12721, 2, 284, 3.49], [130, 1, 30, 2.98], [143, 2, 75, 3.04], [146, 2, 76, 3.13], [2328, 2, 76, 3.53], [11681, 2, 138, 5.48], [11737, 2, 56, 3.11], [616, 2, 107, 3.95], [5491, 2, 108, 2.82], [141, 2, 155, 4.16], [362, 2, 72, 2.96], [144, 2, 76, 2.91], [2497, 2, 102, 3.25], [205, 2, 109, 2.64], [8650, 2, 114, 4.44], [5493, 2, 55, 2.97], [417, 2, 78, 3.15], [8676, 2, 144, 2.97], [8673, 2, 144, 5.05], [3670, 2, 235, 5.79], [2774, 2, 102, 6.0], [8648, 2, 225, 5.29], [589, 2, 77, 2.91], [3, 2, 61, 3.09], [206, 2, 42, 2.64], [6097, 80, 35, 5.49], [2423, 29, 37, 4.81], [22247, 2, 144, 3.05], [11836, 2, 269, 2.69], [6497, 1, 32, 2.94], [8674, 2, 144, 3.57], [624, 2, 107, 4.11], [2055, 3, 158, 4.31], [12343, 1, 610, 4.37], [2423, 80, 185, 4.75], [523, 2, 155, 3.04], [12344, 1, 610, 3.38], [593, 2, 115, 2.86], [6097, 29, 18, 5.49], [6098, 80, 38, 3.97], [12720, 2, 284, 3.48], [12345, 1, 610, 4.37], [11739, 2, 56, 3.11], [8915, 2, 129, 2.36], [75, 2, 144, 3.94], [88, 10, 561, 4.69], [326, 2, 30, 3.9], [6494, 1, 52, 2.64], [60, 3, 405, 4.08], [13260, 29, 36, 2.76], [142, 2, 155, 4.16], [3429, 15, 53, 2.63], [1492, 1, 37, 2.92], [411, 2, 109, 2.6], [21712, 3, 2180, 2.89]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.51], [2328, 2, 4, 0.28], [8650, 2, 5, 0.39], [362, 2, 4, 0.2], [5491, 2, 4, 0.6], [5493, 2, 4, 0.2], [130, 1, 5, 0.48], [589, 2, 4, 0.52], [2327, 2, 4, 0.2], [326, 2, 4, 0.97], [11685, 2, 4, 1.41], [8672, 2, 5, 0.58], [417, 2, 4, 0.56], [6935, 2, 8, 1.3], [205, 2, 4, 0.37], [11681, 2, 5, 1.41], [206, 2, 4, 0.2], [8648, 2, 4, 1.7], [6936, 2, 5, 1.32], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 0.55], [12721, 2, 5, 0.97], [11838, 2, 4, 0.2], [2049, 3, 9, 0.47], [1446, 2, 4, 0.78], [523, 2, 4, 0.56], [615, 2, 4, 1.55], [8676, 2, 4, 0.49], [11737, 2, 4, 1.04], [305, 2, 5, 0.53], [616, 2, 4, 1.29], [413, 1, 5, 0.51], [412, 1, 4, 1.0], [411, 2, 4, 0.46], [11739, 2, 4, 1.04], [10574, 3, 5, 1.26], [11835, 2, 4, 0.55], [145, 2, 5, 0.4], [21793, 1, 4, 1.38], [2775, 2, 4, 0.42], [1429, 2, 4, 0.48], [76, 2, 4, 1.11], [8675, 2, 4, 0.6], [8673, 2, 4, 1.45], [143, 2, 4, 0.65], [11836, 2, 4, 0.2], [8674, 2, 4, 0.49], [8938, 2, 4, 0.97], [146, 2, 4, 0.62], [6158, 2, 5, 1.33], [151, 1, 4, 0.57], [12720, 2, 4, 0.82], [10149, 3, 13, 0.39], [2776, 2, 4, 0.75], [3495, 3, 13, 0.85], [2055, 3, 4, 1.18], [75, 2, 4, 1.17], [2057, 3, 4, 1.0], [11738, 2, 4, 1.04], [144, 2, 4, 0.52], [8939, 2, 4, 0.94], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 5, 0.19], [88, 10, 8, 0.95], [159, 3, 5, 0.72], [2859, 15, 4, 0.44], [7084, 3, 4, 1.75], [418, 2, 4, 0.2], [10993, 2, 4, 0.49], [20252, 2, 4, 0.37], [9784, 1, 4, 0.88], [7705, 2, 4, 1.15], [5165, 1, 4, 0.59], [12526, 2, 4, 0.74], [410, 1, 4, 0.47], [11844, 2, 4, 0.47], [414, 1, 4, 0.73], [12351, 1, 5, 0.61], [2423, 80, 5, 1.25], [378, 2, 4, 1.16], [2424, 29, 5, 0.55], [2423, 29, 4, 1.16], [12345, 1, 4, 0.61], [60, 3, 5, 2.26], [950, 1, 4, 0.39], [6494, 1, 4, 0.46], [11490, 1, 4, 0.48], [2424, 80, 4, 0.43], [13023, 3, 6, 1.51], [12373, 1, 5, 0.45], [13034, 3, 5, 1.37], [201, 3, 4, 1.1], [1519, 3, 9, 0.4], [11489, 1, 4, 0.37], [345, 3, 4, 0.76], [5208, 3, 5, 0.54], [11770, 1, 4, 0.48], [159, 1, 4, 0.73], [3, 2, 4, 3.1], [6952, 1, 4, 1.09], [3430, 15, 4, 1.23], [20927, 1, 4, 0.48], [11954, 1, 4, 0.42], [7886, 4, 5, 0.44], [432, 3, 4, 2.04], [3429, 15, 4, 0.46], [13928, 1, 4, 0.45], [11504, 2, 4, 0.2], [11811, 1, 4, 0.38], [566, 2, 4, 0.5], [5584, 3, 4, 1.36], [114, 3, 4, 1.64], [2331, 1, 4, 0.79], [10407, 10, 6, 1.18], [1492, 1, 4, 0.62], [105, 3, 4, 1.64], [1490, 1, 4, 1.38], [7004, 1, 4, 0.99], [11089, 1, 4, 0.39], [2703, 3, 4, 2.13], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [11674, 1, 4, 0.36], [1886, 2, 4, 0.44], [12348, 1, 4, 0.61], [94, 4, 4, 1.77], [10410, 10, 6, 1.18], [3891, 1, 4, 2.39], [11953, 1, 4, 0.46], [22317, 3, 5, 0.52], [6097, 80, 4, 1.86], [141, 2, 156, 2.73], [2328, 2, 76, 3.53], [8650, 2, 114, 4.44], [362, 2, 72, 2.98], [5491, 2, 108, 2.9], [5493, 2, 55, 2.79], [130, 1, 30, 2.98], [589, 2, 153, 2.73], [2327, 2, 76, 3.26], [326, 2, 35, 3.64], [11685, 2, 138, 6.0], [8672, 2, 144, 3.33], [417, 2, 156, 2.81], [6935, 2, 141, 5.82], [205, 2, 109, 2.53], [11681, 2, 138, 5.84], [206, 2, 42, 2.64], [8648, 2, 114, 4.32], [6936, 2, 141, 5.23], [142, 2, 78, 3.03], [11837, 2, 269, 2.79], [12721, 2, 144, 3.19], [11838, 2, 134, 3.09], [2049, 3, 276, 3.27], [1446, 2, 76, 3.25], [523, 2, 156, 2.81], [615, 2, 107, 4.63], [8676, 2, 287, 4.22], [11737, 2, 57, 3.69], [305, 2, 74, 3.08], [616, 2, 107, 4.15], [413, 1, 44, 3.05], [412, 1, 42, 3.02], [411, 2, 109, 2.64], [11739, 2, 57, 3.69], [10574, 3, 501, 4.43], [11835, 2, 269, 2.79], [145, 2, 76, 2.84], [21793, 1, 238, 5.81], [2775, 2, 157, 2.56], [1429, 2, 153, 2.68], [76, 2, 109, 3.83], [8675, 2, 287, 3.21], [8673, 2, 284, 5.17], [143, 2, 148, 2.98], [11836, 2, 134, 2.89], [8674, 2, 287, 3.25], [8938, 2, 190, 3.57], [146, 2, 151, 2.93], [6158, 2, 260, 4.44], [151, 1, 33, 2.79], [12720, 2, 284, 3.48], [10149, 3, 872, 3.26], [2776, 2, 157, 3.16], [3495, 3, 965, 3.31], [2055, 3, 158, 4.31], [75, 2, 144, 3.94], [2057, 3, 158, 4.31], [11738, 2, 57, 3.69], [144, 2, 151, 2.74], [8939, 2, 63, 4.3], [416, 1, 86, 3.13], [7885, 4, 36, 2.38], [22316, 3, 159, 2.96], [88, 10, 561, 4.69], [159, 3, 709, 3.16], [2859, 15, 69, 2.6]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 4, 1.08], [6935, 2, 8, 0.99], [2049, 3, 8, 0.41], [362, 2, 4, 0.89], [589, 2, 5, 0.37], [75, 2, 4, 0.39], [141, 2, 4, 0.66], [1776, 1, 4, 0.2], [205, 2, 4, 0.38], [8915, 2, 5, 0.4], [2778, 2, 4, 0.2], [8672, 2, 6, 0.51], [6936, 2, 5, 1.05], [593, 2, 5, 0.44], [7886, 4, 4, 0.57], [305, 2, 4, 0.5], [206, 2, 4, 0.2], [151, 1, 5, 0.47], [8648, 2, 4, 1.08], [1777, 1, 4, 0.8], [2328, 2, 5, 0.35], [88, 10, 9, 0.55], [11681, 2, 5, 1.87], [990, 2, 4, 0.26], [8650, 2, 5, 1.09], [412, 1, 4, 0.62], [5151, 2, 4, 0.75], [2050, 3, 4, 0.8], [76, 2, 4, 0.56], [144, 2, 4, 0.49], [10149, 3, 17, 1.82], [345, 3, 5, 0.44], [2991, 3, 4, 1.6], [22247, 2, 4, 0.54], [57, 1, 4, 0.38], [3478, 2, 4, 0.89], [146, 2, 4, 1.0], [7004, 1, 5, 0.36], [45, 2, 4, 0.56], [2054, 3, 4, 0.51], [143, 2, 4, 0.46], [417, 2, 4, 0.46], [413, 1, 4, 0.81], [21793, 1, 5, 0.45], [167, 3, 5, 0.49], [201, 3, 5, 0.2], [74, 1, 4, 1.75], [1446, 2, 4, 0.54], [346, 1, 4, 0.2], [2055, 3, 5, 0.5], [168, 3, 4, 0.32], [10, 2, 4, 0.45], [7084, 3, 4, 0.36], [11234, 2, 4, 0.2], [1429, 2, 4, 0.2], [7036, 1, 4, 1.8], [12721, 2, 6, 0.49], [3495, 3, 13, 0.52], [5081, 2, 4, 0.44], [8649, 2, 4, 1.29], [308, 1, 5, 0.73], [13028, 3, 4, 0.47], [12870, 1, 4, 1.54], [10825, 21, 8, 1.34], [79, 1, 4, 0.38], [1492, 1, 4, 0.58], [96, 11, 14, 0.38], [23, 1, 4, 0.2], [1006, 2, 4, 0.55], [3893, 1, 5, 0.2], [418, 2, 4, 0.43], [1504, 2, 4, 0.2], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [9827, 3, 4, 0.2], [3891, 1, 4, 0.2], [432, 3, 5, 0.41], [7005, 1, 5, 0.36], [1490, 1, 5, 0.2], [8853, 2, 5, 1.01], [94, 4, 4, 1.24], [13260, 29, 4, 0.4], [5812, 3, 5, 2.01], [416, 1, 4, 0.81], [8651, 2, 4, 0.8], [12353, 1, 4, 1.55], [20256, 2, 4, 0.2], [8939, 2, 5, 0.2], [21269, 3, 4, 0.95], [13280, 1, 4, 0.81], [950, 1, 4, 0.46], [33, 1, 4, 0.53], [5086, 1, 5, 1.08], [998, 2, 5, 0.73], [9069, 1, 4, 0.97], [1243, 2, 4, 0.89], [229, 1, 4, 1.05], [2878, 1, 4, 0.74], [140, 2, 4, 0.63], [7567, 3, 4, 1.11], [2049, 1, 4, 0.2], [20927, 1, 4, 0.2], [126, 2, 5, 0.93], [346, 3, 5, 0.19], [1703, 2, 4, 0.41], [3980, 4, 4, 1.31], [8121, 3, 4, 0.53], [8274, 3, 4, 0.39], [35, 1, 4, 0.48], [9691, 1, 4, 1.09], [5209, 3, 4, 0.19], [997, 2, 4, 1.03], [11811, 1, 4, 1.0], [5584, 3, 4, 1.74], [1070, 7, 10, 0.2], [11914, 1, 5, 0.5], [1519, 3, 10, 0.4], [856, 1, 4, 0.38], [5660, 2, 5, 0.9], [8898, 3, 4, 2.43], [1091, 1, 4, 0.2], [5513, 2, 4, 0.43], [523, 2, 4, 0.63], [8926, 1, 4, 1.35], [11767, 1, 4, 0.48], [2775, 2, 4, 0.2], [9372, 1, 4, 0.39], [13034, 3, 5, 0.66], [9081, 3, 7, 1.8], [307, 2, 4, 1.14], [20255, 2, 5, 0.2], [12661, 1, 4, 0.97], [11808, 1, 5, 0.2], [326, 2, 84, 3.42], [6935, 2, 129, 4.09], [2049, 3, 192, 1.94], [362, 2, 131, 2.79], [589, 2, 142, 1.93], [75, 2, 51, 1.98], [141, 2, 143, 3.4], [1776, 1, 52, 1.74], [205, 2, 101, 1.85], [8915, 2, 179, 1.9], [2778, 2, 55, 2.06], [8672, 2, 100, 2.17], [6936, 2, 97, 4.51], [593, 2, 211, 2.16], [7886, 4, 132, 2.19], [305, 2, 51, 2.18], [206, 2, 39, 1.99], [151, 1, 31, 1.63], [8648, 2, 79, 3.41], [1777, 1, 39, 3.67], [2328, 2, 53, 1.92], [88, 10, 197, 2.3], [11681, 2, 95, 5.43], [990, 2, 30, 2.16], [8650, 2, 79, 3.43], [412, 1, 30, 2.41], [5151, 2, 14, 3.62], [2050, 3, 432, 3.55], [76, 2, 39, 2.3], [144, 2, 139, 2.06], [10149, 3, 300, 4.79], [345, 3, 106, 2.01], [2991, 3, 57, 4.91], [22247, 2, 99, 2.54], [57, 1, 79, 1.85], [3478, 2, 69, 3.31], [146, 2, 53, 2.18], [7004, 1, 28, 1.93], [45, 2, 39, 4.21], [2054, 3, 166, 2.21], [143, 2, 51, 2.11], [417, 2, 143, 2.0], [413, 1, 79, 3.28], [21793, 1, 85, 2.1], [167, 3, 80, 2.16], [201, 3, 106, 1.94], [74, 1, 71, 3.73], [1446, 2, 53, 3.18], [346, 1, 55, 2.05], [2055, 3, 166, 2.18], [168, 3, 141, 2.77], [10, 2, 97, 2.76], [7084, 3, 46, 1.93], [11234, 2, 65, 2.04], [1429, 2, 53, 2.47], [7036, 1, 45, 3.84], [12721, 2, 99, 2.13], [3495, 3, 336, 2.2], [5081, 2, 177, 1.96], [8649, 2, 79, 3.64], [308, 1, 58, 3.98], [13028, 3, 51, 2.14], [12870, 1, 49, 3.19], [10825, 21, 575, 3.62], [79, 1, 44, 1.85], [1492, 1, 13, 3.25], [96, 11, 784, 1.8]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 10, 0.93], [2327, 2, 4, 0.52], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6935, 2, 6, 1.77], [2328, 2, 4, 0.58], [5493, 2, 4, 1.23], [130, 1, 4, 0.98], [305, 2, 4, 0.45], [615, 2, 4, 0.2], [616, 2, 5, 0.2], [6936, 2, 5, 1.74], [326, 2, 5, 1.15], [8650, 2, 4, 0.39], [8648, 2, 4, 1.05], [1446, 2, 4, 0.2], [2049, 3, 5, 0.42], [10, 2, 4, 0.2], [143, 2, 5, 0.58], [159, 3, 5, 0.67], [593, 2, 4, 0.37], [205, 2, 4, 0.43], [5491, 2, 4, 0.58], [2775, 2, 4, 0.2], [7036, 1, 4, 0.94], [144, 2, 5, 0.53], [151, 1, 4, 0.59], [3840, 1, 5, 0.29], [94, 4, 4, 1.91], [434, 2, 5, 0.2], [8938, 2, 4, 0.52], [990, 2, 4, 0.2], [3893, 1, 4, 0.2], [8853, 2, 4, 1.79], [146, 2, 4, 1.07], [1504, 2, 4, 0.93], [624, 2, 4, 1.1], [12224, 1, 4, 0.46], [1429, 2, 4, 0.2], [3891, 1, 4, 0.2], [2776, 2, 4, 0.2], [206, 2, 4, 0.37], [2055, 3, 4, 0.46], [362, 2, 4, 0.5], [141, 2, 4, 0.39], [11681, 2, 5, 1.33], [11404, 2, 4, 0.2], [378, 2, 4, 1.16], [5208, 3, 5, 0.19], [3889, 1, 4, 0.35], [8649, 2, 4, 1.53], [1007, 2, 4, 0.46], [10574, 3, 5, 1.86], [10993, 2, 4, 0.7], [11234, 2, 4, 0.75], [7886, 4, 4, 0.46], [12870, 1, 5, 0.72], [21793, 1, 4, 0.5], [10149, 3, 15, 0.39], [3980, 4, 4, 0.73], [2050, 3, 4, 0.46], [12353, 1, 4, 0.66], [145, 2, 4, 1.01], [7084, 3, 4, 0.86], [11811, 1, 4, 0.44], [8672, 2, 4, 1.48], [20927, 1, 4, 0.95], [5165, 1, 4, 0.56], [998, 2, 4, 1.5], [9760, 29, 4, 0.37], [997, 2, 4, 1.42], [2436, 4, 4, 0.2], [1006, 2, 5, 0.54], [972, 3, 5, 0.51], [2424, 80, 4, 0.99], [346, 3, 5, 0.19], [3, 2, 4, 0.62], [229, 1, 4, 0.54], [6158, 2, 5, 0.48], [3495, 3, 11, 0.56], [12346, 1, 4, 0.66], [5165, 2, 5, 1.02], [7887, 4, 4, 0.47], [5076, 1, 4, 0.71], [126, 2, 4, 1.27], [20252, 2, 4, 0.38], [11953, 1, 4, 0.46], [9372, 1, 4, 1.42], [11770, 1, 4, 0.88], [140, 2, 4, 1.27], [12344, 1, 4, 0.66], [8939, 2, 4, 0.2], [11954, 1, 4, 0.38], [1492, 1, 4, 0.2], [11685, 2, 5, 1.33], [12352, 1, 4, 0.66], [996, 2, 4, 1.16], [12721, 2, 4, 2.31], [20256, 2, 4, 0.2], [2774, 2, 4, 0.63], [12350, 1, 4, 0.66], [3981, 3, 11, 0.23], [9491, 21, 12, 0.22], [5434, 1, 4, 1.0], [2423, 80, 5, 0.75], [12343, 1, 4, 0.66], [6497, 1, 4, 0.63], [5584, 3, 4, 1.75], [2438, 2, 6, 0.49], [10388, 2, 4, 0.37], [12351, 1, 4, 0.66], [10407, 10, 6, 1.18], [11179, 1, 4, 0.45], [6496, 1, 4, 1.73], [22317, 3, 4, 0.35], [7573, 1, 8, 2.02], [823, 1, 4, 0.55], [5209, 3, 5, 0.19], [8898, 3, 5, 1.44], [2805, 137, 4, 0.93], [3900, 3, 4, 1.76], [12526, 2, 4, 0.71], [2424, 29, 4, 0.55], [11812, 1, 4, 0.2], [4253, 1, 4, 0.54], [3975, 4, 5, 1.21], [11490, 1, 4, 0.35], [336, 15, 4, 0.97], [1622, 1, 4, 0.45], [12764, 2, 5, 0.54], [412, 1, 4, 0.44], [972, 1, 4, 1.02], [88, 10, 276, 3.94], [2327, 2, 74, 2.93], [8915, 2, 93, 2.96], [589, 2, 75, 2.97], [2778, 2, 77, 2.92], [6935, 2, 135, 6.0], [2328, 2, 74, 3.05], [5493, 2, 104, 3.91], [305, 2, 72, 2.8], [615, 2, 54, 3.01], [616, 2, 54, 2.64], [6936, 2, 135, 5.39], [326, 2, 44, 4.1], [8650, 2, 110, 3.45], [8648, 2, 110, 3.91], [1446, 2, 74, 3.2], [2049, 3, 360, 2.34], [10, 2, 52, 2.65], [143, 2, 72, 3.03], [159, 3, 690, 2.82], [593, 2, 223, 2.53], [205, 2, 54, 2.77], [5491, 2, 53, 3.05], [2775, 2, 77, 2.92], [7036, 1, 63, 4.28], [151, 1, 32, 2.68], [3840, 1, 84, 3.43], [94, 4, 60, 4.77], [434, 2, 53, 2.69], [8938, 2, 125, 2.43], [990, 2, 26, 2.69], [3893, 1, 61, 2.96], [8853, 2, 272, 5.15], [146, 2, 73, 3.02], [1504, 2, 99, 3.69], [624, 2, 104, 3.83], [12224, 1, 162, 2.49], [1429, 2, 74, 2.89], [3891, 1, 61, 2.96], [2776, 2, 77, 3.16], [206, 2, 106, 2.39], [2055, 3, 314, 2.32], [362, 2, 69, 2.89], [141, 2, 76, 2.69], [11681, 2, 131, 5.43], [11404, 2, 51, 3.15], [378, 2, 110, 4.11], [5208, 3, 273, 2.87], [3889, 1, 122, 2.29], [8649, 2, 218, 4.79], [1007, 2, 264, 2.49], [10993, 2, 54, 2.93], [11234, 2, 148, 3.27], [7886, 4, 70, 2.16], [12870, 1, 69, 3.3], [21793, 1, 119, 2.89], [10149, 3, 435, 3.88], [3980, 4, 234, 4.41], [2050, 3, 314, 2.32], [12353, 1, 612, 2.87], [145, 2, 73, 2.92], [7084, 3, 127, 3.22], [11811, 1, 447, 2.44], [8672, 2, 140, 4.92], [20927, 1, 30, 2.64], [5165, 1, 38, 3.97], [998, 2, 115, 4.81]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 1.31], [141, 2, 4, 0.4], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.71], [8648, 2, 4, 1.13], [362, 2, 4, 0.46], [2327, 2, 4, 0.39], [11681, 2, 9, 1.29], [8650, 2, 5, 0.84], [326, 2, 4, 0.77], [205, 2, 4, 0.2], [2328, 2, 4, 0.57], [1446, 2, 4, 0.28], [305, 2, 5, 0.88], [130, 1, 4, 0.2], [8649, 2, 5, 0.39], [2775, 2, 4, 0.2], [8853, 2, 5, 1.21], [361, 2, 4, 0.5], [2776, 2, 4, 0.2], [593, 2, 5, 0.48], [143, 2, 4, 1.13], [140, 2, 4, 0.77], [1429, 2, 4, 0.28], [206, 2, 4, 0.2], [5493, 2, 4, 0.51], [523, 2, 4, 0.4], [7004, 1, 4, 0.71], [413, 1, 4, 1.02], [7036, 1, 4, 1.58], [5491, 2, 4, 0.5], [412, 1, 4, 0.57], [21793, 1, 4, 1.03], [12350, 1, 4, 0.19], [1124, 2, 4, 0.64], [990, 2, 4, 0.2], [12353, 1, 5, 0.19], [5165, 1, 4, 0.42], [8915, 2, 5, 0.86], [615, 2, 4, 1.1], [583, 2, 4, 0.77], [417, 2, 4, 0.43], [21798, 1, 4, 0.36], [146, 2, 4, 0.64], [248, 1, 4, 0.2], [8089, 1, 4, 1.2], [434, 2, 5, 0.2], [201, 3, 5, 0.47], [142, 2, 4, 0.45], [6097, 80, 4, 0.38], [11770, 1, 4, 0.43], [6952, 1, 4, 1.71], [2055, 3, 4, 0.81], [345, 3, 4, 0.47], [3891, 1, 4, 0.98], [9372, 1, 4, 0.58], [2057, 3, 4, 0.81], [616, 2, 4, 0.86], [7084, 3, 4, 1.0], [3670, 2, 4, 1.47], [3893, 1, 4, 0.64], [5165, 2, 7, 1.41], [12346, 1, 4, 0.19], [12870, 1, 4, 1.18], [12343, 1, 4, 0.49], [10574, 3, 5, 1.39], [1886, 2, 4, 0.36], [2424, 80, 4, 0.43], [346, 3, 4, 0.2], [3334, 5, 5, 1.7], [20927, 1, 4, 0.38], [12351, 1, 4, 0.38], [7885, 4, 4, 0.53], [6098, 80, 4, 1.46], [6097, 29, 4, 0.88], [11089, 1, 4, 0.44], [12345, 1, 4, 0.47], [10149, 3, 13, 0.91], [20256, 2, 4, 0.2], [147, 1, 4, 0.53], [22316, 3, 4, 0.36], [1492, 1, 4, 0.58], [11953, 1, 4, 0.44], [432, 3, 5, 0.62], [11491, 2, 4, 0.51], [20252, 2, 4, 0.2], [418, 2, 4, 0.72], [4032, 29, 4, 0.47], [1490, 1, 4, 0.42], [1519, 3, 10, 0.4], [2423, 80, 4, 1.66], [11952, 1, 4, 0.46], [411, 2, 4, 0.5], [5151, 2, 4, 0.62], [229, 1, 4, 2.07], [12304, 1, 4, 0.64], [972, 3, 5, 0.46], [11769, 1, 4, 0.48], [3576, 25, 4, 0.91], [2331, 1, 4, 1.19], [346, 1, 4, 0.2], [13034, 3, 5, 1.29], [995, 2, 4, 0.41], [416, 1, 4, 0.99], [2424, 29, 4, 0.41], [3, 2, 4, 0.55], [11426, 25, 4, 0.58], [11737, 2, 4, 0.5], [11767, 1, 4, 0.48], [5076, 1, 4, 0.64], [439, 1, 4, 1.47], [11490, 1, 4, 0.56], [2805, 137, 4, 0.98], [2160, 68, 4, 0.56], [6494, 1, 4, 1.59], [950, 1, 4, 0.36], [414, 1, 4, 0.66], [3575, 25, 4, 0.98], [12764, 2, 5, 0.51], [8677, 3, 5, 1.11], [1701, 2, 4, 1.97], [11180, 1, 4, 0.54], [11586, 1, 7, 1.42], [75, 2, 4, 0.37], [3577, 25, 4, 0.42], [3478, 2, 4, 0.9], [11585, 29, 4, 1.12], [9998, 80, 4, 0.42], [11813, 1, 4, 1.11], [13023, 3, 5, 1.01], [2438, 2, 5, 1.05], [9784, 1, 4, 0.88], [6935, 2, 108, 5.03], [141, 2, 60, 2.71], [589, 2, 60, 2.6], [2778, 2, 60, 2.86], [6936, 2, 108, 5.43], [8648, 2, 88, 3.75], [362, 2, 55, 2.52], [2327, 2, 129, 3.02], [11681, 2, 105, 4.91], [8650, 2, 88, 3.23], [326, 2, 78, 2.83], [205, 2, 70, 2.22], [2328, 2, 59, 2.74], [1446, 2, 59, 3.11], [305, 2, 57, 3.31], [130, 1, 38, 1.55], [8649, 2, 88, 3.7], [2775, 2, 60, 2.86], [8853, 2, 108, 4.93], [361, 2, 60, 2.6], [2776, 2, 60, 2.86], [593, 2, 89, 2.55], [143, 2, 57, 3.07], [140, 2, 78, 2.83], [1429, 2, 59, 3.41], [206, 2, 42, 2.51], [5493, 2, 93, 2.36], [523, 2, 60, 2.68], [7004, 1, 68, 2.72], [413, 1, 33, 2.92], [7036, 1, 50, 3.67], [5491, 2, 93, 2.34], [412, 1, 72, 2.66], [21793, 1, 208, 5.07], [12350, 1, 243, 2.38], [1124, 2, 161, 2.69], [990, 2, 21, 2.5], [12353, 1, 243, 2.43], [5165, 1, 30, 3.83], [8915, 2, 163, 2.9], [615, 2, 92, 3.67], [583, 2, 78, 2.83], [417, 2, 60, 2.48], [21798, 1, 120, 2.36], [146, 2, 129, 4.34], [248, 1, 15, 2.08], [8089, 1, 61, 3.62], [434, 2, 42, 2.58], [201, 3, 119, 2.55], [142, 2, 133, 2.61], [6097, 80, 27, 5.58], [11770, 1, 189, 2.22], [6952, 1, 74, 4.06], [2055, 3, 410, 2.91], [345, 3, 119, 2.55], [3891, 1, 107, 3.22], [9372, 1, 195, 2.96], [2057, 3, 410, 2.91], [616, 2, 92, 3.0], [7084, 3, 51, 3.51], [3670, 2, 212, 4.13], [3893, 1, 107, 3.22], [12346, 1, 243, 2.38], [12870, 1, 119, 3.63], [12343, 1, 536, 2.3], [10574, 3, 198, 3.24], [1886, 2, 135, 2.08]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.18], [615, 2, 4, 1.69], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [5493, 2, 4, 1.52], [6936, 2, 4, 1.18], [130, 1, 4, 0.47], [205, 2, 4, 0.53], [616, 2, 4, 1.5], [1504, 2, 5, 0.57], [144, 2, 4, 0.53], [8648, 2, 4, 0.7], [2049, 3, 7, 0.41], [88, 10, 8, 0.37], [8915, 2, 5, 1.45], [326, 2, 4, 1.12], [7036, 1, 4, 1.57], [8650, 2, 5, 0.57], [593, 2, 5, 0.45], [2327, 2, 5, 0.47], [11681, 2, 4, 1.35], [8853, 2, 4, 1.18], [141, 2, 4, 0.48], [2775, 2, 5, 0.2], [206, 2, 4, 0.2], [151, 1, 4, 0.59], [7004, 1, 5, 0.35], [248, 1, 4, 0.43], [11685, 2, 4, 1.88], [3891, 1, 5, 0.2], [3840, 1, 4, 0.39], [2328, 2, 4, 0.5], [2050, 3, 5, 0.34], [5491, 2, 4, 0.54], [2497, 2, 4, 0.83], [2055, 3, 4, 1.73], [143, 2, 4, 0.58], [434, 2, 4, 0.47], [3980, 4, 4, 1.2], [2054, 3, 4, 0.34], [624, 2, 4, 1.35], [8672, 2, 4, 0.48], [362, 2, 4, 0.85], [8649, 2, 4, 1.53], [2776, 2, 4, 0.67], [12870, 1, 4, 0.92], [2057, 3, 5, 0.34], [12350, 1, 4, 0.66], [7886, 4, 5, 0.45], [10574, 3, 5, 1.86], [5165, 1, 4, 0.58], [1006, 2, 4, 0.58], [1446, 2, 4, 0.39], [94, 4, 4, 0.84], [75, 2, 4, 1.49], [523, 2, 4, 1.0], [2991, 3, 5, 1.1], [3495, 3, 13, 0.85], [7084, 3, 4, 0.58], [7005, 1, 4, 0.94], [3975, 4, 4, 1.26], [21793, 1, 4, 2.3], [10149, 3, 13, 0.39], [9760, 29, 4, 0.2], [11404, 2, 5, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.66], [6158, 2, 5, 0.2], [20927, 1, 4, 0.67], [3981, 3, 15, 1.15], [417, 2, 4, 0.66], [5165, 2, 5, 1.11], [2912, 1, 4, 0.2], [3982, 3, 10, 1.18], [8939, 2, 4, 0.2], [1007, 2, 4, 0.51], [11953, 1, 4, 0.45], [2774, 2, 4, 1.06], [33, 1, 4, 1.06], [956, 2, 4, 0.47], [11772, 1, 5, 1.35], [286, 3, 5, 1.06], [7887, 4, 5, 0.44], [6497, 1, 4, 0.93], [1492, 1, 4, 0.7], [11767, 1, 4, 0.2], [432, 3, 4, 0.47], [336, 15, 4, 1.12], [972, 3, 4, 1.07], [11769, 1, 4, 0.2], [11490, 1, 4, 1.04], [11770, 1, 4, 0.48], [410, 1, 5, 0.54], [389, 4, 5, 0.38], [2912, 2, 5, 0.47], [74, 1, 4, 1.16], [6496, 1, 4, 0.47], [7567, 3, 4, 1.65], [1413, 15, 4, 0.2], [35, 1, 5, 0.57], [411, 2, 4, 0.5], [4253, 1, 4, 0.82], [22317, 3, 4, 0.51], [140, 2, 4, 0.93], [8673, 2, 4, 0.47], [8121, 3, 5, 0.2], [1126, 2, 4, 0.58], [4176, 4, 4, 1.31], [2436, 4, 4, 0.2], [9372, 1, 4, 1.7], [8676, 2, 4, 1.7], [21269, 3, 4, 2.24], [8677, 3, 5, 0.4], [22247, 2, 4, 1.38], [10388, 2, 4, 1.08], [10936, 2, 4, 1.7], [12343, 1, 4, 0.66], [12526, 2, 4, 1.08], [11085, 2, 5, 1.27], [9784, 1, 4, 0.55], [12269, 2, 4, 1.03], [37, 1, 4, 0.66], [6494, 1, 5, 0.29], [1274, 1, 4, 0.23], [13023, 3, 4, 1.26], [1429, 2, 4, 0.5], [7573, 1, 5, 1.35], [12225, 1, 4, 0.69], [345, 3, 4, 1.31], [12271, 2, 4, 1.01], [3, 2, 4, 0.38], [3577, 25, 4, 0.48], [96, 11, 12, 0.38], [6935, 2, 108, 5.9], [615, 2, 91, 4.78], [2778, 2, 61, 2.77], [305, 2, 57, 2.58], [5493, 2, 91, 4.44], [6936, 2, 108, 5.92], [130, 1, 24, 2.58], [205, 2, 42, 2.69], [616, 2, 91, 4.41], [1504, 2, 80, 2.75], [144, 2, 59, 4.4], [8648, 2, 89, 2.99], [2049, 3, 144, 2.25], [88, 10, 220, 3.45], [8915, 2, 65, 4.29], [326, 2, 36, 3.57], [7036, 1, 50, 3.83], [8650, 2, 89, 2.75], [593, 2, 89, 2.78], [2327, 2, 59, 2.57], [11681, 2, 106, 5.01], [8853, 2, 108, 5.93], [141, 2, 61, 2.6], [2775, 2, 61, 2.77], [206, 2, 42, 2.55], [151, 1, 58, 2.7], [7004, 1, 31, 2.36], [248, 1, 47, 2.25], [11685, 2, 106, 5.4], [3891, 1, 49, 2.88], [3840, 1, 150, 2.17], [2328, 2, 59, 2.62], [2050, 3, 188, 2.34], [5491, 2, 91, 3.06], [2497, 2, 174, 4.13], [2055, 3, 396, 4.86], [143, 2, 58, 2.77], [434, 2, 56, 2.07], [3980, 4, 186, 4.07], [2054, 3, 188, 2.34], [624, 2, 91, 5.38], [8672, 2, 112, 4.65], [362, 2, 55, 3.27], [8649, 2, 194, 4.25], [2776, 2, 61, 3.86], [12870, 1, 117, 5.16], [2057, 3, 188, 2.34], [12350, 1, 543, 2.67], [7886, 4, 38, 2.23], [10574, 3, 196, 4.07], [5165, 1, 30, 3.74], [1006, 2, 197, 2.83], [1446, 2, 60, 2.62], [94, 4, 47, 5.25], [75, 2, 57, 3.52], [523, 2, 60, 2.64], [2991, 3, 63, 5.99], [3495, 3, 832, 2.92], [7084, 3, 51, 2.79], [7005, 1, 68, 3.18], [3975, 4, 186, 4.2], [21793, 1, 90, 5.26], [10149, 3, 752, 2.93], [9760, 29, 28, 2.5], [11404, 2, 41, 2.88], [142, 2, 133, 2.39], [12346, 1, 543, 2.67]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 1.38], [305, 2, 4, 0.53], [2328, 2, 4, 0.78], [130, 1, 4, 0.2], [141, 2, 5, 0.2], [2778, 2, 5, 0.47], [8650, 2, 4, 1.17], [5491, 2, 4, 0.63], [2327, 2, 4, 0.63], [8672, 2, 6, 0.58], [6936, 2, 4, 1.4], [143, 2, 4, 1.14], [11681, 2, 5, 1.41], [248, 1, 4, 0.46], [145, 2, 4, 0.4], [205, 2, 4, 0.56], [5493, 2, 4, 1.24], [146, 2, 4, 0.56], [417, 2, 4, 0.52], [589, 2, 4, 0.2], [75, 2, 4, 0.37], [11838, 2, 4, 0.57], [11737, 2, 4, 0.38], [1124, 2, 6, 0.2], [523, 2, 5, 0.2], [8648, 2, 4, 1.54], [8853, 2, 4, 1.38], [12721, 2, 6, 0.47], [615, 2, 4, 1.28], [1005, 2, 4, 0.2], [326, 2, 5, 0.47], [206, 2, 5, 0.2], [8915, 2, 4, 0.2], [8673, 2, 4, 0.74], [144, 2, 5, 0.44], [11739, 2, 4, 0.38], [434, 2, 4, 0.73], [88, 10, 9, 0.82], [2776, 2, 4, 0.41], [435, 2, 5, 0.49], [142, 2, 4, 0.2], [151, 1, 4, 0.57], [8676, 2, 4, 0.47], [6158, 2, 5, 0.2], [2424, 29, 4, 0.2], [8649, 2, 4, 1.19], [2423, 29, 4, 1.81], [11738, 2, 4, 0.38], [2497, 2, 4, 0.55], [7704, 2, 4, 1.08], [2424, 80, 4, 0.49], [1413, 15, 4, 0.77], [10574, 3, 6, 1.26], [2423, 80, 4, 1.75], [3670, 2, 4, 0.97], [11836, 2, 5, 0.2], [7705, 2, 4, 1.15], [2054, 3, 4, 0.4], [3, 2, 4, 0.43], [2859, 15, 4, 1.25], [412, 1, 4, 0.58], [7706, 2, 4, 1.08], [378, 2, 4, 2.48], [12720, 2, 4, 0.98], [22316, 3, 4, 0.46], [2055, 3, 4, 0.47], [12344, 1, 4, 0.48], [3478, 2, 4, 1.07], [10149, 3, 13, 1.12], [74, 1, 5, 1.47], [3429, 15, 4, 0.46], [2774, 2, 4, 0.55], [307, 2, 4, 1.5], [6497, 1, 4, 0.44], [60, 3, 5, 0.41], [12526, 2, 4, 1.43], [418, 2, 4, 0.81], [7004, 1, 4, 1.02], [13928, 1, 4, 0.2], [411, 2, 4, 0.49], [11089, 1, 4, 0.39], [413, 1, 4, 0.54], [2057, 3, 4, 0.4], [14037, 3, 4, 0.96], [11844, 2, 5, 0.2], [2050, 3, 4, 0.4], [7036, 1, 4, 0.43], [20252, 2, 4, 0.58], [13260, 29, 4, 0.67], [3893, 1, 5, 0.44], [8274, 3, 4, 0.88], [6097, 80, 4, 0.64], [439, 1, 4, 0.37], [6952, 1, 4, 1.09], [3891, 1, 4, 2.08], [94, 4, 5, 1.09], [159, 3, 5, 0.72], [6494, 1, 4, 0.46], [9784, 1, 4, 0.55], [1050, 2, 4, 0.36], [7707, 2, 4, 0.72], [1490, 1, 4, 1.02], [1413, 16, 4, 0.39], [11490, 1, 4, 0.47], [1243, 2, 5, 0.2], [7708, 2, 4, 1.15], [414, 1, 4, 0.66], [3889, 1, 5, 0.37], [1492, 1, 4, 0.62], [5208, 3, 5, 0.97], [565, 2, 4, 0.46], [22317, 3, 5, 0.52], [7703, 2, 4, 1.15], [21793, 1, 4, 0.95], [11491, 2, 4, 0.81], [3495, 3, 13, 0.85], [229, 1, 4, 2.0], [345, 3, 4, 1.26], [2422, 80, 4, 1.75], [6098, 80, 4, 1.14], [410, 1, 4, 0.4], [11504, 2, 4, 0.72], [149, 2, 4, 0.52], [947, 15, 4, 0.39], [6630, 3, 4, 1.31], [3674, 2, 4, 0.52], [147, 1, 4, 0.52], [3430, 15, 4, 1.23], [416, 1, 4, 1.59], [2805, 137, 6, 1.85], [2331, 1, 4, 0.73], [247, 1, 4, 1.18], [9126, 1, 4, 0.47], [6935, 2, 141, 6.0], [305, 2, 74, 3.08], [2328, 2, 76, 3.53], [130, 1, 49, 2.48], [141, 2, 78, 2.84], [2778, 2, 156, 3.07], [8650, 2, 114, 4.87], [5491, 2, 106, 4.31], [2327, 2, 76, 3.26], [8672, 2, 144, 3.33], [6936, 2, 141, 5.42], [11681, 2, 276, 5.75], [248, 1, 37, 2.46], [145, 2, 76, 2.84], [205, 2, 109, 2.81], [5493, 2, 106, 4.23], [146, 2, 76, 3.13], [417, 2, 78, 3.05], [589, 2, 77, 2.91], [75, 2, 145, 3.58], [11838, 2, 269, 2.83], [11737, 2, 57, 2.97], [1124, 2, 95, 2.98], [523, 2, 78, 3.36], [8648, 2, 114, 4.01], [8853, 2, 141, 4.82], [12721, 2, 144, 3.19], [615, 2, 108, 4.14], [326, 2, 35, 3.64], [206, 2, 42, 2.64], [8915, 2, 96, 2.87], [8673, 2, 144, 5.05], [144, 2, 76, 2.91], [11739, 2, 57, 2.97], [434, 2, 107, 3.23], [88, 10, 285, 3.62], [2776, 2, 78, 3.77], [435, 2, 54, 3.01], [142, 2, 78, 3.16], [151, 1, 33, 2.79], [8676, 2, 144, 2.97], [6158, 2, 133, 2.82], [2424, 29, 17, 3.17], [8649, 2, 114, 3.38], [2423, 29, 18, 4.52], [11738, 2, 57, 2.97], [2497, 2, 105, 3.11], [7704, 2, 90, 3.18], [2424, 80, 84, 3.11], [10574, 3, 249, 4.6], [2423, 80, 92, 4.41], [3670, 2, 236, 5.41], [11836, 2, 134, 2.89], [7705, 2, 176, 4.07], [2054, 3, 473, 3.89], [3, 2, 61, 2.9], [2859, 15, 35, 3.48], [412, 1, 42, 3.17], [7706, 2, 90, 3.18], [378, 2, 224, 6.0], [12720, 2, 144, 2.99], [22316, 3, 318, 2.64], [2055, 3, 181, 2.76], [12344, 1, 620, 2.67], [3478, 2, 38, 4.08], [10149, 3, 866, 4.0], [74, 1, 102, 5.0]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.26], [305, 2, 4, 0.56], [3, 2, 4, 0.53], [6935, 2, 8, 1.37], [205, 2, 4, 0.47], [143, 2, 4, 0.43], [144, 2, 4, 0.26], [75, 2, 4, 0.49], [12721, 2, 6, 0.56], [145, 2, 4, 0.26], [8915, 2, 6, 0.2], [2778, 2, 4, 0.2], [1776, 1, 4, 0.45], [146, 2, 4, 0.26], [206, 2, 4, 0.56], [20252, 2, 4, 0.48], [6936, 2, 5, 1.3], [1777, 1, 4, 1.16], [8648, 2, 4, 0.89], [151, 1, 4, 0.35], [2328, 2, 4, 0.73], [8650, 2, 4, 1.0], [5151, 2, 4, 0.9], [2050, 3, 4, 0.73], [248, 1, 4, 0.44], [7886, 4, 5, 0.39], [88, 10, 8, 1.09], [9507, 3, 4, 0.36], [74, 1, 4, 0.8], [1446, 2, 4, 0.59], [2991, 3, 4, 1.1], [362, 2, 4, 0.43], [7004, 1, 4, 0.54], [2057, 3, 4, 0.56], [1492, 1, 4, 0.51], [1007, 2, 5, 0.2], [2055, 3, 4, 0.57], [147, 1, 4, 1.02], [76, 2, 4, 0.74], [8649, 2, 4, 1.05], [3889, 1, 4, 0.44], [11234, 2, 6, 0.2], [410, 1, 4, 0.38], [7005, 1, 4, 0.5], [345, 3, 4, 0.47], [10, 2, 5, 0.41], [1429, 2, 4, 0.28], [307, 2, 4, 1.75], [10825, 21, 8, 0.55], [5081, 2, 4, 0.54], [12870, 1, 4, 0.65], [57, 1, 4, 0.43], [10149, 3, 13, 0.71], [7036, 1, 4, 0.94], [3478, 2, 4, 0.54], [7084, 3, 4, 0.87], [1006, 2, 4, 0.56], [1504, 2, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.89], [94, 4, 4, 1.55], [167, 3, 4, 0.75], [411, 2, 4, 0.47], [9827, 3, 4, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.57], [33, 1, 4, 0.76], [432, 3, 5, 0.62], [8677, 3, 5, 0.4], [11681, 2, 6, 0.82], [148, 1, 4, 1.5], [96, 11, 15, 0.38], [1490, 1, 5, 0.2], [12225, 1, 4, 0.43], [1124, 2, 5, 0.2], [11737, 2, 4, 0.2], [1243, 2, 4, 0.5], [22247, 2, 6, 0.89], [6158, 2, 5, 0.8], [5812, 3, 5, 1.51], [8853, 2, 5, 1.32], [201, 3, 4, 0.47], [412, 1, 4, 1.28], [9760, 29, 4, 0.24], [10574, 3, 6, 1.33], [8651, 2, 5, 0.61], [20927, 1, 4, 0.43], [5208, 3, 5, 0.54], [8676, 2, 6, 0.56], [229, 1, 4, 1.2], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [45, 2, 4, 1.37], [9069, 1, 4, 0.41], [413, 1, 4, 1.19], [11490, 1, 4, 0.36], [149, 2, 4, 1.7], [159, 3, 5, 0.63], [3495, 3, 15, 0.92], [998, 2, 4, 0.97], [21269, 3, 4, 1.0], [140, 2, 4, 0.78], [95, 3, 10, 0.93], [3980, 4, 5, 1.25], [950, 1, 4, 0.71], [5946, 1, 4, 0.95], [9372, 1, 4, 2.03], [1126, 2, 5, 0.47], [1766, 25, 4, 0.56], [2775, 2, 5, 0.2], [1413, 15, 5, 0.78], [490, 1, 4, 0.4], [506, 1, 4, 1.21], [8674, 2, 5, 0.54], [11489, 1, 4, 0.56], [8898, 3, 4, 0.75], [997, 2, 4, 1.82], [3670, 2, 4, 1.87], [1070, 7, 9, 0.46], [9691, 1, 4, 0.98], [107, 2, 4, 0.52], [974, 3, 5, 0.38], [20498, 1, 4, 0.94], [11954, 1, 4, 0.47], [14037, 3, 5, 0.44], [823, 1, 4, 0.84], [14017, 3, 4, 0.44], [34, 1, 4, 1.26], [972, 3, 5, 0.85], [5209, 3, 4, 0.54], [9784, 1, 5, 0.55], [11739, 2, 4, 0.2], [20498, 3, 6, 0.36], [8672, 2, 229, 4.11], [305, 2, 115, 3.11], [3, 2, 97, 3.34], [6935, 2, 136, 4.9], [205, 2, 53, 2.52], [143, 2, 117, 3.77], [144, 2, 119, 4.38], [75, 2, 71, 2.56], [12721, 2, 138, 2.64], [145, 2, 119, 3.97], [8915, 2, 93, 2.53], [2778, 2, 75, 2.63], [1776, 1, 72, 1.98], [146, 2, 119, 3.97], [206, 2, 93, 2.33], [20252, 2, 79, 2.19], [6936, 2, 136, 4.39], [1777, 1, 54, 3.8], [8648, 2, 109, 3.3], [151, 1, 54, 1.81], [2328, 2, 72, 3.01], [8650, 2, 109, 3.51], [5151, 2, 12, 4.59], [2050, 3, 204, 2.91], [248, 1, 46, 2.11], [7886, 4, 69, 2.38], [88, 10, 273, 4.1], [9507, 3, 86, 1.53], [74, 1, 98, 3.13], [1446, 2, 73, 3.67], [2991, 3, 78, 5.3], [362, 2, 69, 2.45], [7004, 1, 51, 2.45], [2057, 3, 408, 2.32], [1492, 1, 30, 2.52], [1007, 2, 130, 2.48], [2055, 3, 408, 2.35], [147, 1, 74, 5.47], [76, 2, 53, 3.03], [8649, 2, 109, 3.59], [3889, 1, 106, 2.11], [11234, 2, 88, 2.92], [410, 1, 90, 2.0], [7005, 1, 68, 2.22], [345, 3, 147, 2.53], [10, 2, 51, 3.33], [1429, 2, 73, 3.12], [307, 2, 70, 3.95], [10825, 21, 303, 2.64], [5081, 2, 91, 2.66], [12870, 1, 68, 2.86], [57, 1, 73, 2.09], [10149, 3, 431, 2.87], [7036, 1, 62, 3.26], [3478, 2, 64, 2.3], [7084, 3, 63, 3.26], [1006, 2, 110, 2.7], [1504, 2, 99, 2.66], [3891, 1, 60, 3.37], [21793, 1, 202, 4.74], [94, 4, 58, 4.72], [167, 3, 110, 3.03], [411, 2, 53, 2.52], [9827, 3, 42, 2.54], [3893, 1, 60, 2.31], [79, 1, 41, 2.38], [33, 1, 54, 3.19]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.55], [305, 2, 4, 0.57], [2049, 3, 10, 0.2], [6935, 2, 8, 1.1], [326, 2, 4, 1.08], [141, 2, 4, 0.66], [144, 2, 5, 0.36], [589, 2, 5, 0.2], [362, 2, 4, 0.2], [151, 1, 5, 0.48], [12721, 2, 6, 0.56], [146, 2, 5, 0.41], [1776, 1, 4, 1.16], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.73], [8915, 2, 6, 0.2], [143, 2, 4, 0.58], [990, 2, 5, 0.26], [6936, 2, 5, 1.55], [20252, 2, 4, 0.5], [8650, 2, 4, 1.18], [1777, 1, 4, 0.93], [1007, 2, 5, 0.39], [2778, 2, 5, 0.2], [248, 1, 4, 0.2], [22247, 2, 4, 0.78], [88, 10, 9, 1.09], [2050, 3, 5, 0.38], [76, 2, 4, 1.24], [8649, 2, 5, 1.22], [10149, 3, 17, 1.82], [2054, 3, 4, 1.44], [10, 2, 5, 0.91], [8677, 3, 6, 1.56], [412, 1, 4, 0.62], [2055, 3, 4, 1.36], [13028, 3, 4, 0.75], [413, 1, 4, 1.1], [7004, 1, 4, 0.36], [411, 2, 4, 0.48], [10825, 21, 8, 1.28], [11681, 2, 5, 1.87], [1446, 2, 4, 0.54], [7084, 3, 4, 0.86], [307, 2, 4, 0.47], [3478, 2, 4, 0.89], [1429, 2, 4, 0.2], [3495, 3, 15, 0.92], [1006, 2, 5, 0.47], [5081, 2, 4, 0.44], [1492, 1, 4, 0.58], [140, 2, 5, 0.63], [7005, 1, 4, 0.36], [167, 3, 4, 1.25], [7036, 1, 4, 1.11], [9827, 3, 5, 0.2], [45, 2, 5, 0.56], [8676, 2, 4, 0.51], [1124, 2, 6, 0.2], [2049, 1, 4, 0.93], [94, 4, 4, 1.74], [13280, 1, 4, 1.47], [5812, 3, 5, 2.01], [1504, 2, 4, 0.2], [12870, 1, 4, 0.54], [168, 3, 4, 0.29], [11234, 2, 4, 0.63], [415, 1, 4, 1.07], [8651, 2, 4, 0.78], [148, 1, 4, 0.52], [418, 2, 4, 0.38], [6097, 29, 4, 1.14], [8853, 2, 5, 1.07], [416, 1, 4, 1.21], [8939, 2, 4, 0.2], [6097, 80, 4, 1.14], [11737, 2, 5, 0.2], [20256, 2, 5, 0.2], [1490, 1, 5, 0.2], [95, 3, 16, 0.19], [20927, 1, 4, 0.36], [79, 1, 4, 0.38], [6098, 29, 4, 1.08], [14017, 3, 4, 0.52], [6098, 80, 4, 1.08], [414, 1, 4, 0.81], [9069, 1, 4, 0.99], [1070, 7, 10, 0.2], [8898, 3, 5, 1.36], [1126, 2, 5, 0.39], [13034, 3, 6, 0.66], [126, 2, 4, 1.43], [20498, 1, 5, 0.8], [9760, 29, 4, 0.45], [5086, 1, 4, 0.71], [20255, 2, 5, 0.2], [12924, 1, 5, 0.2], [5513, 2, 4, 0.46], [9784, 1, 4, 0.55], [336, 15, 4, 0.86], [13260, 29, 4, 0.54], [22317, 3, 6, 0.51], [7567, 3, 4, 1.66], [1413, 15, 4, 0.33], [229, 1, 4, 1.05], [11085, 2, 4, 0.45], [5811, 3, 5, 1.26], [5813, 3, 5, 1.08], [192, 3, 11, 1.1], [8557, 3, 4, 0.2], [9082, 3, 17, 1.28], [506, 1, 4, 0.52], [3049, 3, 5, 1.6], [20498, 3, 5, 0.86], [9691, 1, 4, 1.0], [14018, 3, 4, 0.52], [524, 1, 4, 1.12], [4076, 3, 4, 1.54], [470, 1, 5, 0.2], [8943, 3, 5, 0.7], [1622, 1, 5, 0.38], [9372, 1, 4, 0.39], [20486, 3, 6, 0.79], [2775, 2, 5, 0.2], [13023, 3, 6, 1.24], [1703, 2, 4, 0.41], [11454, 2, 6, 1.6], [2423, 80, 4, 1.41], [3900, 3, 4, 1.63], [5584, 3, 5, 1.22], [2424, 80, 4, 2.04], [2497, 2, 4, 0.43], [8672, 2, 100, 2.23], [305, 2, 51, 2.31], [2049, 3, 192, 1.94], [6935, 2, 129, 4.34], [326, 2, 84, 3.42], [141, 2, 143, 3.4], [144, 2, 53, 1.93], [589, 2, 53, 2.26], [362, 2, 50, 2.1], [151, 1, 24, 2.16], [12721, 2, 99, 2.25], [146, 2, 53, 2.03], [1776, 1, 100, 3.34], [145, 2, 139, 1.96], [206, 2, 39, 1.99], [2328, 2, 53, 2.62], [8915, 2, 67, 2.05], [143, 2, 51, 2.33], [990, 2, 18, 2.66], [6936, 2, 97, 4.51], [20252, 2, 86, 2.06], [8650, 2, 79, 3.42], [1777, 1, 100, 4.11], [1007, 2, 250, 1.96], [2778, 2, 55, 2.06], [22247, 2, 99, 3.12], [88, 10, 197, 3.28], [2050, 3, 166, 1.95], [76, 2, 39, 2.63], [8649, 2, 79, 3.51], [10149, 3, 300, 4.79], [2054, 3, 324, 5.02], [10, 2, 62, 2.92], [8677, 3, 102, 4.35], [412, 1, 30, 2.41], [2055, 3, 324, 5.02], [13028, 3, 135, 2.54], [413, 1, 30, 2.36], [7004, 1, 28, 1.93], [411, 2, 101, 2.04], [10825, 21, 575, 3.49], [11681, 2, 95, 5.53], [1446, 2, 53, 3.18], [7084, 3, 46, 1.93], [307, 2, 51, 2.12], [3478, 2, 69, 3.31], [1429, 2, 53, 2.47], [3495, 3, 336, 2.89], [1006, 2, 80, 2.13], [5081, 2, 177, 1.96], [1492, 1, 13, 3.25], [140, 2, 32, 2.75], [7005, 1, 28, 1.93], [167, 3, 80, 3.59], [7036, 1, 45, 2.39], [9827, 3, 30, 2.15], [45, 2, 39, 4.21], [8676, 2, 100, 2.21], [1124, 2, 65, 2.07], [2049, 1, 21, 2.85], [94, 4, 42, 4.73], [13280, 1, 111, 3.97], [5812, 3, 543, 4.52], [1504, 2, 72, 2.1], [12870, 1, 49, 2.27], [168, 3, 141, 2.73], [11234, 2, 170, 2.47]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 4, 1.88], [6935, 2, 5, 1.18], [326, 2, 4, 1.12], [8648, 2, 4, 0.7], [144, 2, 4, 0.2], [593, 2, 5, 0.45], [2327, 2, 4, 0.47], [143, 2, 4, 0.58], [205, 2, 5, 0.53], [8915, 2, 5, 1.45], [2328, 2, 4, 0.5], [6936, 2, 4, 1.18], [11681, 2, 4, 1.35], [305, 2, 5, 0.48], [151, 1, 4, 0.59], [8650, 2, 4, 0.57], [141, 2, 4, 0.48], [206, 2, 5, 0.46], [2778, 2, 5, 0.2], [2049, 3, 8, 0.41], [88, 10, 10, 0.37], [615, 2, 4, 1.69], [7036, 1, 4, 1.57], [8853, 2, 4, 1.18], [8649, 2, 4, 0.97], [5491, 2, 4, 0.47], [434, 2, 4, 0.47], [1006, 2, 4, 1.0], [75, 2, 5, 0.99], [2055, 3, 4, 1.73], [11737, 2, 5, 0.2], [417, 2, 4, 0.66], [616, 2, 4, 1.5], [3840, 1, 4, 0.39], [2050, 3, 4, 0.34], [1007, 2, 5, 0.51], [12353, 1, 5, 0.19], [12870, 1, 4, 0.92], [523, 2, 4, 1.0], [1504, 2, 4, 1.07], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [2057, 3, 4, 0.34], [13280, 1, 4, 2.05], [3, 2, 5, 0.2], [10574, 3, 6, 1.36], [142, 2, 4, 0.51], [12346, 1, 4, 0.19], [7084, 3, 4, 0.58], [624, 2, 4, 1.35], [9760, 29, 4, 0.2], [2054, 3, 4, 0.34], [140, 2, 4, 0.93], [2775, 2, 4, 0.2], [3891, 1, 4, 0.53], [21793, 1, 4, 2.3], [8939, 2, 4, 0.2], [1429, 2, 5, 0.2], [6158, 2, 4, 0.2], [11739, 2, 4, 0.59], [96, 11, 13, 0.38], [950, 1, 4, 0.37], [5165, 2, 5, 1.61], [12269, 2, 4, 1.03], [84, 2, 4, 1.02], [9372, 1, 4, 1.7], [1126, 2, 4, 0.58], [10388, 2, 4, 1.08], [411, 2, 4, 0.5], [98, 11, 10, 0.54], [972, 3, 4, 1.07], [8672, 2, 5, 0.98], [5165, 1, 4, 0.58], [413, 1, 4, 1.01], [8898, 3, 4, 3.33], [2912, 1, 4, 0.2], [2776, 2, 4, 1.41], [410, 1, 4, 0.54], [12343, 1, 5, 0.19], [10386, 2, 4, 0.92], [995, 2, 4, 1.84], [956, 2, 4, 0.47], [1492, 1, 5, 0.7], [418, 2, 4, 0.42], [12345, 1, 5, 0.19], [13928, 1, 4, 0.48], [9784, 1, 4, 0.47], [22316, 3, 4, 0.51], [147, 1, 4, 0.53], [412, 1, 4, 0.5], [22247, 2, 4, 1.23], [957, 2, 4, 0.55], [336, 15, 4, 0.86], [8677, 3, 4, 0.9], [11490, 1, 4, 0.56], [7567, 3, 4, 1.65], [2912, 2, 5, 0.47], [432, 3, 5, 0.47], [308, 1, 4, 0.95], [307, 2, 5, 0.59], [11953, 1, 4, 0.45], [33, 1, 4, 1.06], [11770, 1, 4, 0.48], [10631, 2, 4, 0.92], [414, 1, 4, 0.66], [35, 1, 4, 0.66], [20256, 2, 4, 0.44], [22317, 3, 5, 0.51], [10407, 10, 6, 1.44], [148, 1, 4, 0.55], [1413, 15, 4, 0.45], [10780, 10, 4, 1.52], [10410, 10, 6, 1.64], [13286, 1, 4, 1.32], [439, 1, 4, 1.15], [7573, 1, 5, 1.45], [335, 3, 9, 1.35], [7886, 4, 4, 0.47], [9691, 1, 4, 0.55], [11767, 1, 4, 0.5], [972, 1, 4, 1.51], [12347, 1, 4, 0.19], [10387, 2, 4, 0.95], [6497, 1, 4, 0.52], [74, 1, 4, 1.16], [20686, 1, 5, 1.33], [3478, 2, 4, 1.63], [12271, 2, 4, 1.01], [9971, 2, 4, 1.44], [8897, 3, 4, 3.33], [2331, 1, 4, 1.08], [11769, 1, 4, 1.1], [9082, 3, 17, 0.77], [11685, 2, 106, 5.4], [6935, 2, 108, 5.9], [326, 2, 36, 3.57], [8648, 2, 89, 2.99], [144, 2, 59, 4.4], [593, 2, 89, 2.78], [2327, 2, 59, 2.57], [143, 2, 58, 2.77], [205, 2, 42, 2.69], [8915, 2, 65, 4.29], [2328, 2, 59, 2.62], [6936, 2, 108, 5.92], [11681, 2, 106, 5.01], [305, 2, 57, 2.58], [151, 1, 58, 2.7], [8650, 2, 89, 2.75], [141, 2, 61, 2.6], [206, 2, 42, 2.55], [2778, 2, 61, 2.77], [2049, 3, 144, 2.25], [88, 10, 220, 3.45], [615, 2, 91, 4.78], [7036, 1, 50, 3.83], [8853, 2, 108, 5.93], [8649, 2, 89, 2.58], [5491, 2, 42, 2.57], [434, 2, 56, 2.07], [1006, 2, 89, 2.63], [75, 2, 57, 3.52], [2055, 3, 396, 4.86], [11737, 2, 23, 2.79], [417, 2, 133, 2.95], [616, 2, 91, 4.41], [3840, 1, 150, 2.17], [2050, 3, 188, 2.34], [1007, 2, 105, 2.65], [12353, 1, 241, 4.47], [12870, 1, 117, 5.16], [523, 2, 60, 2.64], [1504, 2, 80, 2.75], [159, 3, 619, 2.07], [20927, 1, 68, 3.22], [2057, 3, 188, 2.34], [13280, 1, 123, 5.48], [3, 2, 48, 2.52], [10574, 3, 196, 4.07], [142, 2, 133, 2.39], [12346, 1, 241, 4.15], [7084, 3, 51, 2.79], [624, 2, 91, 5.38], [9760, 29, 28, 2.5], [2054, 3, 188, 2.34], [140, 2, 78, 3.15], [2775, 2, 61, 2.77], [3891, 1, 108, 2.43], [21793, 1, 90, 5.26], [8939, 2, 75, 2.61], [1429, 2, 60, 2.59], [6158, 2, 103, 2.54], [11739, 2, 23, 2.79], [96, 11, 330, 2.81], [950, 1, 41, 2.04], [12269, 2, 55, 3.35], [84, 2, 27, 2.67], [9372, 1, 196, 4.79], [1126, 2, 197, 2.71], [10388, 2, 186, 3.58]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.47], [141, 2, 4, 0.51], [362, 2, 5, 0.2], [361, 2, 5, 0.54], [6935, 2, 7, 1.06], [205, 2, 4, 0.35], [12721, 2, 5, 1.21], [11737, 2, 4, 0.43], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.49], [8675, 2, 4, 0.6], [417, 2, 4, 0.57], [3, 2, 4, 0.5], [6936, 2, 4, 1.58], [305, 2, 5, 0.53], [151, 1, 4, 0.57], [523, 2, 4, 0.53], [22247, 2, 4, 1.0], [8650, 2, 4, 0.89], [142, 2, 4, 0.49], [8648, 2, 4, 1.7], [2328, 2, 4, 0.78], [2776, 2, 4, 0.2], [8853, 2, 4, 1.54], [616, 2, 4, 1.12], [11739, 2, 4, 0.43], [2327, 2, 5, 0.63], [11837, 2, 4, 0.45], [12352, 1, 4, 1.38], [411, 2, 4, 0.47], [589, 2, 4, 0.2], [143, 2, 4, 0.87], [146, 2, 4, 0.62], [11835, 2, 4, 0.55], [412, 1, 4, 1.0], [12353, 1, 4, 1.38], [6497, 1, 5, 0.5], [583, 2, 4, 1.31], [8674, 2, 5, 0.63], [145, 2, 4, 0.49], [2805, 137, 8, 0.2], [326, 2, 4, 1.31], [10574, 3, 5, 1.26], [418, 2, 4, 0.54], [144, 2, 4, 0.52], [6097, 80, 4, 1.14], [11836, 2, 4, 0.53], [11738, 2, 4, 0.43], [9784, 1, 4, 0.99], [10149, 3, 13, 0.49], [413, 1, 4, 0.97], [6097, 29, 5, 0.64], [2057, 3, 4, 1.0], [75, 2, 4, 0.56], [11234, 2, 4, 0.63], [2055, 3, 4, 1.18], [1413, 15, 4, 0.2], [12344, 1, 4, 1.38], [20252, 2, 4, 0.47], [11504, 2, 4, 0.2], [12269, 2, 4, 0.57], [8915, 2, 4, 0.39], [414, 1, 4, 0.99], [1492, 1, 4, 0.62], [6098, 80, 4, 1.14], [12346, 1, 4, 1.38], [247, 1, 4, 0.8], [3429, 15, 4, 0.46], [22316, 3, 4, 0.46], [2774, 2, 4, 0.52], [1490, 1, 4, 0.36], [416, 1, 4, 1.16], [6098, 29, 4, 1.19], [9786, 1, 4, 1.55], [3934, 5, 5, 0.56], [2859, 15, 4, 0.57], [2049, 1, 4, 0.41], [201, 3, 4, 0.51], [3670, 2, 4, 0.97], [20555, 2, 4, 0.43], [6158, 2, 5, 0.44], [3478, 2, 4, 0.89], [7084, 3, 4, 0.94], [9785, 1, 4, 0.99], [12526, 2, 4, 0.74], [8599, 1, 4, 0.49], [3430, 15, 4, 0.35], [8938, 2, 4, 0.57], [1703, 2, 4, 0.75], [4253, 1, 4, 0.5], [9760, 29, 4, 0.95], [186, 3, 7, 0.5], [1413, 16, 4, 0.37], [229, 1, 4, 1.15], [11885, 2, 4, 0.39], [107, 2, 4, 1.2], [11887, 2, 5, 0.39], [1050, 2, 4, 0.37], [11811, 1, 4, 0.38], [94, 4, 4, 1.76], [4232, 80, 4, 1.65], [11490, 1, 4, 0.52], [436, 2, 4, 0.51], [107, 7, 5, 1.13], [947, 15, 4, 0.39], [2438, 2, 5, 1.38], [415, 1, 4, 1.16], [11770, 1, 4, 0.43], [3673, 2, 4, 2.08], [11767, 1, 4, 0.48], [2821, 3, 8, 0.45], [11769, 1, 4, 0.48], [5939, 3, 4, 0.5], [11671, 1, 4, 0.45], [11160, 1, 4, 1.87], [11844, 2, 4, 0.47], [9491, 21, 10, 0.51], [12347, 1, 4, 1.38], [5812, 3, 4, 2.0], [7036, 1, 4, 0.43], [9358, 1, 4, 0.44], [140, 2, 4, 1.31], [5813, 3, 5, 1.1], [3495, 3, 13, 0.85], [12764, 2, 5, 0.49], [11771, 1, 4, 1.61], [11954, 1, 4, 0.42], [23920, 2, 4, 0.46], [9690, 1, 4, 0.79], [410, 1, 4, 0.8], [5811, 3, 6, 1.16], [308, 1, 5, 0.79], [8672, 2, 145, 3.11], [141, 2, 156, 2.73], [362, 2, 72, 2.98], [361, 2, 78, 3.1], [6935, 2, 143, 5.12], [205, 2, 110, 2.44], [12721, 2, 285, 4.59], [11737, 2, 57, 3.01], [206, 2, 42, 2.62], [2049, 3, 276, 2.87], [8676, 2, 287, 4.22], [8675, 2, 287, 3.21], [417, 2, 78, 3.15], [3, 2, 61, 3.03], [6936, 2, 143, 4.65], [305, 2, 74, 3.08], [151, 1, 33, 2.79], [523, 2, 78, 3.23], [22247, 2, 285, 3.62], [8650, 2, 114, 4.44], [142, 2, 156, 2.68], [8648, 2, 114, 4.32], [2328, 2, 76, 3.53], [2776, 2, 79, 3.28], [8853, 2, 282, 4.82], [616, 2, 107, 4.01], [11739, 2, 57, 3.01], [2327, 2, 76, 3.26], [11837, 2, 268, 2.61], [12352, 1, 607, 4.89], [411, 2, 110, 2.65], [589, 2, 77, 2.91], [143, 2, 147, 3.39], [146, 2, 151, 2.93], [11835, 2, 134, 3.11], [412, 1, 42, 3.02], [12353, 1, 607, 4.89], [6497, 1, 19, 3.94], [583, 2, 30, 3.93], [8674, 2, 145, 3.28], [145, 2, 151, 2.69], [2805, 137, 92, 3.7], [326, 2, 30, 3.62], [10574, 3, 249, 4.6], [418, 2, 142, 2.79], [144, 2, 151, 2.74], [6097, 80, 35, 5.49], [11836, 2, 268, 2.76], [11738, 2, 57, 3.01], [9784, 1, 36, 3.01], [10149, 3, 906, 2.65], [413, 1, 44, 2.97], [6097, 29, 18, 5.49], [2057, 3, 158, 4.31], [75, 2, 144, 2.82], [11234, 2, 185, 3.11], [2055, 3, 158, 4.31], [1413, 15, 50, 3.0], [12344, 1, 607, 4.33], [20252, 2, 94, 2.66], [11504, 2, 72, 2.78], [12269, 2, 65, 2.84], [8915, 2, 97, 2.14], [414, 1, 44, 3.01], [1492, 1, 37, 2.92], [6098, 80, 38, 4.03], [12346, 1, 607, 4.89]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.77], [2778, 2, 4, 0.2], [144, 2, 4, 0.53], [130, 1, 4, 0.48], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2328, 2, 4, 0.39], [6936, 2, 4, 1.74], [8648, 2, 5, 1.05], [2775, 2, 4, 0.2], [205, 2, 4, 0.43], [8650, 2, 5, 0.39], [326, 2, 4, 0.65], [593, 2, 4, 0.37], [146, 2, 4, 0.57], [145, 2, 4, 0.51], [7036, 1, 4, 0.44], [3840, 1, 5, 0.29], [2049, 3, 5, 0.42], [2776, 2, 4, 0.2], [615, 2, 4, 0.2], [616, 2, 4, 0.2], [88, 10, 9, 0.93], [141, 2, 4, 0.2], [151, 1, 4, 0.59], [1124, 2, 4, 0.79], [11681, 2, 5, 0.83], [206, 2, 4, 0.37], [1446, 2, 4, 0.2], [9760, 29, 4, 0.37], [8853, 2, 4, 1.79], [990, 2, 5, 0.2], [5491, 2, 4, 0.58], [1007, 2, 4, 0.46], [362, 2, 4, 0.5], [8672, 2, 4, 1.48], [1504, 2, 4, 0.93], [2055, 3, 4, 0.46], [9372, 1, 4, 1.97], [2057, 3, 4, 0.46], [3893, 1, 4, 0.2], [8649, 2, 5, 0.39], [8938, 2, 4, 0.52], [434, 2, 4, 0.2], [12870, 1, 4, 1.22], [624, 2, 4, 1.1], [2050, 3, 4, 0.46], [417, 2, 4, 0.42], [3889, 1, 4, 0.35], [5165, 1, 4, 0.56], [1429, 2, 4, 0.2], [378, 2, 4, 2.29], [7084, 3, 4, 0.86], [10, 2, 4, 0.45], [2991, 3, 4, 1.1], [140, 2, 4, 1.27], [3891, 1, 4, 0.2], [1006, 2, 4, 0.54], [7886, 4, 5, 0.41], [10574, 3, 5, 1.36], [7573, 1, 8, 2.02], [10149, 3, 13, 0.39], [5208, 3, 4, 0.19], [1622, 1, 4, 0.45], [75, 2, 4, 0.39], [3, 2, 4, 0.46], [20927, 1, 4, 0.95], [5165, 2, 5, 1.02], [997, 2, 4, 1.42], [11234, 2, 4, 1.25], [12721, 2, 5, 0.49], [22247, 2, 4, 1.37], [147, 1, 4, 1.75], [346, 3, 4, 0.19], [996, 2, 4, 1.16], [11811, 1, 4, 0.2], [229, 1, 4, 0.54], [20252, 2, 4, 0.38], [11685, 2, 5, 0.83], [998, 2, 5, 1.0], [94, 4, 4, 1.91], [972, 3, 5, 0.51], [9491, 21, 10, 0.44], [76, 2, 4, 0.87], [35, 1, 4, 1.02], [439, 1, 4, 0.46], [6158, 2, 4, 2.61], [413, 1, 4, 1.08], [13028, 3, 5, 1.54], [13928, 1, 4, 0.2], [8104, 1, 4, 0.87], [5076, 1, 4, 0.43], [2805, 137, 4, 0.6], [5209, 3, 4, 0.19], [412, 1, 4, 0.43], [8676, 2, 4, 2.17], [33, 1, 4, 0.97], [83, 2, 4, 0.88], [418, 2, 4, 0.63], [148, 1, 4, 1.76], [2774, 2, 4, 0.63], [3495, 3, 10, 0.82], [8898, 3, 5, 1.44], [12212, 29, 4, 0.2], [7887, 4, 4, 0.94], [20256, 2, 5, 0.2], [38, 1, 4, 1.16], [11490, 1, 5, 0.43], [11770, 1, 4, 0.88], [34, 1, 4, 1.09], [10407, 10, 7, 1.55], [415, 1, 4, 0.52], [9784, 1, 4, 0.52], [84, 2, 4, 0.97], [126, 2, 4, 1.27], [411, 2, 4, 0.48], [13928, 2, 4, 0.7], [11739, 2, 4, 1.42], [9691, 1, 4, 0.57], [3048, 3, 4, 1.15], [9690, 1, 4, 0.37], [8939, 2, 4, 0.2], [5584, 3, 5, 1.25], [11953, 1, 4, 0.46], [39, 1, 4, 1.13], [12351, 1, 4, 0.66], [10410, 10, 9, 2.08], [11954, 1, 4, 0.38], [12764, 2, 5, 0.21], [7567, 3, 5, 1.16], [2327, 2, 74, 2.93], [305, 2, 72, 2.8], [6935, 2, 135, 6.0], [2778, 2, 77, 2.92], [144, 2, 55, 4.54], [130, 1, 29, 2.86], [8915, 2, 93, 2.96], [589, 2, 75, 2.97], [143, 2, 72, 3.03], [2328, 2, 147, 3.37], [6936, 2, 135, 5.39], [8648, 2, 110, 3.91], [2775, 2, 77, 2.92], [205, 2, 54, 2.77], [8650, 2, 110, 3.45], [326, 2, 44, 4.1], [593, 2, 223, 2.53], [146, 2, 73, 3.02], [145, 2, 73, 2.92], [7036, 1, 63, 4.28], [3840, 1, 84, 3.43], [2049, 3, 360, 2.34], [2776, 2, 77, 3.16], [615, 2, 54, 3.01], [616, 2, 54, 2.64], [88, 10, 276, 3.94], [141, 2, 76, 2.69], [151, 1, 32, 2.68], [1124, 2, 182, 3.1], [11681, 2, 131, 5.43], [206, 2, 106, 2.39], [1446, 2, 74, 3.2], [9760, 29, 35, 2.66], [8853, 2, 135, 5.48], [990, 2, 26, 2.69], [5491, 2, 53, 3.05], [1007, 2, 264, 2.49], [362, 2, 69, 2.89], [8672, 2, 140, 4.92], [1504, 2, 99, 3.69], [2055, 3, 314, 2.32], [9372, 1, 114, 5.58], [2057, 3, 314, 2.32], [3893, 1, 61, 2.96], [8649, 2, 110, 3.26], [8938, 2, 125, 2.43], [434, 2, 53, 2.69], [12870, 1, 69, 3.3], [624, 2, 104, 3.83], [2050, 3, 314, 2.32], [417, 2, 76, 2.76], [3889, 1, 122, 2.29], [5165, 1, 38, 3.97], [1429, 2, 74, 2.89], [378, 2, 218, 5.85], [7084, 3, 127, 3.22], [10, 2, 102, 3.24], [2991, 3, 79, 5.62], [140, 2, 86, 3.98], [3891, 1, 61, 2.96], [1006, 2, 111, 2.97], [7886, 4, 35, 2.24], [10574, 3, 246, 4.55], [7573, 1, 336, 6.0], [10149, 3, 848, 3.11], [5208, 3, 273, 2.87], [1622, 1, 105, 2.46]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 11, 1.2], [6935, 2, 19, 4.42], [6936, 2, 9, 3.89], [305, 2, 7, 1.48], [8672, 2, 10, 1.28], [615, 2, 7, 1.37], [1504, 2, 9, 1.35], [2775, 2, 9, 1.03], [145, 2, 7, 1.24], [2776, 2, 9, 1.9], [8853, 2, 7, 3.02], [2327, 2, 7, 1.21], [12721, 2, 11, 1.7], [130, 1, 9, 0.78], [143, 2, 7, 1.94], [146, 2, 7, 1.53], [2328, 2, 7, 1.5], [11681, 2, 11, 3.38], [11737, 2, 7, 1.32], [616, 2, 7, 2.16], [5491, 2, 7, 1.03], [141, 2, 7, 2.37], [362, 2, 6, 0.85], [144, 2, 7, 1.3], [2497, 2, 7, 1.64], [205, 2, 7, 0.85], [8650, 2, 11, 2.33], [5493, 2, 9, 0.77], [417, 2, 7, 1.55], [8676, 2, 7, 0.9], [8673, 2, 9, 2.44], [3670, 2, 9, 4.0], [2774, 2, 9, 3.42], [8648, 2, 7, 3.5], [589, 2, 9, 0.8], [3, 2, 7, 0.98], [206, 2, 7, 0.71], [6097, 80, 7, 3.38], [2423, 29, 7, 3.02], [22247, 2, 7, 1.94], [11836, 2, 7, 0.9], [6497, 1, 7, 1.84], [8674, 2, 7, 1.97], [624, 2, 7, 2.32], [2055, 3, 7, 3.23], [12343, 1, 7, 2.59], [2423, 80, 7, 2.97], [523, 2, 7, 1.25], [12344, 1, 7, 1.6], [593, 2, 8, 0.79], [6097, 29, 7, 3.38], [6098, 80, 7, 2.36], [12720, 2, 7, 1.69], [12345, 1, 7, 2.59], [11739, 2, 7, 1.32], [8915, 2, 7, 0.75], [75, 2, 7, 2.15], [88, 10, 16, 2.9], [326, 2, 7, 2.83], [6494, 1, 7, 0.85], [60, 3, 10, 1.49], [13260, 29, 7, 1.16], [142, 2, 7, 2.37], [3429, 15, 7, 0.85], [1492, 1, 7, 1.13], [411, 2, 7, 0.81], [21712, 3, 21, 1.11], [412, 1, 7, 1.93], [1050, 2, 7, 0.7], [2422, 80, 7, 2.41], [10149, 3, 21, 2.21], [2422, 29, 7, 3.8], [6098, 29, 7, 2.08], [378, 2, 9, 2.87], [12346, 1, 7, 2.59], [7704, 2, 7, 2.28], [151, 1, 7, 1.36], [11738, 2, 7, 1.32], [22316, 3, 7, 0.85], [1243, 2, 7, 1.32], [229, 1, 7, 3.68], [1049, 2, 7, 0.7], [13264, 29, 7, 0.94], [20252, 2, 7, 1.06], [345, 3, 7, 2.32], [13258, 29, 9, 1.59], [1490, 1, 7, 0.87], [964, 15, 7, 0.66], [12269, 2, 7, 0.93], [2438, 1, 7, 2.08], [2821, 3, 12, 1.27], [5208, 3, 9, 1.41], [10407, 10, 10, 2.08], [2331, 1, 7, 1.02], [1163, 3, 7, 2.25], [416, 1, 7, 3.06], [201, 3, 7, 4.28], [307, 2, 7, 1.91], [186, 3, 12, 0.9], [7004, 1, 7, 1.03], [149, 2, 7, 1.95], [418, 2, 7, 0.99], [957, 2, 7, 1.05], [13259, 29, 7, 2.95], [1309, 1, 7, 0.82], [7705, 2, 7, 2.28], [12229, 2, 7, 0.96], [7706, 2, 7, 2.28], [10406, 10, 12, 2.42], [11687, 2, 7, 1.02], [410, 1, 7, 1.3], [7036, 1, 7, 0.87], [3478, 2, 9, 1.47], [20255, 2, 7, 1.14], [9784, 1, 7, 1.67], [21713, 3, 13, 0.88], [8938, 2, 7, 1.06], [10408, 10, 10, 1.81], [5490, 2, 7, 0.91], [12870, 1, 7, 4.46], [11402, 1, 7, 0.85], [10410, 10, 10, 2.08], [19687, 1, 7, 2.23], [2438, 2, 8, 2.38], [11490, 1, 7, 0.83], [107, 7, 8, 2.46], [2703, 3, 7, 3.92], [11161, 1, 10, 3.78], [956, 2, 7, 0.96], [1886, 2, 7, 0.65], [21781, 2, 7, 0.86], [11690, 2, 7, 0.66], [10411, 10, 10, 1.97], [412, 1, 42, 3.02], [1050, 2, 38, 1.78], [2422, 80, 187, 4.2], [10149, 3, 866, 4.0], [2422, 29, 18, 5.41], [6098, 29, 19, 3.97], [378, 2, 114, 4.24], [12346, 1, 610, 4.37], [7704, 2, 176, 4.07], [151, 1, 33, 2.79], [11738, 2, 56, 3.11], [22316, 3, 318, 2.64], [1243, 2, 99, 3.11], [229, 1, 81, 5.47], [1049, 2, 38, 1.78], [13264, 29, 73, 2.73], [20252, 2, 92, 2.85], [345, 3, 297, 4.1], [13258, 29, 39, 3.37], [1490, 1, 51, 2.66], [12269, 2, 65, 2.72], [2438, 1, 54, 3.87], [2821, 3, 658, 3.36], [5208, 3, 561, 3.2], [10407, 10, 1201, 3.88], [2331, 1, 119, 2.8], [1163, 3, 114, 3.33], [416, 1, 85, 4.84], [201, 3, 297, 6.0], [307, 2, 148, 3.7], [186, 3, 665, 2.69], [7004, 1, 80, 2.82], [149, 2, 88, 3.74], [418, 2, 143, 2.78], [957, 2, 107, 2.84], [13259, 29, 35, 4.73], [1309, 1, 58, 2.6], [7705, 2, 176, 4.07], [12229, 2, 152, 2.74], [7706, 2, 176, 4.07], [10406, 10, 1784, 4.24], [11687, 2, 303, 2.8], [410, 1, 105, 3.09], [7036, 1, 127, 2.65], [3478, 2, 38, 4.08], [20255, 2, 93, 2.93], [9784, 1, 72, 3.46], [21713, 3, 1121, 2.67], [8938, 2, 192, 2.85], [10408, 10, 785, 3.6], [5490, 2, 108, 2.69], [12870, 1, 137, 6.0], [11402, 1, 45, 2.64], [10410, 10, 1201, 3.88], [19687, 1, 30, 4.02], [2438, 2, 643, 4.17], [11490, 1, 55, 2.9], [107, 7, 239, 4.24], [2703, 3, 300, 5.7], [11161, 1, 490, 5.57], [956, 2, 107, 2.75], [1886, 2, 158, 2.44], [21781, 2, 104, 2.65], [11690, 2, 303, 2.44], [10411, 10, 785, 3.76]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 7, 0.94], [2328, 2, 7, 1.43], [8650, 2, 7, 2.83], [362, 2, 9, 0.78], [5491, 2, 7, 1.11], [5493, 2, 9, 0.67], [130, 1, 7, 1.38], [589, 2, 7, 0.95], [2327, 2, 7, 1.16], [326, 2, 7, 1.87], [11685, 2, 7, 4.19], [8672, 2, 10, 1.28], [417, 2, 7, 1.02], [6935, 2, 12, 4.21], [205, 2, 7, 0.74], [11681, 2, 11, 3.74], [206, 2, 7, 0.71], [8648, 2, 7, 3.27], [6936, 2, 8, 3.12], [142, 2, 9, 0.8], [8915, 2, 7, 1.26], [11837, 2, 7, 1.01], [12721, 2, 9, 1.92], [11838, 2, 9, 0.99], [2049, 3, 17, 1.18], [1446, 2, 7, 1.82], [523, 2, 7, 1.02], [615, 2, 7, 2.85], [8676, 2, 7, 2.44], [11737, 2, 7, 1.9], [305, 2, 7, 0.98], [616, 2, 7, 2.37], [413, 1, 7, 1.44], [412, 1, 7, 1.93], [411, 2, 7, 0.86], [11739, 2, 7, 1.9], [10574, 3, 10, 2.64], [11835, 2, 7, 1.01], [145, 2, 7, 1.24], [21793, 1, 8, 4.02], [2775, 2, 7, 0.78], [1429, 2, 7, 0.89], [76, 2, 7, 2.04], [8675, 2, 9, 1.42], [8673, 2, 7, 3.38], [143, 2, 7, 1.19], [11836, 2, 9, 0.79], [8674, 2, 7, 1.46], [8938, 2, 7, 1.78], [146, 2, 7, 1.14], [6158, 2, 9, 2.65], [151, 1, 7, 1.36], [12720, 2, 7, 1.69], [10149, 3, 21, 1.48], [2776, 2, 7, 1.37], [3495, 3, 21, 1.51], [2055, 3, 7, 3.23], [75, 2, 7, 2.15], [2057, 3, 7, 3.23], [11738, 2, 7, 1.9], [144, 2, 7, 0.96], [8939, 2, 7, 3.23], [416, 1, 7, 1.34], [7885, 4, 7, 0.81], [22316, 3, 9, 0.85], [88, 10, 16, 2.9], [159, 3, 9, 1.37], [2859, 15, 7, 0.81], [7084, 3, 7, 3.21], [418, 2, 9, 0.68], [10993, 2, 7, 0.94], [20252, 2, 7, 0.68], [9784, 1, 7, 1.61], [7705, 2, 7, 2.28], [5165, 1, 7, 1.09], [12526, 2, 7, 2.78], [410, 1, 7, 0.87], [11844, 2, 7, 1.16], [414, 1, 7, 1.34], [12351, 1, 7, 1.63], [2423, 80, 7, 2.8], [378, 2, 7, 2.23], [2424, 29, 9, 1.09], [2423, 29, 7, 3.02], [12345, 1, 7, 1.19], [60, 3, 10, 4.98], [950, 1, 7, 0.72], [6494, 1, 7, 0.85], [11490, 1, 7, 0.89], [2424, 80, 7, 2.28], [13023, 3, 10, 2.63], [12373, 1, 11, 1.47], [13034, 3, 8, 2.37], [201, 3, 7, 2.12], [1519, 3, 15, 0.69], [11489, 1, 7, 0.68], [345, 3, 7, 1.4], [5208, 3, 9, 1.01], [11770, 1, 7, 0.89], [159, 1, 7, 1.33], [3, 2, 7, 5.0], [6952, 1, 7, 2.01], [3430, 15, 7, 2.26], [20927, 1, 7, 0.87], [11954, 1, 7, 0.77], [7886, 4, 7, 0.8], [432, 3, 7, 3.74], [3429, 15, 7, 0.85], [13928, 1, 7, 0.82], [11504, 2, 7, 0.67], [11811, 1, 7, 1.93], [566, 2, 7, 0.92], [5584, 3, 7, 2.91], [114, 3, 7, 3.01], [2331, 1, 7, 2.78], [10407, 10, 10, 2.08], [1492, 1, 7, 1.13], [105, 3, 7, 3.01], [1490, 1, 7, 3.38], [7004, 1, 7, 1.91], [11089, 1, 7, 0.71], [2703, 3, 7, 3.92], [6098, 80, 7, 2.52], [8274, 3, 7, 4.22], [11674, 1, 7, 0.66], [1886, 2, 7, 0.82], [12348, 1, 7, 1.19], [94, 4, 7, 4.17], [10410, 10, 10, 2.08], [3891, 1, 7, 4.39], [11953, 1, 7, 0.85], [22317, 3, 8, 0.88], [6097, 80, 7, 3.42], [7084, 3, 129, 5.0], [418, 2, 72, 2.79], [10993, 2, 27, 3.0], [20252, 2, 93, 2.46], [9784, 1, 72, 3.4], [7705, 2, 176, 4.07], [5165, 1, 49, 2.88], [12526, 2, 272, 4.56], [410, 1, 53, 2.3], [11844, 2, 186, 2.77], [414, 1, 86, 3.13], [12351, 1, 315, 3.26], [2423, 80, 92, 4.41], [378, 2, 114, 4.24], [2424, 29, 17, 3.17], [2423, 29, 37, 4.81], [12345, 1, 315, 3.26], [950, 1, 30, 2.15], [6494, 1, 52, 2.64], [11490, 1, 109, 2.68], [2424, 80, 170, 4.07], [13023, 3, 592, 4.42], [12373, 1, 533, 3.26], [13034, 3, 592, 4.16], [201, 3, 151, 3.21], [1519, 3, 561, 1.77], [11489, 1, 109, 2.46], [345, 3, 298, 3.19], [5208, 3, 563, 2.79], [11770, 1, 221, 2.67], [159, 1, 39, 3.12], [3, 2, 118, 6.0], [6952, 1, 189, 3.79], [3430, 15, 69, 4.05], [20927, 1, 80, 2.66], [11954, 1, 203, 2.56], [7886, 4, 36, 2.38], [432, 3, 300, 5.53], [3429, 15, 53, 2.63], [13928, 1, 49, 2.61], [11504, 2, 72, 2.78], [11811, 1, 451, 3.72], [566, 2, 175, 2.7], [5584, 3, 229, 4.7], [114, 3, 241, 4.8], [2331, 1, 117, 4.57], [10407, 10, 1201, 3.88], [1492, 1, 37, 2.92], [105, 3, 201, 4.72], [1490, 1, 48, 5.17], [7004, 1, 40, 3.0], [11089, 1, 173, 2.5], [2703, 3, 300, 5.7], [6098, 80, 74, 4.31], [11674, 1, 205, 2.44], [1886, 2, 157, 2.61], [12348, 1, 315, 3.26], [94, 4, 116, 5.96], [10410, 10, 1201, 3.88], [3891, 1, 122, 6.0], [11953, 1, 203, 2.63], [22317, 3, 318, 2.66], [6097, 80, 68, 5.21]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 2.27], [6935, 2, 17, 3.32], [2049, 3, 13, 0.72], [362, 2, 7, 1.64], [589, 2, 10, 0.77], [75, 2, 7, 0.75], [141, 2, 7, 2.25], [1776, 1, 9, 0.83], [205, 2, 7, 0.7], [8915, 2, 9, 0.75], [2778, 2, 7, 0.79], [8672, 2, 10, 0.94], [6936, 2, 10, 3.25], [593, 2, 11, 1.01], [7886, 4, 7, 1.04], [305, 2, 7, 0.96], [206, 2, 7, 0.72], [151, 1, 7, 0.87], [8648, 2, 7, 2.14], [1777, 1, 9, 1.98], [2328, 2, 7, 0.65], [88, 10, 14, 1.03], [11681, 2, 10, 4.17], [990, 2, 7, 1.06], [8650, 2, 7, 2.17], [412, 1, 7, 1.64], [5151, 2, 9, 2.35], [2050, 3, 7, 2.4], [76, 2, 9, 1.39], [144, 2, 7, 0.91], [10149, 3, 25, 4.03], [345, 3, 10, 0.97], [2991, 3, 7, 3.64], [22247, 2, 9, 1.34], [57, 1, 7, 0.7], [3478, 2, 7, 2.16], [146, 2, 7, 1.93], [7004, 1, 9, 0.71], [45, 2, 7, 2.94], [2054, 3, 6, 0.93], [143, 2, 6, 0.84], [417, 2, 7, 0.85], [413, 1, 7, 2.13], [21793, 1, 7, 0.83], [167, 3, 9, 0.97], [201, 3, 10, 0.7], [74, 1, 7, 3.37], [1446, 2, 7, 1.41], [346, 1, 9, 0.73], [2055, 3, 7, 0.9], [168, 3, 9, 1.11], [10, 2, 9, 1.61], [7084, 3, 7, 0.69], [11234, 2, 9, 0.72], [1429, 2, 7, 1.71], [7036, 1, 7, 3.47], [12721, 2, 10, 0.9], [3495, 3, 21, 0.95], [5081, 2, 7, 0.81], [8649, 2, 7, 2.48], [308, 1, 9, 2.22], [13028, 3, 7, 0.9], [12870, 1, 7, 2.96], [10825, 21, 14, 2.47], [79, 1, 7, 0.7], [1492, 1, 7, 1.98], [96, 11, 23, 0.64], [23, 1, 7, 1.24], [1006, 2, 7, 1.06], [3893, 1, 7, 1.48], [418, 2, 7, 0.79], [1504, 2, 7, 1.39], [145, 2, 7, 0.79], [5208, 3, 9, 1.57], [9827, 3, 7, 1.36], [3891, 1, 7, 0.98], [432, 3, 7, 0.75], [7005, 1, 7, 1.16], [1490, 1, 7, 1.46], [8853, 2, 11, 3.48], [94, 4, 7, 4.2], [13260, 29, 7, 0.77], [5812, 3, 8, 3.38], [416, 1, 7, 1.53], [8651, 2, 7, 1.54], [12353, 1, 7, 3.09], [20256, 2, 7, 0.92], [8939, 2, 7, 1.39], [21269, 3, 7, 4.99], [13280, 1, 7, 2.64], [950, 1, 7, 0.98], [33, 1, 7, 1.02], [5086, 1, 7, 2.64], [998, 2, 7, 1.84], [9069, 1, 7, 1.87], [1243, 2, 7, 1.64], [229, 1, 7, 2.92], [2878, 1, 6, 1.36], [140, 2, 7, 1.21], [7567, 3, 7, 2.54], [2049, 1, 7, 0.69], [20927, 1, 9, 0.66], [126, 2, 7, 2.22], [346, 3, 8, 0.74], [1703, 2, 7, 1.51], [3980, 4, 7, 2.59], [8121, 3, 7, 0.97], [8274, 3, 7, 1.24], [35, 1, 7, 0.88], [9691, 1, 7, 2.1], [5209, 3, 9, 0.67], [997, 2, 7, 1.98], [11811, 1, 7, 1.83], [5584, 3, 7, 3.35], [1070, 7, 13, 1.16], [11914, 1, 7, 1.42], [1519, 3, 17, 0.69], [856, 1, 7, 0.69], [5660, 2, 7, 1.66], [8898, 3, 7, 4.68], [1091, 1, 7, 1.15], [5513, 2, 7, 0.8], [523, 2, 7, 1.16], [8926, 1, 7, 2.6], [11767, 1, 7, 0.88], [2775, 2, 7, 0.79], [9372, 1, 7, 2.03], [13034, 3, 8, 3.38], [9081, 3, 12, 3.55], [307, 2, 7, 2.19], [20255, 2, 7, 1.43], [12661, 1, 7, 1.87], [11808, 1, 7, 1.16], [23, 1, 39, 2.51], [1006, 2, 80, 2.28], [3893, 1, 44, 2.25], [418, 2, 131, 1.94], [1504, 2, 72, 2.16], [145, 2, 139, 1.94], [5208, 3, 196, 2.33], [9827, 3, 30, 2.12], [3891, 1, 44, 2.25], [432, 3, 106, 2.02], [7005, 1, 28, 1.93], [1490, 1, 18, 2.23], [8853, 2, 97, 4.75], [94, 4, 42, 4.96], [13260, 29, 26, 2.0], [5812, 3, 543, 4.52], [416, 1, 79, 2.68], [8651, 2, 79, 2.73], [12353, 1, 557, 4.25], [20256, 2, 33, 2.19], [21269, 3, 270, 6.0], [13280, 1, 291, 3.8], [950, 1, 55, 2.13], [33, 1, 39, 2.24], [5086, 1, 63, 3.41], [998, 2, 83, 2.61], [9069, 1, 43, 2.12], [1243, 2, 90, 2.79], [229, 1, 75, 4.08], [2878, 1, 28, 2.63], [140, 2, 32, 2.75], [7567, 3, 24, 3.31], [2049, 1, 14, 1.46], [20927, 1, 28, 1.93], [126, 2, 32, 2.98], [346, 3, 219, 2.01], [1703, 2, 149, 2.66], [3980, 4, 443, 3.74], [8121, 3, 270, 2.12], [8274, 3, 159, 2.0], [35, 1, 103, 2.02], [9691, 1, 27, 2.36], [5209, 3, 196, 1.95], [997, 2, 83, 2.24], [11811, 1, 416, 2.98], [5584, 3, 86, 3.55], [1070, 7, 206, 1.93], [11914, 1, 30, 2.19], [1519, 3, 1545, 1.83], [856, 1, 32, 1.84], [5660, 2, 61, 2.93], [8898, 3, 102, 5.05], [1091, 1, 17, 2.42], [5513, 2, 70, 1.95], [523, 2, 143, 2.31], [8926, 1, 22, 2.84], [11767, 1, 151, 2.03], [2775, 2, 55, 2.06], [9372, 1, 210, 3.18], [13034, 3, 203, 4.14], [9081, 3, 161, 4.81], [307, 2, 51, 2.45], [20255, 2, 33, 2.2], [12661, 1, 28, 2.13], [11808, 1, 166, 1.93]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 16, 1.96], [2327, 2, 7, 1.0], [8915, 2, 8, 1.9], [589, 2, 8, 0.99], [2778, 2, 9, 0.94], [6935, 2, 11, 4.09], [2328, 2, 7, 1.12], [5493, 2, 7, 2.27], [130, 1, 9, 2.43], [305, 2, 6, 0.82], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [6936, 2, 7, 3.42], [326, 2, 7, 2.62], [8650, 2, 7, 1.47], [8648, 2, 7, 2.02], [1446, 2, 7, 1.22], [2049, 3, 10, 0.87], [10, 2, 9, 0.67], [143, 2, 7, 1.55], [159, 3, 8, 1.18], [593, 2, 9, 0.88], [205, 2, 7, 0.83], [5491, 2, 7, 1.12], [2775, 2, 9, 0.94], [7036, 1, 7, 2.3], [144, 2, 7, 3.22], [151, 1, 7, 1.36], [3840, 1, 9, 1.09], [94, 4, 7, 3.68], [434, 2, 9, 0.71], [8938, 2, 7, 0.95], [990, 2, 7, 1.21], [3893, 1, 9, 0.98], [8853, 2, 7, 3.51], [146, 2, 7, 2.06], [1504, 2, 7, 1.79], [624, 2, 7, 2.19], [12224, 1, 7, 0.84], [1429, 2, 7, 0.91], [3891, 1, 7, 0.98], [2776, 2, 7, 1.18], [206, 2, 7, 0.74], [2055, 3, 7, 0.84], [362, 2, 7, 0.96], [141, 2, 7, 1.21], [11681, 2, 11, 3.45], [11404, 2, 9, 0.94], [378, 2, 7, 2.23], [5208, 3, 9, 0.78], [3889, 1, 7, 0.65], [8649, 2, 7, 3.15], [1007, 2, 7, 0.85], [10574, 3, 11, 4.5], [10993, 2, 7, 1.29], [11234, 2, 7, 1.8], [7886, 4, 7, 0.85], [12870, 1, 7, 1.83], [21793, 1, 7, 0.96], [10149, 3, 21, 2.43], [3980, 4, 6, 2.43], [2050, 3, 7, 0.84], [12353, 1, 7, 1.22], [145, 2, 7, 1.94], [7084, 3, 7, 1.58], [11811, 1, 7, 0.8], [8672, 2, 9, 3.66], [20927, 1, 7, 1.83], [5165, 1, 7, 2.49], [998, 2, 7, 2.89], [9760, 29, 7, 0.71], [997, 2, 7, 2.64], [2436, 4, 9, 0.85], [1006, 2, 7, 0.99], [972, 3, 8, 0.89], [2424, 80, 7, 1.91], [346, 3, 7, 1.21], [3, 2, 7, 1.14], [229, 1, 7, 1.0], [6158, 2, 7, 1.38], [3495, 3, 14, 0.98], [12346, 1, 7, 1.22], [5165, 2, 8, 2.84], [7887, 4, 7, 1.42], [5076, 1, 7, 1.3], [126, 2, 7, 2.34], [20252, 2, 7, 1.43], [11953, 1, 7, 0.84], [9372, 1, 7, 3.48], [11770, 1, 7, 2.76], [140, 2, 7, 2.34], [12344, 1, 7, 1.22], [8939, 2, 7, 0.92], [11954, 1, 7, 0.7], [1492, 1, 7, 0.95], [11685, 2, 11, 3.45], [12352, 1, 7, 1.22], [996, 2, 7, 2.83], [12721, 2, 7, 4.25], [20256, 2, 9, 0.82], [2774, 2, 7, 1.15], [12350, 1, 7, 1.22], [3981, 3, 22, 1.14], [9491, 21, 21, 0.8], [5434, 1, 7, 1.93], [2423, 80, 7, 1.88], [12343, 1, 7, 1.22], [6497, 1, 7, 3.31], [5584, 3, 7, 3.37], [2438, 2, 8, 1.33], [10388, 2, 7, 1.93], [12351, 1, 7, 1.22], [10407, 10, 10, 2.08], [11179, 1, 7, 1.6], [6496, 1, 7, 3.41], [22317, 3, 7, 0.66], [7573, 1, 22, 5.0], [823, 1, 7, 1.9], [5209, 3, 7, 1.38], [8898, 3, 7, 3.35], [2805, 137, 7, 2.91], [3900, 3, 7, 3.39], [12526, 2, 7, 2.21], [2424, 29, 7, 1.01], [11812, 1, 7, 0.87], [4253, 1, 7, 1.04], [3975, 4, 7, 2.86], [11490, 1, 7, 0.65], [336, 15, 7, 1.79], [1622, 1, 7, 0.87], [12764, 2, 8, 0.9], [412, 1, 7, 0.81], [972, 1, 7, 1.96], [9760, 29, 35, 2.66], [997, 2, 232, 4.28], [2436, 4, 57, 2.98], [1006, 2, 111, 2.97], [972, 3, 291, 2.82], [2424, 80, 82, 2.99], [346, 3, 308, 2.68], [3, 2, 118, 2.78], [229, 1, 81, 2.64], [6158, 2, 127, 2.86], [3495, 3, 471, 2.98], [12346, 1, 612, 2.87], [5165, 2, 180, 4.82], [7887, 4, 68, 2.73], [5076, 1, 127, 2.94], [126, 2, 86, 3.98], [20252, 2, 91, 3.07], [11953, 1, 195, 2.48], [9372, 1, 224, 5.12], [11770, 1, 206, 4.4], [140, 2, 86, 3.98], [12344, 1, 612, 2.87], [8939, 2, 93, 2.9], [11954, 1, 195, 2.34], [1492, 1, 18, 2.93], [11685, 2, 131, 5.43], [12352, 1, 612, 2.87], [996, 2, 115, 4.81], [12721, 2, 272, 5.89], [20256, 2, 49, 2.94], [2774, 2, 200, 2.79], [12350, 1, 612, 2.87], [3981, 3, 790, 3.14], [9491, 21, 1034, 2.76], [5434, 1, 24, 2.89], [2423, 80, 90, 3.36], [12343, 1, 612, 2.87], [6497, 1, 35, 4.95], [5584, 3, 120, 4.28], [2438, 2, 308, 2.82], [10388, 2, 211, 3.57], [12351, 1, 612, 2.87], [10407, 10, 1168, 3.71], [11179, 1, 85, 3.24], [6496, 1, 38, 5.05], [22317, 3, 308, 2.3], [7573, 1, 336, 6.0], [823, 1, 39, 3.54], [5209, 3, 273, 2.87], [8898, 3, 144, 4.83], [2805, 137, 175, 4.54], [3900, 3, 21, 4.29], [12526, 2, 135, 3.53], [2424, 29, 34, 2.65], [11812, 1, 116, 2.85], [4253, 1, 83, 2.97], [3975, 4, 234, 4.34], [11490, 1, 106, 2.29], [336, 15, 110, 3.43], [1622, 1, 52, 2.81], [12764, 2, 734, 2.54], [412, 1, 82, 2.45], [972, 1, 48, 2.93]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 15, 3.35], [141, 2, 7, 1.02], [589, 2, 10, 0.69], [2778, 2, 9, 1.18], [6936, 2, 13, 3.74], [8648, 2, 7, 2.18], [362, 2, 7, 1.34], [2327, 2, 7, 1.6], [11681, 2, 22, 3.47], [8650, 2, 7, 2.04], [326, 2, 7, 1.42], [205, 2, 7, 1.04], [2328, 2, 9, 1.41], [1446, 2, 9, 1.08], [305, 2, 7, 2.13], [130, 1, 7, 0.87], [8649, 2, 9, 2.02], [2775, 2, 7, 1.18], [8853, 2, 11, 3.24], [361, 2, 7, 0.96], [2776, 2, 7, 1.18], [593, 2, 7, 1.38], [143, 2, 7, 2.18], [140, 2, 7, 1.42], [1429, 2, 9, 1.24], [206, 2, 9, 0.75], [5493, 2, 7, 0.94], [523, 2, 7, 1.0], [7004, 1, 7, 1.3], [413, 1, 7, 1.96], [7036, 1, 7, 3.04], [5491, 2, 7, 0.92], [412, 1, 7, 1.25], [21793, 1, 7, 3.65], [12350, 1, 7, 0.7], [1124, 2, 7, 1.27], [990, 2, 7, 0.82], [12353, 1, 7, 1.26], [5165, 1, 9, 2.64], [8915, 2, 8, 1.49], [615, 2, 7, 2.25], [583, 2, 7, 1.42], [417, 2, 7, 0.83], [21798, 1, 7, 0.95], [146, 2, 7, 2.92], [248, 1, 9, 0.68], [8089, 1, 7, 2.21], [434, 2, 9, 0.79], [201, 3, 7, 1.37], [142, 2, 7, 1.19], [6097, 80, 9, 3.4], [11770, 1, 7, 0.8], [6952, 1, 7, 3.29], [2055, 3, 7, 1.5], [345, 3, 7, 0.9], [3891, 1, 7, 1.8], [9372, 1, 7, 1.55], [2057, 3, 7, 1.5], [616, 2, 7, 1.58], [7084, 3, 7, 2.33], [3670, 2, 7, 2.71], [3893, 1, 7, 1.8], [5165, 2, 12, 3.15], [12346, 1, 7, 0.7], [12870, 1, 7, 2.21], [12343, 1, 7, 0.89], [10574, 3, 8, 2.44], [1886, 2, 7, 0.66], [2424, 80, 7, 2.28], [346, 3, 7, 0.72], [3334, 5, 7, 3.63], [20927, 1, 7, 0.95], [12351, 1, 7, 0.7], [7885, 4, 7, 0.98], [6098, 80, 7, 2.81], [6097, 29, 7, 3.9], [11089, 1, 7, 0.8], [12345, 1, 7, 0.85], [10149, 3, 21, 1.91], [20256, 2, 7, 0.87], [147, 1, 7, 2.36], [22316, 3, 7, 0.66], [1492, 1, 9, 1.48], [11953, 1, 7, 0.81], [432, 3, 7, 1.65], [11491, 2, 7, 0.94], [20252, 2, 7, 0.85], [418, 2, 7, 1.68], [4032, 29, 7, 0.9], [1490, 1, 7, 0.76], [1519, 3, 16, 0.69], [2423, 80, 7, 3.06], [11952, 1, 7, 0.85], [411, 2, 7, 0.96], [5151, 2, 7, 1.14], [229, 1, 7, 3.82], [12304, 1, 7, 1.18], [972, 3, 9, 0.93], [11769, 1, 7, 0.88], [3576, 25, 7, 1.68], [2331, 1, 7, 2.67], [346, 1, 7, 0.7], [13034, 3, 7, 4.02], [995, 2, 7, 2.14], [416, 1, 7, 1.91], [2424, 29, 7, 2.13], [3, 2, 7, 1.01], [11426, 25, 7, 1.07], [11737, 2, 7, 0.91], [11767, 1, 7, 0.88], [5076, 1, 7, 1.18], [439, 1, 7, 3.23], [11490, 1, 7, 1.08], [2805, 137, 7, 1.99], [2160, 68, 7, 2.19], [6494, 1, 7, 3.12], [950, 1, 7, 0.76], [414, 1, 7, 1.47], [3575, 25, 7, 1.81], [12764, 2, 8, 0.87], [8677, 3, 8, 1.86], [1701, 2, 7, 3.79], [11180, 1, 7, 1.04], [11586, 1, 14, 3.12], [75, 2, 7, 1.94], [3577, 25, 7, 0.77], [3478, 2, 7, 1.65], [11585, 29, 7, 2.06], [9998, 80, 7, 0.77], [11813, 1, 7, 3.17], [13023, 3, 8, 2.24], [2438, 2, 8, 1.84], [9784, 1, 7, 1.61], [2424, 80, 146, 3.69], [346, 3, 245, 2.39], [3334, 5, 70, 4.81], [20927, 1, 68, 2.36], [12351, 1, 536, 2.11], [7885, 4, 120, 2.4], [6098, 80, 30, 3.45], [6097, 29, 23, 5.08], [11089, 1, 149, 2.22], [12345, 1, 536, 2.26], [10149, 3, 346, 3.62], [20256, 2, 37, 2.55], [147, 1, 77, 3.78], [22316, 3, 273, 2.08], [1492, 1, 15, 3.66], [11953, 1, 172, 2.22], [432, 3, 118, 2.82], [11491, 2, 121, 2.36], [20252, 2, 36, 2.53], [418, 2, 121, 3.09], [4032, 29, 38, 2.55], [1490, 1, 44, 2.18], [1519, 3, 864, 1.89], [2423, 80, 155, 4.47], [11952, 1, 172, 2.27], [411, 2, 42, 2.61], [5151, 2, 21, 2.55], [229, 1, 70, 5.24], [12304, 1, 97, 2.59], [972, 3, 233, 2.55], [11769, 1, 140, 2.3], [3576, 25, 87, 3.09], [2331, 1, 100, 4.08], [346, 1, 62, 2.39], [13034, 3, 228, 5.21], [995, 2, 206, 3.55], [416, 1, 33, 2.59], [2424, 29, 29, 3.54], [3, 2, 105, 2.43], [11426, 25, 103, 2.49], [11737, 2, 49, 2.33], [11767, 1, 140, 2.3], [5076, 1, 112, 2.59], [439, 1, 74, 4.64], [11490, 1, 42, 2.71], [2805, 137, 154, 3.41], [2160, 68, 112, 3.61], [6494, 1, 42, 4.54], [950, 1, 51, 2.18], [414, 1, 74, 2.89], [3575, 25, 87, 3.22], [12764, 2, 646, 2.28], [8677, 3, 253, 3.28], [1701, 2, 63, 4.58], [11180, 1, 34, 2.67], [11586, 1, 147, 3.61], [75, 2, 124, 3.36], [3577, 25, 76, 2.18], [3478, 2, 65, 3.07], [11585, 29, 149, 3.47], [9998, 80, 107, 2.19], [11813, 1, 266, 4.58], [13023, 3, 509, 3.66], [2438, 2, 551, 3.26], [9784, 1, 61, 3.03]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 12, 4.2], [615, 2, 7, 3.33], [2778, 2, 9, 1.07], [305, 2, 7, 0.92], [5493, 2, 7, 2.99], [6936, 2, 11, 4.22], [130, 1, 7, 1.37], [205, 2, 7, 1.02], [616, 2, 7, 2.96], [1504, 2, 7, 1.54], [144, 2, 9, 2.7], [8648, 2, 7, 1.35], [2049, 3, 17, 1.07], [88, 10, 18, 1.22], [8915, 2, 8, 3.38], [326, 2, 7, 2.16], [7036, 1, 7, 3.02], [8650, 2, 7, 1.54], [593, 2, 9, 1.07], [2327, 2, 7, 0.86], [11681, 2, 7, 3.3], [8853, 2, 9, 4.23], [141, 2, 9, 1.19], [2775, 2, 9, 1.07], [206, 2, 9, 0.85], [151, 1, 7, 1.25], [7004, 1, 7, 1.15], [248, 1, 7, 0.8], [11685, 2, 7, 3.69], [3891, 1, 7, 1.68], [3840, 1, 7, 0.72], [2328, 2, 7, 0.96], [2050, 3, 7, 0.64], [5491, 2, 7, 1.61], [2497, 2, 7, 2.68], [2055, 3, 7, 3.41], [143, 2, 7, 1.12], [434, 2, 7, 0.86], [3980, 4, 7, 2.36], [2054, 3, 7, 0.67], [624, 2, 7, 3.92], [8672, 2, 9, 2.44], [362, 2, 7, 1.64], [8649, 2, 7, 2.8], [2776, 2, 9, 1.66], [12870, 1, 7, 3.71], [2057, 3, 7, 0.64], [12350, 1, 7, 1.22], [7886, 4, 7, 1.32], [10574, 3, 8, 3.28], [5165, 1, 7, 2.53], [1006, 2, 7, 1.38], [1446, 2, 7, 0.91], [94, 4, 9, 3.04], [75, 2, 7, 2.87], [523, 2, 7, 1.93], [2991, 3, 7, 4.78], [3495, 3, 21, 1.48], [7084, 3, 7, 1.12], [7005, 1, 7, 1.73], [3975, 4, 7, 2.49], [21793, 1, 7, 4.43], [10149, 3, 21, 1.48], [9760, 29, 7, 0.8], [11404, 2, 7, 1.67], [142, 2, 7, 0.94], [12346, 1, 7, 1.22], [6158, 2, 7, 1.33], [20927, 1, 7, 1.77], [3981, 3, 22, 2.52], [417, 2, 7, 1.5], [5165, 2, 10, 2.64], [2912, 1, 7, 0.8], [3982, 3, 17, 2.34], [8939, 2, 7, 0.89], [1007, 2, 7, 0.98], [11953, 1, 7, 0.96], [2774, 2, 7, 1.95], [33, 1, 7, 2.04], [956, 2, 7, 0.86], [11772, 1, 7, 2.97], [286, 3, 7, 2.44], [7887, 4, 9, 0.87], [6497, 1, 7, 2.42], [1492, 1, 7, 2.27], [11767, 1, 7, 0.81], [432, 3, 7, 0.86], [336, 15, 7, 2.22], [972, 3, 7, 2.05], [11769, 1, 7, 1.46], [11490, 1, 7, 2.0], [11770, 1, 7, 1.8], [410, 1, 7, 1.49], [389, 4, 7, 2.13], [2912, 2, 8, 0.79], [74, 1, 7, 2.13], [6496, 1, 7, 0.85], [7567, 3, 7, 3.18], [1413, 15, 7, 1.04], [35, 1, 7, 1.54], [411, 2, 7, 1.02], [4253, 1, 7, 1.5], [22317, 3, 7, 0.92], [140, 2, 7, 1.7], [8673, 2, 7, 2.48], [8121, 3, 6, 0.85], [1126, 2, 7, 1.26], [4176, 4, 9, 3.25], [2436, 4, 9, 0.73], [9372, 1, 7, 3.34], [8676, 2, 7, 3.11], [21269, 3, 7, 4.87], [8677, 3, 7, 1.51], [22247, 2, 7, 2.66], [10388, 2, 7, 2.13], [10936, 2, 7, 3.12], [12343, 1, 7, 1.22], [12526, 2, 7, 2.15], [11085, 2, 8, 3.16], [9784, 1, 7, 1.01], [12269, 2, 7, 1.9], [37, 1, 7, 1.7], [6494, 1, 7, 2.34], [1274, 1, 9, 1.03], [13023, 3, 7, 2.32], [1429, 2, 7, 0.91], [7573, 1, 9, 2.67], [12225, 1, 7, 2.51], [345, 3, 7, 2.52], [12271, 2, 7, 1.86], [3, 2, 7, 0.7], [3577, 25, 7, 0.92], [96, 11, 22, 1.1], [6158, 2, 103, 2.54], [20927, 1, 68, 3.22], [3981, 3, 623, 3.73], [417, 2, 133, 2.95], [5165, 2, 144, 4.85], [2912, 1, 32, 1.51], [3982, 3, 306, 4.03], [8939, 2, 75, 2.61], [1007, 2, 105, 2.65], [11953, 1, 175, 2.42], [2774, 2, 174, 3.4], [33, 1, 44, 2.74], [956, 2, 93, 2.32], [11772, 1, 84, 4.18], [286, 3, 55, 3.65], [7887, 4, 54, 2.53], [6497, 1, 15, 4.13], [1492, 1, 15, 3.97], [11767, 1, 63, 2.52], [432, 3, 264, 2.32], [336, 15, 96, 3.67], [972, 3, 232, 2.73], [11769, 1, 63, 3.17], [11490, 1, 42, 2.71], [11770, 1, 84, 3.51], [410, 1, 41, 2.7], [389, 4, 81, 3.34], [2912, 2, 342, 2.25], [74, 1, 176, 3.58], [6496, 1, 35, 2.31], [7567, 3, 27, 3.83], [1413, 15, 39, 2.75], [35, 1, 44, 2.75], [411, 2, 42, 2.73], [4253, 1, 145, 2.95], [22317, 3, 273, 2.38], [140, 2, 78, 3.15], [8673, 2, 240, 3.93], [8121, 3, 114, 2.56], [1126, 2, 197, 2.71], [4176, 4, 186, 4.3], [2436, 4, 45, 2.5], [9372, 1, 196, 4.79], [8676, 2, 245, 4.57], [21269, 3, 254, 6.0], [8677, 3, 115, 2.72], [22247, 2, 111, 3.32], [10388, 2, 186, 3.58], [10936, 2, 115, 4.58], [12343, 1, 543, 2.67], [12526, 2, 235, 3.6], [11085, 2, 207, 4.36], [9784, 1, 63, 2.46], [12269, 2, 55, 3.35], [37, 1, 96, 3.15], [6494, 1, 20, 3.55], [1274, 1, 32, 3.06], [13023, 3, 507, 3.78], [1429, 2, 131, 2.36], [7573, 1, 144, 3.67], [12225, 1, 141, 3.96], [345, 3, 115, 3.19], [12271, 2, 55, 3.31], [3, 2, 106, 2.15], [3577, 25, 35, 2.59], [96, 11, 330, 2.81]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 23, 4.99], [305, 2, 7, 1.02], [2328, 2, 7, 1.5], [130, 1, 7, 0.78], [141, 2, 9, 0.74], [2778, 2, 13, 1.27], [8650, 2, 9, 2.9], [5491, 2, 7, 2.52], [2327, 2, 7, 1.21], [8672, 2, 12, 1.28], [6936, 2, 9, 3.46], [143, 2, 7, 4.32], [11681, 2, 13, 3.96], [248, 1, 7, 0.85], [145, 2, 7, 0.77], [205, 2, 7, 1.02], [5493, 2, 7, 2.44], [146, 2, 7, 1.08], [417, 2, 7, 1.0], [589, 2, 9, 0.74], [75, 2, 7, 1.79], [11838, 2, 7, 1.04], [11737, 2, 7, 1.18], [1124, 2, 12, 0.72], [523, 2, 9, 0.96], [8648, 2, 7, 2.96], [8853, 2, 7, 2.71], [12721, 2, 9, 1.59], [615, 2, 7, 2.35], [1005, 2, 7, 1.22], [326, 2, 7, 2.21], [206, 2, 7, 1.21], [8915, 2, 9, 0.71], [8673, 2, 9, 2.44], [144, 2, 7, 1.3], [11739, 2, 7, 1.18], [434, 2, 7, 1.44], [88, 10, 14, 1.5], [2776, 2, 9, 1.21], [435, 2, 7, 1.4], [142, 2, 7, 1.05], [151, 1, 7, 1.36], [8676, 2, 7, 0.9], [6158, 2, 10, 0.73], [2424, 29, 9, 0.85], [8649, 2, 7, 2.29], [2423, 29, 7, 3.48], [11738, 2, 7, 1.18], [2497, 2, 7, 1.06], [7704, 2, 7, 2.08], [2424, 80, 9, 1.21], [1413, 15, 9, 1.91], [10574, 3, 9, 3.0], [2423, 80, 7, 3.37], [3670, 2, 9, 3.61], [11836, 2, 9, 0.79], [7705, 2, 7, 2.28], [2054, 3, 7, 2.1], [3, 2, 7, 0.83], [2859, 15, 7, 2.41], [412, 1, 9, 1.44], [7706, 2, 7, 2.08], [378, 2, 7, 4.55], [12720, 2, 7, 1.89], [22316, 3, 7, 0.85], [2055, 3, 7, 0.88], [12344, 1, 7, 0.88], [3478, 2, 9, 2.65], [10149, 3, 21, 2.21], [74, 1, 7, 3.39], [3429, 15, 7, 0.85], [2774, 2, 7, 1.06], [307, 2, 7, 2.95], [6497, 1, 7, 0.8], [60, 3, 8, 1.99], [12526, 2, 7, 2.76], [418, 2, 7, 1.49], [7004, 1, 7, 1.96], [13928, 1, 7, 0.74], [411, 2, 7, 0.9], [11089, 1, 7, 0.71], [413, 1, 9, 1.34], [2057, 3, 7, 2.1], [14037, 3, 7, 1.85], [11844, 2, 7, 1.79], [2050, 3, 7, 2.1], [7036, 1, 7, 1.74], [20252, 2, 7, 1.06], [13260, 29, 7, 1.29], [3893, 1, 7, 1.3], [8274, 3, 7, 1.68], [6097, 80, 7, 3.38], [439, 1, 9, 2.21], [6952, 1, 7, 2.01], [3891, 1, 7, 3.83], [94, 4, 7, 2.5], [159, 3, 9, 1.37], [6494, 1, 7, 0.85], [9784, 1, 7, 2.37], [1050, 2, 7, 0.66], [7707, 2, 7, 1.32], [1490, 1, 7, 1.88], [1413, 16, 7, 0.71], [11490, 1, 7, 0.86], [1243, 2, 7, 1.32], [7708, 2, 7, 2.28], [414, 1, 9, 1.63], [3889, 1, 7, 1.17], [1492, 1, 7, 1.13], [5208, 3, 9, 1.82], [565, 2, 7, 0.84], [22317, 3, 8, 0.88], [7703, 2, 7, 2.28], [21793, 1, 7, 1.83], [11491, 2, 7, 1.5], [3495, 3, 21, 1.51], [229, 1, 7, 3.68], [345, 3, 7, 2.32], [2422, 80, 9, 4.33], [6098, 80, 7, 2.19], [410, 1, 7, 0.74], [11504, 2, 7, 1.33], [149, 2, 7, 2.73], [947, 15, 7, 0.71], [6630, 3, 7, 3.21], [3674, 2, 7, 0.96], [147, 1, 7, 2.73], [3430, 15, 7, 2.26], [416, 1, 7, 2.93], [2805, 137, 11, 3.57], [2331, 1, 7, 1.34], [247, 1, 7, 2.33], [9126, 1, 7, 0.87], [3429, 15, 53, 2.63], [2774, 2, 105, 3.11], [307, 2, 72, 5.06], [6497, 1, 38, 2.59], [60, 3, 405, 4.08], [12526, 2, 138, 4.87], [418, 2, 141, 3.27], [7004, 1, 40, 3.07], [13928, 1, 24, 2.85], [411, 2, 109, 2.69], [11089, 1, 173, 2.5], [413, 1, 44, 3.1], [2057, 3, 473, 3.89], [2050, 3, 473, 3.89], [7036, 1, 128, 3.53], [20252, 2, 92, 2.85], [13260, 29, 36, 3.33], [3893, 1, 63, 2.9], [8274, 3, 115, 2.76], [6097, 80, 35, 5.49], [439, 1, 43, 4.81], [6952, 1, 189, 3.79], [3891, 1, 123, 5.62], [94, 4, 60, 4.11], [159, 3, 709, 3.16], [6494, 1, 52, 2.64], [9784, 1, 71, 4.16], [7707, 2, 176, 3.11], [1490, 1, 50, 3.67], [1413, 16, 50, 2.5], [11490, 1, 109, 2.65], [1243, 2, 50, 2.93], [7708, 2, 176, 4.07], [414, 1, 44, 3.31], [3889, 1, 63, 2.78], [1492, 1, 37, 2.92], [5208, 3, 558, 3.6], [565, 2, 176, 2.63], [22317, 3, 318, 2.66], [7703, 2, 176, 4.07], [21793, 1, 123, 2.94], [11491, 2, 141, 3.28], [3495, 3, 965, 3.31], [229, 1, 81, 5.47], [345, 3, 297, 4.1], [2422, 80, 92, 5.46], [6098, 80, 38, 4.03], [410, 1, 53, 2.17], [11504, 2, 141, 3.12], [149, 2, 87, 4.52], [947, 15, 41, 2.5], [6630, 3, 93, 5.0], [3674, 2, 260, 2.74], [147, 1, 87, 4.52], [3430, 15, 69, 4.05], [416, 1, 85, 4.71], [2805, 137, 182, 5.36], [2331, 1, 118, 3.13], [247, 1, 87, 4.12], [9126, 1, 71, 2.65]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.94], [305, 2, 7, 1.95], [3, 2, 9, 2.18], [6935, 2, 18, 3.39], [205, 2, 7, 1.36], [143, 2, 7, 3.11], [144, 2, 9, 3.22], [75, 2, 7, 0.94], [12721, 2, 10, 1.03], [145, 2, 9, 2.81], [8915, 2, 12, 0.71], [2778, 2, 9, 0.96], [1776, 1, 7, 0.87], [146, 2, 9, 3.31], [206, 2, 7, 1.02], [20252, 2, 7, 0.88], [6936, 2, 10, 2.86], [1777, 1, 9, 2.87], [8648, 2, 7, 1.71], [151, 1, 7, 0.67], [2328, 2, 7, 1.41], [8650, 2, 9, 2.48], [5151, 2, 7, 3.43], [2050, 3, 7, 2.04], [248, 1, 7, 0.8], [7886, 4, 7, 1.22], [88, 10, 21, 3.14], [9507, 3, 7, 0.66], [74, 1, 7, 1.54], [1446, 2, 7, 1.51], [2991, 3, 7, 3.64], [362, 2, 7, 0.83], [7004, 1, 7, 1.29], [2057, 3, 7, 1.01], [1492, 1, 9, 1.36], [1007, 2, 12, 0.69], [2055, 3, 7, 1.04], [147, 1, 7, 4.17], [76, 2, 7, 1.42], [8649, 2, 9, 2.6], [3889, 1, 7, 0.81], [11234, 2, 11, 0.93], [410, 1, 7, 0.7], [7005, 1, 7, 0.91], [345, 3, 7, 0.9], [10, 2, 9, 1.21], [1429, 2, 7, 1.46], [307, 2, 7, 3.37], [10825, 21, 13, 1.0], [5081, 2, 7, 1.04], [12870, 1, 7, 1.25], [57, 1, 7, 0.78], [10149, 3, 21, 1.27], [7036, 1, 7, 1.81], [3478, 2, 7, 1.0], [7084, 3, 7, 1.67], [1006, 2, 7, 1.53], [1504, 2, 9, 1.0], [3891, 1, 7, 1.71], [21793, 1, 7, 3.44], [94, 4, 7, 3.06], [167, 3, 7, 1.44], [411, 2, 7, 0.9], [9827, 3, 7, 1.38], [3893, 1, 7, 0.65], [79, 1, 7, 1.08], [33, 1, 9, 1.88], [432, 3, 9, 1.23], [8677, 3, 9, 1.51], [11681, 2, 11, 3.45], [148, 1, 7, 3.1], [96, 11, 24, 0.67], [1490, 1, 9, 0.82], [12225, 1, 7, 1.7], [1124, 2, 11, 0.74], [11737, 2, 7, 1.26], [1243, 2, 7, 0.92], [22247, 2, 11, 1.79], [6158, 2, 8, 1.39], [5812, 3, 8, 3.52], [8853, 2, 14, 4.07], [201, 3, 7, 0.9], [412, 1, 7, 2.46], [9760, 29, 9, 1.04], [10574, 3, 9, 2.6], [8651, 2, 7, 1.63], [20927, 1, 7, 0.83], [5208, 3, 11, 1.25], [8676, 2, 12, 1.23], [229, 1, 7, 2.31], [1767, 25, 9, 1.46], [25, 1, 7, 1.4], [45, 2, 7, 2.7], [9069, 1, 7, 0.79], [413, 1, 7, 2.29], [11490, 1, 7, 0.69], [149, 2, 7, 3.27], [159, 3, 9, 1.18], [3495, 3, 21, 1.61], [998, 2, 7, 1.87], [21269, 3, 7, 2.34], [140, 2, 7, 1.5], [95, 3, 17, 3.57], [3980, 4, 7, 2.46], [950, 1, 7, 1.3], [5946, 1, 7, 1.83], [9372, 1, 7, 3.91], [1126, 2, 7, 1.36], [1766, 25, 7, 1.08], [2775, 2, 7, 1.46], [1413, 15, 9, 1.85], [490, 1, 9, 0.99], [506, 1, 7, 4.76], [8674, 2, 7, 0.99], [11489, 1, 7, 1.21], [8898, 3, 7, 3.23], [997, 2, 7, 3.34], [3670, 2, 7, 3.6], [1070, 7, 15, 0.85], [9691, 1, 7, 1.89], [107, 2, 7, 1.46], [974, 3, 7, 1.64], [20498, 1, 7, 1.81], [11954, 1, 7, 0.87], [14037, 3, 7, 1.3], [823, 1, 7, 1.62], [14017, 3, 9, 1.09], [34, 1, 7, 2.43], [972, 3, 8, 1.49], [5209, 3, 7, 0.98], [9784, 1, 7, 1.51], [11739, 2, 7, 1.26], [20498, 3, 10, 1.16], [432, 3, 146, 2.81], [8677, 3, 142, 2.67], [11681, 2, 129, 5.11], [148, 1, 43, 4.77], [96, 11, 409, 2.32], [1490, 1, 24, 2.48], [12225, 1, 71, 2.57], [1124, 2, 90, 2.7], [11737, 2, 28, 2.92], [1243, 2, 83, 2.22], [22247, 2, 138, 3.38], [6158, 2, 221, 2.69], [5812, 3, 502, 4.82], [8853, 2, 136, 4.71], [201, 3, 147, 2.53], [412, 1, 40, 3.1], [9760, 29, 35, 3.01], [10574, 3, 239, 4.26], [8651, 2, 109, 2.79], [20927, 1, 39, 2.46], [5208, 3, 480, 2.56], [8676, 2, 138, 2.65], [229, 1, 40, 2.95], [1767, 25, 83, 2.76], [25, 1, 95, 2.71], [45, 2, 53, 4.36], [9069, 1, 60, 2.41], [413, 1, 42, 2.94], [11490, 1, 53, 2.32], [149, 2, 43, 4.03], [159, 3, 602, 2.48], [3495, 3, 463, 3.28], [998, 2, 117, 2.54], [21269, 3, 141, 3.5], [140, 2, 44, 3.09], [95, 3, 892, 4.89], [3980, 4, 230, 4.11], [950, 1, 25, 2.17], [5946, 1, 60, 2.48], [9372, 1, 112, 4.69], [1126, 2, 110, 2.52], [1766, 25, 90, 2.69], [2775, 2, 75, 2.63], [1413, 15, 47, 4.01], [490, 1, 29, 2.39], [506, 1, 74, 6.0], [8674, 2, 138, 2.66], [11489, 1, 53, 2.87], [8898, 3, 141, 4.39], [997, 2, 202, 4.64], [3670, 2, 117, 4.37], [1070, 7, 283, 2.51], [9691, 1, 36, 2.54], [107, 2, 31, 2.12], [974, 3, 72, 2.8], [20498, 1, 47, 3.4], [11954, 1, 171, 2.17], [823, 1, 20, 3.2], [14017, 3, 95, 2.47], [34, 1, 54, 3.19], [972, 3, 286, 2.26], [5209, 3, 480, 2.29], [9784, 1, 35, 2.67], [11739, 2, 28, 2.92], [20498, 3, 282, 3.16]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 1.01], [305, 2, 7, 1.1], [2049, 3, 13, 0.7], [6935, 2, 21, 3.58], [326, 2, 8, 2.27], [141, 2, 7, 2.25], [144, 2, 7, 1.17], [589, 2, 12, 0.77], [362, 2, 9, 0.83], [151, 1, 7, 0.89], [12721, 2, 10, 1.03], [146, 2, 7, 1.26], [1776, 1, 7, 2.19], [145, 2, 7, 0.8], [206, 2, 7, 0.69], [2328, 2, 7, 1.35], [8915, 2, 11, 0.71], [143, 2, 7, 1.12], [990, 2, 7, 1.06], [6936, 2, 10, 3.41], [20252, 2, 7, 0.91], [8650, 2, 7, 2.27], [1777, 1, 7, 2.96], [1007, 2, 10, 0.81], [2778, 2, 7, 0.79], [248, 1, 7, 1.2], [22247, 2, 9, 1.93], [88, 10, 14, 2.0], [2050, 3, 7, 0.69], [76, 2, 7, 2.39], [8649, 2, 7, 2.74], [10149, 3, 25, 3.53], [2054, 3, 7, 4.0], [10, 2, 11, 2.2], [8677, 3, 8, 3.58], [412, 1, 7, 1.64], [2055, 3, 7, 4.0], [13028, 3, 7, 1.38], [413, 1, 7, 2.12], [7004, 1, 9, 0.89], [411, 2, 7, 0.89], [10825, 21, 14, 2.34], [11681, 2, 10, 4.26], [1446, 2, 7, 1.91], [7084, 3, 7, 1.66], [307, 2, 7, 1.35], [3478, 2, 7, 2.16], [1429, 2, 7, 1.21], [3495, 3, 26, 1.77], [1006, 2, 7, 1.36], [5081, 2, 7, 0.81], [1492, 1, 6, 1.98], [140, 2, 7, 1.98], [7005, 1, 9, 0.89], [167, 3, 9, 3.09], [7036, 1, 7, 2.14], [9827, 3, 7, 1.38], [45, 2, 7, 2.95], [8676, 2, 7, 0.98], [1124, 2, 11, 0.72], [2049, 1, 7, 1.7], [94, 4, 7, 3.47], [13280, 1, 9, 3.64], [5812, 3, 8, 3.38], [1504, 2, 7, 1.33], [12870, 1, 7, 1.5], [168, 3, 9, 1.46], [11234, 2, 8, 1.32], [415, 1, 7, 2.06], [8651, 2, 7, 1.94], [148, 1, 7, 1.56], [418, 2, 7, 0.7], [6097, 29, 7, 3.38], [8853, 2, 14, 3.62], [416, 1, 7, 2.33], [8939, 2, 7, 0.84], [6097, 80, 7, 3.38], [11737, 2, 7, 2.34], [20256, 2, 7, 1.42], [1490, 1, 7, 1.27], [95, 3, 26, 0.85], [20927, 1, 9, 0.89], [79, 1, 7, 0.7], [6098, 29, 7, 2.08], [14017, 3, 7, 1.0], [6098, 80, 7, 2.08], [414, 1, 7, 1.49], [9069, 1, 7, 1.91], [1070, 7, 16, 0.73], [8898, 3, 7, 2.67], [1126, 2, 7, 1.22], [13034, 3, 8, 3.38], [126, 2, 7, 2.75], [20498, 1, 7, 1.96], [9760, 29, 7, 0.87], [5086, 1, 9, 1.76], [20255, 2, 7, 1.43], [12924, 1, 9, 0.86], [5513, 2, 7, 0.84], [9784, 1, 7, 1.06], [336, 15, 7, 1.66], [13260, 29, 7, 1.0], [22317, 3, 8, 1.35], [7567, 3, 7, 3.2], [1413, 15, 7, 1.52], [229, 1, 7, 2.92], [11085, 2, 7, 0.83], [5811, 3, 7, 2.82], [5813, 3, 9, 2.14], [192, 3, 22, 4.76], [8557, 3, 7, 1.01], [9082, 3, 20, 2.38], [506, 1, 7, 2.73], [3049, 3, 7, 3.65], [20498, 3, 8, 2.02], [9691, 1, 9, 2.48], [14018, 3, 7, 1.0], [524, 1, 7, 2.16], [4076, 3, 7, 2.96], [470, 1, 7, 1.35], [8943, 3, 7, 3.03], [1622, 1, 10, 0.79], [9372, 1, 7, 2.03], [20486, 3, 8, 1.86], [2775, 2, 9, 0.73], [13023, 3, 8, 2.94], [1703, 2, 7, 1.51], [11454, 2, 9, 3.65], [2423, 80, 7, 3.68], [3900, 3, 7, 3.14], [5584, 3, 7, 2.74], [2424, 80, 7, 3.75], [2497, 2, 7, 0.78], [415, 1, 30, 2.31], [8651, 2, 79, 2.71], [148, 1, 80, 2.71], [418, 2, 131, 1.85], [6097, 29, 12, 4.65], [8853, 2, 97, 4.88], [416, 1, 30, 2.57], [8939, 2, 67, 2.11], [6097, 80, 24, 4.65], [11737, 2, 20, 3.11], [20256, 2, 33, 2.19], [1490, 1, 18, 2.03], [95, 3, 390, 2.19], [20927, 1, 28, 1.93], [79, 1, 44, 1.85], [6098, 29, 13, 3.21], [14017, 3, 69, 2.22], [6098, 80, 27, 3.2], [414, 1, 79, 2.64], [9069, 1, 43, 2.17], [1070, 7, 206, 2.01], [8898, 3, 102, 3.94], [1126, 2, 80, 1.99], [13034, 3, 203, 4.14], [126, 2, 32, 2.98], [20498, 1, 34, 2.73], [9760, 29, 25, 2.09], [5086, 1, 63, 3.49], [20255, 2, 33, 2.2], [12924, 1, 19, 2.3], [5513, 2, 70, 1.99], [9784, 1, 25, 2.28], [336, 15, 40, 1.92], [13260, 29, 67, 2.15], [22317, 3, 109, 2.11], [7567, 3, 24, 3.41], [1413, 15, 34, 2.79], [229, 1, 75, 4.08], [11085, 2, 508, 1.97], [5811, 3, 203, 3.58], [5813, 3, 203, 3.24], [192, 3, 1287, 5.9], [8557, 3, 70, 2.28], [9082, 3, 845, 3.66], [506, 1, 80, 3.88], [3049, 3, 48, 4.42], [20498, 3, 204, 2.76], [9691, 1, 27, 2.98], [14018, 3, 69, 2.22], [524, 1, 30, 2.41], [4076, 3, 71, 3.19], [470, 1, 12, 2.12], [8943, 3, 137, 4.31], [1622, 1, 50, 1.56], [9372, 1, 210, 3.18], [20486, 3, 208, 2.61], [2775, 2, 55, 2.06], [13023, 3, 203, 3.7], [1703, 2, 149, 2.66], [11454, 2, 114, 4.42], [2423, 80, 169, 4.83], [3900, 3, 15, 3.35], [5584, 3, 86, 3.51], [2424, 80, 153, 4.9], [2497, 2, 189, 1.94]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 7, 3.69], [6935, 2, 10, 4.2], [326, 2, 9, 2.77], [8648, 2, 7, 1.35], [144, 2, 9, 2.2], [593, 2, 7, 1.57], [2327, 2, 7, 0.9], [143, 2, 7, 1.57], [205, 2, 7, 1.48], [8915, 2, 8, 3.38], [2328, 2, 7, 1.41], [6936, 2, 9, 4.22], [11681, 2, 7, 3.3], [305, 2, 7, 1.38], [151, 1, 7, 1.25], [8650, 2, 7, 1.1], [141, 2, 7, 0.92], [206, 2, 7, 1.35], [2778, 2, 9, 1.07], [2049, 3, 14, 0.83], [88, 10, 18, 1.22], [615, 2, 7, 3.33], [7036, 1, 7, 3.02], [8853, 2, 7, 4.23], [8649, 2, 7, 1.87], [5491, 2, 7, 0.9], [434, 2, 7, 0.86], [1006, 2, 7, 1.93], [75, 2, 7, 2.32], [2055, 3, 7, 3.41], [11737, 2, 7, 1.58], [417, 2, 7, 1.5], [616, 2, 7, 2.96], [3840, 1, 7, 0.72], [2050, 3, 7, 0.67], [1007, 2, 7, 1.44], [12353, 1, 9, 2.27], [12870, 1, 7, 3.71], [523, 2, 7, 1.93], [1504, 2, 7, 2.06], [159, 3, 8, 0.61], [20927, 1, 7, 1.77], [2057, 3, 9, 0.88], [13280, 1, 9, 5.0], [3, 2, 9, 0.74], [10574, 3, 8, 2.36], [142, 2, 7, 0.94], [12346, 1, 9, 1.93], [7084, 3, 7, 1.12], [624, 2, 7, 3.92], [9760, 29, 7, 1.3], [2054, 3, 9, 0.88], [140, 2, 7, 1.7], [2775, 2, 7, 1.07], [3891, 1, 7, 0.98], [21793, 1, 7, 4.43], [8939, 2, 7, 0.89], [1429, 2, 7, 1.38], [6158, 2, 9, 0.75], [11739, 2, 7, 1.14], [96, 11, 22, 1.59], [950, 1, 7, 0.68], [5165, 2, 8, 3.15], [12269, 2, 7, 1.9], [84, 2, 7, 1.96], [9372, 1, 7, 3.34], [1126, 2, 7, 1.26], [10388, 2, 7, 2.13], [411, 2, 7, 1.02], [98, 11, 16, 0.91], [972, 3, 7, 2.05], [8672, 2, 9, 2.94], [5165, 1, 7, 3.03], [413, 1, 7, 1.94], [8898, 3, 7, 5.0], [2912, 1, 7, 0.8], [2776, 2, 7, 2.59], [410, 1, 7, 1.04], [12343, 1, 7, 3.27], [10386, 2, 7, 1.68], [995, 2, 7, 3.38], [956, 2, 7, 0.86], [1492, 1, 7, 2.77], [418, 2, 7, 0.81], [12345, 1, 7, 2.72], [13928, 1, 7, 0.87], [9784, 1, 7, 0.9], [22316, 3, 7, 0.92], [147, 1, 7, 0.98], [412, 1, 7, 0.92], [22247, 2, 7, 2.43], [957, 2, 7, 1.01], [336, 15, 7, 1.66], [8677, 3, 7, 1.73], [11490, 1, 7, 1.02], [7567, 3, 7, 3.18], [2912, 2, 8, 0.79], [432, 3, 7, 0.86], [308, 1, 7, 3.28], [307, 2, 7, 1.58], [11953, 1, 7, 0.96], [33, 1, 7, 2.04], [11770, 1, 9, 1.3], [10631, 2, 7, 2.7], [414, 1, 7, 1.24], [35, 1, 7, 1.7], [20256, 2, 7, 0.81], [22317, 3, 7, 1.42], [10407, 10, 10, 2.88], [148, 1, 7, 1.0], [1413, 15, 7, 1.17], [10780, 10, 7, 3.0], [10410, 10, 10, 3.2], [13286, 1, 7, 2.52], [439, 1, 7, 2.12], [7573, 1, 11, 3.36], [335, 3, 15, 3.35], [7886, 4, 7, 0.86], [9691, 1, 7, 1.0], [11767, 1, 7, 0.92], [972, 1, 7, 2.77], [12347, 1, 7, 3.27], [10387, 2, 7, 1.75], [6497, 1, 7, 0.95], [74, 1, 7, 2.13], [20686, 1, 7, 2.96], [3478, 2, 7, 3.14], [12271, 2, 7, 1.86], [9971, 2, 7, 2.77], [8897, 3, 7, 5.0], [2331, 1, 7, 2.08], [11769, 1, 7, 2.06], [9082, 3, 34, 1.7], [411, 2, 42, 2.73], [98, 11, 720, 2.35], [972, 3, 232, 2.73], [8672, 2, 112, 4.65], [413, 1, 34, 2.64], [8898, 3, 242, 6.0], [2912, 1, 32, 1.51], [2776, 2, 135, 4.04], [410, 1, 41, 2.7], [12343, 1, 241, 4.47], [10386, 2, 186, 3.14], [995, 2, 208, 4.83], [956, 2, 93, 2.32], [1492, 1, 15, 3.97], [418, 2, 55, 2.48], [12345, 1, 241, 3.94], [13928, 1, 42, 2.32], [9784, 1, 29, 2.57], [22316, 3, 273, 2.38], [147, 1, 79, 2.43], [412, 1, 73, 2.37], [22247, 2, 243, 3.88], [957, 2, 93, 2.46], [336, 15, 45, 2.36], [8677, 3, 115, 2.72], [11490, 1, 94, 2.47], [7567, 3, 27, 3.83], [2912, 2, 342, 2.25], [432, 3, 118, 2.57], [308, 1, 139, 4.73], [307, 2, 58, 2.78], [11953, 1, 175, 2.42], [33, 1, 44, 2.74], [11770, 1, 84, 3.51], [10631, 2, 183, 4.15], [414, 1, 74, 2.69], [35, 1, 96, 3.15], [20256, 2, 81, 2.26], [22317, 3, 123, 2.63], [10407, 10, 1015, 4.32], [148, 1, 79, 2.46], [1413, 15, 86, 2.63], [10780, 10, 316, 4.46], [10410, 10, 1015, 4.64], [13286, 1, 123, 3.2], [439, 1, 75, 3.57], [7573, 1, 288, 4.82], [335, 3, 1103, 4.78], [7886, 4, 99, 2.22], [9691, 1, 66, 2.45], [11767, 1, 139, 2.37], [972, 1, 85, 4.22], [12347, 1, 241, 4.47], [10387, 2, 186, 3.2], [6497, 1, 33, 2.4], [74, 1, 176, 3.58], [20686, 1, 237, 4.17], [3478, 2, 30, 3.79], [12271, 2, 55, 3.31], [9971, 2, 108, 3.59], [8897, 3, 242, 6.0], [2331, 1, 47, 2.78], [11769, 1, 139, 3.51], [9082, 3, 948, 3.83]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 1.03], [141, 2, 7, 0.94], [362, 2, 7, 0.88], [361, 2, 6, 0.99], [6935, 2, 23, 3.83], [205, 2, 7, 0.65], [12721, 2, 11, 2.8], [11737, 2, 7, 1.23], [206, 2, 7, 0.7], [2049, 3, 17, 0.72], [8676, 2, 7, 2.44], [8675, 2, 9, 1.42], [417, 2, 7, 1.55], [3, 2, 7, 0.96], [6936, 2, 7, 3.04], [305, 2, 7, 1.48], [151, 1, 7, 1.36], [523, 2, 7, 1.13], [22247, 2, 7, 1.83], [8650, 2, 7, 2.33], [142, 2, 7, 0.9], [8648, 2, 7, 3.27], [2328, 2, 7, 1.5], [2776, 2, 7, 1.18], [8853, 2, 7, 3.03], [616, 2, 7, 2.22], [11739, 2, 7, 1.23], [2327, 2, 7, 1.66], [11837, 2, 7, 0.82], [12352, 1, 7, 3.09], [411, 2, 7, 0.86], [589, 2, 7, 0.8], [143, 2, 7, 1.6], [146, 2, 7, 1.14], [11835, 2, 7, 1.06], [412, 1, 7, 1.93], [12353, 1, 7, 3.09], [6497, 1, 9, 1.34], [583, 2, 7, 2.85], [8674, 2, 7, 1.17], [145, 2, 7, 0.9], [2805, 137, 14, 1.1], [326, 2, 7, 2.54], [10574, 3, 9, 2.49], [418, 2, 7, 1.0], [144, 2, 7, 0.96], [6097, 80, 7, 3.38], [11836, 2, 7, 0.97], [11738, 2, 7, 1.23], [9784, 1, 7, 1.91], [10149, 3, 21, 0.86], [413, 1, 7, 1.87], [6097, 29, 7, 3.88], [2057, 3, 7, 3.23], [75, 2, 7, 1.04], [11234, 2, 8, 1.32], [2055, 3, 7, 3.23], [1413, 15, 7, 0.89], [12344, 1, 7, 2.54], [20252, 2, 7, 0.87], [11504, 2, 7, 0.67], [12269, 2, 7, 1.05], [8915, 2, 7, 0.71], [414, 1, 7, 1.91], [1492, 1, 7, 1.13], [6098, 80, 7, 2.19], [12346, 1, 7, 3.09], [247, 1, 7, 3.32], [3429, 15, 7, 0.85], [22316, 3, 7, 0.85], [2774, 2, 7, 2.72], [1490, 1, 7, 0.66], [416, 1, 7, 2.14], [6098, 29, 7, 2.55], [9786, 1, 7, 2.84], [3934, 5, 8, 0.94], [2859, 15, 7, 1.05], [2049, 1, 7, 0.75], [201, 3, 7, 2.66], [3670, 2, 9, 3.61], [20555, 2, 7, 1.23], [6158, 2, 9, 1.76], [3478, 2, 7, 2.16], [7084, 3, 7, 1.81], [9785, 1, 7, 1.91], [12526, 2, 7, 2.78], [8599, 1, 7, 2.59], [3430, 15, 7, 0.65], [8938, 2, 7, 1.06], [1703, 2, 7, 1.53], [4253, 1, 7, 0.92], [9760, 29, 7, 1.83], [186, 3, 12, 0.9], [1413, 16, 7, 0.68], [229, 1, 7, 2.94], [11885, 2, 7, 0.71], [107, 2, 7, 2.38], [11887, 2, 8, 0.65], [1050, 2, 7, 0.68], [11811, 1, 7, 1.93], [94, 4, 7, 4.01], [4232, 80, 7, 3.23], [11490, 1, 7, 0.95], [436, 2, 7, 0.94], [107, 7, 8, 1.99], [947, 15, 7, 0.71], [2438, 2, 8, 2.38], [415, 1, 7, 2.14], [11770, 1, 7, 0.8], [3673, 2, 7, 3.82], [11767, 1, 7, 0.88], [2821, 3, 13, 0.77], [11769, 1, 7, 0.88], [5939, 3, 7, 0.91], [11671, 1, 7, 0.83], [11160, 1, 7, 3.67], [11844, 2, 7, 1.16], [9491, 21, 16, 0.87], [12347, 1, 7, 3.55], [5812, 3, 7, 4.0], [7036, 1, 7, 0.87], [9358, 1, 7, 0.81], [140, 2, 7, 2.41], [5813, 3, 8, 1.92], [3495, 3, 21, 1.51], [12764, 2, 8, 0.82], [11771, 1, 7, 3.17], [11954, 1, 7, 0.77], [23920, 2, 7, 0.85], [9690, 1, 7, 1.45], [410, 1, 7, 2.74], [5811, 3, 8, 3.52], [308, 1, 11, 1.83], [247, 1, 86, 5.11], [3429, 15, 53, 2.63], [22316, 3, 318, 2.64], [2774, 2, 205, 4.5], [1490, 1, 51, 2.45], [416, 1, 86, 3.92], [6098, 29, 37, 4.34], [9786, 1, 48, 4.45], [3934, 5, 586, 2.73], [2859, 15, 69, 2.84], [2049, 1, 15, 2.36], [201, 3, 299, 4.45], [3670, 2, 236, 5.41], [20555, 2, 57, 3.01], [6158, 2, 259, 3.55], [3478, 2, 75, 3.95], [7084, 3, 65, 3.92], [9785, 1, 36, 3.01], [12526, 2, 272, 4.56], [8599, 1, 145, 4.37], [3430, 15, 71, 2.44], [8938, 2, 192, 2.85], [1703, 2, 164, 3.32], [4253, 1, 171, 2.71], [9760, 29, 36, 2.93], [186, 3, 665, 2.69], [1413, 16, 50, 2.47], [229, 1, 80, 4.73], [11885, 2, 97, 2.14], [107, 2, 48, 4.16], [11887, 2, 130, 2.26], [11811, 1, 451, 3.72], [94, 4, 119, 5.8], [4232, 80, 153, 5.02], [11490, 1, 110, 2.74], [436, 2, 107, 2.72], [107, 7, 122, 3.2], [947, 15, 41, 2.5], [2438, 2, 643, 4.17], [415, 1, 86, 3.92], [11770, 1, 220, 2.59], [3673, 2, 236, 5.61], [11767, 1, 164, 2.67], [2821, 3, 1338, 2.55], [11769, 1, 164, 2.67], [5939, 3, 266, 2.71], [11671, 1, 310, 2.62], [11160, 1, 490, 5.45], [11844, 2, 186, 2.77], [9491, 21, 1065, 2.98], [12347, 1, 607, 5.34], [5812, 3, 589, 5.78], [7036, 1, 127, 2.65], [9358, 1, 59, 2.6], [140, 2, 45, 3.84], [5813, 3, 589, 3.7], [3495, 3, 965, 3.31], [12764, 2, 755, 2.62], [11771, 1, 213, 4.96], [11954, 1, 203, 2.56], [23920, 2, 106, 2.63], [9690, 1, 75, 3.24], [410, 1, 35, 3.81], [5811, 3, 296, 5.12], [308, 1, 173, 3.62]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 1.0], [305, 2, 7, 1.32], [6935, 2, 11, 4.28], [2778, 2, 9, 0.81], [144, 2, 9, 2.22], [130, 1, 7, 1.38], [8915, 2, 8, 1.9], [589, 2, 10, 0.99], [143, 2, 7, 1.12], [2328, 2, 7, 1.73], [6936, 2, 7, 3.42], [8648, 2, 7, 1.93], [2775, 2, 9, 0.94], [205, 2, 7, 0.83], [8650, 2, 7, 1.47], [326, 2, 9, 1.62], [593, 2, 9, 0.88], [146, 2, 7, 1.55], [145, 2, 7, 0.98], [7036, 1, 9, 2.3], [3840, 1, 7, 1.09], [2049, 3, 10, 0.87], [2776, 2, 9, 0.94], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [88, 10, 16, 2.46], [141, 2, 7, 0.71], [151, 1, 7, 1.36], [1124, 2, 7, 1.46], [11681, 2, 11, 3.45], [206, 2, 7, 0.74], [1446, 2, 7, 1.22], [9760, 29, 7, 1.18], [8853, 2, 7, 3.51], [990, 2, 7, 0.66], [5491, 2, 9, 1.44], [1007, 2, 7, 0.85], [362, 2, 9, 1.24], [8672, 2, 7, 2.94], [1504, 2, 7, 1.79], [2055, 3, 7, 0.84], [9372, 1, 7, 3.79], [2057, 3, 7, 0.84], [3893, 1, 7, 1.48], [8649, 2, 7, 1.29], [8938, 2, 7, 0.95], [434, 2, 9, 0.71], [12870, 1, 7, 2.35], [624, 2, 7, 2.19], [2050, 3, 7, 0.84], [417, 2, 9, 1.04], [3889, 1, 7, 0.65], [5165, 1, 7, 2.49], [1429, 2, 7, 0.91], [378, 2, 7, 4.21], [7084, 3, 7, 1.58], [10, 2, 7, 1.6], [2991, 3, 7, 3.64], [140, 2, 7, 2.34], [3891, 1, 7, 0.98], [1006, 2, 7, 1.04], [7886, 4, 7, 0.75], [10574, 3, 11, 3.29], [7573, 1, 22, 5.0], [10149, 3, 21, 1.48], [5208, 3, 9, 0.88], [1622, 1, 7, 0.82], [75, 2, 7, 0.75], [3, 2, 7, 0.89], [20927, 1, 7, 1.83], [5165, 2, 10, 2.34], [997, 2, 7, 2.64], [11234, 2, 7, 2.3], [12721, 2, 7, 1.26], [22247, 2, 7, 2.64], [147, 1, 7, 3.37], [346, 3, 9, 0.69], [996, 2, 7, 2.83], [11811, 1, 7, 0.8], [229, 1, 7, 1.0], [20252, 2, 7, 1.43], [11685, 2, 11, 3.45], [998, 2, 7, 3.33], [94, 4, 7, 3.68], [972, 3, 8, 1.36], [9491, 21, 17, 0.8], [76, 2, 7, 1.67], [35, 1, 7, 1.96], [439, 1, 9, 2.21], [6158, 2, 7, 4.79], [413, 1, 7, 2.08], [13028, 3, 7, 4.24], [13928, 1, 7, 1.28], [8104, 1, 7, 1.67], [5076, 1, 7, 0.83], [2805, 137, 7, 1.16], [5209, 3, 9, 0.78], [412, 1, 7, 1.85], [8676, 2, 7, 4.08], [33, 1, 7, 1.87], [83, 2, 7, 1.69], [418, 2, 7, 1.21], [148, 1, 7, 3.39], [2774, 2, 7, 1.15], [3495, 3, 16, 1.41], [8898, 3, 7, 3.35], [12212, 29, 7, 0.98], [7887, 4, 7, 1.81], [20256, 2, 9, 0.82], [38, 1, 7, 2.23], [11490, 1, 7, 1.29], [11770, 1, 7, 2.76], [34, 1, 7, 2.1], [10407, 10, 10, 3.59], [415, 1, 7, 1.0], [9784, 1, 7, 0.96], [84, 2, 7, 1.87], [126, 2, 7, 2.34], [411, 2, 7, 0.89], [13928, 2, 7, 1.35], [11739, 2, 7, 2.61], [9691, 1, 7, 1.05], [3048, 3, 7, 4.58], [9690, 1, 7, 0.69], [8939, 2, 7, 0.92], [5584, 3, 7, 2.81], [11953, 1, 7, 0.84], [39, 1, 7, 2.18], [12351, 1, 7, 1.22], [10410, 10, 15, 3.84], [11954, 1, 7, 0.7], [12764, 2, 8, 0.64], [7567, 3, 7, 2.64], [75, 2, 72, 2.69], [3, 2, 59, 2.81], [20927, 1, 30, 2.64], [5165, 2, 180, 4.82], [997, 2, 232, 4.28], [11234, 2, 179, 3.94], [12721, 2, 139, 3.23], [22247, 2, 139, 3.57], [147, 1, 43, 4.28], [346, 3, 308, 2.68], [996, 2, 115, 4.81], [11811, 1, 222, 2.78], [229, 1, 81, 2.64], [20252, 2, 91, 3.07], [11685, 2, 131, 5.43], [998, 2, 115, 4.81], [94, 4, 60, 4.77], [972, 3, 291, 2.82], [9491, 21, 1034, 2.76], [76, 2, 54, 2.65], [35, 1, 54, 2.93], [439, 1, 42, 4.69], [6158, 2, 249, 6.0], [413, 1, 42, 3.04], [13028, 3, 72, 5.72], [13928, 1, 24, 3.26], [8104, 1, 99, 3.59], [5076, 1, 64, 2.77], [2805, 137, 90, 3.08], [5209, 3, 273, 2.87], [412, 1, 41, 3.83], [8676, 2, 274, 5.72], [33, 1, 54, 3.76], [418, 2, 69, 3.13], [148, 1, 43, 4.3], [2774, 2, 200, 2.79], [3495, 3, 938, 3.05], [8898, 3, 144, 4.83], [12212, 29, 58, 2.95], [7887, 4, 34, 2.3], [20256, 2, 46, 2.94], [38, 1, 54, 3.19], [11490, 1, 54, 2.77], [11770, 1, 206, 4.4], [34, 1, 54, 3.07], [10407, 10, 569, 5.06], [415, 1, 42, 2.92], [9784, 1, 71, 2.6], [84, 2, 33, 2.85], [126, 2, 86, 3.98], [411, 2, 106, 2.53], [13928, 2, 12, 3.26], [11739, 2, 55, 4.25], [9691, 1, 74, 2.7], [3048, 3, 137, 6.0], [9690, 1, 25, 1.68], [8939, 2, 93, 2.9], [5584, 3, 120, 4.28], [11953, 1, 195, 2.48], [39, 1, 54, 3.13], [12351, 1, 612, 2.87], [10410, 10, 569, 5.1], [11954, 1, 195, 2.34], [12764, 2, 358, 2.62], [7567, 3, 34, 4.12]]</t>
+    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.05], [6936, 2, 4, 1.57], [305, 2, 4, 0.53], [8672, 2, 5, 0.58], [615, 2, 4, 0.71], [1504, 2, 5, 0.37], [2775, 2, 5, 0.2], [145, 2, 5, 0.4], [2776, 2, 4, 0.8], [8853, 2, 4, 1.54], [2327, 2, 4, 0.63], [12721, 2, 5, 0.73], [130, 1, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.56], [2328, 2, 4, 0.78], [11681, 2, 5, 0.94], [11737, 2, 4, 0.53], [616, 2, 4, 1.09], [5491, 2, 4, 0.56], [141, 2, 4, 0.79], [362, 2, 5, 0.2], [144, 2, 4, 0.44], [2497, 2, 4, 0.45], [205, 2, 4, 0.46], [8650, 2, 4, 0.39], [5493, 2, 4, 0.2], [417, 2, 5, 0.57], [8676, 2, 4, 0.47], [8673, 2, 4, 0.24], [3670, 2, 4, 1.02], [2774, 2, 5, 0.33], [8648, 2, 4, 1.91], [589, 2, 5, 0.2], [3, 2, 5, 0.53], [206, 2, 4, 0.2], [6097, 80, 4, 1.14], [2423, 29, 4, 1.16], [22247, 2, 4, 1.01], [11836, 2, 4, 0.49], [6497, 1, 4, 0.5], [8674, 2, 5, 0.49], [624, 2, 4, 1.26], [12343, 1, 4, 0.87], [2055, 3, 4, 1.18], [2423, 80, 4, 1.1], [523, 2, 4, 0.68], [12344, 1, 4, 0.87], [593, 2, 5, 0.45], [6097, 29, 4, 1.14], [6098, 80, 5, 0.58], [12720, 2, 4, 0.82], [12345, 1, 4, 0.87], [11739, 2, 4, 0.53], [75, 2, 4, 1.17], [8915, 2, 4, 0.41], [88, 10, 9, 0.82], [326, 2, 4, 1.54], [6494, 1, 4, 0.46], [60, 3, 6, 0.19], [13260, 29, 4, 0.36], [142, 2, 4, 0.79], [3429, 15, 4, 0.46], [1492, 1, 4, 0.62], [411, 2, 4, 0.57], [21712, 3, 13, 0.67], [412, 1, 4, 1.0], [2422, 80, 4, 1.31], [1050, 2, 4, 0.38], [10149, 3, 13, 1.12], [2422, 29, 5, 1.19], [378, 2, 4, 1.16], [6098, 29, 4, 1.08], [12346, 1, 4, 0.87], [151, 1, 4, 0.75], [7704, 2, 4, 1.15], [11738, 2, 4, 0.53], [229, 1, 4, 2.0], [22316, 3, 4, 0.46], [1243, 2, 4, 0.72], [1049, 2, 4, 0.38], [20252, 2, 4, 0.58], [13264, 29, 4, 0.52], [345, 3, 4, 1.26], [13258, 29, 4, 1.26], [1490, 1, 4, 0.47], [12269, 2, 4, 0.51], [964, 15, 4, 0.36], [2438, 1, 4, 1.05], [10407, 10, 6, 1.27], [1163, 3, 5, 0.58], [5208, 3, 5, 0.74], [2331, 1, 4, 0.55], [2821, 3, 10, 0.23], [416, 1, 4, 1.66], [201, 3, 4, 1.26], [307, 2, 4, 1.04], [186, 3, 7, 0.5], [7004, 1, 4, 0.56], [149, 2, 4, 0.37], [13259, 29, 4, 1.13], [418, 2, 4, 0.54], [957, 2, 4, 0.57], [7705, 2, 4, 1.15], [12229, 2, 4, 0.52], [7706, 2, 4, 1.15], [11687, 2, 4, 0.56], [10406, 10, 7, 1.21], [410, 1, 4, 0.71], [3478, 2, 4, 0.57], [7036, 1, 4, 0.43], [9784, 1, 4, 0.91], [20255, 2, 4, 0.4], [8938, 2, 4, 0.58], [21713, 3, 7, 0.46], [12870, 1, 4, 2.33], [10408, 10, 6, 1.04], [5490, 2, 4, 0.49], [11402, 1, 4, 0.46], [11404, 2, 4, 0.45], [10410, 10, 6, 1.18], [11161, 1, 5, 1.8], [956, 2, 4, 0.53], [2438, 2, 5, 1.38], [2703, 3, 4, 2.2], [1886, 2, 4, 0.35], [19687, 1, 4, 1.21], [11490, 1, 4, 0.43], [107, 7, 5, 1.24], [21781, 2, 4, 0.47], [22125, 2, 4, 0.36], [11690, 2, 4, 0.36], [2778, 2, 140, 2.81], [6935, 2, 252, 6.0], [6936, 2, 252, 5.81], [305, 2, 132, 3.08], [8672, 2, 259, 3.33], [615, 2, 96, 3.4], [1504, 2, 183, 2.95], [2775, 2, 140, 3.13], [145, 2, 135, 2.84], [2776, 2, 140, 4.5], [8853, 2, 252, 5.13], [2327, 2, 135, 3.26], [12721, 2, 284, 3.49], [130, 1, 53, 2.98], [143, 2, 133, 3.04], [146, 2, 135, 3.13], [2328, 2, 135, 3.53], [11681, 2, 248, 5.48], [11737, 2, 56, 3.11], [616, 2, 107, 3.95], [5491, 2, 109, 2.82], [141, 2, 155, 4.16], [362, 2, 128, 2.96], [144, 2, 135, 2.91], [2497, 2, 183, 3.25], [205, 2, 109, 2.64], [8650, 2, 202, 4.44], [5493, 2, 98, 2.97], [417, 2, 139, 3.15], [8676, 2, 259, 2.97], [8673, 2, 260, 5.05], [3670, 2, 235, 5.79], [2774, 2, 183, 6.0], [8648, 2, 225, 5.29], [589, 2, 137, 2.91], [3, 2, 108, 3.09], [206, 2, 98, 2.64], [6097, 80, 61, 5.49], [2423, 29, 37, 4.87], [22247, 2, 255, 3.05], [11836, 2, 269, 2.69], [6497, 1, 27, 2.94], [8674, 2, 259, 3.57], [624, 2, 107, 4.11], [12343, 1, 610, 4.37], [2055, 3, 158, 4.31], [2423, 80, 185, 4.81], [523, 2, 155, 3.04], [12344, 1, 610, 3.38], [593, 2, 207, 2.86], [6097, 29, 30, 5.49], [6098, 80, 66, 3.97], [12720, 2, 284, 3.48], [12345, 1, 610, 4.37], [11739, 2, 56, 3.11], [75, 2, 144, 3.94], [8915, 2, 129, 2.36], [88, 10, 504, 3.62], [326, 2, 30, 3.9], [6494, 1, 52, 2.64], [60, 3, 730, 4.08], [13260, 29, 65, 2.76], [142, 2, 155, 4.16], [3429, 15, 53, 2.63], [1492, 1, 37, 2.92], [411, 2, 109, 2.83], [21712, 3, 2180, 2.89]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.66], [2328, 2, 4, 0.28], [8650, 2, 5, 0.39], [362, 2, 4, 0.2], [5491, 2, 4, 0.6], [5493, 2, 4, 0.2], [130, 1, 5, 0.48], [589, 2, 4, 0.44], [2327, 2, 4, 0.2], [326, 2, 4, 0.97], [11685, 2, 4, 1.41], [8672, 2, 5, 0.58], [417, 2, 4, 0.56], [6935, 2, 8, 1.3], [205, 2, 4, 0.37], [11681, 2, 5, 1.41], [206, 2, 4, 0.2], [8648, 2, 4, 1.7], [6936, 2, 5, 1.32], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 0.55], [12721, 2, 5, 0.97], [11838, 2, 4, 0.2], [2049, 3, 9, 0.47], [1446, 2, 4, 0.78], [523, 2, 4, 0.56], [615, 2, 4, 1.55], [8676, 2, 4, 0.49], [11737, 2, 4, 1.04], [305, 2, 5, 0.53], [616, 2, 4, 1.29], [413, 1, 5, 0.51], [412, 1, 4, 1.0], [411, 2, 4, 0.52], [11739, 2, 4, 1.04], [10574, 3, 5, 1.26], [11835, 2, 4, 0.55], [145, 2, 5, 0.4], [8675, 2, 4, 0.6], [2775, 2, 4, 0.42], [1429, 2, 4, 0.48], [76, 2, 4, 1.11], [8673, 2, 4, 1.45], [143, 2, 4, 0.65], [8674, 2, 4, 0.49], [11836, 2, 4, 0.2], [6158, 2, 5, 1.33], [8938, 2, 4, 0.97], [146, 2, 4, 0.62], [151, 1, 4, 0.75], [12720, 2, 4, 0.82], [2776, 2, 4, 0.75], [10149, 3, 13, 0.39], [3495, 3, 13, 0.85], [2055, 3, 4, 1.18], [75, 2, 4, 1.17], [2057, 3, 4, 1.0], [11738, 2, 4, 1.04], [144, 2, 4, 0.52], [8939, 2, 4, 0.94], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 5, 0.19], [88, 10, 8, 0.95], [159, 3, 5, 0.72], [2859, 15, 4, 0.44], [7084, 3, 4, 0.94], [418, 2, 4, 0.2], [10993, 2, 4, 0.49], [20252, 2, 4, 0.37], [9784, 1, 4, 0.88], [7705, 2, 4, 1.15], [5165, 1, 4, 1.11], [410, 1, 4, 0.47], [12526, 2, 4, 0.73], [11844, 2, 4, 0.47], [414, 1, 4, 0.73], [2423, 80, 5, 1.25], [12351, 1, 5, 0.61], [2424, 29, 5, 0.55], [378, 2, 4, 1.16], [2423, 29, 4, 1.16], [12345, 1, 4, 0.61], [60, 3, 5, 2.26], [950, 1, 4, 0.39], [6494, 1, 4, 0.46], [11490, 1, 4, 0.48], [2424, 80, 4, 0.43], [12373, 1, 5, 0.45], [13023, 3, 6, 1.51], [201, 3, 4, 1.1], [13034, 3, 5, 1.37], [1519, 3, 9, 0.4], [11489, 1, 4, 0.37], [5208, 3, 5, 0.54], [345, 3, 4, 0.76], [11770, 1, 4, 0.48], [3, 2, 4, 3.1], [159, 1, 4, 0.73], [6952, 1, 4, 1.09], [3430, 15, 4, 1.23], [20927, 1, 4, 0.48], [11954, 1, 4, 0.42], [7886, 4, 5, 0.44], [432, 3, 4, 2.04], [3429, 15, 4, 0.46], [11504, 2, 4, 0.2], [566, 2, 4, 0.5], [13928, 1, 4, 0.45], [11811, 1, 4, 0.38], [5584, 3, 4, 1.36], [114, 3, 4, 1.64], [2331, 1, 4, 0.79], [10407, 10, 6, 1.27], [1492, 1, 4, 0.62], [105, 3, 4, 1.64], [7004, 1, 4, 0.99], [1490, 1, 4, 1.38], [11089, 1, 4, 0.39], [2703, 3, 4, 2.2], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [11674, 1, 4, 0.36], [1886, 2, 4, 0.44], [12348, 1, 4, 0.61], [10410, 10, 6, 1.18], [94, 4, 4, 1.77], [3891, 1, 4, 2.39], [11953, 1, 4, 0.46], [6097, 80, 4, 1.86], [22317, 3, 5, 0.52], [9082, 3, 15, 1.25], [141, 2, 156, 3.01], [2328, 2, 135, 3.53], [8650, 2, 201, 4.44], [362, 2, 128, 2.98], [5491, 2, 108, 2.9], [5493, 2, 97, 2.79], [130, 1, 34, 2.98], [589, 2, 137, 2.91], [2327, 2, 135, 3.26], [326, 2, 81, 3.64], [11685, 2, 247, 6.0], [8672, 2, 258, 3.33], [417, 2, 156, 2.82], [6935, 2, 254, 5.82], [205, 2, 109, 2.53], [11681, 2, 247, 5.84], [206, 2, 81, 2.64], [8648, 2, 201, 4.32], [6936, 2, 254, 5.23], [142, 2, 140, 3.03], [11837, 2, 269, 2.79], [12721, 2, 255, 3.19], [11838, 2, 242, 3.09], [2049, 3, 495, 3.27], [1446, 2, 76, 3.25], [523, 2, 156, 2.81], [615, 2, 107, 4.63], [8676, 2, 287, 4.22], [11737, 2, 57, 3.69], [305, 2, 132, 3.08], [616, 2, 107, 4.15], [413, 1, 77, 3.05], [412, 1, 75, 3.02], [411, 2, 109, 2.74], [11739, 2, 57, 3.69], [10574, 3, 450, 4.6], [11835, 2, 269, 2.79], [145, 2, 135, 2.84], [8675, 2, 287, 3.21], [2775, 2, 157, 2.56], [1429, 2, 153, 2.68], [76, 2, 109, 3.83], [8673, 2, 284, 5.17], [143, 2, 148, 2.98], [8674, 2, 287, 3.25], [11836, 2, 242, 2.89], [6158, 2, 260, 4.44], [8938, 2, 190, 3.57], [146, 2, 151, 2.93], [151, 1, 33, 2.81], [12720, 2, 284, 3.48], [2776, 2, 157, 3.16], [10149, 3, 872, 3.26], [3495, 3, 965, 3.31], [2055, 3, 158, 4.31], [75, 2, 144, 3.94], [2057, 3, 158, 4.31], [11738, 2, 57, 3.69], [144, 2, 151, 2.74], [8939, 2, 63, 4.3], [416, 1, 86, 3.13], [7885, 4, 40, 2.38], [22316, 3, 286, 2.96], [88, 10, 561, 4.69], [159, 3, 709, 3.16], [2859, 15, 69, 2.6], [7084, 3, 116, 3.92]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 4, 1.08], [6935, 2, 8, 0.99], [2049, 3, 8, 0.41], [362, 2, 4, 0.92], [589, 2, 5, 0.37], [75, 2, 4, 0.39], [141, 2, 4, 0.66], [1776, 1, 4, 0.2], [205, 2, 4, 0.38], [8915, 2, 5, 0.4], [2778, 2, 4, 0.2], [8672, 2, 6, 0.51], [6936, 2, 5, 1.05], [593, 2, 5, 0.44], [7886, 4, 4, 0.57], [305, 2, 4, 0.5], [206, 2, 4, 0.2], [151, 1, 5, 0.47], [8648, 2, 4, 1.08], [1777, 1, 4, 0.8], [2328, 2, 5, 0.35], [88, 10, 9, 0.55], [11681, 2, 5, 1.87], [990, 2, 4, 0.26], [8650, 2, 5, 1.09], [412, 1, 4, 0.62], [5151, 2, 4, 0.75], [2050, 3, 4, 0.8], [76, 2, 4, 1.06], [144, 2, 4, 0.49], [345, 3, 5, 0.44], [10149, 3, 17, 1.82], [2991, 3, 4, 1.6], [22247, 2, 4, 0.54], [57, 1, 4, 0.38], [3478, 2, 4, 0.89], [146, 2, 4, 1.0], [7004, 1, 5, 0.36], [45, 2, 4, 0.56], [2054, 3, 4, 0.51], [143, 2, 4, 0.46], [417, 2, 4, 0.45], [413, 1, 4, 0.81], [21793, 1, 5, 0.45], [167, 3, 5, 0.49], [201, 3, 5, 0.2], [74, 1, 4, 1.75], [1446, 2, 4, 0.54], [346, 1, 4, 0.2], [2055, 3, 4, 0.5], [168, 3, 4, 0.32], [10, 2, 4, 0.45], [11234, 2, 4, 0.2], [7084, 3, 4, 0.36], [1429, 2, 4, 0.2], [7036, 1, 4, 1.8], [12721, 2, 6, 0.49], [3495, 3, 13, 0.52], [5081, 2, 4, 0.44], [8649, 2, 4, 1.29], [308, 1, 5, 0.73], [13028, 3, 4, 0.47], [10825, 21, 8, 1.34], [12870, 1, 4, 1.54], [79, 1, 4, 0.38], [1492, 1, 4, 0.58], [96, 11, 14, 0.46], [23, 1, 4, 0.2], [1006, 2, 4, 0.55], [3893, 1, 5, 0.2], [418, 2, 4, 0.43], [1504, 2, 4, 0.2], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [9827, 3, 4, 0.2], [3891, 1, 4, 0.2], [432, 3, 5, 0.41], [7005, 1, 5, 0.36], [94, 4, 4, 1.24], [1490, 1, 5, 0.2], [8853, 2, 5, 1.01], [13260, 29, 4, 0.4], [5812, 3, 5, 2.01], [416, 1, 4, 0.81], [8651, 2, 4, 0.8], [12353, 1, 4, 1.55], [20256, 2, 4, 0.2], [8939, 2, 5, 0.2], [21269, 3, 4, 0.95], [13280, 1, 4, 0.81], [12349, 1, 4, 1.63], [950, 1, 4, 0.46], [33, 1, 4, 0.53], [5086, 1, 5, 1.08], [998, 2, 5, 0.73], [12350, 1, 4, 0.62], [9069, 1, 4, 0.97], [1243, 2, 4, 0.89], [229, 1, 4, 1.05], [2878, 1, 4, 0.74], [140, 2, 4, 0.63], [2049, 1, 4, 0.2], [7567, 3, 4, 1.11], [20927, 1, 4, 0.2], [126, 2, 4, 0.93], [346, 3, 5, 0.19], [3980, 4, 4, 1.31], [1703, 2, 4, 0.41], [8274, 3, 4, 0.39], [9691, 1, 4, 1.09], [35, 1, 4, 0.48], [5209, 3, 4, 0.19], [1070, 7, 10, 0.2], [997, 2, 4, 1.03], [5584, 3, 4, 1.74], [11811, 1, 4, 1.0], [1519, 3, 10, 0.4], [11914, 1, 5, 0.5], [5660, 2, 5, 0.9], [856, 1, 4, 0.38], [8898, 3, 4, 2.43], [1091, 1, 4, 0.2], [5513, 2, 4, 0.44], [8926, 1, 4, 1.35], [523, 2, 4, 0.63], [11767, 1, 4, 0.48], [2775, 2, 4, 0.2], [9372, 1, 4, 0.39], [9081, 3, 7, 1.8], [13034, 3, 5, 0.66], [20255, 2, 5, 0.2], [307, 2, 4, 1.14], [11808, 1, 5, 0.2], [326, 2, 84, 3.42], [6935, 2, 235, 4.09], [2049, 3, 450, 1.94], [362, 2, 131, 2.84], [589, 2, 142, 1.93], [75, 2, 121, 1.98], [141, 2, 143, 3.4], [1776, 1, 90, 1.74], [205, 2, 101, 1.85], [8915, 2, 179, 1.9], [2778, 2, 130, 2.06], [8672, 2, 235, 2.17], [6936, 2, 235, 4.51], [593, 2, 211, 2.16], [7886, 4, 132, 2.19], [305, 2, 121, 2.18], [206, 2, 90, 1.99], [151, 1, 54, 1.63], [8648, 2, 186, 3.41], [1777, 1, 90, 3.67], [2328, 2, 126, 1.92], [88, 10, 463, 2.3], [11681, 2, 227, 5.43], [990, 2, 43, 2.16], [8650, 2, 186, 3.43], [412, 1, 69, 2.41], [5151, 2, 19, 3.62], [2050, 3, 433, 3.55], [76, 2, 90, 3.12], [144, 2, 139, 2.06], [345, 3, 248, 2.01], [10149, 3, 715, 4.79], [2991, 3, 133, 4.91], [22247, 2, 234, 2.54], [57, 1, 79, 1.85], [3478, 2, 69, 3.31], [146, 2, 125, 2.18], [7004, 1, 65, 1.93], [45, 2, 90, 4.21], [2054, 3, 389, 2.21], [143, 2, 122, 2.11], [417, 2, 143, 3.4], [413, 1, 79, 3.28], [21793, 1, 196, 2.1], [167, 3, 188, 2.16], [201, 3, 248, 1.94], [74, 1, 163, 3.73], [1446, 2, 126, 3.18], [346, 1, 131, 2.05], [2055, 3, 389, 2.18], [168, 3, 339, 2.77], [10, 2, 97, 2.76], [11234, 2, 153, 2.04], [7084, 3, 107, 1.93], [1429, 2, 126, 2.47], [7036, 1, 105, 3.84], [12721, 2, 234, 2.13], [3495, 3, 797, 2.2], [5081, 2, 177, 1.96], [8649, 2, 186, 3.64], [308, 1, 139, 3.98], [13028, 3, 122, 2.14], [10825, 21, 575, 3.62], [12870, 1, 113, 3.19], [79, 1, 44, 1.85], [1492, 1, 30, 3.25], [96, 11, 784, 1.97]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 10, 0.93], [2327, 2, 4, 0.52], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6935, 2, 6, 1.77], [2328, 2, 4, 0.58], [5493, 2, 4, 1.23], [130, 1, 4, 0.98], [305, 2, 4, 0.45], [615, 2, 4, 0.2], [616, 2, 5, 0.2], [6936, 2, 5, 1.74], [326, 2, 5, 1.15], [8650, 2, 4, 0.39], [8648, 2, 4, 1.05], [1446, 2, 4, 0.2], [2049, 3, 5, 0.42], [10, 2, 4, 0.2], [143, 2, 5, 0.58], [159, 3, 5, 0.67], [593, 2, 4, 0.37], [205, 2, 4, 0.43], [5491, 2, 4, 0.58], [2775, 2, 4, 0.2], [7036, 1, 4, 0.94], [144, 2, 5, 0.53], [3840, 1, 5, 0.29], [151, 1, 4, 0.75], [94, 4, 4, 1.91], [434, 2, 5, 0.2], [8938, 2, 4, 0.52], [990, 2, 4, 0.2], [3893, 1, 4, 0.2], [146, 2, 4, 1.07], [8853, 2, 4, 1.79], [1504, 2, 4, 0.93], [12224, 1, 4, 0.46], [624, 2, 4, 1.1], [1429, 2, 4, 0.2], [3891, 1, 4, 0.2], [2776, 2, 4, 0.2], [206, 2, 4, 0.37], [2055, 3, 4, 0.46], [362, 2, 4, 0.5], [141, 2, 4, 0.39], [2057, 3, 4, 0.46], [75, 2, 4, 0.39], [11681, 2, 5, 1.33], [11404, 2, 4, 0.2], [5208, 3, 5, 0.19], [8649, 2, 4, 1.53], [3889, 1, 4, 0.35], [1007, 2, 4, 0.46], [10574, 3, 5, 1.86], [11234, 2, 4, 0.75], [10993, 2, 4, 0.7], [7886, 4, 4, 0.46], [12870, 1, 5, 0.72], [21793, 1, 4, 0.5], [10149, 3, 15, 0.39], [3980, 4, 4, 0.73], [2050, 3, 4, 0.46], [12353, 1, 4, 0.66], [145, 2, 4, 1.01], [7084, 3, 4, 0.86], [11811, 1, 4, 0.2], [8672, 2, 4, 1.48], [20927, 1, 4, 0.95], [998, 2, 4, 1.0], [9760, 29, 4, 0.37], [997, 2, 4, 1.42], [2436, 4, 4, 0.2], [1006, 2, 5, 0.54], [1886, 2, 4, 0.2], [972, 3, 5, 0.51], [2424, 80, 4, 0.99], [3, 2, 4, 0.62], [346, 3, 5, 0.19], [229, 1, 4, 0.47], [6158, 2, 5, 0.48], [3495, 3, 11, 0.56], [12346, 1, 4, 0.66], [5076, 1, 4, 0.71], [7887, 4, 4, 0.47], [12345, 1, 4, 0.66], [20252, 2, 4, 0.38], [126, 2, 4, 1.27], [11953, 1, 4, 0.46], [74, 1, 4, 1.97], [9372, 1, 4, 1.42], [11770, 1, 4, 0.88], [140, 2, 4, 1.27], [12344, 1, 4, 0.66], [8939, 2, 4, 0.2], [11954, 1, 4, 0.38], [11685, 2, 5, 1.33], [1492, 1, 4, 0.2], [12352, 1, 4, 0.66], [996, 2, 4, 1.16], [12721, 2, 4, 2.31], [2774, 2, 4, 0.63], [20256, 2, 4, 0.2], [12350, 1, 4, 0.66], [3981, 3, 11, 0.23], [9081, 3, 7, 0.48], [9491, 21, 12, 0.22], [5434, 1, 4, 1.0], [2423, 80, 4, 0.75], [6497, 1, 4, 0.63], [12343, 1, 4, 0.66], [12229, 2, 4, 0.47], [5584, 3, 4, 1.75], [2438, 2, 6, 0.49], [10388, 2, 4, 0.37], [12351, 1, 4, 0.66], [10407, 10, 7, 1.55], [11179, 1, 4, 0.45], [6496, 1, 4, 1.89], [22317, 3, 4, 0.6], [7573, 1, 8, 2.02], [823, 1, 4, 0.55], [5209, 3, 5, 0.19], [3900, 3, 4, 1.76], [2805, 137, 4, 0.89], [8898, 3, 5, 1.44], [12526, 2, 4, 0.71], [11812, 1, 4, 0.2], [2424, 29, 4, 0.55], [3975, 4, 5, 1.21], [4253, 1, 4, 0.54], [11490, 1, 4, 0.35], [336, 15, 4, 0.97], [88, 10, 490, 3.94], [2327, 2, 132, 2.93], [8915, 2, 165, 2.96], [589, 2, 134, 2.97], [2778, 2, 137, 2.92], [6935, 2, 244, 6.0], [2328, 2, 132, 3.05], [5493, 2, 104, 3.91], [305, 2, 128, 2.8], [615, 2, 93, 3.01], [616, 2, 93, 2.64], [6936, 2, 244, 5.39], [326, 2, 77, 4.1], [8650, 2, 196, 3.45], [8648, 2, 196, 3.91], [1446, 2, 134, 3.2], [2049, 3, 360, 2.34], [10, 2, 91, 2.65], [143, 2, 130, 3.03], [159, 3, 690, 2.82], [593, 2, 223, 2.53], [205, 2, 95, 2.77], [5491, 2, 93, 3.05], [2775, 2, 137, 2.92], [7036, 1, 113, 4.28], [3840, 1, 150, 3.43], [151, 1, 32, 2.69], [94, 4, 105, 4.77], [434, 2, 93, 2.69], [8938, 2, 125, 2.43], [990, 2, 19, 2.69], [3893, 1, 109, 2.96], [146, 2, 132, 3.02], [8853, 2, 272, 5.15], [1504, 2, 180, 3.69], [12224, 1, 162, 2.49], [624, 2, 104, 3.83], [1429, 2, 134, 2.89], [3891, 1, 109, 2.96], [2776, 2, 137, 3.16], [206, 2, 106, 2.39], [2055, 3, 314, 2.32], [362, 2, 124, 2.89], [141, 2, 136, 2.69], [2057, 3, 314, 2.32], [75, 2, 126, 2.69], [11681, 2, 234, 5.43], [11404, 2, 92, 3.15], [5208, 3, 493, 2.87], [8649, 2, 218, 4.79], [3889, 1, 122, 2.29], [1007, 2, 264, 2.49], [11234, 2, 161, 3.27], [10993, 2, 54, 2.93], [7886, 4, 70, 2.16], [12870, 1, 121, 3.3], [21793, 1, 208, 2.89], [10149, 3, 763, 3.88], [3980, 4, 365, 4.41], [2050, 3, 314, 2.32], [12353, 1, 612, 2.87], [145, 2, 132, 2.92], [7084, 3, 127, 3.22], [11811, 1, 402, 2.78], [8672, 2, 247, 4.92], [20927, 1, 34, 2.64], [998, 2, 208, 4.81]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 1.31], [141, 2, 4, 0.4], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.71], [8648, 2, 4, 1.13], [362, 2, 4, 0.46], [2327, 2, 4, 0.39], [11681, 2, 9, 1.29], [8650, 2, 5, 0.84], [326, 2, 4, 0.77], [205, 2, 4, 0.2], [2328, 2, 4, 0.57], [1446, 2, 4, 0.28], [305, 2, 5, 0.88], [130, 1, 4, 0.2], [8649, 2, 5, 0.39], [2775, 2, 4, 0.2], [8853, 2, 5, 1.21], [361, 2, 4, 0.5], [2776, 2, 4, 0.2], [593, 2, 5, 0.48], [143, 2, 4, 1.13], [140, 2, 4, 0.77], [1429, 2, 4, 0.28], [206, 2, 4, 0.2], [5493, 2, 4, 0.2], [523, 2, 4, 0.4], [7004, 1, 4, 0.71], [413, 1, 4, 1.02], [7036, 1, 4, 1.58], [5491, 2, 4, 0.5], [412, 1, 4, 0.57], [21793, 1, 4, 1.03], [12350, 1, 4, 0.19], [151, 1, 4, 0.46], [1124, 2, 4, 0.64], [990, 2, 4, 0.2], [12353, 1, 5, 0.19], [5165, 1, 4, 0.42], [8915, 2, 5, 0.86], [615, 2, 4, 1.1], [583, 2, 4, 0.77], [417, 2, 4, 0.43], [21798, 1, 4, 0.36], [146, 2, 4, 0.64], [248, 1, 4, 0.2], [434, 2, 5, 0.2], [201, 3, 5, 0.47], [142, 2, 4, 0.48], [6097, 80, 4, 0.38], [11770, 1, 4, 0.43], [6952, 1, 4, 1.71], [2055, 3, 4, 0.81], [345, 3, 4, 0.47], [3891, 1, 4, 0.98], [9372, 1, 4, 0.58], [2057, 3, 4, 0.81], [616, 2, 4, 0.86], [7084, 3, 4, 1.0], [3670, 2, 4, 1.47], [3893, 1, 4, 0.64], [5165, 2, 7, 1.41], [12346, 1, 5, 0.19], [12870, 1, 4, 1.18], [12343, 1, 4, 0.49], [10574, 3, 5, 1.39], [1886, 2, 4, 0.36], [2424, 80, 4, 0.43], [346, 3, 4, 0.2], [3334, 5, 5, 1.7], [20927, 1, 4, 0.38], [12351, 1, 4, 0.38], [7885, 4, 4, 0.49], [6098, 80, 4, 1.46], [6097, 29, 4, 0.88], [11089, 1, 4, 0.44], [12345, 1, 4, 0.47], [10149, 3, 13, 0.91], [20256, 2, 4, 0.2], [147, 1, 4, 0.53], [22316, 3, 4, 0.36], [1492, 1, 4, 0.58], [11953, 1, 4, 0.44], [432, 3, 5, 0.62], [11491, 2, 4, 0.51], [20252, 2, 4, 0.2], [4032, 29, 4, 0.47], [418, 2, 4, 0.72], [1490, 1, 4, 0.42], [1519, 3, 10, 0.4], [2423, 80, 4, 1.66], [11952, 1, 4, 0.46], [411, 2, 4, 0.5], [12304, 1, 4, 0.2], [5151, 2, 4, 0.62], [229, 1, 4, 2.07], [11769, 1, 4, 0.48], [3576, 25, 4, 0.91], [972, 3, 5, 0.46], [2331, 1, 4, 1.19], [346, 1, 4, 0.2], [995, 2, 4, 0.41], [416, 1, 4, 0.99], [13034, 3, 4, 1.31], [2424, 29, 4, 0.41], [11426, 25, 4, 0.58], [3, 2, 4, 0.55], [11737, 2, 4, 0.5], [5076, 1, 4, 0.63], [11767, 1, 4, 0.48], [439, 1, 4, 1.47], [11490, 1, 4, 0.56], [2805, 137, 4, 0.98], [2160, 68, 4, 0.56], [6494, 1, 4, 1.59], [950, 1, 4, 0.36], [414, 1, 4, 0.66], [3575, 25, 4, 0.98], [12764, 2, 5, 0.51], [1701, 2, 4, 1.97], [11180, 1, 4, 0.54], [8677, 3, 5, 1.11], [75, 2, 4, 0.37], [11586, 1, 7, 1.42], [3577, 25, 4, 0.42], [3478, 2, 4, 0.9], [11585, 29, 4, 1.12], [11813, 1, 4, 1.11], [13023, 3, 5, 1.01], [9998, 80, 4, 0.81], [2438, 2, 5, 1.05], [12526, 2, 4, 0.48], [6935, 2, 212, 5.03], [141, 2, 119, 2.71], [589, 2, 118, 2.6], [2778, 2, 119, 2.86], [6936, 2, 212, 5.43], [8648, 2, 171, 3.75], [362, 2, 108, 2.52], [2327, 2, 129, 3.24], [11681, 2, 208, 4.91], [8650, 2, 171, 3.23], [326, 2, 78, 2.83], [205, 2, 84, 2.22], [2328, 2, 116, 2.74], [1446, 2, 118, 3.11], [305, 2, 113, 3.31], [130, 1, 45, 1.55], [8649, 2, 171, 3.7], [2775, 2, 119, 2.86], [8853, 2, 212, 4.93], [361, 2, 119, 2.6], [2776, 2, 119, 2.86], [593, 2, 177, 2.55], [143, 2, 114, 3.07], [140, 2, 78, 2.83], [1429, 2, 118, 3.41], [206, 2, 84, 2.51], [5493, 2, 83, 2.55], [523, 2, 119, 2.68], [7004, 1, 68, 2.72], [413, 1, 66, 2.92], [7036, 1, 99, 3.67], [5491, 2, 93, 2.34], [412, 1, 72, 2.66], [21793, 1, 208, 5.07], [12350, 1, 482, 2.38], [151, 1, 57, 2.33], [1124, 2, 161, 2.69], [990, 2, 40, 2.5], [12353, 1, 482, 2.43], [5165, 1, 26, 3.83], [8915, 2, 163, 2.9], [615, 2, 92, 3.67], [583, 2, 78, 2.83], [417, 2, 119, 2.48], [21798, 1, 120, 2.36], [146, 2, 129, 4.34], [248, 1, 42, 2.08], [434, 2, 82, 2.58], [201, 3, 231, 2.55], [142, 2, 119, 2.56], [6097, 80, 54, 5.58], [11770, 1, 189, 2.22], [6952, 1, 145, 4.06], [2055, 3, 410, 2.91], [345, 3, 231, 2.55], [3891, 1, 107, 3.22], [9372, 1, 195, 2.96], [2057, 3, 410, 2.91], [616, 2, 92, 3.0], [7084, 3, 99, 3.51], [3670, 2, 212, 4.13], [3893, 1, 107, 3.22], [12346, 1, 482, 2.38], [12870, 1, 119, 3.63], [12343, 1, 536, 2.32], [10574, 3, 392, 3.24], [1886, 2, 135, 2.08]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.18], [615, 2, 4, 1.69], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [5493, 2, 4, 1.52], [6936, 2, 4, 1.18], [130, 1, 4, 0.97], [205, 2, 4, 0.53], [616, 2, 4, 1.5], [1504, 2, 5, 0.57], [144, 2, 4, 0.53], [8648, 2, 4, 0.7], [2049, 3, 9, 0.41], [88, 10, 8, 0.37], [8915, 2, 5, 1.45], [326, 2, 4, 1.12], [7036, 1, 4, 1.57], [8650, 2, 5, 0.57], [593, 2, 5, 0.45], [2327, 2, 5, 0.47], [11681, 2, 4, 1.35], [8853, 2, 4, 1.18], [141, 2, 4, 0.48], [2775, 2, 5, 0.2], [206, 2, 4, 0.2], [151, 1, 4, 0.59], [7004, 1, 5, 0.35], [248, 1, 4, 0.43], [11685, 2, 4, 1.88], [3840, 1, 4, 0.39], [3891, 1, 5, 0.2], [2328, 2, 4, 0.5], [2050, 3, 5, 0.34], [5491, 2, 4, 0.54], [2497, 2, 4, 0.83], [2055, 3, 4, 1.75], [143, 2, 4, 0.58], [434, 2, 4, 0.47], [3980, 4, 4, 1.2], [990, 2, 4, 0.2], [2054, 3, 4, 0.34], [624, 2, 4, 1.35], [8649, 2, 4, 1.53], [362, 2, 4, 0.85], [2776, 2, 4, 0.67], [12870, 1, 4, 0.92], [2057, 3, 5, 0.34], [12350, 1, 4, 0.66], [7886, 4, 5, 0.45], [10574, 3, 5, 1.86], [5165, 1, 4, 0.58], [1006, 2, 4, 0.58], [1446, 2, 4, 0.39], [3495, 3, 13, 0.85], [94, 4, 4, 0.84], [75, 2, 4, 1.49], [523, 2, 4, 1.0], [7084, 3, 4, 0.58], [2991, 3, 4, 1.1], [7005, 1, 4, 0.94], [10149, 3, 13, 0.39], [3975, 4, 4, 1.26], [21793, 1, 4, 2.3], [9760, 29, 4, 0.2], [11404, 2, 5, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.66], [6158, 2, 5, 0.2], [20927, 1, 4, 0.67], [3981, 3, 15, 1.15], [5165, 2, 5, 1.11], [417, 2, 4, 0.54], [2912, 1, 4, 0.2], [3982, 3, 11, 1.18], [8939, 2, 4, 0.2], [1007, 2, 4, 0.51], [11953, 1, 4, 0.45], [2774, 2, 4, 1.06], [33, 1, 4, 1.06], [956, 2, 4, 0.47], [11772, 1, 5, 1.35], [286, 3, 5, 1.06], [1492, 1, 4, 0.7], [11767, 1, 4, 0.2], [336, 15, 4, 1.12], [972, 3, 4, 1.07], [11769, 1, 4, 0.2], [11490, 1, 4, 1.04], [11770, 1, 4, 0.48], [410, 1, 5, 0.54], [74, 1, 4, 1.16], [2912, 2, 5, 0.47], [389, 4, 5, 0.38], [6496, 1, 4, 0.47], [35, 1, 4, 0.57], [7567, 3, 5, 1.15], [411, 2, 4, 1.0], [12721, 2, 4, 0.99], [1413, 15, 4, 0.2], [4253, 1, 4, 0.82], [22317, 3, 4, 0.51], [140, 2, 4, 0.93], [8673, 2, 4, 0.47], [8121, 3, 5, 0.2], [1126, 2, 4, 0.58], [4176, 4, 4, 1.31], [2436, 4, 4, 0.2], [9372, 1, 4, 1.7], [21269, 3, 4, 2.24], [8676, 2, 4, 1.7], [8677, 3, 5, 0.4], [22247, 2, 4, 1.38], [10388, 2, 4, 1.08], [10936, 2, 4, 1.7], [12343, 1, 4, 0.66], [11085, 2, 5, 1.27], [12526, 2, 4, 1.08], [9784, 1, 4, 0.47], [1274, 1, 4, 0.23], [6494, 1, 5, 0.29], [12269, 2, 4, 1.03], [37, 1, 4, 0.66], [13023, 3, 4, 1.26], [1429, 2, 4, 0.5], [345, 3, 4, 1.31], [7573, 1, 5, 1.35], [12225, 1, 4, 0.69], [12271, 2, 4, 1.01], [3, 2, 4, 0.38], [96, 11, 12, 0.38], [3577, 25, 4, 0.48], [9, 1, 4, 0.36], [10408, 10, 5, 1.37], [6935, 2, 214, 5.9], [615, 2, 91, 4.78], [2778, 2, 121, 2.77], [305, 2, 113, 2.58], [5493, 2, 91, 4.44], [6936, 2, 214, 5.92], [130, 1, 27, 2.58], [205, 2, 84, 2.69], [616, 2, 91, 4.41], [1504, 2, 156, 2.75], [144, 2, 117, 4.4], [8648, 2, 174, 2.99], [2049, 3, 421, 2.25], [88, 10, 450, 3.45], [8915, 2, 65, 4.29], [326, 2, 70, 3.57], [7036, 1, 99, 3.83], [8650, 2, 174, 2.75], [593, 2, 177, 2.78], [2327, 2, 117, 2.57], [11681, 2, 212, 5.01], [8853, 2, 214, 5.93], [141, 2, 119, 2.6], [2775, 2, 121, 2.77], [206, 2, 84, 2.55], [151, 1, 58, 2.7], [7004, 1, 61, 2.36], [248, 1, 47, 2.25], [11685, 2, 212, 5.4], [3840, 1, 150, 2.17], [3891, 1, 97, 2.88], [2328, 2, 117, 2.62], [2050, 3, 356, 2.34], [5491, 2, 91, 3.06], [2497, 2, 174, 4.13], [2055, 3, 396, 4.89], [143, 2, 115, 2.77], [434, 2, 56, 2.07], [3980, 4, 374, 4.07], [990, 2, 40, 2.77], [2054, 3, 356, 2.34], [624, 2, 91, 5.38], [8649, 2, 194, 4.25], [362, 2, 109, 3.27], [2776, 2, 121, 3.86], [12870, 1, 117, 5.16], [2057, 3, 356, 2.34], [12350, 1, 543, 2.67], [7886, 4, 43, 2.23], [10574, 3, 393, 4.07], [5165, 1, 26, 3.74], [1006, 2, 197, 2.83], [1446, 2, 117, 2.62], [3495, 3, 832, 2.92], [94, 4, 93, 5.25], [75, 2, 112, 3.52], [523, 2, 119, 2.64], [7084, 3, 58, 2.79], [2991, 3, 125, 5.99], [7005, 1, 68, 3.18], [10149, 3, 752, 2.93], [3975, 4, 374, 4.2], [21793, 1, 174, 5.26], [9760, 29, 55, 2.5], [11404, 2, 46, 2.88], [142, 2, 133, 2.39], [12346, 1, 543, 2.67]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 7, 1.38], [305, 2, 4, 0.53], [2328, 2, 4, 0.78], [130, 1, 4, 0.2], [141, 2, 5, 0.2], [2778, 2, 5, 0.47], [8650, 2, 4, 0.67], [5491, 2, 4, 0.63], [2327, 2, 4, 0.63], [8672, 2, 5, 0.58], [6936, 2, 4, 1.4], [143, 2, 4, 1.14], [11681, 2, 5, 1.41], [248, 1, 4, 0.46], [145, 2, 4, 0.4], [205, 2, 4, 0.56], [5493, 2, 4, 1.24], [146, 2, 4, 0.56], [417, 2, 4, 0.52], [589, 2, 4, 0.2], [75, 2, 4, 0.37], [11737, 2, 4, 0.38], [11838, 2, 4, 0.57], [1124, 2, 6, 0.2], [523, 2, 5, 0.2], [8648, 2, 4, 1.54], [8853, 2, 4, 1.38], [12721, 2, 6, 0.47], [615, 2, 4, 1.28], [1005, 2, 5, 0.2], [326, 2, 5, 0.47], [206, 2, 5, 0.2], [8915, 2, 4, 0.2], [8673, 2, 5, 0.74], [144, 2, 5, 0.44], [11739, 2, 4, 0.38], [88, 10, 9, 0.82], [434, 2, 4, 0.73], [2776, 2, 4, 0.41], [142, 2, 4, 0.2], [151, 1, 4, 0.75], [8676, 2, 4, 0.47], [6158, 2, 5, 0.2], [2424, 29, 4, 0.2], [8649, 2, 4, 1.19], [2423, 29, 4, 1.81], [11738, 2, 4, 0.38], [2497, 2, 4, 0.55], [7704, 2, 4, 1.08], [2424, 80, 4, 0.49], [1413, 15, 4, 0.77], [10574, 3, 6, 1.26], [2423, 80, 4, 1.75], [3670, 2, 4, 1.96], [11836, 2, 4, 0.2], [7705, 2, 4, 1.08], [2054, 3, 4, 0.4], [3, 2, 4, 0.43], [2859, 15, 4, 1.25], [412, 1, 4, 0.58], [378, 2, 4, 2.48], [7706, 2, 4, 1.08], [12720, 2, 4, 0.98], [22316, 3, 4, 0.46], [2055, 3, 4, 0.47], [12344, 1, 4, 0.48], [10149, 3, 13, 1.12], [3478, 2, 4, 1.07], [74, 1, 5, 1.47], [3429, 15, 4, 0.46], [307, 2, 4, 1.5], [2774, 2, 4, 0.55], [6497, 1, 4, 0.44], [60, 3, 5, 0.41], [12526, 2, 4, 1.43], [7004, 1, 4, 1.02], [418, 2, 4, 0.81], [13928, 1, 4, 0.2], [411, 2, 4, 0.5], [11089, 1, 4, 0.39], [2057, 3, 4, 0.4], [413, 1, 4, 0.54], [11844, 2, 5, 0.2], [14037, 3, 4, 0.96], [7036, 1, 4, 0.43], [20252, 2, 4, 0.58], [2050, 3, 4, 0.4], [3893, 1, 5, 0.44], [13260, 29, 4, 0.67], [8274, 3, 4, 0.88], [6097, 80, 4, 0.64], [6952, 1, 4, 1.09], [3891, 1, 4, 2.08], [94, 4, 5, 1.09], [159, 3, 5, 0.72], [9784, 1, 4, 0.55], [1050, 2, 4, 0.36], [6494, 1, 4, 0.46], [7707, 2, 4, 0.72], [1490, 1, 4, 1.02], [11490, 1, 4, 0.47], [1413, 16, 4, 0.39], [414, 1, 4, 0.66], [7708, 2, 4, 1.15], [1243, 2, 5, 0.2], [3889, 1, 5, 0.37], [1492, 1, 4, 0.62], [565, 2, 4, 0.46], [5208, 3, 5, 0.97], [22317, 3, 5, 0.52], [7703, 2, 4, 1.15], [11491, 2, 4, 0.81], [21793, 1, 4, 0.95], [3495, 3, 13, 0.85], [229, 1, 4, 2.0], [345, 3, 4, 1.26], [410, 1, 4, 0.4], [2422, 80, 4, 1.75], [11504, 2, 4, 0.72], [6098, 80, 4, 1.14], [149, 2, 4, 0.52], [947, 15, 4, 0.39], [6630, 3, 4, 1.31], [3430, 15, 4, 1.23], [147, 1, 4, 0.52], [3674, 2, 4, 0.52], [416, 1, 4, 1.59], [2805, 137, 6, 1.85], [2331, 1, 4, 0.73], [247, 1, 4, 1.18], [9126, 1, 4, 0.47], [6098, 29, 4, 1.19], [8635, 3, 4, 0.89], [6935, 2, 253, 6.0], [305, 2, 132, 3.08], [2328, 2, 135, 3.53], [130, 1, 53, 2.48], [141, 2, 140, 2.84], [2778, 2, 156, 3.07], [8650, 2, 201, 4.37], [5491, 2, 106, 4.31], [2327, 2, 135, 3.26], [8672, 2, 258, 3.33], [6936, 2, 253, 5.42], [11681, 2, 276, 5.75], [248, 1, 37, 2.46], [145, 2, 135, 2.84], [205, 2, 109, 2.81], [5493, 2, 106, 4.23], [146, 2, 135, 3.13], [417, 2, 140, 3.05], [589, 2, 59, 2.91], [75, 2, 145, 3.42], [11737, 2, 57, 2.97], [11838, 2, 269, 2.83], [1124, 2, 168, 2.98], [523, 2, 140, 3.36], [8648, 2, 201, 4.01], [8853, 2, 253, 4.82], [12721, 2, 255, 3.19], [615, 2, 108, 4.14], [326, 2, 81, 3.64], [206, 2, 41, 2.64], [8915, 2, 171, 2.87], [8673, 2, 260, 5.05], [144, 2, 135, 2.91], [11739, 2, 57, 2.97], [88, 10, 504, 3.62], [434, 2, 107, 3.23], [2776, 2, 140, 3.77], [142, 2, 140, 3.16], [151, 1, 33, 2.81], [8676, 2, 258, 2.97], [6158, 2, 235, 2.82], [2424, 29, 24, 2.67], [8649, 2, 201, 3.38], [2423, 29, 32, 4.52], [11738, 2, 57, 2.97], [2497, 2, 184, 3.11], [7704, 2, 158, 3.18], [2424, 80, 153, 3.11], [10574, 3, 450, 4.6], [2423, 80, 162, 4.41], [3670, 2, 212, 5.55], [11836, 2, 242, 2.89], [7705, 2, 158, 3.18], [2054, 3, 473, 3.89], [3, 2, 108, 2.9], [2859, 15, 62, 3.48], [412, 1, 74, 3.17], [378, 2, 224, 6.0], [7706, 2, 158, 3.18], [12720, 2, 255, 2.99], [22316, 3, 318, 2.64], [2055, 3, 425, 2.76], [12344, 1, 620, 2.67], [10149, 3, 866, 4.0], [3478, 2, 43, 4.08], [74, 1, 180, 5.0], [3429, 15, 53, 2.63]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.26], [305, 2, 4, 0.56], [3, 2, 4, 0.53], [6935, 2, 8, 1.37], [205, 2, 4, 0.47], [143, 2, 4, 0.43], [144, 2, 4, 0.26], [75, 2, 5, 0.49], [12721, 2, 6, 0.56], [145, 2, 4, 0.26], [8915, 2, 6, 0.2], [2778, 2, 4, 0.2], [1776, 1, 4, 0.45], [146, 2, 4, 0.26], [206, 2, 4, 0.56], [20252, 2, 4, 0.48], [6936, 2, 5, 1.3], [1777, 1, 4, 1.16], [8648, 2, 4, 0.89], [151, 1, 4, 0.35], [2328, 2, 4, 0.73], [8650, 2, 4, 1.0], [5151, 2, 4, 0.9], [2050, 3, 4, 0.73], [248, 1, 4, 0.44], [88, 10, 8, 1.09], [7886, 4, 5, 0.39], [9507, 3, 4, 0.36], [74, 1, 4, 0.8], [1446, 2, 4, 0.59], [2991, 3, 4, 1.1], [362, 2, 4, 0.43], [7004, 1, 4, 0.54], [2057, 3, 4, 0.47], [1492, 1, 4, 0.51], [1007, 2, 5, 0.2], [2055, 3, 4, 0.57], [147, 1, 4, 1.02], [76, 2, 4, 0.74], [8649, 2, 4, 1.05], [3889, 1, 4, 0.44], [11234, 2, 6, 0.2], [410, 1, 4, 0.38], [7005, 1, 4, 0.38], [345, 3, 4, 0.47], [10, 2, 5, 0.41], [1429, 2, 4, 0.28], [307, 2, 4, 1.75], [10825, 21, 8, 0.55], [5081, 2, 4, 0.54], [12870, 1, 4, 0.65], [57, 1, 4, 0.44], [10149, 3, 13, 0.71], [7036, 1, 4, 0.94], [3478, 2, 4, 0.54], [7084, 3, 4, 0.87], [1006, 2, 4, 0.56], [1504, 2, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.89], [94, 4, 4, 1.55], [167, 3, 4, 0.75], [411, 2, 4, 0.47], [9827, 3, 4, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.57], [33, 1, 4, 0.76], [432, 3, 5, 0.62], [8677, 3, 5, 0.4], [11681, 2, 5, 0.82], [148, 1, 4, 1.5], [96, 11, 15, 0.38], [1490, 1, 5, 0.2], [12225, 1, 4, 0.43], [1124, 2, 5, 0.2], [11737, 2, 4, 0.2], [1243, 2, 4, 0.5], [22247, 2, 6, 0.89], [6158, 2, 5, 0.8], [5812, 3, 5, 1.51], [8853, 2, 5, 1.32], [201, 3, 4, 0.47], [412, 1, 4, 1.28], [9760, 29, 4, 0.24], [10574, 3, 6, 1.33], [8651, 2, 5, 0.61], [20927, 1, 4, 0.43], [5208, 3, 5, 0.54], [8676, 2, 6, 0.56], [229, 1, 4, 1.2], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [45, 2, 4, 1.37], [9069, 1, 4, 0.41], [413, 1, 4, 1.19], [11490, 1, 4, 0.36], [149, 2, 4, 1.7], [159, 3, 5, 0.63], [3495, 3, 15, 0.92], [21269, 3, 4, 1.0], [998, 2, 4, 0.97], [140, 2, 4, 0.78], [95, 3, 10, 0.93], [3980, 4, 5, 1.25], [950, 1, 4, 0.71], [5946, 1, 4, 0.95], [9372, 1, 4, 2.03], [1126, 2, 5, 0.47], [1766, 25, 4, 0.56], [2775, 2, 5, 0.2], [1413, 15, 5, 0.78], [490, 1, 4, 0.4], [506, 1, 4, 1.21], [8674, 2, 5, 0.54], [11489, 1, 4, 0.56], [8898, 3, 4, 0.75], [997, 2, 4, 1.82], [3670, 2, 4, 1.87], [1070, 7, 9, 0.46], [9691, 1, 4, 0.98], [107, 2, 4, 0.52], [974, 3, 5, 0.38], [20498, 1, 4, 0.94], [11954, 1, 4, 0.47], [14037, 3, 5, 0.44], [14017, 3, 4, 0.44], [823, 1, 4, 0.84], [34, 1, 4, 1.26], [5209, 3, 4, 0.54], [972, 3, 5, 0.85], [9784, 1, 5, 0.55], [11739, 2, 4, 0.2], [1091, 1, 4, 0.61], [8672, 2, 193, 4.11], [305, 2, 97, 3.11], [3, 2, 81, 3.34], [6935, 2, 216, 4.9], [205, 2, 83, 2.52], [143, 2, 98, 3.77], [144, 2, 100, 4.38], [75, 2, 112, 2.56], [12721, 2, 216, 2.64], [145, 2, 100, 3.97], [8915, 2, 148, 2.53], [2778, 2, 119, 2.63], [1776, 1, 72, 1.98], [146, 2, 100, 3.97], [206, 2, 93, 2.33], [20252, 2, 79, 2.19], [6936, 2, 216, 4.39], [1777, 1, 82, 3.8], [8648, 2, 171, 3.3], [151, 1, 46, 1.81], [2328, 2, 115, 3.01], [8650, 2, 171, 3.51], [5151, 2, 18, 4.59], [2050, 3, 204, 2.91], [248, 1, 46, 2.11], [88, 10, 428, 4.1], [7886, 4, 79, 2.38], [9507, 3, 86, 1.53], [74, 1, 153, 3.13], [1446, 2, 117, 3.67], [2991, 3, 124, 5.3], [362, 2, 108, 2.45], [7004, 1, 51, 2.45], [2057, 3, 408, 2.17], [1492, 1, 26, 2.52], [1007, 2, 207, 2.48], [2055, 3, 408, 2.35], [147, 1, 74, 5.47], [76, 2, 82, 3.03], [8649, 2, 171, 3.59], [3889, 1, 106, 2.11], [11234, 2, 141, 2.92], [410, 1, 90, 2.0], [7005, 1, 68, 2.01], [345, 3, 226, 2.53], [10, 2, 81, 3.33], [1429, 2, 117, 3.12], [307, 2, 112, 3.95], [10825, 21, 477, 2.64], [5081, 2, 144, 2.66], [12870, 1, 104, 2.86], [57, 1, 73, 2.11], [10149, 3, 666, 2.87], [7036, 1, 98, 3.26], [3478, 2, 64, 2.3], [7084, 3, 98, 3.26], [1006, 2, 175, 2.7], [1504, 2, 157, 2.66], [3891, 1, 95, 3.37], [21793, 1, 202, 4.74], [94, 4, 91, 4.72], [167, 3, 172, 3.03], [411, 2, 83, 2.52], [9827, 3, 67, 2.54], [3893, 1, 95, 2.31], [79, 1, 41, 2.38], [33, 1, 85, 3.19]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.55], [305, 2, 4, 0.57], [2049, 3, 8, 0.2], [6935, 2, 8, 1.1], [326, 2, 4, 1.08], [141, 2, 4, 0.66], [144, 2, 5, 0.36], [589, 2, 5, 0.2], [151, 1, 4, 0.48], [362, 2, 4, 0.2], [12721, 2, 6, 0.56], [146, 2, 5, 0.41], [1776, 1, 4, 1.16], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.73], [8915, 2, 6, 0.2], [143, 2, 4, 0.58], [990, 2, 4, 0.26], [6936, 2, 5, 1.55], [20252, 2, 4, 0.5], [8650, 2, 4, 1.18], [1777, 1, 4, 0.93], [1007, 2, 5, 0.39], [2778, 2, 5, 0.2], [248, 1, 4, 0.2], [88, 10, 9, 1.09], [22247, 2, 4, 0.78], [2050, 3, 5, 0.38], [76, 2, 4, 1.24], [8649, 2, 5, 1.22], [10149, 3, 17, 1.82], [10, 2, 5, 0.41], [8677, 3, 6, 1.56], [2054, 3, 4, 1.44], [412, 1, 4, 0.62], [2055, 3, 4, 1.36], [13028, 3, 4, 0.75], [413, 1, 4, 1.1], [7004, 1, 4, 0.36], [411, 2, 4, 0.48], [10825, 21, 8, 1.28], [11681, 2, 5, 1.87], [1446, 2, 4, 0.54], [7084, 3, 4, 0.86], [307, 2, 4, 0.47], [3478, 2, 4, 0.89], [1429, 2, 4, 0.2], [3495, 3, 15, 0.92], [1006, 2, 4, 0.47], [147, 1, 4, 0.52], [1492, 1, 4, 0.58], [5081, 2, 4, 0.44], [140, 2, 5, 0.63], [167, 3, 4, 0.75], [7005, 1, 4, 0.36], [7036, 1, 4, 0.61], [9827, 3, 4, 0.2], [45, 2, 5, 0.56], [8676, 2, 4, 0.51], [1124, 2, 6, 0.2], [2049, 1, 4, 0.93], [94, 4, 4, 1.74], [5812, 3, 5, 2.01], [13280, 1, 4, 1.47], [168, 3, 5, 0.29], [1504, 2, 4, 0.2], [12870, 1, 5, 0.54], [57, 1, 4, 0.38], [11234, 2, 4, 0.63], [415, 1, 4, 1.07], [8651, 2, 4, 0.78], [148, 1, 4, 0.52], [418, 2, 4, 0.38], [8853, 2, 5, 1.07], [6097, 29, 4, 1.14], [8939, 2, 4, 0.2], [416, 1, 4, 1.21], [6097, 80, 4, 1.14], [11737, 2, 5, 0.2], [20256, 2, 5, 0.2], [490, 1, 4, 1.05], [1490, 1, 5, 0.2], [998, 2, 4, 1.06], [20927, 1, 4, 0.36], [79, 1, 4, 0.38], [95, 3, 16, 0.19], [6098, 29, 4, 1.08], [14017, 3, 4, 0.52], [6098, 80, 4, 1.08], [414, 1, 4, 0.81], [9069, 1, 4, 0.99], [1070, 7, 10, 0.2], [1243, 2, 4, 0.53], [8898, 3, 5, 1.36], [1126, 2, 4, 0.39], [149, 2, 4, 0.52], [126, 2, 4, 1.43], [13034, 3, 5, 0.66], [997, 2, 4, 1.09], [9760, 29, 4, 0.45], [20498, 1, 5, 0.8], [20255, 2, 5, 0.2], [5086, 1, 4, 0.71], [5513, 2, 4, 0.46], [12924, 1, 5, 0.2], [9784, 1, 4, 0.55], [336, 15, 4, 0.86], [22317, 3, 6, 0.51], [11739, 2, 4, 0.2], [13260, 29, 4, 0.54], [7567, 3, 4, 1.66], [974, 3, 4, 0.88], [1413, 15, 4, 0.33], [11085, 2, 4, 0.45], [5811, 3, 5, 1.26], [229, 1, 4, 1.05], [972, 3, 5, 0.81], [5813, 3, 5, 1.08], [8557, 3, 4, 0.2], [192, 3, 11, 1.1], [9082, 3, 17, 1.28], [506, 1, 4, 0.52], [3049, 3, 5, 1.6], [9691, 1, 4, 1.0], [20498, 3, 5, 0.86], [14018, 3, 4, 0.52], [524, 1, 4, 1.12], [4076, 3, 4, 1.54], [470, 1, 5, 0.2], [1622, 1, 5, 0.38], [11454, 2, 6, 1.6], [2775, 2, 5, 0.2], [8672, 2, 235, 2.23], [305, 2, 121, 2.31], [2049, 3, 450, 1.94], [6935, 2, 235, 4.34], [326, 2, 84, 3.42], [141, 2, 143, 3.4], [144, 2, 125, 1.93], [589, 2, 127, 2.26], [151, 1, 54, 2.16], [362, 2, 117, 2.1], [12721, 2, 234, 2.25], [146, 2, 125, 2.03], [1776, 1, 100, 3.34], [145, 2, 139, 1.96], [206, 2, 90, 1.99], [2328, 2, 126, 2.62], [8915, 2, 161, 2.05], [143, 2, 122, 2.33], [990, 2, 43, 2.66], [6936, 2, 235, 4.51], [20252, 2, 86, 2.06], [8650, 2, 186, 3.42], [1777, 1, 100, 4.11], [1007, 2, 250, 1.96], [2778, 2, 130, 2.06], [248, 1, 45, 1.0], [88, 10, 463, 3.28], [22247, 2, 234, 3.12], [2050, 3, 389, 1.95], [76, 2, 90, 2.63], [8649, 2, 186, 3.51], [10149, 3, 715, 4.79], [10, 2, 87, 2.92], [8677, 3, 243, 4.35], [2054, 3, 324, 5.02], [412, 1, 69, 2.41], [2055, 3, 324, 5.02], [13028, 3, 136, 2.54], [413, 1, 71, 2.36], [7004, 1, 65, 1.93], [411, 2, 101, 2.04], [10825, 21, 575, 3.49], [11681, 2, 227, 5.53], [1446, 2, 126, 3.18], [7084, 3, 107, 1.93], [307, 2, 122, 2.12], [3478, 2, 69, 3.31], [1429, 2, 126, 2.47], [3495, 3, 797, 2.89], [1006, 2, 189, 2.13], [147, 1, 80, 3.88], [1492, 1, 30, 3.25], [5081, 2, 177, 1.96], [140, 2, 75, 2.75], [167, 3, 188, 2.64], [7005, 1, 65, 1.93], [7036, 1, 105, 2.39], [9827, 3, 72, 2.15], [45, 2, 90, 4.21], [8676, 2, 235, 2.21], [1124, 2, 153, 2.07], [2049, 1, 21, 2.85], [94, 4, 99, 4.73], [5812, 3, 543, 4.52], [13280, 1, 261, 3.97], [168, 3, 339, 2.73], [1504, 2, 170, 2.1]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 4, 1.88], [6935, 2, 5, 1.18], [130, 1, 4, 0.2], [326, 2, 4, 1.12], [8648, 2, 4, 0.7], [144, 2, 4, 0.2], [593, 2, 4, 0.45], [2327, 2, 4, 0.47], [143, 2, 4, 0.58], [205, 2, 5, 0.53], [8915, 2, 5, 1.45], [2328, 2, 4, 0.5], [11681, 2, 4, 1.35], [6936, 2, 4, 1.18], [305, 2, 5, 0.48], [151, 1, 4, 0.59], [8650, 2, 4, 0.57], [141, 2, 4, 0.48], [2778, 2, 5, 0.2], [206, 2, 4, 0.46], [2049, 3, 8, 0.41], [88, 10, 10, 0.37], [615, 2, 4, 1.69], [7036, 1, 4, 1.57], [8853, 2, 4, 1.18], [8649, 2, 4, 0.97], [5491, 2, 4, 0.47], [248, 1, 4, 0.43], [434, 2, 4, 0.47], [1006, 2, 4, 1.0], [75, 2, 5, 0.99], [2055, 3, 4, 1.75], [11737, 2, 5, 0.2], [990, 2, 4, 0.2], [417, 2, 4, 0.54], [616, 2, 4, 1.5], [3840, 1, 4, 0.39], [2050, 3, 4, 0.34], [1007, 2, 5, 0.51], [12870, 1, 4, 0.92], [12353, 1, 5, 0.19], [523, 2, 4, 1.0], [1504, 2, 4, 1.07], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [2057, 3, 4, 0.34], [13280, 1, 4, 2.05], [10574, 3, 6, 1.36], [3, 2, 5, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.19], [7084, 3, 4, 0.58], [9760, 29, 4, 0.2], [624, 2, 4, 1.35], [2054, 3, 4, 0.34], [140, 2, 4, 0.93], [2775, 2, 4, 0.2], [21793, 1, 4, 2.3], [3891, 1, 4, 0.53], [8939, 2, 4, 0.2], [1429, 2, 5, 0.2], [96, 11, 13, 0.38], [11739, 2, 4, 0.59], [6158, 2, 4, 0.2], [950, 1, 4, 0.37], [5165, 2, 5, 1.61], [12269, 2, 4, 1.03], [84, 2, 4, 1.02], [1126, 2, 4, 0.58], [9372, 1, 4, 1.7], [10388, 2, 4, 1.08], [411, 2, 4, 0.5], [98, 11, 10, 0.54], [972, 3, 4, 1.07], [5165, 1, 4, 0.58], [2912, 1, 4, 0.2], [8898, 3, 4, 3.33], [413, 1, 4, 1.01], [2776, 2, 4, 1.41], [410, 1, 4, 0.54], [12343, 1, 5, 0.19], [10386, 2, 4, 0.92], [995, 2, 4, 1.84], [9491, 21, 10, 1.07], [956, 2, 4, 0.47], [1492, 1, 5, 0.7], [418, 2, 4, 0.42], [12345, 1, 5, 0.19], [13928, 1, 5, 0.2], [9784, 1, 4, 0.47], [22316, 3, 4, 0.51], [147, 1, 4, 0.53], [22247, 2, 4, 1.23], [412, 1, 4, 0.2], [336, 15, 4, 0.86], [8677, 3, 4, 0.9], [11490, 1, 4, 0.56], [7567, 3, 4, 1.65], [2912, 2, 5, 0.47], [308, 1, 4, 0.91], [432, 3, 5, 0.47], [307, 2, 5, 0.59], [11953, 1, 4, 0.45], [33, 1, 4, 1.06], [11770, 1, 4, 0.48], [10631, 2, 4, 0.92], [414, 1, 4, 0.66], [35, 1, 4, 1.07], [148, 1, 4, 0.55], [20256, 2, 4, 0.44], [10407, 10, 6, 1.44], [22317, 3, 5, 0.51], [1413, 15, 4, 0.45], [10410, 10, 6, 1.64], [10780, 10, 4, 1.52], [13286, 1, 4, 1.32], [415, 1, 4, 0.66], [439, 1, 4, 1.15], [335, 3, 9, 1.35], [7886, 4, 4, 0.47], [9691, 1, 4, 0.55], [7573, 1, 5, 1.45], [11767, 1, 4, 0.5], [12347, 1, 4, 0.19], [972, 1, 4, 1.51], [10387, 2, 4, 0.95], [10149, 3, 13, 0.39], [74, 1, 4, 1.16], [20686, 1, 5, 1.33], [3478, 2, 4, 1.63], [12271, 2, 4, 1.01], [9690, 1, 4, 0.76], [9971, 2, 4, 1.44], [11685, 2, 212, 5.4], [6935, 2, 214, 5.9], [130, 1, 45, 2.58], [326, 2, 40, 3.57], [8648, 2, 174, 2.99], [144, 2, 117, 4.4], [593, 2, 177, 2.78], [2327, 2, 117, 2.57], [143, 2, 115, 2.77], [205, 2, 84, 2.69], [8915, 2, 65, 4.29], [2328, 2, 117, 2.62], [11681, 2, 212, 5.01], [6936, 2, 214, 5.92], [305, 2, 113, 2.58], [151, 1, 58, 2.7], [8650, 2, 174, 2.75], [141, 2, 119, 2.6], [2778, 2, 121, 2.77], [206, 2, 84, 2.55], [2049, 3, 421, 2.25], [88, 10, 450, 3.45], [615, 2, 91, 4.78], [7036, 1, 99, 3.83], [8853, 2, 214, 5.93], [8649, 2, 174, 2.58], [5491, 2, 81, 2.57], [248, 1, 47, 2.25], [434, 2, 56, 2.07], [1006, 2, 177, 2.63], [75, 2, 112, 3.52], [2055, 3, 396, 4.89], [11737, 2, 45, 2.79], [990, 2, 32, 2.77], [417, 2, 133, 2.43], [616, 2, 91, 4.41], [3840, 1, 150, 2.17], [2050, 3, 356, 2.34], [1007, 2, 207, 2.65], [12870, 1, 117, 5.16], [12353, 1, 488, 4.47], [523, 2, 119, 2.64], [1504, 2, 156, 2.75], [159, 3, 619, 2.07], [20927, 1, 68, 3.22], [2057, 3, 356, 2.34], [13280, 1, 246, 5.48], [10574, 3, 393, 4.07], [3, 2, 95, 2.52], [142, 2, 133, 2.39], [12346, 1, 488, 4.15], [7084, 3, 58, 2.79], [9760, 29, 55, 2.5], [624, 2, 91, 5.38], [2054, 3, 356, 2.34], [140, 2, 78, 3.15], [2775, 2, 121, 2.77], [21793, 1, 174, 5.26], [3891, 1, 108, 2.43], [8939, 2, 150, 2.61], [1429, 2, 117, 2.59], [96, 11, 374, 2.81], [11739, 2, 45, 2.79], [6158, 2, 204, 2.54], [950, 1, 41, 2.04], [12269, 2, 55, 3.35], [84, 2, 52, 2.67]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.47], [141, 2, 4, 0.66], [362, 2, 5, 0.2], [361, 2, 5, 0.54], [6935, 2, 7, 1.06], [205, 2, 4, 0.36], [12721, 2, 5, 1.21], [11737, 2, 4, 0.43], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.49], [8675, 2, 4, 0.6], [417, 2, 4, 0.57], [3, 2, 4, 0.5], [6936, 2, 4, 1.58], [305, 2, 5, 0.53], [151, 1, 4, 0.75], [523, 2, 4, 0.53], [22247, 2, 4, 1.0], [8650, 2, 4, 0.89], [142, 2, 4, 0.49], [8648, 2, 4, 1.7], [2328, 2, 4, 0.78], [2776, 2, 4, 0.2], [8853, 2, 4, 1.54], [616, 2, 4, 1.12], [11739, 2, 4, 0.43], [2327, 2, 5, 0.63], [11837, 2, 4, 0.45], [411, 2, 4, 0.47], [12352, 1, 4, 1.38], [589, 2, 4, 0.2], [143, 2, 4, 0.87], [146, 2, 4, 0.62], [11835, 2, 4, 0.55], [412, 1, 4, 1.0], [12353, 1, 4, 1.38], [6497, 1, 5, 0.5], [8674, 2, 5, 0.63], [583, 2, 4, 1.31], [145, 2, 4, 0.49], [2805, 137, 8, 0.2], [326, 2, 4, 1.31], [10574, 3, 5, 1.26], [418, 2, 4, 0.54], [144, 2, 4, 0.52], [6097, 80, 4, 1.14], [11738, 2, 4, 0.43], [11836, 2, 4, 0.53], [9784, 1, 4, 0.99], [10149, 3, 13, 0.49], [6097, 29, 5, 0.64], [413, 1, 4, 0.97], [2057, 3, 4, 1.0], [2055, 3, 4, 1.18], [75, 2, 4, 0.56], [11234, 2, 4, 0.63], [12344, 1, 4, 1.38], [1413, 15, 4, 0.2], [20252, 2, 4, 0.47], [11504, 2, 4, 0.2], [12269, 2, 4, 0.57], [8915, 2, 4, 0.39], [414, 1, 4, 0.99], [1492, 1, 4, 0.62], [6098, 80, 4, 1.14], [12346, 1, 4, 1.38], [3429, 15, 4, 0.46], [247, 1, 4, 0.8], [22316, 3, 4, 0.46], [1886, 2, 4, 0.2], [2774, 2, 4, 0.52], [1490, 1, 4, 0.36], [416, 1, 4, 1.16], [6098, 29, 4, 1.19], [9786, 1, 4, 1.55], [3934, 5, 5, 0.56], [2859, 15, 4, 0.57], [2049, 1, 4, 0.41], [201, 3, 4, 0.51], [3670, 2, 4, 0.97], [20555, 2, 4, 0.43], [6158, 2, 5, 0.44], [3478, 2, 4, 0.89], [7084, 3, 4, 0.94], [9785, 1, 4, 0.99], [12526, 2, 4, 0.73], [8599, 1, 4, 0.49], [8938, 2, 4, 0.58], [1703, 2, 4, 0.75], [4253, 1, 4, 0.5], [9760, 29, 4, 0.95], [186, 3, 7, 0.5], [1413, 16, 4, 0.37], [229, 1, 4, 1.15], [11885, 2, 4, 0.39], [107, 2, 4, 1.2], [11887, 2, 5, 0.39], [1050, 2, 4, 0.37], [11811, 1, 4, 0.38], [4232, 80, 4, 1.65], [94, 4, 4, 1.76], [11490, 1, 4, 0.52], [436, 2, 4, 0.51], [107, 7, 5, 1.13], [2438, 2, 5, 1.38], [415, 1, 4, 1.16], [947, 15, 4, 0.39], [11770, 1, 4, 0.43], [3673, 2, 4, 2.08], [11767, 1, 4, 0.48], [11671, 1, 4, 0.45], [5939, 3, 4, 0.5], [2821, 3, 8, 0.45], [11769, 1, 4, 0.48], [11160, 1, 4, 1.87], [11844, 2, 4, 0.47], [12347, 1, 4, 1.38], [5812, 3, 4, 2.0], [7036, 1, 4, 0.43], [9358, 1, 4, 0.44], [140, 2, 4, 1.31], [3495, 3, 13, 0.85], [12764, 2, 5, 0.49], [11771, 1, 4, 1.61], [5813, 3, 5, 1.1], [23920, 2, 4, 0.46], [11954, 1, 4, 0.42], [308, 1, 5, 0.79], [9690, 1, 4, 0.79], [410, 1, 4, 0.8], [5811, 3, 6, 1.16], [22573, 2, 4, 0.39], [8672, 2, 258, 3.11], [141, 2, 156, 3.01], [362, 2, 127, 2.98], [361, 2, 140, 3.1], [6935, 2, 253, 5.12], [205, 2, 110, 2.44], [12721, 2, 285, 4.59], [11737, 2, 57, 3.01], [206, 2, 65, 2.62], [2049, 3, 313, 2.87], [8676, 2, 287, 4.22], [8675, 2, 287, 3.21], [417, 2, 140, 3.15], [3, 2, 109, 3.03], [6936, 2, 253, 4.65], [305, 2, 132, 3.08], [151, 1, 33, 2.81], [523, 2, 140, 3.23], [22247, 2, 285, 3.62], [8650, 2, 202, 4.44], [142, 2, 156, 2.68], [8648, 2, 202, 4.32], [2328, 2, 135, 3.53], [2776, 2, 142, 3.28], [8853, 2, 282, 4.82], [616, 2, 107, 4.01], [11739, 2, 57, 3.01], [2327, 2, 135, 3.26], [11837, 2, 268, 2.61], [411, 2, 110, 2.65], [12352, 1, 607, 4.89], [589, 2, 59, 2.91], [143, 2, 147, 3.39], [146, 2, 151, 2.93], [11835, 2, 241, 3.11], [412, 1, 74, 3.02], [12353, 1, 607, 4.89], [6497, 1, 34, 3.94], [8674, 2, 258, 3.28], [583, 2, 30, 3.93], [145, 2, 151, 2.69], [2805, 137, 166, 3.7], [326, 2, 30, 3.62], [10574, 3, 450, 4.6], [418, 2, 142, 2.79], [144, 2, 151, 2.74], [6097, 80, 61, 5.49], [11738, 2, 57, 3.01], [11836, 2, 268, 2.76], [9784, 1, 64, 3.01], [10149, 3, 906, 2.65], [6097, 29, 30, 5.49], [413, 1, 77, 2.97], [2057, 3, 158, 4.31], [2055, 3, 158, 4.31], [75, 2, 144, 2.82], [11234, 2, 185, 3.11], [12344, 1, 607, 4.33], [1413, 15, 90, 3.0], [20252, 2, 94, 2.66], [11504, 2, 127, 2.78], [12269, 2, 65, 2.84], [8915, 2, 97, 2.14], [414, 1, 77, 3.01], [1492, 1, 37, 2.92], [6098, 80, 66, 4.03], [12346, 1, 607, 4.89]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.77], [2778, 2, 4, 0.2], [144, 2, 4, 0.53], [130, 1, 4, 0.48], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2328, 2, 4, 0.39], [6936, 2, 4, 1.74], [8648, 2, 5, 1.05], [2775, 2, 4, 0.2], [205, 2, 4, 0.43], [8650, 2, 5, 0.39], [326, 2, 4, 0.65], [593, 2, 4, 0.37], [146, 2, 4, 0.57], [145, 2, 4, 0.51], [7036, 1, 4, 0.44], [2049, 3, 5, 0.42], [2776, 2, 4, 0.2], [615, 2, 4, 0.2], [616, 2, 4, 0.2], [88, 10, 9, 0.93], [141, 2, 4, 0.2], [151, 1, 4, 0.75], [1124, 2, 4, 0.79], [11681, 2, 5, 0.83], [206, 2, 4, 0.37], [1446, 2, 4, 0.2], [9760, 29, 4, 0.37], [8853, 2, 4, 1.79], [990, 2, 5, 0.2], [5491, 2, 4, 0.58], [1007, 2, 4, 0.46], [362, 2, 4, 0.5], [8672, 2, 4, 1.48], [1504, 2, 4, 0.93], [2055, 3, 4, 0.46], [2057, 3, 4, 0.46], [9372, 1, 4, 1.97], [3893, 1, 4, 0.2], [8649, 2, 5, 0.39], [2912, 1, 4, 0.48], [8938, 2, 4, 0.52], [434, 2, 4, 0.2], [12870, 1, 4, 1.22], [10993, 2, 5, 0.2], [624, 2, 4, 1.1], [2050, 3, 4, 0.46], [417, 2, 4, 0.42], [3889, 1, 4, 0.35], [5165, 1, 4, 0.56], [1429, 2, 4, 0.2], [378, 2, 4, 2.29], [7084, 3, 4, 0.86], [10, 2, 4, 0.45], [2991, 3, 4, 1.1], [140, 2, 4, 1.65], [3891, 1, 4, 0.2], [1006, 2, 4, 0.54], [7886, 4, 5, 0.41], [10574, 3, 5, 1.36], [7573, 1, 8, 2.02], [10149, 3, 13, 0.39], [5208, 3, 4, 0.19], [1622, 1, 4, 0.56], [75, 2, 4, 0.39], [3, 2, 4, 0.46], [20927, 1, 4, 0.95], [5165, 2, 5, 1.02], [997, 2, 4, 1.42], [11234, 2, 4, 1.25], [1886, 2, 4, 0.2], [12721, 2, 5, 0.49], [22247, 2, 4, 1.37], [147, 1, 4, 1.75], [346, 3, 4, 0.19], [996, 2, 4, 1.16], [229, 1, 4, 0.47], [11811, 1, 4, 0.2], [20252, 2, 4, 0.38], [11685, 2, 5, 0.83], [94, 4, 4, 1.91], [998, 2, 5, 1.0], [972, 3, 5, 0.51], [2912, 2, 7, 0.2], [9491, 21, 10, 0.44], [76, 2, 4, 0.87], [35, 1, 4, 1.02], [439, 1, 4, 0.46], [413, 1, 4, 1.08], [13028, 3, 5, 1.54], [13928, 1, 4, 0.2], [8104, 1, 4, 0.87], [5076, 1, 4, 0.43], [2805, 137, 4, 0.6], [412, 1, 4, 0.43], [5209, 3, 4, 0.19], [8676, 2, 4, 2.17], [33, 1, 4, 0.97], [83, 2, 4, 0.88], [418, 2, 4, 0.63], [148, 1, 4, 1.76], [2774, 2, 4, 0.63], [3495, 3, 10, 0.82], [8898, 3, 5, 1.44], [7887, 4, 4, 0.94], [12212, 29, 4, 0.2], [20256, 2, 5, 0.2], [38, 1, 4, 1.16], [11490, 1, 5, 0.43], [11770, 1, 4, 0.88], [34, 1, 4, 1.09], [10407, 10, 7, 1.55], [415, 1, 4, 1.02], [9784, 1, 4, 0.52], [84, 2, 5, 0.47], [13928, 2, 4, 0.7], [126, 2, 4, 1.27], [411, 2, 4, 0.39], [11739, 2, 4, 1.42], [3048, 3, 4, 1.15], [9691, 1, 4, 0.57], [9690, 1, 4, 0.37], [8939, 2, 4, 0.2], [5584, 3, 5, 1.25], [11953, 1, 4, 0.46], [39, 1, 4, 1.13], [12351, 1, 4, 0.66], [11954, 1, 4, 0.38], [7567, 3, 5, 1.16], [2327, 2, 132, 2.93], [305, 2, 128, 2.8], [6935, 2, 244, 6.0], [2778, 2, 137, 2.92], [144, 2, 132, 4.54], [130, 1, 43, 2.86], [8915, 2, 165, 2.96], [589, 2, 134, 2.97], [143, 2, 130, 3.03], [2328, 2, 147, 3.37], [6936, 2, 244, 5.39], [8648, 2, 196, 3.91], [2775, 2, 137, 2.92], [205, 2, 95, 2.77], [8650, 2, 196, 3.45], [326, 2, 77, 4.1], [593, 2, 223, 2.53], [146, 2, 132, 3.02], [145, 2, 132, 2.92], [7036, 1, 113, 4.28], [2049, 3, 360, 2.34], [2776, 2, 137, 3.16], [615, 2, 93, 3.01], [616, 2, 93, 2.64], [88, 10, 490, 3.94], [141, 2, 136, 2.69], [151, 1, 32, 2.69], [1124, 2, 182, 3.1], [11681, 2, 234, 5.43], [206, 2, 106, 2.39], [1446, 2, 134, 3.2], [9760, 29, 63, 2.66], [8853, 2, 244, 5.48], [990, 2, 45, 2.69], [5491, 2, 93, 3.05], [1007, 2, 264, 2.49], [362, 2, 124, 2.89], [8672, 2, 247, 4.92], [1504, 2, 180, 3.69], [2055, 3, 314, 2.32], [2057, 3, 314, 2.32], [9372, 1, 201, 5.58], [3893, 1, 109, 2.96], [8649, 2, 196, 3.26], [2912, 1, 48, 2.53], [8938, 2, 125, 2.43], [434, 2, 93, 2.69], [12870, 1, 121, 3.3], [10993, 2, 40, 2.81], [624, 2, 104, 3.83], [2050, 3, 314, 2.32], [417, 2, 136, 2.76], [3889, 1, 122, 2.29], [5165, 1, 32, 3.97], [1429, 2, 134, 2.89], [378, 2, 218, 5.85], [7084, 3, 127, 3.22], [10, 2, 102, 3.24], [2991, 3, 141, 5.62], [140, 2, 77, 4.1], [3891, 1, 109, 2.96], [1006, 2, 200, 2.97], [7886, 4, 83, 2.24], [10574, 3, 278, 4.55], [7573, 1, 336, 6.0], [10149, 3, 848, 3.11], [5208, 3, 493, 2.87]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 11, 1.2], [6935, 2, 19, 4.42], [6936, 2, 9, 3.89], [305, 2, 7, 1.48], [8672, 2, 10, 1.28], [615, 2, 7, 1.37], [1504, 2, 11, 0.9], [2775, 2, 9, 1.03], [145, 2, 7, 1.24], [2776, 2, 9, 1.98], [8853, 2, 7, 3.02], [2327, 2, 7, 1.21], [12721, 2, 11, 1.7], [130, 1, 9, 0.78], [143, 2, 7, 1.94], [146, 2, 7, 1.53], [2328, 2, 7, 1.5], [11681, 2, 11, 3.38], [11737, 2, 7, 1.32], [616, 2, 7, 2.16], [5491, 2, 7, 1.03], [141, 2, 7, 2.37], [362, 2, 6, 0.85], [144, 2, 7, 1.3], [2497, 2, 7, 1.14], [205, 2, 7, 0.85], [8650, 2, 11, 2.33], [5493, 2, 9, 0.77], [417, 2, 7, 1.55], [8676, 2, 7, 0.9], [8673, 2, 9, 2.44], [3670, 2, 9, 4.0], [2774, 2, 9, 3.42], [8648, 2, 7, 3.5], [589, 2, 9, 0.8], [3, 2, 7, 0.98], [206, 2, 7, 0.71], [6097, 80, 7, 3.38], [2423, 29, 7, 3.08], [22247, 2, 7, 1.94], [11836, 2, 7, 0.9], [6497, 1, 7, 1.84], [8674, 2, 7, 1.97], [624, 2, 7, 2.32], [12343, 1, 7, 2.59], [2055, 3, 7, 3.23], [2423, 80, 7, 3.02], [523, 2, 7, 1.25], [12344, 1, 7, 1.6], [593, 2, 8, 0.79], [6097, 29, 7, 3.38], [6098, 80, 7, 2.36], [12720, 2, 7, 1.69], [12345, 1, 7, 2.59], [11739, 2, 7, 1.32], [75, 2, 7, 2.15], [8915, 2, 7, 0.75], [88, 10, 14, 2.0], [326, 2, 7, 2.83], [6494, 1, 7, 0.85], [60, 3, 10, 1.49], [13260, 29, 7, 1.16], [142, 2, 7, 2.37], [3429, 15, 7, 0.85], [1492, 1, 7, 1.13], [411, 2, 7, 1.04], [21712, 3, 21, 1.11], [412, 1, 7, 1.93], [2422, 80, 7, 2.41], [1050, 2, 7, 0.7], [10149, 3, 21, 2.21], [2422, 29, 7, 3.8], [378, 2, 9, 2.87], [6098, 29, 7, 2.08], [12346, 1, 7, 2.59], [151, 1, 7, 1.38], [7704, 2, 7, 2.28], [11738, 2, 7, 1.32], [229, 1, 7, 3.68], [22316, 3, 7, 0.85], [1243, 2, 7, 1.32], [1049, 2, 7, 0.7], [20252, 2, 7, 1.06], [13264, 29, 7, 0.95], [345, 3, 7, 2.32], [13258, 29, 9, 2.97], [1490, 1, 7, 0.87], [12269, 2, 7, 0.93], [964, 15, 7, 0.66], [2438, 1, 7, 2.08], [10407, 10, 10, 2.2], [1163, 3, 7, 2.25], [5208, 3, 9, 1.41], [2331, 1, 7, 1.02], [2821, 3, 12, 1.27], [416, 1, 7, 3.06], [201, 3, 7, 4.28], [307, 2, 7, 1.91], [186, 3, 12, 0.9], [7004, 1, 7, 1.03], [149, 2, 7, 1.95], [13259, 29, 7, 2.95], [418, 2, 7, 0.99], [957, 2, 7, 1.05], [7705, 2, 7, 2.28], [12229, 2, 7, 0.96], [7706, 2, 7, 2.28], [11687, 2, 7, 1.02], [10406, 10, 12, 2.42], [410, 1, 7, 1.3], [3478, 2, 9, 1.47], [7036, 1, 7, 0.87], [9784, 1, 7, 1.67], [20255, 2, 7, 1.14], [8938, 2, 7, 1.07], [21713, 3, 13, 0.88], [12870, 1, 7, 4.46], [10408, 10, 10, 1.81], [5490, 2, 7, 0.91], [11402, 1, 7, 0.85], [11404, 2, 7, 0.83], [10410, 10, 10, 2.08], [11161, 1, 10, 3.78], [956, 2, 7, 0.96], [2438, 2, 8, 2.38], [2703, 3, 7, 4.05], [1886, 2, 7, 0.65], [19687, 1, 7, 2.23], [11490, 1, 7, 0.83], [107, 7, 8, 2.46], [21781, 2, 7, 0.86], [22125, 2, 7, 0.66], [11690, 2, 7, 0.66], [412, 1, 74, 3.02], [2422, 80, 187, 4.2], [1050, 2, 38, 1.78], [10149, 3, 866, 4.0], [2422, 29, 33, 5.41], [378, 2, 202, 4.24], [6098, 29, 33, 3.97], [12346, 1, 610, 4.37], [151, 1, 33, 2.81], [7704, 2, 176, 4.07], [11738, 2, 56, 3.11], [229, 1, 81, 5.47], [22316, 3, 318, 2.64], [1243, 2, 99, 3.11], [1049, 2, 38, 1.78], [20252, 2, 92, 2.85], [13264, 29, 73, 2.74], [345, 3, 297, 4.1], [13258, 29, 39, 4.76], [1490, 1, 51, 2.66], [12269, 2, 65, 2.72], [2438, 1, 54, 3.87], [10407, 10, 1201, 4.0], [1163, 3, 114, 3.33], [5208, 3, 561, 3.2], [2331, 1, 119, 2.8], [2821, 3, 746, 3.36], [416, 1, 85, 4.84], [201, 3, 297, 6.0], [307, 2, 148, 3.7], [186, 3, 665, 2.69], [7004, 1, 80, 2.82], [149, 2, 88, 3.74], [13259, 29, 35, 4.73], [418, 2, 143, 2.78], [957, 2, 107, 2.84], [7705, 2, 176, 4.07], [12229, 2, 152, 2.74], [7706, 2, 176, 4.07], [11687, 2, 303, 2.8], [10406, 10, 1784, 4.24], [410, 1, 105, 3.09], [3478, 2, 67, 4.08], [7036, 1, 127, 2.65], [9784, 1, 72, 3.46], [20255, 2, 93, 2.93], [8938, 2, 192, 2.86], [21713, 3, 1121, 2.67], [12870, 1, 137, 6.0], [10408, 10, 785, 3.6], [5490, 2, 108, 2.69], [11402, 1, 45, 2.64], [11404, 2, 105, 2.62], [10410, 10, 1201, 3.88], [11161, 1, 491, 5.57], [956, 2, 107, 2.75], [2438, 2, 643, 4.17], [2703, 3, 300, 5.84], [1886, 2, 158, 2.44], [19687, 1, 30, 4.02], [11490, 1, 98, 2.9], [107, 7, 239, 4.24], [21781, 2, 104, 2.65], [22125, 2, 63, 2.44], [11690, 2, 303, 2.44]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 1.22], [2328, 2, 7, 1.43], [8650, 2, 7, 2.83], [362, 2, 9, 0.78], [5491, 2, 7, 1.11], [5493, 2, 9, 0.67], [130, 1, 7, 1.38], [589, 2, 7, 0.85], [2327, 2, 7, 1.16], [326, 2, 7, 1.87], [11685, 2, 7, 4.19], [8672, 2, 10, 1.28], [417, 2, 7, 1.03], [6935, 2, 12, 4.21], [205, 2, 7, 0.74], [11681, 2, 11, 3.74], [206, 2, 7, 0.71], [8648, 2, 7, 3.27], [6936, 2, 8, 3.12], [142, 2, 9, 0.8], [8915, 2, 7, 1.26], [11837, 2, 7, 1.01], [12721, 2, 9, 1.92], [11838, 2, 9, 0.99], [2049, 3, 17, 1.18], [1446, 2, 7, 1.82], [523, 2, 7, 1.02], [615, 2, 7, 2.85], [8676, 2, 7, 2.44], [11737, 2, 7, 1.9], [305, 2, 7, 0.98], [616, 2, 7, 2.37], [413, 1, 7, 1.44], [412, 1, 7, 1.93], [411, 2, 7, 0.95], [11739, 2, 7, 1.9], [10574, 3, 9, 2.49], [11835, 2, 7, 1.01], [145, 2, 7, 1.24], [8675, 2, 9, 1.42], [2775, 2, 7, 0.78], [1429, 2, 7, 0.89], [76, 2, 7, 2.04], [8673, 2, 7, 3.38], [143, 2, 7, 1.19], [8674, 2, 7, 1.46], [11836, 2, 9, 0.79], [6158, 2, 9, 2.65], [8938, 2, 7, 1.78], [146, 2, 7, 1.14], [151, 1, 7, 1.38], [12720, 2, 7, 1.69], [2776, 2, 7, 1.37], [10149, 3, 21, 1.48], [3495, 3, 21, 1.51], [2055, 3, 7, 3.23], [75, 2, 7, 2.15], [2057, 3, 7, 3.23], [11738, 2, 7, 1.9], [144, 2, 7, 0.96], [8939, 2, 7, 3.23], [416, 1, 7, 1.34], [7885, 4, 7, 0.81], [22316, 3, 9, 0.85], [88, 10, 16, 2.9], [159, 3, 9, 1.37], [2859, 15, 7, 0.81], [7084, 3, 7, 1.81], [418, 2, 9, 0.68], [10993, 2, 7, 0.94], [20252, 2, 7, 0.68], [9784, 1, 7, 1.61], [7705, 2, 7, 2.28], [5165, 1, 7, 3.14], [410, 1, 7, 0.87], [12526, 2, 7, 2.78], [11844, 2, 7, 1.16], [414, 1, 7, 1.34], [2423, 80, 7, 2.8], [12351, 1, 7, 1.63], [2424, 29, 9, 1.09], [378, 2, 7, 2.23], [2423, 29, 7, 3.08], [12345, 1, 7, 1.19], [60, 3, 10, 4.98], [950, 1, 7, 0.72], [6494, 1, 7, 0.85], [11490, 1, 7, 0.89], [2424, 80, 7, 2.28], [12373, 1, 11, 1.47], [13023, 3, 10, 2.63], [201, 3, 7, 2.12], [13034, 3, 8, 2.37], [1519, 3, 15, 0.69], [11489, 1, 7, 0.68], [5208, 3, 9, 1.01], [345, 3, 7, 1.4], [11770, 1, 7, 0.89], [3, 2, 7, 5.0], [159, 1, 7, 1.33], [6952, 1, 7, 2.01], [3430, 15, 7, 2.26], [20927, 1, 7, 0.87], [11954, 1, 7, 0.77], [7886, 4, 7, 0.8], [432, 3, 7, 3.74], [3429, 15, 7, 0.85], [11504, 2, 7, 0.67], [566, 2, 7, 0.92], [13928, 1, 7, 0.82], [11811, 1, 7, 1.93], [5584, 3, 7, 2.91], [114, 3, 7, 3.01], [2331, 1, 7, 2.78], [10407, 10, 10, 2.2], [1492, 1, 7, 1.13], [105, 3, 7, 3.01], [7004, 1, 7, 1.91], [1490, 1, 7, 3.38], [11089, 1, 7, 0.71], [2703, 3, 7, 4.05], [6098, 80, 7, 2.52], [8274, 3, 7, 4.22], [11674, 1, 7, 0.66], [1886, 2, 7, 0.82], [12348, 1, 7, 1.19], [10410, 10, 10, 2.08], [94, 4, 7, 4.17], [3891, 1, 7, 4.39], [11953, 1, 7, 0.85], [6097, 80, 7, 3.42], [22317, 3, 8, 0.88], [9082, 3, 24, 2.42], [418, 2, 128, 2.79], [10993, 2, 49, 3.0], [20252, 2, 93, 2.46], [9784, 1, 72, 3.4], [7705, 2, 176, 4.07], [410, 1, 53, 2.3], [12526, 2, 273, 4.56], [11844, 2, 186, 2.77], [414, 1, 86, 3.13], [2423, 80, 166, 4.41], [12351, 1, 560, 3.26], [2424, 29, 30, 3.17], [378, 2, 201, 4.24], [2423, 29, 37, 4.87], [12345, 1, 560, 3.26], [950, 1, 30, 2.15], [6494, 1, 52, 2.64], [11490, 1, 109, 2.68], [2424, 80, 170, 4.07], [12373, 1, 533, 3.26], [13023, 3, 592, 4.42], [201, 3, 268, 3.21], [13034, 3, 592, 4.16], [1519, 3, 561, 1.77], [11489, 1, 109, 2.47], [5208, 3, 563, 2.79], [345, 3, 298, 3.19], [11770, 1, 221, 2.67], [3, 2, 118, 6.0], [159, 1, 39, 3.12], [6952, 1, 189, 3.79], [3430, 15, 69, 4.05], [20927, 1, 80, 2.66], [11954, 1, 203, 2.56], [7886, 4, 64, 2.38], [432, 3, 300, 5.53], [3429, 15, 53, 2.63], [11504, 2, 128, 2.78], [566, 2, 175, 2.7], [13928, 1, 49, 2.61], [11811, 1, 451, 3.72], [5584, 3, 229, 4.7], [114, 3, 241, 4.8], [2331, 1, 117, 4.57], [10407, 10, 1201, 4.0], [1492, 1, 37, 2.92], [105, 3, 201, 4.72], [7004, 1, 31, 3.0], [1490, 1, 48, 5.17], [11089, 1, 173, 2.5], [2703, 3, 300, 5.84], [6098, 80, 74, 4.31], [11674, 1, 205, 2.44], [1886, 2, 157, 2.61], [12348, 1, 560, 3.26], [10410, 10, 1201, 3.88], [94, 4, 116, 5.96], [3891, 1, 122, 6.0], [11953, 1, 203, 2.63], [6097, 80, 68, 5.21], [22317, 3, 318, 2.66], [9082, 3, 2453, 4.17]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 2.27], [6935, 2, 17, 3.32], [2049, 3, 13, 0.72], [362, 2, 7, 1.69], [589, 2, 10, 0.77], [75, 2, 7, 0.75], [141, 2, 7, 2.25], [1776, 1, 9, 0.83], [205, 2, 7, 0.7], [8915, 2, 9, 0.75], [2778, 2, 7, 0.79], [8672, 2, 12, 1.12], [6936, 2, 10, 3.25], [593, 2, 11, 1.01], [7886, 4, 7, 1.04], [305, 2, 7, 0.96], [206, 2, 7, 0.72], [151, 1, 7, 0.87], [8648, 2, 7, 2.14], [1777, 1, 9, 1.98], [2328, 2, 7, 0.65], [88, 10, 14, 1.03], [11681, 2, 10, 4.17], [990, 2, 7, 1.06], [8650, 2, 7, 2.17], [412, 1, 7, 1.64], [5151, 2, 9, 2.35], [2050, 3, 7, 2.4], [76, 2, 9, 2.62], [144, 2, 7, 0.91], [345, 3, 10, 0.97], [10149, 3, 25, 4.03], [2991, 3, 7, 3.64], [22247, 2, 9, 1.34], [57, 1, 7, 0.7], [3478, 2, 7, 2.16], [146, 2, 7, 1.93], [7004, 1, 9, 0.71], [45, 2, 7, 2.94], [2054, 3, 6, 0.93], [143, 2, 6, 0.84], [417, 2, 7, 2.25], [413, 1, 7, 2.13], [21793, 1, 7, 0.83], [167, 3, 9, 0.97], [201, 3, 10, 0.7], [74, 1, 7, 3.37], [1446, 2, 7, 1.41], [346, 1, 9, 0.73], [2055, 3, 7, 0.94], [168, 3, 9, 1.11], [10, 2, 9, 1.61], [11234, 2, 9, 0.72], [7084, 3, 7, 0.69], [1429, 2, 7, 1.71], [7036, 1, 7, 3.47], [12721, 2, 10, 0.9], [3495, 3, 21, 0.95], [5081, 2, 7, 0.81], [8649, 2, 7, 2.48], [308, 1, 9, 2.22], [13028, 3, 7, 0.9], [10825, 21, 14, 2.47], [12870, 1, 7, 2.96], [79, 1, 7, 0.7], [1492, 1, 7, 1.98], [96, 11, 23, 0.81], [23, 1, 7, 1.24], [1006, 2, 7, 1.06], [3893, 1, 7, 1.48], [418, 2, 7, 0.79], [1504, 2, 7, 0.89], [145, 2, 7, 0.79], [5208, 3, 9, 1.57], [9827, 3, 7, 1.36], [3891, 1, 7, 0.98], [432, 3, 7, 0.75], [7005, 1, 7, 1.16], [94, 4, 7, 4.2], [1490, 1, 7, 1.46], [8853, 2, 11, 3.48], [13260, 29, 7, 0.77], [5812, 3, 8, 3.38], [416, 1, 7, 1.53], [8651, 2, 7, 1.54], [12353, 1, 7, 3.09], [20256, 2, 7, 0.92], [8939, 2, 7, 1.39], [21269, 3, 7, 4.99], [13280, 1, 7, 2.64], [12349, 1, 7, 3.22], [950, 1, 7, 0.98], [33, 1, 7, 1.02], [5086, 1, 7, 2.64], [998, 2, 7, 1.84], [12350, 1, 7, 3.09], [9069, 1, 7, 1.87], [1243, 2, 7, 1.64], [229, 1, 7, 2.92], [2878, 1, 6, 1.36], [140, 2, 7, 1.21], [2049, 1, 7, 0.69], [7567, 3, 7, 2.54], [20927, 1, 9, 0.66], [126, 2, 7, 2.22], [346, 3, 8, 0.74], [3980, 4, 7, 2.59], [1703, 2, 7, 1.51], [8274, 3, 7, 1.24], [9691, 1, 7, 2.1], [35, 1, 7, 0.89], [5209, 3, 9, 0.67], [1070, 7, 13, 1.16], [997, 2, 7, 1.98], [5584, 3, 7, 3.35], [11811, 1, 7, 1.83], [1519, 3, 17, 0.69], [11914, 1, 7, 1.42], [5660, 2, 7, 1.66], [856, 1, 7, 0.69], [8898, 3, 7, 4.68], [1091, 1, 7, 1.15], [5513, 2, 7, 0.8], [8926, 1, 7, 2.6], [523, 2, 7, 1.16], [11767, 1, 7, 0.88], [2775, 2, 7, 0.79], [9372, 1, 7, 2.03], [9081, 3, 12, 3.55], [13034, 3, 8, 3.38], [20255, 2, 7, 1.43], [307, 2, 7, 2.19], [11808, 1, 7, 1.16], [23, 1, 92, 2.51], [1006, 2, 189, 2.28], [3893, 1, 103, 2.25], [418, 2, 131, 1.94], [1504, 2, 170, 2.16], [145, 2, 139, 1.94], [5208, 3, 465, 2.33], [9827, 3, 72, 2.12], [3891, 1, 103, 2.25], [432, 3, 253, 2.02], [7005, 1, 65, 1.93], [94, 4, 99, 4.96], [1490, 1, 42, 2.23], [8853, 2, 235, 4.75], [13260, 29, 60, 2.0], [5812, 3, 543, 4.52], [416, 1, 79, 2.68], [8651, 2, 186, 2.73], [12353, 1, 557, 4.25], [20256, 2, 77, 2.19], [21269, 3, 270, 6.0], [13280, 1, 291, 3.8], [12349, 1, 557, 4.37], [950, 1, 55, 2.13], [33, 1, 92, 2.24], [5086, 1, 152, 3.41], [998, 2, 196, 2.61], [12350, 1, 557, 4.25], [9069, 1, 100, 2.12], [1243, 2, 90, 2.79], [229, 1, 75, 4.08], [2878, 1, 66, 2.63], [140, 2, 75, 2.75], [2049, 1, 18, 1.46], [7567, 3, 57, 3.31], [20927, 1, 65, 1.93], [126, 2, 75, 2.98], [346, 3, 525, 2.01], [3980, 4, 443, 3.74], [1703, 2, 149, 2.66], [8274, 3, 159, 2.0], [9691, 1, 62, 2.36], [35, 1, 103, 2.04], [5209, 3, 465, 1.95], [1070, 7, 494, 1.93], [997, 2, 196, 2.24], [5584, 3, 196, 3.55], [11811, 1, 416, 2.98], [1519, 3, 1545, 1.83], [11914, 1, 72, 2.19], [5660, 2, 144, 2.93], [856, 1, 32, 1.84], [8898, 3, 231, 5.05], [1091, 1, 39, 2.42], [5513, 2, 70, 1.95], [8926, 1, 50, 2.84], [523, 2, 143, 2.31], [11767, 1, 151, 2.03], [2775, 2, 130, 2.06], [9372, 1, 210, 3.18], [9081, 3, 379, 4.81], [13034, 3, 486, 4.14], [20255, 2, 77, 2.2], [307, 2, 122, 2.45], [11808, 1, 402, 1.93]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 16, 1.96], [2327, 2, 7, 1.0], [8915, 2, 8, 1.9], [589, 2, 8, 0.99], [2778, 2, 9, 0.94], [6935, 2, 11, 4.09], [2328, 2, 7, 1.12], [5493, 2, 7, 2.27], [130, 1, 9, 2.43], [305, 2, 6, 0.82], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [6936, 2, 7, 3.42], [326, 2, 7, 2.62], [8650, 2, 7, 1.47], [8648, 2, 7, 2.02], [1446, 2, 7, 1.22], [2049, 3, 10, 0.87], [10, 2, 9, 0.67], [143, 2, 7, 1.55], [159, 3, 8, 1.18], [593, 2, 9, 0.88], [205, 2, 7, 0.83], [5491, 2, 7, 1.12], [2775, 2, 9, 0.94], [7036, 1, 7, 2.3], [144, 2, 7, 3.22], [3840, 1, 7, 1.09], [151, 1, 7, 1.38], [94, 4, 7, 3.68], [434, 2, 9, 0.71], [8938, 2, 7, 0.95], [990, 2, 7, 1.21], [3893, 1, 9, 0.98], [146, 2, 7, 2.06], [8853, 2, 7, 3.51], [1504, 2, 7, 1.79], [12224, 1, 7, 0.84], [624, 2, 7, 2.19], [1429, 2, 7, 0.91], [3891, 1, 7, 0.98], [2776, 2, 7, 1.18], [206, 2, 7, 0.74], [2055, 3, 7, 0.84], [362, 2, 7, 0.96], [141, 2, 7, 1.21], [2057, 3, 7, 0.84], [75, 2, 7, 0.75], [11681, 2, 11, 3.45], [11404, 2, 9, 0.94], [5208, 3, 9, 0.78], [8649, 2, 7, 3.15], [3889, 1, 7, 0.65], [1007, 2, 7, 0.85], [10574, 3, 11, 4.5], [11234, 2, 7, 1.8], [10993, 2, 7, 1.29], [7886, 4, 7, 0.85], [12870, 1, 7, 1.83], [21793, 1, 7, 0.96], [10149, 3, 21, 2.43], [3980, 4, 6, 2.43], [2050, 3, 7, 0.84], [12353, 1, 7, 1.22], [145, 2, 7, 1.94], [7084, 3, 7, 1.58], [11811, 1, 7, 0.8], [8672, 2, 9, 3.66], [20927, 1, 7, 1.83], [998, 2, 7, 2.83], [9760, 29, 7, 0.71], [997, 2, 7, 2.64], [2436, 4, 9, 0.85], [1006, 2, 7, 0.99], [1886, 2, 9, 0.82], [972, 3, 8, 0.89], [2424, 80, 7, 1.91], [3, 2, 7, 1.14], [346, 3, 7, 1.21], [229, 1, 7, 0.86], [6158, 2, 7, 1.38], [3495, 3, 14, 0.98], [12346, 1, 7, 1.22], [5076, 1, 7, 1.3], [7887, 4, 7, 1.42], [12345, 1, 7, 1.22], [20252, 2, 7, 1.43], [126, 2, 7, 2.34], [11953, 1, 7, 0.84], [74, 1, 7, 3.79], [9372, 1, 7, 3.48], [11770, 1, 7, 2.76], [140, 2, 7, 2.34], [12344, 1, 7, 1.22], [8939, 2, 7, 0.92], [11954, 1, 7, 0.7], [11685, 2, 11, 3.45], [1492, 1, 7, 0.95], [12352, 1, 7, 1.22], [996, 2, 7, 2.83], [12721, 2, 7, 4.25], [2774, 2, 7, 1.15], [20256, 2, 9, 0.82], [12350, 1, 7, 1.22], [3981, 3, 22, 1.14], [9081, 3, 12, 0.86], [9491, 21, 21, 0.8], [5434, 1, 7, 1.93], [2423, 80, 7, 1.88], [6497, 1, 7, 3.31], [12343, 1, 7, 1.22], [12229, 2, 7, 0.9], [5584, 3, 7, 3.37], [2438, 2, 8, 1.33], [10388, 2, 7, 1.93], [12351, 1, 7, 1.22], [10407, 10, 10, 3.59], [11179, 1, 7, 1.6], [6496, 1, 7, 3.71], [22317, 3, 7, 1.11], [7573, 1, 22, 5.0], [823, 1, 7, 1.9], [5209, 3, 7, 1.38], [3900, 3, 7, 3.39], [2805, 137, 7, 2.91], [8898, 3, 7, 3.35], [12526, 2, 7, 2.21], [11812, 1, 7, 0.87], [2424, 29, 7, 1.0], [3975, 4, 7, 2.86], [4253, 1, 7, 1.04], [11490, 1, 7, 0.65], [336, 15, 7, 1.79], [9760, 29, 63, 2.66], [997, 2, 232, 4.28], [2436, 4, 101, 2.98], [1006, 2, 200, 2.97], [1886, 2, 136, 2.8], [972, 3, 522, 2.82], [2424, 80, 152, 2.99], [3, 2, 118, 2.78], [346, 3, 557, 2.68], [229, 1, 81, 2.5], [6158, 2, 224, 2.86], [3495, 3, 844, 2.98], [12346, 1, 612, 2.87], [5076, 1, 127, 2.94], [7887, 4, 68, 2.73], [12345, 1, 612, 2.87], [20252, 2, 91, 3.07], [126, 2, 86, 3.98], [11953, 1, 195, 2.48], [74, 1, 171, 4.87], [9372, 1, 224, 5.12], [11770, 1, 206, 4.4], [140, 2, 86, 3.98], [12344, 1, 612, 2.87], [8939, 2, 169, 2.9], [11954, 1, 195, 2.34], [11685, 2, 234, 5.43], [1492, 1, 32, 2.93], [12352, 1, 612, 2.87], [996, 2, 208, 4.81], [12721, 2, 272, 5.89], [2774, 2, 200, 2.79], [20256, 2, 81, 2.94], [12350, 1, 612, 2.87], [3981, 3, 1471, 3.14], [9081, 3, 473, 2.5], [9491, 21, 1872, 2.76], [5434, 1, 42, 2.89], [2423, 80, 164, 3.36], [6497, 1, 35, 4.95], [12343, 1, 612, 2.87], [12229, 2, 133, 2.84], [5584, 3, 206, 4.28], [2438, 2, 553, 2.82], [10388, 2, 211, 3.56], [12351, 1, 612, 2.87], [10407, 10, 645, 5.06], [11179, 1, 85, 3.24], [6496, 1, 38, 5.36], [22317, 3, 308, 2.75], [7573, 1, 336, 6.0], [823, 1, 39, 3.54], [5209, 3, 493, 2.87], [3900, 3, 37, 4.29], [2805, 137, 175, 4.54], [8898, 3, 257, 4.83], [12526, 2, 135, 3.53], [11812, 1, 209, 2.85], [2424, 29, 34, 2.65], [3975, 4, 186, 4.34], [4253, 1, 149, 2.97], [11490, 1, 106, 2.29], [336, 15, 110, 3.43]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 15, 3.35], [141, 2, 7, 1.02], [589, 2, 10, 0.69], [2778, 2, 9, 1.18], [6936, 2, 13, 3.74], [8648, 2, 7, 2.18], [362, 2, 7, 0.89], [2327, 2, 7, 1.82], [11681, 2, 22, 3.47], [8650, 2, 7, 2.04], [326, 2, 7, 1.42], [205, 2, 7, 1.04], [2328, 2, 9, 1.41], [1446, 2, 9, 1.08], [305, 2, 7, 2.13], [130, 1, 7, 0.87], [8649, 2, 9, 2.02], [2775, 2, 7, 1.18], [8853, 2, 11, 3.24], [361, 2, 7, 0.96], [2776, 2, 7, 1.18], [593, 2, 7, 1.38], [143, 2, 7, 2.18], [140, 2, 7, 1.42], [1429, 2, 9, 1.24], [206, 2, 9, 0.75], [5493, 2, 7, 0.87], [523, 2, 7, 1.0], [7004, 1, 7, 1.3], [413, 1, 7, 1.96], [7036, 1, 7, 3.04], [5491, 2, 7, 0.92], [412, 1, 7, 1.25], [21793, 1, 7, 3.65], [12350, 1, 7, 0.7], [151, 1, 7, 0.91], [1124, 2, 7, 1.27], [990, 2, 7, 0.82], [12353, 1, 7, 1.26], [5165, 1, 9, 2.64], [8915, 2, 8, 1.49], [615, 2, 7, 2.25], [583, 2, 7, 1.42], [417, 2, 7, 0.83], [21798, 1, 7, 0.95], [146, 2, 7, 2.92], [248, 1, 9, 0.68], [434, 2, 9, 0.79], [201, 3, 7, 1.37], [142, 2, 7, 0.92], [6097, 80, 9, 3.4], [11770, 1, 7, 0.8], [6952, 1, 7, 3.29], [2055, 3, 7, 1.5], [345, 3, 7, 0.9], [3891, 1, 7, 1.8], [9372, 1, 7, 1.55], [2057, 3, 7, 1.5], [616, 2, 7, 1.58], [7084, 3, 7, 2.33], [3670, 2, 7, 2.71], [3893, 1, 7, 1.8], [5165, 2, 12, 3.15], [12346, 1, 7, 0.7], [12870, 1, 7, 2.21], [12343, 1, 7, 0.89], [10574, 3, 8, 2.44], [1886, 2, 7, 0.66], [2424, 80, 7, 2.28], [346, 3, 7, 0.72], [3334, 5, 7, 3.63], [20927, 1, 7, 0.95], [12351, 1, 7, 0.7], [7885, 4, 7, 0.9], [6098, 80, 7, 2.81], [6097, 29, 7, 3.9], [11089, 1, 7, 0.8], [12345, 1, 7, 0.85], [10149, 3, 21, 1.91], [20256, 2, 7, 0.87], [147, 1, 7, 2.36], [22316, 3, 7, 0.66], [1492, 1, 9, 1.48], [11953, 1, 7, 0.81], [432, 3, 7, 1.65], [11491, 2, 7, 0.94], [20252, 2, 7, 0.85], [4032, 29, 7, 0.9], [418, 2, 7, 1.68], [1490, 1, 7, 0.76], [1519, 3, 16, 0.69], [2423, 80, 7, 3.06], [11952, 1, 7, 0.85], [411, 2, 7, 0.96], [12304, 1, 7, 0.92], [5151, 2, 7, 1.13], [229, 1, 7, 3.82], [11769, 1, 7, 0.88], [3576, 25, 7, 1.68], [972, 3, 9, 0.93], [2331, 1, 7, 2.67], [346, 1, 7, 0.7], [995, 2, 7, 2.14], [416, 1, 7, 1.91], [13034, 3, 7, 3.52], [2424, 29, 7, 2.13], [11426, 25, 7, 1.07], [3, 2, 7, 1.01], [11737, 2, 7, 0.91], [5076, 1, 7, 1.17], [11767, 1, 7, 0.88], [439, 1, 7, 3.23], [11490, 1, 7, 1.08], [2805, 137, 7, 1.99], [2160, 68, 7, 2.19], [6494, 1, 7, 3.12], [950, 1, 7, 0.76], [414, 1, 7, 1.47], [3575, 25, 7, 1.81], [12764, 2, 8, 0.87], [1701, 2, 7, 3.79], [11180, 1, 7, 1.04], [8677, 3, 8, 1.86], [75, 2, 7, 1.94], [11586, 1, 14, 3.12], [3577, 25, 7, 0.77], [3478, 2, 7, 1.65], [11585, 29, 7, 2.06], [11813, 1, 7, 3.17], [13023, 3, 8, 2.24], [9998, 80, 9, 2.71], [2438, 2, 8, 1.84], [12526, 2, 9, 3.05], [2424, 80, 146, 3.69], [346, 3, 493, 2.39], [3334, 5, 138, 4.81], [20927, 1, 68, 2.36], [12351, 1, 536, 2.13], [7885, 4, 120, 2.31], [6098, 80, 59, 3.45], [6097, 29, 27, 5.08], [11089, 1, 148, 2.22], [12345, 1, 536, 2.28], [10149, 3, 666, 3.62], [20256, 2, 72, 2.55], [147, 1, 77, 3.78], [22316, 3, 272, 2.08], [1492, 1, 28, 3.66], [11953, 1, 172, 2.22], [432, 3, 236, 2.82], [11491, 2, 121, 2.36], [20252, 2, 72, 2.53], [4032, 29, 73, 2.55], [418, 2, 121, 3.09], [1490, 1, 44, 2.18], [1519, 3, 864, 1.89], [2423, 80, 155, 4.47], [11952, 1, 172, 2.27], [411, 2, 84, 2.61], [12304, 1, 87, 2.6], [5151, 2, 21, 2.55], [229, 1, 70, 5.24], [11769, 1, 140, 2.3], [3576, 25, 87, 3.09], [972, 3, 458, 2.55], [2331, 1, 100, 4.08], [346, 1, 123, 2.39], [995, 2, 206, 3.55], [416, 1, 66, 2.59], [13034, 3, 507, 4.92], [2424, 29, 29, 3.54], [11426, 25, 103, 2.49], [3, 2, 105, 2.43], [11737, 2, 49, 2.33], [5076, 1, 112, 2.58], [11767, 1, 140, 2.3], [439, 1, 74, 4.65], [11490, 1, 84, 2.71], [2805, 137, 154, 3.41], [2160, 68, 112, 3.61], [6494, 1, 42, 4.54], [950, 1, 51, 2.18], [414, 1, 74, 2.89], [3575, 25, 87, 3.22], [12764, 2, 646, 2.28], [1701, 2, 126, 4.58], [11180, 1, 67, 2.67], [8677, 3, 253, 3.28], [75, 2, 124, 3.36], [11586, 1, 296, 3.61], [3577, 25, 76, 2.18], [3478, 2, 65, 3.07], [11585, 29, 148, 3.47], [11813, 1, 266, 4.58], [13023, 3, 509, 3.66], [2438, 2, 551, 3.26]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 12, 4.2], [615, 2, 7, 3.33], [2778, 2, 9, 1.07], [305, 2, 7, 0.92], [5493, 2, 7, 2.99], [6936, 2, 11, 4.22], [130, 1, 7, 1.87], [205, 2, 7, 1.02], [616, 2, 7, 2.96], [1504, 2, 7, 1.54], [144, 2, 9, 2.7], [8648, 2, 7, 1.35], [2049, 3, 17, 0.83], [88, 10, 18, 1.22], [8915, 2, 8, 3.38], [326, 2, 7, 2.16], [7036, 1, 7, 3.02], [8650, 2, 7, 1.54], [593, 2, 9, 1.07], [2327, 2, 7, 0.86], [11681, 2, 7, 3.3], [8853, 2, 9, 4.23], [141, 2, 9, 1.19], [2775, 2, 9, 1.07], [206, 2, 9, 0.85], [151, 1, 7, 1.25], [7004, 1, 7, 1.15], [248, 1, 7, 0.8], [11685, 2, 7, 3.69], [3840, 1, 7, 0.72], [3891, 1, 7, 1.68], [2328, 2, 7, 0.96], [2050, 3, 7, 0.64], [5491, 2, 7, 1.61], [2497, 2, 7, 2.68], [2055, 3, 7, 3.44], [143, 2, 7, 1.12], [434, 2, 7, 0.86], [3980, 4, 7, 2.36], [990, 2, 9, 0.88], [2054, 3, 7, 0.67], [624, 2, 7, 3.92], [8649, 2, 7, 2.8], [362, 2, 7, 1.64], [2776, 2, 9, 1.66], [12870, 1, 7, 3.71], [2057, 3, 7, 0.64], [12350, 1, 7, 1.22], [7886, 4, 7, 1.32], [10574, 3, 8, 3.28], [5165, 1, 7, 2.53], [1006, 2, 7, 1.38], [1446, 2, 7, 0.91], [3495, 3, 21, 1.48], [94, 4, 9, 3.04], [75, 2, 7, 2.87], [523, 2, 7, 1.93], [7084, 3, 7, 1.12], [2991, 3, 7, 4.28], [7005, 1, 7, 1.73], [10149, 3, 21, 1.48], [3975, 4, 7, 2.49], [21793, 1, 7, 4.43], [9760, 29, 7, 0.8], [11404, 2, 7, 1.67], [142, 2, 7, 0.94], [12346, 1, 7, 1.22], [6158, 2, 7, 1.33], [20927, 1, 7, 1.77], [3981, 3, 22, 2.03], [5165, 2, 10, 2.64], [417, 2, 7, 0.98], [2912, 1, 7, 0.8], [3982, 3, 17, 2.34], [8939, 2, 7, 0.89], [1007, 2, 7, 0.98], [11953, 1, 7, 0.96], [2774, 2, 7, 1.95], [33, 1, 7, 2.04], [956, 2, 7, 0.86], [11772, 1, 7, 2.97], [286, 3, 7, 2.44], [1492, 1, 7, 2.27], [11767, 1, 7, 0.81], [336, 15, 7, 2.22], [972, 3, 7, 2.05], [11769, 1, 7, 1.46], [11490, 1, 7, 2.0], [11770, 1, 7, 1.8], [410, 1, 7, 1.49], [74, 1, 7, 2.13], [2912, 2, 8, 0.79], [389, 4, 7, 2.13], [6496, 1, 7, 0.85], [35, 1, 7, 1.54], [7567, 3, 7, 2.62], [411, 2, 7, 1.93], [12721, 2, 7, 1.91], [1413, 15, 7, 1.04], [4253, 1, 7, 1.5], [22317, 3, 7, 0.92], [140, 2, 7, 1.7], [8673, 2, 7, 2.48], [8121, 3, 6, 0.85], [1126, 2, 7, 1.26], [4176, 4, 9, 3.25], [2436, 4, 9, 0.73], [9372, 1, 7, 3.34], [21269, 3, 7, 4.87], [8676, 2, 7, 3.11], [8677, 3, 7, 1.51], [22247, 2, 7, 2.66], [10388, 2, 7, 2.13], [10936, 2, 7, 3.12], [12343, 1, 7, 1.22], [11085, 2, 8, 3.16], [12526, 2, 7, 2.15], [9784, 1, 7, 0.9], [1274, 1, 9, 1.03], [6494, 1, 7, 2.34], [12269, 2, 7, 1.9], [37, 1, 7, 1.7], [13023, 3, 7, 2.32], [1429, 2, 7, 0.91], [345, 3, 7, 2.52], [7573, 1, 9, 2.67], [12225, 1, 7, 2.51], [12271, 2, 7, 1.86], [3, 2, 7, 0.7], [96, 11, 22, 1.1], [3577, 25, 7, 0.92], [9, 1, 7, 0.66], [10408, 10, 9, 3.19], [6158, 2, 204, 2.54], [20927, 1, 68, 3.22], [3981, 3, 1251, 3.73], [5165, 2, 163, 4.85], [417, 2, 133, 2.43], [2912, 1, 38, 1.51], [3982, 3, 612, 4.03], [8939, 2, 150, 2.61], [1007, 2, 207, 2.65], [11953, 1, 175, 2.42], [2774, 2, 174, 3.4], [33, 1, 86, 2.74], [956, 2, 93, 2.32], [11772, 1, 170, 4.18], [286, 3, 108, 3.65], [1492, 1, 28, 3.97], [11767, 1, 125, 2.52], [336, 15, 96, 3.67], [972, 3, 459, 2.73], [11769, 1, 125, 3.17], [11490, 1, 48, 2.71], [11770, 1, 170, 3.51], [410, 1, 46, 2.7], [74, 1, 176, 3.58], [2912, 2, 342, 2.25], [389, 4, 162, 3.34], [6496, 1, 35, 2.31], [35, 1, 86, 2.75], [7567, 3, 54, 3.83], [411, 2, 48, 2.73], [12721, 2, 218, 3.11], [1413, 15, 77, 2.75], [4253, 1, 145, 2.95], [22317, 3, 273, 2.38], [140, 2, 78, 3.15], [8673, 2, 240, 3.93], [8121, 3, 228, 2.56], [1126, 2, 197, 2.71], [4176, 4, 374, 4.3], [2436, 4, 89, 2.5], [9372, 1, 196, 4.79], [21269, 3, 254, 6.0], [8676, 2, 245, 4.57], [8677, 3, 229, 2.72], [22247, 2, 218, 3.32], [10388, 2, 186, 3.58], [10936, 2, 115, 4.58], [12343, 1, 543, 2.67], [11085, 2, 414, 4.36], [12526, 2, 235, 3.6], [9784, 1, 56, 2.57], [1274, 1, 63, 3.06], [6494, 1, 23, 3.55], [12269, 2, 55, 3.35], [37, 1, 96, 3.15], [13023, 3, 507, 3.78], [1429, 2, 131, 2.36], [345, 3, 230, 3.19], [7573, 1, 259, 3.67], [12225, 1, 141, 3.96], [12271, 2, 55, 3.31], [3, 2, 106, 2.15], [96, 11, 661, 2.81], [3577, 25, 68, 2.59], [9, 1, 30, 2.11]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 23, 4.99], [305, 2, 7, 1.02], [2328, 2, 7, 1.5], [130, 1, 7, 0.78], [141, 2, 9, 0.74], [2778, 2, 13, 1.27], [8650, 2, 9, 2.77], [5491, 2, 7, 2.52], [2327, 2, 7, 1.21], [8672, 2, 12, 1.53], [6936, 2, 9, 3.46], [143, 2, 7, 4.32], [11681, 2, 13, 3.96], [248, 1, 7, 0.85], [145, 2, 7, 0.77], [205, 2, 7, 1.02], [5493, 2, 7, 2.44], [146, 2, 7, 1.08], [417, 2, 7, 1.0], [589, 2, 9, 0.74], [75, 2, 7, 1.63], [11737, 2, 7, 1.18], [11838, 2, 7, 1.04], [1124, 2, 12, 0.72], [523, 2, 9, 0.96], [8648, 2, 7, 2.96], [8853, 2, 7, 2.71], [12721, 2, 9, 1.59], [615, 2, 7, 2.35], [1005, 2, 7, 1.22], [326, 2, 7, 2.21], [206, 2, 7, 1.21], [8915, 2, 9, 0.71], [8673, 2, 9, 2.44], [144, 2, 7, 1.3], [11739, 2, 7, 1.18], [88, 10, 14, 1.5], [434, 2, 7, 1.44], [2776, 2, 9, 1.21], [142, 2, 7, 1.05], [151, 1, 7, 1.38], [8676, 2, 7, 0.9], [6158, 2, 10, 0.73], [2424, 29, 9, 0.85], [8649, 2, 7, 2.29], [2423, 29, 7, 3.48], [11738, 2, 7, 1.18], [2497, 2, 7, 1.06], [7704, 2, 7, 2.08], [2424, 80, 9, 1.21], [1413, 15, 7, 2.34], [10574, 3, 9, 3.0], [2423, 80, 7, 3.37], [3670, 2, 7, 3.77], [11836, 2, 9, 0.79], [7705, 2, 7, 2.08], [2054, 3, 7, 2.1], [3, 2, 7, 0.83], [2859, 15, 7, 2.41], [412, 1, 9, 1.44], [378, 2, 7, 4.55], [7706, 2, 7, 2.08], [12720, 2, 7, 1.89], [22316, 3, 7, 0.85], [2055, 3, 7, 0.88], [12344, 1, 7, 0.88], [10149, 3, 21, 2.21], [3478, 2, 9, 2.65], [74, 1, 7, 3.39], [3429, 15, 7, 0.85], [307, 2, 7, 2.95], [2774, 2, 7, 1.06], [6497, 1, 7, 0.8], [60, 3, 8, 1.99], [12526, 2, 7, 2.76], [7004, 1, 7, 1.96], [418, 2, 7, 1.49], [13928, 1, 7, 0.74], [411, 2, 7, 0.91], [11089, 1, 7, 0.71], [2057, 3, 7, 2.1], [413, 1, 9, 1.34], [11844, 2, 7, 1.79], [14037, 3, 7, 1.85], [7036, 1, 7, 1.74], [20252, 2, 7, 1.06], [2050, 3, 7, 2.1], [3893, 1, 7, 1.3], [13260, 29, 7, 1.29], [8274, 3, 7, 1.68], [6097, 80, 7, 3.38], [6952, 1, 7, 2.01], [3891, 1, 7, 3.83], [94, 4, 7, 2.5], [159, 3, 9, 1.37], [9784, 1, 7, 2.37], [1050, 2, 7, 0.66], [6494, 1, 7, 0.85], [7707, 2, 7, 1.32], [1490, 1, 7, 1.88], [11490, 1, 7, 0.86], [1413, 16, 7, 0.71], [414, 1, 9, 1.63], [7708, 2, 7, 2.28], [1243, 2, 7, 1.32], [3889, 1, 7, 1.17], [1492, 1, 7, 1.13], [565, 2, 7, 0.84], [5208, 3, 9, 1.82], [22317, 3, 8, 0.88], [7703, 2, 7, 2.28], [11491, 2, 7, 1.5], [21793, 1, 7, 1.83], [3495, 3, 21, 1.51], [229, 1, 7, 3.68], [345, 3, 7, 2.32], [410, 1, 7, 0.74], [2422, 80, 9, 4.33], [11504, 2, 7, 1.33], [6098, 80, 7, 2.19], [149, 2, 7, 2.73], [947, 15, 7, 0.71], [6630, 3, 7, 3.21], [3430, 15, 7, 2.26], [147, 1, 7, 2.73], [3674, 2, 7, 0.96], [416, 1, 7, 2.93], [2805, 137, 11, 3.57], [2331, 1, 7, 1.34], [247, 1, 7, 2.33], [9126, 1, 7, 0.87], [6098, 29, 7, 2.55], [8635, 3, 7, 1.71], [307, 2, 82, 5.06], [2774, 2, 184, 3.11], [6497, 1, 38, 2.59], [60, 3, 730, 4.08], [12526, 2, 245, 4.87], [7004, 1, 31, 3.07], [418, 2, 141, 3.27], [13928, 1, 44, 2.85], [411, 2, 109, 2.7], [11089, 1, 173, 2.5], [2057, 3, 473, 3.89], [413, 1, 76, 3.1], [7036, 1, 128, 3.53], [20252, 2, 92, 2.85], [2050, 3, 473, 3.89], [3893, 1, 110, 2.9], [13260, 29, 65, 3.33], [8274, 3, 115, 2.76], [6097, 80, 61, 5.49], [6952, 1, 189, 3.79], [3891, 1, 123, 5.62], [94, 4, 104, 4.11], [159, 3, 709, 3.16], [9784, 1, 71, 4.16], [6494, 1, 52, 2.64], [7707, 2, 176, 3.11], [1490, 1, 50, 3.67], [11490, 1, 109, 2.65], [1413, 16, 50, 2.5], [414, 1, 76, 3.31], [7708, 2, 176, 4.07], [1243, 2, 90, 2.93], [3889, 1, 110, 2.78], [1492, 1, 37, 2.92], [565, 2, 176, 2.63], [5208, 3, 558, 3.6], [22317, 3, 318, 2.66], [7703, 2, 176, 4.07], [11491, 2, 141, 3.28], [21793, 1, 214, 2.94], [3495, 3, 965, 3.31], [229, 1, 81, 5.47], [345, 3, 297, 4.1], [410, 1, 53, 2.17], [2422, 80, 168, 5.46], [11504, 2, 141, 3.12], [6098, 80, 66, 4.03], [149, 2, 87, 4.52], [947, 15, 41, 2.5], [6630, 3, 93, 5.0], [3430, 15, 69, 4.05], [147, 1, 87, 4.52], [3674, 2, 260, 2.74], [416, 1, 85, 4.71], [2805, 137, 182, 5.36], [2331, 1, 118, 3.13], [247, 1, 87, 4.12], [9126, 1, 71, 2.65], [6098, 29, 37, 4.34], [8635, 3, 115, 2.78]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.94], [305, 2, 7, 1.95], [3, 2, 9, 2.18], [6935, 2, 18, 3.39], [205, 2, 7, 1.36], [143, 2, 7, 3.11], [144, 2, 9, 3.22], [75, 2, 7, 0.9], [12721, 2, 10, 1.03], [145, 2, 9, 2.81], [8915, 2, 12, 0.71], [2778, 2, 9, 0.96], [1776, 1, 7, 0.87], [146, 2, 9, 3.31], [206, 2, 7, 1.02], [20252, 2, 7, 0.88], [6936, 2, 10, 2.86], [1777, 1, 9, 2.87], [8648, 2, 7, 1.71], [151, 1, 7, 0.67], [2328, 2, 7, 1.41], [8650, 2, 9, 2.48], [5151, 2, 7, 3.43], [2050, 3, 7, 2.04], [248, 1, 7, 0.8], [88, 10, 21, 3.14], [7886, 4, 7, 1.22], [9507, 3, 7, 0.66], [74, 1, 7, 1.54], [1446, 2, 7, 1.51], [2991, 3, 7, 3.64], [362, 2, 7, 0.83], [7004, 1, 7, 1.29], [2057, 3, 7, 0.87], [1492, 1, 9, 1.36], [1007, 2, 12, 0.69], [2055, 3, 7, 1.04], [147, 1, 7, 4.17], [76, 2, 7, 1.42], [8649, 2, 9, 2.6], [3889, 1, 7, 0.81], [11234, 2, 11, 0.93], [410, 1, 7, 0.7], [7005, 1, 7, 0.7], [345, 3, 7, 0.9], [10, 2, 9, 1.21], [1429, 2, 7, 1.46], [307, 2, 7, 3.37], [10825, 21, 13, 1.0], [5081, 2, 7, 1.04], [12870, 1, 7, 1.25], [57, 1, 7, 0.8], [10149, 3, 21, 1.27], [7036, 1, 7, 1.81], [3478, 2, 7, 1.0], [7084, 3, 7, 1.67], [1006, 2, 7, 1.53], [1504, 2, 9, 1.0], [3891, 1, 7, 1.71], [21793, 1, 7, 3.43], [94, 4, 7, 3.56], [167, 3, 7, 1.44], [411, 2, 7, 0.9], [9827, 3, 7, 1.38], [3893, 1, 7, 0.65], [79, 1, 7, 1.08], [33, 1, 9, 1.88], [432, 3, 9, 1.23], [8677, 3, 9, 1.51], [11681, 2, 11, 3.45], [148, 1, 7, 3.1], [96, 11, 24, 0.67], [1490, 1, 9, 0.82], [12225, 1, 7, 1.7], [1124, 2, 11, 0.74], [11737, 2, 7, 1.26], [1243, 2, 7, 0.92], [22247, 2, 11, 1.79], [6158, 2, 8, 1.39], [5812, 3, 8, 3.52], [8853, 2, 11, 3.19], [201, 3, 7, 0.9], [412, 1, 7, 2.46], [9760, 29, 9, 1.04], [10574, 3, 9, 2.6], [8651, 2, 7, 1.13], [20927, 1, 7, 0.83], [5208, 3, 11, 1.25], [8676, 2, 12, 1.23], [229, 1, 7, 2.31], [1767, 25, 7, 1.14], [25, 1, 7, 1.4], [45, 2, 7, 2.7], [9069, 1, 7, 0.79], [413, 1, 7, 2.29], [11490, 1, 7, 0.69], [149, 2, 7, 3.27], [159, 3, 9, 1.18], [3495, 3, 21, 1.61], [21269, 3, 7, 2.34], [998, 2, 7, 1.87], [140, 2, 7, 1.5], [95, 3, 17, 3.57], [3980, 4, 7, 2.46], [950, 1, 7, 1.3], [5946, 1, 7, 1.83], [9372, 1, 7, 3.91], [1126, 2, 7, 1.36], [1766, 25, 7, 1.08], [2775, 2, 7, 1.46], [1413, 15, 9, 1.85], [490, 1, 9, 0.99], [506, 1, 7, 4.76], [8674, 2, 7, 0.99], [11489, 1, 7, 1.21], [8898, 3, 7, 3.23], [997, 2, 7, 3.34], [3670, 2, 7, 3.6], [1070, 7, 15, 0.85], [9691, 1, 7, 1.89], [107, 2, 7, 1.46], [974, 3, 7, 1.64], [20498, 1, 7, 1.81], [11954, 1, 7, 0.87], [14037, 3, 7, 0.8], [14017, 3, 9, 1.09], [823, 1, 7, 1.62], [34, 1, 7, 2.43], [5209, 3, 7, 0.98], [972, 3, 8, 1.49], [9784, 1, 7, 1.51], [11739, 2, 7, 1.26], [1091, 1, 7, 1.18], [432, 3, 234, 2.81], [8677, 3, 226, 2.67], [11681, 2, 206, 5.11], [148, 1, 66, 4.77], [96, 11, 651, 2.32], [1490, 1, 38, 2.48], [12225, 1, 71, 2.57], [1124, 2, 143, 2.7], [11737, 2, 32, 2.92], [1243, 2, 83, 2.22], [22247, 2, 216, 3.38], [6158, 2, 221, 2.69], [5812, 3, 502, 4.82], [8853, 2, 216, 4.71], [201, 3, 226, 2.53], [412, 1, 63, 3.1], [9760, 29, 54, 3.01], [10574, 3, 382, 4.26], [8651, 2, 171, 2.79], [20927, 1, 61, 2.46], [5208, 3, 480, 2.56], [8676, 2, 217, 2.65], [229, 1, 63, 2.95], [1767, 25, 132, 2.76], [25, 1, 95, 2.71], [45, 2, 82, 4.36], [9069, 1, 93, 2.41], [413, 1, 65, 2.94], [11490, 1, 83, 2.32], [149, 2, 66, 4.03], [159, 3, 602, 2.48], [3495, 3, 737, 3.28], [21269, 3, 225, 3.5], [998, 2, 181, 2.54], [140, 2, 69, 3.09], [95, 3, 892, 4.89], [3980, 4, 368, 4.11], [950, 1, 25, 2.17], [5946, 1, 95, 2.48], [9372, 1, 173, 4.69], [1126, 2, 175, 2.52], [1766, 25, 144, 2.69], [2775, 2, 119, 2.63], [1413, 15, 53, 4.01], [490, 1, 45, 2.39], [506, 1, 74, 6.0], [8674, 2, 217, 2.66], [11489, 1, 83, 2.87], [8898, 3, 225, 4.39], [997, 2, 202, 4.64], [3670, 2, 180, 4.37], [1070, 7, 453, 2.51], [9691, 1, 57, 2.54], [107, 2, 31, 2.12], [974, 3, 113, 2.8], [20498, 1, 74, 3.4], [11954, 1, 171, 2.17], [14037, 3, 125, 2.18], [14017, 3, 149, 2.47], [823, 1, 30, 3.2], [34, 1, 85, 3.19], [5209, 3, 480, 2.29], [972, 3, 453, 2.26], [9784, 1, 55, 2.67], [11739, 2, 32, 2.92], [1091, 1, 41, 2.48]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 1.01], [305, 2, 7, 1.1], [2049, 3, 13, 0.7], [6935, 2, 21, 3.58], [326, 2, 8, 2.27], [141, 2, 7, 2.25], [144, 2, 7, 1.17], [589, 2, 12, 0.77], [151, 1, 7, 0.92], [362, 2, 9, 0.83], [12721, 2, 10, 1.03], [146, 2, 7, 1.26], [1776, 1, 7, 2.19], [145, 2, 7, 0.8], [206, 2, 7, 0.69], [2328, 2, 7, 1.35], [8915, 2, 11, 0.71], [143, 2, 7, 1.12], [990, 2, 9, 1.06], [6936, 2, 10, 3.41], [20252, 2, 7, 0.91], [8650, 2, 7, 2.27], [1777, 1, 7, 2.96], [1007, 2, 10, 0.81], [2778, 2, 7, 0.79], [248, 1, 7, 0.68], [88, 10, 14, 2.0], [22247, 2, 9, 1.93], [2050, 3, 7, 0.69], [76, 2, 7, 2.39], [8649, 2, 7, 2.74], [10149, 3, 25, 3.53], [10, 2, 11, 1.65], [8677, 3, 8, 3.58], [2054, 3, 7, 4.0], [412, 1, 7, 1.64], [2055, 3, 7, 4.0], [13028, 3, 7, 1.38], [413, 1, 7, 2.12], [7004, 1, 9, 0.89], [411, 2, 7, 0.88], [10825, 21, 14, 2.34], [11681, 2, 10, 4.26], [1446, 2, 7, 1.91], [7084, 3, 7, 1.66], [307, 2, 7, 1.35], [3478, 2, 7, 2.16], [1429, 2, 7, 1.21], [3495, 3, 26, 1.77], [1006, 2, 7, 1.36], [147, 1, 7, 2.73], [1492, 1, 6, 1.98], [5081, 2, 7, 0.81], [140, 2, 7, 1.98], [167, 3, 9, 1.86], [7005, 1, 9, 0.89], [7036, 1, 7, 1.62], [9827, 3, 7, 1.38], [45, 2, 7, 2.95], [8676, 2, 7, 0.98], [1124, 2, 9, 0.72], [2049, 1, 7, 1.7], [94, 4, 7, 3.47], [5812, 3, 8, 3.38], [13280, 1, 9, 3.64], [168, 3, 9, 1.46], [1504, 2, 7, 1.33], [12870, 1, 7, 1.5], [57, 1, 7, 0.7], [11234, 2, 8, 1.32], [415, 1, 7, 2.06], [8651, 2, 7, 1.94], [148, 1, 7, 1.56], [418, 2, 7, 0.7], [8853, 2, 14, 3.62], [6097, 29, 7, 3.38], [8939, 2, 7, 0.84], [416, 1, 7, 2.33], [6097, 80, 7, 3.38], [11737, 2, 7, 2.34], [20256, 2, 7, 1.42], [490, 1, 7, 2.02], [1490, 1, 7, 1.27], [998, 2, 7, 3.68], [20927, 1, 9, 0.89], [79, 1, 7, 0.7], [95, 3, 26, 0.85], [6098, 29, 7, 2.08], [14017, 3, 7, 1.0], [6098, 80, 7, 2.08], [414, 1, 7, 1.49], [9069, 1, 7, 1.91], [1070, 7, 16, 0.73], [1243, 2, 7, 0.96], [8898, 3, 7, 2.67], [1126, 2, 7, 1.22], [149, 2, 7, 2.73], [126, 2, 7, 2.75], [13034, 3, 8, 3.38], [997, 2, 7, 3.68], [9760, 29, 7, 0.87], [20498, 1, 7, 1.96], [20255, 2, 7, 1.43], [5086, 1, 9, 1.76], [5513, 2, 7, 0.84], [12924, 1, 9, 0.86], [9784, 1, 7, 1.06], [336, 15, 7, 1.66], [22317, 3, 8, 1.35], [11739, 2, 7, 1.65], [13260, 29, 7, 1.0], [7567, 3, 7, 3.2], [974, 3, 7, 1.64], [1413, 15, 7, 1.52], [11085, 2, 7, 0.83], [5811, 3, 7, 2.82], [229, 1, 7, 2.92], [972, 3, 8, 1.35], [5813, 3, 9, 2.14], [8557, 3, 7, 1.01], [192, 3, 22, 4.76], [9082, 3, 20, 2.38], [506, 1, 7, 2.73], [3049, 3, 7, 3.65], [9691, 1, 9, 2.48], [20498, 3, 8, 2.02], [14018, 3, 7, 1.0], [524, 1, 7, 2.16], [4076, 3, 7, 2.96], [470, 1, 7, 1.35], [1622, 1, 10, 0.79], [11454, 2, 9, 3.15], [2775, 2, 9, 0.73], [12870, 1, 113, 2.27], [57, 1, 79, 1.85], [11234, 2, 170, 2.47], [415, 1, 71, 2.31], [8651, 2, 186, 2.71], [148, 1, 80, 2.71], [418, 2, 131, 1.85], [8853, 2, 235, 4.88], [6097, 29, 27, 4.65], [8939, 2, 76, 2.11], [416, 1, 71, 2.57], [6097, 80, 55, 4.65], [11737, 2, 23, 3.11], [20256, 2, 77, 2.19], [490, 1, 36, 2.28], [1490, 1, 42, 2.03], [998, 2, 218, 4.83], [20927, 1, 65, 1.93], [79, 1, 44, 1.85], [95, 3, 936, 2.19], [6098, 29, 30, 3.21], [14017, 3, 162, 2.22], [6098, 80, 61, 3.2], [414, 1, 79, 2.64], [9069, 1, 100, 2.17], [1070, 7, 494, 2.01], [1243, 2, 90, 2.12], [8898, 3, 231, 3.94], [1126, 2, 189, 1.99], [149, 2, 80, 3.88], [126, 2, 75, 2.98], [13034, 3, 486, 4.14], [997, 2, 218, 4.83], [9760, 29, 59, 2.09], [20498, 1, 79, 2.73], [20255, 2, 77, 2.2], [5086, 1, 152, 3.49], [5513, 2, 70, 1.99], [12924, 1, 44, 2.3], [9784, 1, 60, 2.28], [336, 15, 93, 1.92], [22317, 3, 261, 2.11], [11739, 2, 47, 2.92], [13260, 29, 67, 2.15], [7567, 3, 57, 3.41], [974, 3, 136, 2.79], [1413, 15, 82, 2.79], [11085, 2, 508, 1.97], [5811, 3, 486, 3.58], [229, 1, 75, 4.08], [972, 3, 546, 2.51], [5813, 3, 486, 3.24], [8557, 3, 167, 2.28], [192, 3, 1287, 5.9], [9082, 3, 2070, 3.66], [506, 1, 80, 3.88], [3049, 3, 113, 4.42], [9691, 1, 62, 2.98], [20498, 3, 477, 2.76], [14018, 3, 162, 2.22], [524, 1, 69, 2.41], [4076, 3, 163, 3.19], [470, 1, 21, 2.12], [1622, 1, 50, 1.56], [11454, 2, 277, 4.42], [2775, 2, 130, 2.06]]</t>
+  </si>
+  <si>
+    <t>[[11685, 2, 7, 3.69], [6935, 2, 10, 4.2], [130, 1, 9, 0.77], [326, 2, 9, 2.77], [8648, 2, 7, 1.35], [144, 2, 9, 2.2], [593, 2, 7, 1.57], [2327, 2, 7, 0.9], [143, 2, 7, 1.57], [205, 2, 7, 1.48], [8915, 2, 8, 3.38], [2328, 2, 7, 1.41], [11681, 2, 7, 3.3], [6936, 2, 9, 4.22], [305, 2, 7, 0.88], [151, 1, 7, 1.25], [8650, 2, 7, 1.1], [141, 2, 7, 0.92], [2778, 2, 9, 1.07], [206, 2, 7, 1.35], [2049, 3, 14, 0.83], [88, 10, 18, 1.22], [615, 2, 7, 3.33], [7036, 1, 7, 3.02], [8853, 2, 7, 4.23], [8649, 2, 7, 1.87], [5491, 2, 7, 0.9], [248, 1, 7, 0.8], [434, 2, 7, 0.86], [1006, 2, 7, 1.93], [75, 2, 7, 2.32], [2055, 3, 7, 3.44], [11737, 2, 7, 1.58], [990, 2, 7, 1.06], [417, 2, 7, 0.98], [616, 2, 7, 2.96], [3840, 1, 7, 0.72], [2050, 3, 7, 0.67], [1007, 2, 7, 1.44], [12870, 1, 7, 3.71], [12353, 1, 9, 2.27], [523, 2, 7, 1.93], [1504, 2, 7, 2.06], [159, 3, 8, 0.61], [20927, 1, 7, 1.77], [2057, 3, 9, 0.88], [13280, 1, 9, 5.0], [10574, 3, 8, 2.36], [3, 2, 9, 0.74], [142, 2, 7, 0.94], [12346, 1, 9, 1.93], [7084, 3, 7, 1.12], [9760, 29, 7, 1.3], [624, 2, 7, 3.92], [2054, 3, 9, 0.88], [140, 2, 7, 1.7], [2775, 2, 7, 1.07], [21793, 1, 7, 4.43], [3891, 1, 7, 0.98], [8939, 2, 7, 0.89], [1429, 2, 7, 1.38], [96, 11, 22, 1.59], [11739, 2, 7, 1.14], [6158, 2, 9, 0.75], [950, 1, 7, 0.68], [5165, 2, 8, 3.15], [12269, 2, 7, 1.9], [84, 2, 7, 1.96], [1126, 2, 7, 1.26], [9372, 1, 7, 3.34], [10388, 2, 7, 2.13], [411, 2, 7, 1.02], [98, 11, 16, 0.91], [972, 3, 7, 2.05], [5165, 1, 7, 3.03], [2912, 1, 7, 0.8], [8898, 3, 7, 5.0], [413, 1, 7, 1.94], [2776, 2, 7, 2.59], [410, 1, 7, 1.04], [12343, 1, 7, 3.27], [10386, 2, 7, 1.68], [995, 2, 7, 3.38], [9491, 21, 16, 1.93], [956, 2, 7, 0.86], [1492, 1, 7, 2.77], [418, 2, 7, 0.81], [12345, 1, 7, 2.72], [13928, 1, 7, 1.6], [9784, 1, 7, 0.9], [22316, 3, 7, 0.92], [147, 1, 7, 0.98], [22247, 2, 7, 2.43], [412, 1, 7, 0.84], [336, 15, 7, 1.66], [8677, 3, 7, 1.73], [11490, 1, 7, 1.02], [7567, 3, 7, 3.18], [2912, 2, 8, 0.79], [308, 1, 7, 3.28], [432, 3, 7, 0.86], [307, 2, 7, 1.58], [11953, 1, 7, 0.96], [33, 1, 7, 2.04], [11770, 1, 9, 1.3], [10631, 2, 7, 2.7], [414, 1, 7, 1.24], [35, 1, 7, 2.06], [148, 1, 7, 1.01], [20256, 2, 7, 0.81], [10407, 10, 10, 2.88], [22317, 3, 7, 1.42], [1413, 15, 7, 1.17], [10410, 10, 10, 3.2], [10780, 10, 7, 3.0], [13286, 1, 7, 2.52], [415, 1, 7, 1.24], [439, 1, 7, 2.12], [335, 3, 15, 3.35], [7886, 4, 7, 0.86], [9691, 1, 7, 1.0], [7573, 1, 11, 3.36], [11767, 1, 7, 0.92], [12347, 1, 7, 3.27], [972, 1, 7, 2.77], [10387, 2, 7, 1.75], [10149, 3, 21, 1.48], [74, 1, 7, 2.13], [20686, 1, 7, 2.96], [3478, 2, 7, 3.14], [12271, 2, 7, 1.86], [9690, 1, 7, 1.39], [9971, 2, 7, 2.77], [1126, 2, 197, 2.71], [9372, 1, 196, 4.79], [10388, 2, 186, 3.58], [411, 2, 84, 2.73], [98, 11, 720, 2.35], [972, 3, 459, 2.73], [2912, 1, 38, 2.01], [8898, 3, 242, 6.0], [413, 1, 66, 2.64], [2776, 2, 135, 4.04], [410, 1, 81, 2.7], [12343, 1, 488, 4.47], [10386, 2, 186, 3.14], [995, 2, 208, 4.83], [9491, 21, 1812, 3.36], [956, 2, 93, 2.32], [1492, 1, 14, 3.97], [418, 2, 109, 2.48], [12345, 1, 488, 3.94], [13928, 1, 37, 2.81], [9784, 1, 56, 2.57], [22316, 3, 273, 2.38], [147, 1, 79, 2.43], [22247, 2, 243, 3.88], [412, 1, 65, 2.55], [336, 15, 86, 2.36], [8677, 3, 229, 2.72], [11490, 1, 94, 2.47], [7567, 3, 54, 3.83], [2912, 2, 342, 2.25], [308, 1, 139, 4.73], [432, 3, 237, 2.57], [307, 2, 115, 2.78], [11953, 1, 175, 2.42], [33, 1, 86, 2.74], [11770, 1, 170, 3.51], [10631, 2, 183, 4.15], [414, 1, 74, 2.69], [35, 1, 86, 2.75], [148, 1, 79, 2.46], [20256, 2, 81, 2.26], [10407, 10, 1015, 4.32], [22317, 3, 245, 2.63], [1413, 15, 86, 2.63], [10410, 10, 1015, 4.64], [10780, 10, 316, 4.46], [13286, 1, 246, 3.2], [415, 1, 74, 2.69], [439, 1, 75, 3.57], [335, 3, 1103, 4.78], [7886, 4, 99, 2.22], [9691, 1, 66, 2.45], [7573, 1, 288, 4.82], [11767, 1, 139, 2.37], [12347, 1, 488, 4.47], [972, 1, 85, 4.22], [10387, 2, 186, 3.2], [10149, 3, 752, 2.93], [74, 1, 176, 3.58], [20686, 1, 476, 4.17], [3478, 2, 29, 3.79], [12271, 2, 55, 3.31], [9690, 1, 65, 2.85], [9971, 2, 211, 3.59]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 1.03], [141, 2, 7, 1.22], [362, 2, 7, 0.88], [361, 2, 6, 0.99], [6935, 2, 23, 3.83], [205, 2, 7, 0.65], [12721, 2, 11, 2.8], [11737, 2, 7, 1.23], [206, 2, 7, 0.7], [2049, 3, 17, 0.72], [8676, 2, 7, 2.44], [8675, 2, 9, 1.42], [417, 2, 7, 1.55], [3, 2, 7, 0.96], [6936, 2, 7, 3.04], [305, 2, 7, 1.48], [151, 1, 7, 1.38], [523, 2, 7, 1.13], [22247, 2, 7, 1.83], [8650, 2, 7, 2.33], [142, 2, 7, 0.9], [8648, 2, 7, 3.27], [2328, 2, 7, 1.5], [2776, 2, 7, 1.18], [8853, 2, 7, 3.03], [616, 2, 7, 2.22], [11739, 2, 7, 1.23], [2327, 2, 7, 1.66], [11837, 2, 7, 0.82], [411, 2, 7, 0.86], [12352, 1, 7, 3.09], [589, 2, 7, 0.8], [143, 2, 7, 1.6], [146, 2, 7, 1.14], [11835, 2, 7, 1.06], [412, 1, 7, 1.93], [12353, 1, 7, 3.09], [6497, 1, 9, 1.34], [8674, 2, 7, 1.17], [583, 2, 7, 2.85], [145, 2, 7, 0.9], [2805, 137, 14, 1.1], [326, 2, 7, 2.54], [10574, 3, 9, 2.49], [418, 2, 7, 1.0], [144, 2, 7, 0.96], [6097, 80, 7, 3.38], [11738, 2, 7, 1.23], [11836, 2, 7, 0.97], [9784, 1, 7, 1.91], [10149, 3, 21, 0.86], [6097, 29, 7, 3.88], [413, 1, 7, 1.87], [2057, 3, 7, 3.23], [2055, 3, 7, 3.23], [75, 2, 7, 1.04], [11234, 2, 8, 1.32], [12344, 1, 7, 2.54], [1413, 15, 7, 0.89], [20252, 2, 7, 0.87], [11504, 2, 7, 0.67], [12269, 2, 7, 1.05], [8915, 2, 7, 0.71], [414, 1, 7, 1.91], [1492, 1, 7, 1.13], [6098, 80, 7, 2.19], [12346, 1, 7, 3.09], [3429, 15, 7, 0.85], [247, 1, 7, 3.32], [22316, 3, 7, 0.85], [1886, 2, 9, 0.75], [2774, 2, 7, 2.72], [1490, 1, 7, 0.66], [416, 1, 7, 2.14], [6098, 29, 7, 2.55], [9786, 1, 7, 2.84], [3934, 5, 8, 0.94], [2859, 15, 7, 1.05], [2049, 1, 7, 0.75], [201, 3, 7, 2.66], [3670, 2, 9, 3.61], [20555, 2, 7, 1.23], [6158, 2, 9, 1.76], [3478, 2, 7, 2.16], [7084, 3, 7, 1.81], [9785, 1, 7, 1.91], [12526, 2, 7, 2.78], [8599, 1, 7, 2.59], [8938, 2, 7, 1.07], [1703, 2, 7, 1.53], [4253, 1, 7, 0.92], [9760, 29, 7, 1.83], [186, 3, 12, 0.9], [1413, 16, 7, 0.68], [229, 1, 7, 2.94], [11885, 2, 7, 0.71], [107, 2, 7, 2.38], [11887, 2, 8, 0.65], [1050, 2, 7, 0.68], [11811, 1, 7, 1.93], [4232, 80, 7, 3.23], [94, 4, 7, 4.04], [11490, 1, 7, 0.96], [436, 2, 7, 0.94], [107, 7, 8, 1.99], [2438, 2, 8, 2.38], [415, 1, 7, 2.14], [947, 15, 7, 0.71], [11770, 1, 7, 0.8], [3673, 2, 7, 3.82], [11767, 1, 7, 0.88], [11671, 1, 7, 0.83], [5939, 3, 7, 0.91], [2821, 3, 13, 0.77], [11769, 1, 7, 0.88], [11160, 1, 7, 3.67], [11844, 2, 7, 1.16], [12347, 1, 7, 3.55], [5812, 3, 7, 4.0], [7036, 1, 7, 0.87], [9358, 1, 7, 0.81], [140, 2, 7, 2.41], [3495, 3, 21, 1.51], [12764, 2, 8, 0.82], [11771, 1, 7, 3.17], [5813, 3, 8, 1.92], [23920, 2, 7, 0.85], [11954, 1, 7, 0.77], [308, 1, 11, 1.83], [9690, 1, 7, 1.45], [410, 1, 7, 2.74], [5811, 3, 8, 3.52], [22573, 2, 7, 0.71], [3429, 15, 53, 2.63], [247, 1, 86, 5.11], [22316, 3, 318, 2.64], [1886, 2, 141, 2.86], [2774, 2, 205, 4.5], [1490, 1, 51, 2.45], [416, 1, 86, 3.92], [6098, 29, 37, 4.34], [9786, 1, 48, 4.45], [3934, 5, 586, 2.73], [2859, 15, 69, 2.84], [2049, 1, 15, 2.36], [201, 3, 299, 4.45], [3670, 2, 236, 5.41], [20555, 2, 57, 3.01], [6158, 2, 259, 3.55], [3478, 2, 75, 3.95], [7084, 3, 116, 3.92], [9785, 1, 64, 3.01], [12526, 2, 273, 4.56], [8599, 1, 145, 4.37], [8938, 2, 192, 2.86], [1703, 2, 164, 3.32], [4253, 1, 171, 2.71], [9760, 29, 63, 2.93], [186, 3, 665, 2.69], [1413, 16, 50, 2.47], [229, 1, 80, 4.73], [11885, 2, 97, 2.14], [107, 2, 48, 4.16], [11887, 2, 130, 2.26], [11811, 1, 451, 3.72], [4232, 80, 153, 5.02], [94, 4, 119, 5.82], [11490, 1, 110, 2.75], [436, 2, 107, 2.72], [107, 7, 216, 3.2], [2438, 2, 643, 4.17], [415, 1, 86, 3.92], [947, 15, 41, 2.5], [11770, 1, 220, 2.59], [3673, 2, 236, 5.61], [11767, 1, 164, 2.67], [11671, 1, 310, 2.62], [5939, 3, 266, 2.71], [2821, 3, 1338, 2.55], [11769, 1, 164, 2.67], [11160, 1, 491, 5.45], [11844, 2, 186, 2.77], [12347, 1, 607, 5.34], [5812, 3, 589, 5.78], [7036, 1, 127, 2.65], [9358, 1, 59, 2.6], [140, 2, 45, 3.84], [3495, 3, 965, 3.31], [12764, 2, 755, 2.62], [11771, 1, 213, 4.96], [5813, 3, 589, 3.7], [23920, 2, 106, 2.63], [11954, 1, 203, 2.56], [308, 1, 173, 3.62], [9690, 1, 75, 3.24], [410, 1, 35, 3.81], [5811, 3, 530, 5.12], [22573, 2, 36, 2.14]]</t>
+  </si>
+  <si>
+    <t>[[2327, 2, 7, 1.0], [305, 2, 7, 1.32], [6935, 2, 11, 4.28], [2778, 2, 9, 0.81], [144, 2, 9, 2.22], [130, 1, 7, 1.38], [8915, 2, 8, 1.9], [589, 2, 10, 0.99], [143, 2, 7, 1.12], [2328, 2, 7, 1.73], [6936, 2, 7, 3.42], [8648, 2, 7, 1.93], [2775, 2, 9, 0.94], [205, 2, 7, 0.83], [8650, 2, 7, 1.47], [326, 2, 9, 1.62], [593, 2, 9, 0.88], [146, 2, 7, 1.55], [145, 2, 7, 0.98], [7036, 1, 9, 2.3], [2049, 3, 10, 0.87], [2776, 2, 9, 0.94], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [88, 10, 16, 2.46], [141, 2, 7, 0.71], [151, 1, 7, 1.38], [1124, 2, 7, 1.46], [11681, 2, 11, 3.45], [206, 2, 7, 0.74], [1446, 2, 7, 1.22], [9760, 29, 7, 1.18], [8853, 2, 7, 3.51], [990, 2, 7, 0.66], [5491, 2, 9, 1.44], [1007, 2, 7, 0.85], [362, 2, 9, 1.24], [8672, 2, 7, 2.94], [1504, 2, 7, 1.79], [2055, 3, 7, 0.84], [2057, 3, 7, 0.84], [9372, 1, 7, 3.79], [3893, 1, 7, 1.48], [8649, 2, 7, 1.29], [2912, 1, 7, 0.89], [8938, 2, 7, 0.95], [434, 2, 9, 0.71], [12870, 1, 7, 2.35], [10993, 2, 7, 1.34], [624, 2, 7, 2.19], [2050, 3, 7, 0.84], [417, 2, 9, 1.04], [3889, 1, 7, 0.65], [5165, 1, 7, 2.49], [1429, 2, 7, 0.91], [378, 2, 7, 4.21], [7084, 3, 7, 1.58], [10, 2, 7, 1.6], [2991, 3, 7, 3.64], [140, 2, 7, 3.18], [3891, 1, 7, 0.98], [1006, 2, 7, 1.04], [7886, 4, 7, 0.75], [10574, 3, 11, 3.29], [7573, 1, 22, 5.0], [10149, 3, 21, 1.48], [5208, 3, 9, 0.78], [1622, 1, 7, 1.03], [75, 2, 7, 0.75], [3, 2, 7, 0.89], [20927, 1, 7, 1.83], [5165, 2, 10, 2.34], [997, 2, 7, 2.64], [11234, 2, 7, 2.3], [1886, 2, 9, 0.82], [12721, 2, 7, 1.26], [22247, 2, 7, 2.64], [147, 1, 7, 3.37], [346, 3, 9, 0.69], [996, 2, 7, 2.83], [229, 1, 7, 0.86], [11811, 1, 7, 0.8], [20252, 2, 7, 1.43], [11685, 2, 11, 3.45], [94, 4, 7, 3.68], [998, 2, 7, 3.33], [972, 3, 10, 1.12], [2912, 2, 15, 0.66], [9491, 21, 17, 0.8], [76, 2, 7, 1.67], [35, 1, 7, 1.96], [439, 1, 9, 2.21], [413, 1, 7, 2.08], [13028, 3, 7, 4.24], [13928, 1, 7, 1.28], [8104, 1, 7, 1.67], [5076, 1, 7, 0.83], [2805, 137, 7, 1.16], [412, 1, 7, 1.85], [5209, 3, 9, 0.78], [8676, 2, 7, 4.08], [33, 1, 7, 1.87], [83, 2, 7, 1.69], [418, 2, 7, 1.21], [148, 1, 7, 3.39], [2774, 2, 7, 1.15], [3495, 3, 16, 1.41], [8898, 3, 7, 3.35], [7887, 4, 7, 1.81], [12212, 29, 7, 0.98], [20256, 2, 9, 0.82], [38, 1, 7, 2.23], [11490, 1, 7, 1.29], [11770, 1, 7, 2.76], [34, 1, 7, 2.1], [10407, 10, 10, 3.59], [415, 1, 7, 1.96], [9784, 1, 7, 0.96], [84, 2, 7, 1.37], [13928, 2, 7, 1.35], [126, 2, 7, 2.34], [411, 2, 7, 0.72], [11739, 2, 7, 2.61], [3048, 3, 7, 4.58], [9691, 1, 7, 1.05], [9690, 1, 7, 0.69], [8939, 2, 7, 0.92], [5584, 3, 7, 2.81], [11953, 1, 7, 0.84], [39, 1, 7, 2.18], [12351, 1, 7, 1.22], [11954, 1, 7, 0.7], [7567, 3, 7, 2.64], [1622, 1, 105, 2.67], [75, 2, 126, 2.69], [3, 2, 106, 2.81], [20927, 1, 34, 2.64], [5165, 2, 342, 4.82], [997, 2, 232, 4.28], [11234, 2, 179, 3.94], [1886, 2, 136, 2.8], [12721, 2, 244, 3.23], [22247, 2, 244, 3.57], [147, 1, 78, 4.28], [346, 3, 557, 2.68], [996, 2, 208, 4.81], [229, 1, 81, 2.5], [11811, 1, 402, 2.78], [20252, 2, 91, 3.07], [11685, 2, 234, 5.43], [94, 4, 105, 4.77], [998, 2, 208, 4.81], [972, 3, 522, 2.82], [2912, 2, 348, 2.47], [9491, 21, 1872, 2.76], [76, 2, 95, 2.65], [35, 1, 97, 2.93], [439, 1, 76, 4.69], [413, 1, 75, 3.04], [13028, 3, 128, 5.72], [13928, 1, 41, 3.26], [8104, 1, 180, 3.59], [5076, 1, 114, 2.77], [2805, 137, 157, 3.08], [412, 1, 73, 3.83], [5209, 3, 493, 2.87], [8676, 2, 275, 5.72], [33, 1, 97, 3.76], [418, 2, 124, 3.13], [148, 1, 78, 4.3], [2774, 2, 200, 2.79], [3495, 3, 938, 3.05], [8898, 3, 257, 4.83], [7887, 4, 39, 2.3], [12212, 29, 105, 2.95], [20256, 2, 81, 2.94], [38, 1, 97, 3.19], [11490, 1, 80, 2.77], [11770, 1, 206, 4.4], [34, 1, 97, 3.07], [10407, 10, 645, 5.06], [415, 1, 75, 2.92], [9784, 1, 71, 2.6], [84, 2, 58, 2.85], [13928, 2, 20, 3.26], [126, 2, 86, 3.98], [411, 2, 106, 2.37], [11739, 2, 55, 4.25], [3048, 3, 236, 6.0], [9691, 1, 74, 2.7], [9690, 1, 25, 1.67], [8939, 2, 169, 2.9], [5584, 3, 206, 4.28], [11953, 1, 195, 2.48], [39, 1, 97, 3.13], [12351, 1, 612, 2.87], [11954, 1, 195, 2.34], [7567, 3, 60, 4.12]]</t>
   </si>
   <si>
     <t>501QD</t>

--- a/QD_data.xlsx
+++ b/QD_data.xlsx
@@ -28,112 +28,112 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[2778, 2, 5, 0.2], [6935, 2, 7, 1.05], [6936, 2, 4, 1.57], [305, 2, 4, 0.53], [8672, 2, 5, 0.58], [615, 2, 4, 0.71], [1504, 2, 5, 0.37], [2775, 2, 5, 0.2], [145, 2, 5, 0.4], [2776, 2, 4, 0.8], [8853, 2, 4, 1.54], [2327, 2, 4, 0.63], [12721, 2, 5, 0.73], [130, 1, 4, 0.2], [143, 2, 4, 1.01], [146, 2, 4, 0.56], [2328, 2, 4, 0.78], [11681, 2, 5, 0.94], [11737, 2, 4, 0.53], [616, 2, 4, 1.09], [5491, 2, 4, 0.56], [141, 2, 4, 0.79], [362, 2, 5, 0.2], [144, 2, 4, 0.44], [2497, 2, 4, 0.45], [205, 2, 4, 0.46], [8650, 2, 4, 0.39], [5493, 2, 4, 0.2], [417, 2, 5, 0.57], [8676, 2, 4, 0.47], [8673, 2, 4, 0.24], [3670, 2, 4, 1.02], [2774, 2, 5, 0.33], [8648, 2, 4, 1.91], [589, 2, 5, 0.2], [3, 2, 5, 0.53], [206, 2, 4, 0.2], [6097, 80, 4, 1.14], [2423, 29, 4, 1.16], [22247, 2, 4, 1.01], [11836, 2, 4, 0.49], [6497, 1, 4, 0.5], [8674, 2, 5, 0.49], [624, 2, 4, 1.26], [12343, 1, 4, 0.87], [2055, 3, 4, 1.18], [2423, 80, 4, 1.1], [523, 2, 4, 0.68], [12344, 1, 4, 0.87], [593, 2, 5, 0.45], [6097, 29, 4, 1.14], [6098, 80, 5, 0.58], [12720, 2, 4, 0.82], [12345, 1, 4, 0.87], [11739, 2, 4, 0.53], [75, 2, 4, 1.17], [8915, 2, 4, 0.41], [88, 10, 9, 0.82], [326, 2, 4, 1.54], [6494, 1, 4, 0.46], [60, 3, 6, 0.19], [13260, 29, 4, 0.36], [142, 2, 4, 0.79], [3429, 15, 4, 0.46], [1492, 1, 4, 0.62], [411, 2, 4, 0.57], [21712, 3, 13, 0.67], [412, 1, 4, 1.0], [2422, 80, 4, 1.31], [1050, 2, 4, 0.38], [10149, 3, 13, 1.12], [2422, 29, 5, 1.19], [378, 2, 4, 1.16], [6098, 29, 4, 1.08], [12346, 1, 4, 0.87], [151, 1, 4, 0.75], [7704, 2, 4, 1.15], [11738, 2, 4, 0.53], [229, 1, 4, 2.0], [22316, 3, 4, 0.46], [1243, 2, 4, 0.72], [1049, 2, 4, 0.38], [20252, 2, 4, 0.58], [13264, 29, 4, 0.52], [345, 3, 4, 1.26], [13258, 29, 4, 1.26], [1490, 1, 4, 0.47], [12269, 2, 4, 0.51], [964, 15, 4, 0.36], [2438, 1, 4, 1.05], [10407, 10, 6, 1.27], [1163, 3, 5, 0.58], [5208, 3, 5, 0.74], [2331, 1, 4, 0.55], [2821, 3, 10, 0.23], [416, 1, 4, 1.66], [201, 3, 4, 1.26], [307, 2, 4, 1.04], [186, 3, 7, 0.5], [7004, 1, 4, 0.56], [149, 2, 4, 0.37], [13259, 29, 4, 1.13], [418, 2, 4, 0.54], [957, 2, 4, 0.57], [7705, 2, 4, 1.15], [12229, 2, 4, 0.52], [7706, 2, 4, 1.15], [11687, 2, 4, 0.56], [10406, 10, 7, 1.21], [410, 1, 4, 0.71], [3478, 2, 4, 0.57], [7036, 1, 4, 0.43], [9784, 1, 4, 0.91], [20255, 2, 4, 0.4], [8938, 2, 4, 0.58], [21713, 3, 7, 0.46], [12870, 1, 4, 2.33], [10408, 10, 6, 1.04], [5490, 2, 4, 0.49], [11402, 1, 4, 0.46], [11404, 2, 4, 0.45], [10410, 10, 6, 1.18], [11161, 1, 5, 1.8], [956, 2, 4, 0.53], [2438, 2, 5, 1.38], [2703, 3, 4, 2.2], [1886, 2, 4, 0.35], [19687, 1, 4, 1.21], [11490, 1, 4, 0.43], [107, 7, 5, 1.24], [21781, 2, 4, 0.47], [22125, 2, 4, 0.36], [11690, 2, 4, 0.36], [2778, 2, 140, 2.81], [6935, 2, 252, 6.0], [6936, 2, 252, 5.81], [305, 2, 132, 3.08], [8672, 2, 259, 3.33], [615, 2, 96, 3.4], [1504, 2, 183, 2.95], [2775, 2, 140, 3.13], [145, 2, 135, 2.84], [2776, 2, 140, 4.5], [8853, 2, 252, 5.13], [2327, 2, 135, 3.26], [12721, 2, 284, 3.49], [130, 1, 53, 2.98], [143, 2, 133, 3.04], [146, 2, 135, 3.13], [2328, 2, 135, 3.53], [11681, 2, 248, 5.48], [11737, 2, 56, 3.11], [616, 2, 107, 3.95], [5491, 2, 109, 2.82], [141, 2, 155, 4.16], [362, 2, 128, 2.96], [144, 2, 135, 2.91], [2497, 2, 183, 3.25], [205, 2, 109, 2.64], [8650, 2, 202, 4.44], [5493, 2, 98, 2.97], [417, 2, 139, 3.15], [8676, 2, 259, 2.97], [8673, 2, 260, 5.05], [3670, 2, 235, 5.79], [2774, 2, 183, 6.0], [8648, 2, 225, 5.29], [589, 2, 137, 2.91], [3, 2, 108, 3.09], [206, 2, 98, 2.64], [6097, 80, 61, 5.49], [2423, 29, 37, 4.87], [22247, 2, 255, 3.05], [11836, 2, 269, 2.69], [6497, 1, 27, 2.94], [8674, 2, 259, 3.57], [624, 2, 107, 4.11], [12343, 1, 610, 4.37], [2055, 3, 158, 4.31], [2423, 80, 185, 4.81], [523, 2, 155, 3.04], [12344, 1, 610, 3.38], [593, 2, 207, 2.86], [6097, 29, 30, 5.49], [6098, 80, 66, 3.97], [12720, 2, 284, 3.48], [12345, 1, 610, 4.37], [11739, 2, 56, 3.11], [75, 2, 144, 3.94], [8915, 2, 129, 2.36], [88, 10, 504, 3.62], [326, 2, 30, 3.9], [6494, 1, 52, 2.64], [60, 3, 730, 4.08], [13260, 29, 65, 2.76], [142, 2, 155, 4.16], [3429, 15, 53, 2.63], [1492, 1, 37, 2.92], [411, 2, 109, 2.83], [21712, 3, 2180, 2.89]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 4, 0.66], [2328, 2, 4, 0.28], [8650, 2, 5, 0.39], [362, 2, 4, 0.2], [5491, 2, 4, 0.6], [5493, 2, 4, 0.2], [130, 1, 5, 0.48], [589, 2, 4, 0.44], [2327, 2, 4, 0.2], [326, 2, 4, 0.97], [11685, 2, 4, 1.41], [8672, 2, 5, 0.58], [417, 2, 4, 0.56], [6935, 2, 8, 1.3], [205, 2, 4, 0.37], [11681, 2, 5, 1.41], [206, 2, 4, 0.2], [8648, 2, 4, 1.7], [6936, 2, 5, 1.32], [142, 2, 4, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 0.55], [12721, 2, 5, 0.97], [11838, 2, 4, 0.2], [2049, 3, 9, 0.47], [1446, 2, 4, 0.78], [523, 2, 4, 0.56], [615, 2, 4, 1.55], [8676, 2, 4, 0.49], [11737, 2, 4, 1.04], [305, 2, 5, 0.53], [616, 2, 4, 1.29], [413, 1, 5, 0.51], [412, 1, 4, 1.0], [411, 2, 4, 0.52], [11739, 2, 4, 1.04], [10574, 3, 5, 1.26], [11835, 2, 4, 0.55], [145, 2, 5, 0.4], [8675, 2, 4, 0.6], [2775, 2, 4, 0.42], [1429, 2, 4, 0.48], [76, 2, 4, 1.11], [8673, 2, 4, 1.45], [143, 2, 4, 0.65], [8674, 2, 4, 0.49], [11836, 2, 4, 0.2], [6158, 2, 5, 1.33], [8938, 2, 4, 0.97], [146, 2, 4, 0.62], [151, 1, 4, 0.75], [12720, 2, 4, 0.82], [2776, 2, 4, 0.75], [10149, 3, 13, 0.39], [3495, 3, 13, 0.85], [2055, 3, 4, 1.18], [75, 2, 4, 1.17], [2057, 3, 4, 1.0], [11738, 2, 4, 1.04], [144, 2, 4, 0.52], [8939, 2, 4, 0.94], [416, 1, 4, 0.73], [7885, 4, 5, 0.44], [22316, 3, 5, 0.19], [88, 10, 8, 0.95], [159, 3, 5, 0.72], [2859, 15, 4, 0.44], [7084, 3, 4, 0.94], [418, 2, 4, 0.2], [10993, 2, 4, 0.49], [20252, 2, 4, 0.37], [9784, 1, 4, 0.88], [7705, 2, 4, 1.15], [5165, 1, 4, 1.11], [410, 1, 4, 0.47], [12526, 2, 4, 0.73], [11844, 2, 4, 0.47], [414, 1, 4, 0.73], [2423, 80, 5, 1.25], [12351, 1, 5, 0.61], [2424, 29, 5, 0.55], [378, 2, 4, 1.16], [2423, 29, 4, 1.16], [12345, 1, 4, 0.61], [60, 3, 5, 2.26], [950, 1, 4, 0.39], [6494, 1, 4, 0.46], [11490, 1, 4, 0.48], [2424, 80, 4, 0.43], [12373, 1, 5, 0.45], [13023, 3, 6, 1.51], [201, 3, 4, 1.1], [13034, 3, 5, 1.37], [1519, 3, 9, 0.4], [11489, 1, 4, 0.37], [5208, 3, 5, 0.54], [345, 3, 4, 0.76], [11770, 1, 4, 0.48], [3, 2, 4, 3.1], [159, 1, 4, 0.73], [6952, 1, 4, 1.09], [3430, 15, 4, 1.23], [20927, 1, 4, 0.48], [11954, 1, 4, 0.42], [7886, 4, 5, 0.44], [432, 3, 4, 2.04], [3429, 15, 4, 0.46], [11504, 2, 4, 0.2], [566, 2, 4, 0.5], [13928, 1, 4, 0.45], [11811, 1, 4, 0.38], [5584, 3, 4, 1.36], [114, 3, 4, 1.64], [2331, 1, 4, 0.79], [10407, 10, 6, 1.27], [1492, 1, 4, 0.62], [105, 3, 4, 1.64], [7004, 1, 4, 0.99], [1490, 1, 4, 1.38], [11089, 1, 4, 0.39], [2703, 3, 4, 2.2], [6098, 80, 4, 1.16], [8274, 3, 4, 2.3], [11674, 1, 4, 0.36], [1886, 2, 4, 0.44], [12348, 1, 4, 0.61], [10410, 10, 6, 1.18], [94, 4, 4, 1.77], [3891, 1, 4, 2.39], [11953, 1, 4, 0.46], [6097, 80, 4, 1.86], [22317, 3, 5, 0.52], [9082, 3, 15, 1.25], [141, 2, 156, 3.01], [2328, 2, 135, 3.53], [8650, 2, 201, 4.44], [362, 2, 128, 2.98], [5491, 2, 108, 2.9], [5493, 2, 97, 2.79], [130, 1, 34, 2.98], [589, 2, 137, 2.91], [2327, 2, 135, 3.26], [326, 2, 81, 3.64], [11685, 2, 247, 6.0], [8672, 2, 258, 3.33], [417, 2, 156, 2.82], [6935, 2, 254, 5.82], [205, 2, 109, 2.53], [11681, 2, 247, 5.84], [206, 2, 81, 2.64], [8648, 2, 201, 4.32], [6936, 2, 254, 5.23], [142, 2, 140, 3.03], [11837, 2, 269, 2.79], [12721, 2, 255, 3.19], [11838, 2, 242, 3.09], [2049, 3, 495, 3.27], [1446, 2, 76, 3.25], [523, 2, 156, 2.81], [615, 2, 107, 4.63], [8676, 2, 287, 4.22], [11737, 2, 57, 3.69], [305, 2, 132, 3.08], [616, 2, 107, 4.15], [413, 1, 77, 3.05], [412, 1, 75, 3.02], [411, 2, 109, 2.74], [11739, 2, 57, 3.69], [10574, 3, 450, 4.6], [11835, 2, 269, 2.79], [145, 2, 135, 2.84], [8675, 2, 287, 3.21], [2775, 2, 157, 2.56], [1429, 2, 153, 2.68], [76, 2, 109, 3.83], [8673, 2, 284, 5.17], [143, 2, 148, 2.98], [8674, 2, 287, 3.25], [11836, 2, 242, 2.89], [6158, 2, 260, 4.44], [8938, 2, 190, 3.57], [146, 2, 151, 2.93], [151, 1, 33, 2.81], [12720, 2, 284, 3.48], [2776, 2, 157, 3.16], [10149, 3, 872, 3.26], [3495, 3, 965, 3.31], [2055, 3, 158, 4.31], [75, 2, 144, 3.94], [2057, 3, 158, 4.31], [11738, 2, 57, 3.69], [144, 2, 151, 2.74], [8939, 2, 63, 4.3], [416, 1, 86, 3.13], [7885, 4, 40, 2.38], [22316, 3, 286, 2.96], [88, 10, 561, 4.69], [159, 3, 709, 3.16], [2859, 15, 69, 2.6], [7084, 3, 116, 3.92]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 4, 1.08], [6935, 2, 8, 0.99], [2049, 3, 8, 0.41], [362, 2, 4, 0.92], [589, 2, 5, 0.37], [75, 2, 4, 0.39], [141, 2, 4, 0.66], [1776, 1, 4, 0.2], [205, 2, 4, 0.38], [8915, 2, 5, 0.4], [2778, 2, 4, 0.2], [8672, 2, 6, 0.51], [6936, 2, 5, 1.05], [593, 2, 5, 0.44], [7886, 4, 4, 0.57], [305, 2, 4, 0.5], [206, 2, 4, 0.2], [151, 1, 5, 0.47], [8648, 2, 4, 1.08], [1777, 1, 4, 0.8], [2328, 2, 5, 0.35], [88, 10, 9, 0.55], [11681, 2, 5, 1.87], [990, 2, 4, 0.26], [8650, 2, 5, 1.09], [412, 1, 4, 0.62], [5151, 2, 4, 0.75], [2050, 3, 4, 0.8], [76, 2, 4, 1.06], [144, 2, 4, 0.49], [345, 3, 5, 0.44], [10149, 3, 17, 1.82], [2991, 3, 4, 1.6], [22247, 2, 4, 0.54], [57, 1, 4, 0.38], [3478, 2, 4, 0.89], [146, 2, 4, 1.0], [7004, 1, 5, 0.36], [45, 2, 4, 0.56], [2054, 3, 4, 0.51], [143, 2, 4, 0.46], [417, 2, 4, 0.45], [413, 1, 4, 0.81], [21793, 1, 5, 0.45], [167, 3, 5, 0.49], [201, 3, 5, 0.2], [74, 1, 4, 1.75], [1446, 2, 4, 0.54], [346, 1, 4, 0.2], [2055, 3, 4, 0.5], [168, 3, 4, 0.32], [10, 2, 4, 0.45], [11234, 2, 4, 0.2], [7084, 3, 4, 0.36], [1429, 2, 4, 0.2], [7036, 1, 4, 1.8], [12721, 2, 6, 0.49], [3495, 3, 13, 0.52], [5081, 2, 4, 0.44], [8649, 2, 4, 1.29], [308, 1, 5, 0.73], [13028, 3, 4, 0.47], [10825, 21, 8, 1.34], [12870, 1, 4, 1.54], [79, 1, 4, 0.38], [1492, 1, 4, 0.58], [96, 11, 14, 0.46], [23, 1, 4, 0.2], [1006, 2, 4, 0.55], [3893, 1, 5, 0.2], [418, 2, 4, 0.43], [1504, 2, 4, 0.2], [145, 2, 4, 0.43], [5208, 3, 6, 0.19], [9827, 3, 4, 0.2], [3891, 1, 4, 0.2], [432, 3, 5, 0.41], [7005, 1, 5, 0.36], [94, 4, 4, 1.24], [1490, 1, 5, 0.2], [8853, 2, 5, 1.01], [13260, 29, 4, 0.4], [5812, 3, 5, 2.01], [416, 1, 4, 0.81], [8651, 2, 4, 0.8], [12353, 1, 4, 1.55], [20256, 2, 4, 0.2], [8939, 2, 5, 0.2], [21269, 3, 4, 0.95], [13280, 1, 4, 0.81], [12349, 1, 4, 1.63], [950, 1, 4, 0.46], [33, 1, 4, 0.53], [5086, 1, 5, 1.08], [998, 2, 5, 0.73], [12350, 1, 4, 0.62], [9069, 1, 4, 0.97], [1243, 2, 4, 0.89], [229, 1, 4, 1.05], [2878, 1, 4, 0.74], [140, 2, 4, 0.63], [2049, 1, 4, 0.2], [7567, 3, 4, 1.11], [20927, 1, 4, 0.2], [126, 2, 4, 0.93], [346, 3, 5, 0.19], [3980, 4, 4, 1.31], [1703, 2, 4, 0.41], [8274, 3, 4, 0.39], [9691, 1, 4, 1.09], [35, 1, 4, 0.48], [5209, 3, 4, 0.19], [1070, 7, 10, 0.2], [997, 2, 4, 1.03], [5584, 3, 4, 1.74], [11811, 1, 4, 1.0], [1519, 3, 10, 0.4], [11914, 1, 5, 0.5], [5660, 2, 5, 0.9], [856, 1, 4, 0.38], [8898, 3, 4, 2.43], [1091, 1, 4, 0.2], [5513, 2, 4, 0.44], [8926, 1, 4, 1.35], [523, 2, 4, 0.63], [11767, 1, 4, 0.48], [2775, 2, 4, 0.2], [9372, 1, 4, 0.39], [9081, 3, 7, 1.8], [13034, 3, 5, 0.66], [20255, 2, 5, 0.2], [307, 2, 4, 1.14], [11808, 1, 5, 0.2], [326, 2, 84, 3.42], [6935, 2, 235, 4.09], [2049, 3, 450, 1.94], [362, 2, 131, 2.84], [589, 2, 142, 1.93], [75, 2, 121, 1.98], [141, 2, 143, 3.4], [1776, 1, 90, 1.74], [205, 2, 101, 1.85], [8915, 2, 179, 1.9], [2778, 2, 130, 2.06], [8672, 2, 235, 2.17], [6936, 2, 235, 4.51], [593, 2, 211, 2.16], [7886, 4, 132, 2.19], [305, 2, 121, 2.18], [206, 2, 90, 1.99], [151, 1, 54, 1.63], [8648, 2, 186, 3.41], [1777, 1, 90, 3.67], [2328, 2, 126, 1.92], [88, 10, 463, 2.3], [11681, 2, 227, 5.43], [990, 2, 43, 2.16], [8650, 2, 186, 3.43], [412, 1, 69, 2.41], [5151, 2, 19, 3.62], [2050, 3, 433, 3.55], [76, 2, 90, 3.12], [144, 2, 139, 2.06], [345, 3, 248, 2.01], [10149, 3, 715, 4.79], [2991, 3, 133, 4.91], [22247, 2, 234, 2.54], [57, 1, 79, 1.85], [3478, 2, 69, 3.31], [146, 2, 125, 2.18], [7004, 1, 65, 1.93], [45, 2, 90, 4.21], [2054, 3, 389, 2.21], [143, 2, 122, 2.11], [417, 2, 143, 3.4], [413, 1, 79, 3.28], [21793, 1, 196, 2.1], [167, 3, 188, 2.16], [201, 3, 248, 1.94], [74, 1, 163, 3.73], [1446, 2, 126, 3.18], [346, 1, 131, 2.05], [2055, 3, 389, 2.18], [168, 3, 339, 2.77], [10, 2, 97, 2.76], [11234, 2, 153, 2.04], [7084, 3, 107, 1.93], [1429, 2, 126, 2.47], [7036, 1, 105, 3.84], [12721, 2, 234, 2.13], [3495, 3, 797, 2.2], [5081, 2, 177, 1.96], [8649, 2, 186, 3.64], [308, 1, 139, 3.98], [13028, 3, 122, 2.14], [10825, 21, 575, 3.62], [12870, 1, 113, 3.19], [79, 1, 44, 1.85], [1492, 1, 30, 3.25], [96, 11, 784, 1.97]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 10, 0.93], [2327, 2, 4, 0.52], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6935, 2, 6, 1.77], [2328, 2, 4, 0.58], [5493, 2, 4, 1.23], [130, 1, 4, 0.98], [305, 2, 4, 0.45], [615, 2, 4, 0.2], [616, 2, 5, 0.2], [6936, 2, 5, 1.74], [326, 2, 5, 1.15], [8650, 2, 4, 0.39], [8648, 2, 4, 1.05], [1446, 2, 4, 0.2], [2049, 3, 5, 0.42], [10, 2, 4, 0.2], [143, 2, 5, 0.58], [159, 3, 5, 0.67], [593, 2, 4, 0.37], [205, 2, 4, 0.43], [5491, 2, 4, 0.58], [2775, 2, 4, 0.2], [7036, 1, 4, 0.94], [144, 2, 5, 0.53], [3840, 1, 5, 0.29], [151, 1, 4, 0.75], [94, 4, 4, 1.91], [434, 2, 5, 0.2], [8938, 2, 4, 0.52], [990, 2, 4, 0.2], [3893, 1, 4, 0.2], [146, 2, 4, 1.07], [8853, 2, 4, 1.79], [1504, 2, 4, 0.93], [12224, 1, 4, 0.46], [624, 2, 4, 1.1], [1429, 2, 4, 0.2], [3891, 1, 4, 0.2], [2776, 2, 4, 0.2], [206, 2, 4, 0.37], [2055, 3, 4, 0.46], [362, 2, 4, 0.5], [141, 2, 4, 0.39], [2057, 3, 4, 0.46], [75, 2, 4, 0.39], [11681, 2, 5, 1.33], [11404, 2, 4, 0.2], [5208, 3, 5, 0.19], [8649, 2, 4, 1.53], [3889, 1, 4, 0.35], [1007, 2, 4, 0.46], [10574, 3, 5, 1.86], [11234, 2, 4, 0.75], [10993, 2, 4, 0.7], [7886, 4, 4, 0.46], [12870, 1, 5, 0.72], [21793, 1, 4, 0.5], [10149, 3, 15, 0.39], [3980, 4, 4, 0.73], [2050, 3, 4, 0.46], [12353, 1, 4, 0.66], [145, 2, 4, 1.01], [7084, 3, 4, 0.86], [11811, 1, 4, 0.2], [8672, 2, 4, 1.48], [20927, 1, 4, 0.95], [998, 2, 4, 1.0], [9760, 29, 4, 0.37], [997, 2, 4, 1.42], [2436, 4, 4, 0.2], [1006, 2, 5, 0.54], [1886, 2, 4, 0.2], [972, 3, 5, 0.51], [2424, 80, 4, 0.99], [3, 2, 4, 0.62], [346, 3, 5, 0.19], [229, 1, 4, 0.47], [6158, 2, 5, 0.48], [3495, 3, 11, 0.56], [12346, 1, 4, 0.66], [5076, 1, 4, 0.71], [7887, 4, 4, 0.47], [12345, 1, 4, 0.66], [20252, 2, 4, 0.38], [126, 2, 4, 1.27], [11953, 1, 4, 0.46], [74, 1, 4, 1.97], [9372, 1, 4, 1.42], [11770, 1, 4, 0.88], [140, 2, 4, 1.27], [12344, 1, 4, 0.66], [8939, 2, 4, 0.2], [11954, 1, 4, 0.38], [11685, 2, 5, 1.33], [1492, 1, 4, 0.2], [12352, 1, 4, 0.66], [996, 2, 4, 1.16], [12721, 2, 4, 2.31], [2774, 2, 4, 0.63], [20256, 2, 4, 0.2], [12350, 1, 4, 0.66], [3981, 3, 11, 0.23], [9081, 3, 7, 0.48], [9491, 21, 12, 0.22], [5434, 1, 4, 1.0], [2423, 80, 4, 0.75], [6497, 1, 4, 0.63], [12343, 1, 4, 0.66], [12229, 2, 4, 0.47], [5584, 3, 4, 1.75], [2438, 2, 6, 0.49], [10388, 2, 4, 0.37], [12351, 1, 4, 0.66], [10407, 10, 7, 1.55], [11179, 1, 4, 0.45], [6496, 1, 4, 1.89], [22317, 3, 4, 0.6], [7573, 1, 8, 2.02], [823, 1, 4, 0.55], [5209, 3, 5, 0.19], [3900, 3, 4, 1.76], [2805, 137, 4, 0.89], [8898, 3, 5, 1.44], [12526, 2, 4, 0.71], [11812, 1, 4, 0.2], [2424, 29, 4, 0.55], [3975, 4, 5, 1.21], [4253, 1, 4, 0.54], [11490, 1, 4, 0.35], [336, 15, 4, 0.97], [88, 10, 490, 3.94], [2327, 2, 132, 2.93], [8915, 2, 165, 2.96], [589, 2, 134, 2.97], [2778, 2, 137, 2.92], [6935, 2, 244, 6.0], [2328, 2, 132, 3.05], [5493, 2, 104, 3.91], [305, 2, 128, 2.8], [615, 2, 93, 3.01], [616, 2, 93, 2.64], [6936, 2, 244, 5.39], [326, 2, 77, 4.1], [8650, 2, 196, 3.45], [8648, 2, 196, 3.91], [1446, 2, 134, 3.2], [2049, 3, 360, 2.34], [10, 2, 91, 2.65], [143, 2, 130, 3.03], [159, 3, 690, 2.82], [593, 2, 223, 2.53], [205, 2, 95, 2.77], [5491, 2, 93, 3.05], [2775, 2, 137, 2.92], [7036, 1, 113, 4.28], [3840, 1, 150, 3.43], [151, 1, 32, 2.69], [94, 4, 105, 4.77], [434, 2, 93, 2.69], [8938, 2, 125, 2.43], [990, 2, 19, 2.69], [3893, 1, 109, 2.96], [146, 2, 132, 3.02], [8853, 2, 272, 5.15], [1504, 2, 180, 3.69], [12224, 1, 162, 2.49], [624, 2, 104, 3.83], [1429, 2, 134, 2.89], [3891, 1, 109, 2.96], [2776, 2, 137, 3.16], [206, 2, 106, 2.39], [2055, 3, 314, 2.32], [362, 2, 124, 2.89], [141, 2, 136, 2.69], [2057, 3, 314, 2.32], [75, 2, 126, 2.69], [11681, 2, 234, 5.43], [11404, 2, 92, 3.15], [5208, 3, 493, 2.87], [8649, 2, 218, 4.79], [3889, 1, 122, 2.29], [1007, 2, 264, 2.49], [11234, 2, 161, 3.27], [10993, 2, 54, 2.93], [7886, 4, 70, 2.16], [12870, 1, 121, 3.3], [21793, 1, 208, 2.89], [10149, 3, 763, 3.88], [3980, 4, 365, 4.41], [2050, 3, 314, 2.32], [12353, 1, 612, 2.87], [145, 2, 132, 2.92], [7084, 3, 127, 3.22], [11811, 1, 402, 2.78], [8672, 2, 247, 4.92], [20927, 1, 34, 2.64], [998, 2, 208, 4.81]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 1.31], [141, 2, 4, 0.4], [589, 2, 5, 0.2], [2778, 2, 4, 0.2], [6936, 2, 5, 0.71], [8648, 2, 4, 1.13], [362, 2, 4, 0.46], [2327, 2, 4, 0.39], [11681, 2, 9, 1.29], [8650, 2, 5, 0.84], [326, 2, 4, 0.77], [205, 2, 4, 0.2], [2328, 2, 4, 0.57], [1446, 2, 4, 0.28], [305, 2, 5, 0.88], [130, 1, 4, 0.2], [8649, 2, 5, 0.39], [2775, 2, 4, 0.2], [8853, 2, 5, 1.21], [361, 2, 4, 0.5], [2776, 2, 4, 0.2], [593, 2, 5, 0.48], [143, 2, 4, 1.13], [140, 2, 4, 0.77], [1429, 2, 4, 0.28], [206, 2, 4, 0.2], [5493, 2, 4, 0.2], [523, 2, 4, 0.4], [7004, 1, 4, 0.71], [413, 1, 4, 1.02], [7036, 1, 4, 1.58], [5491, 2, 4, 0.5], [412, 1, 4, 0.57], [21793, 1, 4, 1.03], [12350, 1, 4, 0.19], [151, 1, 4, 0.46], [1124, 2, 4, 0.64], [990, 2, 4, 0.2], [12353, 1, 5, 0.19], [5165, 1, 4, 0.42], [8915, 2, 5, 0.86], [615, 2, 4, 1.1], [583, 2, 4, 0.77], [417, 2, 4, 0.43], [21798, 1, 4, 0.36], [146, 2, 4, 0.64], [248, 1, 4, 0.2], [434, 2, 5, 0.2], [201, 3, 5, 0.47], [142, 2, 4, 0.48], [6097, 80, 4, 0.38], [11770, 1, 4, 0.43], [6952, 1, 4, 1.71], [2055, 3, 4, 0.81], [345, 3, 4, 0.47], [3891, 1, 4, 0.98], [9372, 1, 4, 0.58], [2057, 3, 4, 0.81], [616, 2, 4, 0.86], [7084, 3, 4, 1.0], [3670, 2, 4, 1.47], [3893, 1, 4, 0.64], [5165, 2, 7, 1.41], [12346, 1, 5, 0.19], [12870, 1, 4, 1.18], [12343, 1, 4, 0.49], [10574, 3, 5, 1.39], [1886, 2, 4, 0.36], [2424, 80, 4, 0.43], [346, 3, 4, 0.2], [3334, 5, 5, 1.7], [20927, 1, 4, 0.38], [12351, 1, 4, 0.38], [7885, 4, 4, 0.49], [6098, 80, 4, 1.46], [6097, 29, 4, 0.88], [11089, 1, 4, 0.44], [12345, 1, 4, 0.47], [10149, 3, 13, 0.91], [20256, 2, 4, 0.2], [147, 1, 4, 0.53], [22316, 3, 4, 0.36], [1492, 1, 4, 0.58], [11953, 1, 4, 0.44], [432, 3, 5, 0.62], [11491, 2, 4, 0.51], [20252, 2, 4, 0.2], [4032, 29, 4, 0.47], [418, 2, 4, 0.72], [1490, 1, 4, 0.42], [1519, 3, 10, 0.4], [2423, 80, 4, 1.66], [11952, 1, 4, 0.46], [411, 2, 4, 0.5], [12304, 1, 4, 0.2], [5151, 2, 4, 0.62], [229, 1, 4, 2.07], [11769, 1, 4, 0.48], [3576, 25, 4, 0.91], [972, 3, 5, 0.46], [2331, 1, 4, 1.19], [346, 1, 4, 0.2], [995, 2, 4, 0.41], [416, 1, 4, 0.99], [13034, 3, 4, 1.31], [2424, 29, 4, 0.41], [11426, 25, 4, 0.58], [3, 2, 4, 0.55], [11737, 2, 4, 0.5], [5076, 1, 4, 0.63], [11767, 1, 4, 0.48], [439, 1, 4, 1.47], [11490, 1, 4, 0.56], [2805, 137, 4, 0.98], [2160, 68, 4, 0.56], [6494, 1, 4, 1.59], [950, 1, 4, 0.36], [414, 1, 4, 0.66], [3575, 25, 4, 0.98], [12764, 2, 5, 0.51], [1701, 2, 4, 1.97], [11180, 1, 4, 0.54], [8677, 3, 5, 1.11], [75, 2, 4, 0.37], [11586, 1, 7, 1.42], [3577, 25, 4, 0.42], [3478, 2, 4, 0.9], [11585, 29, 4, 1.12], [11813, 1, 4, 1.11], [13023, 3, 5, 1.01], [9998, 80, 4, 0.81], [2438, 2, 5, 1.05], [12526, 2, 4, 0.48], [6935, 2, 212, 5.03], [141, 2, 119, 2.71], [589, 2, 118, 2.6], [2778, 2, 119, 2.86], [6936, 2, 212, 5.43], [8648, 2, 171, 3.75], [362, 2, 108, 2.52], [2327, 2, 129, 3.24], [11681, 2, 208, 4.91], [8650, 2, 171, 3.23], [326, 2, 78, 2.83], [205, 2, 84, 2.22], [2328, 2, 116, 2.74], [1446, 2, 118, 3.11], [305, 2, 113, 3.31], [130, 1, 45, 1.55], [8649, 2, 171, 3.7], [2775, 2, 119, 2.86], [8853, 2, 212, 4.93], [361, 2, 119, 2.6], [2776, 2, 119, 2.86], [593, 2, 177, 2.55], [143, 2, 114, 3.07], [140, 2, 78, 2.83], [1429, 2, 118, 3.41], [206, 2, 84, 2.51], [5493, 2, 83, 2.55], [523, 2, 119, 2.68], [7004, 1, 68, 2.72], [413, 1, 66, 2.92], [7036, 1, 99, 3.67], [5491, 2, 93, 2.34], [412, 1, 72, 2.66], [21793, 1, 208, 5.07], [12350, 1, 482, 2.38], [151, 1, 57, 2.33], [1124, 2, 161, 2.69], [990, 2, 40, 2.5], [12353, 1, 482, 2.43], [5165, 1, 26, 3.83], [8915, 2, 163, 2.9], [615, 2, 92, 3.67], [583, 2, 78, 2.83], [417, 2, 119, 2.48], [21798, 1, 120, 2.36], [146, 2, 129, 4.34], [248, 1, 42, 2.08], [434, 2, 82, 2.58], [201, 3, 231, 2.55], [142, 2, 119, 2.56], [6097, 80, 54, 5.58], [11770, 1, 189, 2.22], [6952, 1, 145, 4.06], [2055, 3, 410, 2.91], [345, 3, 231, 2.55], [3891, 1, 107, 3.22], [9372, 1, 195, 2.96], [2057, 3, 410, 2.91], [616, 2, 92, 3.0], [7084, 3, 99, 3.51], [3670, 2, 212, 4.13], [3893, 1, 107, 3.22], [12346, 1, 482, 2.38], [12870, 1, 119, 3.63], [12343, 1, 536, 2.32], [10574, 3, 392, 3.24], [1886, 2, 135, 2.08]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.18], [615, 2, 4, 1.69], [2778, 2, 5, 0.2], [305, 2, 4, 0.48], [5493, 2, 4, 1.52], [6936, 2, 4, 1.18], [130, 1, 4, 0.97], [205, 2, 4, 0.53], [616, 2, 4, 1.5], [1504, 2, 5, 0.57], [144, 2, 4, 0.53], [8648, 2, 4, 0.7], [2049, 3, 9, 0.41], [88, 10, 8, 0.37], [8915, 2, 5, 1.45], [326, 2, 4, 1.12], [7036, 1, 4, 1.57], [8650, 2, 5, 0.57], [593, 2, 5, 0.45], [2327, 2, 5, 0.47], [11681, 2, 4, 1.35], [8853, 2, 4, 1.18], [141, 2, 4, 0.48], [2775, 2, 5, 0.2], [206, 2, 4, 0.2], [151, 1, 4, 0.59], [7004, 1, 5, 0.35], [248, 1, 4, 0.43], [11685, 2, 4, 1.88], [3840, 1, 4, 0.39], [3891, 1, 5, 0.2], [2328, 2, 4, 0.5], [2050, 3, 5, 0.34], [5491, 2, 4, 0.54], [2497, 2, 4, 0.83], [2055, 3, 4, 1.75], [143, 2, 4, 0.58], [434, 2, 4, 0.47], [3980, 4, 4, 1.2], [990, 2, 4, 0.2], [2054, 3, 4, 0.34], [624, 2, 4, 1.35], [8649, 2, 4, 1.53], [362, 2, 4, 0.85], [2776, 2, 4, 0.67], [12870, 1, 4, 0.92], [2057, 3, 5, 0.34], [12350, 1, 4, 0.66], [7886, 4, 5, 0.45], [10574, 3, 5, 1.86], [5165, 1, 4, 0.58], [1006, 2, 4, 0.58], [1446, 2, 4, 0.39], [3495, 3, 13, 0.85], [94, 4, 4, 0.84], [75, 2, 4, 1.49], [523, 2, 4, 1.0], [7084, 3, 4, 0.58], [2991, 3, 4, 1.1], [7005, 1, 4, 0.94], [10149, 3, 13, 0.39], [3975, 4, 4, 1.26], [21793, 1, 4, 2.3], [9760, 29, 4, 0.2], [11404, 2, 5, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.66], [6158, 2, 5, 0.2], [20927, 1, 4, 0.67], [3981, 3, 15, 1.15], [5165, 2, 5, 1.11], [417, 2, 4, 0.54], [2912, 1, 4, 0.2], [3982, 3, 11, 1.18], [8939, 2, 4, 0.2], [1007, 2, 4, 0.51], [11953, 1, 4, 0.45], [2774, 2, 4, 1.06], [33, 1, 4, 1.06], [956, 2, 4, 0.47], [11772, 1, 5, 1.35], [286, 3, 5, 1.06], [1492, 1, 4, 0.7], [11767, 1, 4, 0.2], [336, 15, 4, 1.12], [972, 3, 4, 1.07], [11769, 1, 4, 0.2], [11490, 1, 4, 1.04], [11770, 1, 4, 0.48], [410, 1, 5, 0.54], [74, 1, 4, 1.16], [2912, 2, 5, 0.47], [389, 4, 5, 0.38], [6496, 1, 4, 0.47], [35, 1, 4, 0.57], [7567, 3, 5, 1.15], [411, 2, 4, 1.0], [12721, 2, 4, 0.99], [1413, 15, 4, 0.2], [4253, 1, 4, 0.82], [22317, 3, 4, 0.51], [140, 2, 4, 0.93], [8673, 2, 4, 0.47], [8121, 3, 5, 0.2], [1126, 2, 4, 0.58], [4176, 4, 4, 1.31], [2436, 4, 4, 0.2], [9372, 1, 4, 1.7], [21269, 3, 4, 2.24], [8676, 2, 4, 1.7], [8677, 3, 5, 0.4], [22247, 2, 4, 1.38], [10388, 2, 4, 1.08], [10936, 2, 4, 1.7], [12343, 1, 4, 0.66], [11085, 2, 5, 1.27], [12526, 2, 4, 1.08], [9784, 1, 4, 0.47], [1274, 1, 4, 0.23], [6494, 1, 5, 0.29], [12269, 2, 4, 1.03], [37, 1, 4, 0.66], [13023, 3, 4, 1.26], [1429, 2, 4, 0.5], [345, 3, 4, 1.31], [7573, 1, 5, 1.35], [12225, 1, 4, 0.69], [12271, 2, 4, 1.01], [3, 2, 4, 0.38], [96, 11, 12, 0.38], [3577, 25, 4, 0.48], [9, 1, 4, 0.36], [10408, 10, 5, 1.37], [6935, 2, 214, 5.9], [615, 2, 91, 4.78], [2778, 2, 121, 2.77], [305, 2, 113, 2.58], [5493, 2, 91, 4.44], [6936, 2, 214, 5.92], [130, 1, 27, 2.58], [205, 2, 84, 2.69], [616, 2, 91, 4.41], [1504, 2, 156, 2.75], [144, 2, 117, 4.4], [8648, 2, 174, 2.99], [2049, 3, 421, 2.25], [88, 10, 450, 3.45], [8915, 2, 65, 4.29], [326, 2, 70, 3.57], [7036, 1, 99, 3.83], [8650, 2, 174, 2.75], [593, 2, 177, 2.78], [2327, 2, 117, 2.57], [11681, 2, 212, 5.01], [8853, 2, 214, 5.93], [141, 2, 119, 2.6], [2775, 2, 121, 2.77], [206, 2, 84, 2.55], [151, 1, 58, 2.7], [7004, 1, 61, 2.36], [248, 1, 47, 2.25], [11685, 2, 212, 5.4], [3840, 1, 150, 2.17], [3891, 1, 97, 2.88], [2328, 2, 117, 2.62], [2050, 3, 356, 2.34], [5491, 2, 91, 3.06], [2497, 2, 174, 4.13], [2055, 3, 396, 4.89], [143, 2, 115, 2.77], [434, 2, 56, 2.07], [3980, 4, 374, 4.07], [990, 2, 40, 2.77], [2054, 3, 356, 2.34], [624, 2, 91, 5.38], [8649, 2, 194, 4.25], [362, 2, 109, 3.27], [2776, 2, 121, 3.86], [12870, 1, 117, 5.16], [2057, 3, 356, 2.34], [12350, 1, 543, 2.67], [7886, 4, 43, 2.23], [10574, 3, 393, 4.07], [5165, 1, 26, 3.74], [1006, 2, 197, 2.83], [1446, 2, 117, 2.62], [3495, 3, 832, 2.92], [94, 4, 93, 5.25], [75, 2, 112, 3.52], [523, 2, 119, 2.64], [7084, 3, 58, 2.79], [2991, 3, 125, 5.99], [7005, 1, 68, 3.18], [10149, 3, 752, 2.93], [3975, 4, 374, 4.2], [21793, 1, 174, 5.26], [9760, 29, 55, 2.5], [11404, 2, 46, 2.88], [142, 2, 133, 2.39], [12346, 1, 543, 2.67]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 1.38], [305, 2, 4, 0.53], [2328, 2, 4, 0.78], [130, 1, 4, 0.2], [141, 2, 5, 0.2], [2778, 2, 5, 0.47], [8650, 2, 4, 0.67], [5491, 2, 4, 0.63], [2327, 2, 4, 0.63], [8672, 2, 5, 0.58], [6936, 2, 4, 1.4], [143, 2, 4, 1.14], [11681, 2, 5, 1.41], [248, 1, 4, 0.46], [145, 2, 4, 0.4], [205, 2, 4, 0.56], [5493, 2, 4, 1.24], [146, 2, 4, 0.56], [417, 2, 4, 0.52], [589, 2, 4, 0.2], [75, 2, 4, 0.37], [11737, 2, 4, 0.38], [11838, 2, 4, 0.57], [1124, 2, 6, 0.2], [523, 2, 5, 0.2], [8648, 2, 4, 1.54], [8853, 2, 4, 1.38], [12721, 2, 6, 0.47], [615, 2, 4, 1.28], [1005, 2, 5, 0.2], [326, 2, 5, 0.47], [206, 2, 5, 0.2], [8915, 2, 4, 0.2], [8673, 2, 5, 0.74], [144, 2, 5, 0.44], [11739, 2, 4, 0.38], [88, 10, 9, 0.82], [434, 2, 4, 0.73], [2776, 2, 4, 0.41], [142, 2, 4, 0.2], [151, 1, 4, 0.75], [8676, 2, 4, 0.47], [6158, 2, 5, 0.2], [2424, 29, 4, 0.2], [8649, 2, 4, 1.19], [2423, 29, 4, 1.81], [11738, 2, 4, 0.38], [2497, 2, 4, 0.55], [7704, 2, 4, 1.08], [2424, 80, 4, 0.49], [1413, 15, 4, 0.77], [10574, 3, 6, 1.26], [2423, 80, 4, 1.75], [3670, 2, 4, 1.96], [11836, 2, 4, 0.2], [7705, 2, 4, 1.08], [2054, 3, 4, 0.4], [3, 2, 4, 0.43], [2859, 15, 4, 1.25], [412, 1, 4, 0.58], [378, 2, 4, 2.48], [7706, 2, 4, 1.08], [12720, 2, 4, 0.98], [22316, 3, 4, 0.46], [2055, 3, 4, 0.47], [12344, 1, 4, 0.48], [10149, 3, 13, 1.12], [3478, 2, 4, 1.07], [74, 1, 5, 1.47], [3429, 15, 4, 0.46], [307, 2, 4, 1.5], [2774, 2, 4, 0.55], [6497, 1, 4, 0.44], [60, 3, 5, 0.41], [12526, 2, 4, 1.43], [7004, 1, 4, 1.02], [418, 2, 4, 0.81], [13928, 1, 4, 0.2], [411, 2, 4, 0.5], [11089, 1, 4, 0.39], [2057, 3, 4, 0.4], [413, 1, 4, 0.54], [11844, 2, 5, 0.2], [14037, 3, 4, 0.96], [7036, 1, 4, 0.43], [20252, 2, 4, 0.58], [2050, 3, 4, 0.4], [3893, 1, 5, 0.44], [13260, 29, 4, 0.67], [8274, 3, 4, 0.88], [6097, 80, 4, 0.64], [6952, 1, 4, 1.09], [3891, 1, 4, 2.08], [94, 4, 5, 1.09], [159, 3, 5, 0.72], [9784, 1, 4, 0.55], [1050, 2, 4, 0.36], [6494, 1, 4, 0.46], [7707, 2, 4, 0.72], [1490, 1, 4, 1.02], [11490, 1, 4, 0.47], [1413, 16, 4, 0.39], [414, 1, 4, 0.66], [7708, 2, 4, 1.15], [1243, 2, 5, 0.2], [3889, 1, 5, 0.37], [1492, 1, 4, 0.62], [565, 2, 4, 0.46], [5208, 3, 5, 0.97], [22317, 3, 5, 0.52], [7703, 2, 4, 1.15], [11491, 2, 4, 0.81], [21793, 1, 4, 0.95], [3495, 3, 13, 0.85], [229, 1, 4, 2.0], [345, 3, 4, 1.26], [410, 1, 4, 0.4], [2422, 80, 4, 1.75], [11504, 2, 4, 0.72], [6098, 80, 4, 1.14], [149, 2, 4, 0.52], [947, 15, 4, 0.39], [6630, 3, 4, 1.31], [3430, 15, 4, 1.23], [147, 1, 4, 0.52], [3674, 2, 4, 0.52], [416, 1, 4, 1.59], [2805, 137, 6, 1.85], [2331, 1, 4, 0.73], [247, 1, 4, 1.18], [9126, 1, 4, 0.47], [6098, 29, 4, 1.19], [8635, 3, 4, 0.89], [6935, 2, 253, 6.0], [305, 2, 132, 3.08], [2328, 2, 135, 3.53], [130, 1, 53, 2.48], [141, 2, 140, 2.84], [2778, 2, 156, 3.07], [8650, 2, 201, 4.37], [5491, 2, 106, 4.31], [2327, 2, 135, 3.26], [8672, 2, 258, 3.33], [6936, 2, 253, 5.42], [11681, 2, 276, 5.75], [248, 1, 37, 2.46], [145, 2, 135, 2.84], [205, 2, 109, 2.81], [5493, 2, 106, 4.23], [146, 2, 135, 3.13], [417, 2, 140, 3.05], [589, 2, 59, 2.91], [75, 2, 145, 3.42], [11737, 2, 57, 2.97], [11838, 2, 269, 2.83], [1124, 2, 168, 2.98], [523, 2, 140, 3.36], [8648, 2, 201, 4.01], [8853, 2, 253, 4.82], [12721, 2, 255, 3.19], [615, 2, 108, 4.14], [326, 2, 81, 3.64], [206, 2, 41, 2.64], [8915, 2, 171, 2.87], [8673, 2, 260, 5.05], [144, 2, 135, 2.91], [11739, 2, 57, 2.97], [88, 10, 504, 3.62], [434, 2, 107, 3.23], [2776, 2, 140, 3.77], [142, 2, 140, 3.16], [151, 1, 33, 2.81], [8676, 2, 258, 2.97], [6158, 2, 235, 2.82], [2424, 29, 24, 2.67], [8649, 2, 201, 3.38], [2423, 29, 32, 4.52], [11738, 2, 57, 2.97], [2497, 2, 184, 3.11], [7704, 2, 158, 3.18], [2424, 80, 153, 3.11], [10574, 3, 450, 4.6], [2423, 80, 162, 4.41], [3670, 2, 212, 5.55], [11836, 2, 242, 2.89], [7705, 2, 158, 3.18], [2054, 3, 473, 3.89], [3, 2, 108, 2.9], [2859, 15, 62, 3.48], [412, 1, 74, 3.17], [378, 2, 224, 6.0], [7706, 2, 158, 3.18], [12720, 2, 255, 2.99], [22316, 3, 318, 2.64], [2055, 3, 425, 2.76], [12344, 1, 620, 2.67], [10149, 3, 866, 4.0], [3478, 2, 43, 4.08], [74, 1, 180, 5.0], [3429, 15, 53, 2.63]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.26], [305, 2, 4, 0.56], [3, 2, 4, 0.53], [6935, 2, 8, 1.37], [205, 2, 4, 0.47], [143, 2, 4, 0.43], [144, 2, 4, 0.26], [75, 2, 5, 0.49], [12721, 2, 6, 0.56], [145, 2, 4, 0.26], [8915, 2, 6, 0.2], [2778, 2, 4, 0.2], [1776, 1, 4, 0.45], [146, 2, 4, 0.26], [206, 2, 4, 0.56], [20252, 2, 4, 0.48], [6936, 2, 5, 1.3], [1777, 1, 4, 1.16], [8648, 2, 4, 0.89], [151, 1, 4, 0.35], [2328, 2, 4, 0.73], [8650, 2, 4, 1.0], [5151, 2, 4, 0.9], [2050, 3, 4, 0.73], [248, 1, 4, 0.44], [88, 10, 8, 1.09], [7886, 4, 5, 0.39], [9507, 3, 4, 0.36], [74, 1, 4, 0.8], [1446, 2, 4, 0.59], [2991, 3, 4, 1.1], [362, 2, 4, 0.43], [7004, 1, 4, 0.54], [2057, 3, 4, 0.47], [1492, 1, 4, 0.51], [1007, 2, 5, 0.2], [2055, 3, 4, 0.57], [147, 1, 4, 1.02], [76, 2, 4, 0.74], [8649, 2, 4, 1.05], [3889, 1, 4, 0.44], [11234, 2, 6, 0.2], [410, 1, 4, 0.38], [7005, 1, 4, 0.38], [345, 3, 4, 0.47], [10, 2, 5, 0.41], [1429, 2, 4, 0.28], [307, 2, 4, 1.75], [10825, 21, 8, 0.55], [5081, 2, 4, 0.54], [12870, 1, 4, 0.65], [57, 1, 4, 0.44], [10149, 3, 13, 0.71], [7036, 1, 4, 0.94], [3478, 2, 4, 0.54], [7084, 3, 4, 0.87], [1006, 2, 4, 0.56], [1504, 2, 4, 0.2], [3891, 1, 4, 0.2], [21793, 1, 4, 0.89], [94, 4, 4, 1.55], [167, 3, 4, 0.75], [411, 2, 4, 0.47], [9827, 3, 4, 0.2], [3893, 1, 4, 0.2], [79, 1, 4, 0.57], [33, 1, 4, 0.76], [432, 3, 5, 0.62], [8677, 3, 5, 0.4], [11681, 2, 5, 0.82], [148, 1, 4, 1.5], [96, 11, 15, 0.38], [1490, 1, 5, 0.2], [12225, 1, 4, 0.43], [1124, 2, 5, 0.2], [11737, 2, 4, 0.2], [1243, 2, 4, 0.5], [22247, 2, 6, 0.89], [6158, 2, 5, 0.8], [5812, 3, 5, 1.51], [8853, 2, 5, 1.32], [201, 3, 4, 0.47], [412, 1, 4, 1.28], [9760, 29, 4, 0.24], [10574, 3, 6, 1.33], [8651, 2, 5, 0.61], [20927, 1, 4, 0.43], [5208, 3, 5, 0.54], [8676, 2, 6, 0.56], [229, 1, 4, 1.2], [1767, 25, 4, 0.59], [25, 1, 4, 0.76], [45, 2, 4, 1.37], [9069, 1, 4, 0.41], [413, 1, 4, 1.19], [11490, 1, 4, 0.36], [149, 2, 4, 1.7], [159, 3, 5, 0.63], [3495, 3, 15, 0.92], [21269, 3, 4, 1.0], [998, 2, 4, 0.97], [140, 2, 4, 0.78], [95, 3, 10, 0.93], [3980, 4, 5, 1.25], [950, 1, 4, 0.71], [5946, 1, 4, 0.95], [9372, 1, 4, 2.03], [1126, 2, 5, 0.47], [1766, 25, 4, 0.56], [2775, 2, 5, 0.2], [1413, 15, 5, 0.78], [490, 1, 4, 0.4], [506, 1, 4, 1.21], [8674, 2, 5, 0.54], [11489, 1, 4, 0.56], [8898, 3, 4, 0.75], [997, 2, 4, 1.82], [3670, 2, 4, 1.87], [1070, 7, 9, 0.46], [9691, 1, 4, 0.98], [107, 2, 4, 0.52], [974, 3, 5, 0.38], [20498, 1, 4, 0.94], [11954, 1, 4, 0.47], [14037, 3, 5, 0.44], [14017, 3, 4, 0.44], [823, 1, 4, 0.84], [34, 1, 4, 1.26], [5209, 3, 4, 0.54], [972, 3, 5, 0.85], [9784, 1, 5, 0.55], [11739, 2, 4, 0.2], [1091, 1, 4, 0.61], [8672, 2, 193, 4.11], [305, 2, 97, 3.11], [3, 2, 81, 3.34], [6935, 2, 216, 4.9], [205, 2, 83, 2.52], [143, 2, 98, 3.77], [144, 2, 100, 4.38], [75, 2, 112, 2.56], [12721, 2, 216, 2.64], [145, 2, 100, 3.97], [8915, 2, 148, 2.53], [2778, 2, 119, 2.63], [1776, 1, 72, 1.98], [146, 2, 100, 3.97], [206, 2, 93, 2.33], [20252, 2, 79, 2.19], [6936, 2, 216, 4.39], [1777, 1, 82, 3.8], [8648, 2, 171, 3.3], [151, 1, 46, 1.81], [2328, 2, 115, 3.01], [8650, 2, 171, 3.51], [5151, 2, 18, 4.59], [2050, 3, 204, 2.91], [248, 1, 46, 2.11], [88, 10, 428, 4.1], [7886, 4, 79, 2.38], [9507, 3, 86, 1.53], [74, 1, 153, 3.13], [1446, 2, 117, 3.67], [2991, 3, 124, 5.3], [362, 2, 108, 2.45], [7004, 1, 51, 2.45], [2057, 3, 408, 2.17], [1492, 1, 26, 2.52], [1007, 2, 207, 2.48], [2055, 3, 408, 2.35], [147, 1, 74, 5.47], [76, 2, 82, 3.03], [8649, 2, 171, 3.59], [3889, 1, 106, 2.11], [11234, 2, 141, 2.92], [410, 1, 90, 2.0], [7005, 1, 68, 2.01], [345, 3, 226, 2.53], [10, 2, 81, 3.33], [1429, 2, 117, 3.12], [307, 2, 112, 3.95], [10825, 21, 477, 2.64], [5081, 2, 144, 2.66], [12870, 1, 104, 2.86], [57, 1, 73, 2.11], [10149, 3, 666, 2.87], [7036, 1, 98, 3.26], [3478, 2, 64, 2.3], [7084, 3, 98, 3.26], [1006, 2, 175, 2.7], [1504, 2, 157, 2.66], [3891, 1, 95, 3.37], [21793, 1, 202, 4.74], [94, 4, 91, 4.72], [167, 3, 172, 3.03], [411, 2, 83, 2.52], [9827, 3, 67, 2.54], [3893, 1, 95, 2.31], [79, 1, 41, 2.38], [33, 1, 85, 3.19]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.55], [305, 2, 4, 0.57], [2049, 3, 8, 0.2], [6935, 2, 8, 1.1], [326, 2, 4, 1.08], [141, 2, 4, 0.66], [144, 2, 5, 0.36], [589, 2, 5, 0.2], [151, 1, 4, 0.48], [362, 2, 4, 0.2], [12721, 2, 6, 0.56], [146, 2, 5, 0.41], [1776, 1, 4, 1.16], [145, 2, 4, 0.44], [206, 2, 4, 0.2], [2328, 2, 5, 0.73], [8915, 2, 6, 0.2], [143, 2, 4, 0.58], [990, 2, 4, 0.26], [6936, 2, 5, 1.55], [20252, 2, 4, 0.5], [8650, 2, 4, 1.18], [1777, 1, 4, 0.93], [1007, 2, 5, 0.39], [2778, 2, 5, 0.2], [248, 1, 4, 0.2], [88, 10, 9, 1.09], [22247, 2, 4, 0.78], [2050, 3, 5, 0.38], [76, 2, 4, 1.24], [8649, 2, 5, 1.22], [10149, 3, 17, 1.82], [10, 2, 5, 0.41], [8677, 3, 6, 1.56], [2054, 3, 4, 1.44], [412, 1, 4, 0.62], [2055, 3, 4, 1.36], [13028, 3, 4, 0.75], [413, 1, 4, 1.1], [7004, 1, 4, 0.36], [411, 2, 4, 0.48], [10825, 21, 8, 1.28], [11681, 2, 5, 1.87], [1446, 2, 4, 0.54], [7084, 3, 4, 0.86], [307, 2, 4, 0.47], [3478, 2, 4, 0.89], [1429, 2, 4, 0.2], [3495, 3, 15, 0.92], [1006, 2, 4, 0.47], [147, 1, 4, 0.52], [1492, 1, 4, 0.58], [5081, 2, 4, 0.44], [140, 2, 5, 0.63], [167, 3, 4, 0.75], [7005, 1, 4, 0.36], [7036, 1, 4, 0.61], [9827, 3, 4, 0.2], [45, 2, 5, 0.56], [8676, 2, 4, 0.51], [1124, 2, 6, 0.2], [2049, 1, 4, 0.93], [94, 4, 4, 1.74], [5812, 3, 5, 2.01], [13280, 1, 4, 1.47], [168, 3, 5, 0.29], [1504, 2, 4, 0.2], [12870, 1, 5, 0.54], [57, 1, 4, 0.38], [11234, 2, 4, 0.63], [415, 1, 4, 1.07], [8651, 2, 4, 0.78], [148, 1, 4, 0.52], [418, 2, 4, 0.38], [8853, 2, 5, 1.07], [6097, 29, 4, 1.14], [8939, 2, 4, 0.2], [416, 1, 4, 1.21], [6097, 80, 4, 1.14], [11737, 2, 5, 0.2], [20256, 2, 5, 0.2], [490, 1, 4, 1.05], [1490, 1, 5, 0.2], [998, 2, 4, 1.06], [20927, 1, 4, 0.36], [79, 1, 4, 0.38], [95, 3, 16, 0.19], [6098, 29, 4, 1.08], [14017, 3, 4, 0.52], [6098, 80, 4, 1.08], [414, 1, 4, 0.81], [9069, 1, 4, 0.99], [1070, 7, 10, 0.2], [1243, 2, 4, 0.53], [8898, 3, 5, 1.36], [1126, 2, 4, 0.39], [149, 2, 4, 0.52], [126, 2, 4, 1.43], [13034, 3, 5, 0.66], [997, 2, 4, 1.09], [9760, 29, 4, 0.45], [20498, 1, 5, 0.8], [20255, 2, 5, 0.2], [5086, 1, 4, 0.71], [5513, 2, 4, 0.46], [12924, 1, 5, 0.2], [9784, 1, 4, 0.55], [336, 15, 4, 0.86], [22317, 3, 6, 0.51], [11739, 2, 4, 0.2], [13260, 29, 4, 0.54], [7567, 3, 4, 1.66], [974, 3, 4, 0.88], [1413, 15, 4, 0.33], [11085, 2, 4, 0.45], [5811, 3, 5, 1.26], [229, 1, 4, 1.05], [972, 3, 5, 0.81], [5813, 3, 5, 1.08], [8557, 3, 4, 0.2], [192, 3, 11, 1.1], [9082, 3, 17, 1.28], [506, 1, 4, 0.52], [3049, 3, 5, 1.6], [9691, 1, 4, 1.0], [20498, 3, 5, 0.86], [14018, 3, 4, 0.52], [524, 1, 4, 1.12], [4076, 3, 4, 1.54], [470, 1, 5, 0.2], [1622, 1, 5, 0.38], [11454, 2, 6, 1.6], [2775, 2, 5, 0.2], [8672, 2, 235, 2.23], [305, 2, 121, 2.31], [2049, 3, 450, 1.94], [6935, 2, 235, 4.34], [326, 2, 84, 3.42], [141, 2, 143, 3.4], [144, 2, 125, 1.93], [589, 2, 127, 2.26], [151, 1, 54, 2.16], [362, 2, 117, 2.1], [12721, 2, 234, 2.25], [146, 2, 125, 2.03], [1776, 1, 100, 3.34], [145, 2, 139, 1.96], [206, 2, 90, 1.99], [2328, 2, 126, 2.62], [8915, 2, 161, 2.05], [143, 2, 122, 2.33], [990, 2, 43, 2.66], [6936, 2, 235, 4.51], [20252, 2, 86, 2.06], [8650, 2, 186, 3.42], [1777, 1, 100, 4.11], [1007, 2, 250, 1.96], [2778, 2, 130, 2.06], [248, 1, 45, 1.0], [88, 10, 463, 3.28], [22247, 2, 234, 3.12], [2050, 3, 389, 1.95], [76, 2, 90, 2.63], [8649, 2, 186, 3.51], [10149, 3, 715, 4.79], [10, 2, 87, 2.92], [8677, 3, 243, 4.35], [2054, 3, 324, 5.02], [412, 1, 69, 2.41], [2055, 3, 324, 5.02], [13028, 3, 136, 2.54], [413, 1, 71, 2.36], [7004, 1, 65, 1.93], [411, 2, 101, 2.04], [10825, 21, 575, 3.49], [11681, 2, 227, 5.53], [1446, 2, 126, 3.18], [7084, 3, 107, 1.93], [307, 2, 122, 2.12], [3478, 2, 69, 3.31], [1429, 2, 126, 2.47], [3495, 3, 797, 2.89], [1006, 2, 189, 2.13], [147, 1, 80, 3.88], [1492, 1, 30, 3.25], [5081, 2, 177, 1.96], [140, 2, 75, 2.75], [167, 3, 188, 2.64], [7005, 1, 65, 1.93], [7036, 1, 105, 2.39], [9827, 3, 72, 2.15], [45, 2, 90, 4.21], [8676, 2, 235, 2.21], [1124, 2, 153, 2.07], [2049, 1, 21, 2.85], [94, 4, 99, 4.73], [5812, 3, 543, 4.52], [13280, 1, 261, 3.97], [168, 3, 339, 2.73], [1504, 2, 170, 2.1]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 4, 1.88], [6935, 2, 5, 1.18], [130, 1, 4, 0.2], [326, 2, 4, 1.12], [8648, 2, 4, 0.7], [144, 2, 4, 0.2], [593, 2, 4, 0.45], [2327, 2, 4, 0.47], [143, 2, 4, 0.58], [205, 2, 5, 0.53], [8915, 2, 5, 1.45], [2328, 2, 4, 0.5], [11681, 2, 4, 1.35], [6936, 2, 4, 1.18], [305, 2, 5, 0.48], [151, 1, 4, 0.59], [8650, 2, 4, 0.57], [141, 2, 4, 0.48], [2778, 2, 5, 0.2], [206, 2, 4, 0.46], [2049, 3, 8, 0.41], [88, 10, 10, 0.37], [615, 2, 4, 1.69], [7036, 1, 4, 1.57], [8853, 2, 4, 1.18], [8649, 2, 4, 0.97], [5491, 2, 4, 0.47], [248, 1, 4, 0.43], [434, 2, 4, 0.47], [1006, 2, 4, 1.0], [75, 2, 5, 0.99], [2055, 3, 4, 1.75], [11737, 2, 5, 0.2], [990, 2, 4, 0.2], [417, 2, 4, 0.54], [616, 2, 4, 1.5], [3840, 1, 4, 0.39], [2050, 3, 4, 0.34], [1007, 2, 5, 0.51], [12870, 1, 4, 0.92], [12353, 1, 5, 0.19], [523, 2, 4, 1.0], [1504, 2, 4, 1.07], [159, 3, 5, 0.37], [20927, 1, 4, 0.67], [2057, 3, 4, 0.34], [13280, 1, 4, 2.05], [10574, 3, 6, 1.36], [3, 2, 5, 0.2], [142, 2, 4, 0.51], [12346, 1, 4, 0.19], [7084, 3, 4, 0.58], [9760, 29, 4, 0.2], [624, 2, 4, 1.35], [2054, 3, 4, 0.34], [140, 2, 4, 0.93], [2775, 2, 4, 0.2], [21793, 1, 4, 2.3], [3891, 1, 4, 0.53], [8939, 2, 4, 0.2], [1429, 2, 5, 0.2], [96, 11, 13, 0.38], [11739, 2, 4, 0.59], [6158, 2, 4, 0.2], [950, 1, 4, 0.37], [5165, 2, 5, 1.61], [12269, 2, 4, 1.03], [84, 2, 4, 1.02], [1126, 2, 4, 0.58], [9372, 1, 4, 1.7], [10388, 2, 4, 1.08], [411, 2, 4, 0.5], [98, 11, 10, 0.54], [972, 3, 4, 1.07], [5165, 1, 4, 0.58], [2912, 1, 4, 0.2], [8898, 3, 4, 3.33], [413, 1, 4, 1.01], [2776, 2, 4, 1.41], [410, 1, 4, 0.54], [12343, 1, 5, 0.19], [10386, 2, 4, 0.92], [995, 2, 4, 1.84], [9491, 21, 10, 1.07], [956, 2, 4, 0.47], [1492, 1, 5, 0.7], [418, 2, 4, 0.42], [12345, 1, 5, 0.19], [13928, 1, 5, 0.2], [9784, 1, 4, 0.47], [22316, 3, 4, 0.51], [147, 1, 4, 0.53], [22247, 2, 4, 1.23], [412, 1, 4, 0.2], [336, 15, 4, 0.86], [8677, 3, 4, 0.9], [11490, 1, 4, 0.56], [7567, 3, 4, 1.65], [2912, 2, 5, 0.47], [308, 1, 4, 0.91], [432, 3, 5, 0.47], [307, 2, 5, 0.59], [11953, 1, 4, 0.45], [33, 1, 4, 1.06], [11770, 1, 4, 0.48], [10631, 2, 4, 0.92], [414, 1, 4, 0.66], [35, 1, 4, 1.07], [148, 1, 4, 0.55], [20256, 2, 4, 0.44], [10407, 10, 6, 1.44], [22317, 3, 5, 0.51], [1413, 15, 4, 0.45], [10410, 10, 6, 1.64], [10780, 10, 4, 1.52], [13286, 1, 4, 1.32], [415, 1, 4, 0.66], [439, 1, 4, 1.15], [335, 3, 9, 1.35], [7886, 4, 4, 0.47], [9691, 1, 4, 0.55], [7573, 1, 5, 1.45], [11767, 1, 4, 0.5], [12347, 1, 4, 0.19], [972, 1, 4, 1.51], [10387, 2, 4, 0.95], [10149, 3, 13, 0.39], [74, 1, 4, 1.16], [20686, 1, 5, 1.33], [3478, 2, 4, 1.63], [12271, 2, 4, 1.01], [9690, 1, 4, 0.76], [9971, 2, 4, 1.44], [11685, 2, 212, 5.4], [6935, 2, 214, 5.9], [130, 1, 45, 2.58], [326, 2, 40, 3.57], [8648, 2, 174, 2.99], [144, 2, 117, 4.4], [593, 2, 177, 2.78], [2327, 2, 117, 2.57], [143, 2, 115, 2.77], [205, 2, 84, 2.69], [8915, 2, 65, 4.29], [2328, 2, 117, 2.62], [11681, 2, 212, 5.01], [6936, 2, 214, 5.92], [305, 2, 113, 2.58], [151, 1, 58, 2.7], [8650, 2, 174, 2.75], [141, 2, 119, 2.6], [2778, 2, 121, 2.77], [206, 2, 84, 2.55], [2049, 3, 421, 2.25], [88, 10, 450, 3.45], [615, 2, 91, 4.78], [7036, 1, 99, 3.83], [8853, 2, 214, 5.93], [8649, 2, 174, 2.58], [5491, 2, 81, 2.57], [248, 1, 47, 2.25], [434, 2, 56, 2.07], [1006, 2, 177, 2.63], [75, 2, 112, 3.52], [2055, 3, 396, 4.89], [11737, 2, 45, 2.79], [990, 2, 32, 2.77], [417, 2, 133, 2.43], [616, 2, 91, 4.41], [3840, 1, 150, 2.17], [2050, 3, 356, 2.34], [1007, 2, 207, 2.65], [12870, 1, 117, 5.16], [12353, 1, 488, 4.47], [523, 2, 119, 2.64], [1504, 2, 156, 2.75], [159, 3, 619, 2.07], [20927, 1, 68, 3.22], [2057, 3, 356, 2.34], [13280, 1, 246, 5.48], [10574, 3, 393, 4.07], [3, 2, 95, 2.52], [142, 2, 133, 2.39], [12346, 1, 488, 4.15], [7084, 3, 58, 2.79], [9760, 29, 55, 2.5], [624, 2, 91, 5.38], [2054, 3, 356, 2.34], [140, 2, 78, 3.15], [2775, 2, 121, 2.77], [21793, 1, 174, 5.26], [3891, 1, 108, 2.43], [8939, 2, 150, 2.61], [1429, 2, 117, 2.59], [96, 11, 374, 2.81], [11739, 2, 45, 2.79], [6158, 2, 204, 2.54], [950, 1, 41, 2.04], [12269, 2, 55, 3.35], [84, 2, 52, 2.67]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.47], [141, 2, 4, 0.66], [362, 2, 5, 0.2], [361, 2, 5, 0.54], [6935, 2, 7, 1.06], [205, 2, 4, 0.36], [12721, 2, 5, 1.21], [11737, 2, 4, 0.43], [206, 2, 4, 0.2], [2049, 3, 10, 0.21], [8676, 2, 4, 0.49], [8675, 2, 4, 0.6], [417, 2, 4, 0.57], [3, 2, 4, 0.5], [6936, 2, 4, 1.58], [305, 2, 5, 0.53], [151, 1, 4, 0.75], [523, 2, 4, 0.53], [22247, 2, 4, 1.0], [8650, 2, 4, 0.89], [142, 2, 4, 0.49], [8648, 2, 4, 1.7], [2328, 2, 4, 0.78], [2776, 2, 4, 0.2], [8853, 2, 4, 1.54], [616, 2, 4, 1.12], [11739, 2, 4, 0.43], [2327, 2, 5, 0.63], [11837, 2, 4, 0.45], [411, 2, 4, 0.47], [12352, 1, 4, 1.38], [589, 2, 4, 0.2], [143, 2, 4, 0.87], [146, 2, 4, 0.62], [11835, 2, 4, 0.55], [412, 1, 4, 1.0], [12353, 1, 4, 1.38], [6497, 1, 5, 0.5], [8674, 2, 5, 0.63], [583, 2, 4, 1.31], [145, 2, 4, 0.49], [2805, 137, 8, 0.2], [326, 2, 4, 1.31], [10574, 3, 5, 1.26], [418, 2, 4, 0.54], [144, 2, 4, 0.52], [6097, 80, 4, 1.14], [11738, 2, 4, 0.43], [11836, 2, 4, 0.53], [9784, 1, 4, 0.99], [10149, 3, 13, 0.49], [6097, 29, 5, 0.64], [413, 1, 4, 0.97], [2057, 3, 4, 1.0], [2055, 3, 4, 1.18], [75, 2, 4, 0.56], [11234, 2, 4, 0.63], [12344, 1, 4, 1.38], [1413, 15, 4, 0.2], [20252, 2, 4, 0.47], [11504, 2, 4, 0.2], [12269, 2, 4, 0.57], [8915, 2, 4, 0.39], [414, 1, 4, 0.99], [1492, 1, 4, 0.62], [6098, 80, 4, 1.14], [12346, 1, 4, 1.38], [3429, 15, 4, 0.46], [247, 1, 4, 0.8], [22316, 3, 4, 0.46], [1886, 2, 4, 0.2], [2774, 2, 4, 0.52], [1490, 1, 4, 0.36], [416, 1, 4, 1.16], [6098, 29, 4, 1.19], [9786, 1, 4, 1.55], [3934, 5, 5, 0.56], [2859, 15, 4, 0.57], [2049, 1, 4, 0.41], [201, 3, 4, 0.51], [3670, 2, 4, 0.97], [20555, 2, 4, 0.43], [6158, 2, 5, 0.44], [3478, 2, 4, 0.89], [7084, 3, 4, 0.94], [9785, 1, 4, 0.99], [12526, 2, 4, 0.73], [8599, 1, 4, 0.49], [8938, 2, 4, 0.58], [1703, 2, 4, 0.75], [4253, 1, 4, 0.5], [9760, 29, 4, 0.95], [186, 3, 7, 0.5], [1413, 16, 4, 0.37], [229, 1, 4, 1.15], [11885, 2, 4, 0.39], [107, 2, 4, 1.2], [11887, 2, 5, 0.39], [1050, 2, 4, 0.37], [11811, 1, 4, 0.38], [4232, 80, 4, 1.65], [94, 4, 4, 1.76], [11490, 1, 4, 0.52], [436, 2, 4, 0.51], [107, 7, 5, 1.13], [2438, 2, 5, 1.38], [415, 1, 4, 1.16], [947, 15, 4, 0.39], [11770, 1, 4, 0.43], [3673, 2, 4, 2.08], [11767, 1, 4, 0.48], [11671, 1, 4, 0.45], [5939, 3, 4, 0.5], [2821, 3, 8, 0.45], [11769, 1, 4, 0.48], [11160, 1, 4, 1.87], [11844, 2, 4, 0.47], [12347, 1, 4, 1.38], [5812, 3, 4, 2.0], [7036, 1, 4, 0.43], [9358, 1, 4, 0.44], [140, 2, 4, 1.31], [3495, 3, 13, 0.85], [12764, 2, 5, 0.49], [11771, 1, 4, 1.61], [5813, 3, 5, 1.1], [23920, 2, 4, 0.46], [11954, 1, 4, 0.42], [308, 1, 5, 0.79], [9690, 1, 4, 0.79], [410, 1, 4, 0.8], [5811, 3, 6, 1.16], [22573, 2, 4, 0.39], [8672, 2, 258, 3.11], [141, 2, 156, 3.01], [362, 2, 127, 2.98], [361, 2, 140, 3.1], [6935, 2, 253, 5.12], [205, 2, 110, 2.44], [12721, 2, 285, 4.59], [11737, 2, 57, 3.01], [206, 2, 65, 2.62], [2049, 3, 313, 2.87], [8676, 2, 287, 4.22], [8675, 2, 287, 3.21], [417, 2, 140, 3.15], [3, 2, 109, 3.03], [6936, 2, 253, 4.65], [305, 2, 132, 3.08], [151, 1, 33, 2.81], [523, 2, 140, 3.23], [22247, 2, 285, 3.62], [8650, 2, 202, 4.44], [142, 2, 156, 2.68], [8648, 2, 202, 4.32], [2328, 2, 135, 3.53], [2776, 2, 142, 3.28], [8853, 2, 282, 4.82], [616, 2, 107, 4.01], [11739, 2, 57, 3.01], [2327, 2, 135, 3.26], [11837, 2, 268, 2.61], [411, 2, 110, 2.65], [12352, 1, 607, 4.89], [589, 2, 59, 2.91], [143, 2, 147, 3.39], [146, 2, 151, 2.93], [11835, 2, 241, 3.11], [412, 1, 74, 3.02], [12353, 1, 607, 4.89], [6497, 1, 34, 3.94], [8674, 2, 258, 3.28], [583, 2, 30, 3.93], [145, 2, 151, 2.69], [2805, 137, 166, 3.7], [326, 2, 30, 3.62], [10574, 3, 450, 4.6], [418, 2, 142, 2.79], [144, 2, 151, 2.74], [6097, 80, 61, 5.49], [11738, 2, 57, 3.01], [11836, 2, 268, 2.76], [9784, 1, 64, 3.01], [10149, 3, 906, 2.65], [6097, 29, 30, 5.49], [413, 1, 77, 2.97], [2057, 3, 158, 4.31], [2055, 3, 158, 4.31], [75, 2, 144, 2.82], [11234, 2, 185, 3.11], [12344, 1, 607, 4.33], [1413, 15, 90, 3.0], [20252, 2, 94, 2.66], [11504, 2, 127, 2.78], [12269, 2, 65, 2.84], [8915, 2, 97, 2.14], [414, 1, 77, 3.01], [1492, 1, 37, 2.92], [6098, 80, 66, 4.03], [12346, 1, 607, 4.89]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 4, 0.52], [305, 2, 4, 0.45], [6935, 2, 5, 1.77], [2778, 2, 4, 0.2], [144, 2, 4, 0.53], [130, 1, 4, 0.48], [8915, 2, 5, 1.08], [589, 2, 5, 0.2], [143, 2, 4, 0.58], [2328, 2, 4, 0.39], [6936, 2, 4, 1.74], [8648, 2, 5, 1.05], [2775, 2, 4, 0.2], [205, 2, 4, 0.43], [8650, 2, 5, 0.39], [326, 2, 4, 0.65], [593, 2, 4, 0.37], [146, 2, 4, 0.57], [145, 2, 4, 0.51], [7036, 1, 4, 0.44], [2049, 3, 5, 0.42], [2776, 2, 4, 0.2], [615, 2, 4, 0.2], [616, 2, 4, 0.2], [88, 10, 9, 0.93], [141, 2, 4, 0.2], [151, 1, 4, 0.75], [1124, 2, 4, 0.79], [11681, 2, 5, 0.83], [206, 2, 4, 0.37], [1446, 2, 4, 0.2], [9760, 29, 4, 0.37], [8853, 2, 4, 1.79], [990, 2, 5, 0.2], [5491, 2, 4, 0.58], [1007, 2, 4, 0.46], [362, 2, 4, 0.5], [8672, 2, 4, 1.48], [1504, 2, 4, 0.93], [2055, 3, 4, 0.46], [2057, 3, 4, 0.46], [9372, 1, 4, 1.97], [3893, 1, 4, 0.2], [8649, 2, 5, 0.39], [2912, 1, 4, 0.48], [8938, 2, 4, 0.52], [434, 2, 4, 0.2], [12870, 1, 4, 1.22], [10993, 2, 5, 0.2], [624, 2, 4, 1.1], [2050, 3, 4, 0.46], [417, 2, 4, 0.42], [3889, 1, 4, 0.35], [5165, 1, 4, 0.56], [1429, 2, 4, 0.2], [378, 2, 4, 2.29], [7084, 3, 4, 0.86], [10, 2, 4, 0.45], [2991, 3, 4, 1.1], [140, 2, 4, 1.65], [3891, 1, 4, 0.2], [1006, 2, 4, 0.54], [7886, 4, 5, 0.41], [10574, 3, 5, 1.36], [7573, 1, 8, 2.02], [10149, 3, 13, 0.39], [5208, 3, 4, 0.19], [1622, 1, 4, 0.56], [75, 2, 4, 0.39], [3, 2, 4, 0.46], [20927, 1, 4, 0.95], [5165, 2, 5, 1.02], [997, 2, 4, 1.42], [11234, 2, 4, 1.25], [1886, 2, 4, 0.2], [12721, 2, 5, 0.49], [22247, 2, 4, 1.37], [147, 1, 4, 1.75], [346, 3, 4, 0.19], [996, 2, 4, 1.16], [229, 1, 4, 0.47], [11811, 1, 4, 0.2], [20252, 2, 4, 0.38], [11685, 2, 5, 0.83], [94, 4, 4, 1.91], [998, 2, 5, 1.0], [972, 3, 5, 0.51], [2912, 2, 7, 0.2], [9491, 21, 10, 0.44], [76, 2, 4, 0.87], [35, 1, 4, 1.02], [439, 1, 4, 0.46], [413, 1, 4, 1.08], [13028, 3, 5, 1.54], [13928, 1, 4, 0.2], [8104, 1, 4, 0.87], [5076, 1, 4, 0.43], [2805, 137, 4, 0.6], [412, 1, 4, 0.43], [5209, 3, 4, 0.19], [8676, 2, 4, 2.17], [33, 1, 4, 0.97], [83, 2, 4, 0.88], [418, 2, 4, 0.63], [148, 1, 4, 1.76], [2774, 2, 4, 0.63], [3495, 3, 10, 0.82], [8898, 3, 5, 1.44], [7887, 4, 4, 0.94], [12212, 29, 4, 0.2], [20256, 2, 5, 0.2], [38, 1, 4, 1.16], [11490, 1, 5, 0.43], [11770, 1, 4, 0.88], [34, 1, 4, 1.09], [10407, 10, 7, 1.55], [415, 1, 4, 1.02], [9784, 1, 4, 0.52], [84, 2, 5, 0.47], [13928, 2, 4, 0.7], [126, 2, 4, 1.27], [411, 2, 4, 0.39], [11739, 2, 4, 1.42], [3048, 3, 4, 1.15], [9691, 1, 4, 0.57], [9690, 1, 4, 0.37], [8939, 2, 4, 0.2], [5584, 3, 5, 1.25], [11953, 1, 4, 0.46], [39, 1, 4, 1.13], [12351, 1, 4, 0.66], [11954, 1, 4, 0.38], [7567, 3, 5, 1.16], [2327, 2, 132, 2.93], [305, 2, 128, 2.8], [6935, 2, 244, 6.0], [2778, 2, 137, 2.92], [144, 2, 132, 4.54], [130, 1, 43, 2.86], [8915, 2, 165, 2.96], [589, 2, 134, 2.97], [143, 2, 130, 3.03], [2328, 2, 147, 3.37], [6936, 2, 244, 5.39], [8648, 2, 196, 3.91], [2775, 2, 137, 2.92], [205, 2, 95, 2.77], [8650, 2, 196, 3.45], [326, 2, 77, 4.1], [593, 2, 223, 2.53], [146, 2, 132, 3.02], [145, 2, 132, 2.92], [7036, 1, 113, 4.28], [2049, 3, 360, 2.34], [2776, 2, 137, 3.16], [615, 2, 93, 3.01], [616, 2, 93, 2.64], [88, 10, 490, 3.94], [141, 2, 136, 2.69], [151, 1, 32, 2.69], [1124, 2, 182, 3.1], [11681, 2, 234, 5.43], [206, 2, 106, 2.39], [1446, 2, 134, 3.2], [9760, 29, 63, 2.66], [8853, 2, 244, 5.48], [990, 2, 45, 2.69], [5491, 2, 93, 3.05], [1007, 2, 264, 2.49], [362, 2, 124, 2.89], [8672, 2, 247, 4.92], [1504, 2, 180, 3.69], [2055, 3, 314, 2.32], [2057, 3, 314, 2.32], [9372, 1, 201, 5.58], [3893, 1, 109, 2.96], [8649, 2, 196, 3.26], [2912, 1, 48, 2.53], [8938, 2, 125, 2.43], [434, 2, 93, 2.69], [12870, 1, 121, 3.3], [10993, 2, 40, 2.81], [624, 2, 104, 3.83], [2050, 3, 314, 2.32], [417, 2, 136, 2.76], [3889, 1, 122, 2.29], [5165, 1, 32, 3.97], [1429, 2, 134, 2.89], [378, 2, 218, 5.85], [7084, 3, 127, 3.22], [10, 2, 102, 3.24], [2991, 3, 141, 5.62], [140, 2, 77, 4.1], [3891, 1, 109, 2.96], [1006, 2, 200, 2.97], [7886, 4, 83, 2.24], [10574, 3, 278, 4.55], [7573, 1, 336, 6.0], [10149, 3, 848, 3.11], [5208, 3, 493, 2.87]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 11, 1.2], [6935, 2, 19, 4.42], [6936, 2, 9, 3.89], [305, 2, 7, 1.48], [8672, 2, 10, 1.28], [615, 2, 7, 1.37], [1504, 2, 11, 0.9], [2775, 2, 9, 1.03], [145, 2, 7, 1.24], [2776, 2, 9, 1.98], [8853, 2, 7, 3.02], [2327, 2, 7, 1.21], [12721, 2, 11, 1.7], [130, 1, 9, 0.78], [143, 2, 7, 1.94], [146, 2, 7, 1.53], [2328, 2, 7, 1.5], [11681, 2, 11, 3.38], [11737, 2, 7, 1.32], [616, 2, 7, 2.16], [5491, 2, 7, 1.03], [141, 2, 7, 2.37], [362, 2, 6, 0.85], [144, 2, 7, 1.3], [2497, 2, 7, 1.14], [205, 2, 7, 0.85], [8650, 2, 11, 2.33], [5493, 2, 9, 0.77], [417, 2, 7, 1.55], [8676, 2, 7, 0.9], [8673, 2, 9, 2.44], [3670, 2, 9, 4.0], [2774, 2, 9, 3.42], [8648, 2, 7, 3.5], [589, 2, 9, 0.8], [3, 2, 7, 0.98], [206, 2, 7, 0.71], [6097, 80, 7, 3.38], [2423, 29, 7, 3.08], [22247, 2, 7, 1.94], [11836, 2, 7, 0.9], [6497, 1, 7, 1.84], [8674, 2, 7, 1.97], [624, 2, 7, 2.32], [12343, 1, 7, 2.59], [2055, 3, 7, 3.23], [2423, 80, 7, 3.02], [523, 2, 7, 1.25], [12344, 1, 7, 1.6], [593, 2, 8, 0.79], [6097, 29, 7, 3.38], [6098, 80, 7, 2.36], [12720, 2, 7, 1.69], [12345, 1, 7, 2.59], [11739, 2, 7, 1.32], [75, 2, 7, 2.15], [8915, 2, 7, 0.75], [88, 10, 14, 2.0], [326, 2, 7, 2.83], [6494, 1, 7, 0.85], [60, 3, 10, 1.49], [13260, 29, 7, 1.16], [142, 2, 7, 2.37], [3429, 15, 7, 0.85], [1492, 1, 7, 1.13], [411, 2, 7, 1.04], [21712, 3, 21, 1.11], [412, 1, 7, 1.93], [2422, 80, 7, 2.41], [1050, 2, 7, 0.7], [10149, 3, 21, 2.21], [2422, 29, 7, 3.8], [378, 2, 9, 2.87], [6098, 29, 7, 2.08], [12346, 1, 7, 2.59], [151, 1, 7, 1.38], [7704, 2, 7, 2.28], [11738, 2, 7, 1.32], [229, 1, 7, 3.68], [22316, 3, 7, 0.85], [1243, 2, 7, 1.32], [1049, 2, 7, 0.7], [20252, 2, 7, 1.06], [13264, 29, 7, 0.95], [345, 3, 7, 2.32], [13258, 29, 9, 2.97], [1490, 1, 7, 0.87], [12269, 2, 7, 0.93], [964, 15, 7, 0.66], [2438, 1, 7, 2.08], [10407, 10, 10, 2.2], [1163, 3, 7, 2.25], [5208, 3, 9, 1.41], [2331, 1, 7, 1.02], [2821, 3, 12, 1.27], [416, 1, 7, 3.06], [201, 3, 7, 4.28], [307, 2, 7, 1.91], [186, 3, 12, 0.9], [7004, 1, 7, 1.03], [149, 2, 7, 1.95], [13259, 29, 7, 2.95], [418, 2, 7, 0.99], [957, 2, 7, 1.05], [7705, 2, 7, 2.28], [12229, 2, 7, 0.96], [7706, 2, 7, 2.28], [11687, 2, 7, 1.02], [10406, 10, 12, 2.42], [410, 1, 7, 1.3], [3478, 2, 9, 1.47], [7036, 1, 7, 0.87], [9784, 1, 7, 1.67], [20255, 2, 7, 1.14], [8938, 2, 7, 1.07], [21713, 3, 13, 0.88], [12870, 1, 7, 4.46], [10408, 10, 10, 1.81], [5490, 2, 7, 0.91], [11402, 1, 7, 0.85], [11404, 2, 7, 0.83], [10410, 10, 10, 2.08], [11161, 1, 10, 3.78], [956, 2, 7, 0.96], [2438, 2, 8, 2.38], [2703, 3, 7, 4.05], [1886, 2, 7, 0.65], [19687, 1, 7, 2.23], [11490, 1, 7, 0.83], [107, 7, 8, 2.46], [21781, 2, 7, 0.86], [22125, 2, 7, 0.66], [11690, 2, 7, 0.66], [412, 1, 74, 3.02], [2422, 80, 187, 4.2], [1050, 2, 38, 1.78], [10149, 3, 866, 4.0], [2422, 29, 33, 5.41], [378, 2, 202, 4.24], [6098, 29, 33, 3.97], [12346, 1, 610, 4.37], [151, 1, 33, 2.81], [7704, 2, 176, 4.07], [11738, 2, 56, 3.11], [229, 1, 81, 5.47], [22316, 3, 318, 2.64], [1243, 2, 99, 3.11], [1049, 2, 38, 1.78], [20252, 2, 92, 2.85], [13264, 29, 73, 2.74], [345, 3, 297, 4.1], [13258, 29, 39, 4.76], [1490, 1, 51, 2.66], [12269, 2, 65, 2.72], [2438, 1, 54, 3.87], [10407, 10, 1201, 4.0], [1163, 3, 114, 3.33], [5208, 3, 561, 3.2], [2331, 1, 119, 2.8], [2821, 3, 746, 3.36], [416, 1, 85, 4.84], [201, 3, 297, 6.0], [307, 2, 148, 3.7], [186, 3, 665, 2.69], [7004, 1, 80, 2.82], [149, 2, 88, 3.74], [13259, 29, 35, 4.73], [418, 2, 143, 2.78], [957, 2, 107, 2.84], [7705, 2, 176, 4.07], [12229, 2, 152, 2.74], [7706, 2, 176, 4.07], [11687, 2, 303, 2.8], [10406, 10, 1784, 4.24], [410, 1, 105, 3.09], [3478, 2, 67, 4.08], [7036, 1, 127, 2.65], [9784, 1, 72, 3.46], [20255, 2, 93, 2.93], [8938, 2, 192, 2.86], [21713, 3, 1121, 2.67], [12870, 1, 137, 6.0], [10408, 10, 785, 3.6], [5490, 2, 108, 2.69], [11402, 1, 45, 2.64], [11404, 2, 105, 2.62], [10410, 10, 1201, 3.88], [11161, 1, 491, 5.57], [956, 2, 107, 2.75], [2438, 2, 643, 4.17], [2703, 3, 300, 5.84], [1886, 2, 158, 2.44], [19687, 1, 30, 4.02], [11490, 1, 98, 2.9], [107, 7, 239, 4.24], [21781, 2, 104, 2.65], [22125, 2, 63, 2.44], [11690, 2, 303, 2.44]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 7, 1.22], [2328, 2, 7, 1.43], [8650, 2, 7, 2.83], [362, 2, 9, 0.78], [5491, 2, 7, 1.11], [5493, 2, 9, 0.67], [130, 1, 7, 1.38], [589, 2, 7, 0.85], [2327, 2, 7, 1.16], [326, 2, 7, 1.87], [11685, 2, 7, 4.19], [8672, 2, 10, 1.28], [417, 2, 7, 1.03], [6935, 2, 12, 4.21], [205, 2, 7, 0.74], [11681, 2, 11, 3.74], [206, 2, 7, 0.71], [8648, 2, 7, 3.27], [6936, 2, 8, 3.12], [142, 2, 9, 0.8], [8915, 2, 7, 1.26], [11837, 2, 7, 1.01], [12721, 2, 9, 1.92], [11838, 2, 9, 0.99], [2049, 3, 17, 1.18], [1446, 2, 7, 1.82], [523, 2, 7, 1.02], [615, 2, 7, 2.85], [8676, 2, 7, 2.44], [11737, 2, 7, 1.9], [305, 2, 7, 0.98], [616, 2, 7, 2.37], [413, 1, 7, 1.44], [412, 1, 7, 1.93], [411, 2, 7, 0.95], [11739, 2, 7, 1.9], [10574, 3, 9, 2.49], [11835, 2, 7, 1.01], [145, 2, 7, 1.24], [8675, 2, 9, 1.42], [2775, 2, 7, 0.78], [1429, 2, 7, 0.89], [76, 2, 7, 2.04], [8673, 2, 7, 3.38], [143, 2, 7, 1.19], [8674, 2, 7, 1.46], [11836, 2, 9, 0.79], [6158, 2, 9, 2.65], [8938, 2, 7, 1.78], [146, 2, 7, 1.14], [151, 1, 7, 1.38], [12720, 2, 7, 1.69], [2776, 2, 7, 1.37], [10149, 3, 21, 1.48], [3495, 3, 21, 1.51], [2055, 3, 7, 3.23], [75, 2, 7, 2.15], [2057, 3, 7, 3.23], [11738, 2, 7, 1.9], [144, 2, 7, 0.96], [8939, 2, 7, 3.23], [416, 1, 7, 1.34], [7885, 4, 7, 0.81], [22316, 3, 9, 0.85], [88, 10, 16, 2.9], [159, 3, 9, 1.37], [2859, 15, 7, 0.81], [7084, 3, 7, 1.81], [418, 2, 9, 0.68], [10993, 2, 7, 0.94], [20252, 2, 7, 0.68], [9784, 1, 7, 1.61], [7705, 2, 7, 2.28], [5165, 1, 7, 3.14], [410, 1, 7, 0.87], [12526, 2, 7, 2.78], [11844, 2, 7, 1.16], [414, 1, 7, 1.34], [2423, 80, 7, 2.8], [12351, 1, 7, 1.63], [2424, 29, 9, 1.09], [378, 2, 7, 2.23], [2423, 29, 7, 3.08], [12345, 1, 7, 1.19], [60, 3, 10, 4.98], [950, 1, 7, 0.72], [6494, 1, 7, 0.85], [11490, 1, 7, 0.89], [2424, 80, 7, 2.28], [12373, 1, 11, 1.47], [13023, 3, 10, 2.63], [201, 3, 7, 2.12], [13034, 3, 8, 2.37], [1519, 3, 15, 0.69], [11489, 1, 7, 0.68], [5208, 3, 9, 1.01], [345, 3, 7, 1.4], [11770, 1, 7, 0.89], [3, 2, 7, 5.0], [159, 1, 7, 1.33], [6952, 1, 7, 2.01], [3430, 15, 7, 2.26], [20927, 1, 7, 0.87], [11954, 1, 7, 0.77], [7886, 4, 7, 0.8], [432, 3, 7, 3.74], [3429, 15, 7, 0.85], [11504, 2, 7, 0.67], [566, 2, 7, 0.92], [13928, 1, 7, 0.82], [11811, 1, 7, 1.93], [5584, 3, 7, 2.91], [114, 3, 7, 3.01], [2331, 1, 7, 2.78], [10407, 10, 10, 2.2], [1492, 1, 7, 1.13], [105, 3, 7, 3.01], [7004, 1, 7, 1.91], [1490, 1, 7, 3.38], [11089, 1, 7, 0.71], [2703, 3, 7, 4.05], [6098, 80, 7, 2.52], [8274, 3, 7, 4.22], [11674, 1, 7, 0.66], [1886, 2, 7, 0.82], [12348, 1, 7, 1.19], [10410, 10, 10, 2.08], [94, 4, 7, 4.17], [3891, 1, 7, 4.39], [11953, 1, 7, 0.85], [6097, 80, 7, 3.42], [22317, 3, 8, 0.88], [9082, 3, 24, 2.42], [418, 2, 128, 2.79], [10993, 2, 49, 3.0], [20252, 2, 93, 2.46], [9784, 1, 72, 3.4], [7705, 2, 176, 4.07], [410, 1, 53, 2.3], [12526, 2, 273, 4.56], [11844, 2, 186, 2.77], [414, 1, 86, 3.13], [2423, 80, 166, 4.41], [12351, 1, 560, 3.26], [2424, 29, 30, 3.17], [378, 2, 201, 4.24], [2423, 29, 37, 4.87], [12345, 1, 560, 3.26], [950, 1, 30, 2.15], [6494, 1, 52, 2.64], [11490, 1, 109, 2.68], [2424, 80, 170, 4.07], [12373, 1, 533, 3.26], [13023, 3, 592, 4.42], [201, 3, 268, 3.21], [13034, 3, 592, 4.16], [1519, 3, 561, 1.77], [11489, 1, 109, 2.47], [5208, 3, 563, 2.79], [345, 3, 298, 3.19], [11770, 1, 221, 2.67], [3, 2, 118, 6.0], [159, 1, 39, 3.12], [6952, 1, 189, 3.79], [3430, 15, 69, 4.05], [20927, 1, 80, 2.66], [11954, 1, 203, 2.56], [7886, 4, 64, 2.38], [432, 3, 300, 5.53], [3429, 15, 53, 2.63], [11504, 2, 128, 2.78], [566, 2, 175, 2.7], [13928, 1, 49, 2.61], [11811, 1, 451, 3.72], [5584, 3, 229, 4.7], [114, 3, 241, 4.8], [2331, 1, 117, 4.57], [10407, 10, 1201, 4.0], [1492, 1, 37, 2.92], [105, 3, 201, 4.72], [7004, 1, 31, 3.0], [1490, 1, 48, 5.17], [11089, 1, 173, 2.5], [2703, 3, 300, 5.84], [6098, 80, 74, 4.31], [11674, 1, 205, 2.44], [1886, 2, 157, 2.61], [12348, 1, 560, 3.26], [10410, 10, 1201, 3.88], [94, 4, 116, 5.96], [3891, 1, 122, 6.0], [11953, 1, 203, 2.63], [6097, 80, 68, 5.21], [22317, 3, 318, 2.66], [9082, 3, 2453, 4.17]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 2.27], [6935, 2, 17, 3.32], [2049, 3, 13, 0.72], [362, 2, 7, 1.69], [589, 2, 10, 0.77], [75, 2, 7, 0.75], [141, 2, 7, 2.25], [1776, 1, 9, 0.83], [205, 2, 7, 0.7], [8915, 2, 9, 0.75], [2778, 2, 7, 0.79], [8672, 2, 12, 1.12], [6936, 2, 10, 3.25], [593, 2, 11, 1.01], [7886, 4, 7, 1.04], [305, 2, 7, 0.96], [206, 2, 7, 0.72], [151, 1, 7, 0.87], [8648, 2, 7, 2.14], [1777, 1, 9, 1.98], [2328, 2, 7, 0.65], [88, 10, 14, 1.03], [11681, 2, 10, 4.17], [990, 2, 7, 1.06], [8650, 2, 7, 2.17], [412, 1, 7, 1.64], [5151, 2, 9, 2.35], [2050, 3, 7, 2.4], [76, 2, 9, 2.62], [144, 2, 7, 0.91], [345, 3, 10, 0.97], [10149, 3, 25, 4.03], [2991, 3, 7, 3.64], [22247, 2, 9, 1.34], [57, 1, 7, 0.7], [3478, 2, 7, 2.16], [146, 2, 7, 1.93], [7004, 1, 9, 0.71], [45, 2, 7, 2.94], [2054, 3, 6, 0.93], [143, 2, 6, 0.84], [417, 2, 7, 2.25], [413, 1, 7, 2.13], [21793, 1, 7, 0.83], [167, 3, 9, 0.97], [201, 3, 10, 0.7], [74, 1, 7, 3.37], [1446, 2, 7, 1.41], [346, 1, 9, 0.73], [2055, 3, 7, 0.94], [168, 3, 9, 1.11], [10, 2, 9, 1.61], [11234, 2, 9, 0.72], [7084, 3, 7, 0.69], [1429, 2, 7, 1.71], [7036, 1, 7, 3.47], [12721, 2, 10, 0.9], [3495, 3, 21, 0.95], [5081, 2, 7, 0.81], [8649, 2, 7, 2.48], [308, 1, 9, 2.22], [13028, 3, 7, 0.9], [10825, 21, 14, 2.47], [12870, 1, 7, 2.96], [79, 1, 7, 0.7], [1492, 1, 7, 1.98], [96, 11, 23, 0.81], [23, 1, 7, 1.24], [1006, 2, 7, 1.06], [3893, 1, 7, 1.48], [418, 2, 7, 0.79], [1504, 2, 7, 0.89], [145, 2, 7, 0.79], [5208, 3, 9, 1.57], [9827, 3, 7, 1.36], [3891, 1, 7, 0.98], [432, 3, 7, 0.75], [7005, 1, 7, 1.16], [94, 4, 7, 4.2], [1490, 1, 7, 1.46], [8853, 2, 11, 3.48], [13260, 29, 7, 0.77], [5812, 3, 8, 3.38], [416, 1, 7, 1.53], [8651, 2, 7, 1.54], [12353, 1, 7, 3.09], [20256, 2, 7, 0.92], [8939, 2, 7, 1.39], [21269, 3, 7, 4.99], [13280, 1, 7, 2.64], [12349, 1, 7, 3.22], [950, 1, 7, 0.98], [33, 1, 7, 1.02], [5086, 1, 7, 2.64], [998, 2, 7, 1.84], [12350, 1, 7, 3.09], [9069, 1, 7, 1.87], [1243, 2, 7, 1.64], [229, 1, 7, 2.92], [2878, 1, 6, 1.36], [140, 2, 7, 1.21], [2049, 1, 7, 0.69], [7567, 3, 7, 2.54], [20927, 1, 9, 0.66], [126, 2, 7, 2.22], [346, 3, 8, 0.74], [3980, 4, 7, 2.59], [1703, 2, 7, 1.51], [8274, 3, 7, 1.24], [9691, 1, 7, 2.1], [35, 1, 7, 0.89], [5209, 3, 9, 0.67], [1070, 7, 13, 1.16], [997, 2, 7, 1.98], [5584, 3, 7, 3.35], [11811, 1, 7, 1.83], [1519, 3, 17, 0.69], [11914, 1, 7, 1.42], [5660, 2, 7, 1.66], [856, 1, 7, 0.69], [8898, 3, 7, 4.68], [1091, 1, 7, 1.15], [5513, 2, 7, 0.8], [8926, 1, 7, 2.6], [523, 2, 7, 1.16], [11767, 1, 7, 0.88], [2775, 2, 7, 0.79], [9372, 1, 7, 2.03], [9081, 3, 12, 3.55], [13034, 3, 8, 3.38], [20255, 2, 7, 1.43], [307, 2, 7, 2.19], [11808, 1, 7, 1.16], [23, 1, 92, 2.51], [1006, 2, 189, 2.28], [3893, 1, 103, 2.25], [418, 2, 131, 1.94], [1504, 2, 170, 2.16], [145, 2, 139, 1.94], [5208, 3, 465, 2.33], [9827, 3, 72, 2.12], [3891, 1, 103, 2.25], [432, 3, 253, 2.02], [7005, 1, 65, 1.93], [94, 4, 99, 4.96], [1490, 1, 42, 2.23], [8853, 2, 235, 4.75], [13260, 29, 60, 2.0], [5812, 3, 543, 4.52], [416, 1, 79, 2.68], [8651, 2, 186, 2.73], [12353, 1, 557, 4.25], [20256, 2, 77, 2.19], [21269, 3, 270, 6.0], [13280, 1, 291, 3.8], [12349, 1, 557, 4.37], [950, 1, 55, 2.13], [33, 1, 92, 2.24], [5086, 1, 152, 3.41], [998, 2, 196, 2.61], [12350, 1, 557, 4.25], [9069, 1, 100, 2.12], [1243, 2, 90, 2.79], [229, 1, 75, 4.08], [2878, 1, 66, 2.63], [140, 2, 75, 2.75], [2049, 1, 18, 1.46], [7567, 3, 57, 3.31], [20927, 1, 65, 1.93], [126, 2, 75, 2.98], [346, 3, 525, 2.01], [3980, 4, 443, 3.74], [1703, 2, 149, 2.66], [8274, 3, 159, 2.0], [9691, 1, 62, 2.36], [35, 1, 103, 2.04], [5209, 3, 465, 1.95], [1070, 7, 494, 1.93], [997, 2, 196, 2.24], [5584, 3, 196, 3.55], [11811, 1, 416, 2.98], [1519, 3, 1545, 1.83], [11914, 1, 72, 2.19], [5660, 2, 144, 2.93], [856, 1, 32, 1.84], [8898, 3, 231, 5.05], [1091, 1, 39, 2.42], [5513, 2, 70, 1.95], [8926, 1, 50, 2.84], [523, 2, 143, 2.31], [11767, 1, 151, 2.03], [2775, 2, 130, 2.06], [9372, 1, 210, 3.18], [9081, 3, 379, 4.81], [13034, 3, 486, 4.14], [20255, 2, 77, 2.2], [307, 2, 122, 2.45], [11808, 1, 402, 1.93]]</t>
-  </si>
-  <si>
-    <t>[[88, 10, 16, 1.96], [2327, 2, 7, 1.0], [8915, 2, 8, 1.9], [589, 2, 8, 0.99], [2778, 2, 9, 0.94], [6935, 2, 11, 4.09], [2328, 2, 7, 1.12], [5493, 2, 7, 2.27], [130, 1, 9, 2.43], [305, 2, 6, 0.82], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [6936, 2, 7, 3.42], [326, 2, 7, 2.62], [8650, 2, 7, 1.47], [8648, 2, 7, 2.02], [1446, 2, 7, 1.22], [2049, 3, 10, 0.87], [10, 2, 9, 0.67], [143, 2, 7, 1.55], [159, 3, 8, 1.18], [593, 2, 9, 0.88], [205, 2, 7, 0.83], [5491, 2, 7, 1.12], [2775, 2, 9, 0.94], [7036, 1, 7, 2.3], [144, 2, 7, 3.22], [3840, 1, 7, 1.09], [151, 1, 7, 1.38], [94, 4, 7, 3.68], [434, 2, 9, 0.71], [8938, 2, 7, 0.95], [990, 2, 7, 1.21], [3893, 1, 9, 0.98], [146, 2, 7, 2.06], [8853, 2, 7, 3.51], [1504, 2, 7, 1.79], [12224, 1, 7, 0.84], [624, 2, 7, 2.19], [1429, 2, 7, 0.91], [3891, 1, 7, 0.98], [2776, 2, 7, 1.18], [206, 2, 7, 0.74], [2055, 3, 7, 0.84], [362, 2, 7, 0.96], [141, 2, 7, 1.21], [2057, 3, 7, 0.84], [75, 2, 7, 0.75], [11681, 2, 11, 3.45], [11404, 2, 9, 0.94], [5208, 3, 9, 0.78], [8649, 2, 7, 3.15], [3889, 1, 7, 0.65], [1007, 2, 7, 0.85], [10574, 3, 11, 4.5], [11234, 2, 7, 1.8], [10993, 2, 7, 1.29], [7886, 4, 7, 0.85], [12870, 1, 7, 1.83], [21793, 1, 7, 0.96], [10149, 3, 21, 2.43], [3980, 4, 6, 2.43], [2050, 3, 7, 0.84], [12353, 1, 7, 1.22], [145, 2, 7, 1.94], [7084, 3, 7, 1.58], [11811, 1, 7, 0.8], [8672, 2, 9, 3.66], [20927, 1, 7, 1.83], [998, 2, 7, 2.83], [9760, 29, 7, 0.71], [997, 2, 7, 2.64], [2436, 4, 9, 0.85], [1006, 2, 7, 0.99], [1886, 2, 9, 0.82], [972, 3, 8, 0.89], [2424, 80, 7, 1.91], [3, 2, 7, 1.14], [346, 3, 7, 1.21], [229, 1, 7, 0.86], [6158, 2, 7, 1.38], [3495, 3, 14, 0.98], [12346, 1, 7, 1.22], [5076, 1, 7, 1.3], [7887, 4, 7, 1.42], [12345, 1, 7, 1.22], [20252, 2, 7, 1.43], [126, 2, 7, 2.34], [11953, 1, 7, 0.84], [74, 1, 7, 3.79], [9372, 1, 7, 3.48], [11770, 1, 7, 2.76], [140, 2, 7, 2.34], [12344, 1, 7, 1.22], [8939, 2, 7, 0.92], [11954, 1, 7, 0.7], [11685, 2, 11, 3.45], [1492, 1, 7, 0.95], [12352, 1, 7, 1.22], [996, 2, 7, 2.83], [12721, 2, 7, 4.25], [2774, 2, 7, 1.15], [20256, 2, 9, 0.82], [12350, 1, 7, 1.22], [3981, 3, 22, 1.14], [9081, 3, 12, 0.86], [9491, 21, 21, 0.8], [5434, 1, 7, 1.93], [2423, 80, 7, 1.88], [6497, 1, 7, 3.31], [12343, 1, 7, 1.22], [12229, 2, 7, 0.9], [5584, 3, 7, 3.37], [2438, 2, 8, 1.33], [10388, 2, 7, 1.93], [12351, 1, 7, 1.22], [10407, 10, 10, 3.59], [11179, 1, 7, 1.6], [6496, 1, 7, 3.71], [22317, 3, 7, 1.11], [7573, 1, 22, 5.0], [823, 1, 7, 1.9], [5209, 3, 7, 1.38], [3900, 3, 7, 3.39], [2805, 137, 7, 2.91], [8898, 3, 7, 3.35], [12526, 2, 7, 2.21], [11812, 1, 7, 0.87], [2424, 29, 7, 1.0], [3975, 4, 7, 2.86], [4253, 1, 7, 1.04], [11490, 1, 7, 0.65], [336, 15, 7, 1.79], [9760, 29, 63, 2.66], [997, 2, 232, 4.28], [2436, 4, 101, 2.98], [1006, 2, 200, 2.97], [1886, 2, 136, 2.8], [972, 3, 522, 2.82], [2424, 80, 152, 2.99], [3, 2, 118, 2.78], [346, 3, 557, 2.68], [229, 1, 81, 2.5], [6158, 2, 224, 2.86], [3495, 3, 844, 2.98], [12346, 1, 612, 2.87], [5076, 1, 127, 2.94], [7887, 4, 68, 2.73], [12345, 1, 612, 2.87], [20252, 2, 91, 3.07], [126, 2, 86, 3.98], [11953, 1, 195, 2.48], [74, 1, 171, 4.87], [9372, 1, 224, 5.12], [11770, 1, 206, 4.4], [140, 2, 86, 3.98], [12344, 1, 612, 2.87], [8939, 2, 169, 2.9], [11954, 1, 195, 2.34], [11685, 2, 234, 5.43], [1492, 1, 32, 2.93], [12352, 1, 612, 2.87], [996, 2, 208, 4.81], [12721, 2, 272, 5.89], [2774, 2, 200, 2.79], [20256, 2, 81, 2.94], [12350, 1, 612, 2.87], [3981, 3, 1471, 3.14], [9081, 3, 473, 2.5], [9491, 21, 1872, 2.76], [5434, 1, 42, 2.89], [2423, 80, 164, 3.36], [6497, 1, 35, 4.95], [12343, 1, 612, 2.87], [12229, 2, 133, 2.84], [5584, 3, 206, 4.28], [2438, 2, 553, 2.82], [10388, 2, 211, 3.56], [12351, 1, 612, 2.87], [10407, 10, 645, 5.06], [11179, 1, 85, 3.24], [6496, 1, 38, 5.36], [22317, 3, 308, 2.75], [7573, 1, 336, 6.0], [823, 1, 39, 3.54], [5209, 3, 493, 2.87], [3900, 3, 37, 4.29], [2805, 137, 175, 4.54], [8898, 3, 257, 4.83], [12526, 2, 135, 3.53], [11812, 1, 209, 2.85], [2424, 29, 34, 2.65], [3975, 4, 186, 4.34], [4253, 1, 149, 2.97], [11490, 1, 106, 2.29], [336, 15, 110, 3.43]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 15, 3.35], [141, 2, 7, 1.02], [589, 2, 10, 0.69], [2778, 2, 9, 1.18], [6936, 2, 13, 3.74], [8648, 2, 7, 2.18], [362, 2, 7, 0.89], [2327, 2, 7, 1.82], [11681, 2, 22, 3.47], [8650, 2, 7, 2.04], [326, 2, 7, 1.42], [205, 2, 7, 1.04], [2328, 2, 9, 1.41], [1446, 2, 9, 1.08], [305, 2, 7, 2.13], [130, 1, 7, 0.87], [8649, 2, 9, 2.02], [2775, 2, 7, 1.18], [8853, 2, 11, 3.24], [361, 2, 7, 0.96], [2776, 2, 7, 1.18], [593, 2, 7, 1.38], [143, 2, 7, 2.18], [140, 2, 7, 1.42], [1429, 2, 9, 1.24], [206, 2, 9, 0.75], [5493, 2, 7, 0.87], [523, 2, 7, 1.0], [7004, 1, 7, 1.3], [413, 1, 7, 1.96], [7036, 1, 7, 3.04], [5491, 2, 7, 0.92], [412, 1, 7, 1.25], [21793, 1, 7, 3.65], [12350, 1, 7, 0.7], [151, 1, 7, 0.91], [1124, 2, 7, 1.27], [990, 2, 7, 0.82], [12353, 1, 7, 1.26], [5165, 1, 9, 2.64], [8915, 2, 8, 1.49], [615, 2, 7, 2.25], [583, 2, 7, 1.42], [417, 2, 7, 0.83], [21798, 1, 7, 0.95], [146, 2, 7, 2.92], [248, 1, 9, 0.68], [434, 2, 9, 0.79], [201, 3, 7, 1.37], [142, 2, 7, 0.92], [6097, 80, 9, 3.4], [11770, 1, 7, 0.8], [6952, 1, 7, 3.29], [2055, 3, 7, 1.5], [345, 3, 7, 0.9], [3891, 1, 7, 1.8], [9372, 1, 7, 1.55], [2057, 3, 7, 1.5], [616, 2, 7, 1.58], [7084, 3, 7, 2.33], [3670, 2, 7, 2.71], [3893, 1, 7, 1.8], [5165, 2, 12, 3.15], [12346, 1, 7, 0.7], [12870, 1, 7, 2.21], [12343, 1, 7, 0.89], [10574, 3, 8, 2.44], [1886, 2, 7, 0.66], [2424, 80, 7, 2.28], [346, 3, 7, 0.72], [3334, 5, 7, 3.63], [20927, 1, 7, 0.95], [12351, 1, 7, 0.7], [7885, 4, 7, 0.9], [6098, 80, 7, 2.81], [6097, 29, 7, 3.9], [11089, 1, 7, 0.8], [12345, 1, 7, 0.85], [10149, 3, 21, 1.91], [20256, 2, 7, 0.87], [147, 1, 7, 2.36], [22316, 3, 7, 0.66], [1492, 1, 9, 1.48], [11953, 1, 7, 0.81], [432, 3, 7, 1.65], [11491, 2, 7, 0.94], [20252, 2, 7, 0.85], [4032, 29, 7, 0.9], [418, 2, 7, 1.68], [1490, 1, 7, 0.76], [1519, 3, 16, 0.69], [2423, 80, 7, 3.06], [11952, 1, 7, 0.85], [411, 2, 7, 0.96], [12304, 1, 7, 0.92], [5151, 2, 7, 1.13], [229, 1, 7, 3.82], [11769, 1, 7, 0.88], [3576, 25, 7, 1.68], [972, 3, 9, 0.93], [2331, 1, 7, 2.67], [346, 1, 7, 0.7], [995, 2, 7, 2.14], [416, 1, 7, 1.91], [13034, 3, 7, 3.52], [2424, 29, 7, 2.13], [11426, 25, 7, 1.07], [3, 2, 7, 1.01], [11737, 2, 7, 0.91], [5076, 1, 7, 1.17], [11767, 1, 7, 0.88], [439, 1, 7, 3.23], [11490, 1, 7, 1.08], [2805, 137, 7, 1.99], [2160, 68, 7, 2.19], [6494, 1, 7, 3.12], [950, 1, 7, 0.76], [414, 1, 7, 1.47], [3575, 25, 7, 1.81], [12764, 2, 8, 0.87], [1701, 2, 7, 3.79], [11180, 1, 7, 1.04], [8677, 3, 8, 1.86], [75, 2, 7, 1.94], [11586, 1, 14, 3.12], [3577, 25, 7, 0.77], [3478, 2, 7, 1.65], [11585, 29, 7, 2.06], [11813, 1, 7, 3.17], [13023, 3, 8, 2.24], [9998, 80, 9, 2.71], [2438, 2, 8, 1.84], [12526, 2, 9, 3.05], [2424, 80, 146, 3.69], [346, 3, 493, 2.39], [3334, 5, 138, 4.81], [20927, 1, 68, 2.36], [12351, 1, 536, 2.13], [7885, 4, 120, 2.31], [6098, 80, 59, 3.45], [6097, 29, 27, 5.08], [11089, 1, 148, 2.22], [12345, 1, 536, 2.28], [10149, 3, 666, 3.62], [20256, 2, 72, 2.55], [147, 1, 77, 3.78], [22316, 3, 272, 2.08], [1492, 1, 28, 3.66], [11953, 1, 172, 2.22], [432, 3, 236, 2.82], [11491, 2, 121, 2.36], [20252, 2, 72, 2.53], [4032, 29, 73, 2.55], [418, 2, 121, 3.09], [1490, 1, 44, 2.18], [1519, 3, 864, 1.89], [2423, 80, 155, 4.47], [11952, 1, 172, 2.27], [411, 2, 84, 2.61], [12304, 1, 87, 2.6], [5151, 2, 21, 2.55], [229, 1, 70, 5.24], [11769, 1, 140, 2.3], [3576, 25, 87, 3.09], [972, 3, 458, 2.55], [2331, 1, 100, 4.08], [346, 1, 123, 2.39], [995, 2, 206, 3.55], [416, 1, 66, 2.59], [13034, 3, 507, 4.92], [2424, 29, 29, 3.54], [11426, 25, 103, 2.49], [3, 2, 105, 2.43], [11737, 2, 49, 2.33], [5076, 1, 112, 2.58], [11767, 1, 140, 2.3], [439, 1, 74, 4.65], [11490, 1, 84, 2.71], [2805, 137, 154, 3.41], [2160, 68, 112, 3.61], [6494, 1, 42, 4.54], [950, 1, 51, 2.18], [414, 1, 74, 2.89], [3575, 25, 87, 3.22], [12764, 2, 646, 2.28], [1701, 2, 126, 4.58], [11180, 1, 67, 2.67], [8677, 3, 253, 3.28], [75, 2, 124, 3.36], [11586, 1, 296, 3.61], [3577, 25, 76, 2.18], [3478, 2, 65, 3.07], [11585, 29, 148, 3.47], [11813, 1, 266, 4.58], [13023, 3, 509, 3.66], [2438, 2, 551, 3.26]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 12, 4.2], [615, 2, 7, 3.33], [2778, 2, 9, 1.07], [305, 2, 7, 0.92], [5493, 2, 7, 2.99], [6936, 2, 11, 4.22], [130, 1, 7, 1.87], [205, 2, 7, 1.02], [616, 2, 7, 2.96], [1504, 2, 7, 1.54], [144, 2, 9, 2.7], [8648, 2, 7, 1.35], [2049, 3, 17, 0.83], [88, 10, 18, 1.22], [8915, 2, 8, 3.38], [326, 2, 7, 2.16], [7036, 1, 7, 3.02], [8650, 2, 7, 1.54], [593, 2, 9, 1.07], [2327, 2, 7, 0.86], [11681, 2, 7, 3.3], [8853, 2, 9, 4.23], [141, 2, 9, 1.19], [2775, 2, 9, 1.07], [206, 2, 9, 0.85], [151, 1, 7, 1.25], [7004, 1, 7, 1.15], [248, 1, 7, 0.8], [11685, 2, 7, 3.69], [3840, 1, 7, 0.72], [3891, 1, 7, 1.68], [2328, 2, 7, 0.96], [2050, 3, 7, 0.64], [5491, 2, 7, 1.61], [2497, 2, 7, 2.68], [2055, 3, 7, 3.44], [143, 2, 7, 1.12], [434, 2, 7, 0.86], [3980, 4, 7, 2.36], [990, 2, 9, 0.88], [2054, 3, 7, 0.67], [624, 2, 7, 3.92], [8649, 2, 7, 2.8], [362, 2, 7, 1.64], [2776, 2, 9, 1.66], [12870, 1, 7, 3.71], [2057, 3, 7, 0.64], [12350, 1, 7, 1.22], [7886, 4, 7, 1.32], [10574, 3, 8, 3.28], [5165, 1, 7, 2.53], [1006, 2, 7, 1.38], [1446, 2, 7, 0.91], [3495, 3, 21, 1.48], [94, 4, 9, 3.04], [75, 2, 7, 2.87], [523, 2, 7, 1.93], [7084, 3, 7, 1.12], [2991, 3, 7, 4.28], [7005, 1, 7, 1.73], [10149, 3, 21, 1.48], [3975, 4, 7, 2.49], [21793, 1, 7, 4.43], [9760, 29, 7, 0.8], [11404, 2, 7, 1.67], [142, 2, 7, 0.94], [12346, 1, 7, 1.22], [6158, 2, 7, 1.33], [20927, 1, 7, 1.77], [3981, 3, 22, 2.03], [5165, 2, 10, 2.64], [417, 2, 7, 0.98], [2912, 1, 7, 0.8], [3982, 3, 17, 2.34], [8939, 2, 7, 0.89], [1007, 2, 7, 0.98], [11953, 1, 7, 0.96], [2774, 2, 7, 1.95], [33, 1, 7, 2.04], [956, 2, 7, 0.86], [11772, 1, 7, 2.97], [286, 3, 7, 2.44], [1492, 1, 7, 2.27], [11767, 1, 7, 0.81], [336, 15, 7, 2.22], [972, 3, 7, 2.05], [11769, 1, 7, 1.46], [11490, 1, 7, 2.0], [11770, 1, 7, 1.8], [410, 1, 7, 1.49], [74, 1, 7, 2.13], [2912, 2, 8, 0.79], [389, 4, 7, 2.13], [6496, 1, 7, 0.85], [35, 1, 7, 1.54], [7567, 3, 7, 2.62], [411, 2, 7, 1.93], [12721, 2, 7, 1.91], [1413, 15, 7, 1.04], [4253, 1, 7, 1.5], [22317, 3, 7, 0.92], [140, 2, 7, 1.7], [8673, 2, 7, 2.48], [8121, 3, 6, 0.85], [1126, 2, 7, 1.26], [4176, 4, 9, 3.25], [2436, 4, 9, 0.73], [9372, 1, 7, 3.34], [21269, 3, 7, 4.87], [8676, 2, 7, 3.11], [8677, 3, 7, 1.51], [22247, 2, 7, 2.66], [10388, 2, 7, 2.13], [10936, 2, 7, 3.12], [12343, 1, 7, 1.22], [11085, 2, 8, 3.16], [12526, 2, 7, 2.15], [9784, 1, 7, 0.9], [1274, 1, 9, 1.03], [6494, 1, 7, 2.34], [12269, 2, 7, 1.9], [37, 1, 7, 1.7], [13023, 3, 7, 2.32], [1429, 2, 7, 0.91], [345, 3, 7, 2.52], [7573, 1, 9, 2.67], [12225, 1, 7, 2.51], [12271, 2, 7, 1.86], [3, 2, 7, 0.7], [96, 11, 22, 1.1], [3577, 25, 7, 0.92], [9, 1, 7, 0.66], [10408, 10, 9, 3.19], [6158, 2, 204, 2.54], [20927, 1, 68, 3.22], [3981, 3, 1251, 3.73], [5165, 2, 163, 4.85], [417, 2, 133, 2.43], [2912, 1, 38, 1.51], [3982, 3, 612, 4.03], [8939, 2, 150, 2.61], [1007, 2, 207, 2.65], [11953, 1, 175, 2.42], [2774, 2, 174, 3.4], [33, 1, 86, 2.74], [956, 2, 93, 2.32], [11772, 1, 170, 4.18], [286, 3, 108, 3.65], [1492, 1, 28, 3.97], [11767, 1, 125, 2.52], [336, 15, 96, 3.67], [972, 3, 459, 2.73], [11769, 1, 125, 3.17], [11490, 1, 48, 2.71], [11770, 1, 170, 3.51], [410, 1, 46, 2.7], [74, 1, 176, 3.58], [2912, 2, 342, 2.25], [389, 4, 162, 3.34], [6496, 1, 35, 2.31], [35, 1, 86, 2.75], [7567, 3, 54, 3.83], [411, 2, 48, 2.73], [12721, 2, 218, 3.11], [1413, 15, 77, 2.75], [4253, 1, 145, 2.95], [22317, 3, 273, 2.38], [140, 2, 78, 3.15], [8673, 2, 240, 3.93], [8121, 3, 228, 2.56], [1126, 2, 197, 2.71], [4176, 4, 374, 4.3], [2436, 4, 89, 2.5], [9372, 1, 196, 4.79], [21269, 3, 254, 6.0], [8676, 2, 245, 4.57], [8677, 3, 229, 2.72], [22247, 2, 218, 3.32], [10388, 2, 186, 3.58], [10936, 2, 115, 4.58], [12343, 1, 543, 2.67], [11085, 2, 414, 4.36], [12526, 2, 235, 3.6], [9784, 1, 56, 2.57], [1274, 1, 63, 3.06], [6494, 1, 23, 3.55], [12269, 2, 55, 3.35], [37, 1, 96, 3.15], [13023, 3, 507, 3.78], [1429, 2, 131, 2.36], [345, 3, 230, 3.19], [7573, 1, 259, 3.67], [12225, 1, 141, 3.96], [12271, 2, 55, 3.31], [3, 2, 106, 2.15], [96, 11, 661, 2.81], [3577, 25, 68, 2.59], [9, 1, 30, 2.11]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 23, 4.99], [305, 2, 7, 1.02], [2328, 2, 7, 1.5], [130, 1, 7, 0.78], [141, 2, 9, 0.74], [2778, 2, 13, 1.27], [8650, 2, 9, 2.77], [5491, 2, 7, 2.52], [2327, 2, 7, 1.21], [8672, 2, 12, 1.53], [6936, 2, 9, 3.46], [143, 2, 7, 4.32], [11681, 2, 13, 3.96], [248, 1, 7, 0.85], [145, 2, 7, 0.77], [205, 2, 7, 1.02], [5493, 2, 7, 2.44], [146, 2, 7, 1.08], [417, 2, 7, 1.0], [589, 2, 9, 0.74], [75, 2, 7, 1.63], [11737, 2, 7, 1.18], [11838, 2, 7, 1.04], [1124, 2, 12, 0.72], [523, 2, 9, 0.96], [8648, 2, 7, 2.96], [8853, 2, 7, 2.71], [12721, 2, 9, 1.59], [615, 2, 7, 2.35], [1005, 2, 7, 1.22], [326, 2, 7, 2.21], [206, 2, 7, 1.21], [8915, 2, 9, 0.71], [8673, 2, 9, 2.44], [144, 2, 7, 1.3], [11739, 2, 7, 1.18], [88, 10, 14, 1.5], [434, 2, 7, 1.44], [2776, 2, 9, 1.21], [142, 2, 7, 1.05], [151, 1, 7, 1.38], [8676, 2, 7, 0.9], [6158, 2, 10, 0.73], [2424, 29, 9, 0.85], [8649, 2, 7, 2.29], [2423, 29, 7, 3.48], [11738, 2, 7, 1.18], [2497, 2, 7, 1.06], [7704, 2, 7, 2.08], [2424, 80, 9, 1.21], [1413, 15, 7, 2.34], [10574, 3, 9, 3.0], [2423, 80, 7, 3.37], [3670, 2, 7, 3.77], [11836, 2, 9, 0.79], [7705, 2, 7, 2.08], [2054, 3, 7, 2.1], [3, 2, 7, 0.83], [2859, 15, 7, 2.41], [412, 1, 9, 1.44], [378, 2, 7, 4.55], [7706, 2, 7, 2.08], [12720, 2, 7, 1.89], [22316, 3, 7, 0.85], [2055, 3, 7, 0.88], [12344, 1, 7, 0.88], [10149, 3, 21, 2.21], [3478, 2, 9, 2.65], [74, 1, 7, 3.39], [3429, 15, 7, 0.85], [307, 2, 7, 2.95], [2774, 2, 7, 1.06], [6497, 1, 7, 0.8], [60, 3, 8, 1.99], [12526, 2, 7, 2.76], [7004, 1, 7, 1.96], [418, 2, 7, 1.49], [13928, 1, 7, 0.74], [411, 2, 7, 0.91], [11089, 1, 7, 0.71], [2057, 3, 7, 2.1], [413, 1, 9, 1.34], [11844, 2, 7, 1.79], [14037, 3, 7, 1.85], [7036, 1, 7, 1.74], [20252, 2, 7, 1.06], [2050, 3, 7, 2.1], [3893, 1, 7, 1.3], [13260, 29, 7, 1.29], [8274, 3, 7, 1.68], [6097, 80, 7, 3.38], [6952, 1, 7, 2.01], [3891, 1, 7, 3.83], [94, 4, 7, 2.5], [159, 3, 9, 1.37], [9784, 1, 7, 2.37], [1050, 2, 7, 0.66], [6494, 1, 7, 0.85], [7707, 2, 7, 1.32], [1490, 1, 7, 1.88], [11490, 1, 7, 0.86], [1413, 16, 7, 0.71], [414, 1, 9, 1.63], [7708, 2, 7, 2.28], [1243, 2, 7, 1.32], [3889, 1, 7, 1.17], [1492, 1, 7, 1.13], [565, 2, 7, 0.84], [5208, 3, 9, 1.82], [22317, 3, 8, 0.88], [7703, 2, 7, 2.28], [11491, 2, 7, 1.5], [21793, 1, 7, 1.83], [3495, 3, 21, 1.51], [229, 1, 7, 3.68], [345, 3, 7, 2.32], [410, 1, 7, 0.74], [2422, 80, 9, 4.33], [11504, 2, 7, 1.33], [6098, 80, 7, 2.19], [149, 2, 7, 2.73], [947, 15, 7, 0.71], [6630, 3, 7, 3.21], [3430, 15, 7, 2.26], [147, 1, 7, 2.73], [3674, 2, 7, 0.96], [416, 1, 7, 2.93], [2805, 137, 11, 3.57], [2331, 1, 7, 1.34], [247, 1, 7, 2.33], [9126, 1, 7, 0.87], [6098, 29, 7, 2.55], [8635, 3, 7, 1.71], [307, 2, 82, 5.06], [2774, 2, 184, 3.11], [6497, 1, 38, 2.59], [60, 3, 730, 4.08], [12526, 2, 245, 4.87], [7004, 1, 31, 3.07], [418, 2, 141, 3.27], [13928, 1, 44, 2.85], [411, 2, 109, 2.7], [11089, 1, 173, 2.5], [2057, 3, 473, 3.89], [413, 1, 76, 3.1], [7036, 1, 128, 3.53], [20252, 2, 92, 2.85], [2050, 3, 473, 3.89], [3893, 1, 110, 2.9], [13260, 29, 65, 3.33], [8274, 3, 115, 2.76], [6097, 80, 61, 5.49], [6952, 1, 189, 3.79], [3891, 1, 123, 5.62], [94, 4, 104, 4.11], [159, 3, 709, 3.16], [9784, 1, 71, 4.16], [6494, 1, 52, 2.64], [7707, 2, 176, 3.11], [1490, 1, 50, 3.67], [11490, 1, 109, 2.65], [1413, 16, 50, 2.5], [414, 1, 76, 3.31], [7708, 2, 176, 4.07], [1243, 2, 90, 2.93], [3889, 1, 110, 2.78], [1492, 1, 37, 2.92], [565, 2, 176, 2.63], [5208, 3, 558, 3.6], [22317, 3, 318, 2.66], [7703, 2, 176, 4.07], [11491, 2, 141, 3.28], [21793, 1, 214, 2.94], [3495, 3, 965, 3.31], [229, 1, 81, 5.47], [345, 3, 297, 4.1], [410, 1, 53, 2.17], [2422, 80, 168, 5.46], [11504, 2, 141, 3.12], [6098, 80, 66, 4.03], [149, 2, 87, 4.52], [947, 15, 41, 2.5], [6630, 3, 93, 5.0], [3430, 15, 69, 4.05], [147, 1, 87, 4.52], [3674, 2, 260, 2.74], [416, 1, 85, 4.71], [2805, 137, 182, 5.36], [2331, 1, 118, 3.13], [247, 1, 87, 4.12], [9126, 1, 71, 2.65], [6098, 29, 37, 4.34], [8635, 3, 115, 2.78]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.94], [305, 2, 7, 1.95], [3, 2, 9, 2.18], [6935, 2, 18, 3.39], [205, 2, 7, 1.36], [143, 2, 7, 3.11], [144, 2, 9, 3.22], [75, 2, 7, 0.9], [12721, 2, 10, 1.03], [145, 2, 9, 2.81], [8915, 2, 12, 0.71], [2778, 2, 9, 0.96], [1776, 1, 7, 0.87], [146, 2, 9, 3.31], [206, 2, 7, 1.02], [20252, 2, 7, 0.88], [6936, 2, 10, 2.86], [1777, 1, 9, 2.87], [8648, 2, 7, 1.71], [151, 1, 7, 0.67], [2328, 2, 7, 1.41], [8650, 2, 9, 2.48], [5151, 2, 7, 3.43], [2050, 3, 7, 2.04], [248, 1, 7, 0.8], [88, 10, 21, 3.14], [7886, 4, 7, 1.22], [9507, 3, 7, 0.66], [74, 1, 7, 1.54], [1446, 2, 7, 1.51], [2991, 3, 7, 3.64], [362, 2, 7, 0.83], [7004, 1, 7, 1.29], [2057, 3, 7, 0.87], [1492, 1, 9, 1.36], [1007, 2, 12, 0.69], [2055, 3, 7, 1.04], [147, 1, 7, 4.17], [76, 2, 7, 1.42], [8649, 2, 9, 2.6], [3889, 1, 7, 0.81], [11234, 2, 11, 0.93], [410, 1, 7, 0.7], [7005, 1, 7, 0.7], [345, 3, 7, 0.9], [10, 2, 9, 1.21], [1429, 2, 7, 1.46], [307, 2, 7, 3.37], [10825, 21, 13, 1.0], [5081, 2, 7, 1.04], [12870, 1, 7, 1.25], [57, 1, 7, 0.8], [10149, 3, 21, 1.27], [7036, 1, 7, 1.81], [3478, 2, 7, 1.0], [7084, 3, 7, 1.67], [1006, 2, 7, 1.53], [1504, 2, 9, 1.0], [3891, 1, 7, 1.71], [21793, 1, 7, 3.43], [94, 4, 7, 3.56], [167, 3, 7, 1.44], [411, 2, 7, 0.9], [9827, 3, 7, 1.38], [3893, 1, 7, 0.65], [79, 1, 7, 1.08], [33, 1, 9, 1.88], [432, 3, 9, 1.23], [8677, 3, 9, 1.51], [11681, 2, 11, 3.45], [148, 1, 7, 3.1], [96, 11, 24, 0.67], [1490, 1, 9, 0.82], [12225, 1, 7, 1.7], [1124, 2, 11, 0.74], [11737, 2, 7, 1.26], [1243, 2, 7, 0.92], [22247, 2, 11, 1.79], [6158, 2, 8, 1.39], [5812, 3, 8, 3.52], [8853, 2, 11, 3.19], [201, 3, 7, 0.9], [412, 1, 7, 2.46], [9760, 29, 9, 1.04], [10574, 3, 9, 2.6], [8651, 2, 7, 1.13], [20927, 1, 7, 0.83], [5208, 3, 11, 1.25], [8676, 2, 12, 1.23], [229, 1, 7, 2.31], [1767, 25, 7, 1.14], [25, 1, 7, 1.4], [45, 2, 7, 2.7], [9069, 1, 7, 0.79], [413, 1, 7, 2.29], [11490, 1, 7, 0.69], [149, 2, 7, 3.27], [159, 3, 9, 1.18], [3495, 3, 21, 1.61], [21269, 3, 7, 2.34], [998, 2, 7, 1.87], [140, 2, 7, 1.5], [95, 3, 17, 3.57], [3980, 4, 7, 2.46], [950, 1, 7, 1.3], [5946, 1, 7, 1.83], [9372, 1, 7, 3.91], [1126, 2, 7, 1.36], [1766, 25, 7, 1.08], [2775, 2, 7, 1.46], [1413, 15, 9, 1.85], [490, 1, 9, 0.99], [506, 1, 7, 4.76], [8674, 2, 7, 0.99], [11489, 1, 7, 1.21], [8898, 3, 7, 3.23], [997, 2, 7, 3.34], [3670, 2, 7, 3.6], [1070, 7, 15, 0.85], [9691, 1, 7, 1.89], [107, 2, 7, 1.46], [974, 3, 7, 1.64], [20498, 1, 7, 1.81], [11954, 1, 7, 0.87], [14037, 3, 7, 0.8], [14017, 3, 9, 1.09], [823, 1, 7, 1.62], [34, 1, 7, 2.43], [5209, 3, 7, 0.98], [972, 3, 8, 1.49], [9784, 1, 7, 1.51], [11739, 2, 7, 1.26], [1091, 1, 7, 1.18], [432, 3, 234, 2.81], [8677, 3, 226, 2.67], [11681, 2, 206, 5.11], [148, 1, 66, 4.77], [96, 11, 651, 2.32], [1490, 1, 38, 2.48], [12225, 1, 71, 2.57], [1124, 2, 143, 2.7], [11737, 2, 32, 2.92], [1243, 2, 83, 2.22], [22247, 2, 216, 3.38], [6158, 2, 221, 2.69], [5812, 3, 502, 4.82], [8853, 2, 216, 4.71], [201, 3, 226, 2.53], [412, 1, 63, 3.1], [9760, 29, 54, 3.01], [10574, 3, 382, 4.26], [8651, 2, 171, 2.79], [20927, 1, 61, 2.46], [5208, 3, 480, 2.56], [8676, 2, 217, 2.65], [229, 1, 63, 2.95], [1767, 25, 132, 2.76], [25, 1, 95, 2.71], [45, 2, 82, 4.36], [9069, 1, 93, 2.41], [413, 1, 65, 2.94], [11490, 1, 83, 2.32], [149, 2, 66, 4.03], [159, 3, 602, 2.48], [3495, 3, 737, 3.28], [21269, 3, 225, 3.5], [998, 2, 181, 2.54], [140, 2, 69, 3.09], [95, 3, 892, 4.89], [3980, 4, 368, 4.11], [950, 1, 25, 2.17], [5946, 1, 95, 2.48], [9372, 1, 173, 4.69], [1126, 2, 175, 2.52], [1766, 25, 144, 2.69], [2775, 2, 119, 2.63], [1413, 15, 53, 4.01], [490, 1, 45, 2.39], [506, 1, 74, 6.0], [8674, 2, 217, 2.66], [11489, 1, 83, 2.87], [8898, 3, 225, 4.39], [997, 2, 202, 4.64], [3670, 2, 180, 4.37], [1070, 7, 453, 2.51], [9691, 1, 57, 2.54], [107, 2, 31, 2.12], [974, 3, 113, 2.8], [20498, 1, 74, 3.4], [11954, 1, 171, 2.17], [14037, 3, 125, 2.18], [14017, 3, 149, 2.47], [823, 1, 30, 3.2], [34, 1, 85, 3.19], [5209, 3, 480, 2.29], [972, 3, 453, 2.26], [9784, 1, 55, 2.67], [11739, 2, 32, 2.92], [1091, 1, 41, 2.48]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 1.01], [305, 2, 7, 1.1], [2049, 3, 13, 0.7], [6935, 2, 21, 3.58], [326, 2, 8, 2.27], [141, 2, 7, 2.25], [144, 2, 7, 1.17], [589, 2, 12, 0.77], [151, 1, 7, 0.92], [362, 2, 9, 0.83], [12721, 2, 10, 1.03], [146, 2, 7, 1.26], [1776, 1, 7, 2.19], [145, 2, 7, 0.8], [206, 2, 7, 0.69], [2328, 2, 7, 1.35], [8915, 2, 11, 0.71], [143, 2, 7, 1.12], [990, 2, 9, 1.06], [6936, 2, 10, 3.41], [20252, 2, 7, 0.91], [8650, 2, 7, 2.27], [1777, 1, 7, 2.96], [1007, 2, 10, 0.81], [2778, 2, 7, 0.79], [248, 1, 7, 0.68], [88, 10, 14, 2.0], [22247, 2, 9, 1.93], [2050, 3, 7, 0.69], [76, 2, 7, 2.39], [8649, 2, 7, 2.74], [10149, 3, 25, 3.53], [10, 2, 11, 1.65], [8677, 3, 8, 3.58], [2054, 3, 7, 4.0], [412, 1, 7, 1.64], [2055, 3, 7, 4.0], [13028, 3, 7, 1.38], [413, 1, 7, 2.12], [7004, 1, 9, 0.89], [411, 2, 7, 0.88], [10825, 21, 14, 2.34], [11681, 2, 10, 4.26], [1446, 2, 7, 1.91], [7084, 3, 7, 1.66], [307, 2, 7, 1.35], [3478, 2, 7, 2.16], [1429, 2, 7, 1.21], [3495, 3, 26, 1.77], [1006, 2, 7, 1.36], [147, 1, 7, 2.73], [1492, 1, 6, 1.98], [5081, 2, 7, 0.81], [140, 2, 7, 1.98], [167, 3, 9, 1.86], [7005, 1, 9, 0.89], [7036, 1, 7, 1.62], [9827, 3, 7, 1.38], [45, 2, 7, 2.95], [8676, 2, 7, 0.98], [1124, 2, 9, 0.72], [2049, 1, 7, 1.7], [94, 4, 7, 3.47], [5812, 3, 8, 3.38], [13280, 1, 9, 3.64], [168, 3, 9, 1.46], [1504, 2, 7, 1.33], [12870, 1, 7, 1.5], [57, 1, 7, 0.7], [11234, 2, 8, 1.32], [415, 1, 7, 2.06], [8651, 2, 7, 1.94], [148, 1, 7, 1.56], [418, 2, 7, 0.7], [8853, 2, 14, 3.62], [6097, 29, 7, 3.38], [8939, 2, 7, 0.84], [416, 1, 7, 2.33], [6097, 80, 7, 3.38], [11737, 2, 7, 2.34], [20256, 2, 7, 1.42], [490, 1, 7, 2.02], [1490, 1, 7, 1.27], [998, 2, 7, 3.68], [20927, 1, 9, 0.89], [79, 1, 7, 0.7], [95, 3, 26, 0.85], [6098, 29, 7, 2.08], [14017, 3, 7, 1.0], [6098, 80, 7, 2.08], [414, 1, 7, 1.49], [9069, 1, 7, 1.91], [1070, 7, 16, 0.73], [1243, 2, 7, 0.96], [8898, 3, 7, 2.67], [1126, 2, 7, 1.22], [149, 2, 7, 2.73], [126, 2, 7, 2.75], [13034, 3, 8, 3.38], [997, 2, 7, 3.68], [9760, 29, 7, 0.87], [20498, 1, 7, 1.96], [20255, 2, 7, 1.43], [5086, 1, 9, 1.76], [5513, 2, 7, 0.84], [12924, 1, 9, 0.86], [9784, 1, 7, 1.06], [336, 15, 7, 1.66], [22317, 3, 8, 1.35], [11739, 2, 7, 1.65], [13260, 29, 7, 1.0], [7567, 3, 7, 3.2], [974, 3, 7, 1.64], [1413, 15, 7, 1.52], [11085, 2, 7, 0.83], [5811, 3, 7, 2.82], [229, 1, 7, 2.92], [972, 3, 8, 1.35], [5813, 3, 9, 2.14], [8557, 3, 7, 1.01], [192, 3, 22, 4.76], [9082, 3, 20, 2.38], [506, 1, 7, 2.73], [3049, 3, 7, 3.65], [9691, 1, 9, 2.48], [20498, 3, 8, 2.02], [14018, 3, 7, 1.0], [524, 1, 7, 2.16], [4076, 3, 7, 2.96], [470, 1, 7, 1.35], [1622, 1, 10, 0.79], [11454, 2, 9, 3.15], [2775, 2, 9, 0.73], [12870, 1, 113, 2.27], [57, 1, 79, 1.85], [11234, 2, 170, 2.47], [415, 1, 71, 2.31], [8651, 2, 186, 2.71], [148, 1, 80, 2.71], [418, 2, 131, 1.85], [8853, 2, 235, 4.88], [6097, 29, 27, 4.65], [8939, 2, 76, 2.11], [416, 1, 71, 2.57], [6097, 80, 55, 4.65], [11737, 2, 23, 3.11], [20256, 2, 77, 2.19], [490, 1, 36, 2.28], [1490, 1, 42, 2.03], [998, 2, 218, 4.83], [20927, 1, 65, 1.93], [79, 1, 44, 1.85], [95, 3, 936, 2.19], [6098, 29, 30, 3.21], [14017, 3, 162, 2.22], [6098, 80, 61, 3.2], [414, 1, 79, 2.64], [9069, 1, 100, 2.17], [1070, 7, 494, 2.01], [1243, 2, 90, 2.12], [8898, 3, 231, 3.94], [1126, 2, 189, 1.99], [149, 2, 80, 3.88], [126, 2, 75, 2.98], [13034, 3, 486, 4.14], [997, 2, 218, 4.83], [9760, 29, 59, 2.09], [20498, 1, 79, 2.73], [20255, 2, 77, 2.2], [5086, 1, 152, 3.49], [5513, 2, 70, 1.99], [12924, 1, 44, 2.3], [9784, 1, 60, 2.28], [336, 15, 93, 1.92], [22317, 3, 261, 2.11], [11739, 2, 47, 2.92], [13260, 29, 67, 2.15], [7567, 3, 57, 3.41], [974, 3, 136, 2.79], [1413, 15, 82, 2.79], [11085, 2, 508, 1.97], [5811, 3, 486, 3.58], [229, 1, 75, 4.08], [972, 3, 546, 2.51], [5813, 3, 486, 3.24], [8557, 3, 167, 2.28], [192, 3, 1287, 5.9], [9082, 3, 2070, 3.66], [506, 1, 80, 3.88], [3049, 3, 113, 4.42], [9691, 1, 62, 2.98], [20498, 3, 477, 2.76], [14018, 3, 162, 2.22], [524, 1, 69, 2.41], [4076, 3, 163, 3.19], [470, 1, 21, 2.12], [1622, 1, 50, 1.56], [11454, 2, 277, 4.42], [2775, 2, 130, 2.06]]</t>
-  </si>
-  <si>
-    <t>[[11685, 2, 7, 3.69], [6935, 2, 10, 4.2], [130, 1, 9, 0.77], [326, 2, 9, 2.77], [8648, 2, 7, 1.35], [144, 2, 9, 2.2], [593, 2, 7, 1.57], [2327, 2, 7, 0.9], [143, 2, 7, 1.57], [205, 2, 7, 1.48], [8915, 2, 8, 3.38], [2328, 2, 7, 1.41], [11681, 2, 7, 3.3], [6936, 2, 9, 4.22], [305, 2, 7, 0.88], [151, 1, 7, 1.25], [8650, 2, 7, 1.1], [141, 2, 7, 0.92], [2778, 2, 9, 1.07], [206, 2, 7, 1.35], [2049, 3, 14, 0.83], [88, 10, 18, 1.22], [615, 2, 7, 3.33], [7036, 1, 7, 3.02], [8853, 2, 7, 4.23], [8649, 2, 7, 1.87], [5491, 2, 7, 0.9], [248, 1, 7, 0.8], [434, 2, 7, 0.86], [1006, 2, 7, 1.93], [75, 2, 7, 2.32], [2055, 3, 7, 3.44], [11737, 2, 7, 1.58], [990, 2, 7, 1.06], [417, 2, 7, 0.98], [616, 2, 7, 2.96], [3840, 1, 7, 0.72], [2050, 3, 7, 0.67], [1007, 2, 7, 1.44], [12870, 1, 7, 3.71], [12353, 1, 9, 2.27], [523, 2, 7, 1.93], [1504, 2, 7, 2.06], [159, 3, 8, 0.61], [20927, 1, 7, 1.77], [2057, 3, 9, 0.88], [13280, 1, 9, 5.0], [10574, 3, 8, 2.36], [3, 2, 9, 0.74], [142, 2, 7, 0.94], [12346, 1, 9, 1.93], [7084, 3, 7, 1.12], [9760, 29, 7, 1.3], [624, 2, 7, 3.92], [2054, 3, 9, 0.88], [140, 2, 7, 1.7], [2775, 2, 7, 1.07], [21793, 1, 7, 4.43], [3891, 1, 7, 0.98], [8939, 2, 7, 0.89], [1429, 2, 7, 1.38], [96, 11, 22, 1.59], [11739, 2, 7, 1.14], [6158, 2, 9, 0.75], [950, 1, 7, 0.68], [5165, 2, 8, 3.15], [12269, 2, 7, 1.9], [84, 2, 7, 1.96], [1126, 2, 7, 1.26], [9372, 1, 7, 3.34], [10388, 2, 7, 2.13], [411, 2, 7, 1.02], [98, 11, 16, 0.91], [972, 3, 7, 2.05], [5165, 1, 7, 3.03], [2912, 1, 7, 0.8], [8898, 3, 7, 5.0], [413, 1, 7, 1.94], [2776, 2, 7, 2.59], [410, 1, 7, 1.04], [12343, 1, 7, 3.27], [10386, 2, 7, 1.68], [995, 2, 7, 3.38], [9491, 21, 16, 1.93], [956, 2, 7, 0.86], [1492, 1, 7, 2.77], [418, 2, 7, 0.81], [12345, 1, 7, 2.72], [13928, 1, 7, 1.6], [9784, 1, 7, 0.9], [22316, 3, 7, 0.92], [147, 1, 7, 0.98], [22247, 2, 7, 2.43], [412, 1, 7, 0.84], [336, 15, 7, 1.66], [8677, 3, 7, 1.73], [11490, 1, 7, 1.02], [7567, 3, 7, 3.18], [2912, 2, 8, 0.79], [308, 1, 7, 3.28], [432, 3, 7, 0.86], [307, 2, 7, 1.58], [11953, 1, 7, 0.96], [33, 1, 7, 2.04], [11770, 1, 9, 1.3], [10631, 2, 7, 2.7], [414, 1, 7, 1.24], [35, 1, 7, 2.06], [148, 1, 7, 1.01], [20256, 2, 7, 0.81], [10407, 10, 10, 2.88], [22317, 3, 7, 1.42], [1413, 15, 7, 1.17], [10410, 10, 10, 3.2], [10780, 10, 7, 3.0], [13286, 1, 7, 2.52], [415, 1, 7, 1.24], [439, 1, 7, 2.12], [335, 3, 15, 3.35], [7886, 4, 7, 0.86], [9691, 1, 7, 1.0], [7573, 1, 11, 3.36], [11767, 1, 7, 0.92], [12347, 1, 7, 3.27], [972, 1, 7, 2.77], [10387, 2, 7, 1.75], [10149, 3, 21, 1.48], [74, 1, 7, 2.13], [20686, 1, 7, 2.96], [3478, 2, 7, 3.14], [12271, 2, 7, 1.86], [9690, 1, 7, 1.39], [9971, 2, 7, 2.77], [1126, 2, 197, 2.71], [9372, 1, 196, 4.79], [10388, 2, 186, 3.58], [411, 2, 84, 2.73], [98, 11, 720, 2.35], [972, 3, 459, 2.73], [2912, 1, 38, 2.01], [8898, 3, 242, 6.0], [413, 1, 66, 2.64], [2776, 2, 135, 4.04], [410, 1, 81, 2.7], [12343, 1, 488, 4.47], [10386, 2, 186, 3.14], [995, 2, 208, 4.83], [9491, 21, 1812, 3.36], [956, 2, 93, 2.32], [1492, 1, 14, 3.97], [418, 2, 109, 2.48], [12345, 1, 488, 3.94], [13928, 1, 37, 2.81], [9784, 1, 56, 2.57], [22316, 3, 273, 2.38], [147, 1, 79, 2.43], [22247, 2, 243, 3.88], [412, 1, 65, 2.55], [336, 15, 86, 2.36], [8677, 3, 229, 2.72], [11490, 1, 94, 2.47], [7567, 3, 54, 3.83], [2912, 2, 342, 2.25], [308, 1, 139, 4.73], [432, 3, 237, 2.57], [307, 2, 115, 2.78], [11953, 1, 175, 2.42], [33, 1, 86, 2.74], [11770, 1, 170, 3.51], [10631, 2, 183, 4.15], [414, 1, 74, 2.69], [35, 1, 86, 2.75], [148, 1, 79, 2.46], [20256, 2, 81, 2.26], [10407, 10, 1015, 4.32], [22317, 3, 245, 2.63], [1413, 15, 86, 2.63], [10410, 10, 1015, 4.64], [10780, 10, 316, 4.46], [13286, 1, 246, 3.2], [415, 1, 74, 2.69], [439, 1, 75, 3.57], [335, 3, 1103, 4.78], [7886, 4, 99, 2.22], [9691, 1, 66, 2.45], [7573, 1, 288, 4.82], [11767, 1, 139, 2.37], [12347, 1, 488, 4.47], [972, 1, 85, 4.22], [10387, 2, 186, 3.2], [10149, 3, 752, 2.93], [74, 1, 176, 3.58], [20686, 1, 476, 4.17], [3478, 2, 29, 3.79], [12271, 2, 55, 3.31], [9690, 1, 65, 2.85], [9971, 2, 211, 3.59]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 1.03], [141, 2, 7, 1.22], [362, 2, 7, 0.88], [361, 2, 6, 0.99], [6935, 2, 23, 3.83], [205, 2, 7, 0.65], [12721, 2, 11, 2.8], [11737, 2, 7, 1.23], [206, 2, 7, 0.7], [2049, 3, 17, 0.72], [8676, 2, 7, 2.44], [8675, 2, 9, 1.42], [417, 2, 7, 1.55], [3, 2, 7, 0.96], [6936, 2, 7, 3.04], [305, 2, 7, 1.48], [151, 1, 7, 1.38], [523, 2, 7, 1.13], [22247, 2, 7, 1.83], [8650, 2, 7, 2.33], [142, 2, 7, 0.9], [8648, 2, 7, 3.27], [2328, 2, 7, 1.5], [2776, 2, 7, 1.18], [8853, 2, 7, 3.03], [616, 2, 7, 2.22], [11739, 2, 7, 1.23], [2327, 2, 7, 1.66], [11837, 2, 7, 0.82], [411, 2, 7, 0.86], [12352, 1, 7, 3.09], [589, 2, 7, 0.8], [143, 2, 7, 1.6], [146, 2, 7, 1.14], [11835, 2, 7, 1.06], [412, 1, 7, 1.93], [12353, 1, 7, 3.09], [6497, 1, 9, 1.34], [8674, 2, 7, 1.17], [583, 2, 7, 2.85], [145, 2, 7, 0.9], [2805, 137, 14, 1.1], [326, 2, 7, 2.54], [10574, 3, 9, 2.49], [418, 2, 7, 1.0], [144, 2, 7, 0.96], [6097, 80, 7, 3.38], [11738, 2, 7, 1.23], [11836, 2, 7, 0.97], [9784, 1, 7, 1.91], [10149, 3, 21, 0.86], [6097, 29, 7, 3.88], [413, 1, 7, 1.87], [2057, 3, 7, 3.23], [2055, 3, 7, 3.23], [75, 2, 7, 1.04], [11234, 2, 8, 1.32], [12344, 1, 7, 2.54], [1413, 15, 7, 0.89], [20252, 2, 7, 0.87], [11504, 2, 7, 0.67], [12269, 2, 7, 1.05], [8915, 2, 7, 0.71], [414, 1, 7, 1.91], [1492, 1, 7, 1.13], [6098, 80, 7, 2.19], [12346, 1, 7, 3.09], [3429, 15, 7, 0.85], [247, 1, 7, 3.32], [22316, 3, 7, 0.85], [1886, 2, 9, 0.75], [2774, 2, 7, 2.72], [1490, 1, 7, 0.66], [416, 1, 7, 2.14], [6098, 29, 7, 2.55], [9786, 1, 7, 2.84], [3934, 5, 8, 0.94], [2859, 15, 7, 1.05], [2049, 1, 7, 0.75], [201, 3, 7, 2.66], [3670, 2, 9, 3.61], [20555, 2, 7, 1.23], [6158, 2, 9, 1.76], [3478, 2, 7, 2.16], [7084, 3, 7, 1.81], [9785, 1, 7, 1.91], [12526, 2, 7, 2.78], [8599, 1, 7, 2.59], [8938, 2, 7, 1.07], [1703, 2, 7, 1.53], [4253, 1, 7, 0.92], [9760, 29, 7, 1.83], [186, 3, 12, 0.9], [1413, 16, 7, 0.68], [229, 1, 7, 2.94], [11885, 2, 7, 0.71], [107, 2, 7, 2.38], [11887, 2, 8, 0.65], [1050, 2, 7, 0.68], [11811, 1, 7, 1.93], [4232, 80, 7, 3.23], [94, 4, 7, 4.04], [11490, 1, 7, 0.96], [436, 2, 7, 0.94], [107, 7, 8, 1.99], [2438, 2, 8, 2.38], [415, 1, 7, 2.14], [947, 15, 7, 0.71], [11770, 1, 7, 0.8], [3673, 2, 7, 3.82], [11767, 1, 7, 0.88], [11671, 1, 7, 0.83], [5939, 3, 7, 0.91], [2821, 3, 13, 0.77], [11769, 1, 7, 0.88], [11160, 1, 7, 3.67], [11844, 2, 7, 1.16], [12347, 1, 7, 3.55], [5812, 3, 7, 4.0], [7036, 1, 7, 0.87], [9358, 1, 7, 0.81], [140, 2, 7, 2.41], [3495, 3, 21, 1.51], [12764, 2, 8, 0.82], [11771, 1, 7, 3.17], [5813, 3, 8, 1.92], [23920, 2, 7, 0.85], [11954, 1, 7, 0.77], [308, 1, 11, 1.83], [9690, 1, 7, 1.45], [410, 1, 7, 2.74], [5811, 3, 8, 3.52], [22573, 2, 7, 0.71], [3429, 15, 53, 2.63], [247, 1, 86, 5.11], [22316, 3, 318, 2.64], [1886, 2, 141, 2.86], [2774, 2, 205, 4.5], [1490, 1, 51, 2.45], [416, 1, 86, 3.92], [6098, 29, 37, 4.34], [9786, 1, 48, 4.45], [3934, 5, 586, 2.73], [2859, 15, 69, 2.84], [2049, 1, 15, 2.36], [201, 3, 299, 4.45], [3670, 2, 236, 5.41], [20555, 2, 57, 3.01], [6158, 2, 259, 3.55], [3478, 2, 75, 3.95], [7084, 3, 116, 3.92], [9785, 1, 64, 3.01], [12526, 2, 273, 4.56], [8599, 1, 145, 4.37], [8938, 2, 192, 2.86], [1703, 2, 164, 3.32], [4253, 1, 171, 2.71], [9760, 29, 63, 2.93], [186, 3, 665, 2.69], [1413, 16, 50, 2.47], [229, 1, 80, 4.73], [11885, 2, 97, 2.14], [107, 2, 48, 4.16], [11887, 2, 130, 2.26], [11811, 1, 451, 3.72], [4232, 80, 153, 5.02], [94, 4, 119, 5.82], [11490, 1, 110, 2.75], [436, 2, 107, 2.72], [107, 7, 216, 3.2], [2438, 2, 643, 4.17], [415, 1, 86, 3.92], [947, 15, 41, 2.5], [11770, 1, 220, 2.59], [3673, 2, 236, 5.61], [11767, 1, 164, 2.67], [11671, 1, 310, 2.62], [5939, 3, 266, 2.71], [2821, 3, 1338, 2.55], [11769, 1, 164, 2.67], [11160, 1, 491, 5.45], [11844, 2, 186, 2.77], [12347, 1, 607, 5.34], [5812, 3, 589, 5.78], [7036, 1, 127, 2.65], [9358, 1, 59, 2.6], [140, 2, 45, 3.84], [3495, 3, 965, 3.31], [12764, 2, 755, 2.62], [11771, 1, 213, 4.96], [5813, 3, 589, 3.7], [23920, 2, 106, 2.63], [11954, 1, 203, 2.56], [308, 1, 173, 3.62], [9690, 1, 75, 3.24], [410, 1, 35, 3.81], [5811, 3, 530, 5.12], [22573, 2, 36, 2.14]]</t>
-  </si>
-  <si>
-    <t>[[2327, 2, 7, 1.0], [305, 2, 7, 1.32], [6935, 2, 11, 4.28], [2778, 2, 9, 0.81], [144, 2, 9, 2.22], [130, 1, 7, 1.38], [8915, 2, 8, 1.9], [589, 2, 10, 0.99], [143, 2, 7, 1.12], [2328, 2, 7, 1.73], [6936, 2, 7, 3.42], [8648, 2, 7, 1.93], [2775, 2, 9, 0.94], [205, 2, 7, 0.83], [8650, 2, 7, 1.47], [326, 2, 9, 1.62], [593, 2, 9, 0.88], [146, 2, 7, 1.55], [145, 2, 7, 0.98], [7036, 1, 9, 2.3], [2049, 3, 10, 0.87], [2776, 2, 9, 0.94], [615, 2, 9, 0.87], [616, 2, 9, 0.66], [88, 10, 16, 2.46], [141, 2, 7, 0.71], [151, 1, 7, 1.38], [1124, 2, 7, 1.46], [11681, 2, 11, 3.45], [206, 2, 7, 0.74], [1446, 2, 7, 1.22], [9760, 29, 7, 1.18], [8853, 2, 7, 3.51], [990, 2, 7, 0.66], [5491, 2, 9, 1.44], [1007, 2, 7, 0.85], [362, 2, 9, 1.24], [8672, 2, 7, 2.94], [1504, 2, 7, 1.79], [2055, 3, 7, 0.84], [2057, 3, 7, 0.84], [9372, 1, 7, 3.79], [3893, 1, 7, 1.48], [8649, 2, 7, 1.29], [2912, 1, 7, 0.89], [8938, 2, 7, 0.95], [434, 2, 9, 0.71], [12870, 1, 7, 2.35], [10993, 2, 7, 1.34], [624, 2, 7, 2.19], [2050, 3, 7, 0.84], [417, 2, 9, 1.04], [3889, 1, 7, 0.65], [5165, 1, 7, 2.49], [1429, 2, 7, 0.91], [378, 2, 7, 4.21], [7084, 3, 7, 1.58], [10, 2, 7, 1.6], [2991, 3, 7, 3.64], [140, 2, 7, 3.18], [3891, 1, 7, 0.98], [1006, 2, 7, 1.04], [7886, 4, 7, 0.75], [10574, 3, 11, 3.29], [7573, 1, 22, 5.0], [10149, 3, 21, 1.48], [5208, 3, 9, 0.78], [1622, 1, 7, 1.03], [75, 2, 7, 0.75], [3, 2, 7, 0.89], [20927, 1, 7, 1.83], [5165, 2, 10, 2.34], [997, 2, 7, 2.64], [11234, 2, 7, 2.3], [1886, 2, 9, 0.82], [12721, 2, 7, 1.26], [22247, 2, 7, 2.64], [147, 1, 7, 3.37], [346, 3, 9, 0.69], [996, 2, 7, 2.83], [229, 1, 7, 0.86], [11811, 1, 7, 0.8], [20252, 2, 7, 1.43], [11685, 2, 11, 3.45], [94, 4, 7, 3.68], [998, 2, 7, 3.33], [972, 3, 10, 1.12], [2912, 2, 15, 0.66], [9491, 21, 17, 0.8], [76, 2, 7, 1.67], [35, 1, 7, 1.96], [439, 1, 9, 2.21], [413, 1, 7, 2.08], [13028, 3, 7, 4.24], [13928, 1, 7, 1.28], [8104, 1, 7, 1.67], [5076, 1, 7, 0.83], [2805, 137, 7, 1.16], [412, 1, 7, 1.85], [5209, 3, 9, 0.78], [8676, 2, 7, 4.08], [33, 1, 7, 1.87], [83, 2, 7, 1.69], [418, 2, 7, 1.21], [148, 1, 7, 3.39], [2774, 2, 7, 1.15], [3495, 3, 16, 1.41], [8898, 3, 7, 3.35], [7887, 4, 7, 1.81], [12212, 29, 7, 0.98], [20256, 2, 9, 0.82], [38, 1, 7, 2.23], [11490, 1, 7, 1.29], [11770, 1, 7, 2.76], [34, 1, 7, 2.1], [10407, 10, 10, 3.59], [415, 1, 7, 1.96], [9784, 1, 7, 0.96], [84, 2, 7, 1.37], [13928, 2, 7, 1.35], [126, 2, 7, 2.34], [411, 2, 7, 0.72], [11739, 2, 7, 2.61], [3048, 3, 7, 4.58], [9691, 1, 7, 1.05], [9690, 1, 7, 0.69], [8939, 2, 7, 0.92], [5584, 3, 7, 2.81], [11953, 1, 7, 0.84], [39, 1, 7, 2.18], [12351, 1, 7, 1.22], [11954, 1, 7, 0.7], [7567, 3, 7, 2.64], [1622, 1, 105, 2.67], [75, 2, 126, 2.69], [3, 2, 106, 2.81], [20927, 1, 34, 2.64], [5165, 2, 342, 4.82], [997, 2, 232, 4.28], [11234, 2, 179, 3.94], [1886, 2, 136, 2.8], [12721, 2, 244, 3.23], [22247, 2, 244, 3.57], [147, 1, 78, 4.28], [346, 3, 557, 2.68], [996, 2, 208, 4.81], [229, 1, 81, 2.5], [11811, 1, 402, 2.78], [20252, 2, 91, 3.07], [11685, 2, 234, 5.43], [94, 4, 105, 4.77], [998, 2, 208, 4.81], [972, 3, 522, 2.82], [2912, 2, 348, 2.47], [9491, 21, 1872, 2.76], [76, 2, 95, 2.65], [35, 1, 97, 2.93], [439, 1, 76, 4.69], [413, 1, 75, 3.04], [13028, 3, 128, 5.72], [13928, 1, 41, 3.26], [8104, 1, 180, 3.59], [5076, 1, 114, 2.77], [2805, 137, 157, 3.08], [412, 1, 73, 3.83], [5209, 3, 493, 2.87], [8676, 2, 275, 5.72], [33, 1, 97, 3.76], [418, 2, 124, 3.13], [148, 1, 78, 4.3], [2774, 2, 200, 2.79], [3495, 3, 938, 3.05], [8898, 3, 257, 4.83], [7887, 4, 39, 2.3], [12212, 29, 105, 2.95], [20256, 2, 81, 2.94], [38, 1, 97, 3.19], [11490, 1, 80, 2.77], [11770, 1, 206, 4.4], [34, 1, 97, 3.07], [10407, 10, 645, 5.06], [415, 1, 75, 2.92], [9784, 1, 71, 2.6], [84, 2, 58, 2.85], [13928, 2, 20, 3.26], [126, 2, 86, 3.98], [411, 2, 106, 2.37], [11739, 2, 55, 4.25], [3048, 3, 236, 6.0], [9691, 1, 74, 2.7], [9690, 1, 25, 1.67], [8939, 2, 169, 2.9], [5584, 3, 206, 4.28], [11953, 1, 195, 2.48], [39, 1, 97, 3.13], [12351, 1, 612, 2.87], [11954, 1, 195, 2.34], [7567, 3, 60, 4.12]]</t>
+    <t>[[8672, 2, 6, 0.73], [3, 2, 4, 1.22], [326, 2, 4, 0.29], [589, 2, 6, 0.2], [143, 2, 4, 0.58], [2049, 3, 9, 1.15], [6935, 2, 8, 1.27], [130, 1, 5, 0.6], [205, 2, 4, 0.2], [75, 2, 6, 0.87], [12721, 2, 6, 0.72], [144, 2, 4, 0.74], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [1776, 1, 4, 0.61], [593, 2, 5, 0.59], [146, 2, 4, 1.17], [151, 1, 4, 0.2], [2778, 2, 6, 0.2], [1777, 1, 4, 0.74], [20252, 2, 5, 0.2], [206, 2, 4, 0.2], [8648, 2, 4, 1.27], [990, 2, 4, 0.7], [2328, 2, 4, 0.2], [6936, 2, 6, 1.17], [5151, 2, 4, 0.47], [7886, 4, 5, 0.45], [8650, 2, 5, 1.65], [88, 10, 8, 0.44], [141, 2, 4, 0.28], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [1492, 1, 5, 0.72], [7004, 1, 4, 0.2], [2054, 3, 5, 0.53], [362, 2, 4, 0.96], [2057, 3, 6, 0.47], [10825, 21, 10, 1.03], [8649, 2, 4, 1.4], [2055, 3, 5, 0.42], [345, 3, 4, 0.32], [7084, 3, 4, 2.28], [7005, 1, 4, 0.2], [307, 2, 4, 1.0], [3889, 1, 4, 0.2], [21793, 1, 5, 1.14], [410, 1, 4, 0.52], [432, 3, 6, 0.62], [7887, 4, 4, 0.35], [22247, 2, 5, 0.95], [57, 1, 4, 0.44], [11681, 2, 5, 1.79], [10149, 3, 15, 0.99], [308, 1, 4, 0.49], [7036, 1, 4, 0.68], [94, 4, 4, 0.2], [12870, 1, 4, 2.33], [5081, 2, 5, 0.44], [9827, 3, 4, 0.2], [201, 3, 5, 0.2], [167, 3, 5, 1.4], [13028, 3, 4, 0.62], [8677, 3, 6, 0.65], [1504, 2, 5, 0.52], [1124, 2, 8, 0.2], [3891, 1, 4, 0.2], [35, 1, 4, 0.83], [3893, 1, 4, 0.2], [8676, 2, 4, 0.73], [168, 3, 4, 1.23], [9760, 29, 4, 0.24], [5812, 3, 6, 0.8], [1243, 2, 4, 0.66], [6158, 2, 6, 0.51], [412, 1, 4, 1.39], [45, 2, 4, 0.64], [361, 2, 4, 0.53], [20927, 1, 4, 0.49], [335, 3, 11, 0.22], [1767, 25, 4, 0.59], [3980, 4, 4, 1.39], [346, 1, 4, 0.85], [95, 3, 14, 0.3], [9069, 1, 4, 0.42], [214, 3, 9, 0.2], [998, 2, 4, 1.22], [2049, 1, 4, 0.48], [413, 1, 5, 1.32], [3495, 3, 13, 1.31], [8674, 2, 4, 0.73], [856, 1, 4, 0.38], [34, 1, 4, 0.63], [8898, 3, 5, 0.75], [11116, 1, 5, 0.56], [346, 3, 4, 0.82], [1766, 25, 4, 0.56], [5946, 1, 4, 0.78], [1070, 7, 10, 0.46], [997, 2, 4, 0.77], [9691, 1, 4, 1.77], [20498, 1, 4, 0.23], [38, 1, 4, 0.88], [974, 3, 5, 1.13], [152, 21, 4, 0.43], [9372, 1, 5, 1.99], [14017, 3, 5, 1.04], [1091, 1, 4, 0.78], [22317, 3, 6, 0.51], [11954, 1, 5, 0.2], [20498, 3, 8, 0.57], [996, 2, 4, 1.22], [82, 2, 4, 0.46], [1080, 3, 5, 0.3], [9828, 3, 4, 0.2], [14037, 3, 4, 0.2], [39, 1, 4, 0.84], [5811, 3, 4, 2.2], [3048, 3, 4, 1.24], [972, 3, 5, 0.91], [1767, 2, 4, 0.59], [13260, 29, 4, 0.73], [24, 1, 4, 0.79], [4203, 1, 5, 0.3], [5813, 3, 5, 1.52], [10780, 10, 4, 1.3], [13034, 3, 5, 1.09], [5513, 2, 4, 1.0], [8945, 3, 5, 1.5], [952, 4, 4, 2.16], [202, 2, 4, 1.59], [3981, 3, 10, 1.42], [3900, 3, 4, 0.49], [995, 2, 4, 1.22], [6497, 1, 4, 0.47], [8672, 2, 339, 3.45], [3, 2, 142, 3.44], [326, 2, 110, 2.14], [589, 2, 172, 1.66], [143, 2, 168, 3.36], [6935, 2, 315, 5.06], [130, 1, 66, 2.8], [205, 2, 122, 2.81], [75, 2, 165, 3.91], [12721, 2, 321, 4.0], [144, 2, 180, 2.18], [145, 2, 171, 3.26], [8915, 2, 218, 1.5], [1776, 1, 122, 3.44], [593, 2, 77, 2.77], [146, 2, 171, 3.01], [151, 1, 75, 1.7], [2778, 2, 174, 3.37], [1777, 1, 122, 3.66], [20252, 2, 105, 1.86], [206, 2, 55, 2.12], [8648, 2, 248, 5.84], [2328, 2, 169, 3.6], [6936, 2, 315, 4.78], [5151, 2, 29, 1.66], [7886, 4, 132, 1.87], [8650, 2, 248, 6.0], [88, 10, 669, 2.75], [141, 2, 173, 3.92], [74, 1, 222, 5.84], [83, 2, 60, 1.77], [1492, 1, 41, 3.2], [7004, 1, 90, 1.73], [2054, 3, 532, 2.85], [362, 2, 167, 3.17], [2057, 3, 532, 3.18], [10825, 21, 710, 3.76], [8649, 2, 248, 6.0], [2055, 3, 532, 3.1], [345, 3, 337, 3.35], [7005, 1, 90, 1.72], [307, 2, 174, 2.69], [3889, 1, 138, 3.11], [21793, 1, 256, 5.01], [410, 1, 124, 1.76], [432, 3, 339, 3.45], [7887, 4, 157, 1.66], [22247, 2, 338, 3.49], [57, 1, 101, 1.76], [11681, 2, 295, 6.0], [10149, 3, 986, 3.97], [308, 1, 188, 3.55], [7036, 1, 143, 4.05], [94, 4, 133, 4.41], [12870, 1, 70, 6.0], [5081, 2, 213, 3.57], [9827, 3, 98, 3.03], [201, 3, 337, 3.35], [167, 3, 255, 3.97], [13028, 3, 163, 4.2], [8677, 3, 330, 3.57], [1504, 2, 228, 3.71], [1124, 2, 209, 3.48], [3891, 1, 138, 3.99], [35, 1, 125, 3.56]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.45], [6935, 2, 6, 1.69], [589, 2, 5, 0.91], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [130, 1, 4, 0.36], [2328, 2, 4, 0.2], [6936, 2, 5, 1.66], [205, 2, 4, 0.2], [8648, 2, 5, 1.15], [2775, 2, 4, 1.33], [593, 2, 6, 0.4], [145, 2, 4, 0.25], [146, 2, 5, 0.32], [5493, 2, 4, 0.2], [11681, 2, 4, 2.0], [7036, 1, 4, 1.53], [88, 10, 14, 0.52], [2776, 2, 4, 1.06], [141, 2, 5, 0.39], [151, 1, 4, 0.51], [1446, 2, 4, 0.53], [206, 2, 4, 0.2], [990, 2, 4, 0.39], [9760, 29, 4, 0.2], [248, 1, 4, 0.53], [5491, 2, 4, 0.4], [1007, 2, 4, 0.38], [8672, 2, 4, 2.86], [142, 2, 4, 0.92], [362, 2, 4, 0.52], [2912, 1, 4, 0.66], [10993, 2, 5, 0.35], [3893, 1, 4, 0.2], [12870, 1, 5, 1.68], [5165, 1, 4, 1.11], [7886, 4, 5, 0.44], [2055, 3, 5, 0.55], [417, 2, 4, 0.92], [9372, 1, 4, 1.17], [1622, 1, 5, 0.2], [3889, 1, 4, 0.2], [523, 2, 4, 0.55], [2054, 3, 5, 0.19], [7573, 1, 10, 2.21], [21793, 1, 5, 0.61], [10, 2, 5, 0.36], [7885, 4, 4, 0.49], [3891, 1, 4, 0.2], [10149, 3, 17, 1.21], [75, 2, 5, 1.25], [20927, 1, 4, 1.26], [61, 3, 4, 1.23], [5208, 3, 5, 0.19], [997, 2, 5, 1.01], [3, 2, 5, 0.62], [9491, 21, 17, 0.22], [12721, 2, 6, 1.46], [5165, 2, 5, 1.11], [35, 1, 5, 1.54], [83, 2, 4, 0.45], [998, 2, 4, 0.56], [22247, 2, 4, 1.14], [33, 1, 4, 1.18], [996, 2, 4, 0.35], [346, 3, 4, 1.66], [7887, 4, 4, 0.97], [972, 3, 5, 0.75], [5076, 1, 4, 0.96], [2805, 137, 4, 1.17], [229, 1, 4, 1.55], [6158, 2, 5, 0.2], [2424, 80, 4, 1.11], [34, 1, 4, 1.32], [13028, 3, 5, 1.36], [2912, 2, 7, 0.99], [13928, 1, 4, 1.33], [38, 1, 4, 1.38], [8898, 3, 4, 4.0], [346, 1, 4, 1.67], [76, 2, 5, 1.1], [12212, 29, 5, 0.2], [8104, 1, 4, 0.93], [2336, 3, 5, 0.5], [9690, 1, 4, 0.62], [5209, 3, 6, 0.46], [39, 1, 4, 1.35], [3495, 3, 11, 1.25], [11952, 1, 4, 0.66], [7567, 3, 4, 1.58], [2424, 29, 4, 0.66], [5946, 1, 4, 0.28], [11490, 1, 4, 0.46], [24257, 1, 4, 0.52], [9691, 1, 4, 0.9], [3048, 3, 4, 0.92], [11770, 1, 4, 1.08], [411, 2, 4, 0.85], [21798, 1, 4, 0.59], [1703, 2, 4, 1.33], [13928, 2, 4, 1.33], [632, 11, 13, 0.48], [11953, 1, 4, 0.2], [74, 1, 5, 2.78], [161, 3, 5, 1.48], [10407, 10, 6, 1.41], [22316, 3, 5, 0.35], [13023, 3, 6, 0.55], [1523, 1, 4, 0.4], [21269, 3, 4, 0.98], [10410, 10, 10, 1.92], [192, 3, 9, 1.05], [12764, 2, 6, 0.48], [214, 3, 11, 0.2], [2331, 1, 4, 0.79], [972, 1, 4, 1.01], [3430, 15, 4, 1.45], [5164, 1, 4, 1.0], [13893, 2, 4, 1.0], [1274, 1, 5, 0.3], [4076, 3, 4, 1.42], [6097, 80, 4, 1.26], [6097, 29, 4, 0.69], [11116, 1, 4, 0.56], [3576, 29, 4, 1.27], [10408, 10, 5, 1.58], [1080, 3, 4, 1.41], [1243, 2, 5, 0.88], [3047, 3, 4, 1.39], [10780, 10, 4, 1.87], [2438, 2, 6, 1.88], [8674, 2, 4, 1.9], [11813, 1, 4, 0.73], [3334, 5, 4, 1.2], [2436, 4, 5, 0.2], [305, 2, 161, 3.46], [6935, 2, 311, 6.0], [589, 2, 159, 2.45], [2778, 2, 171, 3.56], [144, 2, 176, 1.9], [8915, 2, 209, 2.94], [130, 1, 69, 1.55], [2328, 2, 165, 3.78], [6936, 2, 311, 5.9], [205, 2, 119, 2.56], [8648, 2, 243, 5.71], [2775, 2, 180, 3.42], [593, 2, 53, 3.44], [145, 2, 176, 1.82], [146, 2, 176, 2.21], [5493, 2, 119, 1.82], [11681, 2, 302, 5.82], [7036, 1, 140, 5.66], [88, 10, 652, 2.96], [2776, 2, 180, 2.9], [141, 2, 170, 3.36], [151, 1, 23, 1.62], [1446, 2, 166, 2.59], [206, 2, 101, 2.58], [990, 2, 60, 1.61], [9760, 29, 78, 3.37], [248, 1, 63, 1.88], [5491, 2, 126, 1.63], [1007, 2, 312, 1.59], [8672, 2, 323, 6.0], [142, 2, 179, 2.63], [362, 2, 154, 3.59], [2912, 1, 52, 2.59], [10993, 2, 58, 2.11], [3893, 1, 135, 3.35], [12870, 1, 152, 5.83], [5165, 1, 52, 3.0], [7886, 4, 157, 1.89], [2055, 3, 521, 2.57], [417, 2, 179, 2.63], [9372, 1, 264, 4.75], [1622, 1, 118, 1.67], [3889, 1, 135, 3.86], [523, 2, 179, 2.04], [2054, 3, 494, 3.32], [7573, 1, 378, 5.97], [21793, 1, 261, 2.56], [10, 2, 114, 3.02], [7885, 4, 29, 1.67], [3891, 1, 135, 3.4], [10149, 3, 947, 4.76], [75, 2, 160, 4.5], [61, 3, 239, 3.23], [5208, 3, 619, 2.12], [997, 2, 262, 4.96], [3, 2, 131, 3.96], [9491, 21, 2386, 3.56], [12721, 2, 311, 4.94], [5165, 2, 416, 2.81], [83, 2, 25, 2.2], [998, 2, 262, 4.14], [22247, 2, 311, 3.38], [33, 1, 39, 3.81], [996, 2, 262, 5.57]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 5, 1.09], [130, 1, 4, 0.35], [11685, 2, 4, 1.87], [8648, 2, 4, 0.71], [144, 2, 4, 1.3], [589, 2, 5, 0.2], [2327, 2, 5, 0.29], [11681, 2, 5, 1.37], [205, 2, 4, 0.37], [593, 2, 6, 0.27], [305, 2, 4, 0.51], [8915, 2, 5, 0.53], [141, 2, 4, 0.53], [8650, 2, 4, 0.77], [151, 1, 4, 0.4], [6936, 2, 6, 1.85], [2778, 2, 6, 0.2], [206, 2, 4, 0.46], [146, 2, 5, 0.82], [88, 10, 12, 0.19], [615, 2, 4, 0.37], [7036, 1, 4, 1.48], [1446, 2, 4, 0.9], [990, 2, 4, 0.36], [362, 2, 4, 0.5], [8853, 2, 5, 1.45], [417, 2, 4, 0.4], [248, 1, 4, 0.39], [2055, 3, 6, 1.98], [523, 2, 5, 0.53], [3893, 1, 4, 0.43], [12870, 1, 4, 1.42], [142, 2, 4, 0.4], [12350, 1, 4, 1.24], [2057, 3, 5, 1.78], [3889, 1, 5, 0.35], [7084, 3, 5, 1.07], [20927, 1, 4, 0.86], [7005, 1, 4, 0.67], [997, 2, 6, 0.78], [12349, 1, 4, 2.59], [21793, 1, 4, 1.34], [3891, 1, 5, 0.28], [61, 3, 4, 0.98], [7885, 4, 5, 0.52], [5165, 1, 4, 0.65], [6158, 2, 7, 0.2], [8672, 2, 5, 0.73], [5165, 2, 5, 0.65], [9491, 21, 14, 0.3], [2912, 1, 4, 0.87], [98, 11, 10, 0.68], [972, 3, 4, 1.77], [411, 2, 4, 0.9], [9372, 1, 4, 0.97], [10388, 2, 4, 0.6], [214, 3, 11, 0.2], [33, 1, 4, 2.08], [410, 1, 4, 0.8], [7886, 4, 5, 0.24], [13928, 1, 4, 1.1], [7567, 3, 4, 0.96], [9081, 3, 10, 0.8], [3981, 3, 13, 1.15], [22316, 3, 5, 0.51], [83, 2, 4, 0.42], [22247, 2, 4, 1.1], [336, 15, 4, 0.92], [308, 1, 4, 1.32], [2912, 2, 6, 2.03], [10631, 2, 4, 0.42], [161, 3, 5, 1.77], [229, 1, 4, 1.32], [5946, 1, 4, 0.38], [11953, 1, 4, 0.55], [10780, 10, 4, 1.74], [22317, 3, 6, 0.51], [6497, 1, 4, 0.22], [345, 3, 4, 0.76], [12271, 2, 4, 0.47], [3478, 2, 4, 1.0], [11767, 1, 4, 0.2], [10407, 10, 7, 1.36], [10410, 10, 6, 1.94], [9082, 3, 18, 0.83], [37, 1, 4, 1.16], [972, 1, 4, 0.5], [6097, 80, 4, 1.28], [39, 1, 4, 0.89], [8104, 1, 4, 0.38], [74, 1, 4, 2.03], [1413, 15, 4, 0.36], [34, 1, 4, 0.93], [82, 2, 4, 0.66], [7704, 2, 4, 1.2], [3048, 3, 4, 0.46], [24257, 1, 5, 1.38], [2331, 1, 4, 0.97], [192, 3, 10, 0.72], [335, 3, 9, 1.1], [152, 21, 4, 0.34], [38, 1, 4, 0.66], [9971, 2, 4, 0.72], [12338, 29, 4, 0.2], [9, 1, 4, 0.45], [4253, 1, 4, 0.59], [1523, 1, 4, 0.44], [45, 2, 5, 2.7], [12721, 2, 4, 0.97], [11510, 3, 5, 0.5], [6097, 29, 4, 1.28], [10936, 2, 4, 0.45], [8673, 2, 4, 2.14], [2805, 137, 4, 0.58], [10093, 3, 9, 0.92], [1080, 3, 4, 0.37], [7007, 1, 4, 1.21], [12764, 2, 5, 0.43], [3047, 3, 4, 2.46], [12212, 29, 4, 0.49], [7705, 2, 4, 1.2], [1895, 3, 4, 1.83], [8659, 1, 4, 0.91], [7706, 2, 4, 1.2], [9965, 2, 4, 2.42], [6496, 1, 4, 0.46], [8676, 2, 4, 0.49], [11812, 1, 4, 0.47], [201, 3, 4, 1.36], [2424, 80, 4, 1.31], [8635, 3, 4, 0.98], [4203, 1, 4, 0.54], [1703, 2, 4, 0.83], [3475, 2, 4, 1.08], [2438, 2, 5, 0.53], [6935, 2, 291, 5.01], [130, 1, 64, 1.48], [11685, 2, 275, 5.8], [8648, 2, 228, 3.76], [144, 2, 164, 3.31], [589, 2, 154, 3.05], [2327, 2, 154, 3.18], [11681, 2, 275, 5.79], [205, 2, 118, 1.55], [593, 2, 232, 3.21], [305, 2, 151, 3.38], [8915, 2, 206, 1.74], [141, 2, 158, 4.03], [8650, 2, 228, 3.3], [151, 1, 48, 1.53], [6936, 2, 291, 6.0], [2778, 2, 159, 3.51], [206, 2, 117, 2.38], [146, 2, 155, 4.01], [88, 10, 582, 3.29], [615, 2, 118, 2.34], [7036, 1, 131, 4.72], [1446, 2, 163, 2.54], [990, 2, 57, 1.5], [362, 2, 144, 3.36], [8853, 2, 291, 4.82], [417, 2, 167, 1.74], [248, 1, 59, 1.56], [2055, 3, 467, 5.86], [523, 2, 158, 3.5], [3893, 1, 135, 1.64], [12870, 1, 140, 5.64], [142, 2, 167, 1.74], [12350, 1, 658, 3.19], [2057, 3, 467, 5.97], [3889, 1, 128, 2.56], [7084, 3, 133, 3.88], [20927, 1, 80, 2.6], [7005, 1, 85, 2.1], [997, 2, 244, 3.44], [12349, 1, 658, 5.8], [21793, 1, 210, 3.39], [3891, 1, 128, 2.3], [61, 3, 211, 3.42], [7885, 4, 34, 1.75], [5165, 1, 51, 2.95], [6158, 2, 266, 3.69], [8672, 2, 294, 4.83], [5165, 2, 409, 2.97], [9491, 21, 2274, 2.79], [2912, 1, 52, 2.48], [98, 11, 894, 2.03], [411, 2, 111, 2.54], [9372, 1, 247, 5.04], [10388, 2, 237, 1.97], [214, 3, 673, 1.74], [410, 1, 37, 3.17], [13928, 1, 50, 2.99], [7567, 3, 71, 3.74], [9081, 3, 520, 2.21], [3981, 3, 1651, 4.11], [22316, 3, 323, 2.92], [83, 2, 51, 2.21], [22247, 2, 308, 2.92], [336, 15, 110, 2.58]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 5, 0.22], [6935, 2, 9, 0.72], [362, 2, 5, 0.95], [2049, 3, 10, 0.2], [589, 2, 6, 0.2], [141, 2, 5, 0.54], [75, 2, 5, 0.74], [1776, 1, 4, 0.58], [8672, 2, 6, 0.72], [20252, 2, 4, 0.2], [205, 2, 4, 0.46], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [1777, 1, 4, 0.93], [305, 2, 4, 0.23], [11681, 2, 5, 2.58], [593, 2, 7, 0.2], [8648, 2, 5, 0.77], [6936, 2, 5, 1.27], [2328, 2, 5, 0.2], [1007, 2, 5, 0.37], [88, 10, 12, 0.33], [83, 2, 4, 0.5], [5151, 2, 4, 0.9], [8650, 2, 5, 1.15], [412, 1, 4, 0.91], [345, 3, 4, 0.57], [2991, 3, 4, 2.17], [22247, 2, 4, 0.97], [361, 2, 4, 0.49], [144, 2, 4, 0.5], [57, 1, 6, 0.2], [201, 3, 5, 0.57], [21793, 1, 4, 1.03], [10149, 3, 15, 1.32], [45, 2, 5, 1.12], [3478, 2, 4, 0.45], [146, 2, 5, 0.56], [2054, 3, 5, 1.34], [7004, 1, 5, 0.47], [12721, 2, 6, 0.97], [167, 3, 5, 1.09], [2057, 3, 5, 1.62], [413, 1, 4, 0.73], [10825, 21, 8, 1.17], [6158, 2, 5, 0.87], [74, 1, 4, 0.84], [168, 3, 6, 0.74], [308, 1, 4, 0.72], [346, 1, 4, 0.2], [2055, 3, 4, 0.8], [10, 2, 4, 0.42], [7036, 1, 4, 1.96], [13028, 3, 4, 0.5], [3495, 3, 15, 0.92], [335, 3, 13, 0.4], [432, 3, 4, 0.39], [5081, 2, 5, 0.2], [7887, 4, 5, 0.4], [12870, 1, 4, 2.58], [214, 3, 9, 0.42], [8649, 2, 4, 1.4], [79, 1, 4, 0.2], [410, 1, 4, 0.8], [1492, 1, 4, 0.2], [3889, 1, 5, 0.2], [145, 2, 4, 0.2], [9827, 3, 4, 0.2], [3893, 1, 5, 0.2], [1504, 2, 4, 0.2], [5208, 3, 6, 0.19], [95, 3, 13, 0.86], [13260, 29, 4, 0.85], [5812, 3, 5, 1.22], [23, 1, 4, 1.51], [94, 4, 4, 0.81], [411, 2, 4, 0.31], [7005, 1, 4, 0.49], [3891, 1, 4, 0.2], [998, 2, 4, 0.69], [25, 1, 4, 1.51], [21269, 3, 4, 3.75], [7567, 3, 4, 1.62], [10574, 3, 5, 0.43], [5086, 1, 6, 1.11], [1243, 2, 4, 1.13], [9069, 1, 4, 1.62], [2878, 1, 5, 1.57], [997, 2, 4, 1.37], [11954, 1, 5, 0.48], [9691, 1, 4, 1.9], [856, 1, 4, 0.23], [11914, 1, 5, 0.2], [20927, 1, 4, 0.61], [1703, 2, 4, 1.38], [5660, 2, 5, 2.37], [5584, 3, 5, 0.44], [952, 4, 4, 2.64], [5209, 3, 5, 0.19], [9081, 3, 10, 1.03], [8898, 3, 5, 2.67], [996, 2, 4, 1.37], [1070, 7, 8, 0.64], [346, 3, 5, 0.64], [1622, 1, 5, 0.35], [8676, 2, 4, 0.97], [12661, 1, 4, 2.35], [23961, 3, 4, 2.68], [5513, 2, 4, 0.52], [1091, 1, 4, 0.2], [22317, 3, 6, 0.51], [8274, 3, 5, 1.09], [13034, 3, 6, 1.01], [11811, 1, 5, 1.0], [24, 1, 5, 0.95], [1519, 3, 14, 0.22], [27, 1, 4, 1.51], [8674, 2, 6, 0.97], [6097, 29, 4, 0.2], [9760, 29, 4, 0.2], [4203, 1, 5, 0.53], [6097, 80, 4, 0.41], [10529, 29, 4, 1.44], [82, 2, 4, 0.35], [1413, 15, 4, 0.37], [995, 2, 4, 0.98], [9082, 3, 18, 0.92], [20498, 3, 6, 1.76], [66, 1, 4, 0.42], [2104, 3, 6, 1.63], [6098, 80, 4, 1.15], [9372, 1, 4, 0.42], [6098, 29, 4, 0.35], [34, 1, 4, 0.47], [326, 2, 96, 1.71], [6935, 2, 278, 4.7], [362, 2, 139, 3.93], [2049, 3, 539, 2.4], [589, 2, 152, 1.4], [141, 2, 152, 3.14], [75, 2, 145, 4.02], [1776, 1, 107, 3.22], [8672, 2, 281, 3.06], [20252, 2, 92, 1.75], [205, 2, 113, 1.61], [7886, 4, 141, 2.29], [2778, 2, 153, 3.21], [1777, 1, 107, 3.88], [305, 2, 145, 2.78], [11681, 2, 260, 6.0], [593, 2, 119, 2.98], [8648, 2, 218, 5.36], [6936, 2, 278, 4.83], [2328, 2, 148, 3.09], [1007, 2, 281, 1.71], [88, 10, 557, 4.5], [83, 2, 53, 1.86], [5151, 2, 26, 2.64], [8650, 2, 218, 5.4], [412, 1, 82, 3.83], [345, 3, 315, 1.78], [2991, 3, 156, 5.79], [22247, 2, 296, 3.08], [361, 2, 152, 1.84], [144, 2, 159, 2.12], [57, 1, 84, 2.78], [201, 3, 315, 1.68], [21793, 1, 232, 5.78], [10149, 3, 853, 4.91], [45, 2, 108, 4.8], [3478, 2, 74, 1.77], [146, 2, 151, 3.76], [2054, 3, 488, 3.9], [7004, 1, 78, 2.43], [12721, 2, 296, 2.46], [167, 3, 224, 3.97], [2057, 3, 463, 4.1], [413, 1, 90, 2.74], [10825, 21, 675, 2.78], [6158, 2, 270, 3.55], [74, 1, 198, 4.67], [168, 3, 399, 3.53], [308, 1, 175, 3.12], [346, 1, 150, 2.96], [2055, 3, 488, 2.59], [10, 2, 55, 2.7], [7036, 1, 125, 5.53], [13028, 3, 145, 3.08], [3495, 3, 950, 3.74], [432, 3, 297, 2.51], [5081, 2, 189, 3.15], [7887, 4, 138, 1.67], [12870, 1, 135, 6.0], [214, 3, 637, 1.67], [8649, 2, 218, 5.12], [79, 1, 47, 2.0], [410, 1, 102, 2.89], [1492, 1, 39, 1.88], [3889, 1, 121, 3.86], [145, 2, 151, 1.73]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [2327, 2, 4, 0.52], [8915, 2, 5, 0.21], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [2328, 2, 4, 0.26], [130, 1, 4, 0.36], [5493, 2, 5, 0.2], [616, 2, 4, 0.3], [326, 2, 5, 0.97], [6936, 2, 5, 1.66], [8648, 2, 4, 1.7], [8650, 2, 5, 2.46], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [205, 2, 4, 0.44], [2049, 3, 5, 0.47], [144, 2, 5, 1.04], [10, 2, 5, 0.42], [151, 1, 4, 0.51], [990, 2, 4, 0.39], [7036, 1, 4, 1.2], [3893, 1, 5, 0.2], [146, 2, 5, 1.32], [7885, 4, 4, 0.49], [141, 2, 4, 0.92], [3891, 1, 4, 0.2], [206, 2, 4, 0.46], [75, 2, 5, 0.99], [2055, 3, 4, 0.99], [362, 2, 4, 0.52], [10993, 2, 4, 0.45], [21793, 1, 4, 0.86], [5208, 3, 6, 0.19], [3889, 1, 6, 0.2], [7084, 3, 4, 1.57], [11234, 2, 4, 1.4], [7005, 1, 4, 0.68], [3980, 4, 6, 1.21], [12870, 1, 4, 1.93], [2912, 1, 4, 0.77], [145, 2, 4, 1.5], [5165, 1, 4, 0.65], [10149, 3, 13, 1.47], [8672, 2, 4, 2.86], [9760, 29, 4, 0.2], [998, 2, 4, 0.31], [20927, 1, 4, 1.68], [997, 2, 4, 1.02], [2436, 4, 4, 0.43], [417, 2, 4, 0.92], [2424, 80, 5, 0.86], [7887, 4, 4, 0.97], [6158, 2, 4, 0.2], [3, 2, 4, 0.37], [5076, 1, 5, 0.56], [632, 11, 13, 0.48], [229, 1, 5, 0.91], [972, 3, 5, 0.51], [3495, 3, 13, 1.25], [74, 1, 4, 1.22], [9491, 21, 10, 1.33], [523, 2, 4, 0.55], [11770, 1, 4, 1.08], [346, 3, 5, 1.66], [11953, 1, 4, 0.45], [5165, 2, 5, 0.65], [7573, 1, 9, 2.46], [12721, 2, 4, 0.6], [996, 2, 4, 1.02], [22316, 3, 5, 0.35], [2423, 80, 6, 1.72], [11772, 1, 4, 1.08], [9372, 1, 4, 1.17], [3981, 3, 11, 0.51], [6497, 1, 4, 0.49], [24257, 1, 4, 0.48], [2912, 2, 7, 2.03], [11952, 1, 4, 0.66], [2438, 2, 5, 1.88], [12229, 2, 4, 0.36], [823, 1, 4, 0.65], [361, 2, 4, 0.92], [2424, 29, 4, 0.37], [8898, 3, 4, 4.0], [3975, 4, 5, 1.26], [346, 1, 4, 1.67], [1622, 1, 4, 0.49], [6496, 1, 4, 1.2], [192, 3, 9, 1.05], [10407, 10, 8, 1.18], [3900, 3, 4, 0.71], [5209, 3, 6, 0.19], [2805, 137, 4, 1.0], [9081, 3, 7, 0.66], [5946, 1, 4, 0.28], [33, 1, 4, 0.47], [11812, 1, 4, 0.47], [335, 3, 9, 0.62], [1703, 2, 4, 0.5], [7567, 3, 4, 1.58], [12764, 2, 5, 0.43], [10388, 2, 4, 0.61], [11490, 1, 4, 0.23], [37, 1, 4, 0.47], [8676, 2, 4, 2.86], [6097, 80, 4, 0.66], [972, 1, 4, 1.01], [202, 2, 4, 0.88], [220, 4, 4, 1.31], [1519, 3, 10, 0.39], [22247, 2, 4, 1.3], [23611, 3, 5, 0.5], [161, 3, 5, 1.48], [35, 1, 4, 0.47], [38, 1, 4, 0.47], [13893, 2, 4, 1.0], [2104, 3, 9, 1.26], [11814, 1, 4, 0.23], [95, 3, 12, 0.42], [83, 2, 4, 0.46], [4232, 80, 4, 1.82], [1895, 3, 4, 1.65], [11813, 1, 4, 0.73], [11116, 1, 4, 0.56], [12212, 29, 4, 0.27], [8635, 3, 4, 0.87], [788, 2, 5, 0.2], [8104, 1, 4, 0.93], [12979, 25, 7, 0.72], [76, 2, 4, 0.51], [1309, 1, 4, 0.46], [13928, 1, 4, 1.33], [10386, 2, 4, 0.77], [589, 2, 168, 2.97], [88, 10, 619, 3.42], [2327, 2, 165, 3.59], [8915, 2, 209, 2.94], [6935, 2, 311, 6.0], [2778, 2, 171, 3.56], [305, 2, 161, 3.46], [2328, 2, 165, 4.03], [130, 1, 69, 1.55], [5493, 2, 119, 1.82], [616, 2, 120, 2.15], [326, 2, 21, 3.65], [6936, 2, 311, 5.9], [8648, 2, 256, 4.13], [8650, 2, 243, 6.0], [1446, 2, 166, 3.73], [205, 2, 126, 1.71], [2049, 3, 126, 1.66], [144, 2, 167, 3.93], [151, 1, 23, 1.62], [990, 2, 60, 1.61], [7036, 1, 140, 5.66], [3893, 1, 135, 3.35], [146, 2, 167, 4.04], [7885, 4, 116, 1.77], [141, 2, 179, 2.63], [3891, 1, 135, 3.4], [206, 2, 125, 1.88], [75, 2, 160, 4.5], [2055, 3, 549, 2.77], [362, 2, 97, 3.74], [10993, 2, 62, 1.73], [21793, 1, 261, 2.52], [5208, 3, 619, 2.12], [3889, 1, 135, 3.86], [7084, 3, 141, 4.19], [11234, 2, 212, 3.56], [7005, 1, 92, 2.17], [3980, 4, 528, 4.52], [12870, 1, 152, 5.83], [2912, 1, 52, 3.74], [145, 2, 53, 3.79], [5165, 1, 55, 2.93], [10149, 3, 947, 4.76], [8672, 2, 323, 6.0], [9760, 29, 78, 3.4], [998, 2, 262, 4.14], [997, 2, 262, 3.36], [2436, 4, 126, 2.44], [417, 2, 179, 2.63], [2424, 80, 186, 3.86], [6158, 2, 285, 2.64], [3, 2, 131, 3.96], [5076, 1, 142, 3.04], [632, 11, 949, 1.71], [229, 1, 89, 4.03], [972, 3, 650, 3.9], [3495, 3, 1056, 4.26], [74, 1, 231, 3.2], [9491, 21, 2512, 3.93], [523, 2, 179, 2.04], [11770, 1, 230, 3.85], [346, 3, 644, 3.44], [11953, 1, 218, 1.96]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [615, 2, 4, 0.2], [2778, 2, 6, 0.2], [6936, 2, 5, 1.35], [5493, 2, 4, 0.2], [205, 2, 6, 0.2], [130, 1, 4, 0.35], [616, 2, 5, 0.22], [88, 10, 11, 0.19], [144, 2, 5, 0.47], [8648, 2, 5, 0.71], [2049, 3, 10, 0.2], [11681, 2, 5, 1.86], [8915, 2, 5, 0.53], [589, 2, 5, 0.2], [326, 2, 5, 0.7], [7036, 1, 4, 1.48], [8650, 2, 6, 0.96], [2327, 2, 5, 0.29], [593, 2, 6, 0.27], [3893, 1, 4, 0.43], [141, 2, 6, 0.53], [206, 2, 4, 0.65], [7004, 1, 4, 0.94], [151, 1, 4, 0.4], [3891, 1, 4, 0.28], [248, 1, 4, 0.39], [143, 2, 5, 1.53], [3980, 4, 6, 1.19], [146, 2, 5, 1.32], [2050, 3, 6, 1.69], [990, 2, 4, 0.36], [2055, 3, 5, 1.74], [7885, 4, 5, 0.2], [7886, 4, 4, 0.4], [2054, 3, 6, 1.86], [12870, 1, 5, 1.4], [362, 2, 4, 0.82], [8672, 2, 5, 0.73], [10993, 2, 4, 0.63], [3975, 4, 4, 1.39], [2057, 3, 6, 1.78], [5165, 1, 4, 0.65], [21793, 1, 4, 1.09], [13028, 3, 4, 0.62], [7084, 3, 4, 1.07], [145, 2, 4, 1.3], [2991, 3, 4, 0.88], [523, 2, 4, 1.03], [75, 2, 4, 0.46], [7005, 1, 4, 0.72], [3982, 3, 14, 1.18], [3981, 3, 13, 1.42], [33, 1, 5, 1.58], [142, 2, 6, 0.52], [20927, 1, 4, 1.17], [2912, 1, 4, 1.16], [6158, 2, 6, 0.2], [7887, 4, 5, 1.2], [5165, 2, 5, 0.92], [82, 2, 4, 0.66], [417, 2, 4, 0.4], [35, 1, 5, 1.58], [22316, 3, 6, 0.51], [214, 3, 11, 0.2], [11953, 1, 6, 0.2], [6497, 1, 4, 0.22], [61, 3, 4, 1.41], [229, 1, 4, 1.5], [192, 3, 11, 0.77], [11772, 1, 4, 1.28], [950, 1, 4, 0.38], [996, 2, 6, 1.47], [7567, 3, 4, 0.71], [11769, 1, 4, 0.96], [5946, 1, 4, 0.28], [346, 3, 5, 1.27], [6496, 1, 4, 0.46], [4176, 4, 5, 1.31], [972, 3, 5, 1.77], [39, 1, 4, 0.51], [74, 1, 5, 2.03], [411, 2, 4, 0.9], [7573, 1, 5, 0.97], [8677, 3, 4, 1.15], [12721, 2, 4, 0.97], [37, 1, 4, 0.66], [4253, 1, 4, 0.48], [2436, 4, 5, 0.44], [22317, 3, 5, 0.26], [2912, 2, 5, 0.88], [2104, 3, 6, 1.46], [1413, 15, 4, 0.2], [12212, 29, 4, 0.24], [336, 15, 5, 0.92], [1277, 1, 4, 0.65], [201, 3, 5, 0.51], [345, 3, 4, 1.01], [11085, 2, 6, 1.53], [21269, 3, 4, 3.24], [13023, 3, 5, 1.26], [12271, 2, 5, 0.84], [823, 1, 4, 0.56], [3, 2, 5, 0.71], [8673, 2, 4, 2.14], [22247, 2, 5, 1.39], [38, 1, 4, 0.66], [8676, 2, 4, 0.98], [10631, 2, 4, 1.48], [9, 1, 4, 0.2], [2805, 137, 4, 0.58], [10408, 10, 5, 1.64], [3577, 25, 4, 0.53], [3048, 3, 5, 1.17], [10388, 2, 4, 0.6], [1414, 15, 4, 0.2], [10936, 2, 4, 0.45], [13928, 1, 4, 1.1], [9081, 3, 10, 0.8], [11812, 1, 4, 0.47], [346, 1, 5, 1.27], [20498, 3, 5, 0.4], [9491, 21, 10, 0.6], [13244, 1, 4, 0.45], [4076, 3, 5, 1.19], [161, 3, 6, 1.5], [11814, 1, 4, 0.48], [9372, 1, 4, 0.97], [10407, 10, 6, 1.94], [12764, 2, 8, 0.33], [491, 10, 5, 1.64], [1523, 1, 4, 0.44], [972, 1, 4, 0.75], [11089, 1, 4, 1.73], [3576, 25, 4, 0.75], [6935, 2, 291, 5.26], [305, 2, 151, 3.38], [615, 2, 118, 1.48], [2778, 2, 159, 3.51], [6936, 2, 291, 5.64], [5493, 2, 112, 2.04], [205, 2, 106, 2.53], [130, 1, 64, 1.48], [616, 2, 112, 1.95], [88, 10, 582, 3.29], [144, 2, 155, 3.9], [8648, 2, 228, 5.15], [2049, 3, 555, 3.08], [11681, 2, 275, 5.79], [8915, 2, 206, 1.74], [589, 2, 154, 3.05], [326, 2, 95, 2.99], [7036, 1, 131, 4.72], [8650, 2, 228, 4.92], [2327, 2, 154, 3.43], [593, 2, 232, 3.21], [3893, 1, 135, 1.64], [141, 2, 158, 4.03], [206, 2, 111, 2.11], [7004, 1, 80, 2.62], [151, 1, 48, 1.53], [3891, 1, 128, 2.3], [248, 1, 59, 1.56], [143, 2, 153, 3.39], [3980, 4, 492, 4.82], [146, 2, 155, 4.01], [2050, 3, 467, 5.77], [990, 2, 57, 1.5], [2055, 3, 467, 5.86], [2054, 3, 467, 6.0], [12870, 1, 140, 6.0], [362, 2, 152, 2.39], [8672, 2, 294, 4.83], [10993, 2, 55, 2.37], [3975, 4, 518, 3.58], [2057, 3, 467, 5.97], [5165, 1, 51, 2.95], [21793, 1, 210, 3.22], [13028, 3, 159, 2.06], [7084, 3, 133, 3.88], [145, 2, 155, 3.79], [2991, 3, 171, 3.51], [523, 2, 158, 3.5], [75, 2, 159, 1.7], [7005, 1, 80, 2.2], [3982, 3, 809, 4.78], [3981, 3, 1651, 4.49], [33, 1, 53, 4.09], [142, 2, 158, 3.39], [2912, 1, 49, 3.04], [6158, 2, 266, 3.69], [5165, 2, 388, 2.41], [82, 2, 61, 2.08], [417, 2, 167, 1.74], [35, 1, 40, 3.93], [22316, 3, 323, 2.92], [214, 3, 673, 2.12], [11953, 1, 206, 2.84], [6497, 1, 38, 1.95]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 5, 0.2], [362, 2, 4, 0.57], [8650, 2, 4, 1.21], [5491, 2, 4, 0.2], [361, 2, 4, 0.4], [5493, 2, 5, 0.2], [589, 2, 5, 0.2], [8672, 2, 7, 0.66], [11685, 2, 4, 0.42], [417, 2, 4, 0.37], [6935, 2, 11, 1.06], [205, 2, 4, 0.2], [11681, 2, 5, 2.04], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [248, 1, 4, 0.51], [11837, 2, 4, 0.58], [142, 2, 4, 0.38], [6936, 2, 5, 1.25], [2778, 2, 6, 0.2], [1446, 2, 4, 0.2], [8676, 2, 4, 0.73], [615, 2, 4, 0.74], [21793, 1, 4, 1.01], [305, 2, 5, 0.98], [593, 2, 6, 0.2], [22247, 2, 4, 1.0], [11835, 2, 4, 0.48], [616, 2, 5, 0.23], [411, 2, 4, 0.2], [990, 2, 4, 0.38], [8675, 2, 6, 0.98], [10574, 3, 6, 1.5], [145, 2, 4, 1.17], [1429, 2, 4, 0.39], [6158, 2, 6, 0.89], [10149, 3, 13, 0.75], [3495, 3, 16, 1.03], [2050, 3, 6, 0.34], [146, 2, 5, 0.49], [88, 10, 11, 0.95], [2054, 3, 6, 0.51], [75, 2, 4, 1.68], [10993, 2, 4, 0.4], [7885, 4, 5, 0.69], [144, 2, 4, 1.17], [7705, 2, 5, 0.9], [2424, 29, 4, 1.98], [346, 3, 6, 1.03], [2423, 80, 4, 1.56], [2859, 15, 4, 0.35], [7704, 2, 5, 0.9], [61, 3, 4, 0.36], [2423, 29, 4, 1.53], [9126, 1, 4, 1.13], [335, 3, 10, 0.49], [5165, 1, 4, 0.65], [2424, 80, 4, 1.98], [13028, 3, 4, 0.37], [201, 3, 5, 0.76], [346, 1, 4, 0.88], [214, 3, 9, 1.24], [60, 3, 5, 1.93], [1519, 3, 12, 0.22], [13023, 3, 5, 1.51], [308, 1, 5, 1.49], [1414, 15, 4, 0.42], [13034, 3, 5, 1.13], [2703, 3, 4, 0.96], [345, 3, 4, 0.49], [6494, 1, 4, 0.46], [7004, 1, 4, 0.66], [410, 1, 4, 0.52], [11770, 1, 4, 0.7], [7706, 2, 5, 0.8], [432, 3, 4, 1.01], [5208, 3, 5, 0.48], [3430, 15, 4, 0.35], [6952, 1, 4, 0.73], [13928, 1, 4, 1.15], [12373, 1, 5, 1.45], [20927, 1, 4, 1.05], [11954, 1, 4, 0.44], [94, 4, 4, 1.96], [1886, 2, 4, 0.44], [2331, 1, 4, 0.79], [3893, 1, 4, 0.52], [3891, 1, 4, 0.52], [114, 3, 4, 0.2], [11811, 1, 4, 0.38], [105, 3, 4, 0.48], [7886, 4, 6, 0.69], [3981, 3, 8, 0.51], [1274, 1, 4, 0.82], [952, 4, 4, 1.87], [13033, 3, 4, 0.5], [944, 15, 4, 0.37], [9690, 1, 4, 1.08], [11089, 1, 4, 1.16], [3, 2, 4, 2.0], [1490, 1, 4, 0.44], [1309, 1, 4, 0.73], [5946, 1, 4, 0.52], [5584, 3, 4, 1.16], [8898, 3, 4, 0.71], [5812, 3, 4, 1.51], [5733, 2, 5, 1.37], [7708, 2, 4, 1.05], [10407, 10, 6, 1.9], [10410, 10, 6, 1.9], [95, 3, 8, 2.52], [3028, 3, 4, 0.44], [3478, 2, 4, 1.0], [8274, 3, 4, 1.45], [7703, 2, 4, 1.05], [9342, 2, 4, 0.49], [10398, 2, 4, 1.36], [20555, 2, 4, 0.78], [3889, 1, 4, 0.52], [21003, 2, 4, 0.72], [13258, 29, 4, 1.02], [22558, 3, 4, 0.88], [9082, 3, 14, 0.83], [3980, 4, 4, 1.4], [10406, 10, 7, 1.73], [6497, 1, 4, 1.69], [20969, 3, 4, 0.86], [1339, 3, 10, 0.47], [963, 3, 4, 0.72], [192, 3, 13, 0.92], [5165, 2, 5, 0.65], [20196, 2, 4, 0.72], [10516, 3, 4, 1.94], [11603, 2, 4, 1.37], [141, 2, 177, 3.21], [362, 2, 170, 2.41], [8650, 2, 250, 5.1], [5491, 2, 123, 1.83], [361, 2, 187, 1.73], [5493, 2, 123, 2.24], [589, 2, 181, 2.16], [8672, 2, 323, 4.69], [11685, 2, 317, 3.77], [417, 2, 187, 1.67], [6935, 2, 319, 6.0], [205, 2, 123, 1.8], [11681, 2, 317, 6.0], [11838, 2, 303, 3.8], [12721, 2, 322, 4.24], [248, 1, 65, 1.94], [11837, 2, 319, 2.08], [142, 2, 187, 1.69], [6936, 2, 319, 5.36], [2778, 2, 178, 3.62], [1446, 2, 171, 2.42], [8676, 2, 340, 2.67], [615, 2, 130, 2.38], [21793, 1, 282, 5.05], [305, 2, 167, 3.68], [593, 2, 257, 1.75], [22247, 2, 339, 2.89], [11835, 2, 319, 1.88], [616, 2, 123, 2.27], [411, 2, 122, 2.4], [990, 2, 62, 1.69], [8675, 2, 323, 4.72], [10574, 3, 568, 4.89], [145, 2, 181, 3.21], [1429, 2, 181, 1.86], [6158, 2, 294, 3.33], [10149, 3, 1044, 2.45], [2050, 3, 542, 2.92], [146, 2, 171, 2.68], [88, 10, 632, 4.5], [2054, 3, 127, 2.99], [75, 2, 170, 4.19], [10993, 2, 60, 2.43], [144, 2, 181, 3.21], [7705, 2, 199, 3.7], [2424, 29, 40, 4.77], [346, 3, 682, 4.23], [2423, 80, 207, 3.96], [2859, 15, 82, 2.36], [7704, 2, 199, 3.7], [61, 3, 249, 1.65], [2423, 29, 44, 4.18], [9126, 1, 83, 3.14], [335, 3, 1555, 1.91], [5165, 1, 56, 2.94], [2424, 80, 198, 4.77], [13028, 3, 174, 2.92], [201, 3, 340, 4.48], [346, 1, 179, 3.77], [214, 3, 253, 4.28], [60, 3, 952, 4.46], [1519, 3, 1845, 2.61], [13023, 3, 703, 3.62], [308, 1, 190, 5.0], [1414, 15, 117, 1.77], [13034, 3, 667, 3.88]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 8, 0.2], [6936, 2, 4, 1.17], [8672, 2, 6, 0.66], [305, 2, 5, 0.23], [615, 2, 4, 0.2], [145, 2, 4, 1.17], [12721, 2, 6, 0.72], [130, 1, 4, 0.36], [2327, 2, 5, 0.2], [361, 2, 4, 0.4], [2328, 2, 5, 0.26], [146, 2, 4, 0.87], [8675, 2, 4, 0.73], [11681, 2, 5, 0.71], [141, 2, 4, 0.4], [362, 2, 4, 0.69], [205, 2, 5, 0.2], [5491, 2, 4, 0.2], [8673, 2, 6, 0.73], [8676, 2, 5, 0.6], [144, 2, 5, 1.17], [8650, 2, 5, 1.28], [417, 2, 4, 0.4], [11837, 2, 5, 0.3], [3, 2, 5, 0.41], [6097, 80, 5, 2.36], [2423, 29, 4, 1.19], [6497, 1, 4, 0.2], [6097, 29, 4, 2.36], [11836, 2, 6, 0.2], [990, 2, 4, 0.45], [2424, 29, 4, 0.37], [593, 2, 5, 1.55], [6098, 80, 4, 2.59], [523, 2, 4, 0.76], [11739, 2, 4, 0.59], [944, 15, 4, 0.4], [88, 10, 9, 0.44], [10993, 2, 4, 0.52], [13260, 29, 4, 0.98], [8915, 2, 4, 0.78], [326, 2, 4, 0.5], [75, 2, 4, 1.56], [1413, 15, 4, 0.5], [10574, 3, 5, 1.08], [335, 3, 11, 1.25], [411, 2, 4, 0.92], [1339, 1, 4, 0.43], [1050, 2, 4, 0.2], [947, 15, 4, 0.51], [1339, 3, 12, 0.18], [151, 1, 4, 0.45], [6496, 1, 4, 1.31], [2859, 15, 4, 0.72], [7704, 2, 4, 1.79], [346, 1, 4, 0.43], [214, 3, 10, 1.24], [13258, 29, 4, 0.79], [345, 3, 4, 0.5], [10149, 3, 15, 0.74], [1490, 1, 4, 1.35], [346, 3, 5, 0.21], [1243, 2, 5, 0.86], [7004, 1, 4, 0.82], [11738, 2, 4, 0.94], [201, 3, 5, 1.05], [22558, 3, 7, 0.21], [432, 3, 4, 1.15], [2438, 1, 4, 0.4], [7705, 2, 4, 2.04], [5208, 3, 5, 0.54], [2912, 1, 4, 0.95], [229, 1, 4, 1.32], [61, 3, 4, 0.44], [963, 3, 4, 0.4], [10407, 10, 6, 1.9], [7706, 2, 4, 1.79], [2331, 1, 4, 1.05], [21793, 1, 4, 2.59], [13928, 1, 4, 1.15], [12229, 2, 5, 0.45], [3478, 2, 4, 1.0], [1548, 1, 4, 1.09], [2703, 3, 4, 1.97], [11844, 2, 4, 0.64], [13258, 25, 4, 0.79], [11490, 1, 4, 0.45], [114, 3, 4, 0.41], [7036, 1, 4, 0.43], [8938, 2, 4, 0.43], [9126, 1, 4, 1.19], [11687, 2, 4, 0.67], [10408, 10, 6, 1.66], [956, 2, 5, 0.57], [94, 4, 4, 1.96], [1886, 2, 4, 0.44], [410, 1, 4, 0.52], [11159, 1, 7, 0.67], [7708, 2, 5, 1.79], [2438, 2, 5, 0.53], [11690, 2, 4, 0.52], [9065, 2, 4, 0.54], [12870, 1, 4, 0.94], [9760, 29, 4, 0.92], [11161, 1, 5, 1.64], [11689, 2, 4, 0.66], [5976, 1, 4, 1.13], [7005, 1, 4, 1.06], [21781, 2, 4, 0.47], [1274, 1, 4, 1.98], [2805, 137, 5, 1.39], [20927, 1, 4, 0.47], [12373, 1, 5, 1.45], [2991, 3, 4, 2.12], [1699, 3, 4, 1.18], [5584, 3, 4, 1.16], [9209, 29, 4, 1.12], [3495, 3, 13, 1.28], [9690, 1, 4, 1.08], [7007, 1, 4, 1.28], [9239, 29, 4, 0.48], [11811, 1, 4, 0.38], [8600, 1, 4, 0.86], [9239, 25, 4, 0.48], [247, 1, 4, 1.54], [5769, 3, 6, 0.52], [9491, 21, 10, 1.75], [5076, 1, 4, 1.95], [13198, 29, 4, 0.94], [12764, 2, 6, 0.2], [9372, 1, 4, 1.74], [5869, 1, 4, 2.12], [7702, 2, 28, 1.25], [95, 3, 8, 0.42], [2778, 2, 175, 3.36], [6936, 2, 322, 5.18], [8672, 2, 324, 3.36], [305, 2, 167, 3.74], [615, 2, 123, 2.66], [145, 2, 181, 3.21], [12721, 2, 321, 4.47], [130, 1, 71, 1.65], [2327, 2, 170, 4.61], [361, 2, 185, 1.73], [2328, 2, 170, 4.64], [146, 2, 171, 4.04], [8675, 2, 342, 2.57], [11681, 2, 299, 3.49], [141, 2, 185, 1.73], [362, 2, 170, 2.54], [205, 2, 130, 1.95], [5491, 2, 121, 1.79], [8673, 2, 323, 4.83], [8676, 2, 324, 3.88], [144, 2, 171, 4.15], [8650, 2, 249, 6.0], [417, 2, 185, 1.73], [11837, 2, 304, 2.24], [3, 2, 135, 3.74], [6097, 80, 77, 6.0], [2423, 29, 44, 3.89], [6497, 1, 45, 1.56], [11836, 2, 304, 3.72], [990, 2, 21, 1.72], [2424, 29, 38, 3.3], [593, 2, 60, 3.77], [523, 2, 185, 2.42], [11739, 2, 68, 2.13], [944, 15, 12, 1.31], [88, 10, 673, 3.12], [10993, 2, 64, 1.96], [13260, 29, 81, 3.46], [8915, 2, 226, 2.46], [326, 2, 110, 1.92], [75, 2, 162, 3.96], [1413, 15, 117, 1.92], [10574, 3, 598, 3.33], [335, 3, 1428, 4.39], [411, 2, 121, 2.73], [1339, 1, 81, 2.01], [1050, 2, 30, 1.7], [947, 15, 49, 1.94], [1339, 3, 1955, 1.88], [151, 1, 26, 1.97], [6496, 1, 47, 3.48], [2859, 15, 77, 3.49], [7704, 2, 176, 5.37], [346, 1, 184, 1.79], [13258, 29, 46, 3.78], [345, 3, 357, 1.92], [10149, 3, 984, 2.7], [1490, 1, 58, 5.92], [346, 3, 699, 2.0], [1243, 2, 112, 4.28], [7004, 1, 94, 2.54], [11738, 2, 23, 2.53], [201, 3, 339, 4.27], [22558, 3, 529, 4.33], [432, 3, 339, 3.22], [2438, 1, 62, 2.95]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 0.66], [141, 2, 4, 0.23], [2778, 2, 6, 0.34], [362, 2, 5, 0.48], [361, 2, 4, 0.37], [130, 1, 4, 0.36], [6935, 2, 8, 1.55], [12721, 2, 8, 1.21], [8676, 2, 5, 0.6], [2049, 3, 15, 0.2], [417, 2, 4, 0.37], [3, 2, 4, 1.22], [22247, 2, 5, 1.0], [6936, 2, 4, 0.47], [523, 2, 4, 0.41], [305, 2, 5, 0.73], [8650, 2, 4, 0.94], [2328, 2, 4, 1.04], [11739, 2, 4, 0.68], [8648, 2, 4, 1.69], [2776, 2, 4, 1.19], [2327, 2, 4, 0.39], [616, 2, 4, 1.04], [411, 2, 4, 0.37], [8674, 2, 5, 0.67], [2423, 29, 4, 1.0], [589, 2, 4, 0.9], [6497, 1, 6, 0.2], [2805, 137, 5, 0.94], [11835, 2, 4, 0.49], [6097, 80, 4, 2.11], [146, 2, 4, 1.17], [326, 2, 5, 0.66], [6097, 29, 5, 0.91], [583, 2, 4, 0.45], [2423, 80, 4, 0.94], [10149, 3, 13, 0.75], [145, 2, 4, 1.17], [11836, 2, 5, 0.54], [144, 2, 4, 1.17], [75, 2, 4, 1.56], [10574, 3, 5, 0.85], [6496, 1, 4, 1.31], [308, 1, 6, 0.54], [1413, 15, 4, 0.2], [2054, 3, 5, 0.81], [2422, 29, 4, 1.9], [1243, 2, 4, 1.06], [21793, 1, 4, 2.34], [1886, 2, 4, 0.44], [8915, 2, 4, 0.78], [944, 15, 4, 0.2], [247, 1, 4, 1.47], [1490, 1, 4, 1.35], [2859, 15, 4, 0.35], [335, 3, 11, 0.89], [1414, 15, 4, 0.48], [201, 3, 4, 0.24], [13928, 1, 4, 1.15], [3478, 2, 4, 1.0], [6158, 2, 6, 0.89], [7084, 3, 4, 0.95], [3934, 5, 7, 1.36], [11489, 1, 4, 0.41], [12526, 2, 4, 0.7], [1703, 2, 4, 0.56], [5812, 3, 4, 2.0], [11767, 1, 4, 1.1], [61, 3, 4, 0.44], [94, 4, 4, 1.04], [186, 3, 7, 0.56], [214, 3, 10, 1.24], [1519, 3, 9, 0.39], [1050, 2, 4, 0.37], [9491, 21, 10, 1.33], [11490, 1, 4, 0.35], [1309, 1, 4, 0.73], [2821, 3, 10, 0.27], [10398, 2, 4, 0.37], [5813, 3, 4, 2.0], [192, 3, 13, 1.01], [8898, 3, 4, 0.47], [8599, 1, 4, 0.37], [5811, 3, 5, 2.2], [229, 1, 4, 1.37], [11771, 1, 4, 0.82], [1699, 3, 4, 1.53], [2438, 2, 5, 0.53], [2991, 3, 5, 1.75], [3495, 3, 13, 1.28], [11769, 1, 4, 1.1], [8943, 3, 4, 0.39], [11811, 1, 4, 0.38], [1339, 3, 12, 0.18], [13928, 2, 4, 1.15], [12764, 2, 5, 0.43], [19687, 1, 4, 1.21], [7036, 1, 4, 0.43], [346, 3, 5, 0.42], [13260, 29, 4, 1.26], [22573, 2, 4, 0.99], [10124, 1, 4, 2.17], [9690, 1, 4, 1.08], [5584, 3, 4, 3.54], [3334, 5, 4, 1.1], [18964, 1, 4, 1.13], [7004, 1, 4, 0.75], [1277, 1, 4, 0.48], [2438, 1, 4, 0.4], [20927, 1, 4, 0.4], [1523, 1, 4, 1.01], [4001, 3, 9, 0.96], [11886, 2, 4, 0.75], [1701, 2, 4, 0.5], [45, 2, 4, 1.79], [11678, 1, 4, 1.44], [21269, 3, 4, 2.18], [8286, 2, 5, 0.62], [9373, 5, 4, 2.8], [10181, 26, 5, 0.46], [23031, 3, 4, 1.65], [3984, 3, 5, 0.62], [10516, 3, 4, 0.99], [11677, 1, 4, 1.53], [346, 1, 4, 0.43], [1339, 1, 4, 0.48], [3979, 3, 5, 0.88], [19924, 2, 4, 0.41], [23032, 3, 4, 1.46], [9069, 1, 4, 0.41], [9065, 2, 4, 0.54], [5976, 1, 4, 1.13], [8285, 2, 5, 0.49], [7005, 1, 4, 1.21], [8672, 2, 324, 4.66], [141, 2, 176, 3.4], [2778, 2, 175, 2.87], [362, 2, 160, 2.87], [361, 2, 186, 2.55], [130, 1, 71, 1.65], [6935, 2, 314, 6.0], [12721, 2, 323, 5.01], [8676, 2, 324, 3.88], [2049, 3, 618, 1.92], [417, 2, 186, 2.55], [3, 2, 143, 3.42], [22247, 2, 323, 4.61], [6936, 2, 331, 2.61], [523, 2, 176, 3.3], [305, 2, 166, 3.67], [8650, 2, 263, 4.15], [2328, 2, 170, 3.66], [11739, 2, 68, 2.27], [8648, 2, 263, 4.21], [2776, 2, 185, 3.25], [2327, 2, 170, 3.76], [616, 2, 120, 3.66], [411, 2, 129, 2.44], [8674, 2, 324, 2.49], [2423, 29, 44, 3.72], [589, 2, 181, 2.9], [6497, 1, 42, 3.28], [2805, 137, 212, 4.89], [11835, 2, 303, 3.22], [6097, 80, 52, 6.0], [146, 2, 181, 3.21], [326, 2, 104, 3.13], [6097, 29, 38, 3.55], [583, 2, 102, 2.56], [2423, 80, 220, 3.67], [10149, 3, 1052, 4.18], [145, 2, 181, 3.21], [11836, 2, 303, 3.32], [144, 2, 181, 3.21], [75, 2, 171, 3.96], [10574, 3, 565, 4.07], [6496, 1, 47, 3.48], [308, 1, 194, 4.19], [1413, 15, 111, 2.01], [2054, 3, 114, 3.24], [2422, 29, 44, 5.23], [1243, 2, 117, 3.0], [21793, 1, 273, 6.0], [1886, 2, 187, 1.81], [8915, 2, 226, 2.46], [944, 15, 46, 2.51], [247, 1, 103, 3.79], [1490, 1, 58, 5.92], [2859, 15, 82, 2.36], [1414, 15, 117, 1.88], [201, 3, 344, 2.12], [13928, 1, 53, 3.67], [3478, 2, 90, 2.89], [6158, 2, 294, 3.35], [7084, 3, 145, 2.79], [3934, 5, 619, 3.65], [11489, 1, 130, 1.75], [12526, 2, 325, 3.97], [1703, 2, 194, 2.63], [5812, 3, 700, 4.8]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.2], [2328, 2, 5, 0.2], [130, 1, 4, 0.36], [8650, 2, 4, 0.46], [2778, 2, 5, 0.4], [5491, 2, 4, 0.2], [8672, 2, 7, 0.2], [143, 2, 6, 0.51], [362, 2, 4, 0.48], [145, 2, 5, 0.5], [6936, 2, 4, 1.26], [5493, 2, 5, 0.35], [361, 2, 4, 0.63], [417, 2, 4, 0.63], [11681, 2, 5, 0.71], [205, 2, 4, 0.56], [589, 2, 5, 0.2], [75, 2, 5, 0.97], [11737, 2, 4, 0.78], [146, 2, 4, 0.57], [523, 2, 4, 0.63], [12721, 2, 5, 0.48], [8853, 2, 4, 1.92], [8673, 2, 6, 0.2], [326, 2, 5, 0.85], [11835, 2, 5, 0.36], [308, 1, 5, 1.48], [8915, 2, 6, 1.14], [144, 2, 5, 0.46], [1005, 2, 4, 0.89], [8675, 2, 4, 1.2], [88, 10, 10, 0.19], [434, 2, 5, 0.3], [11739, 2, 4, 0.78], [142, 2, 4, 0.63], [8676, 2, 4, 2.16], [2424, 29, 4, 0.37], [6158, 2, 7, 0.2], [7704, 2, 4, 1.5], [2423, 29, 4, 1.19], [11738, 2, 4, 0.78], [11836, 2, 4, 0.22], [2424, 80, 4, 0.86], [1413, 15, 4, 0.2], [7705, 2, 4, 1.9], [2423, 80, 4, 0.79], [944, 15, 5, 0.2], [3, 2, 4, 0.79], [3478, 2, 4, 1.78], [7004, 1, 4, 1.31], [1414, 15, 4, 0.42], [2859, 15, 4, 1.62], [74, 1, 4, 1.09], [10149, 3, 13, 0.75], [6497, 1, 4, 0.45], [3429, 15, 4, 0.41], [10993, 2, 4, 0.4], [13928, 1, 4, 1.15], [346, 1, 4, 0.88], [18964, 1, 4, 1.13], [11919, 1, 4, 0.59], [346, 3, 5, 1.27], [60, 3, 5, 1.93], [13260, 29, 5, 1.42], [7036, 1, 4, 1.63], [94, 4, 4, 1.96], [1339, 3, 12, 0.18], [6952, 1, 4, 1.59], [3893, 1, 4, 1.35], [2991, 3, 4, 2.17], [13034, 3, 6, 0.9], [411, 2, 4, 1.01], [11089, 1, 4, 1.16], [1050, 2, 5, 0.2], [3891, 1, 4, 1.35], [1339, 1, 4, 0.43], [14037, 3, 4, 0.96], [7707, 2, 4, 1.25], [21793, 1, 4, 1.01], [563, 2, 4, 0.2], [8274, 3, 4, 0.83], [6630, 3, 4, 1.8], [3889, 1, 4, 1.35], [2912, 1, 4, 0.6], [1243, 2, 6, 0.7], [1490, 1, 4, 1.35], [7708, 2, 4, 1.5], [192, 3, 13, 1.24], [11581, 29, 4, 0.87], [9126, 1, 4, 1.25], [7886, 4, 5, 0.44], [13023, 3, 5, 0.45], [3495, 3, 13, 1.28], [5208, 3, 6, 0.23], [5940, 3, 4, 1.33], [11490, 1, 4, 0.48], [1309, 1, 4, 0.73], [1049, 2, 4, 0.2], [229, 1, 4, 1.32], [5165, 1, 4, 0.87], [22558, 3, 4, 0.88], [12229, 2, 5, 0.45], [13033, 3, 4, 0.8], [2331, 1, 4, 1.18], [201, 3, 4, 0.6], [2805, 137, 5, 1.01], [247, 1, 4, 0.37], [83, 2, 4, 0.75], [1274, 1, 4, 1.17], [6496, 1, 4, 1.55], [332, 2, 4, 0.2], [214, 3, 9, 1.24], [202, 2, 4, 0.2], [951, 4, 4, 1.56], [8898, 3, 4, 0.71], [20555, 2, 4, 0.58], [1703, 2, 4, 2.69], [9690, 1, 4, 1.08], [11770, 1, 4, 1.78], [335, 3, 10, 0.62], [942, 3, 4, 0.75], [7005, 1, 4, 1.01], [5812, 3, 4, 0.76], [114, 3, 4, 2.04], [21269, 3, 4, 4.0], [3934, 5, 7, 1.36], [8635, 3, 4, 0.83], [9827, 3, 4, 0.39], [10406, 10, 8, 1.73], [4940, 1, 4, 0.42], [186, 3, 7, 1.23], [1886, 2, 4, 0.2], [10527, 3, 8, 0.82], [10411, 10, 6, 1.79], [7885, 4, 4, 0.56], [9491, 21, 10, 1.33], [305, 2, 166, 3.17], [2328, 2, 170, 4.64], [130, 1, 71, 1.65], [8650, 2, 250, 4.6], [2778, 2, 175, 3.04], [5491, 2, 123, 2.03], [8672, 2, 319, 4.91], [143, 2, 170, 3.72], [362, 2, 169, 2.01], [145, 2, 171, 3.71], [6936, 2, 319, 5.75], [5493, 2, 130, 3.02], [361, 2, 186, 2.82], [417, 2, 186, 2.82], [11681, 2, 299, 3.49], [205, 2, 130, 2.04], [589, 2, 173, 1.81], [75, 2, 164, 4.57], [11737, 2, 68, 2.71], [146, 2, 171, 3.82], [523, 2, 186, 2.17], [12721, 2, 322, 4.26], [8853, 2, 319, 5.66], [8673, 2, 323, 4.83], [326, 2, 104, 2.86], [11835, 2, 302, 2.97], [308, 1, 201, 4.9], [8915, 2, 212, 3.94], [144, 2, 171, 3.63], [1005, 2, 67, 3.65], [8675, 2, 336, 3.6], [88, 10, 639, 4.85], [434, 2, 120, 2.22], [11739, 2, 68, 2.46], [142, 2, 186, 2.82], [8676, 2, 336, 5.12], [2424, 29, 38, 3.3], [6158, 2, 296, 3.82], [7704, 2, 198, 4.67], [2423, 29, 41, 3.35], [11738, 2, 68, 2.48], [11836, 2, 302, 3.64], [2424, 80, 191, 3.75], [1413, 15, 111, 3.12], [7705, 2, 198, 5.16], [2423, 80, 208, 3.41], [944, 15, 49, 2.34], [3, 2, 134, 4.73], [1414, 15, 117, 1.77], [74, 1, 241, 3.11], [10149, 3, 1044, 2.45], [6497, 1, 45, 1.83], [3429, 15, 63, 1.75], [10993, 2, 60, 2.43], [13928, 1, 53, 3.67], [346, 1, 179, 3.77], [18964, 1, 80, 3.14], [11919, 1, 177, 2.1], [346, 3, 682, 4.23], [60, 3, 952, 4.46], [13260, 29, 81, 4.53], [7036, 1, 144, 4.32], [94, 4, 137, 5.0], [1339, 3, 1955, 1.88]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2327, 2, 5, 0.64], [2778, 2, 4, 0.2], [11681, 2, 10, 1.14], [6936, 2, 6, 0.44], [362, 2, 4, 0.56], [2328, 2, 5, 0.2], [205, 2, 4, 0.47], [130, 1, 4, 0.36], [2775, 2, 4, 0.2], [2049, 3, 5, 0.37], [8649, 2, 4, 0.64], [2776, 2, 4, 0.67], [361, 2, 5, 0.4], [143, 2, 5, 0.76], [593, 2, 6, 0.2], [206, 2, 4, 1.19], [5493, 2, 4, 0.6], [1429, 2, 4, 1.84], [523, 2, 5, 0.54], [7004, 1, 4, 0.53], [21793, 1, 4, 0.61], [413, 1, 4, 0.81], [12350, 1, 4, 2.08], [1124, 2, 4, 0.79], [7036, 1, 4, 1.53], [5165, 1, 4, 1.2], [12353, 1, 4, 2.08], [12349, 1, 5, 1.31], [145, 2, 4, 1.17], [434, 2, 4, 0.44], [248, 1, 4, 0.48], [201, 3, 6, 0.66], [6952, 1, 4, 1.29], [6097, 80, 5, 2.63], [10993, 2, 5, 0.73], [345, 3, 6, 0.2], [146, 2, 4, 1.17], [144, 2, 5, 0.61], [7084, 3, 5, 2.49], [11770, 1, 4, 0.2], [2050, 3, 4, 1.46], [12352, 1, 4, 2.08], [3891, 1, 4, 0.25], [2912, 1, 4, 1.16], [7005, 1, 4, 0.57], [998, 2, 5, 0.23], [997, 2, 4, 0.41], [432, 3, 4, 0.39], [3893, 1, 4, 0.49], [5165, 2, 7, 0.66], [12870, 1, 4, 1.19], [9372, 1, 4, 1.04], [6097, 29, 4, 2.66], [2424, 80, 4, 0.86], [20927, 1, 4, 0.51], [11772, 1, 4, 1.66], [6098, 80, 4, 1.64], [7885, 4, 4, 0.74], [10149, 3, 17, 0.75], [11089, 1, 4, 0.57], [3334, 5, 4, 0.7], [10574, 3, 5, 0.56], [12351, 1, 5, 0.56], [1492, 1, 5, 0.31], [4032, 29, 4, 0.8], [346, 3, 4, 0.93], [3889, 1, 4, 1.16], [1700, 2, 4, 0.64], [12304, 1, 4, 2.17], [1519, 3, 12, 0.22], [3576, 25, 4, 1.76], [13028, 3, 5, 1.36], [2912, 2, 5, 1.2], [214, 3, 9, 0.66], [1490, 1, 4, 0.72], [13034, 3, 5, 1.52], [972, 3, 4, 1.01], [229, 1, 4, 2.2], [11583, 29, 4, 0.49], [161, 3, 5, 1.45], [11426, 25, 4, 0.4], [5151, 2, 4, 0.45], [346, 1, 4, 0.93], [2331, 1, 4, 0.49], [8120, 3, 4, 0.6], [11490, 1, 4, 0.4], [995, 2, 4, 1.16], [3478, 2, 4, 0.62], [5076, 1, 4, 0.46], [5812, 3, 5, 2.0], [13893, 2, 4, 1.24], [10, 2, 4, 0.39], [9289, 29, 4, 1.08], [1309, 1, 4, 0.36], [410, 1, 4, 0.39], [12764, 2, 5, 0.43], [13023, 3, 6, 1.25], [2160, 68, 4, 1.02], [3575, 25, 4, 0.94], [2805, 137, 4, 0.94], [11404, 2, 5, 0.2], [3577, 25, 4, 0.52], [13280, 1, 4, 1.36], [75, 2, 5, 0.37], [2438, 2, 5, 0.53], [957, 2, 5, 0.91], [11814, 1, 4, 0.57], [11813, 1, 4, 0.84], [9069, 1, 4, 0.63], [9971, 2, 4, 1.14], [9967, 2, 4, 0.59], [11150, 2, 5, 0.45], [192, 3, 8, 1.79], [8943, 3, 4, 0.39], [9491, 21, 8, 1.33], [8283, 2, 6, 1.27], [5584, 3, 4, 4.0], [22317, 3, 4, 0.44], [24257, 1, 4, 1.22], [13249, 29, 4, 1.12], [9964, 2, 4, 1.6], [21697, 3, 4, 0.2], [9081, 3, 12, 0.98], [4586, 10, 10, 0.8], [105, 3, 4, 0.83], [4076, 3, 4, 1.42], [10609, 1, 4, 0.48], [9965, 2, 4, 1.14], [1413, 15, 4, 0.66], [335, 3, 9, 0.92], [10407, 10, 7, 1.94], [6935, 2, 311, 5.27], [141, 2, 173, 3.01], [589, 2, 172, 2.58], [2327, 2, 169, 3.3], [2778, 2, 174, 2.43], [11681, 2, 301, 6.0], [6936, 2, 311, 5.81], [362, 2, 157, 3.45], [2328, 2, 169, 4.01], [205, 2, 129, 1.78], [130, 1, 42, 1.5], [2775, 2, 174, 2.43], [2049, 3, 644, 1.69], [8649, 2, 261, 3.71], [2776, 2, 184, 2.34], [361, 2, 173, 3.53], [143, 2, 168, 3.68], [593, 2, 269, 2.09], [206, 2, 25, 2.78], [5493, 2, 127, 2.04], [1429, 2, 89, 4.32], [523, 2, 173, 3.41], [7004, 1, 94, 1.9], [21793, 1, 266, 4.32], [413, 1, 102, 2.44], [12350, 1, 722, 5.56], [1124, 2, 218, 2.61], [7036, 1, 143, 3.83], [5165, 1, 53, 4.04], [12353, 1, 722, 5.56], [12349, 1, 685, 5.29], [145, 2, 171, 3.27], [434, 2, 126, 2.14], [248, 1, 64, 1.8], [201, 3, 168, 4.66], [6952, 1, 210, 5.46], [6097, 80, 76, 6.0], [10993, 2, 59, 2.54], [345, 3, 335, 4.1], [146, 2, 180, 3.13], [144, 2, 171, 2.59], [7084, 3, 30, 4.42], [11770, 1, 246, 1.95], [12352, 1, 722, 5.56], [3891, 1, 138, 3.38], [2912, 1, 53, 3.11], [7005, 1, 94, 1.98], [998, 2, 272, 4.32], [997, 2, 287, 2.54], [432, 3, 355, 2.92], [3893, 1, 138, 2.52], [5165, 2, 450, 2.12], [12870, 1, 154, 3.17], [9372, 1, 260, 4.62], [6097, 29, 38, 6.0], [2424, 80, 198, 2.59], [20927, 1, 94, 1.86], [11772, 1, 251, 4.13], [6098, 80, 84, 4.94], [10149, 3, 982, 2.6], [11089, 1, 199, 2.89], [3334, 5, 212, 3.79], [10574, 3, 608, 1.86], [12351, 1, 685, 3.1], [1492, 1, 41, 2.21], [4032, 29, 107, 2.42]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 8, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.44], [141, 2, 5, 0.39], [2049, 3, 12, 0.2], [205, 2, 4, 0.2], [12721, 2, 6, 0.97], [130, 1, 4, 0.51], [144, 2, 4, 0.49], [589, 2, 6, 0.2], [362, 2, 4, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 5, 0.59], [990, 2, 4, 0.44], [1777, 1, 5, 0.93], [8915, 2, 5, 0.43], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [6936, 2, 6, 1.17], [8650, 2, 5, 1.15], [22247, 2, 4, 0.95], [2778, 2, 5, 0.2], [1007, 2, 6, 0.2], [88, 10, 8, 0.44], [10, 2, 6, 0.2], [8677, 3, 5, 1.81], [8649, 2, 4, 1.4], [10149, 3, 17, 1.32], [2054, 3, 6, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [10825, 21, 8, 1.13], [11681, 2, 5, 1.12], [361, 2, 4, 0.65], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [2055, 3, 4, 0.8], [2057, 3, 4, 0.8], [7084, 3, 4, 1.63], [411, 2, 4, 0.23], [308, 1, 5, 0.72], [410, 1, 4, 0.36], [6158, 2, 5, 0.9], [8938, 2, 5, 0.9], [8676, 2, 4, 0.97], [1124, 2, 6, 0.2], [432, 3, 5, 0.39], [167, 3, 5, 1.1], [45, 2, 4, 1.37], [7036, 1, 4, 1.64], [3495, 3, 17, 1.31], [7005, 1, 4, 0.4], [5081, 2, 8, 0.2], [94, 4, 5, 0.51], [9827, 3, 4, 0.2], [5812, 3, 5, 2.5], [3893, 1, 4, 0.28], [3889, 1, 4, 0.28], [12870, 1, 4, 2.58], [2049, 1, 4, 0.55], [3891, 1, 4, 0.28], [168, 3, 6, 0.29], [6097, 29, 4, 1.86], [1504, 2, 7, 0.2], [335, 3, 11, 1.1], [6097, 80, 4, 2.61], [11737, 2, 4, 0.41], [95, 3, 17, 0.32], [6098, 29, 4, 2.02], [346, 1, 5, 0.56], [998, 2, 4, 1.52], [79, 1, 4, 0.2], [214, 3, 9, 0.44], [3980, 4, 4, 1.39], [20927, 1, 4, 0.61], [9069, 1, 5, 1.09], [22316, 3, 6, 0.49], [83, 2, 4, 0.44], [6098, 80, 4, 2.48], [20498, 1, 5, 0.55], [8898, 3, 6, 2.17], [9760, 29, 4, 0.49], [1070, 7, 11, 0.42], [997, 2, 4, 1.04], [1622, 1, 5, 0.2], [14017, 3, 5, 0.42], [7567, 3, 4, 1.37], [13034, 3, 8, 1.01], [22554, 10, 11, 0.23], [13260, 29, 4, 0.85], [11116, 1, 5, 0.2], [1243, 2, 4, 0.79], [12924, 1, 4, 0.2], [22317, 3, 8, 0.26], [20498, 3, 6, 0.84], [5946, 1, 4, 0.28], [996, 2, 4, 1.39], [35, 1, 4, 1.05], [5086, 1, 8, 0.2], [5813, 3, 5, 1.32], [9691, 1, 5, 1.66], [995, 2, 4, 1.56], [1413, 15, 4, 0.2], [1080, 3, 4, 0.63], [952, 4, 4, 2.48], [11085, 2, 4, 0.45], [2424, 80, 4, 1.45], [8557, 3, 4, 0.2], [3049, 3, 5, 1.73], [1703, 2, 5, 1.38], [215, 4, 5, 3.32], [20486, 3, 8, 0.5], [39, 1, 4, 0.8], [3900, 3, 5, 1.18], [4076, 3, 4, 2.94], [9081, 3, 8, 0.53], [13023, 3, 5, 1.48], [8274, 3, 4, 0.53], [8943, 3, 5, 0.37], [34, 1, 4, 0.47], [20486, 1, 4, 0.51], [6497, 1, 5, 1.25], [8104, 1, 4, 0.2], [11510, 3, 5, 0.71], [2854, 21, 11, 0.45], [38, 1, 4, 0.47], [23611, 3, 4, 0.42], [3047, 3, 5, 1.0], [20969, 3, 5, 1.12], [1414, 15, 4, 0.2], [2878, 1, 4, 1.57], [114, 3, 4, 0.23], [12923, 1, 4, 0.5], [10529, 29, 4, 0.48], [8672, 2, 281, 5.07], [305, 2, 145, 3.64], [6935, 2, 278, 5.23], [141, 2, 152, 3.06], [2049, 3, 539, 2.4], [205, 2, 107, 2.48], [12721, 2, 296, 2.46], [130, 1, 62, 1.66], [144, 2, 151, 1.84], [589, 2, 161, 1.23], [362, 2, 139, 3.44], [146, 2, 151, 3.22], [145, 2, 159, 1.59], [593, 2, 119, 2.87], [990, 2, 54, 1.72], [1777, 1, 107, 3.88], [8915, 2, 200, 1.63], [2328, 2, 148, 3.16], [8648, 2, 218, 4.67], [6936, 2, 278, 4.62], [8650, 2, 218, 5.32], [22247, 2, 296, 3.03], [2778, 2, 153, 3.21], [1007, 2, 266, 1.69], [88, 10, 587, 2.65], [10, 2, 109, 2.73], [8677, 3, 289, 5.23], [8649, 2, 218, 5.01], [10149, 3, 853, 5.41], [2054, 3, 463, 4.27], [412, 1, 82, 3.82], [13028, 3, 145, 3.08], [10825, 21, 675, 2.7], [11681, 2, 274, 3.6], [361, 2, 152, 2.18], [413, 1, 85, 3.3], [7004, 1, 78, 2.8], [2055, 3, 488, 2.59], [2057, 3, 488, 4.38], [7084, 3, 127, 3.82], [411, 2, 107, 2.92], [308, 1, 166, 3.34], [410, 1, 102, 2.83], [6158, 2, 270, 3.55], [8938, 2, 198, 2.26], [8676, 2, 296, 2.62], [1124, 2, 184, 1.89], [432, 3, 297, 2.94], [167, 3, 236, 3.63], [45, 2, 108, 5.82], [7036, 1, 125, 4.63], [3495, 3, 950, 4.43], [7005, 1, 78, 2.8], [5081, 2, 189, 3.15], [94, 4, 117, 4.7], [9827, 3, 86, 3.03], [5812, 3, 611, 5.08], [3893, 1, 121, 1.92], [3889, 1, 121, 1.92], [12870, 1, 135, 6.0], [3891, 1, 121, 1.92], [168, 3, 399, 3.61], [1504, 2, 200, 2.99], [6097, 80, 68, 5.83], [11737, 2, 56, 2.55]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 2.68], [3, 2, 7, 2.67], [326, 2, 11, 1.38], [589, 2, 15, 0.55], [143, 2, 7, 1.12], [2049, 3, 18, 1.93], [6935, 2, 18, 3.14], [130, 1, 7, 1.56], [205, 2, 7, 0.71], [75, 2, 7, 1.86], [12721, 2, 10, 1.69], [144, 2, 7, 1.42], [145, 2, 7, 1.0], [8915, 2, 12, 0.5], [1776, 1, 7, 1.17], [593, 2, 10, 2.33], [146, 2, 7, 2.25], [151, 1, 7, 0.71], [2778, 2, 13, 1.07], [1777, 1, 7, 1.85], [20252, 2, 7, 1.1], [206, 2, 7, 1.53], [8648, 2, 14, 4.89], [990, 2, 9, 1.73], [2328, 2, 9, 1.55], [6936, 2, 10, 2.57], [5151, 2, 7, 0.9], [7886, 4, 7, 0.87], [8650, 2, 14, 5.0], [88, 10, 17, 1.98], [141, 2, 7, 2.63], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [1492, 1, 7, 1.85], [7004, 1, 7, 0.96], [2054, 3, 7, 1.03], [362, 2, 7, 2.4], [2057, 3, 7, 0.89], [10825, 21, 13, 2.02], [8649, 2, 14, 5.0], [2055, 3, 7, 0.81], [345, 3, 11, 0.97], [7084, 3, 7, 3.88], [7005, 1, 7, 0.73], [307, 2, 7, 1.93], [3889, 1, 7, 0.8], [21793, 1, 7, 4.02], [410, 1, 7, 1.0], [432, 3, 7, 1.15], [7887, 4, 7, 0.67], [22247, 2, 13, 2.72], [57, 1, 7, 1.0], [11681, 2, 14, 5.0], [10149, 3, 21, 1.67], [308, 1, 7, 2.55], [7036, 1, 7, 2.24], [94, 4, 7, 1.85], [12870, 1, 11, 5.0], [5081, 2, 9, 1.33], [9827, 3, 7, 0.53], [201, 3, 11, 0.87], [167, 3, 9, 2.77], [13028, 3, 7, 2.95], [8677, 3, 9, 1.26], [1504, 2, 7, 2.47], [1124, 2, 14, 0.68], [3891, 1, 7, 2.38], [35, 1, 9, 2.05], [3893, 1, 7, 2.38], [8676, 2, 7, 1.7], [168, 3, 11, 3.71], [9760, 29, 9, 0.92], [5812, 3, 8, 1.91], [1243, 2, 7, 1.27], [6158, 2, 10, 0.94], [412, 1, 7, 2.68], [45, 2, 7, 2.72], [361, 2, 7, 1.87], [20927, 1, 7, 1.14], [335, 3, 20, 0.93], [1767, 25, 7, 1.14], [3980, 4, 7, 2.74], [346, 1, 7, 3.18], [95, 3, 27, 0.67], [9069, 1, 7, 1.46], [214, 3, 18, 0.69], [998, 2, 7, 2.35], [2049, 1, 7, 1.19], [413, 1, 7, 2.06], [3495, 3, 18, 2.26], [8674, 2, 7, 1.7], [856, 1, 7, 0.73], [34, 1, 7, 1.65], [8898, 3, 7, 2.78], [11116, 1, 7, 0.86], [346, 3, 7, 1.57], [1766, 25, 9, 1.39], [5946, 1, 7, 2.23], [1070, 7, 15, 0.84], [997, 2, 9, 2.24], [9691, 1, 7, 3.41], [20498, 1, 7, 2.97], [38, 1, 7, 1.9], [974, 3, 9, 2.39], [152, 21, 7, 0.83], [9372, 1, 7, 3.6], [14017, 3, 7, 1.75], [1091, 1, 7, 1.5], [22317, 3, 9, 1.01], [11954, 1, 7, 3.89], [20498, 3, 10, 1.9], [996, 2, 7, 2.35], [82, 2, 7, 1.88], [1080, 3, 7, 1.59], [9828, 3, 7, 0.76], [14037, 3, 7, 1.09], [39, 1, 7, 1.62], [5811, 3, 7, 4.24], [3048, 3, 7, 3.93], [972, 3, 8, 1.9], [1767, 2, 7, 1.46], [13260, 29, 9, 2.46], [24, 1, 9, 1.96], [4203, 1, 9, 1.06], [5813, 3, 7, 4.0], [10780, 10, 7, 3.58], [13034, 3, 8, 2.39], [5513, 2, 7, 1.93], [8945, 3, 8, 2.34], [952, 4, 7, 4.16], [202, 2, 7, 3.13], [3981, 3, 17, 2.74], [3900, 3, 7, 0.94], [995, 2, 7, 2.53], [6497, 1, 7, 0.9], [3893, 1, 138, 3.95], [8676, 2, 339, 2.47], [168, 3, 427, 4.48], [9760, 29, 80, 2.17], [5812, 3, 664, 3.68], [1243, 2, 110, 2.26], [6158, 2, 295, 3.16], [412, 1, 93, 4.36], [45, 2, 120, 4.53], [361, 2, 173, 3.11], [20927, 1, 90, 2.13], [335, 3, 1468, 2.53], [1767, 25, 193, 3.4], [3980, 4, 568, 3.51], [346, 1, 177, 3.95], [95, 3, 1223, 3.3], [9069, 1, 136, 2.45], [214, 3, 734, 1.69], [998, 2, 284, 3.12], [2049, 1, 8, 1.64], [413, 1, 96, 3.86], [3495, 3, 1083, 4.16], [8674, 2, 339, 2.47], [856, 1, 41, 1.49], [34, 1, 125, 3.59], [8898, 3, 316, 5.08], [11116, 1, 90, 2.07], [346, 3, 674, 2.8], [1766, 25, 210, 3.33], [5946, 1, 138, 3.78], [1070, 7, 661, 3.14], [997, 2, 269, 4.04], [9691, 1, 84, 4.24], [20498, 1, 109, 4.11], [38, 1, 125, 3.64], [974, 3, 166, 3.95], [9372, 1, 256, 5.15], [14017, 3, 220, 4.21], [1091, 1, 56, 2.26], [22317, 3, 355, 2.78], [11954, 1, 218, 4.66], [20498, 3, 654, 3.7], [996, 2, 284, 3.12], [82, 2, 67, 2.87], [1080, 3, 148, 3.39], [9828, 3, 98, 2.69], [39, 1, 125, 2.94], [5811, 3, 696, 5.0], [3048, 3, 303, 5.48], [972, 3, 667, 3.43], [1767, 2, 38, 2.94], [13260, 29, 81, 3.46], [24, 1, 126, 3.39], [4203, 1, 55, 2.86], [5813, 3, 661, 4.76], [10780, 10, 429, 5.39], [13034, 3, 664, 3.98], [5513, 2, 93, 2.69], [952, 4, 85, 4.92], [202, 2, 85, 3.89], [3981, 3, 1906, 3.51], [3900, 3, 52, 1.71], [995, 2, 284, 3.3], [6497, 1, 44, 1.66]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 9, 1.32], [6935, 2, 11, 4.09], [589, 2, 8, 1.6], [2778, 2, 11, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [130, 1, 7, 0.69], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [205, 2, 9, 0.67], [8648, 2, 14, 3.54], [2775, 2, 7, 2.56], [593, 2, 11, 2.52], [145, 2, 7, 0.96], [146, 2, 7, 1.35], [5493, 2, 7, 0.74], [11681, 2, 9, 4.95], [7036, 1, 7, 3.63], [88, 10, 24, 2.1], [2776, 2, 7, 2.04], [141, 2, 7, 0.72], [151, 1, 7, 0.98], [1446, 2, 7, 1.5], [206, 2, 7, 1.45], [990, 2, 7, 0.75], [9760, 29, 9, 1.24], [248, 1, 7, 1.02], [5491, 2, 7, 0.77], [1007, 2, 7, 0.73], [8672, 2, 7, 5.0], [142, 2, 7, 1.77], [362, 2, 7, 1.0], [2912, 1, 7, 1.75], [10993, 2, 7, 1.25], [3893, 1, 7, 0.71], [12870, 1, 9, 3.33], [5165, 1, 7, 2.14], [7886, 4, 7, 0.8], [2055, 3, 7, 1.07], [417, 2, 7, 1.77], [9372, 1, 7, 3.88], [1622, 1, 11, 0.59], [3889, 1, 9, 1.13], [523, 2, 7, 1.19], [2054, 3, 7, 2.19], [7573, 1, 21, 5.0], [21793, 1, 7, 1.7], [10, 2, 9, 1.14], [7885, 4, 7, 1.19], [3891, 1, 7, 0.76], [10149, 3, 21, 2.82], [75, 2, 7, 2.18], [20927, 1, 7, 2.5], [61, 3, 7, 2.37], [5208, 3, 14, 0.79], [997, 2, 7, 2.75], [3, 2, 9, 1.83], [9491, 21, 29, 0.96], [12721, 2, 7, 3.06], [5165, 2, 8, 1.95], [35, 1, 9, 2.98], [83, 2, 11, 1.48], [998, 2, 7, 1.56], [22247, 2, 7, 2.52], [33, 1, 9, 2.92], [996, 2, 7, 2.88], [346, 3, 7, 5.0], [7887, 4, 7, 2.05], [972, 3, 10, 1.66], [5076, 1, 7, 2.68], [2805, 137, 7, 4.94], [229, 1, 7, 2.98], [6158, 2, 9, 1.56], [2424, 80, 7, 2.78], [34, 1, 9, 3.0], [13028, 3, 7, 4.0], [2912, 2, 12, 3.01], [13928, 1, 7, 2.56], [38, 1, 9, 3.05], [8898, 3, 7, 5.0], [346, 1, 7, 5.0], [76, 2, 7, 1.69], [12212, 29, 9, 0.9], [8104, 1, 7, 1.79], [2336, 3, 8, 1.19], [9690, 1, 7, 1.19], [5209, 3, 9, 1.92], [39, 1, 9, 3.02], [3495, 3, 18, 2.75], [11952, 1, 7, 1.27], [7567, 3, 7, 3.04], [2424, 29, 7, 1.27], [5946, 1, 7, 1.02], [11490, 1, 9, 1.14], [24257, 1, 7, 1.0], [9691, 1, 7, 2.06], [3048, 3, 7, 1.77], [11770, 1, 7, 3.84], [411, 2, 7, 1.64], [21798, 1, 7, 1.14], [1703, 2, 7, 2.56], [13928, 2, 7, 2.56], [632, 11, 21, 0.84], [11953, 1, 9, 0.75], [74, 1, 7, 5.0], [161, 3, 9, 4.12], [10407, 10, 12, 3.76], [22316, 3, 9, 1.16], [13023, 3, 10, 1.41], [1523, 1, 7, 0.81], [21269, 3, 7, 1.96], [10410, 10, 15, 3.8], [192, 3, 15, 2.1], [12764, 2, 10, 2.01], [214, 3, 15, 1.01], [2331, 1, 7, 3.16], [972, 1, 7, 1.94], [3430, 15, 7, 2.79], [5164, 1, 7, 1.93], [13893, 2, 7, 4.11], [1274, 1, 7, 1.55], [4076, 3, 7, 2.73], [6097, 80, 7, 2.43], [6097, 29, 7, 2.31], [11116, 1, 7, 1.08], [3576, 29, 7, 2.44], [10408, 10, 8, 3.12], [1080, 3, 7, 2.78], [1243, 2, 9, 2.48], [3047, 3, 7, 2.68], [10780, 10, 7, 3.61], [2438, 2, 8, 3.45], [8674, 2, 7, 3.66], [11813, 1, 7, 1.41], [3334, 5, 7, 4.94], [2436, 4, 7, 1.36], [346, 3, 678, 5.86], [972, 3, 650, 3.9], [5076, 1, 150, 3.54], [2805, 137, 203, 5.8], [229, 1, 89, 4.15], [6158, 2, 285, 2.64], [2424, 80, 186, 3.86], [13028, 3, 161, 4.86], [13928, 1, 51, 3.92], [8898, 3, 327, 6.0], [346, 1, 170, 5.86], [76, 2, 119, 3.73], [12212, 29, 131, 3.03], [8104, 1, 236, 2.65], [2336, 3, 675, 2.05], [9690, 1, 83, 2.38], [3495, 3, 1056, 3.61], [11952, 1, 230, 2.13], [7567, 3, 76, 4.21], [2424, 29, 37, 2.13], [5946, 1, 135, 2.11], [11490, 1, 63, 2.57], [24257, 1, 154, 2.09], [9691, 1, 87, 2.92], [3048, 3, 313, 2.63], [11770, 1, 243, 4.7], [411, 2, 118, 2.73], [21798, 1, 161, 2.0], [1703, 2, 179, 3.73], [13928, 2, 27, 3.42], [632, 11, 949, 1.71], [11953, 1, 218, 1.96], [74, 1, 219, 6.0], [161, 3, 837, 4.99], [10407, 10, 1263, 5.88], [22316, 3, 346, 2.25], [13023, 3, 657, 3.53], [1523, 1, 51, 1.89], [21269, 3, 332, 2.82], [10410, 10, 1263, 5.22], [192, 3, 1615, 2.95], [12764, 2, 810, 3.87], [2331, 1, 134, 4.02], [972, 1, 108, 2.8], [3430, 15, 75, 3.89], [5164, 1, 55, 2.79], [13893, 2, 310, 4.97], [1274, 1, 90, 2.41], [4076, 3, 230, 3.59], [6097, 80, 76, 3.59], [6097, 29, 38, 3.4], [11116, 1, 92, 1.94], [3576, 29, 39, 3.3], [10408, 10, 881, 3.97], [1080, 3, 138, 3.87], [1243, 2, 107, 4.36], [3047, 3, 294, 4.59], [10780, 10, 410, 5.32], [2438, 2, 682, 5.35], [8674, 2, 323, 4.51], [11813, 1, 362, 2.27], [3334, 5, 203, 5.8], [2436, 4, 126, 3.21]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [130, 1, 7, 0.67], [11685, 2, 7, 3.6], [8648, 2, 9, 2.71], [144, 2, 7, 2.5], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [11681, 2, 9, 3.34], [205, 2, 7, 0.74], [593, 2, 14, 1.01], [305, 2, 7, 1.23], [8915, 2, 8, 0.93], [141, 2, 9, 1.58], [8650, 2, 7, 2.25], [151, 1, 7, 0.77], [6936, 2, 14, 4.75], [2778, 2, 9, 1.43], [206, 2, 7, 1.57], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [615, 2, 7, 1.53], [7036, 1, 7, 2.85], [1446, 2, 7, 1.73], [990, 2, 7, 0.69], [362, 2, 7, 0.96], [8853, 2, 7, 2.37], [417, 2, 7, 0.93], [248, 1, 7, 0.75], [2055, 3, 7, 4.16], [523, 2, 7, 1.56], [3893, 1, 7, 0.83], [12870, 1, 7, 3.69], [142, 2, 7, 0.93], [12350, 1, 7, 2.38], [2057, 3, 7, 3.77], [3889, 1, 7, 1.75], [7084, 3, 7, 1.65], [20927, 1, 7, 1.66], [7005, 1, 7, 1.29], [997, 2, 7, 1.75], [12349, 1, 7, 4.99], [21793, 1, 7, 2.58], [3891, 1, 7, 1.49], [61, 3, 9, 2.43], [7885, 4, 9, 1.03], [5165, 1, 7, 2.14], [6158, 2, 21, 1.5], [8672, 2, 14, 2.68], [5165, 2, 8, 2.15], [9491, 21, 20, 1.13], [2912, 1, 7, 1.67], [98, 11, 16, 1.21], [972, 3, 11, 3.54], [411, 2, 7, 1.73], [9372, 1, 7, 4.23], [10388, 2, 7, 1.16], [214, 3, 18, 0.67], [33, 1, 7, 3.41], [410, 1, 7, 2.57], [7886, 4, 7, 1.19], [13928, 1, 7, 2.18], [7567, 3, 7, 2.7], [9081, 3, 16, 1.41], [3981, 3, 22, 2.41], [22316, 3, 7, 0.98], [83, 2, 7, 1.41], [22247, 2, 7, 2.12], [336, 15, 7, 1.77], [308, 1, 7, 3.55], [2912, 2, 8, 3.01], [10631, 2, 7, 0.81], [161, 3, 8, 4.87], [229, 1, 7, 3.17], [5946, 1, 7, 1.49], [11953, 1, 7, 1.06], [10780, 10, 7, 3.43], [22317, 3, 7, 1.67], [6497, 1, 7, 0.9], [345, 3, 7, 1.46], [12271, 2, 7, 0.9], [3478, 2, 7, 1.93], [11767, 1, 7, 0.83], [10407, 10, 10, 3.53], [10410, 10, 10, 3.57], [9082, 3, 33, 2.42], [37, 1, 7, 2.23], [972, 1, 7, 1.51], [6097, 80, 7, 3.68], [39, 1, 7, 1.71], [8104, 1, 7, 0.73], [74, 1, 7, 4.11], [1413, 15, 7, 0.69], [34, 1, 7, 1.79], [82, 2, 7, 1.27], [7704, 2, 7, 2.41], [3048, 3, 7, 0.92], [24257, 1, 7, 2.73], [2331, 1, 7, 3.53], [192, 3, 20, 1.59], [335, 3, 15, 2.02], [152, 21, 9, 0.89], [38, 1, 7, 1.27], [9971, 2, 7, 3.23], [12338, 29, 9, 0.69], [9, 1, 7, 0.87], [4253, 1, 7, 1.29], [1523, 1, 7, 0.85], [45, 2, 7, 5.0], [12721, 2, 7, 2.09], [11510, 3, 8, 2.0], [6097, 29, 7, 3.68], [10936, 2, 7, 2.38], [8673, 2, 7, 4.12], [2805, 137, 7, 3.07], [10093, 3, 15, 1.68], [1080, 3, 7, 0.71], [7007, 1, 7, 2.33], [12764, 2, 8, 1.43], [3047, 3, 7, 4.74], [12212, 29, 7, 0.94], [7705, 2, 7, 2.56], [1895, 3, 7, 3.57], [8659, 1, 7, 3.34], [7706, 2, 7, 2.31], [9965, 2, 7, 4.66], [6496, 1, 7, 2.09], [8676, 2, 7, 1.46], [11812, 1, 7, 0.9], [201, 3, 7, 2.62], [2424, 80, 7, 2.59], [8635, 3, 7, 2.86], [4203, 1, 7, 1.08], [1703, 2, 7, 2.63], [3475, 2, 7, 3.15], [2438, 2, 8, 2.12], [308, 1, 161, 4.6], [10631, 2, 234, 1.62], [161, 3, 730, 5.94], [229, 1, 88, 3.97], [5946, 1, 135, 2.3], [11953, 1, 217, 1.87], [10780, 10, 395, 4.24], [22317, 3, 323, 3.38], [6497, 1, 38, 1.95], [345, 3, 304, 2.92], [12271, 2, 69, 1.71], [3478, 2, 76, 2.74], [11767, 1, 166, 1.87], [10407, 10, 1170, 4.35], [10410, 10, 1232, 4.39], [9082, 3, 2644, 3.25], [37, 1, 114, 3.22], [972, 1, 106, 2.32], [6097, 80, 74, 4.49], [39, 1, 114, 2.52], [8104, 1, 95, 1.43], [74, 1, 214, 4.92], [1413, 15, 96, 1.49], [34, 1, 114, 2.99], [82, 2, 61, 2.08], [7704, 2, 191, 3.22], [3048, 3, 277, 1.97], [24257, 1, 140, 3.78], [2331, 1, 123, 4.34], [192, 3, 1529, 2.41], [335, 3, 1394, 2.81], [38, 1, 120, 2.08], [9971, 2, 292, 4.04], [12338, 29, 54, 1.8], [9, 1, 37, 1.68], [4253, 1, 187, 2.11], [1523, 1, 51, 1.66], [45, 2, 110, 6.0], [12721, 2, 308, 2.89], [11510, 3, 602, 3.04], [6097, 29, 37, 4.49], [10936, 2, 144, 3.19], [8673, 2, 301, 4.93], [2805, 137, 186, 3.88], [10093, 3, 887, 2.49], [1080, 3, 139, 1.52], [7007, 1, 85, 3.14], [12764, 2, 798, 2.24], [3047, 3, 275, 5.55], [12212, 29, 129, 1.75], [7705, 2, 191, 3.38], [1895, 3, 316, 4.38], [8659, 1, 128, 4.15], [7706, 2, 191, 3.12], [9965, 2, 277, 5.47], [6496, 1, 43, 2.9], [8676, 2, 310, 2.27], [11812, 1, 258, 1.7], [201, 3, 320, 3.42], [2424, 80, 182, 3.4], [8635, 3, 363, 3.67], [4203, 1, 53, 1.88], [1703, 2, 176, 3.43], [3475, 2, 63, 3.96], [2438, 2, 671, 2.92]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [362, 2, 9, 1.88], [2049, 3, 16, 0.8], [589, 2, 12, 0.5], [141, 2, 7, 1.04], [75, 2, 11, 1.99], [1776, 1, 7, 1.12], [8672, 2, 15, 2.16], [20252, 2, 7, 0.74], [205, 2, 7, 0.93], [7886, 4, 7, 1.01], [2778, 2, 8, 0.81], [1777, 1, 7, 2.22], [305, 2, 7, 0.92], [11681, 2, 10, 5.0], [593, 2, 11, 2.33], [8648, 2, 9, 3.46], [6936, 2, 10, 2.79], [2328, 2, 7, 0.94], [1007, 2, 10, 1.03], [88, 10, 21, 1.69], [83, 2, 7, 0.96], [5151, 2, 7, 1.96], [8650, 2, 9, 3.5], [412, 1, 7, 2.67], [345, 3, 7, 1.1], [2991, 3, 7, 4.78], [22247, 2, 9, 2.4], [361, 2, 7, 0.94], [144, 2, 7, 1.44], [57, 1, 9, 0.93], [201, 3, 8, 1.0], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [3478, 2, 7, 0.87], [146, 2, 7, 2.68], [2054, 3, 9, 3.23], [7004, 1, 7, 0.9], [12721, 2, 10, 1.78], [167, 3, 7, 2.5], [2057, 3, 7, 3.23], [413, 1, 7, 2.06], [10825, 21, 13, 2.1], [6158, 2, 10, 2.87], [74, 1, 7, 3.5], [168, 3, 7, 1.38], [308, 1, 7, 2.44], [346, 1, 7, 0.74], [2055, 3, 7, 1.92], [10, 2, 17, 2.16], [7036, 1, 9, 4.85], [13028, 3, 7, 1.61], [3495, 3, 21, 1.64], [335, 3, 27, 3.16], [432, 3, 7, 1.61], [5081, 2, 9, 0.59], [7887, 4, 7, 0.77], [12870, 1, 9, 5.0], [214, 3, 15, 0.77], [8649, 2, 7, 2.97], [79, 1, 7, 0.73], [410, 1, 7, 1.54], [1492, 1, 7, 1.2], [3889, 1, 7, 2.63], [145, 2, 9, 0.73], [9827, 3, 7, 0.86], [3893, 1, 7, 1.67], [1504, 2, 9, 0.89], [5208, 3, 16, 1.05], [95, 3, 21, 3.57], [13260, 29, 7, 1.89], [5812, 3, 8, 2.16], [23, 1, 7, 2.91], [94, 4, 7, 2.79], [411, 2, 7, 1.46], [7005, 1, 7, 1.19], [3891, 1, 7, 1.3], [998, 2, 7, 2.66], [25, 1, 7, 2.91], [21269, 3, 7, 5.0], [7567, 3, 7, 3.13], [10574, 3, 9, 2.33], [5086, 1, 9, 2.04], [1243, 2, 9, 2.8], [9069, 1, 7, 2.45], [2878, 1, 7, 2.42], [997, 2, 9, 3.39], [11954, 1, 7, 1.34], [9691, 1, 7, 3.66], [856, 1, 7, 0.92], [11914, 1, 11, 1.02], [20927, 1, 7, 2.0], [1703, 2, 7, 3.38], [5660, 2, 7, 3.65], [5584, 3, 7, 4.0], [952, 4, 7, 5.0], [5209, 3, 9, 0.67], [9081, 3, 14, 3.64], [8898, 3, 7, 5.0], [996, 2, 7, 4.61], [1070, 7, 13, 1.16], [346, 3, 8, 1.14], [1622, 1, 11, 0.85], [8676, 2, 7, 1.94], [12661, 1, 7, 4.53], [23961, 3, 7, 5.0], [5513, 2, 7, 1.63], [1091, 1, 7, 1.1], [22317, 3, 8, 1.15], [8274, 3, 7, 1.92], [13034, 3, 12, 3.0], [11811, 1, 7, 3.08], [24, 1, 7, 2.51], [1519, 3, 21, 0.94], [27, 1, 7, 2.91], [8674, 2, 10, 1.94], [6097, 29, 11, 2.58], [9760, 29, 11, 0.62], [4203, 1, 7, 1.27], [6097, 80, 7, 2.41], [10529, 29, 7, 2.85], [82, 2, 7, 0.67], [1413, 15, 7, 1.44], [995, 2, 9, 4.44], [9082, 3, 21, 1.17], [20498, 3, 8, 3.76], [66, 1, 7, 0.81], [2104, 3, 10, 2.99], [6098, 80, 7, 2.21], [9372, 1, 7, 1.93], [6098, 29, 7, 1.86], [34, 1, 7, 1.48], [9827, 3, 86, 3.01], [3893, 1, 121, 3.33], [1504, 2, 200, 3.04], [5208, 3, 554, 2.2], [95, 3, 1090, 4.25], [13260, 29, 71, 3.0], [5812, 3, 580, 4.28], [23, 1, 115, 3.59], [94, 4, 117, 3.69], [411, 2, 107, 2.48], [7005, 1, 78, 2.47], [3891, 1, 121, 3.52], [998, 2, 232, 5.07], [25, 1, 115, 3.59], [21269, 3, 289, 6.0], [7567, 3, 68, 4.03], [10574, 3, 499, 3.22], [5086, 1, 181, 4.19], [1243, 2, 96, 3.48], [2878, 1, 78, 3.29], [997, 2, 232, 4.07], [11954, 1, 194, 2.02], [9691, 1, 73, 4.81], [856, 1, 34, 1.82], [11914, 1, 83, 3.67], [1703, 2, 159, 4.78], [5660, 2, 171, 4.33], [5584, 3, 231, 5.27], [952, 4, 71, 6.0], [5209, 3, 554, 2.85], [9081, 3, 453, 5.8], [8898, 3, 274, 6.0], [996, 2, 245, 5.29], [1070, 7, 580, 2.82], [346, 3, 633, 1.82], [1622, 1, 56, 1.39], [8676, 2, 296, 2.62], [12661, 1, 77, 5.59], [23961, 3, 282, 5.84], [5513, 2, 76, 2.31], [1091, 1, 47, 2.93], [22317, 3, 311, 2.56], [13034, 3, 577, 4.66], [11811, 1, 446, 3.75], [24, 1, 110, 3.81], [1519, 3, 1611, 2.61], [27, 1, 115, 3.59], [8674, 2, 296, 2.62], [6097, 29, 36, 3.26], [9760, 29, 71, 2.53], [4203, 1, 47, 2.68], [6097, 80, 68, 3.09], [10529, 29, 39, 4.25], [82, 2, 59, 1.57], [1413, 15, 96, 2.72], [995, 2, 232, 5.59], [9082, 3, 2416, 3.42], [20498, 3, 580, 4.44], [66, 1, 40, 1.49], [2104, 3, 328, 3.89], [6098, 80, 75, 2.89], [9372, 1, 236, 2.61], [6098, 29, 39, 2.54], [34, 1, 110, 2.16]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 10, 0.87], [88, 10, 29, 1.1], [2327, 2, 7, 1.0], [8915, 2, 10, 1.06], [6935, 2, 14, 4.34], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 11, 1.46], [130, 1, 7, 0.69], [5493, 2, 11, 0.5], [616, 2, 9, 0.85], [326, 2, 11, 2.77], [6936, 2, 7, 3.27], [8648, 2, 7, 3.27], [8650, 2, 9, 4.87], [1446, 2, 9, 1.57], [7004, 1, 7, 2.5], [205, 2, 7, 0.85], [2049, 3, 10, 1.17], [144, 2, 7, 2.5], [10, 2, 7, 2.3], [151, 1, 7, 0.98], [990, 2, 7, 0.75], [7036, 1, 14, 4.62], [3893, 1, 7, 2.11], [146, 2, 7, 2.06], [7885, 4, 7, 0.94], [141, 2, 7, 1.77], [3891, 1, 7, 1.55], [206, 2, 7, 1.02], [75, 2, 9, 2.39], [2055, 3, 7, 1.91], [362, 2, 7, 2.9], [10993, 2, 7, 0.87], [21793, 1, 7, 1.66], [5208, 3, 14, 0.79], [3889, 1, 26, 2.13], [7084, 3, 7, 3.02], [11234, 2, 7, 2.7], [7005, 1, 7, 1.31], [3980, 4, 8, 2.38], [12870, 1, 7, 3.72], [2912, 1, 9, 2.08], [145, 2, 7, 2.89], [5165, 1, 7, 2.07], [10149, 3, 21, 2.85], [8672, 2, 7, 5.0], [9760, 29, 7, 0.97], [998, 2, 7, 1.5], [20927, 1, 7, 2.5], [997, 2, 7, 2.49], [2436, 4, 7, 1.36], [417, 2, 7, 1.77], [2424, 80, 7, 2.78], [7887, 4, 9, 2.05], [6158, 2, 9, 1.56], [3, 2, 11, 1.58], [5076, 1, 9, 1.7], [632, 11, 21, 0.84], [229, 1, 7, 3.17], [972, 3, 9, 1.92], [3495, 3, 14, 1.61], [74, 1, 7, 2.35], [9491, 21, 21, 3.04], [523, 2, 7, 1.19], [11770, 1, 7, 2.08], [346, 3, 7, 2.56], [11953, 1, 7, 0.87], [5165, 2, 8, 2.08], [7573, 1, 16, 4.81], [12721, 2, 7, 1.45], [996, 2, 7, 1.96], [22316, 3, 9, 1.16], [2423, 80, 9, 3.79], [11772, 1, 7, 3.73], [9372, 1, 7, 3.88], [3981, 3, 22, 1.14], [6497, 1, 7, 0.94], [24257, 1, 9, 1.19], [2912, 2, 12, 3.01], [11952, 1, 7, 1.27], [2438, 2, 8, 3.32], [12229, 2, 7, 0.69], [823, 1, 7, 1.25], [361, 2, 7, 1.77], [2424, 29, 7, 0.89], [8898, 3, 9, 5.0], [3975, 4, 9, 2.75], [346, 1, 7, 3.21], [1622, 1, 7, 0.94], [6496, 1, 7, 2.37], [192, 3, 15, 2.1], [10407, 10, 12, 3.53], [3900, 3, 7, 1.43], [5209, 3, 9, 1.54], [2805, 137, 7, 2.41], [9081, 3, 12, 1.23], [5946, 1, 7, 1.02], [33, 1, 7, 1.23], [11812, 1, 7, 0.9], [335, 3, 18, 2.53], [1703, 2, 7, 1.39], [7567, 3, 7, 3.04], [12764, 2, 8, 1.48], [10388, 2, 7, 3.21], [11490, 1, 7, 0.92], [37, 1, 7, 0.9], [8676, 2, 7, 5.0], [6097, 80, 7, 2.16], [972, 1, 7, 1.94], [202, 2, 7, 1.69], [220, 4, 7, 2.52], [1519, 3, 18, 0.78], [22247, 2, 7, 2.5], [23611, 3, 8, 0.88], [161, 3, 9, 4.12], [35, 1, 7, 1.23], [38, 1, 7, 1.8], [13893, 2, 7, 4.11], [2104, 3, 15, 2.31], [11814, 1, 7, 0.92], [95, 3, 22, 0.85], [83, 2, 7, 1.1], [4232, 80, 7, 3.5], [1895, 3, 7, 4.76], [11813, 1, 7, 1.41], [11116, 1, 7, 1.08], [12212, 29, 9, 1.0], [8635, 3, 7, 2.27], [788, 2, 7, 1.02], [8104, 1, 7, 1.79], [12979, 25, 12, 1.36], [76, 2, 7, 0.98], [1309, 1, 7, 0.89], [13928, 1, 7, 2.56], [10386, 2, 7, 2.99], [5165, 2, 438, 2.94], [7573, 1, 378, 5.94], [12721, 2, 328, 2.31], [996, 2, 262, 3.05], [22316, 3, 346, 2.25], [2423, 80, 203, 5.23], [11772, 1, 243, 4.59], [9372, 1, 264, 4.75], [3981, 3, 1938, 2.0], [6497, 1, 43, 1.8], [24257, 1, 154, 2.4], [11952, 1, 230, 2.13], [2438, 2, 682, 5.35], [12229, 2, 176, 1.55], [823, 1, 46, 2.11], [361, 2, 179, 2.63], [2424, 29, 37, 1.98], [8898, 3, 310, 6.0], [3975, 4, 528, 4.61], [346, 1, 161, 4.07], [1622, 1, 125, 1.8], [6496, 1, 46, 3.23], [192, 3, 1615, 2.95], [10407, 10, 1263, 5.88], [3900, 3, 51, 2.29], [5209, 3, 130, 2.37], [2805, 137, 192, 3.49], [9081, 3, 558, 2.09], [5946, 1, 135, 2.11], [33, 1, 129, 2.09], [11812, 1, 276, 1.76], [1703, 2, 179, 2.48], [7567, 3, 76, 4.21], [12764, 2, 853, 2.34], [10388, 2, 253, 4.07], [11490, 1, 119, 2.01], [37, 1, 129, 1.76], [8676, 2, 323, 6.0], [6097, 80, 76, 3.24], [972, 1, 114, 2.8], [202, 2, 84, 2.55], [220, 4, 55, 3.38], [1519, 3, 1884, 1.61], [22247, 2, 328, 3.36], [23611, 3, 401, 1.74], [161, 3, 837, 4.99], [35, 1, 129, 2.09], [38, 1, 129, 2.66], [13893, 2, 310, 4.97], [2104, 3, 384, 3.17], [11814, 1, 246, 2.01], [95, 3, 1304, 1.69], [83, 2, 62, 1.96], [4232, 80, 162, 4.36], [1895, 3, 340, 5.62], [11813, 1, 362, 2.27], [11116, 1, 92, 1.94], [12212, 29, 131, 2.09], [8104, 1, 236, 2.65], [12979, 25, 758, 2.21], [76, 2, 126, 1.84], [1309, 1, 59, 1.75], [13928, 1, 54, 3.42], [10386, 2, 253, 3.84]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 1.23], [615, 2, 11, 0.67], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [5493, 2, 9, 0.75], [205, 2, 9, 1.23], [130, 1, 7, 0.67], [616, 2, 9, 0.77], [88, 10, 14, 0.73], [144, 2, 7, 3.09], [8648, 2, 9, 2.71], [2049, 3, 21, 0.5], [11681, 2, 9, 3.84], [8915, 2, 8, 0.93], [589, 2, 8, 0.61], [326, 2, 9, 1.94], [7036, 1, 7, 2.85], [8650, 2, 9, 2.48], [2327, 2, 7, 0.98], [593, 2, 14, 1.04], [3893, 1, 7, 0.83], [141, 2, 9, 1.58], [206, 2, 7, 1.25], [7004, 1, 7, 1.81], [151, 1, 7, 0.77], [3891, 1, 7, 1.49], [248, 1, 7, 0.75], [143, 2, 7, 2.36], [3980, 4, 7, 2.37], [146, 2, 7, 2.31], [2050, 3, 7, 3.3], [990, 2, 7, 0.69], [2055, 3, 9, 3.46], [7885, 4, 7, 1.27], [7886, 4, 9, 1.0], [2054, 3, 7, 3.66], [12870, 1, 9, 3.96], [362, 2, 7, 1.58], [8672, 2, 14, 2.43], [10993, 2, 9, 1.56], [3975, 4, 7, 2.76], [2057, 3, 9, 3.27], [5165, 1, 7, 2.14], [21793, 1, 7, 2.17], [13028, 3, 7, 1.25], [7084, 3, 7, 2.06], [145, 2, 7, 2.5], [2991, 3, 7, 2.7], [523, 2, 7, 1.98], [75, 2, 7, 0.89], [7005, 1, 7, 1.39], [3982, 3, 21, 2.58], [3981, 3, 21, 2.52], [33, 1, 7, 3.41], [142, 2, 9, 1.25], [20927, 1, 9, 2.82], [2912, 1, 7, 2.23], [6158, 2, 14, 1.75], [7887, 4, 9, 1.98], [5165, 2, 8, 1.6], [82, 2, 7, 1.27], [417, 2, 7, 0.93], [35, 1, 7, 3.32], [22316, 3, 9, 1.23], [214, 3, 14, 0.74], [11953, 1, 9, 0.9], [6497, 1, 9, 0.77], [61, 3, 7, 2.71], [229, 1, 7, 2.89], [192, 3, 27, 3.13], [11772, 1, 7, 2.54], [950, 1, 7, 0.73], [996, 2, 9, 3.33], [7567, 3, 7, 2.7], [11769, 1, 7, 1.85], [5946, 1, 7, 1.02], [346, 3, 7, 1.97], [6496, 1, 7, 2.09], [4176, 4, 9, 3.49], [972, 3, 14, 3.54], [39, 1, 7, 1.79], [74, 1, 7, 4.19], [411, 2, 7, 1.73], [7573, 1, 11, 4.14], [8677, 3, 7, 2.82], [12721, 2, 7, 2.09], [37, 1, 7, 1.52], [4253, 1, 7, 1.41], [2436, 4, 7, 0.85], [22317, 3, 9, 1.42], [2912, 2, 8, 1.8], [2104, 3, 10, 2.87], [1413, 15, 7, 1.12], [12212, 29, 7, 0.94], [336, 15, 7, 1.53], [1277, 1, 7, 1.25], [201, 3, 7, 2.61], [345, 3, 7, 1.94], [11085, 2, 8, 3.16], [21269, 3, 7, 5.0], [13023, 3, 7, 2.44], [12271, 2, 7, 2.96], [823, 1, 7, 1.08], [3, 2, 7, 2.43], [8673, 2, 7, 4.12], [22247, 2, 7, 3.69], [38, 1, 7, 1.27], [8676, 2, 7, 1.94], [10631, 2, 11, 2.59], [9, 1, 7, 0.69], [2805, 137, 7, 3.07], [10408, 10, 8, 3.22], [3577, 25, 7, 1.02], [3048, 3, 7, 2.5], [10388, 2, 7, 1.16], [1414, 15, 7, 1.0], [10936, 2, 7, 2.38], [13928, 1, 7, 2.18], [9081, 3, 16, 1.41], [11812, 1, 7, 0.9], [346, 1, 7, 1.96], [20498, 3, 8, 1.25], [9491, 21, 16, 1.06], [13244, 1, 7, 0.87], [4076, 3, 7, 2.54], [161, 3, 8, 4.87], [11814, 1, 7, 0.92], [9372, 1, 7, 4.23], [10407, 10, 10, 3.57], [12764, 2, 12, 1.71], [491, 10, 8, 3.21], [1523, 1, 7, 0.85], [972, 1, 7, 1.51], [11089, 1, 7, 3.33], [3576, 25, 7, 1.44], [61, 3, 223, 3.52], [229, 1, 83, 3.7], [192, 3, 1452, 4.58], [11772, 1, 232, 3.35], [950, 1, 64, 1.54], [996, 2, 244, 5.2], [7567, 3, 75, 3.5], [11769, 1, 175, 2.66], [5946, 1, 128, 2.07], [346, 3, 618, 2.83], [6496, 1, 43, 2.9], [4176, 4, 492, 5.21], [39, 1, 114, 3.74], [74, 1, 203, 5.23], [411, 2, 111, 2.54], [7573, 1, 375, 4.95], [8677, 3, 295, 4.51], [12721, 2, 308, 2.89], [37, 1, 114, 3.22], [4253, 1, 177, 2.46], [2436, 4, 114, 1.9], [22317, 3, 323, 3.38], [2912, 2, 394, 2.61], [2104, 3, 355, 3.68], [12212, 29, 122, 1.99], [336, 15, 110, 3.22], [1277, 1, 196, 2.19], [201, 3, 304, 4.31], [345, 3, 304, 2.92], [11085, 2, 548, 5.15], [21269, 3, 299, 6.0], [13023, 3, 602, 3.48], [823, 1, 43, 1.89], [3, 2, 122, 3.8], [8673, 2, 301, 4.93], [22247, 2, 292, 5.1], [38, 1, 120, 2.08], [8676, 2, 294, 2.99], [9, 1, 35, 1.74], [2805, 137, 186, 3.88], [10408, 10, 824, 4.03], [3577, 25, 95, 1.83], [3048, 3, 277, 3.72], [10388, 2, 237, 1.97], [1414, 15, 24, 2.03], [10936, 2, 144, 3.19], [13928, 1, 50, 2.99], [9081, 3, 520, 2.21], [11812, 1, 258, 1.7], [346, 1, 154, 3.01], [20498, 3, 631, 2.07], [9491, 21, 2394, 1.89], [13244, 1, 54, 1.68], [4076, 3, 205, 3.35], [161, 3, 730, 5.94], [11814, 1, 243, 1.73], [9372, 1, 247, 5.04], [10407, 10, 1232, 4.39], [12764, 2, 758, 3.42], [491, 10, 463, 4.01], [1523, 1, 51, 1.66], [972, 1, 100, 2.55], [11089, 1, 183, 4.14], [3576, 25, 109, 2.25]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 9, 0.88], [362, 2, 7, 1.46], [8650, 2, 7, 2.38], [5491, 2, 14, 0.77], [361, 2, 7, 0.77], [5493, 2, 7, 1.28], [589, 2, 9, 1.2], [8672, 2, 18, 2.15], [11685, 2, 9, 2.81], [417, 2, 7, 0.71], [6935, 2, 28, 3.99], [205, 2, 7, 0.69], [11681, 2, 13, 5.0], [11838, 2, 9, 1.27], [12721, 2, 14, 1.48], [248, 1, 7, 0.98], [11837, 2, 7, 1.12], [142, 2, 7, 0.73], [6936, 2, 9, 2.64], [2778, 2, 11, 1.59], [1446, 2, 11, 0.61], [8676, 2, 7, 1.7], [615, 2, 7, 1.42], [21793, 1, 8, 4.09], [305, 2, 9, 1.94], [593, 2, 10, 0.66], [22247, 2, 7, 1.93], [11835, 2, 7, 0.92], [616, 2, 7, 1.31], [411, 2, 7, 0.83], [990, 2, 7, 0.73], [8675, 2, 11, 2.44], [10574, 3, 9, 2.5], [145, 2, 7, 2.25], [1429, 2, 7, 0.9], [6158, 2, 10, 2.15], [10149, 3, 21, 1.49], [3495, 3, 26, 2.15], [2050, 3, 8, 1.22], [146, 2, 7, 1.72], [88, 10, 20, 3.07], [2054, 3, 10, 2.04], [75, 2, 7, 3.23], [10993, 2, 9, 1.25], [7885, 4, 11, 1.67], [144, 2, 7, 2.25], [7705, 2, 7, 2.74], [2424, 29, 7, 3.81], [346, 3, 10, 2.81], [2423, 80, 7, 3.0], [2859, 15, 7, 1.4], [7704, 2, 7, 2.74], [61, 3, 7, 0.69], [2423, 29, 7, 3.22], [9126, 1, 7, 2.18], [335, 3, 17, 0.93], [5165, 1, 7, 1.98], [2424, 80, 7, 3.81], [13028, 3, 7, 1.96], [201, 3, 9, 2.41], [346, 1, 7, 2.81], [214, 3, 15, 3.57], [60, 3, 8, 3.51], [1519, 3, 16, 0.67], [13023, 3, 8, 2.65], [308, 1, 9, 2.95], [1414, 15, 7, 0.81], [13034, 3, 10, 2.45], [2703, 3, 7, 3.36], [345, 3, 7, 0.94], [6494, 1, 7, 0.89], [7004, 1, 7, 1.27], [410, 1, 7, 1.0], [11770, 1, 7, 3.5], [7706, 2, 11, 2.62], [432, 3, 7, 2.39], [5208, 3, 11, 1.15], [3430, 15, 7, 1.66], [6952, 1, 7, 1.41], [13928, 1, 7, 2.28], [12373, 1, 11, 3.51], [20927, 1, 7, 2.02], [11954, 1, 7, 0.85], [94, 4, 7, 4.04], [1886, 2, 7, 0.85], [2331, 1, 7, 3.16], [3893, 1, 7, 1.78], [3891, 1, 7, 1.78], [114, 3, 7, 1.1], [11811, 1, 7, 1.93], [105, 3, 7, 0.92], [7886, 4, 9, 1.14], [3981, 3, 13, 0.91], [1274, 1, 7, 1.6], [952, 4, 7, 3.68], [13033, 3, 7, 1.39], [944, 15, 7, 0.71], [9690, 1, 7, 2.13], [11089, 1, 7, 2.23], [3, 2, 7, 3.85], [1490, 1, 7, 0.85], [1309, 1, 7, 1.41], [5946, 1, 7, 1.78], [5584, 3, 7, 2.72], [8898, 3, 7, 1.42], [5812, 3, 7, 2.91], [5733, 2, 8, 2.41], [7708, 2, 7, 2.62], [10407, 10, 10, 3.72], [10410, 10, 10, 3.76], [95, 3, 13, 4.5], [3028, 3, 7, 0.85], [3478, 2, 7, 1.93], [8274, 3, 7, 2.79], [7703, 2, 7, 2.62], [9342, 2, 7, 0.93], [10398, 2, 7, 2.62], [20555, 2, 7, 1.5], [3889, 1, 7, 1.78], [21003, 2, 7, 3.61], [13258, 29, 13, 3.65], [22558, 3, 7, 4.38], [9082, 3, 23, 2.83], [3980, 4, 7, 2.76], [10406, 10, 12, 3.4], [6497, 1, 7, 3.33], [20969, 3, 7, 1.66], [1339, 3, 19, 1.0], [963, 3, 7, 2.7], [192, 3, 21, 1.64], [5165, 2, 8, 1.99], [20196, 2, 7, 3.8], [10516, 3, 7, 3.73], [11603, 2, 7, 2.64], [2703, 3, 362, 4.32], [345, 3, 358, 1.9], [6494, 1, 62, 1.85], [7004, 1, 89, 2.23], [410, 1, 125, 1.96], [11770, 1, 245, 4.45], [7706, 2, 199, 4.84], [432, 3, 352, 3.35], [5208, 3, 598, 2.1], [3430, 15, 82, 2.62], [6952, 1, 213, 2.37], [13928, 1, 56, 3.24], [12373, 1, 636, 4.47], [20927, 1, 94, 2.98], [11954, 1, 238, 1.81], [94, 4, 137, 5.0], [1886, 2, 187, 1.81], [2331, 1, 138, 4.12], [3893, 1, 146, 2.73], [3891, 1, 146, 2.73], [114, 3, 276, 3.23], [11811, 1, 536, 2.9], [105, 3, 291, 1.88], [7886, 4, 57, 2.53], [3981, 3, 1999, 1.89], [1274, 1, 98, 2.56], [952, 4, 87, 4.63], [13033, 3, 667, 2.57], [944, 15, 52, 1.67], [9690, 1, 89, 3.09], [11089, 1, 203, 3.19], [3, 2, 140, 4.81], [1490, 1, 61, 1.81], [1309, 1, 61, 2.37], [5946, 1, 146, 2.73], [5584, 3, 272, 3.68], [8898, 3, 331, 2.37], [5812, 3, 703, 3.88], [5733, 2, 47, 3.33], [7708, 2, 210, 3.57], [10407, 10, 1385, 4.67], [10410, 10, 1385, 4.71], [95, 3, 1176, 5.48], [3028, 3, 196, 1.81], [3478, 2, 90, 2.89], [7703, 2, 210, 3.57], [9342, 2, 553, 1.9], [10398, 2, 173, 3.58], [20555, 2, 68, 2.46], [3889, 1, 146, 2.73], [21003, 2, 337, 4.57], [13258, 29, 46, 4.61], [22558, 3, 557, 5.34], [9082, 3, 2915, 3.83], [3980, 4, 571, 3.72], [10406, 10, 2088, 4.36], [6497, 1, 42, 4.28], [20969, 3, 700, 2.62], [1339, 3, 2058, 1.94], [963, 3, 473, 3.66], [192, 3, 1686, 2.6], [5165, 2, 451, 2.94], [20196, 2, 337, 4.75], [10516, 3, 679, 4.68], [11603, 2, 126, 3.5]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 21, 1.08], [6936, 2, 9, 2.9], [8672, 2, 18, 2.18], [305, 2, 9, 1.46], [615, 2, 11, 1.23], [145, 2, 7, 2.25], [12721, 2, 11, 1.74], [130, 1, 7, 0.69], [2327, 2, 7, 1.82], [361, 2, 7, 0.77], [2328, 2, 7, 2.1], [146, 2, 9, 2.15], [8675, 2, 8, 1.61], [11681, 2, 9, 2.3], [141, 2, 7, 0.77], [362, 2, 7, 1.58], [205, 2, 9, 0.99], [5491, 2, 14, 0.77], [8673, 2, 14, 2.44], [8676, 2, 9, 1.6], [144, 2, 9, 2.32], [8650, 2, 9, 4.63], [417, 2, 7, 0.77], [11837, 2, 7, 1.06], [3, 2, 7, 2.41], [6097, 80, 9, 4.67], [2423, 29, 7, 2.93], [6497, 1, 9, 0.6], [6097, 29, 9, 4.96], [11836, 2, 9, 1.44], [990, 2, 7, 1.0], [2424, 29, 7, 2.34], [593, 2, 8, 3.23], [6098, 80, 7, 4.37], [523, 2, 7, 1.46], [11739, 2, 7, 1.17], [944, 15, 7, 0.77], [88, 10, 19, 2.15], [10993, 2, 7, 1.0], [13260, 29, 7, 2.28], [8915, 2, 7, 1.5], [326, 2, 7, 0.96], [75, 2, 7, 3.0], [1413, 15, 7, 0.96], [10574, 3, 10, 2.38], [335, 3, 17, 3.44], [411, 2, 7, 1.77], [1339, 1, 7, 0.83], [1050, 2, 7, 0.73], [947, 15, 7, 0.98], [1339, 3, 21, 0.65], [151, 1, 7, 1.25], [6496, 1, 7, 2.52], [2859, 15, 7, 1.7], [7704, 2, 9, 4.35], [346, 1, 7, 0.83], [214, 3, 15, 3.57], [13258, 29, 13, 2.82], [345, 3, 7, 0.96], [10149, 3, 21, 1.75], [1490, 1, 7, 4.96], [346, 3, 8, 0.82], [1243, 2, 7, 2.39], [7004, 1, 7, 1.58], [11738, 2, 7, 1.81], [201, 3, 7, 3.31], [22558, 3, 46, 3.38], [432, 3, 7, 2.21], [2438, 1, 7, 1.99], [7705, 2, 9, 4.35], [5208, 3, 11, 1.3], [2912, 1, 7, 1.83], [229, 1, 7, 2.59], [61, 3, 7, 0.85], [963, 3, 7, 0.76], [10407, 10, 10, 3.72], [7706, 2, 9, 4.35], [2331, 1, 7, 2.02], [21793, 1, 8, 5.0], [13928, 1, 7, 2.28], [12229, 2, 7, 1.12], [3478, 2, 7, 1.93], [1548, 1, 7, 2.1], [2703, 3, 7, 4.45], [11844, 2, 7, 1.23], [13258, 25, 7, 2.31], [11490, 1, 7, 0.87], [114, 3, 7, 1.05], [7036, 1, 7, 0.87], [8938, 2, 7, 0.83], [9126, 1, 7, 2.29], [11687, 2, 7, 1.29], [10408, 10, 10, 3.27], [956, 2, 7, 1.35], [94, 4, 7, 4.04], [1886, 2, 7, 0.85], [410, 1, 7, 1.0], [11159, 1, 14, 1.67], [7708, 2, 7, 3.7], [2438, 2, 8, 2.12], [11690, 2, 7, 1.01], [9065, 2, 7, 1.04], [12870, 1, 7, 1.89], [9760, 29, 7, 1.77], [11161, 1, 10, 3.62], [11689, 2, 7, 1.27], [5976, 1, 7, 2.23], [7005, 1, 7, 2.04], [21781, 2, 7, 0.9], [1274, 1, 7, 3.81], [2805, 137, 10, 3.39], [20927, 1, 7, 1.25], [12373, 1, 11, 3.51], [2991, 3, 7, 4.76], [1699, 3, 7, 2.27], [5584, 3, 7, 2.72], [9209, 29, 7, 2.36], [3495, 3, 21, 2.56], [9690, 1, 7, 2.13], [7007, 1, 7, 2.46], [9239, 29, 7, 0.92], [11811, 1, 7, 1.93], [8600, 1, 7, 1.84], [9239, 25, 7, 0.92], [247, 1, 7, 2.96], [5769, 3, 10, 0.93], [9491, 21, 16, 3.09], [5076, 1, 7, 3.75], [13198, 29, 7, 2.55], [12764, 2, 10, 1.43], [9372, 1, 7, 4.36], [5869, 1, 7, 4.08], [7702, 2, 45, 2.47], [95, 3, 13, 0.77], [5208, 3, 669, 2.26], [2912, 1, 57, 2.79], [229, 1, 97, 3.55], [61, 3, 251, 1.81], [963, 3, 486, 1.72], [10407, 10, 1385, 4.67], [7706, 2, 176, 5.37], [2331, 1, 139, 2.98], [21793, 1, 259, 6.0], [13928, 1, 56, 3.24], [12229, 2, 171, 3.15], [3478, 2, 85, 2.89], [1548, 1, 111, 3.28], [2703, 3, 327, 5.63], [11844, 2, 327, 2.2], [13258, 25, 93, 3.26], [11490, 1, 130, 1.83], [114, 3, 290, 2.02], [7036, 1, 151, 1.82], [8938, 2, 229, 1.79], [9126, 1, 83, 3.25], [11687, 2, 359, 2.25], [10408, 10, 909, 4.23], [956, 2, 122, 2.31], [94, 4, 137, 5.0], [1886, 2, 187, 1.81], [410, 1, 125, 1.96], [11159, 1, 583, 2.63], [7708, 2, 198, 4.66], [2438, 2, 740, 3.07], [11690, 2, 359, 1.96], [9065, 2, 359, 1.99], [12870, 1, 165, 2.84], [9760, 29, 85, 2.73], [11161, 1, 585, 4.57], [11689, 2, 359, 2.23], [5976, 1, 184, 3.19], [7005, 1, 89, 3.0], [21781, 2, 124, 1.86], [1274, 1, 95, 4.77], [2805, 137, 208, 4.36], [20927, 1, 94, 2.21], [12373, 1, 636, 4.47], [2991, 3, 185, 5.72], [1699, 3, 248, 3.23], [5584, 3, 272, 3.68], [9209, 29, 39, 3.32], [3495, 3, 1147, 3.51], [9690, 1, 89, 3.09], [7007, 1, 31, 3.18], [9239, 29, 34, 1.88], [11811, 1, 536, 2.9], [8600, 1, 172, 2.8], [9239, 25, 103, 1.88], [247, 1, 103, 3.92], [5769, 3, 1242, 2.13], [9491, 21, 2455, 4.07], [5076, 1, 151, 4.71], [13198, 29, 73, 3.51], [12764, 2, 836, 2.87], [9372, 1, 271, 5.32], [5869, 1, 243, 5.04], [7702, 2, 209, 3.43], [95, 3, 1345, 1.73]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.15], [141, 2, 9, 0.92], [2778, 2, 16, 1.69], [362, 2, 7, 1.44], [361, 2, 7, 1.6], [130, 1, 7, 0.69], [6935, 2, 19, 5.0], [12721, 2, 21, 3.52], [8676, 2, 7, 1.6], [2049, 3, 21, 0.73], [417, 2, 7, 1.6], [3, 2, 7, 2.47], [22247, 2, 7, 1.83], [6936, 2, 9, 1.65], [523, 2, 7, 1.52], [305, 2, 7, 1.12], [8650, 2, 9, 3.19], [2328, 2, 9, 2.57], [11739, 2, 7, 1.31], [8648, 2, 7, 3.25], [2776, 2, 7, 2.29], [2327, 2, 7, 1.48], [616, 2, 9, 2.57], [411, 2, 7, 1.48], [8674, 2, 7, 1.54], [2423, 29, 7, 2.76], [589, 2, 7, 1.94], [6497, 1, 9, 1.1], [2805, 137, 10, 3.93], [11835, 2, 7, 1.19], [6097, 80, 9, 4.96], [146, 2, 7, 2.25], [326, 2, 7, 1.48], [6097, 29, 7, 1.85], [583, 2, 7, 1.39], [2423, 80, 7, 2.71], [10149, 3, 21, 3.22], [145, 2, 7, 2.25], [11836, 2, 7, 1.29], [144, 2, 7, 2.25], [75, 2, 7, 3.0], [10574, 3, 10, 2.88], [6496, 1, 7, 2.52], [308, 1, 13, 1.91], [1413, 15, 7, 0.83], [2054, 3, 7, 2.44], [2422, 29, 7, 4.27], [1243, 2, 7, 2.04], [21793, 1, 8, 5.0], [1886, 2, 7, 0.85], [8915, 2, 7, 1.5], [944, 15, 7, 0.77], [247, 1, 7, 2.83], [1490, 1, 7, 4.96], [2859, 15, 7, 1.4], [335, 3, 17, 2.53], [1414, 15, 7, 0.92], [201, 3, 9, 0.79], [13928, 1, 7, 2.49], [3478, 2, 7, 1.93], [6158, 2, 11, 2.4], [7084, 3, 7, 1.83], [3934, 5, 12, 2.69], [11489, 1, 7, 0.79], [12526, 2, 7, 3.02], [1703, 2, 7, 1.67], [5812, 3, 7, 3.84], [11767, 1, 7, 2.2], [61, 3, 7, 0.85], [94, 4, 7, 2.68], [186, 3, 12, 1.06], [214, 3, 15, 3.57], [1519, 3, 15, 0.72], [1050, 2, 7, 0.71], [9491, 21, 16, 2.74], [11490, 1, 7, 0.67], [1309, 1, 7, 1.41], [2821, 3, 16, 0.91], [10398, 2, 7, 1.37], [5813, 3, 7, 3.84], [192, 3, 21, 3.71], [8898, 3, 7, 1.18], [8599, 1, 7, 1.36], [5811, 3, 8, 4.0], [229, 1, 7, 2.74], [11771, 1, 7, 2.99], [1699, 3, 7, 2.95], [2438, 2, 8, 2.12], [2991, 3, 7, 4.73], [3495, 3, 21, 2.56], [11769, 1, 7, 2.2], [8943, 3, 7, 0.75], [11811, 1, 7, 1.93], [1339, 3, 21, 0.65], [13928, 2, 7, 2.28], [12764, 2, 8, 1.16], [19687, 1, 7, 2.33], [7036, 1, 7, 0.87], [346, 3, 8, 0.74], [13260, 29, 7, 2.46], [22573, 2, 7, 1.91], [10124, 1, 7, 4.18], [9690, 1, 7, 2.13], [5584, 3, 7, 5.0], [3334, 5, 7, 3.93], [18964, 1, 7, 2.18], [7004, 1, 7, 1.44], [1277, 1, 7, 0.92], [2438, 1, 7, 1.99], [20927, 1, 7, 1.18], [1523, 1, 7, 2.51], [4001, 3, 17, 2.0], [11886, 2, 7, 1.44], [1701, 2, 7, 0.96], [45, 2, 7, 4.64], [11678, 1, 7, 2.86], [21269, 3, 7, 4.2], [8286, 2, 8, 1.09], [9373, 5, 7, 5.0], [10181, 26, 8, 0.81], [23031, 3, 7, 3.25], [3984, 3, 8, 1.07], [10516, 3, 7, 2.5], [11677, 1, 7, 2.95], [346, 1, 7, 0.83], [1339, 1, 7, 0.92], [3979, 3, 8, 1.56], [19924, 2, 7, 0.79], [23032, 3, 7, 2.86], [9069, 1, 7, 2.13], [9065, 2, 7, 1.04], [5976, 1, 7, 2.23], [8285, 2, 8, 0.85], [7005, 1, 7, 2.33], [11767, 1, 192, 3.15], [61, 3, 251, 1.81], [94, 4, 141, 3.64], [186, 3, 790, 2.01], [1519, 3, 1943, 1.67], [9491, 21, 2591, 3.7], [11490, 1, 130, 1.63], [1309, 1, 61, 2.37], [2821, 3, 1510, 2.09], [10398, 2, 175, 2.33], [5813, 3, 700, 4.8], [8898, 3, 332, 2.14], [8599, 1, 173, 2.31], [5811, 3, 700, 4.96], [229, 1, 96, 3.7], [11771, 1, 246, 3.94], [1699, 3, 247, 3.91], [2438, 2, 740, 3.07], [2991, 3, 179, 6.0], [3495, 3, 1147, 3.51], [11769, 1, 192, 3.15], [8943, 3, 457, 1.7], [11811, 1, 536, 2.9], [1339, 3, 1955, 1.88], [13928, 2, 28, 3.24], [12764, 2, 880, 2.11], [19687, 1, 36, 3.29], [7036, 1, 151, 1.82], [346, 3, 736, 1.71], [13260, 29, 81, 3.64], [22573, 2, 84, 2.87], [10124, 1, 119, 5.14], [9690, 1, 89, 3.09], [5584, 3, 258, 6.0], [3334, 5, 212, 4.89], [18964, 1, 80, 3.14], [7004, 1, 94, 2.4], [1277, 1, 233, 1.88], [2438, 1, 62, 2.95], [20927, 1, 94, 2.14], [1523, 1, 56, 3.47], [4001, 3, 958, 2.96], [11886, 2, 229, 2.4], [1701, 2, 201, 1.92], [45, 2, 125, 5.6], [11678, 1, 532, 3.82], [21269, 3, 339, 5.16], [8286, 2, 566, 2.04], [9373, 5, 103, 6.0], [10181, 26, 165, 1.77], [23031, 3, 486, 4.21], [3984, 3, 1971, 2.03], [10516, 3, 693, 3.45], [11677, 1, 530, 3.91], [346, 1, 184, 1.79], [1339, 1, 86, 1.88], [3979, 3, 958, 2.52], [19924, 2, 77, 1.75], [23032, 3, 614, 3.82], [9069, 1, 142, 3.09], [9065, 2, 359, 1.99], [5976, 1, 184, 3.19], [8285, 2, 573, 1.8], [7005, 1, 42, 3.14]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 0.88], [2328, 2, 14, 1.85], [130, 1, 7, 0.69], [8650, 2, 9, 2.32], [2778, 2, 16, 1.61], [5491, 2, 9, 0.74], [8672, 2, 15, 1.94], [143, 2, 7, 0.93], [362, 2, 7, 1.05], [145, 2, 7, 1.91], [6936, 2, 9, 3.12], [5493, 2, 9, 2.06], [361, 2, 7, 1.86], [417, 2, 7, 1.86], [11681, 2, 9, 2.3], [205, 2, 7, 1.08], [589, 2, 9, 0.66], [75, 2, 9, 1.92], [11737, 2, 7, 1.75], [146, 2, 7, 1.1], [523, 2, 7, 1.21], [12721, 2, 13, 3.3], [8853, 2, 7, 3.7], [8673, 2, 27, 2.2], [326, 2, 9, 1.68], [11835, 2, 7, 0.69], [308, 1, 11, 3.94], [8915, 2, 7, 2.76], [144, 2, 7, 1.91], [1005, 2, 7, 2.48], [8675, 2, 8, 2.64], [88, 10, 26, 1.79], [434, 2, 9, 1.04], [11739, 2, 7, 1.5], [142, 2, 7, 1.86], [8676, 2, 7, 4.16], [2424, 29, 7, 2.34], [6158, 2, 12, 1.79], [7704, 2, 9, 3.71], [2423, 29, 7, 2.29], [11738, 2, 7, 1.52], [11836, 2, 11, 1.36], [2424, 80, 7, 2.57], [1413, 15, 7, 1.24], [7705, 2, 7, 4.08], [2423, 80, 7, 2.23], [944, 15, 7, 1.02], [3, 2, 9, 2.19], [3478, 2, 7, 2.95], [7004, 1, 7, 2.58], [1414, 15, 7, 0.81], [2859, 15, 7, 2.81], [74, 1, 7, 2.15], [10149, 3, 21, 1.49], [6497, 1, 7, 0.87], [3429, 15, 7, 0.79], [10993, 2, 9, 1.25], [13928, 1, 7, 2.49], [346, 1, 7, 2.81], [18964, 1, 7, 2.18], [11919, 1, 7, 1.14], [346, 3, 8, 3.06], [60, 3, 8, 3.51], [13260, 29, 7, 2.5], [7036, 1, 7, 3.14], [94, 4, 7, 4.04], [1339, 3, 21, 0.65], [6952, 1, 7, 3.06], [3893, 1, 7, 2.6], [2991, 3, 7, 4.18], [13034, 3, 11, 2.28], [411, 2, 7, 1.94], [11089, 1, 7, 2.23], [1050, 2, 7, 0.66], [3891, 1, 7, 2.6], [1339, 1, 7, 0.83], [14037, 3, 9, 1.91], [7707, 2, 7, 2.41], [21793, 1, 8, 4.09], [563, 2, 7, 1.19], [8274, 3, 7, 1.6], [6630, 3, 7, 3.55], [3889, 1, 7, 2.6], [2912, 1, 9, 1.48], [1243, 2, 7, 2.33], [1490, 1, 7, 4.96], [7708, 2, 7, 3.01], [192, 3, 26, 4.24], [11581, 29, 7, 1.89], [9126, 1, 7, 2.41], [7886, 4, 9, 0.87], [13023, 3, 8, 0.8], [3495, 3, 21, 2.56], [5208, 3, 11, 1.4], [5940, 3, 7, 2.56], [11490, 1, 7, 0.92], [1309, 1, 7, 1.41], [1049, 2, 7, 0.69], [229, 1, 7, 2.59], [5165, 1, 7, 1.67], [22558, 3, 7, 4.38], [12229, 2, 7, 1.12], [13033, 3, 7, 1.68], [2331, 1, 7, 3.54], [201, 3, 7, 1.16], [2805, 137, 10, 4.22], [247, 1, 7, 0.97], [83, 2, 7, 1.44], [1274, 1, 7, 2.25], [6496, 1, 7, 2.98], [332, 2, 7, 1.19], [214, 3, 15, 3.57], [202, 2, 7, 1.19], [951, 4, 7, 3.07], [8898, 3, 7, 1.42], [20555, 2, 7, 1.12], [1703, 2, 7, 5.0], [9690, 1, 7, 2.13], [11770, 1, 7, 3.89], [335, 3, 21, 2.53], [942, 3, 7, 2.26], [7005, 1, 7, 1.94], [5812, 3, 7, 2.49], [114, 3, 7, 3.82], [21269, 3, 7, 5.0], [3934, 5, 12, 2.69], [8635, 3, 7, 1.6], [9827, 3, 7, 0.75], [10406, 10, 12, 3.64], [4940, 1, 7, 0.81], [186, 3, 12, 2.32], [1886, 2, 9, 0.85], [10527, 3, 13, 2.94], [10411, 10, 10, 3.51], [7885, 4, 7, 1.08], [9491, 21, 16, 2.74], [6952, 1, 213, 5.34], [3893, 1, 145, 3.56], [2991, 3, 179, 6.0], [13034, 3, 665, 4.56], [411, 2, 121, 3.53], [11089, 1, 203, 3.19], [3891, 1, 145, 3.56], [1339, 1, 81, 2.01], [7707, 2, 198, 3.72], [21793, 1, 282, 5.05], [563, 2, 82, 2.37], [6630, 3, 111, 4.51], [3889, 1, 145, 3.56], [2912, 1, 13, 2.77], [1243, 2, 111, 4.11], [1490, 1, 58, 5.92], [7708, 2, 209, 3.97], [192, 3, 1582, 5.48], [11581, 29, 71, 2.85], [9126, 1, 83, 3.37], [7886, 4, 162, 2.05], [13023, 3, 714, 1.76], [3495, 3, 1147, 3.51], [5208, 3, 149, 2.33], [5940, 3, 282, 3.52], [11490, 1, 130, 1.88], [1309, 1, 61, 2.37], [229, 1, 97, 3.55], [5165, 1, 57, 2.63], [22558, 3, 557, 5.34], [12229, 2, 171, 3.15], [13033, 3, 700, 2.64], [2331, 1, 138, 4.5], [201, 3, 334, 2.34], [2805, 137, 211, 5.18], [247, 1, 104, 1.92], [83, 2, 60, 2.4], [1274, 1, 97, 3.21], [6496, 1, 44, 4.35], [332, 2, 82, 2.37], [214, 3, 253, 4.28], [202, 2, 82, 2.37], [951, 4, 111, 4.03], [8898, 3, 331, 2.37], [20555, 2, 68, 2.08], [1703, 2, 188, 6.0], [9690, 1, 89, 3.09], [11770, 1, 249, 4.85], [942, 3, 351, 3.22], [7005, 1, 94, 2.9], [5812, 3, 661, 4.78], [114, 3, 95, 4.64], [21269, 3, 332, 6.0], [3934, 5, 619, 3.65], [9827, 3, 98, 1.93], [10406, 10, 1983, 4.6], [4940, 1, 144, 1.77], [186, 3, 782, 3.28], [1886, 2, 177, 2.03], [10527, 3, 1029, 3.91], [10411, 10, 909, 4.47], [7885, 4, 74, 1.89], [9491, 21, 2591, 3.7]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 12, 0.75], [2327, 2, 9, 1.37], [2778, 2, 14, 1.33], [11681, 2, 30, 4.17], [6936, 2, 13, 3.9], [362, 2, 7, 1.69], [2328, 2, 9, 1.85], [205, 2, 7, 0.9], [130, 1, 7, 0.69], [2775, 2, 7, 1.33], [2049, 3, 10, 0.82], [8649, 2, 7, 2.82], [2776, 2, 7, 1.46], [361, 2, 7, 1.36], [143, 2, 7, 1.52], [593, 2, 9, 1.21], [206, 2, 7, 2.29], [5493, 2, 7, 1.16], [1429, 2, 7, 3.54], [523, 2, 7, 1.49], [7004, 1, 7, 1.02], [21793, 1, 7, 3.22], [413, 1, 7, 1.56], [12350, 1, 7, 4.69], [1124, 2, 7, 1.73], [7036, 1, 7, 2.95], [5165, 1, 7, 2.31], [12353, 1, 7, 4.69], [12349, 1, 9, 3.94], [145, 2, 7, 2.25], [434, 2, 7, 1.26], [248, 1, 7, 0.92], [201, 3, 11, 3.77], [6952, 1, 11, 3.9], [6097, 80, 7, 5.0], [10993, 2, 7, 1.66], [345, 3, 9, 1.93], [146, 2, 7, 2.25], [144, 2, 7, 1.72], [7084, 3, 7, 3.68], [11770, 1, 9, 0.74], [2050, 3, 7, 2.76], [12352, 1, 7, 4.69], [3891, 1, 7, 1.46], [2912, 1, 7, 2.23], [7005, 1, 7, 1.1], [998, 2, 7, 1.56], [997, 2, 7, 1.66], [432, 3, 7, 2.04], [3893, 1, 7, 1.42], [5165, 2, 12, 1.23], [12870, 1, 7, 2.29], [9372, 1, 7, 3.52], [6097, 29, 7, 5.0], [2424, 80, 7, 1.71], [20927, 1, 7, 0.98], [11772, 1, 7, 3.25], [6098, 80, 9, 4.06], [7885, 4, 7, 1.67], [10149, 3, 24, 1.73], [11089, 1, 7, 2.01], [3334, 5, 7, 2.91], [10574, 3, 8, 0.98], [12351, 1, 7, 2.23], [1492, 1, 7, 1.33], [4032, 29, 7, 1.54], [346, 3, 7, 3.55], [3889, 1, 7, 2.23], [1700, 2, 7, 1.23], [12304, 1, 7, 4.18], [1519, 3, 20, 0.94], [3576, 25, 7, 3.39], [13028, 3, 7, 4.42], [2912, 2, 8, 2.37], [214, 3, 15, 1.34], [1490, 1, 7, 1.39], [13034, 3, 7, 4.12], [972, 3, 7, 1.94], [229, 1, 7, 4.24], [11583, 29, 7, 0.94], [161, 3, 8, 4.24], [11426, 25, 7, 0.81], [5151, 2, 7, 0.87], [346, 1, 7, 3.55], [2331, 1, 7, 1.09], [8120, 3, 7, 3.15], [11490, 1, 7, 1.25], [995, 2, 7, 2.23], [3478, 2, 7, 1.19], [5076, 1, 7, 0.99], [5812, 3, 10, 4.4], [13893, 2, 7, 4.11], [10, 2, 7, 0.75], [9289, 29, 7, 2.08], [1309, 1, 7, 0.69], [410, 1, 7, 1.61], [12764, 2, 9, 1.46], [13023, 3, 10, 2.28], [2160, 68, 7, 1.96], [3575, 25, 7, 1.83], [2805, 137, 7, 2.91], [11404, 2, 7, 1.08], [3577, 25, 7, 1.0], [13280, 1, 7, 2.62], [75, 2, 7, 0.71], [2438, 2, 8, 2.12], [957, 2, 7, 2.0], [11814, 1, 7, 1.1], [11813, 1, 7, 2.91], [9069, 1, 7, 1.21], [9971, 2, 7, 2.19], [9967, 2, 7, 1.14], [11150, 2, 8, 0.79], [192, 3, 13, 3.54], [8943, 3, 7, 0.75], [9491, 21, 13, 2.59], [8283, 2, 8, 3.44], [5584, 3, 7, 5.0], [22317, 3, 7, 0.85], [24257, 1, 7, 2.78], [13249, 29, 7, 2.16], [9964, 2, 7, 3.08], [21697, 3, 7, 0.87], [9081, 3, 20, 1.8], [4586, 10, 17, 1.5], [105, 3, 7, 1.6], [4076, 3, 7, 2.73], [10609, 1, 7, 1.79], [9965, 2, 7, 2.19], [1413, 15, 7, 3.17], [335, 3, 15, 3.16], [10407, 10, 12, 3.8], [346, 3, 703, 4.43], [3889, 1, 146, 3.11], [1700, 2, 84, 2.11], [12304, 1, 125, 5.06], [1519, 3, 1827, 2.61], [3576, 25, 112, 4.27], [13028, 3, 164, 5.3], [2912, 2, 445, 3.24], [214, 3, 761, 2.22], [1490, 1, 59, 2.27], [13034, 3, 665, 5.21], [972, 3, 665, 2.81], [229, 1, 95, 5.12], [11583, 29, 66, 1.82], [161, 3, 840, 5.12], [11426, 25, 133, 1.91], [5151, 2, 27, 1.97], [346, 1, 176, 4.43], [2331, 1, 137, 1.97], [8120, 3, 277, 4.02], [11490, 1, 92, 2.35], [995, 2, 287, 3.11], [3478, 2, 89, 2.07], [5076, 1, 152, 1.87], [5812, 3, 658, 5.76], [13893, 2, 316, 4.99], [10, 2, 25, 1.24], [9289, 29, 70, 2.96], [1309, 1, 61, 1.57], [410, 1, 25, 2.1], [12764, 2, 871, 2.34], [13023, 3, 665, 4.16], [2160, 68, 155, 2.84], [3575, 25, 118, 2.71], [2805, 137, 212, 3.79], [11404, 2, 115, 2.75], [3577, 25, 98, 2.1], [13280, 1, 375, 3.5], [75, 2, 163, 1.81], [2438, 2, 733, 3.01], [957, 2, 25, 3.03], [11814, 1, 265, 1.98], [11813, 1, 367, 3.79], [9069, 1, 137, 2.31], [9971, 2, 317, 3.07], [9967, 2, 317, 2.02], [11150, 2, 414, 1.67], [192, 3, 1512, 4.6], [8943, 3, 136, 1.4], [9491, 21, 2566, 3.48], [8283, 2, 522, 4.32], [5584, 3, 266, 6.0], [22317, 3, 379, 1.73], [24257, 1, 45, 3.68], [13249, 29, 75, 3.04], [9964, 2, 317, 3.95], [21697, 3, 203, 1.97], [9081, 3, 565, 2.68], [4586, 10, 1732, 2.4], [105, 3, 286, 2.48], [4076, 3, 235, 3.61], [10609, 1, 335, 2.67], [9965, 2, 317, 3.07], [1413, 15, 92, 4.02], [335, 3, 304, 3.65], [10407, 10, 1372, 4.67]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 23, 4.55], [141, 2, 7, 2.37], [2049, 3, 16, 0.52], [205, 2, 9, 0.71], [12721, 2, 10, 1.78], [130, 1, 7, 0.98], [144, 2, 7, 0.94], [589, 2, 15, 0.55], [362, 2, 9, 2.65], [146, 2, 7, 1.67], [145, 2, 7, 0.91], [593, 2, 11, 2.33], [990, 2, 7, 1.04], [1777, 1, 7, 2.22], [8915, 2, 10, 0.95], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [6936, 2, 10, 2.57], [8650, 2, 7, 3.41], [22247, 2, 9, 2.35], [2778, 2, 7, 1.63], [1007, 2, 12, 0.66], [88, 10, 16, 1.98], [10, 2, 14, 2.05], [8677, 3, 8, 3.19], [8649, 2, 7, 3.11], [10149, 3, 25, 3.26], [2054, 3, 11, 1.86], [412, 1, 7, 1.75], [13028, 3, 7, 1.29], [10825, 21, 13, 2.01], [11681, 2, 11, 2.92], [361, 2, 7, 1.5], [413, 1, 7, 1.89], [7004, 1, 9, 0.99], [2055, 3, 7, 1.92], [2057, 3, 7, 3.71], [7084, 3, 7, 3.14], [411, 2, 7, 1.17], [308, 1, 7, 2.44], [410, 1, 7, 1.42], [6158, 2, 10, 2.87], [8938, 2, 8, 1.58], [8676, 2, 7, 1.94], [1124, 2, 12, 0.75], [432, 3, 7, 2.04], [167, 3, 9, 2.95], [45, 2, 7, 3.67], [7036, 1, 7, 3.16], [3495, 3, 26, 2.72], [7005, 1, 7, 0.99], [5081, 2, 12, 1.3], [94, 4, 7, 3.29], [9827, 3, 7, 1.13], [5812, 3, 8, 4.4], [3893, 1, 7, 1.02], [3889, 1, 7, 1.02], [12870, 1, 9, 5.0], [2049, 1, 7, 2.01], [3891, 1, 7, 1.02], [168, 3, 9, 2.11], [6097, 29, 11, 4.7], [1504, 2, 11, 1.58], [335, 3, 22, 3.16], [6097, 80, 7, 4.71], [11737, 2, 9, 1.41], [95, 3, 21, 0.93], [6098, 29, 9, 4.12], [346, 1, 9, 1.11], [998, 2, 7, 3.14], [79, 1, 7, 0.98], [214, 3, 15, 0.99], [3980, 4, 7, 2.74], [20927, 1, 7, 1.75], [9069, 1, 9, 2.16], [22316, 3, 9, 1.22], [83, 2, 7, 0.85], [6098, 80, 7, 4.14], [20498, 1, 7, 2.94], [8898, 3, 7, 4.48], [9760, 29, 7, 0.94], [1070, 7, 29, 2.72], [997, 2, 7, 2.84], [1622, 1, 9, 0.53], [14017, 3, 7, 1.29], [7567, 3, 9, 3.44], [13034, 3, 10, 2.73], [22554, 10, 15, 0.87], [13260, 29, 9, 2.4], [11116, 1, 9, 0.81], [1243, 2, 7, 1.52], [12924, 1, 9, 0.61], [22317, 3, 20, 1.6], [20498, 3, 10, 3.5], [5946, 1, 7, 1.02], [996, 2, 7, 4.17], [35, 1, 9, 2.6], [5086, 1, 11, 2.14], [5813, 3, 7, 2.04], [9691, 1, 7, 3.2], [995, 2, 7, 4.49], [1413, 15, 9, 0.75], [1080, 3, 7, 1.21], [952, 4, 7, 4.77], [11085, 2, 7, 0.86], [2424, 80, 7, 4.26], [8557, 3, 7, 2.36], [3049, 3, 7, 4.11], [1703, 2, 7, 2.72], [215, 4, 7, 5.0], [20486, 3, 12, 3.26], [39, 1, 7, 1.79], [3900, 3, 7, 2.68], [4076, 3, 7, 5.0], [9081, 3, 15, 3.06], [13023, 3, 8, 2.62], [8274, 3, 7, 1.02], [8943, 3, 7, 0.96], [34, 1, 7, 1.23], [20486, 1, 7, 2.87], [6497, 1, 7, 2.18], [8104, 1, 9, 0.75], [11510, 3, 10, 2.97], [2854, 21, 13, 1.09], [38, 1, 7, 2.24], [23611, 3, 9, 1.04], [3047, 3, 7, 1.93], [20969, 3, 7, 2.16], [1414, 15, 9, 0.56], [2878, 1, 7, 3.02], [114, 3, 7, 0.92], [12923, 1, 7, 0.96], [10529, 29, 7, 2.54], [95, 3, 1035, 3.11], [346, 1, 150, 2.73], [998, 2, 232, 4.15], [79, 1, 47, 2.0], [214, 3, 637, 1.87], [3980, 4, 498, 3.43], [20927, 1, 28, 2.16], [22316, 3, 312, 2.59], [83, 2, 53, 1.75], [20498, 1, 96, 4.1], [8898, 3, 274, 6.0], [9760, 29, 75, 1.62], [1070, 7, 580, 3.4], [997, 2, 232, 4.19], [1622, 1, 113, 1.18], [14017, 3, 195, 3.39], [7567, 3, 68, 4.57], [13034, 3, 577, 4.66], [22554, 10, 373, 1.77], [13260, 29, 71, 3.3], [11116, 1, 78, 1.71], [1243, 2, 102, 2.2], [12924, 1, 52, 3.1], [22317, 3, 311, 3.02], [20498, 3, 580, 4.18], [5946, 1, 121, 1.92], [996, 2, 232, 6.0], [35, 1, 110, 3.63], [5086, 1, 181, 4.29], [5813, 3, 580, 4.12], [9691, 1, 73, 4.81], [995, 2, 232, 6.0], [1413, 15, 96, 1.77], [1080, 3, 138, 1.89], [952, 4, 71, 5.45], [11085, 2, 573, 1.54], [2424, 80, 175, 4.94], [8557, 3, 195, 3.68], [3049, 3, 134, 5.77], [1703, 2, 159, 4.37], [215, 4, 39, 5.79], [20486, 3, 580, 5.44], [39, 1, 110, 2.72], [3900, 3, 45, 3.36], [4076, 3, 196, 6.0], [9081, 3, 453, 4.97], [13023, 3, 580, 4.6], [8274, 3, 299, 1.67], [8943, 3, 133, 1.6], [34, 1, 110, 2.13], [20486, 1, 96, 5.02], [6497, 1, 37, 3.59], [8104, 1, 206, 1.65], [11510, 3, 574, 3.64], [2854, 21, 1094, 2.49], [38, 1, 110, 2.92], [23611, 3, 339, 1.72], [3047, 3, 265, 2.83], [20969, 3, 580, 3.06], [1414, 15, 96, 2.47], [2878, 1, 83, 3.7], [114, 3, 242, 2.57], [12923, 1, 39, 1.64], [10529, 29, 42, 3.21]]</t>
+  </si>
+  <si>
+    <t>1QD</t>
+  </si>
+  <si>
+    <t>8QD</t>
+  </si>
+  <si>
+    <t>170QD</t>
+  </si>
+  <si>
+    <t>236QD</t>
+  </si>
+  <si>
+    <t>337QD</t>
+  </si>
+  <si>
+    <t>339QD</t>
+  </si>
+  <si>
+    <t>401QD</t>
   </si>
   <si>
     <t>501QD</t>
   </si>
   <si>
-    <t>401QD</t>
-  </si>
-  <si>
-    <t>236QD</t>
-  </si>
-  <si>
-    <t>337QD</t>
+    <t>632QD</t>
+  </si>
+  <si>
+    <t>703QD</t>
   </si>
   <si>
     <t>797QD</t>
   </si>
   <si>
-    <t>339QD</t>
-  </si>
-  <si>
-    <t>703QD</t>
-  </si>
-  <si>
-    <t>1QD</t>
-  </si>
-  <si>
     <t>962QD</t>
-  </si>
-  <si>
-    <t>170QD</t>
-  </si>
-  <si>
-    <t>632QD</t>
-  </si>
-  <si>
-    <t>8QD</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>401</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>337</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>797</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>703</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1</v>
+        <v>501</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>962</v>
+        <v>632</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>170</v>
+        <v>703</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>632</v>
+        <v>797</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>

--- a/QD_data.xlsx
+++ b/QD_data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[8672, 2, 6, 0.73], [3, 2, 4, 1.22], [326, 2, 4, 0.29], [589, 2, 6, 0.2], [143, 2, 4, 0.58], [2049, 3, 9, 1.15], [6935, 2, 8, 1.27], [130, 1, 5, 0.6], [205, 2, 4, 0.2], [75, 2, 6, 0.87], [12721, 2, 6, 0.72], [144, 2, 4, 0.74], [145, 2, 4, 0.52], [8915, 2, 8, 0.2], [1776, 1, 4, 0.61], [593, 2, 5, 0.59], [146, 2, 4, 1.17], [151, 1, 4, 0.2], [2778, 2, 6, 0.2], [1777, 1, 4, 0.74], [20252, 2, 5, 0.2], [206, 2, 4, 0.2], [8648, 2, 4, 1.27], [990, 2, 4, 0.7], [2328, 2, 4, 0.2], [6936, 2, 6, 1.17], [5151, 2, 4, 0.47], [7886, 4, 5, 0.45], [8650, 2, 5, 1.65], [88, 10, 8, 0.44], [141, 2, 4, 0.28], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [1492, 1, 5, 0.72], [7004, 1, 4, 0.2], [2054, 3, 5, 0.53], [362, 2, 4, 0.96], [2057, 3, 6, 0.47], [10825, 21, 10, 1.03], [8649, 2, 4, 1.4], [2055, 3, 5, 0.42], [345, 3, 4, 0.32], [7084, 3, 4, 2.28], [7005, 1, 4, 0.2], [307, 2, 4, 1.0], [3889, 1, 4, 0.2], [21793, 1, 5, 1.14], [410, 1, 4, 0.52], [432, 3, 6, 0.62], [7887, 4, 4, 0.35], [22247, 2, 5, 0.95], [57, 1, 4, 0.44], [11681, 2, 5, 1.79], [10149, 3, 15, 0.99], [308, 1, 4, 0.49], [7036, 1, 4, 0.68], [94, 4, 4, 0.2], [12870, 1, 4, 2.33], [5081, 2, 5, 0.44], [9827, 3, 4, 0.2], [201, 3, 5, 0.2], [167, 3, 5, 1.4], [13028, 3, 4, 0.62], [8677, 3, 6, 0.65], [1504, 2, 5, 0.52], [1124, 2, 8, 0.2], [3891, 1, 4, 0.2], [35, 1, 4, 0.83], [3893, 1, 4, 0.2], [8676, 2, 4, 0.73], [168, 3, 4, 1.23], [9760, 29, 4, 0.24], [5812, 3, 6, 0.8], [1243, 2, 4, 0.66], [6158, 2, 6, 0.51], [412, 1, 4, 1.39], [45, 2, 4, 0.64], [361, 2, 4, 0.53], [20927, 1, 4, 0.49], [335, 3, 11, 0.22], [1767, 25, 4, 0.59], [3980, 4, 4, 1.39], [346, 1, 4, 0.85], [95, 3, 14, 0.3], [9069, 1, 4, 0.42], [214, 3, 9, 0.2], [998, 2, 4, 1.22], [2049, 1, 4, 0.48], [413, 1, 5, 1.32], [3495, 3, 13, 1.31], [8674, 2, 4, 0.73], [856, 1, 4, 0.38], [34, 1, 4, 0.63], [8898, 3, 5, 0.75], [11116, 1, 5, 0.56], [346, 3, 4, 0.82], [1766, 25, 4, 0.56], [5946, 1, 4, 0.78], [1070, 7, 10, 0.46], [997, 2, 4, 0.77], [9691, 1, 4, 1.77], [20498, 1, 4, 0.23], [38, 1, 4, 0.88], [974, 3, 5, 1.13], [152, 21, 4, 0.43], [9372, 1, 5, 1.99], [14017, 3, 5, 1.04], [1091, 1, 4, 0.78], [22317, 3, 6, 0.51], [11954, 1, 5, 0.2], [20498, 3, 8, 0.57], [996, 2, 4, 1.22], [82, 2, 4, 0.46], [1080, 3, 5, 0.3], [9828, 3, 4, 0.2], [14037, 3, 4, 0.2], [39, 1, 4, 0.84], [5811, 3, 4, 2.2], [3048, 3, 4, 1.24], [972, 3, 5, 0.91], [1767, 2, 4, 0.59], [13260, 29, 4, 0.73], [24, 1, 4, 0.79], [4203, 1, 5, 0.3], [5813, 3, 5, 1.52], [10780, 10, 4, 1.3], [13034, 3, 5, 1.09], [5513, 2, 4, 1.0], [8945, 3, 5, 1.5], [952, 4, 4, 2.16], [202, 2, 4, 1.59], [3981, 3, 10, 1.42], [3900, 3, 4, 0.49], [995, 2, 4, 1.22], [6497, 1, 4, 0.47], [8672, 2, 339, 3.45], [3, 2, 142, 3.44], [326, 2, 110, 2.14], [589, 2, 172, 1.66], [143, 2, 168, 3.36], [6935, 2, 315, 5.06], [130, 1, 66, 2.8], [205, 2, 122, 2.81], [75, 2, 165, 3.91], [12721, 2, 321, 4.0], [144, 2, 180, 2.18], [145, 2, 171, 3.26], [8915, 2, 218, 1.5], [1776, 1, 122, 3.44], [593, 2, 77, 2.77], [146, 2, 171, 3.01], [151, 1, 75, 1.7], [2778, 2, 174, 3.37], [1777, 1, 122, 3.66], [20252, 2, 105, 1.86], [206, 2, 55, 2.12], [8648, 2, 248, 5.84], [2328, 2, 169, 3.6], [6936, 2, 315, 4.78], [5151, 2, 29, 1.66], [7886, 4, 132, 1.87], [8650, 2, 248, 6.0], [88, 10, 669, 2.75], [141, 2, 173, 3.92], [74, 1, 222, 5.84], [83, 2, 60, 1.77], [1492, 1, 41, 3.2], [7004, 1, 90, 1.73], [2054, 3, 532, 2.85], [362, 2, 167, 3.17], [2057, 3, 532, 3.18], [10825, 21, 710, 3.76], [8649, 2, 248, 6.0], [2055, 3, 532, 3.1], [345, 3, 337, 3.35], [7005, 1, 90, 1.72], [307, 2, 174, 2.69], [3889, 1, 138, 3.11], [21793, 1, 256, 5.01], [410, 1, 124, 1.76], [432, 3, 339, 3.45], [7887, 4, 157, 1.66], [22247, 2, 338, 3.49], [57, 1, 101, 1.76], [11681, 2, 295, 6.0], [10149, 3, 986, 3.97], [308, 1, 188, 3.55], [7036, 1, 143, 4.05], [94, 4, 133, 4.41], [12870, 1, 70, 6.0], [5081, 2, 213, 3.57], [9827, 3, 98, 3.03], [201, 3, 337, 3.35], [167, 3, 255, 3.97], [13028, 3, 163, 4.2], [8677, 3, 330, 3.57], [1504, 2, 228, 3.71], [1124, 2, 209, 3.48], [3891, 1, 138, 3.99], [35, 1, 125, 3.56]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.45], [6935, 2, 6, 1.69], [589, 2, 5, 0.91], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [130, 1, 4, 0.36], [2328, 2, 4, 0.2], [6936, 2, 5, 1.66], [205, 2, 4, 0.2], [8648, 2, 5, 1.15], [2775, 2, 4, 1.33], [593, 2, 6, 0.4], [145, 2, 4, 0.25], [146, 2, 5, 0.32], [5493, 2, 4, 0.2], [11681, 2, 4, 2.0], [7036, 1, 4, 1.53], [88, 10, 14, 0.52], [2776, 2, 4, 1.06], [141, 2, 5, 0.39], [151, 1, 4, 0.51], [1446, 2, 4, 0.53], [206, 2, 4, 0.2], [990, 2, 4, 0.39], [9760, 29, 4, 0.2], [248, 1, 4, 0.53], [5491, 2, 4, 0.4], [1007, 2, 4, 0.38], [8672, 2, 4, 2.86], [142, 2, 4, 0.92], [362, 2, 4, 0.52], [2912, 1, 4, 0.66], [10993, 2, 5, 0.35], [3893, 1, 4, 0.2], [12870, 1, 5, 1.68], [5165, 1, 4, 1.11], [7886, 4, 5, 0.44], [2055, 3, 5, 0.55], [417, 2, 4, 0.92], [9372, 1, 4, 1.17], [1622, 1, 5, 0.2], [3889, 1, 4, 0.2], [523, 2, 4, 0.55], [2054, 3, 5, 0.19], [7573, 1, 10, 2.21], [21793, 1, 5, 0.61], [10, 2, 5, 0.36], [7885, 4, 4, 0.49], [3891, 1, 4, 0.2], [10149, 3, 17, 1.21], [75, 2, 5, 1.25], [20927, 1, 4, 1.26], [61, 3, 4, 1.23], [5208, 3, 5, 0.19], [997, 2, 5, 1.01], [3, 2, 5, 0.62], [9491, 21, 17, 0.22], [12721, 2, 6, 1.46], [5165, 2, 5, 1.11], [35, 1, 5, 1.54], [83, 2, 4, 0.45], [998, 2, 4, 0.56], [22247, 2, 4, 1.14], [33, 1, 4, 1.18], [996, 2, 4, 0.35], [346, 3, 4, 1.66], [7887, 4, 4, 0.97], [972, 3, 5, 0.75], [5076, 1, 4, 0.96], [2805, 137, 4, 1.17], [229, 1, 4, 1.55], [6158, 2, 5, 0.2], [2424, 80, 4, 1.11], [34, 1, 4, 1.32], [13028, 3, 5, 1.36], [2912, 2, 7, 0.99], [13928, 1, 4, 1.33], [38, 1, 4, 1.38], [8898, 3, 4, 4.0], [346, 1, 4, 1.67], [76, 2, 5, 1.1], [12212, 29, 5, 0.2], [8104, 1, 4, 0.93], [2336, 3, 5, 0.5], [9690, 1, 4, 0.62], [5209, 3, 6, 0.46], [39, 1, 4, 1.35], [3495, 3, 11, 1.25], [11952, 1, 4, 0.66], [7567, 3, 4, 1.58], [2424, 29, 4, 0.66], [5946, 1, 4, 0.28], [11490, 1, 4, 0.46], [24257, 1, 4, 0.52], [9691, 1, 4, 0.9], [3048, 3, 4, 0.92], [11770, 1, 4, 1.08], [411, 2, 4, 0.85], [21798, 1, 4, 0.59], [1703, 2, 4, 1.33], [13928, 2, 4, 1.33], [632, 11, 13, 0.48], [11953, 1, 4, 0.2], [74, 1, 5, 2.78], [161, 3, 5, 1.48], [10407, 10, 6, 1.41], [22316, 3, 5, 0.35], [13023, 3, 6, 0.55], [1523, 1, 4, 0.4], [21269, 3, 4, 0.98], [10410, 10, 10, 1.92], [192, 3, 9, 1.05], [12764, 2, 6, 0.48], [214, 3, 11, 0.2], [2331, 1, 4, 0.79], [972, 1, 4, 1.01], [3430, 15, 4, 1.45], [5164, 1, 4, 1.0], [13893, 2, 4, 1.0], [1274, 1, 5, 0.3], [4076, 3, 4, 1.42], [6097, 80, 4, 1.26], [6097, 29, 4, 0.69], [11116, 1, 4, 0.56], [3576, 29, 4, 1.27], [10408, 10, 5, 1.58], [1080, 3, 4, 1.41], [1243, 2, 5, 0.88], [3047, 3, 4, 1.39], [10780, 10, 4, 1.87], [2438, 2, 6, 1.88], [8674, 2, 4, 1.9], [11813, 1, 4, 0.73], [3334, 5, 4, 1.2], [2436, 4, 5, 0.2], [305, 2, 161, 3.46], [6935, 2, 311, 6.0], [589, 2, 159, 2.45], [2778, 2, 171, 3.56], [144, 2, 176, 1.9], [8915, 2, 209, 2.94], [130, 1, 69, 1.55], [2328, 2, 165, 3.78], [6936, 2, 311, 5.9], [205, 2, 119, 2.56], [8648, 2, 243, 5.71], [2775, 2, 180, 3.42], [593, 2, 53, 3.44], [145, 2, 176, 1.82], [146, 2, 176, 2.21], [5493, 2, 119, 1.82], [11681, 2, 302, 5.82], [7036, 1, 140, 5.66], [88, 10, 652, 2.96], [2776, 2, 180, 2.9], [141, 2, 170, 3.36], [151, 1, 23, 1.62], [1446, 2, 166, 2.59], [206, 2, 101, 2.58], [990, 2, 60, 1.61], [9760, 29, 78, 3.37], [248, 1, 63, 1.88], [5491, 2, 126, 1.63], [1007, 2, 312, 1.59], [8672, 2, 323, 6.0], [142, 2, 179, 2.63], [362, 2, 154, 3.59], [2912, 1, 52, 2.59], [10993, 2, 58, 2.11], [3893, 1, 135, 3.35], [12870, 1, 152, 5.83], [5165, 1, 52, 3.0], [7886, 4, 157, 1.89], [2055, 3, 521, 2.57], [417, 2, 179, 2.63], [9372, 1, 264, 4.75], [1622, 1, 118, 1.67], [3889, 1, 135, 3.86], [523, 2, 179, 2.04], [2054, 3, 494, 3.32], [7573, 1, 378, 5.97], [21793, 1, 261, 2.56], [10, 2, 114, 3.02], [7885, 4, 29, 1.67], [3891, 1, 135, 3.4], [10149, 3, 947, 4.76], [75, 2, 160, 4.5], [61, 3, 239, 3.23], [5208, 3, 619, 2.12], [997, 2, 262, 4.96], [3, 2, 131, 3.96], [9491, 21, 2386, 3.56], [12721, 2, 311, 4.94], [5165, 2, 416, 2.81], [83, 2, 25, 2.2], [998, 2, 262, 4.14], [22247, 2, 311, 3.38], [33, 1, 39, 3.81], [996, 2, 262, 5.57]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 5, 1.09], [130, 1, 4, 0.35], [11685, 2, 4, 1.87], [8648, 2, 4, 0.71], [144, 2, 4, 1.3], [589, 2, 5, 0.2], [2327, 2, 5, 0.29], [11681, 2, 5, 1.37], [205, 2, 4, 0.37], [593, 2, 6, 0.27], [305, 2, 4, 0.51], [8915, 2, 5, 0.53], [141, 2, 4, 0.53], [8650, 2, 4, 0.77], [151, 1, 4, 0.4], [6936, 2, 6, 1.85], [2778, 2, 6, 0.2], [206, 2, 4, 0.46], [146, 2, 5, 0.82], [88, 10, 12, 0.19], [615, 2, 4, 0.37], [7036, 1, 4, 1.48], [1446, 2, 4, 0.9], [990, 2, 4, 0.36], [362, 2, 4, 0.5], [8853, 2, 5, 1.45], [417, 2, 4, 0.4], [248, 1, 4, 0.39], [2055, 3, 6, 1.98], [523, 2, 5, 0.53], [3893, 1, 4, 0.43], [12870, 1, 4, 1.42], [142, 2, 4, 0.4], [12350, 1, 4, 1.24], [2057, 3, 5, 1.78], [3889, 1, 5, 0.35], [7084, 3, 5, 1.07], [20927, 1, 4, 0.86], [7005, 1, 4, 0.67], [997, 2, 6, 0.78], [12349, 1, 4, 2.59], [21793, 1, 4, 1.34], [3891, 1, 5, 0.28], [61, 3, 4, 0.98], [7885, 4, 5, 0.52], [5165, 1, 4, 0.65], [6158, 2, 7, 0.2], [8672, 2, 5, 0.73], [5165, 2, 5, 0.65], [9491, 21, 14, 0.3], [2912, 1, 4, 0.87], [98, 11, 10, 0.68], [972, 3, 4, 1.77], [411, 2, 4, 0.9], [9372, 1, 4, 0.97], [10388, 2, 4, 0.6], [214, 3, 11, 0.2], [33, 1, 4, 2.08], [410, 1, 4, 0.8], [7886, 4, 5, 0.24], [13928, 1, 4, 1.1], [7567, 3, 4, 0.96], [9081, 3, 10, 0.8], [3981, 3, 13, 1.15], [22316, 3, 5, 0.51], [83, 2, 4, 0.42], [22247, 2, 4, 1.1], [336, 15, 4, 0.92], [308, 1, 4, 1.32], [2912, 2, 6, 2.03], [10631, 2, 4, 0.42], [161, 3, 5, 1.77], [229, 1, 4, 1.32], [5946, 1, 4, 0.38], [11953, 1, 4, 0.55], [10780, 10, 4, 1.74], [22317, 3, 6, 0.51], [6497, 1, 4, 0.22], [345, 3, 4, 0.76], [12271, 2, 4, 0.47], [3478, 2, 4, 1.0], [11767, 1, 4, 0.2], [10407, 10, 7, 1.36], [10410, 10, 6, 1.94], [9082, 3, 18, 0.83], [37, 1, 4, 1.16], [972, 1, 4, 0.5], [6097, 80, 4, 1.28], [39, 1, 4, 0.89], [8104, 1, 4, 0.38], [74, 1, 4, 2.03], [1413, 15, 4, 0.36], [34, 1, 4, 0.93], [82, 2, 4, 0.66], [7704, 2, 4, 1.2], [3048, 3, 4, 0.46], [24257, 1, 5, 1.38], [2331, 1, 4, 0.97], [192, 3, 10, 0.72], [335, 3, 9, 1.1], [152, 21, 4, 0.34], [38, 1, 4, 0.66], [9971, 2, 4, 0.72], [12338, 29, 4, 0.2], [9, 1, 4, 0.45], [4253, 1, 4, 0.59], [1523, 1, 4, 0.44], [45, 2, 5, 2.7], [12721, 2, 4, 0.97], [11510, 3, 5, 0.5], [6097, 29, 4, 1.28], [10936, 2, 4, 0.45], [8673, 2, 4, 2.14], [2805, 137, 4, 0.58], [10093, 3, 9, 0.92], [1080, 3, 4, 0.37], [7007, 1, 4, 1.21], [12764, 2, 5, 0.43], [3047, 3, 4, 2.46], [12212, 29, 4, 0.49], [7705, 2, 4, 1.2], [1895, 3, 4, 1.83], [8659, 1, 4, 0.91], [7706, 2, 4, 1.2], [9965, 2, 4, 2.42], [6496, 1, 4, 0.46], [8676, 2, 4, 0.49], [11812, 1, 4, 0.47], [201, 3, 4, 1.36], [2424, 80, 4, 1.31], [8635, 3, 4, 0.98], [4203, 1, 4, 0.54], [1703, 2, 4, 0.83], [3475, 2, 4, 1.08], [2438, 2, 5, 0.53], [6935, 2, 291, 5.01], [130, 1, 64, 1.48], [11685, 2, 275, 5.8], [8648, 2, 228, 3.76], [144, 2, 164, 3.31], [589, 2, 154, 3.05], [2327, 2, 154, 3.18], [11681, 2, 275, 5.79], [205, 2, 118, 1.55], [593, 2, 232, 3.21], [305, 2, 151, 3.38], [8915, 2, 206, 1.74], [141, 2, 158, 4.03], [8650, 2, 228, 3.3], [151, 1, 48, 1.53], [6936, 2, 291, 6.0], [2778, 2, 159, 3.51], [206, 2, 117, 2.38], [146, 2, 155, 4.01], [88, 10, 582, 3.29], [615, 2, 118, 2.34], [7036, 1, 131, 4.72], [1446, 2, 163, 2.54], [990, 2, 57, 1.5], [362, 2, 144, 3.36], [8853, 2, 291, 4.82], [417, 2, 167, 1.74], [248, 1, 59, 1.56], [2055, 3, 467, 5.86], [523, 2, 158, 3.5], [3893, 1, 135, 1.64], [12870, 1, 140, 5.64], [142, 2, 167, 1.74], [12350, 1, 658, 3.19], [2057, 3, 467, 5.97], [3889, 1, 128, 2.56], [7084, 3, 133, 3.88], [20927, 1, 80, 2.6], [7005, 1, 85, 2.1], [997, 2, 244, 3.44], [12349, 1, 658, 5.8], [21793, 1, 210, 3.39], [3891, 1, 128, 2.3], [61, 3, 211, 3.42], [7885, 4, 34, 1.75], [5165, 1, 51, 2.95], [6158, 2, 266, 3.69], [8672, 2, 294, 4.83], [5165, 2, 409, 2.97], [9491, 21, 2274, 2.79], [2912, 1, 52, 2.48], [98, 11, 894, 2.03], [411, 2, 111, 2.54], [9372, 1, 247, 5.04], [10388, 2, 237, 1.97], [214, 3, 673, 1.74], [410, 1, 37, 3.17], [13928, 1, 50, 2.99], [7567, 3, 71, 3.74], [9081, 3, 520, 2.21], [3981, 3, 1651, 4.11], [22316, 3, 323, 2.92], [83, 2, 51, 2.21], [22247, 2, 308, 2.92], [336, 15, 110, 2.58]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 5, 0.22], [6935, 2, 9, 0.72], [362, 2, 5, 0.95], [2049, 3, 10, 0.2], [589, 2, 6, 0.2], [141, 2, 5, 0.54], [75, 2, 5, 0.74], [1776, 1, 4, 0.58], [8672, 2, 6, 0.72], [20252, 2, 4, 0.2], [205, 2, 4, 0.46], [7886, 4, 4, 0.41], [2778, 2, 5, 0.2], [1777, 1, 4, 0.93], [305, 2, 4, 0.23], [11681, 2, 5, 2.58], [593, 2, 7, 0.2], [8648, 2, 5, 0.77], [6936, 2, 5, 1.27], [2328, 2, 5, 0.2], [1007, 2, 5, 0.37], [88, 10, 12, 0.33], [83, 2, 4, 0.5], [5151, 2, 4, 0.9], [8650, 2, 5, 1.15], [412, 1, 4, 0.91], [345, 3, 4, 0.57], [2991, 3, 4, 2.17], [22247, 2, 4, 0.97], [361, 2, 4, 0.49], [144, 2, 4, 0.5], [57, 1, 6, 0.2], [201, 3, 5, 0.57], [21793, 1, 4, 1.03], [10149, 3, 15, 1.32], [45, 2, 5, 1.12], [3478, 2, 4, 0.45], [146, 2, 5, 0.56], [2054, 3, 5, 1.34], [7004, 1, 5, 0.47], [12721, 2, 6, 0.97], [167, 3, 5, 1.09], [2057, 3, 5, 1.62], [413, 1, 4, 0.73], [10825, 21, 8, 1.17], [6158, 2, 5, 0.87], [74, 1, 4, 0.84], [168, 3, 6, 0.74], [308, 1, 4, 0.72], [346, 1, 4, 0.2], [2055, 3, 4, 0.8], [10, 2, 4, 0.42], [7036, 1, 4, 1.96], [13028, 3, 4, 0.5], [3495, 3, 15, 0.92], [335, 3, 13, 0.4], [432, 3, 4, 0.39], [5081, 2, 5, 0.2], [7887, 4, 5, 0.4], [12870, 1, 4, 2.58], [214, 3, 9, 0.42], [8649, 2, 4, 1.4], [79, 1, 4, 0.2], [410, 1, 4, 0.8], [1492, 1, 4, 0.2], [3889, 1, 5, 0.2], [145, 2, 4, 0.2], [9827, 3, 4, 0.2], [3893, 1, 5, 0.2], [1504, 2, 4, 0.2], [5208, 3, 6, 0.19], [95, 3, 13, 0.86], [13260, 29, 4, 0.85], [5812, 3, 5, 1.22], [23, 1, 4, 1.51], [94, 4, 4, 0.81], [411, 2, 4, 0.31], [7005, 1, 4, 0.49], [3891, 1, 4, 0.2], [998, 2, 4, 0.69], [25, 1, 4, 1.51], [21269, 3, 4, 3.75], [7567, 3, 4, 1.62], [10574, 3, 5, 0.43], [5086, 1, 6, 1.11], [1243, 2, 4, 1.13], [9069, 1, 4, 1.62], [2878, 1, 5, 1.57], [997, 2, 4, 1.37], [11954, 1, 5, 0.48], [9691, 1, 4, 1.9], [856, 1, 4, 0.23], [11914, 1, 5, 0.2], [20927, 1, 4, 0.61], [1703, 2, 4, 1.38], [5660, 2, 5, 2.37], [5584, 3, 5, 0.44], [952, 4, 4, 2.64], [5209, 3, 5, 0.19], [9081, 3, 10, 1.03], [8898, 3, 5, 2.67], [996, 2, 4, 1.37], [1070, 7, 8, 0.64], [346, 3, 5, 0.64], [1622, 1, 5, 0.35], [8676, 2, 4, 0.97], [12661, 1, 4, 2.35], [23961, 3, 4, 2.68], [5513, 2, 4, 0.52], [1091, 1, 4, 0.2], [22317, 3, 6, 0.51], [8274, 3, 5, 1.09], [13034, 3, 6, 1.01], [11811, 1, 5, 1.0], [24, 1, 5, 0.95], [1519, 3, 14, 0.22], [27, 1, 4, 1.51], [8674, 2, 6, 0.97], [6097, 29, 4, 0.2], [9760, 29, 4, 0.2], [4203, 1, 5, 0.53], [6097, 80, 4, 0.41], [10529, 29, 4, 1.44], [82, 2, 4, 0.35], [1413, 15, 4, 0.37], [995, 2, 4, 0.98], [9082, 3, 18, 0.92], [20498, 3, 6, 1.76], [66, 1, 4, 0.42], [2104, 3, 6, 1.63], [6098, 80, 4, 1.15], [9372, 1, 4, 0.42], [6098, 29, 4, 0.35], [34, 1, 4, 0.47], [326, 2, 96, 1.71], [6935, 2, 278, 4.7], [362, 2, 139, 3.93], [2049, 3, 539, 2.4], [589, 2, 152, 1.4], [141, 2, 152, 3.14], [75, 2, 145, 4.02], [1776, 1, 107, 3.22], [8672, 2, 281, 3.06], [20252, 2, 92, 1.75], [205, 2, 113, 1.61], [7886, 4, 141, 2.29], [2778, 2, 153, 3.21], [1777, 1, 107, 3.88], [305, 2, 145, 2.78], [11681, 2, 260, 6.0], [593, 2, 119, 2.98], [8648, 2, 218, 5.36], [6936, 2, 278, 4.83], [2328, 2, 148, 3.09], [1007, 2, 281, 1.71], [88, 10, 557, 4.5], [83, 2, 53, 1.86], [5151, 2, 26, 2.64], [8650, 2, 218, 5.4], [412, 1, 82, 3.83], [345, 3, 315, 1.78], [2991, 3, 156, 5.79], [22247, 2, 296, 3.08], [361, 2, 152, 1.84], [144, 2, 159, 2.12], [57, 1, 84, 2.78], [201, 3, 315, 1.68], [21793, 1, 232, 5.78], [10149, 3, 853, 4.91], [45, 2, 108, 4.8], [3478, 2, 74, 1.77], [146, 2, 151, 3.76], [2054, 3, 488, 3.9], [7004, 1, 78, 2.43], [12721, 2, 296, 2.46], [167, 3, 224, 3.97], [2057, 3, 463, 4.1], [413, 1, 90, 2.74], [10825, 21, 675, 2.78], [6158, 2, 270, 3.55], [74, 1, 198, 4.67], [168, 3, 399, 3.53], [308, 1, 175, 3.12], [346, 1, 150, 2.96], [2055, 3, 488, 2.59], [10, 2, 55, 2.7], [7036, 1, 125, 5.53], [13028, 3, 145, 3.08], [3495, 3, 950, 3.74], [432, 3, 297, 2.51], [5081, 2, 189, 3.15], [7887, 4, 138, 1.67], [12870, 1, 135, 6.0], [214, 3, 637, 1.67], [8649, 2, 218, 5.12], [79, 1, 47, 2.0], [410, 1, 102, 2.89], [1492, 1, 39, 1.88], [3889, 1, 121, 3.86], [145, 2, 151, 1.73]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [2327, 2, 4, 0.52], [8915, 2, 5, 0.21], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [305, 2, 5, 0.45], [2328, 2, 4, 0.26], [130, 1, 4, 0.36], [5493, 2, 5, 0.2], [616, 2, 4, 0.3], [326, 2, 5, 0.97], [6936, 2, 5, 1.66], [8648, 2, 4, 1.7], [8650, 2, 5, 2.46], [1446, 2, 4, 0.2], [7004, 1, 4, 0.99], [205, 2, 4, 0.44], [2049, 3, 5, 0.47], [144, 2, 5, 1.04], [10, 2, 5, 0.42], [151, 1, 4, 0.51], [990, 2, 4, 0.39], [7036, 1, 4, 1.2], [3893, 1, 5, 0.2], [146, 2, 5, 1.32], [7885, 4, 4, 0.49], [141, 2, 4, 0.92], [3891, 1, 4, 0.2], [206, 2, 4, 0.46], [75, 2, 5, 0.99], [2055, 3, 4, 0.99], [362, 2, 4, 0.52], [10993, 2, 4, 0.45], [21793, 1, 4, 0.86], [5208, 3, 6, 0.19], [3889, 1, 6, 0.2], [7084, 3, 4, 1.57], [11234, 2, 4, 1.4], [7005, 1, 4, 0.68], [3980, 4, 6, 1.21], [12870, 1, 4, 1.93], [2912, 1, 4, 0.77], [145, 2, 4, 1.5], [5165, 1, 4, 0.65], [10149, 3, 13, 1.47], [8672, 2, 4, 2.86], [9760, 29, 4, 0.2], [998, 2, 4, 0.31], [20927, 1, 4, 1.68], [997, 2, 4, 1.02], [2436, 4, 4, 0.43], [417, 2, 4, 0.92], [2424, 80, 5, 0.86], [7887, 4, 4, 0.97], [6158, 2, 4, 0.2], [3, 2, 4, 0.37], [5076, 1, 5, 0.56], [632, 11, 13, 0.48], [229, 1, 5, 0.91], [972, 3, 5, 0.51], [3495, 3, 13, 1.25], [74, 1, 4, 1.22], [9491, 21, 10, 1.33], [523, 2, 4, 0.55], [11770, 1, 4, 1.08], [346, 3, 5, 1.66], [11953, 1, 4, 0.45], [5165, 2, 5, 0.65], [7573, 1, 9, 2.46], [12721, 2, 4, 0.6], [996, 2, 4, 1.02], [22316, 3, 5, 0.35], [2423, 80, 6, 1.72], [11772, 1, 4, 1.08], [9372, 1, 4, 1.17], [3981, 3, 11, 0.51], [6497, 1, 4, 0.49], [24257, 1, 4, 0.48], [2912, 2, 7, 2.03], [11952, 1, 4, 0.66], [2438, 2, 5, 1.88], [12229, 2, 4, 0.36], [823, 1, 4, 0.65], [361, 2, 4, 0.92], [2424, 29, 4, 0.37], [8898, 3, 4, 4.0], [3975, 4, 5, 1.26], [346, 1, 4, 1.67], [1622, 1, 4, 0.49], [6496, 1, 4, 1.2], [192, 3, 9, 1.05], [10407, 10, 8, 1.18], [3900, 3, 4, 0.71], [5209, 3, 6, 0.19], [2805, 137, 4, 1.0], [9081, 3, 7, 0.66], [5946, 1, 4, 0.28], [33, 1, 4, 0.47], [11812, 1, 4, 0.47], [335, 3, 9, 0.62], [1703, 2, 4, 0.5], [7567, 3, 4, 1.58], [12764, 2, 5, 0.43], [10388, 2, 4, 0.61], [11490, 1, 4, 0.23], [37, 1, 4, 0.47], [8676, 2, 4, 2.86], [6097, 80, 4, 0.66], [972, 1, 4, 1.01], [202, 2, 4, 0.88], [220, 4, 4, 1.31], [1519, 3, 10, 0.39], [22247, 2, 4, 1.3], [23611, 3, 5, 0.5], [161, 3, 5, 1.48], [35, 1, 4, 0.47], [38, 1, 4, 0.47], [13893, 2, 4, 1.0], [2104, 3, 9, 1.26], [11814, 1, 4, 0.23], [95, 3, 12, 0.42], [83, 2, 4, 0.46], [4232, 80, 4, 1.82], [1895, 3, 4, 1.65], [11813, 1, 4, 0.73], [11116, 1, 4, 0.56], [12212, 29, 4, 0.27], [8635, 3, 4, 0.87], [788, 2, 5, 0.2], [8104, 1, 4, 0.93], [12979, 25, 7, 0.72], [76, 2, 4, 0.51], [1309, 1, 4, 0.46], [13928, 1, 4, 1.33], [10386, 2, 4, 0.77], [589, 2, 168, 2.97], [88, 10, 619, 3.42], [2327, 2, 165, 3.59], [8915, 2, 209, 2.94], [6935, 2, 311, 6.0], [2778, 2, 171, 3.56], [305, 2, 161, 3.46], [2328, 2, 165, 4.03], [130, 1, 69, 1.55], [5493, 2, 119, 1.82], [616, 2, 120, 2.15], [326, 2, 21, 3.65], [6936, 2, 311, 5.9], [8648, 2, 256, 4.13], [8650, 2, 243, 6.0], [1446, 2, 166, 3.73], [205, 2, 126, 1.71], [2049, 3, 126, 1.66], [144, 2, 167, 3.93], [151, 1, 23, 1.62], [990, 2, 60, 1.61], [7036, 1, 140, 5.66], [3893, 1, 135, 3.35], [146, 2, 167, 4.04], [7885, 4, 116, 1.77], [141, 2, 179, 2.63], [3891, 1, 135, 3.4], [206, 2, 125, 1.88], [75, 2, 160, 4.5], [2055, 3, 549, 2.77], [362, 2, 97, 3.74], [10993, 2, 62, 1.73], [21793, 1, 261, 2.52], [5208, 3, 619, 2.12], [3889, 1, 135, 3.86], [7084, 3, 141, 4.19], [11234, 2, 212, 3.56], [7005, 1, 92, 2.17], [3980, 4, 528, 4.52], [12870, 1, 152, 5.83], [2912, 1, 52, 3.74], [145, 2, 53, 3.79], [5165, 1, 55, 2.93], [10149, 3, 947, 4.76], [8672, 2, 323, 6.0], [9760, 29, 78, 3.4], [998, 2, 262, 4.14], [997, 2, 262, 3.36], [2436, 4, 126, 2.44], [417, 2, 179, 2.63], [2424, 80, 186, 3.86], [6158, 2, 285, 2.64], [3, 2, 131, 3.96], [5076, 1, 142, 3.04], [632, 11, 949, 1.71], [229, 1, 89, 4.03], [972, 3, 650, 3.9], [3495, 3, 1056, 4.26], [74, 1, 231, 3.2], [9491, 21, 2512, 3.93], [523, 2, 179, 2.04], [11770, 1, 230, 3.85], [346, 3, 644, 3.44], [11953, 1, 218, 1.96]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 1.34], [305, 2, 4, 0.51], [615, 2, 4, 0.2], [2778, 2, 6, 0.2], [6936, 2, 5, 1.35], [5493, 2, 4, 0.2], [205, 2, 6, 0.2], [130, 1, 4, 0.35], [616, 2, 5, 0.22], [88, 10, 11, 0.19], [144, 2, 5, 0.47], [8648, 2, 5, 0.71], [2049, 3, 10, 0.2], [11681, 2, 5, 1.86], [8915, 2, 5, 0.53], [589, 2, 5, 0.2], [326, 2, 5, 0.7], [7036, 1, 4, 1.48], [8650, 2, 6, 0.96], [2327, 2, 5, 0.29], [593, 2, 6, 0.27], [3893, 1, 4, 0.43], [141, 2, 6, 0.53], [206, 2, 4, 0.65], [7004, 1, 4, 0.94], [151, 1, 4, 0.4], [3891, 1, 4, 0.28], [248, 1, 4, 0.39], [143, 2, 5, 1.53], [3980, 4, 6, 1.19], [146, 2, 5, 1.32], [2050, 3, 6, 1.69], [990, 2, 4, 0.36], [2055, 3, 5, 1.74], [7885, 4, 5, 0.2], [7886, 4, 4, 0.4], [2054, 3, 6, 1.86], [12870, 1, 5, 1.4], [362, 2, 4, 0.82], [8672, 2, 5, 0.73], [10993, 2, 4, 0.63], [3975, 4, 4, 1.39], [2057, 3, 6, 1.78], [5165, 1, 4, 0.65], [21793, 1, 4, 1.09], [13028, 3, 4, 0.62], [7084, 3, 4, 1.07], [145, 2, 4, 1.3], [2991, 3, 4, 0.88], [523, 2, 4, 1.03], [75, 2, 4, 0.46], [7005, 1, 4, 0.72], [3982, 3, 14, 1.18], [3981, 3, 13, 1.42], [33, 1, 5, 1.58], [142, 2, 6, 0.52], [20927, 1, 4, 1.17], [2912, 1, 4, 1.16], [6158, 2, 6, 0.2], [7887, 4, 5, 1.2], [5165, 2, 5, 0.92], [82, 2, 4, 0.66], [417, 2, 4, 0.4], [35, 1, 5, 1.58], [22316, 3, 6, 0.51], [214, 3, 11, 0.2], [11953, 1, 6, 0.2], [6497, 1, 4, 0.22], [61, 3, 4, 1.41], [229, 1, 4, 1.5], [192, 3, 11, 0.77], [11772, 1, 4, 1.28], [950, 1, 4, 0.38], [996, 2, 6, 1.47], [7567, 3, 4, 0.71], [11769, 1, 4, 0.96], [5946, 1, 4, 0.28], [346, 3, 5, 1.27], [6496, 1, 4, 0.46], [4176, 4, 5, 1.31], [972, 3, 5, 1.77], [39, 1, 4, 0.51], [74, 1, 5, 2.03], [411, 2, 4, 0.9], [7573, 1, 5, 0.97], [8677, 3, 4, 1.15], [12721, 2, 4, 0.97], [37, 1, 4, 0.66], [4253, 1, 4, 0.48], [2436, 4, 5, 0.44], [22317, 3, 5, 0.26], [2912, 2, 5, 0.88], [2104, 3, 6, 1.46], [1413, 15, 4, 0.2], [12212, 29, 4, 0.24], [336, 15, 5, 0.92], [1277, 1, 4, 0.65], [201, 3, 5, 0.51], [345, 3, 4, 1.01], [11085, 2, 6, 1.53], [21269, 3, 4, 3.24], [13023, 3, 5, 1.26], [12271, 2, 5, 0.84], [823, 1, 4, 0.56], [3, 2, 5, 0.71], [8673, 2, 4, 2.14], [22247, 2, 5, 1.39], [38, 1, 4, 0.66], [8676, 2, 4, 0.98], [10631, 2, 4, 1.48], [9, 1, 4, 0.2], [2805, 137, 4, 0.58], [10408, 10, 5, 1.64], [3577, 25, 4, 0.53], [3048, 3, 5, 1.17], [10388, 2, 4, 0.6], [1414, 15, 4, 0.2], [10936, 2, 4, 0.45], [13928, 1, 4, 1.1], [9081, 3, 10, 0.8], [11812, 1, 4, 0.47], [346, 1, 5, 1.27], [20498, 3, 5, 0.4], [9491, 21, 10, 0.6], [13244, 1, 4, 0.45], [4076, 3, 5, 1.19], [161, 3, 6, 1.5], [11814, 1, 4, 0.48], [9372, 1, 4, 0.97], [10407, 10, 6, 1.94], [12764, 2, 8, 0.33], [491, 10, 5, 1.64], [1523, 1, 4, 0.44], [972, 1, 4, 0.75], [11089, 1, 4, 1.73], [3576, 25, 4, 0.75], [6935, 2, 291, 5.26], [305, 2, 151, 3.38], [615, 2, 118, 1.48], [2778, 2, 159, 3.51], [6936, 2, 291, 5.64], [5493, 2, 112, 2.04], [205, 2, 106, 2.53], [130, 1, 64, 1.48], [616, 2, 112, 1.95], [88, 10, 582, 3.29], [144, 2, 155, 3.9], [8648, 2, 228, 5.15], [2049, 3, 555, 3.08], [11681, 2, 275, 5.79], [8915, 2, 206, 1.74], [589, 2, 154, 3.05], [326, 2, 95, 2.99], [7036, 1, 131, 4.72], [8650, 2, 228, 4.92], [2327, 2, 154, 3.43], [593, 2, 232, 3.21], [3893, 1, 135, 1.64], [141, 2, 158, 4.03], [206, 2, 111, 2.11], [7004, 1, 80, 2.62], [151, 1, 48, 1.53], [3891, 1, 128, 2.3], [248, 1, 59, 1.56], [143, 2, 153, 3.39], [3980, 4, 492, 4.82], [146, 2, 155, 4.01], [2050, 3, 467, 5.77], [990, 2, 57, 1.5], [2055, 3, 467, 5.86], [2054, 3, 467, 6.0], [12870, 1, 140, 6.0], [362, 2, 152, 2.39], [8672, 2, 294, 4.83], [10993, 2, 55, 2.37], [3975, 4, 518, 3.58], [2057, 3, 467, 5.97], [5165, 1, 51, 2.95], [21793, 1, 210, 3.22], [13028, 3, 159, 2.06], [7084, 3, 133, 3.88], [145, 2, 155, 3.79], [2991, 3, 171, 3.51], [523, 2, 158, 3.5], [75, 2, 159, 1.7], [7005, 1, 80, 2.2], [3982, 3, 809, 4.78], [3981, 3, 1651, 4.49], [33, 1, 53, 4.09], [142, 2, 158, 3.39], [2912, 1, 49, 3.04], [6158, 2, 266, 3.69], [5165, 2, 388, 2.41], [82, 2, 61, 2.08], [417, 2, 167, 1.74], [35, 1, 40, 3.93], [22316, 3, 323, 2.92], [214, 3, 673, 2.12], [11953, 1, 206, 2.84], [6497, 1, 38, 1.95]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 5, 0.2], [362, 2, 4, 0.57], [8650, 2, 4, 1.21], [5491, 2, 4, 0.2], [361, 2, 4, 0.4], [5493, 2, 5, 0.2], [589, 2, 5, 0.2], [8672, 2, 7, 0.66], [11685, 2, 4, 0.42], [417, 2, 4, 0.37], [6935, 2, 11, 1.06], [205, 2, 4, 0.2], [11681, 2, 5, 2.04], [11838, 2, 5, 0.2], [12721, 2, 5, 0.48], [248, 1, 4, 0.51], [11837, 2, 4, 0.58], [142, 2, 4, 0.38], [6936, 2, 5, 1.25], [2778, 2, 6, 0.2], [1446, 2, 4, 0.2], [8676, 2, 4, 0.73], [615, 2, 4, 0.74], [21793, 1, 4, 1.01], [305, 2, 5, 0.98], [593, 2, 6, 0.2], [22247, 2, 4, 1.0], [11835, 2, 4, 0.48], [616, 2, 5, 0.23], [411, 2, 4, 0.2], [990, 2, 4, 0.38], [8675, 2, 6, 0.98], [10574, 3, 6, 1.5], [145, 2, 4, 1.17], [1429, 2, 4, 0.39], [6158, 2, 6, 0.89], [10149, 3, 13, 0.75], [3495, 3, 16, 1.03], [2050, 3, 6, 0.34], [146, 2, 5, 0.49], [88, 10, 11, 0.95], [2054, 3, 6, 0.51], [75, 2, 4, 1.68], [10993, 2, 4, 0.4], [7885, 4, 5, 0.69], [144, 2, 4, 1.17], [7705, 2, 5, 0.9], [2424, 29, 4, 1.98], [346, 3, 6, 1.03], [2423, 80, 4, 1.56], [2859, 15, 4, 0.35], [7704, 2, 5, 0.9], [61, 3, 4, 0.36], [2423, 29, 4, 1.53], [9126, 1, 4, 1.13], [335, 3, 10, 0.49], [5165, 1, 4, 0.65], [2424, 80, 4, 1.98], [13028, 3, 4, 0.37], [201, 3, 5, 0.76], [346, 1, 4, 0.88], [214, 3, 9, 1.24], [60, 3, 5, 1.93], [1519, 3, 12, 0.22], [13023, 3, 5, 1.51], [308, 1, 5, 1.49], [1414, 15, 4, 0.42], [13034, 3, 5, 1.13], [2703, 3, 4, 0.96], [345, 3, 4, 0.49], [6494, 1, 4, 0.46], [7004, 1, 4, 0.66], [410, 1, 4, 0.52], [11770, 1, 4, 0.7], [7706, 2, 5, 0.8], [432, 3, 4, 1.01], [5208, 3, 5, 0.48], [3430, 15, 4, 0.35], [6952, 1, 4, 0.73], [13928, 1, 4, 1.15], [12373, 1, 5, 1.45], [20927, 1, 4, 1.05], [11954, 1, 4, 0.44], [94, 4, 4, 1.96], [1886, 2, 4, 0.44], [2331, 1, 4, 0.79], [3893, 1, 4, 0.52], [3891, 1, 4, 0.52], [114, 3, 4, 0.2], [11811, 1, 4, 0.38], [105, 3, 4, 0.48], [7886, 4, 6, 0.69], [3981, 3, 8, 0.51], [1274, 1, 4, 0.82], [952, 4, 4, 1.87], [13033, 3, 4, 0.5], [944, 15, 4, 0.37], [9690, 1, 4, 1.08], [11089, 1, 4, 1.16], [3, 2, 4, 2.0], [1490, 1, 4, 0.44], [1309, 1, 4, 0.73], [5946, 1, 4, 0.52], [5584, 3, 4, 1.16], [8898, 3, 4, 0.71], [5812, 3, 4, 1.51], [5733, 2, 5, 1.37], [7708, 2, 4, 1.05], [10407, 10, 6, 1.9], [10410, 10, 6, 1.9], [95, 3, 8, 2.52], [3028, 3, 4, 0.44], [3478, 2, 4, 1.0], [8274, 3, 4, 1.45], [7703, 2, 4, 1.05], [9342, 2, 4, 0.49], [10398, 2, 4, 1.36], [20555, 2, 4, 0.78], [3889, 1, 4, 0.52], [21003, 2, 4, 0.72], [13258, 29, 4, 1.02], [22558, 3, 4, 0.88], [9082, 3, 14, 0.83], [3980, 4, 4, 1.4], [10406, 10, 7, 1.73], [6497, 1, 4, 1.69], [20969, 3, 4, 0.86], [1339, 3, 10, 0.47], [963, 3, 4, 0.72], [192, 3, 13, 0.92], [5165, 2, 5, 0.65], [20196, 2, 4, 0.72], [10516, 3, 4, 1.94], [11603, 2, 4, 1.37], [141, 2, 177, 3.21], [362, 2, 170, 2.41], [8650, 2, 250, 5.1], [5491, 2, 123, 1.83], [361, 2, 187, 1.73], [5493, 2, 123, 2.24], [589, 2, 181, 2.16], [8672, 2, 323, 4.69], [11685, 2, 317, 3.77], [417, 2, 187, 1.67], [6935, 2, 319, 6.0], [205, 2, 123, 1.8], [11681, 2, 317, 6.0], [11838, 2, 303, 3.8], [12721, 2, 322, 4.24], [248, 1, 65, 1.94], [11837, 2, 319, 2.08], [142, 2, 187, 1.69], [6936, 2, 319, 5.36], [2778, 2, 178, 3.62], [1446, 2, 171, 2.42], [8676, 2, 340, 2.67], [615, 2, 130, 2.38], [21793, 1, 282, 5.05], [305, 2, 167, 3.68], [593, 2, 257, 1.75], [22247, 2, 339, 2.89], [11835, 2, 319, 1.88], [616, 2, 123, 2.27], [411, 2, 122, 2.4], [990, 2, 62, 1.69], [8675, 2, 323, 4.72], [10574, 3, 568, 4.89], [145, 2, 181, 3.21], [1429, 2, 181, 1.86], [6158, 2, 294, 3.33], [10149, 3, 1044, 2.45], [2050, 3, 542, 2.92], [146, 2, 171, 2.68], [88, 10, 632, 4.5], [2054, 3, 127, 2.99], [75, 2, 170, 4.19], [10993, 2, 60, 2.43], [144, 2, 181, 3.21], [7705, 2, 199, 3.7], [2424, 29, 40, 4.77], [346, 3, 682, 4.23], [2423, 80, 207, 3.96], [2859, 15, 82, 2.36], [7704, 2, 199, 3.7], [61, 3, 249, 1.65], [2423, 29, 44, 4.18], [9126, 1, 83, 3.14], [335, 3, 1555, 1.91], [5165, 1, 56, 2.94], [2424, 80, 198, 4.77], [13028, 3, 174, 2.92], [201, 3, 340, 4.48], [346, 1, 179, 3.77], [214, 3, 253, 4.28], [60, 3, 952, 4.46], [1519, 3, 1845, 2.61], [13023, 3, 703, 3.62], [308, 1, 190, 5.0], [1414, 15, 117, 1.77], [13034, 3, 667, 3.88]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 8, 0.2], [6936, 2, 4, 1.17], [8672, 2, 6, 0.66], [305, 2, 5, 0.23], [615, 2, 4, 0.2], [145, 2, 4, 1.17], [12721, 2, 6, 0.72], [130, 1, 4, 0.36], [2327, 2, 5, 0.2], [361, 2, 4, 0.4], [2328, 2, 5, 0.26], [146, 2, 4, 0.87], [8675, 2, 4, 0.73], [11681, 2, 5, 0.71], [141, 2, 4, 0.4], [362, 2, 4, 0.69], [205, 2, 5, 0.2], [5491, 2, 4, 0.2], [8673, 2, 6, 0.73], [8676, 2, 5, 0.6], [144, 2, 5, 1.17], [8650, 2, 5, 1.28], [417, 2, 4, 0.4], [11837, 2, 5, 0.3], [3, 2, 5, 0.41], [6097, 80, 5, 2.36], [2423, 29, 4, 1.19], [6497, 1, 4, 0.2], [6097, 29, 4, 2.36], [11836, 2, 6, 0.2], [990, 2, 4, 0.45], [2424, 29, 4, 0.37], [593, 2, 5, 1.55], [6098, 80, 4, 2.59], [523, 2, 4, 0.76], [11739, 2, 4, 0.59], [944, 15, 4, 0.4], [88, 10, 9, 0.44], [10993, 2, 4, 0.52], [13260, 29, 4, 0.98], [8915, 2, 4, 0.78], [326, 2, 4, 0.5], [75, 2, 4, 1.56], [1413, 15, 4, 0.5], [10574, 3, 5, 1.08], [335, 3, 11, 1.25], [411, 2, 4, 0.92], [1339, 1, 4, 0.43], [1050, 2, 4, 0.2], [947, 15, 4, 0.51], [1339, 3, 12, 0.18], [151, 1, 4, 0.45], [6496, 1, 4, 1.31], [2859, 15, 4, 0.72], [7704, 2, 4, 1.79], [346, 1, 4, 0.43], [214, 3, 10, 1.24], [13258, 29, 4, 0.79], [345, 3, 4, 0.5], [10149, 3, 15, 0.74], [1490, 1, 4, 1.35], [346, 3, 5, 0.21], [1243, 2, 5, 0.86], [7004, 1, 4, 0.82], [11738, 2, 4, 0.94], [201, 3, 5, 1.05], [22558, 3, 7, 0.21], [432, 3, 4, 1.15], [2438, 1, 4, 0.4], [7705, 2, 4, 2.04], [5208, 3, 5, 0.54], [2912, 1, 4, 0.95], [229, 1, 4, 1.32], [61, 3, 4, 0.44], [963, 3, 4, 0.4], [10407, 10, 6, 1.9], [7706, 2, 4, 1.79], [2331, 1, 4, 1.05], [21793, 1, 4, 2.59], [13928, 1, 4, 1.15], [12229, 2, 5, 0.45], [3478, 2, 4, 1.0], [1548, 1, 4, 1.09], [2703, 3, 4, 1.97], [11844, 2, 4, 0.64], [13258, 25, 4, 0.79], [11490, 1, 4, 0.45], [114, 3, 4, 0.41], [7036, 1, 4, 0.43], [8938, 2, 4, 0.43], [9126, 1, 4, 1.19], [11687, 2, 4, 0.67], [10408, 10, 6, 1.66], [956, 2, 5, 0.57], [94, 4, 4, 1.96], [1886, 2, 4, 0.44], [410, 1, 4, 0.52], [11159, 1, 7, 0.67], [7708, 2, 5, 1.79], [2438, 2, 5, 0.53], [11690, 2, 4, 0.52], [9065, 2, 4, 0.54], [12870, 1, 4, 0.94], [9760, 29, 4, 0.92], [11161, 1, 5, 1.64], [11689, 2, 4, 0.66], [5976, 1, 4, 1.13], [7005, 1, 4, 1.06], [21781, 2, 4, 0.47], [1274, 1, 4, 1.98], [2805, 137, 5, 1.39], [20927, 1, 4, 0.47], [12373, 1, 5, 1.45], [2991, 3, 4, 2.12], [1699, 3, 4, 1.18], [5584, 3, 4, 1.16], [9209, 29, 4, 1.12], [3495, 3, 13, 1.28], [9690, 1, 4, 1.08], [7007, 1, 4, 1.28], [9239, 29, 4, 0.48], [11811, 1, 4, 0.38], [8600, 1, 4, 0.86], [9239, 25, 4, 0.48], [247, 1, 4, 1.54], [5769, 3, 6, 0.52], [9491, 21, 10, 1.75], [5076, 1, 4, 1.95], [13198, 29, 4, 0.94], [12764, 2, 6, 0.2], [9372, 1, 4, 1.74], [5869, 1, 4, 2.12], [7702, 2, 28, 1.25], [95, 3, 8, 0.42], [2778, 2, 175, 3.36], [6936, 2, 322, 5.18], [8672, 2, 324, 3.36], [305, 2, 167, 3.74], [615, 2, 123, 2.66], [145, 2, 181, 3.21], [12721, 2, 321, 4.47], [130, 1, 71, 1.65], [2327, 2, 170, 4.61], [361, 2, 185, 1.73], [2328, 2, 170, 4.64], [146, 2, 171, 4.04], [8675, 2, 342, 2.57], [11681, 2, 299, 3.49], [141, 2, 185, 1.73], [362, 2, 170, 2.54], [205, 2, 130, 1.95], [5491, 2, 121, 1.79], [8673, 2, 323, 4.83], [8676, 2, 324, 3.88], [144, 2, 171, 4.15], [8650, 2, 249, 6.0], [417, 2, 185, 1.73], [11837, 2, 304, 2.24], [3, 2, 135, 3.74], [6097, 80, 77, 6.0], [2423, 29, 44, 3.89], [6497, 1, 45, 1.56], [11836, 2, 304, 3.72], [990, 2, 21, 1.72], [2424, 29, 38, 3.3], [593, 2, 60, 3.77], [523, 2, 185, 2.42], [11739, 2, 68, 2.13], [944, 15, 12, 1.31], [88, 10, 673, 3.12], [10993, 2, 64, 1.96], [13260, 29, 81, 3.46], [8915, 2, 226, 2.46], [326, 2, 110, 1.92], [75, 2, 162, 3.96], [1413, 15, 117, 1.92], [10574, 3, 598, 3.33], [335, 3, 1428, 4.39], [411, 2, 121, 2.73], [1339, 1, 81, 2.01], [1050, 2, 30, 1.7], [947, 15, 49, 1.94], [1339, 3, 1955, 1.88], [151, 1, 26, 1.97], [6496, 1, 47, 3.48], [2859, 15, 77, 3.49], [7704, 2, 176, 5.37], [346, 1, 184, 1.79], [13258, 29, 46, 3.78], [345, 3, 357, 1.92], [10149, 3, 984, 2.7], [1490, 1, 58, 5.92], [346, 3, 699, 2.0], [1243, 2, 112, 4.28], [7004, 1, 94, 2.54], [11738, 2, 23, 2.53], [201, 3, 339, 4.27], [22558, 3, 529, 4.33], [432, 3, 339, 3.22], [2438, 1, 62, 2.95]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 6, 0.66], [141, 2, 4, 0.23], [2778, 2, 6, 0.34], [362, 2, 5, 0.48], [361, 2, 4, 0.37], [130, 1, 4, 0.36], [6935, 2, 8, 1.55], [12721, 2, 8, 1.21], [8676, 2, 5, 0.6], [2049, 3, 15, 0.2], [417, 2, 4, 0.37], [3, 2, 4, 1.22], [22247, 2, 5, 1.0], [6936, 2, 4, 0.47], [523, 2, 4, 0.41], [305, 2, 5, 0.73], [8650, 2, 4, 0.94], [2328, 2, 4, 1.04], [11739, 2, 4, 0.68], [8648, 2, 4, 1.69], [2776, 2, 4, 1.19], [2327, 2, 4, 0.39], [616, 2, 4, 1.04], [411, 2, 4, 0.37], [8674, 2, 5, 0.67], [2423, 29, 4, 1.0], [589, 2, 4, 0.9], [6497, 1, 6, 0.2], [2805, 137, 5, 0.94], [11835, 2, 4, 0.49], [6097, 80, 4, 2.11], [146, 2, 4, 1.17], [326, 2, 5, 0.66], [6097, 29, 5, 0.91], [583, 2, 4, 0.45], [2423, 80, 4, 0.94], [10149, 3, 13, 0.75], [145, 2, 4, 1.17], [11836, 2, 5, 0.54], [144, 2, 4, 1.17], [75, 2, 4, 1.56], [10574, 3, 5, 0.85], [6496, 1, 4, 1.31], [308, 1, 6, 0.54], [1413, 15, 4, 0.2], [2054, 3, 5, 0.81], [2422, 29, 4, 1.9], [1243, 2, 4, 1.06], [21793, 1, 4, 2.34], [1886, 2, 4, 0.44], [8915, 2, 4, 0.78], [944, 15, 4, 0.2], [247, 1, 4, 1.47], [1490, 1, 4, 1.35], [2859, 15, 4, 0.35], [335, 3, 11, 0.89], [1414, 15, 4, 0.48], [201, 3, 4, 0.24], [13928, 1, 4, 1.15], [3478, 2, 4, 1.0], [6158, 2, 6, 0.89], [7084, 3, 4, 0.95], [3934, 5, 7, 1.36], [11489, 1, 4, 0.41], [12526, 2, 4, 0.7], [1703, 2, 4, 0.56], [5812, 3, 4, 2.0], [11767, 1, 4, 1.1], [61, 3, 4, 0.44], [94, 4, 4, 1.04], [186, 3, 7, 0.56], [214, 3, 10, 1.24], [1519, 3, 9, 0.39], [1050, 2, 4, 0.37], [9491, 21, 10, 1.33], [11490, 1, 4, 0.35], [1309, 1, 4, 0.73], [2821, 3, 10, 0.27], [10398, 2, 4, 0.37], [5813, 3, 4, 2.0], [192, 3, 13, 1.01], [8898, 3, 4, 0.47], [8599, 1, 4, 0.37], [5811, 3, 5, 2.2], [229, 1, 4, 1.37], [11771, 1, 4, 0.82], [1699, 3, 4, 1.53], [2438, 2, 5, 0.53], [2991, 3, 5, 1.75], [3495, 3, 13, 1.28], [11769, 1, 4, 1.1], [8943, 3, 4, 0.39], [11811, 1, 4, 0.38], [1339, 3, 12, 0.18], [13928, 2, 4, 1.15], [12764, 2, 5, 0.43], [19687, 1, 4, 1.21], [7036, 1, 4, 0.43], [346, 3, 5, 0.42], [13260, 29, 4, 1.26], [22573, 2, 4, 0.99], [10124, 1, 4, 2.17], [9690, 1, 4, 1.08], [5584, 3, 4, 3.54], [3334, 5, 4, 1.1], [18964, 1, 4, 1.13], [7004, 1, 4, 0.75], [1277, 1, 4, 0.48], [2438, 1, 4, 0.4], [20927, 1, 4, 0.4], [1523, 1, 4, 1.01], [4001, 3, 9, 0.96], [11886, 2, 4, 0.75], [1701, 2, 4, 0.5], [45, 2, 4, 1.79], [11678, 1, 4, 1.44], [21269, 3, 4, 2.18], [8286, 2, 5, 0.62], [9373, 5, 4, 2.8], [10181, 26, 5, 0.46], [23031, 3, 4, 1.65], [3984, 3, 5, 0.62], [10516, 3, 4, 0.99], [11677, 1, 4, 1.53], [346, 1, 4, 0.43], [1339, 1, 4, 0.48], [3979, 3, 5, 0.88], [19924, 2, 4, 0.41], [23032, 3, 4, 1.46], [9069, 1, 4, 0.41], [9065, 2, 4, 0.54], [5976, 1, 4, 1.13], [8285, 2, 5, 0.49], [7005, 1, 4, 1.21], [8672, 2, 324, 4.66], [141, 2, 176, 3.4], [2778, 2, 175, 2.87], [362, 2, 160, 2.87], [361, 2, 186, 2.55], [130, 1, 71, 1.65], [6935, 2, 314, 6.0], [12721, 2, 323, 5.01], [8676, 2, 324, 3.88], [2049, 3, 618, 1.92], [417, 2, 186, 2.55], [3, 2, 143, 3.42], [22247, 2, 323, 4.61], [6936, 2, 331, 2.61], [523, 2, 176, 3.3], [305, 2, 166, 3.67], [8650, 2, 263, 4.15], [2328, 2, 170, 3.66], [11739, 2, 68, 2.27], [8648, 2, 263, 4.21], [2776, 2, 185, 3.25], [2327, 2, 170, 3.76], [616, 2, 120, 3.66], [411, 2, 129, 2.44], [8674, 2, 324, 2.49], [2423, 29, 44, 3.72], [589, 2, 181, 2.9], [6497, 1, 42, 3.28], [2805, 137, 212, 4.89], [11835, 2, 303, 3.22], [6097, 80, 52, 6.0], [146, 2, 181, 3.21], [326, 2, 104, 3.13], [6097, 29, 38, 3.55], [583, 2, 102, 2.56], [2423, 80, 220, 3.67], [10149, 3, 1052, 4.18], [145, 2, 181, 3.21], [11836, 2, 303, 3.32], [144, 2, 181, 3.21], [75, 2, 171, 3.96], [10574, 3, 565, 4.07], [6496, 1, 47, 3.48], [308, 1, 194, 4.19], [1413, 15, 111, 2.01], [2054, 3, 114, 3.24], [2422, 29, 44, 5.23], [1243, 2, 117, 3.0], [21793, 1, 273, 6.0], [1886, 2, 187, 1.81], [8915, 2, 226, 2.46], [944, 15, 46, 2.51], [247, 1, 103, 3.79], [1490, 1, 58, 5.92], [2859, 15, 82, 2.36], [1414, 15, 117, 1.88], [201, 3, 344, 2.12], [13928, 1, 53, 3.67], [3478, 2, 90, 2.89], [6158, 2, 294, 3.35], [7084, 3, 145, 2.79], [3934, 5, 619, 3.65], [11489, 1, 130, 1.75], [12526, 2, 325, 3.97], [1703, 2, 194, 2.63], [5812, 3, 700, 4.8]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.2], [2328, 2, 5, 0.2], [130, 1, 4, 0.36], [8650, 2, 4, 0.46], [2778, 2, 5, 0.4], [5491, 2, 4, 0.2], [8672, 2, 7, 0.2], [143, 2, 6, 0.51], [362, 2, 4, 0.48], [145, 2, 5, 0.5], [6936, 2, 4, 1.26], [5493, 2, 5, 0.35], [361, 2, 4, 0.63], [417, 2, 4, 0.63], [11681, 2, 5, 0.71], [205, 2, 4, 0.56], [589, 2, 5, 0.2], [75, 2, 5, 0.97], [11737, 2, 4, 0.78], [146, 2, 4, 0.57], [523, 2, 4, 0.63], [12721, 2, 5, 0.48], [8853, 2, 4, 1.92], [8673, 2, 6, 0.2], [326, 2, 5, 0.85], [11835, 2, 5, 0.36], [308, 1, 5, 1.48], [8915, 2, 6, 1.14], [144, 2, 5, 0.46], [1005, 2, 4, 0.89], [8675, 2, 4, 1.2], [88, 10, 10, 0.19], [434, 2, 5, 0.3], [11739, 2, 4, 0.78], [142, 2, 4, 0.63], [8676, 2, 4, 2.16], [2424, 29, 4, 0.37], [6158, 2, 7, 0.2], [7704, 2, 4, 1.5], [2423, 29, 4, 1.19], [11738, 2, 4, 0.78], [11836, 2, 4, 0.22], [2424, 80, 4, 0.86], [1413, 15, 4, 0.2], [7705, 2, 4, 1.9], [2423, 80, 4, 0.79], [944, 15, 5, 0.2], [3, 2, 4, 0.79], [3478, 2, 4, 1.78], [7004, 1, 4, 1.31], [1414, 15, 4, 0.42], [2859, 15, 4, 1.62], [74, 1, 4, 1.09], [10149, 3, 13, 0.75], [6497, 1, 4, 0.45], [3429, 15, 4, 0.41], [10993, 2, 4, 0.4], [13928, 1, 4, 1.15], [346, 1, 4, 0.88], [18964, 1, 4, 1.13], [11919, 1, 4, 0.59], [346, 3, 5, 1.27], [60, 3, 5, 1.93], [13260, 29, 5, 1.42], [7036, 1, 4, 1.63], [94, 4, 4, 1.96], [1339, 3, 12, 0.18], [6952, 1, 4, 1.59], [3893, 1, 4, 1.35], [2991, 3, 4, 2.17], [13034, 3, 6, 0.9], [411, 2, 4, 1.01], [11089, 1, 4, 1.16], [1050, 2, 5, 0.2], [3891, 1, 4, 1.35], [1339, 1, 4, 0.43], [14037, 3, 4, 0.96], [7707, 2, 4, 1.25], [21793, 1, 4, 1.01], [563, 2, 4, 0.2], [8274, 3, 4, 0.83], [6630, 3, 4, 1.8], [3889, 1, 4, 1.35], [2912, 1, 4, 0.6], [1243, 2, 6, 0.7], [1490, 1, 4, 1.35], [7708, 2, 4, 1.5], [192, 3, 13, 1.24], [11581, 29, 4, 0.87], [9126, 1, 4, 1.25], [7886, 4, 5, 0.44], [13023, 3, 5, 0.45], [3495, 3, 13, 1.28], [5208, 3, 6, 0.23], [5940, 3, 4, 1.33], [11490, 1, 4, 0.48], [1309, 1, 4, 0.73], [1049, 2, 4, 0.2], [229, 1, 4, 1.32], [5165, 1, 4, 0.87], [22558, 3, 4, 0.88], [12229, 2, 5, 0.45], [13033, 3, 4, 0.8], [2331, 1, 4, 1.18], [201, 3, 4, 0.6], [2805, 137, 5, 1.01], [247, 1, 4, 0.37], [83, 2, 4, 0.75], [1274, 1, 4, 1.17], [6496, 1, 4, 1.55], [332, 2, 4, 0.2], [214, 3, 9, 1.24], [202, 2, 4, 0.2], [951, 4, 4, 1.56], [8898, 3, 4, 0.71], [20555, 2, 4, 0.58], [1703, 2, 4, 2.69], [9690, 1, 4, 1.08], [11770, 1, 4, 1.78], [335, 3, 10, 0.62], [942, 3, 4, 0.75], [7005, 1, 4, 1.01], [5812, 3, 4, 0.76], [114, 3, 4, 2.04], [21269, 3, 4, 4.0], [3934, 5, 7, 1.36], [8635, 3, 4, 0.83], [9827, 3, 4, 0.39], [10406, 10, 8, 1.73], [4940, 1, 4, 0.42], [186, 3, 7, 1.23], [1886, 2, 4, 0.2], [10527, 3, 8, 0.82], [10411, 10, 6, 1.79], [7885, 4, 4, 0.56], [9491, 21, 10, 1.33], [305, 2, 166, 3.17], [2328, 2, 170, 4.64], [130, 1, 71, 1.65], [8650, 2, 250, 4.6], [2778, 2, 175, 3.04], [5491, 2, 123, 2.03], [8672, 2, 319, 4.91], [143, 2, 170, 3.72], [362, 2, 169, 2.01], [145, 2, 171, 3.71], [6936, 2, 319, 5.75], [5493, 2, 130, 3.02], [361, 2, 186, 2.82], [417, 2, 186, 2.82], [11681, 2, 299, 3.49], [205, 2, 130, 2.04], [589, 2, 173, 1.81], [75, 2, 164, 4.57], [11737, 2, 68, 2.71], [146, 2, 171, 3.82], [523, 2, 186, 2.17], [12721, 2, 322, 4.26], [8853, 2, 319, 5.66], [8673, 2, 323, 4.83], [326, 2, 104, 2.86], [11835, 2, 302, 2.97], [308, 1, 201, 4.9], [8915, 2, 212, 3.94], [144, 2, 171, 3.63], [1005, 2, 67, 3.65], [8675, 2, 336, 3.6], [88, 10, 639, 4.85], [434, 2, 120, 2.22], [11739, 2, 68, 2.46], [142, 2, 186, 2.82], [8676, 2, 336, 5.12], [2424, 29, 38, 3.3], [6158, 2, 296, 3.82], [7704, 2, 198, 4.67], [2423, 29, 41, 3.35], [11738, 2, 68, 2.48], [11836, 2, 302, 3.64], [2424, 80, 191, 3.75], [1413, 15, 111, 3.12], [7705, 2, 198, 5.16], [2423, 80, 208, 3.41], [944, 15, 49, 2.34], [3, 2, 134, 4.73], [1414, 15, 117, 1.77], [74, 1, 241, 3.11], [10149, 3, 1044, 2.45], [6497, 1, 45, 1.83], [3429, 15, 63, 1.75], [10993, 2, 60, 2.43], [13928, 1, 53, 3.67], [346, 1, 179, 3.77], [18964, 1, 80, 3.14], [11919, 1, 177, 2.1], [346, 3, 682, 4.23], [60, 3, 952, 4.46], [13260, 29, 81, 4.53], [7036, 1, 144, 4.32], [94, 4, 137, 5.0], [1339, 3, 1955, 1.88]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 6, 0.87], [141, 2, 4, 0.2], [589, 2, 5, 0.2], [2327, 2, 5, 0.64], [2778, 2, 4, 0.2], [11681, 2, 10, 1.14], [6936, 2, 6, 0.44], [362, 2, 4, 0.56], [2328, 2, 5, 0.2], [205, 2, 4, 0.47], [130, 1, 4, 0.36], [2775, 2, 4, 0.2], [2049, 3, 5, 0.37], [8649, 2, 4, 0.64], [2776, 2, 4, 0.67], [361, 2, 5, 0.4], [143, 2, 5, 0.76], [593, 2, 6, 0.2], [206, 2, 4, 1.19], [5493, 2, 4, 0.6], [1429, 2, 4, 1.84], [523, 2, 5, 0.54], [7004, 1, 4, 0.53], [21793, 1, 4, 0.61], [413, 1, 4, 0.81], [12350, 1, 4, 2.08], [1124, 2, 4, 0.79], [7036, 1, 4, 1.53], [5165, 1, 4, 1.2], [12353, 1, 4, 2.08], [12349, 1, 5, 1.31], [145, 2, 4, 1.17], [434, 2, 4, 0.44], [248, 1, 4, 0.48], [201, 3, 6, 0.66], [6952, 1, 4, 1.29], [6097, 80, 5, 2.63], [10993, 2, 5, 0.73], [345, 3, 6, 0.2], [146, 2, 4, 1.17], [144, 2, 5, 0.61], [7084, 3, 5, 2.49], [11770, 1, 4, 0.2], [2050, 3, 4, 1.46], [12352, 1, 4, 2.08], [3891, 1, 4, 0.25], [2912, 1, 4, 1.16], [7005, 1, 4, 0.57], [998, 2, 5, 0.23], [997, 2, 4, 0.41], [432, 3, 4, 0.39], [3893, 1, 4, 0.49], [5165, 2, 7, 0.66], [12870, 1, 4, 1.19], [9372, 1, 4, 1.04], [6097, 29, 4, 2.66], [2424, 80, 4, 0.86], [20927, 1, 4, 0.51], [11772, 1, 4, 1.66], [6098, 80, 4, 1.64], [7885, 4, 4, 0.74], [10149, 3, 17, 0.75], [11089, 1, 4, 0.57], [3334, 5, 4, 0.7], [10574, 3, 5, 0.56], [12351, 1, 5, 0.56], [1492, 1, 5, 0.31], [4032, 29, 4, 0.8], [346, 3, 4, 0.93], [3889, 1, 4, 1.16], [1700, 2, 4, 0.64], [12304, 1, 4, 2.17], [1519, 3, 12, 0.22], [3576, 25, 4, 1.76], [13028, 3, 5, 1.36], [2912, 2, 5, 1.2], [214, 3, 9, 0.66], [1490, 1, 4, 0.72], [13034, 3, 5, 1.52], [972, 3, 4, 1.01], [229, 1, 4, 2.2], [11583, 29, 4, 0.49], [161, 3, 5, 1.45], [11426, 25, 4, 0.4], [5151, 2, 4, 0.45], [346, 1, 4, 0.93], [2331, 1, 4, 0.49], [8120, 3, 4, 0.6], [11490, 1, 4, 0.4], [995, 2, 4, 1.16], [3478, 2, 4, 0.62], [5076, 1, 4, 0.46], [5812, 3, 5, 2.0], [13893, 2, 4, 1.24], [10, 2, 4, 0.39], [9289, 29, 4, 1.08], [1309, 1, 4, 0.36], [410, 1, 4, 0.39], [12764, 2, 5, 0.43], [13023, 3, 6, 1.25], [2160, 68, 4, 1.02], [3575, 25, 4, 0.94], [2805, 137, 4, 0.94], [11404, 2, 5, 0.2], [3577, 25, 4, 0.52], [13280, 1, 4, 1.36], [75, 2, 5, 0.37], [2438, 2, 5, 0.53], [957, 2, 5, 0.91], [11814, 1, 4, 0.57], [11813, 1, 4, 0.84], [9069, 1, 4, 0.63], [9971, 2, 4, 1.14], [9967, 2, 4, 0.59], [11150, 2, 5, 0.45], [192, 3, 8, 1.79], [8943, 3, 4, 0.39], [9491, 21, 8, 1.33], [8283, 2, 6, 1.27], [5584, 3, 4, 4.0], [22317, 3, 4, 0.44], [24257, 1, 4, 1.22], [13249, 29, 4, 1.12], [9964, 2, 4, 1.6], [21697, 3, 4, 0.2], [9081, 3, 12, 0.98], [4586, 10, 10, 0.8], [105, 3, 4, 0.83], [4076, 3, 4, 1.42], [10609, 1, 4, 0.48], [9965, 2, 4, 1.14], [1413, 15, 4, 0.66], [335, 3, 9, 0.92], [10407, 10, 7, 1.94], [6935, 2, 311, 5.27], [141, 2, 173, 3.01], [589, 2, 172, 2.58], [2327, 2, 169, 3.3], [2778, 2, 174, 2.43], [11681, 2, 301, 6.0], [6936, 2, 311, 5.81], [362, 2, 157, 3.45], [2328, 2, 169, 4.01], [205, 2, 129, 1.78], [130, 1, 42, 1.5], [2775, 2, 174, 2.43], [2049, 3, 644, 1.69], [8649, 2, 261, 3.71], [2776, 2, 184, 2.34], [361, 2, 173, 3.53], [143, 2, 168, 3.68], [593, 2, 269, 2.09], [206, 2, 25, 2.78], [5493, 2, 127, 2.04], [1429, 2, 89, 4.32], [523, 2, 173, 3.41], [7004, 1, 94, 1.9], [21793, 1, 266, 4.32], [413, 1, 102, 2.44], [12350, 1, 722, 5.56], [1124, 2, 218, 2.61], [7036, 1, 143, 3.83], [5165, 1, 53, 4.04], [12353, 1, 722, 5.56], [12349, 1, 685, 5.29], [145, 2, 171, 3.27], [434, 2, 126, 2.14], [248, 1, 64, 1.8], [201, 3, 168, 4.66], [6952, 1, 210, 5.46], [6097, 80, 76, 6.0], [10993, 2, 59, 2.54], [345, 3, 335, 4.1], [146, 2, 180, 3.13], [144, 2, 171, 2.59], [7084, 3, 30, 4.42], [11770, 1, 246, 1.95], [12352, 1, 722, 5.56], [3891, 1, 138, 3.38], [2912, 1, 53, 3.11], [7005, 1, 94, 1.98], [998, 2, 272, 4.32], [997, 2, 287, 2.54], [432, 3, 355, 2.92], [3893, 1, 138, 2.52], [5165, 2, 450, 2.12], [12870, 1, 154, 3.17], [9372, 1, 260, 4.62], [6097, 29, 38, 6.0], [2424, 80, 198, 2.59], [20927, 1, 94, 1.86], [11772, 1, 251, 4.13], [6098, 80, 84, 4.94], [10149, 3, 982, 2.6], [11089, 1, 199, 2.89], [3334, 5, 212, 3.79], [10574, 3, 608, 1.86], [12351, 1, 685, 3.1], [1492, 1, 41, 2.21], [4032, 29, 107, 2.42]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 8, 0.97], [305, 2, 4, 0.75], [6935, 2, 8, 1.44], [141, 2, 5, 0.39], [2049, 3, 12, 0.2], [205, 2, 4, 0.2], [12721, 2, 6, 0.97], [130, 1, 4, 0.51], [144, 2, 4, 0.49], [589, 2, 6, 0.2], [362, 2, 4, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 5, 0.59], [990, 2, 4, 0.44], [1777, 1, 5, 0.93], [8915, 2, 5, 0.43], [2328, 2, 5, 0.55], [8648, 2, 5, 0.77], [6936, 2, 6, 1.17], [8650, 2, 5, 1.15], [22247, 2, 4, 0.95], [2778, 2, 5, 0.2], [1007, 2, 6, 0.2], [88, 10, 8, 0.44], [10, 2, 6, 0.2], [8677, 3, 5, 1.81], [8649, 2, 4, 1.4], [10149, 3, 17, 1.32], [2054, 3, 6, 0.58], [412, 1, 4, 0.91], [13028, 3, 5, 0.5], [10825, 21, 8, 1.13], [11681, 2, 5, 1.12], [361, 2, 4, 0.65], [413, 1, 4, 0.85], [7004, 1, 4, 0.4], [2055, 3, 4, 0.8], [2057, 3, 4, 0.8], [7084, 3, 4, 1.63], [411, 2, 4, 0.23], [308, 1, 5, 0.72], [410, 1, 4, 0.36], [6158, 2, 5, 0.9], [8938, 2, 5, 0.9], [8676, 2, 4, 0.97], [1124, 2, 6, 0.2], [432, 3, 5, 0.39], [167, 3, 5, 1.1], [45, 2, 4, 1.37], [7036, 1, 4, 1.64], [3495, 3, 17, 1.31], [7005, 1, 4, 0.4], [5081, 2, 8, 0.2], [94, 4, 5, 0.51], [9827, 3, 4, 0.2], [5812, 3, 5, 2.5], [3893, 1, 4, 0.28], [3889, 1, 4, 0.28], [12870, 1, 4, 2.58], [2049, 1, 4, 0.55], [3891, 1, 4, 0.28], [168, 3, 6, 0.29], [6097, 29, 4, 1.86], [1504, 2, 7, 0.2], [335, 3, 11, 1.1], [6097, 80, 4, 2.61], [11737, 2, 4, 0.41], [95, 3, 17, 0.32], [6098, 29, 4, 2.02], [346, 1, 5, 0.56], [998, 2, 4, 1.52], [79, 1, 4, 0.2], [214, 3, 9, 0.44], [3980, 4, 4, 1.39], [20927, 1, 4, 0.61], [9069, 1, 5, 1.09], [22316, 3, 6, 0.49], [83, 2, 4, 0.44], [6098, 80, 4, 2.48], [20498, 1, 5, 0.55], [8898, 3, 6, 2.17], [9760, 29, 4, 0.49], [1070, 7, 11, 0.42], [997, 2, 4, 1.04], [1622, 1, 5, 0.2], [14017, 3, 5, 0.42], [7567, 3, 4, 1.37], [13034, 3, 8, 1.01], [22554, 10, 11, 0.23], [13260, 29, 4, 0.85], [11116, 1, 5, 0.2], [1243, 2, 4, 0.79], [12924, 1, 4, 0.2], [22317, 3, 8, 0.26], [20498, 3, 6, 0.84], [5946, 1, 4, 0.28], [996, 2, 4, 1.39], [35, 1, 4, 1.05], [5086, 1, 8, 0.2], [5813, 3, 5, 1.32], [9691, 1, 5, 1.66], [995, 2, 4, 1.56], [1413, 15, 4, 0.2], [1080, 3, 4, 0.63], [952, 4, 4, 2.48], [11085, 2, 4, 0.45], [2424, 80, 4, 1.45], [8557, 3, 4, 0.2], [3049, 3, 5, 1.73], [1703, 2, 5, 1.38], [215, 4, 5, 3.32], [20486, 3, 8, 0.5], [39, 1, 4, 0.8], [3900, 3, 5, 1.18], [4076, 3, 4, 2.94], [9081, 3, 8, 0.53], [13023, 3, 5, 1.48], [8274, 3, 4, 0.53], [8943, 3, 5, 0.37], [34, 1, 4, 0.47], [20486, 1, 4, 0.51], [6497, 1, 5, 1.25], [8104, 1, 4, 0.2], [11510, 3, 5, 0.71], [2854, 21, 11, 0.45], [38, 1, 4, 0.47], [23611, 3, 4, 0.42], [3047, 3, 5, 1.0], [20969, 3, 5, 1.12], [1414, 15, 4, 0.2], [2878, 1, 4, 1.57], [114, 3, 4, 0.23], [12923, 1, 4, 0.5], [10529, 29, 4, 0.48], [8672, 2, 281, 5.07], [305, 2, 145, 3.64], [6935, 2, 278, 5.23], [141, 2, 152, 3.06], [2049, 3, 539, 2.4], [205, 2, 107, 2.48], [12721, 2, 296, 2.46], [130, 1, 62, 1.66], [144, 2, 151, 1.84], [589, 2, 161, 1.23], [362, 2, 139, 3.44], [146, 2, 151, 3.22], [145, 2, 159, 1.59], [593, 2, 119, 2.87], [990, 2, 54, 1.72], [1777, 1, 107, 3.88], [8915, 2, 200, 1.63], [2328, 2, 148, 3.16], [8648, 2, 218, 4.67], [6936, 2, 278, 4.62], [8650, 2, 218, 5.32], [22247, 2, 296, 3.03], [2778, 2, 153, 3.21], [1007, 2, 266, 1.69], [88, 10, 587, 2.65], [10, 2, 109, 2.73], [8677, 3, 289, 5.23], [8649, 2, 218, 5.01], [10149, 3, 853, 5.41], [2054, 3, 463, 4.27], [412, 1, 82, 3.82], [13028, 3, 145, 3.08], [10825, 21, 675, 2.7], [11681, 2, 274, 3.6], [361, 2, 152, 2.18], [413, 1, 85, 3.3], [7004, 1, 78, 2.8], [2055, 3, 488, 2.59], [2057, 3, 488, 4.38], [7084, 3, 127, 3.82], [411, 2, 107, 2.92], [308, 1, 166, 3.34], [410, 1, 102, 2.83], [6158, 2, 270, 3.55], [8938, 2, 198, 2.26], [8676, 2, 296, 2.62], [1124, 2, 184, 1.89], [432, 3, 297, 2.94], [167, 3, 236, 3.63], [45, 2, 108, 5.82], [7036, 1, 125, 4.63], [3495, 3, 950, 4.43], [7005, 1, 78, 2.8], [5081, 2, 189, 3.15], [94, 4, 117, 4.7], [9827, 3, 86, 3.03], [5812, 3, 611, 5.08], [3893, 1, 121, 1.92], [3889, 1, 121, 1.92], [12870, 1, 135, 6.0], [3891, 1, 121, 1.92], [168, 3, 399, 3.61], [1504, 2, 200, 2.99], [6097, 80, 68, 5.83], [11737, 2, 56, 2.55]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 10, 2.68], [3, 2, 7, 2.67], [326, 2, 11, 1.38], [589, 2, 15, 0.55], [143, 2, 7, 1.12], [2049, 3, 18, 1.93], [6935, 2, 18, 3.14], [130, 1, 7, 1.56], [205, 2, 7, 0.71], [75, 2, 7, 1.86], [12721, 2, 10, 1.69], [144, 2, 7, 1.42], [145, 2, 7, 1.0], [8915, 2, 12, 0.5], [1776, 1, 7, 1.17], [593, 2, 10, 2.33], [146, 2, 7, 2.25], [151, 1, 7, 0.71], [2778, 2, 13, 1.07], [1777, 1, 7, 1.85], [20252, 2, 7, 1.1], [206, 2, 7, 1.53], [8648, 2, 14, 4.89], [990, 2, 9, 1.73], [2328, 2, 9, 1.55], [6936, 2, 10, 2.57], [5151, 2, 7, 0.9], [7886, 4, 7, 0.87], [8650, 2, 14, 5.0], [88, 10, 17, 1.98], [141, 2, 7, 2.63], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [1492, 1, 7, 1.85], [7004, 1, 7, 0.96], [2054, 3, 7, 1.03], [362, 2, 7, 2.4], [2057, 3, 7, 0.89], [10825, 21, 13, 2.02], [8649, 2, 14, 5.0], [2055, 3, 7, 0.81], [345, 3, 11, 0.97], [7084, 3, 7, 3.88], [7005, 1, 7, 0.73], [307, 2, 7, 1.93], [3889, 1, 7, 0.8], [21793, 1, 7, 4.02], [410, 1, 7, 1.0], [432, 3, 7, 1.15], [7887, 4, 7, 0.67], [22247, 2, 13, 2.72], [57, 1, 7, 1.0], [11681, 2, 14, 5.0], [10149, 3, 21, 1.67], [308, 1, 7, 2.55], [7036, 1, 7, 2.24], [94, 4, 7, 1.85], [12870, 1, 11, 5.0], [5081, 2, 9, 1.33], [9827, 3, 7, 0.53], [201, 3, 11, 0.87], [167, 3, 9, 2.77], [13028, 3, 7, 2.95], [8677, 3, 9, 1.26], [1504, 2, 7, 2.47], [1124, 2, 14, 0.68], [3891, 1, 7, 2.38], [35, 1, 9, 2.05], [3893, 1, 7, 2.38], [8676, 2, 7, 1.7], [168, 3, 11, 3.71], [9760, 29, 9, 0.92], [5812, 3, 8, 1.91], [1243, 2, 7, 1.27], [6158, 2, 10, 0.94], [412, 1, 7, 2.68], [45, 2, 7, 2.72], [361, 2, 7, 1.87], [20927, 1, 7, 1.14], [335, 3, 20, 0.93], [1767, 25, 7, 1.14], [3980, 4, 7, 2.74], [346, 1, 7, 3.18], [95, 3, 27, 0.67], [9069, 1, 7, 1.46], [214, 3, 18, 0.69], [998, 2, 7, 2.35], [2049, 1, 7, 1.19], [413, 1, 7, 2.06], [3495, 3, 18, 2.26], [8674, 2, 7, 1.7], [856, 1, 7, 0.73], [34, 1, 7, 1.65], [8898, 3, 7, 2.78], [11116, 1, 7, 0.86], [346, 3, 7, 1.57], [1766, 25, 9, 1.39], [5946, 1, 7, 2.23], [1070, 7, 15, 0.84], [997, 2, 9, 2.24], [9691, 1, 7, 3.41], [20498, 1, 7, 2.97], [38, 1, 7, 1.9], [974, 3, 9, 2.39], [152, 21, 7, 0.83], [9372, 1, 7, 3.6], [14017, 3, 7, 1.75], [1091, 1, 7, 1.5], [22317, 3, 9, 1.01], [11954, 1, 7, 3.89], [20498, 3, 10, 1.9], [996, 2, 7, 2.35], [82, 2, 7, 1.88], [1080, 3, 7, 1.59], [9828, 3, 7, 0.76], [14037, 3, 7, 1.09], [39, 1, 7, 1.62], [5811, 3, 7, 4.24], [3048, 3, 7, 3.93], [972, 3, 8, 1.9], [1767, 2, 7, 1.46], [13260, 29, 9, 2.46], [24, 1, 9, 1.96], [4203, 1, 9, 1.06], [5813, 3, 7, 4.0], [10780, 10, 7, 3.58], [13034, 3, 8, 2.39], [5513, 2, 7, 1.93], [8945, 3, 8, 2.34], [952, 4, 7, 4.16], [202, 2, 7, 3.13], [3981, 3, 17, 2.74], [3900, 3, 7, 0.94], [995, 2, 7, 2.53], [6497, 1, 7, 0.9], [3893, 1, 138, 3.95], [8676, 2, 339, 2.47], [168, 3, 427, 4.48], [9760, 29, 80, 2.17], [5812, 3, 664, 3.68], [1243, 2, 110, 2.26], [6158, 2, 295, 3.16], [412, 1, 93, 4.36], [45, 2, 120, 4.53], [361, 2, 173, 3.11], [20927, 1, 90, 2.13], [335, 3, 1468, 2.53], [1767, 25, 193, 3.4], [3980, 4, 568, 3.51], [346, 1, 177, 3.95], [95, 3, 1223, 3.3], [9069, 1, 136, 2.45], [214, 3, 734, 1.69], [998, 2, 284, 3.12], [2049, 1, 8, 1.64], [413, 1, 96, 3.86], [3495, 3, 1083, 4.16], [8674, 2, 339, 2.47], [856, 1, 41, 1.49], [34, 1, 125, 3.59], [8898, 3, 316, 5.08], [11116, 1, 90, 2.07], [346, 3, 674, 2.8], [1766, 25, 210, 3.33], [5946, 1, 138, 3.78], [1070, 7, 661, 3.14], [997, 2, 269, 4.04], [9691, 1, 84, 4.24], [20498, 1, 109, 4.11], [38, 1, 125, 3.64], [974, 3, 166, 3.95], [9372, 1, 256, 5.15], [14017, 3, 220, 4.21], [1091, 1, 56, 2.26], [22317, 3, 355, 2.78], [11954, 1, 218, 4.66], [20498, 3, 654, 3.7], [996, 2, 284, 3.12], [82, 2, 67, 2.87], [1080, 3, 148, 3.39], [9828, 3, 98, 2.69], [39, 1, 125, 2.94], [5811, 3, 696, 5.0], [3048, 3, 303, 5.48], [972, 3, 667, 3.43], [1767, 2, 38, 2.94], [13260, 29, 81, 3.46], [24, 1, 126, 3.39], [4203, 1, 55, 2.86], [5813, 3, 661, 4.76], [10780, 10, 429, 5.39], [13034, 3, 664, 3.98], [5513, 2, 93, 2.69], [952, 4, 85, 4.92], [202, 2, 85, 3.89], [3981, 3, 1906, 3.51], [3900, 3, 52, 1.71], [995, 2, 284, 3.3], [6497, 1, 44, 1.66]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 9, 1.32], [6935, 2, 11, 4.09], [589, 2, 8, 1.6], [2778, 2, 11, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [130, 1, 7, 0.69], [2328, 2, 11, 1.39], [6936, 2, 7, 3.27], [205, 2, 9, 0.67], [8648, 2, 14, 3.54], [2775, 2, 7, 2.56], [593, 2, 11, 2.52], [145, 2, 7, 0.96], [146, 2, 7, 1.35], [5493, 2, 7, 0.74], [11681, 2, 9, 4.95], [7036, 1, 7, 3.63], [88, 10, 24, 2.1], [2776, 2, 7, 2.04], [141, 2, 7, 0.72], [151, 1, 7, 0.98], [1446, 2, 7, 1.5], [206, 2, 7, 1.45], [990, 2, 7, 0.75], [9760, 29, 9, 1.24], [248, 1, 7, 1.02], [5491, 2, 7, 0.77], [1007, 2, 7, 0.73], [8672, 2, 7, 5.0], [142, 2, 7, 1.77], [362, 2, 7, 1.0], [2912, 1, 7, 1.75], [10993, 2, 7, 1.25], [3893, 1, 7, 0.71], [12870, 1, 9, 3.33], [5165, 1, 7, 2.14], [7886, 4, 7, 0.8], [2055, 3, 7, 1.07], [417, 2, 7, 1.77], [9372, 1, 7, 3.88], [1622, 1, 11, 0.59], [3889, 1, 9, 1.13], [523, 2, 7, 1.19], [2054, 3, 7, 2.19], [7573, 1, 21, 5.0], [21793, 1, 7, 1.7], [10, 2, 9, 1.14], [7885, 4, 7, 1.19], [3891, 1, 7, 0.76], [10149, 3, 21, 2.82], [75, 2, 7, 2.18], [20927, 1, 7, 2.5], [61, 3, 7, 2.37], [5208, 3, 14, 0.79], [997, 2, 7, 2.75], [3, 2, 9, 1.83], [9491, 21, 29, 0.96], [12721, 2, 7, 3.06], [5165, 2, 8, 1.95], [35, 1, 9, 2.98], [83, 2, 11, 1.48], [998, 2, 7, 1.56], [22247, 2, 7, 2.52], [33, 1, 9, 2.92], [996, 2, 7, 2.88], [346, 3, 7, 5.0], [7887, 4, 7, 2.05], [972, 3, 10, 1.66], [5076, 1, 7, 2.68], [2805, 137, 7, 4.94], [229, 1, 7, 2.98], [6158, 2, 9, 1.56], [2424, 80, 7, 2.78], [34, 1, 9, 3.0], [13028, 3, 7, 4.0], [2912, 2, 12, 3.01], [13928, 1, 7, 2.56], [38, 1, 9, 3.05], [8898, 3, 7, 5.0], [346, 1, 7, 5.0], [76, 2, 7, 1.69], [12212, 29, 9, 0.9], [8104, 1, 7, 1.79], [2336, 3, 8, 1.19], [9690, 1, 7, 1.19], [5209, 3, 9, 1.92], [39, 1, 9, 3.02], [3495, 3, 18, 2.75], [11952, 1, 7, 1.27], [7567, 3, 7, 3.04], [2424, 29, 7, 1.27], [5946, 1, 7, 1.02], [11490, 1, 9, 1.14], [24257, 1, 7, 1.0], [9691, 1, 7, 2.06], [3048, 3, 7, 1.77], [11770, 1, 7, 3.84], [411, 2, 7, 1.64], [21798, 1, 7, 1.14], [1703, 2, 7, 2.56], [13928, 2, 7, 2.56], [632, 11, 21, 0.84], [11953, 1, 9, 0.75], [74, 1, 7, 5.0], [161, 3, 9, 4.12], [10407, 10, 12, 3.76], [22316, 3, 9, 1.16], [13023, 3, 10, 1.41], [1523, 1, 7, 0.81], [21269, 3, 7, 1.96], [10410, 10, 15, 3.8], [192, 3, 15, 2.1], [12764, 2, 10, 2.01], [214, 3, 15, 1.01], [2331, 1, 7, 3.16], [972, 1, 7, 1.94], [3430, 15, 7, 2.79], [5164, 1, 7, 1.93], [13893, 2, 7, 4.11], [1274, 1, 7, 1.55], [4076, 3, 7, 2.73], [6097, 80, 7, 2.43], [6097, 29, 7, 2.31], [11116, 1, 7, 1.08], [3576, 29, 7, 2.44], [10408, 10, 8, 3.12], [1080, 3, 7, 2.78], [1243, 2, 9, 2.48], [3047, 3, 7, 2.68], [10780, 10, 7, 3.61], [2438, 2, 8, 3.45], [8674, 2, 7, 3.66], [11813, 1, 7, 1.41], [3334, 5, 7, 4.94], [2436, 4, 7, 1.36], [346, 3, 678, 5.86], [972, 3, 650, 3.9], [5076, 1, 150, 3.54], [2805, 137, 203, 5.8], [229, 1, 89, 4.15], [6158, 2, 285, 2.64], [2424, 80, 186, 3.86], [13028, 3, 161, 4.86], [13928, 1, 51, 3.92], [8898, 3, 327, 6.0], [346, 1, 170, 5.86], [76, 2, 119, 3.73], [12212, 29, 131, 3.03], [8104, 1, 236, 2.65], [2336, 3, 675, 2.05], [9690, 1, 83, 2.38], [3495, 3, 1056, 3.61], [11952, 1, 230, 2.13], [7567, 3, 76, 4.21], [2424, 29, 37, 2.13], [5946, 1, 135, 2.11], [11490, 1, 63, 2.57], [24257, 1, 154, 2.09], [9691, 1, 87, 2.92], [3048, 3, 313, 2.63], [11770, 1, 243, 4.7], [411, 2, 118, 2.73], [21798, 1, 161, 2.0], [1703, 2, 179, 3.73], [13928, 2, 27, 3.42], [632, 11, 949, 1.71], [11953, 1, 218, 1.96], [74, 1, 219, 6.0], [161, 3, 837, 4.99], [10407, 10, 1263, 5.88], [22316, 3, 346, 2.25], [13023, 3, 657, 3.53], [1523, 1, 51, 1.89], [21269, 3, 332, 2.82], [10410, 10, 1263, 5.22], [192, 3, 1615, 2.95], [12764, 2, 810, 3.87], [2331, 1, 134, 4.02], [972, 1, 108, 2.8], [3430, 15, 75, 3.89], [5164, 1, 55, 2.79], [13893, 2, 310, 4.97], [1274, 1, 90, 2.41], [4076, 3, 230, 3.59], [6097, 80, 76, 3.59], [6097, 29, 38, 3.4], [11116, 1, 92, 1.94], [3576, 29, 39, 3.3], [10408, 10, 881, 3.97], [1080, 3, 138, 3.87], [1243, 2, 107, 4.36], [3047, 3, 294, 4.59], [10780, 10, 410, 5.32], [2438, 2, 682, 5.35], [8674, 2, 323, 4.51], [11813, 1, 362, 2.27], [3334, 5, 203, 5.8], [2436, 4, 126, 3.21]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [130, 1, 7, 0.67], [11685, 2, 7, 3.6], [8648, 2, 9, 2.71], [144, 2, 7, 2.5], [589, 2, 8, 0.61], [2327, 2, 7, 0.98], [11681, 2, 9, 3.34], [205, 2, 7, 0.74], [593, 2, 14, 1.01], [305, 2, 7, 1.23], [8915, 2, 8, 0.93], [141, 2, 9, 1.58], [8650, 2, 7, 2.25], [151, 1, 7, 0.77], [6936, 2, 14, 4.75], [2778, 2, 9, 1.43], [206, 2, 7, 1.57], [146, 2, 7, 2.06], [88, 10, 18, 0.73], [615, 2, 7, 1.53], [7036, 1, 7, 2.85], [1446, 2, 7, 1.73], [990, 2, 7, 0.69], [362, 2, 7, 0.96], [8853, 2, 7, 2.37], [417, 2, 7, 0.93], [248, 1, 7, 0.75], [2055, 3, 7, 4.16], [523, 2, 7, 1.56], [3893, 1, 7, 0.83], [12870, 1, 7, 3.69], [142, 2, 7, 0.93], [12350, 1, 7, 2.38], [2057, 3, 7, 3.77], [3889, 1, 7, 1.75], [7084, 3, 7, 1.65], [20927, 1, 7, 1.66], [7005, 1, 7, 1.29], [997, 2, 7, 1.75], [12349, 1, 7, 4.99], [21793, 1, 7, 2.58], [3891, 1, 7, 1.49], [61, 3, 9, 2.43], [7885, 4, 9, 1.03], [5165, 1, 7, 2.14], [6158, 2, 21, 1.5], [8672, 2, 14, 2.68], [5165, 2, 8, 2.15], [9491, 21, 20, 1.13], [2912, 1, 7, 1.67], [98, 11, 16, 1.21], [972, 3, 11, 3.54], [411, 2, 7, 1.73], [9372, 1, 7, 4.23], [10388, 2, 7, 1.16], [214, 3, 18, 0.67], [33, 1, 7, 3.41], [410, 1, 7, 2.57], [7886, 4, 7, 1.19], [13928, 1, 7, 2.18], [7567, 3, 7, 2.7], [9081, 3, 16, 1.41], [3981, 3, 22, 2.41], [22316, 3, 7, 0.98], [83, 2, 7, 1.41], [22247, 2, 7, 2.12], [336, 15, 7, 1.77], [308, 1, 7, 3.55], [2912, 2, 8, 3.01], [10631, 2, 7, 0.81], [161, 3, 8, 4.87], [229, 1, 7, 3.17], [5946, 1, 7, 1.49], [11953, 1, 7, 1.06], [10780, 10, 7, 3.43], [22317, 3, 7, 1.67], [6497, 1, 7, 0.9], [345, 3, 7, 1.46], [12271, 2, 7, 0.9], [3478, 2, 7, 1.93], [11767, 1, 7, 0.83], [10407, 10, 10, 3.53], [10410, 10, 10, 3.57], [9082, 3, 33, 2.42], [37, 1, 7, 2.23], [972, 1, 7, 1.51], [6097, 80, 7, 3.68], [39, 1, 7, 1.71], [8104, 1, 7, 0.73], [74, 1, 7, 4.11], [1413, 15, 7, 0.69], [34, 1, 7, 1.79], [82, 2, 7, 1.27], [7704, 2, 7, 2.41], [3048, 3, 7, 0.92], [24257, 1, 7, 2.73], [2331, 1, 7, 3.53], [192, 3, 20, 1.59], [335, 3, 15, 2.02], [152, 21, 9, 0.89], [38, 1, 7, 1.27], [9971, 2, 7, 3.23], [12338, 29, 9, 0.69], [9, 1, 7, 0.87], [4253, 1, 7, 1.29], [1523, 1, 7, 0.85], [45, 2, 7, 5.0], [12721, 2, 7, 2.09], [11510, 3, 8, 2.0], [6097, 29, 7, 3.68], [10936, 2, 7, 2.38], [8673, 2, 7, 4.12], [2805, 137, 7, 3.07], [10093, 3, 15, 1.68], [1080, 3, 7, 0.71], [7007, 1, 7, 2.33], [12764, 2, 8, 1.43], [3047, 3, 7, 4.74], [12212, 29, 7, 0.94], [7705, 2, 7, 2.56], [1895, 3, 7, 3.57], [8659, 1, 7, 3.34], [7706, 2, 7, 2.31], [9965, 2, 7, 4.66], [6496, 1, 7, 2.09], [8676, 2, 7, 1.46], [11812, 1, 7, 0.9], [201, 3, 7, 2.62], [2424, 80, 7, 2.59], [8635, 3, 7, 2.86], [4203, 1, 7, 1.08], [1703, 2, 7, 2.63], [3475, 2, 7, 3.15], [2438, 2, 8, 2.12], [308, 1, 161, 4.6], [10631, 2, 234, 1.62], [161, 3, 730, 5.94], [229, 1, 88, 3.97], [5946, 1, 135, 2.3], [11953, 1, 217, 1.87], [10780, 10, 395, 4.24], [22317, 3, 323, 3.38], [6497, 1, 38, 1.95], [345, 3, 304, 2.92], [12271, 2, 69, 1.71], [3478, 2, 76, 2.74], [11767, 1, 166, 1.87], [10407, 10, 1170, 4.35], [10410, 10, 1232, 4.39], [9082, 3, 2644, 3.25], [37, 1, 114, 3.22], [972, 1, 106, 2.32], [6097, 80, 74, 4.49], [39, 1, 114, 2.52], [8104, 1, 95, 1.43], [74, 1, 214, 4.92], [1413, 15, 96, 1.49], [34, 1, 114, 2.99], [82, 2, 61, 2.08], [7704, 2, 191, 3.22], [3048, 3, 277, 1.97], [24257, 1, 140, 3.78], [2331, 1, 123, 4.34], [192, 3, 1529, 2.41], [335, 3, 1394, 2.81], [38, 1, 120, 2.08], [9971, 2, 292, 4.04], [12338, 29, 54, 1.8], [9, 1, 37, 1.68], [4253, 1, 187, 2.11], [1523, 1, 51, 1.66], [45, 2, 110, 6.0], [12721, 2, 308, 2.89], [11510, 3, 602, 3.04], [6097, 29, 37, 4.49], [10936, 2, 144, 3.19], [8673, 2, 301, 4.93], [2805, 137, 186, 3.88], [10093, 3, 887, 2.49], [1080, 3, 139, 1.52], [7007, 1, 85, 3.14], [12764, 2, 798, 2.24], [3047, 3, 275, 5.55], [12212, 29, 129, 1.75], [7705, 2, 191, 3.38], [1895, 3, 316, 4.38], [8659, 1, 128, 4.15], [7706, 2, 191, 3.12], [9965, 2, 277, 5.47], [6496, 1, 43, 2.9], [8676, 2, 310, 2.27], [11812, 1, 258, 1.7], [201, 3, 320, 3.42], [2424, 80, 182, 3.4], [8635, 3, 363, 3.67], [4203, 1, 53, 1.88], [1703, 2, 176, 3.43], [3475, 2, 63, 3.96], [2438, 2, 671, 2.92]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 8, 1.03], [6935, 2, 23, 3.05], [362, 2, 9, 1.88], [2049, 3, 16, 0.8], [589, 2, 12, 0.5], [141, 2, 7, 1.04], [75, 2, 11, 1.99], [1776, 1, 7, 1.12], [8672, 2, 15, 2.16], [20252, 2, 7, 0.74], [205, 2, 7, 0.93], [7886, 4, 7, 1.01], [2778, 2, 8, 0.81], [1777, 1, 7, 2.22], [305, 2, 7, 0.92], [11681, 2, 10, 5.0], [593, 2, 11, 2.33], [8648, 2, 9, 3.46], [6936, 2, 10, 2.79], [2328, 2, 7, 0.94], [1007, 2, 10, 1.03], [88, 10, 21, 1.69], [83, 2, 7, 0.96], [5151, 2, 7, 1.96], [8650, 2, 9, 3.5], [412, 1, 7, 2.67], [345, 3, 7, 1.1], [2991, 3, 7, 4.78], [22247, 2, 9, 2.4], [361, 2, 7, 0.94], [144, 2, 7, 1.44], [57, 1, 9, 0.93], [201, 3, 8, 1.0], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [3478, 2, 7, 0.87], [146, 2, 7, 2.68], [2054, 3, 9, 3.23], [7004, 1, 7, 0.9], [12721, 2, 10, 1.78], [167, 3, 7, 2.5], [2057, 3, 7, 3.23], [413, 1, 7, 2.06], [10825, 21, 13, 2.1], [6158, 2, 10, 2.87], [74, 1, 7, 3.5], [168, 3, 7, 1.38], [308, 1, 7, 2.44], [346, 1, 7, 0.74], [2055, 3, 7, 1.92], [10, 2, 17, 2.16], [7036, 1, 9, 4.85], [13028, 3, 7, 1.61], [3495, 3, 21, 1.64], [335, 3, 27, 3.16], [432, 3, 7, 1.61], [5081, 2, 9, 0.59], [7887, 4, 7, 0.77], [12870, 1, 9, 5.0], [214, 3, 15, 0.77], [8649, 2, 7, 2.97], [79, 1, 7, 0.73], [410, 1, 7, 1.54], [1492, 1, 7, 1.2], [3889, 1, 7, 2.63], [145, 2, 9, 0.73], [9827, 3, 7, 0.86], [3893, 1, 7, 1.67], [1504, 2, 9, 0.89], [5208, 3, 16, 1.05], [95, 3, 21, 3.57], [13260, 29, 7, 1.89], [5812, 3, 8, 2.16], [23, 1, 7, 2.91], [94, 4, 7, 2.79], [411, 2, 7, 1.46], [7005, 1, 7, 1.19], [3891, 1, 7, 1.3], [998, 2, 7, 2.66], [25, 1, 7, 2.91], [21269, 3, 7, 5.0], [7567, 3, 7, 3.13], [10574, 3, 9, 2.33], [5086, 1, 9, 2.04], [1243, 2, 9, 2.8], [9069, 1, 7, 2.45], [2878, 1, 7, 2.42], [997, 2, 9, 3.39], [11954, 1, 7, 1.34], [9691, 1, 7, 3.66], [856, 1, 7, 0.92], [11914, 1, 11, 1.02], [20927, 1, 7, 2.0], [1703, 2, 7, 3.38], [5660, 2, 7, 3.65], [5584, 3, 7, 4.0], [952, 4, 7, 5.0], [5209, 3, 9, 0.67], [9081, 3, 14, 3.64], [8898, 3, 7, 5.0], [996, 2, 7, 4.61], [1070, 7, 13, 1.16], [346, 3, 8, 1.14], [1622, 1, 11, 0.85], [8676, 2, 7, 1.94], [12661, 1, 7, 4.53], [23961, 3, 7, 5.0], [5513, 2, 7, 1.63], [1091, 1, 7, 1.1], [22317, 3, 8, 1.15], [8274, 3, 7, 1.92], [13034, 3, 12, 3.0], [11811, 1, 7, 3.08], [24, 1, 7, 2.51], [1519, 3, 21, 0.94], [27, 1, 7, 2.91], [8674, 2, 10, 1.94], [6097, 29, 11, 2.58], [9760, 29, 11, 0.62], [4203, 1, 7, 1.27], [6097, 80, 7, 2.41], [10529, 29, 7, 2.85], [82, 2, 7, 0.67], [1413, 15, 7, 1.44], [995, 2, 9, 4.44], [9082, 3, 21, 1.17], [20498, 3, 8, 3.76], [66, 1, 7, 0.81], [2104, 3, 10, 2.99], [6098, 80, 7, 2.21], [9372, 1, 7, 1.93], [6098, 29, 7, 1.86], [34, 1, 7, 1.48], [9827, 3, 86, 3.01], [3893, 1, 121, 3.33], [1504, 2, 200, 3.04], [5208, 3, 554, 2.2], [95, 3, 1090, 4.25], [13260, 29, 71, 3.0], [5812, 3, 580, 4.28], [23, 1, 115, 3.59], [94, 4, 117, 3.69], [411, 2, 107, 2.48], [7005, 1, 78, 2.47], [3891, 1, 121, 3.52], [998, 2, 232, 5.07], [25, 1, 115, 3.59], [21269, 3, 289, 6.0], [7567, 3, 68, 4.03], [10574, 3, 499, 3.22], [5086, 1, 181, 4.19], [1243, 2, 96, 3.48], [2878, 1, 78, 3.29], [997, 2, 232, 4.07], [11954, 1, 194, 2.02], [9691, 1, 73, 4.81], [856, 1, 34, 1.82], [11914, 1, 83, 3.67], [1703, 2, 159, 4.78], [5660, 2, 171, 4.33], [5584, 3, 231, 5.27], [952, 4, 71, 6.0], [5209, 3, 554, 2.85], [9081, 3, 453, 5.8], [8898, 3, 274, 6.0], [996, 2, 245, 5.29], [1070, 7, 580, 2.82], [346, 3, 633, 1.82], [1622, 1, 56, 1.39], [8676, 2, 296, 2.62], [12661, 1, 77, 5.59], [23961, 3, 282, 5.84], [5513, 2, 76, 2.31], [1091, 1, 47, 2.93], [22317, 3, 311, 2.56], [13034, 3, 577, 4.66], [11811, 1, 446, 3.75], [24, 1, 110, 3.81], [1519, 3, 1611, 2.61], [27, 1, 115, 3.59], [8674, 2, 296, 2.62], [6097, 29, 36, 3.26], [9760, 29, 71, 2.53], [4203, 1, 47, 2.68], [6097, 80, 68, 3.09], [10529, 29, 39, 4.25], [82, 2, 59, 1.57], [1413, 15, 96, 2.72], [995, 2, 232, 5.59], [9082, 3, 2416, 3.42], [20498, 3, 580, 4.44], [66, 1, 40, 1.49], [2104, 3, 328, 3.89], [6098, 80, 75, 2.89], [9372, 1, 236, 2.61], [6098, 29, 39, 2.54], [34, 1, 110, 2.16]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 10, 0.87], [88, 10, 29, 1.1], [2327, 2, 7, 1.0], [8915, 2, 10, 1.06], [6935, 2, 14, 4.34], [2778, 2, 7, 0.55], [305, 2, 7, 1.07], [2328, 2, 11, 1.46], [130, 1, 7, 0.69], [5493, 2, 11, 0.5], [616, 2, 9, 0.85], [326, 2, 11, 2.77], [6936, 2, 7, 3.27], [8648, 2, 7, 3.27], [8650, 2, 9, 4.87], [1446, 2, 9, 1.57], [7004, 1, 7, 2.5], [205, 2, 7, 0.85], [2049, 3, 10, 1.17], [144, 2, 7, 2.5], [10, 2, 7, 2.3], [151, 1, 7, 0.98], [990, 2, 7, 0.75], [7036, 1, 14, 4.62], [3893, 1, 7, 2.11], [146, 2, 7, 2.06], [7885, 4, 7, 0.94], [141, 2, 7, 1.77], [3891, 1, 7, 1.55], [206, 2, 7, 1.02], [75, 2, 9, 2.39], [2055, 3, 7, 1.91], [362, 2, 7, 2.9], [10993, 2, 7, 0.87], [21793, 1, 7, 1.66], [5208, 3, 14, 0.79], [3889, 1, 26, 2.13], [7084, 3, 7, 3.02], [11234, 2, 7, 2.7], [7005, 1, 7, 1.31], [3980, 4, 8, 2.38], [12870, 1, 7, 3.72], [2912, 1, 9, 2.08], [145, 2, 7, 2.89], [5165, 1, 7, 2.07], [10149, 3, 21, 2.85], [8672, 2, 7, 5.0], [9760, 29, 7, 0.97], [998, 2, 7, 1.5], [20927, 1, 7, 2.5], [997, 2, 7, 2.49], [2436, 4, 7, 1.36], [417, 2, 7, 1.77], [2424, 80, 7, 2.78], [7887, 4, 9, 2.05], [6158, 2, 9, 1.56], [3, 2, 11, 1.58], [5076, 1, 9, 1.7], [632, 11, 21, 0.84], [229, 1, 7, 3.17], [972, 3, 9, 1.92], [3495, 3, 14, 1.61], [74, 1, 7, 2.35], [9491, 21, 21, 3.04], [523, 2, 7, 1.19], [11770, 1, 7, 2.08], [346, 3, 7, 2.56], [11953, 1, 7, 0.87], [5165, 2, 8, 2.08], [7573, 1, 16, 4.81], [12721, 2, 7, 1.45], [996, 2, 7, 1.96], [22316, 3, 9, 1.16], [2423, 80, 9, 3.79], [11772, 1, 7, 3.73], [9372, 1, 7, 3.88], [3981, 3, 22, 1.14], [6497, 1, 7, 0.94], [24257, 1, 9, 1.19], [2912, 2, 12, 3.01], [11952, 1, 7, 1.27], [2438, 2, 8, 3.32], [12229, 2, 7, 0.69], [823, 1, 7, 1.25], [361, 2, 7, 1.77], [2424, 29, 7, 0.89], [8898, 3, 9, 5.0], [3975, 4, 9, 2.75], [346, 1, 7, 3.21], [1622, 1, 7, 0.94], [6496, 1, 7, 2.37], [192, 3, 15, 2.1], [10407, 10, 12, 3.53], [3900, 3, 7, 1.43], [5209, 3, 9, 1.54], [2805, 137, 7, 2.41], [9081, 3, 12, 1.23], [5946, 1, 7, 1.02], [33, 1, 7, 1.23], [11812, 1, 7, 0.9], [335, 3, 18, 2.53], [1703, 2, 7, 1.39], [7567, 3, 7, 3.04], [12764, 2, 8, 1.48], [10388, 2, 7, 3.21], [11490, 1, 7, 0.92], [37, 1, 7, 0.9], [8676, 2, 7, 5.0], [6097, 80, 7, 2.16], [972, 1, 7, 1.94], [202, 2, 7, 1.69], [220, 4, 7, 2.52], [1519, 3, 18, 0.78], [22247, 2, 7, 2.5], [23611, 3, 8, 0.88], [161, 3, 9, 4.12], [35, 1, 7, 1.23], [38, 1, 7, 1.8], [13893, 2, 7, 4.11], [2104, 3, 15, 2.31], [11814, 1, 7, 0.92], [95, 3, 22, 0.85], [83, 2, 7, 1.1], [4232, 80, 7, 3.5], [1895, 3, 7, 4.76], [11813, 1, 7, 1.41], [11116, 1, 7, 1.08], [12212, 29, 9, 1.0], [8635, 3, 7, 2.27], [788, 2, 7, 1.02], [8104, 1, 7, 1.79], [12979, 25, 12, 1.36], [76, 2, 7, 0.98], [1309, 1, 7, 0.89], [13928, 1, 7, 2.56], [10386, 2, 7, 2.99], [5165, 2, 438, 2.94], [7573, 1, 378, 5.94], [12721, 2, 328, 2.31], [996, 2, 262, 3.05], [22316, 3, 346, 2.25], [2423, 80, 203, 5.23], [11772, 1, 243, 4.59], [9372, 1, 264, 4.75], [3981, 3, 1938, 2.0], [6497, 1, 43, 1.8], [24257, 1, 154, 2.4], [11952, 1, 230, 2.13], [2438, 2, 682, 5.35], [12229, 2, 176, 1.55], [823, 1, 46, 2.11], [361, 2, 179, 2.63], [2424, 29, 37, 1.98], [8898, 3, 310, 6.0], [3975, 4, 528, 4.61], [346, 1, 161, 4.07], [1622, 1, 125, 1.8], [6496, 1, 46, 3.23], [192, 3, 1615, 2.95], [10407, 10, 1263, 5.88], [3900, 3, 51, 2.29], [5209, 3, 130, 2.37], [2805, 137, 192, 3.49], [9081, 3, 558, 2.09], [5946, 1, 135, 2.11], [33, 1, 129, 2.09], [11812, 1, 276, 1.76], [1703, 2, 179, 2.48], [7567, 3, 76, 4.21], [12764, 2, 853, 2.34], [10388, 2, 253, 4.07], [11490, 1, 119, 2.01], [37, 1, 129, 1.76], [8676, 2, 323, 6.0], [6097, 80, 76, 3.24], [972, 1, 114, 2.8], [202, 2, 84, 2.55], [220, 4, 55, 3.38], [1519, 3, 1884, 1.61], [22247, 2, 328, 3.36], [23611, 3, 401, 1.74], [161, 3, 837, 4.99], [35, 1, 129, 2.09], [38, 1, 129, 2.66], [13893, 2, 310, 4.97], [2104, 3, 384, 3.17], [11814, 1, 246, 2.01], [95, 3, 1304, 1.69], [83, 2, 62, 1.96], [4232, 80, 162, 4.36], [1895, 3, 340, 5.62], [11813, 1, 362, 2.27], [11116, 1, 92, 1.94], [12212, 29, 131, 2.09], [8104, 1, 236, 2.65], [12979, 25, 758, 2.21], [76, 2, 126, 1.84], [1309, 1, 59, 1.75], [13928, 1, 54, 3.42], [10386, 2, 253, 3.84]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 10, 2.95], [305, 2, 7, 1.23], [615, 2, 11, 0.67], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [5493, 2, 9, 0.75], [205, 2, 9, 1.23], [130, 1, 7, 0.67], [616, 2, 9, 0.77], [88, 10, 14, 0.73], [144, 2, 7, 3.09], [8648, 2, 9, 2.71], [2049, 3, 21, 0.5], [11681, 2, 9, 3.84], [8915, 2, 8, 0.93], [589, 2, 8, 0.61], [326, 2, 9, 1.94], [7036, 1, 7, 2.85], [8650, 2, 9, 2.48], [2327, 2, 7, 0.98], [593, 2, 14, 1.04], [3893, 1, 7, 0.83], [141, 2, 9, 1.58], [206, 2, 7, 1.25], [7004, 1, 7, 1.81], [151, 1, 7, 0.77], [3891, 1, 7, 1.49], [248, 1, 7, 0.75], [143, 2, 7, 2.36], [3980, 4, 7, 2.37], [146, 2, 7, 2.31], [2050, 3, 7, 3.3], [990, 2, 7, 0.69], [2055, 3, 9, 3.46], [7885, 4, 7, 1.27], [7886, 4, 9, 1.0], [2054, 3, 7, 3.66], [12870, 1, 9, 3.96], [362, 2, 7, 1.58], [8672, 2, 14, 2.43], [10993, 2, 9, 1.56], [3975, 4, 7, 2.76], [2057, 3, 9, 3.27], [5165, 1, 7, 2.14], [21793, 1, 7, 2.17], [13028, 3, 7, 1.25], [7084, 3, 7, 2.06], [145, 2, 7, 2.5], [2991, 3, 7, 2.7], [523, 2, 7, 1.98], [75, 2, 7, 0.89], [7005, 1, 7, 1.39], [3982, 3, 21, 2.58], [3981, 3, 21, 2.52], [33, 1, 7, 3.41], [142, 2, 9, 1.25], [20927, 1, 9, 2.82], [2912, 1, 7, 2.23], [6158, 2, 14, 1.75], [7887, 4, 9, 1.98], [5165, 2, 8, 1.6], [82, 2, 7, 1.27], [417, 2, 7, 0.93], [35, 1, 7, 3.32], [22316, 3, 9, 1.23], [214, 3, 14, 0.74], [11953, 1, 9, 0.9], [6497, 1, 9, 0.77], [61, 3, 7, 2.71], [229, 1, 7, 2.89], [192, 3, 27, 3.13], [11772, 1, 7, 2.54], [950, 1, 7, 0.73], [996, 2, 9, 3.33], [7567, 3, 7, 2.7], [11769, 1, 7, 1.85], [5946, 1, 7, 1.02], [346, 3, 7, 1.97], [6496, 1, 7, 2.09], [4176, 4, 9, 3.49], [972, 3, 14, 3.54], [39, 1, 7, 1.79], [74, 1, 7, 4.19], [411, 2, 7, 1.73], [7573, 1, 11, 4.14], [8677, 3, 7, 2.82], [12721, 2, 7, 2.09], [37, 1, 7, 1.52], [4253, 1, 7, 1.41], [2436, 4, 7, 0.85], [22317, 3, 9, 1.42], [2912, 2, 8, 1.8], [2104, 3, 10, 2.87], [1413, 15, 7, 1.12], [12212, 29, 7, 0.94], [336, 15, 7, 1.53], [1277, 1, 7, 1.25], [201, 3, 7, 2.61], [345, 3, 7, 1.94], [11085, 2, 8, 3.16], [21269, 3, 7, 5.0], [13023, 3, 7, 2.44], [12271, 2, 7, 2.96], [823, 1, 7, 1.08], [3, 2, 7, 2.43], [8673, 2, 7, 4.12], [22247, 2, 7, 3.69], [38, 1, 7, 1.27], [8676, 2, 7, 1.94], [10631, 2, 11, 2.59], [9, 1, 7, 0.69], [2805, 137, 7, 3.07], [10408, 10, 8, 3.22], [3577, 25, 7, 1.02], [3048, 3, 7, 2.5], [10388, 2, 7, 1.16], [1414, 15, 7, 1.0], [10936, 2, 7, 2.38], [13928, 1, 7, 2.18], [9081, 3, 16, 1.41], [11812, 1, 7, 0.9], [346, 1, 7, 1.96], [20498, 3, 8, 1.25], [9491, 21, 16, 1.06], [13244, 1, 7, 0.87], [4076, 3, 7, 2.54], [161, 3, 8, 4.87], [11814, 1, 7, 0.92], [9372, 1, 7, 4.23], [10407, 10, 10, 3.57], [12764, 2, 12, 1.71], [491, 10, 8, 3.21], [1523, 1, 7, 0.85], [972, 1, 7, 1.51], [11089, 1, 7, 3.33], [3576, 25, 7, 1.44], [61, 3, 223, 3.52], [229, 1, 83, 3.7], [192, 3, 1452, 4.58], [11772, 1, 232, 3.35], [950, 1, 64, 1.54], [996, 2, 244, 5.2], [7567, 3, 75, 3.5], [11769, 1, 175, 2.66], [5946, 1, 128, 2.07], [346, 3, 618, 2.83], [6496, 1, 43, 2.9], [4176, 4, 492, 5.21], [39, 1, 114, 3.74], [74, 1, 203, 5.23], [411, 2, 111, 2.54], [7573, 1, 375, 4.95], [8677, 3, 295, 4.51], [12721, 2, 308, 2.89], [37, 1, 114, 3.22], [4253, 1, 177, 2.46], [2436, 4, 114, 1.9], [22317, 3, 323, 3.38], [2912, 2, 394, 2.61], [2104, 3, 355, 3.68], [12212, 29, 122, 1.99], [336, 15, 110, 3.22], [1277, 1, 196, 2.19], [201, 3, 304, 4.31], [345, 3, 304, 2.92], [11085, 2, 548, 5.15], [21269, 3, 299, 6.0], [13023, 3, 602, 3.48], [823, 1, 43, 1.89], [3, 2, 122, 3.8], [8673, 2, 301, 4.93], [22247, 2, 292, 5.1], [38, 1, 120, 2.08], [8676, 2, 294, 2.99], [9, 1, 35, 1.74], [2805, 137, 186, 3.88], [10408, 10, 824, 4.03], [3577, 25, 95, 1.83], [3048, 3, 277, 3.72], [10388, 2, 237, 1.97], [1414, 15, 24, 2.03], [10936, 2, 144, 3.19], [13928, 1, 50, 2.99], [9081, 3, 520, 2.21], [11812, 1, 258, 1.7], [346, 1, 154, 3.01], [20498, 3, 631, 2.07], [9491, 21, 2394, 1.89], [13244, 1, 54, 1.68], [4076, 3, 205, 3.35], [161, 3, 730, 5.94], [11814, 1, 243, 1.73], [9372, 1, 247, 5.04], [10407, 10, 1232, 4.39], [12764, 2, 758, 3.42], [491, 10, 463, 4.01], [1523, 1, 51, 1.66], [972, 1, 100, 2.55], [11089, 1, 183, 4.14], [3576, 25, 109, 2.25]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 9, 0.88], [362, 2, 7, 1.46], [8650, 2, 7, 2.38], [5491, 2, 14, 0.77], [361, 2, 7, 0.77], [5493, 2, 7, 1.28], [589, 2, 9, 1.2], [8672, 2, 18, 2.15], [11685, 2, 9, 2.81], [417, 2, 7, 0.71], [6935, 2, 28, 3.99], [205, 2, 7, 0.69], [11681, 2, 13, 5.0], [11838, 2, 9, 1.27], [12721, 2, 14, 1.48], [248, 1, 7, 0.98], [11837, 2, 7, 1.12], [142, 2, 7, 0.73], [6936, 2, 9, 2.64], [2778, 2, 11, 1.59], [1446, 2, 11, 0.61], [8676, 2, 7, 1.7], [615, 2, 7, 1.42], [21793, 1, 8, 4.09], [305, 2, 9, 1.94], [593, 2, 10, 0.66], [22247, 2, 7, 1.93], [11835, 2, 7, 0.92], [616, 2, 7, 1.31], [411, 2, 7, 0.83], [990, 2, 7, 0.73], [8675, 2, 11, 2.44], [10574, 3, 9, 2.5], [145, 2, 7, 2.25], [1429, 2, 7, 0.9], [6158, 2, 10, 2.15], [10149, 3, 21, 1.49], [3495, 3, 26, 2.15], [2050, 3, 8, 1.22], [146, 2, 7, 1.72], [88, 10, 20, 3.07], [2054, 3, 10, 2.04], [75, 2, 7, 3.23], [10993, 2, 9, 1.25], [7885, 4, 11, 1.67], [144, 2, 7, 2.25], [7705, 2, 7, 2.74], [2424, 29, 7, 3.81], [346, 3, 10, 2.81], [2423, 80, 7, 3.0], [2859, 15, 7, 1.4], [7704, 2, 7, 2.74], [61, 3, 7, 0.69], [2423, 29, 7, 3.22], [9126, 1, 7, 2.18], [335, 3, 17, 0.93], [5165, 1, 7, 1.98], [2424, 80, 7, 3.81], [13028, 3, 7, 1.96], [201, 3, 9, 2.41], [346, 1, 7, 2.81], [214, 3, 15, 3.57], [60, 3, 8, 3.51], [1519, 3, 16, 0.67], [13023, 3, 8, 2.65], [308, 1, 9, 2.95], [1414, 15, 7, 0.81], [13034, 3, 10, 2.45], [2703, 3, 7, 3.36], [345, 3, 7, 0.94], [6494, 1, 7, 0.89], [7004, 1, 7, 1.27], [410, 1, 7, 1.0], [11770, 1, 7, 3.5], [7706, 2, 11, 2.62], [432, 3, 7, 2.39], [5208, 3, 11, 1.15], [3430, 15, 7, 1.66], [6952, 1, 7, 1.41], [13928, 1, 7, 2.28], [12373, 1, 11, 3.51], [20927, 1, 7, 2.02], [11954, 1, 7, 0.85], [94, 4, 7, 4.04], [1886, 2, 7, 0.85], [2331, 1, 7, 3.16], [3893, 1, 7, 1.78], [3891, 1, 7, 1.78], [114, 3, 7, 1.1], [11811, 1, 7, 1.93], [105, 3, 7, 0.92], [7886, 4, 9, 1.14], [3981, 3, 13, 0.91], [1274, 1, 7, 1.6], [952, 4, 7, 3.68], [13033, 3, 7, 1.39], [944, 15, 7, 0.71], [9690, 1, 7, 2.13], [11089, 1, 7, 2.23], [3, 2, 7, 3.85], [1490, 1, 7, 0.85], [1309, 1, 7, 1.41], [5946, 1, 7, 1.78], [5584, 3, 7, 2.72], [8898, 3, 7, 1.42], [5812, 3, 7, 2.91], [5733, 2, 8, 2.41], [7708, 2, 7, 2.62], [10407, 10, 10, 3.72], [10410, 10, 10, 3.76], [95, 3, 13, 4.5], [3028, 3, 7, 0.85], [3478, 2, 7, 1.93], [8274, 3, 7, 2.79], [7703, 2, 7, 2.62], [9342, 2, 7, 0.93], [10398, 2, 7, 2.62], [20555, 2, 7, 1.5], [3889, 1, 7, 1.78], [21003, 2, 7, 3.61], [13258, 29, 13, 3.65], [22558, 3, 7, 4.38], [9082, 3, 23, 2.83], [3980, 4, 7, 2.76], [10406, 10, 12, 3.4], [6497, 1, 7, 3.33], [20969, 3, 7, 1.66], [1339, 3, 19, 1.0], [963, 3, 7, 2.7], [192, 3, 21, 1.64], [5165, 2, 8, 1.99], [20196, 2, 7, 3.8], [10516, 3, 7, 3.73], [11603, 2, 7, 2.64], [2703, 3, 362, 4.32], [345, 3, 358, 1.9], [6494, 1, 62, 1.85], [7004, 1, 89, 2.23], [410, 1, 125, 1.96], [11770, 1, 245, 4.45], [7706, 2, 199, 4.84], [432, 3, 352, 3.35], [5208, 3, 598, 2.1], [3430, 15, 82, 2.62], [6952, 1, 213, 2.37], [13928, 1, 56, 3.24], [12373, 1, 636, 4.47], [20927, 1, 94, 2.98], [11954, 1, 238, 1.81], [94, 4, 137, 5.0], [1886, 2, 187, 1.81], [2331, 1, 138, 4.12], [3893, 1, 146, 2.73], [3891, 1, 146, 2.73], [114, 3, 276, 3.23], [11811, 1, 536, 2.9], [105, 3, 291, 1.88], [7886, 4, 57, 2.53], [3981, 3, 1999, 1.89], [1274, 1, 98, 2.56], [952, 4, 87, 4.63], [13033, 3, 667, 2.57], [944, 15, 52, 1.67], [9690, 1, 89, 3.09], [11089, 1, 203, 3.19], [3, 2, 140, 4.81], [1490, 1, 61, 1.81], [1309, 1, 61, 2.37], [5946, 1, 146, 2.73], [5584, 3, 272, 3.68], [8898, 3, 331, 2.37], [5812, 3, 703, 3.88], [5733, 2, 47, 3.33], [7708, 2, 210, 3.57], [10407, 10, 1385, 4.67], [10410, 10, 1385, 4.71], [95, 3, 1176, 5.48], [3028, 3, 196, 1.81], [3478, 2, 90, 2.89], [7703, 2, 210, 3.57], [9342, 2, 553, 1.9], [10398, 2, 173, 3.58], [20555, 2, 68, 2.46], [3889, 1, 146, 2.73], [21003, 2, 337, 4.57], [13258, 29, 46, 4.61], [22558, 3, 557, 5.34], [9082, 3, 2915, 3.83], [3980, 4, 571, 3.72], [10406, 10, 2088, 4.36], [6497, 1, 42, 4.28], [20969, 3, 700, 2.62], [1339, 3, 2058, 1.94], [963, 3, 473, 3.66], [192, 3, 1686, 2.6], [5165, 2, 451, 2.94], [20196, 2, 337, 4.75], [10516, 3, 679, 4.68], [11603, 2, 126, 3.5]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 21, 1.08], [6936, 2, 9, 2.9], [8672, 2, 18, 2.18], [305, 2, 9, 1.46], [615, 2, 11, 1.23], [145, 2, 7, 2.25], [12721, 2, 11, 1.74], [130, 1, 7, 0.69], [2327, 2, 7, 1.82], [361, 2, 7, 0.77], [2328, 2, 7, 2.1], [146, 2, 9, 2.15], [8675, 2, 8, 1.61], [11681, 2, 9, 2.3], [141, 2, 7, 0.77], [362, 2, 7, 1.58], [205, 2, 9, 0.99], [5491, 2, 14, 0.77], [8673, 2, 14, 2.44], [8676, 2, 9, 1.6], [144, 2, 9, 2.32], [8650, 2, 9, 4.63], [417, 2, 7, 0.77], [11837, 2, 7, 1.06], [3, 2, 7, 2.41], [6097, 80, 9, 4.67], [2423, 29, 7, 2.93], [6497, 1, 9, 0.6], [6097, 29, 9, 4.96], [11836, 2, 9, 1.44], [990, 2, 7, 1.0], [2424, 29, 7, 2.34], [593, 2, 8, 3.23], [6098, 80, 7, 4.37], [523, 2, 7, 1.46], [11739, 2, 7, 1.17], [944, 15, 7, 0.77], [88, 10, 19, 2.15], [10993, 2, 7, 1.0], [13260, 29, 7, 2.28], [8915, 2, 7, 1.5], [326, 2, 7, 0.96], [75, 2, 7, 3.0], [1413, 15, 7, 0.96], [10574, 3, 10, 2.38], [335, 3, 17, 3.44], [411, 2, 7, 1.77], [1339, 1, 7, 0.83], [1050, 2, 7, 0.73], [947, 15, 7, 0.98], [1339, 3, 21, 0.65], [151, 1, 7, 1.25], [6496, 1, 7, 2.52], [2859, 15, 7, 1.7], [7704, 2, 9, 4.35], [346, 1, 7, 0.83], [214, 3, 15, 3.57], [13258, 29, 13, 2.82], [345, 3, 7, 0.96], [10149, 3, 21, 1.75], [1490, 1, 7, 4.96], [346, 3, 8, 0.82], [1243, 2, 7, 2.39], [7004, 1, 7, 1.58], [11738, 2, 7, 1.81], [201, 3, 7, 3.31], [22558, 3, 46, 3.38], [432, 3, 7, 2.21], [2438, 1, 7, 1.99], [7705, 2, 9, 4.35], [5208, 3, 11, 1.3], [2912, 1, 7, 1.83], [229, 1, 7, 2.59], [61, 3, 7, 0.85], [963, 3, 7, 0.76], [10407, 10, 10, 3.72], [7706, 2, 9, 4.35], [2331, 1, 7, 2.02], [21793, 1, 8, 5.0], [13928, 1, 7, 2.28], [12229, 2, 7, 1.12], [3478, 2, 7, 1.93], [1548, 1, 7, 2.1], [2703, 3, 7, 4.45], [11844, 2, 7, 1.23], [13258, 25, 7, 2.31], [11490, 1, 7, 0.87], [114, 3, 7, 1.05], [7036, 1, 7, 0.87], [8938, 2, 7, 0.83], [9126, 1, 7, 2.29], [11687, 2, 7, 1.29], [10408, 10, 10, 3.27], [956, 2, 7, 1.35], [94, 4, 7, 4.04], [1886, 2, 7, 0.85], [410, 1, 7, 1.0], [11159, 1, 14, 1.67], [7708, 2, 7, 3.7], [2438, 2, 8, 2.12], [11690, 2, 7, 1.01], [9065, 2, 7, 1.04], [12870, 1, 7, 1.89], [9760, 29, 7, 1.77], [11161, 1, 10, 3.62], [11689, 2, 7, 1.27], [5976, 1, 7, 2.23], [7005, 1, 7, 2.04], [21781, 2, 7, 0.9], [1274, 1, 7, 3.81], [2805, 137, 10, 3.39], [20927, 1, 7, 1.25], [12373, 1, 11, 3.51], [2991, 3, 7, 4.76], [1699, 3, 7, 2.27], [5584, 3, 7, 2.72], [9209, 29, 7, 2.36], [3495, 3, 21, 2.56], [9690, 1, 7, 2.13], [7007, 1, 7, 2.46], [9239, 29, 7, 0.92], [11811, 1, 7, 1.93], [8600, 1, 7, 1.84], [9239, 25, 7, 0.92], [247, 1, 7, 2.96], [5769, 3, 10, 0.93], [9491, 21, 16, 3.09], [5076, 1, 7, 3.75], [13198, 29, 7, 2.55], [12764, 2, 10, 1.43], [9372, 1, 7, 4.36], [5869, 1, 7, 4.08], [7702, 2, 45, 2.47], [95, 3, 13, 0.77], [5208, 3, 669, 2.26], [2912, 1, 57, 2.79], [229, 1, 97, 3.55], [61, 3, 251, 1.81], [963, 3, 486, 1.72], [10407, 10, 1385, 4.67], [7706, 2, 176, 5.37], [2331, 1, 139, 2.98], [21793, 1, 259, 6.0], [13928, 1, 56, 3.24], [12229, 2, 171, 3.15], [3478, 2, 85, 2.89], [1548, 1, 111, 3.28], [2703, 3, 327, 5.63], [11844, 2, 327, 2.2], [13258, 25, 93, 3.26], [11490, 1, 130, 1.83], [114, 3, 290, 2.02], [7036, 1, 151, 1.82], [8938, 2, 229, 1.79], [9126, 1, 83, 3.25], [11687, 2, 359, 2.25], [10408, 10, 909, 4.23], [956, 2, 122, 2.31], [94, 4, 137, 5.0], [1886, 2, 187, 1.81], [410, 1, 125, 1.96], [11159, 1, 583, 2.63], [7708, 2, 198, 4.66], [2438, 2, 740, 3.07], [11690, 2, 359, 1.96], [9065, 2, 359, 1.99], [12870, 1, 165, 2.84], [9760, 29, 85, 2.73], [11161, 1, 585, 4.57], [11689, 2, 359, 2.23], [5976, 1, 184, 3.19], [7005, 1, 89, 3.0], [21781, 2, 124, 1.86], [1274, 1, 95, 4.77], [2805, 137, 208, 4.36], [20927, 1, 94, 2.21], [12373, 1, 636, 4.47], [2991, 3, 185, 5.72], [1699, 3, 248, 3.23], [5584, 3, 272, 3.68], [9209, 29, 39, 3.32], [3495, 3, 1147, 3.51], [9690, 1, 89, 3.09], [7007, 1, 31, 3.18], [9239, 29, 34, 1.88], [11811, 1, 536, 2.9], [8600, 1, 172, 2.8], [9239, 25, 103, 1.88], [247, 1, 103, 3.92], [5769, 3, 1242, 2.13], [9491, 21, 2455, 4.07], [5076, 1, 151, 4.71], [13198, 29, 73, 3.51], [12764, 2, 836, 2.87], [9372, 1, 271, 5.32], [5869, 1, 243, 5.04], [7702, 2, 209, 3.43], [95, 3, 1345, 1.73]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.15], [141, 2, 9, 0.92], [2778, 2, 16, 1.69], [362, 2, 7, 1.44], [361, 2, 7, 1.6], [130, 1, 7, 0.69], [6935, 2, 19, 5.0], [12721, 2, 21, 3.52], [8676, 2, 7, 1.6], [2049, 3, 21, 0.73], [417, 2, 7, 1.6], [3, 2, 7, 2.47], [22247, 2, 7, 1.83], [6936, 2, 9, 1.65], [523, 2, 7, 1.52], [305, 2, 7, 1.12], [8650, 2, 9, 3.19], [2328, 2, 9, 2.57], [11739, 2, 7, 1.31], [8648, 2, 7, 3.25], [2776, 2, 7, 2.29], [2327, 2, 7, 1.48], [616, 2, 9, 2.57], [411, 2, 7, 1.48], [8674, 2, 7, 1.54], [2423, 29, 7, 2.76], [589, 2, 7, 1.94], [6497, 1, 9, 1.1], [2805, 137, 10, 3.93], [11835, 2, 7, 1.19], [6097, 80, 9, 4.96], [146, 2, 7, 2.25], [326, 2, 7, 1.48], [6097, 29, 7, 1.85], [583, 2, 7, 1.39], [2423, 80, 7, 2.71], [10149, 3, 21, 3.22], [145, 2, 7, 2.25], [11836, 2, 7, 1.29], [144, 2, 7, 2.25], [75, 2, 7, 3.0], [10574, 3, 10, 2.88], [6496, 1, 7, 2.52], [308, 1, 13, 1.91], [1413, 15, 7, 0.83], [2054, 3, 7, 2.44], [2422, 29, 7, 4.27], [1243, 2, 7, 2.04], [21793, 1, 8, 5.0], [1886, 2, 7, 0.85], [8915, 2, 7, 1.5], [944, 15, 7, 0.77], [247, 1, 7, 2.83], [1490, 1, 7, 4.96], [2859, 15, 7, 1.4], [335, 3, 17, 2.53], [1414, 15, 7, 0.92], [201, 3, 9, 0.79], [13928, 1, 7, 2.49], [3478, 2, 7, 1.93], [6158, 2, 11, 2.4], [7084, 3, 7, 1.83], [3934, 5, 12, 2.69], [11489, 1, 7, 0.79], [12526, 2, 7, 3.02], [1703, 2, 7, 1.67], [5812, 3, 7, 3.84], [11767, 1, 7, 2.2], [61, 3, 7, 0.85], [94, 4, 7, 2.68], [186, 3, 12, 1.06], [214, 3, 15, 3.57], [1519, 3, 15, 0.72], [1050, 2, 7, 0.71], [9491, 21, 16, 2.74], [11490, 1, 7, 0.67], [1309, 1, 7, 1.41], [2821, 3, 16, 0.91], [10398, 2, 7, 1.37], [5813, 3, 7, 3.84], [192, 3, 21, 3.71], [8898, 3, 7, 1.18], [8599, 1, 7, 1.36], [5811, 3, 8, 4.0], [229, 1, 7, 2.74], [11771, 1, 7, 2.99], [1699, 3, 7, 2.95], [2438, 2, 8, 2.12], [2991, 3, 7, 4.73], [3495, 3, 21, 2.56], [11769, 1, 7, 2.2], [8943, 3, 7, 0.75], [11811, 1, 7, 1.93], [1339, 3, 21, 0.65], [13928, 2, 7, 2.28], [12764, 2, 8, 1.16], [19687, 1, 7, 2.33], [7036, 1, 7, 0.87], [346, 3, 8, 0.74], [13260, 29, 7, 2.46], [22573, 2, 7, 1.91], [10124, 1, 7, 4.18], [9690, 1, 7, 2.13], [5584, 3, 7, 5.0], [3334, 5, 7, 3.93], [18964, 1, 7, 2.18], [7004, 1, 7, 1.44], [1277, 1, 7, 0.92], [2438, 1, 7, 1.99], [20927, 1, 7, 1.18], [1523, 1, 7, 2.51], [4001, 3, 17, 2.0], [11886, 2, 7, 1.44], [1701, 2, 7, 0.96], [45, 2, 7, 4.64], [11678, 1, 7, 2.86], [21269, 3, 7, 4.2], [8286, 2, 8, 1.09], [9373, 5, 7, 5.0], [10181, 26, 8, 0.81], [23031, 3, 7, 3.25], [3984, 3, 8, 1.07], [10516, 3, 7, 2.5], [11677, 1, 7, 2.95], [346, 1, 7, 0.83], [1339, 1, 7, 0.92], [3979, 3, 8, 1.56], [19924, 2, 7, 0.79], [23032, 3, 7, 2.86], [9069, 1, 7, 2.13], [9065, 2, 7, 1.04], [5976, 1, 7, 2.23], [8285, 2, 8, 0.85], [7005, 1, 7, 2.33], [11767, 1, 192, 3.15], [61, 3, 251, 1.81], [94, 4, 141, 3.64], [186, 3, 790, 2.01], [1519, 3, 1943, 1.67], [9491, 21, 2591, 3.7], [11490, 1, 130, 1.63], [1309, 1, 61, 2.37], [2821, 3, 1510, 2.09], [10398, 2, 175, 2.33], [5813, 3, 700, 4.8], [8898, 3, 332, 2.14], [8599, 1, 173, 2.31], [5811, 3, 700, 4.96], [229, 1, 96, 3.7], [11771, 1, 246, 3.94], [1699, 3, 247, 3.91], [2438, 2, 740, 3.07], [2991, 3, 179, 6.0], [3495, 3, 1147, 3.51], [11769, 1, 192, 3.15], [8943, 3, 457, 1.7], [11811, 1, 536, 2.9], [1339, 3, 1955, 1.88], [13928, 2, 28, 3.24], [12764, 2, 880, 2.11], [19687, 1, 36, 3.29], [7036, 1, 151, 1.82], [346, 3, 736, 1.71], [13260, 29, 81, 3.64], [22573, 2, 84, 2.87], [10124, 1, 119, 5.14], [9690, 1, 89, 3.09], [5584, 3, 258, 6.0], [3334, 5, 212, 4.89], [18964, 1, 80, 3.14], [7004, 1, 94, 2.4], [1277, 1, 233, 1.88], [2438, 1, 62, 2.95], [20927, 1, 94, 2.14], [1523, 1, 56, 3.47], [4001, 3, 958, 2.96], [11886, 2, 229, 2.4], [1701, 2, 201, 1.92], [45, 2, 125, 5.6], [11678, 1, 532, 3.82], [21269, 3, 339, 5.16], [8286, 2, 566, 2.04], [9373, 5, 103, 6.0], [10181, 26, 165, 1.77], [23031, 3, 486, 4.21], [3984, 3, 1971, 2.03], [10516, 3, 693, 3.45], [11677, 1, 530, 3.91], [346, 1, 184, 1.79], [1339, 1, 86, 1.88], [3979, 3, 958, 2.52], [19924, 2, 77, 1.75], [23032, 3, 614, 3.82], [9069, 1, 142, 3.09], [9065, 2, 359, 1.99], [5976, 1, 184, 3.19], [8285, 2, 573, 1.8], [7005, 1, 42, 3.14]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 0.88], [2328, 2, 14, 1.85], [130, 1, 7, 0.69], [8650, 2, 9, 2.32], [2778, 2, 16, 1.61], [5491, 2, 9, 0.74], [8672, 2, 15, 1.94], [143, 2, 7, 0.93], [362, 2, 7, 1.05], [145, 2, 7, 1.91], [6936, 2, 9, 3.12], [5493, 2, 9, 2.06], [361, 2, 7, 1.86], [417, 2, 7, 1.86], [11681, 2, 9, 2.3], [205, 2, 7, 1.08], [589, 2, 9, 0.66], [75, 2, 9, 1.92], [11737, 2, 7, 1.75], [146, 2, 7, 1.1], [523, 2, 7, 1.21], [12721, 2, 13, 3.3], [8853, 2, 7, 3.7], [8673, 2, 27, 2.2], [326, 2, 9, 1.68], [11835, 2, 7, 0.69], [308, 1, 11, 3.94], [8915, 2, 7, 2.76], [144, 2, 7, 1.91], [1005, 2, 7, 2.48], [8675, 2, 8, 2.64], [88, 10, 26, 1.79], [434, 2, 9, 1.04], [11739, 2, 7, 1.5], [142, 2, 7, 1.86], [8676, 2, 7, 4.16], [2424, 29, 7, 2.34], [6158, 2, 12, 1.79], [7704, 2, 9, 3.71], [2423, 29, 7, 2.29], [11738, 2, 7, 1.52], [11836, 2, 11, 1.36], [2424, 80, 7, 2.57], [1413, 15, 7, 1.24], [7705, 2, 7, 4.08], [2423, 80, 7, 2.23], [944, 15, 7, 1.02], [3, 2, 9, 2.19], [3478, 2, 7, 2.95], [7004, 1, 7, 2.58], [1414, 15, 7, 0.81], [2859, 15, 7, 2.81], [74, 1, 7, 2.15], [10149, 3, 21, 1.49], [6497, 1, 7, 0.87], [3429, 15, 7, 0.79], [10993, 2, 9, 1.25], [13928, 1, 7, 2.49], [346, 1, 7, 2.81], [18964, 1, 7, 2.18], [11919, 1, 7, 1.14], [346, 3, 8, 3.06], [60, 3, 8, 3.51], [13260, 29, 7, 2.5], [7036, 1, 7, 3.14], [94, 4, 7, 4.04], [1339, 3, 21, 0.65], [6952, 1, 7, 3.06], [3893, 1, 7, 2.6], [2991, 3, 7, 4.18], [13034, 3, 11, 2.28], [411, 2, 7, 1.94], [11089, 1, 7, 2.23], [1050, 2, 7, 0.66], [3891, 1, 7, 2.6], [1339, 1, 7, 0.83], [14037, 3, 9, 1.91], [7707, 2, 7, 2.41], [21793, 1, 8, 4.09], [563, 2, 7, 1.19], [8274, 3, 7, 1.6], [6630, 3, 7, 3.55], [3889, 1, 7, 2.6], [2912, 1, 9, 1.48], [1243, 2, 7, 2.33], [1490, 1, 7, 4.96], [7708, 2, 7, 3.01], [192, 3, 26, 4.24], [11581, 29, 7, 1.89], [9126, 1, 7, 2.41], [7886, 4, 9, 0.87], [13023, 3, 8, 0.8], [3495, 3, 21, 2.56], [5208, 3, 11, 1.4], [5940, 3, 7, 2.56], [11490, 1, 7, 0.92], [1309, 1, 7, 1.41], [1049, 2, 7, 0.69], [229, 1, 7, 2.59], [5165, 1, 7, 1.67], [22558, 3, 7, 4.38], [12229, 2, 7, 1.12], [13033, 3, 7, 1.68], [2331, 1, 7, 3.54], [201, 3, 7, 1.16], [2805, 137, 10, 4.22], [247, 1, 7, 0.97], [83, 2, 7, 1.44], [1274, 1, 7, 2.25], [6496, 1, 7, 2.98], [332, 2, 7, 1.19], [214, 3, 15, 3.57], [202, 2, 7, 1.19], [951, 4, 7, 3.07], [8898, 3, 7, 1.42], [20555, 2, 7, 1.12], [1703, 2, 7, 5.0], [9690, 1, 7, 2.13], [11770, 1, 7, 3.89], [335, 3, 21, 2.53], [942, 3, 7, 2.26], [7005, 1, 7, 1.94], [5812, 3, 7, 2.49], [114, 3, 7, 3.82], [21269, 3, 7, 5.0], [3934, 5, 12, 2.69], [8635, 3, 7, 1.6], [9827, 3, 7, 0.75], [10406, 10, 12, 3.64], [4940, 1, 7, 0.81], [186, 3, 12, 2.32], [1886, 2, 9, 0.85], [10527, 3, 13, 2.94], [10411, 10, 10, 3.51], [7885, 4, 7, 1.08], [9491, 21, 16, 2.74], [6952, 1, 213, 5.34], [3893, 1, 145, 3.56], [2991, 3, 179, 6.0], [13034, 3, 665, 4.56], [411, 2, 121, 3.53], [11089, 1, 203, 3.19], [3891, 1, 145, 3.56], [1339, 1, 81, 2.01], [7707, 2, 198, 3.72], [21793, 1, 282, 5.05], [563, 2, 82, 2.37], [6630, 3, 111, 4.51], [3889, 1, 145, 3.56], [2912, 1, 13, 2.77], [1243, 2, 111, 4.11], [1490, 1, 58, 5.92], [7708, 2, 209, 3.97], [192, 3, 1582, 5.48], [11581, 29, 71, 2.85], [9126, 1, 83, 3.37], [7886, 4, 162, 2.05], [13023, 3, 714, 1.76], [3495, 3, 1147, 3.51], [5208, 3, 149, 2.33], [5940, 3, 282, 3.52], [11490, 1, 130, 1.88], [1309, 1, 61, 2.37], [229, 1, 97, 3.55], [5165, 1, 57, 2.63], [22558, 3, 557, 5.34], [12229, 2, 171, 3.15], [13033, 3, 700, 2.64], [2331, 1, 138, 4.5], [201, 3, 334, 2.34], [2805, 137, 211, 5.18], [247, 1, 104, 1.92], [83, 2, 60, 2.4], [1274, 1, 97, 3.21], [6496, 1, 44, 4.35], [332, 2, 82, 2.37], [214, 3, 253, 4.28], [202, 2, 82, 2.37], [951, 4, 111, 4.03], [8898, 3, 331, 2.37], [20555, 2, 68, 2.08], [1703, 2, 188, 6.0], [9690, 1, 89, 3.09], [11770, 1, 249, 4.85], [942, 3, 351, 3.22], [7005, 1, 94, 2.9], [5812, 3, 661, 4.78], [114, 3, 95, 4.64], [21269, 3, 332, 6.0], [3934, 5, 619, 3.65], [9827, 3, 98, 1.93], [10406, 10, 1983, 4.6], [4940, 1, 144, 1.77], [186, 3, 782, 3.28], [1886, 2, 177, 2.03], [10527, 3, 1029, 3.91], [10411, 10, 909, 4.47], [7885, 4, 74, 1.89], [9491, 21, 2591, 3.7]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 11, 3.36], [141, 2, 7, 1.09], [589, 2, 12, 0.75], [2327, 2, 9, 1.37], [2778, 2, 14, 1.33], [11681, 2, 30, 4.17], [6936, 2, 13, 3.9], [362, 2, 7, 1.69], [2328, 2, 9, 1.85], [205, 2, 7, 0.9], [130, 1, 7, 0.69], [2775, 2, 7, 1.33], [2049, 3, 10, 0.82], [8649, 2, 7, 2.82], [2776, 2, 7, 1.46], [361, 2, 7, 1.36], [143, 2, 7, 1.52], [593, 2, 9, 1.21], [206, 2, 7, 2.29], [5493, 2, 7, 1.16], [1429, 2, 7, 3.54], [523, 2, 7, 1.49], [7004, 1, 7, 1.02], [21793, 1, 7, 3.22], [413, 1, 7, 1.56], [12350, 1, 7, 4.69], [1124, 2, 7, 1.73], [7036, 1, 7, 2.95], [5165, 1, 7, 2.31], [12353, 1, 7, 4.69], [12349, 1, 9, 3.94], [145, 2, 7, 2.25], [434, 2, 7, 1.26], [248, 1, 7, 0.92], [201, 3, 11, 3.77], [6952, 1, 11, 3.9], [6097, 80, 7, 5.0], [10993, 2, 7, 1.66], [345, 3, 9, 1.93], [146, 2, 7, 2.25], [144, 2, 7, 1.72], [7084, 3, 7, 3.68], [11770, 1, 9, 0.74], [2050, 3, 7, 2.76], [12352, 1, 7, 4.69], [3891, 1, 7, 1.46], [2912, 1, 7, 2.23], [7005, 1, 7, 1.1], [998, 2, 7, 1.56], [997, 2, 7, 1.66], [432, 3, 7, 2.04], [3893, 1, 7, 1.42], [5165, 2, 12, 1.23], [12870, 1, 7, 2.29], [9372, 1, 7, 3.52], [6097, 29, 7, 5.0], [2424, 80, 7, 1.71], [20927, 1, 7, 0.98], [11772, 1, 7, 3.25], [6098, 80, 9, 4.06], [7885, 4, 7, 1.67], [10149, 3, 24, 1.73], [11089, 1, 7, 2.01], [3334, 5, 7, 2.91], [10574, 3, 8, 0.98], [12351, 1, 7, 2.23], [1492, 1, 7, 1.33], [4032, 29, 7, 1.54], [346, 3, 7, 3.55], [3889, 1, 7, 2.23], [1700, 2, 7, 1.23], [12304, 1, 7, 4.18], [1519, 3, 20, 0.94], [3576, 25, 7, 3.39], [13028, 3, 7, 4.42], [2912, 2, 8, 2.37], [214, 3, 15, 1.34], [1490, 1, 7, 1.39], [13034, 3, 7, 4.12], [972, 3, 7, 1.94], [229, 1, 7, 4.24], [11583, 29, 7, 0.94], [161, 3, 8, 4.24], [11426, 25, 7, 0.81], [5151, 2, 7, 0.87], [346, 1, 7, 3.55], [2331, 1, 7, 1.09], [8120, 3, 7, 3.15], [11490, 1, 7, 1.25], [995, 2, 7, 2.23], [3478, 2, 7, 1.19], [5076, 1, 7, 0.99], [5812, 3, 10, 4.4], [13893, 2, 7, 4.11], [10, 2, 7, 0.75], [9289, 29, 7, 2.08], [1309, 1, 7, 0.69], [410, 1, 7, 1.61], [12764, 2, 9, 1.46], [13023, 3, 10, 2.28], [2160, 68, 7, 1.96], [3575, 25, 7, 1.83], [2805, 137, 7, 2.91], [11404, 2, 7, 1.08], [3577, 25, 7, 1.0], [13280, 1, 7, 2.62], [75, 2, 7, 0.71], [2438, 2, 8, 2.12], [957, 2, 7, 2.0], [11814, 1, 7, 1.1], [11813, 1, 7, 2.91], [9069, 1, 7, 1.21], [9971, 2, 7, 2.19], [9967, 2, 7, 1.14], [11150, 2, 8, 0.79], [192, 3, 13, 3.54], [8943, 3, 7, 0.75], [9491, 21, 13, 2.59], [8283, 2, 8, 3.44], [5584, 3, 7, 5.0], [22317, 3, 7, 0.85], [24257, 1, 7, 2.78], [13249, 29, 7, 2.16], [9964, 2, 7, 3.08], [21697, 3, 7, 0.87], [9081, 3, 20, 1.8], [4586, 10, 17, 1.5], [105, 3, 7, 1.6], [4076, 3, 7, 2.73], [10609, 1, 7, 1.79], [9965, 2, 7, 2.19], [1413, 15, 7, 3.17], [335, 3, 15, 3.16], [10407, 10, 12, 3.8], [346, 3, 703, 4.43], [3889, 1, 146, 3.11], [1700, 2, 84, 2.11], [12304, 1, 125, 5.06], [1519, 3, 1827, 2.61], [3576, 25, 112, 4.27], [13028, 3, 164, 5.3], [2912, 2, 445, 3.24], [214, 3, 761, 2.22], [1490, 1, 59, 2.27], [13034, 3, 665, 5.21], [972, 3, 665, 2.81], [229, 1, 95, 5.12], [11583, 29, 66, 1.82], [161, 3, 840, 5.12], [11426, 25, 133, 1.91], [5151, 2, 27, 1.97], [346, 1, 176, 4.43], [2331, 1, 137, 1.97], [8120, 3, 277, 4.02], [11490, 1, 92, 2.35], [995, 2, 287, 3.11], [3478, 2, 89, 2.07], [5076, 1, 152, 1.87], [5812, 3, 658, 5.76], [13893, 2, 316, 4.99], [10, 2, 25, 1.24], [9289, 29, 70, 2.96], [1309, 1, 61, 1.57], [410, 1, 25, 2.1], [12764, 2, 871, 2.34], [13023, 3, 665, 4.16], [2160, 68, 155, 2.84], [3575, 25, 118, 2.71], [2805, 137, 212, 3.79], [11404, 2, 115, 2.75], [3577, 25, 98, 2.1], [13280, 1, 375, 3.5], [75, 2, 163, 1.81], [2438, 2, 733, 3.01], [957, 2, 25, 3.03], [11814, 1, 265, 1.98], [11813, 1, 367, 3.79], [9069, 1, 137, 2.31], [9971, 2, 317, 3.07], [9967, 2, 317, 2.02], [11150, 2, 414, 1.67], [192, 3, 1512, 4.6], [8943, 3, 136, 1.4], [9491, 21, 2566, 3.48], [8283, 2, 522, 4.32], [5584, 3, 266, 6.0], [22317, 3, 379, 1.73], [24257, 1, 45, 3.68], [13249, 29, 75, 3.04], [9964, 2, 317, 3.95], [21697, 3, 203, 1.97], [9081, 3, 565, 2.68], [4586, 10, 1732, 2.4], [105, 3, 286, 2.48], [4076, 3, 235, 3.61], [10609, 1, 335, 2.67], [9965, 2, 317, 3.07], [1413, 15, 92, 4.02], [335, 3, 304, 3.65], [10407, 10, 1372, 4.67]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 23, 4.55], [141, 2, 7, 2.37], [2049, 3, 16, 0.52], [205, 2, 9, 0.71], [12721, 2, 10, 1.78], [130, 1, 7, 0.98], [144, 2, 7, 0.94], [589, 2, 15, 0.55], [362, 2, 9, 2.65], [146, 2, 7, 1.67], [145, 2, 7, 0.91], [593, 2, 11, 2.33], [990, 2, 7, 1.04], [1777, 1, 7, 2.22], [8915, 2, 10, 0.95], [2328, 2, 7, 1.01], [8648, 2, 9, 2.52], [6936, 2, 10, 2.57], [8650, 2, 7, 3.41], [22247, 2, 9, 2.35], [2778, 2, 7, 1.63], [1007, 2, 12, 0.66], [88, 10, 16, 1.98], [10, 2, 14, 2.05], [8677, 3, 8, 3.19], [8649, 2, 7, 3.11], [10149, 3, 25, 3.26], [2054, 3, 11, 1.86], [412, 1, 7, 1.75], [13028, 3, 7, 1.29], [10825, 21, 13, 2.01], [11681, 2, 11, 2.92], [361, 2, 7, 1.5], [413, 1, 7, 1.89], [7004, 1, 9, 0.99], [2055, 3, 7, 1.92], [2057, 3, 7, 3.71], [7084, 3, 7, 3.14], [411, 2, 7, 1.17], [308, 1, 7, 2.44], [410, 1, 7, 1.42], [6158, 2, 10, 2.87], [8938, 2, 8, 1.58], [8676, 2, 7, 1.94], [1124, 2, 12, 0.75], [432, 3, 7, 2.04], [167, 3, 9, 2.95], [45, 2, 7, 3.67], [7036, 1, 7, 3.16], [3495, 3, 26, 2.72], [7005, 1, 7, 0.99], [5081, 2, 12, 1.3], [94, 4, 7, 3.29], [9827, 3, 7, 1.13], [5812, 3, 8, 4.4], [3893, 1, 7, 1.02], [3889, 1, 7, 1.02], [12870, 1, 9, 5.0], [2049, 1, 7, 2.01], [3891, 1, 7, 1.02], [168, 3, 9, 2.11], [6097, 29, 11, 4.7], [1504, 2, 11, 1.58], [335, 3, 22, 3.16], [6097, 80, 7, 4.71], [11737, 2, 9, 1.41], [95, 3, 21, 0.93], [6098, 29, 9, 4.12], [346, 1, 9, 1.11], [998, 2, 7, 3.14], [79, 1, 7, 0.98], [214, 3, 15, 0.99], [3980, 4, 7, 2.74], [20927, 1, 7, 1.75], [9069, 1, 9, 2.16], [22316, 3, 9, 1.22], [83, 2, 7, 0.85], [6098, 80, 7, 4.14], [20498, 1, 7, 2.94], [8898, 3, 7, 4.48], [9760, 29, 7, 0.94], [1070, 7, 29, 2.72], [997, 2, 7, 2.84], [1622, 1, 9, 0.53], [14017, 3, 7, 1.29], [7567, 3, 9, 3.44], [13034, 3, 10, 2.73], [22554, 10, 15, 0.87], [13260, 29, 9, 2.4], [11116, 1, 9, 0.81], [1243, 2, 7, 1.52], [12924, 1, 9, 0.61], [22317, 3, 20, 1.6], [20498, 3, 10, 3.5], [5946, 1, 7, 1.02], [996, 2, 7, 4.17], [35, 1, 9, 2.6], [5086, 1, 11, 2.14], [5813, 3, 7, 2.04], [9691, 1, 7, 3.2], [995, 2, 7, 4.49], [1413, 15, 9, 0.75], [1080, 3, 7, 1.21], [952, 4, 7, 4.77], [11085, 2, 7, 0.86], [2424, 80, 7, 4.26], [8557, 3, 7, 2.36], [3049, 3, 7, 4.11], [1703, 2, 7, 2.72], [215, 4, 7, 5.0], [20486, 3, 12, 3.26], [39, 1, 7, 1.79], [3900, 3, 7, 2.68], [4076, 3, 7, 5.0], [9081, 3, 15, 3.06], [13023, 3, 8, 2.62], [8274, 3, 7, 1.02], [8943, 3, 7, 0.96], [34, 1, 7, 1.23], [20486, 1, 7, 2.87], [6497, 1, 7, 2.18], [8104, 1, 9, 0.75], [11510, 3, 10, 2.97], [2854, 21, 13, 1.09], [38, 1, 7, 2.24], [23611, 3, 9, 1.04], [3047, 3, 7, 1.93], [20969, 3, 7, 2.16], [1414, 15, 9, 0.56], [2878, 1, 7, 3.02], [114, 3, 7, 0.92], [12923, 1, 7, 0.96], [10529, 29, 7, 2.54], [95, 3, 1035, 3.11], [346, 1, 150, 2.73], [998, 2, 232, 4.15], [79, 1, 47, 2.0], [214, 3, 637, 1.87], [3980, 4, 498, 3.43], [20927, 1, 28, 2.16], [22316, 3, 312, 2.59], [83, 2, 53, 1.75], [20498, 1, 96, 4.1], [8898, 3, 274, 6.0], [9760, 29, 75, 1.62], [1070, 7, 580, 3.4], [997, 2, 232, 4.19], [1622, 1, 113, 1.18], [14017, 3, 195, 3.39], [7567, 3, 68, 4.57], [13034, 3, 577, 4.66], [22554, 10, 373, 1.77], [13260, 29, 71, 3.3], [11116, 1, 78, 1.71], [1243, 2, 102, 2.2], [12924, 1, 52, 3.1], [22317, 3, 311, 3.02], [20498, 3, 580, 4.18], [5946, 1, 121, 1.92], [996, 2, 232, 6.0], [35, 1, 110, 3.63], [5086, 1, 181, 4.29], [5813, 3, 580, 4.12], [9691, 1, 73, 4.81], [995, 2, 232, 6.0], [1413, 15, 96, 1.77], [1080, 3, 138, 1.89], [952, 4, 71, 5.45], [11085, 2, 573, 1.54], [2424, 80, 175, 4.94], [8557, 3, 195, 3.68], [3049, 3, 134, 5.77], [1703, 2, 159, 4.37], [215, 4, 39, 5.79], [20486, 3, 580, 5.44], [39, 1, 110, 2.72], [3900, 3, 45, 3.36], [4076, 3, 196, 6.0], [9081, 3, 453, 4.97], [13023, 3, 580, 4.6], [8274, 3, 299, 1.67], [8943, 3, 133, 1.6], [34, 1, 110, 2.13], [20486, 1, 96, 5.02], [6497, 1, 37, 3.59], [8104, 1, 206, 1.65], [11510, 3, 574, 3.64], [2854, 21, 1094, 2.49], [38, 1, 110, 2.92], [23611, 3, 339, 1.72], [3047, 3, 265, 2.83], [20969, 3, 580, 3.06], [1414, 15, 96, 2.47], [2878, 1, 83, 3.7], [114, 3, 242, 2.57], [12923, 1, 39, 1.64], [10529, 29, 42, 3.21]]</t>
+    <t>[[305, 2, 4, 0.35], [8672, 2, 6, 0.73], [3, 2, 4, 0.72], [589, 2, 8, 0.2], [130, 1, 5, 0.6], [2049, 3, 11, 0.63], [205, 2, 4, 0.2], [144, 2, 4, 0.74], [12721, 2, 6, 0.97], [75, 2, 6, 0.87], [145, 2, 4, 0.27], [1776, 1, 4, 0.61], [8915, 2, 8, 0.2], [593, 2, 6, 0.59], [146, 2, 4, 0.91], [151, 1, 4, 0.2], [2778, 2, 8, 0.2], [1777, 1, 4, 0.74], [20252, 2, 4, 0.46], [8648, 2, 5, 1.27], [206, 2, 4, 0.83], [6936, 2, 8, 0.92], [2328, 2, 4, 0.2], [5151, 2, 4, 0.2], [88, 10, 10, 0.45], [141, 2, 4, 1.31], [8675, 2, 6, 0.96], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [7004, 1, 4, 1.74], [1492, 1, 4, 0.42], [2054, 3, 6, 0.53], [1446, 2, 4, 1.55], [10825, 21, 11, 1.04], [362, 2, 4, 1.32], [2057, 3, 6, 0.47], [1007, 2, 5, 0.2], [345, 3, 6, 0.32], [432, 3, 6, 0.62], [7005, 1, 4, 1.39], [22247, 2, 5, 0.95], [11681, 2, 5, 0.94], [201, 3, 6, 0.21], [57, 1, 4, 0.44], [410, 1, 4, 1.75], [3889, 1, 4, 0.2], [308, 1, 6, 0.49], [10149, 3, 17, 0.99], [12870, 1, 4, 2.08], [1124, 2, 8, 0.2], [7036, 1, 4, 0.93], [35, 1, 4, 0.83], [167, 3, 5, 1.4], [9827, 3, 4, 1.62], [5081, 2, 6, 0.2], [8677, 3, 7, 1.3], [94, 4, 4, 1.82], [411, 2, 4, 0.71], [1504, 2, 5, 0.2], [3891, 1, 4, 0.2], [79, 1, 4, 0.24], [168, 3, 5, 1.23], [8676, 2, 4, 0.73], [3893, 1, 4, 0.2], [5812, 3, 6, 0.8], [9760, 29, 4, 0.2], [23, 1, 4, 1.51], [1490, 1, 5, 0.23], [412, 1, 4, 1.64], [3980, 4, 4, 1.39], [20927, 1, 4, 1.67], [45, 2, 4, 0.64], [361, 2, 4, 1.31], [1767, 25, 5, 0.59], [5208, 3, 6, 0.47], [1622, 1, 4, 1.13], [95, 3, 18, 0.3], [9069, 1, 4, 0.42], [8651, 2, 4, 1.43], [335, 3, 13, 0.22], [25, 1, 4, 1.51], [214, 3, 11, 0.2], [10574, 3, 5, 0.46], [413, 1, 5, 1.82], [2049, 1, 4, 0.2], [34, 1, 4, 1.85], [998, 2, 4, 1.47], [856, 1, 4, 0.2], [3495, 3, 15, 1.31], [8898, 3, 7, 0.75], [9691, 1, 4, 2.02], [1766, 25, 4, 1.62], [1070, 7, 10, 0.47], [11116, 1, 5, 2.41], [20498, 1, 4, 0.23], [38, 1, 4, 2.1], [997, 2, 4, 0.86], [5946, 1, 4, 0.78], [14017, 3, 5, 0.54], [1413, 15, 4, 0.43], [974, 3, 5, 1.13], [9829, 3, 4, 1.42], [152, 21, 4, 0.97], [1091, 1, 4, 0.53], [20498, 3, 8, 0.58], [39, 1, 4, 2.1], [82, 2, 4, 1.43], [14037, 3, 5, 0.2], [9372, 1, 4, 1.08], [5209, 3, 5, 0.75], [1080, 3, 5, 0.2], [5086, 1, 4, 2.44], [996, 2, 5, 1.47], [1767, 2, 4, 0.59], [3048, 3, 4, 1.24], [9828, 3, 4, 1.77], [972, 3, 6, 0.91], [13260, 29, 4, 0.98], [24, 1, 4, 1.32], [4203, 1, 4, 0.3], [5513, 2, 5, 0.5], [10780, 10, 4, 1.3], [5813, 3, 5, 1.52], [3981, 3, 12, 1.42], [202, 2, 4, 1.59], [8945, 3, 5, 1.51], [952, 4, 5, 2.41], [36, 1, 4, 2.1], [336, 15, 5, 0.2], [2878, 1, 4, 0.54], [13034, 3, 5, 1.08], [3900, 3, 4, 0.49], [23611, 3, 5, 2.51], [995, 2, 4, 1.02], [6497, 1, 4, 0.67], [14018, 3, 4, 0.46], [24257, 1, 4, 1.29], [9082, 3, 18, 0.83], [170, 3, 4, 1.24], [305, 2, 158, 2.63], [8672, 2, 318, 4.0], [3, 2, 158, 3.25], [589, 2, 156, 2.16], [205, 2, 122, 3.04], [144, 2, 171, 2.74], [12721, 2, 311, 4.5], [75, 2, 166, 4.23], [145, 2, 163, 2.32], [1776, 1, 122, 3.94], [8915, 2, 118, 2.0], [593, 2, 194, 3.27], [146, 2, 181, 2.81], [151, 1, 75, 2.2], [2778, 2, 158, 3.87], [1777, 1, 122, 4.16], [20252, 2, 111, 1.96], [8648, 2, 226, 6.0], [6936, 2, 292, 5.28], [2328, 2, 171, 4.1], [5151, 2, 27, 2.22], [88, 10, 643, 3.3], [141, 2, 174, 4.08], [8675, 2, 335, 2.83], [74, 1, 223, 6.0], [83, 2, 60, 2.27], [1492, 1, 45, 1.88], [2054, 3, 532, 3.34], [10825, 21, 732, 4.24], [362, 2, 158, 3.67], [2057, 3, 532, 3.69], [1007, 2, 289, 2.04], [345, 3, 340, 3.85], [432, 3, 336, 3.95], [7005, 1, 88, 3.75], [22247, 2, 311, 5.87], [11681, 2, 323, 4.87], [201, 3, 340, 3.85], [57, 1, 95, 2.41], [3889, 1, 138, 3.61], [308, 1, 188, 4.48], [10149, 3, 996, 4.45], [12870, 1, 165, 6.0], [1124, 2, 210, 3.48], [7036, 1, 146, 4.55], [35, 1, 123, 4.72], [167, 3, 77, 3.69], [9827, 3, 59, 4.05], [5081, 2, 216, 3.34], [8677, 3, 331, 4.07], [411, 2, 117, 2.44], [1504, 2, 221, 3.54], [3891, 1, 138, 4.49], [79, 1, 51, 2.26], [168, 3, 205, 4.59], [8676, 2, 318, 3.02], [3893, 1, 138, 4.45], [5812, 3, 608, 4.18], [9760, 29, 80, 2.67], [1490, 1, 55, 2.24], [412, 1, 94, 4.57]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.45], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [6936, 2, 5, 1.66], [2775, 2, 4, 1.06], [205, 2, 4, 0.92], [8650, 2, 4, 1.77], [593, 2, 6, 0.2], [145, 2, 4, 0.2], [146, 2, 5, 0.91], [326, 2, 4, 0.39], [7036, 1, 4, 1.78], [5493, 2, 4, 0.38], [88, 10, 8, 0.78], [141, 2, 5, 0.79], [7004, 1, 4, 1.34], [1446, 2, 4, 0.2], [1124, 2, 5, 0.32], [9760, 29, 4, 0.98], [206, 2, 4, 0.2], [8853, 2, 4, 1.29], [8672, 2, 4, 1.69], [362, 2, 4, 1.56], [142, 2, 4, 0.92], [11685, 2, 4, 0.46], [2912, 1, 4, 1.9], [7886, 4, 5, 0.2], [8649, 2, 4, 0.75], [5165, 1, 4, 1.61], [12870, 1, 6, 1.68], [1622, 1, 5, 0.88], [2055, 3, 6, 0.56], [417, 2, 4, 0.92], [7573, 1, 10, 2.71], [7084, 3, 4, 1.34], [21793, 1, 4, 0.86], [7885, 4, 5, 0.74], [2054, 3, 6, 2.22], [523, 2, 4, 0.55], [10, 2, 5, 0.61], [9372, 1, 4, 1.24], [3891, 1, 4, 0.38], [75, 2, 5, 1.25], [10149, 3, 19, 1.22], [5208, 3, 7, 0.19], [9491, 21, 10, 0.83], [20927, 1, 4, 1.51], [35, 1, 5, 1.79], [997, 2, 4, 1.26], [12721, 2, 7, 1.71], [5165, 2, 5, 0.65], [3, 2, 6, 0.93], [33, 1, 4, 0.75], [998, 2, 4, 0.95], [94, 4, 4, 0.5], [7887, 4, 4, 0.58], [22247, 2, 4, 1.39], [996, 2, 4, 0.95], [972, 3, 6, 0.75], [34, 1, 4, 1.57], [6158, 2, 8, 0.2], [2805, 137, 4, 1.6], [2912, 2, 7, 1.9], [2424, 80, 4, 0.83], [38, 1, 4, 0.75], [8104, 1, 4, 1.55], [2336, 3, 5, 0.5], [8898, 3, 4, 0.75], [9690, 1, 4, 0.38], [12212, 29, 6, 0.2], [24257, 1, 5, 0.77], [39, 1, 4, 0.75], [11952, 1, 4, 0.82], [7567, 3, 4, 1.58], [2424, 29, 5, 0.91], [1414, 15, 4, 0.44], [192, 3, 11, 1.07], [8676, 2, 4, 1.69], [11770, 1, 4, 1.36], [3495, 3, 15, 1.25], [202, 2, 4, 0.49], [13928, 1, 4, 1.33], [3048, 3, 6, 0.92], [4032, 29, 4, 2.74], [23961, 3, 4, 1.88], [11490, 1, 4, 0.44], [161, 3, 6, 1.29], [5946, 1, 4, 0.35], [11772, 1, 4, 0.93], [1703, 2, 4, 0.42], [10407, 10, 7, 1.13], [74, 1, 4, 1.99], [10410, 10, 6, 1.25], [13023, 3, 5, 1.51], [1274, 1, 5, 0.2], [1519, 3, 10, 0.22], [24258, 1, 4, 1.09], [1523, 1, 4, 0.56], [21269, 3, 4, 2.75], [2331, 1, 4, 1.07], [11236, 2, 4, 0.62], [4253, 1, 4, 0.2], [5164, 1, 4, 0.64], [4076, 3, 4, 1.59], [3430, 15, 4, 0.67], [12764, 2, 5, 0.35], [6097, 80, 4, 0.71], [972, 1, 4, 0.84], [214, 3, 15, 0.2], [6097, 29, 4, 0.71], [10780, 10, 4, 1.03], [1080, 3, 4, 1.4], [8674, 2, 4, 0.72], [3047, 3, 5, 1.64], [13893, 2, 4, 1.17], [9081, 3, 7, 0.5], [11404, 2, 4, 0.42], [10408, 10, 5, 0.59], [8677, 3, 4, 1.3], [13034, 3, 4, 1.52], [3576, 29, 4, 1.33], [1243, 2, 4, 0.51], [12662, 1, 4, 0.53], [13264, 29, 4, 0.47], [2436, 4, 4, 0.4], [20486, 3, 4, 1.81], [6497, 1, 4, 0.97], [7704, 2, 4, 0.45], [13928, 2, 4, 1.33], [3334, 5, 4, 1.63], [11813, 1, 4, 0.88], [45, 2, 4, 0.36], [1277, 1, 4, 0.98], [305, 2, 163, 3.77], [6935, 2, 311, 6.0], [2778, 2, 171, 4.06], [144, 2, 168, 2.49], [8915, 2, 210, 3.09], [6936, 2, 311, 6.0], [2775, 2, 181, 3.24], [8650, 2, 232, 4.61], [593, 2, 236, 3.55], [145, 2, 168, 3.13], [146, 2, 168, 2.85], [326, 2, 97, 2.47], [7036, 1, 142, 6.0], [5493, 2, 126, 1.93], [88, 10, 330, 4.14], [141, 2, 170, 3.86], [1446, 2, 166, 3.09], [1124, 2, 195, 3.04], [9760, 29, 41, 2.96], [206, 2, 118, 3.28], [8853, 2, 328, 3.76], [8672, 2, 328, 4.45], [362, 2, 49, 3.89], [142, 2, 170, 3.73], [11685, 2, 299, 3.21], [2912, 1, 52, 4.93], [7886, 4, 35, 1.47], [8649, 2, 258, 4.24], [5165, 1, 52, 4.3], [12870, 1, 152, 6.0], [1622, 1, 114, 2.83], [2055, 3, 518, 3.08], [417, 2, 170, 3.47], [7573, 1, 379, 6.0], [7084, 3, 148, 4.75], [21793, 1, 269, 3.15], [2054, 3, 109, 4.31], [523, 2, 170, 2.64], [10, 2, 114, 3.26], [9372, 1, 272, 3.59], [3891, 1, 130, 2.66], [75, 2, 159, 5.0], [10149, 3, 986, 4.61], [5208, 3, 618, 2.62], [9491, 21, 2565, 2.94], [35, 1, 115, 4.73], [997, 2, 277, 3.63], [12721, 2, 309, 5.44], [5165, 2, 439, 3.24], [3, 2, 128, 4.46], [33, 1, 127, 3.07], [998, 2, 277, 3.03], [94, 4, 143, 2.16], [22247, 2, 309, 4.22], [996, 2, 277, 3.03], [972, 3, 652, 4.02], [34, 1, 115, 4.7], [6158, 2, 285, 3.14], [2805, 137, 200, 4.35], [2912, 2, 415, 4.94], [2424, 80, 199, 2.8], [38, 1, 127, 3.07], [8104, 1, 226, 4.27], [2336, 3, 676, 2.59], [8898, 3, 339, 2.63]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 5, 0.71], [11685, 2, 4, 1.87], [144, 2, 5, 0.8], [11681, 2, 5, 1.37], [589, 2, 5, 0.2], [2327, 2, 4, 0.49], [205, 2, 5, 0.37], [593, 2, 6, 0.27], [141, 2, 5, 0.53], [305, 2, 4, 0.51], [8915, 2, 5, 0.78], [8650, 2, 4, 1.13], [2328, 2, 4, 0.2], [151, 1, 4, 0.36], [6936, 2, 8, 1.85], [2778, 2, 6, 0.2], [2049, 3, 7, 0.47], [146, 2, 6, 0.57], [206, 2, 5, 0.71], [88, 10, 15, 1.4], [7004, 1, 4, 1.62], [9507, 3, 4, 0.2], [615, 2, 4, 0.37], [7036, 1, 4, 1.98], [145, 2, 5, 0.66], [1446, 2, 4, 0.65], [417, 2, 4, 0.4], [8853, 2, 6, 1.7], [362, 2, 4, 1.56], [248, 1, 4, 0.37], [523, 2, 6, 0.28], [2055, 3, 6, 2.49], [10993, 2, 4, 0.26], [142, 2, 4, 0.48], [75, 2, 5, 0.75], [616, 2, 4, 0.5], [3840, 1, 4, 0.39], [11737, 2, 4, 0.66], [2050, 3, 4, 1.39], [12870, 1, 4, 0.7], [12350, 1, 4, 1.03], [2054, 3, 4, 1.39], [2057, 3, 5, 2.02], [7084, 3, 4, 0.87], [13028, 3, 4, 0.62], [20927, 1, 4, 1.36], [7005, 1, 5, 0.92], [3, 2, 4, 0.27], [3982, 3, 10, 0.59], [10, 2, 5, 0.2], [997, 2, 4, 0.89], [94, 4, 4, 0.91], [21793, 1, 4, 1.93], [61, 3, 4, 2.27], [7885, 4, 6, 0.52], [3891, 1, 4, 0.2], [996, 2, 4, 1.05], [6158, 2, 4, 0.88], [998, 2, 4, 0.57], [8672, 2, 5, 1.45], [5165, 1, 4, 0.65], [9491, 21, 10, 1.24], [11739, 2, 4, 1.07], [2912, 1, 4, 1.89], [972, 3, 5, 0.93], [5165, 2, 5, 0.65], [7886, 4, 4, 0.47], [346, 3, 4, 0.46], [3980, 4, 4, 1.34], [98, 11, 10, 0.68], [10388, 2, 4, 1.26], [411, 2, 4, 0.64], [1492, 1, 4, 0.47], [346, 1, 4, 0.2], [7573, 1, 4, 0.97], [8677, 3, 4, 1.96], [83, 2, 4, 0.67], [5208, 3, 4, 1.03], [7567, 3, 4, 0.71], [410, 1, 4, 0.44], [22316, 3, 4, 0.51], [995, 2, 4, 0.93], [3981, 3, 13, 1.15], [9081, 3, 7, 0.78], [13928, 1, 4, 0.82], [22247, 2, 5, 1.07], [10386, 2, 4, 0.76], [9372, 1, 4, 1.12], [336, 15, 4, 0.55], [11770, 1, 4, 1.14], [308, 1, 4, 0.8], [10780, 10, 4, 1.77], [1622, 1, 4, 0.83], [11953, 1, 4, 0.51], [161, 3, 5, 1.29], [2912, 2, 5, 1.89], [23611, 3, 5, 1.1], [9082, 3, 17, 1.08], [5946, 1, 4, 0.85], [345, 3, 4, 0.5], [22317, 3, 4, 0.51], [192, 3, 13, 0.72], [11116, 1, 4, 1.67], [229, 1, 4, 1.14], [24257, 1, 5, 2.5], [37, 1, 5, 1.5], [82, 2, 4, 0.51], [972, 1, 5, 0.92], [11767, 1, 4, 0.66], [12271, 2, 4, 1.13], [7704, 2, 4, 1.7], [34, 1, 5, 1.42], [14037, 3, 4, 1.22], [8104, 1, 4, 1.56], [10410, 10, 6, 1.29], [10407, 10, 6, 1.33], [11085, 2, 4, 1.27], [11404, 2, 4, 0.42], [3048, 3, 4, 1.14], [10387, 2, 4, 0.79], [20498, 3, 5, 0.4], [74, 1, 4, 1.04], [38, 1, 4, 1.42], [1413, 15, 4, 0.4], [335, 3, 9, 0.49], [12721, 2, 4, 0.9], [2331, 1, 4, 1.09], [12338, 29, 4, 0.39], [215, 4, 4, 2.04], [4001, 3, 7, 0.94], [1523, 1, 4, 0.6], [4253, 1, 4, 0.88], [11510, 3, 5, 0.99], [8673, 2, 5, 2.14], [45, 2, 4, 1.17], [201, 3, 4, 0.5], [326, 2, 90, 2.75], [11685, 2, 256, 6.0], [144, 2, 156, 3.56], [11681, 2, 256, 6.0], [589, 2, 142, 2.68], [2327, 2, 164, 2.07], [205, 2, 112, 2.12], [593, 2, 210, 3.41], [141, 2, 158, 4.17], [305, 2, 152, 3.88], [8915, 2, 195, 2.5], [8650, 2, 229, 3.8], [2328, 2, 149, 2.19], [151, 1, 16, 1.32], [6936, 2, 284, 6.0], [2778, 2, 160, 4.01], [146, 2, 141, 3.93], [206, 2, 26, 2.95], [88, 10, 587, 3.79], [9507, 3, 206, 1.82], [615, 2, 118, 2.07], [7036, 1, 133, 5.22], [145, 2, 149, 3.12], [1446, 2, 156, 3.1], [417, 2, 158, 2.31], [8853, 2, 284, 5.32], [362, 2, 68, 3.95], [248, 1, 20, 1.55], [523, 2, 158, 4.0], [2055, 3, 466, 6.0], [10993, 2, 53, 2.36], [142, 2, 167, 2.05], [75, 2, 144, 3.51], [616, 2, 118, 2.09], [3840, 1, 83, 1.7], [11737, 2, 62, 2.4], [2050, 3, 436, 5.56], [12870, 1, 149, 4.81], [12350, 1, 656, 4.23], [2054, 3, 436, 5.56], [2057, 3, 466, 6.0], [7084, 3, 138, 2.8], [13028, 3, 144, 2.63], [20927, 1, 47, 3.63], [7005, 1, 80, 2.92], [3, 2, 117, 2.37], [3982, 3, 854, 2.36], [997, 2, 261, 2.84], [94, 4, 134, 2.88], [21793, 1, 262, 4.91], [61, 3, 99, 5.32], [3891, 1, 122, 2.25], [996, 2, 232, 4.4], [6158, 2, 281, 2.89], [998, 2, 261, 2.22], [8672, 2, 291, 5.33], [5165, 1, 51, 3.25], [9491, 21, 2313, 4.22], [11739, 2, 62, 3.19], [2912, 1, 48, 4.84], [972, 3, 643, 2.77], [5165, 2, 410, 3.24], [346, 3, 670, 2.0], [3980, 4, 519, 3.76]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 9, 0.22], [362, 2, 5, 0.45], [2049, 3, 12, 0.2], [589, 2, 8, 0.2], [3, 2, 4, 0.76], [75, 2, 5, 0.49], [141, 2, 5, 1.3], [8672, 2, 7, 0.72], [1776, 1, 4, 0.58], [130, 1, 4, 0.4], [205, 2, 4, 0.21], [8915, 2, 5, 0.39], [151, 1, 4, 0.4], [11681, 2, 5, 2.33], [2778, 2, 6, 0.2], [305, 2, 5, 0.49], [1777, 1, 5, 0.93], [6936, 2, 5, 1.02], [8648, 2, 5, 0.77], [593, 2, 7, 0.72], [990, 2, 4, 0.2], [88, 10, 12, 0.33], [83, 2, 4, 0.5], [1007, 2, 6, 0.37], [345, 3, 5, 0.21], [5151, 2, 4, 0.4], [412, 1, 4, 1.02], [361, 2, 4, 0.49], [201, 3, 6, 0.21], [22247, 2, 5, 1.22], [21793, 1, 4, 1.03], [10149, 3, 15, 1.56], [45, 2, 5, 1.12], [12721, 2, 6, 1.22], [7004, 1, 5, 0.72], [10825, 21, 8, 1.15], [2054, 3, 5, 1.33], [167, 3, 6, 1.09], [413, 1, 4, 1.7], [2057, 3, 5, 1.62], [308, 1, 5, 1.76], [5005, 1, 4, 0.48], [74, 1, 4, 0.84], [6158, 2, 7, 0.87], [168, 3, 4, 0.99], [1446, 2, 4, 0.52], [346, 1, 4, 0.48], [432, 3, 5, 0.39], [13028, 3, 6, 0.5], [10, 2, 6, 0.2], [7036, 1, 5, 1.96], [3495, 3, 17, 0.91], [12870, 1, 4, 2.58], [214, 3, 10, 0.42], [335, 3, 15, 0.67], [5081, 2, 5, 0.47], [79, 1, 4, 0.2], [5208, 3, 7, 1.75], [9827, 3, 4, 1.03], [410, 1, 4, 0.8], [3889, 1, 5, 0.2], [1492, 1, 4, 0.42], [95, 3, 13, 1.12], [5812, 3, 8, 0.95], [94, 4, 4, 2.26], [3893, 1, 5, 0.2], [13260, 29, 4, 1.1], [23, 1, 4, 1.51], [1504, 2, 5, 0.2], [7005, 1, 5, 0.74], [1490, 1, 4, 1.29], [411, 2, 4, 0.55], [10993, 2, 4, 0.42], [3891, 1, 4, 1.26], [25, 1, 4, 1.8], [998, 2, 4, 0.69], [1124, 2, 5, 0.54], [3980, 4, 4, 1.4], [21269, 3, 5, 3.75], [8651, 2, 4, 0.35], [10574, 3, 5, 0.42], [9691, 1, 4, 2.15], [5086, 1, 6, 1.36], [856, 1, 4, 0.2], [2878, 1, 4, 1.82], [997, 2, 6, 1.37], [5660, 2, 5, 2.62], [8676, 2, 5, 0.97], [11914, 1, 6, 0.2], [20927, 1, 4, 0.86], [192, 3, 13, 2.38], [9829, 3, 4, 1.31], [1703, 2, 5, 1.38], [5209, 3, 6, 1.73], [8674, 2, 4, 1.22], [1622, 1, 6, 0.88], [9081, 3, 7, 0.38], [952, 4, 4, 2.89], [20498, 1, 4, 0.93], [5513, 2, 4, 0.52], [1070, 7, 8, 1.39], [996, 2, 5, 1.12], [8898, 3, 7, 2.67], [14037, 3, 5, 0.47], [346, 3, 5, 0.46], [1091, 1, 4, 0.2], [12661, 1, 5, 2.6], [20498, 3, 8, 1.27], [1519, 3, 14, 0.22], [6097, 29, 4, 0.2], [27, 1, 4, 0.76], [8274, 3, 6, 1.09], [24, 1, 5, 1.85], [13034, 3, 6, 1.01], [22317, 3, 6, 0.51], [4203, 1, 6, 0.28], [10529, 29, 4, 1.44], [11490, 1, 4, 0.51], [1413, 15, 4, 0.62], [336, 15, 4, 0.2], [6097, 80, 4, 0.66], [24664, 2, 6, 1.37], [11767, 1, 5, 0.22], [23611, 3, 4, 1.3], [34, 1, 4, 2.06], [9082, 3, 18, 0.83], [2104, 3, 7, 1.63], [6098, 80, 4, 1.65], [66, 1, 4, 0.45], [11769, 1, 4, 0.22], [5811, 3, 4, 1.11], [10780, 10, 4, 2.53], [6098, 29, 4, 1.04], [38, 1, 4, 2.06], [39, 1, 4, 2.06], [66, 16, 4, 0.22], [2109, 3, 9, 0.2], [6935, 2, 297, 3.75], [362, 2, 133, 2.83], [2049, 3, 541, 2.4], [589, 2, 152, 1.9], [3, 2, 112, 3.42], [75, 2, 145, 4.14], [141, 2, 153, 3.64], [8672, 2, 280, 3.56], [1776, 1, 107, 3.72], [130, 1, 56, 1.97], [205, 2, 38, 3.04], [8915, 2, 201, 1.81], [151, 1, 46, 1.94], [2778, 2, 139, 3.71], [305, 2, 146, 3.28], [1777, 1, 107, 4.38], [6936, 2, 283, 5.08], [8648, 2, 199, 5.86], [990, 2, 50, 1.95], [88, 10, 564, 4.25], [83, 2, 53, 2.36], [1007, 2, 266, 2.24], [345, 3, 298, 2.54], [5151, 2, 28, 2.64], [412, 1, 66, 3.99], [361, 2, 81, 3.83], [201, 3, 298, 2.45], [22247, 2, 278, 3.6], [21793, 1, 243, 6.0], [10149, 3, 855, 5.41], [45, 2, 111, 5.3], [12721, 2, 278, 3.19], [7004, 1, 78, 2.9], [10825, 21, 643, 3.29], [2054, 3, 461, 4.41], [167, 3, 225, 3.97], [413, 1, 84, 4.22], [2057, 3, 461, 4.6], [308, 1, 165, 3.66], [5005, 1, 140, 1.87], [74, 1, 199, 5.17], [6158, 2, 137, 3.67], [168, 3, 400, 4.04], [1446, 2, 159, 1.99], [346, 1, 161, 1.87], [432, 3, 293, 3.01], [13028, 3, 145, 3.58], [10, 2, 36, 3.2], [7036, 1, 126, 6.0], [3495, 3, 977, 4.24], [214, 3, 643, 2.17], [5081, 2, 189, 3.46], [79, 1, 47, 2.5], [5208, 3, 535, 4.61], [9827, 3, 85, 3.51], [3889, 1, 122, 4.36], [1492, 1, 39, 1.76], [95, 3, 1086, 4.79], [5812, 3, 211, 3.46], [3893, 1, 122, 3.83], [13260, 29, 72, 3.5], [1504, 2, 182, 3.72], [7005, 1, 64, 2.9]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [8915, 2, 5, 0.2], [6935, 2, 8, 1.69], [2778, 2, 5, 0.2], [305, 2, 6, 0.45], [2328, 2, 4, 0.2], [615, 2, 4, 0.46], [326, 2, 6, 0.72], [6936, 2, 6, 1.66], [8648, 2, 5, 1.95], [8650, 2, 6, 2.46], [1446, 2, 4, 0.2], [434, 2, 4, 0.52], [205, 2, 4, 1.12], [10, 2, 6, 0.2], [144, 2, 6, 1.04], [151, 1, 4, 0.36], [94, 4, 4, 1.71], [7036, 1, 4, 1.21], [7886, 4, 4, 0.73], [141, 2, 4, 0.67], [1504, 2, 4, 1.01], [146, 2, 7, 1.32], [362, 2, 4, 1.56], [3891, 1, 4, 0.64], [21793, 1, 5, 1.56], [206, 2, 4, 0.96], [8649, 2, 4, 0.75], [11404, 2, 4, 0.42], [10993, 2, 5, 0.2], [5208, 3, 7, 0.54], [2054, 3, 5, 2.22], [3980, 4, 5, 0.98], [7005, 1, 4, 0.66], [11234, 2, 4, 1.4], [12870, 1, 4, 0.47], [145, 2, 4, 1.75], [5165, 1, 4, 0.65], [2912, 1, 4, 1.9], [8672, 2, 4, 1.69], [20927, 1, 4, 1.92], [10149, 3, 10, 1.1], [7887, 4, 4, 0.97], [998, 2, 5, 1.6], [9760, 29, 4, 0.98], [2436, 4, 4, 0.45], [417, 2, 4, 0.92], [997, 2, 4, 1.26], [142, 2, 4, 0.79], [2424, 80, 6, 1.11], [3, 2, 5, 0.2], [6158, 2, 4, 0.67], [9491, 21, 10, 0.83], [972, 3, 7, 0.51], [523, 2, 4, 0.55], [3495, 3, 10, 1.48], [11770, 1, 4, 1.36], [214, 3, 9, 0.38], [7573, 1, 9, 2.96], [11953, 1, 4, 1.0], [74, 1, 4, 1.99], [24257, 1, 4, 0.48], [5165, 2, 5, 0.65], [996, 2, 4, 0.95], [12721, 2, 4, 1.37], [2423, 80, 4, 0.72], [11772, 1, 4, 0.93], [8677, 3, 5, 1.3], [2912, 2, 7, 1.9], [6497, 1, 4, 0.97], [3981, 3, 11, 0.51], [1622, 1, 4, 0.8], [22317, 3, 4, 0.42], [8898, 3, 4, 0.75], [2438, 2, 5, 0.48], [2424, 29, 4, 0.81], [5434, 1, 4, 0.62], [823, 1, 4, 1.04], [4253, 1, 4, 0.39], [9372, 1, 4, 1.24], [3975, 4, 4, 1.2], [33, 1, 4, 0.75], [7567, 3, 4, 0.41], [6496, 1, 4, 0.51], [24258, 1, 4, 0.84], [2805, 137, 4, 1.6], [9081, 3, 7, 0.5], [9082, 3, 19, 0.83], [37, 1, 4, 0.75], [5946, 1, 4, 0.35], [11812, 1, 4, 0.48], [335, 3, 9, 0.49], [1519, 3, 10, 0.39], [8676, 2, 4, 1.69], [12764, 2, 5, 0.35], [10407, 10, 8, 1.17], [220, 4, 4, 1.76], [972, 1, 4, 0.84], [6097, 80, 4, 0.71], [23611, 3, 5, 1.3], [1243, 2, 4, 0.51], [10388, 2, 4, 0.55], [1703, 2, 4, 0.42], [161, 3, 6, 1.29], [1414, 15, 4, 0.44], [1274, 1, 4, 0.49], [95, 3, 11, 0.46], [38, 1, 4, 0.75], [11490, 1, 4, 0.44], [35, 1, 4, 0.75], [11236, 2, 4, 0.62], [22247, 2, 4, 1.23], [12212, 29, 4, 0.53], [4232, 80, 4, 1.27], [2104, 3, 9, 0.5], [1895, 3, 4, 2.5], [10631, 2, 4, 1.25], [8659, 1, 4, 0.41], [11813, 1, 4, 0.88], [13893, 2, 4, 1.17], [11235, 2, 4, 1.32], [10093, 3, 8, 0.92], [12501, 1, 4, 1.24], [8635, 3, 4, 0.87], [788, 2, 4, 0.51], [5164, 1, 4, 0.64], [8274, 3, 4, 0.87], [1309, 1, 4, 0.45], [4940, 1, 4, 0.44], [8104, 1, 4, 1.55], [10780, 10, 4, 1.03], [19931, 1, 4, 1.26], [13034, 3, 4, 1.52], [10386, 2, 4, 1.34], [11942, 29, 4, 0.91], [5151, 2, 4, 1.03], [589, 2, 168, 2.97], [88, 10, 627, 3.92], [8915, 2, 210, 3.09], [6935, 2, 311, 6.0], [2778, 2, 171, 4.06], [305, 2, 163, 3.77], [2328, 2, 166, 4.53], [615, 2, 126, 2.27], [326, 2, 43, 3.6], [6936, 2, 311, 6.0], [8648, 2, 245, 4.73], [8650, 2, 245, 6.0], [1446, 2, 166, 3.92], [434, 2, 124, 2.2], [144, 2, 71, 3.98], [151, 1, 16, 1.36], [7036, 1, 150, 3.53], [141, 2, 170, 3.73], [1504, 2, 236, 3.98], [146, 2, 168, 3.93], [362, 2, 49, 3.89], [3891, 1, 144, 2.69], [21793, 1, 269, 3.6], [206, 2, 118, 3.05], [8649, 2, 258, 4.24], [11404, 2, 121, 2.01], [3980, 4, 557, 2.92], [7005, 1, 91, 3.02], [11234, 2, 64, 3.59], [12870, 1, 161, 2.62], [5165, 1, 55, 3.24], [2912, 1, 52, 4.93], [8672, 2, 328, 4.45], [10149, 3, 1038, 3.48], [998, 2, 245, 5.45], [9760, 29, 41, 2.96], [2436, 4, 127, 2.94], [417, 2, 170, 3.73], [997, 2, 277, 3.63], [142, 2, 179, 3.58], [2424, 80, 189, 4.36], [3, 2, 128, 4.46], [6158, 2, 301, 3.64], [9491, 21, 2565, 2.94], [972, 3, 652, 4.02], [523, 2, 170, 2.64], [3495, 3, 1114, 4.13], [11770, 1, 250, 4.82], [214, 3, 228, 1.59], [7573, 1, 379, 6.0], [11953, 1, 230, 3.13], [74, 1, 227, 5.04], [24257, 1, 153, 2.9], [5165, 2, 439, 3.24], [996, 2, 277, 3.03], [12721, 2, 326, 3.84], [2423, 80, 215, 2.59], [11772, 1, 246, 4.17], [8677, 3, 306, 3.95], [2912, 2, 415, 4.94], [6497, 1, 43, 3.07], [3981, 3, 1942, 2.23], [1622, 1, 120, 4.39]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 4, 0.51], [2778, 2, 6, 0.2], [6936, 2, 6, 1.35], [205, 2, 6, 0.2], [88, 10, 9, 0.19], [144, 2, 5, 0.47], [1504, 2, 4, 0.36], [589, 2, 5, 0.2], [326, 2, 5, 0.45], [8915, 2, 5, 1.11], [8650, 2, 6, 1.21], [7036, 1, 4, 1.73], [593, 2, 7, 0.78], [2775, 2, 4, 0.81], [141, 2, 7, 0.78], [206, 2, 4, 0.65], [3980, 4, 6, 1.19], [7004, 1, 4, 1.19], [3891, 1, 4, 0.2], [2050, 3, 5, 1.68], [8853, 2, 4, 1.18], [7885, 4, 5, 0.2], [7886, 4, 6, 0.4], [2328, 2, 4, 0.2], [146, 2, 6, 1.32], [2055, 3, 6, 1.73], [2054, 3, 6, 1.85], [10, 2, 5, 0.2], [5491, 2, 4, 0.36], [362, 2, 6, 0.82], [8672, 2, 4, 0.98], [12870, 1, 6, 1.65], [8649, 2, 4, 0.71], [10993, 2, 5, 0.38], [3975, 4, 4, 1.39], [2057, 3, 5, 2.02], [21793, 1, 4, 1.93], [12349, 1, 4, 1.03], [5165, 1, 4, 0.65], [1446, 2, 4, 1.15], [13028, 3, 4, 0.62], [3982, 3, 14, 1.66], [5208, 3, 4, 1.03], [75, 2, 5, 0.46], [2991, 3, 4, 2.17], [523, 2, 5, 1.03], [145, 2, 4, 1.55], [7005, 1, 4, 0.97], [94, 4, 4, 1.88], [3495, 3, 13, 1.14], [11404, 2, 4, 0.42], [20927, 1, 4, 1.67], [997, 2, 5, 0.77], [6158, 2, 5, 2.18], [192, 3, 12, 0.77], [2912, 1, 4, 1.89], [82, 2, 5, 0.91], [22316, 3, 6, 0.51], [417, 2, 4, 0.48], [5165, 2, 5, 0.9], [7567, 3, 4, 0.71], [998, 2, 5, 0.91], [11769, 1, 5, 0.71], [389, 4, 4, 1.1], [1492, 1, 5, 0.23], [11953, 1, 4, 0.51], [4176, 4, 6, 1.31], [346, 3, 5, 1.03], [996, 2, 7, 1.72], [11767, 1, 4, 0.66], [5946, 1, 4, 0.85], [6496, 1, 4, 0.49], [8677, 3, 5, 1.15], [37, 1, 4, 1.5], [12721, 2, 4, 0.9], [972, 3, 5, 2.18], [4253, 1, 4, 0.88], [74, 1, 4, 1.04], [11490, 1, 4, 0.79], [22317, 3, 6, 0.26], [411, 2, 4, 0.64], [12212, 29, 4, 0.2], [2104, 3, 6, 0.51], [1413, 15, 4, 0.45], [345, 3, 4, 0.5], [3979, 3, 6, 1.18], [336, 15, 5, 1.42], [11085, 2, 7, 1.78], [2912, 2, 5, 1.89], [8121, 3, 4, 0.5], [1274, 1, 4, 1.01], [201, 3, 5, 0.76], [1277, 1, 4, 0.98], [14037, 3, 4, 1.47], [3, 2, 4, 0.53], [13023, 3, 5, 1.77], [21269, 3, 4, 1.0], [823, 1, 4, 0.48], [38, 1, 4, 1.42], [6494, 1, 4, 0.44], [8673, 2, 4, 2.39], [36, 1, 4, 1.5], [12271, 2, 4, 1.13], [5209, 3, 5, 1.03], [9784, 1, 4, 0.85], [10408, 10, 5, 1.16], [8676, 2, 4, 1.45], [1414, 15, 4, 0.44], [22247, 2, 4, 1.07], [2805, 137, 4, 1.9], [20498, 3, 5, 0.4], [34, 1, 4, 1.42], [9081, 3, 7, 0.56], [3577, 25, 4, 0.45], [95, 3, 11, 0.5], [10936, 2, 4, 0.45], [2878, 1, 4, 1.41], [24257, 1, 4, 1.18], [11812, 1, 4, 0.48], [10388, 2, 4, 1.26], [346, 1, 4, 0.47], [79, 1, 4, 0.43], [13928, 1, 4, 0.82], [161, 3, 5, 1.29], [13035, 3, 4, 1.32], [491, 10, 7, 0.84], [83, 2, 4, 0.41], [3576, 25, 4, 0.66], [10407, 10, 6, 1.33], [1523, 1, 4, 0.6], [19047, 3, 4, 1.34], [9069, 1, 4, 0.42], [9082, 3, 18, 0.83], [13244, 1, 4, 0.4], [972, 1, 4, 0.92], [7704, 2, 4, 0.89], [10937, 2, 4, 0.45], [305, 2, 152, 3.88], [2778, 2, 153, 2.45], [6936, 2, 284, 6.0], [205, 2, 112, 2.9], [88, 10, 587, 3.79], [144, 2, 156, 3.98], [1504, 2, 221, 3.02], [589, 2, 167, 1.74], [326, 2, 101, 2.82], [8915, 2, 195, 3.08], [8650, 2, 229, 5.42], [7036, 1, 133, 5.22], [593, 2, 210, 3.41], [2775, 2, 153, 3.42], [141, 2, 158, 4.17], [206, 2, 39, 2.88], [3980, 4, 493, 5.32], [7004, 1, 80, 3.89], [3891, 1, 128, 2.8], [2050, 3, 466, 6.0], [8853, 2, 299, 5.35], [2328, 2, 149, 2.19], [146, 2, 55, 3.93], [2055, 3, 466, 6.0], [2054, 3, 466, 6.0], [5491, 2, 118, 1.82], [362, 2, 51, 4.11], [8672, 2, 291, 5.33], [12870, 1, 141, 6.0], [8649, 2, 242, 4.17], [10993, 2, 55, 3.19], [3975, 4, 493, 4.15], [2057, 3, 466, 6.0], [21793, 1, 262, 4.91], [12349, 1, 656, 4.23], [5165, 1, 51, 3.25], [1446, 2, 37, 3.1], [13028, 3, 159, 2.38], [3982, 3, 811, 5.26], [75, 2, 151, 2.27], [2991, 3, 164, 5.3], [523, 2, 158, 4.0], [7005, 1, 80, 3.02], [3495, 3, 931, 5.24], [11404, 2, 114, 1.94], [997, 2, 232, 4.4], [192, 3, 1177, 5.06], [2912, 1, 48, 4.84], [22316, 3, 324, 3.42], [417, 2, 167, 2.05], [5165, 2, 369, 3.48], [7567, 3, 75, 3.82], [998, 2, 232, 4.4], [11769, 1, 165, 3.79], [389, 4, 196, 3.25], [1492, 1, 36, 2.3], [11953, 1, 215, 2.98], [4176, 4, 493, 5.7], [996, 2, 247, 5.21], [11767, 1, 174, 2.39], [5946, 1, 135, 2.77], [6496, 1, 44, 2.07], [8677, 3, 296, 5.22]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 5, 0.2], [362, 2, 4, 0.44], [361, 2, 4, 0.2], [8650, 2, 4, 1.71], [5491, 2, 5, 0.2], [5493, 2, 4, 0.51], [11685, 2, 4, 0.2], [417, 2, 5, 0.2], [326, 2, 5, 0.55], [8672, 2, 5, 1.21], [6935, 2, 13, 1.06], [205, 2, 4, 0.2], [1124, 2, 6, 0.32], [11681, 2, 5, 0.49], [11838, 2, 6, 0.63], [12721, 2, 6, 0.48], [248, 1, 5, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 1.32], [142, 2, 4, 0.2], [6936, 2, 6, 1.25], [2778, 2, 6, 0.2], [1446, 2, 4, 1.04], [8676, 2, 4, 1.21], [21793, 1, 4, 1.39], [305, 2, 6, 1.23], [22247, 2, 4, 1.1], [11835, 2, 4, 1.5], [616, 2, 6, 0.2], [593, 2, 5, 0.78], [411, 2, 4, 0.89], [10574, 3, 5, 0.47], [990, 2, 4, 0.47], [8673, 2, 4, 0.97], [2775, 2, 4, 0.23], [145, 2, 4, 0.91], [6158, 2, 5, 0.45], [11836, 2, 4, 1.4], [2055, 3, 4, 0.8], [3495, 3, 13, 1.54], [88, 10, 8, 0.6], [10149, 3, 13, 1.25], [75, 2, 4, 0.57], [146, 2, 4, 0.91], [2054, 3, 4, 0.8], [2057, 3, 4, 0.8], [7705, 2, 4, 0.45], [61, 3, 4, 0.2], [7885, 4, 4, 0.46], [2424, 29, 4, 0.75], [7704, 2, 6, 1.15], [144, 2, 4, 0.91], [5165, 1, 4, 0.86], [2859, 15, 4, 0.58], [2423, 29, 4, 0.79], [2423, 80, 4, 0.79], [201, 3, 6, 1.01], [308, 1, 7, 1.86], [1414, 15, 4, 0.44], [335, 3, 10, 0.49], [7706, 2, 4, 0.45], [60, 3, 5, 0.55], [9126, 1, 4, 1.42], [13028, 3, 4, 1.23], [2424, 80, 4, 0.72], [214, 3, 9, 0.57], [1519, 3, 9, 0.39], [345, 3, 4, 0.47], [13034, 3, 5, 1.37], [13023, 3, 6, 1.51], [11770, 1, 4, 1.74], [2703, 3, 4, 1.7], [432, 3, 4, 1.23], [410, 1, 4, 0.52], [6494, 1, 4, 1.67], [3430, 15, 4, 0.8], [94, 4, 4, 0.48], [1886, 2, 4, 0.37], [1492, 1, 4, 0.87], [13928, 1, 4, 0.75], [20927, 1, 4, 0.67], [3893, 1, 4, 1.55], [3891, 1, 4, 1.55], [2331, 1, 4, 0.79], [3981, 3, 8, 0.51], [13033, 3, 4, 0.5], [11811, 1, 4, 0.38], [11952, 1, 4, 1.18], [9690, 1, 4, 0.54], [11089, 1, 4, 0.46], [5733, 2, 5, 1.16], [6097, 80, 4, 1.17], [952, 4, 4, 1.5], [7886, 4, 4, 0.44], [5812, 3, 4, 1.51], [1274, 1, 4, 1.18], [1309, 1, 4, 1.14], [22558, 3, 4, 2.17], [944, 15, 4, 0.39], [5946, 1, 4, 1.55], [114, 3, 4, 0.36], [7708, 2, 4, 0.45], [105, 3, 4, 0.35], [10410, 10, 6, 1.21], [95, 3, 8, 1.05], [10407, 10, 6, 1.21], [3478, 2, 4, 1.03], [5584, 3, 4, 1.15], [7703, 2, 4, 0.45], [3980, 4, 4, 1.26], [8274, 3, 4, 0.87], [9082, 3, 15, 0.83], [3889, 1, 4, 1.55], [13264, 29, 4, 0.49], [20555, 2, 4, 0.45], [10408, 10, 6, 1.21], [192, 3, 13, 2.07], [10398, 2, 4, 0.49], [5811, 3, 4, 2.0], [2805, 137, 5, 2.33], [7005, 1, 4, 0.86], [823, 1, 4, 2.45], [5165, 2, 5, 0.84], [6630, 3, 4, 1.22], [11603, 2, 4, 0.36], [963, 3, 4, 0.89], [13263, 29, 4, 0.55], [6497, 1, 4, 1.36], [21003, 2, 4, 0.72], [12229, 2, 4, 0.7], [14041, 3, 5, 0.63], [13928, 2, 4, 0.75], [10516, 3, 4, 0.99], [9491, 21, 10, 3.02], [186, 3, 7, 1.23], [141, 2, 168, 1.94], [362, 2, 152, 2.16], [361, 2, 151, 2.34], [8650, 2, 203, 5.6], [5491, 2, 100, 2.58], [5493, 2, 116, 2.29], [11685, 2, 291, 4.27], [417, 2, 151, 2.27], [326, 2, 89, 2.74], [8672, 2, 303, 4.46], [6935, 2, 291, 6.0], [205, 2, 100, 2.3], [1124, 2, 174, 3.15], [11681, 2, 307, 2.72], [11838, 2, 239, 4.54], [12721, 2, 261, 4.74], [11837, 2, 239, 3.85], [142, 2, 151, 2.36], [6936, 2, 291, 5.86], [2778, 2, 145, 4.12], [1446, 2, 61, 3.0], [8676, 2, 303, 3.65], [21793, 1, 261, 4.37], [305, 2, 40, 3.77], [22247, 2, 302, 3.43], [11835, 2, 239, 4.21], [616, 2, 100, 2.77], [593, 2, 243, 2.76], [411, 2, 72, 2.91], [10574, 3, 547, 2.34], [990, 2, 56, 2.21], [8673, 2, 274, 4.47], [2775, 2, 151, 2.48], [145, 2, 163, 3.06], [6158, 2, 281, 2.65], [11836, 2, 269, 4.76], [2055, 3, 501, 2.91], [3495, 3, 1026, 4.33], [88, 10, 611, 2.63], [10149, 3, 956, 3.54], [75, 2, 154, 2.67], [146, 2, 163, 3.06], [2054, 3, 501, 2.85], [2057, 3, 501, 2.91], [7705, 2, 187, 2.71], [61, 3, 201, 2.25], [2424, 29, 36, 3.81], [7704, 2, 162, 4.3], [144, 2, 163, 3.06], [5165, 1, 51, 2.97], [2859, 15, 73, 2.43], [2423, 29, 39, 3.13], [2423, 80, 197, 3.13], [201, 3, 276, 4.48], [308, 1, 172, 6.0], [1414, 15, 105, 2.16], [335, 3, 1391, 2.27], [7706, 2, 187, 2.83], [60, 3, 857, 2.58], [9126, 1, 74, 4.04], [13028, 3, 155, 5.21], [2424, 80, 181, 3.79], [214, 3, 692, 2.34], [1519, 3, 652, 1.72], [345, 3, 320, 2.21]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 10, 0.2], [305, 2, 5, 0.23], [6936, 2, 5, 1.17], [8672, 2, 5, 1.21], [2775, 2, 4, 0.47], [8853, 2, 4, 0.83], [145, 2, 5, 0.92], [2776, 2, 4, 1.06], [12721, 2, 6, 1.21], [2327, 2, 5, 0.2], [361, 2, 5, 0.4], [146, 2, 5, 0.62], [8675, 2, 5, 0.73], [11681, 2, 5, 0.21], [141, 2, 4, 0.4], [8673, 2, 7, 0.73], [205, 2, 5, 1.47], [308, 1, 7, 0.49], [8676, 2, 4, 1.21], [1124, 2, 5, 0.54], [11835, 2, 4, 1.79], [144, 2, 5, 1.42], [417, 2, 4, 0.4], [9507, 3, 4, 0.49], [8650, 2, 5, 1.28], [11837, 2, 4, 1.62], [8648, 2, 4, 0.65], [3, 2, 6, 1.09], [6097, 80, 5, 2.57], [2423, 29, 4, 1.44], [6097, 29, 4, 2.58], [6497, 1, 4, 1.36], [11836, 2, 4, 1.7], [990, 2, 4, 0.2], [593, 2, 5, 1.55], [6098, 80, 4, 2.49], [88, 10, 8, 0.6], [11739, 2, 4, 0.49], [523, 2, 4, 0.76], [2423, 80, 5, 0.87], [13260, 29, 4, 1.4], [8915, 2, 4, 0.45], [6494, 1, 4, 1.67], [6158, 2, 5, 0.45], [326, 2, 4, 0.55], [75, 2, 5, 1.81], [1339, 1, 4, 0.43], [378, 2, 4, 1.28], [411, 2, 4, 0.74], [1492, 1, 4, 0.87], [151, 1, 4, 0.45], [335, 3, 10, 0.49], [1050, 2, 4, 0.85], [2859, 15, 4, 0.63], [6496, 1, 4, 0.66], [61, 3, 6, 0.2], [13264, 29, 4, 0.52], [1049, 2, 4, 1.1], [345, 3, 4, 0.36], [10149, 3, 13, 1.25], [7704, 2, 4, 1.11], [964, 15, 4, 0.59], [432, 3, 4, 1.65], [1243, 2, 4, 1.11], [13259, 29, 4, 0.41], [22558, 3, 4, 2.17], [7705, 2, 6, 2.04], [201, 3, 4, 1.02], [5208, 3, 8, 1.79], [2912, 1, 4, 1.99], [186, 3, 7, 0.67], [229, 1, 4, 1.04], [21793, 1, 4, 1.45], [2438, 1, 4, 0.85], [12229, 2, 4, 0.45], [13928, 1, 4, 0.71], [3478, 2, 4, 0.83], [7706, 2, 4, 1.23], [10407, 10, 6, 1.21], [11738, 2, 4, 0.49], [2703, 3, 4, 1.7], [9507, 1, 4, 0.44], [11844, 2, 4, 0.63], [11490, 1, 4, 0.74], [7036, 1, 4, 0.76], [94, 4, 4, 0.48], [11687, 2, 4, 0.9], [1886, 2, 4, 0.37], [11404, 2, 4, 0.42], [114, 3, 4, 0.41], [159, 16, 4, 0.47], [10408, 10, 6, 1.21], [956, 2, 4, 0.52], [7708, 2, 4, 1.23], [20927, 1, 4, 1.66], [2438, 2, 5, 0.76], [10406, 10, 7, 1.21], [9065, 2, 4, 0.78], [11689, 2, 4, 0.89], [12870, 1, 4, 0.94], [22125, 2, 4, 0.36], [152, 21, 4, 0.5], [11690, 2, 4, 0.65], [7005, 1, 4, 1.13], [1274, 1, 4, 1.5], [2991, 3, 4, 2.17], [11161, 1, 5, 0.89], [13259, 25, 4, 0.41], [5769, 3, 6, 0.26], [2805, 137, 5, 0.92], [159, 1, 4, 0.45], [4253, 1, 4, 0.43], [3495, 3, 13, 1.54], [5584, 3, 4, 1.15], [7007, 1, 4, 1.13], [5976, 1, 4, 2.31], [9690, 1, 4, 0.51], [9239, 29, 4, 1.36], [9209, 29, 4, 1.53], [11811, 1, 4, 0.38], [9491, 21, 10, 1.42], [9239, 25, 4, 1.36], [7886, 4, 4, 0.45], [8600, 1, 4, 0.36], [5769, 1, 4, 0.46], [7567, 3, 4, 0.83], [96, 11, 15, 1.09], [24257, 1, 4, 1.04], [95, 3, 8, 0.38], [247, 1, 4, 1.28], [21269, 3, 4, 2.75], [20555, 2, 4, 0.45], [13198, 29, 4, 0.94], [1691, 1, 4, 2.29], [5209, 3, 5, 1.79], [9372, 1, 4, 1.37], [2778, 2, 166, 2.39], [305, 2, 136, 3.77], [6936, 2, 261, 5.68], [8672, 2, 303, 4.46], [2775, 2, 150, 2.95], [8853, 2, 307, 2.91], [145, 2, 76, 3.71], [2776, 2, 166, 3.35], [12721, 2, 261, 4.97], [2327, 2, 138, 5.11], [361, 2, 149, 2.33], [146, 2, 139, 3.93], [8675, 2, 269, 3.17], [11681, 2, 289, 3.99], [141, 2, 149, 2.77], [8673, 2, 262, 5.33], [308, 1, 180, 3.47], [8676, 2, 303, 3.65], [1124, 2, 178, 3.3], [11835, 2, 266, 4.84], [144, 2, 41, 3.98], [417, 2, 145, 3.66], [9507, 3, 54, 1.69], [8650, 2, 203, 6.0], [11837, 2, 266, 4.5], [8648, 2, 238, 4.54], [3, 2, 110, 4.24], [2423, 29, 36, 4.49], [6497, 1, 38, 4.63], [11836, 2, 266, 4.66], [990, 2, 48, 2.56], [593, 2, 90, 3.73], [88, 10, 611, 2.63], [11739, 2, 61, 2.68], [523, 2, 149, 3.27], [2423, 80, 176, 3.28], [13260, 29, 77, 4.01], [8915, 2, 204, 2.18], [6494, 1, 51, 4.6], [6158, 2, 281, 2.65], [326, 2, 98, 2.49], [75, 2, 132, 4.81], [1339, 1, 66, 2.51], [378, 2, 238, 3.84], [411, 2, 115, 2.73], [1492, 1, 39, 2.98], [151, 1, 17, 2.47], [335, 3, 1391, 2.27], [1050, 2, 30, 2.39], [2859, 15, 73, 2.52], [6496, 1, 43, 2.58], [61, 3, 201, 2.74], [13264, 29, 77, 2.31], [345, 3, 319, 2.34], [10149, 3, 956, 3.54], [7704, 2, 187, 3.46], [432, 3, 276, 4.49], [1243, 2, 104, 3.52], [13259, 29, 37, 2.9], [22558, 3, 481, 5.49], [201, 3, 319, 3.28], [5208, 3, 559, 4.95], [2912, 1, 48, 5.22], [186, 3, 703, 2.92]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.2], [2778, 2, 8, 0.2], [361, 2, 4, 0.2], [6935, 2, 12, 1.05], [205, 2, 4, 1.29], [12721, 2, 8, 0.96], [8676, 2, 5, 1.1], [417, 2, 5, 0.2], [2049, 3, 15, 0.2], [3, 2, 4, 0.97], [248, 1, 4, 0.48], [8675, 2, 5, 0.73], [22247, 2, 4, 1.0], [6936, 2, 5, 0.47], [523, 2, 5, 0.2], [305, 2, 6, 0.73], [8650, 2, 5, 1.33], [11838, 2, 5, 0.63], [2328, 2, 5, 0.79], [2776, 2, 4, 0.69], [8648, 2, 4, 0.65], [2327, 2, 4, 0.2], [8853, 2, 4, 0.83], [11739, 2, 4, 0.58], [11837, 2, 4, 1.9], [6497, 1, 4, 1.36], [411, 2, 4, 0.89], [412, 1, 4, 1.06], [2805, 137, 5, 0.39], [6097, 80, 6, 2.11], [6097, 29, 4, 0.98], [11835, 2, 4, 1.45], [146, 2, 4, 0.91], [583, 2, 5, 0.76], [326, 2, 4, 0.55], [10149, 3, 13, 0.92], [145, 2, 4, 0.91], [11836, 2, 4, 1.35], [144, 2, 4, 0.91], [75, 2, 4, 1.81], [10574, 3, 5, 0.68], [6494, 1, 5, 0.22], [2055, 3, 4, 0.8], [2057, 3, 4, 0.8], [2422, 29, 4, 1.01], [6496, 1, 4, 0.67], [2054, 3, 5, 1.08], [6098, 80, 4, 0.83], [6098, 29, 4, 0.59], [1243, 2, 4, 1.3], [1886, 2, 4, 0.37], [8915, 2, 4, 0.45], [21793, 1, 4, 1.45], [1492, 1, 4, 0.87], [944, 15, 4, 0.38], [247, 1, 4, 0.61], [3478, 2, 4, 0.86], [7084, 3, 4, 2.21], [5165, 1, 4, 0.86], [2859, 15, 4, 0.58], [6158, 2, 5, 0.67], [335, 3, 10, 0.49], [201, 3, 4, 0.51], [192, 3, 13, 1.24], [13928, 1, 4, 0.69], [5208, 3, 8, 1.44], [3934, 5, 7, 1.47], [5812, 3, 4, 0.66], [107, 2, 4, 0.54], [11489, 1, 4, 0.63], [24722, 2, 4, 0.2], [4253, 1, 4, 0.43], [94, 4, 4, 0.48], [1519, 3, 9, 0.39], [186, 3, 7, 0.67], [214, 3, 9, 0.57], [9491, 21, 10, 1.29], [5811, 3, 4, 2.0], [1703, 2, 4, 0.5], [1050, 2, 4, 0.85], [11767, 1, 4, 0.85], [5813, 3, 5, 0.66], [8938, 2, 4, 1.01], [61, 3, 4, 0.2], [1309, 1, 4, 1.14], [10398, 2, 4, 1.44], [2991, 3, 4, 2.17], [3495, 3, 13, 1.54], [13260, 29, 4, 1.58], [2438, 2, 5, 0.76], [11769, 1, 4, 0.85], [11671, 1, 4, 1.7], [8599, 1, 4, 3.81], [11811, 1, 4, 0.38], [229, 1, 4, 1.04], [8943, 3, 4, 0.72], [19687, 1, 4, 1.21], [2104, 3, 6, 0.47], [13928, 2, 4, 0.69], [1049, 2, 4, 0.85], [7036, 1, 4, 0.76], [5584, 3, 4, 1.15], [10124, 1, 4, 2.17], [7004, 1, 4, 0.53], [955, 2, 4, 0.44], [11808, 1, 4, 1.82], [9690, 1, 4, 0.38], [22573, 2, 4, 1.08], [18964, 1, 4, 1.13], [3334, 5, 4, 0.39], [6575, 3, 4, 0.71], [8274, 3, 4, 0.87], [20927, 1, 4, 1.86], [45, 2, 4, 1.79], [1523, 1, 4, 2.32], [9239, 29, 4, 1.36], [4001, 3, 8, 0.93], [2438, 1, 4, 0.71], [105, 3, 4, 0.4], [11678, 1, 4, 1.58], [13258, 29, 5, 1.12], [1277, 1, 4, 1.91], [19685, 1, 4, 1.38], [1701, 2, 4, 0.67], [11886, 2, 4, 0.73], [3477, 2, 4, 1.1], [7567, 3, 4, 1.18], [21269, 3, 4, 2.75], [9209, 29, 4, 2.15], [5165, 2, 5, 0.84], [3984, 3, 5, 0.62], [10181, 26, 5, 0.46], [8635, 3, 4, 0.87], [7005, 1, 4, 1.33], [8672, 2, 263, 4.66], [141, 2, 144, 3.6], [2778, 2, 158, 3.12], [361, 2, 150, 3.05], [6935, 2, 291, 6.0], [12721, 2, 262, 5.36], [8676, 2, 263, 4.38], [417, 2, 150, 3.05], [2049, 3, 328, 2.4], [3, 2, 47, 4.13], [248, 1, 22, 1.92], [8675, 2, 274, 3.37], [22247, 2, 303, 3.24], [6936, 2, 269, 3.46], [523, 2, 144, 3.5], [305, 2, 135, 3.77], [8650, 2, 214, 5.0], [11838, 2, 239, 5.02], [2328, 2, 138, 4.16], [2776, 2, 150, 3.89], [8648, 2, 238, 4.54], [2327, 2, 138, 4.26], [8853, 2, 307, 2.91], [11739, 2, 61, 2.77], [11837, 2, 270, 5.03], [6497, 1, 38, 4.63], [411, 2, 104, 3.04], [412, 1, 88, 3.35], [2805, 137, 187, 3.68], [6097, 29, 37, 3.2], [11835, 2, 270, 4.85], [146, 2, 163, 3.06], [583, 2, 87, 3.09], [326, 2, 98, 2.49], [10149, 3, 963, 2.95], [145, 2, 163, 3.06], [11836, 2, 270, 4.63], [144, 2, 163, 3.06], [75, 2, 137, 4.79], [10574, 3, 544, 2.8], [6494, 1, 50, 4.6], [2055, 3, 451, 4.27], [2057, 3, 126, 4.32], [2422, 29, 40, 3.25], [6496, 1, 43, 2.6], [2054, 3, 477, 4.26], [6098, 80, 72, 3.57], [6098, 29, 41, 2.45], [1243, 2, 104, 3.81], [1886, 2, 167, 2.11], [8915, 2, 204, 2.18], [21793, 1, 261, 4.51], [1492, 1, 39, 2.98], [944, 15, 12, 1.48], [247, 1, 94, 2.48], [3478, 2, 81, 2.97], [7084, 3, 133, 5.56], [5165, 1, 51, 2.97], [2859, 15, 73, 2.43], [6158, 2, 278, 2.94], [335, 3, 1391, 2.27], [201, 3, 321, 2.75], [192, 3, 1251, 5.29], [13928, 1, 51, 2.64], [5208, 3, 569, 4.95]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 7, 0.52], [305, 2, 4, 0.2], [8650, 2, 4, 1.33], [2778, 2, 6, 0.2], [141, 2, 4, 0.66], [8672, 2, 7, 2.86], [143, 2, 8, 1.9], [6936, 2, 5, 0.76], [145, 2, 4, 0.25], [11837, 2, 4, 1.57], [361, 2, 4, 0.2], [11681, 2, 5, 0.46], [417, 2, 5, 0.2], [75, 2, 5, 0.97], [205, 2, 5, 0.56], [1124, 2, 5, 0.32], [146, 2, 4, 0.57], [11737, 2, 4, 0.55], [8648, 2, 5, 1.1], [12721, 2, 5, 0.73], [8673, 2, 6, 0.2], [523, 2, 4, 0.38], [8853, 2, 5, 1.42], [615, 2, 4, 0.74], [11835, 2, 6, 1.74], [326, 2, 6, 0.85], [990, 2, 4, 0.23], [8675, 2, 5, 1.2], [88, 10, 12, 0.2], [8915, 2, 6, 1.39], [144, 2, 6, 0.91], [434, 2, 6, 0.3], [1005, 2, 5, 1.14], [11739, 2, 4, 0.92], [2424, 29, 4, 0.65], [8676, 2, 5, 2.16], [6158, 2, 7, 0.2], [7704, 2, 4, 1.0], [2423, 29, 4, 0.62], [11836, 2, 4, 1.65], [7705, 2, 4, 1.9], [2424, 80, 4, 0.65], [11738, 2, 4, 0.92], [7706, 2, 4, 1.23], [7004, 1, 4, 1.81], [3478, 2, 4, 0.8], [3, 2, 4, 0.38], [2423, 80, 4, 0.63], [1414, 15, 4, 0.37], [2859, 15, 4, 1.62], [74, 1, 4, 0.91], [3429, 15, 4, 0.2], [2055, 3, 4, 1.98], [10149, 3, 13, 1.25], [6497, 1, 4, 1.36], [18964, 1, 4, 1.13], [12343, 1, 4, 1.71], [13028, 3, 4, 1.23], [94, 4, 4, 0.48], [13928, 1, 4, 0.68], [13034, 3, 5, 1.2], [7084, 3, 4, 0.7], [411, 2, 4, 0.83], [11919, 1, 4, 0.38], [3893, 1, 4, 1.24], [6097, 80, 4, 1.09], [11089, 1, 4, 1.16], [7707, 2, 5, 1.25], [7036, 1, 4, 0.43], [1050, 2, 5, 0.85], [563, 2, 4, 0.68], [192, 3, 13, 2.07], [3891, 1, 4, 1.24], [1339, 1, 4, 0.45], [6630, 3, 4, 1.22], [6494, 1, 4, 1.67], [345, 3, 4, 0.36], [21793, 1, 4, 1.39], [1243, 2, 4, 1.3], [8274, 3, 6, 0.84], [7708, 2, 4, 1.08], [2912, 1, 4, 1.31], [13023, 3, 6, 1.51], [11581, 29, 4, 0.87], [13033, 3, 4, 0.8], [3889, 1, 4, 1.24], [11490, 1, 4, 0.64], [8943, 3, 4, 0.37], [1049, 2, 4, 0.85], [5208, 3, 8, 1.79], [12229, 2, 4, 0.7], [5940, 3, 4, 1.54], [22558, 3, 5, 0.88], [3495, 3, 13, 1.54], [5165, 1, 4, 0.86], [2331, 1, 4, 1.18], [515, 24, 4, 0.51], [201, 3, 4, 0.86], [6629, 3, 4, 0.47], [83, 2, 4, 0.5], [336, 15, 4, 0.35], [1274, 1, 4, 1.18], [7885, 4, 5, 0.56], [229, 1, 4, 1.04], [1309, 1, 4, 1.14], [5812, 3, 5, 1.01], [7005, 1, 4, 1.33], [332, 2, 4, 0.69], [951, 4, 4, 1.58], [21269, 3, 4, 2.75], [214, 3, 9, 0.57], [9690, 1, 4, 0.51], [942, 3, 4, 0.55], [2805, 137, 5, 1.57], [8898, 3, 4, 1.66], [247, 1, 4, 1.24], [335, 3, 13, 0.62], [11914, 1, 4, 0.86], [23961, 3, 4, 2.19], [20555, 2, 4, 0.73], [1703, 2, 4, 0.5], [24257, 1, 4, 1.67], [4940, 1, 4, 0.4], [9827, 3, 4, 0.52], [5811, 3, 6, 0.5], [8635, 3, 4, 0.69], [3934, 5, 7, 1.47], [7573, 1, 4, 0.81], [186, 3, 7, 1.23], [9491, 21, 10, 1.29], [114, 3, 4, 1.44], [11770, 1, 4, 1.74], [10527, 3, 8, 0.82], [13498, 3, 4, 1.32], [5584, 3, 4, 1.15], [11586, 1, 6, 1.46], [19687, 1, 4, 1.21], [6935, 2, 277, 3.62], [305, 2, 135, 3.67], [8650, 2, 225, 4.85], [2778, 2, 143, 3.54], [141, 2, 165, 2.58], [8672, 2, 260, 5.54], [143, 2, 114, 3.95], [6936, 2, 291, 6.0], [145, 2, 139, 3.71], [11837, 2, 238, 5.03], [361, 2, 149, 3.32], [11681, 2, 270, 3.74], [417, 2, 149, 3.32], [75, 2, 134, 4.68], [205, 2, 58, 3.15], [1124, 2, 180, 3.15], [146, 2, 139, 3.93], [11737, 2, 61, 2.37], [8648, 2, 214, 4.02], [12721, 2, 261, 5.11], [8673, 2, 262, 5.33], [523, 2, 149, 2.77], [8853, 2, 291, 6.0], [615, 2, 116, 2.73], [11835, 2, 238, 3.55], [326, 2, 85, 3.49], [990, 2, 51, 2.48], [8675, 2, 269, 5.16], [88, 10, 580, 3.9], [8915, 2, 51, 3.45], [144, 2, 139, 3.98], [434, 2, 57, 2.72], [11739, 2, 61, 3.11], [2424, 29, 37, 2.56], [8676, 2, 76, 5.54], [6158, 2, 241, 3.51], [7704, 2, 162, 5.16], [2423, 29, 40, 2.5], [11836, 2, 238, 4.49], [2424, 80, 184, 2.56], [11738, 2, 23, 3.24], [7706, 2, 169, 3.93], [7004, 1, 31, 4.56], [3478, 2, 81, 2.85], [3, 2, 125, 2.04], [2423, 80, 198, 2.52], [1414, 15, 106, 2.02], [74, 1, 199, 5.92], [3429, 15, 26, 2.25], [2055, 3, 446, 5.43], [10149, 3, 956, 3.54], [6497, 1, 38, 4.63], [18964, 1, 72, 3.49], [12343, 1, 629, 4.64], [13028, 3, 139, 3.68], [94, 4, 132, 2.23], [13928, 1, 51, 2.62], [13034, 3, 626, 3.7], [7084, 3, 137, 4.0], [411, 2, 115, 2.91], [11919, 1, 40, 1.48], [3893, 1, 130, 3.8], [6097, 80, 75, 3.41]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 5, 0.2], [141, 2, 5, 0.2], [2327, 2, 6, 0.2], [2778, 2, 5, 0.2], [6936, 2, 5, 0.69], [362, 2, 5, 0.31], [326, 2, 5, 0.4], [305, 2, 4, 1.01], [2775, 2, 4, 1.06], [1446, 2, 4, 1.54], [9760, 29, 4, 0.4], [8649, 2, 5, 0.64], [8853, 2, 5, 0.71], [593, 2, 4, 0.78], [11581, 29, 4, 0.81], [9507, 3, 4, 0.43], [3840, 1, 5, 0.2], [1429, 2, 4, 1.59], [523, 2, 5, 0.54], [7004, 1, 4, 1.0], [7036, 1, 4, 1.53], [5165, 1, 5, 1.2], [990, 2, 4, 0.36], [159, 3, 6, 0.2], [615, 2, 4, 0.51], [201, 3, 6, 0.41], [8089, 1, 4, 0.36], [145, 2, 4, 0.78], [248, 1, 4, 0.2], [345, 3, 6, 0.51], [6952, 1, 4, 0.71], [146, 2, 4, 0.78], [6097, 80, 5, 2.13], [7084, 3, 4, 1.45], [24664, 2, 17, 1.68], [2050, 3, 5, 0.97], [142, 2, 4, 0.58], [144, 2, 4, 0.78], [2912, 1, 4, 1.2], [7005, 1, 4, 0.76], [11770, 1, 4, 0.53], [3891, 1, 4, 0.84], [1886, 2, 4, 0.4], [997, 2, 4, 0.37], [432, 3, 4, 1.65], [998, 2, 4, 0.47], [6097, 29, 4, 1.04], [3893, 1, 4, 0.84], [6158, 2, 5, 0.36], [5165, 2, 7, 0.65], [10149, 3, 13, 0.75], [2424, 80, 4, 1.18], [12870, 1, 4, 0.47], [10517, 29, 4, 1.24], [11772, 1, 4, 0.89], [11089, 1, 4, 0.58], [20927, 1, 4, 1.36], [6098, 80, 4, 0.71], [7885, 4, 4, 0.49], [10574, 3, 5, 0.83], [1492, 1, 4, 0.43], [9372, 1, 4, 1.33], [4032, 29, 4, 1.1], [5208, 3, 5, 0.73], [3334, 5, 5, 1.14], [22316, 3, 5, 0.25], [13028, 3, 5, 0.86], [1519, 3, 10, 0.39], [3576, 25, 4, 1.54], [1490, 1, 4, 0.53], [3889, 1, 4, 0.84], [1700, 2, 4, 1.36], [12304, 1, 4, 1.75], [2912, 2, 5, 1.2], [13034, 3, 4, 0.55], [972, 3, 5, 1.27], [214, 3, 9, 0.49], [11952, 1, 4, 1.01], [5151, 2, 4, 1.03], [229, 1, 4, 1.08], [2331, 1, 4, 0.49], [11426, 25, 4, 1.01], [5812, 3, 5, 0.5], [9289, 29, 4, 0.48], [11490, 1, 4, 0.52], [3478, 2, 4, 0.76], [8677, 3, 5, 0.5], [13893, 2, 4, 0.83], [995, 2, 4, 1.24], [75, 2, 4, 0.42], [3, 2, 4, 1.17], [10, 2, 5, 0.2], [414, 1, 4, 0.87], [3575, 25, 4, 0.68], [2160, 68, 4, 1.02], [2805, 137, 4, 0.52], [410, 1, 4, 0.57], [13244, 1, 4, 0.39], [13023, 3, 5, 1.51], [11404, 2, 4, 0.42], [1309, 1, 4, 0.41], [4253, 1, 4, 0.85], [159, 1, 4, 0.53], [192, 3, 9, 1.79], [5209, 3, 4, 1.44], [9069, 1, 4, 0.67], [11813, 1, 4, 2.81], [6494, 1, 4, 1.05], [2438, 2, 5, 0.65], [24257, 1, 4, 1.72], [957, 2, 4, 0.45], [9971, 2, 4, 1.39], [9491, 21, 9, 1.43], [14037, 3, 4, 1.08], [9967, 2, 4, 1.39], [159, 16, 4, 0.54], [4033, 29, 4, 1.54], [2878, 1, 4, 0.41], [105, 3, 4, 1.03], [9964, 2, 4, 0.93], [5584, 3, 4, 0.8], [21697, 3, 4, 0.52], [22317, 3, 5, 0.83], [823, 1, 4, 0.46], [9965, 2, 4, 1.39], [8283, 2, 5, 0.95], [10609, 1, 4, 1.16], [10407, 10, 6, 0.74], [4076, 3, 4, 1.75], [13033, 3, 4, 0.55], [3495, 3, 10, 1.61], [1277, 1, 4, 1.65], [4586, 10, 13, 0.8], [11687, 2, 4, 0.67], [12647, 1, 4, 2.56], [7567, 3, 4, 1.06], [589, 2, 183, 1.98], [141, 2, 175, 3.51], [2327, 2, 170, 3.8], [2778, 2, 176, 2.93], [6936, 2, 316, 6.0], [362, 2, 159, 3.84], [326, 2, 99, 2.74], [305, 2, 106, 3.87], [2775, 2, 186, 3.28], [9760, 29, 86, 2.0], [8649, 2, 250, 4.3], [8853, 2, 297, 3.51], [593, 2, 270, 2.78], [11581, 29, 67, 3.04], [9507, 3, 72, 1.74], [3840, 1, 73, 2.05], [523, 2, 175, 3.6], [7004, 1, 19, 2.61], [7036, 1, 144, 5.02], [5165, 1, 54, 4.02], [990, 2, 13, 1.37], [159, 3, 485, 2.12], [615, 2, 130, 2.21], [201, 3, 72, 4.29], [8089, 1, 83, 3.1], [145, 2, 182, 2.73], [248, 1, 61, 2.3], [345, 3, 340, 4.29], [6952, 1, 228, 2.6], [146, 2, 182, 2.73], [7084, 3, 152, 4.51], [24664, 2, 303, 3.95], [142, 2, 185, 2.35], [144, 2, 182, 2.73], [2912, 1, 56, 3.6], [7005, 1, 57, 2.6], [11770, 1, 256, 4.01], [3891, 1, 147, 2.85], [1886, 2, 187, 2.52], [997, 2, 290, 1.95], [432, 3, 334, 4.66], [998, 2, 290, 2.13], [6097, 29, 42, 3.23], [3893, 1, 147, 2.85], [6158, 2, 279, 5.58], [5165, 2, 453, 2.47], [10149, 3, 1041, 2.72], [2424, 80, 204, 3.5], [12870, 1, 165, 2.65], [10517, 29, 82, 3.68], [11772, 1, 255, 3.71], [11089, 1, 203, 2.35], [6098, 80, 91, 2.6], [10574, 3, 607, 2.7], [1492, 1, 45, 2.06], [9372, 1, 285, 3.85], [4032, 29, 114, 3.35], [5208, 3, 634, 4.87], [3334, 5, 204, 5.85], [22316, 3, 341, 2.43], [13028, 3, 33, 4.9], [1519, 3, 582, 1.67], [3576, 25, 119, 4.19], [1490, 1, 60, 2.25]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 8, 0.97], [305, 2, 5, 0.75], [6935, 2, 10, 1.19], [141, 2, 6, 0.39], [2049, 3, 15, 0.2], [12721, 2, 6, 1.22], [151, 1, 4, 0.4], [205, 2, 4, 0.2], [130, 1, 4, 0.51], [1776, 1, 4, 1.85], [362, 2, 5, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 6, 0.59], [8915, 2, 6, 0.2], [2328, 2, 6, 0.2], [8648, 2, 4, 1.02], [1777, 1, 5, 0.68], [3, 2, 4, 0.76], [5151, 2, 4, 0.44], [6936, 2, 6, 0.92], [248, 1, 4, 0.2], [8675, 2, 6, 0.72], [22247, 2, 6, 0.95], [1007, 2, 9, 0.2], [2778, 2, 6, 0.2], [10, 2, 6, 0.2], [88, 10, 11, 0.45], [8677, 3, 6, 2.06], [412, 1, 4, 1.16], [11681, 2, 6, 1.12], [10149, 3, 17, 1.32], [10825, 21, 9, 1.39], [2054, 3, 7, 0.59], [75, 2, 4, 0.66], [13028, 3, 5, 0.5], [147, 1, 4, 0.68], [361, 2, 4, 0.65], [413, 1, 4, 1.7], [2055, 3, 6, 0.79], [7004, 1, 4, 0.4], [2057, 3, 5, 0.79], [8676, 2, 4, 0.97], [411, 2, 4, 0.99], [308, 1, 5, 1.76], [410, 1, 5, 0.61], [61, 3, 4, 0.46], [432, 3, 5, 0.39], [1446, 2, 4, 0.52], [1124, 2, 8, 0.2], [45, 2, 4, 1.37], [7005, 1, 4, 0.65], [5081, 2, 8, 0.2], [9827, 3, 4, 0.2], [167, 3, 6, 1.1], [5812, 3, 6, 1.87], [94, 4, 5, 2.26], [1492, 1, 4, 0.42], [3495, 3, 19, 1.31], [57, 1, 4, 0.37], [12870, 1, 4, 2.33], [168, 3, 7, 0.29], [2049, 1, 4, 0.36], [3893, 1, 4, 0.28], [11234, 2, 4, 0.94], [3889, 1, 4, 0.28], [6097, 29, 4, 0.86], [3891, 1, 4, 0.28], [8651, 2, 5, 1.45], [2336, 3, 5, 0.99], [95, 3, 17, 1.16], [335, 3, 15, 1.11], [6097, 80, 4, 2.5], [192, 3, 10, 1.98], [6098, 29, 4, 1.52], [1490, 1, 5, 0.68], [11737, 2, 4, 0.84], [214, 3, 9, 0.55], [20927, 1, 4, 0.86], [998, 2, 4, 1.29], [9069, 1, 5, 1.09], [20498, 1, 5, 0.55], [8898, 3, 6, 2.67], [1622, 1, 5, 1.13], [6098, 80, 4, 2.49], [9760, 29, 4, 0.2], [1070, 7, 8, 0.66], [14017, 3, 5, 0.2], [9829, 3, 4, 1.31], [13260, 29, 4, 1.1], [997, 2, 4, 1.3], [13034, 3, 9, 1.01], [12924, 1, 4, 0.53], [22554, 10, 11, 0.23], [11116, 1, 4, 0.57], [20498, 3, 8, 0.35], [35, 1, 4, 2.06], [1243, 2, 4, 1.03], [5513, 2, 4, 0.57], [336, 15, 4, 0.2], [5811, 3, 4, 2.25], [996, 2, 5, 1.39], [9691, 1, 5, 2.16], [5946, 1, 4, 0.28], [5813, 3, 5, 1.57], [5086, 1, 8, 2.63], [8945, 3, 5, 1.09], [39, 1, 4, 2.06], [3049, 3, 6, 1.98], [1080, 3, 5, 0.2], [952, 4, 5, 2.73], [1413, 15, 5, 0.2], [11085, 2, 4, 1.02], [8557, 3, 4, 0.2], [20486, 3, 8, 2.24], [4076, 3, 4, 2.94], [9082, 3, 18, 0.83], [2424, 80, 4, 1.1], [215, 4, 5, 3.67], [34, 1, 4, 2.06], [1703, 2, 6, 1.63], [20486, 1, 4, 0.51], [11510, 3, 6, 0.46], [38, 1, 4, 2.06], [3900, 3, 4, 0.9], [23611, 3, 4, 0.87], [14037, 3, 4, 0.52], [972, 3, 5, 0.51], [8943, 3, 4, 0.61], [13023, 3, 6, 1.48], [8274, 3, 4, 0.53], [2854, 21, 13, 0.79], [14018, 3, 4, 0.2], [8104, 1, 4, 0.59], [6497, 1, 4, 0.82], [3047, 3, 4, 0.69], [11770, 1, 4, 1.44], [18, 1, 4, 0.58], [8672, 2, 280, 5.57], [305, 2, 146, 3.96], [6935, 2, 255, 5.78], [141, 2, 153, 3.56], [2049, 3, 541, 2.4], [12721, 2, 278, 3.19], [151, 1, 42, 2.19], [205, 2, 107, 2.98], [1776, 1, 102, 4.51], [362, 2, 74, 3.67], [146, 2, 137, 3.07], [145, 2, 152, 2.11], [593, 2, 226, 3.27], [8915, 2, 201, 1.63], [2328, 2, 135, 3.66], [8648, 2, 231, 4.54], [1777, 1, 97, 4.13], [3, 2, 112, 3.42], [5151, 2, 26, 1.8], [6936, 2, 255, 5.12], [8675, 2, 266, 3.36], [22247, 2, 278, 3.55], [1007, 2, 266, 2.19], [2778, 2, 139, 3.71], [10, 2, 109, 2.5], [88, 10, 564, 3.17], [8677, 3, 290, 5.73], [412, 1, 82, 4.16], [11681, 2, 281, 4.12], [10149, 3, 855, 5.91], [10825, 21, 643, 3.2], [2054, 3, 461, 4.78], [75, 2, 153, 2.22], [13028, 3, 145, 3.58], [147, 1, 92, 3.55], [361, 2, 153, 2.7], [413, 1, 84, 4.22], [2055, 3, 461, 3.13], [7004, 1, 55, 2.9], [2057, 3, 461, 4.92], [8676, 2, 280, 4.05], [411, 2, 107, 3.4], [308, 1, 165, 3.84], [61, 3, 110, 3.14], [432, 3, 293, 3.44], [1446, 2, 159, 1.99], [1124, 2, 184, 2.39], [45, 2, 111, 6.0], [7005, 1, 78, 2.9], [5081, 2, 189, 3.46], [9827, 3, 85, 3.53], [167, 3, 225, 3.97], [1492, 1, 39, 1.76], [3495, 3, 977, 4.47], [57, 1, 89, 1.66], [168, 3, 400, 4.08], [2049, 1, 16, 1.54], [3893, 1, 122, 2.42], [11234, 2, 192, 3.02], [3889, 1, 122, 2.42], [6097, 29, 37, 2.61], [3891, 1, 122, 2.42]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 1.32], [8672, 2, 10, 2.68], [3, 2, 11, 2.18], [589, 2, 14, 0.55], [130, 1, 9, 1.43], [2049, 3, 27, 1.73], [205, 2, 7, 0.96], [144, 2, 7, 1.42], [12721, 2, 10, 3.06], [75, 2, 9, 1.86], [145, 2, 7, 1.0], [1776, 1, 7, 1.85], [8915, 2, 12, 0.5], [593, 2, 15, 1.83], [146, 2, 7, 1.75], [151, 1, 7, 0.71], [2778, 2, 11, 1.62], [1777, 1, 7, 2.1], [20252, 2, 7, 0.89], [8648, 2, 7, 5.0], [206, 2, 7, 1.6], [6936, 2, 15, 2.57], [2328, 2, 11, 1.55], [5151, 2, 7, 0.9], [88, 10, 21, 1.98], [141, 2, 7, 2.77], [8675, 2, 10, 1.76], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [7004, 1, 7, 3.3], [1492, 1, 7, 0.81], [2054, 3, 7, 1.03], [1446, 2, 7, 2.98], [10825, 21, 13, 2.01], [362, 2, 7, 2.54], [2057, 3, 7, 0.88], [1007, 2, 11, 0.73], [345, 3, 7, 0.97], [432, 3, 7, 1.15], [7005, 1, 7, 2.68], [22247, 2, 13, 4.81], [11681, 2, 13, 3.81], [201, 3, 11, 0.87], [57, 1, 7, 1.34], [410, 1, 7, 2.85], [3889, 1, 7, 0.8], [308, 1, 17, 3.41], [10149, 3, 21, 2.8], [12870, 1, 7, 5.0], [1124, 2, 14, 0.68], [7036, 1, 7, 2.49], [35, 1, 7, 3.65], [167, 3, 9, 2.77], [9827, 3, 7, 3.12], [5081, 2, 14, 1.08], [8677, 3, 9, 1.84], [94, 4, 7, 3.35], [411, 2, 7, 1.37], [1504, 2, 7, 1.97], [3891, 1, 7, 2.38], [79, 1, 7, 1.19], [168, 3, 11, 3.71], [8676, 2, 7, 1.7], [3893, 1, 7, 2.63], [5812, 3, 10, 1.92], [9760, 29, 7, 1.41], [23, 1, 9, 2.81], [1490, 1, 7, 1.17], [412, 1, 7, 3.16], [3980, 4, 7, 2.74], [20927, 1, 7, 3.21], [45, 2, 7, 2.97], [361, 2, 9, 3.21], [1767, 25, 9, 1.17], [5208, 3, 16, 3.05], [1622, 1, 7, 3.2], [95, 3, 27, 1.28], [9069, 1, 7, 1.96], [8651, 2, 9, 3.54], [335, 3, 20, 0.93], [25, 1, 9, 2.73], [214, 3, 18, 1.26], [10574, 3, 10, 1.02], [413, 1, 7, 2.8], [2049, 1, 7, 1.19], [34, 1, 7, 3.81], [998, 2, 7, 2.83], [856, 1, 7, 1.01], [3495, 3, 16, 2.26], [8898, 3, 12, 3.12], [9691, 1, 7, 3.0], [1766, 25, 9, 4.01], [1070, 7, 15, 0.84], [11116, 1, 7, 3.57], [20498, 1, 7, 2.72], [38, 1, 7, 4.04], [997, 2, 7, 1.84], [5946, 1, 7, 2.23], [14017, 3, 9, 1.5], [1413, 15, 7, 0.83], [974, 3, 9, 2.64], [9829, 3, 7, 2.73], [152, 21, 7, 1.46], [1091, 1, 7, 1.75], [20498, 3, 12, 1.89], [39, 1, 7, 4.04], [82, 2, 7, 2.13], [14037, 3, 11, 1.09], [9372, 1, 7, 2.14], [5209, 3, 9, 3.05], [1080, 3, 9, 1.34], [5086, 1, 7, 4.63], [996, 2, 7, 4.34], [1767, 2, 7, 1.71], [3048, 3, 7, 3.93], [9828, 3, 7, 3.41], [972, 3, 8, 2.01], [13260, 29, 7, 2.71], [24, 1, 7, 2.54], [4203, 1, 7, 1.31], [5513, 2, 7, 2.11], [10780, 10, 7, 3.58], [5813, 3, 9, 3.29], [3981, 3, 17, 2.74], [202, 2, 7, 3.63], [8945, 3, 8, 2.81], [952, 4, 7, 4.41], [36, 1, 7, 4.04], [336, 15, 7, 0.92], [2878, 1, 7, 2.26], [13034, 3, 8, 2.88], [3900, 3, 7, 0.94], [23611, 3, 8, 4.42], [995, 2, 7, 2.41], [6497, 1, 7, 1.29], [14018, 3, 7, 0.89], [24257, 1, 7, 3.7], [9082, 3, 29, 2.75], [170, 3, 7, 3.64], [3980, 4, 570, 3.8], [20927, 1, 27, 4.05], [45, 2, 123, 5.03], [1767, 25, 175, 3.42], [5208, 3, 590, 4.62], [1622, 1, 111, 4.52], [95, 3, 1250, 3.81], [9069, 1, 124, 3.03], [8651, 2, 234, 4.6], [335, 3, 1472, 2.98], [214, 3, 732, 2.32], [10574, 3, 612, 2.09], [413, 1, 96, 4.36], [34, 1, 123, 4.88], [998, 2, 270, 3.89], [856, 1, 38, 2.07], [3495, 3, 1086, 4.69], [8898, 3, 301, 5.58], [1766, 25, 125, 4.94], [1070, 7, 646, 3.65], [11116, 1, 25, 4.33], [20498, 1, 110, 4.61], [38, 1, 123, 5.11], [997, 2, 285, 2.9], [5946, 1, 138, 4.28], [14017, 3, 203, 3.38], [1413, 15, 118, 1.9], [974, 3, 167, 4.45], [9829, 3, 72, 3.8], [1091, 1, 36, 3.0], [20498, 3, 659, 4.2], [39, 1, 123, 5.11], [9372, 1, 280, 3.21], [5209, 3, 590, 4.62], [1080, 3, 149, 3.89], [5086, 1, 154, 5.71], [996, 2, 82, 5.36], [1767, 2, 38, 3.42], [3048, 3, 304, 5.98], [9828, 3, 29, 4.22], [972, 3, 672, 3.65], [13260, 29, 81, 4.03], [24, 1, 125, 3.89], [4203, 1, 55, 3.36], [10780, 10, 391, 5.89], [5813, 3, 705, 4.36], [3981, 3, 1815, 4.05], [202, 2, 37, 4.53], [952, 4, 85, 5.73], [36, 1, 117, 5.11], [2878, 1, 86, 3.33], [13034, 3, 663, 4.48], [3900, 3, 49, 2.26], [23611, 3, 367, 5.48], [995, 2, 285, 3.48], [6497, 1, 44, 2.36], [14018, 3, 237, 1.96], [24257, 1, 70, 4.54], [9082, 3, 2907, 3.83], [170, 3, 410, 4.71]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 9, 1.32], [6935, 2, 11, 4.09], [2778, 2, 17, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [6936, 2, 7, 3.27], [2775, 2, 7, 2.04], [205, 2, 9, 2.28], [8650, 2, 7, 3.41], [593, 2, 17, 2.02], [145, 2, 9, 1.42], [146, 2, 7, 1.4], [326, 2, 7, 1.02], [7036, 1, 7, 3.79], [5493, 2, 7, 0.73], [88, 10, 29, 3.07], [141, 2, 7, 1.29], [7004, 1, 7, 2.58], [1446, 2, 7, 1.5], [1124, 2, 9, 1.59], [9760, 29, 7, 1.89], [206, 2, 9, 1.58], [8853, 2, 7, 2.55], [8672, 2, 7, 3.25], [362, 2, 7, 3.0], [142, 2, 7, 2.28], [11685, 2, 11, 1.76], [2912, 1, 7, 3.73], [7886, 4, 7, 0.8], [8649, 2, 7, 3.04], [5165, 1, 7, 3.1], [12870, 1, 9, 4.32], [1622, 1, 7, 1.38], [2055, 3, 7, 1.06], [417, 2, 7, 2.02], [7573, 1, 14, 5.0], [7084, 3, 7, 3.55], [21793, 1, 7, 1.7], [7885, 4, 9, 1.47], [2054, 3, 7, 3.41], [523, 2, 7, 1.19], [10, 2, 9, 1.21], [9372, 1, 7, 2.39], [3891, 1, 7, 1.21], [75, 2, 7, 3.56], [10149, 3, 21, 2.81], [5208, 3, 11, 1.03], [9491, 21, 19, 1.74], [20927, 1, 9, 2.86], [35, 1, 9, 3.54], [997, 2, 7, 2.43], [12721, 2, 10, 3.06], [5165, 2, 8, 2.04], [3, 2, 9, 2.97], [33, 1, 7, 1.87], [998, 2, 7, 1.83], [94, 4, 7, 0.96], [7887, 4, 7, 1.12], [22247, 2, 7, 2.77], [996, 2, 7, 1.83], [972, 3, 10, 2.61], [34, 1, 7, 3.25], [6158, 2, 14, 1.56], [2805, 137, 7, 3.15], [2912, 2, 12, 3.73], [2424, 80, 7, 1.6], [38, 1, 7, 1.87], [8104, 1, 7, 3.06], [2336, 3, 8, 1.39], [8898, 3, 7, 1.44], [9690, 1, 7, 0.89], [12212, 29, 9, 1.15], [24257, 1, 7, 1.25], [39, 1, 7, 1.87], [11952, 1, 7, 1.58], [7567, 3, 7, 3.04], [2424, 29, 7, 2.71], [1414, 15, 7, 0.85], [192, 3, 15, 2.09], [8676, 2, 7, 3.25], [11770, 1, 7, 3.62], [3495, 3, 17, 3.02], [202, 2, 7, 2.58], [13928, 1, 7, 2.56], [3048, 3, 7, 2.02], [4032, 29, 7, 5.0], [23961, 3, 7, 3.68], [11490, 1, 7, 0.85], [161, 3, 11, 3.8], [5946, 1, 7, 0.67], [11772, 1, 7, 2.97], [1703, 2, 7, 0.81], [10407, 10, 15, 2.75], [74, 1, 7, 4.99], [10410, 10, 11, 2.51], [13023, 3, 8, 2.91], [1274, 1, 7, 1.55], [1519, 3, 24, 0.67], [24258, 1, 9, 2.7], [1523, 1, 7, 1.08], [21269, 3, 7, 5.0], [2331, 1, 7, 2.06], [11236, 2, 7, 1.19], [4253, 1, 7, 0.75], [5164, 1, 7, 1.99], [4076, 3, 7, 3.06], [3430, 15, 7, 1.29], [12764, 2, 8, 0.61], [6097, 80, 7, 1.37], [972, 1, 7, 2.2], [214, 3, 26, 1.25], [6097, 29, 7, 1.37], [10780, 10, 7, 2.56], [1080, 3, 7, 2.75], [8674, 2, 7, 1.69], [3047, 3, 7, 3.41], [13893, 2, 7, 2.25], [9081, 3, 12, 0.94], [11404, 2, 7, 0.81], [10408, 10, 8, 1.05], [8677, 3, 7, 2.5], [13034, 3, 7, 3.01], [3576, 29, 7, 2.56], [1243, 2, 7, 2.09], [12662, 1, 7, 1.02], [13264, 29, 7, 0.9], [2436, 4, 7, 1.58], [20486, 3, 7, 3.48], [6497, 1, 7, 1.87], [7704, 2, 7, 0.87], [13928, 2, 7, 2.56], [3334, 5, 7, 4.89], [11813, 1, 7, 1.69], [45, 2, 7, 1.84], [1277, 1, 7, 3.58], [9690, 1, 86, 2.09], [12212, 29, 119, 3.53], [24257, 1, 153, 2.7], [39, 1, 127, 3.07], [11952, 1, 230, 2.78], [7567, 3, 76, 4.57], [2424, 29, 38, 4.16], [1414, 15, 115, 2.05], [192, 3, 1309, 3.56], [8676, 2, 328, 4.45], [11770, 1, 250, 4.82], [3495, 3, 1058, 4.49], [202, 2, 84, 3.78], [13928, 1, 54, 3.76], [3048, 3, 297, 3.23], [4032, 29, 108, 6.0], [23961, 3, 340, 4.88], [11490, 1, 126, 2.05], [161, 3, 861, 4.99], [5946, 1, 144, 1.87], [11772, 1, 246, 4.17], [1703, 2, 191, 2.01], [10407, 10, 1373, 3.96], [74, 1, 215, 6.0], [10410, 10, 1373, 3.72], [13023, 3, 683, 4.12], [1274, 1, 90, 3.0], [1519, 3, 1076, 1.94], [1523, 1, 55, 2.28], [21269, 3, 340, 6.0], [2331, 1, 135, 3.26], [11236, 2, 255, 2.39], [4253, 1, 180, 2.2], [5164, 1, 54, 3.19], [4076, 3, 230, 4.26], [3430, 15, 80, 2.49], [12764, 2, 861, 1.8], [6097, 80, 81, 2.57], [972, 1, 115, 3.4], [6097, 29, 41, 2.57], [10780, 10, 436, 3.77], [1080, 3, 147, 3.95], [8674, 2, 328, 2.89], [3047, 3, 296, 5.09], [13893, 2, 316, 3.45], [9081, 3, 562, 2.15], [11404, 2, 121, 2.01], [10408, 10, 912, 2.26], [8677, 3, 340, 3.7], [13034, 3, 673, 4.22], [3576, 29, 35, 3.75], [1243, 2, 112, 3.29], [12662, 1, 71, 2.22], [13264, 29, 85, 2.1], [2436, 4, 134, 2.78], [20486, 3, 615, 4.68], [6497, 1, 43, 3.07], [7704, 2, 205, 2.07], [13928, 2, 27, 3.76], [3334, 5, 200, 6.0], [11813, 1, 365, 2.89], [45, 2, 125, 3.04], [1277, 1, 221, 4.78]]</t>
+  </si>
+  <si>
+    <t>[[326, 2, 7, 1.37], [11685, 2, 7, 3.6], [144, 2, 9, 2.0], [11681, 2, 9, 3.34], [589, 2, 8, 0.61], [2327, 2, 7, 0.94], [205, 2, 7, 0.99], [593, 2, 14, 1.01], [141, 2, 7, 1.85], [305, 2, 7, 1.23], [8915, 2, 8, 1.37], [8650, 2, 7, 2.25], [2328, 2, 7, 0.81], [151, 1, 7, 0.69], [6936, 2, 14, 4.75], [2778, 2, 11, 1.43], [2049, 3, 14, 1.17], [146, 2, 11, 1.81], [206, 2, 7, 1.82], [88, 10, 18, 2.29], [7004, 1, 7, 3.12], [9507, 3, 7, 0.69], [615, 2, 7, 0.94], [7036, 1, 7, 3.81], [145, 2, 9, 1.5], [1446, 2, 7, 1.73], [417, 2, 7, 0.93], [8853, 2, 7, 2.37], [362, 2, 7, 3.0], [248, 1, 7, 0.71], [523, 2, 9, 1.56], [2055, 3, 7, 4.17], [10993, 2, 9, 0.98], [142, 2, 7, 0.92], [75, 2, 9, 1.89], [616, 2, 7, 0.96], [3840, 1, 7, 0.75], [11737, 2, 7, 1.27], [2050, 3, 7, 4.19], [12870, 1, 7, 3.69], [12350, 1, 7, 3.09], [2054, 3, 7, 4.19], [2057, 3, 7, 3.77], [7084, 3, 7, 1.67], [13028, 3, 7, 1.25], [20927, 1, 7, 2.62], [7005, 1, 7, 1.54], [3, 2, 7, 1.0], [3982, 3, 19, 1.23], [10, 2, 9, 0.66], [997, 2, 7, 1.71], [94, 4, 7, 1.75], [21793, 1, 7, 3.79], [61, 3, 7, 4.31], [7885, 4, 9, 1.53], [3891, 1, 7, 0.87], [996, 2, 9, 3.03], [6158, 2, 7, 1.77], [998, 2, 7, 1.1], [8672, 2, 7, 2.68], [5165, 1, 7, 2.12], [9491, 21, 18, 3.13], [11739, 2, 7, 2.06], [2912, 1, 7, 3.72], [972, 3, 8, 1.64], [5165, 2, 8, 2.12], [7886, 4, 7, 0.9], [346, 3, 7, 0.88], [3980, 4, 7, 2.63], [98, 11, 16, 1.21], [10388, 2, 7, 2.43], [411, 2, 7, 1.75], [1492, 1, 7, 0.9], [346, 1, 7, 0.83], [7573, 1, 7, 4.14], [8677, 3, 7, 3.84], [83, 2, 7, 1.41], [5208, 3, 10, 2.74], [7567, 3, 7, 2.7], [410, 1, 7, 2.22], [22316, 3, 7, 0.98], [995, 2, 7, 1.79], [3981, 3, 21, 2.03], [9081, 3, 12, 3.65], [13928, 1, 7, 1.58], [22247, 2, 7, 2.36], [10386, 2, 7, 1.46], [9372, 1, 7, 2.16], [336, 15, 7, 1.06], [11770, 1, 7, 3.3], [308, 1, 7, 3.47], [10780, 10, 7, 3.49], [1622, 1, 7, 1.6], [11953, 1, 7, 1.85], [161, 3, 8, 2.28], [2912, 2, 8, 3.72], [23611, 3, 9, 3.81], [9082, 3, 33, 2.42], [5946, 1, 7, 1.64], [345, 3, 7, 0.96], [22317, 3, 7, 0.98], [192, 3, 20, 1.83], [11116, 1, 7, 3.1], [229, 1, 7, 3.09], [24257, 1, 7, 3.7], [37, 1, 7, 2.48], [82, 2, 7, 0.98], [972, 1, 7, 3.25], [11767, 1, 7, 1.27], [12271, 2, 7, 2.18], [7704, 2, 7, 3.27], [34, 1, 7, 2.19], [14037, 3, 7, 4.06], [8104, 1, 7, 3.07], [10410, 10, 10, 2.55], [10407, 10, 10, 2.59], [11085, 2, 9, 3.15], [11404, 2, 7, 0.81], [3048, 3, 7, 2.19], [10387, 2, 7, 4.13], [20498, 3, 8, 0.7], [74, 1, 7, 2.68], [38, 1, 7, 2.73], [1413, 15, 7, 0.77], [335, 3, 15, 0.89], [12721, 2, 7, 1.73], [2331, 1, 7, 2.15], [12338, 29, 7, 0.75], [215, 4, 7, 3.93], [4001, 3, 14, 2.07], [1523, 1, 7, 1.16], [4253, 1, 7, 1.69], [11510, 3, 8, 1.74], [8673, 2, 7, 4.37], [45, 2, 7, 2.76], [201, 3, 7, 0.96], [98, 11, 896, 2.34], [10388, 2, 234, 3.55], [411, 2, 117, 2.87], [1492, 1, 40, 2.03], [346, 1, 150, 2.21], [7573, 1, 376, 5.27], [8677, 3, 312, 4.97], [7567, 3, 75, 3.82], [410, 1, 25, 2.86], [22316, 3, 342, 2.11], [995, 2, 261, 2.91], [3981, 3, 1743, 3.18], [9081, 3, 448, 5.02], [13928, 1, 51, 2.71], [22247, 2, 276, 3.49], [10386, 2, 234, 2.59], [9372, 1, 258, 3.29], [336, 15, 119, 2.19], [11770, 1, 231, 4.43], [308, 1, 171, 4.6], [10780, 10, 396, 4.61], [1622, 1, 116, 2.73], [11953, 1, 215, 2.98], [161, 3, 805, 3.39], [2912, 2, 388, 4.84], [23611, 3, 349, 4.93], [9082, 3, 2517, 3.83], [5946, 1, 135, 2.77], [345, 3, 320, 2.09], [22317, 3, 342, 2.11], [192, 3, 1240, 3.19], [229, 1, 89, 4.22], [37, 1, 113, 3.86], [82, 2, 22, 1.82], [11767, 1, 174, 2.39], [12271, 2, 68, 3.3], [7704, 2, 179, 4.4], [34, 1, 113, 3.49], [14037, 3, 353, 5.18], [8104, 1, 210, 4.19], [10410, 10, 1285, 3.68], [10407, 10, 1285, 3.72], [11085, 2, 578, 4.27], [11404, 2, 114, 1.94], [3048, 3, 291, 3.31], [10387, 2, 234, 5.26], [20498, 3, 633, 1.83], [74, 1, 212, 3.81], [38, 1, 119, 3.86], [1413, 15, 107, 1.9], [335, 3, 1414, 2.0], [12721, 2, 307, 2.85], [2331, 1, 126, 3.28], [12338, 29, 57, 1.88], [215, 4, 41, 5.06], [4001, 3, 854, 3.19], [1523, 1, 51, 2.29], [4253, 1, 187, 2.82], [11510, 3, 630, 2.87], [8673, 2, 272, 5.5], [45, 2, 114, 3.88], [201, 3, 320, 2.09]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 34, 2.8], [362, 2, 11, 1.38], [2049, 3, 24, 0.5], [589, 2, 18, 0.5], [3, 2, 9, 1.97], [75, 2, 14, 1.51], [141, 2, 7, 2.0], [8672, 2, 15, 2.16], [1776, 1, 7, 1.12], [130, 1, 7, 1.02], [205, 2, 9, 1.95], [8915, 2, 10, 0.86], [151, 1, 7, 1.08], [11681, 2, 15, 5.0], [2778, 2, 10, 0.56], [305, 2, 7, 0.94], [1777, 1, 7, 2.22], [6936, 2, 10, 2.79], [8648, 2, 9, 3.71], [593, 2, 14, 2.33], [990, 2, 7, 1.0], [88, 10, 21, 1.94], [83, 2, 7, 0.96], [1007, 2, 15, 1.03], [345, 3, 9, 1.1], [5151, 2, 7, 1.71], [412, 1, 7, 3.14], [361, 2, 7, 2.88], [201, 3, 10, 1.01], [22247, 2, 9, 2.42], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [12721, 2, 10, 2.24], [7004, 1, 7, 1.34], [10825, 21, 13, 2.1], [2054, 3, 9, 3.22], [167, 3, 9, 2.5], [413, 1, 7, 3.27], [2057, 3, 7, 3.22], [308, 1, 7, 2.71], [5005, 1, 7, 0.92], [74, 1, 7, 3.75], [6158, 2, 8, 2.62], [168, 3, 7, 1.9], [1446, 2, 7, 1.04], [346, 1, 7, 0.92], [432, 3, 7, 1.61], [13028, 3, 7, 1.61], [10, 2, 9, 2.16], [7036, 1, 9, 4.75], [3495, 3, 19, 1.65], [12870, 1, 14, 5.0], [214, 3, 15, 0.77], [335, 3, 18, 2.4], [5081, 2, 9, 0.93], [79, 1, 7, 0.73], [5208, 3, 13, 3.58], [9827, 3, 7, 1.98], [410, 1, 7, 1.54], [3889, 1, 7, 2.63], [1492, 1, 7, 0.81], [95, 3, 21, 3.55], [5812, 3, 10, 2.49], [94, 4, 7, 3.35], [3893, 1, 7, 1.67], [13260, 29, 7, 2.12], [23, 1, 7, 2.76], [1504, 2, 7, 2.78], [7005, 1, 7, 1.44], [1490, 1, 7, 2.48], [411, 2, 7, 1.66], [10993, 2, 7, 0.81], [3891, 1, 7, 2.52], [25, 1, 7, 2.67], [998, 2, 7, 2.66], [1124, 2, 12, 1.74], [3980, 4, 7, 2.76], [21269, 3, 7, 5.0], [8651, 2, 7, 0.67], [10574, 3, 9, 2.31], [9691, 1, 7, 4.14], [5086, 1, 9, 2.24], [856, 1, 7, 1.17], [2878, 1, 9, 3.32], [997, 2, 14, 3.52], [5660, 2, 7, 4.03], [8676, 2, 7, 1.94], [11914, 1, 12, 1.02], [20927, 1, 7, 1.75], [192, 3, 22, 4.99], [9829, 3, 7, 3.0], [1703, 2, 7, 3.63], [5209, 3, 9, 2.86], [8674, 2, 7, 3.61], [1622, 1, 10, 1.61], [9081, 3, 12, 0.73], [952, 4, 7, 5.0], [20498, 1, 7, 1.79], [5513, 2, 7, 1.88], [1070, 7, 13, 2.49], [996, 2, 11, 4.11], [8898, 3, 10, 5.0], [14037, 3, 9, 0.93], [346, 3, 8, 0.8], [1091, 1, 7, 1.35], [12661, 1, 7, 4.66], [20498, 3, 10, 3.76], [1519, 3, 26, 0.67], [6097, 29, 7, 2.33], [27, 1, 7, 1.53], [8274, 3, 9, 1.92], [24, 1, 7, 2.85], [13034, 3, 12, 3.48], [22317, 3, 8, 1.15], [4203, 1, 11, 1.27], [10529, 29, 7, 2.95], [11490, 1, 7, 0.98], [1413, 15, 7, 1.69], [336, 15, 7, 0.67], [6097, 80, 7, 1.27], [24664, 2, 13, 3.27], [11767, 1, 7, 1.15], [23611, 3, 7, 3.74], [34, 1, 7, 3.96], [9082, 3, 29, 3.0], [2104, 3, 12, 2.51], [6098, 80, 7, 3.18], [66, 1, 7, 0.87], [11769, 1, 7, 0.9], [5811, 3, 7, 2.13], [10780, 10, 7, 4.87], [6098, 29, 7, 2.0], [38, 1, 7, 3.97], [39, 1, 7, 3.97], [66, 16, 7, 0.9], [2109, 3, 18, 0.75], [1490, 1, 47, 3.43], [411, 2, 113, 2.6], [10993, 2, 56, 1.76], [3891, 1, 129, 3.47], [998, 2, 236, 5.57], [1124, 2, 174, 2.93], [3980, 4, 450, 3.97], [21269, 3, 290, 6.0], [8651, 2, 229, 1.61], [10574, 3, 505, 3.63], [9691, 1, 73, 5.2], [5086, 1, 182, 4.69], [856, 1, 34, 2.37], [997, 2, 236, 4.59], [5660, 2, 171, 4.98], [8676, 2, 280, 3.13], [11914, 1, 84, 3.85], [20927, 1, 28, 2.9], [192, 3, 1224, 5.98], [9829, 3, 64, 4.2], [1703, 2, 162, 5.19], [5209, 3, 535, 3.8], [8674, 2, 280, 4.56], [1622, 1, 92, 2.56], [9081, 3, 506, 1.67], [952, 4, 58, 6.0], [20498, 1, 92, 2.99], [1070, 7, 609, 3.44], [996, 2, 236, 5.79], [8898, 3, 290, 6.0], [14037, 3, 120, 1.91], [346, 3, 645, 1.75], [1091, 1, 47, 3.19], [12661, 1, 41, 5.76], [20498, 3, 570, 4.94], [1519, 3, 1615, 2.5], [6097, 29, 33, 3.51], [27, 1, 117, 2.47], [24, 1, 110, 4.06], [13034, 3, 578, 5.17], [22317, 3, 312, 3.06], [4203, 1, 44, 3.18], [10529, 29, 40, 4.5], [11490, 1, 113, 1.93], [1413, 15, 96, 3.22], [6097, 80, 74, 2.22], [24664, 2, 296, 4.21], [11767, 1, 154, 2.1], [23611, 3, 295, 4.95], [34, 1, 95, 4.88], [9082, 3, 2551, 3.92], [6098, 80, 76, 4.13], [66, 1, 40, 1.82], [11769, 1, 154, 2.1], [5811, 3, 615, 3.08], [10780, 10, 349, 5.82], [6098, 29, 38, 3.06], [38, 1, 114, 4.92], [39, 1, 95, 4.88], [66, 16, 72, 2.1], [2109, 3, 434, 2.02]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 12, 0.87], [88, 10, 21, 1.36], [8915, 2, 15, 1.06], [6935, 2, 14, 4.34], [2778, 2, 9, 0.55], [305, 2, 7, 1.07], [2328, 2, 14, 1.46], [615, 2, 7, 1.07], [326, 2, 17, 2.27], [6936, 2, 7, 3.27], [8648, 2, 7, 3.27], [8650, 2, 14, 5.0], [1446, 2, 7, 1.57], [434, 2, 7, 1.0], [205, 2, 7, 2.16], [10, 2, 9, 2.3], [144, 2, 9, 2.75], [151, 1, 7, 0.69], [94, 4, 7, 3.35], [7036, 1, 7, 2.33], [7886, 4, 7, 1.41], [141, 2, 11, 2.03], [1504, 2, 7, 2.78], [146, 2, 10, 2.31], [362, 2, 7, 3.0], [3891, 1, 7, 1.49], [21793, 1, 7, 2.4], [206, 2, 7, 1.85], [8649, 2, 7, 3.04], [11404, 2, 7, 0.81], [10993, 2, 7, 1.12], [5208, 3, 11, 2.22], [2054, 3, 9, 3.47], [3980, 4, 8, 1.72], [7005, 1, 7, 1.82], [11234, 2, 7, 2.7], [12870, 1, 7, 1.42], [145, 2, 7, 3.0], [5165, 1, 7, 2.04], [2912, 1, 7, 3.73], [8672, 2, 7, 3.25], [20927, 1, 7, 2.86], [10149, 3, 19, 2.29], [7887, 4, 7, 1.98], [998, 2, 7, 4.25], [9760, 29, 7, 1.89], [2436, 4, 7, 1.11], [417, 2, 7, 2.28], [997, 2, 7, 2.43], [142, 2, 7, 2.37], [2424, 80, 7, 3.03], [3, 2, 9, 1.95], [6158, 2, 7, 2.44], [9491, 21, 19, 1.74], [972, 3, 14, 2.61], [523, 2, 7, 1.19], [3495, 3, 18, 2.92], [11770, 1, 7, 3.62], [214, 3, 15, 0.69], [7573, 1, 16, 5.0], [11953, 1, 7, 1.93], [74, 1, 7, 3.83], [24257, 1, 7, 1.44], [5165, 2, 8, 2.04], [996, 2, 7, 1.83], [12721, 2, 7, 2.64], [2423, 80, 7, 1.39], [11772, 1, 7, 2.97], [8677, 3, 7, 2.5], [2912, 2, 12, 3.73], [6497, 1, 7, 1.87], [3981, 3, 20, 1.03], [1622, 1, 7, 3.19], [22317, 3, 7, 0.81], [8898, 3, 7, 1.44], [2438, 2, 8, 0.85], [2424, 29, 7, 1.56], [5434, 1, 7, 1.19], [823, 1, 7, 2.0], [4253, 1, 7, 0.75], [9372, 1, 7, 2.39], [3975, 4, 7, 2.36], [33, 1, 7, 1.87], [7567, 3, 7, 0.79], [6496, 1, 7, 2.51], [24258, 1, 9, 2.26], [2805, 137, 7, 3.15], [9081, 3, 12, 0.94], [9082, 3, 37, 3.08], [37, 1, 7, 1.5], [5946, 1, 7, 0.67], [11812, 1, 7, 0.92], [335, 3, 15, 0.89], [1519, 3, 20, 0.83], [8676, 2, 7, 3.25], [12764, 2, 8, 0.61], [10407, 10, 15, 2.75], [220, 4, 7, 3.47], [972, 1, 7, 2.2], [6097, 80, 7, 1.37], [23611, 3, 8, 3.74], [1243, 2, 7, 2.09], [10388, 2, 7, 2.07], [1703, 2, 7, 0.81], [161, 3, 11, 3.8], [1414, 15, 7, 0.85], [1274, 1, 7, 1.26], [95, 3, 18, 0.85], [38, 1, 7, 1.87], [11490, 1, 7, 0.85], [35, 1, 7, 1.87], [11236, 2, 7, 1.19], [22247, 2, 7, 2.43], [12212, 29, 7, 1.02], [4232, 80, 7, 2.51], [2104, 3, 15, 0.92], [1895, 3, 7, 4.81], [10631, 2, 7, 4.73], [8659, 1, 7, 1.64], [11813, 1, 7, 1.69], [13893, 2, 7, 2.25], [11235, 2, 7, 2.61], [10093, 3, 14, 1.76], [12501, 1, 7, 2.39], [8635, 3, 7, 2.45], [788, 2, 7, 1.02], [5164, 1, 7, 1.99], [8274, 3, 7, 2.04], [1309, 1, 7, 0.87], [4940, 1, 7, 0.85], [8104, 1, 7, 3.06], [10780, 10, 7, 2.56], [19931, 1, 7, 2.43], [13034, 3, 7, 3.01], [10386, 2, 7, 4.24], [11942, 29, 7, 2.27], [5151, 2, 7, 1.98], [22317, 3, 329, 2.26], [8898, 3, 339, 2.63], [2438, 2, 739, 2.04], [2424, 29, 40, 2.76], [5434, 1, 57, 2.39], [823, 1, 46, 3.2], [4253, 1, 199, 1.95], [9372, 1, 272, 3.59], [3975, 4, 557, 3.56], [33, 1, 127, 3.07], [7567, 3, 81, 1.99], [6496, 1, 47, 3.71], [24258, 1, 32, 2.93], [2805, 137, 200, 4.35], [9081, 3, 562, 2.15], [9082, 3, 2833, 4.25], [37, 1, 127, 2.7], [5946, 1, 144, 1.87], [11812, 1, 277, 2.12], [335, 3, 1511, 2.09], [1519, 3, 567, 1.72], [8676, 2, 328, 4.45], [12764, 2, 861, 1.8], [10407, 10, 1373, 3.96], [220, 4, 52, 4.67], [972, 1, 115, 3.4], [6097, 80, 81, 2.57], [23611, 3, 364, 4.94], [1243, 2, 112, 3.29], [10388, 2, 250, 3.27], [1703, 2, 191, 2.01], [161, 3, 861, 4.99], [1414, 15, 115, 2.05], [1274, 1, 95, 2.46], [95, 3, 1307, 2.04], [38, 1, 127, 3.07], [11490, 1, 126, 2.05], [35, 1, 127, 3.07], [11236, 2, 255, 2.39], [22247, 2, 326, 3.63], [12212, 29, 139, 2.22], [4232, 80, 179, 3.71], [2104, 3, 393, 2.13], [1895, 3, 340, 6.0], [10631, 2, 238, 5.93], [8659, 1, 139, 2.84], [11813, 1, 365, 2.89], [13893, 2, 316, 3.45], [11235, 2, 227, 3.81], [10093, 3, 951, 2.97], [12501, 1, 343, 3.6], [788, 2, 43, 2.08], [5164, 1, 54, 3.19], [1309, 1, 60, 2.07], [4940, 1, 140, 2.05], [8104, 1, 226, 4.27], [10780, 10, 436, 3.77], [19931, 1, 472, 3.62], [13034, 3, 673, 4.22], [10386, 2, 250, 5.44], [11942, 29, 112, 3.47], [5151, 2, 28, 3.18]]</t>
+  </si>
+  <si>
+    <t>[[305, 2, 7, 1.23], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [205, 2, 9, 0.98], [88, 10, 14, 0.72], [144, 2, 11, 2.59], [1504, 2, 7, 1.9], [589, 2, 8, 0.61], [326, 2, 14, 1.69], [8915, 2, 8, 1.95], [8650, 2, 9, 2.73], [7036, 1, 7, 3.33], [593, 2, 10, 1.23], [2775, 2, 9, 2.0], [141, 2, 9, 1.83], [206, 2, 7, 1.75], [3980, 4, 7, 2.37], [7004, 1, 7, 2.52], [3891, 1, 7, 1.24], [2050, 3, 7, 4.09], [8853, 2, 7, 4.22], [7885, 4, 9, 1.27], [7886, 4, 9, 1.0], [2328, 2, 7, 0.81], [146, 2, 9, 2.86], [2055, 3, 9, 4.2], [2054, 3, 7, 3.68], [10, 2, 9, 0.66], [5491, 2, 7, 0.69], [362, 2, 9, 3.06], [8672, 2, 7, 2.43], [12870, 1, 9, 3.96], [8649, 2, 7, 3.04], [10993, 2, 9, 1.56], [3975, 4, 7, 2.76], [2057, 3, 7, 5.0], [21793, 1, 7, 3.79], [12349, 1, 7, 3.09], [5165, 1, 7, 2.12], [1446, 2, 7, 2.21], [13028, 3, 7, 1.25], [3982, 3, 21, 2.77], [5208, 3, 10, 2.74], [75, 2, 7, 1.14], [2991, 3, 7, 4.18], [523, 2, 7, 2.23], [145, 2, 7, 2.98], [7005, 1, 7, 1.87], [94, 4, 7, 3.35], [3495, 3, 21, 3.84], [11404, 2, 7, 0.81], [20927, 1, 7, 3.14], [997, 2, 7, 3.28], [6158, 2, 9, 3.62], [192, 3, 33, 2.81], [2912, 1, 7, 3.72], [82, 2, 7, 1.52], [22316, 3, 9, 1.23], [417, 2, 7, 0.92], [5165, 2, 8, 2.12], [7567, 3, 7, 2.7], [998, 2, 7, 3.28], [11769, 1, 9, 2.16], [389, 4, 7, 2.12], [1492, 1, 7, 1.17], [11953, 1, 7, 1.85], [4176, 4, 9, 3.74], [346, 3, 7, 2.21], [996, 2, 9, 3.58], [11767, 1, 7, 1.27], [5946, 1, 7, 1.64], [6496, 1, 7, 0.94], [8677, 3, 7, 3.84], [37, 1, 7, 2.89], [12721, 2, 7, 1.73], [972, 3, 8, 3.25], [4253, 1, 7, 1.69], [74, 1, 7, 2.68], [11490, 1, 7, 1.52], [22317, 3, 9, 1.67], [411, 2, 7, 1.75], [12212, 29, 9, 0.94], [2104, 3, 10, 0.94], [1413, 15, 7, 1.12], [345, 3, 7, 0.96], [3979, 3, 8, 2.31], [336, 15, 7, 2.19], [11085, 2, 9, 3.42], [2912, 2, 8, 3.72], [8121, 3, 7, 1.17], [1274, 1, 7, 1.94], [201, 3, 9, 2.61], [1277, 1, 7, 3.58], [14037, 3, 7, 4.04], [3, 2, 7, 1.48], [13023, 3, 7, 2.91], [21269, 3, 7, 3.75], [823, 1, 7, 0.92], [38, 1, 7, 2.73], [6494, 1, 7, 0.85], [8673, 2, 7, 4.6], [36, 1, 7, 2.89], [12271, 2, 7, 2.18], [5209, 3, 9, 2.74], [9784, 1, 7, 2.5], [10408, 10, 8, 2.29], [8676, 2, 7, 2.79], [1414, 15, 7, 0.85], [22247, 2, 7, 2.11], [2805, 137, 8, 4.23], [20498, 3, 8, 0.7], [34, 1, 7, 2.73], [9081, 3, 12, 1.06], [3577, 25, 7, 1.29], [95, 3, 18, 0.91], [10936, 2, 7, 2.38], [2878, 1, 7, 2.5], [24257, 1, 7, 2.32], [11812, 1, 7, 0.92], [10388, 2, 7, 2.43], [346, 1, 7, 0.9], [79, 1, 7, 0.83], [13928, 1, 7, 1.58], [161, 3, 8, 2.28], [13035, 3, 7, 2.54], [491, 10, 12, 1.58], [83, 2, 7, 0.79], [3576, 25, 7, 1.27], [10407, 10, 10, 2.59], [1523, 1, 7, 1.16], [19047, 3, 7, 2.58], [9069, 1, 7, 1.46], [9082, 3, 29, 2.42], [13244, 1, 7, 0.77], [972, 1, 7, 1.77], [7704, 2, 7, 1.96], [10937, 2, 7, 2.38], [37, 1, 113, 4.02], [12721, 2, 307, 2.85], [4253, 1, 187, 2.82], [74, 1, 212, 3.81], [11490, 1, 39, 2.42], [22317, 3, 324, 3.88], [411, 2, 117, 2.87], [12212, 29, 111, 2.57], [2104, 3, 368, 2.06], [1413, 15, 96, 2.5], [345, 3, 320, 2.09], [3979, 3, 769, 3.68], [336, 15, 40, 3.41], [11085, 2, 549, 5.56], [2912, 2, 388, 4.84], [8121, 3, 285, 2.55], [1274, 1, 80, 3.32], [201, 3, 304, 4.81], [1277, 1, 207, 4.71], [14037, 3, 318, 5.42], [3, 2, 125, 2.6], [13023, 3, 607, 4.28], [21269, 3, 318, 4.88], [823, 1, 44, 2.05], [38, 1, 113, 3.86], [6494, 1, 56, 1.97], [8673, 2, 286, 5.72], [36, 1, 119, 4.02], [12271, 2, 68, 3.3], [9784, 1, 77, 3.63], [10408, 10, 837, 3.42], [8676, 2, 307, 3.92], [1414, 15, 107, 1.98], [22247, 2, 307, 3.24], [2805, 137, 185, 5.35], [20498, 3, 633, 1.83], [34, 1, 119, 3.86], [9081, 3, 526, 2.18], [3577, 25, 95, 2.42], [95, 3, 1212, 2.06], [10936, 2, 144, 3.5], [24257, 1, 149, 3.45], [11812, 1, 259, 2.04], [10388, 2, 234, 3.55], [346, 1, 167, 2.03], [79, 1, 52, 1.96], [13928, 1, 51, 2.71], [161, 3, 805, 3.39], [13035, 3, 324, 3.67], [491, 10, 478, 2.71], [83, 2, 26, 1.74], [3576, 25, 109, 2.4], [10407, 10, 1285, 3.72], [1523, 1, 51, 2.29], [19047, 3, 323, 3.71], [9069, 1, 132, 2.58], [9082, 3, 2650, 3.58], [13244, 1, 53, 1.9], [972, 1, 107, 2.9], [7704, 2, 189, 3.09], [10937, 2, 144, 3.5]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 0.63], [362, 2, 7, 0.85], [361, 2, 7, 1.03], [8650, 2, 7, 3.29], [5491, 2, 7, 1.02], [5493, 2, 7, 0.98], [11685, 2, 14, 2.31], [417, 2, 7, 0.96], [326, 2, 7, 1.43], [8672, 2, 9, 3.15], [6935, 2, 19, 4.24], [205, 2, 7, 0.69], [1124, 2, 10, 1.84], [11681, 2, 13, 1.4], [11838, 2, 9, 3.23], [12721, 2, 13, 1.73], [248, 1, 7, 1.48], [8915, 2, 7, 0.98], [11837, 2, 7, 2.54], [142, 2, 7, 1.05], [6936, 2, 11, 2.52], [2778, 2, 11, 1.59], [1446, 2, 7, 2.0], [8676, 2, 7, 2.33], [21793, 1, 8, 3.06], [305, 2, 9, 2.69], [22247, 2, 7, 2.12], [11835, 2, 7, 2.89], [616, 2, 9, 1.06], [593, 2, 8, 1.45], [411, 2, 7, 1.71], [10574, 3, 10, 1.03], [990, 2, 7, 0.9], [8673, 2, 9, 2.91], [2775, 2, 7, 0.92], [145, 2, 7, 1.75], [6158, 2, 11, 1.35], [11836, 2, 7, 3.44], [2055, 3, 7, 1.6], [3495, 3, 21, 3.02], [88, 10, 16, 1.33], [10149, 3, 21, 2.23], [75, 2, 7, 1.36], [146, 2, 7, 1.75], [2054, 3, 7, 1.54], [2057, 3, 7, 1.6], [7705, 2, 7, 1.4], [61, 3, 7, 0.69], [7885, 4, 7, 1.31], [2424, 29, 7, 2.5], [7704, 2, 7, 2.99], [144, 2, 7, 1.75], [5165, 1, 7, 1.66], [2859, 15, 7, 1.12], [2423, 29, 7, 1.82], [2423, 80, 7, 1.82], [201, 3, 9, 2.66], [308, 1, 17, 5.0], [1414, 15, 7, 0.85], [335, 3, 17, 0.93], [7706, 2, 7, 1.52], [60, 3, 9, 1.26], [9126, 1, 7, 2.73], [13028, 3, 7, 3.9], [2424, 80, 7, 2.48], [214, 3, 15, 1.04], [1519, 3, 15, 0.72], [345, 3, 7, 0.9], [13034, 3, 9, 2.71], [13023, 3, 10, 2.77], [11770, 1, 7, 3.87], [2703, 3, 7, 3.27], [432, 3, 7, 2.72], [410, 1, 7, 1.0], [6494, 1, 7, 3.29], [3430, 15, 7, 1.54], [94, 4, 7, 0.92], [1886, 2, 7, 0.8], [1492, 1, 7, 1.67], [13928, 1, 7, 1.44], [20927, 1, 7, 2.01], [3893, 1, 7, 2.98], [3891, 1, 7, 2.98], [2331, 1, 7, 3.16], [3981, 3, 13, 0.91], [13033, 3, 8, 1.19], [11811, 1, 7, 1.93], [11952, 1, 7, 2.52], [9690, 1, 7, 1.04], [11089, 1, 7, 0.89], [5733, 2, 8, 2.04], [6097, 80, 7, 2.25], [952, 4, 7, 2.96], [7886, 4, 9, 1.09], [5812, 3, 7, 2.91], [1274, 1, 7, 2.27], [1309, 1, 7, 2.19], [22558, 3, 7, 4.18], [944, 15, 7, 0.75], [5946, 1, 7, 2.98], [114, 3, 7, 0.69], [7708, 2, 7, 1.52], [105, 3, 7, 0.67], [10410, 10, 10, 2.42], [95, 3, 13, 1.87], [10407, 10, 11, 2.42], [3478, 2, 7, 1.98], [5584, 3, 7, 2.72], [7703, 2, 7, 1.4], [3980, 4, 7, 2.49], [8274, 3, 7, 2.04], [9082, 3, 24, 2.83], [3889, 1, 7, 2.98], [13264, 29, 7, 0.94], [20555, 2, 7, 0.87], [10408, 10, 10, 2.37], [192, 3, 21, 4.0], [10398, 2, 7, 2.55], [5811, 3, 7, 4.0], [2805, 137, 10, 5.0], [7005, 1, 7, 2.01], [823, 1, 7, 4.72], [5165, 2, 8, 1.48], [6630, 3, 7, 2.41], [11603, 2, 7, 0.69], [963, 3, 7, 3.23], [13263, 29, 7, 1.06], [6497, 1, 7, 3.32], [21003, 2, 7, 3.61], [12229, 2, 7, 1.35], [14041, 3, 8, 1.12], [13928, 2, 7, 1.44], [10516, 3, 7, 2.2], [9491, 21, 16, 5.0], [186, 3, 12, 2.32], [13034, 3, 629, 4.02], [13023, 3, 629, 4.08], [11770, 1, 228, 5.18], [2703, 3, 305, 4.58], [432, 3, 309, 4.03], [410, 1, 112, 2.31], [6494, 1, 51, 4.6], [3430, 15, 73, 2.85], [94, 4, 132, 2.23], [1886, 2, 167, 2.11], [1492, 1, 39, 2.98], [13928, 1, 51, 2.75], [20927, 1, 84, 3.33], [3893, 1, 129, 4.29], [3891, 1, 129, 4.29], [2331, 1, 124, 4.47], [3981, 3, 1788, 2.23], [13033, 3, 629, 2.49], [11811, 1, 480, 3.25], [11952, 1, 210, 3.83], [9690, 1, 80, 2.35], [11089, 1, 184, 2.21], [5733, 2, 20, 3.04], [6097, 80, 75, 3.56], [952, 4, 79, 4.27], [7886, 4, 38, 1.84], [5812, 3, 629, 4.22], [1274, 1, 87, 3.58], [1309, 1, 55, 3.5], [22558, 3, 481, 5.49], [944, 15, 18, 1.75], [5946, 1, 129, 4.29], [114, 3, 66, 1.44], [7708, 2, 187, 2.83], [105, 3, 66, 1.42], [10410, 10, 1265, 3.72], [95, 3, 1170, 3.18], [10407, 10, 1265, 3.72], [3478, 2, 80, 3.29], [5584, 3, 244, 4.04], [7703, 2, 187, 2.71], [3980, 4, 513, 3.8], [9082, 3, 2608, 4.17], [3889, 1, 129, 4.29], [13264, 29, 77, 2.25], [20555, 2, 61, 2.19], [10408, 10, 824, 3.68], [192, 3, 1407, 5.3], [10398, 2, 152, 3.86], [5811, 3, 469, 5.26], [2805, 137, 189, 6.0], [7005, 1, 84, 3.33], [823, 1, 39, 6.0], [5165, 2, 406, 2.79], [6630, 3, 101, 3.73], [963, 3, 404, 4.54], [13263, 29, 76, 2.37], [6497, 1, 38, 4.63], [21003, 2, 302, 4.93], [12229, 2, 160, 2.66], [14041, 3, 732, 2.43], [13928, 2, 25, 2.75], [10516, 3, 620, 3.5], [9491, 21, 2196, 6.0], [186, 3, 699, 3.64]]</t>
+  </si>
+  <si>
+    <t>[[2778, 2, 26, 1.08], [305, 2, 9, 1.46], [6936, 2, 14, 3.6], [8672, 2, 9, 3.15], [2775, 2, 9, 1.39], [8853, 2, 7, 1.6], [145, 2, 9, 2.25], [2776, 2, 7, 2.04], [12721, 2, 10, 2.22], [2327, 2, 11, 1.57], [361, 2, 7, 0.77], [146, 2, 11, 1.9], [8675, 2, 8, 1.61], [11681, 2, 16, 2.3], [141, 2, 7, 1.46], [8673, 2, 11, 3.16], [205, 2, 9, 2.89], [308, 1, 17, 2.16], [8676, 2, 7, 2.33], [1124, 2, 12, 1.74], [11835, 2, 7, 3.52], [144, 2, 9, 2.81], [417, 2, 7, 2.37], [9507, 3, 7, 0.94], [8650, 2, 14, 4.38], [11837, 2, 7, 3.18], [8648, 2, 7, 3.23], [3, 2, 7, 2.68], [6097, 80, 9, 3.81], [2423, 29, 7, 2.93], [6097, 29, 7, 3.83], [6497, 1, 7, 3.32], [11836, 2, 7, 3.35], [990, 2, 7, 1.0], [593, 2, 8, 2.73], [6098, 80, 7, 3.69], [88, 10, 16, 1.33], [11739, 2, 7, 1.37], [523, 2, 7, 1.71], [2423, 80, 7, 1.71], [13260, 29, 7, 2.7], [8915, 2, 7, 0.87], [6494, 1, 7, 3.29], [6158, 2, 11, 1.35], [326, 2, 7, 1.18], [75, 2, 7, 3.25], [1339, 1, 7, 0.83], [378, 2, 7, 2.53], [411, 2, 7, 1.42], [1492, 1, 7, 1.67], [151, 1, 7, 1.25], [335, 3, 17, 0.93], [1050, 2, 7, 1.64], [2859, 15, 7, 1.21], [6496, 1, 7, 1.27], [61, 3, 17, 1.43], [13264, 29, 7, 1.0], [1049, 2, 7, 2.12], [345, 3, 7, 1.02], [10149, 3, 21, 2.23], [7704, 2, 7, 2.14], [964, 15, 9, 2.57], [432, 3, 7, 3.18], [1243, 2, 7, 2.2], [13259, 29, 13, 1.59], [22558, 3, 7, 4.18], [7705, 2, 7, 4.26], [201, 3, 7, 1.96], [5208, 3, 13, 3.62], [2912, 1, 7, 3.91], [186, 3, 12, 1.62], [229, 1, 7, 2.59], [21793, 1, 8, 3.19], [2438, 1, 7, 1.64], [12229, 2, 7, 0.87], [13928, 1, 7, 1.37], [3478, 2, 7, 1.6], [7706, 2, 7, 2.37], [10407, 10, 11, 2.42], [11738, 2, 7, 1.81], [2703, 3, 7, 3.27], [9507, 1, 7, 0.85], [11844, 2, 7, 1.21], [11490, 1, 7, 1.58], [7036, 1, 7, 1.46], [94, 4, 7, 0.92], [11687, 2, 7, 1.73], [1886, 2, 7, 0.8], [11404, 2, 7, 0.81], [114, 3, 7, 1.05], [159, 16, 7, 0.9], [10408, 10, 10, 2.37], [956, 2, 7, 1.0], [7708, 2, 7, 2.37], [20927, 1, 7, 3.2], [2438, 2, 8, 1.35], [10406, 10, 12, 2.42], [9065, 2, 7, 1.5], [11689, 2, 7, 1.71], [12870, 1, 7, 1.89], [22125, 2, 7, 0.69], [152, 21, 7, 0.96], [11690, 2, 7, 1.24], [7005, 1, 7, 2.18], [1274, 1, 7, 2.89], [2991, 3, 7, 4.18], [11161, 1, 10, 3.09], [13259, 25, 7, 1.59], [5769, 3, 10, 0.93], [2805, 137, 10, 2.86], [159, 1, 7, 0.87], [4253, 1, 7, 2.24], [3495, 3, 21, 3.02], [5584, 3, 7, 2.72], [7007, 1, 7, 2.46], [5976, 1, 7, 4.45], [9690, 1, 7, 0.98], [9239, 29, 7, 2.67], [9209, 29, 8, 3.37], [11811, 1, 7, 1.93], [9491, 21, 16, 2.85], [9239, 25, 7, 2.69], [7886, 4, 9, 1.11], [8600, 1, 7, 1.87], [5769, 1, 7, 0.89], [7567, 3, 7, 1.6], [96, 11, 24, 1.93], [24257, 1, 7, 2.0], [95, 3, 13, 0.69], [247, 1, 7, 4.85], [21269, 3, 7, 5.0], [20555, 2, 7, 0.87], [13198, 29, 7, 2.71], [1691, 1, 7, 4.41], [5209, 3, 8, 3.62], [9372, 1, 7, 2.7], [229, 1, 87, 3.91], [21793, 1, 261, 4.51], [2438, 1, 57, 2.95], [12229, 2, 161, 2.19], [13928, 1, 51, 2.68], [3478, 2, 81, 2.91], [7706, 2, 187, 3.68], [10407, 10, 1265, 3.72], [11738, 2, 23, 2.82], [2703, 3, 305, 4.58], [9507, 1, 13, 1.85], [11844, 2, 292, 2.51], [11490, 1, 115, 2.89], [7036, 1, 135, 2.77], [94, 4, 132, 2.23], [11687, 2, 319, 3.05], [1886, 2, 167, 2.11], [11404, 2, 70, 2.01], [114, 3, 260, 2.36], [159, 16, 63, 2.15], [10408, 10, 824, 3.68], [956, 2, 115, 2.32], [7708, 2, 187, 3.68], [20927, 1, 42, 4.32], [2438, 2, 680, 2.65], [10406, 10, 1897, 3.76], [9065, 2, 319, 2.82], [11689, 2, 319, 3.03], [12870, 1, 148, 3.2], [22125, 2, 50, 1.94], [11690, 2, 319, 2.56], [7005, 1, 83, 3.49], [1274, 1, 86, 4.2], [2991, 3, 170, 5.49], [11161, 1, 528, 4.41], [13259, 25, 74, 2.9], [5769, 3, 1007, 2.65], [2805, 137, 182, 4.17], [159, 1, 32, 2.12], [4253, 1, 178, 3.56], [3495, 3, 1026, 4.33], [5584, 3, 244, 4.04], [7007, 1, 83, 3.77], [5976, 1, 161, 5.76], [9690, 1, 80, 2.29], [9239, 29, 30, 3.99], [9209, 29, 35, 4.68], [11811, 1, 480, 3.25], [9491, 21, 2122, 4.14], [9239, 25, 89, 4.0], [8600, 1, 149, 3.18], [5769, 1, 65, 2.2], [7567, 3, 74, 2.91], [96, 11, 450, 3.05], [24257, 1, 149, 3.31], [95, 3, 1192, 1.98], [247, 1, 80, 6.0], [21269, 3, 313, 6.0], [20555, 2, 61, 2.18], [13198, 29, 66, 4.02], [1691, 1, 92, 5.72], [5209, 3, 559, 4.95], [9372, 1, 256, 4.01]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 9, 2.15], [141, 2, 11, 0.92], [2778, 2, 13, 1.44], [361, 2, 11, 1.1], [6935, 2, 28, 4.5], [205, 2, 7, 2.48], [12721, 2, 17, 3.52], [8676, 2, 7, 1.69], [417, 2, 11, 1.1], [2049, 3, 26, 0.5], [3, 2, 11, 2.93], [248, 1, 7, 0.92], [8675, 2, 9, 1.81], [22247, 2, 7, 1.93], [6936, 2, 11, 1.9], [523, 2, 7, 1.77], [305, 2, 7, 1.37], [8650, 2, 9, 3.44], [11838, 2, 7, 3.71], [2328, 2, 7, 2.32], [2776, 2, 7, 2.33], [8648, 2, 7, 3.23], [2327, 2, 7, 1.48], [8853, 2, 7, 1.6], [11739, 2, 7, 1.46], [11837, 2, 7, 3.72], [6497, 1, 7, 3.32], [411, 2, 7, 1.71], [412, 1, 7, 2.04], [2805, 137, 10, 2.37], [6097, 80, 7, 3.95], [6097, 29, 7, 1.89], [11835, 2, 7, 3.54], [146, 2, 7, 1.75], [583, 2, 7, 1.78], [326, 2, 7, 1.18], [10149, 3, 21, 1.63], [145, 2, 7, 1.75], [11836, 2, 7, 3.32], [144, 2, 7, 1.75], [75, 2, 7, 3.48], [10574, 3, 10, 1.5], [6494, 1, 7, 3.29], [2055, 3, 7, 2.71], [2057, 3, 7, 3.45], [2422, 29, 7, 1.94], [6496, 1, 7, 1.29], [2054, 3, 7, 2.68], [6098, 80, 7, 2.01], [6098, 29, 7, 1.14], [1243, 2, 7, 2.5], [1886, 2, 7, 0.8], [8915, 2, 7, 0.87], [21793, 1, 8, 3.19], [1492, 1, 7, 1.67], [944, 15, 7, 0.73], [247, 1, 7, 1.17], [3478, 2, 7, 1.66], [7084, 3, 7, 4.25], [5165, 1, 7, 1.66], [2859, 15, 7, 1.12], [6158, 2, 11, 1.62], [335, 3, 17, 0.93], [201, 3, 7, 1.44], [192, 3, 21, 3.69], [13928, 1, 7, 1.33], [5208, 3, 13, 3.64], [3934, 5, 12, 2.91], [5812, 3, 7, 2.0], [107, 2, 7, 1.31], [11489, 1, 7, 2.39], [24722, 2, 9, 1.37], [4253, 1, 7, 2.24], [94, 4, 7, 0.92], [1519, 3, 15, 0.72], [186, 3, 12, 1.62], [214, 3, 15, 1.04], [9491, 21, 16, 2.29], [5811, 3, 7, 4.0], [1703, 2, 7, 1.39], [1050, 2, 7, 1.7], [11767, 1, 7, 1.64], [5813, 3, 8, 2.0], [8938, 2, 7, 1.94], [61, 3, 7, 0.85], [1309, 1, 7, 2.19], [10398, 2, 7, 2.77], [2991, 3, 7, 4.18], [3495, 3, 21, 3.02], [13260, 29, 7, 3.04], [2438, 2, 8, 1.35], [11769, 1, 7, 1.64], [11671, 1, 7, 3.34], [8599, 1, 7, 5.0], [11811, 1, 7, 1.93], [229, 1, 7, 2.59], [8943, 3, 7, 1.38], [19687, 1, 7, 2.33], [2104, 3, 10, 0.86], [13928, 2, 7, 1.33], [1049, 2, 7, 1.7], [7036, 1, 7, 1.46], [5584, 3, 7, 2.72], [10124, 1, 7, 4.18], [7004, 1, 7, 2.39], [955, 2, 7, 0.85], [11808, 1, 7, 3.57], [9690, 1, 7, 0.89], [22573, 2, 7, 2.08], [18964, 1, 7, 2.18], [3334, 5, 7, 2.07], [6575, 3, 7, 1.37], [8274, 3, 7, 2.04], [20927, 1, 7, 3.58], [45, 2, 7, 4.57], [1523, 1, 7, 4.47], [9239, 29, 7, 2.67], [4001, 3, 17, 2.16], [2438, 1, 7, 1.37], [105, 3, 7, 0.77], [11678, 1, 7, 3.09], [13258, 29, 13, 3.2], [1277, 1, 7, 3.68], [19685, 1, 7, 2.73], [1701, 2, 7, 3.48], [11886, 2, 7, 1.41], [3477, 2, 7, 2.35], [7567, 3, 7, 2.27], [21269, 3, 7, 5.0], [9209, 29, 8, 4.73], [5165, 2, 8, 1.48], [3984, 3, 8, 1.07], [10181, 26, 8, 0.81], [8635, 3, 7, 2.45], [7005, 1, 7, 2.56], [3934, 5, 549, 4.23], [5812, 3, 626, 3.32], [107, 2, 48, 2.62], [24722, 2, 61, 2.62], [4253, 1, 178, 3.56], [94, 4, 132, 2.23], [1519, 3, 652, 1.72], [186, 3, 703, 2.92], [214, 3, 692, 2.34], [9491, 21, 2235, 3.57], [5811, 3, 469, 5.26], [1703, 2, 174, 2.71], [1050, 2, 30, 2.45], [11767, 1, 171, 2.96], [5813, 3, 626, 3.32], [8938, 2, 202, 3.25], [61, 3, 201, 2.41], [1309, 1, 55, 3.5], [10398, 2, 155, 4.08], [2991, 3, 170, 5.49], [3495, 3, 1026, 4.33], [13260, 29, 76, 4.35], [2438, 2, 680, 2.65], [11769, 1, 171, 2.96], [11671, 1, 315, 4.64], [8599, 1, 148, 6.0], [11811, 1, 480, 3.25], [229, 1, 87, 3.91], [8943, 3, 401, 2.69], [19687, 1, 32, 3.64], [2104, 3, 362, 2.17], [13928, 2, 25, 2.64], [1049, 2, 30, 2.45], [7036, 1, 135, 2.77], [5584, 3, 244, 4.04], [10124, 1, 107, 5.49], [7004, 1, 83, 3.7], [955, 2, 115, 2.17], [11808, 1, 495, 4.89], [9690, 1, 80, 2.2], [22573, 2, 69, 3.37], [18964, 1, 72, 3.49], [3334, 5, 187, 3.38], [6575, 3, 262, 2.68], [20927, 1, 21, 4.33], [45, 2, 112, 5.89], [1523, 1, 49, 5.78], [9239, 29, 30, 3.99], [4001, 3, 857, 3.48], [2438, 1, 57, 2.68], [105, 3, 99, 1.77], [11678, 1, 474, 4.41], [13258, 29, 41, 4.51], [1277, 1, 199, 4.99], [19685, 1, 38, 4.04], [1701, 2, 168, 4.79], [11886, 2, 204, 2.72], [3477, 2, 35, 3.55], [7567, 3, 74, 3.58], [21269, 3, 313, 6.0], [9209, 29, 34, 6.0], [5165, 2, 406, 2.79], [3984, 3, 1763, 2.37], [10181, 26, 148, 2.12], [7005, 1, 83, 3.87]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 21, 2.06], [305, 2, 7, 0.88], [8650, 2, 9, 3.29], [2778, 2, 13, 2.11], [141, 2, 7, 1.27], [8672, 2, 9, 4.04], [143, 2, 9, 2.51], [6936, 2, 14, 2.62], [145, 2, 11, 1.66], [11837, 2, 7, 3.47], [361, 2, 11, 1.36], [11681, 2, 13, 2.3], [417, 2, 11, 1.36], [75, 2, 9, 1.92], [205, 2, 7, 2.03], [1124, 2, 12, 1.34], [146, 2, 7, 1.1], [11737, 2, 7, 1.06], [8648, 2, 7, 2.71], [12721, 2, 11, 3.55], [8673, 2, 14, 2.91], [523, 2, 7, 1.21], [8853, 2, 11, 3.44], [615, 2, 7, 1.42], [11835, 2, 7, 2.24], [326, 2, 9, 1.93], [990, 2, 9, 0.78], [8675, 2, 9, 3.6], [88, 10, 32, 1.54], [8915, 2, 9, 2.29], [144, 2, 7, 2.16], [434, 2, 9, 1.29], [1005, 2, 7, 2.48], [11739, 2, 7, 1.8], [2424, 29, 7, 1.25], [8676, 2, 9, 4.47], [6158, 2, 11, 1.54], [7704, 2, 14, 3.85], [2423, 29, 7, 1.19], [11836, 2, 7, 3.18], [7705, 2, 11, 4.17], [2424, 80, 7, 1.25], [11738, 2, 7, 2.24], [7706, 2, 7, 2.37], [7004, 1, 7, 3.48], [3478, 2, 7, 1.54], [3, 2, 7, 0.73], [2423, 80, 7, 1.21], [1414, 15, 7, 0.71], [2859, 15, 7, 2.63], [74, 1, 7, 4.61], [3429, 15, 7, 0.71], [2055, 3, 7, 3.87], [10149, 3, 21, 2.23], [6497, 1, 7, 3.32], [18964, 1, 7, 2.18], [12343, 1, 7, 3.34], [13028, 3, 7, 2.37], [94, 4, 7, 0.92], [13928, 1, 7, 1.31], [13034, 3, 9, 2.38], [7084, 3, 7, 2.69], [411, 2, 7, 1.6], [11919, 1, 7, 0.73], [3893, 1, 7, 2.49], [6097, 80, 7, 2.1], [11089, 1, 7, 2.23], [7707, 2, 7, 2.66], [7036, 1, 7, 1.74], [1050, 2, 7, 1.95], [563, 2, 7, 1.31], [192, 3, 21, 4.0], [3891, 1, 7, 2.49], [1339, 1, 7, 0.87], [6630, 3, 7, 2.41], [6494, 1, 7, 3.29], [345, 3, 7, 1.02], [21793, 1, 8, 3.06], [1243, 2, 7, 2.5], [8274, 3, 7, 1.6], [7708, 2, 7, 2.08], [2912, 1, 7, 2.52], [13023, 3, 10, 2.77], [11581, 29, 7, 1.67], [13033, 3, 8, 1.76], [3889, 1, 7, 2.49], [11490, 1, 7, 1.5], [8943, 3, 7, 0.71], [1049, 2, 7, 1.64], [5208, 3, 13, 3.62], [12229, 2, 7, 1.35], [5940, 3, 7, 3.02], [22558, 3, 7, 4.88], [3495, 3, 21, 3.02], [5165, 1, 7, 1.66], [2331, 1, 7, 3.54], [515, 24, 7, 2.7], [201, 3, 7, 1.66], [6629, 3, 7, 0.9], [83, 2, 7, 2.33], [336, 15, 7, 0.67], [1274, 1, 7, 2.27], [7885, 4, 7, 1.33], [229, 1, 7, 2.59], [1309, 1, 7, 2.19], [5812, 3, 7, 2.49], [7005, 1, 7, 2.56], [332, 2, 7, 1.33], [951, 4, 7, 3.12], [21269, 3, 7, 5.0], [214, 3, 15, 1.04], [9690, 1, 7, 0.98], [942, 3, 7, 2.26], [2805, 137, 10, 4.49], [8898, 3, 7, 3.26], [247, 1, 7, 4.71], [335, 3, 21, 2.4], [11914, 1, 7, 1.66], [23961, 3, 7, 4.22], [20555, 2, 7, 1.41], [1703, 2, 7, 1.39], [24257, 1, 7, 3.7], [4940, 1, 7, 0.77], [9827, 3, 7, 1.0], [5811, 3, 8, 2.65], [8635, 3, 7, 1.33], [3934, 5, 12, 2.91], [7573, 1, 7, 1.56], [186, 3, 12, 2.32], [9491, 21, 16, 2.29], [114, 3, 7, 2.77], [11770, 1, 7, 3.87], [10527, 3, 13, 2.94], [13498, 3, 7, 5.0], [5584, 3, 7, 2.72], [11586, 1, 11, 3.58], [19687, 1, 7, 2.33], [11089, 1, 182, 3.55], [7707, 2, 162, 4.22], [7036, 1, 136, 3.05], [563, 2, 77, 2.62], [192, 3, 1407, 5.3], [3891, 1, 130, 3.8], [1339, 1, 77, 2.18], [6630, 3, 101, 3.73], [6494, 1, 51, 4.6], [345, 3, 319, 2.34], [21793, 1, 261, 4.37], [1243, 2, 104, 3.81], [7708, 2, 187, 3.39], [2912, 1, 51, 3.83], [13023, 3, 629, 4.08], [11581, 29, 64, 2.98], [13033, 3, 626, 3.08], [3889, 1, 130, 3.8], [11490, 1, 115, 2.81], [8943, 3, 102, 1.45], [1049, 2, 30, 2.39], [5208, 3, 559, 4.95], [12229, 2, 160, 2.66], [5940, 3, 250, 4.34], [22558, 3, 433, 6.0], [3495, 3, 1026, 4.33], [5165, 1, 51, 2.97], [2331, 1, 123, 4.85], [515, 24, 215, 4.01], [201, 3, 303, 3.22], [6629, 3, 84, 2.21], [1274, 1, 87, 3.58], [229, 1, 87, 3.91], [1309, 1, 55, 3.5], [5812, 3, 536, 5.27], [7005, 1, 83, 3.87], [332, 2, 77, 2.64], [951, 4, 99, 4.43], [21269, 3, 313, 6.0], [214, 3, 692, 2.34], [9690, 1, 80, 2.29], [942, 3, 314, 3.57], [2805, 137, 185, 5.8], [8898, 3, 284, 4.57], [247, 1, 92, 6.0], [11914, 1, 90, 2.97], [23961, 3, 305, 5.54], [20555, 2, 61, 2.72], [1703, 2, 174, 2.71], [4940, 1, 129, 2.08], [9827, 3, 93, 2.31], [5811, 3, 561, 3.96], [3934, 5, 549, 4.23], [7573, 1, 364, 2.87], [186, 3, 699, 3.64], [9491, 21, 2235, 3.57], [114, 3, 257, 4.08], [11770, 1, 228, 5.18], [10527, 3, 920, 4.26], [13498, 3, 626, 6.0], [5584, 3, 244, 4.04], [11586, 1, 409, 4.89], [19687, 1, 32, 3.64]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 9, 0.75], [141, 2, 9, 1.09], [2327, 2, 11, 1.37], [2778, 2, 7, 1.39], [6936, 2, 11, 3.9], [362, 2, 7, 2.19], [326, 2, 7, 1.5], [305, 2, 9, 2.5], [2775, 2, 7, 2.04], [1446, 2, 7, 3.31], [9760, 29, 7, 0.77], [8649, 2, 7, 2.82], [8853, 2, 13, 2.03], [593, 2, 7, 1.55], [11581, 29, 7, 1.56], [9507, 3, 7, 0.83], [3840, 1, 9, 0.7], [1429, 2, 7, 3.31], [523, 2, 7, 1.49], [7004, 1, 7, 1.93], [7036, 1, 9, 3.79], [5165, 1, 9, 2.38], [990, 2, 7, 0.69], [159, 3, 10, 0.73], [615, 2, 7, 0.98], [201, 3, 20, 3.47], [8089, 1, 7, 1.87], [145, 2, 7, 1.5], [248, 1, 7, 0.92], [345, 3, 9, 1.93], [6952, 1, 7, 1.37], [146, 2, 7, 1.5], [6097, 80, 9, 3.81], [7084, 3, 7, 3.27], [24664, 2, 25, 2.72], [2050, 3, 9, 1.92], [142, 2, 7, 1.12], [144, 2, 7, 1.5], [2912, 1, 7, 2.36], [7005, 1, 7, 1.46], [11770, 1, 7, 2.77], [3891, 1, 7, 1.62], [1886, 2, 7, 1.29], [997, 2, 7, 0.71], [432, 3, 7, 3.18], [998, 2, 7, 0.9], [6097, 29, 7, 2.0], [3893, 1, 7, 1.62], [6158, 2, 7, 4.35], [5165, 2, 12, 1.23], [10149, 3, 21, 1.49], [2424, 80, 7, 2.27], [12870, 1, 7, 1.42], [10517, 29, 7, 2.45], [11772, 1, 7, 2.48], [11089, 1, 7, 1.12], [20927, 1, 7, 2.5], [6098, 80, 7, 1.37], [7885, 4, 11, 1.58], [10574, 3, 8, 1.46], [1492, 1, 7, 0.83], [9372, 1, 7, 2.62], [4032, 29, 7, 2.12], [5208, 3, 9, 3.64], [3334, 5, 7, 4.62], [22316, 3, 9, 0.8], [13028, 3, 9, 3.96], [1519, 3, 18, 0.78], [3576, 25, 7, 2.96], [1490, 1, 7, 1.02], [3889, 1, 7, 1.62], [1700, 2, 7, 2.62], [12304, 1, 7, 3.62], [2912, 2, 8, 2.37], [13034, 3, 7, 1.05], [972, 3, 7, 2.37], [214, 3, 15, 0.91], [11952, 1, 7, 2.0], [5151, 2, 7, 1.98], [229, 1, 7, 2.08], [2331, 1, 7, 2.57], [11426, 25, 7, 1.94], [5812, 3, 8, 2.39], [9289, 29, 7, 2.53], [11490, 1, 7, 1.0], [3478, 2, 7, 1.46], [8677, 3, 8, 2.09], [13893, 2, 7, 1.6], [995, 2, 7, 2.39], [75, 2, 7, 0.87], [3, 2, 7, 2.25], [10, 2, 7, 0.94], [414, 1, 7, 1.98], [3575, 25, 7, 1.61], [2160, 68, 7, 1.96], [2805, 137, 7, 2.31], [410, 1, 7, 1.79], [13244, 1, 7, 0.75], [13023, 3, 8, 2.71], [11404, 2, 7, 0.81], [1309, 1, 7, 0.79], [4253, 1, 7, 2.32], [159, 1, 7, 1.02], [192, 3, 13, 3.54], [5209, 3, 7, 3.51], [9069, 1, 7, 1.29], [11813, 1, 7, 5.0], [6494, 1, 7, 2.02], [2438, 2, 8, 1.15], [24257, 1, 7, 3.21], [957, 2, 7, 0.87], [9971, 2, 7, 2.78], [9491, 21, 15, 2.64], [14037, 3, 7, 2.07], [9967, 2, 7, 2.78], [159, 16, 7, 1.04], [4033, 29, 7, 3.03], [2878, 1, 7, 0.79], [105, 3, 7, 1.98], [9964, 2, 7, 1.79], [5584, 3, 7, 4.0], [21697, 3, 7, 1.0], [22317, 3, 8, 3.55], [823, 1, 7, 0.89], [9965, 2, 7, 2.78], [8283, 2, 8, 1.67], [10609, 1, 7, 2.3], [10407, 10, 10, 1.36], [4076, 3, 7, 3.37], [13033, 3, 7, 1.05], [3495, 3, 16, 3.18], [1277, 1, 7, 3.49], [4586, 10, 21, 1.4], [11687, 2, 7, 1.29], [12647, 1, 7, 4.93], [7567, 3, 7, 2.04], [3889, 1, 147, 2.85], [1700, 2, 84, 3.85], [12304, 1, 129, 4.85], [2912, 2, 449, 3.6], [13034, 3, 705, 2.28], [214, 3, 771, 2.14], [11952, 1, 235, 3.23], [5151, 2, 29, 3.21], [229, 1, 98, 3.31], [2331, 1, 137, 3.8], [11426, 25, 140, 3.17], [5812, 3, 694, 3.62], [9289, 29, 75, 3.76], [11490, 1, 91, 2.17], [3478, 2, 89, 2.69], [8677, 3, 347, 3.32], [13893, 2, 325, 2.84], [995, 2, 290, 3.63], [75, 2, 173, 2.1], [3, 2, 138, 3.49], [414, 1, 102, 3.21], [3575, 25, 119, 2.84], [2160, 68, 156, 3.19], [2805, 137, 215, 3.54], [13244, 1, 58, 1.98], [13023, 3, 701, 3.94], [11404, 2, 100, 2.01], [1309, 1, 61, 2.02], [4253, 1, 198, 3.56], [159, 1, 24, 2.12], [192, 3, 1439, 5.01], [5209, 3, 634, 4.75], [9069, 1, 146, 2.52], [11813, 1, 357, 6.0], [6494, 1, 60, 3.25], [2438, 2, 758, 2.39], [957, 2, 129, 2.1], [9971, 2, 323, 4.01], [9491, 21, 2492, 3.86], [14037, 3, 402, 3.31], [9967, 2, 323, 4.01], [159, 16, 47, 2.14], [4033, 29, 118, 4.26], [2878, 1, 96, 2.02], [105, 3, 284, 3.21], [9964, 2, 323, 3.02], [5584, 3, 279, 5.23], [21697, 3, 215, 2.23], [22317, 3, 354, 4.78], [823, 1, 49, 2.12], [9965, 2, 323, 4.01], [8283, 2, 560, 2.91], [10609, 1, 369, 3.53], [10407, 10, 1439, 2.6], [4076, 3, 236, 4.6], [13033, 3, 705, 2.28], [3495, 3, 1144, 4.43], [1277, 1, 222, 4.72], [4586, 10, 1745, 2.65], [11687, 2, 358, 2.52], [12647, 1, 256, 6.0], [7567, 3, 82, 3.27]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 28, 4.33], [141, 2, 9, 2.37], [2049, 3, 16, 0.5], [12721, 2, 10, 2.24], [151, 1, 9, 1.08], [205, 2, 7, 1.36], [130, 1, 7, 1.51], [1776, 1, 7, 3.56], [362, 2, 7, 2.59], [146, 2, 9, 1.44], [145, 2, 7, 0.91], [593, 2, 14, 1.83], [8915, 2, 12, 0.73], [2328, 2, 9, 1.01], [8648, 2, 7, 3.59], [1777, 1, 7, 2.22], [3, 2, 9, 1.97], [5151, 2, 7, 0.85], [6936, 2, 15, 2.57], [248, 1, 7, 0.67], [8675, 2, 10, 2.17], [22247, 2, 9, 2.6], [1007, 2, 12, 0.91], [2778, 2, 9, 1.38], [10, 2, 17, 1.55], [88, 10, 24, 1.98], [8677, 3, 8, 3.19], [412, 1, 7, 2.33], [11681, 2, 11, 2.92], [10149, 3, 25, 3.26], [10825, 21, 13, 2.21], [2054, 3, 10, 1.86], [75, 2, 7, 1.27], [13028, 3, 7, 1.29], [147, 1, 7, 2.6], [361, 2, 7, 1.75], [413, 1, 7, 3.27], [2055, 3, 7, 1.92], [7004, 1, 7, 1.49], [2057, 3, 7, 3.71], [8676, 2, 7, 3.1], [411, 2, 7, 1.91], [308, 1, 7, 2.71], [410, 1, 7, 1.67], [61, 3, 9, 1.9], [432, 3, 7, 2.04], [1446, 2, 7, 1.04], [1124, 2, 10, 0.75], [45, 2, 7, 3.67], [7005, 1, 7, 1.25], [5081, 2, 15, 1.3], [9827, 3, 7, 1.9], [167, 3, 14, 2.82], [5812, 3, 10, 2.78], [94, 4, 7, 3.35], [1492, 1, 7, 0.81], [3495, 3, 26, 2.96], [57, 1, 7, 0.71], [12870, 1, 14, 5.0], [168, 3, 20, 2.11], [2049, 1, 7, 0.69], [3893, 1, 7, 1.02], [11234, 2, 8, 2.07], [3889, 1, 7, 1.02], [6097, 29, 7, 1.66], [3891, 1, 7, 1.02], [8651, 2, 7, 3.04], [2336, 3, 9, 1.96], [95, 3, 19, 1.64], [335, 3, 22, 2.4], [6097, 80, 7, 3.7], [192, 3, 17, 3.91], [6098, 29, 14, 3.69], [1490, 1, 9, 1.54], [11737, 2, 7, 1.62], [214, 3, 15, 1.26], [20927, 1, 7, 2.0], [998, 2, 7, 2.48], [9069, 1, 7, 2.03], [20498, 1, 7, 2.94], [8898, 3, 7, 4.48], [1622, 1, 9, 2.24], [6098, 80, 7, 3.69], [9760, 29, 9, 1.01], [1070, 7, 13, 2.71], [14017, 3, 7, 1.29], [9829, 3, 7, 3.0], [13260, 29, 7, 2.65], [997, 2, 7, 2.5], [13034, 3, 13, 2.73], [12924, 1, 7, 1.02], [22554, 10, 18, 0.87], [11116, 1, 7, 1.1], [20498, 3, 15, 3.24], [35, 1, 7, 3.93], [1243, 2, 7, 1.98], [5513, 2, 7, 1.1], [336, 15, 7, 0.67], [5811, 3, 7, 3.96], [996, 2, 7, 4.67], [9691, 1, 7, 3.33], [5946, 1, 7, 1.02], [5813, 3, 7, 2.39], [5086, 1, 11, 3.89], [8945, 3, 8, 1.92], [39, 1, 7, 3.97], [3049, 3, 7, 4.36], [1080, 3, 7, 1.71], [952, 4, 7, 5.0], [1413, 15, 7, 1.35], [11085, 2, 7, 1.95], [8557, 3, 7, 2.11], [20486, 3, 15, 4.65], [4076, 3, 7, 5.0], [9082, 3, 29, 2.75], [2424, 80, 7, 2.12], [215, 4, 7, 5.0], [34, 1, 7, 3.96], [1703, 2, 7, 2.97], [20486, 1, 7, 2.87], [11510, 3, 9, 2.99], [38, 1, 7, 3.97], [3900, 3, 7, 1.73], [23611, 3, 7, 3.74], [14037, 3, 7, 1.0], [972, 3, 8, 1.87], [8943, 3, 7, 1.22], [13023, 3, 8, 3.12], [8274, 3, 7, 1.52], [2854, 21, 19, 1.27], [14018, 3, 7, 0.81], [8104, 1, 7, 1.14], [6497, 1, 7, 1.58], [3047, 3, 7, 2.01], [11770, 1, 7, 3.11], [18, 1, 7, 1.12], [8651, 2, 206, 3.99], [2336, 3, 606, 2.91], [95, 3, 1086, 3.63], [192, 3, 1376, 4.85], [1490, 1, 47, 2.99], [11737, 2, 59, 2.57], [214, 3, 677, 2.21], [998, 2, 249, 3.42], [9069, 1, 38, 2.85], [20498, 1, 95, 4.6], [8898, 3, 290, 6.0], [1622, 1, 92, 3.19], [9760, 29, 71, 2.46], [1070, 7, 578, 3.92], [14017, 3, 192, 3.89], [9829, 3, 64, 4.2], [13260, 29, 72, 3.85], [997, 2, 249, 3.45], [13034, 3, 578, 5.17], [12924, 1, 55, 1.97], [22554, 10, 374, 2.26], [11116, 1, 83, 2.05], [20498, 3, 570, 4.69], [35, 1, 76, 4.82], [1243, 2, 102, 2.93], [5513, 2, 75, 2.3], [996, 2, 236, 5.8], [9691, 1, 73, 5.2], [5946, 1, 122, 2.42], [5813, 3, 537, 4.28], [5086, 1, 64, 4.81], [8945, 3, 206, 2.67], [39, 1, 95, 4.88], [3049, 3, 122, 6.0], [1080, 3, 131, 2.66], [952, 4, 74, 6.0], [1413, 15, 96, 2.3], [11085, 2, 570, 2.9], [8557, 3, 196, 4.18], [20486, 3, 587, 5.94], [4076, 3, 197, 6.0], [9082, 3, 2551, 3.67], [2424, 80, 179, 3.07], [215, 4, 20, 6.0], [34, 1, 95, 4.88], [1703, 2, 162, 4.87], [20486, 1, 97, 5.52], [11510, 3, 521, 4.14], [38, 1, 114, 4.92], [3900, 3, 45, 2.68], [23611, 3, 328, 4.95], [14037, 3, 120, 1.56], [972, 3, 622, 2.82], [13023, 3, 581, 5.08], [2854, 21, 1086, 2.99], [14018, 3, 186, 2.0], [8104, 1, 214, 2.08], [6497, 1, 39, 2.53], [3047, 3, 282, 2.96], [11770, 1, 226, 4.05], [18, 1, 17, 1.69]]</t>
   </si>
   <si>
     <t>1QD</t>

--- a/QD_data.xlsx
+++ b/QD_data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[305, 2, 4, 0.35], [8672, 2, 6, 0.73], [3, 2, 4, 0.72], [589, 2, 8, 0.2], [130, 1, 5, 0.6], [2049, 3, 11, 0.63], [205, 2, 4, 0.2], [144, 2, 4, 0.74], [12721, 2, 6, 0.97], [75, 2, 6, 0.87], [145, 2, 4, 0.27], [1776, 1, 4, 0.61], [8915, 2, 8, 0.2], [593, 2, 6, 0.59], [146, 2, 4, 0.91], [151, 1, 4, 0.2], [2778, 2, 8, 0.2], [1777, 1, 4, 0.74], [20252, 2, 4, 0.46], [8648, 2, 5, 1.27], [206, 2, 4, 0.83], [6936, 2, 8, 0.92], [2328, 2, 4, 0.2], [5151, 2, 4, 0.2], [88, 10, 10, 0.45], [141, 2, 4, 1.31], [8675, 2, 6, 0.96], [74, 1, 4, 1.53], [83, 2, 4, 0.44], [7004, 1, 4, 1.74], [1492, 1, 4, 0.42], [2054, 3, 6, 0.53], [1446, 2, 4, 1.55], [10825, 21, 11, 1.04], [362, 2, 4, 1.32], [2057, 3, 6, 0.47], [1007, 2, 5, 0.2], [345, 3, 6, 0.32], [432, 3, 6, 0.62], [7005, 1, 4, 1.39], [22247, 2, 5, 0.95], [11681, 2, 5, 0.94], [201, 3, 6, 0.21], [57, 1, 4, 0.44], [410, 1, 4, 1.75], [3889, 1, 4, 0.2], [308, 1, 6, 0.49], [10149, 3, 17, 0.99], [12870, 1, 4, 2.08], [1124, 2, 8, 0.2], [7036, 1, 4, 0.93], [35, 1, 4, 0.83], [167, 3, 5, 1.4], [9827, 3, 4, 1.62], [5081, 2, 6, 0.2], [8677, 3, 7, 1.3], [94, 4, 4, 1.82], [411, 2, 4, 0.71], [1504, 2, 5, 0.2], [3891, 1, 4, 0.2], [79, 1, 4, 0.24], [168, 3, 5, 1.23], [8676, 2, 4, 0.73], [3893, 1, 4, 0.2], [5812, 3, 6, 0.8], [9760, 29, 4, 0.2], [23, 1, 4, 1.51], [1490, 1, 5, 0.23], [412, 1, 4, 1.64], [3980, 4, 4, 1.39], [20927, 1, 4, 1.67], [45, 2, 4, 0.64], [361, 2, 4, 1.31], [1767, 25, 5, 0.59], [5208, 3, 6, 0.47], [1622, 1, 4, 1.13], [95, 3, 18, 0.3], [9069, 1, 4, 0.42], [8651, 2, 4, 1.43], [335, 3, 13, 0.22], [25, 1, 4, 1.51], [214, 3, 11, 0.2], [10574, 3, 5, 0.46], [413, 1, 5, 1.82], [2049, 1, 4, 0.2], [34, 1, 4, 1.85], [998, 2, 4, 1.47], [856, 1, 4, 0.2], [3495, 3, 15, 1.31], [8898, 3, 7, 0.75], [9691, 1, 4, 2.02], [1766, 25, 4, 1.62], [1070, 7, 10, 0.47], [11116, 1, 5, 2.41], [20498, 1, 4, 0.23], [38, 1, 4, 2.1], [997, 2, 4, 0.86], [5946, 1, 4, 0.78], [14017, 3, 5, 0.54], [1413, 15, 4, 0.43], [974, 3, 5, 1.13], [9829, 3, 4, 1.42], [152, 21, 4, 0.97], [1091, 1, 4, 0.53], [20498, 3, 8, 0.58], [39, 1, 4, 2.1], [82, 2, 4, 1.43], [14037, 3, 5, 0.2], [9372, 1, 4, 1.08], [5209, 3, 5, 0.75], [1080, 3, 5, 0.2], [5086, 1, 4, 2.44], [996, 2, 5, 1.47], [1767, 2, 4, 0.59], [3048, 3, 4, 1.24], [9828, 3, 4, 1.77], [972, 3, 6, 0.91], [13260, 29, 4, 0.98], [24, 1, 4, 1.32], [4203, 1, 4, 0.3], [5513, 2, 5, 0.5], [10780, 10, 4, 1.3], [5813, 3, 5, 1.52], [3981, 3, 12, 1.42], [202, 2, 4, 1.59], [8945, 3, 5, 1.51], [952, 4, 5, 2.41], [36, 1, 4, 2.1], [336, 15, 5, 0.2], [2878, 1, 4, 0.54], [13034, 3, 5, 1.08], [3900, 3, 4, 0.49], [23611, 3, 5, 2.51], [995, 2, 4, 1.02], [6497, 1, 4, 0.67], [14018, 3, 4, 0.46], [24257, 1, 4, 1.29], [9082, 3, 18, 0.83], [170, 3, 4, 1.24], [305, 2, 158, 2.63], [8672, 2, 318, 4.0], [3, 2, 158, 3.25], [589, 2, 156, 2.16], [205, 2, 122, 3.04], [144, 2, 171, 2.74], [12721, 2, 311, 4.5], [75, 2, 166, 4.23], [145, 2, 163, 2.32], [1776, 1, 122, 3.94], [8915, 2, 118, 2.0], [593, 2, 194, 3.27], [146, 2, 181, 2.81], [151, 1, 75, 2.2], [2778, 2, 158, 3.87], [1777, 1, 122, 4.16], [20252, 2, 111, 1.96], [8648, 2, 226, 6.0], [6936, 2, 292, 5.28], [2328, 2, 171, 4.1], [5151, 2, 27, 2.22], [88, 10, 643, 3.3], [141, 2, 174, 4.08], [8675, 2, 335, 2.83], [74, 1, 223, 6.0], [83, 2, 60, 2.27], [1492, 1, 45, 1.88], [2054, 3, 532, 3.34], [10825, 21, 732, 4.24], [362, 2, 158, 3.67], [2057, 3, 532, 3.69], [1007, 2, 289, 2.04], [345, 3, 340, 3.85], [432, 3, 336, 3.95], [7005, 1, 88, 3.75], [22247, 2, 311, 5.87], [11681, 2, 323, 4.87], [201, 3, 340, 3.85], [57, 1, 95, 2.41], [3889, 1, 138, 3.61], [308, 1, 188, 4.48], [10149, 3, 996, 4.45], [12870, 1, 165, 6.0], [1124, 2, 210, 3.48], [7036, 1, 146, 4.55], [35, 1, 123, 4.72], [167, 3, 77, 3.69], [9827, 3, 59, 4.05], [5081, 2, 216, 3.34], [8677, 3, 331, 4.07], [411, 2, 117, 2.44], [1504, 2, 221, 3.54], [3891, 1, 138, 4.49], [79, 1, 51, 2.26], [168, 3, 205, 4.59], [8676, 2, 318, 3.02], [3893, 1, 138, 4.45], [5812, 3, 608, 4.18], [9760, 29, 80, 2.67], [1490, 1, 55, 2.24], [412, 1, 94, 4.57]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.45], [6935, 2, 6, 1.69], [2778, 2, 5, 0.2], [144, 2, 4, 0.29], [8915, 2, 5, 0.2], [6936, 2, 5, 1.66], [2775, 2, 4, 1.06], [205, 2, 4, 0.92], [8650, 2, 4, 1.77], [593, 2, 6, 0.2], [145, 2, 4, 0.2], [146, 2, 5, 0.91], [326, 2, 4, 0.39], [7036, 1, 4, 1.78], [5493, 2, 4, 0.38], [88, 10, 8, 0.78], [141, 2, 5, 0.79], [7004, 1, 4, 1.34], [1446, 2, 4, 0.2], [1124, 2, 5, 0.32], [9760, 29, 4, 0.98], [206, 2, 4, 0.2], [8853, 2, 4, 1.29], [8672, 2, 4, 1.69], [362, 2, 4, 1.56], [142, 2, 4, 0.92], [11685, 2, 4, 0.46], [2912, 1, 4, 1.9], [7886, 4, 5, 0.2], [8649, 2, 4, 0.75], [5165, 1, 4, 1.61], [12870, 1, 6, 1.68], [1622, 1, 5, 0.88], [2055, 3, 6, 0.56], [417, 2, 4, 0.92], [7573, 1, 10, 2.71], [7084, 3, 4, 1.34], [21793, 1, 4, 0.86], [7885, 4, 5, 0.74], [2054, 3, 6, 2.22], [523, 2, 4, 0.55], [10, 2, 5, 0.61], [9372, 1, 4, 1.24], [3891, 1, 4, 0.38], [75, 2, 5, 1.25], [10149, 3, 19, 1.22], [5208, 3, 7, 0.19], [9491, 21, 10, 0.83], [20927, 1, 4, 1.51], [35, 1, 5, 1.79], [997, 2, 4, 1.26], [12721, 2, 7, 1.71], [5165, 2, 5, 0.65], [3, 2, 6, 0.93], [33, 1, 4, 0.75], [998, 2, 4, 0.95], [94, 4, 4, 0.5], [7887, 4, 4, 0.58], [22247, 2, 4, 1.39], [996, 2, 4, 0.95], [972, 3, 6, 0.75], [34, 1, 4, 1.57], [6158, 2, 8, 0.2], [2805, 137, 4, 1.6], [2912, 2, 7, 1.9], [2424, 80, 4, 0.83], [38, 1, 4, 0.75], [8104, 1, 4, 1.55], [2336, 3, 5, 0.5], [8898, 3, 4, 0.75], [9690, 1, 4, 0.38], [12212, 29, 6, 0.2], [24257, 1, 5, 0.77], [39, 1, 4, 0.75], [11952, 1, 4, 0.82], [7567, 3, 4, 1.58], [2424, 29, 5, 0.91], [1414, 15, 4, 0.44], [192, 3, 11, 1.07], [8676, 2, 4, 1.69], [11770, 1, 4, 1.36], [3495, 3, 15, 1.25], [202, 2, 4, 0.49], [13928, 1, 4, 1.33], [3048, 3, 6, 0.92], [4032, 29, 4, 2.74], [23961, 3, 4, 1.88], [11490, 1, 4, 0.44], [161, 3, 6, 1.29], [5946, 1, 4, 0.35], [11772, 1, 4, 0.93], [1703, 2, 4, 0.42], [10407, 10, 7, 1.13], [74, 1, 4, 1.99], [10410, 10, 6, 1.25], [13023, 3, 5, 1.51], [1274, 1, 5, 0.2], [1519, 3, 10, 0.22], [24258, 1, 4, 1.09], [1523, 1, 4, 0.56], [21269, 3, 4, 2.75], [2331, 1, 4, 1.07], [11236, 2, 4, 0.62], [4253, 1, 4, 0.2], [5164, 1, 4, 0.64], [4076, 3, 4, 1.59], [3430, 15, 4, 0.67], [12764, 2, 5, 0.35], [6097, 80, 4, 0.71], [972, 1, 4, 0.84], [214, 3, 15, 0.2], [6097, 29, 4, 0.71], [10780, 10, 4, 1.03], [1080, 3, 4, 1.4], [8674, 2, 4, 0.72], [3047, 3, 5, 1.64], [13893, 2, 4, 1.17], [9081, 3, 7, 0.5], [11404, 2, 4, 0.42], [10408, 10, 5, 0.59], [8677, 3, 4, 1.3], [13034, 3, 4, 1.52], [3576, 29, 4, 1.33], [1243, 2, 4, 0.51], [12662, 1, 4, 0.53], [13264, 29, 4, 0.47], [2436, 4, 4, 0.4], [20486, 3, 4, 1.81], [6497, 1, 4, 0.97], [7704, 2, 4, 0.45], [13928, 2, 4, 1.33], [3334, 5, 4, 1.63], [11813, 1, 4, 0.88], [45, 2, 4, 0.36], [1277, 1, 4, 0.98], [305, 2, 163, 3.77], [6935, 2, 311, 6.0], [2778, 2, 171, 4.06], [144, 2, 168, 2.49], [8915, 2, 210, 3.09], [6936, 2, 311, 6.0], [2775, 2, 181, 3.24], [8650, 2, 232, 4.61], [593, 2, 236, 3.55], [145, 2, 168, 3.13], [146, 2, 168, 2.85], [326, 2, 97, 2.47], [7036, 1, 142, 6.0], [5493, 2, 126, 1.93], [88, 10, 330, 4.14], [141, 2, 170, 3.86], [1446, 2, 166, 3.09], [1124, 2, 195, 3.04], [9760, 29, 41, 2.96], [206, 2, 118, 3.28], [8853, 2, 328, 3.76], [8672, 2, 328, 4.45], [362, 2, 49, 3.89], [142, 2, 170, 3.73], [11685, 2, 299, 3.21], [2912, 1, 52, 4.93], [7886, 4, 35, 1.47], [8649, 2, 258, 4.24], [5165, 1, 52, 4.3], [12870, 1, 152, 6.0], [1622, 1, 114, 2.83], [2055, 3, 518, 3.08], [417, 2, 170, 3.47], [7573, 1, 379, 6.0], [7084, 3, 148, 4.75], [21793, 1, 269, 3.15], [2054, 3, 109, 4.31], [523, 2, 170, 2.64], [10, 2, 114, 3.26], [9372, 1, 272, 3.59], [3891, 1, 130, 2.66], [75, 2, 159, 5.0], [10149, 3, 986, 4.61], [5208, 3, 618, 2.62], [9491, 21, 2565, 2.94], [35, 1, 115, 4.73], [997, 2, 277, 3.63], [12721, 2, 309, 5.44], [5165, 2, 439, 3.24], [3, 2, 128, 4.46], [33, 1, 127, 3.07], [998, 2, 277, 3.03], [94, 4, 143, 2.16], [22247, 2, 309, 4.22], [996, 2, 277, 3.03], [972, 3, 652, 4.02], [34, 1, 115, 4.7], [6158, 2, 285, 3.14], [2805, 137, 200, 4.35], [2912, 2, 415, 4.94], [2424, 80, 199, 2.8], [38, 1, 127, 3.07], [8104, 1, 226, 4.27], [2336, 3, 676, 2.59], [8898, 3, 339, 2.63]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 5, 0.71], [11685, 2, 4, 1.87], [144, 2, 5, 0.8], [11681, 2, 5, 1.37], [589, 2, 5, 0.2], [2327, 2, 4, 0.49], [205, 2, 5, 0.37], [593, 2, 6, 0.27], [141, 2, 5, 0.53], [305, 2, 4, 0.51], [8915, 2, 5, 0.78], [8650, 2, 4, 1.13], [2328, 2, 4, 0.2], [151, 1, 4, 0.36], [6936, 2, 8, 1.85], [2778, 2, 6, 0.2], [2049, 3, 7, 0.47], [146, 2, 6, 0.57], [206, 2, 5, 0.71], [88, 10, 15, 1.4], [7004, 1, 4, 1.62], [9507, 3, 4, 0.2], [615, 2, 4, 0.37], [7036, 1, 4, 1.98], [145, 2, 5, 0.66], [1446, 2, 4, 0.65], [417, 2, 4, 0.4], [8853, 2, 6, 1.7], [362, 2, 4, 1.56], [248, 1, 4, 0.37], [523, 2, 6, 0.28], [2055, 3, 6, 2.49], [10993, 2, 4, 0.26], [142, 2, 4, 0.48], [75, 2, 5, 0.75], [616, 2, 4, 0.5], [3840, 1, 4, 0.39], [11737, 2, 4, 0.66], [2050, 3, 4, 1.39], [12870, 1, 4, 0.7], [12350, 1, 4, 1.03], [2054, 3, 4, 1.39], [2057, 3, 5, 2.02], [7084, 3, 4, 0.87], [13028, 3, 4, 0.62], [20927, 1, 4, 1.36], [7005, 1, 5, 0.92], [3, 2, 4, 0.27], [3982, 3, 10, 0.59], [10, 2, 5, 0.2], [997, 2, 4, 0.89], [94, 4, 4, 0.91], [21793, 1, 4, 1.93], [61, 3, 4, 2.27], [7885, 4, 6, 0.52], [3891, 1, 4, 0.2], [996, 2, 4, 1.05], [6158, 2, 4, 0.88], [998, 2, 4, 0.57], [8672, 2, 5, 1.45], [5165, 1, 4, 0.65], [9491, 21, 10, 1.24], [11739, 2, 4, 1.07], [2912, 1, 4, 1.89], [972, 3, 5, 0.93], [5165, 2, 5, 0.65], [7886, 4, 4, 0.47], [346, 3, 4, 0.46], [3980, 4, 4, 1.34], [98, 11, 10, 0.68], [10388, 2, 4, 1.26], [411, 2, 4, 0.64], [1492, 1, 4, 0.47], [346, 1, 4, 0.2], [7573, 1, 4, 0.97], [8677, 3, 4, 1.96], [83, 2, 4, 0.67], [5208, 3, 4, 1.03], [7567, 3, 4, 0.71], [410, 1, 4, 0.44], [22316, 3, 4, 0.51], [995, 2, 4, 0.93], [3981, 3, 13, 1.15], [9081, 3, 7, 0.78], [13928, 1, 4, 0.82], [22247, 2, 5, 1.07], [10386, 2, 4, 0.76], [9372, 1, 4, 1.12], [336, 15, 4, 0.55], [11770, 1, 4, 1.14], [308, 1, 4, 0.8], [10780, 10, 4, 1.77], [1622, 1, 4, 0.83], [11953, 1, 4, 0.51], [161, 3, 5, 1.29], [2912, 2, 5, 1.89], [23611, 3, 5, 1.1], [9082, 3, 17, 1.08], [5946, 1, 4, 0.85], [345, 3, 4, 0.5], [22317, 3, 4, 0.51], [192, 3, 13, 0.72], [11116, 1, 4, 1.67], [229, 1, 4, 1.14], [24257, 1, 5, 2.5], [37, 1, 5, 1.5], [82, 2, 4, 0.51], [972, 1, 5, 0.92], [11767, 1, 4, 0.66], [12271, 2, 4, 1.13], [7704, 2, 4, 1.7], [34, 1, 5, 1.42], [14037, 3, 4, 1.22], [8104, 1, 4, 1.56], [10410, 10, 6, 1.29], [10407, 10, 6, 1.33], [11085, 2, 4, 1.27], [11404, 2, 4, 0.42], [3048, 3, 4, 1.14], [10387, 2, 4, 0.79], [20498, 3, 5, 0.4], [74, 1, 4, 1.04], [38, 1, 4, 1.42], [1413, 15, 4, 0.4], [335, 3, 9, 0.49], [12721, 2, 4, 0.9], [2331, 1, 4, 1.09], [12338, 29, 4, 0.39], [215, 4, 4, 2.04], [4001, 3, 7, 0.94], [1523, 1, 4, 0.6], [4253, 1, 4, 0.88], [11510, 3, 5, 0.99], [8673, 2, 5, 2.14], [45, 2, 4, 1.17], [201, 3, 4, 0.5], [326, 2, 90, 2.75], [11685, 2, 256, 6.0], [144, 2, 156, 3.56], [11681, 2, 256, 6.0], [589, 2, 142, 2.68], [2327, 2, 164, 2.07], [205, 2, 112, 2.12], [593, 2, 210, 3.41], [141, 2, 158, 4.17], [305, 2, 152, 3.88], [8915, 2, 195, 2.5], [8650, 2, 229, 3.8], [2328, 2, 149, 2.19], [151, 1, 16, 1.32], [6936, 2, 284, 6.0], [2778, 2, 160, 4.01], [146, 2, 141, 3.93], [206, 2, 26, 2.95], [88, 10, 587, 3.79], [9507, 3, 206, 1.82], [615, 2, 118, 2.07], [7036, 1, 133, 5.22], [145, 2, 149, 3.12], [1446, 2, 156, 3.1], [417, 2, 158, 2.31], [8853, 2, 284, 5.32], [362, 2, 68, 3.95], [248, 1, 20, 1.55], [523, 2, 158, 4.0], [2055, 3, 466, 6.0], [10993, 2, 53, 2.36], [142, 2, 167, 2.05], [75, 2, 144, 3.51], [616, 2, 118, 2.09], [3840, 1, 83, 1.7], [11737, 2, 62, 2.4], [2050, 3, 436, 5.56], [12870, 1, 149, 4.81], [12350, 1, 656, 4.23], [2054, 3, 436, 5.56], [2057, 3, 466, 6.0], [7084, 3, 138, 2.8], [13028, 3, 144, 2.63], [20927, 1, 47, 3.63], [7005, 1, 80, 2.92], [3, 2, 117, 2.37], [3982, 3, 854, 2.36], [997, 2, 261, 2.84], [94, 4, 134, 2.88], [21793, 1, 262, 4.91], [61, 3, 99, 5.32], [3891, 1, 122, 2.25], [996, 2, 232, 4.4], [6158, 2, 281, 2.89], [998, 2, 261, 2.22], [8672, 2, 291, 5.33], [5165, 1, 51, 3.25], [9491, 21, 2313, 4.22], [11739, 2, 62, 3.19], [2912, 1, 48, 4.84], [972, 3, 643, 2.77], [5165, 2, 410, 3.24], [346, 3, 670, 2.0], [3980, 4, 519, 3.76]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 9, 0.22], [362, 2, 5, 0.45], [2049, 3, 12, 0.2], [589, 2, 8, 0.2], [3, 2, 4, 0.76], [75, 2, 5, 0.49], [141, 2, 5, 1.3], [8672, 2, 7, 0.72], [1776, 1, 4, 0.58], [130, 1, 4, 0.4], [205, 2, 4, 0.21], [8915, 2, 5, 0.39], [151, 1, 4, 0.4], [11681, 2, 5, 2.33], [2778, 2, 6, 0.2], [305, 2, 5, 0.49], [1777, 1, 5, 0.93], [6936, 2, 5, 1.02], [8648, 2, 5, 0.77], [593, 2, 7, 0.72], [990, 2, 4, 0.2], [88, 10, 12, 0.33], [83, 2, 4, 0.5], [1007, 2, 6, 0.37], [345, 3, 5, 0.21], [5151, 2, 4, 0.4], [412, 1, 4, 1.02], [361, 2, 4, 0.49], [201, 3, 6, 0.21], [22247, 2, 5, 1.22], [21793, 1, 4, 1.03], [10149, 3, 15, 1.56], [45, 2, 5, 1.12], [12721, 2, 6, 1.22], [7004, 1, 5, 0.72], [10825, 21, 8, 1.15], [2054, 3, 5, 1.33], [167, 3, 6, 1.09], [413, 1, 4, 1.7], [2057, 3, 5, 1.62], [308, 1, 5, 1.76], [5005, 1, 4, 0.48], [74, 1, 4, 0.84], [6158, 2, 7, 0.87], [168, 3, 4, 0.99], [1446, 2, 4, 0.52], [346, 1, 4, 0.48], [432, 3, 5, 0.39], [13028, 3, 6, 0.5], [10, 2, 6, 0.2], [7036, 1, 5, 1.96], [3495, 3, 17, 0.91], [12870, 1, 4, 2.58], [214, 3, 10, 0.42], [335, 3, 15, 0.67], [5081, 2, 5, 0.47], [79, 1, 4, 0.2], [5208, 3, 7, 1.75], [9827, 3, 4, 1.03], [410, 1, 4, 0.8], [3889, 1, 5, 0.2], [1492, 1, 4, 0.42], [95, 3, 13, 1.12], [5812, 3, 8, 0.95], [94, 4, 4, 2.26], [3893, 1, 5, 0.2], [13260, 29, 4, 1.1], [23, 1, 4, 1.51], [1504, 2, 5, 0.2], [7005, 1, 5, 0.74], [1490, 1, 4, 1.29], [411, 2, 4, 0.55], [10993, 2, 4, 0.42], [3891, 1, 4, 1.26], [25, 1, 4, 1.8], [998, 2, 4, 0.69], [1124, 2, 5, 0.54], [3980, 4, 4, 1.4], [21269, 3, 5, 3.75], [8651, 2, 4, 0.35], [10574, 3, 5, 0.42], [9691, 1, 4, 2.15], [5086, 1, 6, 1.36], [856, 1, 4, 0.2], [2878, 1, 4, 1.82], [997, 2, 6, 1.37], [5660, 2, 5, 2.62], [8676, 2, 5, 0.97], [11914, 1, 6, 0.2], [20927, 1, 4, 0.86], [192, 3, 13, 2.38], [9829, 3, 4, 1.31], [1703, 2, 5, 1.38], [5209, 3, 6, 1.73], [8674, 2, 4, 1.22], [1622, 1, 6, 0.88], [9081, 3, 7, 0.38], [952, 4, 4, 2.89], [20498, 1, 4, 0.93], [5513, 2, 4, 0.52], [1070, 7, 8, 1.39], [996, 2, 5, 1.12], [8898, 3, 7, 2.67], [14037, 3, 5, 0.47], [346, 3, 5, 0.46], [1091, 1, 4, 0.2], [12661, 1, 5, 2.6], [20498, 3, 8, 1.27], [1519, 3, 14, 0.22], [6097, 29, 4, 0.2], [27, 1, 4, 0.76], [8274, 3, 6, 1.09], [24, 1, 5, 1.85], [13034, 3, 6, 1.01], [22317, 3, 6, 0.51], [4203, 1, 6, 0.28], [10529, 29, 4, 1.44], [11490, 1, 4, 0.51], [1413, 15, 4, 0.62], [336, 15, 4, 0.2], [6097, 80, 4, 0.66], [24664, 2, 6, 1.37], [11767, 1, 5, 0.22], [23611, 3, 4, 1.3], [34, 1, 4, 2.06], [9082, 3, 18, 0.83], [2104, 3, 7, 1.63], [6098, 80, 4, 1.65], [66, 1, 4, 0.45], [11769, 1, 4, 0.22], [5811, 3, 4, 1.11], [10780, 10, 4, 2.53], [6098, 29, 4, 1.04], [38, 1, 4, 2.06], [39, 1, 4, 2.06], [66, 16, 4, 0.22], [2109, 3, 9, 0.2], [6935, 2, 297, 3.75], [362, 2, 133, 2.83], [2049, 3, 541, 2.4], [589, 2, 152, 1.9], [3, 2, 112, 3.42], [75, 2, 145, 4.14], [141, 2, 153, 3.64], [8672, 2, 280, 3.56], [1776, 1, 107, 3.72], [130, 1, 56, 1.97], [205, 2, 38, 3.04], [8915, 2, 201, 1.81], [151, 1, 46, 1.94], [2778, 2, 139, 3.71], [305, 2, 146, 3.28], [1777, 1, 107, 4.38], [6936, 2, 283, 5.08], [8648, 2, 199, 5.86], [990, 2, 50, 1.95], [88, 10, 564, 4.25], [83, 2, 53, 2.36], [1007, 2, 266, 2.24], [345, 3, 298, 2.54], [5151, 2, 28, 2.64], [412, 1, 66, 3.99], [361, 2, 81, 3.83], [201, 3, 298, 2.45], [22247, 2, 278, 3.6], [21793, 1, 243, 6.0], [10149, 3, 855, 5.41], [45, 2, 111, 5.3], [12721, 2, 278, 3.19], [7004, 1, 78, 2.9], [10825, 21, 643, 3.29], [2054, 3, 461, 4.41], [167, 3, 225, 3.97], [413, 1, 84, 4.22], [2057, 3, 461, 4.6], [308, 1, 165, 3.66], [5005, 1, 140, 1.87], [74, 1, 199, 5.17], [6158, 2, 137, 3.67], [168, 3, 400, 4.04], [1446, 2, 159, 1.99], [346, 1, 161, 1.87], [432, 3, 293, 3.01], [13028, 3, 145, 3.58], [10, 2, 36, 3.2], [7036, 1, 126, 6.0], [3495, 3, 977, 4.24], [214, 3, 643, 2.17], [5081, 2, 189, 3.46], [79, 1, 47, 2.5], [5208, 3, 535, 4.61], [9827, 3, 85, 3.51], [3889, 1, 122, 4.36], [1492, 1, 39, 1.76], [95, 3, 1086, 4.79], [5812, 3, 211, 3.46], [3893, 1, 122, 3.83], [13260, 29, 72, 3.5], [1504, 2, 182, 3.72], [7005, 1, 64, 2.9]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 6, 0.2], [88, 10, 12, 0.19], [8915, 2, 5, 0.2], [6935, 2, 8, 1.69], [2778, 2, 5, 0.2], [305, 2, 6, 0.45], [2328, 2, 4, 0.2], [615, 2, 4, 0.46], [326, 2, 6, 0.72], [6936, 2, 6, 1.66], [8648, 2, 5, 1.95], [8650, 2, 6, 2.46], [1446, 2, 4, 0.2], [434, 2, 4, 0.52], [205, 2, 4, 1.12], [10, 2, 6, 0.2], [144, 2, 6, 1.04], [151, 1, 4, 0.36], [94, 4, 4, 1.71], [7036, 1, 4, 1.21], [7886, 4, 4, 0.73], [141, 2, 4, 0.67], [1504, 2, 4, 1.01], [146, 2, 7, 1.32], [362, 2, 4, 1.56], [3891, 1, 4, 0.64], [21793, 1, 5, 1.56], [206, 2, 4, 0.96], [8649, 2, 4, 0.75], [11404, 2, 4, 0.42], [10993, 2, 5, 0.2], [5208, 3, 7, 0.54], [2054, 3, 5, 2.22], [3980, 4, 5, 0.98], [7005, 1, 4, 0.66], [11234, 2, 4, 1.4], [12870, 1, 4, 0.47], [145, 2, 4, 1.75], [5165, 1, 4, 0.65], [2912, 1, 4, 1.9], [8672, 2, 4, 1.69], [20927, 1, 4, 1.92], [10149, 3, 10, 1.1], [7887, 4, 4, 0.97], [998, 2, 5, 1.6], [9760, 29, 4, 0.98], [2436, 4, 4, 0.45], [417, 2, 4, 0.92], [997, 2, 4, 1.26], [142, 2, 4, 0.79], [2424, 80, 6, 1.11], [3, 2, 5, 0.2], [6158, 2, 4, 0.67], [9491, 21, 10, 0.83], [972, 3, 7, 0.51], [523, 2, 4, 0.55], [3495, 3, 10, 1.48], [11770, 1, 4, 1.36], [214, 3, 9, 0.38], [7573, 1, 9, 2.96], [11953, 1, 4, 1.0], [74, 1, 4, 1.99], [24257, 1, 4, 0.48], [5165, 2, 5, 0.65], [996, 2, 4, 0.95], [12721, 2, 4, 1.37], [2423, 80, 4, 0.72], [11772, 1, 4, 0.93], [8677, 3, 5, 1.3], [2912, 2, 7, 1.9], [6497, 1, 4, 0.97], [3981, 3, 11, 0.51], [1622, 1, 4, 0.8], [22317, 3, 4, 0.42], [8898, 3, 4, 0.75], [2438, 2, 5, 0.48], [2424, 29, 4, 0.81], [5434, 1, 4, 0.62], [823, 1, 4, 1.04], [4253, 1, 4, 0.39], [9372, 1, 4, 1.24], [3975, 4, 4, 1.2], [33, 1, 4, 0.75], [7567, 3, 4, 0.41], [6496, 1, 4, 0.51], [24258, 1, 4, 0.84], [2805, 137, 4, 1.6], [9081, 3, 7, 0.5], [9082, 3, 19, 0.83], [37, 1, 4, 0.75], [5946, 1, 4, 0.35], [11812, 1, 4, 0.48], [335, 3, 9, 0.49], [1519, 3, 10, 0.39], [8676, 2, 4, 1.69], [12764, 2, 5, 0.35], [10407, 10, 8, 1.17], [220, 4, 4, 1.76], [972, 1, 4, 0.84], [6097, 80, 4, 0.71], [23611, 3, 5, 1.3], [1243, 2, 4, 0.51], [10388, 2, 4, 0.55], [1703, 2, 4, 0.42], [161, 3, 6, 1.29], [1414, 15, 4, 0.44], [1274, 1, 4, 0.49], [95, 3, 11, 0.46], [38, 1, 4, 0.75], [11490, 1, 4, 0.44], [35, 1, 4, 0.75], [11236, 2, 4, 0.62], [22247, 2, 4, 1.23], [12212, 29, 4, 0.53], [4232, 80, 4, 1.27], [2104, 3, 9, 0.5], [1895, 3, 4, 2.5], [10631, 2, 4, 1.25], [8659, 1, 4, 0.41], [11813, 1, 4, 0.88], [13893, 2, 4, 1.17], [11235, 2, 4, 1.32], [10093, 3, 8, 0.92], [12501, 1, 4, 1.24], [8635, 3, 4, 0.87], [788, 2, 4, 0.51], [5164, 1, 4, 0.64], [8274, 3, 4, 0.87], [1309, 1, 4, 0.45], [4940, 1, 4, 0.44], [8104, 1, 4, 1.55], [10780, 10, 4, 1.03], [19931, 1, 4, 1.26], [13034, 3, 4, 1.52], [10386, 2, 4, 1.34], [11942, 29, 4, 0.91], [5151, 2, 4, 1.03], [589, 2, 168, 2.97], [88, 10, 627, 3.92], [8915, 2, 210, 3.09], [6935, 2, 311, 6.0], [2778, 2, 171, 4.06], [305, 2, 163, 3.77], [2328, 2, 166, 4.53], [615, 2, 126, 2.27], [326, 2, 43, 3.6], [6936, 2, 311, 6.0], [8648, 2, 245, 4.73], [8650, 2, 245, 6.0], [1446, 2, 166, 3.92], [434, 2, 124, 2.2], [144, 2, 71, 3.98], [151, 1, 16, 1.36], [7036, 1, 150, 3.53], [141, 2, 170, 3.73], [1504, 2, 236, 3.98], [146, 2, 168, 3.93], [362, 2, 49, 3.89], [3891, 1, 144, 2.69], [21793, 1, 269, 3.6], [206, 2, 118, 3.05], [8649, 2, 258, 4.24], [11404, 2, 121, 2.01], [3980, 4, 557, 2.92], [7005, 1, 91, 3.02], [11234, 2, 64, 3.59], [12870, 1, 161, 2.62], [5165, 1, 55, 3.24], [2912, 1, 52, 4.93], [8672, 2, 328, 4.45], [10149, 3, 1038, 3.48], [998, 2, 245, 5.45], [9760, 29, 41, 2.96], [2436, 4, 127, 2.94], [417, 2, 170, 3.73], [997, 2, 277, 3.63], [142, 2, 179, 3.58], [2424, 80, 189, 4.36], [3, 2, 128, 4.46], [6158, 2, 301, 3.64], [9491, 21, 2565, 2.94], [972, 3, 652, 4.02], [523, 2, 170, 2.64], [3495, 3, 1114, 4.13], [11770, 1, 250, 4.82], [214, 3, 228, 1.59], [7573, 1, 379, 6.0], [11953, 1, 230, 3.13], [74, 1, 227, 5.04], [24257, 1, 153, 2.9], [5165, 2, 439, 3.24], [996, 2, 277, 3.03], [12721, 2, 326, 3.84], [2423, 80, 215, 2.59], [11772, 1, 246, 4.17], [8677, 3, 306, 3.95], [2912, 2, 415, 4.94], [6497, 1, 43, 3.07], [3981, 3, 1942, 2.23], [1622, 1, 120, 4.39]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 4, 0.51], [2778, 2, 6, 0.2], [6936, 2, 6, 1.35], [205, 2, 6, 0.2], [88, 10, 9, 0.19], [144, 2, 5, 0.47], [1504, 2, 4, 0.36], [589, 2, 5, 0.2], [326, 2, 5, 0.45], [8915, 2, 5, 1.11], [8650, 2, 6, 1.21], [7036, 1, 4, 1.73], [593, 2, 7, 0.78], [2775, 2, 4, 0.81], [141, 2, 7, 0.78], [206, 2, 4, 0.65], [3980, 4, 6, 1.19], [7004, 1, 4, 1.19], [3891, 1, 4, 0.2], [2050, 3, 5, 1.68], [8853, 2, 4, 1.18], [7885, 4, 5, 0.2], [7886, 4, 6, 0.4], [2328, 2, 4, 0.2], [146, 2, 6, 1.32], [2055, 3, 6, 1.73], [2054, 3, 6, 1.85], [10, 2, 5, 0.2], [5491, 2, 4, 0.36], [362, 2, 6, 0.82], [8672, 2, 4, 0.98], [12870, 1, 6, 1.65], [8649, 2, 4, 0.71], [10993, 2, 5, 0.38], [3975, 4, 4, 1.39], [2057, 3, 5, 2.02], [21793, 1, 4, 1.93], [12349, 1, 4, 1.03], [5165, 1, 4, 0.65], [1446, 2, 4, 1.15], [13028, 3, 4, 0.62], [3982, 3, 14, 1.66], [5208, 3, 4, 1.03], [75, 2, 5, 0.46], [2991, 3, 4, 2.17], [523, 2, 5, 1.03], [145, 2, 4, 1.55], [7005, 1, 4, 0.97], [94, 4, 4, 1.88], [3495, 3, 13, 1.14], [11404, 2, 4, 0.42], [20927, 1, 4, 1.67], [997, 2, 5, 0.77], [6158, 2, 5, 2.18], [192, 3, 12, 0.77], [2912, 1, 4, 1.89], [82, 2, 5, 0.91], [22316, 3, 6, 0.51], [417, 2, 4, 0.48], [5165, 2, 5, 0.9], [7567, 3, 4, 0.71], [998, 2, 5, 0.91], [11769, 1, 5, 0.71], [389, 4, 4, 1.1], [1492, 1, 5, 0.23], [11953, 1, 4, 0.51], [4176, 4, 6, 1.31], [346, 3, 5, 1.03], [996, 2, 7, 1.72], [11767, 1, 4, 0.66], [5946, 1, 4, 0.85], [6496, 1, 4, 0.49], [8677, 3, 5, 1.15], [37, 1, 4, 1.5], [12721, 2, 4, 0.9], [972, 3, 5, 2.18], [4253, 1, 4, 0.88], [74, 1, 4, 1.04], [11490, 1, 4, 0.79], [22317, 3, 6, 0.26], [411, 2, 4, 0.64], [12212, 29, 4, 0.2], [2104, 3, 6, 0.51], [1413, 15, 4, 0.45], [345, 3, 4, 0.5], [3979, 3, 6, 1.18], [336, 15, 5, 1.42], [11085, 2, 7, 1.78], [2912, 2, 5, 1.89], [8121, 3, 4, 0.5], [1274, 1, 4, 1.01], [201, 3, 5, 0.76], [1277, 1, 4, 0.98], [14037, 3, 4, 1.47], [3, 2, 4, 0.53], [13023, 3, 5, 1.77], [21269, 3, 4, 1.0], [823, 1, 4, 0.48], [38, 1, 4, 1.42], [6494, 1, 4, 0.44], [8673, 2, 4, 2.39], [36, 1, 4, 1.5], [12271, 2, 4, 1.13], [5209, 3, 5, 1.03], [9784, 1, 4, 0.85], [10408, 10, 5, 1.16], [8676, 2, 4, 1.45], [1414, 15, 4, 0.44], [22247, 2, 4, 1.07], [2805, 137, 4, 1.9], [20498, 3, 5, 0.4], [34, 1, 4, 1.42], [9081, 3, 7, 0.56], [3577, 25, 4, 0.45], [95, 3, 11, 0.5], [10936, 2, 4, 0.45], [2878, 1, 4, 1.41], [24257, 1, 4, 1.18], [11812, 1, 4, 0.48], [10388, 2, 4, 1.26], [346, 1, 4, 0.47], [79, 1, 4, 0.43], [13928, 1, 4, 0.82], [161, 3, 5, 1.29], [13035, 3, 4, 1.32], [491, 10, 7, 0.84], [83, 2, 4, 0.41], [3576, 25, 4, 0.66], [10407, 10, 6, 1.33], [1523, 1, 4, 0.6], [19047, 3, 4, 1.34], [9069, 1, 4, 0.42], [9082, 3, 18, 0.83], [13244, 1, 4, 0.4], [972, 1, 4, 0.92], [7704, 2, 4, 0.89], [10937, 2, 4, 0.45], [305, 2, 152, 3.88], [2778, 2, 153, 2.45], [6936, 2, 284, 6.0], [205, 2, 112, 2.9], [88, 10, 587, 3.79], [144, 2, 156, 3.98], [1504, 2, 221, 3.02], [589, 2, 167, 1.74], [326, 2, 101, 2.82], [8915, 2, 195, 3.08], [8650, 2, 229, 5.42], [7036, 1, 133, 5.22], [593, 2, 210, 3.41], [2775, 2, 153, 3.42], [141, 2, 158, 4.17], [206, 2, 39, 2.88], [3980, 4, 493, 5.32], [7004, 1, 80, 3.89], [3891, 1, 128, 2.8], [2050, 3, 466, 6.0], [8853, 2, 299, 5.35], [2328, 2, 149, 2.19], [146, 2, 55, 3.93], [2055, 3, 466, 6.0], [2054, 3, 466, 6.0], [5491, 2, 118, 1.82], [362, 2, 51, 4.11], [8672, 2, 291, 5.33], [12870, 1, 141, 6.0], [8649, 2, 242, 4.17], [10993, 2, 55, 3.19], [3975, 4, 493, 4.15], [2057, 3, 466, 6.0], [21793, 1, 262, 4.91], [12349, 1, 656, 4.23], [5165, 1, 51, 3.25], [1446, 2, 37, 3.1], [13028, 3, 159, 2.38], [3982, 3, 811, 5.26], [75, 2, 151, 2.27], [2991, 3, 164, 5.3], [523, 2, 158, 4.0], [7005, 1, 80, 3.02], [3495, 3, 931, 5.24], [11404, 2, 114, 1.94], [997, 2, 232, 4.4], [192, 3, 1177, 5.06], [2912, 1, 48, 4.84], [22316, 3, 324, 3.42], [417, 2, 167, 2.05], [5165, 2, 369, 3.48], [7567, 3, 75, 3.82], [998, 2, 232, 4.4], [11769, 1, 165, 3.79], [389, 4, 196, 3.25], [1492, 1, 36, 2.3], [11953, 1, 215, 2.98], [4176, 4, 493, 5.7], [996, 2, 247, 5.21], [11767, 1, 174, 2.39], [5946, 1, 135, 2.77], [6496, 1, 44, 2.07], [8677, 3, 296, 5.22]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 5, 0.2], [362, 2, 4, 0.44], [361, 2, 4, 0.2], [8650, 2, 4, 1.71], [5491, 2, 5, 0.2], [5493, 2, 4, 0.51], [11685, 2, 4, 0.2], [417, 2, 5, 0.2], [326, 2, 5, 0.55], [8672, 2, 5, 1.21], [6935, 2, 13, 1.06], [205, 2, 4, 0.2], [1124, 2, 6, 0.32], [11681, 2, 5, 0.49], [11838, 2, 6, 0.63], [12721, 2, 6, 0.48], [248, 1, 5, 0.2], [8915, 2, 5, 0.2], [11837, 2, 4, 1.32], [142, 2, 4, 0.2], [6936, 2, 6, 1.25], [2778, 2, 6, 0.2], [1446, 2, 4, 1.04], [8676, 2, 4, 1.21], [21793, 1, 4, 1.39], [305, 2, 6, 1.23], [22247, 2, 4, 1.1], [11835, 2, 4, 1.5], [616, 2, 6, 0.2], [593, 2, 5, 0.78], [411, 2, 4, 0.89], [10574, 3, 5, 0.47], [990, 2, 4, 0.47], [8673, 2, 4, 0.97], [2775, 2, 4, 0.23], [145, 2, 4, 0.91], [6158, 2, 5, 0.45], [11836, 2, 4, 1.4], [2055, 3, 4, 0.8], [3495, 3, 13, 1.54], [88, 10, 8, 0.6], [10149, 3, 13, 1.25], [75, 2, 4, 0.57], [146, 2, 4, 0.91], [2054, 3, 4, 0.8], [2057, 3, 4, 0.8], [7705, 2, 4, 0.45], [61, 3, 4, 0.2], [7885, 4, 4, 0.46], [2424, 29, 4, 0.75], [7704, 2, 6, 1.15], [144, 2, 4, 0.91], [5165, 1, 4, 0.86], [2859, 15, 4, 0.58], [2423, 29, 4, 0.79], [2423, 80, 4, 0.79], [201, 3, 6, 1.01], [308, 1, 7, 1.86], [1414, 15, 4, 0.44], [335, 3, 10, 0.49], [7706, 2, 4, 0.45], [60, 3, 5, 0.55], [9126, 1, 4, 1.42], [13028, 3, 4, 1.23], [2424, 80, 4, 0.72], [214, 3, 9, 0.57], [1519, 3, 9, 0.39], [345, 3, 4, 0.47], [13034, 3, 5, 1.37], [13023, 3, 6, 1.51], [11770, 1, 4, 1.74], [2703, 3, 4, 1.7], [432, 3, 4, 1.23], [410, 1, 4, 0.52], [6494, 1, 4, 1.67], [3430, 15, 4, 0.8], [94, 4, 4, 0.48], [1886, 2, 4, 0.37], [1492, 1, 4, 0.87], [13928, 1, 4, 0.75], [20927, 1, 4, 0.67], [3893, 1, 4, 1.55], [3891, 1, 4, 1.55], [2331, 1, 4, 0.79], [3981, 3, 8, 0.51], [13033, 3, 4, 0.5], [11811, 1, 4, 0.38], [11952, 1, 4, 1.18], [9690, 1, 4, 0.54], [11089, 1, 4, 0.46], [5733, 2, 5, 1.16], [6097, 80, 4, 1.17], [952, 4, 4, 1.5], [7886, 4, 4, 0.44], [5812, 3, 4, 1.51], [1274, 1, 4, 1.18], [1309, 1, 4, 1.14], [22558, 3, 4, 2.17], [944, 15, 4, 0.39], [5946, 1, 4, 1.55], [114, 3, 4, 0.36], [7708, 2, 4, 0.45], [105, 3, 4, 0.35], [10410, 10, 6, 1.21], [95, 3, 8, 1.05], [10407, 10, 6, 1.21], [3478, 2, 4, 1.03], [5584, 3, 4, 1.15], [7703, 2, 4, 0.45], [3980, 4, 4, 1.26], [8274, 3, 4, 0.87], [9082, 3, 15, 0.83], [3889, 1, 4, 1.55], [13264, 29, 4, 0.49], [20555, 2, 4, 0.45], [10408, 10, 6, 1.21], [192, 3, 13, 2.07], [10398, 2, 4, 0.49], [5811, 3, 4, 2.0], [2805, 137, 5, 2.33], [7005, 1, 4, 0.86], [823, 1, 4, 2.45], [5165, 2, 5, 0.84], [6630, 3, 4, 1.22], [11603, 2, 4, 0.36], [963, 3, 4, 0.89], [13263, 29, 4, 0.55], [6497, 1, 4, 1.36], [21003, 2, 4, 0.72], [12229, 2, 4, 0.7], [14041, 3, 5, 0.63], [13928, 2, 4, 0.75], [10516, 3, 4, 0.99], [9491, 21, 10, 3.02], [186, 3, 7, 1.23], [141, 2, 168, 1.94], [362, 2, 152, 2.16], [361, 2, 151, 2.34], [8650, 2, 203, 5.6], [5491, 2, 100, 2.58], [5493, 2, 116, 2.29], [11685, 2, 291, 4.27], [417, 2, 151, 2.27], [326, 2, 89, 2.74], [8672, 2, 303, 4.46], [6935, 2, 291, 6.0], [205, 2, 100, 2.3], [1124, 2, 174, 3.15], [11681, 2, 307, 2.72], [11838, 2, 239, 4.54], [12721, 2, 261, 4.74], [11837, 2, 239, 3.85], [142, 2, 151, 2.36], [6936, 2, 291, 5.86], [2778, 2, 145, 4.12], [1446, 2, 61, 3.0], [8676, 2, 303, 3.65], [21793, 1, 261, 4.37], [305, 2, 40, 3.77], [22247, 2, 302, 3.43], [11835, 2, 239, 4.21], [616, 2, 100, 2.77], [593, 2, 243, 2.76], [411, 2, 72, 2.91], [10574, 3, 547, 2.34], [990, 2, 56, 2.21], [8673, 2, 274, 4.47], [2775, 2, 151, 2.48], [145, 2, 163, 3.06], [6158, 2, 281, 2.65], [11836, 2, 269, 4.76], [2055, 3, 501, 2.91], [3495, 3, 1026, 4.33], [88, 10, 611, 2.63], [10149, 3, 956, 3.54], [75, 2, 154, 2.67], [146, 2, 163, 3.06], [2054, 3, 501, 2.85], [2057, 3, 501, 2.91], [7705, 2, 187, 2.71], [61, 3, 201, 2.25], [2424, 29, 36, 3.81], [7704, 2, 162, 4.3], [144, 2, 163, 3.06], [5165, 1, 51, 2.97], [2859, 15, 73, 2.43], [2423, 29, 39, 3.13], [2423, 80, 197, 3.13], [201, 3, 276, 4.48], [308, 1, 172, 6.0], [1414, 15, 105, 2.16], [335, 3, 1391, 2.27], [7706, 2, 187, 2.83], [60, 3, 857, 2.58], [9126, 1, 74, 4.04], [13028, 3, 155, 5.21], [2424, 80, 181, 3.79], [214, 3, 692, 2.34], [1519, 3, 652, 1.72], [345, 3, 320, 2.21]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 10, 0.2], [305, 2, 5, 0.23], [6936, 2, 5, 1.17], [8672, 2, 5, 1.21], [2775, 2, 4, 0.47], [8853, 2, 4, 0.83], [145, 2, 5, 0.92], [2776, 2, 4, 1.06], [12721, 2, 6, 1.21], [2327, 2, 5, 0.2], [361, 2, 5, 0.4], [146, 2, 5, 0.62], [8675, 2, 5, 0.73], [11681, 2, 5, 0.21], [141, 2, 4, 0.4], [8673, 2, 7, 0.73], [205, 2, 5, 1.47], [308, 1, 7, 0.49], [8676, 2, 4, 1.21], [1124, 2, 5, 0.54], [11835, 2, 4, 1.79], [144, 2, 5, 1.42], [417, 2, 4, 0.4], [9507, 3, 4, 0.49], [8650, 2, 5, 1.28], [11837, 2, 4, 1.62], [8648, 2, 4, 0.65], [3, 2, 6, 1.09], [6097, 80, 5, 2.57], [2423, 29, 4, 1.44], [6097, 29, 4, 2.58], [6497, 1, 4, 1.36], [11836, 2, 4, 1.7], [990, 2, 4, 0.2], [593, 2, 5, 1.55], [6098, 80, 4, 2.49], [88, 10, 8, 0.6], [11739, 2, 4, 0.49], [523, 2, 4, 0.76], [2423, 80, 5, 0.87], [13260, 29, 4, 1.4], [8915, 2, 4, 0.45], [6494, 1, 4, 1.67], [6158, 2, 5, 0.45], [326, 2, 4, 0.55], [75, 2, 5, 1.81], [1339, 1, 4, 0.43], [378, 2, 4, 1.28], [411, 2, 4, 0.74], [1492, 1, 4, 0.87], [151, 1, 4, 0.45], [335, 3, 10, 0.49], [1050, 2, 4, 0.85], [2859, 15, 4, 0.63], [6496, 1, 4, 0.66], [61, 3, 6, 0.2], [13264, 29, 4, 0.52], [1049, 2, 4, 1.1], [345, 3, 4, 0.36], [10149, 3, 13, 1.25], [7704, 2, 4, 1.11], [964, 15, 4, 0.59], [432, 3, 4, 1.65], [1243, 2, 4, 1.11], [13259, 29, 4, 0.41], [22558, 3, 4, 2.17], [7705, 2, 6, 2.04], [201, 3, 4, 1.02], [5208, 3, 8, 1.79], [2912, 1, 4, 1.99], [186, 3, 7, 0.67], [229, 1, 4, 1.04], [21793, 1, 4, 1.45], [2438, 1, 4, 0.85], [12229, 2, 4, 0.45], [13928, 1, 4, 0.71], [3478, 2, 4, 0.83], [7706, 2, 4, 1.23], [10407, 10, 6, 1.21], [11738, 2, 4, 0.49], [2703, 3, 4, 1.7], [9507, 1, 4, 0.44], [11844, 2, 4, 0.63], [11490, 1, 4, 0.74], [7036, 1, 4, 0.76], [94, 4, 4, 0.48], [11687, 2, 4, 0.9], [1886, 2, 4, 0.37], [11404, 2, 4, 0.42], [114, 3, 4, 0.41], [159, 16, 4, 0.47], [10408, 10, 6, 1.21], [956, 2, 4, 0.52], [7708, 2, 4, 1.23], [20927, 1, 4, 1.66], [2438, 2, 5, 0.76], [10406, 10, 7, 1.21], [9065, 2, 4, 0.78], [11689, 2, 4, 0.89], [12870, 1, 4, 0.94], [22125, 2, 4, 0.36], [152, 21, 4, 0.5], [11690, 2, 4, 0.65], [7005, 1, 4, 1.13], [1274, 1, 4, 1.5], [2991, 3, 4, 2.17], [11161, 1, 5, 0.89], [13259, 25, 4, 0.41], [5769, 3, 6, 0.26], [2805, 137, 5, 0.92], [159, 1, 4, 0.45], [4253, 1, 4, 0.43], [3495, 3, 13, 1.54], [5584, 3, 4, 1.15], [7007, 1, 4, 1.13], [5976, 1, 4, 2.31], [9690, 1, 4, 0.51], [9239, 29, 4, 1.36], [9209, 29, 4, 1.53], [11811, 1, 4, 0.38], [9491, 21, 10, 1.42], [9239, 25, 4, 1.36], [7886, 4, 4, 0.45], [8600, 1, 4, 0.36], [5769, 1, 4, 0.46], [7567, 3, 4, 0.83], [96, 11, 15, 1.09], [24257, 1, 4, 1.04], [95, 3, 8, 0.38], [247, 1, 4, 1.28], [21269, 3, 4, 2.75], [20555, 2, 4, 0.45], [13198, 29, 4, 0.94], [1691, 1, 4, 2.29], [5209, 3, 5, 1.79], [9372, 1, 4, 1.37], [2778, 2, 166, 2.39], [305, 2, 136, 3.77], [6936, 2, 261, 5.68], [8672, 2, 303, 4.46], [2775, 2, 150, 2.95], [8853, 2, 307, 2.91], [145, 2, 76, 3.71], [2776, 2, 166, 3.35], [12721, 2, 261, 4.97], [2327, 2, 138, 5.11], [361, 2, 149, 2.33], [146, 2, 139, 3.93], [8675, 2, 269, 3.17], [11681, 2, 289, 3.99], [141, 2, 149, 2.77], [8673, 2, 262, 5.33], [308, 1, 180, 3.47], [8676, 2, 303, 3.65], [1124, 2, 178, 3.3], [11835, 2, 266, 4.84], [144, 2, 41, 3.98], [417, 2, 145, 3.66], [9507, 3, 54, 1.69], [8650, 2, 203, 6.0], [11837, 2, 266, 4.5], [8648, 2, 238, 4.54], [3, 2, 110, 4.24], [2423, 29, 36, 4.49], [6497, 1, 38, 4.63], [11836, 2, 266, 4.66], [990, 2, 48, 2.56], [593, 2, 90, 3.73], [88, 10, 611, 2.63], [11739, 2, 61, 2.68], [523, 2, 149, 3.27], [2423, 80, 176, 3.28], [13260, 29, 77, 4.01], [8915, 2, 204, 2.18], [6494, 1, 51, 4.6], [6158, 2, 281, 2.65], [326, 2, 98, 2.49], [75, 2, 132, 4.81], [1339, 1, 66, 2.51], [378, 2, 238, 3.84], [411, 2, 115, 2.73], [1492, 1, 39, 2.98], [151, 1, 17, 2.47], [335, 3, 1391, 2.27], [1050, 2, 30, 2.39], [2859, 15, 73, 2.52], [6496, 1, 43, 2.58], [61, 3, 201, 2.74], [13264, 29, 77, 2.31], [345, 3, 319, 2.34], [10149, 3, 956, 3.54], [7704, 2, 187, 3.46], [432, 3, 276, 4.49], [1243, 2, 104, 3.52], [13259, 29, 37, 2.9], [22558, 3, 481, 5.49], [201, 3, 319, 3.28], [5208, 3, 559, 4.95], [2912, 1, 48, 5.22], [186, 3, 703, 2.92]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.91], [141, 2, 4, 0.2], [2778, 2, 8, 0.2], [361, 2, 4, 0.2], [6935, 2, 12, 1.05], [205, 2, 4, 1.29], [12721, 2, 8, 0.96], [8676, 2, 5, 1.1], [417, 2, 5, 0.2], [2049, 3, 15, 0.2], [3, 2, 4, 0.97], [248, 1, 4, 0.48], [8675, 2, 5, 0.73], [22247, 2, 4, 1.0], [6936, 2, 5, 0.47], [523, 2, 5, 0.2], [305, 2, 6, 0.73], [8650, 2, 5, 1.33], [11838, 2, 5, 0.63], [2328, 2, 5, 0.79], [2776, 2, 4, 0.69], [8648, 2, 4, 0.65], [2327, 2, 4, 0.2], [8853, 2, 4, 0.83], [11739, 2, 4, 0.58], [11837, 2, 4, 1.9], [6497, 1, 4, 1.36], [411, 2, 4, 0.89], [412, 1, 4, 1.06], [2805, 137, 5, 0.39], [6097, 80, 6, 2.11], [6097, 29, 4, 0.98], [11835, 2, 4, 1.45], [146, 2, 4, 0.91], [583, 2, 5, 0.76], [326, 2, 4, 0.55], [10149, 3, 13, 0.92], [145, 2, 4, 0.91], [11836, 2, 4, 1.35], [144, 2, 4, 0.91], [75, 2, 4, 1.81], [10574, 3, 5, 0.68], [6494, 1, 5, 0.22], [2055, 3, 4, 0.8], [2057, 3, 4, 0.8], [2422, 29, 4, 1.01], [6496, 1, 4, 0.67], [2054, 3, 5, 1.08], [6098, 80, 4, 0.83], [6098, 29, 4, 0.59], [1243, 2, 4, 1.3], [1886, 2, 4, 0.37], [8915, 2, 4, 0.45], [21793, 1, 4, 1.45], [1492, 1, 4, 0.87], [944, 15, 4, 0.38], [247, 1, 4, 0.61], [3478, 2, 4, 0.86], [7084, 3, 4, 2.21], [5165, 1, 4, 0.86], [2859, 15, 4, 0.58], [6158, 2, 5, 0.67], [335, 3, 10, 0.49], [201, 3, 4, 0.51], [192, 3, 13, 1.24], [13928, 1, 4, 0.69], [5208, 3, 8, 1.44], [3934, 5, 7, 1.47], [5812, 3, 4, 0.66], [107, 2, 4, 0.54], [11489, 1, 4, 0.63], [24722, 2, 4, 0.2], [4253, 1, 4, 0.43], [94, 4, 4, 0.48], [1519, 3, 9, 0.39], [186, 3, 7, 0.67], [214, 3, 9, 0.57], [9491, 21, 10, 1.29], [5811, 3, 4, 2.0], [1703, 2, 4, 0.5], [1050, 2, 4, 0.85], [11767, 1, 4, 0.85], [5813, 3, 5, 0.66], [8938, 2, 4, 1.01], [61, 3, 4, 0.2], [1309, 1, 4, 1.14], [10398, 2, 4, 1.44], [2991, 3, 4, 2.17], [3495, 3, 13, 1.54], [13260, 29, 4, 1.58], [2438, 2, 5, 0.76], [11769, 1, 4, 0.85], [11671, 1, 4, 1.7], [8599, 1, 4, 3.81], [11811, 1, 4, 0.38], [229, 1, 4, 1.04], [8943, 3, 4, 0.72], [19687, 1, 4, 1.21], [2104, 3, 6, 0.47], [13928, 2, 4, 0.69], [1049, 2, 4, 0.85], [7036, 1, 4, 0.76], [5584, 3, 4, 1.15], [10124, 1, 4, 2.17], [7004, 1, 4, 0.53], [955, 2, 4, 0.44], [11808, 1, 4, 1.82], [9690, 1, 4, 0.38], [22573, 2, 4, 1.08], [18964, 1, 4, 1.13], [3334, 5, 4, 0.39], [6575, 3, 4, 0.71], [8274, 3, 4, 0.87], [20927, 1, 4, 1.86], [45, 2, 4, 1.79], [1523, 1, 4, 2.32], [9239, 29, 4, 1.36], [4001, 3, 8, 0.93], [2438, 1, 4, 0.71], [105, 3, 4, 0.4], [11678, 1, 4, 1.58], [13258, 29, 5, 1.12], [1277, 1, 4, 1.91], [19685, 1, 4, 1.38], [1701, 2, 4, 0.67], [11886, 2, 4, 0.73], [3477, 2, 4, 1.1], [7567, 3, 4, 1.18], [21269, 3, 4, 2.75], [9209, 29, 4, 2.15], [5165, 2, 5, 0.84], [3984, 3, 5, 0.62], [10181, 26, 5, 0.46], [8635, 3, 4, 0.87], [7005, 1, 4, 1.33], [8672, 2, 263, 4.66], [141, 2, 144, 3.6], [2778, 2, 158, 3.12], [361, 2, 150, 3.05], [6935, 2, 291, 6.0], [12721, 2, 262, 5.36], [8676, 2, 263, 4.38], [417, 2, 150, 3.05], [2049, 3, 328, 2.4], [3, 2, 47, 4.13], [248, 1, 22, 1.92], [8675, 2, 274, 3.37], [22247, 2, 303, 3.24], [6936, 2, 269, 3.46], [523, 2, 144, 3.5], [305, 2, 135, 3.77], [8650, 2, 214, 5.0], [11838, 2, 239, 5.02], [2328, 2, 138, 4.16], [2776, 2, 150, 3.89], [8648, 2, 238, 4.54], [2327, 2, 138, 4.26], [8853, 2, 307, 2.91], [11739, 2, 61, 2.77], [11837, 2, 270, 5.03], [6497, 1, 38, 4.63], [411, 2, 104, 3.04], [412, 1, 88, 3.35], [2805, 137, 187, 3.68], [6097, 29, 37, 3.2], [11835, 2, 270, 4.85], [146, 2, 163, 3.06], [583, 2, 87, 3.09], [326, 2, 98, 2.49], [10149, 3, 963, 2.95], [145, 2, 163, 3.06], [11836, 2, 270, 4.63], [144, 2, 163, 3.06], [75, 2, 137, 4.79], [10574, 3, 544, 2.8], [6494, 1, 50, 4.6], [2055, 3, 451, 4.27], [2057, 3, 126, 4.32], [2422, 29, 40, 3.25], [6496, 1, 43, 2.6], [2054, 3, 477, 4.26], [6098, 80, 72, 3.57], [6098, 29, 41, 2.45], [1243, 2, 104, 3.81], [1886, 2, 167, 2.11], [8915, 2, 204, 2.18], [21793, 1, 261, 4.51], [1492, 1, 39, 2.98], [944, 15, 12, 1.48], [247, 1, 94, 2.48], [3478, 2, 81, 2.97], [7084, 3, 133, 5.56], [5165, 1, 51, 2.97], [2859, 15, 73, 2.43], [6158, 2, 278, 2.94], [335, 3, 1391, 2.27], [201, 3, 321, 2.75], [192, 3, 1251, 5.29], [13928, 1, 51, 2.64], [5208, 3, 569, 4.95]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 7, 0.52], [305, 2, 4, 0.2], [8650, 2, 4, 1.33], [2778, 2, 6, 0.2], [141, 2, 4, 0.66], [8672, 2, 7, 2.86], [143, 2, 8, 1.9], [6936, 2, 5, 0.76], [145, 2, 4, 0.25], [11837, 2, 4, 1.57], [361, 2, 4, 0.2], [11681, 2, 5, 0.46], [417, 2, 5, 0.2], [75, 2, 5, 0.97], [205, 2, 5, 0.56], [1124, 2, 5, 0.32], [146, 2, 4, 0.57], [11737, 2, 4, 0.55], [8648, 2, 5, 1.1], [12721, 2, 5, 0.73], [8673, 2, 6, 0.2], [523, 2, 4, 0.38], [8853, 2, 5, 1.42], [615, 2, 4, 0.74], [11835, 2, 6, 1.74], [326, 2, 6, 0.85], [990, 2, 4, 0.23], [8675, 2, 5, 1.2], [88, 10, 12, 0.2], [8915, 2, 6, 1.39], [144, 2, 6, 0.91], [434, 2, 6, 0.3], [1005, 2, 5, 1.14], [11739, 2, 4, 0.92], [2424, 29, 4, 0.65], [8676, 2, 5, 2.16], [6158, 2, 7, 0.2], [7704, 2, 4, 1.0], [2423, 29, 4, 0.62], [11836, 2, 4, 1.65], [7705, 2, 4, 1.9], [2424, 80, 4, 0.65], [11738, 2, 4, 0.92], [7706, 2, 4, 1.23], [7004, 1, 4, 1.81], [3478, 2, 4, 0.8], [3, 2, 4, 0.38], [2423, 80, 4, 0.63], [1414, 15, 4, 0.37], [2859, 15, 4, 1.62], [74, 1, 4, 0.91], [3429, 15, 4, 0.2], [2055, 3, 4, 1.98], [10149, 3, 13, 1.25], [6497, 1, 4, 1.36], [18964, 1, 4, 1.13], [12343, 1, 4, 1.71], [13028, 3, 4, 1.23], [94, 4, 4, 0.48], [13928, 1, 4, 0.68], [13034, 3, 5, 1.2], [7084, 3, 4, 0.7], [411, 2, 4, 0.83], [11919, 1, 4, 0.38], [3893, 1, 4, 1.24], [6097, 80, 4, 1.09], [11089, 1, 4, 1.16], [7707, 2, 5, 1.25], [7036, 1, 4, 0.43], [1050, 2, 5, 0.85], [563, 2, 4, 0.68], [192, 3, 13, 2.07], [3891, 1, 4, 1.24], [1339, 1, 4, 0.45], [6630, 3, 4, 1.22], [6494, 1, 4, 1.67], [345, 3, 4, 0.36], [21793, 1, 4, 1.39], [1243, 2, 4, 1.3], [8274, 3, 6, 0.84], [7708, 2, 4, 1.08], [2912, 1, 4, 1.31], [13023, 3, 6, 1.51], [11581, 29, 4, 0.87], [13033, 3, 4, 0.8], [3889, 1, 4, 1.24], [11490, 1, 4, 0.64], [8943, 3, 4, 0.37], [1049, 2, 4, 0.85], [5208, 3, 8, 1.79], [12229, 2, 4, 0.7], [5940, 3, 4, 1.54], [22558, 3, 5, 0.88], [3495, 3, 13, 1.54], [5165, 1, 4, 0.86], [2331, 1, 4, 1.18], [515, 24, 4, 0.51], [201, 3, 4, 0.86], [6629, 3, 4, 0.47], [83, 2, 4, 0.5], [336, 15, 4, 0.35], [1274, 1, 4, 1.18], [7885, 4, 5, 0.56], [229, 1, 4, 1.04], [1309, 1, 4, 1.14], [5812, 3, 5, 1.01], [7005, 1, 4, 1.33], [332, 2, 4, 0.69], [951, 4, 4, 1.58], [21269, 3, 4, 2.75], [214, 3, 9, 0.57], [9690, 1, 4, 0.51], [942, 3, 4, 0.55], [2805, 137, 5, 1.57], [8898, 3, 4, 1.66], [247, 1, 4, 1.24], [335, 3, 13, 0.62], [11914, 1, 4, 0.86], [23961, 3, 4, 2.19], [20555, 2, 4, 0.73], [1703, 2, 4, 0.5], [24257, 1, 4, 1.67], [4940, 1, 4, 0.4], [9827, 3, 4, 0.52], [5811, 3, 6, 0.5], [8635, 3, 4, 0.69], [3934, 5, 7, 1.47], [7573, 1, 4, 0.81], [186, 3, 7, 1.23], [9491, 21, 10, 1.29], [114, 3, 4, 1.44], [11770, 1, 4, 1.74], [10527, 3, 8, 0.82], [13498, 3, 4, 1.32], [5584, 3, 4, 1.15], [11586, 1, 6, 1.46], [19687, 1, 4, 1.21], [6935, 2, 277, 3.62], [305, 2, 135, 3.67], [8650, 2, 225, 4.85], [2778, 2, 143, 3.54], [141, 2, 165, 2.58], [8672, 2, 260, 5.54], [143, 2, 114, 3.95], [6936, 2, 291, 6.0], [145, 2, 139, 3.71], [11837, 2, 238, 5.03], [361, 2, 149, 3.32], [11681, 2, 270, 3.74], [417, 2, 149, 3.32], [75, 2, 134, 4.68], [205, 2, 58, 3.15], [1124, 2, 180, 3.15], [146, 2, 139, 3.93], [11737, 2, 61, 2.37], [8648, 2, 214, 4.02], [12721, 2, 261, 5.11], [8673, 2, 262, 5.33], [523, 2, 149, 2.77], [8853, 2, 291, 6.0], [615, 2, 116, 2.73], [11835, 2, 238, 3.55], [326, 2, 85, 3.49], [990, 2, 51, 2.48], [8675, 2, 269, 5.16], [88, 10, 580, 3.9], [8915, 2, 51, 3.45], [144, 2, 139, 3.98], [434, 2, 57, 2.72], [11739, 2, 61, 3.11], [2424, 29, 37, 2.56], [8676, 2, 76, 5.54], [6158, 2, 241, 3.51], [7704, 2, 162, 5.16], [2423, 29, 40, 2.5], [11836, 2, 238, 4.49], [2424, 80, 184, 2.56], [11738, 2, 23, 3.24], [7706, 2, 169, 3.93], [7004, 1, 31, 4.56], [3478, 2, 81, 2.85], [3, 2, 125, 2.04], [2423, 80, 198, 2.52], [1414, 15, 106, 2.02], [74, 1, 199, 5.92], [3429, 15, 26, 2.25], [2055, 3, 446, 5.43], [10149, 3, 956, 3.54], [6497, 1, 38, 4.63], [18964, 1, 72, 3.49], [12343, 1, 629, 4.64], [13028, 3, 139, 3.68], [94, 4, 132, 2.23], [13928, 1, 51, 2.62], [13034, 3, 626, 3.7], [7084, 3, 137, 4.0], [411, 2, 115, 2.91], [11919, 1, 40, 1.48], [3893, 1, 130, 3.8], [6097, 80, 75, 3.41]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 5, 0.2], [141, 2, 5, 0.2], [2327, 2, 6, 0.2], [2778, 2, 5, 0.2], [6936, 2, 5, 0.69], [362, 2, 5, 0.31], [326, 2, 5, 0.4], [305, 2, 4, 1.01], [2775, 2, 4, 1.06], [1446, 2, 4, 1.54], [9760, 29, 4, 0.4], [8649, 2, 5, 0.64], [8853, 2, 5, 0.71], [593, 2, 4, 0.78], [11581, 29, 4, 0.81], [9507, 3, 4, 0.43], [3840, 1, 5, 0.2], [1429, 2, 4, 1.59], [523, 2, 5, 0.54], [7004, 1, 4, 1.0], [7036, 1, 4, 1.53], [5165, 1, 5, 1.2], [990, 2, 4, 0.36], [159, 3, 6, 0.2], [615, 2, 4, 0.51], [201, 3, 6, 0.41], [8089, 1, 4, 0.36], [145, 2, 4, 0.78], [248, 1, 4, 0.2], [345, 3, 6, 0.51], [6952, 1, 4, 0.71], [146, 2, 4, 0.78], [6097, 80, 5, 2.13], [7084, 3, 4, 1.45], [24664, 2, 17, 1.68], [2050, 3, 5, 0.97], [142, 2, 4, 0.58], [144, 2, 4, 0.78], [2912, 1, 4, 1.2], [7005, 1, 4, 0.76], [11770, 1, 4, 0.53], [3891, 1, 4, 0.84], [1886, 2, 4, 0.4], [997, 2, 4, 0.37], [432, 3, 4, 1.65], [998, 2, 4, 0.47], [6097, 29, 4, 1.04], [3893, 1, 4, 0.84], [6158, 2, 5, 0.36], [5165, 2, 7, 0.65], [10149, 3, 13, 0.75], [2424, 80, 4, 1.18], [12870, 1, 4, 0.47], [10517, 29, 4, 1.24], [11772, 1, 4, 0.89], [11089, 1, 4, 0.58], [20927, 1, 4, 1.36], [6098, 80, 4, 0.71], [7885, 4, 4, 0.49], [10574, 3, 5, 0.83], [1492, 1, 4, 0.43], [9372, 1, 4, 1.33], [4032, 29, 4, 1.1], [5208, 3, 5, 0.73], [3334, 5, 5, 1.14], [22316, 3, 5, 0.25], [13028, 3, 5, 0.86], [1519, 3, 10, 0.39], [3576, 25, 4, 1.54], [1490, 1, 4, 0.53], [3889, 1, 4, 0.84], [1700, 2, 4, 1.36], [12304, 1, 4, 1.75], [2912, 2, 5, 1.2], [13034, 3, 4, 0.55], [972, 3, 5, 1.27], [214, 3, 9, 0.49], [11952, 1, 4, 1.01], [5151, 2, 4, 1.03], [229, 1, 4, 1.08], [2331, 1, 4, 0.49], [11426, 25, 4, 1.01], [5812, 3, 5, 0.5], [9289, 29, 4, 0.48], [11490, 1, 4, 0.52], [3478, 2, 4, 0.76], [8677, 3, 5, 0.5], [13893, 2, 4, 0.83], [995, 2, 4, 1.24], [75, 2, 4, 0.42], [3, 2, 4, 1.17], [10, 2, 5, 0.2], [414, 1, 4, 0.87], [3575, 25, 4, 0.68], [2160, 68, 4, 1.02], [2805, 137, 4, 0.52], [410, 1, 4, 0.57], [13244, 1, 4, 0.39], [13023, 3, 5, 1.51], [11404, 2, 4, 0.42], [1309, 1, 4, 0.41], [4253, 1, 4, 0.85], [159, 1, 4, 0.53], [192, 3, 9, 1.79], [5209, 3, 4, 1.44], [9069, 1, 4, 0.67], [11813, 1, 4, 2.81], [6494, 1, 4, 1.05], [2438, 2, 5, 0.65], [24257, 1, 4, 1.72], [957, 2, 4, 0.45], [9971, 2, 4, 1.39], [9491, 21, 9, 1.43], [14037, 3, 4, 1.08], [9967, 2, 4, 1.39], [159, 16, 4, 0.54], [4033, 29, 4, 1.54], [2878, 1, 4, 0.41], [105, 3, 4, 1.03], [9964, 2, 4, 0.93], [5584, 3, 4, 0.8], [21697, 3, 4, 0.52], [22317, 3, 5, 0.83], [823, 1, 4, 0.46], [9965, 2, 4, 1.39], [8283, 2, 5, 0.95], [10609, 1, 4, 1.16], [10407, 10, 6, 0.74], [4076, 3, 4, 1.75], [13033, 3, 4, 0.55], [3495, 3, 10, 1.61], [1277, 1, 4, 1.65], [4586, 10, 13, 0.8], [11687, 2, 4, 0.67], [12647, 1, 4, 2.56], [7567, 3, 4, 1.06], [589, 2, 183, 1.98], [141, 2, 175, 3.51], [2327, 2, 170, 3.8], [2778, 2, 176, 2.93], [6936, 2, 316, 6.0], [362, 2, 159, 3.84], [326, 2, 99, 2.74], [305, 2, 106, 3.87], [2775, 2, 186, 3.28], [9760, 29, 86, 2.0], [8649, 2, 250, 4.3], [8853, 2, 297, 3.51], [593, 2, 270, 2.78], [11581, 29, 67, 3.04], [9507, 3, 72, 1.74], [3840, 1, 73, 2.05], [523, 2, 175, 3.6], [7004, 1, 19, 2.61], [7036, 1, 144, 5.02], [5165, 1, 54, 4.02], [990, 2, 13, 1.37], [159, 3, 485, 2.12], [615, 2, 130, 2.21], [201, 3, 72, 4.29], [8089, 1, 83, 3.1], [145, 2, 182, 2.73], [248, 1, 61, 2.3], [345, 3, 340, 4.29], [6952, 1, 228, 2.6], [146, 2, 182, 2.73], [7084, 3, 152, 4.51], [24664, 2, 303, 3.95], [142, 2, 185, 2.35], [144, 2, 182, 2.73], [2912, 1, 56, 3.6], [7005, 1, 57, 2.6], [11770, 1, 256, 4.01], [3891, 1, 147, 2.85], [1886, 2, 187, 2.52], [997, 2, 290, 1.95], [432, 3, 334, 4.66], [998, 2, 290, 2.13], [6097, 29, 42, 3.23], [3893, 1, 147, 2.85], [6158, 2, 279, 5.58], [5165, 2, 453, 2.47], [10149, 3, 1041, 2.72], [2424, 80, 204, 3.5], [12870, 1, 165, 2.65], [10517, 29, 82, 3.68], [11772, 1, 255, 3.71], [11089, 1, 203, 2.35], [6098, 80, 91, 2.6], [10574, 3, 607, 2.7], [1492, 1, 45, 2.06], [9372, 1, 285, 3.85], [4032, 29, 114, 3.35], [5208, 3, 634, 4.87], [3334, 5, 204, 5.85], [22316, 3, 341, 2.43], [13028, 3, 33, 4.9], [1519, 3, 582, 1.67], [3576, 25, 119, 4.19], [1490, 1, 60, 2.25]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 8, 0.97], [305, 2, 5, 0.75], [6935, 2, 10, 1.19], [141, 2, 6, 0.39], [2049, 3, 15, 0.2], [12721, 2, 6, 1.22], [151, 1, 4, 0.4], [205, 2, 4, 0.2], [130, 1, 4, 0.51], [1776, 1, 4, 1.85], [362, 2, 5, 1.07], [146, 2, 4, 0.58], [145, 2, 4, 0.39], [593, 2, 6, 0.59], [8915, 2, 6, 0.2], [2328, 2, 6, 0.2], [8648, 2, 4, 1.02], [1777, 1, 5, 0.68], [3, 2, 4, 0.76], [5151, 2, 4, 0.44], [6936, 2, 6, 0.92], [248, 1, 4, 0.2], [8675, 2, 6, 0.72], [22247, 2, 6, 0.95], [1007, 2, 9, 0.2], [2778, 2, 6, 0.2], [10, 2, 6, 0.2], [88, 10, 11, 0.45], [8677, 3, 6, 2.06], [412, 1, 4, 1.16], [11681, 2, 6, 1.12], [10149, 3, 17, 1.32], [10825, 21, 9, 1.39], [2054, 3, 7, 0.59], [75, 2, 4, 0.66], [13028, 3, 5, 0.5], [147, 1, 4, 0.68], [361, 2, 4, 0.65], [413, 1, 4, 1.7], [2055, 3, 6, 0.79], [7004, 1, 4, 0.4], [2057, 3, 5, 0.79], [8676, 2, 4, 0.97], [411, 2, 4, 0.99], [308, 1, 5, 1.76], [410, 1, 5, 0.61], [61, 3, 4, 0.46], [432, 3, 5, 0.39], [1446, 2, 4, 0.52], [1124, 2, 8, 0.2], [45, 2, 4, 1.37], [7005, 1, 4, 0.65], [5081, 2, 8, 0.2], [9827, 3, 4, 0.2], [167, 3, 6, 1.1], [5812, 3, 6, 1.87], [94, 4, 5, 2.26], [1492, 1, 4, 0.42], [3495, 3, 19, 1.31], [57, 1, 4, 0.37], [12870, 1, 4, 2.33], [168, 3, 7, 0.29], [2049, 1, 4, 0.36], [3893, 1, 4, 0.28], [11234, 2, 4, 0.94], [3889, 1, 4, 0.28], [6097, 29, 4, 0.86], [3891, 1, 4, 0.28], [8651, 2, 5, 1.45], [2336, 3, 5, 0.99], [95, 3, 17, 1.16], [335, 3, 15, 1.11], [6097, 80, 4, 2.5], [192, 3, 10, 1.98], [6098, 29, 4, 1.52], [1490, 1, 5, 0.68], [11737, 2, 4, 0.84], [214, 3, 9, 0.55], [20927, 1, 4, 0.86], [998, 2, 4, 1.29], [9069, 1, 5, 1.09], [20498, 1, 5, 0.55], [8898, 3, 6, 2.67], [1622, 1, 5, 1.13], [6098, 80, 4, 2.49], [9760, 29, 4, 0.2], [1070, 7, 8, 0.66], [14017, 3, 5, 0.2], [9829, 3, 4, 1.31], [13260, 29, 4, 1.1], [997, 2, 4, 1.3], [13034, 3, 9, 1.01], [12924, 1, 4, 0.53], [22554, 10, 11, 0.23], [11116, 1, 4, 0.57], [20498, 3, 8, 0.35], [35, 1, 4, 2.06], [1243, 2, 4, 1.03], [5513, 2, 4, 0.57], [336, 15, 4, 0.2], [5811, 3, 4, 2.25], [996, 2, 5, 1.39], [9691, 1, 5, 2.16], [5946, 1, 4, 0.28], [5813, 3, 5, 1.57], [5086, 1, 8, 2.63], [8945, 3, 5, 1.09], [39, 1, 4, 2.06], [3049, 3, 6, 1.98], [1080, 3, 5, 0.2], [952, 4, 5, 2.73], [1413, 15, 5, 0.2], [11085, 2, 4, 1.02], [8557, 3, 4, 0.2], [20486, 3, 8, 2.24], [4076, 3, 4, 2.94], [9082, 3, 18, 0.83], [2424, 80, 4, 1.1], [215, 4, 5, 3.67], [34, 1, 4, 2.06], [1703, 2, 6, 1.63], [20486, 1, 4, 0.51], [11510, 3, 6, 0.46], [38, 1, 4, 2.06], [3900, 3, 4, 0.9], [23611, 3, 4, 0.87], [14037, 3, 4, 0.52], [972, 3, 5, 0.51], [8943, 3, 4, 0.61], [13023, 3, 6, 1.48], [8274, 3, 4, 0.53], [2854, 21, 13, 0.79], [14018, 3, 4, 0.2], [8104, 1, 4, 0.59], [6497, 1, 4, 0.82], [3047, 3, 4, 0.69], [11770, 1, 4, 1.44], [18, 1, 4, 0.58], [8672, 2, 280, 5.57], [305, 2, 146, 3.96], [6935, 2, 255, 5.78], [141, 2, 153, 3.56], [2049, 3, 541, 2.4], [12721, 2, 278, 3.19], [151, 1, 42, 2.19], [205, 2, 107, 2.98], [1776, 1, 102, 4.51], [362, 2, 74, 3.67], [146, 2, 137, 3.07], [145, 2, 152, 2.11], [593, 2, 226, 3.27], [8915, 2, 201, 1.63], [2328, 2, 135, 3.66], [8648, 2, 231, 4.54], [1777, 1, 97, 4.13], [3, 2, 112, 3.42], [5151, 2, 26, 1.8], [6936, 2, 255, 5.12], [8675, 2, 266, 3.36], [22247, 2, 278, 3.55], [1007, 2, 266, 2.19], [2778, 2, 139, 3.71], [10, 2, 109, 2.5], [88, 10, 564, 3.17], [8677, 3, 290, 5.73], [412, 1, 82, 4.16], [11681, 2, 281, 4.12], [10149, 3, 855, 5.91], [10825, 21, 643, 3.2], [2054, 3, 461, 4.78], [75, 2, 153, 2.22], [13028, 3, 145, 3.58], [147, 1, 92, 3.55], [361, 2, 153, 2.7], [413, 1, 84, 4.22], [2055, 3, 461, 3.13], [7004, 1, 55, 2.9], [2057, 3, 461, 4.92], [8676, 2, 280, 4.05], [411, 2, 107, 3.4], [308, 1, 165, 3.84], [61, 3, 110, 3.14], [432, 3, 293, 3.44], [1446, 2, 159, 1.99], [1124, 2, 184, 2.39], [45, 2, 111, 6.0], [7005, 1, 78, 2.9], [5081, 2, 189, 3.46], [9827, 3, 85, 3.53], [167, 3, 225, 3.97], [1492, 1, 39, 1.76], [3495, 3, 977, 4.47], [57, 1, 89, 1.66], [168, 3, 400, 4.08], [2049, 1, 16, 1.54], [3893, 1, 122, 2.42], [11234, 2, 192, 3.02], [3889, 1, 122, 2.42], [6097, 29, 37, 2.61], [3891, 1, 122, 2.42]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 1.32], [8672, 2, 10, 2.68], [3, 2, 11, 2.18], [589, 2, 14, 0.55], [130, 1, 9, 1.43], [2049, 3, 27, 1.73], [205, 2, 7, 0.96], [144, 2, 7, 1.42], [12721, 2, 10, 3.06], [75, 2, 9, 1.86], [145, 2, 7, 1.0], [1776, 1, 7, 1.85], [8915, 2, 12, 0.5], [593, 2, 15, 1.83], [146, 2, 7, 1.75], [151, 1, 7, 0.71], [2778, 2, 11, 1.62], [1777, 1, 7, 2.1], [20252, 2, 7, 0.89], [8648, 2, 7, 5.0], [206, 2, 7, 1.6], [6936, 2, 15, 2.57], [2328, 2, 11, 1.55], [5151, 2, 7, 0.9], [88, 10, 21, 1.98], [141, 2, 7, 2.77], [8675, 2, 10, 1.76], [74, 1, 7, 3.53], [83, 2, 7, 0.85], [7004, 1, 7, 3.3], [1492, 1, 7, 0.81], [2054, 3, 7, 1.03], [1446, 2, 7, 2.98], [10825, 21, 13, 2.01], [362, 2, 7, 2.54], [2057, 3, 7, 0.88], [1007, 2, 11, 0.73], [345, 3, 7, 0.97], [432, 3, 7, 1.15], [7005, 1, 7, 2.68], [22247, 2, 13, 4.81], [11681, 2, 13, 3.81], [201, 3, 11, 0.87], [57, 1, 7, 1.34], [410, 1, 7, 2.85], [3889, 1, 7, 0.8], [308, 1, 17, 3.41], [10149, 3, 21, 2.8], [12870, 1, 7, 5.0], [1124, 2, 14, 0.68], [7036, 1, 7, 2.49], [35, 1, 7, 3.65], [167, 3, 9, 2.77], [9827, 3, 7, 3.12], [5081, 2, 14, 1.08], [8677, 3, 9, 1.84], [94, 4, 7, 3.35], [411, 2, 7, 1.37], [1504, 2, 7, 1.97], [3891, 1, 7, 2.38], [79, 1, 7, 1.19], [168, 3, 11, 3.71], [8676, 2, 7, 1.7], [3893, 1, 7, 2.63], [5812, 3, 10, 1.92], [9760, 29, 7, 1.41], [23, 1, 9, 2.81], [1490, 1, 7, 1.17], [412, 1, 7, 3.16], [3980, 4, 7, 2.74], [20927, 1, 7, 3.21], [45, 2, 7, 2.97], [361, 2, 9, 3.21], [1767, 25, 9, 1.17], [5208, 3, 16, 3.05], [1622, 1, 7, 3.2], [95, 3, 27, 1.28], [9069, 1, 7, 1.96], [8651, 2, 9, 3.54], [335, 3, 20, 0.93], [25, 1, 9, 2.73], [214, 3, 18, 1.26], [10574, 3, 10, 1.02], [413, 1, 7, 2.8], [2049, 1, 7, 1.19], [34, 1, 7, 3.81], [998, 2, 7, 2.83], [856, 1, 7, 1.01], [3495, 3, 16, 2.26], [8898, 3, 12, 3.12], [9691, 1, 7, 3.0], [1766, 25, 9, 4.01], [1070, 7, 15, 0.84], [11116, 1, 7, 3.57], [20498, 1, 7, 2.72], [38, 1, 7, 4.04], [997, 2, 7, 1.84], [5946, 1, 7, 2.23], [14017, 3, 9, 1.5], [1413, 15, 7, 0.83], [974, 3, 9, 2.64], [9829, 3, 7, 2.73], [152, 21, 7, 1.46], [1091, 1, 7, 1.75], [20498, 3, 12, 1.89], [39, 1, 7, 4.04], [82, 2, 7, 2.13], [14037, 3, 11, 1.09], [9372, 1, 7, 2.14], [5209, 3, 9, 3.05], [1080, 3, 9, 1.34], [5086, 1, 7, 4.63], [996, 2, 7, 4.34], [1767, 2, 7, 1.71], [3048, 3, 7, 3.93], [9828, 3, 7, 3.41], [972, 3, 8, 2.01], [13260, 29, 7, 2.71], [24, 1, 7, 2.54], [4203, 1, 7, 1.31], [5513, 2, 7, 2.11], [10780, 10, 7, 3.58], [5813, 3, 9, 3.29], [3981, 3, 17, 2.74], [202, 2, 7, 3.63], [8945, 3, 8, 2.81], [952, 4, 7, 4.41], [36, 1, 7, 4.04], [336, 15, 7, 0.92], [2878, 1, 7, 2.26], [13034, 3, 8, 2.88], [3900, 3, 7, 0.94], [23611, 3, 8, 4.42], [995, 2, 7, 2.41], [6497, 1, 7, 1.29], [14018, 3, 7, 0.89], [24257, 1, 7, 3.7], [9082, 3, 29, 2.75], [170, 3, 7, 3.64], [3980, 4, 570, 3.8], [20927, 1, 27, 4.05], [45, 2, 123, 5.03], [1767, 25, 175, 3.42], [5208, 3, 590, 4.62], [1622, 1, 111, 4.52], [95, 3, 1250, 3.81], [9069, 1, 124, 3.03], [8651, 2, 234, 4.6], [335, 3, 1472, 2.98], [214, 3, 732, 2.32], [10574, 3, 612, 2.09], [413, 1, 96, 4.36], [34, 1, 123, 4.88], [998, 2, 270, 3.89], [856, 1, 38, 2.07], [3495, 3, 1086, 4.69], [8898, 3, 301, 5.58], [1766, 25, 125, 4.94], [1070, 7, 646, 3.65], [11116, 1, 25, 4.33], [20498, 1, 110, 4.61], [38, 1, 123, 5.11], [997, 2, 285, 2.9], [5946, 1, 138, 4.28], [14017, 3, 203, 3.38], [1413, 15, 118, 1.9], [974, 3, 167, 4.45], [9829, 3, 72, 3.8], [1091, 1, 36, 3.0], [20498, 3, 659, 4.2], [39, 1, 123, 5.11], [9372, 1, 280, 3.21], [5209, 3, 590, 4.62], [1080, 3, 149, 3.89], [5086, 1, 154, 5.71], [996, 2, 82, 5.36], [1767, 2, 38, 3.42], [3048, 3, 304, 5.98], [9828, 3, 29, 4.22], [972, 3, 672, 3.65], [13260, 29, 81, 4.03], [24, 1, 125, 3.89], [4203, 1, 55, 3.36], [10780, 10, 391, 5.89], [5813, 3, 705, 4.36], [3981, 3, 1815, 4.05], [202, 2, 37, 4.53], [952, 4, 85, 5.73], [36, 1, 117, 5.11], [2878, 1, 86, 3.33], [13034, 3, 663, 4.48], [3900, 3, 49, 2.26], [23611, 3, 367, 5.48], [995, 2, 285, 3.48], [6497, 1, 44, 2.36], [14018, 3, 237, 1.96], [24257, 1, 70, 4.54], [9082, 3, 2907, 3.83], [170, 3, 410, 4.71]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 9, 1.32], [6935, 2, 11, 4.09], [2778, 2, 17, 1.18], [144, 2, 7, 1.04], [8915, 2, 10, 1.06], [6936, 2, 7, 3.27], [2775, 2, 7, 2.04], [205, 2, 9, 2.28], [8650, 2, 7, 3.41], [593, 2, 17, 2.02], [145, 2, 9, 1.42], [146, 2, 7, 1.4], [326, 2, 7, 1.02], [7036, 1, 7, 3.79], [5493, 2, 7, 0.73], [88, 10, 29, 3.07], [141, 2, 7, 1.29], [7004, 1, 7, 2.58], [1446, 2, 7, 1.5], [1124, 2, 9, 1.59], [9760, 29, 7, 1.89], [206, 2, 9, 1.58], [8853, 2, 7, 2.55], [8672, 2, 7, 3.25], [362, 2, 7, 3.0], [142, 2, 7, 2.28], [11685, 2, 11, 1.76], [2912, 1, 7, 3.73], [7886, 4, 7, 0.8], [8649, 2, 7, 3.04], [5165, 1, 7, 3.1], [12870, 1, 9, 4.32], [1622, 1, 7, 1.38], [2055, 3, 7, 1.06], [417, 2, 7, 2.02], [7573, 1, 14, 5.0], [7084, 3, 7, 3.55], [21793, 1, 7, 1.7], [7885, 4, 9, 1.47], [2054, 3, 7, 3.41], [523, 2, 7, 1.19], [10, 2, 9, 1.21], [9372, 1, 7, 2.39], [3891, 1, 7, 1.21], [75, 2, 7, 3.56], [10149, 3, 21, 2.81], [5208, 3, 11, 1.03], [9491, 21, 19, 1.74], [20927, 1, 9, 2.86], [35, 1, 9, 3.54], [997, 2, 7, 2.43], [12721, 2, 10, 3.06], [5165, 2, 8, 2.04], [3, 2, 9, 2.97], [33, 1, 7, 1.87], [998, 2, 7, 1.83], [94, 4, 7, 0.96], [7887, 4, 7, 1.12], [22247, 2, 7, 2.77], [996, 2, 7, 1.83], [972, 3, 10, 2.61], [34, 1, 7, 3.25], [6158, 2, 14, 1.56], [2805, 137, 7, 3.15], [2912, 2, 12, 3.73], [2424, 80, 7, 1.6], [38, 1, 7, 1.87], [8104, 1, 7, 3.06], [2336, 3, 8, 1.39], [8898, 3, 7, 1.44], [9690, 1, 7, 0.89], [12212, 29, 9, 1.15], [24257, 1, 7, 1.25], [39, 1, 7, 1.87], [11952, 1, 7, 1.58], [7567, 3, 7, 3.04], [2424, 29, 7, 2.71], [1414, 15, 7, 0.85], [192, 3, 15, 2.09], [8676, 2, 7, 3.25], [11770, 1, 7, 3.62], [3495, 3, 17, 3.02], [202, 2, 7, 2.58], [13928, 1, 7, 2.56], [3048, 3, 7, 2.02], [4032, 29, 7, 5.0], [23961, 3, 7, 3.68], [11490, 1, 7, 0.85], [161, 3, 11, 3.8], [5946, 1, 7, 0.67], [11772, 1, 7, 2.97], [1703, 2, 7, 0.81], [10407, 10, 15, 2.75], [74, 1, 7, 4.99], [10410, 10, 11, 2.51], [13023, 3, 8, 2.91], [1274, 1, 7, 1.55], [1519, 3, 24, 0.67], [24258, 1, 9, 2.7], [1523, 1, 7, 1.08], [21269, 3, 7, 5.0], [2331, 1, 7, 2.06], [11236, 2, 7, 1.19], [4253, 1, 7, 0.75], [5164, 1, 7, 1.99], [4076, 3, 7, 3.06], [3430, 15, 7, 1.29], [12764, 2, 8, 0.61], [6097, 80, 7, 1.37], [972, 1, 7, 2.2], [214, 3, 26, 1.25], [6097, 29, 7, 1.37], [10780, 10, 7, 2.56], [1080, 3, 7, 2.75], [8674, 2, 7, 1.69], [3047, 3, 7, 3.41], [13893, 2, 7, 2.25], [9081, 3, 12, 0.94], [11404, 2, 7, 0.81], [10408, 10, 8, 1.05], [8677, 3, 7, 2.5], [13034, 3, 7, 3.01], [3576, 29, 7, 2.56], [1243, 2, 7, 2.09], [12662, 1, 7, 1.02], [13264, 29, 7, 0.9], [2436, 4, 7, 1.58], [20486, 3, 7, 3.48], [6497, 1, 7, 1.87], [7704, 2, 7, 0.87], [13928, 2, 7, 2.56], [3334, 5, 7, 4.89], [11813, 1, 7, 1.69], [45, 2, 7, 1.84], [1277, 1, 7, 3.58], [9690, 1, 86, 2.09], [12212, 29, 119, 3.53], [24257, 1, 153, 2.7], [39, 1, 127, 3.07], [11952, 1, 230, 2.78], [7567, 3, 76, 4.57], [2424, 29, 38, 4.16], [1414, 15, 115, 2.05], [192, 3, 1309, 3.56], [8676, 2, 328, 4.45], [11770, 1, 250, 4.82], [3495, 3, 1058, 4.49], [202, 2, 84, 3.78], [13928, 1, 54, 3.76], [3048, 3, 297, 3.23], [4032, 29, 108, 6.0], [23961, 3, 340, 4.88], [11490, 1, 126, 2.05], [161, 3, 861, 4.99], [5946, 1, 144, 1.87], [11772, 1, 246, 4.17], [1703, 2, 191, 2.01], [10407, 10, 1373, 3.96], [74, 1, 215, 6.0], [10410, 10, 1373, 3.72], [13023, 3, 683, 4.12], [1274, 1, 90, 3.0], [1519, 3, 1076, 1.94], [1523, 1, 55, 2.28], [21269, 3, 340, 6.0], [2331, 1, 135, 3.26], [11236, 2, 255, 2.39], [4253, 1, 180, 2.2], [5164, 1, 54, 3.19], [4076, 3, 230, 4.26], [3430, 15, 80, 2.49], [12764, 2, 861, 1.8], [6097, 80, 81, 2.57], [972, 1, 115, 3.4], [6097, 29, 41, 2.57], [10780, 10, 436, 3.77], [1080, 3, 147, 3.95], [8674, 2, 328, 2.89], [3047, 3, 296, 5.09], [13893, 2, 316, 3.45], [9081, 3, 562, 2.15], [11404, 2, 121, 2.01], [10408, 10, 912, 2.26], [8677, 3, 340, 3.7], [13034, 3, 673, 4.22], [3576, 29, 35, 3.75], [1243, 2, 112, 3.29], [12662, 1, 71, 2.22], [13264, 29, 85, 2.1], [2436, 4, 134, 2.78], [20486, 3, 615, 4.68], [6497, 1, 43, 3.07], [7704, 2, 205, 2.07], [13928, 2, 27, 3.76], [3334, 5, 200, 6.0], [11813, 1, 365, 2.89], [45, 2, 125, 3.04], [1277, 1, 221, 4.78]]</t>
-  </si>
-  <si>
-    <t>[[326, 2, 7, 1.37], [11685, 2, 7, 3.6], [144, 2, 9, 2.0], [11681, 2, 9, 3.34], [589, 2, 8, 0.61], [2327, 2, 7, 0.94], [205, 2, 7, 0.99], [593, 2, 14, 1.01], [141, 2, 7, 1.85], [305, 2, 7, 1.23], [8915, 2, 8, 1.37], [8650, 2, 7, 2.25], [2328, 2, 7, 0.81], [151, 1, 7, 0.69], [6936, 2, 14, 4.75], [2778, 2, 11, 1.43], [2049, 3, 14, 1.17], [146, 2, 11, 1.81], [206, 2, 7, 1.82], [88, 10, 18, 2.29], [7004, 1, 7, 3.12], [9507, 3, 7, 0.69], [615, 2, 7, 0.94], [7036, 1, 7, 3.81], [145, 2, 9, 1.5], [1446, 2, 7, 1.73], [417, 2, 7, 0.93], [8853, 2, 7, 2.37], [362, 2, 7, 3.0], [248, 1, 7, 0.71], [523, 2, 9, 1.56], [2055, 3, 7, 4.17], [10993, 2, 9, 0.98], [142, 2, 7, 0.92], [75, 2, 9, 1.89], [616, 2, 7, 0.96], [3840, 1, 7, 0.75], [11737, 2, 7, 1.27], [2050, 3, 7, 4.19], [12870, 1, 7, 3.69], [12350, 1, 7, 3.09], [2054, 3, 7, 4.19], [2057, 3, 7, 3.77], [7084, 3, 7, 1.67], [13028, 3, 7, 1.25], [20927, 1, 7, 2.62], [7005, 1, 7, 1.54], [3, 2, 7, 1.0], [3982, 3, 19, 1.23], [10, 2, 9, 0.66], [997, 2, 7, 1.71], [94, 4, 7, 1.75], [21793, 1, 7, 3.79], [61, 3, 7, 4.31], [7885, 4, 9, 1.53], [3891, 1, 7, 0.87], [996, 2, 9, 3.03], [6158, 2, 7, 1.77], [998, 2, 7, 1.1], [8672, 2, 7, 2.68], [5165, 1, 7, 2.12], [9491, 21, 18, 3.13], [11739, 2, 7, 2.06], [2912, 1, 7, 3.72], [972, 3, 8, 1.64], [5165, 2, 8, 2.12], [7886, 4, 7, 0.9], [346, 3, 7, 0.88], [3980, 4, 7, 2.63], [98, 11, 16, 1.21], [10388, 2, 7, 2.43], [411, 2, 7, 1.75], [1492, 1, 7, 0.9], [346, 1, 7, 0.83], [7573, 1, 7, 4.14], [8677, 3, 7, 3.84], [83, 2, 7, 1.41], [5208, 3, 10, 2.74], [7567, 3, 7, 2.7], [410, 1, 7, 2.22], [22316, 3, 7, 0.98], [995, 2, 7, 1.79], [3981, 3, 21, 2.03], [9081, 3, 12, 3.65], [13928, 1, 7, 1.58], [22247, 2, 7, 2.36], [10386, 2, 7, 1.46], [9372, 1, 7, 2.16], [336, 15, 7, 1.06], [11770, 1, 7, 3.3], [308, 1, 7, 3.47], [10780, 10, 7, 3.49], [1622, 1, 7, 1.6], [11953, 1, 7, 1.85], [161, 3, 8, 2.28], [2912, 2, 8, 3.72], [23611, 3, 9, 3.81], [9082, 3, 33, 2.42], [5946, 1, 7, 1.64], [345, 3, 7, 0.96], [22317, 3, 7, 0.98], [192, 3, 20, 1.83], [11116, 1, 7, 3.1], [229, 1, 7, 3.09], [24257, 1, 7, 3.7], [37, 1, 7, 2.48], [82, 2, 7, 0.98], [972, 1, 7, 3.25], [11767, 1, 7, 1.27], [12271, 2, 7, 2.18], [7704, 2, 7, 3.27], [34, 1, 7, 2.19], [14037, 3, 7, 4.06], [8104, 1, 7, 3.07], [10410, 10, 10, 2.55], [10407, 10, 10, 2.59], [11085, 2, 9, 3.15], [11404, 2, 7, 0.81], [3048, 3, 7, 2.19], [10387, 2, 7, 4.13], [20498, 3, 8, 0.7], [74, 1, 7, 2.68], [38, 1, 7, 2.73], [1413, 15, 7, 0.77], [335, 3, 15, 0.89], [12721, 2, 7, 1.73], [2331, 1, 7, 2.15], [12338, 29, 7, 0.75], [215, 4, 7, 3.93], [4001, 3, 14, 2.07], [1523, 1, 7, 1.16], [4253, 1, 7, 1.69], [11510, 3, 8, 1.74], [8673, 2, 7, 4.37], [45, 2, 7, 2.76], [201, 3, 7, 0.96], [98, 11, 896, 2.34], [10388, 2, 234, 3.55], [411, 2, 117, 2.87], [1492, 1, 40, 2.03], [346, 1, 150, 2.21], [7573, 1, 376, 5.27], [8677, 3, 312, 4.97], [7567, 3, 75, 3.82], [410, 1, 25, 2.86], [22316, 3, 342, 2.11], [995, 2, 261, 2.91], [3981, 3, 1743, 3.18], [9081, 3, 448, 5.02], [13928, 1, 51, 2.71], [22247, 2, 276, 3.49], [10386, 2, 234, 2.59], [9372, 1, 258, 3.29], [336, 15, 119, 2.19], [11770, 1, 231, 4.43], [308, 1, 171, 4.6], [10780, 10, 396, 4.61], [1622, 1, 116, 2.73], [11953, 1, 215, 2.98], [161, 3, 805, 3.39], [2912, 2, 388, 4.84], [23611, 3, 349, 4.93], [9082, 3, 2517, 3.83], [5946, 1, 135, 2.77], [345, 3, 320, 2.09], [22317, 3, 342, 2.11], [192, 3, 1240, 3.19], [229, 1, 89, 4.22], [37, 1, 113, 3.86], [82, 2, 22, 1.82], [11767, 1, 174, 2.39], [12271, 2, 68, 3.3], [7704, 2, 179, 4.4], [34, 1, 113, 3.49], [14037, 3, 353, 5.18], [8104, 1, 210, 4.19], [10410, 10, 1285, 3.68], [10407, 10, 1285, 3.72], [11085, 2, 578, 4.27], [11404, 2, 114, 1.94], [3048, 3, 291, 3.31], [10387, 2, 234, 5.26], [20498, 3, 633, 1.83], [74, 1, 212, 3.81], [38, 1, 119, 3.86], [1413, 15, 107, 1.9], [335, 3, 1414, 2.0], [12721, 2, 307, 2.85], [2331, 1, 126, 3.28], [12338, 29, 57, 1.88], [215, 4, 41, 5.06], [4001, 3, 854, 3.19], [1523, 1, 51, 2.29], [4253, 1, 187, 2.82], [11510, 3, 630, 2.87], [8673, 2, 272, 5.5], [45, 2, 114, 3.88], [201, 3, 320, 2.09]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 34, 2.8], [362, 2, 11, 1.38], [2049, 3, 24, 0.5], [589, 2, 18, 0.5], [3, 2, 9, 1.97], [75, 2, 14, 1.51], [141, 2, 7, 2.0], [8672, 2, 15, 2.16], [1776, 1, 7, 1.12], [130, 1, 7, 1.02], [205, 2, 9, 1.95], [8915, 2, 10, 0.86], [151, 1, 7, 1.08], [11681, 2, 15, 5.0], [2778, 2, 10, 0.56], [305, 2, 7, 0.94], [1777, 1, 7, 2.22], [6936, 2, 10, 2.79], [8648, 2, 9, 3.71], [593, 2, 14, 2.33], [990, 2, 7, 1.0], [88, 10, 21, 1.94], [83, 2, 7, 0.96], [1007, 2, 15, 1.03], [345, 3, 9, 1.1], [5151, 2, 7, 1.71], [412, 1, 7, 3.14], [361, 2, 7, 2.88], [201, 3, 10, 1.01], [22247, 2, 9, 2.42], [21793, 1, 7, 3.62], [10149, 3, 25, 3.26], [45, 2, 7, 2.65], [12721, 2, 10, 2.24], [7004, 1, 7, 1.34], [10825, 21, 13, 2.1], [2054, 3, 9, 3.22], [167, 3, 9, 2.5], [413, 1, 7, 3.27], [2057, 3, 7, 3.22], [308, 1, 7, 2.71], [5005, 1, 7, 0.92], [74, 1, 7, 3.75], [6158, 2, 8, 2.62], [168, 3, 7, 1.9], [1446, 2, 7, 1.04], [346, 1, 7, 0.92], [432, 3, 7, 1.61], [13028, 3, 7, 1.61], [10, 2, 9, 2.16], [7036, 1, 9, 4.75], [3495, 3, 19, 1.65], [12870, 1, 14, 5.0], [214, 3, 15, 0.77], [335, 3, 18, 2.4], [5081, 2, 9, 0.93], [79, 1, 7, 0.73], [5208, 3, 13, 3.58], [9827, 3, 7, 1.98], [410, 1, 7, 1.54], [3889, 1, 7, 2.63], [1492, 1, 7, 0.81], [95, 3, 21, 3.55], [5812, 3, 10, 2.49], [94, 4, 7, 3.35], [3893, 1, 7, 1.67], [13260, 29, 7, 2.12], [23, 1, 7, 2.76], [1504, 2, 7, 2.78], [7005, 1, 7, 1.44], [1490, 1, 7, 2.48], [411, 2, 7, 1.66], [10993, 2, 7, 0.81], [3891, 1, 7, 2.52], [25, 1, 7, 2.67], [998, 2, 7, 2.66], [1124, 2, 12, 1.74], [3980, 4, 7, 2.76], [21269, 3, 7, 5.0], [8651, 2, 7, 0.67], [10574, 3, 9, 2.31], [9691, 1, 7, 4.14], [5086, 1, 9, 2.24], [856, 1, 7, 1.17], [2878, 1, 9, 3.32], [997, 2, 14, 3.52], [5660, 2, 7, 4.03], [8676, 2, 7, 1.94], [11914, 1, 12, 1.02], [20927, 1, 7, 1.75], [192, 3, 22, 4.99], [9829, 3, 7, 3.0], [1703, 2, 7, 3.63], [5209, 3, 9, 2.86], [8674, 2, 7, 3.61], [1622, 1, 10, 1.61], [9081, 3, 12, 0.73], [952, 4, 7, 5.0], [20498, 1, 7, 1.79], [5513, 2, 7, 1.88], [1070, 7, 13, 2.49], [996, 2, 11, 4.11], [8898, 3, 10, 5.0], [14037, 3, 9, 0.93], [346, 3, 8, 0.8], [1091, 1, 7, 1.35], [12661, 1, 7, 4.66], [20498, 3, 10, 3.76], [1519, 3, 26, 0.67], [6097, 29, 7, 2.33], [27, 1, 7, 1.53], [8274, 3, 9, 1.92], [24, 1, 7, 2.85], [13034, 3, 12, 3.48], [22317, 3, 8, 1.15], [4203, 1, 11, 1.27], [10529, 29, 7, 2.95], [11490, 1, 7, 0.98], [1413, 15, 7, 1.69], [336, 15, 7, 0.67], [6097, 80, 7, 1.27], [24664, 2, 13, 3.27], [11767, 1, 7, 1.15], [23611, 3, 7, 3.74], [34, 1, 7, 3.96], [9082, 3, 29, 3.0], [2104, 3, 12, 2.51], [6098, 80, 7, 3.18], [66, 1, 7, 0.87], [11769, 1, 7, 0.9], [5811, 3, 7, 2.13], [10780, 10, 7, 4.87], [6098, 29, 7, 2.0], [38, 1, 7, 3.97], [39, 1, 7, 3.97], [66, 16, 7, 0.9], [2109, 3, 18, 0.75], [1490, 1, 47, 3.43], [411, 2, 113, 2.6], [10993, 2, 56, 1.76], [3891, 1, 129, 3.47], [998, 2, 236, 5.57], [1124, 2, 174, 2.93], [3980, 4, 450, 3.97], [21269, 3, 290, 6.0], [8651, 2, 229, 1.61], [10574, 3, 505, 3.63], [9691, 1, 73, 5.2], [5086, 1, 182, 4.69], [856, 1, 34, 2.37], [997, 2, 236, 4.59], [5660, 2, 171, 4.98], [8676, 2, 280, 3.13], [11914, 1, 84, 3.85], [20927, 1, 28, 2.9], [192, 3, 1224, 5.98], [9829, 3, 64, 4.2], [1703, 2, 162, 5.19], [5209, 3, 535, 3.8], [8674, 2, 280, 4.56], [1622, 1, 92, 2.56], [9081, 3, 506, 1.67], [952, 4, 58, 6.0], [20498, 1, 92, 2.99], [1070, 7, 609, 3.44], [996, 2, 236, 5.79], [8898, 3, 290, 6.0], [14037, 3, 120, 1.91], [346, 3, 645, 1.75], [1091, 1, 47, 3.19], [12661, 1, 41, 5.76], [20498, 3, 570, 4.94], [1519, 3, 1615, 2.5], [6097, 29, 33, 3.51], [27, 1, 117, 2.47], [24, 1, 110, 4.06], [13034, 3, 578, 5.17], [22317, 3, 312, 3.06], [4203, 1, 44, 3.18], [10529, 29, 40, 4.5], [11490, 1, 113, 1.93], [1413, 15, 96, 3.22], [6097, 80, 74, 2.22], [24664, 2, 296, 4.21], [11767, 1, 154, 2.1], [23611, 3, 295, 4.95], [34, 1, 95, 4.88], [9082, 3, 2551, 3.92], [6098, 80, 76, 4.13], [66, 1, 40, 1.82], [11769, 1, 154, 2.1], [5811, 3, 615, 3.08], [10780, 10, 349, 5.82], [6098, 29, 38, 3.06], [38, 1, 114, 4.92], [39, 1, 95, 4.88], [66, 16, 72, 2.1], [2109, 3, 434, 2.02]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 12, 0.87], [88, 10, 21, 1.36], [8915, 2, 15, 1.06], [6935, 2, 14, 4.34], [2778, 2, 9, 0.55], [305, 2, 7, 1.07], [2328, 2, 14, 1.46], [615, 2, 7, 1.07], [326, 2, 17, 2.27], [6936, 2, 7, 3.27], [8648, 2, 7, 3.27], [8650, 2, 14, 5.0], [1446, 2, 7, 1.57], [434, 2, 7, 1.0], [205, 2, 7, 2.16], [10, 2, 9, 2.3], [144, 2, 9, 2.75], [151, 1, 7, 0.69], [94, 4, 7, 3.35], [7036, 1, 7, 2.33], [7886, 4, 7, 1.41], [141, 2, 11, 2.03], [1504, 2, 7, 2.78], [146, 2, 10, 2.31], [362, 2, 7, 3.0], [3891, 1, 7, 1.49], [21793, 1, 7, 2.4], [206, 2, 7, 1.85], [8649, 2, 7, 3.04], [11404, 2, 7, 0.81], [10993, 2, 7, 1.12], [5208, 3, 11, 2.22], [2054, 3, 9, 3.47], [3980, 4, 8, 1.72], [7005, 1, 7, 1.82], [11234, 2, 7, 2.7], [12870, 1, 7, 1.42], [145, 2, 7, 3.0], [5165, 1, 7, 2.04], [2912, 1, 7, 3.73], [8672, 2, 7, 3.25], [20927, 1, 7, 2.86], [10149, 3, 19, 2.29], [7887, 4, 7, 1.98], [998, 2, 7, 4.25], [9760, 29, 7, 1.89], [2436, 4, 7, 1.11], [417, 2, 7, 2.28], [997, 2, 7, 2.43], [142, 2, 7, 2.37], [2424, 80, 7, 3.03], [3, 2, 9, 1.95], [6158, 2, 7, 2.44], [9491, 21, 19, 1.74], [972, 3, 14, 2.61], [523, 2, 7, 1.19], [3495, 3, 18, 2.92], [11770, 1, 7, 3.62], [214, 3, 15, 0.69], [7573, 1, 16, 5.0], [11953, 1, 7, 1.93], [74, 1, 7, 3.83], [24257, 1, 7, 1.44], [5165, 2, 8, 2.04], [996, 2, 7, 1.83], [12721, 2, 7, 2.64], [2423, 80, 7, 1.39], [11772, 1, 7, 2.97], [8677, 3, 7, 2.5], [2912, 2, 12, 3.73], [6497, 1, 7, 1.87], [3981, 3, 20, 1.03], [1622, 1, 7, 3.19], [22317, 3, 7, 0.81], [8898, 3, 7, 1.44], [2438, 2, 8, 0.85], [2424, 29, 7, 1.56], [5434, 1, 7, 1.19], [823, 1, 7, 2.0], [4253, 1, 7, 0.75], [9372, 1, 7, 2.39], [3975, 4, 7, 2.36], [33, 1, 7, 1.87], [7567, 3, 7, 0.79], [6496, 1, 7, 2.51], [24258, 1, 9, 2.26], [2805, 137, 7, 3.15], [9081, 3, 12, 0.94], [9082, 3, 37, 3.08], [37, 1, 7, 1.5], [5946, 1, 7, 0.67], [11812, 1, 7, 0.92], [335, 3, 15, 0.89], [1519, 3, 20, 0.83], [8676, 2, 7, 3.25], [12764, 2, 8, 0.61], [10407, 10, 15, 2.75], [220, 4, 7, 3.47], [972, 1, 7, 2.2], [6097, 80, 7, 1.37], [23611, 3, 8, 3.74], [1243, 2, 7, 2.09], [10388, 2, 7, 2.07], [1703, 2, 7, 0.81], [161, 3, 11, 3.8], [1414, 15, 7, 0.85], [1274, 1, 7, 1.26], [95, 3, 18, 0.85], [38, 1, 7, 1.87], [11490, 1, 7, 0.85], [35, 1, 7, 1.87], [11236, 2, 7, 1.19], [22247, 2, 7, 2.43], [12212, 29, 7, 1.02], [4232, 80, 7, 2.51], [2104, 3, 15, 0.92], [1895, 3, 7, 4.81], [10631, 2, 7, 4.73], [8659, 1, 7, 1.64], [11813, 1, 7, 1.69], [13893, 2, 7, 2.25], [11235, 2, 7, 2.61], [10093, 3, 14, 1.76], [12501, 1, 7, 2.39], [8635, 3, 7, 2.45], [788, 2, 7, 1.02], [5164, 1, 7, 1.99], [8274, 3, 7, 2.04], [1309, 1, 7, 0.87], [4940, 1, 7, 0.85], [8104, 1, 7, 3.06], [10780, 10, 7, 2.56], [19931, 1, 7, 2.43], [13034, 3, 7, 3.01], [10386, 2, 7, 4.24], [11942, 29, 7, 2.27], [5151, 2, 7, 1.98], [22317, 3, 329, 2.26], [8898, 3, 339, 2.63], [2438, 2, 739, 2.04], [2424, 29, 40, 2.76], [5434, 1, 57, 2.39], [823, 1, 46, 3.2], [4253, 1, 199, 1.95], [9372, 1, 272, 3.59], [3975, 4, 557, 3.56], [33, 1, 127, 3.07], [7567, 3, 81, 1.99], [6496, 1, 47, 3.71], [24258, 1, 32, 2.93], [2805, 137, 200, 4.35], [9081, 3, 562, 2.15], [9082, 3, 2833, 4.25], [37, 1, 127, 2.7], [5946, 1, 144, 1.87], [11812, 1, 277, 2.12], [335, 3, 1511, 2.09], [1519, 3, 567, 1.72], [8676, 2, 328, 4.45], [12764, 2, 861, 1.8], [10407, 10, 1373, 3.96], [220, 4, 52, 4.67], [972, 1, 115, 3.4], [6097, 80, 81, 2.57], [23611, 3, 364, 4.94], [1243, 2, 112, 3.29], [10388, 2, 250, 3.27], [1703, 2, 191, 2.01], [161, 3, 861, 4.99], [1414, 15, 115, 2.05], [1274, 1, 95, 2.46], [95, 3, 1307, 2.04], [38, 1, 127, 3.07], [11490, 1, 126, 2.05], [35, 1, 127, 3.07], [11236, 2, 255, 2.39], [22247, 2, 326, 3.63], [12212, 29, 139, 2.22], [4232, 80, 179, 3.71], [2104, 3, 393, 2.13], [1895, 3, 340, 6.0], [10631, 2, 238, 5.93], [8659, 1, 139, 2.84], [11813, 1, 365, 2.89], [13893, 2, 316, 3.45], [11235, 2, 227, 3.81], [10093, 3, 951, 2.97], [12501, 1, 343, 3.6], [788, 2, 43, 2.08], [5164, 1, 54, 3.19], [1309, 1, 60, 2.07], [4940, 1, 140, 2.05], [8104, 1, 226, 4.27], [10780, 10, 436, 3.77], [19931, 1, 472, 3.62], [13034, 3, 673, 4.22], [10386, 2, 250, 5.44], [11942, 29, 112, 3.47], [5151, 2, 28, 3.18]]</t>
-  </si>
-  <si>
-    <t>[[305, 2, 7, 1.23], [2778, 2, 11, 1.07], [6936, 2, 11, 3.69], [205, 2, 9, 0.98], [88, 10, 14, 0.72], [144, 2, 11, 2.59], [1504, 2, 7, 1.9], [589, 2, 8, 0.61], [326, 2, 14, 1.69], [8915, 2, 8, 1.95], [8650, 2, 9, 2.73], [7036, 1, 7, 3.33], [593, 2, 10, 1.23], [2775, 2, 9, 2.0], [141, 2, 9, 1.83], [206, 2, 7, 1.75], [3980, 4, 7, 2.37], [7004, 1, 7, 2.52], [3891, 1, 7, 1.24], [2050, 3, 7, 4.09], [8853, 2, 7, 4.22], [7885, 4, 9, 1.27], [7886, 4, 9, 1.0], [2328, 2, 7, 0.81], [146, 2, 9, 2.86], [2055, 3, 9, 4.2], [2054, 3, 7, 3.68], [10, 2, 9, 0.66], [5491, 2, 7, 0.69], [362, 2, 9, 3.06], [8672, 2, 7, 2.43], [12870, 1, 9, 3.96], [8649, 2, 7, 3.04], [10993, 2, 9, 1.56], [3975, 4, 7, 2.76], [2057, 3, 7, 5.0], [21793, 1, 7, 3.79], [12349, 1, 7, 3.09], [5165, 1, 7, 2.12], [1446, 2, 7, 2.21], [13028, 3, 7, 1.25], [3982, 3, 21, 2.77], [5208, 3, 10, 2.74], [75, 2, 7, 1.14], [2991, 3, 7, 4.18], [523, 2, 7, 2.23], [145, 2, 7, 2.98], [7005, 1, 7, 1.87], [94, 4, 7, 3.35], [3495, 3, 21, 3.84], [11404, 2, 7, 0.81], [20927, 1, 7, 3.14], [997, 2, 7, 3.28], [6158, 2, 9, 3.62], [192, 3, 33, 2.81], [2912, 1, 7, 3.72], [82, 2, 7, 1.52], [22316, 3, 9, 1.23], [417, 2, 7, 0.92], [5165, 2, 8, 2.12], [7567, 3, 7, 2.7], [998, 2, 7, 3.28], [11769, 1, 9, 2.16], [389, 4, 7, 2.12], [1492, 1, 7, 1.17], [11953, 1, 7, 1.85], [4176, 4, 9, 3.74], [346, 3, 7, 2.21], [996, 2, 9, 3.58], [11767, 1, 7, 1.27], [5946, 1, 7, 1.64], [6496, 1, 7, 0.94], [8677, 3, 7, 3.84], [37, 1, 7, 2.89], [12721, 2, 7, 1.73], [972, 3, 8, 3.25], [4253, 1, 7, 1.69], [74, 1, 7, 2.68], [11490, 1, 7, 1.52], [22317, 3, 9, 1.67], [411, 2, 7, 1.75], [12212, 29, 9, 0.94], [2104, 3, 10, 0.94], [1413, 15, 7, 1.12], [345, 3, 7, 0.96], [3979, 3, 8, 2.31], [336, 15, 7, 2.19], [11085, 2, 9, 3.42], [2912, 2, 8, 3.72], [8121, 3, 7, 1.17], [1274, 1, 7, 1.94], [201, 3, 9, 2.61], [1277, 1, 7, 3.58], [14037, 3, 7, 4.04], [3, 2, 7, 1.48], [13023, 3, 7, 2.91], [21269, 3, 7, 3.75], [823, 1, 7, 0.92], [38, 1, 7, 2.73], [6494, 1, 7, 0.85], [8673, 2, 7, 4.6], [36, 1, 7, 2.89], [12271, 2, 7, 2.18], [5209, 3, 9, 2.74], [9784, 1, 7, 2.5], [10408, 10, 8, 2.29], [8676, 2, 7, 2.79], [1414, 15, 7, 0.85], [22247, 2, 7, 2.11], [2805, 137, 8, 4.23], [20498, 3, 8, 0.7], [34, 1, 7, 2.73], [9081, 3, 12, 1.06], [3577, 25, 7, 1.29], [95, 3, 18, 0.91], [10936, 2, 7, 2.38], [2878, 1, 7, 2.5], [24257, 1, 7, 2.32], [11812, 1, 7, 0.92], [10388, 2, 7, 2.43], [346, 1, 7, 0.9], [79, 1, 7, 0.83], [13928, 1, 7, 1.58], [161, 3, 8, 2.28], [13035, 3, 7, 2.54], [491, 10, 12, 1.58], [83, 2, 7, 0.79], [3576, 25, 7, 1.27], [10407, 10, 10, 2.59], [1523, 1, 7, 1.16], [19047, 3, 7, 2.58], [9069, 1, 7, 1.46], [9082, 3, 29, 2.42], [13244, 1, 7, 0.77], [972, 1, 7, 1.77], [7704, 2, 7, 1.96], [10937, 2, 7, 2.38], [37, 1, 113, 4.02], [12721, 2, 307, 2.85], [4253, 1, 187, 2.82], [74, 1, 212, 3.81], [11490, 1, 39, 2.42], [22317, 3, 324, 3.88], [411, 2, 117, 2.87], [12212, 29, 111, 2.57], [2104, 3, 368, 2.06], [1413, 15, 96, 2.5], [345, 3, 320, 2.09], [3979, 3, 769, 3.68], [336, 15, 40, 3.41], [11085, 2, 549, 5.56], [2912, 2, 388, 4.84], [8121, 3, 285, 2.55], [1274, 1, 80, 3.32], [201, 3, 304, 4.81], [1277, 1, 207, 4.71], [14037, 3, 318, 5.42], [3, 2, 125, 2.6], [13023, 3, 607, 4.28], [21269, 3, 318, 4.88], [823, 1, 44, 2.05], [38, 1, 113, 3.86], [6494, 1, 56, 1.97], [8673, 2, 286, 5.72], [36, 1, 119, 4.02], [12271, 2, 68, 3.3], [9784, 1, 77, 3.63], [10408, 10, 837, 3.42], [8676, 2, 307, 3.92], [1414, 15, 107, 1.98], [22247, 2, 307, 3.24], [2805, 137, 185, 5.35], [20498, 3, 633, 1.83], [34, 1, 119, 3.86], [9081, 3, 526, 2.18], [3577, 25, 95, 2.42], [95, 3, 1212, 2.06], [10936, 2, 144, 3.5], [24257, 1, 149, 3.45], [11812, 1, 259, 2.04], [10388, 2, 234, 3.55], [346, 1, 167, 2.03], [79, 1, 52, 1.96], [13928, 1, 51, 2.71], [161, 3, 805, 3.39], [13035, 3, 324, 3.67], [491, 10, 478, 2.71], [83, 2, 26, 1.74], [3576, 25, 109, 2.4], [10407, 10, 1285, 3.72], [1523, 1, 51, 2.29], [19047, 3, 323, 3.71], [9069, 1, 132, 2.58], [9082, 3, 2650, 3.58], [13244, 1, 53, 1.9], [972, 1, 107, 2.9], [7704, 2, 189, 3.09], [10937, 2, 144, 3.5]]</t>
-  </si>
-  <si>
-    <t>[[141, 2, 7, 0.63], [362, 2, 7, 0.85], [361, 2, 7, 1.03], [8650, 2, 7, 3.29], [5491, 2, 7, 1.02], [5493, 2, 7, 0.98], [11685, 2, 14, 2.31], [417, 2, 7, 0.96], [326, 2, 7, 1.43], [8672, 2, 9, 3.15], [6935, 2, 19, 4.24], [205, 2, 7, 0.69], [1124, 2, 10, 1.84], [11681, 2, 13, 1.4], [11838, 2, 9, 3.23], [12721, 2, 13, 1.73], [248, 1, 7, 1.48], [8915, 2, 7, 0.98], [11837, 2, 7, 2.54], [142, 2, 7, 1.05], [6936, 2, 11, 2.52], [2778, 2, 11, 1.59], [1446, 2, 7, 2.0], [8676, 2, 7, 2.33], [21793, 1, 8, 3.06], [305, 2, 9, 2.69], [22247, 2, 7, 2.12], [11835, 2, 7, 2.89], [616, 2, 9, 1.06], [593, 2, 8, 1.45], [411, 2, 7, 1.71], [10574, 3, 10, 1.03], [990, 2, 7, 0.9], [8673, 2, 9, 2.91], [2775, 2, 7, 0.92], [145, 2, 7, 1.75], [6158, 2, 11, 1.35], [11836, 2, 7, 3.44], [2055, 3, 7, 1.6], [3495, 3, 21, 3.02], [88, 10, 16, 1.33], [10149, 3, 21, 2.23], [75, 2, 7, 1.36], [146, 2, 7, 1.75], [2054, 3, 7, 1.54], [2057, 3, 7, 1.6], [7705, 2, 7, 1.4], [61, 3, 7, 0.69], [7885, 4, 7, 1.31], [2424, 29, 7, 2.5], [7704, 2, 7, 2.99], [144, 2, 7, 1.75], [5165, 1, 7, 1.66], [2859, 15, 7, 1.12], [2423, 29, 7, 1.82], [2423, 80, 7, 1.82], [201, 3, 9, 2.66], [308, 1, 17, 5.0], [1414, 15, 7, 0.85], [335, 3, 17, 0.93], [7706, 2, 7, 1.52], [60, 3, 9, 1.26], [9126, 1, 7, 2.73], [13028, 3, 7, 3.9], [2424, 80, 7, 2.48], [214, 3, 15, 1.04], [1519, 3, 15, 0.72], [345, 3, 7, 0.9], [13034, 3, 9, 2.71], [13023, 3, 10, 2.77], [11770, 1, 7, 3.87], [2703, 3, 7, 3.27], [432, 3, 7, 2.72], [410, 1, 7, 1.0], [6494, 1, 7, 3.29], [3430, 15, 7, 1.54], [94, 4, 7, 0.92], [1886, 2, 7, 0.8], [1492, 1, 7, 1.67], [13928, 1, 7, 1.44], [20927, 1, 7, 2.01], [3893, 1, 7, 2.98], [3891, 1, 7, 2.98], [2331, 1, 7, 3.16], [3981, 3, 13, 0.91], [13033, 3, 8, 1.19], [11811, 1, 7, 1.93], [11952, 1, 7, 2.52], [9690, 1, 7, 1.04], [11089, 1, 7, 0.89], [5733, 2, 8, 2.04], [6097, 80, 7, 2.25], [952, 4, 7, 2.96], [7886, 4, 9, 1.09], [5812, 3, 7, 2.91], [1274, 1, 7, 2.27], [1309, 1, 7, 2.19], [22558, 3, 7, 4.18], [944, 15, 7, 0.75], [5946, 1, 7, 2.98], [114, 3, 7, 0.69], [7708, 2, 7, 1.52], [105, 3, 7, 0.67], [10410, 10, 10, 2.42], [95, 3, 13, 1.87], [10407, 10, 11, 2.42], [3478, 2, 7, 1.98], [5584, 3, 7, 2.72], [7703, 2, 7, 1.4], [3980, 4, 7, 2.49], [8274, 3, 7, 2.04], [9082, 3, 24, 2.83], [3889, 1, 7, 2.98], [13264, 29, 7, 0.94], [20555, 2, 7, 0.87], [10408, 10, 10, 2.37], [192, 3, 21, 4.0], [10398, 2, 7, 2.55], [5811, 3, 7, 4.0], [2805, 137, 10, 5.0], [7005, 1, 7, 2.01], [823, 1, 7, 4.72], [5165, 2, 8, 1.48], [6630, 3, 7, 2.41], [11603, 2, 7, 0.69], [963, 3, 7, 3.23], [13263, 29, 7, 1.06], [6497, 1, 7, 3.32], [21003, 2, 7, 3.61], [12229, 2, 7, 1.35], [14041, 3, 8, 1.12], [13928, 2, 7, 1.44], [10516, 3, 7, 2.2], [9491, 21, 16, 5.0], [186, 3, 12, 2.32], [13034, 3, 629, 4.02], [13023, 3, 629, 4.08], [11770, 1, 228, 5.18], [2703, 3, 305, 4.58], [432, 3, 309, 4.03], [410, 1, 112, 2.31], [6494, 1, 51, 4.6], [3430, 15, 73, 2.85], [94, 4, 132, 2.23], [1886, 2, 167, 2.11], [1492, 1, 39, 2.98], [13928, 1, 51, 2.75], [20927, 1, 84, 3.33], [3893, 1, 129, 4.29], [3891, 1, 129, 4.29], [2331, 1, 124, 4.47], [3981, 3, 1788, 2.23], [13033, 3, 629, 2.49], [11811, 1, 480, 3.25], [11952, 1, 210, 3.83], [9690, 1, 80, 2.35], [11089, 1, 184, 2.21], [5733, 2, 20, 3.04], [6097, 80, 75, 3.56], [952, 4, 79, 4.27], [7886, 4, 38, 1.84], [5812, 3, 629, 4.22], [1274, 1, 87, 3.58], [1309, 1, 55, 3.5], [22558, 3, 481, 5.49], [944, 15, 18, 1.75], [5946, 1, 129, 4.29], [114, 3, 66, 1.44], [7708, 2, 187, 2.83], [105, 3, 66, 1.42], [10410, 10, 1265, 3.72], [95, 3, 1170, 3.18], [10407, 10, 1265, 3.72], [3478, 2, 80, 3.29], [5584, 3, 244, 4.04], [7703, 2, 187, 2.71], [3980, 4, 513, 3.8], [9082, 3, 2608, 4.17], [3889, 1, 129, 4.29], [13264, 29, 77, 2.25], [20555, 2, 61, 2.19], [10408, 10, 824, 3.68], [192, 3, 1407, 5.3], [10398, 2, 152, 3.86], [5811, 3, 469, 5.26], [2805, 137, 189, 6.0], [7005, 1, 84, 3.33], [823, 1, 39, 6.0], [5165, 2, 406, 2.79], [6630, 3, 101, 3.73], [963, 3, 404, 4.54], [13263, 29, 76, 2.37], [6497, 1, 38, 4.63], [21003, 2, 302, 4.93], [12229, 2, 160, 2.66], [14041, 3, 732, 2.43], [13928, 2, 25, 2.75], [10516, 3, 620, 3.5], [9491, 21, 2196, 6.0], [186, 3, 699, 3.64]]</t>
-  </si>
-  <si>
-    <t>[[2778, 2, 26, 1.08], [305, 2, 9, 1.46], [6936, 2, 14, 3.6], [8672, 2, 9, 3.15], [2775, 2, 9, 1.39], [8853, 2, 7, 1.6], [145, 2, 9, 2.25], [2776, 2, 7, 2.04], [12721, 2, 10, 2.22], [2327, 2, 11, 1.57], [361, 2, 7, 0.77], [146, 2, 11, 1.9], [8675, 2, 8, 1.61], [11681, 2, 16, 2.3], [141, 2, 7, 1.46], [8673, 2, 11, 3.16], [205, 2, 9, 2.89], [308, 1, 17, 2.16], [8676, 2, 7, 2.33], [1124, 2, 12, 1.74], [11835, 2, 7, 3.52], [144, 2, 9, 2.81], [417, 2, 7, 2.37], [9507, 3, 7, 0.94], [8650, 2, 14, 4.38], [11837, 2, 7, 3.18], [8648, 2, 7, 3.23], [3, 2, 7, 2.68], [6097, 80, 9, 3.81], [2423, 29, 7, 2.93], [6097, 29, 7, 3.83], [6497, 1, 7, 3.32], [11836, 2, 7, 3.35], [990, 2, 7, 1.0], [593, 2, 8, 2.73], [6098, 80, 7, 3.69], [88, 10, 16, 1.33], [11739, 2, 7, 1.37], [523, 2, 7, 1.71], [2423, 80, 7, 1.71], [13260, 29, 7, 2.7], [8915, 2, 7, 0.87], [6494, 1, 7, 3.29], [6158, 2, 11, 1.35], [326, 2, 7, 1.18], [75, 2, 7, 3.25], [1339, 1, 7, 0.83], [378, 2, 7, 2.53], [411, 2, 7, 1.42], [1492, 1, 7, 1.67], [151, 1, 7, 1.25], [335, 3, 17, 0.93], [1050, 2, 7, 1.64], [2859, 15, 7, 1.21], [6496, 1, 7, 1.27], [61, 3, 17, 1.43], [13264, 29, 7, 1.0], [1049, 2, 7, 2.12], [345, 3, 7, 1.02], [10149, 3, 21, 2.23], [7704, 2, 7, 2.14], [964, 15, 9, 2.57], [432, 3, 7, 3.18], [1243, 2, 7, 2.2], [13259, 29, 13, 1.59], [22558, 3, 7, 4.18], [7705, 2, 7, 4.26], [201, 3, 7, 1.96], [5208, 3, 13, 3.62], [2912, 1, 7, 3.91], [186, 3, 12, 1.62], [229, 1, 7, 2.59], [21793, 1, 8, 3.19], [2438, 1, 7, 1.64], [12229, 2, 7, 0.87], [13928, 1, 7, 1.37], [3478, 2, 7, 1.6], [7706, 2, 7, 2.37], [10407, 10, 11, 2.42], [11738, 2, 7, 1.81], [2703, 3, 7, 3.27], [9507, 1, 7, 0.85], [11844, 2, 7, 1.21], [11490, 1, 7, 1.58], [7036, 1, 7, 1.46], [94, 4, 7, 0.92], [11687, 2, 7, 1.73], [1886, 2, 7, 0.8], [11404, 2, 7, 0.81], [114, 3, 7, 1.05], [159, 16, 7, 0.9], [10408, 10, 10, 2.37], [956, 2, 7, 1.0], [7708, 2, 7, 2.37], [20927, 1, 7, 3.2], [2438, 2, 8, 1.35], [10406, 10, 12, 2.42], [9065, 2, 7, 1.5], [11689, 2, 7, 1.71], [12870, 1, 7, 1.89], [22125, 2, 7, 0.69], [152, 21, 7, 0.96], [11690, 2, 7, 1.24], [7005, 1, 7, 2.18], [1274, 1, 7, 2.89], [2991, 3, 7, 4.18], [11161, 1, 10, 3.09], [13259, 25, 7, 1.59], [5769, 3, 10, 0.93], [2805, 137, 10, 2.86], [159, 1, 7, 0.87], [4253, 1, 7, 2.24], [3495, 3, 21, 3.02], [5584, 3, 7, 2.72], [7007, 1, 7, 2.46], [5976, 1, 7, 4.45], [9690, 1, 7, 0.98], [9239, 29, 7, 2.67], [9209, 29, 8, 3.37], [11811, 1, 7, 1.93], [9491, 21, 16, 2.85], [9239, 25, 7, 2.69], [7886, 4, 9, 1.11], [8600, 1, 7, 1.87], [5769, 1, 7, 0.89], [7567, 3, 7, 1.6], [96, 11, 24, 1.93], [24257, 1, 7, 2.0], [95, 3, 13, 0.69], [247, 1, 7, 4.85], [21269, 3, 7, 5.0], [20555, 2, 7, 0.87], [13198, 29, 7, 2.71], [1691, 1, 7, 4.41], [5209, 3, 8, 3.62], [9372, 1, 7, 2.7], [229, 1, 87, 3.91], [21793, 1, 261, 4.51], [2438, 1, 57, 2.95], [12229, 2, 161, 2.19], [13928, 1, 51, 2.68], [3478, 2, 81, 2.91], [7706, 2, 187, 3.68], [10407, 10, 1265, 3.72], [11738, 2, 23, 2.82], [2703, 3, 305, 4.58], [9507, 1, 13, 1.85], [11844, 2, 292, 2.51], [11490, 1, 115, 2.89], [7036, 1, 135, 2.77], [94, 4, 132, 2.23], [11687, 2, 319, 3.05], [1886, 2, 167, 2.11], [11404, 2, 70, 2.01], [114, 3, 260, 2.36], [159, 16, 63, 2.15], [10408, 10, 824, 3.68], [956, 2, 115, 2.32], [7708, 2, 187, 3.68], [20927, 1, 42, 4.32], [2438, 2, 680, 2.65], [10406, 10, 1897, 3.76], [9065, 2, 319, 2.82], [11689, 2, 319, 3.03], [12870, 1, 148, 3.2], [22125, 2, 50, 1.94], [11690, 2, 319, 2.56], [7005, 1, 83, 3.49], [1274, 1, 86, 4.2], [2991, 3, 170, 5.49], [11161, 1, 528, 4.41], [13259, 25, 74, 2.9], [5769, 3, 1007, 2.65], [2805, 137, 182, 4.17], [159, 1, 32, 2.12], [4253, 1, 178, 3.56], [3495, 3, 1026, 4.33], [5584, 3, 244, 4.04], [7007, 1, 83, 3.77], [5976, 1, 161, 5.76], [9690, 1, 80, 2.29], [9239, 29, 30, 3.99], [9209, 29, 35, 4.68], [11811, 1, 480, 3.25], [9491, 21, 2122, 4.14], [9239, 25, 89, 4.0], [8600, 1, 149, 3.18], [5769, 1, 65, 2.2], [7567, 3, 74, 2.91], [96, 11, 450, 3.05], [24257, 1, 149, 3.31], [95, 3, 1192, 1.98], [247, 1, 80, 6.0], [21269, 3, 313, 6.0], [20555, 2, 61, 2.18], [13198, 29, 66, 4.02], [1691, 1, 92, 5.72], [5209, 3, 559, 4.95], [9372, 1, 256, 4.01]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 9, 2.15], [141, 2, 11, 0.92], [2778, 2, 13, 1.44], [361, 2, 11, 1.1], [6935, 2, 28, 4.5], [205, 2, 7, 2.48], [12721, 2, 17, 3.52], [8676, 2, 7, 1.69], [417, 2, 11, 1.1], [2049, 3, 26, 0.5], [3, 2, 11, 2.93], [248, 1, 7, 0.92], [8675, 2, 9, 1.81], [22247, 2, 7, 1.93], [6936, 2, 11, 1.9], [523, 2, 7, 1.77], [305, 2, 7, 1.37], [8650, 2, 9, 3.44], [11838, 2, 7, 3.71], [2328, 2, 7, 2.32], [2776, 2, 7, 2.33], [8648, 2, 7, 3.23], [2327, 2, 7, 1.48], [8853, 2, 7, 1.6], [11739, 2, 7, 1.46], [11837, 2, 7, 3.72], [6497, 1, 7, 3.32], [411, 2, 7, 1.71], [412, 1, 7, 2.04], [2805, 137, 10, 2.37], [6097, 80, 7, 3.95], [6097, 29, 7, 1.89], [11835, 2, 7, 3.54], [146, 2, 7, 1.75], [583, 2, 7, 1.78], [326, 2, 7, 1.18], [10149, 3, 21, 1.63], [145, 2, 7, 1.75], [11836, 2, 7, 3.32], [144, 2, 7, 1.75], [75, 2, 7, 3.48], [10574, 3, 10, 1.5], [6494, 1, 7, 3.29], [2055, 3, 7, 2.71], [2057, 3, 7, 3.45], [2422, 29, 7, 1.94], [6496, 1, 7, 1.29], [2054, 3, 7, 2.68], [6098, 80, 7, 2.01], [6098, 29, 7, 1.14], [1243, 2, 7, 2.5], [1886, 2, 7, 0.8], [8915, 2, 7, 0.87], [21793, 1, 8, 3.19], [1492, 1, 7, 1.67], [944, 15, 7, 0.73], [247, 1, 7, 1.17], [3478, 2, 7, 1.66], [7084, 3, 7, 4.25], [5165, 1, 7, 1.66], [2859, 15, 7, 1.12], [6158, 2, 11, 1.62], [335, 3, 17, 0.93], [201, 3, 7, 1.44], [192, 3, 21, 3.69], [13928, 1, 7, 1.33], [5208, 3, 13, 3.64], [3934, 5, 12, 2.91], [5812, 3, 7, 2.0], [107, 2, 7, 1.31], [11489, 1, 7, 2.39], [24722, 2, 9, 1.37], [4253, 1, 7, 2.24], [94, 4, 7, 0.92], [1519, 3, 15, 0.72], [186, 3, 12, 1.62], [214, 3, 15, 1.04], [9491, 21, 16, 2.29], [5811, 3, 7, 4.0], [1703, 2, 7, 1.39], [1050, 2, 7, 1.7], [11767, 1, 7, 1.64], [5813, 3, 8, 2.0], [8938, 2, 7, 1.94], [61, 3, 7, 0.85], [1309, 1, 7, 2.19], [10398, 2, 7, 2.77], [2991, 3, 7, 4.18], [3495, 3, 21, 3.02], [13260, 29, 7, 3.04], [2438, 2, 8, 1.35], [11769, 1, 7, 1.64], [11671, 1, 7, 3.34], [8599, 1, 7, 5.0], [11811, 1, 7, 1.93], [229, 1, 7, 2.59], [8943, 3, 7, 1.38], [19687, 1, 7, 2.33], [2104, 3, 10, 0.86], [13928, 2, 7, 1.33], [1049, 2, 7, 1.7], [7036, 1, 7, 1.46], [5584, 3, 7, 2.72], [10124, 1, 7, 4.18], [7004, 1, 7, 2.39], [955, 2, 7, 0.85], [11808, 1, 7, 3.57], [9690, 1, 7, 0.89], [22573, 2, 7, 2.08], [18964, 1, 7, 2.18], [3334, 5, 7, 2.07], [6575, 3, 7, 1.37], [8274, 3, 7, 2.04], [20927, 1, 7, 3.58], [45, 2, 7, 4.57], [1523, 1, 7, 4.47], [9239, 29, 7, 2.67], [4001, 3, 17, 2.16], [2438, 1, 7, 1.37], [105, 3, 7, 0.77], [11678, 1, 7, 3.09], [13258, 29, 13, 3.2], [1277, 1, 7, 3.68], [19685, 1, 7, 2.73], [1701, 2, 7, 3.48], [11886, 2, 7, 1.41], [3477, 2, 7, 2.35], [7567, 3, 7, 2.27], [21269, 3, 7, 5.0], [9209, 29, 8, 4.73], [5165, 2, 8, 1.48], [3984, 3, 8, 1.07], [10181, 26, 8, 0.81], [8635, 3, 7, 2.45], [7005, 1, 7, 2.56], [3934, 5, 549, 4.23], [5812, 3, 626, 3.32], [107, 2, 48, 2.62], [24722, 2, 61, 2.62], [4253, 1, 178, 3.56], [94, 4, 132, 2.23], [1519, 3, 652, 1.72], [186, 3, 703, 2.92], [214, 3, 692, 2.34], [9491, 21, 2235, 3.57], [5811, 3, 469, 5.26], [1703, 2, 174, 2.71], [1050, 2, 30, 2.45], [11767, 1, 171, 2.96], [5813, 3, 626, 3.32], [8938, 2, 202, 3.25], [61, 3, 201, 2.41], [1309, 1, 55, 3.5], [10398, 2, 155, 4.08], [2991, 3, 170, 5.49], [3495, 3, 1026, 4.33], [13260, 29, 76, 4.35], [2438, 2, 680, 2.65], [11769, 1, 171, 2.96], [11671, 1, 315, 4.64], [8599, 1, 148, 6.0], [11811, 1, 480, 3.25], [229, 1, 87, 3.91], [8943, 3, 401, 2.69], [19687, 1, 32, 3.64], [2104, 3, 362, 2.17], [13928, 2, 25, 2.64], [1049, 2, 30, 2.45], [7036, 1, 135, 2.77], [5584, 3, 244, 4.04], [10124, 1, 107, 5.49], [7004, 1, 83, 3.7], [955, 2, 115, 2.17], [11808, 1, 495, 4.89], [9690, 1, 80, 2.2], [22573, 2, 69, 3.37], [18964, 1, 72, 3.49], [3334, 5, 187, 3.38], [6575, 3, 262, 2.68], [20927, 1, 21, 4.33], [45, 2, 112, 5.89], [1523, 1, 49, 5.78], [9239, 29, 30, 3.99], [4001, 3, 857, 3.48], [2438, 1, 57, 2.68], [105, 3, 99, 1.77], [11678, 1, 474, 4.41], [13258, 29, 41, 4.51], [1277, 1, 199, 4.99], [19685, 1, 38, 4.04], [1701, 2, 168, 4.79], [11886, 2, 204, 2.72], [3477, 2, 35, 3.55], [7567, 3, 74, 3.58], [21269, 3, 313, 6.0], [9209, 29, 34, 6.0], [5165, 2, 406, 2.79], [3984, 3, 1763, 2.37], [10181, 26, 148, 2.12], [7005, 1, 83, 3.87]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 21, 2.06], [305, 2, 7, 0.88], [8650, 2, 9, 3.29], [2778, 2, 13, 2.11], [141, 2, 7, 1.27], [8672, 2, 9, 4.04], [143, 2, 9, 2.51], [6936, 2, 14, 2.62], [145, 2, 11, 1.66], [11837, 2, 7, 3.47], [361, 2, 11, 1.36], [11681, 2, 13, 2.3], [417, 2, 11, 1.36], [75, 2, 9, 1.92], [205, 2, 7, 2.03], [1124, 2, 12, 1.34], [146, 2, 7, 1.1], [11737, 2, 7, 1.06], [8648, 2, 7, 2.71], [12721, 2, 11, 3.55], [8673, 2, 14, 2.91], [523, 2, 7, 1.21], [8853, 2, 11, 3.44], [615, 2, 7, 1.42], [11835, 2, 7, 2.24], [326, 2, 9, 1.93], [990, 2, 9, 0.78], [8675, 2, 9, 3.6], [88, 10, 32, 1.54], [8915, 2, 9, 2.29], [144, 2, 7, 2.16], [434, 2, 9, 1.29], [1005, 2, 7, 2.48], [11739, 2, 7, 1.8], [2424, 29, 7, 1.25], [8676, 2, 9, 4.47], [6158, 2, 11, 1.54], [7704, 2, 14, 3.85], [2423, 29, 7, 1.19], [11836, 2, 7, 3.18], [7705, 2, 11, 4.17], [2424, 80, 7, 1.25], [11738, 2, 7, 2.24], [7706, 2, 7, 2.37], [7004, 1, 7, 3.48], [3478, 2, 7, 1.54], [3, 2, 7, 0.73], [2423, 80, 7, 1.21], [1414, 15, 7, 0.71], [2859, 15, 7, 2.63], [74, 1, 7, 4.61], [3429, 15, 7, 0.71], [2055, 3, 7, 3.87], [10149, 3, 21, 2.23], [6497, 1, 7, 3.32], [18964, 1, 7, 2.18], [12343, 1, 7, 3.34], [13028, 3, 7, 2.37], [94, 4, 7, 0.92], [13928, 1, 7, 1.31], [13034, 3, 9, 2.38], [7084, 3, 7, 2.69], [411, 2, 7, 1.6], [11919, 1, 7, 0.73], [3893, 1, 7, 2.49], [6097, 80, 7, 2.1], [11089, 1, 7, 2.23], [7707, 2, 7, 2.66], [7036, 1, 7, 1.74], [1050, 2, 7, 1.95], [563, 2, 7, 1.31], [192, 3, 21, 4.0], [3891, 1, 7, 2.49], [1339, 1, 7, 0.87], [6630, 3, 7, 2.41], [6494, 1, 7, 3.29], [345, 3, 7, 1.02], [21793, 1, 8, 3.06], [1243, 2, 7, 2.5], [8274, 3, 7, 1.6], [7708, 2, 7, 2.08], [2912, 1, 7, 2.52], [13023, 3, 10, 2.77], [11581, 29, 7, 1.67], [13033, 3, 8, 1.76], [3889, 1, 7, 2.49], [11490, 1, 7, 1.5], [8943, 3, 7, 0.71], [1049, 2, 7, 1.64], [5208, 3, 13, 3.62], [12229, 2, 7, 1.35], [5940, 3, 7, 3.02], [22558, 3, 7, 4.88], [3495, 3, 21, 3.02], [5165, 1, 7, 1.66], [2331, 1, 7, 3.54], [515, 24, 7, 2.7], [201, 3, 7, 1.66], [6629, 3, 7, 0.9], [83, 2, 7, 2.33], [336, 15, 7, 0.67], [1274, 1, 7, 2.27], [7885, 4, 7, 1.33], [229, 1, 7, 2.59], [1309, 1, 7, 2.19], [5812, 3, 7, 2.49], [7005, 1, 7, 2.56], [332, 2, 7, 1.33], [951, 4, 7, 3.12], [21269, 3, 7, 5.0], [214, 3, 15, 1.04], [9690, 1, 7, 0.98], [942, 3, 7, 2.26], [2805, 137, 10, 4.49], [8898, 3, 7, 3.26], [247, 1, 7, 4.71], [335, 3, 21, 2.4], [11914, 1, 7, 1.66], [23961, 3, 7, 4.22], [20555, 2, 7, 1.41], [1703, 2, 7, 1.39], [24257, 1, 7, 3.7], [4940, 1, 7, 0.77], [9827, 3, 7, 1.0], [5811, 3, 8, 2.65], [8635, 3, 7, 1.33], [3934, 5, 12, 2.91], [7573, 1, 7, 1.56], [186, 3, 12, 2.32], [9491, 21, 16, 2.29], [114, 3, 7, 2.77], [11770, 1, 7, 3.87], [10527, 3, 13, 2.94], [13498, 3, 7, 5.0], [5584, 3, 7, 2.72], [11586, 1, 11, 3.58], [19687, 1, 7, 2.33], [11089, 1, 182, 3.55], [7707, 2, 162, 4.22], [7036, 1, 136, 3.05], [563, 2, 77, 2.62], [192, 3, 1407, 5.3], [3891, 1, 130, 3.8], [1339, 1, 77, 2.18], [6630, 3, 101, 3.73], [6494, 1, 51, 4.6], [345, 3, 319, 2.34], [21793, 1, 261, 4.37], [1243, 2, 104, 3.81], [7708, 2, 187, 3.39], [2912, 1, 51, 3.83], [13023, 3, 629, 4.08], [11581, 29, 64, 2.98], [13033, 3, 626, 3.08], [3889, 1, 130, 3.8], [11490, 1, 115, 2.81], [8943, 3, 102, 1.45], [1049, 2, 30, 2.39], [5208, 3, 559, 4.95], [12229, 2, 160, 2.66], [5940, 3, 250, 4.34], [22558, 3, 433, 6.0], [3495, 3, 1026, 4.33], [5165, 1, 51, 2.97], [2331, 1, 123, 4.85], [515, 24, 215, 4.01], [201, 3, 303, 3.22], [6629, 3, 84, 2.21], [1274, 1, 87, 3.58], [229, 1, 87, 3.91], [1309, 1, 55, 3.5], [5812, 3, 536, 5.27], [7005, 1, 83, 3.87], [332, 2, 77, 2.64], [951, 4, 99, 4.43], [21269, 3, 313, 6.0], [214, 3, 692, 2.34], [9690, 1, 80, 2.29], [942, 3, 314, 3.57], [2805, 137, 185, 5.8], [8898, 3, 284, 4.57], [247, 1, 92, 6.0], [11914, 1, 90, 2.97], [23961, 3, 305, 5.54], [20555, 2, 61, 2.72], [1703, 2, 174, 2.71], [4940, 1, 129, 2.08], [9827, 3, 93, 2.31], [5811, 3, 561, 3.96], [3934, 5, 549, 4.23], [7573, 1, 364, 2.87], [186, 3, 699, 3.64], [9491, 21, 2235, 3.57], [114, 3, 257, 4.08], [11770, 1, 228, 5.18], [10527, 3, 920, 4.26], [13498, 3, 626, 6.0], [5584, 3, 244, 4.04], [11586, 1, 409, 4.89], [19687, 1, 32, 3.64]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 9, 0.75], [141, 2, 9, 1.09], [2327, 2, 11, 1.37], [2778, 2, 7, 1.39], [6936, 2, 11, 3.9], [362, 2, 7, 2.19], [326, 2, 7, 1.5], [305, 2, 9, 2.5], [2775, 2, 7, 2.04], [1446, 2, 7, 3.31], [9760, 29, 7, 0.77], [8649, 2, 7, 2.82], [8853, 2, 13, 2.03], [593, 2, 7, 1.55], [11581, 29, 7, 1.56], [9507, 3, 7, 0.83], [3840, 1, 9, 0.7], [1429, 2, 7, 3.31], [523, 2, 7, 1.49], [7004, 1, 7, 1.93], [7036, 1, 9, 3.79], [5165, 1, 9, 2.38], [990, 2, 7, 0.69], [159, 3, 10, 0.73], [615, 2, 7, 0.98], [201, 3, 20, 3.47], [8089, 1, 7, 1.87], [145, 2, 7, 1.5], [248, 1, 7, 0.92], [345, 3, 9, 1.93], [6952, 1, 7, 1.37], [146, 2, 7, 1.5], [6097, 80, 9, 3.81], [7084, 3, 7, 3.27], [24664, 2, 25, 2.72], [2050, 3, 9, 1.92], [142, 2, 7, 1.12], [144, 2, 7, 1.5], [2912, 1, 7, 2.36], [7005, 1, 7, 1.46], [11770, 1, 7, 2.77], [3891, 1, 7, 1.62], [1886, 2, 7, 1.29], [997, 2, 7, 0.71], [432, 3, 7, 3.18], [998, 2, 7, 0.9], [6097, 29, 7, 2.0], [3893, 1, 7, 1.62], [6158, 2, 7, 4.35], [5165, 2, 12, 1.23], [10149, 3, 21, 1.49], [2424, 80, 7, 2.27], [12870, 1, 7, 1.42], [10517, 29, 7, 2.45], [11772, 1, 7, 2.48], [11089, 1, 7, 1.12], [20927, 1, 7, 2.5], [6098, 80, 7, 1.37], [7885, 4, 11, 1.58], [10574, 3, 8, 1.46], [1492, 1, 7, 0.83], [9372, 1, 7, 2.62], [4032, 29, 7, 2.12], [5208, 3, 9, 3.64], [3334, 5, 7, 4.62], [22316, 3, 9, 0.8], [13028, 3, 9, 3.96], [1519, 3, 18, 0.78], [3576, 25, 7, 2.96], [1490, 1, 7, 1.02], [3889, 1, 7, 1.62], [1700, 2, 7, 2.62], [12304, 1, 7, 3.62], [2912, 2, 8, 2.37], [13034, 3, 7, 1.05], [972, 3, 7, 2.37], [214, 3, 15, 0.91], [11952, 1, 7, 2.0], [5151, 2, 7, 1.98], [229, 1, 7, 2.08], [2331, 1, 7, 2.57], [11426, 25, 7, 1.94], [5812, 3, 8, 2.39], [9289, 29, 7, 2.53], [11490, 1, 7, 1.0], [3478, 2, 7, 1.46], [8677, 3, 8, 2.09], [13893, 2, 7, 1.6], [995, 2, 7, 2.39], [75, 2, 7, 0.87], [3, 2, 7, 2.25], [10, 2, 7, 0.94], [414, 1, 7, 1.98], [3575, 25, 7, 1.61], [2160, 68, 7, 1.96], [2805, 137, 7, 2.31], [410, 1, 7, 1.79], [13244, 1, 7, 0.75], [13023, 3, 8, 2.71], [11404, 2, 7, 0.81], [1309, 1, 7, 0.79], [4253, 1, 7, 2.32], [159, 1, 7, 1.02], [192, 3, 13, 3.54], [5209, 3, 7, 3.51], [9069, 1, 7, 1.29], [11813, 1, 7, 5.0], [6494, 1, 7, 2.02], [2438, 2, 8, 1.15], [24257, 1, 7, 3.21], [957, 2, 7, 0.87], [9971, 2, 7, 2.78], [9491, 21, 15, 2.64], [14037, 3, 7, 2.07], [9967, 2, 7, 2.78], [159, 16, 7, 1.04], [4033, 29, 7, 3.03], [2878, 1, 7, 0.79], [105, 3, 7, 1.98], [9964, 2, 7, 1.79], [5584, 3, 7, 4.0], [21697, 3, 7, 1.0], [22317, 3, 8, 3.55], [823, 1, 7, 0.89], [9965, 2, 7, 2.78], [8283, 2, 8, 1.67], [10609, 1, 7, 2.3], [10407, 10, 10, 1.36], [4076, 3, 7, 3.37], [13033, 3, 7, 1.05], [3495, 3, 16, 3.18], [1277, 1, 7, 3.49], [4586, 10, 21, 1.4], [11687, 2, 7, 1.29], [12647, 1, 7, 4.93], [7567, 3, 7, 2.04], [3889, 1, 147, 2.85], [1700, 2, 84, 3.85], [12304, 1, 129, 4.85], [2912, 2, 449, 3.6], [13034, 3, 705, 2.28], [214, 3, 771, 2.14], [11952, 1, 235, 3.23], [5151, 2, 29, 3.21], [229, 1, 98, 3.31], [2331, 1, 137, 3.8], [11426, 25, 140, 3.17], [5812, 3, 694, 3.62], [9289, 29, 75, 3.76], [11490, 1, 91, 2.17], [3478, 2, 89, 2.69], [8677, 3, 347, 3.32], [13893, 2, 325, 2.84], [995, 2, 290, 3.63], [75, 2, 173, 2.1], [3, 2, 138, 3.49], [414, 1, 102, 3.21], [3575, 25, 119, 2.84], [2160, 68, 156, 3.19], [2805, 137, 215, 3.54], [13244, 1, 58, 1.98], [13023, 3, 701, 3.94], [11404, 2, 100, 2.01], [1309, 1, 61, 2.02], [4253, 1, 198, 3.56], [159, 1, 24, 2.12], [192, 3, 1439, 5.01], [5209, 3, 634, 4.75], [9069, 1, 146, 2.52], [11813, 1, 357, 6.0], [6494, 1, 60, 3.25], [2438, 2, 758, 2.39], [957, 2, 129, 2.1], [9971, 2, 323, 4.01], [9491, 21, 2492, 3.86], [14037, 3, 402, 3.31], [9967, 2, 323, 4.01], [159, 16, 47, 2.14], [4033, 29, 118, 4.26], [2878, 1, 96, 2.02], [105, 3, 284, 3.21], [9964, 2, 323, 3.02], [5584, 3, 279, 5.23], [21697, 3, 215, 2.23], [22317, 3, 354, 4.78], [823, 1, 49, 2.12], [9965, 2, 323, 4.01], [8283, 2, 560, 2.91], [10609, 1, 369, 3.53], [10407, 10, 1439, 2.6], [4076, 3, 236, 4.6], [13033, 3, 705, 2.28], [3495, 3, 1144, 4.43], [1277, 1, 222, 4.72], [4586, 10, 1745, 2.65], [11687, 2, 358, 2.52], [12647, 1, 256, 6.0], [7567, 3, 82, 3.27]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 15, 2.66], [305, 2, 7, 1.49], [6935, 2, 28, 4.33], [141, 2, 9, 2.37], [2049, 3, 16, 0.5], [12721, 2, 10, 2.24], [151, 1, 9, 1.08], [205, 2, 7, 1.36], [130, 1, 7, 1.51], [1776, 1, 7, 3.56], [362, 2, 7, 2.59], [146, 2, 9, 1.44], [145, 2, 7, 0.91], [593, 2, 14, 1.83], [8915, 2, 12, 0.73], [2328, 2, 9, 1.01], [8648, 2, 7, 3.59], [1777, 1, 7, 2.22], [3, 2, 9, 1.97], [5151, 2, 7, 0.85], [6936, 2, 15, 2.57], [248, 1, 7, 0.67], [8675, 2, 10, 2.17], [22247, 2, 9, 2.6], [1007, 2, 12, 0.91], [2778, 2, 9, 1.38], [10, 2, 17, 1.55], [88, 10, 24, 1.98], [8677, 3, 8, 3.19], [412, 1, 7, 2.33], [11681, 2, 11, 2.92], [10149, 3, 25, 3.26], [10825, 21, 13, 2.21], [2054, 3, 10, 1.86], [75, 2, 7, 1.27], [13028, 3, 7, 1.29], [147, 1, 7, 2.6], [361, 2, 7, 1.75], [413, 1, 7, 3.27], [2055, 3, 7, 1.92], [7004, 1, 7, 1.49], [2057, 3, 7, 3.71], [8676, 2, 7, 3.1], [411, 2, 7, 1.91], [308, 1, 7, 2.71], [410, 1, 7, 1.67], [61, 3, 9, 1.9], [432, 3, 7, 2.04], [1446, 2, 7, 1.04], [1124, 2, 10, 0.75], [45, 2, 7, 3.67], [7005, 1, 7, 1.25], [5081, 2, 15, 1.3], [9827, 3, 7, 1.9], [167, 3, 14, 2.82], [5812, 3, 10, 2.78], [94, 4, 7, 3.35], [1492, 1, 7, 0.81], [3495, 3, 26, 2.96], [57, 1, 7, 0.71], [12870, 1, 14, 5.0], [168, 3, 20, 2.11], [2049, 1, 7, 0.69], [3893, 1, 7, 1.02], [11234, 2, 8, 2.07], [3889, 1, 7, 1.02], [6097, 29, 7, 1.66], [3891, 1, 7, 1.02], [8651, 2, 7, 3.04], [2336, 3, 9, 1.96], [95, 3, 19, 1.64], [335, 3, 22, 2.4], [6097, 80, 7, 3.7], [192, 3, 17, 3.91], [6098, 29, 14, 3.69], [1490, 1, 9, 1.54], [11737, 2, 7, 1.62], [214, 3, 15, 1.26], [20927, 1, 7, 2.0], [998, 2, 7, 2.48], [9069, 1, 7, 2.03], [20498, 1, 7, 2.94], [8898, 3, 7, 4.48], [1622, 1, 9, 2.24], [6098, 80, 7, 3.69], [9760, 29, 9, 1.01], [1070, 7, 13, 2.71], [14017, 3, 7, 1.29], [9829, 3, 7, 3.0], [13260, 29, 7, 2.65], [997, 2, 7, 2.5], [13034, 3, 13, 2.73], [12924, 1, 7, 1.02], [22554, 10, 18, 0.87], [11116, 1, 7, 1.1], [20498, 3, 15, 3.24], [35, 1, 7, 3.93], [1243, 2, 7, 1.98], [5513, 2, 7, 1.1], [336, 15, 7, 0.67], [5811, 3, 7, 3.96], [996, 2, 7, 4.67], [9691, 1, 7, 3.33], [5946, 1, 7, 1.02], [5813, 3, 7, 2.39], [5086, 1, 11, 3.89], [8945, 3, 8, 1.92], [39, 1, 7, 3.97], [3049, 3, 7, 4.36], [1080, 3, 7, 1.71], [952, 4, 7, 5.0], [1413, 15, 7, 1.35], [11085, 2, 7, 1.95], [8557, 3, 7, 2.11], [20486, 3, 15, 4.65], [4076, 3, 7, 5.0], [9082, 3, 29, 2.75], [2424, 80, 7, 2.12], [215, 4, 7, 5.0], [34, 1, 7, 3.96], [1703, 2, 7, 2.97], [20486, 1, 7, 2.87], [11510, 3, 9, 2.99], [38, 1, 7, 3.97], [3900, 3, 7, 1.73], [23611, 3, 7, 3.74], [14037, 3, 7, 1.0], [972, 3, 8, 1.87], [8943, 3, 7, 1.22], [13023, 3, 8, 3.12], [8274, 3, 7, 1.52], [2854, 21, 19, 1.27], [14018, 3, 7, 0.81], [8104, 1, 7, 1.14], [6497, 1, 7, 1.58], [3047, 3, 7, 2.01], [11770, 1, 7, 3.11], [18, 1, 7, 1.12], [8651, 2, 206, 3.99], [2336, 3, 606, 2.91], [95, 3, 1086, 3.63], [192, 3, 1376, 4.85], [1490, 1, 47, 2.99], [11737, 2, 59, 2.57], [214, 3, 677, 2.21], [998, 2, 249, 3.42], [9069, 1, 38, 2.85], [20498, 1, 95, 4.6], [8898, 3, 290, 6.0], [1622, 1, 92, 3.19], [9760, 29, 71, 2.46], [1070, 7, 578, 3.92], [14017, 3, 192, 3.89], [9829, 3, 64, 4.2], [13260, 29, 72, 3.85], [997, 2, 249, 3.45], [13034, 3, 578, 5.17], [12924, 1, 55, 1.97], [22554, 10, 374, 2.26], [11116, 1, 83, 2.05], [20498, 3, 570, 4.69], [35, 1, 76, 4.82], [1243, 2, 102, 2.93], [5513, 2, 75, 2.3], [996, 2, 236, 5.8], [9691, 1, 73, 5.2], [5946, 1, 122, 2.42], [5813, 3, 537, 4.28], [5086, 1, 64, 4.81], [8945, 3, 206, 2.67], [39, 1, 95, 4.88], [3049, 3, 122, 6.0], [1080, 3, 131, 2.66], [952, 4, 74, 6.0], [1413, 15, 96, 2.3], [11085, 2, 570, 2.9], [8557, 3, 196, 4.18], [20486, 3, 587, 5.94], [4076, 3, 197, 6.0], [9082, 3, 2551, 3.67], [2424, 80, 179, 3.07], [215, 4, 20, 6.0], [34, 1, 95, 4.88], [1703, 2, 162, 4.87], [20486, 1, 97, 5.52], [11510, 3, 521, 4.14], [38, 1, 114, 4.92], [3900, 3, 45, 2.68], [23611, 3, 328, 4.95], [14037, 3, 120, 1.56], [972, 3, 622, 2.82], [13023, 3, 581, 5.08], [2854, 21, 1086, 2.99], [14018, 3, 186, 2.0], [8104, 1, 214, 2.08], [6497, 1, 39, 2.53], [3047, 3, 282, 2.96], [11770, 1, 226, 4.05], [18, 1, 17, 1.69]]</t>
+    <t>[[3, 2, 6, 0.2], [8672, 2, 6, 0.73], [589, 2, 5, 1.17], [75, 2, 4, 0.62], [12721, 2, 7, 0.97], [147, 1, 4, 0.45], [990, 2, 4, 0.73], [1776, 1, 4, 0.36], [8648, 2, 4, 1.52], [20252, 2, 4, 1.9], [1777, 1, 4, 0.24], [6936, 2, 5, 0.94], [8675, 2, 6, 1.68], [88, 10, 11, 0.58], [83, 2, 4, 0.4], [149, 2, 4, 0.45], [345, 3, 5, 0.2], [74, 1, 6, 1.28], [8650, 2, 5, 0.58], [7004, 1, 4, 1.74], [201, 3, 5, 0.2], [11681, 2, 4, 0.67], [21798, 1, 5, 0.2], [1007, 2, 5, 0.68], [1446, 2, 4, 2.5], [7005, 1, 4, 1.64], [7084, 3, 4, 0.76], [21793, 1, 5, 2.97], [10, 2, 5, 0.55], [307, 2, 4, 2.58], [10825, 21, 9, 0.57], [308, 1, 6, 1.38], [1124, 2, 5, 0.98], [12870, 1, 5, 1.64], [11404, 2, 5, 0.52], [9827, 3, 4, 1.87], [410, 1, 4, 0.84], [10149, 3, 17, 0.96], [3478, 2, 5, 1.14], [8677, 3, 7, 1.8], [1429, 2, 4, 2.57], [5081, 2, 4, 0.47], [3889, 1, 4, 1.77], [1622, 1, 4, 1.63], [168, 3, 6, 1.23], [23, 1, 4, 0.38], [45, 2, 4, 1.21], [8674, 2, 6, 2.6], [1006, 2, 4, 0.38], [9069, 1, 5, 0.2], [3891, 1, 4, 2.9], [20927, 1, 4, 1.92], [24257, 1, 4, 1.49], [3893, 1, 4, 2.9], [431, 2, 4, 1.12], [5208, 3, 5, 0.65], [1767, 25, 5, 0.2], [346, 1, 4, 0.73], [1656, 2, 4, 0.61], [6158, 2, 6, 0.63], [3980, 4, 5, 1.25], [95, 3, 22, 0.19], [413, 1, 4, 0.33], [8853, 2, 6, 1.18], [998, 2, 5, 1.97], [24664, 2, 6, 1.11], [214, 3, 14, 0.2], [1766, 25, 4, 1.62], [346, 3, 5, 0.96], [20498, 1, 5, 0.23], [8898, 3, 4, 2.69], [14017, 3, 4, 0.38], [9690, 1, 4, 2.15], [7567, 3, 4, 0.62], [9829, 3, 4, 1.67], [997, 2, 4, 0.95], [974, 3, 5, 0.88], [11737, 2, 4, 1.33], [3048, 3, 4, 1.59], [24, 1, 4, 0.38], [3670, 2, 4, 1.42], [110, 4, 4, 0.52], [96, 11, 13, 1.34], [1767, 2, 4, 0.2], [4203, 1, 4, 1.05], [5209, 3, 6, 0.74], [10780, 10, 4, 2.17], [952, 4, 4, 1.46], [22316, 3, 4, 1.7], [22554, 10, 9, 0.23], [5086, 1, 4, 0.47], [5946, 1, 4, 2.9], [9828, 3, 4, 1.77], [996, 2, 5, 1.97], [20498, 3, 5, 0.21], [9964, 2, 5, 3.08], [23611, 3, 7, 2.24], [8557, 3, 4, 0.5], [11454, 2, 5, 1.36], [24260, 1, 4, 1.22], [20486, 1, 4, 1.25], [14018, 3, 4, 0.44], [3900, 3, 4, 1.85], [22317, 3, 4, 0.95], [13034, 3, 8, 1.07], [8945, 3, 5, 1.88], [1080, 3, 4, 1.43], [995, 2, 5, 1.27], [972, 3, 8, 0.4], [11954, 1, 4, 1.28], [2912, 1, 4, 0.24], [13023, 3, 9, 1.11], [5584, 3, 4, 0.45], [6097, 80, 4, 0.26], [9082, 3, 29, 0.17], [6097, 29, 4, 0.26], [5153, 2, 4, 0.75], [19047, 3, 4, 0.42], [12924, 1, 4, 0.39], [11767, 1, 4, 0.79], [40, 1, 4, 0.38], [8274, 3, 4, 1.45], [1604, 68, 4, 2.18], [2729, 3, 4, 4.0], [991, 2, 4, 1.03], [12353, 1, 4, 1.24], [20969, 3, 5, 1.21], [972, 1, 4, 1.01], [11769, 1, 4, 1.83], [9372, 1, 5, 1.08], [11914, 1, 4, 0.84], [4076, 3, 4, 2.19], [20486, 3, 5, 1.17], [7705, 2, 4, 0.54], [2424, 29, 4, 0.75], [3, 2, 117, 2.72], [8672, 2, 288, 4.59], [589, 2, 133, 4.13], [75, 2, 133, 4.66], [12721, 2, 287, 4.6], [147, 1, 93, 2.83], [990, 2, 59, 2.68], [1776, 1, 110, 4.69], [8648, 2, 237, 5.06], [20252, 2, 99, 4.71], [1777, 1, 110, 4.91], [6936, 2, 294, 2.91], [8675, 2, 203, 4.64], [88, 10, 570, 2.87], [83, 2, 29, 1.61], [149, 2, 93, 2.98], [345, 3, 303, 4.67], [74, 1, 176, 6.0], [8650, 2, 205, 2.91], [7004, 1, 74, 4.64], [201, 3, 303, 4.67], [11681, 2, 279, 2.83], [21798, 1, 136, 2.02], [1007, 2, 284, 2.86], [1446, 2, 133, 5.85], [7005, 1, 70, 4.73], [7084, 3, 114, 3.27], [21793, 1, 218, 6.0], [10, 2, 100, 2.35], [307, 2, 154, 6.0], [10825, 21, 614, 2.3], [308, 1, 149, 5.48], [1124, 2, 196, 3.83], [12870, 1, 131, 4.45], [11404, 2, 100, 2.29], [9827, 3, 86, 4.89], [410, 1, 105, 3.73], [10149, 3, 804, 5.22], [3478, 2, 79, 3.53], [8677, 3, 270, 5.07], [1429, 2, 133, 5.99], [5081, 2, 135, 3.21], [3889, 1, 108, 4.46], [1622, 1, 103, 5.27], [168, 3, 396, 5.57], [23, 1, 118, 2.48], [45, 2, 104, 3.62], [1006, 2, 240, 2.19], [9069, 1, 117, 2.02], [3891, 1, 108, 6.0], [24257, 1, 133, 5.56], [3893, 1, 108, 6.0], [431, 2, 116, 3.27], [5208, 3, 576, 3.35], [1767, 25, 173, 3.54], [346, 1, 125, 4.47], [1656, 2, 96, 2.27], [6158, 2, 263, 4.33], [3980, 4, 458, 3.69], [95, 3, 907, 3.9], [413, 1, 81, 3.31], [8853, 2, 277, 4.13], [998, 2, 213, 5.1], [24664, 2, 257, 3.78], [214, 3, 656, 3.07]]</t>
+  </si>
+  <si>
+    <t>[[593, 2, 5, 0.92], [8650, 2, 6, 1.52], [1124, 2, 4, 0.2], [11685, 2, 5, 0.46], [7004, 1, 4, 1.09], [5493, 2, 4, 1.3], [88, 10, 9, 0.69], [615, 2, 4, 0.45], [616, 2, 4, 1.26], [5491, 2, 4, 1.2], [1007, 2, 4, 1.35], [1622, 1, 5, 1.63], [2912, 1, 4, 0.49], [8672, 2, 6, 1.94], [147, 1, 4, 0.59], [7573, 1, 6, 1.62], [5165, 1, 4, 0.66], [3893, 1, 4, 0.94], [12870, 1, 6, 1.52], [8938, 2, 4, 2.75], [10, 2, 4, 1.0], [3889, 1, 4, 1.01], [148, 1, 4, 2.08], [439, 1, 4, 1.47], [7005, 1, 5, 1.33], [24257, 1, 5, 1.31], [624, 2, 4, 0.42], [75, 2, 5, 0.37], [21793, 1, 4, 0.89], [192, 3, 13, 1.08], [3891, 1, 4, 0.92], [10149, 3, 11, 1.46], [2057, 3, 4, 0.4], [20927, 1, 4, 0.98], [5208, 3, 7, 1.85], [2054, 3, 5, 0.4], [3, 2, 7, 0.93], [1886, 2, 4, 0.48], [5165, 2, 5, 0.41], [12721, 2, 8, 2.46], [9372, 1, 4, 1.17], [149, 2, 4, 0.59], [2424, 80, 5, 0.61], [972, 3, 6, 0.51], [506, 1, 4, 0.59], [346, 1, 4, 1.92], [5076, 1, 4, 1.24], [346, 3, 6, 0.96], [3048, 3, 4, 1.45], [2424, 29, 4, 0.86], [82, 2, 4, 0.51], [12352, 1, 4, 0.78], [7567, 3, 5, 2.07], [5209, 3, 4, 1.31], [74, 1, 4, 1.32], [13280, 1, 4, 0.81], [4032, 29, 4, 0.72], [957, 2, 4, 0.2], [12346, 1, 4, 1.96], [1126, 2, 4, 0.57], [8898, 3, 4, 2.44], [13023, 3, 8, 1.03], [4076, 3, 5, 1.15], [11953, 1, 4, 0.4], [1414, 15, 4, 0.95], [10780, 10, 4, 1.85], [1548, 1, 4, 1.5], [2805, 137, 4, 1.57], [6097, 80, 4, 0.2], [7704, 2, 4, 0.39], [11952, 1, 4, 2.6], [4253, 1, 4, 0.42], [6097, 29, 4, 0.53], [1243, 2, 4, 1.01], [8676, 2, 4, 1.91], [20486, 3, 5, 0.99], [215, 4, 4, 1.42], [12350, 1, 4, 0.78], [1703, 2, 4, 1.28], [12338, 29, 4, 0.36], [955, 2, 4, 1.51], [1492, 1, 5, 0.2], [7705, 2, 4, 0.22], [972, 1, 5, 0.84], [21269, 3, 4, 2.12], [11236, 2, 5, 0.95], [12924, 1, 4, 0.43], [23611, 3, 5, 1.86], [214, 3, 9, 0.46], [12229, 2, 4, 0.42], [8659, 1, 4, 0.92], [10407, 10, 6, 1.45], [2331, 1, 4, 0.39], [7707, 2, 4, 0.78], [3047, 3, 4, 1.66], [11812, 1, 4, 0.44], [10410, 10, 9, 1.42], [13034, 3, 4, 1.52], [45, 2, 4, 1.0], [10388, 2, 4, 0.5], [11404, 2, 4, 0.39], [5584, 3, 4, 0.49], [8673, 2, 4, 0.85], [12351, 1, 4, 1.96], [9827, 3, 4, 0.76], [3059, 3, 4, 1.69], [71, 15, 4, 0.59], [8675, 2, 4, 1.44], [6497, 1, 4, 0.46], [10936, 2, 4, 1.9], [6496, 1, 4, 0.64], [2335, 3, 4, 0.56], [13281, 1, 4, 0.49], [24722, 2, 4, 0.83], [10408, 10, 5, 0.49], [18964, 1, 4, 0.39], [13283, 1, 4, 0.81], [5434, 1, 4, 0.78], [1049, 2, 4, 1.11], [20498, 1, 4, 0.47], [3049, 3, 4, 0.4], [159, 1, 4, 0.38], [12344, 1, 4, 3.12], [11942, 29, 4, 0.66], [11711, 3, 4, 1.06], [3334, 5, 4, 0.65], [24567, 1, 4, 0.48], [2438, 2, 5, 0.37], [12661, 1, 4, 1.85], [3391, 1, 4, 0.53], [110, 4, 4, 1.13], [8897, 3, 4, 2.44], [10386, 2, 4, 0.51], [7708, 2, 4, 0.8], [10937, 2, 4, 1.0], [6494, 1, 4, 0.47], [593, 2, 245, 3.83], [8650, 2, 188, 5.61], [1124, 2, 184, 2.25], [11685, 2, 243, 4.85], [5493, 2, 103, 3.69], [88, 10, 586, 3.63], [615, 2, 113, 2.06], [616, 2, 105, 4.66], [5491, 2, 106, 3.79], [1007, 2, 288, 4.32], [1622, 1, 103, 3.7], [2912, 1, 53, 2.13], [8672, 2, 291, 5.45], [147, 1, 95, 3.12], [7573, 1, 337, 6.0], [5165, 1, 47, 2.71], [3893, 1, 120, 3.52], [12870, 1, 145, 6.0], [8938, 2, 180, 6.0], [10, 2, 52, 2.98], [3889, 1, 120, 3.69], [148, 1, 95, 5.63], [439, 1, 94, 4.01], [24257, 1, 125, 5.58], [624, 2, 98, 3.65], [75, 2, 144, 3.2], [21793, 1, 245, 3.28], [192, 3, 1226, 4.63], [3891, 1, 120, 5.07], [10149, 3, 910, 5.61], [2057, 3, 462, 3.44], [20927, 1, 86, 3.08], [5208, 3, 564, 5.46], [2054, 3, 462, 3.44], [1886, 2, 169, 2.11], [5165, 2, 376, 2.59], [12721, 2, 262, 5.57], [9372, 1, 250, 5.0], [149, 2, 95, 3.26], [2424, 80, 166, 3.14], [972, 3, 615, 4.02], [506, 1, 95, 4.01], [346, 1, 146, 5.14], [5076, 1, 122, 4.62], [346, 3, 586, 5.29], [3048, 3, 264, 4.31], [2424, 29, 34, 3.15], [12352, 1, 629, 3.16], [5209, 3, 564, 5.52], [74, 1, 192, 3.73], [13280, 1, 346, 4.15], [4032, 29, 102, 3.26], [957, 2, 102, 3.16], [12346, 1, 629, 4.96], [1126, 2, 245, 3.29], [8898, 3, 284, 5.89], [13023, 3, 625, 5.11], [4076, 3, 194, 3.65], [11953, 1, 216, 2.2], [10780, 10, 397, 6.0], [1548, 1, 107, 4.08], [2805, 137, 174, 4.45], [6097, 80, 68, 2.25], [7704, 2, 195, 1.94]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 4, 0.2], [589, 2, 6, 1.05], [11681, 2, 4, 0.45], [8648, 2, 4, 1.07], [144, 2, 4, 0.45], [143, 2, 4, 1.43], [141, 2, 6, 0.28], [593, 2, 7, 0.27], [205, 2, 4, 0.37], [6936, 2, 4, 0.69], [8650, 2, 5, 0.88], [7004, 1, 4, 0.8], [146, 2, 6, 1.59], [206, 2, 6, 0.51], [7036, 1, 4, 1.48], [990, 2, 4, 0.76], [145, 2, 5, 1.12], [5491, 2, 4, 0.88], [615, 2, 4, 0.35], [10993, 2, 4, 0.2], [3893, 1, 4, 1.02], [12870, 1, 4, 1.92], [13028, 3, 4, 0.5], [3840, 1, 5, 0.2], [8853, 2, 4, 1.27], [1007, 2, 4, 0.45], [3889, 1, 4, 0.77], [20927, 1, 6, 1.11], [616, 2, 5, 0.21], [94, 4, 5, 1.44], [3, 2, 5, 0.2], [1006, 2, 4, 0.93], [147, 1, 4, 1.15], [21798, 1, 4, 0.36], [3891, 1, 5, 1.02], [12350, 1, 4, 3.03], [6158, 2, 4, 0.88], [624, 2, 4, 1.3], [21793, 1, 4, 0.39], [24257, 1, 5, 2.5], [5165, 1, 4, 0.45], [12349, 1, 4, 1.01], [13928, 1, 4, 0.48], [8672, 2, 6, 1.45], [2912, 1, 6, 1.14], [12346, 1, 4, 3.03], [159, 3, 6, 0.19], [24258, 1, 4, 2.39], [972, 3, 6, 1.0], [1124, 2, 4, 0.53], [956, 2, 4, 1.3], [8898, 3, 4, 2.44], [5208, 3, 4, 1.35], [9081, 3, 8, 0.48], [7567, 3, 4, 1.62], [82, 2, 5, 1.02], [345, 3, 4, 1.14], [9784, 1, 4, 0.49], [9491, 21, 10, 0.38], [7704, 2, 4, 0.47], [5165, 2, 6, 0.45], [10780, 10, 4, 1.11], [1492, 1, 4, 0.46], [8677, 3, 5, 1.58], [214, 3, 9, 0.75], [201, 3, 4, 0.51], [411, 2, 4, 1.28], [10388, 2, 4, 0.8], [22316, 3, 4, 2.11], [84, 2, 4, 0.77], [11739, 2, 4, 0.97], [5812, 3, 6, 1.95], [9082, 3, 18, 1.0], [12338, 29, 4, 0.69], [11953, 1, 4, 0.92], [11404, 2, 5, 0.73], [336, 15, 4, 0.5], [22317, 3, 4, 1.04], [11490, 1, 4, 0.37], [11767, 1, 5, 0.2], [7705, 2, 4, 0.47], [957, 2, 4, 0.4], [308, 1, 4, 1.14], [972, 1, 4, 1.18], [12721, 2, 4, 0.58], [6497, 1, 5, 0.2], [2912, 2, 5, 0.47], [3475, 2, 4, 0.36], [12344, 1, 4, 3.03], [12229, 2, 4, 0.45], [9372, 1, 4, 1.74], [8673, 2, 4, 2.15], [161, 3, 5, 1.78], [7708, 2, 4, 0.47], [110, 4, 4, 3.0], [1523, 1, 4, 2.63], [20486, 3, 6, 0.26], [5813, 3, 5, 1.91], [1080, 3, 4, 0.99], [1703, 2, 4, 1.91], [74, 1, 4, 4.0], [12351, 1, 4, 3.03], [10387, 2, 4, 0.48], [159, 1, 4, 0.48], [13286, 1, 4, 0.55], [13893, 2, 4, 1.15], [10149, 3, 13, 0.75], [8897, 3, 4, 2.44], [14037, 3, 4, 0.39], [1895, 3, 4, 1.36], [11510, 3, 5, 0.5], [2104, 3, 7, 0.31], [10181, 26, 4, 1.05], [159, 16, 4, 0.48], [3900, 3, 4, 0.93], [5811, 3, 5, 3.84], [10410, 10, 6, 1.28], [9827, 3, 4, 0.43], [9971, 2, 4, 1.66], [942, 3, 4, 1.5], [13281, 1, 4, 0.38], [2805, 137, 4, 1.46], [335, 3, 9, 1.2], [10581, 3, 4, 0.77], [1548, 1, 4, 0.56], [10093, 3, 9, 0.46], [10936, 2, 4, 1.79], [8676, 2, 4, 1.91], [7707, 2, 4, 0.47], [491, 10, 7, 1.31], [2335, 3, 4, 0.71], [9965, 2, 4, 4.0], [12764, 2, 5, 0.53], [95, 3, 11, 2.4], [11930, 1, 4, 0.58], [130, 1, 67, 1.77], [589, 2, 142, 4.1], [11681, 2, 300, 3.15], [8648, 2, 243, 4.41], [144, 2, 156, 4.51], [143, 2, 156, 3.87], [141, 2, 147, 4.34], [593, 2, 239, 4.0], [205, 2, 120, 1.84], [6936, 2, 305, 4.56], [8650, 2, 195, 4.8], [7004, 1, 84, 2.91], [146, 2, 156, 4.32], [7036, 1, 136, 6.0], [145, 2, 147, 5.18], [5491, 2, 112, 3.55], [615, 2, 116, 1.79], [10993, 2, 52, 3.99], [3893, 1, 118, 3.88], [12870, 1, 131, 5.81], [13028, 3, 167, 3.76], [3840, 1, 156, 4.5], [8853, 2, 291, 4.62], [1007, 2, 301, 2.94], [3889, 1, 135, 4.74], [20927, 1, 30, 3.21], [616, 2, 108, 2.9], [94, 4, 119, 5.85], [3, 2, 123, 4.11], [1006, 2, 252, 3.96], [147, 1, 101, 3.33], [21798, 1, 144, 2.95], [3891, 1, 118, 4.46], [12350, 1, 669, 6.0], [6158, 2, 293, 2.88], [624, 2, 114, 3.62], [21793, 1, 256, 2.28], [24257, 1, 130, 6.0], [5165, 1, 54, 1.99], [12349, 1, 669, 4.14], [13928, 1, 54, 2.04], [8672, 2, 301, 5.82], [12346, 1, 669, 6.0], [159, 3, 353, 2.06], [24258, 1, 141, 6.0], [972, 3, 629, 3.76], [1124, 2, 187, 3.87], [956, 2, 105, 4.42], [8898, 3, 251, 6.0], [5208, 3, 594, 5.02], [9081, 3, 548, 2.05], [7567, 3, 77, 4.24], [345, 3, 317, 3.3], [9784, 1, 81, 2.85], [9491, 21, 2501, 1.96], [7704, 2, 201, 2.78], [5165, 2, 436, 1.93], [10780, 10, 409, 3.25], [1492, 1, 42, 2.01], [8677, 3, 303, 4.46], [214, 3, 728, 2.51], [201, 3, 317, 5.4], [10388, 2, 205, 2.91], [22316, 3, 349, 5.18], [84, 2, 75, 3.17]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 8, 0.72], [3, 2, 5, 0.2], [75, 2, 6, 0.24], [1776, 1, 4, 0.33], [1777, 1, 5, 0.2], [20252, 2, 4, 2.84], [345, 3, 5, 0.2], [201, 3, 6, 0.2], [6936, 2, 5, 2.61], [8648, 2, 4, 2.94], [88, 10, 17, 0.19], [12721, 2, 6, 1.9], [57, 1, 4, 0.36], [1007, 2, 5, 0.92], [3478, 2, 4, 1.39], [21793, 1, 4, 2.04], [45, 2, 5, 0.62], [10149, 3, 18, 1.56], [308, 1, 6, 1.76], [8650, 2, 4, 0.63], [9507, 3, 4, 0.68], [7004, 1, 5, 1.65], [413, 1, 4, 0.65], [74, 1, 4, 0.34], [7084, 3, 4, 1.05], [13028, 3, 6, 0.25], [346, 1, 4, 0.48], [10825, 21, 9, 0.83], [168, 3, 6, 0.99], [6158, 2, 7, 1.11], [9827, 3, 4, 1.51], [1124, 2, 6, 0.71], [5208, 3, 8, 1.76], [5081, 2, 4, 0.47], [3889, 1, 4, 2.31], [214, 3, 9, 0.75], [94, 4, 5, 1.28], [414, 1, 4, 0.65], [7005, 1, 5, 0.99], [1492, 1, 4, 0.2], [3893, 1, 5, 2.33], [335, 3, 10, 0.87], [24664, 2, 5, 1.23], [1654, 2, 4, 0.21], [8675, 2, 6, 0.73], [410, 1, 4, 0.55], [8674, 2, 5, 0.73], [25, 1, 5, 1.05], [416, 1, 4, 0.65], [7567, 3, 4, 1.73], [3891, 1, 4, 2.33], [1490, 1, 4, 0.79], [2878, 1, 4, 0.59], [1622, 1, 7, 0.88], [998, 2, 5, 0.69], [1006, 2, 5, 0.51], [1504, 2, 4, 1.0], [8853, 2, 6, 2.13], [9069, 1, 4, 0.39], [5660, 2, 6, 2.12], [9690, 1, 4, 1.94], [24257, 1, 5, 1.39], [1656, 2, 4, 1.56], [9829, 3, 4, 1.31], [126, 2, 4, 0.61], [997, 2, 7, 1.37], [11914, 1, 7, 0.2], [20927, 1, 4, 1.7], [20498, 1, 4, 0.31], [5209, 3, 4, 1.97], [27, 1, 5, 0.35], [147, 1, 4, 0.52], [5086, 1, 4, 0.46], [952, 4, 4, 2.25], [996, 2, 4, 1.37], [1070, 7, 9, 1.39], [82, 2, 4, 1.43], [148, 1, 4, 0.52], [22316, 3, 5, 0.75], [110, 4, 4, 0.99], [10780, 10, 4, 2.53], [346, 3, 5, 0.7], [12661, 1, 4, 0.65], [6097, 80, 4, 0.2], [9081, 3, 8, 0.39], [20498, 3, 6, 0.31], [6097, 29, 4, 0.2], [23611, 3, 5, 1.32], [12924, 1, 4, 0.25], [13034, 3, 8, 4.0], [307, 2, 4, 0.63], [20486, 1, 5, 0.28], [5584, 3, 4, 0.58], [995, 2, 4, 0.99], [11767, 1, 5, 0.9], [6098, 29, 5, 0.2], [11769, 1, 4, 0.96], [3900, 3, 4, 1.14], [2335, 3, 4, 0.46], [9082, 3, 27, 0.17], [2104, 3, 8, 1.63], [8945, 3, 6, 2.07], [6098, 80, 4, 0.2], [2537, 1, 4, 1.52], [345, 1, 4, 0.79], [12349, 1, 4, 2.62], [22317, 3, 6, 0.78], [3048, 3, 4, 1.83], [20486, 3, 5, 0.24], [66, 1, 4, 0.53], [10529, 29, 4, 0.45], [974, 3, 6, 0.97], [3670, 2, 5, 0.27], [66, 16, 4, 0.2], [330, 3, 4, 1.91], [5946, 1, 4, 2.33], [8635, 3, 5, 1.45], [972, 3, 5, 1.01], [11510, 3, 5, 0.5], [13484, 1, 4, 4.0], [215, 4, 4, 1.61], [9828, 3, 4, 2.21], [13033, 3, 5, 2.44], [2729, 3, 4, 1.36], [972, 1, 4, 0.76], [1604, 68, 4, 0.64], [2109, 3, 9, 0.48], [951, 4, 4, 0.66], [491, 10, 7, 0.43], [506, 1, 4, 0.52], [201, 1, 4, 1.05], [229, 1, 4, 0.49], [21946, 1, 4, 0.42], [19047, 3, 4, 0.5], [20969, 3, 5, 0.74], [3475, 2, 4, 0.89], [8672, 2, 294, 4.56], [3, 2, 107, 3.75], [75, 2, 150, 2.71], [1776, 1, 99, 4.22], [1777, 1, 99, 5.13], [20252, 2, 98, 6.0], [345, 3, 304, 3.54], [201, 3, 304, 3.45], [6936, 2, 302, 6.0], [8648, 2, 234, 6.0], [88, 10, 581, 3.4], [12721, 2, 270, 5.13], [57, 1, 47, 1.45], [21793, 1, 217, 5.78], [45, 2, 113, 6.0], [10149, 3, 818, 4.94], [308, 1, 168, 4.66], [8650, 2, 187, 5.14], [7004, 1, 80, 3.9], [413, 1, 92, 3.04], [74, 1, 208, 6.0], [7084, 3, 132, 2.97], [13028, 3, 151, 4.58], [346, 1, 151, 2.87], [10825, 21, 621, 2.69], [168, 3, 402, 5.05], [6158, 2, 269, 4.01], [9827, 3, 86, 4.38], [1124, 2, 178, 3.08], [5208, 3, 491, 5.61], [5081, 2, 206, 2.07], [3889, 1, 112, 5.4], [94, 4, 113, 6.0], [414, 1, 92, 3.04], [7005, 1, 80, 3.9], [1492, 1, 36, 1.7], [3893, 1, 117, 4.54], [335, 3, 1259, 3.75], [24664, 2, 248, 4.85], [1654, 2, 94, 2.95], [8675, 2, 274, 2.88], [8674, 2, 274, 2.84], [416, 1, 92, 3.04], [7567, 3, 63, 4.38], [3891, 1, 112, 5.44], [1490, 1, 54, 3.63], [2878, 1, 69, 3.57], [1622, 1, 101, 3.14], [998, 2, 241, 6.0], [1006, 2, 220, 2.93], [1504, 2, 210, 3.26], [8853, 2, 257, 5.37], [5660, 2, 182, 5.98], [9690, 1, 68, 5.75], [24257, 1, 142, 4.76], [1656, 2, 99, 3.95], [9829, 3, 66, 4.99], [126, 2, 96, 2.12], [997, 2, 241, 5.59], [11914, 1, 76, 4.59], [20927, 1, 85, 4.22], [20498, 1, 92, 4.11], [5209, 3, 491, 6.0], [147, 1, 95, 2.95]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 5, 1.12], [88, 10, 12, 0.69], [305, 2, 6, 1.38], [615, 2, 4, 0.45], [5493, 2, 5, 0.2], [616, 2, 4, 0.2], [7004, 1, 4, 1.0], [11681, 2, 4, 0.44], [8650, 2, 6, 1.96], [143, 2, 4, 0.33], [8648, 2, 4, 1.91], [7036, 1, 4, 0.96], [10, 2, 4, 1.0], [11685, 2, 5, 2.19], [593, 2, 5, 0.92], [3893, 1, 5, 0.59], [624, 2, 4, 1.63], [146, 2, 7, 2.46], [8938, 2, 5, 0.5], [3891, 1, 4, 0.67], [8853, 2, 5, 2.1], [11404, 2, 4, 0.39], [21793, 1, 5, 0.89], [5208, 3, 8, 0.78], [3980, 4, 8, 0.48], [24257, 1, 4, 1.67], [192, 3, 13, 0.85], [3889, 1, 4, 0.76], [1007, 2, 4, 1.35], [12870, 1, 4, 1.52], [8672, 2, 4, 2.61], [20927, 1, 4, 0.98], [998, 2, 4, 1.35], [1886, 2, 4, 0.48], [2424, 80, 5, 0.61], [997, 2, 4, 0.99], [145, 2, 4, 2.26], [7573, 1, 7, 1.37], [10149, 3, 17, 1.1], [3, 2, 8, 0.51], [6158, 2, 6, 0.42], [12353, 1, 5, 4.0], [346, 3, 4, 1.92], [1622, 1, 4, 0.6], [957, 2, 4, 0.2], [3982, 3, 12, 0.99], [972, 3, 7, 1.01], [996, 2, 4, 0.2], [20252, 2, 4, 1.86], [74, 1, 4, 1.32], [214, 3, 11, 0.2], [5076, 1, 4, 1.24], [1492, 1, 4, 0.45], [11953, 1, 4, 0.4], [12346, 1, 4, 1.96], [4032, 29, 5, 0.72], [12721, 2, 4, 1.9], [6496, 1, 4, 0.64], [12229, 2, 4, 0.42], [1548, 1, 4, 1.5], [4253, 1, 4, 0.67], [23611, 3, 6, 1.86], [7567, 3, 4, 1.23], [12350, 1, 5, 2.49], [5434, 1, 4, 0.78], [12344, 1, 5, 2.86], [22316, 3, 4, 0.5], [3975, 4, 4, 1.33], [6497, 1, 4, 0.46], [8898, 3, 4, 2.44], [346, 1, 4, 2.16], [2424, 29, 4, 0.54], [2438, 2, 8, 0.2], [955, 2, 4, 1.51], [3981, 3, 11, 1.42], [12352, 1, 4, 0.78], [6097, 80, 4, 1.55], [5209, 3, 5, 1.06], [439, 1, 4, 1.47], [8677, 3, 6, 0.55], [972, 1, 4, 1.26], [823, 1, 4, 2.12], [11812, 1, 4, 0.44], [1243, 2, 4, 0.82], [5584, 3, 4, 0.49], [83, 2, 4, 0.73], [10780, 10, 5, 1.85], [4232, 80, 4, 0.4], [22317, 3, 4, 0.77], [2805, 137, 4, 1.57], [10407, 10, 6, 2.07], [12764, 2, 6, 0.23], [1895, 3, 4, 1.17], [8599, 1, 4, 1.13], [7704, 2, 4, 0.39], [7708, 2, 4, 0.8], [5435, 1, 4, 0.4], [71, 15, 4, 0.59], [995, 2, 4, 0.99], [10388, 2, 4, 0.5], [1703, 2, 4, 1.89], [216, 4, 4, 0.99], [8676, 2, 4, 1.91], [11942, 29, 4, 0.66], [956, 2, 4, 1.33], [12728, 1, 4, 0.39], [1233, 1, 4, 0.63], [3979, 3, 9, 0.19], [9372, 1, 4, 1.17], [18964, 1, 4, 0.39], [491, 10, 5, 1.97], [12647, 1, 4, 1.37], [6494, 1, 4, 0.47], [8274, 3, 4, 0.58], [1414, 15, 4, 0.45], [11936, 2, 4, 2.52], [4940, 1, 4, 0.46], [19047, 3, 4, 0.51], [5813, 3, 4, 0.88], [1309, 1, 4, 1.84], [1080, 3, 4, 0.99], [10936, 2, 4, 1.9], [2335, 3, 4, 0.56], [8635, 3, 4, 0.58], [1523, 1, 4, 2.7], [10386, 2, 4, 0.51], [7705, 2, 4, 0.47], [6805, 1, 4, 1.27], [8673, 2, 4, 0.85], [5585, 3, 4, 1.45], [9827, 3, 4, 0.43], [19931, 1, 4, 0.68], [5005, 3, 5, 0.71], [24725, 2, 4, 1.54], [10385, 2, 4, 1.12], [589, 2, 136, 4.16], [88, 10, 586, 3.63], [305, 2, 144, 4.53], [615, 2, 113, 2.06], [5493, 2, 103, 3.75], [616, 2, 105, 2.7], [7004, 1, 86, 3.4], [11681, 2, 283, 2.52], [8650, 2, 209, 6.0], [143, 2, 152, 6.0], [8648, 2, 223, 6.0], [7036, 1, 119, 5.11], [10, 2, 52, 2.93], [11685, 2, 262, 6.0], [593, 2, 245, 3.83], [3893, 1, 124, 3.1], [624, 2, 105, 4.9], [146, 2, 152, 5.83], [8938, 2, 189, 2.58], [3891, 1, 120, 3.21], [8853, 2, 282, 5.72], [11404, 2, 52, 1.75], [21793, 1, 245, 3.28], [5208, 3, 564, 4.19], [3980, 4, 449, 3.92], [24257, 1, 132, 5.55], [192, 3, 1369, 5.08], [3889, 1, 120, 3.38], [1007, 2, 288, 4.32], [12870, 1, 145, 4.37], [20927, 1, 81, 3.08], [998, 2, 220, 6.0], [1886, 2, 169, 2.11], [2424, 80, 166, 3.14], [997, 2, 241, 3.78], [145, 2, 141, 5.54], [7573, 1, 357, 6.0], [10149, 3, 910, 4.45], [3, 2, 118, 4.72], [6158, 2, 240, 5.29], [12353, 1, 586, 6.0], [346, 3, 586, 5.29], [1622, 1, 109, 3.6], [957, 2, 102, 2.19], [3982, 3, 772, 3.87], [972, 3, 547, 4.02], [996, 2, 231, 3.63], [20252, 2, 100, 4.91], [74, 1, 192, 3.73], [214, 3, 603, 2.63], [5076, 1, 122, 4.62], [1492, 1, 41, 2.06], [11953, 1, 216, 2.2], [12346, 1, 629, 4.96], [4032, 29, 91, 3.51], [12721, 2, 305, 4.85], [6496, 1, 44, 3.93], [12229, 2, 168, 1.99], [1548, 1, 107, 4.08], [4253, 1, 161, 3.64], [23611, 3, 279, 5.94], [7567, 3, 75, 3.56], [12350, 1, 586, 6.0], [5434, 1, 53, 3.11], [12344, 1, 586, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 4, 0.2], [5493, 2, 4, 1.09], [615, 2, 4, 0.35], [205, 2, 4, 0.37], [144, 2, 4, 1.12], [11681, 2, 4, 0.45], [589, 2, 5, 1.05], [7036, 1, 4, 0.43], [6936, 2, 5, 0.69], [616, 2, 4, 0.21], [3980, 4, 6, 0.95], [8648, 2, 4, 1.07], [3893, 1, 4, 0.77], [593, 2, 4, 1.33], [8650, 2, 4, 0.96], [141, 2, 9, 1.18], [7004, 1, 4, 0.69], [3891, 1, 4, 0.2], [206, 2, 4, 0.37], [10, 2, 6, 0.2], [21798, 1, 5, 0.36], [3889, 1, 4, 0.24], [146, 2, 6, 1.12], [3840, 1, 4, 0.45], [12870, 1, 6, 1.4], [8853, 2, 4, 1.11], [362, 2, 5, 0.94], [2054, 3, 4, 0.76], [624, 2, 4, 1.3], [2050, 3, 4, 0.76], [10993, 2, 5, 0.2], [94, 4, 6, 1.63], [8672, 2, 6, 0.98], [5165, 1, 4, 0.45], [145, 2, 4, 1.55], [5208, 3, 4, 1.04], [21793, 1, 4, 0.39], [3495, 3, 22, 0.87], [11404, 2, 5, 0.52], [2057, 3, 4, 0.76], [12349, 1, 4, 1.54], [6158, 2, 4, 0.88], [2912, 1, 4, 1.14], [12350, 1, 5, 1.54], [1006, 2, 5, 0.81], [12353, 1, 5, 1.54], [201, 3, 6, 0.26], [10574, 3, 6, 1.9], [996, 2, 5, 1.59], [345, 3, 4, 1.14], [12229, 2, 4, 0.45], [956, 2, 4, 1.3], [140, 2, 4, 0.77], [1492, 1, 5, 0.2], [8677, 3, 4, 1.83], [7567, 3, 5, 1.87], [5165, 2, 6, 0.45], [2436, 4, 5, 2.56], [4176, 4, 5, 1.15], [11953, 1, 4, 0.92], [5946, 1, 5, 0.35], [74, 1, 4, 4.0], [12212, 29, 4, 0.43], [214, 3, 10, 1.23], [346, 3, 4, 2.51], [22317, 3, 5, 1.04], [972, 3, 5, 1.0], [6497, 1, 4, 0.46], [12721, 2, 6, 0.9], [2336, 3, 5, 1.73], [2912, 2, 6, 1.12], [336, 15, 4, 0.44], [307, 2, 4, 1.27], [439, 1, 4, 0.88], [957, 2, 4, 0.4], [823, 1, 4, 1.27], [11490, 1, 4, 0.37], [12346, 1, 4, 3.03], [13023, 3, 5, 0.43], [3, 2, 4, 0.83], [1124, 2, 4, 0.78], [14037, 3, 4, 0.39], [12344, 1, 5, 1.54], [13928, 1, 4, 0.48], [11952, 1, 4, 1.67], [6494, 1, 4, 0.45], [10149, 3, 13, 0.84], [11180, 1, 4, 0.91], [411, 2, 4, 0.37], [24258, 1, 4, 2.39], [5209, 3, 5, 1.35], [12924, 1, 4, 0.67], [2104, 3, 6, 0.53], [1523, 1, 4, 2.63], [5435, 1, 4, 0.29], [8676, 2, 4, 1.91], [8673, 2, 4, 2.15], [24260, 1, 4, 0.9], [3983, 4, 4, 1.23], [9069, 1, 5, 0.92], [346, 1, 4, 2.75], [491, 10, 7, 1.31], [2805, 137, 4, 1.46], [20486, 3, 5, 0.26], [10936, 2, 4, 1.79], [10408, 10, 10, 0.42], [11089, 1, 4, 2.26], [8675, 2, 4, 1.44], [972, 1, 4, 1.18], [19047, 3, 5, 0.22], [95, 3, 11, 0.86], [5164, 1, 4, 0.26], [10388, 2, 4, 0.65], [8898, 3, 4, 2.44], [159, 16, 4, 0.48], [6952, 1, 4, 2.11], [590, 15, 4, 1.37], [11930, 1, 4, 0.58], [13244, 1, 4, 0.44], [1703, 2, 4, 1.91], [2335, 3, 4, 0.71], [10937, 2, 4, 0.89], [159, 3, 6, 0.19], [1895, 3, 4, 1.36], [2438, 2, 5, 0.65], [4175, 3, 8, 0.88], [12764, 2, 5, 0.53], [3337, 1, 4, 0.82], [2879, 1, 4, 0.9], [974, 3, 4, 0.53], [3475, 2, 4, 0.36], [10780, 10, 4, 1.11], [3338, 1, 4, 1.04], [8635, 3, 4, 1.45], [5584, 3, 4, 0.99], [130, 1, 67, 1.77], [5493, 2, 101, 4.01], [615, 2, 116, 1.79], [205, 2, 120, 1.84], [144, 2, 156, 3.28], [11681, 2, 300, 3.15], [589, 2, 142, 4.1], [7036, 1, 144, 3.4], [6936, 2, 289, 4.62], [616, 2, 108, 2.99], [3980, 4, 515, 6.0], [8648, 2, 243, 4.41], [3893, 1, 128, 3.63], [593, 2, 252, 4.4], [8650, 2, 195, 6.0], [141, 2, 147, 4.34], [3891, 1, 118, 3.55], [206, 2, 114, 1.83], [10, 2, 41, 2.12], [21798, 1, 144, 2.95], [3889, 1, 118, 3.29], [146, 2, 148, 4.73], [3840, 1, 156, 2.19], [12870, 1, 131, 6.0], [8853, 2, 307, 3.26], [362, 2, 141, 3.18], [2054, 3, 455, 2.89], [624, 2, 114, 3.62], [2050, 3, 455, 2.89], [10993, 2, 52, 3.77], [94, 4, 110, 4.96], [8672, 2, 301, 5.82], [5165, 1, 54, 1.99], [145, 2, 155, 6.0], [5208, 3, 507, 4.59], [21793, 1, 256, 2.28], [3495, 3, 1058, 4.61], [11404, 2, 94, 2.11], [2057, 3, 455, 2.89], [12349, 1, 611, 4.32], [6158, 2, 293, 2.88], [12350, 1, 611, 5.03], [1006, 2, 239, 2.92], [12353, 1, 611, 4.97], [201, 3, 317, 5.59], [10574, 3, 485, 5.92], [996, 2, 243, 5.0], [345, 3, 334, 3.3], [12229, 2, 173, 1.98], [956, 2, 105, 4.42], [140, 2, 101, 3.94], [1492, 1, 39, 3.3], [8677, 3, 303, 4.64], [7567, 3, 77, 4.19], [5165, 2, 436, 1.93], [2436, 4, 119, 5.05], [4176, 4, 488, 3.62], [11953, 1, 206, 3.98], [5946, 1, 118, 3.77], [74, 1, 191, 6.0], [12212, 29, 135, 1.94], [346, 3, 562, 6.0], [22317, 3, 310, 5.53], [972, 3, 663, 4.12], [6497, 1, 42, 2.01]]</t>
+  </si>
+  <si>
+    <t>[[5491, 2, 5, 0.61], [11685, 2, 4, 0.69], [8650, 2, 7, 1.71], [5493, 2, 4, 0.2], [8672, 2, 5, 0.49], [6935, 2, 7, 0.47], [1124, 2, 6, 0.39], [11681, 2, 5, 0.8], [2778, 2, 5, 1.81], [6936, 2, 5, 0.7], [12721, 2, 4, 1.9], [305, 2, 8, 0.98], [1446, 2, 4, 1.01], [8676, 2, 5, 1.45], [413, 1, 4, 0.72], [990, 2, 4, 0.76], [8673, 2, 4, 0.97], [21793, 1, 4, 0.69], [615, 2, 4, 0.91], [593, 2, 5, 0.2], [8675, 2, 5, 0.73], [1429, 2, 4, 2.24], [6158, 2, 5, 0.45], [434, 2, 4, 1.56], [7705, 2, 5, 0.2], [8938, 2, 4, 1.27], [145, 2, 4, 1.35], [88, 10, 8, 0.69], [201, 3, 7, 0.51], [7704, 2, 4, 0.67], [308, 1, 7, 1.12], [146, 2, 4, 1.39], [2055, 3, 4, 1.92], [7886, 4, 6, 0.2], [2054, 3, 4, 1.92], [12349, 1, 4, 0.99], [10993, 2, 5, 0.83], [75, 2, 4, 1.13], [2057, 3, 4, 1.16], [345, 3, 4, 2.16], [3495, 3, 13, 0.48], [5165, 1, 4, 0.45], [9784, 1, 4, 1.81], [7885, 4, 5, 0.21], [2050, 3, 6, 1.16], [10149, 3, 13, 0.75], [60, 3, 5, 2.58], [414, 1, 4, 0.72], [2423, 80, 4, 1.23], [144, 2, 4, 2.18], [2703, 3, 4, 3.45], [22316, 3, 4, 1.54], [12344, 1, 4, 3.35], [13023, 3, 5, 1.51], [1886, 2, 4, 1.39], [2424, 29, 4, 1.4], [2859, 15, 4, 1.31], [5812, 3, 6, 1.51], [2424, 80, 4, 1.39], [6952, 1, 4, 2.1], [3891, 1, 4, 1.76], [3893, 1, 4, 1.76], [6494, 1, 4, 0.45], [13034, 3, 5, 1.53], [2423, 29, 4, 0.61], [22558, 3, 4, 0.5], [952, 4, 4, 1.48], [192, 3, 10, 1.69], [12343, 1, 4, 0.99], [1414, 15, 4, 0.55], [94, 4, 4, 1.04], [410, 1, 4, 1.41], [7005, 1, 4, 0.52], [3, 2, 4, 1.31], [5946, 1, 4, 1.76], [7708, 2, 4, 1.22], [2331, 1, 4, 2.39], [5729, 2, 4, 0.77], [7703, 2, 4, 1.22], [3980, 4, 4, 1.12], [5208, 3, 5, 2.0], [5811, 3, 4, 2.6], [1490, 1, 4, 1.32], [7707, 2, 4, 0.78], [13033, 3, 4, 1.51], [3889, 1, 4, 1.76], [1274, 1, 4, 0.92], [5584, 3, 4, 0.93], [3429, 15, 4, 0.64], [7887, 4, 4, 0.83], [11089, 1, 4, 1.35], [5813, 3, 5, 2.91], [11161, 1, 6, 1.89], [22317, 3, 4, 1.64], [3981, 3, 13, 1.42], [1492, 1, 4, 1.51], [6630, 3, 4, 1.18], [1309, 1, 4, 1.84], [12373, 1, 5, 0.49], [11586, 1, 13, 2.18], [11769, 1, 4, 0.52], [2912, 1, 4, 0.4], [8274, 3, 4, 1.07], [1661, 3, 4, 2.12], [24257, 1, 4, 1.56], [957, 2, 4, 0.94], [12345, 1, 4, 0.4], [823, 1, 4, 1.32], [10897, 1, 8, 0.49], [12925, 1, 4, 0.48], [1699, 3, 4, 1.42], [5165, 2, 5, 0.45], [1667, 3, 4, 2.12], [9082, 3, 15, 0.6], [10398, 2, 4, 0.98], [2991, 3, 4, 1.36], [11288, 2, 4, 0.5], [8897, 3, 4, 1.3], [23611, 3, 5, 1.82], [6496, 1, 4, 0.78], [515, 24, 4, 1.29], [956, 2, 4, 1.03], [9690, 1, 4, 0.8], [944, 15, 4, 0.48], [21269, 3, 4, 1.82], [6497, 1, 4, 0.56], [3028, 3, 4, 0.45], [1050, 2, 4, 0.67], [10516, 3, 5, 1.52], [20969, 3, 4, 1.07], [9068, 1, 4, 0.5], [955, 2, 4, 0.91], [95, 3, 9, 2.4], [10410, 10, 6, 3.48], [9760, 29, 4, 1.0], [5491, 2, 113, 3.43], [11685, 2, 309, 4.72], [8650, 2, 218, 6.0], [5493, 2, 108, 2.66], [8672, 2, 328, 2.73], [6935, 2, 317, 2.53], [1124, 2, 214, 2.43], [11681, 2, 306, 3.31], [2778, 2, 150, 5.12], [6936, 2, 315, 3.26], [12721, 2, 160, 5.79], [305, 2, 144, 4.53], [1446, 2, 170, 3.21], [8676, 2, 310, 4.56], [413, 1, 97, 3.42], [990, 2, 22, 3.33], [8673, 2, 289, 3.48], [21793, 1, 242, 2.92], [615, 2, 116, 4.21], [593, 2, 234, 2.69], [8675, 2, 290, 3.32], [1429, 2, 161, 5.58], [6158, 2, 301, 2.55], [434, 2, 111, 5.43], [7705, 2, 191, 3.71], [8938, 2, 214, 3.82], [145, 2, 161, 4.6], [88, 10, 600, 4.58], [7704, 2, 181, 3.29], [308, 1, 182, 5.14], [146, 2, 170, 3.94], [2055, 3, 468, 5.01], [2054, 3, 468, 5.01], [12349, 1, 666, 4.24], [10993, 2, 23, 3.25], [75, 2, 153, 5.81], [2057, 3, 468, 5.01], [3495, 3, 1151, 2.12], [5165, 1, 55, 2.14], [9784, 1, 81, 5.0], [2050, 3, 468, 5.01], [10149, 3, 1005, 3.46], [60, 3, 798, 6.0], [414, 1, 97, 3.42], [2423, 80, 206, 3.87], [144, 2, 170, 5.47], [2703, 3, 291, 6.0], [22316, 3, 340, 4.29], [12344, 1, 612, 6.0], [13023, 3, 677, 4.58], [1886, 2, 154, 3.95], [2424, 29, 37, 4.03], [2859, 15, 79, 3.85], [5812, 3, 621, 5.46], [2424, 80, 188, 4.94], [6952, 1, 205, 5.31], [3891, 1, 125, 4.88], [3893, 1, 125, 4.65], [6494, 1, 59, 2.14], [13034, 3, 612, 4.27], [2423, 29, 41, 2.44], [22558, 3, 458, 3.9], [952, 4, 88, 4.89], [192, 3, 1496, 5.33], [12343, 1, 666, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 5, 0.24], [6936, 2, 5, 0.43], [2776, 2, 4, 1.77], [8853, 2, 4, 1.63], [145, 2, 6, 0.42], [12721, 2, 8, 1.9], [8673, 2, 8, 0.73], [11681, 2, 5, 0.8], [8675, 2, 6, 0.73], [143, 2, 5, 0.24], [146, 2, 5, 0.37], [5491, 2, 4, 1.05], [616, 2, 4, 1.37], [205, 2, 6, 1.83], [1124, 2, 6, 0.98], [6097, 80, 4, 0.24], [144, 2, 4, 0.48], [8676, 2, 5, 1.21], [8650, 2, 4, 0.85], [6097, 29, 5, 0.24], [3, 2, 4, 1.35], [990, 2, 4, 1.04], [589, 2, 4, 0.76], [206, 2, 4, 1.6], [88, 10, 8, 0.96], [6098, 80, 5, 0.63], [593, 2, 6, 0.8], [326, 2, 4, 0.39], [75, 2, 4, 1.12], [6158, 2, 5, 1.32], [1492, 1, 4, 1.1], [7704, 2, 4, 1.07], [345, 3, 4, 2.69], [24722, 2, 8, 1.29], [6496, 1, 4, 0.78], [2859, 15, 4, 1.31], [1490, 1, 4, 1.32], [1413, 15, 4, 1.08], [434, 2, 4, 0.61], [7705, 2, 4, 0.54], [432, 3, 4, 2.19], [411, 2, 4, 0.64], [1243, 2, 4, 0.65], [346, 3, 4, 2.5], [346, 1, 4, 1.78], [7886, 4, 6, 0.45], [10149, 3, 13, 0.59], [2703, 3, 4, 1.54], [22316, 3, 4, 0.5], [24257, 1, 5, 1.13], [5208, 3, 6, 1.5], [201, 3, 5, 1.25], [7708, 2, 4, 0.54], [12346, 1, 4, 1.26], [12229, 2, 4, 0.48], [1409, 15, 4, 0.39], [2331, 1, 4, 2.33], [21793, 1, 4, 1.54], [10407, 10, 6, 1.98], [96, 11, 15, 1.32], [515, 24, 4, 1.92], [1886, 2, 4, 0.8], [13023, 3, 6, 1.76], [11404, 2, 4, 0.42], [94, 4, 4, 2.36], [20927, 1, 4, 2.02], [11844, 2, 4, 1.79], [7036, 1, 4, 2.02], [20682, 1, 4, 0.36], [9690, 1, 4, 2.59], [7885, 4, 4, 1.06], [11490, 1, 4, 0.64], [7005, 1, 4, 2.02], [12347, 1, 4, 3.0], [10410, 10, 6, 3.48], [5584, 3, 4, 0.93], [159, 16, 4, 0.46], [12350, 1, 4, 4.0], [21798, 1, 4, 2.03], [11687, 2, 4, 0.42], [11161, 1, 6, 1.42], [20680, 1, 4, 0.7], [12870, 1, 4, 1.19], [10408, 10, 6, 0.52], [98, 11, 15, 1.85], [12053, 2, 4, 0.38], [965, 1, 4, 1.5], [3104, 1, 4, 0.9], [24724, 2, 6, 0.82], [11164, 1, 4, 2.8], [1139, 3, 4, 0.38], [410, 1, 4, 0.98], [5976, 1, 4, 1.93], [8600, 1, 4, 2.02], [11690, 2, 5, 0.4], [7707, 2, 4, 1.08], [9186, 29, 4, 0.43], [10411, 10, 6, 0.49], [21781, 2, 4, 0.38], [5209, 3, 5, 1.65], [11159, 1, 8, 4.0], [12055, 2, 4, 0.38], [11689, 2, 4, 0.36], [4253, 1, 4, 1.92], [12924, 1, 4, 0.46], [10409, 10, 6, 1.41], [9081, 3, 8, 1.66], [3495, 3, 13, 0.48], [24258, 1, 4, 2.22], [22125, 2, 4, 0.36], [4372, 1, 4, 0.49], [5076, 1, 4, 1.8], [24256, 1, 4, 2.05], [11510, 3, 5, 3.44], [11304, 2, 4, 0.47], [12304, 1, 4, 1.57], [955, 2, 4, 3.23], [1648, 1, 4, 1.34], [247, 1, 4, 1.08], [951, 4, 4, 0.51], [13028, 3, 4, 1.6], [3891, 1, 4, 2.08], [8659, 1, 4, 1.42], [23611, 3, 5, 2.0], [95, 3, 9, 0.89], [3477, 2, 4, 0.39], [2436, 4, 4, 1.09], [12764, 2, 5, 1.22], [8635, 3, 4, 1.46], [7558, 3, 4, 0.38], [8274, 3, 4, 2.22], [13489, 1, 4, 0.36], [5869, 1, 4, 3.32], [21010, 2, 4, 1.9], [942, 3, 4, 1.0], [9491, 21, 10, 0.69], [8672, 2, 294, 3.96], [6936, 2, 318, 2.5], [2776, 2, 181, 4.74], [8853, 2, 313, 5.29], [145, 2, 166, 4.54], [12721, 2, 304, 5.83], [8673, 2, 307, 5.81], [11681, 2, 306, 3.31], [8675, 2, 279, 4.17], [143, 2, 131, 4.96], [146, 2, 166, 4.73], [5491, 2, 102, 3.73], [616, 2, 115, 3.9], [1124, 2, 200, 3.93], [6097, 80, 72, 2.46], [144, 2, 166, 4.58], [8676, 2, 278, 4.65], [8650, 2, 230, 5.54], [6097, 29, 36, 2.46], [3, 2, 118, 3.86], [990, 2, 56, 3.84], [589, 2, 154, 3.05], [88, 10, 600, 4.58], [6098, 80, 76, 3.42], [593, 2, 256, 3.47], [326, 2, 103, 2.26], [75, 2, 153, 5.7], [6158, 2, 99, 4.81], [1492, 1, 42, 3.39], [7704, 2, 202, 3.46], [24722, 2, 58, 3.4], [6496, 1, 46, 4.04], [2859, 15, 79, 3.85], [1490, 1, 55, 5.13], [1413, 15, 114, 3.41], [434, 2, 111, 3.74], [7705, 2, 202, 2.78], [432, 3, 320, 6.0], [411, 2, 121, 2.5], [1243, 2, 109, 2.73], [346, 3, 505, 6.0], [346, 1, 168, 4.77], [10149, 3, 997, 2.76], [2703, 3, 288, 4.9], [22316, 3, 338, 3.9], [24257, 1, 142, 5.56], [5208, 3, 513, 4.47], [201, 3, 320, 5.82], [7708, 2, 202, 2.78], [12346, 1, 673, 5.26], [12229, 2, 176, 2.19], [1409, 15, 41, 1.91], [2331, 1, 118, 5.76], [21793, 1, 251, 5.93], [10407, 10, 1171, 5.6], [96, 11, 886, 5.21], [515, 24, 206, 4.96], [1886, 2, 176, 2.8], [13023, 3, 603, 5.92], [11404, 2, 61, 2.01], [94, 4, 127, 5.81], [20927, 1, 88, 5.16], [11844, 2, 301, 5.35], [7036, 1, 143, 5.15]]</t>
+  </si>
+  <si>
+    <t>[[3, 2, 5, 0.45], [8675, 2, 4, 0.48], [8676, 2, 6, 1.1], [6936, 2, 6, 0.72], [305, 2, 7, 1.05], [8674, 2, 4, 0.47], [2327, 2, 4, 1.0], [6097, 80, 4, 0.88], [8650, 2, 4, 0.85], [6097, 29, 4, 0.52], [411, 2, 4, 0.36], [2805, 137, 8, 2.66], [326, 2, 4, 1.32], [6496, 1, 5, 0.22], [6098, 80, 4, 0.57], [192, 3, 13, 0.99], [75, 2, 4, 2.33], [2057, 3, 4, 2.29], [11504, 2, 4, 0.59], [434, 2, 5, 0.86], [10149, 3, 16, 0.6], [2054, 3, 4, 2.29], [1886, 2, 4, 1.09], [88, 10, 8, 1.8], [1413, 15, 4, 0.62], [1243, 2, 4, 0.65], [5812, 3, 4, 2.44], [6158, 2, 5, 0.88], [8915, 2, 4, 0.98], [436, 2, 4, 1.79], [944, 15, 4, 0.43], [21793, 1, 4, 1.54], [107, 2, 4, 0.58], [1409, 15, 5, 0.2], [1414, 15, 4, 0.36], [140, 2, 4, 2.87], [22316, 3, 4, 0.42], [201, 3, 7, 1.89], [5208, 3, 5, 0.45], [5813, 3, 5, 2.44], [1699, 3, 4, 1.54], [12344, 1, 4, 1.07], [94, 4, 4, 1.04], [23920, 2, 4, 0.49], [4253, 1, 4, 1.96], [10398, 2, 4, 0.98], [307, 2, 4, 0.4], [3495, 3, 13, 0.48], [7004, 1, 4, 1.49], [24724, 2, 6, 0.68], [11671, 1, 4, 0.99], [8599, 1, 4, 4.0], [515, 24, 4, 1.48], [1309, 1, 4, 1.98], [11489, 1, 4, 1.16], [9491, 21, 10, 0.69], [13962, 1, 4, 0.48], [229, 1, 4, 3.01], [5584, 3, 4, 0.93], [11887, 2, 4, 0.44], [8659, 1, 4, 0.72], [8085, 1, 4, 0.76], [13266, 29, 4, 0.44], [410, 1, 4, 0.98], [1701, 2, 4, 2.39], [9209, 29, 4, 1.49], [18964, 1, 4, 0.39], [9690, 1, 4, 2.11], [7573, 1, 4, 3.07], [7036, 1, 4, 2.02], [2438, 2, 5, 3.0], [105, 3, 5, 1.07], [12764, 2, 5, 0.48], [964, 15, 4, 2.04], [1523, 1, 4, 3.65], [2438, 1, 4, 1.56], [21269, 3, 4, 1.82], [7005, 1, 4, 0.71], [13023, 3, 6, 1.76], [22125, 2, 4, 0.36], [4940, 1, 4, 0.45], [1274, 1, 4, 0.78], [955, 2, 4, 3.23], [11808, 1, 4, 1.37], [11081, 3, 4, 1.99], [21781, 2, 4, 0.38], [7885, 4, 4, 1.06], [9208, 29, 4, 1.7], [963, 3, 4, 1.35], [24127, 3, 4, 0.37], [4001, 3, 7, 1.37], [1648, 1, 4, 1.37], [439, 1, 4, 2.89], [11690, 2, 5, 0.4], [13033, 3, 4, 0.44], [6575, 3, 4, 1.5], [24723, 2, 4, 1.27], [8635, 3, 4, 1.46], [11678, 1, 4, 1.39], [11677, 1, 4, 1.35], [8274, 3, 4, 2.22], [520, 3, 4, 1.29], [5733, 2, 4, 0.72], [11689, 2, 4, 0.36], [10406, 10, 7, 1.65], [21783, 2, 4, 0.43], [20978, 1, 4, 1.28], [13034, 3, 5, 0.44], [965, 1, 4, 1.36], [3673, 2, 4, 1.46], [10994, 2, 4, 0.77], [942, 3, 4, 1.0], [11625, 29, 4, 0.54], [3984, 3, 6, 1.22], [11687, 2, 4, 0.42], [382, 1, 4, 0.69], [9069, 1, 4, 1.51], [11812, 1, 4, 0.65], [11089, 1, 4, 1.69], [20682, 1, 4, 0.36], [7558, 3, 4, 0.38], [12347, 1, 4, 1.15], [2188, 1, 4, 0.39], [10407, 10, 6, 1.47], [10408, 10, 6, 0.52], [3979, 3, 6, 1.34], [5976, 1, 4, 2.56], [10409, 10, 6, 1.41], [3975, 4, 4, 1.31], [4176, 4, 4, 1.22], [11510, 3, 5, 3.44], [3016, 68, 4, 2.5], [88, 1, 4, 1.75], [20977, 1, 4, 1.28], [24725, 2, 4, 1.58], [3, 2, 118, 2.39], [8675, 2, 330, 2.45], [8676, 2, 278, 5.18], [6936, 2, 299, 4.46], [305, 2, 159, 4.53], [8674, 2, 297, 2.42], [2327, 2, 153, 3.19], [6097, 80, 79, 2.96], [8650, 2, 230, 5.54], [6097, 29, 39, 2.27], [2805, 137, 169, 4.93], [6496, 1, 42, 4.04], [6098, 80, 76, 3.36], [192, 3, 1437, 5.98], [75, 2, 157, 5.75], [2057, 3, 514, 5.68], [11504, 2, 158, 2.5], [434, 2, 105, 4.69], [10149, 3, 912, 3.46], [2054, 3, 514, 5.68], [1886, 2, 174, 5.14], [88, 10, 600, 5.75], [1413, 15, 103, 3.7], [1243, 2, 109, 2.73], [5812, 3, 657, 6.0], [6158, 2, 295, 3.78], [8915, 2, 214, 4.76], [436, 2, 75, 4.61], [944, 15, 50, 2.1], [21793, 1, 251, 5.93], [107, 2, 53, 2.39], [1409, 15, 46, 2.14], [1414, 15, 116, 1.96], [140, 2, 99, 6.0], [22316, 3, 362, 2.08], [201, 3, 317, 5.07], [5208, 3, 609, 3.71], [5813, 3, 657, 5.66], [1699, 3, 232, 4.3], [12344, 1, 654, 4.17], [94, 4, 130, 4.55], [23920, 2, 109, 3.82], [4253, 1, 189, 5.18], [10398, 2, 164, 4.15], [307, 2, 153, 3.09], [3495, 3, 1151, 2.12], [7004, 1, 87, 4.13], [24724, 2, 65, 3.31], [11671, 1, 333, 5.03], [8599, 1, 159, 6.0], [515, 24, 214, 4.11], [1309, 1, 56, 5.15], [9491, 21, 2321, 4.55], [13962, 1, 119, 2.18], [229, 1, 92, 6.0], [5584, 3, 249, 3.06], [11887, 2, 220, 2.12], [8659, 1, 139, 2.66], [8085, 1, 103, 2.95], [13266, 29, 131, 2.12], [410, 1, 116, 4.8], [1701, 2, 159, 5.94], [9209, 29, 36, 4.96], [9690, 1, 81, 5.33], [7573, 1, 382, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 0.52], [5491, 2, 5, 1.11], [8672, 2, 12, 2.36], [8650, 2, 4, 2.28], [6936, 2, 6, 0.51], [5493, 2, 5, 1.51], [143, 2, 10, 1.4], [75, 2, 4, 1.22], [145, 2, 5, 0.77], [205, 2, 4, 0.45], [8673, 2, 5, 2.15], [88, 10, 15, 1.0], [146, 2, 5, 0.57], [990, 2, 4, 0.36], [308, 1, 7, 1.59], [12721, 2, 5, 0.47], [206, 2, 4, 0.54], [326, 2, 4, 0.35], [7704, 2, 4, 0.65], [8675, 2, 8, 0.7], [1005, 2, 5, 0.59], [2424, 29, 4, 0.42], [144, 2, 4, 0.61], [6158, 2, 5, 0.45], [8676, 2, 7, 1.66], [2497, 2, 4, 1.57], [2424, 80, 4, 0.45], [1413, 15, 4, 1.08], [192, 3, 11, 0.85], [3, 2, 4, 1.31], [74, 1, 4, 0.64], [345, 3, 6, 0.74], [60, 3, 5, 2.01], [2859, 15, 4, 1.31], [2774, 2, 4, 2.33], [94, 4, 4, 1.3], [7084, 3, 4, 0.84], [2054, 3, 4, 1.92], [346, 1, 4, 1.51], [201, 3, 6, 1.11], [7703, 2, 4, 0.9], [22316, 3, 5, 0.46], [1409, 15, 5, 0.2], [2055, 3, 4, 1.92], [3893, 1, 4, 0.82], [6630, 3, 4, 0.45], [346, 3, 5, 1.21], [13028, 3, 4, 2.36], [10149, 3, 13, 0.75], [1050, 2, 4, 0.55], [24257, 1, 4, 1.29], [11581, 29, 4, 0.57], [13034, 3, 5, 1.53], [6097, 80, 4, 0.93], [6628, 3, 5, 0.74], [2057, 3, 4, 1.92], [13023, 3, 5, 1.53], [3477, 2, 4, 0.39], [6627, 3, 4, 0.2], [3891, 1, 4, 0.82], [3889, 1, 4, 0.82], [11919, 1, 5, 0.44], [12343, 1, 4, 1.54], [1243, 2, 4, 0.82], [5812, 3, 5, 1.54], [951, 4, 5, 1.54], [21793, 1, 4, 0.44], [8274, 3, 7, 2.02], [11089, 1, 4, 0.97], [7036, 1, 4, 1.53], [9827, 3, 4, 0.77], [12345, 1, 4, 4.0], [411, 2, 4, 0.54], [7005, 1, 4, 2.53], [5811, 3, 5, 2.88], [9126, 1, 4, 1.02], [2050, 3, 5, 1.92], [6496, 1, 4, 0.78], [515, 24, 4, 2.24], [22317, 3, 4, 1.64], [13033, 3, 5, 0.8], [9124, 1, 4, 0.83], [1490, 1, 4, 1.32], [12229, 2, 4, 0.23], [5208, 3, 5, 1.56], [2331, 1, 4, 2.39], [7573, 1, 4, 3.07], [5813, 3, 6, 1.58], [12344, 1, 4, 1.31], [1703, 2, 4, 1.03], [5729, 2, 4, 1.4], [21269, 3, 4, 1.82], [942, 3, 4, 0.75], [410, 1, 4, 0.98], [4940, 1, 4, 0.47], [23611, 3, 5, 2.0], [11586, 1, 13, 2.18], [5584, 3, 4, 0.93], [1886, 2, 4, 0.75], [1309, 1, 4, 1.98], [3495, 3, 13, 0.48], [8635, 3, 5, 1.2], [10406, 10, 8, 1.53], [2805, 137, 5, 2.21], [24258, 1, 4, 1.31], [13498, 3, 4, 0.7], [247, 1, 4, 1.08], [590, 15, 4, 1.62], [5946, 1, 4, 0.82], [229, 1, 4, 3.01], [9829, 3, 4, 2.12], [10408, 10, 6, 0.52], [20555, 2, 4, 0.42], [13244, 1, 4, 0.73], [10407, 10, 6, 0.62], [9491, 21, 10, 3.1], [3934, 5, 9, 0.44], [10409, 10, 8, 1.24], [9828, 3, 4, 1.93], [2438, 1, 4, 1.56], [95, 3, 9, 2.4], [9289, 29, 4, 2.25], [3900, 3, 4, 0.39], [12870, 1, 4, 2.49], [10716, 3, 4, 0.55], [11510, 3, 5, 2.03], [24256, 1, 4, 1.87], [88, 1, 4, 1.75], [11930, 1, 4, 0.59], [2013, 2, 4, 0.56], [5736, 2, 4, 0.52], [7007, 1, 4, 1.16], [972, 3, 5, 1.48], [9796, 3, 7, 0.47], [3143, 3, 4, 0.52], [9082, 3, 15, 0.6], [6935, 2, 274, 4.62], [5491, 2, 112, 5.07], [8650, 2, 218, 5.68], [6936, 2, 304, 6.0], [5493, 2, 108, 4.26], [143, 2, 168, 4.29], [75, 2, 158, 4.95], [145, 2, 168, 3.47], [205, 2, 109, 2.48], [8673, 2, 287, 5.66], [88, 10, 552, 3.36], [146, 2, 168, 4.15], [990, 2, 57, 3.01], [308, 1, 187, 6.0], [12721, 2, 286, 4.87], [326, 2, 52, 1.76], [7704, 2, 192, 3.98], [8675, 2, 307, 5.34], [1005, 2, 89, 3.08], [2424, 29, 39, 2.08], [144, 2, 177, 2.44], [6158, 2, 301, 2.55], [2497, 2, 224, 4.36], [2424, 80, 194, 2.14], [1413, 15, 114, 3.41], [192, 3, 1353, 5.08], [3, 2, 118, 3.86], [74, 1, 216, 3.51], [345, 3, 321, 3.43], [60, 3, 904, 5.23], [2859, 15, 79, 3.85], [2774, 2, 224, 5.76], [94, 4, 123, 3.76], [7084, 3, 142, 4.22], [2054, 3, 516, 4.97], [346, 1, 158, 4.74], [201, 3, 321, 4.22], [7703, 2, 191, 3.75], [22316, 3, 293, 4.82], [2055, 3, 516, 4.97], [3893, 1, 123, 4.73], [6630, 3, 114, 2.14], [346, 3, 632, 4.95], [13028, 3, 161, 5.8], [10149, 3, 1005, 3.46], [1050, 2, 48, 2.21], [24257, 1, 137, 6.0], [11581, 29, 70, 4.02], [13034, 3, 612, 4.27], [6097, 80, 78, 3.06], [6628, 3, 106, 4.51], [2057, 3, 516, 4.97], [3477, 2, 59, 3.32], [6627, 3, 85, 2.98], [3891, 1, 123, 4.73], [3889, 1, 123, 4.73], [11919, 1, 153, 2.37], [12343, 1, 618, 4.48], [1243, 2, 110, 3.69], [5812, 3, 579, 5.37], [951, 4, 99, 4.55], [21793, 1, 270, 2.67], [11089, 1, 195, 3.14], [7036, 1, 134, 4.22]]</t>
+  </si>
+  <si>
+    <t>[[11681, 2, 9, 1.55], [589, 2, 5, 0.51], [8650, 2, 4, 0.44], [8648, 2, 4, 1.49], [2776, 2, 4, 0.4], [593, 2, 6, 0.53], [8853, 2, 5, 1.64], [1429, 2, 5, 0.84], [21793, 1, 5, 2.36], [5493, 2, 4, 1.33], [11683, 2, 13, 0.91], [201, 3, 5, 2.27], [417, 2, 4, 0.65], [434, 2, 4, 1.37], [345, 3, 6, 1.25], [1124, 2, 5, 0.89], [8089, 1, 4, 0.2], [6097, 80, 4, 0.35], [6952, 1, 4, 3.58], [147, 1, 4, 0.96], [145, 2, 4, 0.48], [432, 3, 5, 2.79], [12350, 1, 4, 2.02], [2912, 1, 4, 1.13], [3891, 1, 4, 1.0], [146, 2, 4, 0.64], [6158, 2, 4, 0.85], [3893, 1, 4, 1.0], [616, 2, 4, 0.36], [10149, 3, 13, 0.75], [144, 2, 4, 0.48], [13028, 3, 4, 1.9], [4032, 29, 4, 1.93], [20927, 1, 4, 0.81], [6097, 29, 4, 0.46], [20252, 2, 4, 1.21], [5208, 3, 4, 1.0], [12870, 1, 4, 1.2], [24257, 1, 5, 1.47], [11504, 2, 4, 0.47], [5812, 3, 4, 0.77], [3889, 1, 4, 1.0], [24258, 1, 4, 1.46], [11089, 1, 7, 0.33], [2423, 80, 4, 1.23], [3334, 5, 4, 2.09], [12304, 1, 4, 0.53], [2057, 3, 4, 1.05], [12346, 1, 4, 2.02], [3576, 25, 4, 0.67], [10517, 29, 4, 1.72], [22316, 3, 4, 0.5], [9289, 29, 4, 0.37], [13893, 2, 5, 0.83], [1490, 1, 4, 1.0], [2912, 2, 5, 1.45], [75, 2, 7, 0.2], [972, 3, 4, 0.99], [9964, 2, 4, 1.82], [13034, 3, 4, 2.0], [11954, 1, 4, 1.01], [9372, 1, 4, 1.16], [9069, 1, 4, 0.67], [3, 2, 4, 1.28], [410, 1, 4, 0.62], [7886, 4, 4, 0.42], [3478, 2, 4, 1.64], [957, 2, 4, 0.95], [11426, 25, 4, 0.51], [214, 3, 10, 0.53], [6494, 1, 4, 0.51], [13280, 1, 4, 0.38], [12764, 2, 5, 0.48], [13244, 1, 4, 0.44], [8677, 3, 5, 1.35], [4253, 1, 4, 1.21], [823, 1, 4, 1.61], [161, 3, 6, 1.69], [2160, 68, 4, 0.2], [5209, 3, 4, 0.45], [21697, 3, 4, 0.52], [23235, 25, 4, 0.77], [149, 2, 4, 0.96], [2805, 137, 4, 0.9], [9691, 1, 4, 1.5], [4033, 29, 4, 0.2], [1277, 1, 4, 1.05], [490, 1, 4, 0.36], [2438, 2, 5, 0.37], [11404, 2, 4, 1.07], [5584, 3, 5, 0.31], [10609, 1, 4, 0.73], [7887, 4, 4, 0.94], [9491, 21, 9, 0.69], [8659, 1, 4, 0.92], [12338, 29, 4, 0.41], [1309, 1, 4, 0.48], [7704, 2, 4, 0.54], [8285, 2, 5, 0.4], [7567, 3, 4, 0.79], [13033, 3, 5, 0.9], [5811, 3, 4, 0.49], [21700, 3, 4, 1.67], [1523, 1, 4, 2.24], [13244, 2, 7, 0.43], [11942, 29, 4, 0.39], [956, 2, 4, 0.8], [10407, 10, 7, 1.58], [22317, 3, 4, 0.4], [3576, 29, 4, 1.21], [5813, 3, 4, 3.85], [14017, 3, 4, 2.12], [9827, 3, 4, 1.5], [20969, 3, 5, 0.68], [23234, 25, 4, 1.05], [389, 4, 4, 1.78], [335, 3, 8, 1.54], [1801, 1, 4, 0.47], [6497, 1, 4, 0.45], [2528, 29, 4, 0.62], [12647, 1, 4, 1.29], [105, 3, 4, 0.86], [21699, 3, 4, 0.52], [1667, 3, 4, 1.96], [6496, 1, 4, 0.61], [13498, 3, 4, 0.7], [10616, 1, 4, 1.03], [18964, 1, 4, 0.39], [9082, 3, 13, 0.51], [19925, 2, 4, 1.69], [2335, 3, 4, 0.69], [21701, 3, 4, 1.67], [13281, 1, 4, 0.81], [66, 15, 4, 0.39], [11681, 2, 307, 6.0], [589, 2, 169, 3.54], [8650, 2, 219, 3.79], [8648, 2, 248, 4.73], [2776, 2, 179, 3.33], [593, 2, 217, 3.78], [8853, 2, 311, 5.18], [1429, 2, 159, 4.57], [21793, 1, 234, 6.0], [5493, 2, 112, 3.83], [11683, 2, 270, 5.5], [201, 3, 259, 5.93], [417, 2, 172, 3.13], [434, 2, 113, 4.49], [345, 3, 285, 5.29], [1124, 2, 196, 3.53], [8089, 1, 72, 2.76], [6097, 80, 78, 2.44], [6952, 1, 206, 6.0], [147, 1, 98, 3.35], [145, 2, 169, 2.64], [12350, 1, 670, 5.11], [2912, 1, 53, 3.39], [3891, 1, 133, 3.14], [146, 2, 169, 2.61], [6158, 2, 296, 3.22], [3893, 1, 133, 3.14], [616, 2, 117, 1.9], [10149, 3, 990, 3.49], [144, 2, 169, 2.36], [13028, 3, 168, 4.87], [4032, 29, 106, 4.93], [20927, 1, 89, 2.77], [6097, 29, 39, 2.1], [20252, 2, 104, 3.54], [5208, 3, 570, 5.85], [12870, 1, 142, 4.39], [24257, 1, 152, 5.4], [11504, 2, 158, 2.11], [5812, 3, 638, 5.06], [3889, 1, 133, 3.14], [24258, 1, 152, 4.77], [11089, 1, 162, 3.72], [2423, 80, 204, 3.61], [3334, 5, 198, 5.23], [12304, 1, 112, 2.48], [12346, 1, 670, 5.35], [3576, 25, 112, 4.48], [10517, 29, 79, 4.99], [22316, 3, 333, 3.85], [9289, 29, 71, 3.18], [13893, 2, 302, 5.52], [1490, 1, 25, 5.31], [2912, 2, 364, 4.6], [75, 2, 155, 3.35], [972, 3, 657, 4.18], [9964, 2, 302, 5.75], [13034, 3, 664, 5.06], [11954, 1, 223, 3.43], [9372, 1, 256, 3.44], [9069, 1, 136, 2.64], [3, 2, 128, 3.67], [7886, 4, 72, 1.83], [3478, 2, 84, 4.37], [957, 2, 38, 2.74], [11426, 25, 134, 2.19]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 8, 0.97], [589, 2, 5, 1.15], [990, 2, 4, 0.2], [12721, 2, 6, 1.22], [1776, 1, 4, 1.1], [10, 2, 4, 0.43], [8675, 2, 6, 0.73], [1777, 1, 5, 0.2], [3, 2, 4, 0.59], [147, 1, 4, 1.49], [8650, 2, 5, 0.41], [1007, 2, 9, 0.2], [13028, 3, 5, 0.5], [88, 10, 14, 0.19], [8677, 3, 5, 2.31], [10149, 3, 15, 1.32], [3478, 2, 5, 1.14], [413, 1, 4, 1.2], [308, 1, 6, 1.76], [10825, 21, 8, 0.83], [7084, 3, 4, 0.44], [7004, 1, 4, 1.03], [2054, 3, 5, 0.38], [410, 1, 4, 1.41], [75, 2, 4, 0.74], [9827, 3, 4, 1.7], [1124, 2, 6, 0.71], [307, 2, 4, 0.58], [45, 2, 5, 0.37], [6158, 2, 6, 0.31], [7005, 1, 4, 1.54], [94, 4, 8, 3.75], [7036, 1, 4, 1.11], [1446, 2, 4, 1.01], [167, 3, 6, 1.35], [1006, 2, 4, 0.57], [5081, 2, 4, 0.39], [12870, 1, 4, 2.58], [3893, 1, 4, 2.08], [8674, 2, 5, 1.94], [6097, 80, 5, 1.64], [6097, 29, 4, 0.36], [3889, 1, 4, 2.06], [3891, 1, 4, 2.08], [1622, 1, 5, 1.63], [168, 3, 7, 0.29], [20498, 1, 4, 0.46], [2336, 3, 5, 0.26], [6098, 29, 4, 0.2], [10574, 3, 5, 1.1], [20927, 1, 4, 1.7], [346, 1, 5, 1.02], [12924, 1, 4, 0.36], [1490, 1, 4, 0.71], [335, 3, 15, 1.13], [74, 1, 4, 0.69], [9069, 1, 4, 0.39], [9829, 3, 4, 1.81], [214, 3, 12, 0.29], [6098, 80, 4, 0.2], [126, 2, 4, 0.61], [7567, 3, 4, 1.73], [998, 2, 5, 1.54], [24257, 1, 4, 2.71], [1070, 7, 10, 0.67], [1243, 2, 4, 0.66], [13034, 3, 9, 4.0], [20498, 3, 5, 0.44], [346, 3, 5, 1.0], [20486, 1, 4, 0.2], [20486, 3, 10, 1.24], [8945, 3, 6, 1.09], [996, 2, 4, 1.14], [23611, 3, 5, 0.87], [22316, 3, 4, 0.75], [9081, 3, 7, 1.06], [2424, 80, 5, 0.58], [9691, 1, 5, 1.2], [110, 4, 4, 0.68], [5946, 1, 4, 2.08], [2729, 3, 4, 3.95], [22554, 10, 9, 0.51], [11510, 3, 5, 0.26], [5086, 1, 4, 0.25], [215, 4, 4, 1.6], [3900, 3, 4, 1.42], [1413, 15, 5, 0.62], [995, 2, 4, 0.74], [9082, 3, 27, 0.17], [3049, 3, 4, 0.55], [9690, 1, 4, 1.22], [13023, 3, 6, 0.98], [22317, 3, 6, 0.79], [8943, 3, 6, 2.46], [20969, 3, 8, 0.28], [13484, 1, 4, 3.23], [4076, 3, 4, 1.47], [10780, 10, 4, 2.97], [991, 2, 5, 0.64], [9828, 3, 4, 2.21], [1080, 3, 4, 1.43], [3670, 2, 4, 1.35], [24567, 1, 4, 0.27], [3047, 3, 4, 0.83], [3016, 68, 4, 0.44], [12059, 3, 4, 0.99], [66, 16, 4, 0.2], [12345, 1, 4, 1.09], [229, 1, 4, 0.49], [13033, 3, 7, 1.76], [5165, 1, 4, 0.2], [24260, 1, 4, 1.79], [5584, 3, 5, 0.54], [3048, 3, 4, 1.49], [12925, 1, 4, 0.5], [3104, 1, 4, 0.22], [5153, 2, 4, 0.38], [10936, 2, 4, 2.0], [11089, 1, 4, 2.22], [2912, 1, 4, 0.38], [5083, 2, 4, 0.46], [491, 10, 7, 0.43], [9372, 1, 4, 1.74], [330, 3, 4, 2.02], [220, 4, 4, 2.56], [12344, 1, 4, 1.18], [12346, 1, 4, 1.09], [2331, 1, 4, 0.42], [2109, 3, 9, 0.59], [1339, 3, 10, 0.35], [949, 10, 4, 1.26], [1604, 68, 4, 0.64], [1414, 15, 4, 0.66], [9796, 3, 8, 1.59], [11967, 1, 4, 0.39], [3475, 2, 4, 0.89], [8672, 2, 294, 4.59], [589, 2, 135, 3.93], [990, 2, 59, 1.94], [12721, 2, 287, 4.19], [1776, 1, 116, 6.0], [10, 2, 117, 1.9], [8675, 2, 274, 2.88], [1777, 1, 110, 4.63], [3, 2, 125, 2.09], [147, 1, 81, 4.64], [8650, 2, 187, 5.14], [1007, 2, 130, 3.07], [13028, 3, 151, 4.58], [88, 10, 581, 4.15], [10149, 3, 818, 5.21], [308, 1, 168, 4.84], [10825, 21, 621, 2.69], [7084, 3, 125, 2.22], [7004, 1, 80, 3.98], [2054, 3, 435, 3.13], [410, 1, 93, 3.62], [75, 2, 158, 2.37], [9827, 3, 86, 5.16], [1124, 2, 178, 3.08], [307, 2, 161, 3.54], [45, 2, 113, 6.0], [6158, 2, 269, 2.56], [7005, 1, 80, 3.91], [94, 4, 107, 6.0], [7036, 1, 131, 3.87], [1446, 2, 161, 2.89], [167, 3, 242, 4.85], [1006, 2, 243, 2.29], [5081, 2, 185, 2.43], [12870, 1, 133, 5.92], [3893, 1, 112, 5.2], [6097, 29, 36, 3.11], [3889, 1, 112, 5.21], [3891, 1, 112, 5.21], [1622, 1, 101, 4.18], [168, 3, 402, 5.09], [20498, 1, 92, 4.11], [2336, 3, 566, 2.27], [6098, 29, 36, 2.07], [10574, 3, 549, 3.12], [20927, 1, 80, 4.22], [346, 1, 151, 4.26], [12924, 1, 58, 1.64], [1490, 1, 54, 3.99], [335, 3, 1259, 3.75], [74, 1, 219, 2.33], [9829, 3, 66, 5.4], [214, 3, 596, 3.21], [6098, 80, 72, 2.07], [126, 2, 96, 2.12], [7567, 3, 63, 4.53], [998, 2, 241, 5.35], [24257, 1, 134, 6.0], [1070, 7, 592, 4.37], [1243, 2, 104, 3.4], [13034, 3, 589, 6.0], [20498, 3, 552, 4.12], [346, 3, 604, 5.08], [20486, 1, 90, 6.0]]</t>
+  </si>
+  <si>
+    <t>[[3, 2, 21, 1.18], [8672, 2, 12, 2.68], [589, 2, 10, 2.84], [75, 2, 7, 1.59], [12721, 2, 15, 2.81], [147, 1, 7, 1.78], [990, 2, 7, 1.64], [1776, 1, 7, 1.85], [8648, 2, 7, 4.02], [20252, 2, 7, 3.66], [1777, 1, 7, 2.35], [6936, 2, 9, 1.86], [8675, 2, 12, 3.7], [88, 10, 21, 1.33], [83, 2, 7, 0.77], [149, 2, 7, 1.93], [345, 3, 11, 1.12], [74, 1, 11, 3.28], [8650, 2, 7, 1.12], [7004, 1, 7, 3.35], [201, 3, 14, 0.87], [11681, 2, 7, 1.79], [21798, 1, 7, 0.68], [1007, 2, 10, 1.82], [1446, 2, 7, 4.81], [7005, 1, 7, 3.66], [7084, 3, 7, 2.22], [21793, 1, 7, 5.0], [10, 2, 7, 1.06], [307, 2, 7, 4.97], [10825, 21, 13, 1.01], [308, 1, 7, 3.41], [1124, 2, 11, 2.79], [12870, 1, 7, 3.41], [11404, 2, 7, 1.0], [9827, 3, 7, 3.85], [410, 1, 7, 2.69], [10149, 3, 26, 2.57], [3478, 2, 9, 2.48], [8677, 3, 9, 2.55], [1429, 2, 7, 4.95], [5081, 2, 7, 2.27], [3889, 1, 7, 3.41], [1622, 1, 7, 3.2], [168, 3, 14, 4.08], [23, 1, 7, 1.44], [45, 2, 7, 2.33], [8674, 2, 11, 3.85], [1006, 2, 7, 1.15], [9069, 1, 7, 0.73], [3891, 1, 7, 5.0], [20927, 1, 9, 4.08], [24257, 1, 7, 4.02], [3893, 1, 7, 5.0], [431, 2, 7, 2.22], [5208, 3, 11, 2.3], [1767, 25, 9, 1.17], [346, 1, 7, 2.68], [1656, 2, 7, 1.22], [6158, 2, 17, 2.15], [3980, 4, 7, 2.41], [95, 3, 33, 1.55], [413, 1, 7, 2.02], [8853, 2, 8, 2.6], [998, 2, 9, 3.9], [24664, 2, 11, 2.49], [214, 3, 29, 1.02], [1766, 25, 7, 4.01], [346, 3, 7, 2.91], [20498, 1, 7, 1.26], [8898, 3, 12, 5.0], [14017, 3, 7, 1.21], [9690, 1, 7, 4.14], [7567, 3, 7, 1.19], [9829, 3, 7, 3.87], [997, 2, 7, 1.83], [974, 3, 9, 3.7], [11737, 2, 9, 3.09], [3048, 3, 7, 4.38], [24, 1, 7, 1.42], [3670, 2, 7, 4.03], [110, 4, 9, 2.46], [96, 11, 21, 3.36], [1767, 2, 7, 1.46], [4203, 1, 7, 2.03], [5209, 3, 9, 4.52], [10780, 10, 7, 4.18], [952, 4, 7, 2.81], [22316, 3, 7, 3.33], [22554, 10, 15, 0.88], [5086, 1, 7, 0.9], [5946, 1, 7, 5.0], [9828, 3, 9, 4.14], [996, 2, 9, 4.34], [20498, 3, 10, 0.77], [9964, 2, 7, 5.0], [23611, 3, 10, 4.42], [8557, 3, 7, 3.52], [11454, 2, 11, 3.28], [24260, 1, 7, 4.05], [20486, 1, 7, 2.89], [14018, 3, 7, 2.61], [3900, 3, 7, 3.81], [22317, 3, 9, 3.16], [13034, 3, 15, 2.89], [8945, 3, 10, 2.8], [1080, 3, 7, 2.75], [995, 2, 7, 4.0], [972, 3, 15, 1.52], [11954, 1, 7, 2.46], [2912, 1, 7, 0.79], [13023, 3, 14, 2.73], [5584, 3, 7, 0.87], [6097, 80, 7, 0.98], [9082, 3, 52, 1.96], [6097, 29, 7, 0.98], [5153, 2, 7, 3.26], [19047, 3, 7, 0.81], [12924, 1, 7, 0.75], [11767, 1, 9, 2.98], [40, 1, 7, 1.53], [8274, 3, 7, 2.78], [1604, 68, 7, 4.2], [2729, 3, 7, 5.0], [991, 2, 7, 1.98], [12353, 1, 7, 2.97], [20969, 3, 8, 2.13], [972, 1, 7, 2.19], [11769, 1, 7, 3.85], [9372, 1, 9, 2.14], [11914, 1, 7, 2.23], [4076, 3, 7, 4.22], [20486, 3, 8, 2.48], [7705, 2, 7, 1.51], [2424, 29, 7, 1.44], [1766, 25, 181, 5.72], [346, 3, 560, 4.7], [20498, 1, 91, 2.3], [8898, 3, 272, 6.0], [14017, 3, 187, 2.5], [9690, 1, 72, 5.43], [7567, 3, 74, 2.23], [9829, 3, 65, 5.16], [997, 2, 238, 2.87], [974, 3, 135, 5.28], [3048, 3, 259, 5.92], [24, 1, 118, 2.47], [3670, 2, 223, 5.32], [110, 4, 195, 3.99], [96, 11, 839, 4.4], [1767, 2, 35, 3.53], [5209, 3, 491, 5.64], [10780, 10, 358, 6.0], [952, 4, 72, 3.86], [22316, 3, 288, 4.62], [22554, 10, 362, 2.17], [5086, 1, 199, 1.94], [5946, 1, 109, 6.0], [996, 2, 226, 6.0], [20498, 3, 548, 2.11], [9964, 2, 261, 6.0], [23611, 3, 308, 6.0], [8557, 3, 188, 4.56], [11454, 2, 422, 4.32], [24260, 1, 141, 5.09], [20486, 1, 94, 4.18], [14018, 3, 187, 3.66], [3900, 3, 42, 4.85], [22317, 3, 294, 4.45], [13034, 3, 590, 5.47], [1080, 3, 137, 3.81], [995, 2, 226, 5.04], [972, 3, 599, 4.02], [11954, 1, 200, 3.51], [2912, 1, 48, 2.48], [13023, 3, 596, 4.0], [5584, 3, 232, 2.15], [6097, 80, 66, 2.27], [9082, 3, 2527, 4.85], [6097, 29, 34, 2.27], [5153, 2, 25, 4.31], [19047, 3, 326, 1.85], [12924, 1, 57, 1.79], [11767, 1, 155, 4.76], [40, 1, 118, 2.57], [1604, 68, 238, 5.26], [2729, 3, 79, 6.0], [991, 2, 49, 3.02], [12353, 1, 553, 4.25], [20969, 3, 628, 3.18], [972, 1, 99, 3.48], [11769, 1, 164, 4.9], [9372, 1, 214, 4.21], [11914, 1, 87, 3.28], [4076, 3, 211, 5.27], [20486, 3, 565, 3.76], [7705, 2, 187, 2.56], [2424, 29, 36, 2.48]]</t>
+  </si>
+  <si>
+    <t>[[593, 2, 11, 2.65], [8650, 2, 11, 3.07], [1124, 2, 9, 0.81], [11685, 2, 9, 3.66], [7004, 1, 7, 2.95], [5493, 2, 7, 2.5], [88, 10, 18, 1.69], [615, 2, 7, 0.87], [616, 2, 7, 3.12], [5491, 2, 7, 2.35], [1007, 2, 7, 3.14], [1622, 1, 7, 2.51], [2912, 1, 7, 0.94], [8672, 2, 9, 4.09], [147, 1, 7, 1.93], [7573, 1, 12, 4.99], [5165, 1, 7, 1.27], [3893, 1, 9, 2.33], [12870, 1, 7, 3.82], [8938, 2, 7, 5.0], [10, 2, 7, 1.93], [3889, 1, 9, 2.5], [148, 1, 7, 4.45], [439, 1, 7, 2.83], [7005, 1, 7, 3.1], [24257, 1, 11, 3.69], [624, 2, 7, 2.21], [75, 2, 7, 2.01], [21793, 1, 7, 1.85], [192, 3, 15, 2.11], [3891, 1, 7, 3.89], [10149, 3, 18, 4.42], [2057, 3, 7, 2.01], [20927, 1, 7, 1.89], [5208, 3, 14, 4.17], [2054, 3, 9, 2.01], [3, 2, 14, 3.81], [1886, 2, 7, 0.92], [5165, 2, 10, 1.15], [12721, 2, 10, 4.12], [9372, 1, 7, 3.81], [149, 2, 7, 2.08], [2424, 80, 7, 1.96], [972, 3, 11, 2.1], [506, 1, 7, 2.82], [346, 1, 7, 3.7], [5076, 1, 7, 3.18], [346, 3, 10, 3.85], [3048, 3, 7, 2.87], [2424, 29, 7, 1.71], [82, 2, 11, 2.12], [12352, 1, 7, 1.96], [7567, 3, 7, 3.07], [5209, 3, 11, 4.22], [74, 1, 7, 2.54], [13280, 1, 7, 2.96], [4032, 29, 7, 2.08], [957, 2, 7, 1.97], [12346, 1, 7, 3.76], [1126, 2, 7, 2.1], [8898, 3, 7, 4.7], [13023, 3, 15, 2.67], [4076, 3, 7, 2.46], [11953, 1, 7, 1.01], [1414, 15, 9, 2.35], [10780, 10, 7, 4.89], [1548, 1, 7, 2.89], [2805, 137, 7, 3.26], [6097, 80, 7, 0.82], [7704, 2, 7, 0.75], [11952, 1, 7, 5.0], [4253, 1, 7, 2.2], [6097, 29, 7, 1.02], [1243, 2, 7, 2.34], [8676, 2, 7, 3.68], [20486, 3, 8, 1.74], [215, 4, 7, 2.8], [12350, 1, 7, 1.96], [1703, 2, 9, 3.17], [12338, 29, 7, 0.69], [955, 2, 7, 3.91], [1492, 1, 7, 1.23], [7705, 2, 9, 1.12], [972, 1, 7, 2.45], [21269, 3, 7, 4.08], [11236, 2, 7, 2.08], [12924, 1, 7, 0.83], [23611, 3, 8, 3.64], [214, 3, 15, 1.94], [12229, 2, 7, 0.81], [8659, 1, 7, 1.77], [10407, 10, 10, 2.84], [2331, 1, 7, 2.06], [7707, 2, 7, 1.5], [3047, 3, 7, 3.2], [11812, 1, 7, 1.54], [10410, 10, 15, 2.8], [13034, 3, 7, 2.99], [45, 2, 7, 2.34], [10388, 2, 7, 0.96], [11404, 2, 7, 0.75], [5584, 3, 7, 0.94], [8673, 2, 7, 2.84], [12351, 1, 7, 3.76], [9827, 3, 7, 1.46], [3059, 3, 7, 3.25], [71, 15, 7, 1.14], [8675, 2, 7, 2.77], [6497, 1, 7, 0.89], [10936, 2, 7, 3.66], [6496, 1, 7, 2.74], [2335, 3, 7, 2.66], [13281, 1, 7, 0.94], [24722, 2, 7, 1.6], [10408, 10, 8, 0.86], [18964, 1, 7, 0.75], [13283, 1, 7, 2.96], [5434, 1, 7, 1.93], [1049, 2, 7, 4.52], [20498, 1, 7, 0.9], [3049, 3, 7, 0.82], [159, 1, 7, 0.73], [12344, 1, 7, 5.0], [11942, 29, 7, 1.27], [11711, 3, 7, 2.32], [3334, 5, 7, 3.26], [24567, 1, 7, 0.92], [2438, 2, 8, 0.66], [12661, 1, 7, 3.56], [3391, 1, 7, 1.02], [110, 4, 7, 3.86], [8897, 3, 7, 4.7], [10386, 2, 7, 0.98], [7708, 2, 7, 1.54], [10937, 2, 7, 1.93], [6494, 1, 7, 0.9], [11952, 1, 208, 6.0], [4253, 1, 179, 3.39], [6097, 29, 37, 2.21], [1243, 2, 90, 4.29], [8676, 2, 305, 4.87], [20486, 3, 635, 2.93], [215, 4, 40, 3.98], [12350, 1, 629, 3.16], [1703, 2, 161, 4.39], [12338, 29, 58, 1.88], [955, 2, 97, 5.35], [1492, 1, 38, 2.93], [7705, 2, 174, 2.56], [972, 1, 102, 4.02], [21269, 3, 276, 5.52], [11236, 2, 216, 3.27], [12924, 1, 39, 1.94], [23611, 3, 327, 4.83], [12229, 2, 168, 1.99], [8659, 1, 131, 2.96], [10407, 10, 1166, 4.04], [2331, 1, 120, 3.25], [7707, 2, 195, 2.68], [3047, 3, 262, 4.38], [11812, 1, 259, 2.73], [10410, 10, 1166, 4.0], [13034, 3, 581, 4.18], [45, 2, 117, 3.53], [10388, 2, 222, 2.15], [11404, 2, 52, 1.75], [5584, 3, 237, 2.38], [8673, 2, 303, 4.03], [12351, 1, 629, 4.96], [9827, 3, 88, 2.66], [3059, 3, 217, 4.43], [71, 15, 237, 2.32], [8675, 2, 307, 3.95], [6497, 1, 41, 2.08], [10936, 2, 143, 4.85], [6496, 1, 44, 3.93], [2335, 3, 98, 3.66], [13281, 1, 346, 2.12], [24722, 2, 62, 2.79], [10408, 10, 833, 2.05], [13283, 1, 346, 4.15], [5434, 1, 53, 3.11], [1049, 2, 111, 5.71], [20498, 1, 102, 2.09], [3049, 3, 150, 2.01], [12344, 1, 629, 6.0], [11942, 29, 106, 2.46], [11711, 3, 212, 3.5], [3334, 5, 174, 4.45], [24567, 1, 339, 2.11], [2438, 2, 705, 1.85], [12661, 1, 76, 4.75], [3391, 1, 52, 2.21], [110, 4, 215, 5.05], [8897, 3, 284, 5.89], [10386, 2, 222, 2.17], [7708, 2, 195, 2.73], [10937, 2, 143, 3.12], [6494, 1, 56, 2.09]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 9, 0.65], [589, 2, 8, 2.73], [11681, 2, 7, 2.04], [8648, 2, 7, 3.3], [144, 2, 7, 3.4], [143, 2, 7, 2.75], [141, 2, 15, 1.35], [593, 2, 14, 1.01], [205, 2, 7, 0.72], [6936, 2, 7, 3.45], [8650, 2, 9, 2.25], [7004, 1, 7, 1.54], [146, 2, 11, 3.21], [206, 2, 9, 2.09], [7036, 1, 7, 5.0], [990, 2, 7, 2.19], [145, 2, 9, 3.81], [5491, 2, 9, 2.18], [615, 2, 7, 0.67], [10993, 2, 9, 2.51], [3893, 1, 9, 2.52], [12870, 1, 7, 3.7], [13028, 3, 7, 2.64], [3840, 1, 9, 2.88], [8853, 2, 9, 3.14], [1007, 2, 7, 1.82], [3889, 1, 9, 3.63], [20927, 1, 9, 2.37], [616, 2, 7, 1.54], [94, 4, 7, 4.73], [3, 2, 11, 1.75], [1006, 2, 7, 2.85], [147, 1, 7, 2.21], [21798, 1, 7, 1.58], [3891, 1, 7, 3.35], [12350, 1, 7, 5.0], [6158, 2, 7, 1.77], [624, 2, 7, 2.5], [21793, 1, 7, 1.16], [24257, 1, 9, 4.95], [5165, 1, 7, 0.87], [12349, 1, 7, 3.03], [13928, 1, 7, 0.92], [8672, 2, 9, 4.29], [2912, 1, 14, 2.5], [12346, 1, 7, 5.0], [159, 3, 10, 0.91], [24258, 1, 9, 5.0], [972, 3, 8, 2.18], [1124, 2, 9, 2.25], [956, 2, 7, 3.05], [8898, 3, 7, 4.7], [5208, 3, 7, 3.91], [9081, 3, 14, 0.93], [7567, 3, 7, 3.12], [82, 2, 11, 2.47], [345, 3, 7, 2.19], [9784, 1, 7, 1.74], [9491, 21, 20, 0.83], [7704, 2, 7, 1.66], [5165, 2, 10, 0.82], [10780, 10, 7, 2.14], [1492, 1, 7, 0.89], [8677, 3, 7, 3.34], [214, 3, 15, 1.38], [201, 3, 7, 4.28], [411, 2, 7, 2.46], [10388, 2, 7, 1.54], [22316, 3, 7, 4.06], [84, 2, 7, 2.05], [11739, 2, 7, 2.25], [5812, 3, 9, 3.84], [9082, 3, 30, 1.83], [12338, 29, 7, 1.33], [11953, 1, 7, 3.92], [11404, 2, 7, 1.41], [336, 15, 7, 0.96], [22317, 3, 7, 3.12], [11490, 1, 7, 0.72], [11767, 1, 7, 3.01], [7705, 2, 7, 1.71], [957, 2, 7, 1.25], [308, 1, 7, 3.74], [972, 1, 7, 2.27], [12721, 2, 7, 1.2], [6497, 1, 7, 0.98], [2912, 2, 8, 0.83], [3475, 2, 7, 1.87], [12344, 1, 7, 5.0], [12229, 2, 7, 0.87], [9372, 1, 7, 3.88], [8673, 2, 7, 4.14], [161, 3, 9, 4.02], [7708, 2, 7, 1.85], [110, 4, 7, 5.0], [1523, 1, 7, 5.0], [20486, 3, 8, 2.18], [5813, 3, 8, 4.1], [1080, 3, 7, 1.91], [1703, 2, 7, 4.71], [74, 1, 7, 5.0], [12351, 1, 7, 5.0], [10387, 2, 7, 0.92], [159, 1, 7, 0.92], [13286, 1, 7, 2.89], [13893, 2, 7, 4.55], [10149, 3, 21, 2.81], [8897, 3, 7, 4.7], [14037, 3, 7, 2.06], [1895, 3, 7, 4.19], [11510, 3, 8, 0.9], [2104, 3, 12, 2.72], [10181, 26, 9, 2.6], [159, 16, 7, 0.92], [3900, 3, 7, 1.79], [5811, 3, 8, 5.0], [10410, 10, 10, 4.29], [9827, 3, 7, 2.24], [9971, 2, 7, 4.35], [942, 3, 7, 2.89], [13281, 1, 7, 1.98], [2805, 137, 9, 3.84], [335, 3, 15, 4.0], [10581, 3, 7, 4.06], [1548, 1, 7, 2.93], [10093, 3, 15, 0.83], [10936, 2, 7, 3.45], [8676, 2, 7, 3.68], [7707, 2, 7, 1.25], [491, 10, 12, 2.47], [2335, 3, 7, 2.99], [9965, 2, 7, 5.0], [12764, 2, 8, 0.94], [95, 3, 22, 5.0], [11930, 1, 7, 1.12], [11739, 2, 64, 3.36], [5812, 3, 584, 4.96], [9082, 3, 2761, 2.92], [12338, 29, 59, 2.45], [11953, 1, 217, 5.04], [336, 15, 124, 2.08], [22317, 3, 345, 4.24], [11490, 1, 120, 1.84], [11767, 1, 162, 4.13], [7705, 2, 201, 2.83], [957, 2, 105, 2.62], [308, 1, 177, 4.86], [972, 1, 111, 3.39], [12721, 2, 318, 2.31], [6497, 1, 38, 2.1], [2912, 2, 436, 1.95], [3475, 2, 66, 2.98], [12344, 1, 669, 6.0], [12229, 2, 173, 1.98], [9372, 1, 256, 4.99], [8673, 2, 315, 5.25], [161, 3, 784, 5.14], [7708, 2, 201, 2.97], [110, 4, 221, 6.0], [1523, 1, 52, 6.0], [20486, 3, 595, 3.29], [5813, 3, 573, 5.21], [1080, 3, 154, 3.03], [1703, 2, 173, 5.83], [74, 1, 191, 6.0], [12351, 1, 669, 6.0], [10387, 2, 205, 2.29], [159, 1, 24, 1.92], [13286, 1, 357, 4.01], [13893, 2, 301, 5.66], [10149, 3, 989, 3.91], [8897, 3, 294, 5.82], [14037, 3, 371, 3.18], [1895, 3, 308, 5.3], [11510, 3, 663, 2.02], [2104, 3, 370, 3.83], [10181, 26, 136, 3.87], [159, 16, 49, 1.93], [3900, 3, 49, 2.91], [5811, 3, 573, 6.0], [10410, 10, 1216, 5.39], [9827, 3, 94, 3.36], [9971, 2, 288, 5.46], [942, 3, 331, 4.01], [13281, 1, 357, 3.11], [2805, 137, 194, 4.96], [335, 3, 1325, 5.12], [10581, 3, 205, 5.17], [1548, 1, 103, 4.05], [10093, 3, 947, 1.94], [10936, 2, 148, 4.57], [8676, 2, 291, 4.79], [7707, 2, 180, 2.62], [491, 10, 484, 3.58], [2335, 3, 151, 4.04], [9965, 2, 288, 6.0], [12764, 2, 839, 2.05], [95, 3, 947, 6.0], [11930, 1, 170, 2.24]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 18, 2.16], [3, 2, 17, 1.22], [75, 2, 9, 1.51], [1776, 1, 7, 2.22], [1777, 1, 7, 1.72], [20252, 2, 7, 5.0], [345, 3, 7, 0.51], [201, 3, 7, 0.51], [6936, 2, 10, 5.0], [8648, 2, 7, 5.0], [88, 10, 26, 1.69], [12721, 2, 12, 4.18], [57, 1, 7, 0.69], [1007, 2, 10, 2.02], [3478, 2, 9, 3.15], [21793, 1, 7, 4.58], [45, 2, 11, 2.4], [10149, 3, 36, 3.47], [308, 1, 7, 2.71], [8650, 2, 9, 3.2], [9507, 3, 7, 1.31], [7004, 1, 7, 2.54], [413, 1, 7, 2.09], [74, 1, 9, 3.5], [7084, 3, 7, 2.02], [13028, 3, 9, 1.61], [346, 1, 7, 0.92], [10825, 21, 13, 1.49], [168, 3, 7, 1.91], [6158, 2, 9, 1.87], [9827, 3, 7, 2.91], [1124, 2, 10, 1.63], [5208, 3, 13, 3.86], [5081, 2, 7, 1.12], [3889, 1, 7, 4.45], [214, 3, 15, 2.48], [94, 4, 9, 4.75], [414, 1, 7, 2.09], [7005, 1, 9, 1.96], [1492, 1, 9, 0.5], [3893, 1, 7, 3.59], [335, 3, 22, 2.17], [24664, 2, 9, 3.9], [1654, 2, 7, 1.5], [8675, 2, 10, 1.69], [410, 1, 7, 3.12], [8674, 2, 7, 1.89], [25, 1, 9, 2.41], [416, 1, 7, 2.09], [7567, 3, 7, 3.33], [3891, 1, 7, 4.49], [1490, 1, 7, 2.68], [2878, 1, 7, 2.66], [1622, 1, 12, 2.19], [998, 2, 7, 2.66], [1006, 2, 9, 1.49], [1504, 2, 7, 2.31], [8853, 2, 9, 4.17], [9069, 1, 7, 0.75], [5660, 2, 9, 3.91], [9690, 1, 9, 4.8], [24257, 1, 11, 3.81], [1656, 2, 7, 3.0], [9829, 3, 7, 3.25], [126, 2, 7, 1.17], [997, 2, 11, 3.77], [11914, 1, 12, 2.39], [20927, 1, 7, 3.27], [20498, 1, 7, 3.16], [5209, 3, 9, 4.92], [27, 1, 7, 1.64], [147, 1, 7, 2.0], [5086, 1, 7, 0.89], [952, 4, 7, 4.58], [996, 2, 7, 3.61], [1070, 7, 13, 2.51], [82, 2, 9, 2.5], [148, 1, 7, 2.0], [22316, 3, 7, 3.95], [110, 4, 7, 3.47], [10780, 10, 7, 5.0], [346, 3, 8, 1.26], [12661, 1, 7, 2.69], [6097, 80, 7, 0.69], [9081, 3, 12, 0.74], [20498, 3, 10, 2.45], [6097, 29, 7, 0.69], [23611, 3, 9, 3.49], [12924, 1, 9, 0.8], [13034, 3, 12, 5.0], [307, 2, 7, 2.59], [20486, 1, 7, 1.27], [5584, 3, 9, 1.44], [995, 2, 7, 2.55], [11767, 1, 7, 2.07], [6098, 29, 7, 0.87], [11769, 1, 7, 2.06], [3900, 3, 7, 3.02], [2335, 3, 7, 2.32], [9082, 3, 51, 2.47], [2104, 3, 10, 2.97], [8945, 3, 8, 3.91], [6098, 80, 7, 0.87], [2537, 1, 7, 2.93], [345, 1, 7, 2.11], [12349, 1, 7, 5.0], [22317, 3, 8, 1.37], [3048, 3, 7, 3.59], [20486, 3, 8, 0.85], [66, 1, 7, 1.02], [10529, 29, 7, 0.87], [974, 3, 9, 2.1], [3670, 2, 7, 1.0], [66, 16, 7, 1.15], [330, 3, 7, 3.82], [5946, 1, 7, 4.49], [8635, 3, 7, 2.78], [972, 3, 8, 2.02], [11510, 3, 8, 1.49], [13484, 1, 7, 5.0], [215, 4, 7, 3.1], [9828, 3, 7, 4.35], [13033, 3, 8, 4.29], [2729, 3, 7, 3.18], [972, 1, 7, 1.46], [1604, 68, 7, 2.72], [2109, 3, 15, 0.88], [951, 4, 7, 1.27], [491, 10, 12, 2.18], [506, 1, 7, 2.73], [201, 1, 7, 2.07], [229, 1, 7, 2.58], [21946, 1, 7, 1.34], [19047, 3, 7, 0.96], [20969, 3, 8, 1.3], [3475, 2, 7, 3.26], [5086, 1, 203, 1.84], [952, 4, 82, 5.59], [996, 2, 241, 6.0], [1070, 7, 592, 4.37], [148, 1, 95, 2.95], [22316, 3, 285, 5.14], [110, 4, 215, 4.41], [10780, 10, 374, 6.0], [346, 3, 604, 2.96], [12661, 1, 80, 3.64], [6097, 80, 67, 1.89], [9081, 3, 487, 2.68], [20498, 3, 552, 3.9], [6097, 29, 34, 1.89], [23611, 3, 313, 5.95], [12924, 1, 52, 2.16], [13034, 3, 589, 6.0], [307, 2, 161, 3.54], [20486, 1, 96, 2.22], [5584, 3, 234, 2.39], [995, 2, 241, 4.0], [11767, 1, 155, 3.03], [6098, 29, 36, 2.07], [11769, 1, 175, 3.02], [3900, 3, 43, 4.21], [2335, 3, 219, 3.28], [9082, 3, 2572, 4.94], [2104, 3, 361, 3.92], [8945, 3, 506, 5.26], [6098, 80, 72, 2.07], [2537, 1, 34, 3.88], [345, 1, 30, 3.06], [12349, 1, 549, 6.0], [22317, 3, 303, 2.57], [3048, 3, 289, 4.55], [20486, 3, 571, 2.05], [66, 1, 38, 2.47], [10529, 29, 45, 1.82], [974, 3, 152, 3.8], [3670, 2, 221, 2.45], [66, 16, 77, 3.1], [330, 3, 554, 5.03], [5946, 1, 112, 5.44], [8635, 3, 245, 3.63], [972, 3, 643, 2.97], [11510, 3, 633, 2.45], [13484, 1, 177, 6.0], [215, 4, 36, 4.05], [9828, 3, 91, 5.3], [13033, 3, 621, 5.25], [2729, 3, 87, 4.13], [972, 1, 107, 2.41], [1604, 68, 270, 3.67], [2109, 3, 497, 1.83], [951, 4, 109, 2.22], [491, 10, 451, 3.13], [506, 1, 95, 3.68], [201, 1, 32, 3.02], [229, 1, 89, 3.53], [21946, 1, 76, 2.29], [19047, 3, 331, 1.9], [20969, 3, 636, 2.26], [3475, 2, 63, 4.21]]</t>
+  </si>
+  <si>
+    <t>[[589, 2, 8, 2.73], [88, 10, 22, 1.62], [305, 2, 11, 2.78], [615, 2, 7, 0.87], [5493, 2, 9, 2.56], [616, 2, 7, 0.69], [7004, 1, 7, 2.21], [11681, 2, 7, 1.33], [8650, 2, 7, 5.0], [143, 2, 9, 4.75], [8648, 2, 7, 4.93], [7036, 1, 7, 3.92], [10, 2, 7, 1.93], [11685, 2, 9, 5.0], [593, 2, 11, 2.65], [3893, 1, 9, 1.63], [624, 2, 7, 3.21], [146, 2, 12, 4.64], [8938, 2, 7, 1.15], [3891, 1, 9, 1.77], [8853, 2, 7, 4.29], [11404, 2, 7, 0.75], [21793, 1, 7, 1.85], [5208, 3, 11, 2.22], [3980, 4, 10, 1.22], [24257, 1, 9, 4.13], [192, 3, 21, 3.19], [3889, 1, 9, 1.88], [1007, 2, 7, 3.14], [12870, 1, 7, 2.93], [8672, 2, 7, 4.71], [20927, 1, 7, 1.89], [998, 2, 7, 4.08], [1886, 2, 7, 0.92], [2424, 80, 7, 1.96], [997, 2, 7, 2.34], [145, 2, 7, 4.35], [7573, 1, 12, 4.99], [10149, 3, 23, 2.81], [3, 2, 12, 2.2], [6158, 2, 9, 4.1], [12353, 1, 7, 5.0], [346, 3, 7, 3.85], [1622, 1, 7, 2.41], [957, 2, 7, 0.75], [3982, 3, 20, 2.44], [972, 3, 17, 2.67], [996, 2, 9, 1.94], [20252, 2, 7, 3.73], [74, 1, 7, 2.54], [214, 3, 18, 0.71], [5076, 1, 7, 3.18], [1492, 1, 7, 0.87], [11953, 1, 7, 1.01], [12346, 1, 7, 3.76], [4032, 29, 7, 2.08], [12721, 2, 7, 3.66], [6496, 1, 7, 2.74], [12229, 2, 7, 0.81], [1548, 1, 7, 2.89], [4253, 1, 7, 2.2], [23611, 3, 8, 3.99], [7567, 3, 7, 2.37], [12350, 1, 7, 5.0], [5434, 1, 7, 1.93], [12344, 1, 7, 5.0], [22316, 3, 7, 2.88], [3975, 4, 7, 2.57], [6497, 1, 7, 0.89], [8898, 3, 7, 4.7], [346, 1, 7, 4.16], [2424, 29, 7, 1.04], [2438, 2, 12, 0.59], [955, 2, 9, 3.74], [3981, 3, 20, 2.85], [12352, 1, 7, 1.96], [6097, 80, 7, 2.98], [5209, 3, 9, 3.3], [439, 1, 7, 2.83], [8677, 3, 7, 1.75], [972, 1, 7, 2.43], [823, 1, 7, 4.08], [11812, 1, 7, 1.54], [1243, 2, 7, 2.11], [5584, 3, 7, 0.94], [83, 2, 7, 2.01], [10780, 10, 7, 3.64], [4232, 80, 7, 0.77], [22317, 3, 7, 2.81], [2805, 137, 7, 3.26], [10407, 10, 10, 3.82], [12764, 2, 9, 1.06], [1895, 3, 7, 3.51], [8599, 1, 7, 2.25], [7704, 2, 7, 0.75], [7708, 2, 7, 1.54], [5435, 1, 7, 0.8], [71, 15, 7, 1.14], [995, 2, 7, 1.91], [10388, 2, 7, 0.96], [1703, 2, 7, 3.64], [216, 4, 7, 3.1], [8676, 2, 7, 3.68], [11942, 29, 9, 1.63], [956, 2, 7, 3.11], [12728, 1, 7, 0.75], [1233, 1, 7, 1.24], [3979, 3, 16, 2.2], [9372, 1, 7, 3.81], [18964, 1, 7, 0.75], [491, 10, 8, 3.47], [12647, 1, 7, 3.57], [6494, 1, 7, 0.9], [8274, 3, 7, 2.22], [1414, 15, 7, 0.87], [11936, 2, 7, 4.85], [4940, 1, 7, 0.89], [19047, 3, 7, 0.98], [5813, 3, 7, 3.85], [1309, 1, 7, 3.62], [1080, 3, 7, 1.91], [10936, 2, 7, 3.66], [2335, 3, 7, 2.66], [8635, 3, 7, 1.99], [1523, 1, 7, 5.0], [10386, 2, 7, 0.98], [7705, 2, 7, 0.9], [6805, 1, 7, 2.44], [8673, 2, 7, 2.84], [5585, 3, 7, 2.87], [9827, 3, 7, 0.83], [19931, 1, 7, 1.31], [5005, 3, 8, 3.4], [24725, 2, 7, 3.02], [10385, 2, 7, 2.81], [22316, 3, 289, 4.07], [3975, 4, 528, 3.75], [6497, 1, 41, 2.08], [8898, 3, 284, 5.89], [346, 1, 154, 5.35], [2424, 29, 37, 2.23], [2438, 2, 669, 2.68], [955, 2, 97, 5.35], [3981, 3, 1758, 4.05], [12352, 1, 629, 3.16], [6097, 80, 74, 4.17], [5209, 3, 505, 5.15], [439, 1, 94, 4.01], [8677, 3, 306, 2.94], [972, 1, 97, 3.62], [823, 1, 43, 5.27], [11812, 1, 259, 2.73], [1243, 2, 105, 3.3], [5584, 3, 237, 2.38], [10780, 10, 338, 5.33], [4232, 80, 161, 1.95], [22317, 3, 328, 4.0], [2805, 137, 174, 4.45], [10407, 10, 1116, 5.27], [12764, 2, 771, 2.51], [1895, 3, 300, 4.7], [8599, 1, 159, 3.44], [7704, 2, 195, 1.94], [7708, 2, 195, 2.73], [5435, 1, 17, 1.69], [71, 15, 237, 2.32], [995, 2, 254, 3.1], [10388, 2, 222, 2.15], [1703, 2, 173, 4.82], [216, 4, 42, 4.28], [8676, 2, 305, 4.87], [11942, 29, 96, 3.19], [956, 2, 61, 4.29], [12728, 1, 334, 1.94], [1233, 1, 65, 2.43], [3979, 3, 817, 3.38], [9372, 1, 250, 5.0], [491, 10, 468, 4.66], [12647, 1, 229, 4.76], [6494, 1, 56, 2.09], [1414, 15, 110, 2.05], [11936, 2, 143, 6.0], [4940, 1, 131, 2.08], [19047, 3, 332, 2.17], [5813, 3, 617, 5.04], [1309, 1, 55, 4.81], [1080, 3, 149, 3.1], [10936, 2, 143, 4.85], [2335, 3, 98, 3.66], [1523, 1, 50, 6.0], [10386, 2, 222, 2.17], [7705, 2, 195, 2.08], [6805, 1, 544, 3.63], [8673, 2, 303, 4.03], [5585, 3, 243, 4.06], [9827, 3, 93, 2.02], [19931, 1, 472, 2.5], [5005, 3, 910, 4.6], [24725, 2, 68, 4.21], [10385, 2, 200, 4.0]]</t>
+  </si>
+  <si>
+    <t>[[130, 1, 9, 0.65], [5493, 2, 9, 2.7], [615, 2, 7, 0.67], [205, 2, 7, 0.72], [144, 2, 7, 2.16], [11681, 2, 7, 2.04], [589, 2, 8, 2.73], [7036, 1, 7, 2.28], [6936, 2, 7, 3.0], [616, 2, 7, 1.63], [3980, 4, 9, 2.38], [8648, 2, 7, 3.3], [3893, 1, 9, 1.91], [593, 2, 9, 3.29], [8650, 2, 11, 2.98], [141, 2, 11, 2.72], [7004, 1, 7, 2.48], [3891, 1, 9, 1.88], [206, 2, 7, 0.71], [10, 2, 9, 0.75], [21798, 1, 7, 1.83], [3889, 1, 9, 1.88], [146, 2, 11, 3.28], [3840, 1, 7, 0.87], [12870, 1, 17, 4.36], [8853, 2, 7, 2.14], [362, 2, 7, 1.81], [2054, 3, 7, 1.54], [624, 2, 7, 2.5], [2050, 3, 7, 1.54], [10993, 2, 11, 2.51], [94, 4, 7, 3.34], [8672, 2, 7, 2.97], [5165, 1, 7, 0.87], [145, 2, 7, 4.94], [5208, 3, 10, 2.85], [21793, 1, 7, 1.16], [3495, 3, 32, 3.39], [11404, 2, 9, 1.03], [2057, 3, 7, 1.54], [12349, 1, 7, 2.97], [6158, 2, 7, 1.77], [2912, 1, 7, 2.41], [12350, 1, 7, 3.66], [1006, 2, 7, 1.56], [12353, 1, 9, 3.6], [201, 3, 14, 3.54], [10574, 3, 8, 4.55], [996, 2, 7, 3.88], [345, 3, 7, 2.19], [12229, 2, 7, 0.87], [956, 2, 9, 3.22], [140, 2, 7, 2.82], [1492, 1, 9, 1.17], [8677, 3, 7, 3.52], [7567, 3, 7, 3.07], [5165, 2, 10, 0.82], [2436, 4, 7, 3.94], [4176, 4, 7, 2.51], [11953, 1, 7, 1.77], [5946, 1, 9, 1.89], [74, 1, 7, 5.0], [12212, 29, 7, 0.83], [214, 3, 15, 2.81], [346, 3, 7, 4.83], [22317, 3, 7, 4.42], [972, 3, 8, 3.0], [6497, 1, 7, 0.89], [12721, 2, 9, 3.25], [2336, 3, 8, 4.76], [2912, 2, 12, 2.46], [336, 15, 7, 0.85], [307, 2, 7, 2.44], [439, 1, 7, 2.05], [957, 2, 7, 1.0], [823, 1, 7, 2.44], [11490, 1, 7, 0.72], [12346, 1, 7, 5.0], [13023, 3, 8, 0.76], [3, 2, 7, 2.61], [1124, 2, 9, 2.5], [14037, 3, 7, 2.06], [12344, 1, 7, 4.44], [13928, 1, 7, 0.92], [11952, 1, 7, 3.21], [6494, 1, 7, 0.87], [10149, 3, 21, 1.49], [11180, 1, 7, 2.72], [411, 2, 7, 0.72], [24258, 1, 9, 5.0], [5209, 3, 7, 3.7], [12924, 1, 7, 1.29], [2104, 3, 10, 0.95], [1523, 1, 7, 5.0], [5435, 1, 7, 1.04], [8676, 2, 7, 3.68], [8673, 2, 7, 4.14], [24260, 1, 7, 1.73], [3983, 4, 7, 2.38], [9069, 1, 7, 4.52], [346, 1, 7, 5.0], [491, 10, 12, 2.47], [2805, 137, 9, 3.84], [20486, 3, 8, 1.92], [10936, 2, 7, 3.45], [10408, 10, 15, 2.29], [11089, 1, 7, 4.35], [8675, 2, 7, 2.77], [972, 1, 7, 2.27], [19047, 3, 7, 1.15], [95, 3, 22, 1.89], [5164, 1, 7, 0.98], [10388, 2, 7, 1.25], [8898, 3, 7, 4.7], [159, 16, 7, 0.92], [6952, 1, 7, 4.06], [590, 15, 7, 2.64], [11930, 1, 7, 1.12], [13244, 1, 7, 0.85], [1703, 2, 7, 4.71], [2335, 3, 7, 2.99], [10937, 2, 7, 1.71], [159, 3, 10, 0.67], [1895, 3, 7, 4.19], [2438, 2, 8, 1.15], [4175, 3, 14, 1.7], [12764, 2, 8, 0.94], [3337, 1, 7, 1.58], [2879, 1, 7, 1.84], [974, 3, 7, 1.02], [3475, 2, 7, 1.87], [10780, 10, 7, 2.14], [3338, 1, 7, 4.42], [8635, 3, 7, 2.78], [5584, 3, 7, 3.37], [12721, 2, 302, 4.87], [2336, 3, 567, 6.0], [336, 15, 117, 2.47], [307, 2, 164, 3.55], [439, 1, 97, 3.16], [957, 2, 105, 2.62], [823, 1, 41, 3.56], [11490, 1, 120, 1.84], [12346, 1, 669, 6.0], [13023, 3, 683, 1.88], [3, 2, 130, 3.73], [1124, 2, 187, 3.87], [14037, 3, 371, 3.18], [12344, 1, 611, 5.56], [13928, 1, 54, 2.04], [11952, 1, 222, 4.33], [6494, 1, 58, 1.99], [10149, 3, 882, 2.87], [11180, 1, 97, 3.84], [411, 2, 120, 1.84], [24258, 1, 141, 6.0], [5209, 3, 534, 4.81], [12924, 1, 60, 2.41], [2104, 3, 342, 2.32], [1523, 1, 52, 6.0], [8676, 2, 291, 4.79], [8673, 2, 315, 5.25], [24260, 1, 149, 2.85], [3983, 4, 543, 3.49], [9069, 1, 123, 5.63], [346, 1, 141, 6.0], [491, 10, 484, 3.58], [2805, 137, 194, 4.96], [20486, 3, 595, 3.29], [10936, 2, 148, 4.57], [10408, 10, 817, 4.39], [11089, 1, 169, 5.47], [8675, 2, 317, 3.89], [972, 1, 111, 3.39], [19047, 3, 309, 2.27], [95, 3, 947, 3.26], [5164, 1, 49, 2.35], [10388, 2, 225, 2.37], [8898, 3, 294, 5.82], [159, 16, 49, 1.93], [6952, 1, 202, 5.18], [590, 15, 98, 3.76], [11930, 1, 170, 2.24], [13244, 1, 56, 1.97], [1703, 2, 173, 5.83], [2335, 3, 151, 4.04], [10937, 2, 148, 2.83], [159, 3, 713, 2.01], [1895, 3, 308, 5.3], [2438, 2, 720, 2.26], [4175, 3, 1816, 2.79], [12764, 2, 839, 2.05], [3337, 1, 149, 2.7], [2879, 1, 14, 2.67], [974, 3, 169, 2.14], [3475, 2, 66, 2.98], [10780, 10, 409, 3.25], [3338, 1, 115, 5.53], [5584, 3, 262, 4.48]]</t>
+  </si>
+  <si>
+    <t>[[5491, 2, 7, 1.91], [11685, 2, 7, 3.45], [8650, 2, 9, 3.29], [5493, 2, 7, 0.89], [8672, 2, 10, 1.46], [6935, 2, 17, 1.26], [1124, 2, 12, 1.16], [11681, 2, 11, 2.05], [2778, 2, 9, 3.58], [6936, 2, 13, 2.0], [12721, 2, 9, 4.7], [305, 2, 14, 1.94], [1446, 2, 7, 1.94], [8676, 2, 7, 3.04], [413, 1, 7, 2.16], [990, 2, 9, 1.88], [8673, 2, 7, 2.21], [21793, 1, 7, 1.4], [615, 2, 7, 2.95], [593, 2, 11, 1.17], [8675, 2, 11, 1.81], [1429, 2, 7, 4.31], [6158, 2, 13, 1.29], [434, 2, 7, 4.16], [7705, 2, 9, 1.64], [8938, 2, 7, 2.55], [145, 2, 9, 3.34], [88, 10, 17, 2.57], [201, 3, 14, 4.22], [7704, 2, 9, 1.77], [308, 1, 22, 3.87], [146, 2, 7, 2.68], [2055, 3, 7, 3.69], [7886, 4, 9, 1.34], [2054, 3, 7, 3.69], [12349, 1, 7, 2.97], [10993, 2, 9, 1.83], [75, 2, 7, 4.55], [2057, 3, 7, 3.49], [345, 3, 9, 4.25], [3495, 3, 21, 0.85], [5165, 1, 7, 0.87], [9784, 1, 7, 3.73], [7885, 4, 7, 1.81], [2050, 3, 8, 3.49], [10149, 3, 21, 2.21], [60, 3, 9, 5.0], [414, 1, 7, 2.16], [2423, 80, 7, 2.61], [144, 2, 7, 4.2], [2703, 3, 7, 5.0], [22316, 3, 7, 3.03], [12344, 1, 7, 5.0], [13023, 3, 10, 3.32], [1886, 2, 7, 2.68], [2424, 29, 7, 2.77], [2859, 15, 7, 2.58], [5812, 3, 9, 3.92], [2424, 80, 7, 3.68], [6952, 1, 7, 4.04], [3891, 1, 7, 3.61], [3893, 1, 7, 3.39], [6494, 1, 7, 0.87], [13034, 3, 8, 3.0], [2423, 29, 7, 1.17], [22558, 3, 7, 2.64], [952, 4, 7, 3.62], [192, 3, 17, 4.09], [12343, 1, 7, 4.95], [1414, 15, 7, 1.06], [94, 4, 7, 3.29], [410, 1, 7, 3.12], [7005, 1, 7, 2.6], [3, 2, 7, 2.6], [5946, 1, 7, 3.43], [7708, 2, 7, 2.51], [2331, 1, 7, 4.6], [5729, 2, 7, 2.09], [7703, 2, 7, 2.39], [3980, 4, 7, 2.22], [5208, 3, 9, 3.96], [5811, 3, 7, 5.0], [1490, 1, 7, 3.87], [7707, 2, 7, 1.5], [13033, 3, 9, 3.75], [3889, 1, 7, 3.61], [1274, 1, 7, 3.4], [5584, 3, 7, 3.85], [3429, 15, 7, 1.23], [7887, 4, 7, 1.78], [11089, 1, 7, 2.6], [5813, 3, 8, 5.0], [11161, 1, 13, 4.5], [22317, 3, 7, 4.52], [3981, 3, 21, 2.74], [1492, 1, 7, 2.91], [6630, 3, 7, 2.27], [1309, 1, 7, 3.61], [12373, 1, 11, 3.25], [11586, 1, 21, 4.26], [11769, 1, 7, 2.71], [2912, 1, 7, 0.77], [8274, 3, 7, 3.68], [1661, 3, 7, 4.08], [24257, 1, 7, 4.03], [957, 2, 7, 1.94], [12345, 1, 7, 0.99], [823, 1, 7, 2.61], [10897, 1, 13, 0.88], [12925, 1, 7, 0.92], [1699, 3, 7, 2.79], [5165, 2, 8, 0.79], [1667, 3, 7, 4.08], [9082, 3, 25, 1.11], [10398, 2, 7, 2.88], [2991, 3, 7, 3.9], [11288, 2, 7, 0.96], [8897, 3, 7, 4.35], [23611, 3, 8, 3.57], [6496, 1, 7, 2.77], [515, 24, 7, 3.79], [956, 2, 7, 1.98], [9690, 1, 7, 2.77], [944, 15, 7, 0.92], [21269, 3, 7, 4.79], [6497, 1, 7, 1.08], [3028, 3, 7, 0.87], [1050, 2, 7, 3.18], [10516, 3, 8, 2.84], [20969, 3, 7, 2.05], [9068, 1, 7, 0.96], [955, 2, 7, 2.06], [95, 3, 15, 4.66], [10410, 10, 10, 5.0], [9760, 29, 7, 4.31], [1414, 15, 115, 2.33], [94, 4, 130, 4.55], [7005, 1, 87, 3.86], [3, 2, 118, 3.86], [5946, 1, 125, 4.69], [7708, 2, 202, 3.78], [2331, 1, 118, 5.87], [5729, 2, 57, 3.35], [7703, 2, 202, 3.66], [3980, 4, 554, 3.49], [5208, 3, 612, 5.24], [5811, 3, 647, 6.0], [1490, 1, 55, 5.13], [7707, 2, 202, 2.77], [13033, 3, 612, 5.02], [3889, 1, 125, 4.88], [1274, 1, 89, 4.67], [5584, 3, 259, 5.12], [3429, 15, 61, 2.5], [11089, 1, 193, 3.87], [5813, 3, 579, 6.0], [11161, 1, 530, 5.76], [22317, 3, 338, 5.79], [3981, 3, 1844, 4.0], [1492, 1, 42, 4.18], [6630, 3, 112, 3.54], [1309, 1, 58, 4.88], [12373, 1, 552, 4.51], [11586, 1, 382, 5.52], [11769, 1, 173, 3.97], [2912, 1, 56, 2.04], [8274, 3, 381, 4.95], [1661, 3, 220, 5.34], [24257, 1, 150, 5.3], [957, 2, 115, 3.21], [12345, 1, 666, 2.26], [823, 1, 42, 3.88], [10897, 1, 409, 2.14], [12925, 1, 74, 2.19], [1699, 3, 220, 4.06], [5165, 2, 441, 2.06], [1667, 3, 220, 5.34], [9082, 3, 2864, 2.38], [10398, 2, 164, 4.15], [2991, 3, 175, 5.16], [11288, 2, 105, 2.23], [8897, 3, 293, 5.62], [23611, 3, 343, 4.84], [6496, 1, 46, 4.04], [515, 24, 217, 5.06], [956, 2, 115, 3.25], [9690, 1, 83, 4.03], [944, 15, 50, 2.19], [21269, 3, 304, 6.0], [6497, 1, 43, 2.35], [3028, 3, 190, 2.13], [1050, 2, 112, 4.44], [10516, 3, 673, 4.1], [20969, 3, 677, 3.32], [9068, 1, 140, 2.23], [955, 2, 111, 3.33], [95, 3, 962, 5.91], [10410, 10, 1171, 6.0], [9760, 29, 79, 5.58]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 12, 2.19], [6936, 2, 13, 1.23], [2776, 2, 7, 3.47], [8853, 2, 9, 4.03], [145, 2, 11, 2.51], [12721, 2, 10, 2.87], [8673, 2, 11, 3.16], [11681, 2, 11, 2.05], [8675, 2, 8, 1.61], [143, 2, 9, 3.73], [146, 2, 9, 1.41], [5491, 2, 7, 2.21], [616, 2, 7, 2.64], [205, 2, 9, 2.71], [1124, 2, 12, 2.46], [6097, 80, 7, 0.94], [144, 2, 9, 2.82], [8676, 2, 7, 3.24], [8650, 2, 7, 4.27], [6097, 29, 7, 1.19], [3, 2, 7, 2.6], [990, 2, 9, 2.57], [589, 2, 7, 1.53], [206, 2, 7, 2.47], [88, 10, 17, 2.57], [6098, 80, 7, 2.15], [593, 2, 15, 2.2], [326, 2, 7, 0.99], [75, 2, 7, 4.44], [6158, 2, 9, 3.78], [1492, 1, 7, 2.12], [7704, 2, 7, 2.2], [345, 3, 7, 4.85], [24722, 2, 12, 2.13], [6496, 1, 7, 2.77], [2859, 15, 7, 2.58], [1490, 1, 7, 3.87], [1413, 15, 7, 2.15], [434, 2, 7, 2.53], [7705, 2, 7, 1.51], [432, 3, 7, 4.99], [411, 2, 7, 1.23], [1243, 2, 7, 1.46], [346, 3, 8, 5.0], [346, 1, 7, 3.5], [7886, 4, 7, 1.36], [10149, 3, 21, 1.48], [2703, 3, 7, 3.63], [22316, 3, 7, 2.63], [24257, 1, 9, 3.79], [5208, 3, 9, 3.21], [201, 3, 7, 4.05], [7708, 2, 7, 1.51], [12346, 1, 7, 4.0], [12229, 2, 7, 0.92], [1409, 15, 7, 0.75], [2331, 1, 7, 4.49], [21793, 1, 11, 4.66], [10407, 10, 10, 4.35], [96, 11, 24, 3.95], [515, 24, 7, 3.7], [1886, 2, 7, 1.54], [13023, 3, 12, 4.16], [11404, 2, 8, 0.92], [94, 4, 7, 4.54], [20927, 1, 7, 3.89], [11844, 2, 7, 4.08], [7036, 1, 7, 3.89], [20682, 1, 7, 0.68], [9690, 1, 7, 4.99], [7885, 4, 7, 3.23], [11490, 1, 7, 2.16], [7005, 1, 7, 3.89], [12347, 1, 7, 5.0], [10410, 10, 10, 5.0], [5584, 3, 7, 3.85], [159, 16, 7, 0.89], [12350, 1, 7, 5.0], [21798, 1, 7, 3.99], [11687, 2, 7, 0.81], [11161, 1, 13, 4.15], [20680, 1, 7, 1.34], [12870, 1, 7, 4.33], [10408, 10, 10, 0.96], [98, 11, 24, 5.0], [12053, 2, 7, 2.0], [965, 1, 7, 2.96], [3104, 1, 7, 1.73], [24724, 2, 13, 1.95], [11164, 1, 7, 5.0], [1139, 3, 7, 0.73], [410, 1, 7, 3.53], [5976, 1, 7, 3.72], [8600, 1, 7, 3.95], [11690, 2, 8, 0.7], [7707, 2, 7, 2.08], [9186, 29, 7, 0.83], [10411, 10, 10, 0.9], [21781, 2, 7, 0.73], [5209, 3, 8, 3.26], [11159, 1, 14, 5.0], [12055, 2, 7, 2.0], [11689, 2, 7, 0.69], [4253, 1, 7, 3.85], [12924, 1, 7, 0.89], [10409, 10, 10, 2.82], [9081, 3, 15, 3.43], [3495, 3, 21, 0.85], [24258, 1, 7, 4.27], [22125, 2, 7, 0.69], [4372, 1, 7, 0.94], [5076, 1, 7, 3.96], [24256, 1, 7, 4.03], [11510, 3, 8, 5.0], [11304, 2, 7, 0.9], [12304, 1, 7, 4.93], [955, 2, 7, 5.0], [1648, 1, 7, 3.84], [247, 1, 7, 2.08], [951, 4, 7, 0.98], [13028, 3, 7, 4.17], [3891, 1, 7, 4.02], [8659, 1, 7, 2.81], [23611, 3, 8, 4.06], [95, 3, 15, 1.64], [3477, 2, 7, 2.06], [2436, 4, 7, 3.19], [12764, 2, 8, 2.16], [8635, 3, 7, 4.11], [7558, 3, 7, 0.73], [8274, 3, 7, 4.27], [13489, 1, 7, 0.69], [5869, 1, 7, 5.0], [21010, 2, 7, 4.76], [942, 3, 7, 2.5], [9491, 21, 16, 3.31], [20682, 1, 716, 1.96], [9690, 1, 74, 6.0], [7885, 4, 155, 4.49], [7005, 1, 88, 5.16], [12347, 1, 673, 6.0], [10410, 10, 1171, 6.0], [5584, 3, 259, 5.12], [12350, 1, 673, 6.0], [21798, 1, 150, 5.25], [11687, 2, 345, 2.07], [11161, 1, 518, 5.42], [20680, 1, 716, 2.62], [12870, 1, 153, 5.59], [10408, 10, 874, 2.23], [98, 11, 841, 6.0], [12053, 2, 641, 3.26], [965, 1, 27, 4.23], [3104, 1, 344, 3.0], [24724, 2, 65, 3.22], [11164, 1, 449, 6.0], [410, 1, 116, 4.8], [5976, 1, 178, 4.99], [8600, 1, 147, 5.22], [11690, 2, 173, 1.78], [7707, 2, 202, 3.34], [9186, 29, 99, 2.09], [10411, 10, 869, 2.17], [21781, 2, 45, 1.69], [5209, 3, 568, 4.52], [11159, 1, 539, 6.0], [12055, 2, 641, 3.26], [11689, 2, 345, 1.95], [4253, 1, 185, 5.11], [12924, 1, 57, 2.38], [10409, 10, 1980, 4.12], [9081, 3, 536, 4.69], [3495, 3, 1151, 2.12], [24258, 1, 150, 5.54], [4372, 1, 76, 2.21], [5076, 1, 135, 5.22], [24256, 1, 150, 5.29], [11510, 3, 647, 6.0], [11304, 2, 105, 2.17], [12304, 1, 106, 6.0], [955, 2, 109, 6.0], [1648, 1, 52, 5.1], [247, 1, 99, 3.35], [951, 4, 116, 2.25], [13028, 3, 150, 5.44], [3891, 1, 132, 5.28], [8659, 1, 124, 4.07], [23611, 3, 337, 5.33], [95, 3, 1151, 2.91], [3477, 2, 59, 3.32], [2436, 4, 122, 4.45], [12764, 2, 836, 3.43], [8635, 3, 374, 5.38], [8274, 3, 374, 5.53], [13489, 1, 142, 1.96], [5869, 1, 238, 6.0], [21010, 2, 321, 6.0], [942, 3, 337, 3.77], [9491, 21, 2321, 4.55]]</t>
+  </si>
+  <si>
+    <t>[[3, 2, 7, 0.87], [8675, 2, 9, 1.19], [8676, 2, 7, 1.94], [6936, 2, 11, 1.9], [305, 2, 12, 1.98], [8674, 2, 7, 0.9], [2327, 2, 7, 1.93], [6097, 80, 7, 1.69], [8650, 2, 7, 4.27], [6097, 29, 7, 1.0], [411, 2, 7, 1.54], [2805, 137, 10, 3.66], [326, 2, 9, 1.97], [6496, 1, 7, 2.77], [6098, 80, 7, 1.84], [192, 3, 26, 3.96], [75, 2, 7, 4.49], [2057, 3, 7, 4.41], [11504, 2, 7, 1.24], [434, 2, 7, 3.43], [10149, 3, 21, 2.21], [2054, 3, 7, 4.41], [1886, 2, 7, 3.88], [88, 10, 17, 4.23], [1413, 15, 7, 2.43], [1243, 2, 7, 1.46], [5812, 3, 9, 5.0], [6158, 2, 13, 2.52], [8915, 2, 7, 3.5], [436, 2, 7, 3.45], [944, 15, 7, 0.83], [21793, 1, 11, 4.66], [107, 2, 7, 1.12], [1409, 15, 7, 0.73], [1414, 15, 7, 0.69], [140, 2, 7, 5.0], [22316, 3, 7, 0.81], [201, 3, 9, 3.37], [5208, 3, 9, 2.44], [5813, 3, 8, 4.39], [1699, 3, 7, 3.03], [12344, 1, 7, 2.91], [94, 4, 7, 3.29], [23920, 2, 7, 2.55], [4253, 1, 7, 3.92], [10398, 2, 7, 2.88], [307, 2, 7, 1.57], [3495, 3, 21, 0.85], [7004, 1, 7, 2.87], [24724, 2, 13, 2.05], [11671, 1, 7, 3.76], [8599, 1, 7, 5.0], [515, 24, 7, 2.85], [1309, 1, 7, 3.88], [11489, 1, 7, 3.11], [9491, 21, 16, 3.31], [13962, 1, 7, 0.92], [229, 1, 7, 5.0], [5584, 3, 7, 1.79], [11887, 2, 7, 0.85], [8659, 1, 7, 1.39], [8085, 1, 7, 1.68], [13266, 29, 7, 0.85], [410, 1, 7, 3.53], [1701, 2, 7, 4.67], [9209, 29, 9, 3.69], [18964, 1, 7, 0.75], [9690, 1, 7, 4.06], [7573, 1, 7, 5.0], [7036, 1, 7, 3.89], [2438, 2, 8, 5.0], [105, 3, 7, 3.29], [12764, 2, 8, 0.84], [964, 15, 7, 3.93], [1523, 1, 7, 5.0], [2438, 1, 7, 3.07], [21269, 3, 7, 4.79], [7005, 1, 7, 2.79], [13023, 3, 12, 4.16], [22125, 2, 7, 0.69], [4940, 1, 7, 0.87], [1274, 1, 7, 2.09], [955, 2, 7, 5.0], [11808, 1, 7, 3.35], [11081, 3, 7, 3.91], [21781, 2, 7, 0.73], [7885, 4, 7, 3.23], [9208, 29, 7, 3.34], [963, 3, 7, 2.66], [24127, 3, 7, 0.71], [4001, 3, 14, 3.01], [1648, 1, 7, 3.95], [439, 1, 7, 5.0], [11690, 2, 8, 0.7], [13033, 3, 9, 2.99], [6575, 3, 7, 2.89], [24723, 2, 7, 2.44], [8635, 3, 7, 4.11], [11678, 1, 7, 2.74], [11677, 1, 7, 2.65], [8274, 3, 7, 4.27], [520, 3, 7, 2.48], [5733, 2, 7, 1.94], [11689, 2, 7, 0.69], [10406, 10, 12, 3.06], [21783, 2, 7, 0.83], [20978, 1, 7, 2.46], [13034, 3, 8, 2.12], [965, 1, 7, 3.33], [3673, 2, 7, 2.87], [10994, 2, 7, 2.32], [942, 3, 7, 2.5], [11625, 29, 7, 1.04], [3984, 3, 10, 2.22], [11687, 2, 7, 0.81], [382, 1, 7, 1.33], [9069, 1, 7, 3.29], [11812, 1, 7, 1.74], [11089, 1, 7, 4.27], [20682, 1, 7, 0.68], [7558, 3, 7, 0.73], [12347, 1, 7, 2.91], [2188, 1, 7, 0.75], [10407, 10, 10, 4.31], [10408, 10, 10, 0.96], [3979, 3, 10, 2.63], [5976, 1, 7, 4.93], [10409, 10, 10, 2.82], [3975, 4, 7, 2.51], [4176, 4, 7, 2.35], [11510, 3, 8, 5.0], [3016, 68, 7, 4.81], [88, 1, 7, 3.43], [20977, 1, 7, 2.47], [24725, 2, 7, 3.11], [7036, 1, 143, 5.15], [2438, 2, 650, 6.0], [105, 3, 256, 5.06], [12764, 2, 852, 2.1], [964, 15, 108, 5.33], [1523, 1, 52, 6.0], [2438, 1, 54, 4.34], [21269, 3, 304, 6.0], [7005, 1, 87, 4.05], [13023, 3, 603, 5.92], [4940, 1, 137, 2.14], [1274, 1, 88, 3.36], [955, 2, 109, 6.0], [11808, 1, 518, 4.62], [11081, 3, 396, 5.18], [21781, 2, 45, 1.69], [7885, 4, 155, 4.49], [9208, 29, 36, 4.61], [963, 3, 421, 3.93], [24127, 3, 279, 1.98], [4001, 3, 904, 4.27], [1648, 1, 52, 5.22], [439, 1, 95, 6.0], [11690, 2, 173, 1.78], [13033, 3, 596, 4.27], [6575, 3, 280, 4.16], [24723, 2, 65, 3.7], [8635, 3, 374, 5.38], [11678, 1, 467, 4.0], [11677, 1, 467, 3.92], [8274, 3, 374, 5.53], [520, 3, 216, 3.75], [5733, 2, 57, 3.21], [11689, 2, 345, 1.95], [10406, 10, 1797, 4.35], [21783, 2, 83, 2.07], [20978, 1, 43, 3.73], [13034, 3, 596, 3.4], [965, 1, 27, 4.59], [3673, 2, 261, 4.14], [10994, 2, 61, 3.59], [942, 3, 337, 3.77], [11625, 29, 104, 2.3], [3984, 3, 1870, 3.5], [11687, 2, 345, 2.07], [382, 1, 187, 2.6], [9069, 1, 127, 4.55], [11812, 1, 271, 3.01], [11089, 1, 188, 5.54], [20682, 1, 716, 1.96], [12347, 1, 654, 4.17], [2188, 1, 78, 2.02], [10407, 10, 1151, 5.57], [10408, 10, 874, 2.23], [3979, 3, 904, 3.89], [5976, 1, 173, 6.0], [10409, 10, 1980, 4.12], [3975, 4, 556, 3.79], [4176, 4, 556, 3.62], [11510, 3, 647, 6.0], [3016, 68, 53, 6.0], [88, 1, 13, 4.7], [20977, 1, 43, 3.73], [24725, 2, 69, 4.38]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 21, 2.06], [5491, 2, 7, 3.55], [8672, 2, 21, 4.28], [8650, 2, 7, 4.39], [6936, 2, 14, 2.62], [5493, 2, 7, 2.75], [143, 2, 17, 2.93], [75, 2, 9, 3.02], [145, 2, 9, 1.71], [205, 2, 7, 0.97], [8673, 2, 9, 4.26], [88, 10, 27, 1.95], [146, 2, 11, 1.38], [990, 2, 9, 1.25], [308, 1, 22, 5.0], [12721, 2, 9, 3.6], [206, 2, 7, 1.65], [326, 2, 7, 0.67], [7704, 2, 11, 1.98], [8675, 2, 17, 3.1], [1005, 2, 9, 1.37], [2424, 29, 7, 0.81], [144, 2, 7, 1.17], [6158, 2, 13, 1.29], [8676, 2, 14, 4.19], [2497, 2, 7, 3.09], [2424, 80, 7, 0.87], [1413, 15, 7, 2.15], [192, 3, 17, 3.55], [3, 2, 7, 2.6], [74, 1, 7, 2.24], [345, 3, 7, 2.16], [60, 3, 9, 3.97], [2859, 15, 7, 2.58], [2774, 2, 7, 4.49], [94, 4, 7, 2.5], [7084, 3, 7, 2.95], [2054, 3, 7, 3.69], [346, 1, 7, 2.91], [201, 3, 7, 2.11], [7703, 2, 7, 2.23], [22316, 3, 7, 3.3], [1409, 15, 7, 0.98], [2055, 3, 7, 3.69], [3893, 1, 7, 3.46], [6630, 3, 7, 0.87], [346, 3, 8, 2.91], [13028, 3, 7, 4.54], [10149, 3, 21, 2.21], [1050, 2, 7, 1.24], [24257, 1, 9, 4.3], [11581, 29, 7, 2.75], [13034, 3, 8, 3.0], [6097, 80, 7, 1.79], [6628, 3, 7, 3.24], [2057, 3, 7, 3.69], [13023, 3, 15, 4.43], [3477, 2, 7, 2.06], [6627, 3, 7, 0.78], [3891, 1, 7, 3.46], [3889, 1, 7, 3.46], [11919, 1, 7, 1.1], [12343, 1, 7, 2.95], [1243, 2, 7, 2.42], [5812, 3, 9, 4.1], [951, 4, 7, 3.28], [21793, 1, 11, 1.4], [8274, 3, 9, 2.86], [11089, 1, 7, 1.87], [7036, 1, 7, 2.95], [9827, 3, 7, 1.48], [12345, 1, 7, 5.0], [411, 2, 7, 1.72], [7005, 1, 7, 4.87], [5811, 3, 7, 5.0], [9126, 1, 7, 1.96], [2050, 3, 8, 3.39], [6496, 1, 7, 2.77], [515, 24, 7, 4.31], [22317, 3, 7, 4.52], [13033, 3, 9, 1.98], [9124, 1, 7, 1.6], [1490, 1, 7, 3.87], [12229, 2, 9, 0.78], [5208, 3, 9, 3.08], [2331, 1, 7, 4.6], [7573, 1, 7, 5.0], [5813, 3, 8, 4.1], [12344, 1, 7, 4.76], [1703, 2, 7, 2.82], [5729, 2, 7, 2.7], [21269, 3, 7, 4.79], [942, 3, 9, 2.25], [410, 1, 7, 3.53], [4940, 1, 7, 0.9], [23611, 3, 8, 4.06], [11586, 1, 21, 4.26], [5584, 3, 7, 3.85], [1886, 2, 7, 1.44], [1309, 1, 7, 3.88], [3495, 3, 21, 0.85], [8635, 3, 7, 3.11], [10406, 10, 12, 3.59], [2805, 137, 8, 3.89], [24258, 1, 9, 4.3], [13498, 3, 7, 1.34], [247, 1, 7, 2.08], [590, 15, 7, 3.19], [5946, 1, 7, 3.46], [229, 1, 7, 5.0], [9829, 3, 7, 4.34], [10408, 10, 10, 0.96], [20555, 2, 7, 0.81], [13244, 1, 7, 1.41], [10407, 10, 10, 3.1], [9491, 21, 14, 5.0], [3934, 5, 12, 1.54], [10409, 10, 11, 2.82], [9828, 3, 7, 3.72], [2438, 1, 7, 3.08], [95, 3, 15, 4.66], [9289, 29, 7, 4.33], [3900, 3, 7, 2.06], [12870, 1, 7, 4.79], [10716, 3, 7, 1.06], [11510, 3, 8, 3.57], [24256, 1, 7, 3.68], [88, 1, 7, 3.43], [11930, 1, 7, 1.14], [2013, 2, 7, 1.08], [5736, 2, 7, 2.71], [7007, 1, 7, 3.72], [972, 3, 8, 3.85], [9796, 3, 14, 2.79], [3143, 3, 7, 1.0], [9082, 3, 25, 1.11], [9827, 3, 92, 3.31], [12345, 1, 641, 6.0], [7005, 1, 81, 6.0], [5811, 3, 579, 6.0], [9126, 1, 79, 3.23], [2050, 3, 516, 4.66], [6496, 1, 46, 4.04], [515, 24, 215, 5.58], [22317, 3, 338, 5.79], [13033, 3, 591, 3.49], [9124, 1, 79, 2.87], [1490, 1, 55, 5.13], [12229, 2, 158, 2.44], [5208, 3, 570, 4.36], [2331, 1, 118, 5.87], [7573, 1, 382, 6.0], [5813, 3, 579, 5.37], [12344, 1, 641, 6.0], [1703, 2, 173, 4.09], [5729, 2, 51, 3.97], [21269, 3, 304, 6.0], [942, 3, 301, 4.02], [410, 1, 116, 4.8], [4940, 1, 138, 2.17], [23611, 3, 337, 5.33], [11586, 1, 382, 5.52], [5584, 3, 259, 5.12], [1886, 2, 177, 2.7], [1309, 1, 56, 5.15], [3495, 3, 1151, 2.12], [10406, 10, 1881, 5.12], [2805, 137, 179, 5.16], [24258, 1, 137, 6.0], [13498, 3, 694, 2.6], [247, 1, 99, 3.35], [590, 15, 107, 4.46], [5946, 1, 123, 4.73], [229, 1, 92, 6.0], [9829, 3, 71, 6.0], [10408, 10, 874, 2.23], [20555, 2, 66, 2.08], [13244, 1, 56, 2.68], [10407, 10, 1161, 4.38], [9491, 21, 2076, 6.0], [3934, 5, 591, 2.81], [10409, 10, 1797, 4.12], [9828, 3, 97, 4.99], [2438, 1, 54, 4.35], [95, 3, 962, 5.91], [9289, 29, 70, 5.6], [3900, 3, 48, 3.33], [12870, 1, 150, 6.0], [10716, 3, 106, 2.33], [11510, 3, 657, 4.84], [24256, 1, 151, 4.95], [88, 1, 13, 4.7], [11930, 1, 173, 2.41], [2013, 2, 186, 2.34], [5736, 2, 57, 3.97], [7007, 1, 86, 4.99], [972, 3, 647, 5.12], [9796, 3, 1044, 4.06], [3143, 3, 347, 2.27], [9082, 3, 2864, 2.38]]</t>
+  </si>
+  <si>
+    <t>[[11681, 2, 27, 5.0], [589, 2, 8, 2.33], [8650, 2, 9, 1.81], [8648, 2, 7, 3.52], [2776, 2, 7, 2.12], [593, 2, 9, 1.8], [8853, 2, 11, 3.97], [1429, 2, 17, 3.36], [21793, 1, 7, 4.54], [5493, 2, 7, 2.62], [11683, 2, 21, 4.04], [201, 3, 7, 4.76], [417, 2, 7, 1.92], [434, 2, 7, 3.28], [345, 3, 11, 2.52], [1124, 2, 9, 1.94], [8089, 1, 9, 1.29], [6097, 80, 7, 1.23], [6952, 1, 7, 5.0], [147, 1, 7, 2.14], [145, 2, 7, 1.43], [432, 3, 7, 4.67], [12350, 1, 7, 3.9], [2912, 1, 7, 2.18], [3891, 1, 7, 1.93], [146, 2, 7, 1.4], [6158, 2, 7, 2.0], [3893, 1, 7, 1.93], [616, 2, 7, 0.69], [10149, 3, 21, 2.27], [144, 2, 7, 1.15], [13028, 3, 7, 3.66], [4032, 29, 7, 3.72], [20927, 1, 7, 1.56], [6097, 29, 7, 0.89], [20252, 2, 7, 2.33], [5208, 3, 9, 3.64], [12870, 1, 7, 2.93], [24257, 1, 7, 4.19], [11504, 2, 7, 0.9], [5812, 3, 9, 3.85], [3889, 1, 7, 1.93], [24258, 1, 7, 3.56], [11089, 1, 10, 1.76], [2423, 80, 7, 2.39], [3334, 5, 7, 4.02], [12304, 1, 7, 1.02], [2057, 3, 7, 3.13], [12346, 1, 7, 4.14], [3576, 25, 7, 3.27], [10517, 29, 8, 3.78], [22316, 3, 7, 2.63], [9289, 29, 7, 1.97], [13893, 2, 7, 4.31], [1490, 1, 7, 4.28], [2912, 2, 10, 3.19], [75, 2, 23, 1.61], [972, 3, 7, 2.97], [9964, 2, 7, 4.55], [13034, 3, 7, 3.84], [11954, 1, 7, 2.22], [9372, 1, 7, 2.23], [9069, 1, 7, 1.43], [3, 2, 7, 2.46], [410, 1, 7, 2.38], [7886, 4, 7, 0.81], [3478, 2, 7, 3.16], [957, 2, 7, 1.83], [11426, 25, 7, 0.98], [214, 3, 17, 0.99], [6494, 1, 7, 0.98], [13280, 1, 7, 1.89], [12764, 2, 8, 0.84], [13244, 1, 7, 0.85], [8677, 3, 8, 2.38], [4253, 1, 7, 3.05], [823, 1, 7, 3.1], [161, 3, 11, 3.41], [2160, 68, 9, 0.74], [5209, 3, 7, 2.37], [21697, 3, 7, 1.0], [23235, 25, 7, 1.65], [149, 2, 7, 1.85], [2805, 137, 7, 2.09], [9691, 1, 7, 2.89], [4033, 29, 7, 0.75], [1277, 1, 9, 2.63], [490, 1, 7, 1.91], [2438, 2, 8, 0.66], [11404, 2, 7, 2.06], [5584, 3, 9, 1.08], [10609, 1, 7, 1.41], [7887, 4, 7, 1.81], [9491, 21, 15, 3.45], [8659, 1, 7, 2.14], [12338, 29, 7, 0.79], [1309, 1, 7, 0.92], [7704, 2, 7, 1.51], [8285, 2, 8, 1.22], [7567, 3, 7, 3.85], [13033, 3, 8, 1.68], [5811, 3, 7, 2.54], [21700, 3, 7, 4.11], [1523, 1, 7, 4.31], [13244, 2, 12, 0.81], [11942, 29, 7, 0.75], [956, 2, 7, 1.54], [10407, 10, 12, 3.85], [22317, 3, 7, 2.12], [3576, 29, 7, 2.33], [5813, 3, 7, 5.0], [14017, 3, 7, 4.08], [9827, 3, 7, 3.88], [20969, 3, 8, 1.21], [23234, 25, 7, 4.56], [389, 4, 7, 3.49], [335, 3, 13, 3.0], [1801, 1, 7, 2.47], [6497, 1, 7, 0.87], [2528, 29, 7, 3.28], [12647, 1, 7, 4.32], [105, 3, 7, 2.72], [21699, 3, 7, 1.0], [1667, 3, 7, 4.08], [6496, 1, 7, 2.77], [13498, 3, 7, 1.34], [10616, 1, 7, 1.98], [18964, 1, 7, 0.75], [9082, 3, 21, 0.94], [19925, 2, 7, 3.96], [2335, 3, 7, 2.32], [21701, 3, 7, 3.94], [13281, 1, 7, 1.89], [66, 15, 7, 0.75], [214, 3, 733, 2.21], [6494, 1, 58, 2.19], [13280, 1, 358, 3.09], [12764, 2, 840, 2.05], [13244, 1, 56, 2.06], [8677, 3, 333, 3.59], [4253, 1, 184, 4.26], [823, 1, 45, 4.31], [161, 3, 750, 4.63], [2160, 68, 134, 2.31], [5209, 3, 600, 3.58], [21697, 3, 204, 2.21], [23235, 25, 91, 2.86], [149, 2, 98, 3.06], [2805, 137, 198, 3.3], [9691, 1, 80, 4.1], [4033, 29, 105, 2.21], [1277, 1, 193, 4.34], [490, 1, 65, 3.12], [2438, 2, 729, 1.87], [11404, 2, 118, 3.27], [5584, 3, 245, 2.54], [10609, 1, 324, 2.62], [7887, 4, 52, 2.72], [9491, 21, 2288, 4.69], [8659, 1, 135, 3.35], [12338, 29, 60, 2.0], [1309, 1, 60, 2.13], [7704, 2, 199, 2.72], [8285, 2, 525, 2.43], [7567, 3, 75, 5.06], [13033, 3, 664, 2.9], [5811, 3, 644, 3.75], [21700, 3, 332, 5.32], [1523, 1, 52, 5.52], [13244, 2, 450, 2.02], [11942, 29, 112, 1.96], [956, 2, 115, 2.75], [10407, 10, 1252, 5.06], [22317, 3, 335, 3.33], [3576, 29, 37, 3.54], [5813, 3, 638, 6.0], [14017, 3, 216, 5.29], [9827, 3, 95, 5.09], [20969, 3, 681, 2.42], [23234, 25, 102, 5.77], [389, 4, 204, 4.71], [335, 3, 1382, 4.21], [1801, 1, 104, 3.68], [6497, 1, 42, 2.08], [2528, 29, 104, 4.49], [12647, 1, 224, 5.53], [105, 3, 258, 3.94], [21699, 3, 204, 2.21], [1667, 3, 217, 5.29], [6496, 1, 45, 3.98], [13498, 3, 684, 2.56], [10616, 1, 85, 3.19], [9082, 3, 2824, 2.13], [19925, 2, 118, 5.17], [2335, 3, 102, 3.34], [21701, 3, 332, 5.15], [13281, 1, 358, 3.09], [66, 15, 173, 1.96]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 18, 2.66], [589, 2, 9, 2.73], [990, 2, 9, 1.0], [12721, 2, 10, 2.24], [1776, 1, 17, 5.0], [10, 2, 8, 0.95], [8675, 2, 10, 1.69], [1777, 1, 9, 2.47], [3, 2, 7, 1.14], [147, 1, 9, 3.69], [8650, 2, 9, 3.19], [1007, 2, 18, 1.81], [13028, 3, 7, 1.54], [88, 10, 26, 1.48], [8677, 3, 10, 4.2], [10149, 3, 36, 3.5], [3478, 2, 7, 3.07], [413, 1, 9, 2.97], [308, 1, 7, 2.71], [10825, 21, 13, 1.49], [7084, 3, 7, 1.02], [7004, 1, 7, 3.03], [2054, 3, 7, 1.92], [410, 1, 7, 2.71], [75, 2, 7, 1.42], [9827, 3, 9, 4.21], [1124, 2, 10, 1.63], [307, 2, 7, 2.59], [45, 2, 11, 3.17], [6158, 2, 11, 1.11], [7005, 1, 7, 2.96], [94, 4, 9, 4.75], [7036, 1, 7, 2.42], [1446, 2, 7, 1.94], [167, 3, 11, 3.9], [1006, 2, 7, 1.34], [5081, 2, 9, 0.98], [12870, 1, 7, 4.97], [3893, 1, 7, 4.0], [8674, 2, 9, 3.85], [6097, 80, 7, 2.51], [6097, 29, 7, 1.51], [3889, 1, 7, 4.02], [3891, 1, 7, 4.02], [1622, 1, 9, 3.23], [168, 3, 12, 3.6], [20498, 1, 9, 2.66], [2336, 3, 11, 0.8], [6098, 29, 7, 0.87], [10574, 3, 9, 2.17], [20927, 1, 7, 3.27], [346, 1, 7, 3.31], [12924, 1, 7, 0.69], [1490, 1, 7, 3.04], [335, 3, 21, 2.17], [74, 1, 7, 1.38], [9069, 1, 7, 0.75], [9829, 3, 7, 3.96], [214, 3, 21, 1.25], [6098, 80, 7, 1.12], [126, 2, 7, 1.17], [7567, 3, 7, 3.58], [998, 2, 9, 3.9], [24257, 1, 7, 5.0], [1070, 7, 15, 3.1], [1243, 2, 7, 2.45], [13034, 3, 16, 5.0], [20498, 3, 10, 2.67], [346, 3, 8, 3.9], [20486, 1, 7, 2.62], [20486, 3, 16, 4.89], [8945, 3, 8, 3.93], [996, 2, 14, 4.39], [23611, 3, 8, 3.99], [22316, 3, 7, 4.2], [9081, 3, 15, 2.52], [2424, 80, 7, 2.87], [9691, 1, 7, 1.85], [110, 4, 9, 3.32], [5946, 1, 7, 4.0], [2729, 3, 7, 5.0], [22554, 10, 15, 0.94], [11510, 3, 10, 1.49], [5086, 1, 9, 0.96], [215, 4, 7, 3.08], [3900, 3, 7, 2.73], [1413, 15, 7, 2.43], [995, 2, 7, 2.8], [9082, 3, 51, 1.96], [3049, 3, 7, 1.17], [9690, 1, 7, 2.35], [13023, 3, 12, 2.88], [22317, 3, 8, 1.77], [8943, 3, 7, 4.04], [20969, 3, 30, 2.6], [13484, 1, 7, 5.0], [4076, 3, 7, 3.01], [10780, 10, 7, 5.0], [991, 2, 7, 1.86], [9828, 3, 7, 4.25], [1080, 3, 7, 3.0], [3670, 2, 7, 2.6], [24567, 1, 9, 0.82], [3047, 3, 9, 2.43], [3016, 68, 7, 2.32], [12059, 3, 7, 1.91], [66, 16, 14, 1.12], [12345, 1, 7, 2.91], [229, 1, 7, 2.58], [13033, 3, 8, 4.08], [5165, 1, 9, 0.67], [24260, 1, 7, 3.76], [5584, 3, 7, 1.04], [3048, 3, 7, 2.94], [12925, 1, 7, 0.96], [3104, 1, 7, 1.39], [5153, 2, 7, 0.73], [10936, 2, 7, 3.85], [11089, 1, 7, 4.27], [2912, 1, 7, 0.73], [5083, 2, 7, 0.89], [491, 10, 12, 2.18], [9372, 1, 7, 3.35], [330, 3, 7, 3.94], [220, 4, 7, 4.99], [12344, 1, 7, 2.91], [12346, 1, 7, 2.91], [2331, 1, 7, 2.2], [2109, 3, 15, 1.08], [1339, 3, 17, 0.65], [949, 10, 7, 2.43], [1604, 68, 7, 2.72], [1414, 15, 7, 1.27], [9796, 3, 13, 4.32], [11967, 1, 7, 2.04], [3475, 2, 7, 3.26], [20486, 3, 595, 6.0], [8945, 3, 559, 4.87], [996, 2, 241, 6.0], [23611, 3, 313, 5.95], [22316, 3, 285, 5.15], [9081, 3, 487, 4.19], [2424, 80, 173, 4.22], [9691, 1, 76, 3.24], [110, 4, 194, 4.77], [5946, 1, 112, 5.2], [2729, 3, 80, 6.0], [22554, 10, 408, 1.88], [11510, 3, 566, 2.71], [5086, 1, 182, 2.16], [215, 4, 36, 4.03], [3900, 3, 43, 3.68], [1413, 15, 97, 3.38], [995, 2, 241, 4.0], [9082, 3, 2572, 4.68], [3049, 3, 133, 2.36], [9690, 1, 78, 3.3], [13023, 3, 616, 5.41], [22317, 3, 303, 2.71], [8943, 3, 354, 4.99], [20969, 3, 604, 3.76], [13484, 1, 177, 6.0], [4076, 3, 190, 4.21], [10780, 10, 374, 6.0], [9828, 3, 86, 5.35], [1080, 3, 140, 3.95], [3670, 2, 221, 3.64], [24567, 1, 300, 2.2], [3047, 3, 260, 3.88], [3016, 68, 51, 3.27], [12059, 3, 315, 2.86], [66, 16, 77, 2.82], [12345, 1, 618, 3.86], [229, 1, 89, 3.53], [13033, 3, 589, 5.03], [5165, 1, 47, 1.87], [24260, 1, 142, 4.71], [5584, 3, 234, 2.24], [3048, 3, 289, 3.89], [12925, 1, 71, 1.91], [3104, 1, 278, 3.09], [5153, 2, 26, 1.68], [10936, 2, 142, 4.8], [11089, 1, 159, 5.22], [2912, 1, 44, 1.64], [5083, 2, 134, 1.84], [491, 10, 451, 3.13], [9372, 1, 246, 4.3], [330, 3, 584, 4.9], [220, 4, 45, 5.94], [12344, 1, 618, 3.86], [12346, 1, 618, 3.86], [2331, 1, 112, 3.15], [2109, 3, 497, 2.03], [1339, 3, 1872, 1.59], [949, 10, 64, 3.34], [1604, 68, 270, 3.67], [1414, 15, 108, 2.22], [9796, 3, 1010, 5.27], [3475, 2, 63, 4.21]]</t>
   </si>
   <si>
     <t>1QD</t>

--- a/QD_data.xlsx
+++ b/QD_data.xlsx
@@ -28,76 +28,76 @@
     <t>Description</t>
   </si>
   <si>
-    <t>[[3, 2, 6, 0.2], [8672, 2, 6, 0.73], [589, 2, 5, 1.17], [75, 2, 4, 0.62], [12721, 2, 7, 0.97], [147, 1, 4, 0.45], [990, 2, 4, 0.73], [1776, 1, 4, 0.36], [8648, 2, 4, 1.52], [20252, 2, 4, 1.9], [1777, 1, 4, 0.24], [6936, 2, 5, 0.94], [8675, 2, 6, 1.68], [88, 10, 11, 0.58], [83, 2, 4, 0.4], [149, 2, 4, 0.45], [345, 3, 5, 0.2], [74, 1, 6, 1.28], [8650, 2, 5, 0.58], [7004, 1, 4, 1.74], [201, 3, 5, 0.2], [11681, 2, 4, 0.67], [21798, 1, 5, 0.2], [1007, 2, 5, 0.68], [1446, 2, 4, 2.5], [7005, 1, 4, 1.64], [7084, 3, 4, 0.76], [21793, 1, 5, 2.97], [10, 2, 5, 0.55], [307, 2, 4, 2.58], [10825, 21, 9, 0.57], [308, 1, 6, 1.38], [1124, 2, 5, 0.98], [12870, 1, 5, 1.64], [11404, 2, 5, 0.52], [9827, 3, 4, 1.87], [410, 1, 4, 0.84], [10149, 3, 17, 0.96], [3478, 2, 5, 1.14], [8677, 3, 7, 1.8], [1429, 2, 4, 2.57], [5081, 2, 4, 0.47], [3889, 1, 4, 1.77], [1622, 1, 4, 1.63], [168, 3, 6, 1.23], [23, 1, 4, 0.38], [45, 2, 4, 1.21], [8674, 2, 6, 2.6], [1006, 2, 4, 0.38], [9069, 1, 5, 0.2], [3891, 1, 4, 2.9], [20927, 1, 4, 1.92], [24257, 1, 4, 1.49], [3893, 1, 4, 2.9], [431, 2, 4, 1.12], [5208, 3, 5, 0.65], [1767, 25, 5, 0.2], [346, 1, 4, 0.73], [1656, 2, 4, 0.61], [6158, 2, 6, 0.63], [3980, 4, 5, 1.25], [95, 3, 22, 0.19], [413, 1, 4, 0.33], [8853, 2, 6, 1.18], [998, 2, 5, 1.97], [24664, 2, 6, 1.11], [214, 3, 14, 0.2], [1766, 25, 4, 1.62], [346, 3, 5, 0.96], [20498, 1, 5, 0.23], [8898, 3, 4, 2.69], [14017, 3, 4, 0.38], [9690, 1, 4, 2.15], [7567, 3, 4, 0.62], [9829, 3, 4, 1.67], [997, 2, 4, 0.95], [974, 3, 5, 0.88], [11737, 2, 4, 1.33], [3048, 3, 4, 1.59], [24, 1, 4, 0.38], [3670, 2, 4, 1.42], [110, 4, 4, 0.52], [96, 11, 13, 1.34], [1767, 2, 4, 0.2], [4203, 1, 4, 1.05], [5209, 3, 6, 0.74], [10780, 10, 4, 2.17], [952, 4, 4, 1.46], [22316, 3, 4, 1.7], [22554, 10, 9, 0.23], [5086, 1, 4, 0.47], [5946, 1, 4, 2.9], [9828, 3, 4, 1.77], [996, 2, 5, 1.97], [20498, 3, 5, 0.21], [9964, 2, 5, 3.08], [23611, 3, 7, 2.24], [8557, 3, 4, 0.5], [11454, 2, 5, 1.36], [24260, 1, 4, 1.22], [20486, 1, 4, 1.25], [14018, 3, 4, 0.44], [3900, 3, 4, 1.85], [22317, 3, 4, 0.95], [13034, 3, 8, 1.07], [8945, 3, 5, 1.88], [1080, 3, 4, 1.43], [995, 2, 5, 1.27], [972, 3, 8, 0.4], [11954, 1, 4, 1.28], [2912, 1, 4, 0.24], [13023, 3, 9, 1.11], [5584, 3, 4, 0.45], [6097, 80, 4, 0.26], [9082, 3, 29, 0.17], [6097, 29, 4, 0.26], [5153, 2, 4, 0.75], [19047, 3, 4, 0.42], [12924, 1, 4, 0.39], [11767, 1, 4, 0.79], [40, 1, 4, 0.38], [8274, 3, 4, 1.45], [1604, 68, 4, 2.18], [2729, 3, 4, 4.0], [991, 2, 4, 1.03], [12353, 1, 4, 1.24], [20969, 3, 5, 1.21], [972, 1, 4, 1.01], [11769, 1, 4, 1.83], [9372, 1, 5, 1.08], [11914, 1, 4, 0.84], [4076, 3, 4, 2.19], [20486, 3, 5, 1.17], [7705, 2, 4, 0.54], [2424, 29, 4, 0.75], [3, 2, 117, 2.72], [8672, 2, 288, 4.59], [589, 2, 133, 4.13], [75, 2, 133, 4.66], [12721, 2, 287, 4.6], [147, 1, 93, 2.83], [990, 2, 59, 2.68], [1776, 1, 110, 4.69], [8648, 2, 237, 5.06], [20252, 2, 99, 4.71], [1777, 1, 110, 4.91], [6936, 2, 294, 2.91], [8675, 2, 203, 4.64], [88, 10, 570, 2.87], [83, 2, 29, 1.61], [149, 2, 93, 2.98], [345, 3, 303, 4.67], [74, 1, 176, 6.0], [8650, 2, 205, 2.91], [7004, 1, 74, 4.64], [201, 3, 303, 4.67], [11681, 2, 279, 2.83], [21798, 1, 136, 2.02], [1007, 2, 284, 2.86], [1446, 2, 133, 5.85], [7005, 1, 70, 4.73], [7084, 3, 114, 3.27], [21793, 1, 218, 6.0], [10, 2, 100, 2.35], [307, 2, 154, 6.0], [10825, 21, 614, 2.3], [308, 1, 149, 5.48], [1124, 2, 196, 3.83], [12870, 1, 131, 4.45], [11404, 2, 100, 2.29], [9827, 3, 86, 4.89], [410, 1, 105, 3.73], [10149, 3, 804, 5.22], [3478, 2, 79, 3.53], [8677, 3, 270, 5.07], [1429, 2, 133, 5.99], [5081, 2, 135, 3.21], [3889, 1, 108, 4.46], [1622, 1, 103, 5.27], [168, 3, 396, 5.57], [23, 1, 118, 2.48], [45, 2, 104, 3.62], [1006, 2, 240, 2.19], [9069, 1, 117, 2.02], [3891, 1, 108, 6.0], [24257, 1, 133, 5.56], [3893, 1, 108, 6.0], [431, 2, 116, 3.27], [5208, 3, 576, 3.35], [1767, 25, 173, 3.54], [346, 1, 125, 4.47], [1656, 2, 96, 2.27], [6158, 2, 263, 4.33], [3980, 4, 458, 3.69], [95, 3, 907, 3.9], [413, 1, 81, 3.31], [8853, 2, 277, 4.13], [998, 2, 213, 5.1], [24664, 2, 257, 3.78], [214, 3, 656, 3.07]]</t>
-  </si>
-  <si>
-    <t>[[593, 2, 5, 0.92], [8650, 2, 6, 1.52], [1124, 2, 4, 0.2], [11685, 2, 5, 0.46], [7004, 1, 4, 1.09], [5493, 2, 4, 1.3], [88, 10, 9, 0.69], [615, 2, 4, 0.45], [616, 2, 4, 1.26], [5491, 2, 4, 1.2], [1007, 2, 4, 1.35], [1622, 1, 5, 1.63], [2912, 1, 4, 0.49], [8672, 2, 6, 1.94], [147, 1, 4, 0.59], [7573, 1, 6, 1.62], [5165, 1, 4, 0.66], [3893, 1, 4, 0.94], [12870, 1, 6, 1.52], [8938, 2, 4, 2.75], [10, 2, 4, 1.0], [3889, 1, 4, 1.01], [148, 1, 4, 2.08], [439, 1, 4, 1.47], [7005, 1, 5, 1.33], [24257, 1, 5, 1.31], [624, 2, 4, 0.42], [75, 2, 5, 0.37], [21793, 1, 4, 0.89], [192, 3, 13, 1.08], [3891, 1, 4, 0.92], [10149, 3, 11, 1.46], [2057, 3, 4, 0.4], [20927, 1, 4, 0.98], [5208, 3, 7, 1.85], [2054, 3, 5, 0.4], [3, 2, 7, 0.93], [1886, 2, 4, 0.48], [5165, 2, 5, 0.41], [12721, 2, 8, 2.46], [9372, 1, 4, 1.17], [149, 2, 4, 0.59], [2424, 80, 5, 0.61], [972, 3, 6, 0.51], [506, 1, 4, 0.59], [346, 1, 4, 1.92], [5076, 1, 4, 1.24], [346, 3, 6, 0.96], [3048, 3, 4, 1.45], [2424, 29, 4, 0.86], [82, 2, 4, 0.51], [12352, 1, 4, 0.78], [7567, 3, 5, 2.07], [5209, 3, 4, 1.31], [74, 1, 4, 1.32], [13280, 1, 4, 0.81], [4032, 29, 4, 0.72], [957, 2, 4, 0.2], [12346, 1, 4, 1.96], [1126, 2, 4, 0.57], [8898, 3, 4, 2.44], [13023, 3, 8, 1.03], [4076, 3, 5, 1.15], [11953, 1, 4, 0.4], [1414, 15, 4, 0.95], [10780, 10, 4, 1.85], [1548, 1, 4, 1.5], [2805, 137, 4, 1.57], [6097, 80, 4, 0.2], [7704, 2, 4, 0.39], [11952, 1, 4, 2.6], [4253, 1, 4, 0.42], [6097, 29, 4, 0.53], [1243, 2, 4, 1.01], [8676, 2, 4, 1.91], [20486, 3, 5, 0.99], [215, 4, 4, 1.42], [12350, 1, 4, 0.78], [1703, 2, 4, 1.28], [12338, 29, 4, 0.36], [955, 2, 4, 1.51], [1492, 1, 5, 0.2], [7705, 2, 4, 0.22], [972, 1, 5, 0.84], [21269, 3, 4, 2.12], [11236, 2, 5, 0.95], [12924, 1, 4, 0.43], [23611, 3, 5, 1.86], [214, 3, 9, 0.46], [12229, 2, 4, 0.42], [8659, 1, 4, 0.92], [10407, 10, 6, 1.45], [2331, 1, 4, 0.39], [7707, 2, 4, 0.78], [3047, 3, 4, 1.66], [11812, 1, 4, 0.44], [10410, 10, 9, 1.42], [13034, 3, 4, 1.52], [45, 2, 4, 1.0], [10388, 2, 4, 0.5], [11404, 2, 4, 0.39], [5584, 3, 4, 0.49], [8673, 2, 4, 0.85], [12351, 1, 4, 1.96], [9827, 3, 4, 0.76], [3059, 3, 4, 1.69], [71, 15, 4, 0.59], [8675, 2, 4, 1.44], [6497, 1, 4, 0.46], [10936, 2, 4, 1.9], [6496, 1, 4, 0.64], [2335, 3, 4, 0.56], [13281, 1, 4, 0.49], [24722, 2, 4, 0.83], [10408, 10, 5, 0.49], [18964, 1, 4, 0.39], [13283, 1, 4, 0.81], [5434, 1, 4, 0.78], [1049, 2, 4, 1.11], [20498, 1, 4, 0.47], [3049, 3, 4, 0.4], [159, 1, 4, 0.38], [12344, 1, 4, 3.12], [11942, 29, 4, 0.66], [11711, 3, 4, 1.06], [3334, 5, 4, 0.65], [24567, 1, 4, 0.48], [2438, 2, 5, 0.37], [12661, 1, 4, 1.85], [3391, 1, 4, 0.53], [110, 4, 4, 1.13], [8897, 3, 4, 2.44], [10386, 2, 4, 0.51], [7708, 2, 4, 0.8], [10937, 2, 4, 1.0], [6494, 1, 4, 0.47], [593, 2, 245, 3.83], [8650, 2, 188, 5.61], [1124, 2, 184, 2.25], [11685, 2, 243, 4.85], [5493, 2, 103, 3.69], [88, 10, 586, 3.63], [615, 2, 113, 2.06], [616, 2, 105, 4.66], [5491, 2, 106, 3.79], [1007, 2, 288, 4.32], [1622, 1, 103, 3.7], [2912, 1, 53, 2.13], [8672, 2, 291, 5.45], [147, 1, 95, 3.12], [7573, 1, 337, 6.0], [5165, 1, 47, 2.71], [3893, 1, 120, 3.52], [12870, 1, 145, 6.0], [8938, 2, 180, 6.0], [10, 2, 52, 2.98], [3889, 1, 120, 3.69], [148, 1, 95, 5.63], [439, 1, 94, 4.01], [24257, 1, 125, 5.58], [624, 2, 98, 3.65], [75, 2, 144, 3.2], [21793, 1, 245, 3.28], [192, 3, 1226, 4.63], [3891, 1, 120, 5.07], [10149, 3, 910, 5.61], [2057, 3, 462, 3.44], [20927, 1, 86, 3.08], [5208, 3, 564, 5.46], [2054, 3, 462, 3.44], [1886, 2, 169, 2.11], [5165, 2, 376, 2.59], [12721, 2, 262, 5.57], [9372, 1, 250, 5.0], [149, 2, 95, 3.26], [2424, 80, 166, 3.14], [972, 3, 615, 4.02], [506, 1, 95, 4.01], [346, 1, 146, 5.14], [5076, 1, 122, 4.62], [346, 3, 586, 5.29], [3048, 3, 264, 4.31], [2424, 29, 34, 3.15], [12352, 1, 629, 3.16], [5209, 3, 564, 5.52], [74, 1, 192, 3.73], [13280, 1, 346, 4.15], [4032, 29, 102, 3.26], [957, 2, 102, 3.16], [12346, 1, 629, 4.96], [1126, 2, 245, 3.29], [8898, 3, 284, 5.89], [13023, 3, 625, 5.11], [4076, 3, 194, 3.65], [11953, 1, 216, 2.2], [10780, 10, 397, 6.0], [1548, 1, 107, 4.08], [2805, 137, 174, 4.45], [6097, 80, 68, 2.25], [7704, 2, 195, 1.94]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 4, 0.2], [589, 2, 6, 1.05], [11681, 2, 4, 0.45], [8648, 2, 4, 1.07], [144, 2, 4, 0.45], [143, 2, 4, 1.43], [141, 2, 6, 0.28], [593, 2, 7, 0.27], [205, 2, 4, 0.37], [6936, 2, 4, 0.69], [8650, 2, 5, 0.88], [7004, 1, 4, 0.8], [146, 2, 6, 1.59], [206, 2, 6, 0.51], [7036, 1, 4, 1.48], [990, 2, 4, 0.76], [145, 2, 5, 1.12], [5491, 2, 4, 0.88], [615, 2, 4, 0.35], [10993, 2, 4, 0.2], [3893, 1, 4, 1.02], [12870, 1, 4, 1.92], [13028, 3, 4, 0.5], [3840, 1, 5, 0.2], [8853, 2, 4, 1.27], [1007, 2, 4, 0.45], [3889, 1, 4, 0.77], [20927, 1, 6, 1.11], [616, 2, 5, 0.21], [94, 4, 5, 1.44], [3, 2, 5, 0.2], [1006, 2, 4, 0.93], [147, 1, 4, 1.15], [21798, 1, 4, 0.36], [3891, 1, 5, 1.02], [12350, 1, 4, 3.03], [6158, 2, 4, 0.88], [624, 2, 4, 1.3], [21793, 1, 4, 0.39], [24257, 1, 5, 2.5], [5165, 1, 4, 0.45], [12349, 1, 4, 1.01], [13928, 1, 4, 0.48], [8672, 2, 6, 1.45], [2912, 1, 6, 1.14], [12346, 1, 4, 3.03], [159, 3, 6, 0.19], [24258, 1, 4, 2.39], [972, 3, 6, 1.0], [1124, 2, 4, 0.53], [956, 2, 4, 1.3], [8898, 3, 4, 2.44], [5208, 3, 4, 1.35], [9081, 3, 8, 0.48], [7567, 3, 4, 1.62], [82, 2, 5, 1.02], [345, 3, 4, 1.14], [9784, 1, 4, 0.49], [9491, 21, 10, 0.38], [7704, 2, 4, 0.47], [5165, 2, 6, 0.45], [10780, 10, 4, 1.11], [1492, 1, 4, 0.46], [8677, 3, 5, 1.58], [214, 3, 9, 0.75], [201, 3, 4, 0.51], [411, 2, 4, 1.28], [10388, 2, 4, 0.8], [22316, 3, 4, 2.11], [84, 2, 4, 0.77], [11739, 2, 4, 0.97], [5812, 3, 6, 1.95], [9082, 3, 18, 1.0], [12338, 29, 4, 0.69], [11953, 1, 4, 0.92], [11404, 2, 5, 0.73], [336, 15, 4, 0.5], [22317, 3, 4, 1.04], [11490, 1, 4, 0.37], [11767, 1, 5, 0.2], [7705, 2, 4, 0.47], [957, 2, 4, 0.4], [308, 1, 4, 1.14], [972, 1, 4, 1.18], [12721, 2, 4, 0.58], [6497, 1, 5, 0.2], [2912, 2, 5, 0.47], [3475, 2, 4, 0.36], [12344, 1, 4, 3.03], [12229, 2, 4, 0.45], [9372, 1, 4, 1.74], [8673, 2, 4, 2.15], [161, 3, 5, 1.78], [7708, 2, 4, 0.47], [110, 4, 4, 3.0], [1523, 1, 4, 2.63], [20486, 3, 6, 0.26], [5813, 3, 5, 1.91], [1080, 3, 4, 0.99], [1703, 2, 4, 1.91], [74, 1, 4, 4.0], [12351, 1, 4, 3.03], [10387, 2, 4, 0.48], [159, 1, 4, 0.48], [13286, 1, 4, 0.55], [13893, 2, 4, 1.15], [10149, 3, 13, 0.75], [8897, 3, 4, 2.44], [14037, 3, 4, 0.39], [1895, 3, 4, 1.36], [11510, 3, 5, 0.5], [2104, 3, 7, 0.31], [10181, 26, 4, 1.05], [159, 16, 4, 0.48], [3900, 3, 4, 0.93], [5811, 3, 5, 3.84], [10410, 10, 6, 1.28], [9827, 3, 4, 0.43], [9971, 2, 4, 1.66], [942, 3, 4, 1.5], [13281, 1, 4, 0.38], [2805, 137, 4, 1.46], [335, 3, 9, 1.2], [10581, 3, 4, 0.77], [1548, 1, 4, 0.56], [10093, 3, 9, 0.46], [10936, 2, 4, 1.79], [8676, 2, 4, 1.91], [7707, 2, 4, 0.47], [491, 10, 7, 1.31], [2335, 3, 4, 0.71], [9965, 2, 4, 4.0], [12764, 2, 5, 0.53], [95, 3, 11, 2.4], [11930, 1, 4, 0.58], [130, 1, 67, 1.77], [589, 2, 142, 4.1], [11681, 2, 300, 3.15], [8648, 2, 243, 4.41], [144, 2, 156, 4.51], [143, 2, 156, 3.87], [141, 2, 147, 4.34], [593, 2, 239, 4.0], [205, 2, 120, 1.84], [6936, 2, 305, 4.56], [8650, 2, 195, 4.8], [7004, 1, 84, 2.91], [146, 2, 156, 4.32], [7036, 1, 136, 6.0], [145, 2, 147, 5.18], [5491, 2, 112, 3.55], [615, 2, 116, 1.79], [10993, 2, 52, 3.99], [3893, 1, 118, 3.88], [12870, 1, 131, 5.81], [13028, 3, 167, 3.76], [3840, 1, 156, 4.5], [8853, 2, 291, 4.62], [1007, 2, 301, 2.94], [3889, 1, 135, 4.74], [20927, 1, 30, 3.21], [616, 2, 108, 2.9], [94, 4, 119, 5.85], [3, 2, 123, 4.11], [1006, 2, 252, 3.96], [147, 1, 101, 3.33], [21798, 1, 144, 2.95], [3891, 1, 118, 4.46], [12350, 1, 669, 6.0], [6158, 2, 293, 2.88], [624, 2, 114, 3.62], [21793, 1, 256, 2.28], [24257, 1, 130, 6.0], [5165, 1, 54, 1.99], [12349, 1, 669, 4.14], [13928, 1, 54, 2.04], [8672, 2, 301, 5.82], [12346, 1, 669, 6.0], [159, 3, 353, 2.06], [24258, 1, 141, 6.0], [972, 3, 629, 3.76], [1124, 2, 187, 3.87], [956, 2, 105, 4.42], [8898, 3, 251, 6.0], [5208, 3, 594, 5.02], [9081, 3, 548, 2.05], [7567, 3, 77, 4.24], [345, 3, 317, 3.3], [9784, 1, 81, 2.85], [9491, 21, 2501, 1.96], [7704, 2, 201, 2.78], [5165, 2, 436, 1.93], [10780, 10, 409, 3.25], [1492, 1, 42, 2.01], [8677, 3, 303, 4.46], [214, 3, 728, 2.51], [201, 3, 317, 5.4], [10388, 2, 205, 2.91], [22316, 3, 349, 5.18], [84, 2, 75, 3.17]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 8, 0.72], [3, 2, 5, 0.2], [75, 2, 6, 0.24], [1776, 1, 4, 0.33], [1777, 1, 5, 0.2], [20252, 2, 4, 2.84], [345, 3, 5, 0.2], [201, 3, 6, 0.2], [6936, 2, 5, 2.61], [8648, 2, 4, 2.94], [88, 10, 17, 0.19], [12721, 2, 6, 1.9], [57, 1, 4, 0.36], [1007, 2, 5, 0.92], [3478, 2, 4, 1.39], [21793, 1, 4, 2.04], [45, 2, 5, 0.62], [10149, 3, 18, 1.56], [308, 1, 6, 1.76], [8650, 2, 4, 0.63], [9507, 3, 4, 0.68], [7004, 1, 5, 1.65], [413, 1, 4, 0.65], [74, 1, 4, 0.34], [7084, 3, 4, 1.05], [13028, 3, 6, 0.25], [346, 1, 4, 0.48], [10825, 21, 9, 0.83], [168, 3, 6, 0.99], [6158, 2, 7, 1.11], [9827, 3, 4, 1.51], [1124, 2, 6, 0.71], [5208, 3, 8, 1.76], [5081, 2, 4, 0.47], [3889, 1, 4, 2.31], [214, 3, 9, 0.75], [94, 4, 5, 1.28], [414, 1, 4, 0.65], [7005, 1, 5, 0.99], [1492, 1, 4, 0.2], [3893, 1, 5, 2.33], [335, 3, 10, 0.87], [24664, 2, 5, 1.23], [1654, 2, 4, 0.21], [8675, 2, 6, 0.73], [410, 1, 4, 0.55], [8674, 2, 5, 0.73], [25, 1, 5, 1.05], [416, 1, 4, 0.65], [7567, 3, 4, 1.73], [3891, 1, 4, 2.33], [1490, 1, 4, 0.79], [2878, 1, 4, 0.59], [1622, 1, 7, 0.88], [998, 2, 5, 0.69], [1006, 2, 5, 0.51], [1504, 2, 4, 1.0], [8853, 2, 6, 2.13], [9069, 1, 4, 0.39], [5660, 2, 6, 2.12], [9690, 1, 4, 1.94], [24257, 1, 5, 1.39], [1656, 2, 4, 1.56], [9829, 3, 4, 1.31], [126, 2, 4, 0.61], [997, 2, 7, 1.37], [11914, 1, 7, 0.2], [20927, 1, 4, 1.7], [20498, 1, 4, 0.31], [5209, 3, 4, 1.97], [27, 1, 5, 0.35], [147, 1, 4, 0.52], [5086, 1, 4, 0.46], [952, 4, 4, 2.25], [996, 2, 4, 1.37], [1070, 7, 9, 1.39], [82, 2, 4, 1.43], [148, 1, 4, 0.52], [22316, 3, 5, 0.75], [110, 4, 4, 0.99], [10780, 10, 4, 2.53], [346, 3, 5, 0.7], [12661, 1, 4, 0.65], [6097, 80, 4, 0.2], [9081, 3, 8, 0.39], [20498, 3, 6, 0.31], [6097, 29, 4, 0.2], [23611, 3, 5, 1.32], [12924, 1, 4, 0.25], [13034, 3, 8, 4.0], [307, 2, 4, 0.63], [20486, 1, 5, 0.28], [5584, 3, 4, 0.58], [995, 2, 4, 0.99], [11767, 1, 5, 0.9], [6098, 29, 5, 0.2], [11769, 1, 4, 0.96], [3900, 3, 4, 1.14], [2335, 3, 4, 0.46], [9082, 3, 27, 0.17], [2104, 3, 8, 1.63], [8945, 3, 6, 2.07], [6098, 80, 4, 0.2], [2537, 1, 4, 1.52], [345, 1, 4, 0.79], [12349, 1, 4, 2.62], [22317, 3, 6, 0.78], [3048, 3, 4, 1.83], [20486, 3, 5, 0.24], [66, 1, 4, 0.53], [10529, 29, 4, 0.45], [974, 3, 6, 0.97], [3670, 2, 5, 0.27], [66, 16, 4, 0.2], [330, 3, 4, 1.91], [5946, 1, 4, 2.33], [8635, 3, 5, 1.45], [972, 3, 5, 1.01], [11510, 3, 5, 0.5], [13484, 1, 4, 4.0], [215, 4, 4, 1.61], [9828, 3, 4, 2.21], [13033, 3, 5, 2.44], [2729, 3, 4, 1.36], [972, 1, 4, 0.76], [1604, 68, 4, 0.64], [2109, 3, 9, 0.48], [951, 4, 4, 0.66], [491, 10, 7, 0.43], [506, 1, 4, 0.52], [201, 1, 4, 1.05], [229, 1, 4, 0.49], [21946, 1, 4, 0.42], [19047, 3, 4, 0.5], [20969, 3, 5, 0.74], [3475, 2, 4, 0.89], [8672, 2, 294, 4.56], [3, 2, 107, 3.75], [75, 2, 150, 2.71], [1776, 1, 99, 4.22], [1777, 1, 99, 5.13], [20252, 2, 98, 6.0], [345, 3, 304, 3.54], [201, 3, 304, 3.45], [6936, 2, 302, 6.0], [8648, 2, 234, 6.0], [88, 10, 581, 3.4], [12721, 2, 270, 5.13], [57, 1, 47, 1.45], [21793, 1, 217, 5.78], [45, 2, 113, 6.0], [10149, 3, 818, 4.94], [308, 1, 168, 4.66], [8650, 2, 187, 5.14], [7004, 1, 80, 3.9], [413, 1, 92, 3.04], [74, 1, 208, 6.0], [7084, 3, 132, 2.97], [13028, 3, 151, 4.58], [346, 1, 151, 2.87], [10825, 21, 621, 2.69], [168, 3, 402, 5.05], [6158, 2, 269, 4.01], [9827, 3, 86, 4.38], [1124, 2, 178, 3.08], [5208, 3, 491, 5.61], [5081, 2, 206, 2.07], [3889, 1, 112, 5.4], [94, 4, 113, 6.0], [414, 1, 92, 3.04], [7005, 1, 80, 3.9], [1492, 1, 36, 1.7], [3893, 1, 117, 4.54], [335, 3, 1259, 3.75], [24664, 2, 248, 4.85], [1654, 2, 94, 2.95], [8675, 2, 274, 2.88], [8674, 2, 274, 2.84], [416, 1, 92, 3.04], [7567, 3, 63, 4.38], [3891, 1, 112, 5.44], [1490, 1, 54, 3.63], [2878, 1, 69, 3.57], [1622, 1, 101, 3.14], [998, 2, 241, 6.0], [1006, 2, 220, 2.93], [1504, 2, 210, 3.26], [8853, 2, 257, 5.37], [5660, 2, 182, 5.98], [9690, 1, 68, 5.75], [24257, 1, 142, 4.76], [1656, 2, 99, 3.95], [9829, 3, 66, 4.99], [126, 2, 96, 2.12], [997, 2, 241, 5.59], [11914, 1, 76, 4.59], [20927, 1, 85, 4.22], [20498, 1, 92, 4.11], [5209, 3, 491, 6.0], [147, 1, 95, 2.95]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 5, 1.12], [88, 10, 12, 0.69], [305, 2, 6, 1.38], [615, 2, 4, 0.45], [5493, 2, 5, 0.2], [616, 2, 4, 0.2], [7004, 1, 4, 1.0], [11681, 2, 4, 0.44], [8650, 2, 6, 1.96], [143, 2, 4, 0.33], [8648, 2, 4, 1.91], [7036, 1, 4, 0.96], [10, 2, 4, 1.0], [11685, 2, 5, 2.19], [593, 2, 5, 0.92], [3893, 1, 5, 0.59], [624, 2, 4, 1.63], [146, 2, 7, 2.46], [8938, 2, 5, 0.5], [3891, 1, 4, 0.67], [8853, 2, 5, 2.1], [11404, 2, 4, 0.39], [21793, 1, 5, 0.89], [5208, 3, 8, 0.78], [3980, 4, 8, 0.48], [24257, 1, 4, 1.67], [192, 3, 13, 0.85], [3889, 1, 4, 0.76], [1007, 2, 4, 1.35], [12870, 1, 4, 1.52], [8672, 2, 4, 2.61], [20927, 1, 4, 0.98], [998, 2, 4, 1.35], [1886, 2, 4, 0.48], [2424, 80, 5, 0.61], [997, 2, 4, 0.99], [145, 2, 4, 2.26], [7573, 1, 7, 1.37], [10149, 3, 17, 1.1], [3, 2, 8, 0.51], [6158, 2, 6, 0.42], [12353, 1, 5, 4.0], [346, 3, 4, 1.92], [1622, 1, 4, 0.6], [957, 2, 4, 0.2], [3982, 3, 12, 0.99], [972, 3, 7, 1.01], [996, 2, 4, 0.2], [20252, 2, 4, 1.86], [74, 1, 4, 1.32], [214, 3, 11, 0.2], [5076, 1, 4, 1.24], [1492, 1, 4, 0.45], [11953, 1, 4, 0.4], [12346, 1, 4, 1.96], [4032, 29, 5, 0.72], [12721, 2, 4, 1.9], [6496, 1, 4, 0.64], [12229, 2, 4, 0.42], [1548, 1, 4, 1.5], [4253, 1, 4, 0.67], [23611, 3, 6, 1.86], [7567, 3, 4, 1.23], [12350, 1, 5, 2.49], [5434, 1, 4, 0.78], [12344, 1, 5, 2.86], [22316, 3, 4, 0.5], [3975, 4, 4, 1.33], [6497, 1, 4, 0.46], [8898, 3, 4, 2.44], [346, 1, 4, 2.16], [2424, 29, 4, 0.54], [2438, 2, 8, 0.2], [955, 2, 4, 1.51], [3981, 3, 11, 1.42], [12352, 1, 4, 0.78], [6097, 80, 4, 1.55], [5209, 3, 5, 1.06], [439, 1, 4, 1.47], [8677, 3, 6, 0.55], [972, 1, 4, 1.26], [823, 1, 4, 2.12], [11812, 1, 4, 0.44], [1243, 2, 4, 0.82], [5584, 3, 4, 0.49], [83, 2, 4, 0.73], [10780, 10, 5, 1.85], [4232, 80, 4, 0.4], [22317, 3, 4, 0.77], [2805, 137, 4, 1.57], [10407, 10, 6, 2.07], [12764, 2, 6, 0.23], [1895, 3, 4, 1.17], [8599, 1, 4, 1.13], [7704, 2, 4, 0.39], [7708, 2, 4, 0.8], [5435, 1, 4, 0.4], [71, 15, 4, 0.59], [995, 2, 4, 0.99], [10388, 2, 4, 0.5], [1703, 2, 4, 1.89], [216, 4, 4, 0.99], [8676, 2, 4, 1.91], [11942, 29, 4, 0.66], [956, 2, 4, 1.33], [12728, 1, 4, 0.39], [1233, 1, 4, 0.63], [3979, 3, 9, 0.19], [9372, 1, 4, 1.17], [18964, 1, 4, 0.39], [491, 10, 5, 1.97], [12647, 1, 4, 1.37], [6494, 1, 4, 0.47], [8274, 3, 4, 0.58], [1414, 15, 4, 0.45], [11936, 2, 4, 2.52], [4940, 1, 4, 0.46], [19047, 3, 4, 0.51], [5813, 3, 4, 0.88], [1309, 1, 4, 1.84], [1080, 3, 4, 0.99], [10936, 2, 4, 1.9], [2335, 3, 4, 0.56], [8635, 3, 4, 0.58], [1523, 1, 4, 2.7], [10386, 2, 4, 0.51], [7705, 2, 4, 0.47], [6805, 1, 4, 1.27], [8673, 2, 4, 0.85], [5585, 3, 4, 1.45], [9827, 3, 4, 0.43], [19931, 1, 4, 0.68], [5005, 3, 5, 0.71], [24725, 2, 4, 1.54], [10385, 2, 4, 1.12], [589, 2, 136, 4.16], [88, 10, 586, 3.63], [305, 2, 144, 4.53], [615, 2, 113, 2.06], [5493, 2, 103, 3.75], [616, 2, 105, 2.7], [7004, 1, 86, 3.4], [11681, 2, 283, 2.52], [8650, 2, 209, 6.0], [143, 2, 152, 6.0], [8648, 2, 223, 6.0], [7036, 1, 119, 5.11], [10, 2, 52, 2.93], [11685, 2, 262, 6.0], [593, 2, 245, 3.83], [3893, 1, 124, 3.1], [624, 2, 105, 4.9], [146, 2, 152, 5.83], [8938, 2, 189, 2.58], [3891, 1, 120, 3.21], [8853, 2, 282, 5.72], [11404, 2, 52, 1.75], [21793, 1, 245, 3.28], [5208, 3, 564, 4.19], [3980, 4, 449, 3.92], [24257, 1, 132, 5.55], [192, 3, 1369, 5.08], [3889, 1, 120, 3.38], [1007, 2, 288, 4.32], [12870, 1, 145, 4.37], [20927, 1, 81, 3.08], [998, 2, 220, 6.0], [1886, 2, 169, 2.11], [2424, 80, 166, 3.14], [997, 2, 241, 3.78], [145, 2, 141, 5.54], [7573, 1, 357, 6.0], [10149, 3, 910, 4.45], [3, 2, 118, 4.72], [6158, 2, 240, 5.29], [12353, 1, 586, 6.0], [346, 3, 586, 5.29], [1622, 1, 109, 3.6], [957, 2, 102, 2.19], [3982, 3, 772, 3.87], [972, 3, 547, 4.02], [996, 2, 231, 3.63], [20252, 2, 100, 4.91], [74, 1, 192, 3.73], [214, 3, 603, 2.63], [5076, 1, 122, 4.62], [1492, 1, 41, 2.06], [11953, 1, 216, 2.2], [12346, 1, 629, 4.96], [4032, 29, 91, 3.51], [12721, 2, 305, 4.85], [6496, 1, 44, 3.93], [12229, 2, 168, 1.99], [1548, 1, 107, 4.08], [4253, 1, 161, 3.64], [23611, 3, 279, 5.94], [7567, 3, 75, 3.56], [12350, 1, 586, 6.0], [5434, 1, 53, 3.11], [12344, 1, 586, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 4, 0.2], [5493, 2, 4, 1.09], [615, 2, 4, 0.35], [205, 2, 4, 0.37], [144, 2, 4, 1.12], [11681, 2, 4, 0.45], [589, 2, 5, 1.05], [7036, 1, 4, 0.43], [6936, 2, 5, 0.69], [616, 2, 4, 0.21], [3980, 4, 6, 0.95], [8648, 2, 4, 1.07], [3893, 1, 4, 0.77], [593, 2, 4, 1.33], [8650, 2, 4, 0.96], [141, 2, 9, 1.18], [7004, 1, 4, 0.69], [3891, 1, 4, 0.2], [206, 2, 4, 0.37], [10, 2, 6, 0.2], [21798, 1, 5, 0.36], [3889, 1, 4, 0.24], [146, 2, 6, 1.12], [3840, 1, 4, 0.45], [12870, 1, 6, 1.4], [8853, 2, 4, 1.11], [362, 2, 5, 0.94], [2054, 3, 4, 0.76], [624, 2, 4, 1.3], [2050, 3, 4, 0.76], [10993, 2, 5, 0.2], [94, 4, 6, 1.63], [8672, 2, 6, 0.98], [5165, 1, 4, 0.45], [145, 2, 4, 1.55], [5208, 3, 4, 1.04], [21793, 1, 4, 0.39], [3495, 3, 22, 0.87], [11404, 2, 5, 0.52], [2057, 3, 4, 0.76], [12349, 1, 4, 1.54], [6158, 2, 4, 0.88], [2912, 1, 4, 1.14], [12350, 1, 5, 1.54], [1006, 2, 5, 0.81], [12353, 1, 5, 1.54], [201, 3, 6, 0.26], [10574, 3, 6, 1.9], [996, 2, 5, 1.59], [345, 3, 4, 1.14], [12229, 2, 4, 0.45], [956, 2, 4, 1.3], [140, 2, 4, 0.77], [1492, 1, 5, 0.2], [8677, 3, 4, 1.83], [7567, 3, 5, 1.87], [5165, 2, 6, 0.45], [2436, 4, 5, 2.56], [4176, 4, 5, 1.15], [11953, 1, 4, 0.92], [5946, 1, 5, 0.35], [74, 1, 4, 4.0], [12212, 29, 4, 0.43], [214, 3, 10, 1.23], [346, 3, 4, 2.51], [22317, 3, 5, 1.04], [972, 3, 5, 1.0], [6497, 1, 4, 0.46], [12721, 2, 6, 0.9], [2336, 3, 5, 1.73], [2912, 2, 6, 1.12], [336, 15, 4, 0.44], [307, 2, 4, 1.27], [439, 1, 4, 0.88], [957, 2, 4, 0.4], [823, 1, 4, 1.27], [11490, 1, 4, 0.37], [12346, 1, 4, 3.03], [13023, 3, 5, 0.43], [3, 2, 4, 0.83], [1124, 2, 4, 0.78], [14037, 3, 4, 0.39], [12344, 1, 5, 1.54], [13928, 1, 4, 0.48], [11952, 1, 4, 1.67], [6494, 1, 4, 0.45], [10149, 3, 13, 0.84], [11180, 1, 4, 0.91], [411, 2, 4, 0.37], [24258, 1, 4, 2.39], [5209, 3, 5, 1.35], [12924, 1, 4, 0.67], [2104, 3, 6, 0.53], [1523, 1, 4, 2.63], [5435, 1, 4, 0.29], [8676, 2, 4, 1.91], [8673, 2, 4, 2.15], [24260, 1, 4, 0.9], [3983, 4, 4, 1.23], [9069, 1, 5, 0.92], [346, 1, 4, 2.75], [491, 10, 7, 1.31], [2805, 137, 4, 1.46], [20486, 3, 5, 0.26], [10936, 2, 4, 1.79], [10408, 10, 10, 0.42], [11089, 1, 4, 2.26], [8675, 2, 4, 1.44], [972, 1, 4, 1.18], [19047, 3, 5, 0.22], [95, 3, 11, 0.86], [5164, 1, 4, 0.26], [10388, 2, 4, 0.65], [8898, 3, 4, 2.44], [159, 16, 4, 0.48], [6952, 1, 4, 2.11], [590, 15, 4, 1.37], [11930, 1, 4, 0.58], [13244, 1, 4, 0.44], [1703, 2, 4, 1.91], [2335, 3, 4, 0.71], [10937, 2, 4, 0.89], [159, 3, 6, 0.19], [1895, 3, 4, 1.36], [2438, 2, 5, 0.65], [4175, 3, 8, 0.88], [12764, 2, 5, 0.53], [3337, 1, 4, 0.82], [2879, 1, 4, 0.9], [974, 3, 4, 0.53], [3475, 2, 4, 0.36], [10780, 10, 4, 1.11], [3338, 1, 4, 1.04], [8635, 3, 4, 1.45], [5584, 3, 4, 0.99], [130, 1, 67, 1.77], [5493, 2, 101, 4.01], [615, 2, 116, 1.79], [205, 2, 120, 1.84], [144, 2, 156, 3.28], [11681, 2, 300, 3.15], [589, 2, 142, 4.1], [7036, 1, 144, 3.4], [6936, 2, 289, 4.62], [616, 2, 108, 2.99], [3980, 4, 515, 6.0], [8648, 2, 243, 4.41], [3893, 1, 128, 3.63], [593, 2, 252, 4.4], [8650, 2, 195, 6.0], [141, 2, 147, 4.34], [3891, 1, 118, 3.55], [206, 2, 114, 1.83], [10, 2, 41, 2.12], [21798, 1, 144, 2.95], [3889, 1, 118, 3.29], [146, 2, 148, 4.73], [3840, 1, 156, 2.19], [12870, 1, 131, 6.0], [8853, 2, 307, 3.26], [362, 2, 141, 3.18], [2054, 3, 455, 2.89], [624, 2, 114, 3.62], [2050, 3, 455, 2.89], [10993, 2, 52, 3.77], [94, 4, 110, 4.96], [8672, 2, 301, 5.82], [5165, 1, 54, 1.99], [145, 2, 155, 6.0], [5208, 3, 507, 4.59], [21793, 1, 256, 2.28], [3495, 3, 1058, 4.61], [11404, 2, 94, 2.11], [2057, 3, 455, 2.89], [12349, 1, 611, 4.32], [6158, 2, 293, 2.88], [12350, 1, 611, 5.03], [1006, 2, 239, 2.92], [12353, 1, 611, 4.97], [201, 3, 317, 5.59], [10574, 3, 485, 5.92], [996, 2, 243, 5.0], [345, 3, 334, 3.3], [12229, 2, 173, 1.98], [956, 2, 105, 4.42], [140, 2, 101, 3.94], [1492, 1, 39, 3.3], [8677, 3, 303, 4.64], [7567, 3, 77, 4.19], [5165, 2, 436, 1.93], [2436, 4, 119, 5.05], [4176, 4, 488, 3.62], [11953, 1, 206, 3.98], [5946, 1, 118, 3.77], [74, 1, 191, 6.0], [12212, 29, 135, 1.94], [346, 3, 562, 6.0], [22317, 3, 310, 5.53], [972, 3, 663, 4.12], [6497, 1, 42, 2.01]]</t>
-  </si>
-  <si>
-    <t>[[5491, 2, 5, 0.61], [11685, 2, 4, 0.69], [8650, 2, 7, 1.71], [5493, 2, 4, 0.2], [8672, 2, 5, 0.49], [6935, 2, 7, 0.47], [1124, 2, 6, 0.39], [11681, 2, 5, 0.8], [2778, 2, 5, 1.81], [6936, 2, 5, 0.7], [12721, 2, 4, 1.9], [305, 2, 8, 0.98], [1446, 2, 4, 1.01], [8676, 2, 5, 1.45], [413, 1, 4, 0.72], [990, 2, 4, 0.76], [8673, 2, 4, 0.97], [21793, 1, 4, 0.69], [615, 2, 4, 0.91], [593, 2, 5, 0.2], [8675, 2, 5, 0.73], [1429, 2, 4, 2.24], [6158, 2, 5, 0.45], [434, 2, 4, 1.56], [7705, 2, 5, 0.2], [8938, 2, 4, 1.27], [145, 2, 4, 1.35], [88, 10, 8, 0.69], [201, 3, 7, 0.51], [7704, 2, 4, 0.67], [308, 1, 7, 1.12], [146, 2, 4, 1.39], [2055, 3, 4, 1.92], [7886, 4, 6, 0.2], [2054, 3, 4, 1.92], [12349, 1, 4, 0.99], [10993, 2, 5, 0.83], [75, 2, 4, 1.13], [2057, 3, 4, 1.16], [345, 3, 4, 2.16], [3495, 3, 13, 0.48], [5165, 1, 4, 0.45], [9784, 1, 4, 1.81], [7885, 4, 5, 0.21], [2050, 3, 6, 1.16], [10149, 3, 13, 0.75], [60, 3, 5, 2.58], [414, 1, 4, 0.72], [2423, 80, 4, 1.23], [144, 2, 4, 2.18], [2703, 3, 4, 3.45], [22316, 3, 4, 1.54], [12344, 1, 4, 3.35], [13023, 3, 5, 1.51], [1886, 2, 4, 1.39], [2424, 29, 4, 1.4], [2859, 15, 4, 1.31], [5812, 3, 6, 1.51], [2424, 80, 4, 1.39], [6952, 1, 4, 2.1], [3891, 1, 4, 1.76], [3893, 1, 4, 1.76], [6494, 1, 4, 0.45], [13034, 3, 5, 1.53], [2423, 29, 4, 0.61], [22558, 3, 4, 0.5], [952, 4, 4, 1.48], [192, 3, 10, 1.69], [12343, 1, 4, 0.99], [1414, 15, 4, 0.55], [94, 4, 4, 1.04], [410, 1, 4, 1.41], [7005, 1, 4, 0.52], [3, 2, 4, 1.31], [5946, 1, 4, 1.76], [7708, 2, 4, 1.22], [2331, 1, 4, 2.39], [5729, 2, 4, 0.77], [7703, 2, 4, 1.22], [3980, 4, 4, 1.12], [5208, 3, 5, 2.0], [5811, 3, 4, 2.6], [1490, 1, 4, 1.32], [7707, 2, 4, 0.78], [13033, 3, 4, 1.51], [3889, 1, 4, 1.76], [1274, 1, 4, 0.92], [5584, 3, 4, 0.93], [3429, 15, 4, 0.64], [7887, 4, 4, 0.83], [11089, 1, 4, 1.35], [5813, 3, 5, 2.91], [11161, 1, 6, 1.89], [22317, 3, 4, 1.64], [3981, 3, 13, 1.42], [1492, 1, 4, 1.51], [6630, 3, 4, 1.18], [1309, 1, 4, 1.84], [12373, 1, 5, 0.49], [11586, 1, 13, 2.18], [11769, 1, 4, 0.52], [2912, 1, 4, 0.4], [8274, 3, 4, 1.07], [1661, 3, 4, 2.12], [24257, 1, 4, 1.56], [957, 2, 4, 0.94], [12345, 1, 4, 0.4], [823, 1, 4, 1.32], [10897, 1, 8, 0.49], [12925, 1, 4, 0.48], [1699, 3, 4, 1.42], [5165, 2, 5, 0.45], [1667, 3, 4, 2.12], [9082, 3, 15, 0.6], [10398, 2, 4, 0.98], [2991, 3, 4, 1.36], [11288, 2, 4, 0.5], [8897, 3, 4, 1.3], [23611, 3, 5, 1.82], [6496, 1, 4, 0.78], [515, 24, 4, 1.29], [956, 2, 4, 1.03], [9690, 1, 4, 0.8], [944, 15, 4, 0.48], [21269, 3, 4, 1.82], [6497, 1, 4, 0.56], [3028, 3, 4, 0.45], [1050, 2, 4, 0.67], [10516, 3, 5, 1.52], [20969, 3, 4, 1.07], [9068, 1, 4, 0.5], [955, 2, 4, 0.91], [95, 3, 9, 2.4], [10410, 10, 6, 3.48], [9760, 29, 4, 1.0], [5491, 2, 113, 3.43], [11685, 2, 309, 4.72], [8650, 2, 218, 6.0], [5493, 2, 108, 2.66], [8672, 2, 328, 2.73], [6935, 2, 317, 2.53], [1124, 2, 214, 2.43], [11681, 2, 306, 3.31], [2778, 2, 150, 5.12], [6936, 2, 315, 3.26], [12721, 2, 160, 5.79], [305, 2, 144, 4.53], [1446, 2, 170, 3.21], [8676, 2, 310, 4.56], [413, 1, 97, 3.42], [990, 2, 22, 3.33], [8673, 2, 289, 3.48], [21793, 1, 242, 2.92], [615, 2, 116, 4.21], [593, 2, 234, 2.69], [8675, 2, 290, 3.32], [1429, 2, 161, 5.58], [6158, 2, 301, 2.55], [434, 2, 111, 5.43], [7705, 2, 191, 3.71], [8938, 2, 214, 3.82], [145, 2, 161, 4.6], [88, 10, 600, 4.58], [7704, 2, 181, 3.29], [308, 1, 182, 5.14], [146, 2, 170, 3.94], [2055, 3, 468, 5.01], [2054, 3, 468, 5.01], [12349, 1, 666, 4.24], [10993, 2, 23, 3.25], [75, 2, 153, 5.81], [2057, 3, 468, 5.01], [3495, 3, 1151, 2.12], [5165, 1, 55, 2.14], [9784, 1, 81, 5.0], [2050, 3, 468, 5.01], [10149, 3, 1005, 3.46], [60, 3, 798, 6.0], [414, 1, 97, 3.42], [2423, 80, 206, 3.87], [144, 2, 170, 5.47], [2703, 3, 291, 6.0], [22316, 3, 340, 4.29], [12344, 1, 612, 6.0], [13023, 3, 677, 4.58], [1886, 2, 154, 3.95], [2424, 29, 37, 4.03], [2859, 15, 79, 3.85], [5812, 3, 621, 5.46], [2424, 80, 188, 4.94], [6952, 1, 205, 5.31], [3891, 1, 125, 4.88], [3893, 1, 125, 4.65], [6494, 1, 59, 2.14], [13034, 3, 612, 4.27], [2423, 29, 41, 2.44], [22558, 3, 458, 3.9], [952, 4, 88, 4.89], [192, 3, 1496, 5.33], [12343, 1, 666, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 5, 0.24], [6936, 2, 5, 0.43], [2776, 2, 4, 1.77], [8853, 2, 4, 1.63], [145, 2, 6, 0.42], [12721, 2, 8, 1.9], [8673, 2, 8, 0.73], [11681, 2, 5, 0.8], [8675, 2, 6, 0.73], [143, 2, 5, 0.24], [146, 2, 5, 0.37], [5491, 2, 4, 1.05], [616, 2, 4, 1.37], [205, 2, 6, 1.83], [1124, 2, 6, 0.98], [6097, 80, 4, 0.24], [144, 2, 4, 0.48], [8676, 2, 5, 1.21], [8650, 2, 4, 0.85], [6097, 29, 5, 0.24], [3, 2, 4, 1.35], [990, 2, 4, 1.04], [589, 2, 4, 0.76], [206, 2, 4, 1.6], [88, 10, 8, 0.96], [6098, 80, 5, 0.63], [593, 2, 6, 0.8], [326, 2, 4, 0.39], [75, 2, 4, 1.12], [6158, 2, 5, 1.32], [1492, 1, 4, 1.1], [7704, 2, 4, 1.07], [345, 3, 4, 2.69], [24722, 2, 8, 1.29], [6496, 1, 4, 0.78], [2859, 15, 4, 1.31], [1490, 1, 4, 1.32], [1413, 15, 4, 1.08], [434, 2, 4, 0.61], [7705, 2, 4, 0.54], [432, 3, 4, 2.19], [411, 2, 4, 0.64], [1243, 2, 4, 0.65], [346, 3, 4, 2.5], [346, 1, 4, 1.78], [7886, 4, 6, 0.45], [10149, 3, 13, 0.59], [2703, 3, 4, 1.54], [22316, 3, 4, 0.5], [24257, 1, 5, 1.13], [5208, 3, 6, 1.5], [201, 3, 5, 1.25], [7708, 2, 4, 0.54], [12346, 1, 4, 1.26], [12229, 2, 4, 0.48], [1409, 15, 4, 0.39], [2331, 1, 4, 2.33], [21793, 1, 4, 1.54], [10407, 10, 6, 1.98], [96, 11, 15, 1.32], [515, 24, 4, 1.92], [1886, 2, 4, 0.8], [13023, 3, 6, 1.76], [11404, 2, 4, 0.42], [94, 4, 4, 2.36], [20927, 1, 4, 2.02], [11844, 2, 4, 1.79], [7036, 1, 4, 2.02], [20682, 1, 4, 0.36], [9690, 1, 4, 2.59], [7885, 4, 4, 1.06], [11490, 1, 4, 0.64], [7005, 1, 4, 2.02], [12347, 1, 4, 3.0], [10410, 10, 6, 3.48], [5584, 3, 4, 0.93], [159, 16, 4, 0.46], [12350, 1, 4, 4.0], [21798, 1, 4, 2.03], [11687, 2, 4, 0.42], [11161, 1, 6, 1.42], [20680, 1, 4, 0.7], [12870, 1, 4, 1.19], [10408, 10, 6, 0.52], [98, 11, 15, 1.85], [12053, 2, 4, 0.38], [965, 1, 4, 1.5], [3104, 1, 4, 0.9], [24724, 2, 6, 0.82], [11164, 1, 4, 2.8], [1139, 3, 4, 0.38], [410, 1, 4, 0.98], [5976, 1, 4, 1.93], [8600, 1, 4, 2.02], [11690, 2, 5, 0.4], [7707, 2, 4, 1.08], [9186, 29, 4, 0.43], [10411, 10, 6, 0.49], [21781, 2, 4, 0.38], [5209, 3, 5, 1.65], [11159, 1, 8, 4.0], [12055, 2, 4, 0.38], [11689, 2, 4, 0.36], [4253, 1, 4, 1.92], [12924, 1, 4, 0.46], [10409, 10, 6, 1.41], [9081, 3, 8, 1.66], [3495, 3, 13, 0.48], [24258, 1, 4, 2.22], [22125, 2, 4, 0.36], [4372, 1, 4, 0.49], [5076, 1, 4, 1.8], [24256, 1, 4, 2.05], [11510, 3, 5, 3.44], [11304, 2, 4, 0.47], [12304, 1, 4, 1.57], [955, 2, 4, 3.23], [1648, 1, 4, 1.34], [247, 1, 4, 1.08], [951, 4, 4, 0.51], [13028, 3, 4, 1.6], [3891, 1, 4, 2.08], [8659, 1, 4, 1.42], [23611, 3, 5, 2.0], [95, 3, 9, 0.89], [3477, 2, 4, 0.39], [2436, 4, 4, 1.09], [12764, 2, 5, 1.22], [8635, 3, 4, 1.46], [7558, 3, 4, 0.38], [8274, 3, 4, 2.22], [13489, 1, 4, 0.36], [5869, 1, 4, 3.32], [21010, 2, 4, 1.9], [942, 3, 4, 1.0], [9491, 21, 10, 0.69], [8672, 2, 294, 3.96], [6936, 2, 318, 2.5], [2776, 2, 181, 4.74], [8853, 2, 313, 5.29], [145, 2, 166, 4.54], [12721, 2, 304, 5.83], [8673, 2, 307, 5.81], [11681, 2, 306, 3.31], [8675, 2, 279, 4.17], [143, 2, 131, 4.96], [146, 2, 166, 4.73], [5491, 2, 102, 3.73], [616, 2, 115, 3.9], [1124, 2, 200, 3.93], [6097, 80, 72, 2.46], [144, 2, 166, 4.58], [8676, 2, 278, 4.65], [8650, 2, 230, 5.54], [6097, 29, 36, 2.46], [3, 2, 118, 3.86], [990, 2, 56, 3.84], [589, 2, 154, 3.05], [88, 10, 600, 4.58], [6098, 80, 76, 3.42], [593, 2, 256, 3.47], [326, 2, 103, 2.26], [75, 2, 153, 5.7], [6158, 2, 99, 4.81], [1492, 1, 42, 3.39], [7704, 2, 202, 3.46], [24722, 2, 58, 3.4], [6496, 1, 46, 4.04], [2859, 15, 79, 3.85], [1490, 1, 55, 5.13], [1413, 15, 114, 3.41], [434, 2, 111, 3.74], [7705, 2, 202, 2.78], [432, 3, 320, 6.0], [411, 2, 121, 2.5], [1243, 2, 109, 2.73], [346, 3, 505, 6.0], [346, 1, 168, 4.77], [10149, 3, 997, 2.76], [2703, 3, 288, 4.9], [22316, 3, 338, 3.9], [24257, 1, 142, 5.56], [5208, 3, 513, 4.47], [201, 3, 320, 5.82], [7708, 2, 202, 2.78], [12346, 1, 673, 5.26], [12229, 2, 176, 2.19], [1409, 15, 41, 1.91], [2331, 1, 118, 5.76], [21793, 1, 251, 5.93], [10407, 10, 1171, 5.6], [96, 11, 886, 5.21], [515, 24, 206, 4.96], [1886, 2, 176, 2.8], [13023, 3, 603, 5.92], [11404, 2, 61, 2.01], [94, 4, 127, 5.81], [20927, 1, 88, 5.16], [11844, 2, 301, 5.35], [7036, 1, 143, 5.15]]</t>
-  </si>
-  <si>
-    <t>[[3, 2, 5, 0.45], [8675, 2, 4, 0.48], [8676, 2, 6, 1.1], [6936, 2, 6, 0.72], [305, 2, 7, 1.05], [8674, 2, 4, 0.47], [2327, 2, 4, 1.0], [6097, 80, 4, 0.88], [8650, 2, 4, 0.85], [6097, 29, 4, 0.52], [411, 2, 4, 0.36], [2805, 137, 8, 2.66], [326, 2, 4, 1.32], [6496, 1, 5, 0.22], [6098, 80, 4, 0.57], [192, 3, 13, 0.99], [75, 2, 4, 2.33], [2057, 3, 4, 2.29], [11504, 2, 4, 0.59], [434, 2, 5, 0.86], [10149, 3, 16, 0.6], [2054, 3, 4, 2.29], [1886, 2, 4, 1.09], [88, 10, 8, 1.8], [1413, 15, 4, 0.62], [1243, 2, 4, 0.65], [5812, 3, 4, 2.44], [6158, 2, 5, 0.88], [8915, 2, 4, 0.98], [436, 2, 4, 1.79], [944, 15, 4, 0.43], [21793, 1, 4, 1.54], [107, 2, 4, 0.58], [1409, 15, 5, 0.2], [1414, 15, 4, 0.36], [140, 2, 4, 2.87], [22316, 3, 4, 0.42], [201, 3, 7, 1.89], [5208, 3, 5, 0.45], [5813, 3, 5, 2.44], [1699, 3, 4, 1.54], [12344, 1, 4, 1.07], [94, 4, 4, 1.04], [23920, 2, 4, 0.49], [4253, 1, 4, 1.96], [10398, 2, 4, 0.98], [307, 2, 4, 0.4], [3495, 3, 13, 0.48], [7004, 1, 4, 1.49], [24724, 2, 6, 0.68], [11671, 1, 4, 0.99], [8599, 1, 4, 4.0], [515, 24, 4, 1.48], [1309, 1, 4, 1.98], [11489, 1, 4, 1.16], [9491, 21, 10, 0.69], [13962, 1, 4, 0.48], [229, 1, 4, 3.01], [5584, 3, 4, 0.93], [11887, 2, 4, 0.44], [8659, 1, 4, 0.72], [8085, 1, 4, 0.76], [13266, 29, 4, 0.44], [410, 1, 4, 0.98], [1701, 2, 4, 2.39], [9209, 29, 4, 1.49], [18964, 1, 4, 0.39], [9690, 1, 4, 2.11], [7573, 1, 4, 3.07], [7036, 1, 4, 2.02], [2438, 2, 5, 3.0], [105, 3, 5, 1.07], [12764, 2, 5, 0.48], [964, 15, 4, 2.04], [1523, 1, 4, 3.65], [2438, 1, 4, 1.56], [21269, 3, 4, 1.82], [7005, 1, 4, 0.71], [13023, 3, 6, 1.76], [22125, 2, 4, 0.36], [4940, 1, 4, 0.45], [1274, 1, 4, 0.78], [955, 2, 4, 3.23], [11808, 1, 4, 1.37], [11081, 3, 4, 1.99], [21781, 2, 4, 0.38], [7885, 4, 4, 1.06], [9208, 29, 4, 1.7], [963, 3, 4, 1.35], [24127, 3, 4, 0.37], [4001, 3, 7, 1.37], [1648, 1, 4, 1.37], [439, 1, 4, 2.89], [11690, 2, 5, 0.4], [13033, 3, 4, 0.44], [6575, 3, 4, 1.5], [24723, 2, 4, 1.27], [8635, 3, 4, 1.46], [11678, 1, 4, 1.39], [11677, 1, 4, 1.35], [8274, 3, 4, 2.22], [520, 3, 4, 1.29], [5733, 2, 4, 0.72], [11689, 2, 4, 0.36], [10406, 10, 7, 1.65], [21783, 2, 4, 0.43], [20978, 1, 4, 1.28], [13034, 3, 5, 0.44], [965, 1, 4, 1.36], [3673, 2, 4, 1.46], [10994, 2, 4, 0.77], [942, 3, 4, 1.0], [11625, 29, 4, 0.54], [3984, 3, 6, 1.22], [11687, 2, 4, 0.42], [382, 1, 4, 0.69], [9069, 1, 4, 1.51], [11812, 1, 4, 0.65], [11089, 1, 4, 1.69], [20682, 1, 4, 0.36], [7558, 3, 4, 0.38], [12347, 1, 4, 1.15], [2188, 1, 4, 0.39], [10407, 10, 6, 1.47], [10408, 10, 6, 0.52], [3979, 3, 6, 1.34], [5976, 1, 4, 2.56], [10409, 10, 6, 1.41], [3975, 4, 4, 1.31], [4176, 4, 4, 1.22], [11510, 3, 5, 3.44], [3016, 68, 4, 2.5], [88, 1, 4, 1.75], [20977, 1, 4, 1.28], [24725, 2, 4, 1.58], [3, 2, 118, 2.39], [8675, 2, 330, 2.45], [8676, 2, 278, 5.18], [6936, 2, 299, 4.46], [305, 2, 159, 4.53], [8674, 2, 297, 2.42], [2327, 2, 153, 3.19], [6097, 80, 79, 2.96], [8650, 2, 230, 5.54], [6097, 29, 39, 2.27], [2805, 137, 169, 4.93], [6496, 1, 42, 4.04], [6098, 80, 76, 3.36], [192, 3, 1437, 5.98], [75, 2, 157, 5.75], [2057, 3, 514, 5.68], [11504, 2, 158, 2.5], [434, 2, 105, 4.69], [10149, 3, 912, 3.46], [2054, 3, 514, 5.68], [1886, 2, 174, 5.14], [88, 10, 600, 5.75], [1413, 15, 103, 3.7], [1243, 2, 109, 2.73], [5812, 3, 657, 6.0], [6158, 2, 295, 3.78], [8915, 2, 214, 4.76], [436, 2, 75, 4.61], [944, 15, 50, 2.1], [21793, 1, 251, 5.93], [107, 2, 53, 2.39], [1409, 15, 46, 2.14], [1414, 15, 116, 1.96], [140, 2, 99, 6.0], [22316, 3, 362, 2.08], [201, 3, 317, 5.07], [5208, 3, 609, 3.71], [5813, 3, 657, 5.66], [1699, 3, 232, 4.3], [12344, 1, 654, 4.17], [94, 4, 130, 4.55], [23920, 2, 109, 3.82], [4253, 1, 189, 5.18], [10398, 2, 164, 4.15], [307, 2, 153, 3.09], [3495, 3, 1151, 2.12], [7004, 1, 87, 4.13], [24724, 2, 65, 3.31], [11671, 1, 333, 5.03], [8599, 1, 159, 6.0], [515, 24, 214, 4.11], [1309, 1, 56, 5.15], [9491, 21, 2321, 4.55], [13962, 1, 119, 2.18], [229, 1, 92, 6.0], [5584, 3, 249, 3.06], [11887, 2, 220, 2.12], [8659, 1, 139, 2.66], [8085, 1, 103, 2.95], [13266, 29, 131, 2.12], [410, 1, 116, 4.8], [1701, 2, 159, 5.94], [9209, 29, 36, 4.96], [9690, 1, 81, 5.33], [7573, 1, 382, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 8, 0.52], [5491, 2, 5, 1.11], [8672, 2, 12, 2.36], [8650, 2, 4, 2.28], [6936, 2, 6, 0.51], [5493, 2, 5, 1.51], [143, 2, 10, 1.4], [75, 2, 4, 1.22], [145, 2, 5, 0.77], [205, 2, 4, 0.45], [8673, 2, 5, 2.15], [88, 10, 15, 1.0], [146, 2, 5, 0.57], [990, 2, 4, 0.36], [308, 1, 7, 1.59], [12721, 2, 5, 0.47], [206, 2, 4, 0.54], [326, 2, 4, 0.35], [7704, 2, 4, 0.65], [8675, 2, 8, 0.7], [1005, 2, 5, 0.59], [2424, 29, 4, 0.42], [144, 2, 4, 0.61], [6158, 2, 5, 0.45], [8676, 2, 7, 1.66], [2497, 2, 4, 1.57], [2424, 80, 4, 0.45], [1413, 15, 4, 1.08], [192, 3, 11, 0.85], [3, 2, 4, 1.31], [74, 1, 4, 0.64], [345, 3, 6, 0.74], [60, 3, 5, 2.01], [2859, 15, 4, 1.31], [2774, 2, 4, 2.33], [94, 4, 4, 1.3], [7084, 3, 4, 0.84], [2054, 3, 4, 1.92], [346, 1, 4, 1.51], [201, 3, 6, 1.11], [7703, 2, 4, 0.9], [22316, 3, 5, 0.46], [1409, 15, 5, 0.2], [2055, 3, 4, 1.92], [3893, 1, 4, 0.82], [6630, 3, 4, 0.45], [346, 3, 5, 1.21], [13028, 3, 4, 2.36], [10149, 3, 13, 0.75], [1050, 2, 4, 0.55], [24257, 1, 4, 1.29], [11581, 29, 4, 0.57], [13034, 3, 5, 1.53], [6097, 80, 4, 0.93], [6628, 3, 5, 0.74], [2057, 3, 4, 1.92], [13023, 3, 5, 1.53], [3477, 2, 4, 0.39], [6627, 3, 4, 0.2], [3891, 1, 4, 0.82], [3889, 1, 4, 0.82], [11919, 1, 5, 0.44], [12343, 1, 4, 1.54], [1243, 2, 4, 0.82], [5812, 3, 5, 1.54], [951, 4, 5, 1.54], [21793, 1, 4, 0.44], [8274, 3, 7, 2.02], [11089, 1, 4, 0.97], [7036, 1, 4, 1.53], [9827, 3, 4, 0.77], [12345, 1, 4, 4.0], [411, 2, 4, 0.54], [7005, 1, 4, 2.53], [5811, 3, 5, 2.88], [9126, 1, 4, 1.02], [2050, 3, 5, 1.92], [6496, 1, 4, 0.78], [515, 24, 4, 2.24], [22317, 3, 4, 1.64], [13033, 3, 5, 0.8], [9124, 1, 4, 0.83], [1490, 1, 4, 1.32], [12229, 2, 4, 0.23], [5208, 3, 5, 1.56], [2331, 1, 4, 2.39], [7573, 1, 4, 3.07], [5813, 3, 6, 1.58], [12344, 1, 4, 1.31], [1703, 2, 4, 1.03], [5729, 2, 4, 1.4], [21269, 3, 4, 1.82], [942, 3, 4, 0.75], [410, 1, 4, 0.98], [4940, 1, 4, 0.47], [23611, 3, 5, 2.0], [11586, 1, 13, 2.18], [5584, 3, 4, 0.93], [1886, 2, 4, 0.75], [1309, 1, 4, 1.98], [3495, 3, 13, 0.48], [8635, 3, 5, 1.2], [10406, 10, 8, 1.53], [2805, 137, 5, 2.21], [24258, 1, 4, 1.31], [13498, 3, 4, 0.7], [247, 1, 4, 1.08], [590, 15, 4, 1.62], [5946, 1, 4, 0.82], [229, 1, 4, 3.01], [9829, 3, 4, 2.12], [10408, 10, 6, 0.52], [20555, 2, 4, 0.42], [13244, 1, 4, 0.73], [10407, 10, 6, 0.62], [9491, 21, 10, 3.1], [3934, 5, 9, 0.44], [10409, 10, 8, 1.24], [9828, 3, 4, 1.93], [2438, 1, 4, 1.56], [95, 3, 9, 2.4], [9289, 29, 4, 2.25], [3900, 3, 4, 0.39], [12870, 1, 4, 2.49], [10716, 3, 4, 0.55], [11510, 3, 5, 2.03], [24256, 1, 4, 1.87], [88, 1, 4, 1.75], [11930, 1, 4, 0.59], [2013, 2, 4, 0.56], [5736, 2, 4, 0.52], [7007, 1, 4, 1.16], [972, 3, 5, 1.48], [9796, 3, 7, 0.47], [3143, 3, 4, 0.52], [9082, 3, 15, 0.6], [6935, 2, 274, 4.62], [5491, 2, 112, 5.07], [8650, 2, 218, 5.68], [6936, 2, 304, 6.0], [5493, 2, 108, 4.26], [143, 2, 168, 4.29], [75, 2, 158, 4.95], [145, 2, 168, 3.47], [205, 2, 109, 2.48], [8673, 2, 287, 5.66], [88, 10, 552, 3.36], [146, 2, 168, 4.15], [990, 2, 57, 3.01], [308, 1, 187, 6.0], [12721, 2, 286, 4.87], [326, 2, 52, 1.76], [7704, 2, 192, 3.98], [8675, 2, 307, 5.34], [1005, 2, 89, 3.08], [2424, 29, 39, 2.08], [144, 2, 177, 2.44], [6158, 2, 301, 2.55], [2497, 2, 224, 4.36], [2424, 80, 194, 2.14], [1413, 15, 114, 3.41], [192, 3, 1353, 5.08], [3, 2, 118, 3.86], [74, 1, 216, 3.51], [345, 3, 321, 3.43], [60, 3, 904, 5.23], [2859, 15, 79, 3.85], [2774, 2, 224, 5.76], [94, 4, 123, 3.76], [7084, 3, 142, 4.22], [2054, 3, 516, 4.97], [346, 1, 158, 4.74], [201, 3, 321, 4.22], [7703, 2, 191, 3.75], [22316, 3, 293, 4.82], [2055, 3, 516, 4.97], [3893, 1, 123, 4.73], [6630, 3, 114, 2.14], [346, 3, 632, 4.95], [13028, 3, 161, 5.8], [10149, 3, 1005, 3.46], [1050, 2, 48, 2.21], [24257, 1, 137, 6.0], [11581, 29, 70, 4.02], [13034, 3, 612, 4.27], [6097, 80, 78, 3.06], [6628, 3, 106, 4.51], [2057, 3, 516, 4.97], [3477, 2, 59, 3.32], [6627, 3, 85, 2.98], [3891, 1, 123, 4.73], [3889, 1, 123, 4.73], [11919, 1, 153, 2.37], [12343, 1, 618, 4.48], [1243, 2, 110, 3.69], [5812, 3, 579, 5.37], [951, 4, 99, 4.55], [21793, 1, 270, 2.67], [11089, 1, 195, 3.14], [7036, 1, 134, 4.22]]</t>
-  </si>
-  <si>
-    <t>[[11681, 2, 9, 1.55], [589, 2, 5, 0.51], [8650, 2, 4, 0.44], [8648, 2, 4, 1.49], [2776, 2, 4, 0.4], [593, 2, 6, 0.53], [8853, 2, 5, 1.64], [1429, 2, 5, 0.84], [21793, 1, 5, 2.36], [5493, 2, 4, 1.33], [11683, 2, 13, 0.91], [201, 3, 5, 2.27], [417, 2, 4, 0.65], [434, 2, 4, 1.37], [345, 3, 6, 1.25], [1124, 2, 5, 0.89], [8089, 1, 4, 0.2], [6097, 80, 4, 0.35], [6952, 1, 4, 3.58], [147, 1, 4, 0.96], [145, 2, 4, 0.48], [432, 3, 5, 2.79], [12350, 1, 4, 2.02], [2912, 1, 4, 1.13], [3891, 1, 4, 1.0], [146, 2, 4, 0.64], [6158, 2, 4, 0.85], [3893, 1, 4, 1.0], [616, 2, 4, 0.36], [10149, 3, 13, 0.75], [144, 2, 4, 0.48], [13028, 3, 4, 1.9], [4032, 29, 4, 1.93], [20927, 1, 4, 0.81], [6097, 29, 4, 0.46], [20252, 2, 4, 1.21], [5208, 3, 4, 1.0], [12870, 1, 4, 1.2], [24257, 1, 5, 1.47], [11504, 2, 4, 0.47], [5812, 3, 4, 0.77], [3889, 1, 4, 1.0], [24258, 1, 4, 1.46], [11089, 1, 7, 0.33], [2423, 80, 4, 1.23], [3334, 5, 4, 2.09], [12304, 1, 4, 0.53], [2057, 3, 4, 1.05], [12346, 1, 4, 2.02], [3576, 25, 4, 0.67], [10517, 29, 4, 1.72], [22316, 3, 4, 0.5], [9289, 29, 4, 0.37], [13893, 2, 5, 0.83], [1490, 1, 4, 1.0], [2912, 2, 5, 1.45], [75, 2, 7, 0.2], [972, 3, 4, 0.99], [9964, 2, 4, 1.82], [13034, 3, 4, 2.0], [11954, 1, 4, 1.01], [9372, 1, 4, 1.16], [9069, 1, 4, 0.67], [3, 2, 4, 1.28], [410, 1, 4, 0.62], [7886, 4, 4, 0.42], [3478, 2, 4, 1.64], [957, 2, 4, 0.95], [11426, 25, 4, 0.51], [214, 3, 10, 0.53], [6494, 1, 4, 0.51], [13280, 1, 4, 0.38], [12764, 2, 5, 0.48], [13244, 1, 4, 0.44], [8677, 3, 5, 1.35], [4253, 1, 4, 1.21], [823, 1, 4, 1.61], [161, 3, 6, 1.69], [2160, 68, 4, 0.2], [5209, 3, 4, 0.45], [21697, 3, 4, 0.52], [23235, 25, 4, 0.77], [149, 2, 4, 0.96], [2805, 137, 4, 0.9], [9691, 1, 4, 1.5], [4033, 29, 4, 0.2], [1277, 1, 4, 1.05], [490, 1, 4, 0.36], [2438, 2, 5, 0.37], [11404, 2, 4, 1.07], [5584, 3, 5, 0.31], [10609, 1, 4, 0.73], [7887, 4, 4, 0.94], [9491, 21, 9, 0.69], [8659, 1, 4, 0.92], [12338, 29, 4, 0.41], [1309, 1, 4, 0.48], [7704, 2, 4, 0.54], [8285, 2, 5, 0.4], [7567, 3, 4, 0.79], [13033, 3, 5, 0.9], [5811, 3, 4, 0.49], [21700, 3, 4, 1.67], [1523, 1, 4, 2.24], [13244, 2, 7, 0.43], [11942, 29, 4, 0.39], [956, 2, 4, 0.8], [10407, 10, 7, 1.58], [22317, 3, 4, 0.4], [3576, 29, 4, 1.21], [5813, 3, 4, 3.85], [14017, 3, 4, 2.12], [9827, 3, 4, 1.5], [20969, 3, 5, 0.68], [23234, 25, 4, 1.05], [389, 4, 4, 1.78], [335, 3, 8, 1.54], [1801, 1, 4, 0.47], [6497, 1, 4, 0.45], [2528, 29, 4, 0.62], [12647, 1, 4, 1.29], [105, 3, 4, 0.86], [21699, 3, 4, 0.52], [1667, 3, 4, 1.96], [6496, 1, 4, 0.61], [13498, 3, 4, 0.7], [10616, 1, 4, 1.03], [18964, 1, 4, 0.39], [9082, 3, 13, 0.51], [19925, 2, 4, 1.69], [2335, 3, 4, 0.69], [21701, 3, 4, 1.67], [13281, 1, 4, 0.81], [66, 15, 4, 0.39], [11681, 2, 307, 6.0], [589, 2, 169, 3.54], [8650, 2, 219, 3.79], [8648, 2, 248, 4.73], [2776, 2, 179, 3.33], [593, 2, 217, 3.78], [8853, 2, 311, 5.18], [1429, 2, 159, 4.57], [21793, 1, 234, 6.0], [5493, 2, 112, 3.83], [11683, 2, 270, 5.5], [201, 3, 259, 5.93], [417, 2, 172, 3.13], [434, 2, 113, 4.49], [345, 3, 285, 5.29], [1124, 2, 196, 3.53], [8089, 1, 72, 2.76], [6097, 80, 78, 2.44], [6952, 1, 206, 6.0], [147, 1, 98, 3.35], [145, 2, 169, 2.64], [12350, 1, 670, 5.11], [2912, 1, 53, 3.39], [3891, 1, 133, 3.14], [146, 2, 169, 2.61], [6158, 2, 296, 3.22], [3893, 1, 133, 3.14], [616, 2, 117, 1.9], [10149, 3, 990, 3.49], [144, 2, 169, 2.36], [13028, 3, 168, 4.87], [4032, 29, 106, 4.93], [20927, 1, 89, 2.77], [6097, 29, 39, 2.1], [20252, 2, 104, 3.54], [5208, 3, 570, 5.85], [12870, 1, 142, 4.39], [24257, 1, 152, 5.4], [11504, 2, 158, 2.11], [5812, 3, 638, 5.06], [3889, 1, 133, 3.14], [24258, 1, 152, 4.77], [11089, 1, 162, 3.72], [2423, 80, 204, 3.61], [3334, 5, 198, 5.23], [12304, 1, 112, 2.48], [12346, 1, 670, 5.35], [3576, 25, 112, 4.48], [10517, 29, 79, 4.99], [22316, 3, 333, 3.85], [9289, 29, 71, 3.18], [13893, 2, 302, 5.52], [1490, 1, 25, 5.31], [2912, 2, 364, 4.6], [75, 2, 155, 3.35], [972, 3, 657, 4.18], [9964, 2, 302, 5.75], [13034, 3, 664, 5.06], [11954, 1, 223, 3.43], [9372, 1, 256, 3.44], [9069, 1, 136, 2.64], [3, 2, 128, 3.67], [7886, 4, 72, 1.83], [3478, 2, 84, 4.37], [957, 2, 38, 2.74], [11426, 25, 134, 2.19]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 8, 0.97], [589, 2, 5, 1.15], [990, 2, 4, 0.2], [12721, 2, 6, 1.22], [1776, 1, 4, 1.1], [10, 2, 4, 0.43], [8675, 2, 6, 0.73], [1777, 1, 5, 0.2], [3, 2, 4, 0.59], [147, 1, 4, 1.49], [8650, 2, 5, 0.41], [1007, 2, 9, 0.2], [13028, 3, 5, 0.5], [88, 10, 14, 0.19], [8677, 3, 5, 2.31], [10149, 3, 15, 1.32], [3478, 2, 5, 1.14], [413, 1, 4, 1.2], [308, 1, 6, 1.76], [10825, 21, 8, 0.83], [7084, 3, 4, 0.44], [7004, 1, 4, 1.03], [2054, 3, 5, 0.38], [410, 1, 4, 1.41], [75, 2, 4, 0.74], [9827, 3, 4, 1.7], [1124, 2, 6, 0.71], [307, 2, 4, 0.58], [45, 2, 5, 0.37], [6158, 2, 6, 0.31], [7005, 1, 4, 1.54], [94, 4, 8, 3.75], [7036, 1, 4, 1.11], [1446, 2, 4, 1.01], [167, 3, 6, 1.35], [1006, 2, 4, 0.57], [5081, 2, 4, 0.39], [12870, 1, 4, 2.58], [3893, 1, 4, 2.08], [8674, 2, 5, 1.94], [6097, 80, 5, 1.64], [6097, 29, 4, 0.36], [3889, 1, 4, 2.06], [3891, 1, 4, 2.08], [1622, 1, 5, 1.63], [168, 3, 7, 0.29], [20498, 1, 4, 0.46], [2336, 3, 5, 0.26], [6098, 29, 4, 0.2], [10574, 3, 5, 1.1], [20927, 1, 4, 1.7], [346, 1, 5, 1.02], [12924, 1, 4, 0.36], [1490, 1, 4, 0.71], [335, 3, 15, 1.13], [74, 1, 4, 0.69], [9069, 1, 4, 0.39], [9829, 3, 4, 1.81], [214, 3, 12, 0.29], [6098, 80, 4, 0.2], [126, 2, 4, 0.61], [7567, 3, 4, 1.73], [998, 2, 5, 1.54], [24257, 1, 4, 2.71], [1070, 7, 10, 0.67], [1243, 2, 4, 0.66], [13034, 3, 9, 4.0], [20498, 3, 5, 0.44], [346, 3, 5, 1.0], [20486, 1, 4, 0.2], [20486, 3, 10, 1.24], [8945, 3, 6, 1.09], [996, 2, 4, 1.14], [23611, 3, 5, 0.87], [22316, 3, 4, 0.75], [9081, 3, 7, 1.06], [2424, 80, 5, 0.58], [9691, 1, 5, 1.2], [110, 4, 4, 0.68], [5946, 1, 4, 2.08], [2729, 3, 4, 3.95], [22554, 10, 9, 0.51], [11510, 3, 5, 0.26], [5086, 1, 4, 0.25], [215, 4, 4, 1.6], [3900, 3, 4, 1.42], [1413, 15, 5, 0.62], [995, 2, 4, 0.74], [9082, 3, 27, 0.17], [3049, 3, 4, 0.55], [9690, 1, 4, 1.22], [13023, 3, 6, 0.98], [22317, 3, 6, 0.79], [8943, 3, 6, 2.46], [20969, 3, 8, 0.28], [13484, 1, 4, 3.23], [4076, 3, 4, 1.47], [10780, 10, 4, 2.97], [991, 2, 5, 0.64], [9828, 3, 4, 2.21], [1080, 3, 4, 1.43], [3670, 2, 4, 1.35], [24567, 1, 4, 0.27], [3047, 3, 4, 0.83], [3016, 68, 4, 0.44], [12059, 3, 4, 0.99], [66, 16, 4, 0.2], [12345, 1, 4, 1.09], [229, 1, 4, 0.49], [13033, 3, 7, 1.76], [5165, 1, 4, 0.2], [24260, 1, 4, 1.79], [5584, 3, 5, 0.54], [3048, 3, 4, 1.49], [12925, 1, 4, 0.5], [3104, 1, 4, 0.22], [5153, 2, 4, 0.38], [10936, 2, 4, 2.0], [11089, 1, 4, 2.22], [2912, 1, 4, 0.38], [5083, 2, 4, 0.46], [491, 10, 7, 0.43], [9372, 1, 4, 1.74], [330, 3, 4, 2.02], [220, 4, 4, 2.56], [12344, 1, 4, 1.18], [12346, 1, 4, 1.09], [2331, 1, 4, 0.42], [2109, 3, 9, 0.59], [1339, 3, 10, 0.35], [949, 10, 4, 1.26], [1604, 68, 4, 0.64], [1414, 15, 4, 0.66], [9796, 3, 8, 1.59], [11967, 1, 4, 0.39], [3475, 2, 4, 0.89], [8672, 2, 294, 4.59], [589, 2, 135, 3.93], [990, 2, 59, 1.94], [12721, 2, 287, 4.19], [1776, 1, 116, 6.0], [10, 2, 117, 1.9], [8675, 2, 274, 2.88], [1777, 1, 110, 4.63], [3, 2, 125, 2.09], [147, 1, 81, 4.64], [8650, 2, 187, 5.14], [1007, 2, 130, 3.07], [13028, 3, 151, 4.58], [88, 10, 581, 4.15], [10149, 3, 818, 5.21], [308, 1, 168, 4.84], [10825, 21, 621, 2.69], [7084, 3, 125, 2.22], [7004, 1, 80, 3.98], [2054, 3, 435, 3.13], [410, 1, 93, 3.62], [75, 2, 158, 2.37], [9827, 3, 86, 5.16], [1124, 2, 178, 3.08], [307, 2, 161, 3.54], [45, 2, 113, 6.0], [6158, 2, 269, 2.56], [7005, 1, 80, 3.91], [94, 4, 107, 6.0], [7036, 1, 131, 3.87], [1446, 2, 161, 2.89], [167, 3, 242, 4.85], [1006, 2, 243, 2.29], [5081, 2, 185, 2.43], [12870, 1, 133, 5.92], [3893, 1, 112, 5.2], [6097, 29, 36, 3.11], [3889, 1, 112, 5.21], [3891, 1, 112, 5.21], [1622, 1, 101, 4.18], [168, 3, 402, 5.09], [20498, 1, 92, 4.11], [2336, 3, 566, 2.27], [6098, 29, 36, 2.07], [10574, 3, 549, 3.12], [20927, 1, 80, 4.22], [346, 1, 151, 4.26], [12924, 1, 58, 1.64], [1490, 1, 54, 3.99], [335, 3, 1259, 3.75], [74, 1, 219, 2.33], [9829, 3, 66, 5.4], [214, 3, 596, 3.21], [6098, 80, 72, 2.07], [126, 2, 96, 2.12], [7567, 3, 63, 4.53], [998, 2, 241, 5.35], [24257, 1, 134, 6.0], [1070, 7, 592, 4.37], [1243, 2, 104, 3.4], [13034, 3, 589, 6.0], [20498, 3, 552, 4.12], [346, 3, 604, 5.08], [20486, 1, 90, 6.0]]</t>
-  </si>
-  <si>
-    <t>[[3, 2, 21, 1.18], [8672, 2, 12, 2.68], [589, 2, 10, 2.84], [75, 2, 7, 1.59], [12721, 2, 15, 2.81], [147, 1, 7, 1.78], [990, 2, 7, 1.64], [1776, 1, 7, 1.85], [8648, 2, 7, 4.02], [20252, 2, 7, 3.66], [1777, 1, 7, 2.35], [6936, 2, 9, 1.86], [8675, 2, 12, 3.7], [88, 10, 21, 1.33], [83, 2, 7, 0.77], [149, 2, 7, 1.93], [345, 3, 11, 1.12], [74, 1, 11, 3.28], [8650, 2, 7, 1.12], [7004, 1, 7, 3.35], [201, 3, 14, 0.87], [11681, 2, 7, 1.79], [21798, 1, 7, 0.68], [1007, 2, 10, 1.82], [1446, 2, 7, 4.81], [7005, 1, 7, 3.66], [7084, 3, 7, 2.22], [21793, 1, 7, 5.0], [10, 2, 7, 1.06], [307, 2, 7, 4.97], [10825, 21, 13, 1.01], [308, 1, 7, 3.41], [1124, 2, 11, 2.79], [12870, 1, 7, 3.41], [11404, 2, 7, 1.0], [9827, 3, 7, 3.85], [410, 1, 7, 2.69], [10149, 3, 26, 2.57], [3478, 2, 9, 2.48], [8677, 3, 9, 2.55], [1429, 2, 7, 4.95], [5081, 2, 7, 2.27], [3889, 1, 7, 3.41], [1622, 1, 7, 3.2], [168, 3, 14, 4.08], [23, 1, 7, 1.44], [45, 2, 7, 2.33], [8674, 2, 11, 3.85], [1006, 2, 7, 1.15], [9069, 1, 7, 0.73], [3891, 1, 7, 5.0], [20927, 1, 9, 4.08], [24257, 1, 7, 4.02], [3893, 1, 7, 5.0], [431, 2, 7, 2.22], [5208, 3, 11, 2.3], [1767, 25, 9, 1.17], [346, 1, 7, 2.68], [1656, 2, 7, 1.22], [6158, 2, 17, 2.15], [3980, 4, 7, 2.41], [95, 3, 33, 1.55], [413, 1, 7, 2.02], [8853, 2, 8, 2.6], [998, 2, 9, 3.9], [24664, 2, 11, 2.49], [214, 3, 29, 1.02], [1766, 25, 7, 4.01], [346, 3, 7, 2.91], [20498, 1, 7, 1.26], [8898, 3, 12, 5.0], [14017, 3, 7, 1.21], [9690, 1, 7, 4.14], [7567, 3, 7, 1.19], [9829, 3, 7, 3.87], [997, 2, 7, 1.83], [974, 3, 9, 3.7], [11737, 2, 9, 3.09], [3048, 3, 7, 4.38], [24, 1, 7, 1.42], [3670, 2, 7, 4.03], [110, 4, 9, 2.46], [96, 11, 21, 3.36], [1767, 2, 7, 1.46], [4203, 1, 7, 2.03], [5209, 3, 9, 4.52], [10780, 10, 7, 4.18], [952, 4, 7, 2.81], [22316, 3, 7, 3.33], [22554, 10, 15, 0.88], [5086, 1, 7, 0.9], [5946, 1, 7, 5.0], [9828, 3, 9, 4.14], [996, 2, 9, 4.34], [20498, 3, 10, 0.77], [9964, 2, 7, 5.0], [23611, 3, 10, 4.42], [8557, 3, 7, 3.52], [11454, 2, 11, 3.28], [24260, 1, 7, 4.05], [20486, 1, 7, 2.89], [14018, 3, 7, 2.61], [3900, 3, 7, 3.81], [22317, 3, 9, 3.16], [13034, 3, 15, 2.89], [8945, 3, 10, 2.8], [1080, 3, 7, 2.75], [995, 2, 7, 4.0], [972, 3, 15, 1.52], [11954, 1, 7, 2.46], [2912, 1, 7, 0.79], [13023, 3, 14, 2.73], [5584, 3, 7, 0.87], [6097, 80, 7, 0.98], [9082, 3, 52, 1.96], [6097, 29, 7, 0.98], [5153, 2, 7, 3.26], [19047, 3, 7, 0.81], [12924, 1, 7, 0.75], [11767, 1, 9, 2.98], [40, 1, 7, 1.53], [8274, 3, 7, 2.78], [1604, 68, 7, 4.2], [2729, 3, 7, 5.0], [991, 2, 7, 1.98], [12353, 1, 7, 2.97], [20969, 3, 8, 2.13], [972, 1, 7, 2.19], [11769, 1, 7, 3.85], [9372, 1, 9, 2.14], [11914, 1, 7, 2.23], [4076, 3, 7, 4.22], [20486, 3, 8, 2.48], [7705, 2, 7, 1.51], [2424, 29, 7, 1.44], [1766, 25, 181, 5.72], [346, 3, 560, 4.7], [20498, 1, 91, 2.3], [8898, 3, 272, 6.0], [14017, 3, 187, 2.5], [9690, 1, 72, 5.43], [7567, 3, 74, 2.23], [9829, 3, 65, 5.16], [997, 2, 238, 2.87], [974, 3, 135, 5.28], [3048, 3, 259, 5.92], [24, 1, 118, 2.47], [3670, 2, 223, 5.32], [110, 4, 195, 3.99], [96, 11, 839, 4.4], [1767, 2, 35, 3.53], [5209, 3, 491, 5.64], [10780, 10, 358, 6.0], [952, 4, 72, 3.86], [22316, 3, 288, 4.62], [22554, 10, 362, 2.17], [5086, 1, 199, 1.94], [5946, 1, 109, 6.0], [996, 2, 226, 6.0], [20498, 3, 548, 2.11], [9964, 2, 261, 6.0], [23611, 3, 308, 6.0], [8557, 3, 188, 4.56], [11454, 2, 422, 4.32], [24260, 1, 141, 5.09], [20486, 1, 94, 4.18], [14018, 3, 187, 3.66], [3900, 3, 42, 4.85], [22317, 3, 294, 4.45], [13034, 3, 590, 5.47], [1080, 3, 137, 3.81], [995, 2, 226, 5.04], [972, 3, 599, 4.02], [11954, 1, 200, 3.51], [2912, 1, 48, 2.48], [13023, 3, 596, 4.0], [5584, 3, 232, 2.15], [6097, 80, 66, 2.27], [9082, 3, 2527, 4.85], [6097, 29, 34, 2.27], [5153, 2, 25, 4.31], [19047, 3, 326, 1.85], [12924, 1, 57, 1.79], [11767, 1, 155, 4.76], [40, 1, 118, 2.57], [1604, 68, 238, 5.26], [2729, 3, 79, 6.0], [991, 2, 49, 3.02], [12353, 1, 553, 4.25], [20969, 3, 628, 3.18], [972, 1, 99, 3.48], [11769, 1, 164, 4.9], [9372, 1, 214, 4.21], [11914, 1, 87, 3.28], [4076, 3, 211, 5.27], [20486, 3, 565, 3.76], [7705, 2, 187, 2.56], [2424, 29, 36, 2.48]]</t>
-  </si>
-  <si>
-    <t>[[593, 2, 11, 2.65], [8650, 2, 11, 3.07], [1124, 2, 9, 0.81], [11685, 2, 9, 3.66], [7004, 1, 7, 2.95], [5493, 2, 7, 2.5], [88, 10, 18, 1.69], [615, 2, 7, 0.87], [616, 2, 7, 3.12], [5491, 2, 7, 2.35], [1007, 2, 7, 3.14], [1622, 1, 7, 2.51], [2912, 1, 7, 0.94], [8672, 2, 9, 4.09], [147, 1, 7, 1.93], [7573, 1, 12, 4.99], [5165, 1, 7, 1.27], [3893, 1, 9, 2.33], [12870, 1, 7, 3.82], [8938, 2, 7, 5.0], [10, 2, 7, 1.93], [3889, 1, 9, 2.5], [148, 1, 7, 4.45], [439, 1, 7, 2.83], [7005, 1, 7, 3.1], [24257, 1, 11, 3.69], [624, 2, 7, 2.21], [75, 2, 7, 2.01], [21793, 1, 7, 1.85], [192, 3, 15, 2.11], [3891, 1, 7, 3.89], [10149, 3, 18, 4.42], [2057, 3, 7, 2.01], [20927, 1, 7, 1.89], [5208, 3, 14, 4.17], [2054, 3, 9, 2.01], [3, 2, 14, 3.81], [1886, 2, 7, 0.92], [5165, 2, 10, 1.15], [12721, 2, 10, 4.12], [9372, 1, 7, 3.81], [149, 2, 7, 2.08], [2424, 80, 7, 1.96], [972, 3, 11, 2.1], [506, 1, 7, 2.82], [346, 1, 7, 3.7], [5076, 1, 7, 3.18], [346, 3, 10, 3.85], [3048, 3, 7, 2.87], [2424, 29, 7, 1.71], [82, 2, 11, 2.12], [12352, 1, 7, 1.96], [7567, 3, 7, 3.07], [5209, 3, 11, 4.22], [74, 1, 7, 2.54], [13280, 1, 7, 2.96], [4032, 29, 7, 2.08], [957, 2, 7, 1.97], [12346, 1, 7, 3.76], [1126, 2, 7, 2.1], [8898, 3, 7, 4.7], [13023, 3, 15, 2.67], [4076, 3, 7, 2.46], [11953, 1, 7, 1.01], [1414, 15, 9, 2.35], [10780, 10, 7, 4.89], [1548, 1, 7, 2.89], [2805, 137, 7, 3.26], [6097, 80, 7, 0.82], [7704, 2, 7, 0.75], [11952, 1, 7, 5.0], [4253, 1, 7, 2.2], [6097, 29, 7, 1.02], [1243, 2, 7, 2.34], [8676, 2, 7, 3.68], [20486, 3, 8, 1.74], [215, 4, 7, 2.8], [12350, 1, 7, 1.96], [1703, 2, 9, 3.17], [12338, 29, 7, 0.69], [955, 2, 7, 3.91], [1492, 1, 7, 1.23], [7705, 2, 9, 1.12], [972, 1, 7, 2.45], [21269, 3, 7, 4.08], [11236, 2, 7, 2.08], [12924, 1, 7, 0.83], [23611, 3, 8, 3.64], [214, 3, 15, 1.94], [12229, 2, 7, 0.81], [8659, 1, 7, 1.77], [10407, 10, 10, 2.84], [2331, 1, 7, 2.06], [7707, 2, 7, 1.5], [3047, 3, 7, 3.2], [11812, 1, 7, 1.54], [10410, 10, 15, 2.8], [13034, 3, 7, 2.99], [45, 2, 7, 2.34], [10388, 2, 7, 0.96], [11404, 2, 7, 0.75], [5584, 3, 7, 0.94], [8673, 2, 7, 2.84], [12351, 1, 7, 3.76], [9827, 3, 7, 1.46], [3059, 3, 7, 3.25], [71, 15, 7, 1.14], [8675, 2, 7, 2.77], [6497, 1, 7, 0.89], [10936, 2, 7, 3.66], [6496, 1, 7, 2.74], [2335, 3, 7, 2.66], [13281, 1, 7, 0.94], [24722, 2, 7, 1.6], [10408, 10, 8, 0.86], [18964, 1, 7, 0.75], [13283, 1, 7, 2.96], [5434, 1, 7, 1.93], [1049, 2, 7, 4.52], [20498, 1, 7, 0.9], [3049, 3, 7, 0.82], [159, 1, 7, 0.73], [12344, 1, 7, 5.0], [11942, 29, 7, 1.27], [11711, 3, 7, 2.32], [3334, 5, 7, 3.26], [24567, 1, 7, 0.92], [2438, 2, 8, 0.66], [12661, 1, 7, 3.56], [3391, 1, 7, 1.02], [110, 4, 7, 3.86], [8897, 3, 7, 4.7], [10386, 2, 7, 0.98], [7708, 2, 7, 1.54], [10937, 2, 7, 1.93], [6494, 1, 7, 0.9], [11952, 1, 208, 6.0], [4253, 1, 179, 3.39], [6097, 29, 37, 2.21], [1243, 2, 90, 4.29], [8676, 2, 305, 4.87], [20486, 3, 635, 2.93], [215, 4, 40, 3.98], [12350, 1, 629, 3.16], [1703, 2, 161, 4.39], [12338, 29, 58, 1.88], [955, 2, 97, 5.35], [1492, 1, 38, 2.93], [7705, 2, 174, 2.56], [972, 1, 102, 4.02], [21269, 3, 276, 5.52], [11236, 2, 216, 3.27], [12924, 1, 39, 1.94], [23611, 3, 327, 4.83], [12229, 2, 168, 1.99], [8659, 1, 131, 2.96], [10407, 10, 1166, 4.04], [2331, 1, 120, 3.25], [7707, 2, 195, 2.68], [3047, 3, 262, 4.38], [11812, 1, 259, 2.73], [10410, 10, 1166, 4.0], [13034, 3, 581, 4.18], [45, 2, 117, 3.53], [10388, 2, 222, 2.15], [11404, 2, 52, 1.75], [5584, 3, 237, 2.38], [8673, 2, 303, 4.03], [12351, 1, 629, 4.96], [9827, 3, 88, 2.66], [3059, 3, 217, 4.43], [71, 15, 237, 2.32], [8675, 2, 307, 3.95], [6497, 1, 41, 2.08], [10936, 2, 143, 4.85], [6496, 1, 44, 3.93], [2335, 3, 98, 3.66], [13281, 1, 346, 2.12], [24722, 2, 62, 2.79], [10408, 10, 833, 2.05], [13283, 1, 346, 4.15], [5434, 1, 53, 3.11], [1049, 2, 111, 5.71], [20498, 1, 102, 2.09], [3049, 3, 150, 2.01], [12344, 1, 629, 6.0], [11942, 29, 106, 2.46], [11711, 3, 212, 3.5], [3334, 5, 174, 4.45], [24567, 1, 339, 2.11], [2438, 2, 705, 1.85], [12661, 1, 76, 4.75], [3391, 1, 52, 2.21], [110, 4, 215, 5.05], [8897, 3, 284, 5.89], [10386, 2, 222, 2.17], [7708, 2, 195, 2.73], [10937, 2, 143, 3.12], [6494, 1, 56, 2.09]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 9, 0.65], [589, 2, 8, 2.73], [11681, 2, 7, 2.04], [8648, 2, 7, 3.3], [144, 2, 7, 3.4], [143, 2, 7, 2.75], [141, 2, 15, 1.35], [593, 2, 14, 1.01], [205, 2, 7, 0.72], [6936, 2, 7, 3.45], [8650, 2, 9, 2.25], [7004, 1, 7, 1.54], [146, 2, 11, 3.21], [206, 2, 9, 2.09], [7036, 1, 7, 5.0], [990, 2, 7, 2.19], [145, 2, 9, 3.81], [5491, 2, 9, 2.18], [615, 2, 7, 0.67], [10993, 2, 9, 2.51], [3893, 1, 9, 2.52], [12870, 1, 7, 3.7], [13028, 3, 7, 2.64], [3840, 1, 9, 2.88], [8853, 2, 9, 3.14], [1007, 2, 7, 1.82], [3889, 1, 9, 3.63], [20927, 1, 9, 2.37], [616, 2, 7, 1.54], [94, 4, 7, 4.73], [3, 2, 11, 1.75], [1006, 2, 7, 2.85], [147, 1, 7, 2.21], [21798, 1, 7, 1.58], [3891, 1, 7, 3.35], [12350, 1, 7, 5.0], [6158, 2, 7, 1.77], [624, 2, 7, 2.5], [21793, 1, 7, 1.16], [24257, 1, 9, 4.95], [5165, 1, 7, 0.87], [12349, 1, 7, 3.03], [13928, 1, 7, 0.92], [8672, 2, 9, 4.29], [2912, 1, 14, 2.5], [12346, 1, 7, 5.0], [159, 3, 10, 0.91], [24258, 1, 9, 5.0], [972, 3, 8, 2.18], [1124, 2, 9, 2.25], [956, 2, 7, 3.05], [8898, 3, 7, 4.7], [5208, 3, 7, 3.91], [9081, 3, 14, 0.93], [7567, 3, 7, 3.12], [82, 2, 11, 2.47], [345, 3, 7, 2.19], [9784, 1, 7, 1.74], [9491, 21, 20, 0.83], [7704, 2, 7, 1.66], [5165, 2, 10, 0.82], [10780, 10, 7, 2.14], [1492, 1, 7, 0.89], [8677, 3, 7, 3.34], [214, 3, 15, 1.38], [201, 3, 7, 4.28], [411, 2, 7, 2.46], [10388, 2, 7, 1.54], [22316, 3, 7, 4.06], [84, 2, 7, 2.05], [11739, 2, 7, 2.25], [5812, 3, 9, 3.84], [9082, 3, 30, 1.83], [12338, 29, 7, 1.33], [11953, 1, 7, 3.92], [11404, 2, 7, 1.41], [336, 15, 7, 0.96], [22317, 3, 7, 3.12], [11490, 1, 7, 0.72], [11767, 1, 7, 3.01], [7705, 2, 7, 1.71], [957, 2, 7, 1.25], [308, 1, 7, 3.74], [972, 1, 7, 2.27], [12721, 2, 7, 1.2], [6497, 1, 7, 0.98], [2912, 2, 8, 0.83], [3475, 2, 7, 1.87], [12344, 1, 7, 5.0], [12229, 2, 7, 0.87], [9372, 1, 7, 3.88], [8673, 2, 7, 4.14], [161, 3, 9, 4.02], [7708, 2, 7, 1.85], [110, 4, 7, 5.0], [1523, 1, 7, 5.0], [20486, 3, 8, 2.18], [5813, 3, 8, 4.1], [1080, 3, 7, 1.91], [1703, 2, 7, 4.71], [74, 1, 7, 5.0], [12351, 1, 7, 5.0], [10387, 2, 7, 0.92], [159, 1, 7, 0.92], [13286, 1, 7, 2.89], [13893, 2, 7, 4.55], [10149, 3, 21, 2.81], [8897, 3, 7, 4.7], [14037, 3, 7, 2.06], [1895, 3, 7, 4.19], [11510, 3, 8, 0.9], [2104, 3, 12, 2.72], [10181, 26, 9, 2.6], [159, 16, 7, 0.92], [3900, 3, 7, 1.79], [5811, 3, 8, 5.0], [10410, 10, 10, 4.29], [9827, 3, 7, 2.24], [9971, 2, 7, 4.35], [942, 3, 7, 2.89], [13281, 1, 7, 1.98], [2805, 137, 9, 3.84], [335, 3, 15, 4.0], [10581, 3, 7, 4.06], [1548, 1, 7, 2.93], [10093, 3, 15, 0.83], [10936, 2, 7, 3.45], [8676, 2, 7, 3.68], [7707, 2, 7, 1.25], [491, 10, 12, 2.47], [2335, 3, 7, 2.99], [9965, 2, 7, 5.0], [12764, 2, 8, 0.94], [95, 3, 22, 5.0], [11930, 1, 7, 1.12], [11739, 2, 64, 3.36], [5812, 3, 584, 4.96], [9082, 3, 2761, 2.92], [12338, 29, 59, 2.45], [11953, 1, 217, 5.04], [336, 15, 124, 2.08], [22317, 3, 345, 4.24], [11490, 1, 120, 1.84], [11767, 1, 162, 4.13], [7705, 2, 201, 2.83], [957, 2, 105, 2.62], [308, 1, 177, 4.86], [972, 1, 111, 3.39], [12721, 2, 318, 2.31], [6497, 1, 38, 2.1], [2912, 2, 436, 1.95], [3475, 2, 66, 2.98], [12344, 1, 669, 6.0], [12229, 2, 173, 1.98], [9372, 1, 256, 4.99], [8673, 2, 315, 5.25], [161, 3, 784, 5.14], [7708, 2, 201, 2.97], [110, 4, 221, 6.0], [1523, 1, 52, 6.0], [20486, 3, 595, 3.29], [5813, 3, 573, 5.21], [1080, 3, 154, 3.03], [1703, 2, 173, 5.83], [74, 1, 191, 6.0], [12351, 1, 669, 6.0], [10387, 2, 205, 2.29], [159, 1, 24, 1.92], [13286, 1, 357, 4.01], [13893, 2, 301, 5.66], [10149, 3, 989, 3.91], [8897, 3, 294, 5.82], [14037, 3, 371, 3.18], [1895, 3, 308, 5.3], [11510, 3, 663, 2.02], [2104, 3, 370, 3.83], [10181, 26, 136, 3.87], [159, 16, 49, 1.93], [3900, 3, 49, 2.91], [5811, 3, 573, 6.0], [10410, 10, 1216, 5.39], [9827, 3, 94, 3.36], [9971, 2, 288, 5.46], [942, 3, 331, 4.01], [13281, 1, 357, 3.11], [2805, 137, 194, 4.96], [335, 3, 1325, 5.12], [10581, 3, 205, 5.17], [1548, 1, 103, 4.05], [10093, 3, 947, 1.94], [10936, 2, 148, 4.57], [8676, 2, 291, 4.79], [7707, 2, 180, 2.62], [491, 10, 484, 3.58], [2335, 3, 151, 4.04], [9965, 2, 288, 6.0], [12764, 2, 839, 2.05], [95, 3, 947, 6.0], [11930, 1, 170, 2.24]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 18, 2.16], [3, 2, 17, 1.22], [75, 2, 9, 1.51], [1776, 1, 7, 2.22], [1777, 1, 7, 1.72], [20252, 2, 7, 5.0], [345, 3, 7, 0.51], [201, 3, 7, 0.51], [6936, 2, 10, 5.0], [8648, 2, 7, 5.0], [88, 10, 26, 1.69], [12721, 2, 12, 4.18], [57, 1, 7, 0.69], [1007, 2, 10, 2.02], [3478, 2, 9, 3.15], [21793, 1, 7, 4.58], [45, 2, 11, 2.4], [10149, 3, 36, 3.47], [308, 1, 7, 2.71], [8650, 2, 9, 3.2], [9507, 3, 7, 1.31], [7004, 1, 7, 2.54], [413, 1, 7, 2.09], [74, 1, 9, 3.5], [7084, 3, 7, 2.02], [13028, 3, 9, 1.61], [346, 1, 7, 0.92], [10825, 21, 13, 1.49], [168, 3, 7, 1.91], [6158, 2, 9, 1.87], [9827, 3, 7, 2.91], [1124, 2, 10, 1.63], [5208, 3, 13, 3.86], [5081, 2, 7, 1.12], [3889, 1, 7, 4.45], [214, 3, 15, 2.48], [94, 4, 9, 4.75], [414, 1, 7, 2.09], [7005, 1, 9, 1.96], [1492, 1, 9, 0.5], [3893, 1, 7, 3.59], [335, 3, 22, 2.17], [24664, 2, 9, 3.9], [1654, 2, 7, 1.5], [8675, 2, 10, 1.69], [410, 1, 7, 3.12], [8674, 2, 7, 1.89], [25, 1, 9, 2.41], [416, 1, 7, 2.09], [7567, 3, 7, 3.33], [3891, 1, 7, 4.49], [1490, 1, 7, 2.68], [2878, 1, 7, 2.66], [1622, 1, 12, 2.19], [998, 2, 7, 2.66], [1006, 2, 9, 1.49], [1504, 2, 7, 2.31], [8853, 2, 9, 4.17], [9069, 1, 7, 0.75], [5660, 2, 9, 3.91], [9690, 1, 9, 4.8], [24257, 1, 11, 3.81], [1656, 2, 7, 3.0], [9829, 3, 7, 3.25], [126, 2, 7, 1.17], [997, 2, 11, 3.77], [11914, 1, 12, 2.39], [20927, 1, 7, 3.27], [20498, 1, 7, 3.16], [5209, 3, 9, 4.92], [27, 1, 7, 1.64], [147, 1, 7, 2.0], [5086, 1, 7, 0.89], [952, 4, 7, 4.58], [996, 2, 7, 3.61], [1070, 7, 13, 2.51], [82, 2, 9, 2.5], [148, 1, 7, 2.0], [22316, 3, 7, 3.95], [110, 4, 7, 3.47], [10780, 10, 7, 5.0], [346, 3, 8, 1.26], [12661, 1, 7, 2.69], [6097, 80, 7, 0.69], [9081, 3, 12, 0.74], [20498, 3, 10, 2.45], [6097, 29, 7, 0.69], [23611, 3, 9, 3.49], [12924, 1, 9, 0.8], [13034, 3, 12, 5.0], [307, 2, 7, 2.59], [20486, 1, 7, 1.27], [5584, 3, 9, 1.44], [995, 2, 7, 2.55], [11767, 1, 7, 2.07], [6098, 29, 7, 0.87], [11769, 1, 7, 2.06], [3900, 3, 7, 3.02], [2335, 3, 7, 2.32], [9082, 3, 51, 2.47], [2104, 3, 10, 2.97], [8945, 3, 8, 3.91], [6098, 80, 7, 0.87], [2537, 1, 7, 2.93], [345, 1, 7, 2.11], [12349, 1, 7, 5.0], [22317, 3, 8, 1.37], [3048, 3, 7, 3.59], [20486, 3, 8, 0.85], [66, 1, 7, 1.02], [10529, 29, 7, 0.87], [974, 3, 9, 2.1], [3670, 2, 7, 1.0], [66, 16, 7, 1.15], [330, 3, 7, 3.82], [5946, 1, 7, 4.49], [8635, 3, 7, 2.78], [972, 3, 8, 2.02], [11510, 3, 8, 1.49], [13484, 1, 7, 5.0], [215, 4, 7, 3.1], [9828, 3, 7, 4.35], [13033, 3, 8, 4.29], [2729, 3, 7, 3.18], [972, 1, 7, 1.46], [1604, 68, 7, 2.72], [2109, 3, 15, 0.88], [951, 4, 7, 1.27], [491, 10, 12, 2.18], [506, 1, 7, 2.73], [201, 1, 7, 2.07], [229, 1, 7, 2.58], [21946, 1, 7, 1.34], [19047, 3, 7, 0.96], [20969, 3, 8, 1.3], [3475, 2, 7, 3.26], [5086, 1, 203, 1.84], [952, 4, 82, 5.59], [996, 2, 241, 6.0], [1070, 7, 592, 4.37], [148, 1, 95, 2.95], [22316, 3, 285, 5.14], [110, 4, 215, 4.41], [10780, 10, 374, 6.0], [346, 3, 604, 2.96], [12661, 1, 80, 3.64], [6097, 80, 67, 1.89], [9081, 3, 487, 2.68], [20498, 3, 552, 3.9], [6097, 29, 34, 1.89], [23611, 3, 313, 5.95], [12924, 1, 52, 2.16], [13034, 3, 589, 6.0], [307, 2, 161, 3.54], [20486, 1, 96, 2.22], [5584, 3, 234, 2.39], [995, 2, 241, 4.0], [11767, 1, 155, 3.03], [6098, 29, 36, 2.07], [11769, 1, 175, 3.02], [3900, 3, 43, 4.21], [2335, 3, 219, 3.28], [9082, 3, 2572, 4.94], [2104, 3, 361, 3.92], [8945, 3, 506, 5.26], [6098, 80, 72, 2.07], [2537, 1, 34, 3.88], [345, 1, 30, 3.06], [12349, 1, 549, 6.0], [22317, 3, 303, 2.57], [3048, 3, 289, 4.55], [20486, 3, 571, 2.05], [66, 1, 38, 2.47], [10529, 29, 45, 1.82], [974, 3, 152, 3.8], [3670, 2, 221, 2.45], [66, 16, 77, 3.1], [330, 3, 554, 5.03], [5946, 1, 112, 5.44], [8635, 3, 245, 3.63], [972, 3, 643, 2.97], [11510, 3, 633, 2.45], [13484, 1, 177, 6.0], [215, 4, 36, 4.05], [9828, 3, 91, 5.3], [13033, 3, 621, 5.25], [2729, 3, 87, 4.13], [972, 1, 107, 2.41], [1604, 68, 270, 3.67], [2109, 3, 497, 1.83], [951, 4, 109, 2.22], [491, 10, 451, 3.13], [506, 1, 95, 3.68], [201, 1, 32, 3.02], [229, 1, 89, 3.53], [21946, 1, 76, 2.29], [19047, 3, 331, 1.9], [20969, 3, 636, 2.26], [3475, 2, 63, 4.21]]</t>
-  </si>
-  <si>
-    <t>[[589, 2, 8, 2.73], [88, 10, 22, 1.62], [305, 2, 11, 2.78], [615, 2, 7, 0.87], [5493, 2, 9, 2.56], [616, 2, 7, 0.69], [7004, 1, 7, 2.21], [11681, 2, 7, 1.33], [8650, 2, 7, 5.0], [143, 2, 9, 4.75], [8648, 2, 7, 4.93], [7036, 1, 7, 3.92], [10, 2, 7, 1.93], [11685, 2, 9, 5.0], [593, 2, 11, 2.65], [3893, 1, 9, 1.63], [624, 2, 7, 3.21], [146, 2, 12, 4.64], [8938, 2, 7, 1.15], [3891, 1, 9, 1.77], [8853, 2, 7, 4.29], [11404, 2, 7, 0.75], [21793, 1, 7, 1.85], [5208, 3, 11, 2.22], [3980, 4, 10, 1.22], [24257, 1, 9, 4.13], [192, 3, 21, 3.19], [3889, 1, 9, 1.88], [1007, 2, 7, 3.14], [12870, 1, 7, 2.93], [8672, 2, 7, 4.71], [20927, 1, 7, 1.89], [998, 2, 7, 4.08], [1886, 2, 7, 0.92], [2424, 80, 7, 1.96], [997, 2, 7, 2.34], [145, 2, 7, 4.35], [7573, 1, 12, 4.99], [10149, 3, 23, 2.81], [3, 2, 12, 2.2], [6158, 2, 9, 4.1], [12353, 1, 7, 5.0], [346, 3, 7, 3.85], [1622, 1, 7, 2.41], [957, 2, 7, 0.75], [3982, 3, 20, 2.44], [972, 3, 17, 2.67], [996, 2, 9, 1.94], [20252, 2, 7, 3.73], [74, 1, 7, 2.54], [214, 3, 18, 0.71], [5076, 1, 7, 3.18], [1492, 1, 7, 0.87], [11953, 1, 7, 1.01], [12346, 1, 7, 3.76], [4032, 29, 7, 2.08], [12721, 2, 7, 3.66], [6496, 1, 7, 2.74], [12229, 2, 7, 0.81], [1548, 1, 7, 2.89], [4253, 1, 7, 2.2], [23611, 3, 8, 3.99], [7567, 3, 7, 2.37], [12350, 1, 7, 5.0], [5434, 1, 7, 1.93], [12344, 1, 7, 5.0], [22316, 3, 7, 2.88], [3975, 4, 7, 2.57], [6497, 1, 7, 0.89], [8898, 3, 7, 4.7], [346, 1, 7, 4.16], [2424, 29, 7, 1.04], [2438, 2, 12, 0.59], [955, 2, 9, 3.74], [3981, 3, 20, 2.85], [12352, 1, 7, 1.96], [6097, 80, 7, 2.98], [5209, 3, 9, 3.3], [439, 1, 7, 2.83], [8677, 3, 7, 1.75], [972, 1, 7, 2.43], [823, 1, 7, 4.08], [11812, 1, 7, 1.54], [1243, 2, 7, 2.11], [5584, 3, 7, 0.94], [83, 2, 7, 2.01], [10780, 10, 7, 3.64], [4232, 80, 7, 0.77], [22317, 3, 7, 2.81], [2805, 137, 7, 3.26], [10407, 10, 10, 3.82], [12764, 2, 9, 1.06], [1895, 3, 7, 3.51], [8599, 1, 7, 2.25], [7704, 2, 7, 0.75], [7708, 2, 7, 1.54], [5435, 1, 7, 0.8], [71, 15, 7, 1.14], [995, 2, 7, 1.91], [10388, 2, 7, 0.96], [1703, 2, 7, 3.64], [216, 4, 7, 3.1], [8676, 2, 7, 3.68], [11942, 29, 9, 1.63], [956, 2, 7, 3.11], [12728, 1, 7, 0.75], [1233, 1, 7, 1.24], [3979, 3, 16, 2.2], [9372, 1, 7, 3.81], [18964, 1, 7, 0.75], [491, 10, 8, 3.47], [12647, 1, 7, 3.57], [6494, 1, 7, 0.9], [8274, 3, 7, 2.22], [1414, 15, 7, 0.87], [11936, 2, 7, 4.85], [4940, 1, 7, 0.89], [19047, 3, 7, 0.98], [5813, 3, 7, 3.85], [1309, 1, 7, 3.62], [1080, 3, 7, 1.91], [10936, 2, 7, 3.66], [2335, 3, 7, 2.66], [8635, 3, 7, 1.99], [1523, 1, 7, 5.0], [10386, 2, 7, 0.98], [7705, 2, 7, 0.9], [6805, 1, 7, 2.44], [8673, 2, 7, 2.84], [5585, 3, 7, 2.87], [9827, 3, 7, 0.83], [19931, 1, 7, 1.31], [5005, 3, 8, 3.4], [24725, 2, 7, 3.02], [10385, 2, 7, 2.81], [22316, 3, 289, 4.07], [3975, 4, 528, 3.75], [6497, 1, 41, 2.08], [8898, 3, 284, 5.89], [346, 1, 154, 5.35], [2424, 29, 37, 2.23], [2438, 2, 669, 2.68], [955, 2, 97, 5.35], [3981, 3, 1758, 4.05], [12352, 1, 629, 3.16], [6097, 80, 74, 4.17], [5209, 3, 505, 5.15], [439, 1, 94, 4.01], [8677, 3, 306, 2.94], [972, 1, 97, 3.62], [823, 1, 43, 5.27], [11812, 1, 259, 2.73], [1243, 2, 105, 3.3], [5584, 3, 237, 2.38], [10780, 10, 338, 5.33], [4232, 80, 161, 1.95], [22317, 3, 328, 4.0], [2805, 137, 174, 4.45], [10407, 10, 1116, 5.27], [12764, 2, 771, 2.51], [1895, 3, 300, 4.7], [8599, 1, 159, 3.44], [7704, 2, 195, 1.94], [7708, 2, 195, 2.73], [5435, 1, 17, 1.69], [71, 15, 237, 2.32], [995, 2, 254, 3.1], [10388, 2, 222, 2.15], [1703, 2, 173, 4.82], [216, 4, 42, 4.28], [8676, 2, 305, 4.87], [11942, 29, 96, 3.19], [956, 2, 61, 4.29], [12728, 1, 334, 1.94], [1233, 1, 65, 2.43], [3979, 3, 817, 3.38], [9372, 1, 250, 5.0], [491, 10, 468, 4.66], [12647, 1, 229, 4.76], [6494, 1, 56, 2.09], [1414, 15, 110, 2.05], [11936, 2, 143, 6.0], [4940, 1, 131, 2.08], [19047, 3, 332, 2.17], [5813, 3, 617, 5.04], [1309, 1, 55, 4.81], [1080, 3, 149, 3.1], [10936, 2, 143, 4.85], [2335, 3, 98, 3.66], [1523, 1, 50, 6.0], [10386, 2, 222, 2.17], [7705, 2, 195, 2.08], [6805, 1, 544, 3.63], [8673, 2, 303, 4.03], [5585, 3, 243, 4.06], [9827, 3, 93, 2.02], [19931, 1, 472, 2.5], [5005, 3, 910, 4.6], [24725, 2, 68, 4.21], [10385, 2, 200, 4.0]]</t>
-  </si>
-  <si>
-    <t>[[130, 1, 9, 0.65], [5493, 2, 9, 2.7], [615, 2, 7, 0.67], [205, 2, 7, 0.72], [144, 2, 7, 2.16], [11681, 2, 7, 2.04], [589, 2, 8, 2.73], [7036, 1, 7, 2.28], [6936, 2, 7, 3.0], [616, 2, 7, 1.63], [3980, 4, 9, 2.38], [8648, 2, 7, 3.3], [3893, 1, 9, 1.91], [593, 2, 9, 3.29], [8650, 2, 11, 2.98], [141, 2, 11, 2.72], [7004, 1, 7, 2.48], [3891, 1, 9, 1.88], [206, 2, 7, 0.71], [10, 2, 9, 0.75], [21798, 1, 7, 1.83], [3889, 1, 9, 1.88], [146, 2, 11, 3.28], [3840, 1, 7, 0.87], [12870, 1, 17, 4.36], [8853, 2, 7, 2.14], [362, 2, 7, 1.81], [2054, 3, 7, 1.54], [624, 2, 7, 2.5], [2050, 3, 7, 1.54], [10993, 2, 11, 2.51], [94, 4, 7, 3.34], [8672, 2, 7, 2.97], [5165, 1, 7, 0.87], [145, 2, 7, 4.94], [5208, 3, 10, 2.85], [21793, 1, 7, 1.16], [3495, 3, 32, 3.39], [11404, 2, 9, 1.03], [2057, 3, 7, 1.54], [12349, 1, 7, 2.97], [6158, 2, 7, 1.77], [2912, 1, 7, 2.41], [12350, 1, 7, 3.66], [1006, 2, 7, 1.56], [12353, 1, 9, 3.6], [201, 3, 14, 3.54], [10574, 3, 8, 4.55], [996, 2, 7, 3.88], [345, 3, 7, 2.19], [12229, 2, 7, 0.87], [956, 2, 9, 3.22], [140, 2, 7, 2.82], [1492, 1, 9, 1.17], [8677, 3, 7, 3.52], [7567, 3, 7, 3.07], [5165, 2, 10, 0.82], [2436, 4, 7, 3.94], [4176, 4, 7, 2.51], [11953, 1, 7, 1.77], [5946, 1, 9, 1.89], [74, 1, 7, 5.0], [12212, 29, 7, 0.83], [214, 3, 15, 2.81], [346, 3, 7, 4.83], [22317, 3, 7, 4.42], [972, 3, 8, 3.0], [6497, 1, 7, 0.89], [12721, 2, 9, 3.25], [2336, 3, 8, 4.76], [2912, 2, 12, 2.46], [336, 15, 7, 0.85], [307, 2, 7, 2.44], [439, 1, 7, 2.05], [957, 2, 7, 1.0], [823, 1, 7, 2.44], [11490, 1, 7, 0.72], [12346, 1, 7, 5.0], [13023, 3, 8, 0.76], [3, 2, 7, 2.61], [1124, 2, 9, 2.5], [14037, 3, 7, 2.06], [12344, 1, 7, 4.44], [13928, 1, 7, 0.92], [11952, 1, 7, 3.21], [6494, 1, 7, 0.87], [10149, 3, 21, 1.49], [11180, 1, 7, 2.72], [411, 2, 7, 0.72], [24258, 1, 9, 5.0], [5209, 3, 7, 3.7], [12924, 1, 7, 1.29], [2104, 3, 10, 0.95], [1523, 1, 7, 5.0], [5435, 1, 7, 1.04], [8676, 2, 7, 3.68], [8673, 2, 7, 4.14], [24260, 1, 7, 1.73], [3983, 4, 7, 2.38], [9069, 1, 7, 4.52], [346, 1, 7, 5.0], [491, 10, 12, 2.47], [2805, 137, 9, 3.84], [20486, 3, 8, 1.92], [10936, 2, 7, 3.45], [10408, 10, 15, 2.29], [11089, 1, 7, 4.35], [8675, 2, 7, 2.77], [972, 1, 7, 2.27], [19047, 3, 7, 1.15], [95, 3, 22, 1.89], [5164, 1, 7, 0.98], [10388, 2, 7, 1.25], [8898, 3, 7, 4.7], [159, 16, 7, 0.92], [6952, 1, 7, 4.06], [590, 15, 7, 2.64], [11930, 1, 7, 1.12], [13244, 1, 7, 0.85], [1703, 2, 7, 4.71], [2335, 3, 7, 2.99], [10937, 2, 7, 1.71], [159, 3, 10, 0.67], [1895, 3, 7, 4.19], [2438, 2, 8, 1.15], [4175, 3, 14, 1.7], [12764, 2, 8, 0.94], [3337, 1, 7, 1.58], [2879, 1, 7, 1.84], [974, 3, 7, 1.02], [3475, 2, 7, 1.87], [10780, 10, 7, 2.14], [3338, 1, 7, 4.42], [8635, 3, 7, 2.78], [5584, 3, 7, 3.37], [12721, 2, 302, 4.87], [2336, 3, 567, 6.0], [336, 15, 117, 2.47], [307, 2, 164, 3.55], [439, 1, 97, 3.16], [957, 2, 105, 2.62], [823, 1, 41, 3.56], [11490, 1, 120, 1.84], [12346, 1, 669, 6.0], [13023, 3, 683, 1.88], [3, 2, 130, 3.73], [1124, 2, 187, 3.87], [14037, 3, 371, 3.18], [12344, 1, 611, 5.56], [13928, 1, 54, 2.04], [11952, 1, 222, 4.33], [6494, 1, 58, 1.99], [10149, 3, 882, 2.87], [11180, 1, 97, 3.84], [411, 2, 120, 1.84], [24258, 1, 141, 6.0], [5209, 3, 534, 4.81], [12924, 1, 60, 2.41], [2104, 3, 342, 2.32], [1523, 1, 52, 6.0], [8676, 2, 291, 4.79], [8673, 2, 315, 5.25], [24260, 1, 149, 2.85], [3983, 4, 543, 3.49], [9069, 1, 123, 5.63], [346, 1, 141, 6.0], [491, 10, 484, 3.58], [2805, 137, 194, 4.96], [20486, 3, 595, 3.29], [10936, 2, 148, 4.57], [10408, 10, 817, 4.39], [11089, 1, 169, 5.47], [8675, 2, 317, 3.89], [972, 1, 111, 3.39], [19047, 3, 309, 2.27], [95, 3, 947, 3.26], [5164, 1, 49, 2.35], [10388, 2, 225, 2.37], [8898, 3, 294, 5.82], [159, 16, 49, 1.93], [6952, 1, 202, 5.18], [590, 15, 98, 3.76], [11930, 1, 170, 2.24], [13244, 1, 56, 1.97], [1703, 2, 173, 5.83], [2335, 3, 151, 4.04], [10937, 2, 148, 2.83], [159, 3, 713, 2.01], [1895, 3, 308, 5.3], [2438, 2, 720, 2.26], [4175, 3, 1816, 2.79], [12764, 2, 839, 2.05], [3337, 1, 149, 2.7], [2879, 1, 14, 2.67], [974, 3, 169, 2.14], [3475, 2, 66, 2.98], [10780, 10, 409, 3.25], [3338, 1, 115, 5.53], [5584, 3, 262, 4.48]]</t>
-  </si>
-  <si>
-    <t>[[5491, 2, 7, 1.91], [11685, 2, 7, 3.45], [8650, 2, 9, 3.29], [5493, 2, 7, 0.89], [8672, 2, 10, 1.46], [6935, 2, 17, 1.26], [1124, 2, 12, 1.16], [11681, 2, 11, 2.05], [2778, 2, 9, 3.58], [6936, 2, 13, 2.0], [12721, 2, 9, 4.7], [305, 2, 14, 1.94], [1446, 2, 7, 1.94], [8676, 2, 7, 3.04], [413, 1, 7, 2.16], [990, 2, 9, 1.88], [8673, 2, 7, 2.21], [21793, 1, 7, 1.4], [615, 2, 7, 2.95], [593, 2, 11, 1.17], [8675, 2, 11, 1.81], [1429, 2, 7, 4.31], [6158, 2, 13, 1.29], [434, 2, 7, 4.16], [7705, 2, 9, 1.64], [8938, 2, 7, 2.55], [145, 2, 9, 3.34], [88, 10, 17, 2.57], [201, 3, 14, 4.22], [7704, 2, 9, 1.77], [308, 1, 22, 3.87], [146, 2, 7, 2.68], [2055, 3, 7, 3.69], [7886, 4, 9, 1.34], [2054, 3, 7, 3.69], [12349, 1, 7, 2.97], [10993, 2, 9, 1.83], [75, 2, 7, 4.55], [2057, 3, 7, 3.49], [345, 3, 9, 4.25], [3495, 3, 21, 0.85], [5165, 1, 7, 0.87], [9784, 1, 7, 3.73], [7885, 4, 7, 1.81], [2050, 3, 8, 3.49], [10149, 3, 21, 2.21], [60, 3, 9, 5.0], [414, 1, 7, 2.16], [2423, 80, 7, 2.61], [144, 2, 7, 4.2], [2703, 3, 7, 5.0], [22316, 3, 7, 3.03], [12344, 1, 7, 5.0], [13023, 3, 10, 3.32], [1886, 2, 7, 2.68], [2424, 29, 7, 2.77], [2859, 15, 7, 2.58], [5812, 3, 9, 3.92], [2424, 80, 7, 3.68], [6952, 1, 7, 4.04], [3891, 1, 7, 3.61], [3893, 1, 7, 3.39], [6494, 1, 7, 0.87], [13034, 3, 8, 3.0], [2423, 29, 7, 1.17], [22558, 3, 7, 2.64], [952, 4, 7, 3.62], [192, 3, 17, 4.09], [12343, 1, 7, 4.95], [1414, 15, 7, 1.06], [94, 4, 7, 3.29], [410, 1, 7, 3.12], [7005, 1, 7, 2.6], [3, 2, 7, 2.6], [5946, 1, 7, 3.43], [7708, 2, 7, 2.51], [2331, 1, 7, 4.6], [5729, 2, 7, 2.09], [7703, 2, 7, 2.39], [3980, 4, 7, 2.22], [5208, 3, 9, 3.96], [5811, 3, 7, 5.0], [1490, 1, 7, 3.87], [7707, 2, 7, 1.5], [13033, 3, 9, 3.75], [3889, 1, 7, 3.61], [1274, 1, 7, 3.4], [5584, 3, 7, 3.85], [3429, 15, 7, 1.23], [7887, 4, 7, 1.78], [11089, 1, 7, 2.6], [5813, 3, 8, 5.0], [11161, 1, 13, 4.5], [22317, 3, 7, 4.52], [3981, 3, 21, 2.74], [1492, 1, 7, 2.91], [6630, 3, 7, 2.27], [1309, 1, 7, 3.61], [12373, 1, 11, 3.25], [11586, 1, 21, 4.26], [11769, 1, 7, 2.71], [2912, 1, 7, 0.77], [8274, 3, 7, 3.68], [1661, 3, 7, 4.08], [24257, 1, 7, 4.03], [957, 2, 7, 1.94], [12345, 1, 7, 0.99], [823, 1, 7, 2.61], [10897, 1, 13, 0.88], [12925, 1, 7, 0.92], [1699, 3, 7, 2.79], [5165, 2, 8, 0.79], [1667, 3, 7, 4.08], [9082, 3, 25, 1.11], [10398, 2, 7, 2.88], [2991, 3, 7, 3.9], [11288, 2, 7, 0.96], [8897, 3, 7, 4.35], [23611, 3, 8, 3.57], [6496, 1, 7, 2.77], [515, 24, 7, 3.79], [956, 2, 7, 1.98], [9690, 1, 7, 2.77], [944, 15, 7, 0.92], [21269, 3, 7, 4.79], [6497, 1, 7, 1.08], [3028, 3, 7, 0.87], [1050, 2, 7, 3.18], [10516, 3, 8, 2.84], [20969, 3, 7, 2.05], [9068, 1, 7, 0.96], [955, 2, 7, 2.06], [95, 3, 15, 4.66], [10410, 10, 10, 5.0], [9760, 29, 7, 4.31], [1414, 15, 115, 2.33], [94, 4, 130, 4.55], [7005, 1, 87, 3.86], [3, 2, 118, 3.86], [5946, 1, 125, 4.69], [7708, 2, 202, 3.78], [2331, 1, 118, 5.87], [5729, 2, 57, 3.35], [7703, 2, 202, 3.66], [3980, 4, 554, 3.49], [5208, 3, 612, 5.24], [5811, 3, 647, 6.0], [1490, 1, 55, 5.13], [7707, 2, 202, 2.77], [13033, 3, 612, 5.02], [3889, 1, 125, 4.88], [1274, 1, 89, 4.67], [5584, 3, 259, 5.12], [3429, 15, 61, 2.5], [11089, 1, 193, 3.87], [5813, 3, 579, 6.0], [11161, 1, 530, 5.76], [22317, 3, 338, 5.79], [3981, 3, 1844, 4.0], [1492, 1, 42, 4.18], [6630, 3, 112, 3.54], [1309, 1, 58, 4.88], [12373, 1, 552, 4.51], [11586, 1, 382, 5.52], [11769, 1, 173, 3.97], [2912, 1, 56, 2.04], [8274, 3, 381, 4.95], [1661, 3, 220, 5.34], [24257, 1, 150, 5.3], [957, 2, 115, 3.21], [12345, 1, 666, 2.26], [823, 1, 42, 3.88], [10897, 1, 409, 2.14], [12925, 1, 74, 2.19], [1699, 3, 220, 4.06], [5165, 2, 441, 2.06], [1667, 3, 220, 5.34], [9082, 3, 2864, 2.38], [10398, 2, 164, 4.15], [2991, 3, 175, 5.16], [11288, 2, 105, 2.23], [8897, 3, 293, 5.62], [23611, 3, 343, 4.84], [6496, 1, 46, 4.04], [515, 24, 217, 5.06], [956, 2, 115, 3.25], [9690, 1, 83, 4.03], [944, 15, 50, 2.19], [21269, 3, 304, 6.0], [6497, 1, 43, 2.35], [3028, 3, 190, 2.13], [1050, 2, 112, 4.44], [10516, 3, 673, 4.1], [20969, 3, 677, 3.32], [9068, 1, 140, 2.23], [955, 2, 111, 3.33], [95, 3, 962, 5.91], [10410, 10, 1171, 6.0], [9760, 29, 79, 5.58]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 12, 2.19], [6936, 2, 13, 1.23], [2776, 2, 7, 3.47], [8853, 2, 9, 4.03], [145, 2, 11, 2.51], [12721, 2, 10, 2.87], [8673, 2, 11, 3.16], [11681, 2, 11, 2.05], [8675, 2, 8, 1.61], [143, 2, 9, 3.73], [146, 2, 9, 1.41], [5491, 2, 7, 2.21], [616, 2, 7, 2.64], [205, 2, 9, 2.71], [1124, 2, 12, 2.46], [6097, 80, 7, 0.94], [144, 2, 9, 2.82], [8676, 2, 7, 3.24], [8650, 2, 7, 4.27], [6097, 29, 7, 1.19], [3, 2, 7, 2.6], [990, 2, 9, 2.57], [589, 2, 7, 1.53], [206, 2, 7, 2.47], [88, 10, 17, 2.57], [6098, 80, 7, 2.15], [593, 2, 15, 2.2], [326, 2, 7, 0.99], [75, 2, 7, 4.44], [6158, 2, 9, 3.78], [1492, 1, 7, 2.12], [7704, 2, 7, 2.2], [345, 3, 7, 4.85], [24722, 2, 12, 2.13], [6496, 1, 7, 2.77], [2859, 15, 7, 2.58], [1490, 1, 7, 3.87], [1413, 15, 7, 2.15], [434, 2, 7, 2.53], [7705, 2, 7, 1.51], [432, 3, 7, 4.99], [411, 2, 7, 1.23], [1243, 2, 7, 1.46], [346, 3, 8, 5.0], [346, 1, 7, 3.5], [7886, 4, 7, 1.36], [10149, 3, 21, 1.48], [2703, 3, 7, 3.63], [22316, 3, 7, 2.63], [24257, 1, 9, 3.79], [5208, 3, 9, 3.21], [201, 3, 7, 4.05], [7708, 2, 7, 1.51], [12346, 1, 7, 4.0], [12229, 2, 7, 0.92], [1409, 15, 7, 0.75], [2331, 1, 7, 4.49], [21793, 1, 11, 4.66], [10407, 10, 10, 4.35], [96, 11, 24, 3.95], [515, 24, 7, 3.7], [1886, 2, 7, 1.54], [13023, 3, 12, 4.16], [11404, 2, 8, 0.92], [94, 4, 7, 4.54], [20927, 1, 7, 3.89], [11844, 2, 7, 4.08], [7036, 1, 7, 3.89], [20682, 1, 7, 0.68], [9690, 1, 7, 4.99], [7885, 4, 7, 3.23], [11490, 1, 7, 2.16], [7005, 1, 7, 3.89], [12347, 1, 7, 5.0], [10410, 10, 10, 5.0], [5584, 3, 7, 3.85], [159, 16, 7, 0.89], [12350, 1, 7, 5.0], [21798, 1, 7, 3.99], [11687, 2, 7, 0.81], [11161, 1, 13, 4.15], [20680, 1, 7, 1.34], [12870, 1, 7, 4.33], [10408, 10, 10, 0.96], [98, 11, 24, 5.0], [12053, 2, 7, 2.0], [965, 1, 7, 2.96], [3104, 1, 7, 1.73], [24724, 2, 13, 1.95], [11164, 1, 7, 5.0], [1139, 3, 7, 0.73], [410, 1, 7, 3.53], [5976, 1, 7, 3.72], [8600, 1, 7, 3.95], [11690, 2, 8, 0.7], [7707, 2, 7, 2.08], [9186, 29, 7, 0.83], [10411, 10, 10, 0.9], [21781, 2, 7, 0.73], [5209, 3, 8, 3.26], [11159, 1, 14, 5.0], [12055, 2, 7, 2.0], [11689, 2, 7, 0.69], [4253, 1, 7, 3.85], [12924, 1, 7, 0.89], [10409, 10, 10, 2.82], [9081, 3, 15, 3.43], [3495, 3, 21, 0.85], [24258, 1, 7, 4.27], [22125, 2, 7, 0.69], [4372, 1, 7, 0.94], [5076, 1, 7, 3.96], [24256, 1, 7, 4.03], [11510, 3, 8, 5.0], [11304, 2, 7, 0.9], [12304, 1, 7, 4.93], [955, 2, 7, 5.0], [1648, 1, 7, 3.84], [247, 1, 7, 2.08], [951, 4, 7, 0.98], [13028, 3, 7, 4.17], [3891, 1, 7, 4.02], [8659, 1, 7, 2.81], [23611, 3, 8, 4.06], [95, 3, 15, 1.64], [3477, 2, 7, 2.06], [2436, 4, 7, 3.19], [12764, 2, 8, 2.16], [8635, 3, 7, 4.11], [7558, 3, 7, 0.73], [8274, 3, 7, 4.27], [13489, 1, 7, 0.69], [5869, 1, 7, 5.0], [21010, 2, 7, 4.76], [942, 3, 7, 2.5], [9491, 21, 16, 3.31], [20682, 1, 716, 1.96], [9690, 1, 74, 6.0], [7885, 4, 155, 4.49], [7005, 1, 88, 5.16], [12347, 1, 673, 6.0], [10410, 10, 1171, 6.0], [5584, 3, 259, 5.12], [12350, 1, 673, 6.0], [21798, 1, 150, 5.25], [11687, 2, 345, 2.07], [11161, 1, 518, 5.42], [20680, 1, 716, 2.62], [12870, 1, 153, 5.59], [10408, 10, 874, 2.23], [98, 11, 841, 6.0], [12053, 2, 641, 3.26], [965, 1, 27, 4.23], [3104, 1, 344, 3.0], [24724, 2, 65, 3.22], [11164, 1, 449, 6.0], [410, 1, 116, 4.8], [5976, 1, 178, 4.99], [8600, 1, 147, 5.22], [11690, 2, 173, 1.78], [7707, 2, 202, 3.34], [9186, 29, 99, 2.09], [10411, 10, 869, 2.17], [21781, 2, 45, 1.69], [5209, 3, 568, 4.52], [11159, 1, 539, 6.0], [12055, 2, 641, 3.26], [11689, 2, 345, 1.95], [4253, 1, 185, 5.11], [12924, 1, 57, 2.38], [10409, 10, 1980, 4.12], [9081, 3, 536, 4.69], [3495, 3, 1151, 2.12], [24258, 1, 150, 5.54], [4372, 1, 76, 2.21], [5076, 1, 135, 5.22], [24256, 1, 150, 5.29], [11510, 3, 647, 6.0], [11304, 2, 105, 2.17], [12304, 1, 106, 6.0], [955, 2, 109, 6.0], [1648, 1, 52, 5.1], [247, 1, 99, 3.35], [951, 4, 116, 2.25], [13028, 3, 150, 5.44], [3891, 1, 132, 5.28], [8659, 1, 124, 4.07], [23611, 3, 337, 5.33], [95, 3, 1151, 2.91], [3477, 2, 59, 3.32], [2436, 4, 122, 4.45], [12764, 2, 836, 3.43], [8635, 3, 374, 5.38], [8274, 3, 374, 5.53], [13489, 1, 142, 1.96], [5869, 1, 238, 6.0], [21010, 2, 321, 6.0], [942, 3, 337, 3.77], [9491, 21, 2321, 4.55]]</t>
-  </si>
-  <si>
-    <t>[[3, 2, 7, 0.87], [8675, 2, 9, 1.19], [8676, 2, 7, 1.94], [6936, 2, 11, 1.9], [305, 2, 12, 1.98], [8674, 2, 7, 0.9], [2327, 2, 7, 1.93], [6097, 80, 7, 1.69], [8650, 2, 7, 4.27], [6097, 29, 7, 1.0], [411, 2, 7, 1.54], [2805, 137, 10, 3.66], [326, 2, 9, 1.97], [6496, 1, 7, 2.77], [6098, 80, 7, 1.84], [192, 3, 26, 3.96], [75, 2, 7, 4.49], [2057, 3, 7, 4.41], [11504, 2, 7, 1.24], [434, 2, 7, 3.43], [10149, 3, 21, 2.21], [2054, 3, 7, 4.41], [1886, 2, 7, 3.88], [88, 10, 17, 4.23], [1413, 15, 7, 2.43], [1243, 2, 7, 1.46], [5812, 3, 9, 5.0], [6158, 2, 13, 2.52], [8915, 2, 7, 3.5], [436, 2, 7, 3.45], [944, 15, 7, 0.83], [21793, 1, 11, 4.66], [107, 2, 7, 1.12], [1409, 15, 7, 0.73], [1414, 15, 7, 0.69], [140, 2, 7, 5.0], [22316, 3, 7, 0.81], [201, 3, 9, 3.37], [5208, 3, 9, 2.44], [5813, 3, 8, 4.39], [1699, 3, 7, 3.03], [12344, 1, 7, 2.91], [94, 4, 7, 3.29], [23920, 2, 7, 2.55], [4253, 1, 7, 3.92], [10398, 2, 7, 2.88], [307, 2, 7, 1.57], [3495, 3, 21, 0.85], [7004, 1, 7, 2.87], [24724, 2, 13, 2.05], [11671, 1, 7, 3.76], [8599, 1, 7, 5.0], [515, 24, 7, 2.85], [1309, 1, 7, 3.88], [11489, 1, 7, 3.11], [9491, 21, 16, 3.31], [13962, 1, 7, 0.92], [229, 1, 7, 5.0], [5584, 3, 7, 1.79], [11887, 2, 7, 0.85], [8659, 1, 7, 1.39], [8085, 1, 7, 1.68], [13266, 29, 7, 0.85], [410, 1, 7, 3.53], [1701, 2, 7, 4.67], [9209, 29, 9, 3.69], [18964, 1, 7, 0.75], [9690, 1, 7, 4.06], [7573, 1, 7, 5.0], [7036, 1, 7, 3.89], [2438, 2, 8, 5.0], [105, 3, 7, 3.29], [12764, 2, 8, 0.84], [964, 15, 7, 3.93], [1523, 1, 7, 5.0], [2438, 1, 7, 3.07], [21269, 3, 7, 4.79], [7005, 1, 7, 2.79], [13023, 3, 12, 4.16], [22125, 2, 7, 0.69], [4940, 1, 7, 0.87], [1274, 1, 7, 2.09], [955, 2, 7, 5.0], [11808, 1, 7, 3.35], [11081, 3, 7, 3.91], [21781, 2, 7, 0.73], [7885, 4, 7, 3.23], [9208, 29, 7, 3.34], [963, 3, 7, 2.66], [24127, 3, 7, 0.71], [4001, 3, 14, 3.01], [1648, 1, 7, 3.95], [439, 1, 7, 5.0], [11690, 2, 8, 0.7], [13033, 3, 9, 2.99], [6575, 3, 7, 2.89], [24723, 2, 7, 2.44], [8635, 3, 7, 4.11], [11678, 1, 7, 2.74], [11677, 1, 7, 2.65], [8274, 3, 7, 4.27], [520, 3, 7, 2.48], [5733, 2, 7, 1.94], [11689, 2, 7, 0.69], [10406, 10, 12, 3.06], [21783, 2, 7, 0.83], [20978, 1, 7, 2.46], [13034, 3, 8, 2.12], [965, 1, 7, 3.33], [3673, 2, 7, 2.87], [10994, 2, 7, 2.32], [942, 3, 7, 2.5], [11625, 29, 7, 1.04], [3984, 3, 10, 2.22], [11687, 2, 7, 0.81], [382, 1, 7, 1.33], [9069, 1, 7, 3.29], [11812, 1, 7, 1.74], [11089, 1, 7, 4.27], [20682, 1, 7, 0.68], [7558, 3, 7, 0.73], [12347, 1, 7, 2.91], [2188, 1, 7, 0.75], [10407, 10, 10, 4.31], [10408, 10, 10, 0.96], [3979, 3, 10, 2.63], [5976, 1, 7, 4.93], [10409, 10, 10, 2.82], [3975, 4, 7, 2.51], [4176, 4, 7, 2.35], [11510, 3, 8, 5.0], [3016, 68, 7, 4.81], [88, 1, 7, 3.43], [20977, 1, 7, 2.47], [24725, 2, 7, 3.11], [7036, 1, 143, 5.15], [2438, 2, 650, 6.0], [105, 3, 256, 5.06], [12764, 2, 852, 2.1], [964, 15, 108, 5.33], [1523, 1, 52, 6.0], [2438, 1, 54, 4.34], [21269, 3, 304, 6.0], [7005, 1, 87, 4.05], [13023, 3, 603, 5.92], [4940, 1, 137, 2.14], [1274, 1, 88, 3.36], [955, 2, 109, 6.0], [11808, 1, 518, 4.62], [11081, 3, 396, 5.18], [21781, 2, 45, 1.69], [7885, 4, 155, 4.49], [9208, 29, 36, 4.61], [963, 3, 421, 3.93], [24127, 3, 279, 1.98], [4001, 3, 904, 4.27], [1648, 1, 52, 5.22], [439, 1, 95, 6.0], [11690, 2, 173, 1.78], [13033, 3, 596, 4.27], [6575, 3, 280, 4.16], [24723, 2, 65, 3.7], [8635, 3, 374, 5.38], [11678, 1, 467, 4.0], [11677, 1, 467, 3.92], [8274, 3, 374, 5.53], [520, 3, 216, 3.75], [5733, 2, 57, 3.21], [11689, 2, 345, 1.95], [10406, 10, 1797, 4.35], [21783, 2, 83, 2.07], [20978, 1, 43, 3.73], [13034, 3, 596, 3.4], [965, 1, 27, 4.59], [3673, 2, 261, 4.14], [10994, 2, 61, 3.59], [942, 3, 337, 3.77], [11625, 29, 104, 2.3], [3984, 3, 1870, 3.5], [11687, 2, 345, 2.07], [382, 1, 187, 2.6], [9069, 1, 127, 4.55], [11812, 1, 271, 3.01], [11089, 1, 188, 5.54], [20682, 1, 716, 1.96], [12347, 1, 654, 4.17], [2188, 1, 78, 2.02], [10407, 10, 1151, 5.57], [10408, 10, 874, 2.23], [3979, 3, 904, 3.89], [5976, 1, 173, 6.0], [10409, 10, 1980, 4.12], [3975, 4, 556, 3.79], [4176, 4, 556, 3.62], [11510, 3, 647, 6.0], [3016, 68, 53, 6.0], [88, 1, 13, 4.7], [20977, 1, 43, 3.73], [24725, 2, 69, 4.38]]</t>
-  </si>
-  <si>
-    <t>[[6935, 2, 21, 2.06], [5491, 2, 7, 3.55], [8672, 2, 21, 4.28], [8650, 2, 7, 4.39], [6936, 2, 14, 2.62], [5493, 2, 7, 2.75], [143, 2, 17, 2.93], [75, 2, 9, 3.02], [145, 2, 9, 1.71], [205, 2, 7, 0.97], [8673, 2, 9, 4.26], [88, 10, 27, 1.95], [146, 2, 11, 1.38], [990, 2, 9, 1.25], [308, 1, 22, 5.0], [12721, 2, 9, 3.6], [206, 2, 7, 1.65], [326, 2, 7, 0.67], [7704, 2, 11, 1.98], [8675, 2, 17, 3.1], [1005, 2, 9, 1.37], [2424, 29, 7, 0.81], [144, 2, 7, 1.17], [6158, 2, 13, 1.29], [8676, 2, 14, 4.19], [2497, 2, 7, 3.09], [2424, 80, 7, 0.87], [1413, 15, 7, 2.15], [192, 3, 17, 3.55], [3, 2, 7, 2.6], [74, 1, 7, 2.24], [345, 3, 7, 2.16], [60, 3, 9, 3.97], [2859, 15, 7, 2.58], [2774, 2, 7, 4.49], [94, 4, 7, 2.5], [7084, 3, 7, 2.95], [2054, 3, 7, 3.69], [346, 1, 7, 2.91], [201, 3, 7, 2.11], [7703, 2, 7, 2.23], [22316, 3, 7, 3.3], [1409, 15, 7, 0.98], [2055, 3, 7, 3.69], [3893, 1, 7, 3.46], [6630, 3, 7, 0.87], [346, 3, 8, 2.91], [13028, 3, 7, 4.54], [10149, 3, 21, 2.21], [1050, 2, 7, 1.24], [24257, 1, 9, 4.3], [11581, 29, 7, 2.75], [13034, 3, 8, 3.0], [6097, 80, 7, 1.79], [6628, 3, 7, 3.24], [2057, 3, 7, 3.69], [13023, 3, 15, 4.43], [3477, 2, 7, 2.06], [6627, 3, 7, 0.78], [3891, 1, 7, 3.46], [3889, 1, 7, 3.46], [11919, 1, 7, 1.1], [12343, 1, 7, 2.95], [1243, 2, 7, 2.42], [5812, 3, 9, 4.1], [951, 4, 7, 3.28], [21793, 1, 11, 1.4], [8274, 3, 9, 2.86], [11089, 1, 7, 1.87], [7036, 1, 7, 2.95], [9827, 3, 7, 1.48], [12345, 1, 7, 5.0], [411, 2, 7, 1.72], [7005, 1, 7, 4.87], [5811, 3, 7, 5.0], [9126, 1, 7, 1.96], [2050, 3, 8, 3.39], [6496, 1, 7, 2.77], [515, 24, 7, 4.31], [22317, 3, 7, 4.52], [13033, 3, 9, 1.98], [9124, 1, 7, 1.6], [1490, 1, 7, 3.87], [12229, 2, 9, 0.78], [5208, 3, 9, 3.08], [2331, 1, 7, 4.6], [7573, 1, 7, 5.0], [5813, 3, 8, 4.1], [12344, 1, 7, 4.76], [1703, 2, 7, 2.82], [5729, 2, 7, 2.7], [21269, 3, 7, 4.79], [942, 3, 9, 2.25], [410, 1, 7, 3.53], [4940, 1, 7, 0.9], [23611, 3, 8, 4.06], [11586, 1, 21, 4.26], [5584, 3, 7, 3.85], [1886, 2, 7, 1.44], [1309, 1, 7, 3.88], [3495, 3, 21, 0.85], [8635, 3, 7, 3.11], [10406, 10, 12, 3.59], [2805, 137, 8, 3.89], [24258, 1, 9, 4.3], [13498, 3, 7, 1.34], [247, 1, 7, 2.08], [590, 15, 7, 3.19], [5946, 1, 7, 3.46], [229, 1, 7, 5.0], [9829, 3, 7, 4.34], [10408, 10, 10, 0.96], [20555, 2, 7, 0.81], [13244, 1, 7, 1.41], [10407, 10, 10, 3.1], [9491, 21, 14, 5.0], [3934, 5, 12, 1.54], [10409, 10, 11, 2.82], [9828, 3, 7, 3.72], [2438, 1, 7, 3.08], [95, 3, 15, 4.66], [9289, 29, 7, 4.33], [3900, 3, 7, 2.06], [12870, 1, 7, 4.79], [10716, 3, 7, 1.06], [11510, 3, 8, 3.57], [24256, 1, 7, 3.68], [88, 1, 7, 3.43], [11930, 1, 7, 1.14], [2013, 2, 7, 1.08], [5736, 2, 7, 2.71], [7007, 1, 7, 3.72], [972, 3, 8, 3.85], [9796, 3, 14, 2.79], [3143, 3, 7, 1.0], [9082, 3, 25, 1.11], [9827, 3, 92, 3.31], [12345, 1, 641, 6.0], [7005, 1, 81, 6.0], [5811, 3, 579, 6.0], [9126, 1, 79, 3.23], [2050, 3, 516, 4.66], [6496, 1, 46, 4.04], [515, 24, 215, 5.58], [22317, 3, 338, 5.79], [13033, 3, 591, 3.49], [9124, 1, 79, 2.87], [1490, 1, 55, 5.13], [12229, 2, 158, 2.44], [5208, 3, 570, 4.36], [2331, 1, 118, 5.87], [7573, 1, 382, 6.0], [5813, 3, 579, 5.37], [12344, 1, 641, 6.0], [1703, 2, 173, 4.09], [5729, 2, 51, 3.97], [21269, 3, 304, 6.0], [942, 3, 301, 4.02], [410, 1, 116, 4.8], [4940, 1, 138, 2.17], [23611, 3, 337, 5.33], [11586, 1, 382, 5.52], [5584, 3, 259, 5.12], [1886, 2, 177, 2.7], [1309, 1, 56, 5.15], [3495, 3, 1151, 2.12], [10406, 10, 1881, 5.12], [2805, 137, 179, 5.16], [24258, 1, 137, 6.0], [13498, 3, 694, 2.6], [247, 1, 99, 3.35], [590, 15, 107, 4.46], [5946, 1, 123, 4.73], [229, 1, 92, 6.0], [9829, 3, 71, 6.0], [10408, 10, 874, 2.23], [20555, 2, 66, 2.08], [13244, 1, 56, 2.68], [10407, 10, 1161, 4.38], [9491, 21, 2076, 6.0], [3934, 5, 591, 2.81], [10409, 10, 1797, 4.12], [9828, 3, 97, 4.99], [2438, 1, 54, 4.35], [95, 3, 962, 5.91], [9289, 29, 70, 5.6], [3900, 3, 48, 3.33], [12870, 1, 150, 6.0], [10716, 3, 106, 2.33], [11510, 3, 657, 4.84], [24256, 1, 151, 4.95], [88, 1, 13, 4.7], [11930, 1, 173, 2.41], [2013, 2, 186, 2.34], [5736, 2, 57, 3.97], [7007, 1, 86, 4.99], [972, 3, 647, 5.12], [9796, 3, 1044, 4.06], [3143, 3, 347, 2.27], [9082, 3, 2864, 2.38]]</t>
-  </si>
-  <si>
-    <t>[[11681, 2, 27, 5.0], [589, 2, 8, 2.33], [8650, 2, 9, 1.81], [8648, 2, 7, 3.52], [2776, 2, 7, 2.12], [593, 2, 9, 1.8], [8853, 2, 11, 3.97], [1429, 2, 17, 3.36], [21793, 1, 7, 4.54], [5493, 2, 7, 2.62], [11683, 2, 21, 4.04], [201, 3, 7, 4.76], [417, 2, 7, 1.92], [434, 2, 7, 3.28], [345, 3, 11, 2.52], [1124, 2, 9, 1.94], [8089, 1, 9, 1.29], [6097, 80, 7, 1.23], [6952, 1, 7, 5.0], [147, 1, 7, 2.14], [145, 2, 7, 1.43], [432, 3, 7, 4.67], [12350, 1, 7, 3.9], [2912, 1, 7, 2.18], [3891, 1, 7, 1.93], [146, 2, 7, 1.4], [6158, 2, 7, 2.0], [3893, 1, 7, 1.93], [616, 2, 7, 0.69], [10149, 3, 21, 2.27], [144, 2, 7, 1.15], [13028, 3, 7, 3.66], [4032, 29, 7, 3.72], [20927, 1, 7, 1.56], [6097, 29, 7, 0.89], [20252, 2, 7, 2.33], [5208, 3, 9, 3.64], [12870, 1, 7, 2.93], [24257, 1, 7, 4.19], [11504, 2, 7, 0.9], [5812, 3, 9, 3.85], [3889, 1, 7, 1.93], [24258, 1, 7, 3.56], [11089, 1, 10, 1.76], [2423, 80, 7, 2.39], [3334, 5, 7, 4.02], [12304, 1, 7, 1.02], [2057, 3, 7, 3.13], [12346, 1, 7, 4.14], [3576, 25, 7, 3.27], [10517, 29, 8, 3.78], [22316, 3, 7, 2.63], [9289, 29, 7, 1.97], [13893, 2, 7, 4.31], [1490, 1, 7, 4.28], [2912, 2, 10, 3.19], [75, 2, 23, 1.61], [972, 3, 7, 2.97], [9964, 2, 7, 4.55], [13034, 3, 7, 3.84], [11954, 1, 7, 2.22], [9372, 1, 7, 2.23], [9069, 1, 7, 1.43], [3, 2, 7, 2.46], [410, 1, 7, 2.38], [7886, 4, 7, 0.81], [3478, 2, 7, 3.16], [957, 2, 7, 1.83], [11426, 25, 7, 0.98], [214, 3, 17, 0.99], [6494, 1, 7, 0.98], [13280, 1, 7, 1.89], [12764, 2, 8, 0.84], [13244, 1, 7, 0.85], [8677, 3, 8, 2.38], [4253, 1, 7, 3.05], [823, 1, 7, 3.1], [161, 3, 11, 3.41], [2160, 68, 9, 0.74], [5209, 3, 7, 2.37], [21697, 3, 7, 1.0], [23235, 25, 7, 1.65], [149, 2, 7, 1.85], [2805, 137, 7, 2.09], [9691, 1, 7, 2.89], [4033, 29, 7, 0.75], [1277, 1, 9, 2.63], [490, 1, 7, 1.91], [2438, 2, 8, 0.66], [11404, 2, 7, 2.06], [5584, 3, 9, 1.08], [10609, 1, 7, 1.41], [7887, 4, 7, 1.81], [9491, 21, 15, 3.45], [8659, 1, 7, 2.14], [12338, 29, 7, 0.79], [1309, 1, 7, 0.92], [7704, 2, 7, 1.51], [8285, 2, 8, 1.22], [7567, 3, 7, 3.85], [13033, 3, 8, 1.68], [5811, 3, 7, 2.54], [21700, 3, 7, 4.11], [1523, 1, 7, 4.31], [13244, 2, 12, 0.81], [11942, 29, 7, 0.75], [956, 2, 7, 1.54], [10407, 10, 12, 3.85], [22317, 3, 7, 2.12], [3576, 29, 7, 2.33], [5813, 3, 7, 5.0], [14017, 3, 7, 4.08], [9827, 3, 7, 3.88], [20969, 3, 8, 1.21], [23234, 25, 7, 4.56], [389, 4, 7, 3.49], [335, 3, 13, 3.0], [1801, 1, 7, 2.47], [6497, 1, 7, 0.87], [2528, 29, 7, 3.28], [12647, 1, 7, 4.32], [105, 3, 7, 2.72], [21699, 3, 7, 1.0], [1667, 3, 7, 4.08], [6496, 1, 7, 2.77], [13498, 3, 7, 1.34], [10616, 1, 7, 1.98], [18964, 1, 7, 0.75], [9082, 3, 21, 0.94], [19925, 2, 7, 3.96], [2335, 3, 7, 2.32], [21701, 3, 7, 3.94], [13281, 1, 7, 1.89], [66, 15, 7, 0.75], [214, 3, 733, 2.21], [6494, 1, 58, 2.19], [13280, 1, 358, 3.09], [12764, 2, 840, 2.05], [13244, 1, 56, 2.06], [8677, 3, 333, 3.59], [4253, 1, 184, 4.26], [823, 1, 45, 4.31], [161, 3, 750, 4.63], [2160, 68, 134, 2.31], [5209, 3, 600, 3.58], [21697, 3, 204, 2.21], [23235, 25, 91, 2.86], [149, 2, 98, 3.06], [2805, 137, 198, 3.3], [9691, 1, 80, 4.1], [4033, 29, 105, 2.21], [1277, 1, 193, 4.34], [490, 1, 65, 3.12], [2438, 2, 729, 1.87], [11404, 2, 118, 3.27], [5584, 3, 245, 2.54], [10609, 1, 324, 2.62], [7887, 4, 52, 2.72], [9491, 21, 2288, 4.69], [8659, 1, 135, 3.35], [12338, 29, 60, 2.0], [1309, 1, 60, 2.13], [7704, 2, 199, 2.72], [8285, 2, 525, 2.43], [7567, 3, 75, 5.06], [13033, 3, 664, 2.9], [5811, 3, 644, 3.75], [21700, 3, 332, 5.32], [1523, 1, 52, 5.52], [13244, 2, 450, 2.02], [11942, 29, 112, 1.96], [956, 2, 115, 2.75], [10407, 10, 1252, 5.06], [22317, 3, 335, 3.33], [3576, 29, 37, 3.54], [5813, 3, 638, 6.0], [14017, 3, 216, 5.29], [9827, 3, 95, 5.09], [20969, 3, 681, 2.42], [23234, 25, 102, 5.77], [389, 4, 204, 4.71], [335, 3, 1382, 4.21], [1801, 1, 104, 3.68], [6497, 1, 42, 2.08], [2528, 29, 104, 4.49], [12647, 1, 224, 5.53], [105, 3, 258, 3.94], [21699, 3, 204, 2.21], [1667, 3, 217, 5.29], [6496, 1, 45, 3.98], [13498, 3, 684, 2.56], [10616, 1, 85, 3.19], [9082, 3, 2824, 2.13], [19925, 2, 118, 5.17], [2335, 3, 102, 3.34], [21701, 3, 332, 5.15], [13281, 1, 358, 3.09], [66, 15, 173, 1.96]]</t>
-  </si>
-  <si>
-    <t>[[8672, 2, 18, 2.66], [589, 2, 9, 2.73], [990, 2, 9, 1.0], [12721, 2, 10, 2.24], [1776, 1, 17, 5.0], [10, 2, 8, 0.95], [8675, 2, 10, 1.69], [1777, 1, 9, 2.47], [3, 2, 7, 1.14], [147, 1, 9, 3.69], [8650, 2, 9, 3.19], [1007, 2, 18, 1.81], [13028, 3, 7, 1.54], [88, 10, 26, 1.48], [8677, 3, 10, 4.2], [10149, 3, 36, 3.5], [3478, 2, 7, 3.07], [413, 1, 9, 2.97], [308, 1, 7, 2.71], [10825, 21, 13, 1.49], [7084, 3, 7, 1.02], [7004, 1, 7, 3.03], [2054, 3, 7, 1.92], [410, 1, 7, 2.71], [75, 2, 7, 1.42], [9827, 3, 9, 4.21], [1124, 2, 10, 1.63], [307, 2, 7, 2.59], [45, 2, 11, 3.17], [6158, 2, 11, 1.11], [7005, 1, 7, 2.96], [94, 4, 9, 4.75], [7036, 1, 7, 2.42], [1446, 2, 7, 1.94], [167, 3, 11, 3.9], [1006, 2, 7, 1.34], [5081, 2, 9, 0.98], [12870, 1, 7, 4.97], [3893, 1, 7, 4.0], [8674, 2, 9, 3.85], [6097, 80, 7, 2.51], [6097, 29, 7, 1.51], [3889, 1, 7, 4.02], [3891, 1, 7, 4.02], [1622, 1, 9, 3.23], [168, 3, 12, 3.6], [20498, 1, 9, 2.66], [2336, 3, 11, 0.8], [6098, 29, 7, 0.87], [10574, 3, 9, 2.17], [20927, 1, 7, 3.27], [346, 1, 7, 3.31], [12924, 1, 7, 0.69], [1490, 1, 7, 3.04], [335, 3, 21, 2.17], [74, 1, 7, 1.38], [9069, 1, 7, 0.75], [9829, 3, 7, 3.96], [214, 3, 21, 1.25], [6098, 80, 7, 1.12], [126, 2, 7, 1.17], [7567, 3, 7, 3.58], [998, 2, 9, 3.9], [24257, 1, 7, 5.0], [1070, 7, 15, 3.1], [1243, 2, 7, 2.45], [13034, 3, 16, 5.0], [20498, 3, 10, 2.67], [346, 3, 8, 3.9], [20486, 1, 7, 2.62], [20486, 3, 16, 4.89], [8945, 3, 8, 3.93], [996, 2, 14, 4.39], [23611, 3, 8, 3.99], [22316, 3, 7, 4.2], [9081, 3, 15, 2.52], [2424, 80, 7, 2.87], [9691, 1, 7, 1.85], [110, 4, 9, 3.32], [5946, 1, 7, 4.0], [2729, 3, 7, 5.0], [22554, 10, 15, 0.94], [11510, 3, 10, 1.49], [5086, 1, 9, 0.96], [215, 4, 7, 3.08], [3900, 3, 7, 2.73], [1413, 15, 7, 2.43], [995, 2, 7, 2.8], [9082, 3, 51, 1.96], [3049, 3, 7, 1.17], [9690, 1, 7, 2.35], [13023, 3, 12, 2.88], [22317, 3, 8, 1.77], [8943, 3, 7, 4.04], [20969, 3, 30, 2.6], [13484, 1, 7, 5.0], [4076, 3, 7, 3.01], [10780, 10, 7, 5.0], [991, 2, 7, 1.86], [9828, 3, 7, 4.25], [1080, 3, 7, 3.0], [3670, 2, 7, 2.6], [24567, 1, 9, 0.82], [3047, 3, 9, 2.43], [3016, 68, 7, 2.32], [12059, 3, 7, 1.91], [66, 16, 14, 1.12], [12345, 1, 7, 2.91], [229, 1, 7, 2.58], [13033, 3, 8, 4.08], [5165, 1, 9, 0.67], [24260, 1, 7, 3.76], [5584, 3, 7, 1.04], [3048, 3, 7, 2.94], [12925, 1, 7, 0.96], [3104, 1, 7, 1.39], [5153, 2, 7, 0.73], [10936, 2, 7, 3.85], [11089, 1, 7, 4.27], [2912, 1, 7, 0.73], [5083, 2, 7, 0.89], [491, 10, 12, 2.18], [9372, 1, 7, 3.35], [330, 3, 7, 3.94], [220, 4, 7, 4.99], [12344, 1, 7, 2.91], [12346, 1, 7, 2.91], [2331, 1, 7, 2.2], [2109, 3, 15, 1.08], [1339, 3, 17, 0.65], [949, 10, 7, 2.43], [1604, 68, 7, 2.72], [1414, 15, 7, 1.27], [9796, 3, 13, 4.32], [11967, 1, 7, 2.04], [3475, 2, 7, 3.26], [20486, 3, 595, 6.0], [8945, 3, 559, 4.87], [996, 2, 241, 6.0], [23611, 3, 313, 5.95], [22316, 3, 285, 5.15], [9081, 3, 487, 4.19], [2424, 80, 173, 4.22], [9691, 1, 76, 3.24], [110, 4, 194, 4.77], [5946, 1, 112, 5.2], [2729, 3, 80, 6.0], [22554, 10, 408, 1.88], [11510, 3, 566, 2.71], [5086, 1, 182, 2.16], [215, 4, 36, 4.03], [3900, 3, 43, 3.68], [1413, 15, 97, 3.38], [995, 2, 241, 4.0], [9082, 3, 2572, 4.68], [3049, 3, 133, 2.36], [9690, 1, 78, 3.3], [13023, 3, 616, 5.41], [22317, 3, 303, 2.71], [8943, 3, 354, 4.99], [20969, 3, 604, 3.76], [13484, 1, 177, 6.0], [4076, 3, 190, 4.21], [10780, 10, 374, 6.0], [9828, 3, 86, 5.35], [1080, 3, 140, 3.95], [3670, 2, 221, 3.64], [24567, 1, 300, 2.2], [3047, 3, 260, 3.88], [3016, 68, 51, 3.27], [12059, 3, 315, 2.86], [66, 16, 77, 2.82], [12345, 1, 618, 3.86], [229, 1, 89, 3.53], [13033, 3, 589, 5.03], [5165, 1, 47, 1.87], [24260, 1, 142, 4.71], [5584, 3, 234, 2.24], [3048, 3, 289, 3.89], [12925, 1, 71, 1.91], [3104, 1, 278, 3.09], [5153, 2, 26, 1.68], [10936, 2, 142, 4.8], [11089, 1, 159, 5.22], [2912, 1, 44, 1.64], [5083, 2, 134, 1.84], [491, 10, 451, 3.13], [9372, 1, 246, 4.3], [330, 3, 584, 4.9], [220, 4, 45, 5.94], [12344, 1, 618, 3.86], [12346, 1, 618, 3.86], [2331, 1, 112, 3.15], [2109, 3, 497, 2.03], [1339, 3, 1872, 1.59], [949, 10, 64, 3.34], [1604, 68, 270, 3.67], [1414, 15, 108, 2.22], [9796, 3, 1010, 5.27], [3475, 2, 63, 4.21]]</t>
+    <t>[[3, 2, 4, 0.2], [8672, 2, 6, 0.98], [151, 1, 4, 0.32], [6935, 2, 9, 2.51], [12721, 2, 9, 0.47], [8915, 2, 5, 0.97], [593, 2, 5, 0.74], [990, 2, 5, 0.53], [1776, 1, 5, 0.2], [8648, 2, 5, 0.58], [248, 1, 4, 1.1], [88, 10, 14, 0.19], [1777, 1, 4, 0.54], [141, 2, 4, 0.23], [6936, 2, 5, 0.94], [362, 2, 4, 0.51], [1446, 2, 4, 1.36], [8650, 2, 5, 1.45], [7004, 1, 4, 1.52], [21793, 1, 6, 3.07], [11404, 2, 4, 0.45], [431, 2, 5, 1.83], [5081, 2, 4, 2.36], [345, 3, 4, 0.42], [11681, 2, 4, 2.61], [2055, 3, 4, 0.39], [9827, 3, 5, 2.1], [94, 4, 4, 1.97], [7036, 1, 4, 1.14], [24257, 1, 5, 1.93], [8677, 3, 8, 2.8], [13028, 3, 4, 1.07], [7084, 3, 4, 0.39], [9760, 29, 6, 0.2], [3889, 1, 4, 1.59], [2991, 3, 5, 0.2], [7005, 1, 4, 1.26], [12870, 1, 4, 0.7], [168, 3, 9, 1.75], [23, 1, 4, 0.2], [35, 1, 4, 0.42], [79, 1, 4, 1.88], [7887, 4, 4, 0.6], [3478, 2, 4, 0.44], [1243, 2, 5, 1.15], [1622, 1, 4, 1.88], [59, 3, 11, 1.41], [8649, 2, 6, 0.45], [3891, 1, 4, 1.59], [9069, 1, 4, 0.49], [3893, 1, 4, 1.59], [3980, 4, 5, 0.48], [33, 1, 4, 0.33], [346, 1, 6, 1.07], [1767, 25, 4, 0.58], [5080, 2, 4, 1.24], [1504, 2, 5, 2.9], [192, 3, 15, 1.11], [346, 3, 4, 0.52], [20927, 1, 4, 1.52], [6158, 2, 5, 0.89], [1766, 25, 5, 1.87], [110, 4, 4, 0.2], [998, 2, 4, 1.79], [34, 1, 4, 0.42], [24260, 1, 4, 0.36], [11234, 2, 6, 0.57], [413, 1, 4, 0.45], [1070, 7, 10, 0.97], [20498, 1, 5, 2.28], [27, 1, 4, 0.32], [5812, 3, 6, 1.44], [142, 2, 4, 0.49], [8853, 2, 5, 1.8], [997, 2, 4, 1.33], [24, 1, 4, 0.32], [1767, 2, 4, 0.67], [8898, 3, 7, 3.5], [9829, 3, 5, 1.47], [38, 1, 4, 0.85], [952, 4, 4, 1.17], [3048, 3, 5, 2.34], [10993, 2, 4, 1.33], [22554, 10, 11, 0.71], [21269, 3, 5, 1.69], [974, 3, 5, 1.13], [10780, 10, 4, 2.11], [39, 1, 4, 0.67], [14037, 3, 4, 0.68], [1519, 3, 18, 1.04], [9828, 3, 4, 2.29], [20498, 3, 7, 1.22], [996, 2, 8, 1.97], [22316, 3, 6, 1.95], [8557, 3, 5, 0.2], [14018, 3, 4, 0.33], [3900, 3, 4, 0.53], [40, 1, 4, 1.51], [12924, 1, 4, 0.81], [5946, 1, 4, 1.24], [20486, 1, 4, 1.06], [6097, 80, 4, 0.96], [8945, 3, 5, 0.35], [13034, 3, 11, 0.6], [3981, 3, 16, 0.93], [7573, 1, 4, 1.12], [13023, 3, 10, 2.1], [995, 2, 4, 1.64], [20486, 3, 5, 0.44], [18, 1, 4, 0.2], [6097, 29, 4, 1.23], [1604, 68, 4, 1.88], [336, 15, 4, 0.2], [2335, 3, 4, 1.63], [19047, 3, 5, 2.22], [9, 1, 4, 0.47], [1080, 3, 4, 1.59], [9082, 3, 51, 0.85], [2729, 3, 5, 3.78], [8943, 3, 4, 0.2], [10616, 1, 4, 1.25], [4076, 3, 4, 3.19], [11954, 1, 5, 1.56], [7704, 2, 5, 1.86], [20969, 3, 8, 0.2], [9613, 1, 4, 1.62], [11914, 1, 4, 0.9], [215, 4, 4, 2.63], [330, 3, 4, 1.62], [3049, 3, 6, 1.0], [5153, 2, 4, 0.44], [9964, 2, 4, 0.49], [13484, 1, 4, 0.61], [8635, 3, 4, 0.59], [161, 1, 4, 0.48], [1766, 2, 4, 1.85], [23961, 3, 4, 1.66], [9289, 29, 5, 1.36], [5666, 2, 4, 0.57], [955, 2, 4, 1.56], [12059, 3, 5, 2.24], [11510, 3, 6, 0.2], [1703, 2, 4, 1.22], [13033, 3, 5, 0.2], [1087, 1, 4, 1.18], [5813, 3, 6, 2.0], [7707, 2, 5, 2.04], [22565, 3, 5, 0.5], [23339, 3, 4, 1.37], [1765, 25, 4, 2.18], [9833, 2, 4, 0.2], [5811, 3, 6, 0.62], [8104, 1, 6, 0.2], [951, 4, 4, 0.45], [5729, 2, 4, 0.77], [3016, 68, 4, 2.21], [8897, 3, 4, 2.14], [11711, 3, 4, 2.32], [6098, 80, 4, 0.5], [3475, 2, 4, 0.6], [3982, 3, 9, 0.48], [11555, 2, 5, 0.2], [19971, 3, 4, 0.77], [491, 10, 5, 2.05], [24722, 2, 4, 0.53], [21060, 1, 4, 1.27], [13283, 1, 4, 0.4], [21059, 1, 4, 1.3], [6952, 1, 4, 1.59], [3104, 1, 4, 0.51], [21946, 1, 4, 0.57], [11089, 1, 4, 1.01], [6098, 29, 4, 0.5], [3047, 3, 4, 0.92], [6496, 1, 4, 1.13], [944, 15, 4, 0.41], [3, 2, 118, 1.99], [151, 1, 72, 1.49], [990, 2, 57, 1.49], [88, 10, 613, 1.5], [1777, 1, 108, 1.99], [141, 2, 157, 1.99], [362, 2, 151, 1.49], [11404, 2, 115, 2.07], [345, 3, 337, 1.48], [7084, 3, 127, 1.74], [9760, 29, 69, 1.74], [2991, 3, 148, 1.99], [23, 1, 114, 1.99], [3478, 2, 75, 1.74], [9069, 1, 125, 1.99], [3980, 4, 492, 3.39], [33, 1, 114, 1.99], [110, 4, 217, 1.99], [11234, 2, 178, 1.74], [413, 1, 93, 1.49], [142, 2, 166, 1.49], [22554, 10, 362, 1.75], [14037, 3, 249, 1.33], [3900, 3, 46, 1.74]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 7, 0.87], [11685, 2, 4, 1.55], [11681, 2, 6, 1.12], [8915, 2, 5, 1.73], [1124, 2, 6, 0.48], [6936, 2, 6, 1.39], [7036, 1, 4, 1.06], [88, 10, 8, 0.43], [8648, 2, 5, 1.52], [7004, 1, 4, 0.2], [8650, 2, 6, 0.44], [615, 2, 4, 0.46], [1429, 2, 4, 1.22], [151, 1, 5, 0.43], [616, 2, 5, 0.2], [434, 2, 4, 0.42], [326, 2, 4, 0.67], [5165, 1, 4, 0.86], [1622, 1, 4, 2.04], [24257, 1, 7, 1.39], [2912, 1, 4, 1.36], [8672, 2, 4, 1.21], [192, 3, 11, 1.06], [10993, 2, 5, 0.2], [1504, 2, 5, 0.97], [7886, 4, 5, 0.2], [7573, 1, 9, 2.79], [417, 2, 4, 0.36], [3889, 1, 4, 0.7], [12870, 1, 4, 0.32], [61, 3, 6, 2.28], [21793, 1, 7, 1.35], [523, 2, 6, 0.61], [7005, 1, 4, 0.2], [75, 2, 4, 0.2], [3891, 1, 4, 0.7], [5208, 3, 6, 1.54], [24258, 1, 4, 0.6], [5165, 2, 5, 0.92], [94, 4, 5, 1.55], [35, 1, 4, 0.2], [2912, 2, 7, 1.63], [20927, 1, 4, 0.2], [7084, 3, 4, 0.84], [998, 2, 6, 1.38], [33, 1, 4, 0.2], [996, 2, 4, 1.63], [201, 3, 6, 0.75], [34, 1, 4, 0.2], [346, 3, 4, 1.58], [2424, 80, 4, 1.25], [38, 1, 4, 0.48], [12721, 2, 4, 0.45], [13928, 1, 4, 0.49], [7887, 4, 4, 0.57], [3048, 3, 4, 1.47], [346, 1, 4, 1.6], [9081, 3, 7, 1.04], [5209, 3, 4, 1.33], [12924, 1, 4, 1.24], [7567, 3, 4, 0.52], [13280, 1, 6, 0.2], [2424, 29, 4, 1.24], [4076, 3, 6, 1.46], [995, 2, 4, 0.77], [2336, 3, 5, 0.5], [11234, 2, 5, 0.93], [12349, 1, 4, 0.51], [23961, 3, 4, 1.93], [74, 1, 4, 0.27], [13028, 3, 4, 0.57], [20498, 3, 4, 0.99], [11953, 1, 4, 0.68], [5946, 1, 4, 0.7], [1243, 2, 4, 0.51], [2805, 137, 4, 1.28], [6097, 80, 5, 1.17], [7704, 2, 5, 0.48], [8677, 3, 6, 0.51], [215, 4, 4, 2.31], [7707, 2, 4, 0.48], [8104, 1, 4, 0.81], [24722, 2, 4, 0.21], [12229, 2, 4, 0.41], [7705, 2, 4, 0.48], [10780, 10, 4, 1.3], [8898, 3, 4, 3.02], [5151, 2, 4, 0.83], [950, 1, 4, 0.2], [6097, 29, 4, 1.1], [20486, 3, 4, 0.5], [24567, 1, 4, 0.39], [3442, 29, 4, 1.14], [10410, 10, 9, 1.17], [10407, 10, 6, 1.28], [1523, 1, 4, 0.87], [7706, 2, 4, 2.1], [11952, 1, 4, 0.68], [1519, 3, 15, 0.22], [5584, 3, 4, 0.4], [8676, 2, 4, 0.48], [3047, 3, 4, 0.69], [21269, 3, 4, 0.52], [3900, 3, 4, 0.8], [3059, 3, 4, 1.53], [12764, 2, 5, 0.36], [8659, 1, 4, 0.73], [20498, 1, 4, 0.56], [2436, 4, 4, 0.46], [6496, 1, 4, 0.38], [12353, 1, 4, 4.0], [12345, 1, 4, 4.0], [24725, 2, 4, 0.53], [1080, 3, 4, 0.44], [12352, 1, 4, 4.0], [9827, 3, 4, 1.47], [2335, 3, 4, 0.42], [5005, 3, 5, 1.62], [3892, 1, 4, 0.7], [7708, 2, 4, 0.48], [3049, 3, 4, 0.82], [11711, 3, 4, 1.55], [220, 4, 4, 1.82], [180, 15, 4, 1.33], [2423, 29, 4, 1.01], [22565, 3, 4, 0.37], [944, 15, 4, 0.41], [5080, 2, 6, 1.08], [6497, 1, 4, 0.43], [1049, 2, 4, 1.97], [11942, 29, 4, 0.67], [13034, 3, 4, 0.69], [12346, 1, 4, 3.76], [13283, 1, 4, 1.36], [13281, 1, 4, 0.76], [3478, 2, 4, 0.7], [1667, 3, 4, 2.07], [955, 2, 4, 1.53], [11894, 2, 4, 0.94], [8897, 3, 4, 1.39], [66, 16, 4, 0.96], [2438, 2, 5, 0.44], [8674, 2, 5, 0.49], [12661, 1, 4, 0.77], [10936, 2, 4, 0.47], [10536, 3, 4, 1.14], [1895, 3, 4, 0.48], [21946, 1, 4, 0.66], [11936, 2, 4, 0.56], [10147, 1, 4, 0.47], [3894, 1, 4, 0.68], [9085, 29, 4, 0.47], [23, 1, 4, 0.67], [3334, 5, 4, 1.91], [1050, 2, 4, 1.97], [10181, 26, 4, 1.91], [11150, 1, 4, 0.45], [19047, 3, 4, 0.94], [21059, 1, 4, 1.38], [8234, 1, 4, 0.49], [3143, 3, 4, 0.53], [9069, 1, 4, 0.47], [10537, 3, 4, 2.9], [12304, 1, 4, 1.28], [13928, 2, 4, 0.49], [1124, 2, 193, 3.53], [88, 10, 634, 1.69], [7004, 1, 27, 1.52], [151, 1, 66, 1.94], [616, 2, 105, 2.19], [434, 2, 107, 1.69], [326, 2, 95, 1.69], [5165, 1, 53, 1.69], [10993, 2, 52, 2.55], [7886, 4, 157, 1.69], [417, 2, 169, 1.69], [3889, 1, 125, 1.69], [12870, 1, 143, 1.94], [7005, 1, 27, 1.52], [75, 2, 153, 2.19], [3891, 1, 125, 1.69], [24258, 1, 154, 1.69], [5165, 2, 427, 1.69], [35, 1, 118, 2.19], [20927, 1, 27, 1.52], [7084, 3, 134, 2.19], [33, 1, 118, 2.2], [34, 1, 118, 2.19], [38, 1, 125, 1.69], [12721, 2, 315, 1.69], [13928, 1, 52, 1.69], [7567, 3, 77, 1.69], [13280, 1, 297, 2.24], [2336, 3, 640, 1.69], [13028, 3, 165, 1.69], [5946, 1, 125, 1.69], [1243, 2, 109, 1.69], [24722, 2, 57, 1.94], [12229, 2, 169, 1.69], [5151, 2, 26, 1.69]]</t>
+  </si>
+  <si>
+    <t>[[11681, 2, 5, 2.2], [11685, 2, 6, 1.3], [141, 2, 4, 0.49], [8648, 2, 4, 1.59], [434, 2, 4, 0.5], [88, 10, 8, 0.43], [8650, 2, 5, 0.79], [7004, 1, 4, 0.2], [7036, 1, 4, 0.23], [142, 2, 4, 0.49], [417, 2, 4, 0.43], [10993, 2, 4, 0.39], [523, 2, 4, 0.49], [2049, 3, 7, 1.05], [12870, 1, 4, 1.17], [3840, 1, 4, 0.2], [192, 3, 10, 2.0], [1124, 2, 5, 0.44], [9760, 29, 5, 0.2], [13028, 3, 5, 1.68], [2054, 3, 4, 1.72], [2050, 3, 4, 1.61], [3889, 1, 4, 1.33], [8853, 2, 4, 0.46], [94, 4, 4, 0.63], [24257, 1, 4, 0.58], [2057, 3, 4, 1.88], [20927, 1, 5, 1.16], [3982, 3, 10, 1.05], [7005, 1, 4, 0.61], [7573, 1, 5, 0.94], [2055, 3, 6, 1.34], [996, 2, 4, 1.83], [21793, 1, 4, 2.19], [998, 2, 4, 1.83], [24258, 1, 4, 1.75], [3980, 4, 4, 0.75], [23611, 3, 4, 1.8], [2912, 1, 4, 1.31], [9081, 3, 8, 0.51], [201, 3, 6, 1.49], [12350, 1, 4, 1.15], [2775, 2, 4, 0.75], [346, 3, 4, 1.98], [5208, 3, 4, 1.05], [1622, 1, 4, 1.02], [8677, 3, 7, 0.76], [346, 1, 4, 1.95], [3981, 3, 16, 0.88], [7704, 2, 4, 2.06], [82, 2, 4, 0.82], [956, 2, 4, 0.35], [950, 1, 4, 1.15], [12338, 29, 4, 0.61], [345, 3, 4, 1.7], [12349, 1, 5, 1.51], [8898, 3, 4, 1.41], [22316, 3, 4, 2.62], [9082, 3, 19, 0.83], [33, 1, 4, 0.38], [214, 3, 9, 0.51], [20498, 3, 5, 0.49], [11953, 1, 4, 0.47], [336, 15, 4, 0.95], [12346, 1, 4, 1.13], [1492, 1, 4, 0.51], [5080, 2, 4, 0.92], [410, 1, 4, 0.39], [2912, 2, 5, 1.31], [110, 4, 4, 0.7], [5811, 3, 4, 1.48], [7705, 2, 4, 2.06], [3048, 3, 4, 0.69], [12229, 2, 4, 0.47], [13283, 1, 4, 1.52], [3495, 3, 13, 0.44], [1413, 15, 4, 1.05], [20486, 3, 5, 0.65], [7708, 2, 4, 2.06], [22317, 3, 4, 1.3], [34, 1, 4, 0.39], [957, 2, 4, 0.35], [22565, 3, 6, 0.31], [12353, 1, 4, 1.13], [23, 1, 4, 0.48], [74, 1, 4, 0.69], [24725, 2, 4, 0.47], [2322, 2, 4, 3.25], [8943, 3, 4, 1.73], [11770, 1, 4, 0.61], [6497, 1, 4, 0.44], [12721, 2, 4, 0.55], [1703, 2, 4, 0.45], [9827, 3, 4, 1.33], [1895, 3, 4, 0.52], [25, 1, 4, 0.67], [7706, 2, 4, 0.96], [8944, 3, 4, 0.39], [161, 3, 5, 0.62], [11952, 1, 4, 0.58], [8673, 2, 4, 0.47], [7707, 2, 4, 2.06], [4076, 3, 4, 2.03], [20498, 1, 4, 1.14], [10181, 26, 5, 1.83], [2335, 3, 4, 0.58], [9964, 2, 4, 1.44], [12352, 1, 4, 1.17], [6496, 1, 4, 0.71], [3900, 3, 4, 0.46], [8104, 1, 4, 0.42], [24567, 1, 4, 0.39], [14037, 3, 4, 0.59], [11711, 3, 4, 0.57], [8897, 3, 4, 1.31], [10581, 3, 4, 1.24], [11510, 3, 5, 0.99], [10387, 2, 4, 1.22], [3477, 2, 4, 1.32], [1523, 1, 4, 0.48], [4001, 3, 7, 0.48], [220, 4, 4, 1.75], [9372, 1, 4, 0.61], [2805, 137, 4, 1.48], [955, 2, 4, 1.53], [8557, 3, 4, 0.5], [1548, 1, 4, 0.45], [3047, 3, 4, 2.46], [12764, 2, 5, 0.5], [21269, 3, 4, 3.75], [10936, 2, 4, 0.47], [1080, 3, 4, 1.14], [9965, 2, 4, 1.41], [12888, 1, 4, 1.4], [66, 16, 4, 1.35], [10093, 3, 13, 1.23], [11150, 1, 4, 0.89], [216, 4, 4, 0.44], [3049, 3, 4, 1.05], [10941, 2, 4, 0.46], [8234, 1, 4, 0.61], [9828, 3, 4, 1.11], [21946, 1, 4, 0.48], [12897, 1, 4, 1.4], [66, 15, 4, 1.35], [11689, 2, 4, 0.37], [2438, 2, 5, 0.44], [3975, 4, 4, 1.23], [14017, 3, 4, 1.57], [27, 1, 4, 0.67], [20486, 1, 4, 0.76], [2336, 3, 5, 1.15], [6098, 80, 4, 0.7], [5769, 3, 6, 0.37], [24724, 2, 4, 0.49], [9967, 2, 4, 1.41], [11687, 2, 4, 0.36], [202, 2, 4, 0.8], [6864, 1, 4, 1.15], [5005, 3, 5, 0.88], [24, 1, 4, 0.67], [10939, 2, 4, 0.47], [9829, 3, 4, 1.21], [22330, 3, 4, 0.91], [2537, 1, 4, 1.16], [5434, 1, 4, 0.91], [6966, 3, 4, 1.86], [12924, 1, 4, 1.22], [19047, 3, 4, 0.82], [12887, 1, 4, 1.4], [141, 2, 176, 1.6], [434, 2, 112, 1.6], [88, 10, 660, 1.6], [7004, 1, 85, 2.1], [142, 2, 176, 1.6], [10993, 2, 56, 1.85], [523, 2, 176, 1.6], [9760, 29, 74, 1.85], [8853, 2, 309, 1.6], [7005, 1, 90, 1.6], [9081, 3, 551, 1.6], [82, 2, 69, 1.6], [956, 2, 65, 1.44], [12338, 29, 60, 1.6], [33, 1, 129, 1.6], [214, 3, 740, 1.59], [11953, 1, 229, 1.6], [1492, 1, 42, 1.6], [410, 1, 54, 1.35], [3048, 3, 309, 1.6], [12229, 2, 173, 1.6], [3495, 3, 1145, 1.61], [34, 1, 129, 1.6], [957, 2, 65, 1.44], [23, 1, 128, 1.6], [74, 1, 231, 1.6], [24725, 2, 73, 1.6], [11770, 1, 252, 1.6], [6497, 1, 42, 1.6], [12721, 2, 324, 1.6]]</t>
+  </si>
+  <si>
+    <t>[[362, 2, 4, 0.2], [8672, 2, 6, 1.46], [75, 2, 5, 0.2], [141, 2, 5, 0.66], [130, 1, 4, 0.2], [6935, 2, 8, 1.82], [1776, 1, 6, 0.2], [8915, 2, 6, 1.14], [990, 2, 5, 0.93], [88, 10, 8, 0.43], [1777, 1, 5, 0.35], [8648, 2, 4, 0.76], [83, 2, 4, 1.29], [11681, 2, 6, 2.4], [6936, 2, 5, 0.66], [361, 2, 4, 0.76], [45, 2, 6, 0.2], [8675, 2, 8, 0.46], [345, 3, 5, 0.2], [3478, 2, 4, 0.98], [142, 2, 4, 0.64], [1124, 2, 10, 0.76], [21793, 1, 6, 1.79], [8650, 2, 4, 1.15], [74, 1, 5, 0.69], [7036, 1, 4, 1.15], [346, 1, 4, 1.06], [7004, 1, 4, 1.07], [168, 3, 6, 1.0], [9827, 3, 4, 1.62], [5005, 1, 4, 1.29], [5081, 2, 4, 1.59], [7084, 3, 4, 0.48], [2055, 3, 4, 2.59], [2991, 3, 4, 1.09], [6158, 2, 5, 0.67], [11404, 2, 4, 0.46], [24257, 1, 4, 0.36], [5208, 3, 10, 1.85], [94, 4, 4, 1.22], [13028, 3, 6, 0.2], [8674, 2, 5, 0.97], [3889, 1, 5, 1.84], [12870, 1, 4, 0.8], [3893, 1, 4, 1.84], [170, 3, 6, 2.58], [3891, 1, 5, 2.83], [110, 4, 4, 0.51], [7005, 1, 4, 0.39], [192, 3, 13, 2.8], [5080, 2, 7, 1.13], [998, 2, 5, 0.41], [2050, 3, 4, 1.18], [3980, 4, 7, 0.74], [410, 1, 4, 0.39], [5660, 2, 5, 0.75], [20498, 1, 4, 0.82], [2878, 1, 5, 0.2], [1490, 1, 4, 0.41], [1091, 1, 5, 2.37], [1622, 1, 8, 1.93], [9829, 3, 4, 2.32], [8649, 2, 4, 1.2], [997, 2, 8, 2.12], [8676, 2, 8, 0.47], [5812, 3, 5, 2.91], [1504, 2, 4, 0.59], [5513, 2, 4, 0.87], [952, 4, 4, 0.2], [10993, 2, 6, 0.64], [5209, 3, 4, 1.22], [35, 1, 5, 0.52], [13280, 1, 5, 0.8], [346, 3, 5, 2.51], [1070, 7, 10, 1.44], [8853, 2, 4, 0.46], [11914, 1, 7, 0.66], [9760, 29, 4, 0.42], [996, 2, 4, 0.66], [9690, 1, 4, 0.98], [9691, 1, 4, 2.25], [1703, 2, 5, 2.28], [20927, 1, 4, 0.55], [22316, 3, 7, 1.5], [10780, 10, 5, 3.79], [14037, 3, 6, 0.2], [8898, 3, 7, 2.94], [9081, 3, 11, 0.39], [8677, 3, 6, 1.39], [1519, 3, 10, 0.83], [6097, 29, 4, 1.19], [20498, 3, 6, 1.47], [6097, 80, 4, 1.19], [21269, 3, 4, 3.75], [24260, 1, 4, 0.94], [12924, 1, 4, 1.26], [2335, 3, 4, 1.17], [20486, 1, 5, 0.89], [9, 1, 4, 0.75], [34, 1, 6, 0.36], [3048, 3, 6, 3.54], [13034, 3, 5, 0.74], [12661, 1, 4, 1.83], [23961, 3, 4, 1.48], [10529, 29, 4, 0.55], [995, 2, 4, 0.92], [6098, 80, 4, 0.57], [5584, 3, 4, 0.51], [1413, 15, 4, 0.41], [6098, 29, 4, 1.31], [3900, 3, 4, 1.17], [66, 1, 4, 0.57], [8557, 3, 4, 0.39], [1087, 1, 4, 0.37], [330, 3, 4, 2.01], [8945, 3, 5, 0.42], [39, 1, 5, 0.86], [20486, 3, 6, 0.68], [9082, 3, 27, 0.17], [11954, 1, 5, 1.51], [7573, 1, 4, 1.89], [2537, 1, 4, 0.53], [974, 3, 6, 0.6], [18, 1, 4, 0.95], [2104, 3, 6, 0.38], [22565, 3, 5, 0.44], [66, 16, 4, 1.64], [9828, 3, 4, 0.69], [5097, 2, 4, 0.66], [13484, 1, 4, 1.57], [1604, 68, 4, 0.75], [13033, 3, 5, 0.74], [12353, 1, 4, 0.6], [215, 4, 6, 2.46], [2729, 3, 4, 0.44], [9833, 2, 5, 0.2], [8104, 1, 4, 1.13], [12059, 3, 4, 1.22], [11510, 3, 5, 0.5], [19047, 3, 4, 0.79], [201, 1, 4, 0.2], [21946, 1, 5, 1.39], [2912, 1, 4, 1.29], [5946, 1, 4, 1.84], [345, 1, 4, 0.2], [9613, 1, 4, 0.48], [951, 4, 4, 1.33], [3477, 2, 4, 2.52], [7324, 1, 4, 0.8], [3143, 3, 4, 0.35], [24722, 2, 4, 0.51], [11555, 2, 4, 0.72], [9835, 2, 4, 1.08], [515, 24, 4, 0.46], [991, 2, 4, 0.8], [3104, 1, 4, 0.26], [3049, 3, 4, 0.89], [202, 2, 4, 1.17], [9289, 29, 4, 0.63], [11711, 3, 4, 1.06], [5811, 3, 5, 1.65], [5165, 1, 4, 0.82], [2991, 1, 4, 0.59], [10530, 29, 4, 0.8], [2424, 80, 4, 0.56], [5083, 2, 5, 0.82], [3016, 68, 4, 1.73], [5729, 2, 4, 0.94], [6630, 3, 4, 1.33], [7705, 2, 4, 0.7], [9830, 3, 4, 0.49], [7707, 2, 4, 0.7], [24567, 1, 4, 0.42], [380, 2, 4, 2.01], [5005, 3, 5, 1.43], [23339, 3, 4, 0.47], [5813, 3, 5, 2.52], [8897, 3, 4, 1.91], [362, 2, 138, 1.62], [75, 2, 153, 1.86], [88, 10, 638, 1.36], [345, 3, 311, 1.62], [142, 2, 168, 1.36], [6158, 2, 291, 1.36], [11404, 2, 125, 1.36], [110, 4, 220, 1.86], [7005, 1, 82, 1.86], [410, 1, 117, 1.36], [2878, 1, 76, 1.62], [1490, 1, 56, 1.36], [952, 4, 76, 2.09], [9760, 29, 71, 1.62], [20927, 1, 87, 1.36], [14037, 3, 361, 1.86], [9081, 3, 498, 4.66], [10529, 29, 46, 1.36], [6098, 80, 84, 1.36], [5584, 3, 269, 1.36], [1413, 15, 111, 1.36], [66, 1, 42, 1.36]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 8, 0.43], [615, 2, 4, 0.46], [8915, 2, 5, 1.35], [6935, 2, 6, 1.35], [94, 4, 5, 1.55], [7004, 1, 4, 0.2], [616, 2, 4, 0.2], [6936, 2, 5, 1.1], [11685, 2, 4, 1.8], [1124, 2, 6, 0.29], [1429, 2, 5, 1.22], [8650, 2, 6, 1.27], [434, 2, 4, 0.72], [8648, 2, 6, 1.05], [11681, 2, 4, 1.62], [7036, 1, 4, 1.31], [326, 2, 4, 1.18], [151, 1, 4, 0.68], [75, 2, 5, 0.2], [24257, 1, 7, 1.39], [3893, 1, 4, 0.85], [8938, 2, 5, 1.6], [192, 3, 10, 1.06], [3891, 1, 5, 2.65], [21793, 1, 4, 0.61], [5208, 3, 4, 0.95], [7005, 1, 4, 0.39], [10993, 2, 4, 0.41], [3980, 4, 10, 0.81], [5165, 1, 4, 0.84], [3889, 1, 4, 0.7], [2912, 1, 4, 1.36], [7573, 1, 5, 0.8], [2424, 80, 4, 0.33], [2436, 4, 4, 0.46], [346, 3, 4, 0.5], [7084, 3, 4, 0.84], [20927, 1, 4, 0.39], [998, 2, 5, 0.89], [24258, 1, 4, 0.6], [8672, 2, 4, 0.49], [12870, 1, 4, 0.57], [7887, 4, 4, 0.57], [417, 2, 5, 0.28], [5165, 2, 5, 0.92], [996, 2, 5, 1.63], [74, 1, 4, 0.87], [1622, 1, 4, 1.29], [11234, 2, 4, 1.08], [523, 2, 5, 0.2], [3982, 3, 10, 1.23], [12353, 1, 4, 4.0], [12349, 1, 4, 0.51], [2912, 2, 7, 1.4], [3900, 3, 4, 0.8], [8677, 3, 4, 1.22], [12229, 2, 6, 0.2], [6497, 1, 4, 0.43], [6496, 1, 4, 0.38], [2423, 80, 4, 1.04], [11953, 1, 4, 0.68], [11770, 1, 5, 0.38], [5811, 3, 4, 0.51], [346, 1, 4, 1.6], [6097, 80, 4, 1.09], [82, 2, 4, 1.24], [5584, 3, 4, 0.4], [24567, 1, 4, 0.39], [12721, 2, 4, 0.45], [5209, 3, 4, 1.33], [5812, 3, 4, 0.51], [3975, 4, 4, 1.05], [3981, 3, 11, 1.42], [10780, 10, 4, 1.3], [1243, 2, 4, 0.51], [2438, 2, 5, 0.44], [10407, 10, 6, 1.28], [5151, 2, 4, 0.83], [12350, 1, 4, 4.0], [8898, 3, 4, 3.02], [12346, 1, 4, 3.76], [23, 1, 4, 0.67], [2424, 29, 4, 1.24], [220, 4, 4, 1.82], [13928, 1, 4, 0.49], [201, 3, 5, 1.51], [33, 1, 4, 0.39], [8659, 1, 4, 0.73], [12764, 2, 5, 0.36], [7708, 2, 4, 0.48], [1519, 3, 12, 0.22], [4232, 80, 4, 1.57], [20486, 3, 4, 0.5], [24725, 2, 4, 0.53], [9081, 3, 7, 1.04], [8943, 3, 4, 0.55], [12344, 1, 4, 3.35], [5813, 3, 4, 0.51], [23961, 3, 4, 1.93], [955, 2, 4, 1.53], [5005, 3, 5, 1.62], [5435, 1, 4, 0.69], [20498, 3, 4, 0.99], [2805, 137, 4, 1.28], [37, 1, 4, 0.41], [995, 2, 4, 0.77], [35, 1, 4, 0.48], [7704, 2, 4, 0.48], [216, 4, 4, 1.17], [1895, 3, 4, 0.48], [1667, 3, 4, 2.07], [7706, 2, 4, 2.1], [5005, 1, 4, 1.62], [19047, 3, 4, 0.94], [180, 15, 4, 1.33], [13260, 29, 4, 0.82], [2335, 3, 4, 0.42], [3979, 3, 8, 1.13], [38, 1, 4, 0.48], [3442, 29, 4, 1.14], [944, 15, 4, 0.41], [11942, 29, 4, 0.67], [2336, 3, 5, 0.5], [11150, 2, 6, 0.45], [10536, 3, 4, 1.14], [215, 4, 4, 2.31], [8676, 2, 4, 0.47], [13280, 1, 4, 0.76], [10537, 3, 4, 2.9], [9827, 3, 4, 1.47], [12924, 1, 4, 1.24], [34, 1, 4, 0.48], [5080, 2, 5, 1.33], [7705, 2, 4, 0.48], [13034, 3, 4, 0.69], [1233, 1, 4, 0.75], [5585, 3, 4, 0.71], [8557, 3, 4, 0.38], [12647, 1, 4, 1.12], [10936, 2, 4, 0.47], [1691, 1, 4, 0.83], [308, 1, 4, 2.3], [10398, 2, 4, 0.74], [66, 15, 4, 0.96], [12417, 1, 4, 0.62], [1080, 3, 4, 0.44], [19583, 3, 4, 0.57], [10147, 1, 4, 0.47], [8058, 3, 4, 2.34], [12234, 3, 4, 0.76], [1523, 1, 4, 0.87], [14017, 3, 4, 1.08], [12661, 1, 4, 0.77], [13281, 1, 4, 0.76], [12235, 3, 4, 0.76], [7707, 2, 4, 0.48], [11894, 2, 4, 0.94], [21683, 3, 4, 0.57], [12923, 1, 4, 0.47], [19582, 3, 4, 0.55], [13286, 1, 4, 0.76], [13283, 1, 4, 1.36], [2109, 3, 9, 0.43], [947, 15, 4, 0.49], [88, 10, 634, 1.69], [7004, 1, 27, 1.52], [616, 2, 105, 2.19], [1124, 2, 204, 1.69], [151, 1, 66, 1.94], [75, 2, 153, 2.19], [3893, 1, 113, 1.94], [7005, 1, 29, 1.27], [10993, 2, 60, 1.69], [5165, 1, 48, 1.94], [3889, 1, 125, 1.69], [2436, 4, 129, 1.69], [7084, 3, 134, 2.19], [20927, 1, 29, 1.27], [24258, 1, 154, 1.69], [8672, 2, 317, 1.69], [12870, 1, 158, 1.69], [417, 2, 153, 1.94], [5165, 2, 427, 1.69], [74, 1, 226, 1.69], [523, 2, 160, 2.2], [12229, 2, 160, 2.49], [6497, 1, 41, 1.69], [6496, 1, 44, 1.69], [11770, 1, 242, 1.94], [5584, 3, 269, 1.69], [24567, 1, 357, 1.69], [12721, 2, 315, 1.69], [1243, 2, 109, 1.69], [2438, 2, 711, 1.68], [5151, 2, 26, 1.69], [23, 1, 123, 1.69], [13928, 1, 52, 1.69], [33, 1, 125, 1.69], [8659, 1, 134, 1.69], [1519, 3, 1528, 1.94]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 8, 0.43], [11681, 2, 5, 2.2], [434, 2, 4, 0.5], [11685, 2, 4, 1.83], [7036, 1, 4, 0.9], [3980, 4, 8, 0.75], [3893, 1, 4, 1.4], [8915, 2, 5, 0.61], [1504, 2, 4, 1.69], [192, 3, 13, 2.23], [8648, 2, 4, 1.59], [141, 2, 4, 0.49], [2049, 3, 7, 1.05], [7004, 1, 4, 0.39], [3889, 1, 5, 1.69], [3840, 1, 5, 2.66], [2775, 2, 4, 0.72], [2054, 3, 4, 1.72], [2050, 3, 4, 1.61], [3975, 4, 4, 1.23], [3495, 3, 13, 0.44], [12870, 1, 7, 1.33], [94, 4, 6, 1.38], [5165, 1, 4, 0.61], [10993, 2, 5, 0.87], [2057, 3, 4, 1.62], [2055, 3, 4, 1.78], [8853, 2, 4, 1.84], [5208, 3, 6, 1.4], [24257, 1, 4, 0.58], [33, 1, 4, 0.2], [82, 2, 4, 0.87], [9760, 29, 4, 0.38], [1124, 2, 4, 0.2], [201, 3, 4, 1.32], [21793, 1, 4, 2.19], [7573, 1, 5, 0.94], [142, 2, 4, 0.49], [2912, 1, 4, 1.31], [523, 2, 4, 0.49], [8677, 3, 4, 1.38], [996, 2, 4, 1.83], [12229, 2, 5, 0.52], [2436, 4, 4, 0.48], [3982, 3, 10, 1.05], [12350, 1, 4, 1.47], [12349, 1, 4, 1.17], [3981, 3, 13, 0.88], [214, 3, 10, 0.49], [9081, 3, 8, 0.51], [346, 3, 4, 1.98], [7005, 1, 4, 0.61], [20927, 1, 4, 1.14], [956, 2, 4, 0.35], [417, 2, 4, 0.49], [1492, 1, 4, 0.51], [22316, 3, 4, 2.62], [345, 3, 5, 1.46], [12924, 1, 5, 0.87], [74, 1, 4, 0.71], [12353, 1, 4, 1.3], [24258, 1, 4, 1.75], [2912, 2, 5, 1.31], [6496, 1, 5, 0.53], [5165, 2, 6, 0.61], [22317, 3, 4, 1.3], [5811, 3, 4, 1.48], [4176, 4, 4, 1.23], [336, 15, 4, 1.39], [410, 1, 4, 0.39], [6497, 1, 4, 0.44], [38, 1, 4, 0.58], [1413, 15, 4, 1.55], [12721, 2, 4, 0.55], [20498, 3, 5, 0.49], [957, 2, 4, 0.35], [23611, 3, 4, 1.8], [2336, 3, 5, 1.15], [5435, 1, 4, 0.77], [7704, 2, 4, 2.06], [14037, 3, 4, 0.59], [346, 1, 4, 1.95], [12346, 1, 5, 2.47], [5209, 3, 4, 0.82], [1490, 1, 4, 0.6], [21269, 3, 4, 3.75], [10780, 10, 4, 1.43], [25, 1, 4, 0.67], [6494, 1, 4, 1.16], [5813, 3, 5, 1.48], [955, 2, 4, 1.53], [45, 2, 4, 0.44], [7708, 2, 4, 2.06], [20486, 3, 5, 0.65], [4076, 3, 4, 2.03], [3048, 3, 4, 0.69], [13280, 1, 4, 1.52], [12344, 1, 4, 1.04], [7705, 2, 4, 2.06], [1087, 1, 4, 0.38], [19047, 3, 4, 0.82], [9069, 1, 4, 0.58], [1523, 1, 4, 0.48], [20498, 1, 4, 1.14], [590, 15, 4, 0.91], [110, 4, 4, 0.7], [8898, 3, 4, 1.41], [2335, 3, 4, 0.58], [3576, 25, 4, 0.5], [2805, 137, 4, 1.48], [10536, 3, 4, 1.14], [11089, 1, 4, 0.87], [11510, 3, 5, 0.99], [24725, 2, 4, 0.47], [2879, 1, 4, 1.51], [10936, 2, 4, 0.47], [389, 4, 4, 1.4], [27, 1, 4, 0.67], [8120, 3, 4, 1.37], [1895, 3, 4, 0.52], [24567, 1, 4, 0.21], [5080, 2, 4, 0.96], [202, 2, 4, 0.8], [3047, 3, 4, 2.46], [7706, 2, 4, 0.96], [8599, 1, 4, 1.25], [12764, 2, 5, 0.5], [2423, 80, 4, 0.47], [161, 3, 5, 0.62], [974, 3, 4, 1.2], [6952, 1, 4, 1.59], [220, 4, 4, 1.75], [21697, 3, 4, 1.25], [13244, 1, 4, 0.4], [9186, 29, 4, 0.72], [1548, 1, 4, 0.45], [2438, 2, 5, 0.44], [12417, 1, 4, 1.16], [11967, 1, 4, 0.38], [8356, 1, 4, 0.7], [11961, 1, 4, 0.63], [995, 2, 4, 1.83], [1703, 2, 4, 0.45], [19971, 3, 4, 0.45], [5005, 1, 5, 0.84], [11182, 1, 4, 1.67], [111, 1, 4, 0.67], [8897, 3, 4, 1.31], [5434, 1, 4, 0.91], [10176, 29, 4, 0.54], [40, 1, 4, 0.67], [3338, 1, 4, 0.98], [7324, 1, 4, 0.88], [399, 24, 4, 1.38], [10721, 29, 4, 0.37], [3391, 1, 4, 1.15], [14017, 3, 4, 1.57], [1300, 3, 4, 0.56], [12720, 2, 4, 0.48], [10941, 2, 4, 0.46], [1622, 1, 4, 1.02], [11687, 2, 4, 0.36], [3723, 25, 4, 1.76], [19582, 3, 4, 0.53], [22920, 3, 4, 0.95], [12923, 1, 4, 0.92], [13283, 1, 4, 1.52], [10939, 2, 4, 0.47], [12888, 1, 4, 1.4], [23440, 1, 4, 2.52], [10537, 3, 4, 1.11], [88, 10, 660, 1.6], [434, 2, 112, 1.6], [8915, 2, 178, 3.55], [141, 2, 176, 1.6], [7004, 1, 90, 1.6], [3495, 3, 1145, 1.61], [5165, 1, 56, 1.6], [33, 1, 117, 1.85], [9760, 29, 82, 1.6], [1124, 2, 202, 2.1], [142, 2, 176, 1.6], [523, 2, 176, 1.6], [12229, 2, 156, 1.85], [214, 3, 663, 1.86], [9081, 3, 551, 1.6], [7005, 1, 90, 1.6], [956, 2, 65, 1.44], [417, 2, 176, 1.6], [1492, 1, 42, 1.6], [74, 1, 205, 1.85], [5165, 2, 446, 1.6], [410, 1, 54, 1.35], [6497, 1, 42, 1.6], [38, 1, 117, 1.85], [12721, 2, 324, 1.6], [957, 2, 65, 1.44], [14037, 3, 393, 1.6], [1490, 1, 57, 1.6], [25, 1, 128, 1.6]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.2], [362, 2, 5, 0.2], [130, 1, 5, 0.5], [361, 2, 4, 0.2], [11685, 2, 4, 0.69], [417, 2, 5, 0.2], [8650, 2, 5, 1.3], [1124, 2, 5, 0.41], [11838, 2, 5, 0.89], [6935, 2, 9, 0.94], [8915, 2, 4, 2.31], [248, 1, 4, 0.51], [11681, 2, 5, 1.41], [142, 2, 4, 0.3], [6936, 2, 5, 0.94], [12721, 2, 4, 0.47], [8675, 2, 9, 0.2], [11836, 2, 5, 1.88], [21793, 1, 5, 1.57], [434, 2, 4, 0.59], [990, 2, 4, 0.62], [6158, 2, 5, 0.67], [7705, 2, 4, 1.15], [7706, 2, 4, 1.27], [8673, 2, 4, 0.44], [2050, 3, 6, 1.57], [201, 3, 6, 1.51], [7704, 2, 4, 1.15], [346, 3, 4, 1.71], [10993, 2, 5, 0.26], [5733, 2, 4, 0.45], [2423, 80, 4, 0.52], [60, 3, 5, 1.26], [952, 4, 4, 1.64], [75, 2, 4, 0.52], [5812, 3, 5, 2.91], [345, 3, 5, 1.8], [192, 3, 11, 1.48], [22316, 3, 4, 0.47], [3477, 2, 4, 1.93], [2424, 80, 4, 0.38], [346, 1, 4, 1.7], [6952, 1, 4, 1.59], [22558, 3, 4, 1.32], [2703, 3, 4, 0.82], [2424, 29, 4, 1.16], [94, 4, 4, 0.72], [2859, 15, 4, 0.45], [12924, 1, 4, 1.03], [5729, 2, 4, 0.45], [12925, 1, 4, 0.48], [7887, 4, 4, 0.47], [13028, 3, 4, 2.2], [2423, 29, 4, 0.47], [10897, 1, 8, 1.5], [3893, 1, 4, 1.47], [3891, 1, 4, 1.51], [7707, 2, 4, 1.15], [6494, 1, 4, 1.31], [5811, 3, 5, 2.62], [24257, 1, 4, 1.64], [3980, 4, 4, 1.05], [7708, 2, 4, 1.15], [335, 3, 13, 0.44], [6630, 3, 4, 1.92], [13034, 3, 5, 1.13], [5080, 2, 4, 0.48], [13250, 29, 4, 0.91], [21781, 2, 4, 0.76], [13033, 3, 4, 0.99], [5813, 3, 5, 2.91], [5946, 1, 4, 1.14], [3430, 15, 4, 0.71], [22317, 3, 4, 0.52], [21269, 3, 4, 3.75], [22565, 3, 5, 0.5], [3889, 1, 4, 1.42], [9082, 3, 14, 0.6], [23611, 3, 4, 1.64], [8943, 3, 4, 0.55], [10898, 1, 5, 1.39], [18964, 1, 4, 0.5], [11180, 1, 4, 1.03], [9690, 1, 4, 0.35], [11953, 1, 4, 0.57], [3981, 3, 9, 1.04], [9854, 1, 4, 1.53], [6496, 1, 4, 0.44], [12373, 1, 5, 1.14], [2335, 3, 4, 1.31], [11089, 1, 4, 0.87], [11164, 1, 4, 1.74], [12345, 1, 4, 3.84], [13035, 3, 4, 1.67], [23992, 25, 4, 1.06], [5584, 3, 4, 0.62], [23992, 29, 4, 1.05], [10397, 3, 4, 1.01], [110, 4, 4, 0.71], [515, 24, 4, 0.71], [24566, 1, 4, 0.49], [4940, 1, 4, 1.02], [6359, 10, 9, 0.38], [9068, 1, 4, 0.51], [1661, 3, 4, 1.23], [13244, 1, 4, 0.42], [13498, 3, 4, 0.78], [24258, 1, 4, 1.64], [8898, 3, 4, 1.12], [951, 4, 4, 1.93], [8897, 3, 4, 1.12], [12348, 1, 4, 3.76], [3475, 2, 4, 0.65], [8089, 1, 19, 1.13], [5209, 3, 5, 0.46], [7567, 3, 4, 0.67], [186, 3, 7, 1.9], [12059, 3, 4, 1.66], [3338, 1, 4, 0.57], [95, 3, 8, 1.24], [6629, 3, 4, 2.32], [3982, 3, 13, 1.21], [10410, 10, 6, 1.28], [1667, 3, 4, 1.23], [11930, 1, 4, 1.63], [10147, 1, 4, 0.54], [1050, 2, 4, 0.76], [24567, 1, 4, 0.56], [24121, 3, 4, 0.44], [2805, 137, 6, 0.91], [10093, 3, 13, 0.48], [5869, 1, 4, 1.13], [12496, 3, 4, 0.68], [1895, 3, 4, 1.02], [3028, 3, 4, 0.5], [10529, 80, 4, 1.33], [3934, 5, 8, 1.77], [8635, 3, 4, 0.59], [3983, 4, 4, 1.05], [23961, 3, 4, 1.9], [2821, 3, 8, 0.5], [4176, 4, 4, 1.05], [11707, 3, 4, 0.97], [202, 2, 4, 0.5], [13041, 3, 4, 1.24], [10527, 3, 8, 0.5], [12923, 1, 4, 0.98], [2109, 3, 9, 0.38], [955, 2, 4, 1.4], [1049, 2, 4, 1.03], [13266, 29, 4, 0.97], [12058, 3, 4, 1.7], [20680, 1, 4, 1.19], [5976, 1, 4, 1.49], [4032, 29, 4, 2.76], [1277, 1, 4, 1.73], [332, 2, 4, 0.5], [6627, 3, 4, 1.99], [21712, 3, 13, 0.38], [2188, 1, 4, 0.7], [8283, 2, 5, 0.35], [10722, 2, 4, 1.68], [1744, 1, 4, 1.28], [22125, 2, 4, 0.49], [2438, 1, 4, 0.38], [1701, 2, 4, 0.68], [10710, 1, 4, 0.72], [13244, 2, 7, 0.4], [12764, 1, 4, 0.38], [141, 2, 171, 2.31], [362, 2, 141, 2.83], [130, 1, 63, 2.06], [361, 2, 171, 2.92], [417, 2, 171, 2.31], [1124, 2, 222, 1.82], [248, 1, 63, 1.81], [142, 2, 171, 2.31], [12721, 2, 338, 1.82], [990, 2, 62, 1.81], [8673, 2, 341, 1.81], [10993, 2, 58, 2.06], [5733, 2, 60, 1.81], [2423, 80, 220, 1.81], [75, 2, 173, 1.81], [22316, 3, 375, 1.81], [2424, 80, 199, 1.81], [2859, 15, 84, 1.82], [5729, 2, 60, 1.81], [12925, 1, 75, 1.81], [7887, 4, 163, 1.82], [2423, 29, 44, 1.81], [335, 3, 1529, 1.82], [5080, 2, 139, 1.81], [13250, 29, 73, 1.81], [21781, 2, 121, 1.82], [3430, 15, 83, 1.82], [22565, 3, 685, 1.81], [9082, 3, 2929, 1.79], [8943, 3, 341, 1.73], [18964, 1, 80, 1.81]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 8, 0.97], [6936, 2, 6, 1.49], [1504, 2, 4, 0.6], [12721, 2, 5, 0.21], [2776, 2, 4, 1.93], [130, 1, 4, 0.95], [248, 1, 4, 0.3], [8673, 2, 4, 0.44], [361, 2, 6, 0.2], [141, 2, 5, 0.2], [362, 2, 6, 0.21], [8675, 2, 5, 0.48], [1124, 2, 6, 1.32], [2423, 29, 4, 1.16], [417, 2, 5, 0.2], [8674, 2, 5, 0.48], [8648, 2, 4, 1.21], [6497, 1, 4, 0.47], [990, 2, 6, 0.2], [2423, 80, 4, 0.99], [88, 10, 14, 0.19], [6098, 80, 4, 0.47], [24722, 2, 5, 0.2], [2422, 80, 4, 0.53], [142, 2, 4, 0.55], [944, 15, 4, 0.41], [326, 2, 4, 0.74], [434, 2, 4, 1.42], [6494, 1, 4, 1.14], [8915, 2, 4, 1.25], [7704, 2, 4, 0.59], [6098, 29, 4, 0.47], [378, 2, 4, 1.35], [75, 2, 5, 0.88], [5080, 2, 5, 1.44], [6496, 1, 4, 0.81], [346, 3, 4, 1.09], [24257, 1, 4, 1.18], [7705, 2, 4, 0.39], [2859, 15, 4, 0.45], [1049, 2, 4, 1.0], [12345, 1, 4, 1.03], [12349, 1, 4, 1.01], [1050, 2, 4, 0.72], [8943, 3, 4, 0.55], [7706, 2, 4, 0.6], [1243, 2, 4, 0.44], [346, 1, 4, 1.04], [201, 3, 5, 0.51], [12344, 1, 4, 3.84], [12343, 1, 4, 4.0], [3478, 2, 4, 1.29], [12353, 1, 4, 1.09], [7084, 3, 4, 2.0], [2703, 3, 4, 1.9], [335, 3, 13, 0.44], [5208, 3, 5, 2.65], [10149, 3, 13, 0.44], [515, 24, 4, 0.48], [19687, 1, 4, 0.36], [24724, 2, 6, 0.49], [7708, 2, 4, 0.59], [9760, 29, 4, 0.66], [12924, 1, 4, 1.4], [7885, 4, 4, 0.59], [11404, 2, 4, 0.45], [947, 15, 5, 0.47], [1886, 2, 4, 1.26], [590, 15, 4, 0.37], [161, 1, 5, 1.09], [22316, 3, 4, 2.62], [7005, 1, 4, 1.78], [21793, 1, 5, 1.28], [161, 3, 9, 0.62], [20927, 1, 4, 1.78], [2331, 1, 4, 1.12], [98, 11, 15, 2.04], [10147, 1, 4, 0.51], [6359, 10, 9, 0.38], [2050, 3, 5, 0.81], [94, 4, 4, 0.75], [2438, 1, 4, 0.65], [114, 3, 4, 0.63], [24258, 1, 4, 1.18], [105, 3, 4, 0.47], [21712, 3, 13, 0.38], [5976, 1, 4, 1.0], [11164, 1, 4, 1.56], [1699, 3, 4, 0.89], [3981, 3, 9, 1.04], [2057, 3, 4, 1.14], [7036, 1, 4, 0.54], [2821, 3, 8, 0.9], [12053, 2, 4, 0.98], [24256, 1, 4, 1.18], [950, 1, 4, 0.53], [11687, 2, 4, 0.38], [9186, 29, 4, 1.44], [11894, 2, 4, 1.09], [13489, 1, 4, 0.88], [3891, 1, 4, 1.51], [24725, 2, 4, 0.44], [7887, 4, 4, 0.6], [97, 11, 10, 1.75], [11159, 1, 8, 1.11], [4253, 1, 4, 0.71], [11690, 2, 4, 0.37], [951, 4, 4, 0.83], [5209, 3, 5, 2.65], [12870, 1, 4, 0.5], [2436, 4, 4, 0.79], [2805, 137, 6, 2.11], [9065, 2, 4, 0.35], [11738, 2, 4, 0.49], [8600, 1, 4, 0.59], [11586, 1, 7, 0.93], [12304, 1, 4, 1.68], [4372, 1, 4, 0.56], [7573, 1, 4, 3.07], [1324, 1, 4, 0.84], [12373, 1, 5, 1.33], [11689, 2, 4, 0.38], [12054, 2, 4, 0.47], [45, 2, 4, 0.8], [13028, 3, 4, 0.59], [8635, 3, 4, 1.15], [11887, 2, 4, 0.49], [5872, 1, 4, 1.12], [1703, 2, 4, 0.47], [1701, 2, 4, 0.68], [23611, 3, 4, 1.84], [12923, 1, 4, 1.2], [8659, 1, 4, 0.41], [3664, 5, 6, 1.18], [19924, 2, 4, 0.91], [11678, 1, 4, 0.75], [11811, 1, 4, 0.44], [9491, 21, 9, 1.33], [1648, 1, 4, 1.39], [1523, 1, 4, 1.08], [8285, 2, 5, 0.56], [12925, 1, 4, 0.99], [8898, 3, 4, 2.37], [2985, 3, 4, 0.44], [23235, 25, 4, 0.36], [22125, 2, 4, 0.96], [8897, 3, 4, 2.37], [12791, 1, 4, 1.04], [3341, 3, 4, 0.75], [958, 2, 4, 1.35], [5733, 2, 4, 1.17], [20196, 2, 4, 0.44], [4176, 4, 4, 0.86], [12057, 2, 4, 0.94], [1575, 1, 4, 1.45], [11625, 29, 4, 0.43], [1895, 3, 4, 1.02], [4372, 10, 8, 0.67], [3230, 1, 4, 0.48], [9, 1, 4, 0.9], [202, 2, 4, 0.97], [3334, 5, 4, 2.14], [12503, 1, 4, 0.77], [563, 2, 4, 0.68], [3840, 1, 4, 0.43], [12059, 3, 4, 0.6], [23380, 25, 4, 0.51], [12721, 2, 304, 2.06], [248, 1, 57, 2.06], [8673, 2, 341, 1.81], [361, 2, 171, 3.57], [141, 2, 171, 2.31], [362, 2, 141, 3.58], [417, 2, 171, 2.31], [6497, 1, 43, 1.81], [6098, 80, 89, 1.81], [2422, 80, 215, 1.82], [142, 2, 181, 1.82], [944, 15, 52, 1.81], [7704, 2, 211, 1.81], [6098, 29, 45, 1.81], [6496, 1, 47, 1.81], [7705, 2, 211, 1.81], [2859, 15, 84, 1.82], [8943, 3, 341, 1.73], [7706, 2, 211, 1.81], [1243, 2, 116, 1.81], [201, 3, 316, 2.07], [335, 3, 1529, 1.82], [10149, 3, 1084, 1.83], [515, 24, 247, 1.82], [19687, 1, 36, 1.81], [24724, 2, 67, 1.81], [7708, 2, 211, 1.81], [7885, 4, 161, 1.81], [11404, 2, 132, 1.82], [947, 15, 46, 2.31], [590, 15, 114, 1.81], [10147, 1, 79, 1.82], [2050, 3, 560, 1.82]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 4, 0.2], [362, 2, 10, 0.2], [130, 1, 5, 0.8], [361, 2, 5, 0.2], [6935, 2, 9, 0.43], [417, 2, 8, 0.3], [1504, 2, 6, 0.87], [12721, 2, 5, 0.2], [248, 1, 5, 0.74], [6936, 2, 5, 0.46], [142, 2, 6, 0.2], [6097, 80, 4, 0.82], [8853, 2, 4, 0.46], [6097, 29, 4, 1.42], [2327, 2, 4, 1.21], [2423, 29, 4, 0.7], [2776, 2, 4, 0.94], [990, 2, 4, 1.11], [8648, 2, 5, 0.55], [2805, 137, 6, 2.12], [88, 10, 9, 0.19], [2057, 3, 4, 2.88], [192, 3, 11, 1.74], [6098, 80, 4, 0.7], [6496, 1, 4, 0.44], [434, 2, 4, 0.59], [2054, 3, 5, 2.88], [2423, 80, 4, 0.7], [2055, 3, 5, 2.62], [11234, 2, 4, 0.48], [950, 1, 4, 0.69], [1886, 2, 4, 1.48], [161, 1, 5, 1.44], [6494, 1, 4, 1.54], [1124, 2, 6, 0.23], [1243, 2, 4, 0.43], [5813, 3, 5, 1.27], [8915, 2, 4, 0.53], [6158, 2, 6, 0.38], [5208, 3, 7, 1.65], [21793, 1, 5, 1.28], [3430, 15, 4, 0.71], [94, 4, 4, 1.03], [515, 24, 4, 1.75], [7004, 1, 4, 0.99], [3934, 5, 8, 1.11], [12345, 1, 4, 2.15], [346, 3, 4, 1.09], [9491, 21, 9, 1.48], [22316, 3, 4, 1.85], [335, 3, 13, 0.44], [10124, 1, 4, 1.79], [1703, 2, 4, 0.47], [105, 3, 4, 1.03], [186, 3, 7, 0.41], [24725, 2, 4, 0.46], [1050, 2, 4, 0.91], [11887, 2, 4, 0.89], [7573, 1, 4, 2.51], [161, 3, 8, 2.44], [11271, 1, 4, 2.43], [5584, 3, 4, 1.83], [590, 15, 4, 0.5], [1049, 2, 4, 0.91], [19685, 1, 4, 1.15], [11885, 2, 4, 0.89], [22125, 2, 4, 1.26], [45, 2, 4, 0.8], [3658, 1, 4, 1.41], [2104, 3, 6, 0.38], [8659, 1, 4, 1.13], [10147, 1, 4, 0.63], [21269, 3, 4, 3.75], [8085, 1, 4, 0.46], [9691, 1, 4, 2.34], [10181, 26, 7, 2.38], [346, 1, 4, 1.04], [1701, 2, 4, 0.68], [110, 4, 4, 1.75], [1519, 3, 9, 0.5], [963, 3, 4, 0.49], [13034, 3, 5, 0.4], [21781, 2, 4, 0.38], [2438, 1, 4, 0.46], [2438, 2, 5, 0.46], [11089, 1, 4, 1.31], [20680, 1, 4, 1.55], [7036, 1, 4, 0.57], [1523, 1, 4, 0.44], [7007, 1, 4, 1.78], [1139, 3, 4, 1.57], [4001, 3, 7, 1.21], [11080, 3, 4, 0.68], [9373, 5, 4, 3.51], [3664, 5, 6, 1.5], [23611, 3, 4, 0.99], [11689, 2, 4, 0.53], [11687, 2, 4, 0.48], [11677, 1, 4, 0.5], [11625, 29, 4, 0.58], [12373, 1, 5, 1.23], [21010, 2, 4, 0.74], [7005, 1, 4, 1.78], [8897, 3, 4, 0.51], [23380, 29, 4, 1.1], [88, 1, 4, 0.77], [11116, 1, 4, 1.11], [7886, 4, 4, 1.56], [8635, 3, 4, 0.59], [419, 2, 6, 0.45], [19924, 2, 4, 0.91], [20978, 1, 4, 1.67], [11886, 2, 4, 0.89], [1648, 1, 4, 0.76], [3984, 3, 8, 0.78], [382, 1, 4, 1.51], [9085, 29, 4, 1.37], [12538, 3, 4, 1.18], [4043, 29, 4, 0.84], [21704, 3, 13, 1.38], [20686, 1, 4, 1.7], [3979, 3, 5, 1.34], [11678, 1, 4, 0.4], [973, 3, 5, 0.99], [3079, 3, 4, 1.0], [2436, 4, 4, 1.83], [5976, 1, 4, 2.19], [24256, 1, 4, 1.87], [1895, 3, 4, 1.02], [8285, 2, 5, 0.41], [3016, 68, 4, 2.5], [21712, 3, 13, 1.16], [1744, 1, 4, 0.76], [23994, 29, 4, 1.7], [9085, 25, 4, 1.38], [9069, 1, 4, 1.13], [4176, 4, 4, 0.86], [4175, 3, 8, 0.72], [9380, 1, 8, 0.85], [420, 2, 4, 0.46], [12614, 1, 4, 0.48], [10721, 29, 4, 0.54], [10710, 1, 4, 1.23], [21752, 2, 4, 0.38], [12304, 1, 4, 1.11], [13028, 3, 4, 4.0], [2419, 29, 4, 1.53], [9374, 5, 4, 1.25], [5076, 1, 4, 0.8], [8155, 2, 4, 1.06], [1575, 1, 4, 1.26], [23235, 29, 4, 0.69], [12654, 1, 4, 2.06], [7887, 4, 4, 1.6], [10581, 3, 5, 0.4], [3896, 29, 4, 1.9], [422, 2, 5, 0.45], [7704, 2, 4, 1.59], [13270, 29, 4, 0.5], [13498, 3, 4, 0.56], [3337, 1, 4, 1.16], [22325, 1, 4, 0.47], [8155, 25, 4, 0.47], [2109, 3, 9, 0.38], [22973, 1, 4, 1.85], [2331, 1, 4, 0.37], [12058, 3, 4, 1.31], [4372, 10, 8, 0.61], [141, 2, 171, 2.31], [130, 1, 63, 2.06], [361, 2, 171, 2.31], [12721, 2, 305, 2.06], [248, 1, 58, 2.31], [142, 2, 171, 2.31], [2423, 29, 44, 1.81], [2776, 2, 174, 1.82], [6098, 80, 89, 1.81], [6496, 1, 47, 1.81], [2423, 80, 218, 1.82], [11234, 2, 217, 1.81], [1124, 2, 199, 2.06], [1243, 2, 117, 1.81], [8915, 2, 197, 1.81], [3430, 15, 83, 1.82], [335, 3, 1529, 1.82], [1703, 2, 192, 1.81], [186, 3, 787, 1.81], [24725, 2, 76, 1.81], [11887, 2, 223, 1.81], [590, 15, 114, 1.81], [11885, 2, 223, 1.81], [2104, 3, 301, 1.73], [10147, 1, 78, 1.81], [8085, 1, 106, 1.82], [1519, 3, 1912, 1.83], [963, 3, 480, 1.81], [13034, 3, 695, 1.82], [2438, 1, 63, 1.81], [2438, 2, 760, 1.81], [7036, 1, 152, 1.81]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 9, 0.56], [141, 2, 5, 0.2], [361, 2, 5, 0.54], [362, 2, 4, 0.2], [6936, 2, 6, 0.68], [8650, 2, 4, 1.3], [11681, 2, 6, 2.58], [417, 2, 5, 0.26], [75, 2, 4, 0.23], [88, 10, 10, 0.26], [434, 2, 4, 1.42], [8673, 2, 6, 0.95], [1504, 2, 4, 0.6], [523, 2, 5, 0.2], [8853, 2, 4, 0.7], [8648, 2, 5, 0.46], [12721, 2, 5, 0.21], [7704, 2, 4, 0.2], [8915, 2, 4, 1.25], [6158, 2, 6, 0.2], [435, 2, 4, 0.85], [326, 2, 4, 0.81], [192, 3, 14, 0.8], [2424, 29, 4, 1.16], [7886, 4, 5, 0.81], [11234, 2, 4, 0.53], [7706, 2, 5, 0.2], [2424, 80, 4, 0.38], [7004, 1, 4, 1.47], [2423, 29, 4, 0.7], [1413, 15, 4, 1.56], [2423, 80, 4, 0.7], [345, 3, 6, 1.25], [3477, 2, 4, 1.41], [74, 1, 4, 0.51], [10993, 2, 4, 0.37], [2054, 3, 6, 2.69], [7707, 2, 4, 0.2], [2057, 3, 4, 1.94], [6628, 3, 6, 0.36], [24257, 1, 4, 1.36], [94, 4, 5, 1.79], [6630, 3, 4, 1.14], [7703, 2, 4, 0.52], [346, 1, 5, 1.37], [346, 3, 4, 1.59], [6097, 80, 4, 1.51], [2859, 15, 4, 0.64], [8649, 2, 4, 1.23], [2055, 3, 4, 1.19], [13023, 3, 6, 0.86], [3893, 1, 4, 1.47], [1243, 2, 4, 0.44], [5080, 2, 5, 1.39], [22316, 3, 4, 1.85], [13034, 3, 5, 0.58], [5811, 3, 6, 1.76], [10149, 3, 13, 0.44], [9081, 3, 9, 1.31], [14037, 3, 4, 1.45], [11089, 1, 4, 0.87], [7005, 1, 4, 1.49], [3889, 1, 4, 1.42], [21793, 1, 5, 1.77], [336, 15, 4, 1.31], [11919, 1, 4, 0.45], [3891, 1, 4, 1.51], [22317, 3, 4, 0.52], [19687, 1, 4, 0.52], [9760, 29, 4, 0.67], [5813, 3, 7, 1.96], [13033, 3, 4, 0.4], [5729, 2, 4, 0.52], [5208, 3, 6, 1.85], [6496, 1, 4, 1.08], [7036, 1, 4, 0.55], [7573, 1, 4, 0.88], [8944, 3, 4, 0.6], [220, 4, 4, 0.73], [6494, 1, 4, 0.99], [24258, 1, 4, 1.04], [22558, 3, 4, 1.77], [23611, 3, 4, 2.21], [11180, 1, 4, 1.34], [590, 15, 4, 1.31], [1886, 2, 4, 1.48], [410, 1, 4, 1.64], [2331, 1, 4, 1.5], [964, 15, 4, 0.49], [12344, 1, 4, 0.82], [45, 2, 4, 0.4], [11583, 29, 4, 0.47], [10147, 1, 4, 0.71], [9491, 21, 9, 1.48], [12924, 1, 4, 1.4], [9829, 3, 4, 0.78], [3934, 5, 8, 1.45], [7567, 3, 4, 0.67], [5736, 2, 4, 0.52], [9828, 3, 4, 2.15], [13498, 3, 4, 0.56], [20680, 1, 4, 1.73], [1701, 2, 4, 2.04], [11586, 1, 7, 1.35], [3980, 4, 4, 1.05], [6359, 10, 9, 0.38], [3981, 3, 9, 1.04], [12350, 1, 4, 0.82], [10446, 1, 4, 1.25], [3900, 3, 4, 1.34], [963, 3, 4, 1.16], [11770, 1, 4, 1.19], [13336, 29, 4, 0.98], [11914, 1, 4, 1.44], [10537, 3, 5, 0.86], [12349, 1, 4, 0.82], [2805, 137, 6, 1.12], [2438, 1, 4, 0.38], [11404, 2, 4, 0.38], [991, 2, 4, 0.4], [1309, 1, 4, 1.01], [3982, 3, 13, 1.21], [10093, 3, 13, 1.01], [3143, 3, 4, 0.56], [5513, 2, 4, 0.4], [88, 1, 4, 0.47], [11930, 1, 4, 0.94], [13244, 1, 4, 0.42], [1895, 3, 4, 1.76], [12346, 1, 4, 0.73], [8636, 3, 4, 1.09], [23992, 29, 4, 1.12], [5656, 2, 4, 0.36], [202, 2, 4, 1.05], [5869, 1, 4, 2.86], [7558, 3, 4, 0.76], [19924, 2, 4, 1.36], [4372, 1, 4, 0.45], [12925, 1, 4, 1.07], [12870, 1, 4, 0.5], [10446, 10, 7, 1.16], [12338, 29, 4, 1.44], [5872, 1, 4, 2.29], [10527, 3, 8, 1.05], [20966, 3, 4, 0.5], [5976, 1, 4, 2.19], [9065, 2, 4, 0.36], [11931, 1, 4, 1.36], [1575, 1, 4, 0.87], [2419, 29, 4, 0.94], [11894, 2, 4, 1.07], [3338, 1, 4, 1.06], [10581, 3, 5, 1.15], [3983, 4, 4, 1.05], [10507, 2, 4, 1.05], [11920, 1, 4, 0.91], [23960, 3, 5, 1.54], [20965, 3, 4, 0.5], [13243, 1, 4, 0.46], [24567, 1, 4, 0.42], [22888, 3, 4, 0.66], [2188, 1, 4, 1.23], [10148, 1, 4, 1.35], [10514, 3, 4, 0.42], [10398, 2, 4, 0.62], [19932, 1, 4, 0.51], [4372, 10, 8, 0.61], [9081, 1, 4, 1.31], [1744, 1, 4, 0.95], [141, 2, 171, 2.31], [361, 2, 171, 2.31], [362, 2, 155, 2.31], [417, 2, 171, 2.31], [75, 2, 157, 2.06], [88, 10, 608, 2.06], [523, 2, 162, 2.06], [8853, 2, 322, 1.82], [12721, 2, 304, 2.06], [7704, 2, 200, 2.32], [6158, 2, 263, 3.69], [7886, 4, 152, 2.06], [11234, 2, 214, 1.81], [7706, 2, 200, 2.32], [2424, 80, 199, 1.81], [2423, 29, 44, 1.81], [2423, 80, 218, 1.82], [74, 1, 237, 1.81], [10993, 2, 64, 1.81], [7707, 2, 200, 2.32], [7703, 2, 211, 1.82], [2859, 15, 82, 1.81], [1243, 2, 116, 1.81], [13034, 3, 692, 1.81], [10149, 3, 1084, 1.83], [11089, 1, 199, 1.81], [11919, 1, 174, 1.82], [19687, 1, 36, 1.81], [9760, 29, 85, 1.82], [13033, 3, 692, 1.81], [5729, 2, 59, 1.81]]</t>
+  </si>
+  <si>
+    <t>[[11681, 2, 5, 0.9], [6935, 2, 7, 1.79], [141, 2, 4, 0.2], [362, 2, 5, 0.47], [130, 1, 4, 0.46], [6936, 2, 5, 1.79], [326, 2, 4, 0.49], [1446, 2, 4, 0.2], [2328, 2, 4, 0.38], [8648, 2, 4, 2.18], [11683, 2, 10, 0.9], [1429, 2, 4, 0.2], [21793, 1, 4, 1.34], [2776, 2, 4, 0.55], [3840, 1, 4, 0.48], [593, 2, 4, 0.46], [8853, 2, 5, 0.7], [7036, 1, 4, 0.44], [413, 1, 4, 0.99], [523, 2, 5, 0.2], [5165, 1, 4, 1.05], [10993, 2, 4, 1.38], [7004, 1, 4, 0.4], [1124, 2, 6, 0.2], [201, 3, 4, 0.51], [6097, 80, 4, 0.48], [998, 2, 4, 1.01], [345, 3, 4, 1.29], [6952, 1, 4, 1.38], [6158, 2, 8, 0.2], [2424, 80, 4, 0.58], [1886, 2, 4, 1.9], [24257, 1, 4, 0.48], [7084, 3, 4, 1.57], [997, 2, 4, 1.01], [346, 3, 4, 1.16], [24258, 1, 4, 0.51], [11770, 1, 4, 0.85], [6098, 80, 4, 0.48], [2912, 1, 4, 1.42], [4032, 29, 4, 0.41], [13028, 3, 4, 0.39], [7005, 1, 4, 0.49], [23238, 29, 4, 1.38], [5165, 2, 5, 1.05], [6097, 29, 4, 0.48], [12350, 1, 4, 0.59], [11234, 2, 4, 0.46], [5208, 3, 4, 0.55], [7886, 4, 4, 0.57], [11583, 29, 4, 1.28], [11089, 1, 4, 0.49], [20927, 1, 4, 0.67], [3334, 5, 4, 2.61], [3889, 1, 4, 1.47], [12870, 1, 4, 0.2], [9289, 29, 4, 0.98], [346, 1, 4, 1.56], [3576, 25, 4, 0.2], [950, 1, 4, 0.78], [1490, 1, 4, 0.46], [75, 2, 4, 0.88], [12304, 1, 6, 1.33], [2912, 2, 5, 1.41], [9964, 2, 4, 1.2], [1703, 2, 4, 0.84], [7887, 4, 4, 0.83], [22316, 3, 4, 1.43], [23238, 25, 4, 1.38], [9069, 1, 4, 0.43], [24567, 1, 4, 0.39], [1700, 2, 4, 0.43], [8677, 3, 5, 1.18], [5209, 3, 4, 1.33], [13034, 3, 4, 0.58], [1519, 3, 12, 0.5], [12338, 29, 4, 0.44], [12924, 1, 4, 0.59], [4076, 3, 4, 0.53], [21697, 3, 4, 0.45], [3478, 2, 4, 0.44], [3575, 25, 4, 0.48], [12349, 1, 5, 1.27], [214, 3, 10, 0.55], [23235, 25, 4, 0.48], [2160, 68, 4, 0.58], [6494, 1, 4, 1.27], [4033, 29, 4, 1.37], [12346, 1, 4, 0.59], [161, 3, 5, 0.43], [12353, 1, 4, 0.59], [9910, 25, 4, 0.88], [9372, 1, 4, 0.52], [5584, 3, 4, 0.41], [13251, 29, 4, 0.54], [823, 1, 4, 0.74], [1667, 3, 4, 0.36], [10897, 1, 7, 1.71], [11942, 29, 4, 0.5], [12352, 1, 4, 0.78], [2438, 2, 5, 0.57], [2805, 137, 4, 1.64], [8943, 3, 4, 0.49], [9491, 21, 10, 0.38], [10720, 80, 4, 0.44], [13033, 3, 4, 0.58], [9, 1, 4, 0.35], [66, 16, 4, 0.38], [23380, 25, 4, 0.44], [9081, 3, 8, 1.11], [10609, 1, 4, 1.72], [21699, 3, 4, 0.52], [7567, 3, 4, 1.67], [12925, 1, 4, 0.71], [996, 2, 4, 1.01], [7708, 2, 4, 2.1], [21703, 3, 4, 1.0], [9965, 2, 4, 0.46], [9827, 3, 4, 1.43], [3495, 3, 10, 1.27], [7704, 2, 4, 2.1], [22317, 3, 4, 0.41], [3059, 3, 4, 0.67], [8285, 2, 5, 0.34], [21700, 3, 4, 0.7], [6497, 1, 4, 1.87], [10616, 1, 4, 0.66], [3900, 3, 4, 0.5], [21060, 1, 4, 1.34], [10407, 10, 7, 0.49], [19047, 3, 4, 0.5], [2335, 3, 4, 0.44], [8898, 3, 4, 3.26], [389, 4, 4, 0.49], [24722, 2, 4, 0.44], [7324, 1, 4, 0.37], [220, 4, 4, 0.61], [8557, 3, 4, 0.5], [335, 3, 9, 0.44], [10536, 3, 4, 0.97], [10537, 3, 4, 2.46], [66, 15, 4, 0.37], [6496, 1, 4, 0.48], [955, 2, 4, 0.6], [3462, 2, 4, 0.51], [20969, 3, 5, 0.64], [21701, 3, 4, 0.68], [13498, 3, 4, 0.56], [1523, 1, 4, 0.89], [12538, 3, 8, 1.02], [12229, 2, 4, 0.88], [12647, 1, 4, 1.12], [13243, 2, 7, 0.36], [9082, 3, 13, 0.83], [3016, 68, 4, 1.25], [2695, 3, 4, 1.15], [3047, 3, 4, 0.72], [13036, 3, 4, 0.65], [141, 2, 171, 2.28], [362, 2, 153, 4.08], [130, 1, 35, 1.85], [1446, 2, 158, 2.28], [2328, 2, 164, 2.28], [1429, 2, 158, 2.28], [2776, 2, 171, 1.78], [3840, 1, 201, 1.78], [593, 2, 267, 1.78], [7036, 1, 135, 2.03], [523, 2, 154, 3.38], [7004, 1, 92, 1.78], [6097, 80, 83, 1.78], [6158, 2, 265, 2.53], [24258, 1, 164, 1.78], [11770, 1, 257, 1.78], [6098, 80, 90, 1.78], [4032, 29, 112, 1.78], [13028, 3, 175, 1.78], [7005, 1, 92, 1.78], [6097, 29, 41, 1.78], [12350, 1, 724, 1.78], [11234, 2, 210, 1.78], [5208, 3, 651, 1.77], [7886, 4, 130, 1.72], [11089, 1, 204, 1.78], [20927, 1, 92, 1.78], [12870, 1, 159, 2.28], [3576, 25, 108, 2.03], [75, 2, 171, 1.78], [1703, 2, 193, 1.78], [9069, 1, 145, 1.78], [24567, 1, 380, 1.78], [13034, 3, 705, 1.77], [1519, 3, 1900, 1.78], [12924, 1, 61, 1.78], [21697, 3, 206, 1.78], [3478, 2, 90, 1.78], [3575, 25, 119, 1.78], [214, 3, 756, 1.79], [23235, 25, 96, 1.78], [2160, 68, 153, 1.78]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 6, 1.46], [130, 1, 4, 0.2], [141, 2, 4, 0.65], [6935, 2, 11, 1.95], [362, 2, 4, 0.47], [990, 2, 6, 0.2], [8675, 2, 6, 0.72], [8915, 2, 6, 0.53], [12721, 2, 10, 0.22], [1776, 1, 8, 0.2], [8648, 2, 4, 0.2], [6936, 2, 7, 2.87], [1777, 1, 4, 0.35], [88, 10, 8, 0.43], [11681, 2, 7, 0.94], [13028, 3, 6, 0.2], [8650, 2, 6, 0.45], [8677, 3, 6, 2.31], [8676, 2, 4, 0.76], [361, 2, 4, 0.8], [11404, 2, 4, 0.45], [2055, 3, 4, 2.59], [3478, 2, 5, 0.98], [8674, 2, 5, 0.25], [9827, 3, 5, 1.37], [7004, 1, 4, 0.9], [45, 2, 8, 0.2], [94, 4, 8, 2.26], [5081, 2, 4, 1.59], [6158, 2, 5, 0.67], [7084, 3, 4, 0.49], [7036, 1, 4, 0.53], [418, 2, 6, 0.4], [8649, 2, 5, 0.2], [192, 3, 14, 3.07], [6097, 29, 4, 1.23], [5080, 2, 7, 1.24], [7005, 1, 4, 1.31], [1504, 2, 6, 0.43], [6097, 80, 4, 1.23], [168, 3, 6, 1.97], [345, 3, 5, 0.2], [9760, 29, 5, 0.42], [24257, 1, 4, 0.36], [12870, 1, 6, 1.58], [20498, 1, 5, 1.81], [13280, 1, 8, 0.3], [5812, 3, 6, 1.48], [1622, 1, 4, 1.68], [346, 1, 5, 1.07], [6098, 29, 4, 0.86], [12924, 1, 4, 1.23], [1490, 1, 4, 0.36], [8853, 2, 4, 0.46], [9829, 3, 8, 2.32], [35, 1, 5, 0.77], [8898, 3, 4, 1.91], [6098, 80, 4, 0.86], [7567, 3, 4, 0.52], [20927, 1, 4, 0.55], [998, 2, 5, 0.66], [1070, 7, 11, 1.44], [1243, 2, 4, 0.39], [346, 3, 5, 2.51], [5513, 2, 4, 0.87], [20498, 3, 8, 1.47], [20486, 1, 4, 1.29], [9081, 3, 18, 0.19], [20486, 3, 12, 0.72], [34, 1, 5, 0.61], [997, 2, 4, 0.91], [22316, 3, 4, 1.5], [24260, 1, 4, 0.87], [12923, 1, 5, 0.41], [13034, 3, 5, 0.74], [8557, 3, 4, 0.39], [9690, 1, 5, 0.98], [952, 4, 4, 0.47], [1413, 15, 4, 0.67], [996, 2, 4, 0.67], [3048, 3, 4, 1.21], [23611, 3, 5, 1.56], [24567, 1, 4, 0.42], [22554, 10, 10, 0.71], [1703, 2, 4, 0.56], [3049, 3, 4, 0.89], [2729, 3, 4, 0.44], [10993, 2, 4, 0.72], [3900, 3, 4, 1.17], [11954, 1, 4, 1.51], [12059, 3, 4, 1.22], [215, 4, 4, 1.24], [9082, 3, 18, 0.51], [13023, 3, 5, 0.5], [2423, 80, 4, 0.39], [5813, 3, 5, 1.01], [11510, 3, 5, 0.5], [18, 1, 4, 0.95], [38, 1, 5, 0.61], [4076, 3, 4, 0.85], [39, 1, 4, 0.24], [10529, 29, 4, 0.71], [8943, 3, 4, 0.41], [9613, 1, 4, 0.48], [995, 2, 4, 0.61], [10780, 10, 4, 1.51], [991, 2, 4, 0.8], [20969, 3, 5, 0.39], [13484, 1, 4, 1.57], [5811, 3, 5, 0.5], [13033, 3, 5, 0.74], [7705, 2, 4, 0.42], [330, 3, 4, 2.37], [9828, 3, 4, 0.82], [7324, 1, 4, 0.8], [22565, 3, 6, 0.2], [823, 1, 4, 0.44], [3047, 3, 4, 0.73], [8104, 1, 4, 1.2], [8897, 3, 4, 1.91], [7704, 2, 4, 1.0], [9, 1, 4, 0.44], [66, 16, 4, 0.68], [3016, 68, 4, 1.21], [9964, 2, 5, 1.23], [5165, 1, 4, 0.63], [3104, 1, 6, 0.2], [11711, 3, 4, 1.06], [5209, 3, 4, 1.33], [21946, 1, 4, 0.2], [2109, 1, 4, 0.91], [24722, 2, 4, 0.47], [5083, 2, 4, 0.2], [7707, 2, 4, 1.0], [23339, 3, 4, 1.55], [3840, 1, 4, 1.98], [2912, 1, 4, 1.24], [5584, 3, 4, 0.48], [12353, 1, 4, 0.6], [1604, 68, 4, 0.53], [10537, 3, 5, 3.4], [3892, 1, 4, 1.84], [1667, 3, 4, 0.71], [9372, 1, 4, 0.62], [12344, 1, 4, 2.06], [220, 4, 4, 0.84], [7573, 1, 6, 1.26], [3894, 1, 4, 1.82], [12346, 1, 4, 2.02], [955, 2, 4, 1.38], [10936, 2, 4, 0.79], [11894, 2, 4, 0.8], [6630, 3, 4, 1.06], [10529, 80, 4, 0.71], [12345, 1, 4, 2.14], [951, 4, 4, 1.06], [949, 10, 4, 0.64], [11953, 1, 4, 0.7], [5086, 3, 5, 0.43], [6494, 1, 4, 0.47], [11586, 1, 5, 1.23], [9289, 29, 4, 0.63], [8926, 1, 4, 0.63], [12661, 1, 4, 1.83], [1309, 1, 4, 0.37], [5812, 1, 4, 1.63], [23992, 29, 4, 0.75], [10939, 2, 4, 0.79], [2438, 2, 5, 1.07], [1070, 2, 4, 1.09], [23341, 3, 4, 0.47], [14037, 3, 4, 0.49], [7703, 2, 4, 0.42], [3059, 3, 4, 0.49], [6424, 3, 4, 1.55], [10941, 2, 4, 0.79], [10530, 80, 4, 0.8], [11813, 1, 4, 0.44], [12764, 2, 5, 0.38], [10530, 29, 4, 0.8], [1602, 68, 4, 0.36], [130, 1, 44, 1.56], [141, 2, 159, 1.87], [8915, 2, 161, 2.81], [88, 10, 638, 1.36], [11404, 2, 125, 1.36], [6158, 2, 291, 1.36], [7036, 1, 142, 1.36], [345, 3, 311, 1.62], [1490, 1, 56, 1.36], [7567, 3, 74, 1.86], [20927, 1, 87, 1.36], [12923, 1, 37, 1.62], [952, 4, 89, 1.36], [1413, 15, 111, 1.36], [24567, 1, 362, 1.36], [2729, 3, 95, 1.36], [9082, 3, 2757, 1.36], [2423, 80, 202, 1.36], [39, 1, 114, 1.62]]</t>
+  </si>
+  <si>
+    <t>[[3, 2, 9, 0.67], [8672, 2, 10, 1.96], [151, 1, 7, 1.42], [6935, 2, 17, 5.0], [12721, 2, 16, 2.8], [8915, 2, 12, 2.68], [593, 2, 11, 2.05], [990, 2, 11, 1.48], [1776, 1, 9, 2.1], [8648, 2, 11, 3.63], [248, 1, 7, 2.12], [88, 10, 26, 1.07], [1777, 1, 7, 1.12], [141, 2, 9, 0.92], [6936, 2, 10, 2.89], [362, 2, 7, 0.98], [1446, 2, 7, 3.13], [8650, 2, 11, 3.51], [7004, 1, 7, 3.14], [21793, 1, 11, 5.0], [11404, 2, 9, 1.11], [431, 2, 7, 3.6], [5081, 2, 7, 4.54], [345, 3, 7, 0.81], [11681, 2, 10, 5.0], [2055, 3, 7, 2.02], [9827, 3, 9, 4.16], [94, 4, 11, 5.0], [7036, 1, 7, 2.19], [24257, 1, 7, 2.86], [8677, 3, 9, 3.86], [13028, 3, 11, 3.24], [7084, 3, 9, 0.97], [9760, 29, 11, 1.36], [3889, 1, 7, 3.06], [2991, 3, 7, 1.12], [7005, 1, 7, 2.5], [12870, 1, 14, 2.7], [168, 3, 21, 3.71], [23, 1, 7, 1.14], [35, 1, 9, 1.58], [79, 1, 7, 3.29], [7887, 4, 7, 1.55], [3478, 2, 7, 1.1], [1243, 2, 7, 2.21], [1622, 1, 9, 4.65], [59, 3, 20, 3.97], [8649, 2, 9, 3.08], [3891, 1, 7, 3.06], [9069, 1, 7, 1.19], [3893, 1, 7, 3.39], [3980, 4, 7, 0.92], [33, 1, 9, 0.93], [346, 1, 7, 2.11], [1767, 25, 7, 2.51], [5080, 2, 7, 2.39], [1504, 2, 11, 5.0], [192, 3, 21, 3.82], [346, 3, 7, 4.62], [20927, 1, 7, 3.14], [6158, 2, 8, 1.79], [1766, 25, 7, 4.39], [110, 4, 7, 0.81], [998, 2, 9, 4.43], [34, 1, 7, 1.66], [24260, 1, 7, 1.79], [11234, 2, 9, 1.38], [413, 1, 7, 0.87], [1070, 7, 17, 2.55], [20498, 1, 9, 4.51], [27, 1, 7, 1.57], [5812, 3, 8, 2.56], [142, 2, 7, 0.94], [8853, 2, 9, 4.71], [997, 2, 14, 4.52], [24, 1, 7, 1.55], [1767, 2, 7, 1.54], [8898, 3, 11, 5.0], [9829, 3, 9, 2.91], [38, 1, 7, 1.64], [952, 4, 7, 2.25], [3048, 3, 7, 4.63], [10993, 2, 7, 2.56], [22554, 10, 18, 1.3], [21269, 3, 7, 3.55], [974, 3, 7, 4.27], [10780, 10, 7, 4.08], [39, 1, 11, 2.03], [14037, 3, 7, 1.31], [1519, 3, 22, 1.53], [9828, 3, 7, 3.87], [20498, 3, 10, 3.38], [996, 2, 17, 4.47], [22316, 3, 9, 3.83], [8557, 3, 7, 3.92], [14018, 3, 7, 1.92], [3900, 3, 7, 1.02], [40, 1, 7, 2.91], [12924, 1, 7, 1.56], [5946, 1, 7, 4.39], [20486, 1, 7, 2.64], [6097, 80, 7, 2.63], [8945, 3, 8, 0.63], [13034, 3, 18, 3.14], [3981, 3, 18, 1.32], [7573, 1, 7, 2.16], [13023, 3, 17, 4.53], [995, 2, 7, 3.16], [20486, 3, 12, 1.94], [18, 1, 7, 0.91], [6097, 29, 7, 2.43], [1604, 68, 7, 3.62], [336, 15, 7, 0.67], [2335, 3, 7, 3.64], [19047, 3, 7, 5.0], [9, 1, 7, 0.9], [1080, 3, 7, 2.65], [9082, 3, 63, 2.47], [2729, 3, 7, 5.0], [8943, 3, 9, 0.99], [10616, 1, 7, 2.44], [4076, 3, 7, 5.0], [11954, 1, 9, 3.88], [7704, 2, 7, 4.85], [20969, 3, 12, 1.16], [9613, 1, 7, 3.12], [11914, 1, 7, 4.22], [215, 4, 7, 5.0], [330, 3, 9, 4.0], [3049, 3, 9, 2.86], [5153, 2, 7, 0.85], [9964, 2, 7, 2.58], [13484, 1, 7, 1.53], [8635, 3, 7, 1.14], [161, 1, 7, 0.92], [1766, 2, 7, 3.56], [23961, 3, 7, 3.45], [9289, 29, 7, 3.62], [5666, 2, 7, 1.1], [955, 2, 7, 3.06], [12059, 3, 7, 4.56], [11510, 3, 8, 2.02], [1703, 2, 9, 3.02], [13033, 3, 8, 1.19], [1087, 1, 7, 2.69], [5813, 3, 9, 4.85], [7707, 2, 7, 5.0], [22565, 3, 8, 1.07], [23339, 3, 7, 4.48], [1765, 25, 7, 4.2], [9833, 2, 11, 0.61], [5811, 3, 7, 2.0], [8104, 1, 9, 1.02], [951, 4, 7, 0.87], [5729, 2, 7, 1.91], [3016, 68, 7, 4.25], [8897, 3, 7, 4.68], [11711, 3, 7, 4.51], [6098, 80, 7, 0.96], [3475, 2, 7, 1.61], [3982, 3, 15, 0.89], [11555, 2, 11, 1.06], [19971, 3, 7, 2.99], [491, 10, 8, 3.61], [24722, 2, 7, 1.02], [21060, 1, 7, 3.78], [13283, 1, 7, 0.8], [21059, 1, 7, 3.78], [6952, 1, 7, 3.06], [3104, 1, 7, 0.98], [21946, 1, 7, 1.1], [11089, 1, 7, 1.94], [6098, 29, 7, 0.96], [3047, 3, 7, 2.24], [6496, 1, 7, 2.99], [944, 15, 7, 0.79], [8945, 3, 535, 1.42], [3981, 3, 1644, 3.67], [18, 1, 49, 1.99], [336, 15, 102, 1.74], [9, 1, 37, 1.49], [8943, 3, 376, 1.74], [20969, 3, 612, 2.49], [5153, 2, 26, 1.49], [161, 1, 44, 1.49], [5666, 2, 249, 1.49], [13033, 3, 603, 1.99], [22565, 3, 629, 1.49], [9833, 2, 128, 1.99], [8104, 1, 149, 1.99], [951, 4, 112, 1.49], [6098, 80, 83, 1.49], [3982, 3, 805, 1.96], [11555, 2, 135, 1.74], [24722, 2, 61, 1.49], [13283, 1, 306, 1.74], [3104, 1, 326, 1.48], [21946, 1, 87, 1.49], [6098, 29, 41, 1.49], [944, 15, 48, 1.49]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 14, 3.82], [11685, 2, 11, 4.69], [11681, 2, 8, 2.41], [8915, 2, 8, 3.4], [1124, 2, 7, 0.92], [6936, 2, 9, 3.64], [7036, 1, 14, 4.08], [88, 10, 16, 0.95], [8648, 2, 9, 3.16], [7004, 1, 9, 0.68], [8650, 2, 11, 3.82], [615, 2, 7, 1.72], [1429, 2, 7, 2.4], [151, 1, 9, 1.19], [616, 2, 7, 0.92], [434, 2, 7, 1.42], [326, 2, 7, 1.29], [5165, 1, 7, 1.66], [1622, 1, 7, 4.09], [24257, 1, 11, 2.43], [2912, 1, 7, 2.67], [8672, 2, 9, 2.76], [192, 3, 16, 4.82], [10993, 2, 7, 1.06], [1504, 2, 7, 2.41], [7886, 4, 9, 0.71], [7573, 1, 17, 5.0], [417, 2, 7, 0.69], [3889, 1, 7, 1.35], [12870, 1, 7, 1.1], [61, 3, 17, 5.0], [21793, 1, 12, 4.15], [523, 2, 9, 2.44], [7005, 1, 9, 0.68], [75, 2, 7, 0.75], [3891, 1, 7, 1.35], [5208, 3, 9, 2.74], [24258, 1, 7, 1.16], [5165, 2, 8, 1.62], [94, 4, 9, 3.35], [35, 1, 7, 0.98], [2912, 2, 12, 3.08], [20927, 1, 9, 0.68], [7084, 3, 7, 1.62], [998, 2, 9, 3.14], [33, 1, 7, 0.79], [996, 2, 7, 3.42], [201, 3, 7, 2.01], [34, 1, 7, 1.45], [346, 3, 7, 3.96], [2424, 80, 7, 2.41], [38, 1, 7, 1.16], [12721, 2, 7, 0.87], [13928, 1, 7, 0.94], [7887, 4, 7, 1.85], [3048, 3, 7, 2.83], [346, 1, 7, 3.15], [9081, 3, 14, 2.29], [5209, 3, 7, 2.55], [12924, 1, 7, 2.39], [7567, 3, 7, 1.0], [13280, 1, 9, 1.31], [2424, 29, 7, 2.39], [4076, 3, 7, 2.35], [995, 2, 7, 3.03], [2336, 3, 8, 1.31], [11234, 2, 7, 2.17], [12349, 1, 7, 2.66], [23961, 3, 7, 3.79], [74, 1, 7, 2.72], [13028, 3, 7, 1.1], [20498, 3, 7, 2.97], [11953, 1, 7, 2.22], [5946, 1, 7, 1.35], [1243, 2, 7, 0.98], [2805, 137, 9, 3.17], [6097, 80, 7, 2.41], [7704, 2, 7, 1.92], [8677, 3, 9, 3.16], [215, 4, 7, 4.45], [7707, 2, 7, 1.92], [8104, 1, 7, 2.38], [24722, 2, 9, 0.76], [12229, 2, 7, 0.79], [7705, 2, 7, 1.92], [10780, 10, 7, 3.25], [8898, 3, 7, 5.0], [5151, 2, 7, 1.6], [950, 1, 9, 0.95], [6097, 29, 7, 2.18], [20486, 3, 7, 0.95], [24567, 1, 7, 0.76], [3442, 29, 7, 2.25], [10410, 10, 15, 2.29], [10407, 10, 10, 2.52], [1523, 1, 7, 1.67], [7706, 2, 7, 4.04], [11952, 1, 7, 3.55], [1519, 3, 20, 0.94], [5584, 3, 7, 0.77], [8676, 2, 7, 2.43], [3047, 3, 7, 2.01], [21269, 3, 7, 2.73], [3900, 3, 7, 3.52], [3059, 3, 7, 2.95], [12764, 2, 8, 0.64], [8659, 1, 7, 1.41], [20498, 1, 7, 1.08], [2436, 4, 7, 0.89], [6496, 1, 7, 0.73], [12353, 1, 7, 5.0], [12345, 1, 7, 5.0], [24725, 2, 7, 1.02], [1080, 3, 7, 0.85], [12352, 1, 7, 5.0], [9827, 3, 7, 3.65], [2335, 3, 7, 0.81], [5005, 3, 8, 3.19], [3892, 1, 7, 1.35], [7708, 2, 7, 1.92], [3049, 3, 7, 2.85], [11711, 3, 7, 3.7], [220, 4, 7, 3.5], [180, 15, 7, 3.26], [2423, 29, 7, 1.94], [22565, 3, 7, 0.71], [944, 15, 7, 0.79], [5080, 2, 8, 2.28], [6497, 1, 7, 0.83], [1049, 2, 7, 3.79], [11942, 29, 7, 1.29], [13034, 3, 7, 1.34], [12346, 1, 7, 5.0], [13283, 1, 7, 2.62], [13281, 1, 7, 1.46], [3478, 2, 7, 1.35], [1667, 3, 7, 3.98], [955, 2, 7, 3.02], [11894, 2, 7, 1.81], [8897, 3, 7, 2.73], [66, 16, 7, 1.85], [2438, 2, 8, 0.77], [8674, 2, 7, 2.69], [12661, 1, 7, 4.06], [10936, 2, 7, 1.83], [10536, 3, 7, 2.26], [1895, 3, 7, 0.92], [21946, 1, 7, 1.27], [11936, 2, 7, 1.08], [10147, 1, 7, 0.9], [3894, 1, 7, 1.31], [9085, 29, 7, 0.9], [23, 1, 7, 1.59], [3334, 5, 7, 3.74], [1050, 2, 7, 3.79], [10181, 26, 7, 3.75], [11150, 1, 7, 0.87], [19047, 3, 7, 4.11], [21059, 1, 7, 4.56], [8234, 1, 7, 2.56], [3143, 3, 7, 1.02], [9069, 1, 7, 0.9], [10537, 3, 7, 5.0], [12304, 1, 7, 2.46], [13928, 2, 7, 0.94], [950, 1, 29, 1.94], [20486, 3, 667, 1.7], [24567, 1, 357, 1.69], [1523, 1, 52, 1.69], [1519, 3, 1528, 1.94], [5584, 3, 269, 1.69], [8659, 1, 134, 1.69], [20498, 1, 106, 1.69], [2436, 4, 129, 1.69], [6496, 1, 44, 1.69], [24725, 2, 70, 1.69], [1080, 3, 153, 1.69], [2335, 3, 225, 1.69], [3892, 1, 125, 1.69], [22565, 3, 653, 1.69], [944, 15, 48, 1.69], [6497, 1, 41, 1.69], [11942, 29, 108, 1.69], [13034, 3, 653, 1.69], [13281, 1, 349, 1.69], [3478, 2, 81, 1.69], [2438, 2, 711, 1.68], [1895, 3, 333, 1.69], [21946, 1, 87, 1.69], [11936, 2, 146, 1.69], [10147, 1, 73, 1.69], [3894, 1, 125, 1.69], [9085, 29, 34, 1.69], [23, 1, 123, 1.69], [11150, 1, 49, 1.69], [3143, 3, 332, 1.69], [9069, 1, 135, 1.69], [13928, 2, 26, 1.69]]</t>
+  </si>
+  <si>
+    <t>[[11681, 2, 11, 5.0], [11685, 2, 9, 3.66], [141, 2, 7, 0.94], [8648, 2, 7, 3.06], [434, 2, 7, 1.17], [88, 10, 14, 0.83], [8650, 2, 11, 2.83], [7004, 1, 11, 0.99], [7036, 1, 14, 2.64], [142, 2, 7, 0.94], [417, 2, 7, 1.68], [10993, 2, 11, 1.33], [523, 2, 7, 0.94], [2049, 3, 14, 2.59], [12870, 1, 14, 4.34], [3840, 1, 7, 1.68], [192, 3, 20, 4.41], [1124, 2, 9, 1.83], [9760, 29, 7, 1.29], [13028, 3, 7, 4.94], [2054, 3, 7, 3.39], [2050, 3, 7, 3.17], [3889, 1, 7, 3.36], [8853, 2, 7, 0.92], [94, 4, 7, 1.82], [24257, 1, 7, 1.75], [2057, 3, 9, 4.66], [20927, 1, 9, 2.46], [3982, 3, 22, 2.55], [7005, 1, 7, 1.4], [7573, 1, 11, 3.86], [2055, 3, 9, 3.5], [996, 2, 7, 4.84], [21793, 1, 7, 4.22], [998, 2, 7, 4.87], [24258, 1, 7, 3.4], [3980, 4, 7, 2.49], [23611, 3, 9, 4.46], [2912, 1, 7, 2.59], [9081, 3, 15, 1.05], [201, 3, 9, 3.78], [12350, 1, 7, 2.21], [2775, 2, 7, 3.42], [346, 3, 7, 3.88], [5208, 3, 9, 3.18], [1622, 1, 7, 1.96], [8677, 3, 10, 1.71], [346, 1, 7, 3.83], [3981, 3, 26, 2.68], [7704, 2, 7, 3.97], [82, 2, 7, 1.58], [956, 2, 7, 0.67], [950, 1, 7, 2.21], [12338, 29, 7, 1.17], [345, 3, 7, 3.27], [12349, 1, 7, 3.26], [8898, 3, 7, 3.46], [22316, 3, 7, 5.0], [9082, 3, 33, 2.42], [33, 1, 7, 0.73], [214, 3, 15, 0.95], [20498, 3, 8, 2.05], [11953, 1, 7, 0.9], [336, 15, 7, 1.83], [12346, 1, 7, 2.17], [1492, 1, 7, 0.98], [5080, 2, 7, 1.77], [410, 1, 7, 0.75], [2912, 2, 8, 2.59], [110, 4, 7, 3.15], [5811, 3, 7, 4.77], [7705, 2, 7, 3.97], [3048, 3, 7, 1.47], [12229, 2, 7, 0.9], [13283, 1, 7, 2.93], [3495, 3, 21, 0.79], [1413, 15, 7, 2.02], [20486, 3, 8, 3.11], [7708, 2, 7, 3.97], [22317, 3, 7, 3.38], [34, 1, 7, 1.16], [957, 2, 7, 0.67], [22565, 3, 9, 2.25], [12353, 1, 7, 2.17], [23, 1, 7, 0.92], [74, 1, 7, 1.33], [24725, 2, 7, 0.9], [2322, 2, 7, 5.0], [8943, 3, 7, 3.33], [11770, 1, 7, 1.17], [6497, 1, 7, 0.85], [12721, 2, 7, 1.06], [1703, 2, 7, 2.36], [9827, 3, 7, 3.27], [1895, 3, 7, 1.0], [25, 1, 7, 1.56], [7706, 2, 7, 3.83], [8944, 3, 7, 0.75], [161, 3, 11, 2.06], [11952, 1, 7, 3.05], [8673, 2, 7, 0.9], [7707, 2, 7, 3.97], [4076, 3, 7, 3.91], [20498, 1, 7, 2.19], [10181, 26, 8, 3.59], [2335, 3, 7, 1.65], [9964, 2, 7, 3.62], [12352, 1, 7, 2.26], [6496, 1, 7, 1.37], [3900, 3, 7, 0.89], [8104, 1, 7, 0.81], [24567, 1, 7, 0.76], [14037, 3, 7, 1.14], [11711, 3, 7, 1.1], [8897, 3, 7, 2.52], [10581, 3, 7, 4.35], [11510, 3, 8, 1.74], [10387, 2, 7, 2.57], [3477, 2, 7, 2.54], [1523, 1, 7, 0.92], [4001, 3, 12, 0.91], [220, 4, 7, 3.61], [9372, 1, 7, 1.17], [2805, 137, 9, 3.66], [955, 2, 7, 3.01], [8557, 3, 7, 0.98], [1548, 1, 7, 0.87], [3047, 3, 7, 4.74], [12764, 2, 8, 0.88], [21269, 3, 7, 5.0], [10936, 2, 7, 1.83], [1080, 3, 7, 2.25], [9965, 2, 7, 2.83], [12888, 1, 7, 3.31], [66, 16, 7, 2.67], [10093, 3, 21, 2.18], [11150, 1, 7, 1.71], [216, 4, 7, 0.85], [3049, 3, 7, 2.08], [10941, 2, 7, 1.14], [8234, 1, 7, 3.2], [9828, 3, 7, 2.19], [21946, 1, 7, 0.92], [12897, 1, 7, 3.33], [66, 15, 7, 2.67], [11689, 2, 7, 0.71], [2438, 2, 8, 0.77], [3975, 4, 7, 2.38], [14017, 3, 7, 3.1], [27, 1, 7, 1.43], [20486, 1, 7, 1.46], [2336, 3, 8, 3.85], [6098, 80, 7, 1.35], [5769, 3, 10, 0.67], [24724, 2, 7, 0.94], [9967, 2, 7, 2.71], [11687, 2, 7, 0.69], [202, 2, 7, 2.27], [6864, 1, 7, 4.06], [5005, 3, 8, 1.54], [24, 1, 7, 1.43], [10939, 2, 7, 0.91], [9829, 3, 7, 2.33], [22330, 3, 7, 1.75], [2537, 1, 7, 2.23], [5434, 1, 7, 1.75], [6966, 3, 7, 3.64], [12924, 1, 7, 2.41], [19047, 3, 7, 1.58], [12887, 1, 7, 3.33], [1895, 3, 343, 1.6], [25, 1, 128, 1.6], [8944, 3, 254, 1.6], [8673, 2, 327, 1.6], [6496, 1, 45, 1.6], [3900, 3, 54, 1.6], [8104, 1, 237, 1.6], [24567, 1, 372, 1.6], [14037, 3, 393, 1.6], [11711, 3, 235, 1.6], [1523, 1, 54, 1.6], [4001, 3, 899, 1.61], [9372, 1, 267, 1.6], [8557, 3, 224, 1.6], [1548, 1, 110, 1.6], [12764, 2, 842, 1.61], [216, 4, 47, 1.6], [10941, 2, 153, 1.6], [21946, 1, 93, 1.6], [11689, 2, 116, 1.21], [2438, 2, 740, 1.59], [27, 1, 128, 1.6], [20486, 1, 112, 1.6], [6098, 80, 87, 1.6], [5769, 3, 1252, 1.61], [24724, 2, 66, 1.6], [5005, 3, 1055, 1.61], [24, 1, 128, 1.6], [10939, 2, 153, 1.6], [19047, 3, 343, 1.6]]</t>
+  </si>
+  <si>
+    <t>[[362, 2, 7, 1.3], [8672, 2, 10, 2.68], [75, 2, 9, 0.87], [141, 2, 7, 2.86], [130, 1, 7, 1.38], [6935, 2, 20, 5.0], [1776, 1, 11, 1.75], [8915, 2, 10, 4.25], [990, 2, 7, 2.04], [88, 10, 16, 0.95], [1777, 1, 9, 2.09], [8648, 2, 9, 3.72], [83, 2, 7, 2.48], [11681, 2, 13, 5.0], [6936, 2, 10, 4.51], [361, 2, 7, 1.47], [45, 2, 14, 1.91], [8675, 2, 18, 2.39], [345, 3, 7, 0.87], [3478, 2, 7, 2.5], [142, 2, 7, 1.23], [1124, 2, 15, 1.72], [21793, 1, 9, 4.42], [8650, 2, 7, 4.67], [74, 1, 9, 3.75], [7036, 1, 7, 2.21], [346, 1, 7, 3.68], [7004, 1, 7, 2.78], [168, 3, 9, 1.91], [9827, 3, 7, 3.12], [5005, 1, 11, 3.9], [5081, 2, 9, 4.11], [7084, 3, 9, 2.25], [2055, 3, 7, 4.89], [2991, 3, 7, 2.12], [6158, 2, 8, 1.18], [11404, 2, 9, 1.14], [24257, 1, 7, 1.8], [5208, 3, 16, 2.74], [94, 4, 11, 3.69], [13028, 3, 11, 1.61], [8674, 2, 7, 3.16], [3889, 1, 7, 2.93], [12870, 1, 7, 1.54], [3893, 1, 7, 3.54], [170, 3, 7, 4.73], [3891, 1, 7, 5.0], [110, 4, 7, 1.23], [7005, 1, 7, 1.0], [192, 3, 16, 3.82], [5080, 2, 11, 3.77], [998, 2, 7, 2.55], [2050, 3, 7, 3.53], [3980, 4, 10, 2.38], [410, 1, 7, 0.75], [5660, 2, 7, 3.91], [20498, 1, 7, 3.16], [2878, 1, 7, 1.33], [1490, 1, 7, 0.79], [1091, 1, 7, 3.52], [1622, 1, 15, 3.98], [9829, 3, 7, 4.39], [8649, 2, 7, 3.15], [997, 2, 15, 4.37], [8676, 2, 17, 1.91], [5812, 3, 9, 5.0], [1504, 2, 7, 1.62], [5513, 2, 7, 1.67], [952, 4, 7, 0.79], [10993, 2, 7, 1.73], [5209, 3, 7, 2.34], [35, 1, 7, 2.16], [13280, 1, 9, 3.49], [346, 3, 8, 4.42], [1070, 7, 15, 3.44], [8853, 2, 8, 2.3], [11914, 1, 11, 2.33], [9760, 29, 7, 1.26], [996, 2, 9, 3.42], [9690, 1, 7, 1.89], [9691, 1, 7, 4.33], [1703, 2, 14, 4.95], [20927, 1, 7, 1.06], [22316, 3, 10, 4.2], [10780, 10, 7, 5.0], [14037, 3, 11, 0.84], [8898, 3, 10, 4.95], [9081, 3, 17, 1.0], [8677, 3, 9, 4.11], [1519, 3, 22, 2.0], [6097, 29, 7, 2.35], [20498, 3, 18, 4.85], [6097, 80, 7, 2.36], [21269, 3, 7, 5.0], [24260, 1, 7, 1.81], [12924, 1, 7, 2.48], [2335, 3, 7, 3.1], [20486, 1, 7, 2.94], [9, 1, 7, 2.39], [34, 1, 18, 2.16], [3048, 3, 9, 5.0], [13034, 3, 9, 1.46], [12661, 1, 7, 3.52], [23961, 3, 7, 3.54], [10529, 29, 7, 1.06], [995, 2, 7, 3.42], [6098, 80, 7, 1.1], [5584, 3, 7, 0.98], [1413, 15, 7, 0.79], [6098, 29, 7, 2.62], [3900, 3, 7, 2.25], [66, 1, 7, 1.1], [8557, 3, 7, 1.71], [1087, 1, 7, 0.93], [330, 3, 7, 4.04], [8945, 3, 8, 0.75], [39, 1, 7, 1.91], [20486, 3, 10, 1.79], [9082, 3, 81, 1.02], [11954, 1, 9, 2.99], [7573, 1, 7, 4.42], [2537, 1, 7, 2.44], [974, 3, 16, 3.16], [18, 1, 7, 1.83], [2104, 3, 10, 0.7], [22565, 3, 8, 0.77], [66, 16, 7, 2.94], [9828, 3, 7, 1.33], [5097, 2, 7, 1.27], [13484, 1, 7, 3.02], [1604, 68, 7, 1.44], [13033, 3, 8, 1.3], [12353, 1, 7, 3.14], [215, 4, 9, 4.75], [2729, 3, 7, 1.33], [9833, 2, 7, 0.94], [8104, 1, 7, 2.24], [12059, 3, 7, 4.31], [11510, 3, 9, 1.53], [19047, 3, 7, 1.52], [201, 1, 9, 0.74], [21946, 1, 7, 2.14], [2912, 1, 7, 2.54], [5946, 1, 7, 4.06], [345, 1, 9, 0.98], [9613, 1, 7, 1.11], [951, 4, 7, 2.56], [3477, 2, 7, 4.19], [7324, 1, 7, 1.71], [3143, 3, 7, 0.67], [24722, 2, 7, 0.98], [11555, 2, 7, 1.39], [9835, 2, 7, 2.08], [515, 24, 7, 1.14], [991, 2, 7, 2.25], [3104, 1, 7, 0.98], [3049, 3, 7, 1.71], [202, 2, 7, 2.65], [9289, 29, 7, 3.12], [11711, 3, 7, 2.32], [5811, 3, 7, 3.46], [5165, 1, 7, 1.58], [2991, 1, 7, 1.14], [10530, 29, 7, 1.54], [2424, 80, 7, 1.08], [5083, 2, 7, 1.83], [3016, 68, 7, 3.4], [5729, 2, 7, 1.91], [6630, 3, 7, 2.63], [7705, 2, 7, 2.35], [9830, 3, 7, 0.94], [7707, 2, 7, 2.35], [24567, 1, 7, 0.84], [380, 2, 7, 3.87], [5005, 3, 8, 2.79], [23339, 3, 7, 2.45], [5813, 3, 8, 4.45], [8897, 3, 7, 3.99], [1087, 1, 151, 1.36], [8945, 3, 654, 1.35], [9082, 3, 2357, 3.06], [2104, 3, 378, 1.36], [22565, 3, 654, 1.35], [9828, 3, 103, 1.36], [5097, 2, 182, 1.36], [13033, 3, 668, 1.36], [2729, 3, 95, 1.36], [9833, 2, 131, 1.86], [201, 1, 31, 1.62], [345, 1, 32, 1.86], [9613, 1, 69, 1.36], [3143, 3, 337, 1.35], [24722, 2, 63, 1.36], [515, 24, 208, 1.62], [3104, 1, 301, 1.62], [2991, 1, 39, 1.36], [2424, 80, 193, 1.36], [9830, 3, 80, 1.36], [24567, 1, 321, 1.61]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 16, 0.95], [615, 2, 7, 1.72], [8915, 2, 10, 4.02], [6935, 2, 16, 4.75], [94, 4, 7, 3.15], [7004, 1, 7, 0.73], [616, 2, 7, 0.67], [6936, 2, 9, 4.66], [11685, 2, 11, 5.0], [1124, 2, 11, 1.49], [1429, 2, 9, 2.42], [8650, 2, 9, 2.51], [434, 2, 17, 3.48], [8648, 2, 9, 2.92], [11681, 2, 7, 3.12], [7036, 1, 7, 2.62], [326, 2, 7, 3.12], [151, 1, 7, 1.44], [75, 2, 9, 0.75], [24257, 1, 9, 2.43], [3893, 1, 7, 1.64], [8938, 2, 9, 3.17], [192, 3, 17, 4.82], [3891, 1, 9, 5.0], [21793, 1, 7, 3.09], [5208, 3, 7, 1.85], [7005, 1, 7, 0.75], [10993, 2, 7, 0.79], [3980, 4, 13, 2.09], [5165, 1, 7, 1.62], [3889, 1, 7, 1.35], [2912, 1, 7, 2.67], [7573, 1, 10, 1.77], [2424, 80, 11, 2.54], [2436, 4, 7, 0.89], [346, 3, 7, 3.96], [7084, 3, 7, 1.62], [20927, 1, 7, 0.75], [998, 2, 7, 2.21], [24258, 1, 7, 1.16], [8672, 2, 7, 1.48], [12870, 1, 7, 1.1], [7887, 4, 7, 1.85], [417, 2, 7, 1.55], [5165, 2, 8, 1.62], [996, 2, 9, 3.35], [74, 1, 7, 1.67], [1622, 1, 7, 2.55], [11234, 2, 7, 2.32], [523, 2, 7, 1.15], [3982, 3, 16, 2.44], [12353, 1, 7, 5.0], [12349, 1, 7, 2.66], [2912, 2, 12, 2.76], [3900, 3, 7, 3.52], [8677, 3, 7, 2.41], [12229, 2, 16, 1.06], [6497, 1, 7, 0.83], [6496, 1, 7, 0.73], [2423, 80, 7, 2.0], [11953, 1, 7, 2.22], [11770, 1, 7, 0.73], [5811, 3, 7, 1.87], [346, 1, 7, 3.15], [6097, 80, 7, 2.16], [82, 2, 7, 2.34], [5584, 3, 7, 0.77], [24567, 1, 7, 0.76], [12721, 2, 7, 0.87], [5209, 3, 7, 2.55], [5812, 3, 7, 1.87], [3975, 4, 7, 2.02], [3981, 3, 22, 3.12], [10780, 10, 7, 3.25], [1243, 2, 7, 0.98], [2438, 2, 8, 0.77], [10407, 10, 10, 2.52], [5151, 2, 7, 1.6], [12350, 1, 7, 5.0], [8898, 3, 7, 5.0], [12346, 1, 7, 5.0], [23, 1, 7, 1.59], [2424, 29, 7, 2.39], [220, 4, 7, 3.5], [13928, 1, 7, 0.94], [201, 3, 7, 2.98], [33, 1, 7, 0.75], [8659, 1, 7, 1.41], [12764, 2, 8, 0.64], [7708, 2, 7, 1.92], [1519, 3, 20, 0.67], [4232, 80, 7, 3.1], [20486, 3, 7, 0.95], [24725, 2, 7, 1.02], [9081, 3, 14, 2.29], [8943, 3, 7, 1.28], [12344, 1, 7, 5.0], [5813, 3, 7, 1.87], [23961, 3, 7, 3.79], [955, 2, 7, 3.02], [5005, 3, 8, 3.19], [5435, 1, 7, 1.52], [20498, 3, 7, 2.97], [2805, 137, 9, 3.17], [37, 1, 7, 0.79], [995, 2, 7, 3.03], [35, 1, 7, 1.16], [7704, 2, 7, 1.92], [216, 4, 7, 2.31], [1895, 3, 7, 0.92], [1667, 3, 7, 3.98], [7706, 2, 7, 4.04], [5005, 1, 7, 3.2], [19047, 3, 7, 4.11], [180, 15, 7, 3.26], [13260, 29, 7, 1.58], [2335, 3, 7, 0.81], [3979, 3, 13, 2.2], [38, 1, 7, 1.16], [3442, 29, 7, 2.25], [944, 15, 7, 0.79], [11942, 29, 7, 1.29], [2336, 3, 8, 1.31], [11150, 2, 10, 0.81], [10536, 3, 7, 2.26], [215, 4, 7, 4.45], [8676, 2, 7, 0.9], [13280, 1, 7, 1.46], [10537, 3, 7, 5.0], [9827, 3, 7, 3.65], [12924, 1, 7, 2.39], [34, 1, 7, 1.16], [5080, 2, 8, 2.34], [7705, 2, 7, 1.92], [13034, 3, 7, 1.34], [1233, 1, 7, 2.26], [5585, 3, 7, 1.49], [8557, 3, 7, 0.73], [12647, 1, 7, 4.74], [10936, 2, 7, 1.83], [1691, 1, 7, 1.6], [308, 1, 7, 4.43], [10398, 2, 7, 1.48], [66, 15, 7, 1.85], [12417, 1, 7, 1.19], [1080, 3, 7, 0.85], [19583, 3, 7, 1.11], [10147, 1, 7, 0.9], [8058, 3, 7, 4.51], [12234, 3, 7, 1.85], [1523, 1, 7, 1.67], [14017, 3, 7, 3.85], [12661, 1, 7, 4.06], [13281, 1, 7, 1.46], [12235, 3, 7, 1.56], [7707, 2, 7, 1.92], [11894, 2, 7, 1.81], [21683, 3, 7, 1.11], [12923, 1, 7, 0.9], [19582, 3, 7, 1.06], [13286, 1, 7, 1.46], [13283, 1, 7, 2.62], [2109, 3, 15, 0.79], [947, 15, 7, 0.94], [20486, 3, 667, 1.7], [24725, 2, 70, 1.69], [8943, 3, 425, 1.69], [5435, 1, 52, 1.69], [37, 1, 126, 1.69], [35, 1, 125, 1.69], [1895, 3, 333, 1.69], [13260, 29, 79, 1.69], [2335, 3, 225, 1.69], [38, 1, 125, 1.69], [944, 15, 48, 1.69], [11942, 29, 108, 1.69], [2336, 3, 640, 1.69], [11150, 2, 391, 1.69], [8676, 2, 317, 1.69], [13280, 1, 349, 1.69], [34, 1, 125, 1.69], [13034, 3, 653, 1.69], [5585, 3, 272, 1.69], [8557, 3, 221, 1.69], [1691, 1, 98, 1.69], [10398, 2, 158, 1.69], [12417, 1, 165, 1.69], [1080, 3, 153, 1.69], [19583, 3, 660, 1.68], [10147, 1, 73, 1.69], [1523, 1, 52, 1.69], [13281, 1, 349, 1.69], [12235, 3, 164, 1.69], [21683, 3, 660, 1.68], [12923, 1, 41, 1.69], [19582, 3, 653, 1.69], [13286, 1, 349, 1.69], [2109, 3, 508, 1.69], [947, 15, 45, 1.69]]</t>
+  </si>
+  <si>
+    <t>[[88, 10, 14, 0.83], [11681, 2, 11, 5.0], [434, 2, 7, 1.17], [11685, 2, 9, 4.53], [7036, 1, 11, 2.72], [3980, 4, 17, 2.41], [3893, 1, 7, 3.47], [8915, 2, 8, 1.51], [1504, 2, 7, 3.37], [192, 3, 20, 3.82], [8648, 2, 7, 3.06], [141, 2, 7, 0.94], [2049, 3, 14, 2.31], [7004, 1, 7, 0.88], [3889, 1, 7, 2.77], [3840, 1, 9, 4.0], [2775, 2, 9, 3.66], [2054, 3, 7, 3.39], [2050, 3, 7, 3.17], [3975, 4, 7, 2.38], [3495, 3, 21, 0.79], [12870, 1, 11, 4.11], [94, 4, 21, 3.85], [5165, 1, 7, 1.17], [10993, 2, 7, 2.52], [2057, 3, 7, 3.14], [2055, 3, 7, 3.5], [8853, 2, 7, 3.54], [5208, 3, 11, 3.31], [24257, 1, 7, 1.75], [33, 1, 7, 0.87], [82, 2, 7, 1.67], [9760, 29, 7, 1.04], [1124, 2, 10, 1.58], [201, 3, 7, 3.79], [21793, 1, 7, 4.22], [7573, 1, 11, 3.86], [142, 2, 7, 0.94], [2912, 1, 7, 2.59], [523, 2, 7, 0.94], [8677, 3, 7, 3.39], [996, 2, 7, 4.84], [12229, 2, 7, 1.25], [2436, 4, 7, 2.51], [3982, 3, 22, 2.55], [12350, 1, 7, 2.81], [12349, 1, 7, 2.26], [3981, 3, 22, 1.64], [214, 3, 15, 0.88], [9081, 3, 15, 1.05], [346, 3, 7, 3.88], [7005, 1, 7, 1.4], [20927, 1, 7, 2.19], [956, 2, 7, 0.67], [417, 2, 7, 0.94], [1492, 1, 7, 0.98], [22316, 3, 7, 5.0], [345, 3, 7, 2.56], [12924, 1, 7, 1.67], [74, 1, 7, 1.53], [12353, 1, 7, 2.51], [24258, 1, 7, 3.4], [2912, 2, 8, 2.59], [6496, 1, 9, 3.25], [5165, 2, 10, 1.12], [22317, 3, 7, 3.38], [5811, 3, 7, 4.77], [4176, 4, 7, 2.38], [336, 15, 7, 2.68], [410, 1, 7, 0.75], [6497, 1, 7, 0.85], [38, 1, 7, 1.35], [1413, 15, 7, 2.98], [12721, 2, 7, 1.06], [20498, 3, 8, 2.05], [957, 2, 7, 0.67], [23611, 3, 9, 4.46], [2336, 3, 8, 3.85], [5435, 1, 7, 1.6], [7704, 2, 7, 3.97], [14037, 3, 7, 1.14], [346, 1, 7, 3.83], [12346, 1, 9, 4.89], [5209, 3, 7, 3.18], [1490, 1, 7, 1.16], [21269, 3, 7, 5.0], [10780, 10, 7, 4.11], [25, 1, 7, 1.56], [6494, 1, 7, 2.23], [5813, 3, 8, 4.77], [955, 2, 7, 3.01], [45, 2, 7, 2.32], [7708, 2, 7, 3.97], [20486, 3, 8, 3.11], [4076, 3, 7, 3.91], [3048, 3, 7, 1.47], [13280, 1, 7, 2.93], [12344, 1, 7, 2.09], [7705, 2, 7, 3.97], [1087, 1, 7, 0.73], [19047, 3, 7, 1.58], [9069, 1, 7, 1.12], [1523, 1, 7, 0.92], [20498, 1, 7, 2.19], [590, 15, 7, 1.75], [110, 4, 7, 3.15], [8898, 3, 7, 3.46], [2335, 3, 7, 1.65], [3576, 25, 7, 0.96], [2805, 137, 9, 3.66], [10536, 3, 7, 2.26], [11089, 1, 7, 1.67], [11510, 3, 8, 1.74], [24725, 2, 7, 0.9], [2879, 1, 7, 3.43], [10936, 2, 7, 1.83], [389, 4, 7, 2.7], [27, 1, 7, 1.43], [8120, 3, 7, 2.64], [1895, 3, 7, 1.0], [24567, 1, 7, 0.89], [5080, 2, 9, 2.38], [202, 2, 7, 2.27], [3047, 3, 7, 4.74], [7706, 2, 7, 3.83], [8599, 1, 7, 3.12], [12764, 2, 8, 0.88], [2423, 80, 7, 0.9], [161, 3, 11, 2.06], [974, 3, 7, 4.66], [6952, 1, 7, 3.06], [220, 4, 7, 3.61], [21697, 3, 7, 2.41], [13244, 1, 7, 0.77], [9186, 29, 7, 1.39], [1548, 1, 7, 0.87], [2438, 2, 8, 0.77], [12417, 1, 7, 2.23], [11967, 1, 7, 0.73], [8356, 1, 7, 1.41], [11961, 1, 7, 1.21], [995, 2, 7, 4.87], [1703, 2, 7, 2.36], [19971, 3, 7, 0.87], [5005, 1, 7, 1.87], [11182, 1, 7, 3.75], [111, 1, 7, 1.57], [8897, 3, 7, 2.52], [5434, 1, 7, 1.75], [10176, 29, 7, 1.04], [40, 1, 7, 1.58], [3338, 1, 7, 3.38], [7324, 1, 7, 1.69], [399, 24, 7, 2.76], [10721, 29, 7, 0.71], [3391, 1, 7, 2.21], [14017, 3, 7, 3.1], [1300, 3, 7, 1.08], [12720, 2, 7, 1.45], [10941, 2, 7, 1.14], [1622, 1, 7, 1.96], [11687, 2, 7, 0.69], [3723, 25, 7, 3.45], [19582, 3, 7, 1.02], [22920, 3, 7, 1.84], [12923, 1, 7, 1.77], [13283, 1, 7, 2.93], [10939, 2, 7, 0.91], [12888, 1, 7, 3.31], [23440, 1, 7, 4.85], [10537, 3, 7, 2.19], [3048, 3, 309, 1.6], [1087, 1, 162, 1.6], [19047, 3, 343, 1.6], [9069, 1, 141, 1.6], [1523, 1, 54, 1.6], [3576, 25, 116, 1.6], [24725, 2, 73, 1.6], [27, 1, 128, 1.6], [1895, 3, 343, 1.6], [24567, 1, 333, 1.84], [12764, 2, 842, 1.61], [2423, 80, 213, 1.6], [13244, 1, 58, 1.6], [9186, 29, 97, 1.6], [1548, 1, 110, 1.6], [2438, 2, 740, 1.59], [11967, 1, 49, 1.2], [8356, 1, 104, 1.6], [11961, 1, 62, 1.6], [19971, 3, 435, 1.6], [111, 1, 128, 1.6], [10176, 29, 155, 1.6], [40, 1, 128, 1.6], [10721, 29, 39, 1.6], [1300, 3, 295, 1.6], [12720, 2, 324, 1.6], [10941, 2, 153, 1.6], [19582, 3, 680, 1.6], [10939, 2, 153, 1.6]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 9, 0.98], [362, 2, 11, 0.85], [130, 1, 7, 1.69], [361, 2, 11, 0.94], [11685, 2, 9, 3.51], [417, 2, 9, 1.21], [8650, 2, 11, 3.15], [1124, 2, 10, 0.9], [11838, 2, 7, 3.66], [6935, 2, 17, 3.61], [8915, 2, 7, 4.45], [248, 1, 7, 1.37], [11681, 2, 9, 4.08], [142, 2, 7, 0.85], [6936, 2, 13, 2.69], [12721, 2, 9, 1.16], [8675, 2, 14, 2.14], [11836, 2, 9, 4.56], [21793, 1, 11, 3.8], [434, 2, 7, 1.91], [990, 2, 7, 1.32], [6158, 2, 13, 1.92], [7705, 2, 7, 2.21], [7706, 2, 7, 2.44], [8673, 2, 7, 0.85], [2050, 3, 8, 3.49], [201, 3, 9, 4.18], [7704, 2, 7, 2.21], [346, 3, 7, 4.9], [10993, 2, 7, 1.23], [5733, 2, 7, 0.87], [2423, 80, 7, 1.0], [60, 3, 10, 2.77], [952, 4, 7, 3.23], [75, 2, 7, 1.0], [5812, 3, 9, 5.0], [345, 3, 7, 4.71], [192, 3, 19, 2.86], [22316, 3, 7, 0.9], [3477, 2, 7, 3.87], [2424, 80, 7, 0.73], [346, 1, 7, 3.34], [6952, 1, 7, 3.06], [22558, 3, 7, 2.88], [2703, 3, 7, 3.06], [2424, 29, 7, 2.29], [94, 4, 7, 2.79], [2859, 15, 7, 0.87], [12924, 1, 7, 1.98], [5729, 2, 7, 0.87], [12925, 1, 7, 0.92], [7887, 4, 7, 0.9], [13028, 3, 7, 4.43], [2423, 29, 7, 0.9], [10897, 1, 13, 2.94], [3893, 1, 7, 3.58], [3891, 1, 7, 3.92], [7707, 2, 7, 2.21], [6494, 1, 7, 3.2], [5811, 3, 8, 4.6], [24257, 1, 7, 3.16], [3980, 4, 7, 2.02], [7708, 2, 7, 2.21], [335, 3, 21, 0.8], [6630, 3, 7, 3.77], [13034, 3, 8, 1.98], [5080, 2, 7, 0.92], [13250, 29, 7, 1.75], [21781, 2, 7, 1.46], [13033, 3, 7, 1.9], [5813, 3, 8, 5.0], [5946, 1, 7, 2.26], [3430, 15, 7, 1.37], [22317, 3, 7, 2.62], [21269, 3, 7, 5.0], [22565, 3, 8, 1.15], [3889, 1, 7, 3.47], [9082, 3, 23, 1.11], [23611, 3, 7, 3.16], [8943, 3, 7, 1.28], [10898, 1, 8, 2.74], [18964, 1, 7, 0.96], [11180, 1, 7, 1.98], [9690, 1, 7, 0.67], [11953, 1, 7, 1.1], [3981, 3, 17, 2.14], [9854, 1, 7, 3.0], [6496, 1, 7, 0.85], [12373, 1, 11, 2.75], [2335, 3, 7, 2.52], [11089, 1, 7, 1.67], [11164, 1, 7, 3.43], [12345, 1, 7, 5.0], [13035, 3, 7, 3.21], [23992, 25, 7, 2.09], [5584, 3, 7, 1.19], [23992, 29, 7, 2.09], [10397, 3, 7, 3.58], [110, 4, 7, 1.43], [515, 24, 7, 2.13], [24566, 1, 7, 0.94], [4940, 1, 7, 1.96], [6359, 10, 15, 0.71], [9068, 1, 7, 1.55], [1661, 3, 7, 2.37], [13244, 1, 7, 0.81], [13498, 3, 7, 1.5], [24258, 1, 7, 3.91], [8898, 3, 7, 3.98], [951, 4, 7, 3.78], [8897, 3, 7, 3.98], [12348, 1, 7, 5.0], [3475, 2, 7, 3.02], [8089, 1, 31, 2.03], [5209, 3, 8, 2.21], [7567, 3, 7, 1.43], [186, 3, 12, 3.42], [12059, 3, 7, 3.27], [3338, 1, 7, 3.0], [95, 3, 13, 2.42], [6629, 3, 7, 4.47], [3982, 3, 22, 2.26], [10410, 10, 11, 2.56], [1667, 3, 7, 2.37], [11930, 1, 7, 3.22], [10147, 1, 7, 1.04], [1050, 2, 7, 2.92], [24567, 1, 7, 1.08], [24121, 3, 7, 0.85], [2805, 137, 10, 3.93], [10093, 3, 21, 0.85], [5869, 1, 7, 4.73], [12496, 3, 7, 1.45], [1895, 3, 7, 1.96], [3028, 3, 7, 0.96], [10529, 80, 7, 2.56], [3934, 5, 19, 4.61], [8635, 3, 7, 1.14], [3983, 4, 7, 2.02], [23961, 3, 7, 3.72], [2821, 3, 13, 0.91], [4176, 4, 7, 2.02], [11707, 3, 7, 3.4], [202, 2, 7, 1.74], [13041, 3, 7, 2.39], [10527, 3, 13, 0.89], [12923, 1, 7, 1.89], [2109, 3, 15, 0.7], [955, 2, 7, 2.77], [1049, 2, 7, 3.14], [13266, 29, 7, 2.06], [12058, 3, 7, 3.34], [20680, 1, 7, 2.37], [5976, 1, 7, 2.93], [4032, 29, 7, 5.0], [1277, 1, 7, 4.05], [332, 2, 7, 1.74], [6627, 3, 7, 3.89], [21712, 3, 21, 0.68], [2188, 1, 7, 1.35], [8283, 2, 8, 0.61], [10722, 2, 7, 3.3], [1744, 1, 7, 2.54], [22125, 2, 7, 0.94], [2438, 1, 7, 0.73], [1701, 2, 7, 3.56], [10710, 1, 7, 3.15], [13244, 2, 12, 0.75], [12764, 1, 7, 0.73], [9690, 1, 35, 1.38], [11953, 1, 237, 1.81], [6496, 1, 47, 1.81], [11089, 1, 199, 1.81], [5584, 3, 284, 1.81], [110, 4, 244, 1.82], [24566, 1, 357, 1.81], [9068, 1, 140, 1.82], [13244, 1, 59, 1.81], [13498, 3, 706, 1.81], [7567, 3, 83, 1.81], [10147, 1, 79, 1.81], [24567, 1, 379, 1.82], [24121, 3, 246, 1.82], [10093, 3, 976, 1.82], [12496, 3, 665, 1.82], [3028, 3, 192, 1.81], [2821, 3, 1564, 1.82], [202, 2, 86, 1.81], [10527, 3, 1020, 1.81], [2109, 3, 341, 1.65], [332, 2, 86, 1.81], [21712, 3, 1623, 1.66], [2188, 1, 80, 1.81], [8283, 2, 208, 1.39], [22125, 2, 73, 1.81], [2438, 1, 40, 1.66], [13244, 2, 470, 1.82], [12764, 1, 45, 1.66]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 19, 2.53], [6936, 2, 11, 4.02], [1504, 2, 9, 3.41], [12721, 2, 11, 0.89], [2776, 2, 7, 3.72], [130, 1, 7, 1.83], [248, 1, 7, 1.42], [8673, 2, 7, 0.85], [361, 2, 9, 1.17], [141, 2, 7, 1.06], [362, 2, 16, 1.16], [8675, 2, 11, 2.43], [1124, 2, 12, 3.2], [2423, 29, 7, 2.23], [417, 2, 7, 1.05], [8674, 2, 7, 2.68], [8648, 2, 7, 4.06], [6497, 1, 7, 0.9], [990, 2, 9, 2.13], [2423, 80, 7, 2.02], [88, 10, 21, 1.98], [6098, 80, 7, 0.9], [24722, 2, 9, 2.08], [2422, 80, 7, 1.56], [142, 2, 7, 1.06], [944, 15, 7, 0.79], [326, 2, 7, 2.58], [434, 2, 7, 2.9], [6494, 1, 7, 2.26], [8915, 2, 7, 3.25], [7704, 2, 7, 1.14], [6098, 29, 7, 0.9], [378, 2, 7, 2.6], [75, 2, 7, 2.51], [5080, 2, 10, 3.17], [6496, 1, 7, 1.56], [346, 3, 7, 2.1], [24257, 1, 7, 2.4], [7705, 2, 7, 0.75], [2859, 15, 7, 0.87], [1049, 2, 7, 3.08], [12345, 1, 7, 4.32], [12349, 1, 9, 3.56], [1050, 2, 7, 2.87], [8943, 3, 7, 1.28], [7706, 2, 7, 1.16], [1243, 2, 7, 0.85], [346, 1, 7, 2.0], [201, 3, 7, 1.23], [12344, 1, 7, 5.0], [12343, 1, 7, 5.0], [3478, 2, 7, 2.48], [12353, 1, 8, 4.32], [7084, 3, 7, 3.85], [2703, 3, 7, 4.76], [335, 3, 21, 0.8], [5208, 3, 11, 5.0], [10149, 3, 21, 0.79], [515, 24, 7, 0.92], [19687, 1, 7, 0.69], [24724, 2, 12, 1.16], [7708, 2, 7, 1.14], [9760, 29, 7, 3.15], [12924, 1, 7, 2.75], [7885, 4, 7, 1.52], [11404, 2, 9, 1.11], [947, 15, 7, 1.64], [1886, 2, 7, 4.25], [590, 15, 7, 0.71], [161, 1, 10, 2.4], [22316, 3, 7, 5.0], [7005, 1, 7, 3.43], [21793, 1, 11, 3.1], [161, 3, 13, 2.16], [20927, 1, 7, 3.43], [2331, 1, 7, 4.05], [98, 11, 24, 3.59], [10147, 1, 7, 0.98], [6359, 10, 15, 0.71], [2050, 3, 8, 1.63], [94, 4, 7, 1.44], [2438, 1, 7, 1.25], [114, 3, 7, 2.72], [24258, 1, 7, 3.53], [105, 3, 7, 2.45], [21712, 3, 21, 0.68], [5976, 1, 7, 4.16], [11164, 1, 7, 3.0], [1699, 3, 7, 1.71], [3981, 3, 17, 2.14], [2057, 3, 7, 2.2], [7036, 1, 7, 1.04], [2821, 3, 13, 1.62], [12053, 2, 7, 3.05], [24256, 1, 7, 3.61], [950, 1, 7, 1.89], [11687, 2, 7, 0.73], [9186, 29, 7, 2.8], [11894, 2, 7, 2.15], [13489, 1, 7, 3.73], [3891, 1, 7, 3.92], [24725, 2, 7, 0.85], [7887, 4, 7, 1.55], [97, 11, 16, 3.09], [11159, 1, 14, 2.14], [4253, 1, 7, 3.72], [11690, 2, 7, 0.71], [951, 4, 7, 1.6], [5209, 3, 8, 4.65], [12870, 1, 7, 0.96], [2436, 4, 7, 2.22], [2805, 137, 10, 3.87], [9065, 2, 7, 0.67], [11738, 2, 7, 1.81], [8600, 1, 7, 1.14], [11586, 1, 15, 4.16], [12304, 1, 7, 3.31], [4372, 1, 7, 1.08], [7573, 1, 7, 5.0], [1324, 1, 7, 3.07], [12373, 1, 11, 3.21], [11689, 2, 7, 0.73], [12054, 2, 7, 0.9], [45, 2, 7, 2.57], [13028, 3, 7, 3.11], [8635, 3, 7, 2.3], [11887, 2, 7, 0.94], [5872, 1, 7, 4.67], [1703, 2, 7, 1.26], [1701, 2, 7, 3.56], [23611, 3, 7, 3.61], [12923, 1, 7, 2.31], [8659, 1, 7, 1.23], [3664, 5, 10, 2.33], [19924, 2, 7, 1.75], [11678, 1, 7, 1.45], [11811, 1, 7, 0.86], [9491, 21, 18, 3.47], [1648, 1, 7, 2.68], [1523, 1, 7, 2.08], [8285, 2, 8, 1.0], [12925, 1, 7, 1.91], [8898, 3, 7, 4.56], [2985, 3, 7, 0.85], [23235, 25, 7, 0.69], [22125, 2, 7, 1.85], [8897, 3, 7, 4.56], [12791, 1, 7, 2.0], [3341, 3, 7, 1.94], [958, 2, 7, 4.49], [5733, 2, 7, 2.25], [20196, 2, 7, 2.31], [4176, 4, 7, 1.65], [12057, 2, 7, 1.81], [1575, 1, 7, 3.95], [11625, 29, 7, 0.83], [1895, 3, 7, 1.96], [4372, 10, 13, 1.2], [3230, 1, 7, 0.92], [9, 1, 7, 2.73], [202, 2, 7, 3.38], [3334, 5, 7, 4.12], [12503, 1, 7, 1.48], [563, 2, 7, 3.38], [3840, 1, 7, 0.83], [12059, 3, 7, 1.74], [23380, 25, 7, 0.98], [94, 4, 143, 1.81], [2438, 1, 63, 1.81], [21712, 3, 1623, 1.66], [1699, 3, 246, 1.82], [7036, 1, 149, 1.82], [2821, 3, 1547, 1.8], [11687, 2, 222, 1.65], [24725, 2, 76, 1.81], [951, 4, 120, 1.81], [12870, 1, 167, 1.81], [9065, 2, 133, 1.39], [8600, 1, 186, 1.81], [4372, 1, 76, 1.81], [11689, 2, 267, 1.73], [12054, 2, 643, 1.81], [11887, 2, 226, 1.82], [1703, 2, 192, 1.81], [8659, 1, 142, 1.81], [19924, 2, 74, 1.81], [11678, 1, 529, 1.82], [11811, 1, 536, 1.82], [8285, 2, 553, 1.82], [2985, 3, 346, 1.81], [23235, 25, 37, 1.38], [4176, 4, 569, 1.82], [12057, 2, 649, 2.3], [11625, 29, 108, 1.81], [4372, 10, 1218, 1.81], [3230, 1, 222, 1.82], [12503, 1, 242, 1.82], [3840, 1, 202, 1.81], [12059, 3, 344, 1.81], [23380, 25, 113, 1.82]]</t>
+  </si>
+  <si>
+    <t>[[141, 2, 7, 1.23], [362, 2, 14, 1.88], [130, 1, 7, 1.79], [361, 2, 11, 0.89], [6935, 2, 17, 3.83], [417, 2, 11, 2.5], [1504, 2, 14, 2.89], [12721, 2, 9, 0.81], [248, 1, 9, 1.47], [6936, 2, 13, 2.53], [142, 2, 23, 1.56], [6097, 80, 7, 3.26], [8853, 2, 8, 2.3], [6097, 29, 7, 2.81], [2327, 2, 7, 2.39], [2423, 29, 7, 1.35], [2776, 2, 7, 1.81], [990, 2, 7, 2.14], [8648, 2, 7, 3.74], [2805, 137, 10, 3.89], [88, 10, 24, 1.84], [2057, 3, 7, 5.0], [192, 3, 19, 4.35], [6098, 80, 7, 1.35], [6496, 1, 7, 0.85], [434, 2, 7, 1.91], [2054, 3, 7, 4.42], [2423, 80, 7, 1.35], [2055, 3, 7, 4.87], [11234, 2, 10, 1.32], [950, 1, 7, 1.89], [1886, 2, 7, 3.61], [161, 1, 10, 3.17], [6494, 1, 7, 3.03], [1124, 2, 10, 1.38], [1243, 2, 7, 0.83], [5813, 3, 8, 2.37], [8915, 2, 7, 1.02], [6158, 2, 11, 2.58], [5208, 3, 11, 4.07], [21793, 1, 11, 3.1], [3430, 15, 7, 1.37], [94, 4, 7, 3.09], [515, 24, 7, 3.37], [7004, 1, 7, 2.6], [3934, 5, 19, 2.89], [12345, 1, 7, 4.8], [346, 3, 7, 2.1], [9491, 21, 18, 3.26], [22316, 3, 7, 3.56], [335, 3, 21, 0.8], [10124, 1, 7, 3.52], [1703, 2, 7, 1.26], [105, 3, 7, 3.36], [186, 3, 12, 0.78], [24725, 2, 7, 0.89], [1050, 2, 7, 2.14], [11887, 2, 7, 1.8], [7573, 1, 7, 4.83], [161, 3, 13, 4.37], [11271, 1, 7, 4.68], [5584, 3, 7, 3.52], [590, 15, 7, 0.96], [1049, 2, 7, 3.57], [19685, 1, 7, 3.71], [11885, 2, 7, 1.71], [22125, 2, 7, 2.43], [45, 2, 7, 2.57], [3658, 1, 7, 2.71], [2104, 3, 10, 0.7], [8659, 1, 7, 2.18], [10147, 1, 7, 1.21], [21269, 3, 7, 5.0], [8085, 1, 7, 1.39], [9691, 1, 7, 4.5], [10181, 26, 14, 5.0], [346, 1, 7, 2.0], [1701, 2, 7, 3.56], [110, 4, 7, 3.37], [1519, 3, 15, 0.94], [963, 3, 7, 0.93], [13034, 3, 8, 0.71], [21781, 2, 7, 0.73], [2438, 1, 7, 0.89], [2438, 2, 8, 0.82], [11089, 1, 7, 2.57], [20680, 1, 7, 3.05], [7036, 1, 7, 1.1], [1523, 1, 7, 0.85], [7007, 1, 7, 3.63], [1139, 3, 7, 3.09], [4001, 3, 14, 2.66], [11080, 3, 7, 3.48], [9373, 5, 7, 5.0], [3664, 5, 10, 2.97], [23611, 3, 7, 2.97], [11689, 2, 7, 1.02], [11687, 2, 7, 0.92], [11677, 1, 7, 0.96], [11625, 29, 7, 1.12], [12373, 1, 11, 4.56], [21010, 2, 7, 1.78], [7005, 1, 7, 3.43], [8897, 3, 7, 2.65], [23380, 29, 7, 2.12], [88, 1, 7, 1.48], [11116, 1, 7, 2.14], [7886, 4, 7, 3.0], [8635, 3, 7, 1.14], [419, 2, 13, 1.07], [19924, 2, 7, 1.75], [20978, 1, 7, 3.21], [11886, 2, 7, 1.71], [1648, 1, 7, 1.58], [3984, 3, 13, 1.39], [382, 1, 7, 2.98], [9085, 29, 7, 2.71], [12538, 3, 7, 4.41], [4043, 29, 7, 1.62], [21704, 3, 21, 2.46], [20686, 1, 7, 3.36], [3979, 3, 8, 2.63], [11678, 1, 7, 0.76], [973, 3, 8, 4.16], [3079, 3, 7, 1.93], [2436, 4, 7, 3.52], [5976, 1, 7, 4.22], [24256, 1, 7, 4.03], [1895, 3, 7, 1.96], [8285, 2, 8, 1.03], [3016, 68, 7, 4.81], [21712, 3, 21, 2.25], [1744, 1, 7, 1.46], [23994, 29, 7, 3.35], [9085, 25, 7, 2.73], [9069, 1, 7, 3.23], [4176, 4, 7, 1.65], [4175, 3, 13, 1.28], [9380, 1, 13, 1.52], [420, 2, 7, 0.89], [12614, 1, 7, 0.92], [10721, 29, 7, 1.04], [10710, 1, 7, 3.34], [21752, 2, 7, 0.73], [12304, 1, 7, 2.14], [13028, 3, 7, 5.0], [2419, 29, 7, 3.02], [9374, 5, 7, 3.74], [5076, 1, 7, 1.85], [8155, 2, 7, 2.1], [1575, 1, 7, 3.12], [23235, 29, 7, 1.33], [12654, 1, 7, 3.97], [7887, 4, 7, 3.08], [10581, 3, 8, 1.01], [3896, 29, 7, 3.73], [422, 2, 8, 0.79], [7704, 2, 7, 3.06], [13270, 29, 7, 0.96], [13498, 3, 7, 1.07], [3337, 1, 7, 4.41], [22325, 1, 7, 0.9], [8155, 25, 7, 1.28], [2109, 3, 15, 0.7], [22973, 1, 7, 3.63], [2331, 1, 7, 1.93], [12058, 3, 7, 2.52], [4372, 10, 13, 1.08], [1523, 1, 55, 1.81], [11689, 2, 351, 1.82], [11687, 2, 318, 2.07], [11677, 1, 536, 1.82], [11625, 29, 107, 1.81], [21010, 2, 342, 1.82], [88, 1, 14, 1.81], [419, 2, 262, 1.82], [19924, 2, 74, 1.81], [11886, 2, 223, 1.81], [1648, 1, 55, 1.81], [3984, 3, 1912, 1.83], [4043, 29, 42, 1.81], [11678, 1, 536, 1.82], [8285, 2, 562, 1.81], [1744, 1, 196, 1.81], [4176, 4, 569, 1.82], [4175, 3, 1912, 1.83], [9380, 1, 243, 1.82], [420, 2, 262, 1.82], [12614, 1, 112, 1.81], [10721, 29, 40, 1.81], [23235, 29, 32, 1.81], [10581, 3, 232, 1.81], [422, 2, 262, 1.82], [13270, 29, 121, 1.81], [13498, 3, 710, 1.81], [22325, 1, 48, 1.81], [8155, 25, 93, 1.81], [2109, 3, 341, 1.65], [4372, 10, 1240, 1.8]]</t>
+  </si>
+  <si>
+    <t>[[6935, 2, 19, 2.57], [141, 2, 11, 1.0], [361, 2, 7, 1.59], [362, 2, 7, 1.05], [6936, 2, 16, 4.02], [8650, 2, 11, 4.17], [11681, 2, 16, 5.0], [417, 2, 9, 0.98], [75, 2, 9, 0.78], [88, 10, 17, 0.81], [434, 2, 7, 2.73], [8673, 2, 7, 2.55], [1504, 2, 9, 3.41], [523, 2, 9, 1.57], [8853, 2, 8, 1.54], [8648, 2, 11, 4.43], [12721, 2, 9, 1.39], [7704, 2, 11, 0.8], [8915, 2, 7, 3.25], [6158, 2, 11, 1.4], [435, 2, 11, 2.72], [326, 2, 7, 2.65], [192, 3, 26, 4.56], [2424, 29, 7, 2.29], [7886, 4, 7, 1.81], [11234, 2, 10, 1.46], [7706, 2, 11, 0.83], [2424, 80, 7, 0.73], [7004, 1, 7, 2.83], [2423, 29, 7, 1.35], [1413, 15, 7, 3.24], [2423, 80, 7, 1.35], [345, 3, 14, 3.21], [3477, 2, 7, 3.37], [74, 1, 7, 0.98], [10993, 2, 7, 0.71], [2054, 3, 9, 4.43], [7707, 2, 7, 0.78], [2057, 3, 11, 4.43], [6628, 3, 18, 2.16], [24257, 1, 7, 3.0], [94, 4, 7, 5.0], [6630, 3, 7, 2.19], [7703, 2, 7, 1.0], [346, 1, 7, 2.64], [346, 3, 7, 3.08], [6097, 80, 7, 3.12], [2859, 15, 7, 1.23], [8649, 2, 7, 4.76], [2055, 3, 7, 2.29], [13023, 3, 9, 1.96], [3893, 1, 7, 3.58], [1243, 2, 7, 0.85], [5080, 2, 10, 3.06], [22316, 3, 7, 3.56], [13034, 3, 8, 1.03], [5811, 3, 8, 3.35], [10149, 3, 21, 0.79], [9081, 3, 15, 2.4], [14037, 3, 7, 2.77], [11089, 1, 7, 1.67], [7005, 1, 7, 3.31], [3889, 1, 7, 3.47], [21793, 1, 11, 4.28], [336, 15, 7, 2.52], [11919, 1, 7, 0.87], [3891, 1, 7, 3.92], [22317, 3, 7, 2.62], [19687, 1, 7, 1.0], [9760, 29, 7, 1.29], [5813, 3, 8, 4.35], [13033, 3, 7, 1.19], [5729, 2, 7, 1.71], [5208, 3, 11, 3.72], [6496, 1, 7, 2.08], [7036, 1, 7, 1.06], [7573, 1, 7, 3.86], [8944, 3, 7, 1.16], [220, 4, 7, 2.38], [6494, 1, 7, 1.91], [24258, 1, 7, 2.0], [22558, 3, 7, 3.62], [23611, 3, 7, 4.26], [11180, 1, 7, 2.58], [590, 15, 7, 2.58], [1886, 2, 7, 3.61], [410, 1, 7, 3.36], [2331, 1, 7, 2.95], [964, 15, 7, 0.94], [12344, 1, 7, 1.57], [45, 2, 7, 2.09], [11583, 29, 7, 0.9], [10147, 1, 7, 1.37], [9491, 21, 18, 3.26], [12924, 1, 7, 2.75], [9829, 3, 7, 4.02], [3934, 5, 19, 3.78], [7567, 3, 7, 1.43], [5736, 2, 7, 1.71], [9828, 3, 7, 4.14], [13498, 3, 7, 1.07], [20680, 1, 7, 3.4], [1701, 2, 7, 3.93], [11586, 1, 15, 3.3], [3980, 4, 7, 2.02], [6359, 10, 15, 0.71], [3981, 3, 17, 2.14], [12350, 1, 7, 1.63], [10446, 1, 7, 2.41], [3900, 3, 7, 4.84], [963, 3, 7, 4.0], [11770, 1, 7, 2.36], [13336, 29, 7, 1.89], [11914, 1, 7, 2.77], [10537, 3, 8, 2.81], [12349, 1, 9, 2.03], [2805, 137, 10, 2.05], [2438, 1, 7, 0.73], [11404, 2, 9, 0.94], [991, 2, 7, 1.99], [1309, 1, 7, 1.94], [3982, 3, 22, 2.26], [10093, 3, 21, 1.79], [3143, 3, 7, 1.08], [5513, 2, 7, 1.06], [88, 1, 7, 0.9], [11930, 1, 7, 1.81], [13244, 1, 7, 0.81], [1895, 3, 7, 3.39], [12346, 1, 7, 1.78], [8636, 3, 7, 2.17], [23992, 29, 7, 2.16], [5656, 2, 7, 0.69], [202, 2, 7, 2.29], [5869, 1, 7, 5.0], [7558, 3, 7, 1.46], [19924, 2, 7, 2.62], [4372, 1, 7, 0.87], [12925, 1, 7, 2.11], [12870, 1, 7, 0.96], [10446, 10, 12, 2.2], [12338, 29, 7, 3.89], [5872, 1, 7, 4.41], [10527, 3, 13, 1.87], [20966, 3, 7, 2.61], [5976, 1, 7, 4.22], [9065, 2, 7, 0.69], [11931, 1, 7, 2.62], [1575, 1, 7, 1.67], [2419, 29, 7, 1.81], [11894, 2, 7, 2.06], [3338, 1, 7, 2.1], [10581, 3, 8, 2.54], [3983, 4, 7, 2.02], [10507, 2, 7, 2.29], [11920, 1, 7, 1.75], [23960, 3, 8, 3.02], [20965, 3, 7, 2.61], [13243, 1, 7, 0.89], [24567, 1, 7, 0.8], [22888, 3, 7, 1.39], [2188, 1, 7, 2.42], [10148, 1, 7, 2.65], [10514, 3, 7, 0.81], [10398, 2, 7, 1.36], [19932, 1, 7, 0.98], [4372, 10, 13, 1.08], [9081, 1, 7, 2.52], [1744, 1, 7, 1.83], [7036, 1, 154, 1.81], [8944, 3, 260, 1.81], [964, 15, 118, 2.06], [12344, 1, 721, 1.82], [11583, 29, 66, 1.81], [10147, 1, 78, 1.81], [7567, 3, 83, 1.81], [5736, 2, 59, 1.81], [13498, 3, 710, 1.81], [12350, 1, 721, 1.82], [2438, 1, 40, 1.66], [10093, 3, 963, 1.82], [3143, 3, 354, 1.81], [5513, 2, 91, 1.81], [88, 1, 14, 1.81], [11930, 1, 175, 2.31], [13244, 1, 59, 1.81], [12346, 1, 721, 1.82], [7558, 3, 76, 1.81], [4372, 1, 78, 1.81], [12870, 1, 167, 1.81], [1575, 1, 154, 1.81], [2419, 29, 42, 2.31], [11920, 1, 174, 1.82], [13243, 1, 59, 1.81], [24567, 1, 384, 1.81], [22888, 3, 233, 1.81], [10514, 3, 152, 1.38], [10398, 2, 170, 1.82], [19932, 1, 486, 1.81], [4372, 10, 1240, 1.8]]</t>
+  </si>
+  <si>
+    <t>[[11681, 2, 13, 2.7], [6935, 2, 14, 4.84], [141, 2, 7, 1.01], [362, 2, 7, 0.72], [130, 1, 7, 1.37], [6936, 2, 11, 4.33], [326, 2, 9, 1.97], [1446, 2, 7, 0.82], [2328, 2, 9, 1.65], [8648, 2, 7, 4.78], [11683, 2, 24, 2.38], [1429, 2, 7, 0.92], [21793, 1, 7, 2.64], [2776, 2, 7, 1.06], [3840, 1, 7, 0.92], [593, 2, 7, 0.89], [8853, 2, 10, 3.78], [7036, 1, 7, 1.63], [413, 1, 7, 2.03], [523, 2, 7, 1.21], [5165, 1, 7, 2.02], [10993, 2, 7, 2.66], [7004, 1, 7, 1.32], [1124, 2, 9, 3.28], [201, 3, 7, 4.64], [6097, 80, 7, 0.92], [998, 2, 7, 2.76], [345, 3, 7, 2.48], [6952, 1, 7, 2.73], [6158, 2, 11, 1.11], [2424, 80, 9, 2.05], [1886, 2, 7, 3.72], [24257, 1, 7, 2.4], [7084, 3, 7, 3.02], [997, 2, 7, 2.64], [346, 3, 7, 3.57], [24258, 1, 7, 0.98], [11770, 1, 7, 1.64], [6098, 80, 7, 0.92], [2912, 1, 7, 2.79], [4032, 29, 7, 1.66], [13028, 3, 7, 1.54], [7005, 1, 7, 1.32], [23238, 29, 7, 2.66], [5165, 2, 8, 1.85], [6097, 29, 7, 0.92], [12350, 1, 7, 1.14], [11234, 2, 7, 1.69], [5208, 3, 7, 1.07], [7886, 4, 7, 1.22], [11583, 29, 7, 2.46], [11089, 1, 7, 0.94], [20927, 1, 7, 1.29], [3334, 5, 7, 5.0], [3889, 1, 7, 4.28], [12870, 1, 9, 0.67], [9289, 29, 7, 1.89], [346, 1, 7, 3.08], [3576, 25, 7, 0.85], [950, 1, 7, 2.86], [1490, 1, 7, 2.43], [75, 2, 7, 1.73], [12304, 1, 17, 4.15], [2912, 2, 8, 2.8], [9964, 2, 7, 3.15], [1703, 2, 7, 1.62], [7887, 4, 7, 1.78], [22316, 3, 7, 4.86], [23238, 25, 7, 2.66], [9069, 1, 7, 0.83], [24567, 1, 7, 0.76], [1700, 2, 7, 1.89], [8677, 3, 8, 2.32], [5209, 3, 7, 2.55], [13034, 3, 7, 1.11], [1519, 3, 20, 0.94], [12338, 29, 7, 2.32], [12924, 1, 7, 1.14], [4076, 3, 7, 2.78], [21697, 3, 7, 0.87], [3478, 2, 7, 0.85], [3575, 25, 7, 0.92], [12349, 1, 7, 2.67], [214, 3, 16, 0.97], [23235, 25, 7, 0.92], [2160, 68, 7, 1.12], [6494, 1, 7, 2.44], [4033, 29, 7, 2.64], [12346, 1, 7, 1.14], [161, 3, 8, 0.76], [12353, 1, 7, 1.14], [9910, 25, 7, 1.69], [9372, 1, 7, 1.0], [5584, 3, 7, 0.93], [13251, 29, 7, 1.04], [823, 1, 7, 1.42], [1667, 3, 7, 1.45], [10897, 1, 24, 5.0], [11942, 29, 7, 0.96], [12352, 1, 7, 1.5], [2438, 2, 8, 1.01], [2805, 137, 7, 3.79], [8943, 3, 7, 0.95], [9491, 21, 17, 0.69], [10720, 80, 7, 0.85], [13033, 3, 7, 1.11], [9, 1, 7, 1.85], [66, 16, 7, 0.73], [23380, 25, 7, 0.85], [9081, 3, 13, 1.98], [10609, 1, 7, 3.38], [21699, 3, 7, 1.0], [7567, 3, 7, 3.2], [12925, 1, 7, 1.37], [996, 2, 7, 2.64], [7708, 2, 7, 4.04], [21703, 3, 7, 3.12], [9965, 2, 7, 0.89], [9827, 3, 7, 2.82], [3495, 3, 16, 4.1], [7704, 2, 7, 4.04], [22317, 3, 7, 2.15], [3059, 3, 7, 3.39], [8285, 2, 8, 0.61], [21700, 3, 7, 2.88], [6497, 1, 7, 3.68], [10616, 1, 7, 3.45], [3900, 3, 7, 0.96], [21060, 1, 7, 3.27], [10407, 10, 12, 0.94], [19047, 3, 7, 2.61], [2335, 3, 7, 0.85], [8898, 3, 7, 5.0], [389, 4, 7, 0.94], [24722, 2, 7, 0.85], [7324, 1, 7, 1.2], [220, 4, 7, 2.29], [8557, 3, 7, 0.96], [335, 3, 15, 0.8], [10536, 3, 7, 1.87], [10537, 3, 7, 4.74], [66, 15, 7, 0.71], [6496, 1, 7, 0.92], [955, 2, 7, 1.16], [3462, 2, 7, 0.98], [20969, 3, 8, 1.13], [21701, 3, 7, 2.88], [13498, 3, 7, 1.07], [1523, 1, 7, 1.71], [12538, 3, 13, 3.7], [12229, 2, 7, 1.69], [12647, 1, 7, 4.74], [13243, 2, 12, 0.68], [9082, 3, 21, 2.42], [3016, 68, 7, 2.41], [2695, 3, 7, 2.25], [3047, 3, 7, 1.39], [13036, 3, 7, 1.25], [12346, 1, 724, 1.78], [161, 3, 871, 1.78], [12353, 1, 724, 1.78], [9910, 25, 84, 1.78], [9372, 1, 280, 1.78], [5584, 3, 284, 1.78], [13251, 29, 100, 1.78], [823, 1, 46, 1.78], [1667, 3, 248, 1.78], [11942, 29, 116, 1.78], [12352, 1, 687, 2.26], [2438, 2, 752, 1.78], [8943, 3, 151, 1.34], [9491, 21, 2631, 1.77], [10720, 80, 118, 1.78], [13033, 3, 705, 1.77], [66, 16, 50, 1.6], [23380, 25, 111, 1.78], [21699, 3, 212, 1.78], [12925, 1, 74, 1.78], [9965, 2, 327, 1.78], [8285, 2, 187, 1.33], [3900, 3, 56, 1.78], [10407, 10, 1396, 1.8], [2335, 3, 239, 1.78], [389, 4, 241, 1.78], [24722, 2, 67, 1.78], [7324, 1, 71, 1.78], [8557, 3, 236, 1.78], [335, 3, 1520, 1.78], [66, 15, 100, 1.6], [6496, 1, 47, 1.78], [955, 2, 123, 1.78], [3462, 2, 69, 1.78], [20969, 3, 705, 1.77], [13498, 3, 705, 1.77], [1523, 1, 56, 1.78], [12229, 2, 175, 1.78], [13243, 2, 210, 1.49], [3047, 3, 325, 1.78], [13036, 3, 691, 1.78]]</t>
+  </si>
+  <si>
+    <t>[[8672, 2, 10, 2.68], [130, 1, 7, 1.13], [141, 2, 7, 1.25], [6935, 2, 20, 4.75], [362, 2, 9, 1.42], [990, 2, 9, 1.5], [8675, 2, 12, 2.66], [8915, 2, 10, 1.17], [12721, 2, 17, 2.49], [1776, 1, 11, 2.0], [8648, 2, 11, 3.72], [6936, 2, 12, 5.0], [1777, 1, 7, 1.84], [88, 10, 16, 0.95], [11681, 2, 14, 3.33], [13028, 3, 9, 1.54], [8650, 2, 9, 3.25], [8677, 3, 12, 5.0], [8676, 2, 9, 2.66], [361, 2, 7, 2.22], [11404, 2, 9, 1.11], [2055, 3, 7, 4.89], [3478, 2, 9, 2.02], [8674, 2, 9, 2.66], [9827, 3, 7, 3.64], [7004, 1, 7, 1.73], [45, 2, 11, 2.67], [94, 4, 12, 3.73], [5081, 2, 7, 4.11], [6158, 2, 8, 1.18], [7084, 3, 7, 2.56], [7036, 1, 7, 1.02], [418, 2, 9, 1.67], [8649, 2, 11, 4.04], [192, 3, 25, 5.0], [6097, 29, 7, 2.43], [5080, 2, 11, 3.43], [7005, 1, 7, 2.62], [1504, 2, 9, 2.92], [6097, 80, 7, 2.43], [168, 3, 9, 3.49], [345, 3, 7, 0.74], [9760, 29, 7, 2.06], [24257, 1, 7, 2.3], [12870, 1, 9, 5.0], [20498, 1, 7, 3.0], [13280, 1, 12, 2.01], [5812, 3, 10, 5.0], [1622, 1, 7, 3.3], [346, 1, 7, 2.11], [6098, 29, 7, 1.66], [12924, 1, 7, 2.37], [1490, 1, 7, 0.69], [8853, 2, 8, 2.3], [9829, 3, 11, 3.79], [35, 1, 7, 2.16], [8898, 3, 7, 4.12], [6098, 80, 7, 1.66], [7567, 3, 7, 1.0], [20927, 1, 7, 1.06], [998, 2, 9, 1.71], [1070, 7, 15, 3.32], [1243, 2, 7, 1.61], [346, 3, 8, 4.44], [5513, 2, 7, 1.67], [20498, 3, 15, 3.03], [20486, 1, 7, 2.62], [9081, 3, 26, 2.75], [20486, 3, 17, 4.24], [34, 1, 7, 1.91], [997, 2, 7, 1.75], [22316, 3, 7, 4.45], [24260, 1, 7, 1.67], [12923, 1, 7, 1.04], [13034, 3, 9, 1.46], [8557, 3, 9, 1.46], [9690, 1, 7, 2.14], [952, 4, 7, 0.9], [1413, 15, 7, 1.29], [996, 2, 7, 1.94], [3048, 3, 7, 3.26], [23611, 3, 10, 3.99], [24567, 1, 7, 0.8], [22554, 10, 15, 1.55], [1703, 2, 7, 2.53], [3049, 3, 7, 1.71], [2729, 3, 7, 1.33], [10993, 2, 7, 1.39], [3900, 3, 7, 2.25], [11954, 1, 7, 2.91], [12059, 3, 7, 4.31], [215, 4, 9, 3.07], [9082, 3, 30, 0.94], [13023, 3, 8, 2.39], [2423, 80, 7, 0.75], [5813, 3, 10, 2.99], [11510, 3, 9, 1.53], [18, 1, 7, 1.83], [38, 1, 7, 1.91], [4076, 3, 7, 1.64], [39, 1, 9, 0.94], [10529, 29, 7, 1.37], [8943, 3, 7, 1.56], [9613, 1, 7, 1.26], [995, 2, 7, 3.03], [10780, 10, 7, 2.99], [991, 2, 7, 2.25], [20969, 3, 8, 0.69], [13484, 1, 7, 3.02], [5811, 3, 7, 3.15], [13033, 3, 8, 1.3], [7705, 2, 7, 2.19], [330, 3, 7, 5.0], [9828, 3, 7, 1.58], [7324, 1, 7, 1.71], [22565, 3, 8, 1.49], [823, 1, 7, 1.73], [3047, 3, 7, 2.24], [8104, 1, 7, 2.36], [8897, 3, 7, 3.99], [7704, 2, 7, 2.19], [9, 1, 7, 2.29], [66, 16, 7, 1.31], [3016, 68, 7, 2.38], [9964, 2, 9, 4.04], [5165, 1, 7, 1.21], [3104, 1, 11, 1.39], [11711, 3, 7, 2.32], [5209, 3, 7, 2.55], [21946, 1, 7, 2.16], [2109, 1, 7, 1.75], [24722, 2, 7, 0.9], [5083, 2, 7, 0.75], [7707, 2, 7, 2.19], [23339, 3, 7, 2.98], [3840, 1, 7, 3.81], [2912, 1, 7, 2.45], [5584, 3, 7, 0.92], [12353, 1, 7, 3.14], [1604, 68, 7, 1.02], [10537, 3, 8, 5.0], [3892, 1, 7, 3.68], [1667, 3, 7, 1.37], [9372, 1, 7, 1.19], [12344, 1, 7, 4.8], [220, 4, 7, 1.62], [7573, 1, 9, 4.42], [3894, 1, 7, 3.64], [12346, 1, 7, 3.94], [955, 2, 7, 3.37], [10936, 2, 7, 1.52], [11894, 2, 7, 1.54], [6630, 3, 7, 2.09], [10529, 80, 7, 1.37], [12345, 1, 7, 5.0], [951, 4, 7, 2.1], [949, 10, 7, 2.62], [11953, 1, 7, 1.51], [5086, 3, 8, 0.76], [6494, 1, 7, 0.9], [11586, 1, 11, 3.77], [9289, 29, 7, 3.12], [8926, 1, 7, 1.45], [12661, 1, 7, 3.52], [1309, 1, 7, 0.71], [5812, 1, 7, 3.22], [23992, 29, 7, 1.44], [10939, 2, 7, 1.52], [2438, 2, 8, 3.04], [1070, 2, 7, 2.16], [23341, 3, 7, 2.45], [14037, 3, 7, 0.94], [7703, 2, 7, 2.19], [3059, 3, 7, 0.94], [6424, 3, 7, 2.98], [10941, 2, 7, 1.52], [10530, 80, 7, 1.54], [11813, 1, 7, 0.85], [12764, 2, 8, 0.66], [10530, 29, 7, 1.54], [1602, 68, 7, 0.77], [9613, 1, 65, 1.86], [20969, 3, 658, 1.36], [13033, 3, 668, 1.36], [66, 16, 84, 1.36], [5165, 1, 54, 1.36], [24722, 2, 63, 1.36], [5083, 2, 129, 1.86], [5584, 3, 255, 1.86], [1604, 68, 308, 1.36], [9372, 1, 258, 1.36], [5086, 3, 825, 1.35], [6494, 1, 56, 1.36], [1309, 1, 60, 1.36], [14037, 3, 381, 1.36], [3059, 3, 221, 1.36], [11813, 1, 333, 1.36], [12764, 2, 820, 1.37], [1602, 68, 166, 1.36]]</t>
   </si>
   <si>
     <t>1QD</t>
